--- a/linux.xlsx
+++ b/linux.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="494">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="509">
   <si>
     <t>NTP时间同步</t>
   </si>
@@ -1275,6 +1275,12 @@
     <t>MD5校验</t>
   </si>
   <si>
+    <t>文件效验</t>
+  </si>
+  <si>
+    <t>GPG对称加密</t>
+  </si>
+  <si>
     <t xml:space="preserve">安装包：gnupg2       程序名：gpg </t>
   </si>
   <si>
@@ -1294,6 +1300,65 @@
 gpg --import                    //导入公钥信息
 gpg -b                        //创建分离式数字签名
 gpg --verify                 //验证签名</t>
+  </si>
+  <si>
+    <t>AIDE入侵检测工具</t>
+  </si>
+  <si>
+    <t>AIDE高级入侵检测环境是个入侵检测工具，主要用途是检查文档的完整性。</t>
+  </si>
+  <si>
+    <t>软件包：aide</t>
+  </si>
+  <si>
+    <t>AIDE能够构造一个指定文档的数据库，他使用aide.conf作为其配置文档。AIDE数据库能够保存文档的各种属性，包括：权限(permission)、索引节点序号(inode number)、所属用户(user)、所属用户组(group)、文档大小、最后修改时间(mtime)、创建时间(ctime)、最后访问时间(atime)、增加的大小连同连接数。AIDE还能够使用下列算法：sha1、md5、rmd160、tiger，以密文形式建立每个文档的校验码或散列号。</t>
+  </si>
+  <si>
+    <t>修改配置文件</t>
+  </si>
+  <si>
+    <t>/etc/aide.conf</t>
+  </si>
+  <si>
+    <t>aide --init               //生成校验数据库，数据保存在/var/lib/aide/aide.db.new.gz 
+aide --check             //检查哪些数据发生了变化</t>
+  </si>
+  <si>
+    <t>扫描与抓包分析</t>
+  </si>
+  <si>
+    <t>软件包：nmap             tcpdump</t>
+  </si>
+  <si>
+    <t>NMAP</t>
+  </si>
+  <si>
+    <t>nmap  [扫描类型]  [选项]  &lt;扫描目标 ...&gt;
+                                      //常用的扫描类型
+                                     // -sS，TCP SYN扫描（半开）
+                                    // -sT，TCP 连接扫描（全开）
+                                   // -sU，UDP扫描
+                                  // -sP，ICMP扫描
+                                 // -A，目标系统全面分析</t>
+  </si>
+  <si>
+    <t>tcpdump</t>
+  </si>
+  <si>
+    <t>tcpdump -A host 192.168.4.5 and tcp port 21
+tcpdump: verbose output suppressed, use -v or -vv for full protocol decode
+listening on eth0, link-type EN10MB (Ethernet), capture size 65535 bytes
+.. ..                                            //进入等待捕获数据包的状态
+//监控选项如下：
+// -i，指定监控的网络接口
+// -A，转换为 ACSII 码，以方便阅读
+// -w，将数据包信息保存到指定文件
+// -r，从指定文件读取数据包信息
+//tcpdump的过滤条件：
+// 类型：host、net、port、portrange
+// 方向：src、dst目标
+// 协议：tcp、udp、ip、wlan、arp、……
+// 多个条件组合：and、or、not</t>
   </si>
   <si>
     <t>shell 脚本</t>
@@ -2436,9 +2501,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="48">
     <font>
@@ -2624,24 +2689,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2662,7 +2712,15 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2676,26 +2734,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2717,6 +2759,28 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -2724,8 +2788,16 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2738,8 +2810,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2754,14 +2827,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2800,7 +2865,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2824,13 +2895,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2842,25 +2961,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2872,109 +3039,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2991,17 +3056,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3021,15 +3077,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -3045,17 +3092,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3085,157 +3126,181 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="31" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="28" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="27" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="28" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="45" fillId="31" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="43" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="42" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="79">
+  <cellXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3319,6 +3384,15 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -3823,8 +3897,8 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20.25"/>
   <cols>
-    <col min="1" max="1" width="9" style="77"/>
-    <col min="2" max="2" width="9" style="78"/>
+    <col min="1" max="1" width="9" style="80"/>
+    <col min="2" max="2" width="9" style="81"/>
     <col min="3" max="16384" width="9" style="4"/>
   </cols>
   <sheetData/>
@@ -3847,78 +3921,78 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="18.875" style="25" customWidth="1"/>
-    <col min="2" max="2" width="11.875" style="66" customWidth="1"/>
-    <col min="3" max="3" width="73.125" style="67" customWidth="1"/>
-    <col min="4" max="8" width="9" style="67"/>
-    <col min="9" max="16352" width="9" style="66"/>
-    <col min="16353" max="16384" width="9" style="68"/>
+    <col min="2" max="2" width="11.875" style="69" customWidth="1"/>
+    <col min="3" max="3" width="73.125" style="70" customWidth="1"/>
+    <col min="4" max="8" width="9" style="70"/>
+    <col min="9" max="16352" width="9" style="69"/>
+    <col min="16353" max="16384" width="9" style="71"/>
   </cols>
   <sheetData>
     <row r="1" ht="25" customHeight="1" spans="1:3">
       <c r="A1" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="67" t="s">
+      <c r="C1" s="70" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="2:7">
-      <c r="B2" s="68" t="s">
+      <c r="B2" s="71" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="69"/>
-      <c r="D2" s="69"/>
-      <c r="E2" s="69"/>
-      <c r="F2" s="69"/>
-      <c r="G2" s="69"/>
+      <c r="C2" s="72"/>
+      <c r="D2" s="72"/>
+      <c r="E2" s="72"/>
+      <c r="F2" s="72"/>
+      <c r="G2" s="72"/>
     </row>
     <row r="3" spans="2:2">
-      <c r="B3" s="70" t="s">
+      <c r="B3" s="73" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="4" ht="20" customHeight="1" spans="3:3">
-      <c r="C4" s="71" t="s">
+      <c r="C4" s="74" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="5" ht="48" customHeight="1" spans="3:3">
-      <c r="C5" s="72" t="s">
+      <c r="C5" s="75" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="6" ht="20" customHeight="1" spans="3:3">
-      <c r="C6" s="71" t="s">
+      <c r="C6" s="74" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="7" ht="58" customHeight="1" spans="3:3">
-      <c r="C7" s="72" t="s">
+      <c r="C7" s="75" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="8" ht="21" customHeight="1" spans="3:3">
-      <c r="C8" s="71" t="s">
+      <c r="C8" s="74" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="9" ht="33" customHeight="1" spans="3:3">
-      <c r="C9" s="72" t="s">
+      <c r="C9" s="75" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="10" ht="21" customHeight="1" spans="3:3">
-      <c r="C10" s="71" t="s">
+      <c r="C10" s="74" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="11" ht="43" customHeight="1" spans="3:3">
-      <c r="C11" s="72" t="s">
+      <c r="C11" s="75" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="12" ht="24" customHeight="1" spans="3:3">
-      <c r="C12" s="72"/>
+      <c r="C12" s="75"/>
     </row>
     <row r="13" ht="25" customHeight="1" spans="1:1">
       <c r="A13" s="25" t="s">
@@ -3926,79 +4000,79 @@
       </c>
     </row>
     <row r="14" ht="50" customHeight="1" spans="2:7">
-      <c r="B14" s="73" t="s">
+      <c r="B14" s="76" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="74"/>
-      <c r="D14" s="74"/>
-      <c r="E14" s="74"/>
-      <c r="F14" s="74"/>
-      <c r="G14" s="74"/>
+      <c r="C14" s="77"/>
+      <c r="D14" s="77"/>
+      <c r="E14" s="77"/>
+      <c r="F14" s="77"/>
+      <c r="G14" s="77"/>
     </row>
     <row r="15" ht="50" customHeight="1" spans="2:7">
-      <c r="B15" s="73" t="s">
+      <c r="B15" s="76" t="s">
         <v>14</v>
       </c>
-      <c r="C15" s="74"/>
-      <c r="D15" s="74"/>
-      <c r="E15" s="74"/>
-      <c r="F15" s="74"/>
-      <c r="G15" s="74"/>
+      <c r="C15" s="77"/>
+      <c r="D15" s="77"/>
+      <c r="E15" s="77"/>
+      <c r="F15" s="77"/>
+      <c r="G15" s="77"/>
     </row>
     <row r="16" ht="25" customHeight="1" spans="1:3">
       <c r="A16" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="67" t="s">
+      <c r="C16" s="70" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="17" ht="51" customHeight="1" spans="2:7">
-      <c r="B17" s="73" t="s">
+      <c r="B17" s="76" t="s">
         <v>17</v>
       </c>
-      <c r="C17" s="74"/>
-      <c r="D17" s="74"/>
-      <c r="E17" s="74"/>
-      <c r="F17" s="74"/>
-      <c r="G17" s="74"/>
+      <c r="C17" s="77"/>
+      <c r="D17" s="77"/>
+      <c r="E17" s="77"/>
+      <c r="F17" s="77"/>
+      <c r="G17" s="77"/>
     </row>
     <row r="18" ht="40" customHeight="1" spans="2:7">
-      <c r="B18" s="73" t="s">
+      <c r="B18" s="76" t="s">
         <v>18</v>
       </c>
-      <c r="C18" s="74"/>
-      <c r="D18" s="74"/>
-      <c r="E18" s="74"/>
-      <c r="F18" s="74"/>
-      <c r="G18" s="74"/>
+      <c r="C18" s="77"/>
+      <c r="D18" s="77"/>
+      <c r="E18" s="77"/>
+      <c r="F18" s="77"/>
+      <c r="G18" s="77"/>
     </row>
     <row r="19" spans="2:7">
-      <c r="B19" s="68" t="s">
+      <c r="B19" s="71" t="s">
         <v>19</v>
       </c>
-      <c r="C19" s="69"/>
-      <c r="D19" s="69"/>
-      <c r="E19" s="69"/>
-      <c r="F19" s="69"/>
-      <c r="G19" s="69"/>
+      <c r="C19" s="72"/>
+      <c r="D19" s="72"/>
+      <c r="E19" s="72"/>
+      <c r="F19" s="72"/>
+      <c r="G19" s="72"/>
     </row>
     <row r="20" spans="2:7">
-      <c r="B20" s="68" t="s">
+      <c r="B20" s="71" t="s">
         <v>20</v>
       </c>
-      <c r="C20" s="69"/>
-      <c r="D20" s="69"/>
-      <c r="E20" s="69"/>
-      <c r="F20" s="69"/>
-      <c r="G20" s="69"/>
+      <c r="C20" s="72"/>
+      <c r="D20" s="72"/>
+      <c r="E20" s="72"/>
+      <c r="F20" s="72"/>
+      <c r="G20" s="72"/>
     </row>
     <row r="22" ht="22" customHeight="1" spans="1:7">
       <c r="A22" s="25" t="s">
         <v>21</v>
       </c>
       <c r="B22"/>
-      <c r="C22" s="75" t="s">
+      <c r="C22" s="78" t="s">
         <v>22</v>
       </c>
       <c r="D22"/>
@@ -4008,7 +4082,7 @@
     </row>
     <row r="23" ht="90" customHeight="1" spans="2:7">
       <c r="B23"/>
-      <c r="C23" s="76" t="s">
+      <c r="C23" s="79" t="s">
         <v>23</v>
       </c>
       <c r="D23"/>
@@ -4045,117 +4119,117 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="17.375" style="38" customWidth="1"/>
-    <col min="2" max="2" width="19.5" style="39" customWidth="1"/>
-    <col min="3" max="3" width="16.5" style="40" customWidth="1"/>
-    <col min="4" max="14" width="9" style="40"/>
-    <col min="15" max="15" width="9" style="41"/>
+    <col min="1" max="1" width="17.375" style="41" customWidth="1"/>
+    <col min="2" max="2" width="19.5" style="42" customWidth="1"/>
+    <col min="3" max="3" width="16.5" style="43" customWidth="1"/>
+    <col min="4" max="14" width="9" style="43"/>
+    <col min="15" max="15" width="9" style="44"/>
     <col min="16" max="16" width="9" style="4"/>
-    <col min="17" max="16384" width="9" style="39"/>
+    <col min="17" max="16384" width="9" style="42"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="41" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="42" t="s">
+      <c r="B1" s="45" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="43" t="s">
+      <c r="C1" s="46" t="s">
         <v>26</v>
       </c>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="43"/>
-      <c r="G1" s="43"/>
-      <c r="H1" s="43"/>
-      <c r="I1" s="43"/>
-      <c r="J1" s="43"/>
-      <c r="K1" s="43"/>
-      <c r="L1" s="43"/>
-      <c r="M1" s="43"/>
-      <c r="N1" s="43"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
+      <c r="H1" s="46"/>
+      <c r="I1" s="46"/>
+      <c r="J1" s="46"/>
+      <c r="K1" s="46"/>
+      <c r="L1" s="46"/>
+      <c r="M1" s="46"/>
+      <c r="N1" s="46"/>
     </row>
     <row r="2" spans="2:2">
-      <c r="B2" s="39" t="s">
+      <c r="B2" s="42" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:1">
-      <c r="A4" s="38" t="s">
+      <c r="A4" s="41" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="5" spans="2:14">
-      <c r="B5" s="44" t="s">
+      <c r="B5" s="47" t="s">
         <v>29</v>
       </c>
-      <c r="C5" s="43"/>
-      <c r="D5" s="43"/>
-      <c r="E5" s="43"/>
-      <c r="F5" s="43"/>
-      <c r="G5" s="43"/>
-      <c r="H5" s="43"/>
-      <c r="I5" s="43"/>
-      <c r="J5" s="43"/>
-      <c r="K5" s="43"/>
-      <c r="L5" s="43"/>
-      <c r="M5" s="43"/>
-      <c r="N5" s="43"/>
+      <c r="C5" s="46"/>
+      <c r="D5" s="46"/>
+      <c r="E5" s="46"/>
+      <c r="F5" s="46"/>
+      <c r="G5" s="46"/>
+      <c r="H5" s="46"/>
+      <c r="I5" s="46"/>
+      <c r="J5" s="46"/>
+      <c r="K5" s="46"/>
+      <c r="L5" s="46"/>
+      <c r="M5" s="46"/>
+      <c r="N5" s="46"/>
     </row>
     <row r="6" spans="2:14">
-      <c r="B6" s="44" t="s">
+      <c r="B6" s="47" t="s">
         <v>30</v>
       </c>
-      <c r="C6" s="43"/>
-      <c r="D6" s="43"/>
-      <c r="E6" s="43"/>
-      <c r="F6" s="43"/>
-      <c r="G6" s="43"/>
-      <c r="H6" s="43"/>
-      <c r="I6" s="43"/>
-      <c r="J6" s="43"/>
-      <c r="K6" s="43"/>
-      <c r="L6" s="43"/>
-      <c r="M6" s="43"/>
-      <c r="N6" s="43"/>
+      <c r="C6" s="46"/>
+      <c r="D6" s="46"/>
+      <c r="E6" s="46"/>
+      <c r="F6" s="46"/>
+      <c r="G6" s="46"/>
+      <c r="H6" s="46"/>
+      <c r="I6" s="46"/>
+      <c r="J6" s="46"/>
+      <c r="K6" s="46"/>
+      <c r="L6" s="46"/>
+      <c r="M6" s="46"/>
+      <c r="N6" s="46"/>
     </row>
     <row r="7" spans="2:14">
-      <c r="B7" s="44" t="s">
+      <c r="B7" s="47" t="s">
         <v>31</v>
       </c>
-      <c r="C7" s="43"/>
-      <c r="D7" s="43"/>
-      <c r="E7" s="43"/>
-      <c r="F7" s="43"/>
-      <c r="G7" s="43"/>
-      <c r="H7" s="43"/>
-      <c r="I7" s="43"/>
-      <c r="J7" s="43"/>
-      <c r="K7" s="43"/>
-      <c r="L7" s="43"/>
-      <c r="M7" s="43"/>
-      <c r="N7" s="43"/>
+      <c r="C7" s="46"/>
+      <c r="D7" s="46"/>
+      <c r="E7" s="46"/>
+      <c r="F7" s="46"/>
+      <c r="G7" s="46"/>
+      <c r="H7" s="46"/>
+      <c r="I7" s="46"/>
+      <c r="J7" s="46"/>
+      <c r="K7" s="46"/>
+      <c r="L7" s="46"/>
+      <c r="M7" s="46"/>
+      <c r="N7" s="46"/>
     </row>
     <row r="8" spans="2:14">
-      <c r="B8" s="45" t="s">
+      <c r="B8" s="48" t="s">
         <v>32</v>
       </c>
-      <c r="C8" s="46"/>
-      <c r="D8" s="46"/>
-      <c r="E8" s="46"/>
-      <c r="F8" s="46"/>
-      <c r="G8" s="46"/>
-      <c r="H8" s="46"/>
-      <c r="I8" s="46"/>
-      <c r="J8" s="46"/>
-      <c r="K8" s="46"/>
-      <c r="L8" s="46"/>
-      <c r="M8" s="46"/>
-      <c r="N8" s="46"/>
+      <c r="C8" s="49"/>
+      <c r="D8" s="49"/>
+      <c r="E8" s="49"/>
+      <c r="F8" s="49"/>
+      <c r="G8" s="49"/>
+      <c r="H8" s="49"/>
+      <c r="I8" s="49"/>
+      <c r="J8" s="49"/>
+      <c r="K8" s="49"/>
+      <c r="L8" s="49"/>
+      <c r="M8" s="49"/>
+      <c r="N8" s="49"/>
     </row>
     <row r="9" spans="2:14">
-      <c r="B9" s="47" t="s">
+      <c r="B9" s="50" t="s">
         <v>33</v>
       </c>
       <c r="C9" s="18" t="s">
@@ -4174,1169 +4248,1169 @@
       <c r="N9" s="18"/>
     </row>
     <row r="10" spans="2:14">
-      <c r="B10" s="44" t="s">
+      <c r="B10" s="47" t="s">
         <v>35</v>
       </c>
-      <c r="C10" s="43"/>
-      <c r="D10" s="43"/>
-      <c r="E10" s="43"/>
-      <c r="F10" s="43"/>
-      <c r="G10" s="43"/>
-      <c r="H10" s="43"/>
-      <c r="I10" s="43"/>
-      <c r="J10" s="43"/>
-      <c r="K10" s="43"/>
-      <c r="L10" s="43"/>
-      <c r="M10" s="43"/>
-      <c r="N10" s="43"/>
+      <c r="C10" s="46"/>
+      <c r="D10" s="46"/>
+      <c r="E10" s="46"/>
+      <c r="F10" s="46"/>
+      <c r="G10" s="46"/>
+      <c r="H10" s="46"/>
+      <c r="I10" s="46"/>
+      <c r="J10" s="46"/>
+      <c r="K10" s="46"/>
+      <c r="L10" s="46"/>
+      <c r="M10" s="46"/>
+      <c r="N10" s="46"/>
     </row>
     <row r="11" spans="2:14">
-      <c r="B11" s="44"/>
-      <c r="C11" s="43" t="s">
+      <c r="B11" s="47"/>
+      <c r="C11" s="46" t="s">
         <v>36</v>
       </c>
-      <c r="D11" s="43"/>
-      <c r="E11" s="43"/>
-      <c r="F11" s="43"/>
-      <c r="G11" s="43"/>
-      <c r="H11" s="43"/>
-      <c r="I11" s="43"/>
-      <c r="J11" s="43"/>
-      <c r="K11" s="43"/>
-      <c r="L11" s="43"/>
-      <c r="M11" s="43"/>
-      <c r="N11" s="43"/>
+      <c r="D11" s="46"/>
+      <c r="E11" s="46"/>
+      <c r="F11" s="46"/>
+      <c r="G11" s="46"/>
+      <c r="H11" s="46"/>
+      <c r="I11" s="46"/>
+      <c r="J11" s="46"/>
+      <c r="K11" s="46"/>
+      <c r="L11" s="46"/>
+      <c r="M11" s="46"/>
+      <c r="N11" s="46"/>
     </row>
     <row r="12" spans="2:14">
-      <c r="B12" s="44" t="s">
+      <c r="B12" s="47" t="s">
         <v>37</v>
       </c>
-      <c r="C12" s="43"/>
-      <c r="D12" s="43"/>
-      <c r="E12" s="43"/>
-      <c r="F12" s="43"/>
-      <c r="G12" s="43"/>
-      <c r="H12" s="43"/>
-      <c r="I12" s="43"/>
-      <c r="J12" s="43"/>
-      <c r="K12" s="43"/>
-      <c r="L12" s="43"/>
-      <c r="M12" s="43"/>
-      <c r="N12" s="43"/>
+      <c r="C12" s="46"/>
+      <c r="D12" s="46"/>
+      <c r="E12" s="46"/>
+      <c r="F12" s="46"/>
+      <c r="G12" s="46"/>
+      <c r="H12" s="46"/>
+      <c r="I12" s="46"/>
+      <c r="J12" s="46"/>
+      <c r="K12" s="46"/>
+      <c r="L12" s="46"/>
+      <c r="M12" s="46"/>
+      <c r="N12" s="46"/>
     </row>
     <row r="13" ht="39" customHeight="1" spans="2:14">
-      <c r="B13" s="44"/>
-      <c r="C13" s="79" t="s">
+      <c r="B13" s="47"/>
+      <c r="C13" s="82" t="s">
         <v>38</v>
       </c>
-      <c r="D13" s="43"/>
-      <c r="E13" s="43"/>
-      <c r="F13" s="43"/>
-      <c r="G13" s="43"/>
-      <c r="H13" s="43"/>
-      <c r="I13" s="43"/>
-      <c r="J13" s="43"/>
-      <c r="K13" s="43"/>
-      <c r="L13" s="43"/>
-      <c r="M13" s="43"/>
-      <c r="N13" s="43"/>
+      <c r="D13" s="46"/>
+      <c r="E13" s="46"/>
+      <c r="F13" s="46"/>
+      <c r="G13" s="46"/>
+      <c r="H13" s="46"/>
+      <c r="I13" s="46"/>
+      <c r="J13" s="46"/>
+      <c r="K13" s="46"/>
+      <c r="L13" s="46"/>
+      <c r="M13" s="46"/>
+      <c r="N13" s="46"/>
     </row>
     <row r="14" ht="42" customHeight="1" spans="2:14">
-      <c r="B14" s="44" t="s">
+      <c r="B14" s="47" t="s">
         <v>39</v>
       </c>
-      <c r="C14" s="48" t="s">
+      <c r="C14" s="51" t="s">
         <v>40</v>
       </c>
-      <c r="D14" s="48"/>
-      <c r="E14" s="48"/>
-      <c r="F14" s="48"/>
-      <c r="G14" s="48"/>
-      <c r="H14" s="48"/>
-      <c r="I14" s="48"/>
-      <c r="J14" s="48"/>
-      <c r="K14" s="48"/>
-      <c r="L14" s="48"/>
-      <c r="M14" s="48"/>
-      <c r="N14" s="48"/>
+      <c r="D14" s="51"/>
+      <c r="E14" s="51"/>
+      <c r="F14" s="51"/>
+      <c r="G14" s="51"/>
+      <c r="H14" s="51"/>
+      <c r="I14" s="51"/>
+      <c r="J14" s="51"/>
+      <c r="K14" s="51"/>
+      <c r="L14" s="51"/>
+      <c r="M14" s="51"/>
+      <c r="N14" s="51"/>
     </row>
     <row r="16" ht="34" customHeight="1" spans="1:14">
-      <c r="A16" s="38" t="s">
+      <c r="A16" s="41" t="s">
         <v>41</v>
       </c>
-      <c r="B16" s="49" t="s">
+      <c r="B16" s="52" t="s">
         <v>42</v>
       </c>
-      <c r="C16" s="50" t="s">
+      <c r="C16" s="53" t="s">
         <v>43</v>
       </c>
-      <c r="D16" s="43"/>
-      <c r="E16" s="43"/>
-      <c r="F16" s="43"/>
-      <c r="G16" s="43"/>
-      <c r="H16" s="43"/>
-      <c r="I16" s="43"/>
-      <c r="J16" s="43"/>
-      <c r="K16" s="43"/>
-      <c r="L16" s="43"/>
-      <c r="M16" s="43"/>
-      <c r="N16" s="43"/>
+      <c r="D16" s="46"/>
+      <c r="E16" s="46"/>
+      <c r="F16" s="46"/>
+      <c r="G16" s="46"/>
+      <c r="H16" s="46"/>
+      <c r="I16" s="46"/>
+      <c r="J16" s="46"/>
+      <c r="K16" s="46"/>
+      <c r="L16" s="46"/>
+      <c r="M16" s="46"/>
+      <c r="N16" s="46"/>
     </row>
     <row r="17" ht="39" customHeight="1" spans="2:14">
-      <c r="B17" s="47" t="s">
+      <c r="B17" s="50" t="s">
         <v>44</v>
       </c>
-      <c r="C17" s="48"/>
-      <c r="D17" s="48"/>
-      <c r="E17" s="48"/>
-      <c r="F17" s="48"/>
-      <c r="G17" s="48"/>
-      <c r="H17" s="48"/>
-      <c r="I17" s="48"/>
-      <c r="J17" s="48"/>
-      <c r="K17" s="48"/>
-      <c r="L17" s="48"/>
-      <c r="M17" s="48"/>
-      <c r="N17" s="48"/>
+      <c r="C17" s="51"/>
+      <c r="D17" s="51"/>
+      <c r="E17" s="51"/>
+      <c r="F17" s="51"/>
+      <c r="G17" s="51"/>
+      <c r="H17" s="51"/>
+      <c r="I17" s="51"/>
+      <c r="J17" s="51"/>
+      <c r="K17" s="51"/>
+      <c r="L17" s="51"/>
+      <c r="M17" s="51"/>
+      <c r="N17" s="51"/>
     </row>
     <row r="18" spans="2:2">
-      <c r="B18" s="49" t="s">
+      <c r="B18" s="52" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="19" ht="79" customHeight="1" spans="3:14">
-      <c r="C19" s="48" t="s">
+      <c r="C19" s="51" t="s">
         <v>46</v>
       </c>
-      <c r="D19" s="48"/>
-      <c r="E19" s="48"/>
-      <c r="F19" s="48"/>
-      <c r="G19" s="48"/>
-      <c r="H19" s="48"/>
-      <c r="I19" s="48"/>
-      <c r="J19" s="48"/>
-      <c r="K19" s="48"/>
-      <c r="L19" s="48"/>
-      <c r="M19" s="48"/>
-      <c r="N19" s="48"/>
+      <c r="D19" s="51"/>
+      <c r="E19" s="51"/>
+      <c r="F19" s="51"/>
+      <c r="G19" s="51"/>
+      <c r="H19" s="51"/>
+      <c r="I19" s="51"/>
+      <c r="J19" s="51"/>
+      <c r="K19" s="51"/>
+      <c r="L19" s="51"/>
+      <c r="M19" s="51"/>
+      <c r="N19" s="51"/>
     </row>
     <row r="20" ht="25" customHeight="1" spans="2:2">
-      <c r="B20" s="49" t="s">
+      <c r="B20" s="52" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="21" ht="58" customHeight="1" spans="3:14">
-      <c r="C21" s="48" t="s">
+      <c r="C21" s="51" t="s">
         <v>48</v>
       </c>
-      <c r="D21" s="48"/>
-      <c r="E21" s="48"/>
-      <c r="F21" s="48"/>
-      <c r="G21" s="48"/>
-      <c r="H21" s="48"/>
-      <c r="I21" s="48"/>
-      <c r="J21" s="48"/>
-      <c r="K21" s="48"/>
-      <c r="L21" s="48"/>
-      <c r="M21" s="48"/>
-      <c r="N21" s="48"/>
+      <c r="D21" s="51"/>
+      <c r="E21" s="51"/>
+      <c r="F21" s="51"/>
+      <c r="G21" s="51"/>
+      <c r="H21" s="51"/>
+      <c r="I21" s="51"/>
+      <c r="J21" s="51"/>
+      <c r="K21" s="51"/>
+      <c r="L21" s="51"/>
+      <c r="M21" s="51"/>
+      <c r="N21" s="51"/>
     </row>
     <row r="22" spans="2:2">
-      <c r="B22" s="49" t="s">
+      <c r="B22" s="52" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="23" ht="78" customHeight="1" spans="3:14">
-      <c r="C23" s="48" t="s">
+      <c r="C23" s="51" t="s">
         <v>50</v>
       </c>
-      <c r="D23" s="48"/>
-      <c r="E23" s="48"/>
-      <c r="F23" s="48"/>
-      <c r="G23" s="48"/>
-      <c r="H23" s="48"/>
-      <c r="I23" s="48"/>
-      <c r="J23" s="48"/>
-      <c r="K23" s="48"/>
-      <c r="L23" s="48"/>
-      <c r="M23" s="48"/>
-      <c r="N23" s="48"/>
+      <c r="D23" s="51"/>
+      <c r="E23" s="51"/>
+      <c r="F23" s="51"/>
+      <c r="G23" s="51"/>
+      <c r="H23" s="51"/>
+      <c r="I23" s="51"/>
+      <c r="J23" s="51"/>
+      <c r="K23" s="51"/>
+      <c r="L23" s="51"/>
+      <c r="M23" s="51"/>
+      <c r="N23" s="51"/>
     </row>
     <row r="24" spans="2:14">
-      <c r="B24" s="44" t="s">
+      <c r="B24" s="47" t="s">
         <v>51</v>
       </c>
-      <c r="C24" s="43"/>
-      <c r="D24" s="43"/>
-      <c r="E24" s="43"/>
-      <c r="F24" s="43"/>
-      <c r="G24" s="43"/>
-      <c r="H24" s="43"/>
-      <c r="I24" s="43"/>
-      <c r="J24" s="43"/>
-      <c r="K24" s="43"/>
-      <c r="L24" s="43"/>
-      <c r="M24" s="43"/>
-      <c r="N24" s="43"/>
+      <c r="C24" s="46"/>
+      <c r="D24" s="46"/>
+      <c r="E24" s="46"/>
+      <c r="F24" s="46"/>
+      <c r="G24" s="46"/>
+      <c r="H24" s="46"/>
+      <c r="I24" s="46"/>
+      <c r="J24" s="46"/>
+      <c r="K24" s="46"/>
+      <c r="L24" s="46"/>
+      <c r="M24" s="46"/>
+      <c r="N24" s="46"/>
     </row>
     <row r="25" spans="2:14">
-      <c r="B25" s="44" t="s">
+      <c r="B25" s="47" t="s">
         <v>52</v>
       </c>
-      <c r="C25" s="44"/>
-      <c r="D25" s="44"/>
-      <c r="E25" s="44"/>
-      <c r="F25" s="44"/>
-      <c r="G25" s="44"/>
-      <c r="H25" s="44"/>
-      <c r="I25" s="44"/>
-      <c r="J25" s="44"/>
-      <c r="K25" s="44"/>
-      <c r="L25" s="44"/>
-      <c r="M25" s="44"/>
-      <c r="N25" s="44"/>
+      <c r="C25" s="47"/>
+      <c r="D25" s="47"/>
+      <c r="E25" s="47"/>
+      <c r="F25" s="47"/>
+      <c r="G25" s="47"/>
+      <c r="H25" s="47"/>
+      <c r="I25" s="47"/>
+      <c r="J25" s="47"/>
+      <c r="K25" s="47"/>
+      <c r="L25" s="47"/>
+      <c r="M25" s="47"/>
+      <c r="N25" s="47"/>
     </row>
     <row r="26" spans="2:14">
-      <c r="B26" s="44"/>
-      <c r="C26" s="43"/>
-      <c r="D26" s="43"/>
-      <c r="E26" s="43"/>
-      <c r="F26" s="43"/>
-      <c r="G26" s="43"/>
-      <c r="H26" s="43"/>
-      <c r="I26" s="43"/>
-      <c r="J26" s="43"/>
-      <c r="K26" s="43"/>
-      <c r="L26" s="43"/>
-      <c r="M26" s="43"/>
-      <c r="N26" s="43"/>
+      <c r="B26" s="47"/>
+      <c r="C26" s="46"/>
+      <c r="D26" s="46"/>
+      <c r="E26" s="46"/>
+      <c r="F26" s="46"/>
+      <c r="G26" s="46"/>
+      <c r="H26" s="46"/>
+      <c r="I26" s="46"/>
+      <c r="J26" s="46"/>
+      <c r="K26" s="46"/>
+      <c r="L26" s="46"/>
+      <c r="M26" s="46"/>
+      <c r="N26" s="46"/>
     </row>
     <row r="27" spans="2:14">
-      <c r="B27" s="44"/>
-      <c r="C27" s="43"/>
-      <c r="D27" s="43"/>
-      <c r="E27" s="43"/>
-      <c r="F27" s="43"/>
-      <c r="G27" s="43"/>
-      <c r="H27" s="43"/>
-      <c r="I27" s="43"/>
-      <c r="J27" s="43"/>
-      <c r="K27" s="43"/>
-      <c r="L27" s="43"/>
-      <c r="M27" s="43"/>
-      <c r="N27" s="43"/>
+      <c r="B27" s="47"/>
+      <c r="C27" s="46"/>
+      <c r="D27" s="46"/>
+      <c r="E27" s="46"/>
+      <c r="F27" s="46"/>
+      <c r="G27" s="46"/>
+      <c r="H27" s="46"/>
+      <c r="I27" s="46"/>
+      <c r="J27" s="46"/>
+      <c r="K27" s="46"/>
+      <c r="L27" s="46"/>
+      <c r="M27" s="46"/>
+      <c r="N27" s="46"/>
     </row>
     <row r="28" spans="2:14">
-      <c r="B28" s="44"/>
-      <c r="C28" s="43"/>
-      <c r="D28" s="43"/>
-      <c r="E28" s="43"/>
-      <c r="F28" s="43"/>
-      <c r="G28" s="43"/>
-      <c r="H28" s="43"/>
-      <c r="I28" s="43"/>
-      <c r="J28" s="43"/>
-      <c r="K28" s="43"/>
-      <c r="L28" s="43"/>
-      <c r="M28" s="43"/>
-      <c r="N28" s="43"/>
+      <c r="B28" s="47"/>
+      <c r="C28" s="46"/>
+      <c r="D28" s="46"/>
+      <c r="E28" s="46"/>
+      <c r="F28" s="46"/>
+      <c r="G28" s="46"/>
+      <c r="H28" s="46"/>
+      <c r="I28" s="46"/>
+      <c r="J28" s="46"/>
+      <c r="K28" s="46"/>
+      <c r="L28" s="46"/>
+      <c r="M28" s="46"/>
+      <c r="N28" s="46"/>
     </row>
     <row r="29" spans="2:14">
-      <c r="B29" s="44"/>
-      <c r="C29" s="43"/>
-      <c r="D29" s="43"/>
-      <c r="E29" s="43"/>
-      <c r="F29" s="43"/>
-      <c r="G29" s="43"/>
-      <c r="H29" s="43"/>
-      <c r="I29" s="43"/>
-      <c r="J29" s="43"/>
-      <c r="K29" s="43"/>
-      <c r="L29" s="43"/>
-      <c r="M29" s="43"/>
-      <c r="N29" s="43"/>
+      <c r="B29" s="47"/>
+      <c r="C29" s="46"/>
+      <c r="D29" s="46"/>
+      <c r="E29" s="46"/>
+      <c r="F29" s="46"/>
+      <c r="G29" s="46"/>
+      <c r="H29" s="46"/>
+      <c r="I29" s="46"/>
+      <c r="J29" s="46"/>
+      <c r="K29" s="46"/>
+      <c r="L29" s="46"/>
+      <c r="M29" s="46"/>
+      <c r="N29" s="46"/>
     </row>
     <row r="30" ht="19" customHeight="1" spans="1:3">
-      <c r="A30" s="38" t="s">
+      <c r="A30" s="41" t="s">
         <v>53</v>
       </c>
-      <c r="B30" s="49" t="s">
+      <c r="B30" s="52" t="s">
         <v>54</v>
       </c>
-      <c r="C30" s="51" t="s">
+      <c r="C30" s="54" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="31" ht="71" customHeight="1" spans="2:15">
-      <c r="B31" s="52" t="s">
+      <c r="B31" s="55" t="s">
         <v>56</v>
       </c>
-      <c r="C31" s="52"/>
-      <c r="D31" s="52"/>
-      <c r="E31" s="52"/>
-      <c r="F31" s="52"/>
-      <c r="G31" s="52"/>
-      <c r="H31" s="52"/>
-      <c r="I31" s="52"/>
-      <c r="J31" s="52"/>
-      <c r="K31" s="52"/>
-      <c r="L31" s="52"/>
-      <c r="M31" s="52"/>
-      <c r="N31" s="52"/>
-      <c r="O31" s="57"/>
+      <c r="C31" s="55"/>
+      <c r="D31" s="55"/>
+      <c r="E31" s="55"/>
+      <c r="F31" s="55"/>
+      <c r="G31" s="55"/>
+      <c r="H31" s="55"/>
+      <c r="I31" s="55"/>
+      <c r="J31" s="55"/>
+      <c r="K31" s="55"/>
+      <c r="L31" s="55"/>
+      <c r="M31" s="55"/>
+      <c r="N31" s="55"/>
+      <c r="O31" s="60"/>
     </row>
     <row r="32" spans="2:14">
-      <c r="B32" s="53" t="s">
+      <c r="B32" s="56" t="s">
         <v>57</v>
       </c>
-      <c r="C32" s="54"/>
-      <c r="D32" s="54"/>
-      <c r="E32" s="54"/>
-      <c r="F32" s="54"/>
-      <c r="G32" s="54"/>
-      <c r="H32" s="54"/>
-      <c r="I32" s="54"/>
-      <c r="J32" s="54"/>
-      <c r="K32" s="54"/>
-      <c r="L32" s="54"/>
-      <c r="M32" s="54"/>
-      <c r="N32" s="54"/>
+      <c r="C32" s="57"/>
+      <c r="D32" s="57"/>
+      <c r="E32" s="57"/>
+      <c r="F32" s="57"/>
+      <c r="G32" s="57"/>
+      <c r="H32" s="57"/>
+      <c r="I32" s="57"/>
+      <c r="J32" s="57"/>
+      <c r="K32" s="57"/>
+      <c r="L32" s="57"/>
+      <c r="M32" s="57"/>
+      <c r="N32" s="57"/>
     </row>
     <row r="34" spans="1:1">
-      <c r="A34" s="38" t="s">
+      <c r="A34" s="41" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="35" ht="60" customHeight="1" spans="2:15">
-      <c r="B35" s="47" t="s">
+      <c r="B35" s="50" t="s">
         <v>59</v>
       </c>
-      <c r="C35" s="48"/>
-      <c r="D35" s="48"/>
-      <c r="E35" s="48"/>
-      <c r="F35" s="48"/>
-      <c r="G35" s="48"/>
-      <c r="H35" s="48"/>
-      <c r="I35" s="48"/>
-      <c r="J35" s="48"/>
-      <c r="K35" s="48"/>
-      <c r="L35" s="48"/>
-      <c r="M35" s="48"/>
-      <c r="N35" s="48"/>
-      <c r="O35" s="58"/>
+      <c r="C35" s="51"/>
+      <c r="D35" s="51"/>
+      <c r="E35" s="51"/>
+      <c r="F35" s="51"/>
+      <c r="G35" s="51"/>
+      <c r="H35" s="51"/>
+      <c r="I35" s="51"/>
+      <c r="J35" s="51"/>
+      <c r="K35" s="51"/>
+      <c r="L35" s="51"/>
+      <c r="M35" s="51"/>
+      <c r="N35" s="51"/>
+      <c r="O35" s="61"/>
     </row>
     <row r="36" ht="55" customHeight="1" spans="2:15">
-      <c r="B36" s="47" t="s">
+      <c r="B36" s="50" t="s">
         <v>60</v>
       </c>
-      <c r="C36" s="48"/>
-      <c r="D36" s="48"/>
-      <c r="E36" s="48"/>
-      <c r="F36" s="48"/>
-      <c r="G36" s="48"/>
-      <c r="H36" s="48"/>
-      <c r="I36" s="48"/>
-      <c r="J36" s="48"/>
-      <c r="K36" s="48"/>
-      <c r="L36" s="48"/>
-      <c r="M36" s="48"/>
-      <c r="N36" s="48"/>
-      <c r="O36" s="58"/>
+      <c r="C36" s="51"/>
+      <c r="D36" s="51"/>
+      <c r="E36" s="51"/>
+      <c r="F36" s="51"/>
+      <c r="G36" s="51"/>
+      <c r="H36" s="51"/>
+      <c r="I36" s="51"/>
+      <c r="J36" s="51"/>
+      <c r="K36" s="51"/>
+      <c r="L36" s="51"/>
+      <c r="M36" s="51"/>
+      <c r="N36" s="51"/>
+      <c r="O36" s="61"/>
     </row>
     <row r="37" ht="20" customHeight="1" spans="2:15">
-      <c r="B37" s="44" t="s">
+      <c r="B37" s="47" t="s">
         <v>61</v>
       </c>
-      <c r="C37" s="43"/>
-      <c r="D37" s="43"/>
-      <c r="E37" s="43"/>
-      <c r="F37" s="43"/>
-      <c r="G37" s="43"/>
-      <c r="H37" s="43"/>
-      <c r="I37" s="43"/>
-      <c r="J37" s="43"/>
-      <c r="K37" s="43"/>
-      <c r="L37" s="43"/>
-      <c r="M37" s="43"/>
-      <c r="N37" s="43"/>
-      <c r="O37" s="59"/>
+      <c r="C37" s="46"/>
+      <c r="D37" s="46"/>
+      <c r="E37" s="46"/>
+      <c r="F37" s="46"/>
+      <c r="G37" s="46"/>
+      <c r="H37" s="46"/>
+      <c r="I37" s="46"/>
+      <c r="J37" s="46"/>
+      <c r="K37" s="46"/>
+      <c r="L37" s="46"/>
+      <c r="M37" s="46"/>
+      <c r="N37" s="46"/>
+      <c r="O37" s="62"/>
     </row>
     <row r="38" ht="21" customHeight="1" spans="2:3">
-      <c r="B38" s="55" t="s">
+      <c r="B38" s="58" t="s">
         <v>62</v>
       </c>
-      <c r="C38" s="51"/>
+      <c r="C38" s="54"/>
     </row>
     <row r="39" ht="54" customHeight="1" spans="2:14">
-      <c r="B39" s="55"/>
-      <c r="C39" s="51" t="s">
+      <c r="B39" s="58"/>
+      <c r="C39" s="54" t="s">
         <v>63</v>
       </c>
-      <c r="D39" s="48" t="s">
+      <c r="D39" s="51" t="s">
         <v>64</v>
       </c>
-      <c r="E39" s="48"/>
-      <c r="F39" s="48"/>
-      <c r="G39" s="48"/>
-      <c r="H39" s="48"/>
-      <c r="I39" s="48"/>
-      <c r="J39" s="48"/>
-      <c r="K39" s="48"/>
-      <c r="L39" s="48"/>
-      <c r="M39" s="48"/>
-      <c r="N39" s="48"/>
+      <c r="E39" s="51"/>
+      <c r="F39" s="51"/>
+      <c r="G39" s="51"/>
+      <c r="H39" s="51"/>
+      <c r="I39" s="51"/>
+      <c r="J39" s="51"/>
+      <c r="K39" s="51"/>
+      <c r="L39" s="51"/>
+      <c r="M39" s="51"/>
+      <c r="N39" s="51"/>
     </row>
     <row r="40" ht="21" customHeight="1" spans="2:3">
-      <c r="B40" s="55"/>
-      <c r="C40" s="51" t="s">
+      <c r="B40" s="58"/>
+      <c r="C40" s="54" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="41" ht="72" customHeight="1" spans="2:14">
-      <c r="B41" s="55"/>
-      <c r="C41" s="51" t="s">
+      <c r="B41" s="58"/>
+      <c r="C41" s="54" t="s">
         <v>66</v>
       </c>
-      <c r="D41" s="48" t="s">
+      <c r="D41" s="51" t="s">
         <v>67</v>
       </c>
-      <c r="E41" s="48"/>
-      <c r="F41" s="48"/>
-      <c r="G41" s="48"/>
-      <c r="H41" s="48"/>
-      <c r="I41" s="48"/>
-      <c r="J41" s="48"/>
-      <c r="K41" s="48"/>
-      <c r="L41" s="48"/>
-      <c r="M41" s="48"/>
-      <c r="N41" s="48"/>
+      <c r="E41" s="51"/>
+      <c r="F41" s="51"/>
+      <c r="G41" s="51"/>
+      <c r="H41" s="51"/>
+      <c r="I41" s="51"/>
+      <c r="J41" s="51"/>
+      <c r="K41" s="51"/>
+      <c r="L41" s="51"/>
+      <c r="M41" s="51"/>
+      <c r="N41" s="51"/>
     </row>
     <row r="42" ht="39" customHeight="1" spans="2:14">
-      <c r="B42" s="55"/>
-      <c r="C42" s="51" t="s">
+      <c r="B42" s="58"/>
+      <c r="C42" s="54" t="s">
         <v>68</v>
       </c>
-      <c r="D42" s="48" t="s">
+      <c r="D42" s="51" t="s">
         <v>69</v>
       </c>
-      <c r="E42" s="43"/>
-      <c r="F42" s="43"/>
-      <c r="G42" s="43"/>
-      <c r="H42" s="43"/>
-      <c r="I42" s="43"/>
-      <c r="J42" s="43"/>
-      <c r="K42" s="43"/>
-      <c r="L42" s="43"/>
-      <c r="M42" s="43"/>
-      <c r="N42" s="43"/>
+      <c r="E42" s="46"/>
+      <c r="F42" s="46"/>
+      <c r="G42" s="46"/>
+      <c r="H42" s="46"/>
+      <c r="I42" s="46"/>
+      <c r="J42" s="46"/>
+      <c r="K42" s="46"/>
+      <c r="L42" s="46"/>
+      <c r="M42" s="46"/>
+      <c r="N42" s="46"/>
     </row>
     <row r="43" ht="21" customHeight="1" spans="2:4">
-      <c r="B43" s="55"/>
-      <c r="C43" s="51" t="s">
+      <c r="B43" s="58"/>
+      <c r="C43" s="54" t="s">
         <v>70</v>
       </c>
-      <c r="D43" s="51"/>
+      <c r="D43" s="54"/>
     </row>
     <row r="44" ht="66" customHeight="1" spans="2:14">
-      <c r="B44" s="55"/>
-      <c r="C44" s="51"/>
-      <c r="D44" s="50" t="s">
+      <c r="B44" s="58"/>
+      <c r="C44" s="54"/>
+      <c r="D44" s="53" t="s">
         <v>71</v>
       </c>
-      <c r="E44" s="48"/>
-      <c r="F44" s="48"/>
-      <c r="G44" s="48"/>
-      <c r="H44" s="48"/>
-      <c r="I44" s="48"/>
-      <c r="J44" s="48"/>
-      <c r="K44" s="48"/>
-      <c r="L44" s="48"/>
-      <c r="M44" s="48"/>
-      <c r="N44" s="48"/>
+      <c r="E44" s="51"/>
+      <c r="F44" s="51"/>
+      <c r="G44" s="51"/>
+      <c r="H44" s="51"/>
+      <c r="I44" s="51"/>
+      <c r="J44" s="51"/>
+      <c r="K44" s="51"/>
+      <c r="L44" s="51"/>
+      <c r="M44" s="51"/>
+      <c r="N44" s="51"/>
     </row>
     <row r="45" ht="161" customHeight="1" spans="2:14">
-      <c r="B45" s="55"/>
-      <c r="C45" s="51"/>
-      <c r="D45" s="56" t="s">
+      <c r="B45" s="58"/>
+      <c r="C45" s="54"/>
+      <c r="D45" s="59" t="s">
         <v>72</v>
       </c>
-      <c r="E45" s="56"/>
-      <c r="F45" s="56"/>
-      <c r="G45" s="56"/>
-      <c r="H45" s="56"/>
-      <c r="I45" s="56"/>
-      <c r="J45" s="56"/>
-      <c r="K45" s="56"/>
-      <c r="L45" s="56"/>
-      <c r="M45" s="56"/>
-      <c r="N45" s="56"/>
+      <c r="E45" s="59"/>
+      <c r="F45" s="59"/>
+      <c r="G45" s="59"/>
+      <c r="H45" s="59"/>
+      <c r="I45" s="59"/>
+      <c r="J45" s="59"/>
+      <c r="K45" s="59"/>
+      <c r="L45" s="59"/>
+      <c r="M45" s="59"/>
+      <c r="N45" s="59"/>
     </row>
     <row r="46" spans="2:15">
-      <c r="B46" s="44" t="s">
+      <c r="B46" s="47" t="s">
         <v>73</v>
       </c>
-      <c r="C46" s="43"/>
-      <c r="D46" s="43"/>
-      <c r="E46" s="43"/>
-      <c r="F46" s="43"/>
-      <c r="G46" s="43"/>
-      <c r="H46" s="43"/>
-      <c r="I46" s="43"/>
-      <c r="J46" s="43"/>
-      <c r="K46" s="43"/>
-      <c r="L46" s="43"/>
-      <c r="M46" s="43"/>
-      <c r="N46" s="43"/>
-      <c r="O46" s="59"/>
+      <c r="C46" s="46"/>
+      <c r="D46" s="46"/>
+      <c r="E46" s="46"/>
+      <c r="F46" s="46"/>
+      <c r="G46" s="46"/>
+      <c r="H46" s="46"/>
+      <c r="I46" s="46"/>
+      <c r="J46" s="46"/>
+      <c r="K46" s="46"/>
+      <c r="L46" s="46"/>
+      <c r="M46" s="46"/>
+      <c r="N46" s="46"/>
+      <c r="O46" s="62"/>
     </row>
     <row r="47" spans="2:14">
-      <c r="B47" s="44" t="s">
+      <c r="B47" s="47" t="s">
         <v>74</v>
       </c>
-      <c r="C47" s="43"/>
-      <c r="D47" s="43" t="s">
+      <c r="C47" s="46"/>
+      <c r="D47" s="46" t="s">
         <v>75</v>
       </c>
-      <c r="E47" s="43"/>
-      <c r="F47" s="43"/>
-      <c r="G47" s="43"/>
-      <c r="H47" s="43"/>
-      <c r="I47" s="43"/>
-      <c r="J47" s="43"/>
-      <c r="K47" s="43"/>
-      <c r="L47" s="43"/>
-      <c r="M47" s="43"/>
-      <c r="N47" s="43"/>
+      <c r="E47" s="46"/>
+      <c r="F47" s="46"/>
+      <c r="G47" s="46"/>
+      <c r="H47" s="46"/>
+      <c r="I47" s="46"/>
+      <c r="J47" s="46"/>
+      <c r="K47" s="46"/>
+      <c r="L47" s="46"/>
+      <c r="M47" s="46"/>
+      <c r="N47" s="46"/>
     </row>
     <row r="49" spans="1:1">
-      <c r="A49" s="38" t="s">
+      <c r="A49" s="41" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="50" ht="81" customHeight="1" spans="2:14">
-      <c r="B50" s="47" t="s">
+      <c r="B50" s="50" t="s">
         <v>77</v>
       </c>
-      <c r="C50" s="48"/>
-      <c r="D50" s="48"/>
-      <c r="E50" s="48"/>
-      <c r="F50" s="48"/>
-      <c r="G50" s="48"/>
-      <c r="H50" s="48"/>
-      <c r="I50" s="48"/>
-      <c r="J50" s="48"/>
-      <c r="K50" s="48"/>
-      <c r="L50" s="48"/>
-      <c r="M50" s="48"/>
-      <c r="N50" s="48"/>
+      <c r="C50" s="51"/>
+      <c r="D50" s="51"/>
+      <c r="E50" s="51"/>
+      <c r="F50" s="51"/>
+      <c r="G50" s="51"/>
+      <c r="H50" s="51"/>
+      <c r="I50" s="51"/>
+      <c r="J50" s="51"/>
+      <c r="K50" s="51"/>
+      <c r="L50" s="51"/>
+      <c r="M50" s="51"/>
+      <c r="N50" s="51"/>
     </row>
     <row r="51" spans="2:2">
-      <c r="B51" s="49" t="s">
+      <c r="B51" s="52" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="52" ht="33" customHeight="1" spans="3:14">
-      <c r="C52" s="48" t="s">
+      <c r="C52" s="51" t="s">
         <v>79</v>
       </c>
-      <c r="D52" s="48"/>
-      <c r="E52" s="48"/>
-      <c r="F52" s="48"/>
-      <c r="G52" s="48"/>
-      <c r="H52" s="48"/>
-      <c r="I52" s="48"/>
-      <c r="J52" s="48"/>
-      <c r="K52" s="48"/>
-      <c r="L52" s="48"/>
-      <c r="M52" s="48"/>
-      <c r="N52" s="48"/>
+      <c r="D52" s="51"/>
+      <c r="E52" s="51"/>
+      <c r="F52" s="51"/>
+      <c r="G52" s="51"/>
+      <c r="H52" s="51"/>
+      <c r="I52" s="51"/>
+      <c r="J52" s="51"/>
+      <c r="K52" s="51"/>
+      <c r="L52" s="51"/>
+      <c r="M52" s="51"/>
+      <c r="N52" s="51"/>
     </row>
     <row r="53" spans="2:2">
-      <c r="B53" s="49" t="s">
+      <c r="B53" s="52" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="54" ht="36" customHeight="1" spans="3:14">
-      <c r="C54" s="48" t="s">
+      <c r="C54" s="51" t="s">
         <v>81</v>
       </c>
-      <c r="D54" s="48"/>
-      <c r="E54" s="48"/>
-      <c r="F54" s="48"/>
-      <c r="G54" s="48"/>
-      <c r="H54" s="48"/>
-      <c r="I54" s="48"/>
-      <c r="J54" s="48"/>
-      <c r="K54" s="48"/>
-      <c r="L54" s="48"/>
-      <c r="M54" s="48"/>
-      <c r="N54" s="48"/>
+      <c r="D54" s="51"/>
+      <c r="E54" s="51"/>
+      <c r="F54" s="51"/>
+      <c r="G54" s="51"/>
+      <c r="H54" s="51"/>
+      <c r="I54" s="51"/>
+      <c r="J54" s="51"/>
+      <c r="K54" s="51"/>
+      <c r="L54" s="51"/>
+      <c r="M54" s="51"/>
+      <c r="N54" s="51"/>
     </row>
     <row r="55" ht="19" customHeight="1" spans="2:14">
-      <c r="B55" s="49" t="s">
+      <c r="B55" s="52" t="s">
         <v>82</v>
       </c>
-      <c r="C55" s="48"/>
-      <c r="D55" s="48"/>
-      <c r="E55" s="48"/>
-      <c r="F55" s="48"/>
-      <c r="G55" s="48"/>
-      <c r="H55" s="48"/>
-      <c r="I55" s="48"/>
-      <c r="J55" s="48"/>
-      <c r="K55" s="48"/>
-      <c r="L55" s="48"/>
-      <c r="M55" s="48"/>
-      <c r="N55" s="48"/>
+      <c r="C55" s="51"/>
+      <c r="D55" s="51"/>
+      <c r="E55" s="51"/>
+      <c r="F55" s="51"/>
+      <c r="G55" s="51"/>
+      <c r="H55" s="51"/>
+      <c r="I55" s="51"/>
+      <c r="J55" s="51"/>
+      <c r="K55" s="51"/>
+      <c r="L55" s="51"/>
+      <c r="M55" s="51"/>
+      <c r="N55" s="51"/>
     </row>
     <row r="56" ht="103" customHeight="1" spans="3:14">
-      <c r="C56" s="48" t="s">
+      <c r="C56" s="51" t="s">
         <v>83</v>
       </c>
-      <c r="D56" s="48"/>
-      <c r="E56" s="48"/>
-      <c r="F56" s="48"/>
-      <c r="G56" s="48"/>
-      <c r="H56" s="48"/>
-      <c r="I56" s="48"/>
-      <c r="J56" s="48"/>
-      <c r="K56" s="48"/>
-      <c r="L56" s="48"/>
-      <c r="M56" s="48"/>
-      <c r="N56" s="48"/>
+      <c r="D56" s="51"/>
+      <c r="E56" s="51"/>
+      <c r="F56" s="51"/>
+      <c r="G56" s="51"/>
+      <c r="H56" s="51"/>
+      <c r="I56" s="51"/>
+      <c r="J56" s="51"/>
+      <c r="K56" s="51"/>
+      <c r="L56" s="51"/>
+      <c r="M56" s="51"/>
+      <c r="N56" s="51"/>
     </row>
     <row r="57" ht="23" customHeight="1" spans="2:14">
-      <c r="B57" s="49" t="s">
+      <c r="B57" s="52" t="s">
         <v>84</v>
       </c>
-      <c r="C57" s="48"/>
-      <c r="D57" s="48"/>
-      <c r="E57" s="48"/>
-      <c r="F57" s="48"/>
-      <c r="G57" s="48"/>
-      <c r="H57" s="48"/>
-      <c r="I57" s="48"/>
-      <c r="J57" s="48"/>
-      <c r="K57" s="48"/>
-      <c r="L57" s="48"/>
-      <c r="M57" s="48"/>
-      <c r="N57" s="48"/>
+      <c r="C57" s="51"/>
+      <c r="D57" s="51"/>
+      <c r="E57" s="51"/>
+      <c r="F57" s="51"/>
+      <c r="G57" s="51"/>
+      <c r="H57" s="51"/>
+      <c r="I57" s="51"/>
+      <c r="J57" s="51"/>
+      <c r="K57" s="51"/>
+      <c r="L57" s="51"/>
+      <c r="M57" s="51"/>
+      <c r="N57" s="51"/>
     </row>
     <row r="58" ht="41" customHeight="1" spans="3:14">
-      <c r="C58" s="48" t="s">
+      <c r="C58" s="51" t="s">
         <v>85</v>
       </c>
-      <c r="D58" s="48"/>
-      <c r="E58" s="48"/>
-      <c r="F58" s="48"/>
-      <c r="G58" s="48"/>
-      <c r="H58" s="48"/>
-      <c r="I58" s="48"/>
-      <c r="J58" s="48"/>
-      <c r="K58" s="48"/>
-      <c r="L58" s="48"/>
-      <c r="M58" s="48"/>
-      <c r="N58" s="48"/>
+      <c r="D58" s="51"/>
+      <c r="E58" s="51"/>
+      <c r="F58" s="51"/>
+      <c r="G58" s="51"/>
+      <c r="H58" s="51"/>
+      <c r="I58" s="51"/>
+      <c r="J58" s="51"/>
+      <c r="K58" s="51"/>
+      <c r="L58" s="51"/>
+      <c r="M58" s="51"/>
+      <c r="N58" s="51"/>
     </row>
     <row r="59" ht="23" customHeight="1" spans="2:14">
-      <c r="B59" s="49" t="s">
+      <c r="B59" s="52" t="s">
         <v>86</v>
       </c>
-      <c r="C59" s="48"/>
-      <c r="D59" s="48"/>
-      <c r="E59" s="48"/>
-      <c r="F59" s="48"/>
-      <c r="G59" s="48"/>
-      <c r="H59" s="48"/>
-      <c r="I59" s="48"/>
-      <c r="J59" s="48"/>
-      <c r="K59" s="48"/>
-      <c r="L59" s="48"/>
-      <c r="M59" s="48"/>
-      <c r="N59" s="48"/>
+      <c r="C59" s="51"/>
+      <c r="D59" s="51"/>
+      <c r="E59" s="51"/>
+      <c r="F59" s="51"/>
+      <c r="G59" s="51"/>
+      <c r="H59" s="51"/>
+      <c r="I59" s="51"/>
+      <c r="J59" s="51"/>
+      <c r="K59" s="51"/>
+      <c r="L59" s="51"/>
+      <c r="M59" s="51"/>
+      <c r="N59" s="51"/>
     </row>
     <row r="60" ht="57" customHeight="1" spans="3:14">
-      <c r="C60" s="48" t="s">
+      <c r="C60" s="51" t="s">
         <v>87</v>
       </c>
-      <c r="D60" s="48"/>
-      <c r="E60" s="48"/>
-      <c r="F60" s="48"/>
-      <c r="G60" s="48"/>
-      <c r="H60" s="48"/>
-      <c r="I60" s="48"/>
-      <c r="J60" s="48"/>
-      <c r="K60" s="48"/>
-      <c r="L60" s="48"/>
-      <c r="M60" s="48"/>
-      <c r="N60" s="48"/>
+      <c r="D60" s="51"/>
+      <c r="E60" s="51"/>
+      <c r="F60" s="51"/>
+      <c r="G60" s="51"/>
+      <c r="H60" s="51"/>
+      <c r="I60" s="51"/>
+      <c r="J60" s="51"/>
+      <c r="K60" s="51"/>
+      <c r="L60" s="51"/>
+      <c r="M60" s="51"/>
+      <c r="N60" s="51"/>
     </row>
     <row r="61" ht="27" customHeight="1" spans="2:14">
-      <c r="B61" s="49" t="s">
+      <c r="B61" s="52" t="s">
         <v>88</v>
       </c>
-      <c r="C61" s="48"/>
-      <c r="D61" s="48" t="s">
+      <c r="C61" s="51"/>
+      <c r="D61" s="51" t="s">
         <v>89</v>
       </c>
-      <c r="E61" s="48"/>
-      <c r="F61" s="48"/>
-      <c r="G61" s="48"/>
-      <c r="H61" s="48"/>
-      <c r="I61" s="48"/>
-      <c r="J61" s="48"/>
-      <c r="K61" s="48"/>
-      <c r="L61" s="48"/>
-      <c r="M61" s="48"/>
-      <c r="N61" s="48"/>
+      <c r="E61" s="51"/>
+      <c r="F61" s="51"/>
+      <c r="G61" s="51"/>
+      <c r="H61" s="51"/>
+      <c r="I61" s="51"/>
+      <c r="J61" s="51"/>
+      <c r="K61" s="51"/>
+      <c r="L61" s="51"/>
+      <c r="M61" s="51"/>
+      <c r="N61" s="51"/>
     </row>
     <row r="62" ht="41" customHeight="1" spans="3:14">
-      <c r="C62" s="48" t="s">
+      <c r="C62" s="51" t="s">
         <v>90</v>
       </c>
-      <c r="D62" s="48"/>
-      <c r="E62" s="48"/>
-      <c r="F62" s="48"/>
-      <c r="G62" s="48"/>
-      <c r="H62" s="48"/>
-      <c r="I62" s="48"/>
-      <c r="J62" s="48"/>
-      <c r="K62" s="48"/>
-      <c r="L62" s="48"/>
-      <c r="M62" s="48"/>
-      <c r="N62" s="48"/>
+      <c r="D62" s="51"/>
+      <c r="E62" s="51"/>
+      <c r="F62" s="51"/>
+      <c r="G62" s="51"/>
+      <c r="H62" s="51"/>
+      <c r="I62" s="51"/>
+      <c r="J62" s="51"/>
+      <c r="K62" s="51"/>
+      <c r="L62" s="51"/>
+      <c r="M62" s="51"/>
+      <c r="N62" s="51"/>
     </row>
     <row r="63" ht="26" customHeight="1" spans="2:14">
-      <c r="B63" s="49" t="s">
+      <c r="B63" s="52" t="s">
         <v>91</v>
       </c>
-      <c r="C63" s="48" t="s">
+      <c r="C63" s="51" t="s">
         <v>92</v>
       </c>
-      <c r="D63" s="48"/>
-      <c r="E63" s="48"/>
-      <c r="F63" s="48"/>
-      <c r="G63" s="48"/>
-      <c r="H63" s="48"/>
-      <c r="I63" s="48"/>
-      <c r="J63" s="48"/>
-      <c r="K63" s="48"/>
-      <c r="L63" s="48"/>
-      <c r="M63" s="48"/>
-      <c r="N63" s="48"/>
+      <c r="D63" s="51"/>
+      <c r="E63" s="51"/>
+      <c r="F63" s="51"/>
+      <c r="G63" s="51"/>
+      <c r="H63" s="51"/>
+      <c r="I63" s="51"/>
+      <c r="J63" s="51"/>
+      <c r="K63" s="51"/>
+      <c r="L63" s="51"/>
+      <c r="M63" s="51"/>
+      <c r="N63" s="51"/>
     </row>
     <row r="64" ht="25" customHeight="1" spans="2:14">
-      <c r="B64" s="49" t="s">
+      <c r="B64" s="52" t="s">
         <v>93</v>
       </c>
-      <c r="C64" s="48"/>
-      <c r="D64" s="48"/>
-      <c r="E64" s="48"/>
-      <c r="F64" s="48"/>
-      <c r="G64" s="48"/>
-      <c r="H64" s="48"/>
-      <c r="I64" s="48"/>
-      <c r="J64" s="48"/>
-      <c r="K64" s="48"/>
-      <c r="L64" s="48"/>
-      <c r="M64" s="48"/>
-      <c r="N64" s="48"/>
+      <c r="C64" s="51"/>
+      <c r="D64" s="51"/>
+      <c r="E64" s="51"/>
+      <c r="F64" s="51"/>
+      <c r="G64" s="51"/>
+      <c r="H64" s="51"/>
+      <c r="I64" s="51"/>
+      <c r="J64" s="51"/>
+      <c r="K64" s="51"/>
+      <c r="L64" s="51"/>
+      <c r="M64" s="51"/>
+      <c r="N64" s="51"/>
     </row>
     <row r="65" ht="25" customHeight="1" spans="2:14">
-      <c r="B65" s="49"/>
-      <c r="C65" s="56" t="s">
+      <c r="B65" s="52"/>
+      <c r="C65" s="59" t="s">
         <v>94</v>
       </c>
-      <c r="D65" s="48" t="s">
+      <c r="D65" s="51" t="s">
         <v>95</v>
       </c>
-      <c r="E65" s="48"/>
-      <c r="F65" s="48"/>
-      <c r="G65" s="48"/>
-      <c r="H65" s="48"/>
-      <c r="I65" s="48"/>
-      <c r="J65" s="48"/>
-      <c r="K65" s="48"/>
-      <c r="L65" s="48"/>
-      <c r="M65" s="48"/>
-      <c r="N65" s="48"/>
+      <c r="E65" s="51"/>
+      <c r="F65" s="51"/>
+      <c r="G65" s="51"/>
+      <c r="H65" s="51"/>
+      <c r="I65" s="51"/>
+      <c r="J65" s="51"/>
+      <c r="K65" s="51"/>
+      <c r="L65" s="51"/>
+      <c r="M65" s="51"/>
+      <c r="N65" s="51"/>
     </row>
     <row r="66" ht="25" customHeight="1" spans="2:14">
-      <c r="B66" s="49"/>
-      <c r="C66" s="60" t="s">
+      <c r="B66" s="52"/>
+      <c r="C66" s="63" t="s">
         <v>96</v>
       </c>
-      <c r="D66" s="48" t="s">
+      <c r="D66" s="51" t="s">
         <v>97</v>
       </c>
-      <c r="E66" s="48"/>
-      <c r="F66" s="48"/>
-      <c r="G66" s="48"/>
-      <c r="H66" s="48"/>
-      <c r="I66" s="48"/>
-      <c r="J66" s="48"/>
-      <c r="K66" s="48"/>
-      <c r="L66" s="48"/>
-      <c r="M66" s="48"/>
-      <c r="N66" s="48"/>
+      <c r="E66" s="51"/>
+      <c r="F66" s="51"/>
+      <c r="G66" s="51"/>
+      <c r="H66" s="51"/>
+      <c r="I66" s="51"/>
+      <c r="J66" s="51"/>
+      <c r="K66" s="51"/>
+      <c r="L66" s="51"/>
+      <c r="M66" s="51"/>
+      <c r="N66" s="51"/>
     </row>
     <row r="67" ht="25" customHeight="1" spans="2:14">
-      <c r="B67" s="49"/>
-      <c r="C67" s="48"/>
-      <c r="D67" s="48" t="s">
+      <c r="B67" s="52"/>
+      <c r="C67" s="51"/>
+      <c r="D67" s="51" t="s">
         <v>98</v>
       </c>
-      <c r="E67" s="48"/>
-      <c r="F67" s="48"/>
-      <c r="G67" s="48"/>
-      <c r="H67" s="48"/>
-      <c r="I67" s="48"/>
-      <c r="J67" s="48"/>
-      <c r="K67" s="48"/>
-      <c r="L67" s="48"/>
-      <c r="M67" s="48"/>
-      <c r="N67" s="48"/>
+      <c r="E67" s="51"/>
+      <c r="F67" s="51"/>
+      <c r="G67" s="51"/>
+      <c r="H67" s="51"/>
+      <c r="I67" s="51"/>
+      <c r="J67" s="51"/>
+      <c r="K67" s="51"/>
+      <c r="L67" s="51"/>
+      <c r="M67" s="51"/>
+      <c r="N67" s="51"/>
     </row>
     <row r="68" ht="36" customHeight="1" spans="3:14">
-      <c r="C68" s="48"/>
-      <c r="D68" s="48"/>
-      <c r="E68" s="48"/>
-      <c r="F68" s="48"/>
-      <c r="G68" s="48"/>
-      <c r="H68" s="48"/>
-      <c r="I68" s="48"/>
-      <c r="J68" s="48"/>
-      <c r="K68" s="48"/>
-      <c r="L68" s="48"/>
-      <c r="M68" s="48"/>
-      <c r="N68" s="48"/>
+      <c r="C68" s="51"/>
+      <c r="D68" s="51"/>
+      <c r="E68" s="51"/>
+      <c r="F68" s="51"/>
+      <c r="G68" s="51"/>
+      <c r="H68" s="51"/>
+      <c r="I68" s="51"/>
+      <c r="J68" s="51"/>
+      <c r="K68" s="51"/>
+      <c r="L68" s="51"/>
+      <c r="M68" s="51"/>
+      <c r="N68" s="51"/>
     </row>
     <row r="70" spans="1:1">
-      <c r="A70" s="38" t="s">
+      <c r="A70" s="41" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="71" ht="54" customHeight="1" spans="2:14">
-      <c r="B71" s="47" t="s">
+      <c r="B71" s="50" t="s">
         <v>100</v>
       </c>
-      <c r="C71" s="43"/>
-      <c r="D71" s="43"/>
-      <c r="E71" s="43"/>
-      <c r="F71" s="43"/>
-      <c r="G71" s="43"/>
-      <c r="H71" s="43"/>
-      <c r="I71" s="43"/>
-      <c r="J71" s="43"/>
-      <c r="K71" s="43"/>
-      <c r="L71" s="43"/>
-      <c r="M71" s="43"/>
-      <c r="N71" s="43"/>
+      <c r="C71" s="46"/>
+      <c r="D71" s="46"/>
+      <c r="E71" s="46"/>
+      <c r="F71" s="46"/>
+      <c r="G71" s="46"/>
+      <c r="H71" s="46"/>
+      <c r="I71" s="46"/>
+      <c r="J71" s="46"/>
+      <c r="K71" s="46"/>
+      <c r="L71" s="46"/>
+      <c r="M71" s="46"/>
+      <c r="N71" s="46"/>
     </row>
     <row r="72" ht="26" customHeight="1" spans="2:14">
-      <c r="B72" s="47"/>
-      <c r="C72" s="43" t="s">
+      <c r="B72" s="50"/>
+      <c r="C72" s="46" t="s">
         <v>101</v>
       </c>
-      <c r="D72" s="43"/>
-      <c r="E72" s="43"/>
-      <c r="F72" s="43"/>
-      <c r="G72" s="43"/>
-      <c r="H72" s="43"/>
-      <c r="I72" s="43"/>
-      <c r="J72" s="43"/>
-      <c r="K72" s="43"/>
-      <c r="L72" s="43"/>
-      <c r="M72" s="43"/>
-      <c r="N72" s="43"/>
+      <c r="D72" s="46"/>
+      <c r="E72" s="46"/>
+      <c r="F72" s="46"/>
+      <c r="G72" s="46"/>
+      <c r="H72" s="46"/>
+      <c r="I72" s="46"/>
+      <c r="J72" s="46"/>
+      <c r="K72" s="46"/>
+      <c r="L72" s="46"/>
+      <c r="M72" s="46"/>
+      <c r="N72" s="46"/>
     </row>
     <row r="73" ht="25" customHeight="1" spans="2:14">
-      <c r="B73" s="47"/>
-      <c r="C73" s="43" t="s">
+      <c r="B73" s="50"/>
+      <c r="C73" s="46" t="s">
         <v>102</v>
       </c>
-      <c r="D73" s="43"/>
-      <c r="E73" s="43"/>
-      <c r="F73" s="43"/>
-      <c r="G73" s="43"/>
-      <c r="H73" s="43"/>
-      <c r="I73" s="43"/>
-      <c r="J73" s="43"/>
-      <c r="K73" s="43"/>
-      <c r="L73" s="43"/>
-      <c r="M73" s="43"/>
-      <c r="N73" s="43"/>
+      <c r="D73" s="46"/>
+      <c r="E73" s="46"/>
+      <c r="F73" s="46"/>
+      <c r="G73" s="46"/>
+      <c r="H73" s="46"/>
+      <c r="I73" s="46"/>
+      <c r="J73" s="46"/>
+      <c r="K73" s="46"/>
+      <c r="L73" s="46"/>
+      <c r="M73" s="46"/>
+      <c r="N73" s="46"/>
     </row>
     <row r="74" ht="312" customHeight="1" spans="2:14">
-      <c r="B74" s="47"/>
-      <c r="C74" s="48" t="s">
+      <c r="B74" s="50"/>
+      <c r="C74" s="51" t="s">
         <v>103</v>
       </c>
-      <c r="D74" s="43"/>
-      <c r="E74" s="43"/>
-      <c r="F74" s="43"/>
-      <c r="G74" s="43"/>
-      <c r="H74" s="43"/>
-      <c r="I74" s="43"/>
-      <c r="J74" s="43"/>
-      <c r="K74" s="43"/>
-      <c r="L74" s="43"/>
-      <c r="M74" s="43"/>
-      <c r="N74" s="43"/>
+      <c r="D74" s="46"/>
+      <c r="E74" s="46"/>
+      <c r="F74" s="46"/>
+      <c r="G74" s="46"/>
+      <c r="H74" s="46"/>
+      <c r="I74" s="46"/>
+      <c r="J74" s="46"/>
+      <c r="K74" s="46"/>
+      <c r="L74" s="46"/>
+      <c r="M74" s="46"/>
+      <c r="N74" s="46"/>
     </row>
     <row r="75" ht="26" customHeight="1" spans="2:14">
-      <c r="B75" s="47"/>
-      <c r="C75" s="43" t="s">
+      <c r="B75" s="50"/>
+      <c r="C75" s="46" t="s">
         <v>104</v>
       </c>
-      <c r="D75" s="43"/>
-      <c r="E75" s="43"/>
-      <c r="F75" s="43"/>
-      <c r="G75" s="43"/>
-      <c r="H75" s="43"/>
-      <c r="I75" s="43"/>
-      <c r="J75" s="43"/>
-      <c r="K75" s="43"/>
-      <c r="L75" s="43"/>
-      <c r="M75" s="43"/>
-      <c r="N75" s="43"/>
+      <c r="D75" s="46"/>
+      <c r="E75" s="46"/>
+      <c r="F75" s="46"/>
+      <c r="G75" s="46"/>
+      <c r="H75" s="46"/>
+      <c r="I75" s="46"/>
+      <c r="J75" s="46"/>
+      <c r="K75" s="46"/>
+      <c r="L75" s="46"/>
+      <c r="M75" s="46"/>
+      <c r="N75" s="46"/>
     </row>
     <row r="76" ht="36" customHeight="1" spans="2:14">
-      <c r="B76" s="61" t="s">
+      <c r="B76" s="64" t="s">
         <v>105</v>
       </c>
-      <c r="C76" s="43"/>
-      <c r="D76" s="43"/>
-      <c r="E76" s="43"/>
-      <c r="F76" s="43"/>
-      <c r="G76" s="43"/>
-      <c r="H76" s="43"/>
-      <c r="I76" s="43"/>
-      <c r="J76" s="43"/>
-      <c r="K76" s="43"/>
-      <c r="L76" s="43"/>
-      <c r="M76" s="43"/>
-      <c r="N76" s="43"/>
+      <c r="C76" s="46"/>
+      <c r="D76" s="46"/>
+      <c r="E76" s="46"/>
+      <c r="F76" s="46"/>
+      <c r="G76" s="46"/>
+      <c r="H76" s="46"/>
+      <c r="I76" s="46"/>
+      <c r="J76" s="46"/>
+      <c r="K76" s="46"/>
+      <c r="L76" s="46"/>
+      <c r="M76" s="46"/>
+      <c r="N76" s="46"/>
     </row>
     <row r="77" ht="26" customHeight="1" spans="2:14">
-      <c r="B77" s="47"/>
-      <c r="C77" s="43" t="s">
+      <c r="B77" s="50"/>
+      <c r="C77" s="46" t="s">
         <v>106</v>
       </c>
-      <c r="D77" s="43"/>
-      <c r="E77" s="43"/>
-      <c r="F77" s="43"/>
-      <c r="G77" s="43"/>
-      <c r="H77" s="43"/>
-      <c r="I77" s="43"/>
-      <c r="J77" s="43"/>
-      <c r="K77" s="43"/>
-      <c r="L77" s="43"/>
-      <c r="M77" s="43"/>
-      <c r="N77" s="43"/>
+      <c r="D77" s="46"/>
+      <c r="E77" s="46"/>
+      <c r="F77" s="46"/>
+      <c r="G77" s="46"/>
+      <c r="H77" s="46"/>
+      <c r="I77" s="46"/>
+      <c r="J77" s="46"/>
+      <c r="K77" s="46"/>
+      <c r="L77" s="46"/>
+      <c r="M77" s="46"/>
+      <c r="N77" s="46"/>
     </row>
     <row r="78" ht="54" customHeight="1" spans="2:14">
-      <c r="B78" s="47"/>
-      <c r="C78" s="43"/>
-      <c r="D78" s="43"/>
-      <c r="E78" s="43"/>
-      <c r="F78" s="43"/>
-      <c r="G78" s="43"/>
-      <c r="H78" s="43"/>
-      <c r="I78" s="43"/>
-      <c r="J78" s="43"/>
-      <c r="K78" s="43"/>
-      <c r="L78" s="43"/>
-      <c r="M78" s="43"/>
-      <c r="N78" s="43"/>
+      <c r="B78" s="50"/>
+      <c r="C78" s="46"/>
+      <c r="D78" s="46"/>
+      <c r="E78" s="46"/>
+      <c r="F78" s="46"/>
+      <c r="G78" s="46"/>
+      <c r="H78" s="46"/>
+      <c r="I78" s="46"/>
+      <c r="J78" s="46"/>
+      <c r="K78" s="46"/>
+      <c r="L78" s="46"/>
+      <c r="M78" s="46"/>
+      <c r="N78" s="46"/>
     </row>
     <row r="79" ht="54" customHeight="1" spans="2:14">
-      <c r="B79" s="47"/>
-      <c r="C79" s="43"/>
-      <c r="D79" s="43"/>
-      <c r="E79" s="43"/>
-      <c r="F79" s="43"/>
-      <c r="G79" s="43"/>
-      <c r="H79" s="43"/>
-      <c r="I79" s="43"/>
-      <c r="J79" s="43"/>
-      <c r="K79" s="43"/>
-      <c r="L79" s="43"/>
-      <c r="M79" s="43"/>
-      <c r="N79" s="43"/>
+      <c r="B79" s="50"/>
+      <c r="C79" s="46"/>
+      <c r="D79" s="46"/>
+      <c r="E79" s="46"/>
+      <c r="F79" s="46"/>
+      <c r="G79" s="46"/>
+      <c r="H79" s="46"/>
+      <c r="I79" s="46"/>
+      <c r="J79" s="46"/>
+      <c r="K79" s="46"/>
+      <c r="L79" s="46"/>
+      <c r="M79" s="46"/>
+      <c r="N79" s="46"/>
     </row>
     <row r="80" ht="54" customHeight="1" spans="2:14">
-      <c r="B80" s="47"/>
-      <c r="C80" s="43"/>
-      <c r="D80" s="43"/>
-      <c r="E80" s="43"/>
-      <c r="F80" s="43"/>
-      <c r="G80" s="43"/>
-      <c r="H80" s="43"/>
-      <c r="I80" s="43"/>
-      <c r="J80" s="43"/>
-      <c r="K80" s="43"/>
-      <c r="L80" s="43"/>
-      <c r="M80" s="43"/>
-      <c r="N80" s="43"/>
+      <c r="B80" s="50"/>
+      <c r="C80" s="46"/>
+      <c r="D80" s="46"/>
+      <c r="E80" s="46"/>
+      <c r="F80" s="46"/>
+      <c r="G80" s="46"/>
+      <c r="H80" s="46"/>
+      <c r="I80" s="46"/>
+      <c r="J80" s="46"/>
+      <c r="K80" s="46"/>
+      <c r="L80" s="46"/>
+      <c r="M80" s="46"/>
+      <c r="N80" s="46"/>
     </row>
     <row r="81" ht="54" customHeight="1" spans="2:14">
-      <c r="B81" s="47"/>
-      <c r="C81" s="43"/>
-      <c r="D81" s="43"/>
-      <c r="E81" s="43"/>
-      <c r="F81" s="43"/>
-      <c r="G81" s="43"/>
-      <c r="H81" s="43"/>
-      <c r="I81" s="43"/>
-      <c r="J81" s="43"/>
-      <c r="K81" s="43"/>
-      <c r="L81" s="43"/>
-      <c r="M81" s="43"/>
-      <c r="N81" s="43"/>
+      <c r="B81" s="50"/>
+      <c r="C81" s="46"/>
+      <c r="D81" s="46"/>
+      <c r="E81" s="46"/>
+      <c r="F81" s="46"/>
+      <c r="G81" s="46"/>
+      <c r="H81" s="46"/>
+      <c r="I81" s="46"/>
+      <c r="J81" s="46"/>
+      <c r="K81" s="46"/>
+      <c r="L81" s="46"/>
+      <c r="M81" s="46"/>
+      <c r="N81" s="46"/>
     </row>
     <row r="83" spans="1:14">
-      <c r="A83" s="62" t="s">
+      <c r="A83" s="65" t="s">
         <v>107</v>
       </c>
       <c r="B83" s="26"/>
-      <c r="C83" s="63"/>
-      <c r="D83" s="63"/>
-      <c r="E83" s="63"/>
-      <c r="F83" s="63"/>
-      <c r="G83" s="63"/>
-      <c r="H83" s="63"/>
-      <c r="I83" s="63"/>
-      <c r="J83" s="63"/>
-      <c r="K83" s="63"/>
-      <c r="L83" s="63"/>
-      <c r="M83" s="63"/>
-      <c r="N83" s="63"/>
+      <c r="C83" s="66"/>
+      <c r="D83" s="66"/>
+      <c r="E83" s="66"/>
+      <c r="F83" s="66"/>
+      <c r="G83" s="66"/>
+      <c r="H83" s="66"/>
+      <c r="I83" s="66"/>
+      <c r="J83" s="66"/>
+      <c r="K83" s="66"/>
+      <c r="L83" s="66"/>
+      <c r="M83" s="66"/>
+      <c r="N83" s="66"/>
     </row>
     <row r="84" ht="72" customHeight="1" spans="1:14">
-      <c r="A84" s="62"/>
-      <c r="B84" s="64" t="s">
+      <c r="A84" s="65"/>
+      <c r="B84" s="67" t="s">
         <v>108</v>
       </c>
-      <c r="C84" s="65"/>
-      <c r="D84" s="65"/>
-      <c r="E84" s="65"/>
-      <c r="F84" s="65"/>
-      <c r="G84" s="65"/>
-      <c r="H84" s="65"/>
-      <c r="I84" s="65"/>
-      <c r="J84" s="65"/>
-      <c r="K84" s="65"/>
-      <c r="L84" s="65"/>
-      <c r="M84" s="65"/>
-      <c r="N84" s="65"/>
+      <c r="C84" s="68"/>
+      <c r="D84" s="68"/>
+      <c r="E84" s="68"/>
+      <c r="F84" s="68"/>
+      <c r="G84" s="68"/>
+      <c r="H84" s="68"/>
+      <c r="I84" s="68"/>
+      <c r="J84" s="68"/>
+      <c r="K84" s="68"/>
+      <c r="L84" s="68"/>
+      <c r="M84" s="68"/>
+      <c r="N84" s="68"/>
     </row>
     <row r="86" spans="1:1">
-      <c r="A86" s="38" t="s">
+      <c r="A86" s="41" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="87" spans="2:14">
-      <c r="B87" s="47" t="s">
+      <c r="B87" s="50" t="s">
         <v>110</v>
       </c>
-      <c r="C87" s="48"/>
-      <c r="D87" s="48"/>
-      <c r="E87" s="48"/>
-      <c r="F87" s="48"/>
-      <c r="G87" s="48"/>
-      <c r="H87" s="48"/>
-      <c r="I87" s="48"/>
-      <c r="J87" s="48"/>
-      <c r="K87" s="48"/>
-      <c r="L87" s="48"/>
-      <c r="M87" s="48"/>
-      <c r="N87" s="48"/>
+      <c r="C87" s="51"/>
+      <c r="D87" s="51"/>
+      <c r="E87" s="51"/>
+      <c r="F87" s="51"/>
+      <c r="G87" s="51"/>
+      <c r="H87" s="51"/>
+      <c r="I87" s="51"/>
+      <c r="J87" s="51"/>
+      <c r="K87" s="51"/>
+      <c r="L87" s="51"/>
+      <c r="M87" s="51"/>
+      <c r="N87" s="51"/>
     </row>
     <row r="89" spans="1:1">
-      <c r="A89" s="38" t="s">
+      <c r="A89" s="41" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="90" ht="54" customHeight="1" spans="2:14">
-      <c r="B90" s="47" t="s">
+      <c r="B90" s="50" t="s">
         <v>112</v>
       </c>
-      <c r="C90" s="48"/>
-      <c r="D90" s="48"/>
-      <c r="E90" s="48"/>
-      <c r="F90" s="48"/>
-      <c r="G90" s="48"/>
-      <c r="H90" s="48"/>
-      <c r="I90" s="48"/>
-      <c r="J90" s="48"/>
-      <c r="K90" s="48"/>
-      <c r="L90" s="48"/>
-      <c r="M90" s="48"/>
-      <c r="N90" s="48"/>
+      <c r="C90" s="51"/>
+      <c r="D90" s="51"/>
+      <c r="E90" s="51"/>
+      <c r="F90" s="51"/>
+      <c r="G90" s="51"/>
+      <c r="H90" s="51"/>
+      <c r="I90" s="51"/>
+      <c r="J90" s="51"/>
+      <c r="K90" s="51"/>
+      <c r="L90" s="51"/>
+      <c r="M90" s="51"/>
+      <c r="N90" s="51"/>
     </row>
     <row r="91" ht="21" customHeight="1" spans="2:2">
-      <c r="B91" s="49" t="s">
+      <c r="B91" s="52" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="92" ht="120" customHeight="1" spans="3:14">
-      <c r="C92" s="79" t="s">
+      <c r="C92" s="82" t="s">
         <v>114</v>
       </c>
-      <c r="D92" s="48"/>
-      <c r="E92" s="48"/>
-      <c r="F92" s="48"/>
-      <c r="G92" s="48"/>
-      <c r="H92" s="48"/>
-      <c r="I92" s="48"/>
-      <c r="J92" s="48"/>
-      <c r="K92" s="48"/>
-      <c r="L92" s="48"/>
-      <c r="M92" s="48"/>
-      <c r="N92" s="48"/>
+      <c r="D92" s="51"/>
+      <c r="E92" s="51"/>
+      <c r="F92" s="51"/>
+      <c r="G92" s="51"/>
+      <c r="H92" s="51"/>
+      <c r="I92" s="51"/>
+      <c r="J92" s="51"/>
+      <c r="K92" s="51"/>
+      <c r="L92" s="51"/>
+      <c r="M92" s="51"/>
+      <c r="N92" s="51"/>
     </row>
     <row r="93" spans="2:2">
-      <c r="B93" s="49" t="s">
+      <c r="B93" s="52" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="94" ht="31" customHeight="1" spans="3:14">
-      <c r="C94" s="48" t="s">
+      <c r="C94" s="51" t="s">
         <v>116</v>
       </c>
-      <c r="D94" s="48"/>
-      <c r="E94" s="48"/>
-      <c r="F94" s="48"/>
-      <c r="G94" s="48"/>
-      <c r="H94" s="48"/>
-      <c r="I94" s="48"/>
-      <c r="J94" s="48"/>
-      <c r="K94" s="48"/>
-      <c r="L94" s="48"/>
-      <c r="M94" s="48"/>
-      <c r="N94" s="48"/>
+      <c r="D94" s="51"/>
+      <c r="E94" s="51"/>
+      <c r="F94" s="51"/>
+      <c r="G94" s="51"/>
+      <c r="H94" s="51"/>
+      <c r="I94" s="51"/>
+      <c r="J94" s="51"/>
+      <c r="K94" s="51"/>
+      <c r="L94" s="51"/>
+      <c r="M94" s="51"/>
+      <c r="N94" s="51"/>
     </row>
     <row r="95" spans="2:2">
-      <c r="B95" s="49" t="s">
+      <c r="B95" s="52" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="96" spans="3:14">
-      <c r="C96" s="43" t="s">
+      <c r="C96" s="46" t="s">
         <v>118</v>
       </c>
-      <c r="D96" s="43"/>
-      <c r="E96" s="43"/>
-      <c r="F96" s="43"/>
-      <c r="G96" s="43"/>
-      <c r="H96" s="43"/>
-      <c r="I96" s="43"/>
-      <c r="J96" s="43"/>
-      <c r="K96" s="43"/>
-      <c r="L96" s="43"/>
-      <c r="M96" s="43"/>
-      <c r="N96" s="43"/>
+      <c r="D96" s="46"/>
+      <c r="E96" s="46"/>
+      <c r="F96" s="46"/>
+      <c r="G96" s="46"/>
+      <c r="H96" s="46"/>
+      <c r="I96" s="46"/>
+      <c r="J96" s="46"/>
+      <c r="K96" s="46"/>
+      <c r="L96" s="46"/>
+      <c r="M96" s="46"/>
+      <c r="N96" s="46"/>
     </row>
   </sheetData>
   <mergeCells count="52">
@@ -5412,7 +5486,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="24" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="16" style="29" customWidth="1"/>
+    <col min="1" max="1" width="16" style="32" customWidth="1"/>
     <col min="2" max="2" width="26" style="4" customWidth="1"/>
     <col min="3" max="13" width="9" style="6"/>
     <col min="14" max="14" width="11.625" style="4" customWidth="1"/>
@@ -5420,7 +5494,7 @@
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:1">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="32" t="s">
         <v>119</v>
       </c>
     </row>
@@ -5476,7 +5550,7 @@
       <c r="N4" s="9"/>
     </row>
     <row r="5" customHeight="1" spans="2:14">
-      <c r="B5" s="30" t="s">
+      <c r="B5" s="33" t="s">
         <v>123</v>
       </c>
       <c r="C5" s="8"/>
@@ -5490,10 +5564,10 @@
       <c r="K5" s="8"/>
       <c r="L5" s="8"/>
       <c r="M5" s="8"/>
-      <c r="N5" s="30"/>
+      <c r="N5" s="33"/>
     </row>
     <row r="6" ht="45" customHeight="1" spans="2:14">
-      <c r="B6" s="31" t="s">
+      <c r="B6" s="34" t="s">
         <v>124</v>
       </c>
       <c r="C6" s="7" t="s">
@@ -5512,7 +5586,7 @@
       <c r="N6" s="8"/>
     </row>
     <row r="7" customHeight="1" spans="2:14">
-      <c r="B7" s="31" t="s">
+      <c r="B7" s="34" t="s">
         <v>126</v>
       </c>
       <c r="C7" s="7" t="s">
@@ -5531,7 +5605,7 @@
       <c r="N7" s="8"/>
     </row>
     <row r="8" ht="70" customHeight="1" spans="2:14">
-      <c r="B8" s="30"/>
+      <c r="B8" s="33"/>
       <c r="C8" s="11" t="s">
         <v>128</v>
       </c>
@@ -5548,7 +5622,7 @@
       <c r="N8" s="11"/>
     </row>
     <row r="9" customHeight="1" spans="2:14">
-      <c r="B9" s="31" t="s">
+      <c r="B9" s="34" t="s">
         <v>129</v>
       </c>
       <c r="C9" s="8" t="s">
@@ -5567,7 +5641,7 @@
       <c r="N9" s="8"/>
     </row>
     <row r="10" ht="70" customHeight="1" spans="2:14">
-      <c r="B10" s="30"/>
+      <c r="B10" s="33"/>
       <c r="C10" s="11" t="s">
         <v>131</v>
       </c>
@@ -5584,7 +5658,7 @@
       <c r="N10" s="11"/>
     </row>
     <row r="11" ht="38" customHeight="1" spans="2:14">
-      <c r="B11" s="31" t="s">
+      <c r="B11" s="34" t="s">
         <v>132</v>
       </c>
       <c r="C11" s="8"/>
@@ -5603,7 +5677,7 @@
       <c r="N11" s="8"/>
     </row>
     <row r="12" ht="142" customHeight="1" spans="2:14">
-      <c r="B12" s="30"/>
+      <c r="B12" s="33"/>
       <c r="C12" s="11" t="s">
         <v>134</v>
       </c>
@@ -5620,26 +5694,26 @@
       <c r="N12" s="11"/>
     </row>
     <row r="13" ht="22" customHeight="1" spans="2:14">
-      <c r="B13" s="31" t="s">
+      <c r="B13" s="34" t="s">
         <v>135</v>
       </c>
       <c r="C13" s="8"/>
       <c r="D13" s="11" t="s">
         <v>136</v>
       </c>
-      <c r="E13" s="36"/>
-      <c r="F13" s="36"/>
-      <c r="G13" s="36"/>
-      <c r="H13" s="36"/>
-      <c r="I13" s="36"/>
-      <c r="J13" s="36"/>
-      <c r="K13" s="36"/>
-      <c r="L13" s="36"/>
-      <c r="M13" s="36"/>
-      <c r="N13" s="36"/>
+      <c r="E13" s="39"/>
+      <c r="F13" s="39"/>
+      <c r="G13" s="39"/>
+      <c r="H13" s="39"/>
+      <c r="I13" s="39"/>
+      <c r="J13" s="39"/>
+      <c r="K13" s="39"/>
+      <c r="L13" s="39"/>
+      <c r="M13" s="39"/>
+      <c r="N13" s="39"/>
     </row>
     <row r="14" ht="156" customHeight="1" spans="2:14">
-      <c r="B14" s="31"/>
+      <c r="B14" s="34"/>
       <c r="C14" s="11" t="s">
         <v>137</v>
       </c>
@@ -5656,7 +5730,7 @@
       <c r="N14" s="11"/>
     </row>
     <row r="16" customHeight="1" spans="1:1">
-      <c r="A16" s="29" t="s">
+      <c r="A16" s="32" t="s">
         <v>138</v>
       </c>
     </row>
@@ -5695,7 +5769,7 @@
       <c r="N18" s="9"/>
     </row>
     <row r="19" customHeight="1" spans="2:14">
-      <c r="B19" s="30" t="s">
+      <c r="B19" s="33" t="s">
         <v>123</v>
       </c>
       <c r="C19" s="8"/>
@@ -5709,10 +5783,10 @@
       <c r="K19" s="8"/>
       <c r="L19" s="8"/>
       <c r="M19" s="8"/>
-      <c r="N19" s="30"/>
+      <c r="N19" s="33"/>
     </row>
     <row r="20" customHeight="1" spans="2:14">
-      <c r="B20" s="32" t="s">
+      <c r="B20" s="35" t="s">
         <v>141</v>
       </c>
       <c r="C20" s="8"/>
@@ -5726,10 +5800,10 @@
       <c r="K20" s="8"/>
       <c r="L20" s="8"/>
       <c r="M20" s="8"/>
-      <c r="N20" s="30"/>
+      <c r="N20" s="33"/>
     </row>
     <row r="21" ht="42" customHeight="1" spans="2:14">
-      <c r="B21" s="30"/>
+      <c r="B21" s="33"/>
       <c r="C21" s="7" t="s">
         <v>142</v>
       </c>
@@ -5746,7 +5820,7 @@
       <c r="N21" s="8"/>
     </row>
     <row r="22" customHeight="1" spans="2:14">
-      <c r="B22" s="31" t="s">
+      <c r="B22" s="34" t="s">
         <v>143</v>
       </c>
       <c r="C22" s="8"/>
@@ -5760,10 +5834,10 @@
       <c r="K22" s="8"/>
       <c r="L22" s="8"/>
       <c r="M22" s="8"/>
-      <c r="N22" s="30"/>
+      <c r="N22" s="33"/>
     </row>
     <row r="23" ht="84" customHeight="1" spans="2:14">
-      <c r="B23" s="30"/>
+      <c r="B23" s="33"/>
       <c r="C23" s="7" t="s">
         <v>144</v>
       </c>
@@ -5780,7 +5854,7 @@
       <c r="N23" s="8"/>
     </row>
     <row r="24" customHeight="1" spans="2:14">
-      <c r="B24" s="30" t="s">
+      <c r="B24" s="33" t="s">
         <v>145</v>
       </c>
       <c r="C24" s="8"/>
@@ -5794,10 +5868,10 @@
       <c r="K24" s="8"/>
       <c r="L24" s="8"/>
       <c r="M24" s="8"/>
-      <c r="N24" s="30"/>
+      <c r="N24" s="33"/>
     </row>
     <row r="25" ht="52" customHeight="1" spans="2:14">
-      <c r="B25" s="30"/>
+      <c r="B25" s="33"/>
       <c r="C25" s="7" t="s">
         <v>146</v>
       </c>
@@ -5814,7 +5888,7 @@
       <c r="N25" s="7"/>
     </row>
     <row r="26" ht="169" customHeight="1" spans="2:14">
-      <c r="B26" s="30"/>
+      <c r="B26" s="33"/>
       <c r="C26" s="7" t="s">
         <v>147</v>
       </c>
@@ -5831,7 +5905,7 @@
       <c r="N26" s="7"/>
     </row>
     <row r="27" customHeight="1" spans="2:14">
-      <c r="B27" s="31" t="s">
+      <c r="B27" s="34" t="s">
         <v>148</v>
       </c>
       <c r="C27" s="8"/>
@@ -5845,10 +5919,10 @@
       <c r="K27" s="8"/>
       <c r="L27" s="8"/>
       <c r="M27" s="8"/>
-      <c r="N27" s="30"/>
+      <c r="N27" s="33"/>
     </row>
     <row r="28" ht="73" customHeight="1" spans="2:14">
-      <c r="B28" s="30"/>
+      <c r="B28" s="33"/>
       <c r="C28" s="7" t="s">
         <v>149</v>
       </c>
@@ -5865,7 +5939,7 @@
       <c r="N28" s="8"/>
     </row>
     <row r="29" customHeight="1" spans="2:14">
-      <c r="B29" s="31" t="s">
+      <c r="B29" s="34" t="s">
         <v>126</v>
       </c>
       <c r="C29" s="8"/>
@@ -5879,10 +5953,10 @@
       <c r="K29" s="8"/>
       <c r="L29" s="8"/>
       <c r="M29" s="8"/>
-      <c r="N29" s="30"/>
+      <c r="N29" s="33"/>
     </row>
     <row r="30" ht="150" customHeight="1" spans="2:14">
-      <c r="B30" s="30"/>
+      <c r="B30" s="33"/>
       <c r="C30" s="7" t="s">
         <v>150</v>
       </c>
@@ -5899,7 +5973,7 @@
       <c r="N30" s="8"/>
     </row>
     <row r="31" customHeight="1" spans="2:14">
-      <c r="B31" s="31" t="s">
+      <c r="B31" s="34" t="s">
         <v>151</v>
       </c>
       <c r="C31" s="8"/>
@@ -5913,10 +5987,10 @@
       <c r="K31" s="8"/>
       <c r="L31" s="8"/>
       <c r="M31" s="8"/>
-      <c r="N31" s="30"/>
+      <c r="N31" s="33"/>
     </row>
     <row r="32" ht="112" customHeight="1" spans="2:14">
-      <c r="B32" s="30"/>
+      <c r="B32" s="33"/>
       <c r="C32" s="7" t="s">
         <v>152</v>
       </c>
@@ -5933,7 +6007,7 @@
       <c r="N32" s="7"/>
     </row>
     <row r="33" customHeight="1" spans="2:14">
-      <c r="B33" s="31" t="s">
+      <c r="B33" s="34" t="s">
         <v>153</v>
       </c>
       <c r="C33" s="8"/>
@@ -5947,10 +6021,10 @@
       <c r="K33" s="8"/>
       <c r="L33" s="8"/>
       <c r="M33" s="8"/>
-      <c r="N33" s="30"/>
+      <c r="N33" s="33"/>
     </row>
     <row r="34" ht="44" customHeight="1" spans="2:14">
-      <c r="B34" s="30"/>
+      <c r="B34" s="33"/>
       <c r="C34" s="7" t="s">
         <v>154</v>
       </c>
@@ -5967,7 +6041,7 @@
       <c r="N34" s="8"/>
     </row>
     <row r="35" customHeight="1" spans="2:14">
-      <c r="B35" s="31" t="s">
+      <c r="B35" s="34" t="s">
         <v>155</v>
       </c>
       <c r="C35" s="8"/>
@@ -5986,7 +6060,7 @@
       <c r="N35" s="8"/>
     </row>
     <row r="36" ht="233" customHeight="1" spans="2:14">
-      <c r="B36" s="30"/>
+      <c r="B36" s="33"/>
       <c r="C36" s="7" t="s">
         <v>157</v>
       </c>
@@ -6003,7 +6077,7 @@
       <c r="N36" s="7"/>
     </row>
     <row r="37" customHeight="1" spans="2:14">
-      <c r="B37" s="31" t="s">
+      <c r="B37" s="34" t="s">
         <v>158</v>
       </c>
       <c r="C37" s="8"/>
@@ -6017,10 +6091,10 @@
       <c r="K37" s="8"/>
       <c r="L37" s="8"/>
       <c r="M37" s="8"/>
-      <c r="N37" s="30"/>
+      <c r="N37" s="33"/>
     </row>
     <row r="38" customHeight="1" spans="2:14">
-      <c r="B38" s="30"/>
+      <c r="B38" s="33"/>
       <c r="C38" s="8"/>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
@@ -6032,10 +6106,10 @@
       <c r="K38" s="8"/>
       <c r="L38" s="8"/>
       <c r="M38" s="8"/>
-      <c r="N38" s="30"/>
+      <c r="N38" s="33"/>
     </row>
     <row r="39" customHeight="1" spans="2:14">
-      <c r="B39" s="30"/>
+      <c r="B39" s="33"/>
       <c r="C39" s="8"/>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
@@ -6047,10 +6121,10 @@
       <c r="K39" s="8"/>
       <c r="L39" s="8"/>
       <c r="M39" s="8"/>
-      <c r="N39" s="30"/>
+      <c r="N39" s="33"/>
     </row>
     <row r="40" customHeight="1" spans="1:1">
-      <c r="A40" s="29" t="s">
+      <c r="A40" s="32" t="s">
         <v>159</v>
       </c>
     </row>
@@ -6093,12 +6167,12 @@
       <c r="N43" s="9"/>
     </row>
     <row r="44" ht="90" customHeight="1" spans="2:2">
-      <c r="B44" s="33" t="s">
+      <c r="B44" s="36" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="46" customHeight="1" spans="1:1">
-      <c r="A46" s="29" t="s">
+      <c r="A46" s="32" t="s">
         <v>164</v>
       </c>
     </row>
@@ -6120,7 +6194,7 @@
       <c r="N47" s="9"/>
     </row>
     <row r="48" customHeight="1" spans="2:14">
-      <c r="B48" s="30" t="s">
+      <c r="B48" s="33" t="s">
         <v>166</v>
       </c>
       <c r="C48" s="8"/>
@@ -6134,10 +6208,10 @@
       <c r="K48" s="8"/>
       <c r="L48" s="8"/>
       <c r="M48" s="8"/>
-      <c r="N48" s="30"/>
+      <c r="N48" s="33"/>
     </row>
     <row r="49" customHeight="1" spans="1:1">
-      <c r="A49" s="29" t="s">
+      <c r="A49" s="32" t="s">
         <v>167</v>
       </c>
     </row>
@@ -6159,7 +6233,7 @@
       <c r="N50" s="9"/>
     </row>
     <row r="51" ht="28" customHeight="1" spans="2:14">
-      <c r="B51" s="32" t="s">
+      <c r="B51" s="35" t="s">
         <v>169</v>
       </c>
       <c r="C51" s="7"/>
@@ -6317,25 +6391,25 @@
       <c r="N60" s="9"/>
     </row>
     <row r="62" customHeight="1" spans="1:14">
-      <c r="A62" s="29" t="s">
+      <c r="A62" s="32" t="s">
         <v>173</v>
       </c>
       <c r="B62"/>
-      <c r="C62" s="34"/>
-      <c r="D62" s="34"/>
-      <c r="E62" s="34"/>
-      <c r="F62" s="34"/>
-      <c r="G62" s="34"/>
-      <c r="H62" s="34"/>
-      <c r="I62" s="34"/>
-      <c r="J62" s="34"/>
-      <c r="K62" s="34"/>
-      <c r="L62" s="34"/>
-      <c r="M62" s="34"/>
-      <c r="N62" s="37"/>
+      <c r="C62" s="37"/>
+      <c r="D62" s="37"/>
+      <c r="E62" s="37"/>
+      <c r="F62" s="37"/>
+      <c r="G62" s="37"/>
+      <c r="H62" s="37"/>
+      <c r="I62" s="37"/>
+      <c r="J62" s="37"/>
+      <c r="K62" s="37"/>
+      <c r="L62" s="37"/>
+      <c r="M62" s="37"/>
+      <c r="N62" s="40"/>
     </row>
     <row r="63" ht="53" customHeight="1" spans="1:14">
-      <c r="A63" s="35"/>
+      <c r="A63" s="38"/>
       <c r="B63" s="9" t="s">
         <v>174</v>
       </c>
@@ -6509,12 +6583,12 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:M55"/>
+  <dimension ref="A1:M67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A53" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="C1" activePane="topRight" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="A66" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="G59" sqref="F59:G59"/>
+      <selection pane="topRight" activeCell="D71" sqref="D71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18"/>
@@ -6723,7 +6797,7 @@
       </c>
     </row>
     <row r="21" ht="180" customHeight="1" spans="3:13">
-      <c r="C21" s="80" t="s">
+      <c r="C21" s="83" t="s">
         <v>205</v>
       </c>
       <c r="D21" s="8"/>
@@ -7060,63 +7134,214 @@
       <c r="L49" s="7"/>
       <c r="M49" s="7"/>
     </row>
-    <row r="50" spans="3:3">
+    <row r="50" spans="3:13">
       <c r="C50" s="10" t="s">
         <v>235</v>
       </c>
-    </row>
-    <row r="51" spans="4:13">
-      <c r="D51" s="11" t="s">
+      <c r="E50" s="30" t="s">
         <v>236</v>
       </c>
-      <c r="E51" s="11"/>
-      <c r="F51" s="11"/>
-      <c r="G51" s="11"/>
-      <c r="H51" s="11"/>
-      <c r="I51" s="11"/>
-      <c r="J51" s="11"/>
-      <c r="K51" s="11"/>
-      <c r="L51" s="11"/>
-      <c r="M51" s="11"/>
-    </row>
-    <row r="52" ht="60" customHeight="1" spans="4:13">
-      <c r="D52" s="7" t="s">
+      <c r="F50" s="30"/>
+      <c r="G50" s="30"/>
+      <c r="H50" s="30"/>
+      <c r="I50" s="30"/>
+      <c r="J50" s="30"/>
+      <c r="K50" s="30"/>
+      <c r="L50" s="30"/>
+      <c r="M50" s="30"/>
+    </row>
+    <row r="51" spans="3:13">
+      <c r="C51" s="10" t="s">
         <v>237</v>
       </c>
-      <c r="E52" s="7"/>
-      <c r="F52" s="7"/>
-      <c r="G52" s="7"/>
-      <c r="H52" s="7"/>
-      <c r="I52" s="7"/>
-      <c r="J52" s="7"/>
-      <c r="K52" s="7"/>
-      <c r="L52" s="7"/>
-      <c r="M52" s="7"/>
-    </row>
-    <row r="53" spans="2:2">
-      <c r="B53" s="5"/>
-    </row>
-    <row r="54" spans="3:3">
-      <c r="C54" s="10" t="s">
+      <c r="E51" s="30"/>
+      <c r="F51" s="30"/>
+      <c r="G51" s="30"/>
+      <c r="H51" s="30"/>
+      <c r="I51" s="30"/>
+      <c r="J51" s="30"/>
+      <c r="K51" s="30"/>
+      <c r="L51" s="30"/>
+      <c r="M51" s="30"/>
+    </row>
+    <row r="52" spans="4:13">
+      <c r="D52" s="11" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="55" ht="133" customHeight="1" spans="4:13">
-      <c r="D55" s="28" t="s">
+      <c r="E52" s="11"/>
+      <c r="F52" s="11"/>
+      <c r="G52" s="11"/>
+      <c r="H52" s="11"/>
+      <c r="I52" s="11"/>
+      <c r="J52" s="11"/>
+      <c r="K52" s="11"/>
+      <c r="L52" s="11"/>
+      <c r="M52" s="11"/>
+    </row>
+    <row r="53" ht="60" customHeight="1" spans="4:13">
+      <c r="D53" s="7" t="s">
         <v>239</v>
       </c>
-      <c r="E55" s="28"/>
-      <c r="F55" s="28"/>
-      <c r="G55" s="28"/>
-      <c r="H55" s="28"/>
-      <c r="I55" s="28"/>
-      <c r="J55" s="28"/>
-      <c r="K55" s="28"/>
-      <c r="L55" s="28"/>
-      <c r="M55" s="28"/>
+      <c r="E53" s="7"/>
+      <c r="F53" s="7"/>
+      <c r="G53" s="7"/>
+      <c r="H53" s="7"/>
+      <c r="I53" s="7"/>
+      <c r="J53" s="7"/>
+      <c r="K53" s="7"/>
+      <c r="L53" s="7"/>
+      <c r="M53" s="7"/>
+    </row>
+    <row r="54" spans="2:2">
+      <c r="B54" s="5"/>
+    </row>
+    <row r="55" spans="3:3">
+      <c r="C55" s="10" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="56" ht="133" customHeight="1" spans="4:13">
+      <c r="D56" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="E56" s="7"/>
+      <c r="F56" s="7"/>
+      <c r="G56" s="7"/>
+      <c r="H56" s="7"/>
+      <c r="I56" s="7"/>
+      <c r="J56" s="7"/>
+      <c r="K56" s="7"/>
+      <c r="L56" s="7"/>
+      <c r="M56" s="7"/>
+    </row>
+    <row r="58" spans="1:13">
+      <c r="A58" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="C58" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="D58" s="7"/>
+      <c r="E58" s="7"/>
+      <c r="F58" s="7"/>
+      <c r="G58" s="7"/>
+      <c r="H58" s="7"/>
+      <c r="I58" s="7"/>
+      <c r="J58" s="7"/>
+      <c r="K58" s="7"/>
+      <c r="L58" s="7"/>
+      <c r="M58" s="7"/>
+    </row>
+    <row r="59" ht="90" customHeight="1" spans="2:13">
+      <c r="B59" s="28" t="s">
+        <v>244</v>
+      </c>
+      <c r="C59" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="D59" s="7"/>
+      <c r="E59" s="7"/>
+      <c r="F59" s="7"/>
+      <c r="G59" s="7"/>
+      <c r="H59" s="7"/>
+      <c r="I59" s="7"/>
+      <c r="J59" s="7"/>
+      <c r="K59" s="7"/>
+      <c r="L59" s="7"/>
+      <c r="M59" s="7"/>
+    </row>
+    <row r="60" spans="2:13">
+      <c r="B60" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="D60" s="8" t="s">
+        <v>247</v>
+      </c>
+      <c r="E60" s="8"/>
+      <c r="F60" s="8"/>
+      <c r="G60" s="8"/>
+      <c r="H60" s="8"/>
+      <c r="I60" s="8"/>
+      <c r="J60" s="8"/>
+      <c r="K60" s="8"/>
+      <c r="L60" s="8"/>
+      <c r="M60" s="8"/>
+    </row>
+    <row r="61" ht="36" customHeight="1" spans="3:13">
+      <c r="C61" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="D61" s="8"/>
+      <c r="E61" s="8"/>
+      <c r="F61" s="8"/>
+      <c r="G61" s="8"/>
+      <c r="H61" s="8"/>
+      <c r="I61" s="8"/>
+      <c r="J61" s="8"/>
+      <c r="K61" s="8"/>
+      <c r="L61" s="8"/>
+      <c r="M61" s="8"/>
+    </row>
+    <row r="63" ht="20" customHeight="1" spans="1:13">
+      <c r="A63" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="C63" s="29" t="s">
+        <v>250</v>
+      </c>
+      <c r="D63" s="29"/>
+      <c r="E63" s="29"/>
+      <c r="F63" s="29"/>
+      <c r="G63" s="29"/>
+      <c r="H63" s="29"/>
+      <c r="I63" s="29"/>
+      <c r="J63" s="29"/>
+      <c r="K63" s="29"/>
+      <c r="L63" s="29"/>
+      <c r="M63" s="29"/>
+    </row>
+    <row r="64" spans="2:2">
+      <c r="B64" s="5" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="65" ht="123" customHeight="1" spans="3:13">
+      <c r="C65" s="31" t="s">
+        <v>252</v>
+      </c>
+      <c r="D65" s="31"/>
+      <c r="E65" s="31"/>
+      <c r="F65" s="31"/>
+      <c r="G65" s="31"/>
+      <c r="H65" s="31"/>
+      <c r="I65" s="31"/>
+      <c r="J65" s="31"/>
+      <c r="K65" s="31"/>
+      <c r="L65" s="31"/>
+      <c r="M65" s="31"/>
+    </row>
+    <row r="66" spans="2:2">
+      <c r="B66" s="5" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="67" ht="241" customHeight="1" spans="3:13">
+      <c r="C67" s="31" t="s">
+        <v>254</v>
+      </c>
+      <c r="D67" s="31"/>
+      <c r="E67" s="31"/>
+      <c r="F67" s="31"/>
+      <c r="G67" s="31"/>
+      <c r="H67" s="31"/>
+      <c r="I67" s="31"/>
+      <c r="J67" s="31"/>
+      <c r="K67" s="31"/>
+      <c r="L67" s="31"/>
+      <c r="M67" s="31"/>
     </row>
   </sheetData>
-  <mergeCells count="30">
+  <mergeCells count="38">
     <mergeCell ref="D4:M4"/>
     <mergeCell ref="C5:K5"/>
     <mergeCell ref="C7:M7"/>
@@ -7144,9 +7369,17 @@
     <mergeCell ref="D43:M43"/>
     <mergeCell ref="D45:M45"/>
     <mergeCell ref="C49:M49"/>
-    <mergeCell ref="D51:M51"/>
+    <mergeCell ref="E50:M50"/>
     <mergeCell ref="D52:M52"/>
-    <mergeCell ref="D55:M55"/>
+    <mergeCell ref="D53:M53"/>
+    <mergeCell ref="D56:M56"/>
+    <mergeCell ref="C58:M58"/>
+    <mergeCell ref="C59:M59"/>
+    <mergeCell ref="D60:M60"/>
+    <mergeCell ref="C61:M61"/>
+    <mergeCell ref="C63:M63"/>
+    <mergeCell ref="C65:M65"/>
+    <mergeCell ref="C67:M67"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -7176,17 +7409,17 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="2" t="s">
-        <v>240</v>
+        <v>255</v>
       </c>
     </row>
     <row r="2" spans="2:2">
       <c r="B2" s="5" t="s">
-        <v>241</v>
+        <v>256</v>
       </c>
     </row>
     <row r="3" ht="108" customHeight="1" spans="3:14">
       <c r="C3" s="7" t="s">
-        <v>242</v>
+        <v>257</v>
       </c>
       <c r="D3" s="8"/>
       <c r="E3" s="8"/>
@@ -7202,10 +7435,10 @@
     </row>
     <row r="4" spans="2:14">
       <c r="B4" s="5" t="s">
-        <v>243</v>
+        <v>258</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>244</v>
+        <v>259</v>
       </c>
       <c r="E4" s="8"/>
       <c r="F4" s="8"/>
@@ -7220,7 +7453,7 @@
     </row>
     <row r="5" ht="36" customHeight="1" spans="3:14">
       <c r="C5" s="7" t="s">
-        <v>245</v>
+        <v>260</v>
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="7"/>
@@ -7236,12 +7469,12 @@
     </row>
     <row r="6" spans="2:2">
       <c r="B6" s="5" t="s">
-        <v>246</v>
+        <v>261</v>
       </c>
     </row>
     <row r="7" ht="37" customHeight="1" spans="3:14">
       <c r="C7" s="7" t="s">
-        <v>247</v>
+        <v>262</v>
       </c>
       <c r="D7" s="7"/>
       <c r="E7" s="7"/>
@@ -7257,12 +7490,12 @@
     </row>
     <row r="9" spans="2:2">
       <c r="B9" s="5" t="s">
-        <v>248</v>
+        <v>263</v>
       </c>
     </row>
     <row r="10" ht="108" customHeight="1" spans="3:14">
       <c r="C10" s="7" t="s">
-        <v>249</v>
+        <v>264</v>
       </c>
       <c r="D10" s="7"/>
       <c r="E10" s="7"/>
@@ -7278,7 +7511,7 @@
     </row>
     <row r="11" ht="76" customHeight="1" spans="3:14">
       <c r="C11" s="7" t="s">
-        <v>250</v>
+        <v>265</v>
       </c>
       <c r="D11" s="7"/>
       <c r="E11" s="7"/>
@@ -7294,12 +7527,12 @@
     </row>
     <row r="12" spans="2:2">
       <c r="B12" s="5" t="s">
-        <v>251</v>
+        <v>266</v>
       </c>
     </row>
     <row r="13" spans="3:14">
       <c r="C13" s="7" t="s">
-        <v>252</v>
+        <v>267</v>
       </c>
       <c r="D13" s="7"/>
       <c r="E13" s="7"/>
@@ -7315,12 +7548,12 @@
     </row>
     <row r="14" spans="2:2">
       <c r="B14" s="5" t="s">
-        <v>253</v>
+        <v>268</v>
       </c>
     </row>
     <row r="15" ht="136" customHeight="1" spans="3:14">
       <c r="C15" s="7" t="s">
-        <v>254</v>
+        <v>269</v>
       </c>
       <c r="D15" s="7"/>
       <c r="E15" s="7"/>
@@ -7336,10 +7569,10 @@
     </row>
     <row r="16" spans="2:14">
       <c r="B16" s="5" t="s">
-        <v>255</v>
+        <v>270</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>256</v>
+        <v>271</v>
       </c>
       <c r="E16" s="7"/>
       <c r="F16" s="7"/>
@@ -7354,7 +7587,7 @@
     </row>
     <row r="17" ht="72" customHeight="1" spans="3:14">
       <c r="C17" s="7" t="s">
-        <v>257</v>
+        <v>272</v>
       </c>
       <c r="D17" s="7"/>
       <c r="E17" s="7"/>
@@ -7384,12 +7617,12 @@
     </row>
     <row r="19" ht="20" customHeight="1" spans="1:1">
       <c r="A19" s="2" t="s">
-        <v>258</v>
+        <v>273</v>
       </c>
     </row>
     <row r="20" ht="38" customHeight="1" spans="2:14">
       <c r="B20" s="9" t="s">
-        <v>259</v>
+        <v>274</v>
       </c>
       <c r="C20" s="9"/>
       <c r="D20" s="9"/>
@@ -7406,12 +7639,12 @@
     </row>
     <row r="21" spans="2:2">
       <c r="B21" s="5" t="s">
-        <v>260</v>
+        <v>275</v>
       </c>
     </row>
     <row r="22" spans="3:14">
       <c r="C22" s="7" t="s">
-        <v>261</v>
+        <v>276</v>
       </c>
       <c r="D22" s="7"/>
       <c r="E22" s="7"/>
@@ -7427,12 +7660,12 @@
     </row>
     <row r="23" spans="2:2">
       <c r="B23" s="5" t="s">
-        <v>262</v>
+        <v>277</v>
       </c>
     </row>
     <row r="24" ht="54" customHeight="1" spans="3:14">
       <c r="C24" s="7" t="s">
-        <v>263</v>
+        <v>278</v>
       </c>
       <c r="D24" s="7"/>
       <c r="E24" s="7"/>
@@ -7448,12 +7681,12 @@
     </row>
     <row r="25" spans="3:3">
       <c r="C25" s="10" t="s">
-        <v>264</v>
+        <v>279</v>
       </c>
     </row>
     <row r="26" spans="4:14">
       <c r="D26" s="7" t="s">
-        <v>265</v>
+        <v>280</v>
       </c>
       <c r="E26" s="7"/>
       <c r="F26" s="7"/>
@@ -7468,12 +7701,12 @@
     </row>
     <row r="27" spans="3:3">
       <c r="C27" s="10" t="s">
-        <v>266</v>
+        <v>281</v>
       </c>
     </row>
     <row r="28" spans="4:14">
       <c r="D28" s="8" t="s">
-        <v>267</v>
+        <v>282</v>
       </c>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
@@ -7488,17 +7721,17 @@
     </row>
     <row r="30" spans="1:1">
       <c r="A30" s="2" t="s">
-        <v>268</v>
+        <v>283</v>
       </c>
     </row>
     <row r="31" spans="2:2">
       <c r="B31" s="5" t="s">
-        <v>269</v>
+        <v>284</v>
       </c>
     </row>
     <row r="32" ht="73" customHeight="1" spans="3:14">
       <c r="C32" s="7" t="s">
-        <v>270</v>
+        <v>285</v>
       </c>
       <c r="D32" s="7"/>
       <c r="E32" s="7"/>
@@ -7514,12 +7747,12 @@
     </row>
     <row r="33" spans="2:2">
       <c r="B33" s="5" t="s">
-        <v>271</v>
+        <v>286</v>
       </c>
     </row>
     <row r="34" ht="82" customHeight="1" spans="3:14">
       <c r="C34" s="7" t="s">
-        <v>272</v>
+        <v>287</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
@@ -7535,12 +7768,12 @@
     </row>
     <row r="35" spans="2:2">
       <c r="B35" s="5" t="s">
-        <v>273</v>
+        <v>288</v>
       </c>
     </row>
     <row r="36" ht="145" customHeight="1" spans="3:14">
       <c r="C36" s="7" t="s">
-        <v>274</v>
+        <v>289</v>
       </c>
       <c r="D36" s="7"/>
       <c r="E36" s="7"/>
@@ -7556,12 +7789,12 @@
     </row>
     <row r="37" spans="2:2">
       <c r="B37" s="5" t="s">
-        <v>275</v>
+        <v>290</v>
       </c>
     </row>
     <row r="38" spans="3:14">
       <c r="C38" s="8" t="s">
-        <v>276</v>
+        <v>291</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
@@ -7577,17 +7810,17 @@
     </row>
     <row r="39" spans="2:2">
       <c r="B39" s="5" t="s">
-        <v>277</v>
+        <v>292</v>
       </c>
     </row>
     <row r="40" spans="3:3">
       <c r="C40" s="10" t="s">
-        <v>278</v>
+        <v>293</v>
       </c>
     </row>
     <row r="41" ht="55" customHeight="1" spans="4:14">
       <c r="D41" s="7" t="s">
-        <v>279</v>
+        <v>294</v>
       </c>
       <c r="E41" s="7"/>
       <c r="F41" s="7"/>
@@ -7602,12 +7835,12 @@
     </row>
     <row r="42" spans="3:3">
       <c r="C42" s="10" t="s">
-        <v>280</v>
+        <v>295</v>
       </c>
     </row>
     <row r="43" ht="38" customHeight="1" spans="4:14">
       <c r="D43" s="7" t="s">
-        <v>281</v>
+        <v>296</v>
       </c>
       <c r="E43" s="7"/>
       <c r="F43" s="7"/>
@@ -7622,12 +7855,12 @@
     </row>
     <row r="44" spans="3:3">
       <c r="C44" s="10" t="s">
-        <v>282</v>
+        <v>297</v>
       </c>
     </row>
     <row r="45" spans="4:14">
       <c r="D45" s="7" t="s">
-        <v>283</v>
+        <v>298</v>
       </c>
       <c r="E45" s="7"/>
       <c r="F45" s="7"/>
@@ -7642,10 +7875,10 @@
     </row>
     <row r="47" spans="1:14">
       <c r="A47" s="2" t="s">
-        <v>284</v>
+        <v>299</v>
       </c>
       <c r="C47" s="8" t="s">
-        <v>285</v>
+        <v>300</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
@@ -7661,12 +7894,12 @@
     </row>
     <row r="48" spans="2:2">
       <c r="B48" s="5" t="s">
-        <v>286</v>
+        <v>301</v>
       </c>
     </row>
     <row r="49" ht="74" customHeight="1" spans="3:14">
       <c r="C49" s="7" t="s">
-        <v>287</v>
+        <v>302</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
@@ -7682,12 +7915,12 @@
     </row>
     <row r="50" spans="2:2">
       <c r="B50" s="5" t="s">
-        <v>288</v>
+        <v>303</v>
       </c>
     </row>
     <row r="51" ht="57" customHeight="1" spans="3:14">
       <c r="C51" s="7" t="s">
-        <v>289</v>
+        <v>304</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
@@ -7703,12 +7936,12 @@
     </row>
     <row r="52" spans="2:2">
       <c r="B52" s="5" t="s">
-        <v>290</v>
+        <v>305</v>
       </c>
     </row>
     <row r="53" ht="37" customHeight="1" spans="3:14">
       <c r="C53" s="7" t="s">
-        <v>291</v>
+        <v>306</v>
       </c>
       <c r="D53" s="7"/>
       <c r="E53" s="7"/>
@@ -7724,24 +7957,24 @@
     </row>
     <row r="55" spans="1:1">
       <c r="A55" s="2" t="s">
-        <v>292</v>
+        <v>307</v>
       </c>
     </row>
     <row r="56" spans="2:3">
       <c r="B56" s="5" t="s">
-        <v>293</v>
+        <v>308</v>
       </c>
       <c r="C56" s="10"/>
     </row>
     <row r="57" spans="3:3">
       <c r="C57" s="10" t="s">
-        <v>294</v>
+        <v>309</v>
       </c>
     </row>
     <row r="58" spans="3:14">
       <c r="C58" s="10"/>
       <c r="D58" s="7" t="s">
-        <v>295</v>
+        <v>310</v>
       </c>
       <c r="E58" s="7"/>
       <c r="F58" s="7"/>
@@ -7756,13 +7989,13 @@
     </row>
     <row r="59" spans="3:3">
       <c r="C59" s="10" t="s">
-        <v>296</v>
+        <v>311</v>
       </c>
     </row>
     <row r="60" ht="95" customHeight="1" spans="3:14">
       <c r="C60" s="10"/>
-      <c r="D60" s="80" t="s">
-        <v>297</v>
+      <c r="D60" s="83" t="s">
+        <v>312</v>
       </c>
       <c r="E60" s="7"/>
       <c r="F60" s="7"/>
@@ -7777,13 +8010,13 @@
     </row>
     <row r="61" spans="3:3">
       <c r="C61" s="10" t="s">
-        <v>298</v>
+        <v>313</v>
       </c>
     </row>
     <row r="62" ht="108" customHeight="1" spans="3:14">
       <c r="C62" s="10"/>
       <c r="D62" s="7" t="s">
-        <v>299</v>
+        <v>314</v>
       </c>
       <c r="E62" s="7"/>
       <c r="F62" s="7"/>
@@ -7798,12 +8031,12 @@
     </row>
     <row r="63" spans="3:3">
       <c r="C63" s="10" t="s">
-        <v>300</v>
+        <v>315</v>
       </c>
     </row>
     <row r="64" ht="36" customHeight="1" spans="4:14">
       <c r="D64" s="7" t="s">
-        <v>301</v>
+        <v>316</v>
       </c>
       <c r="E64" s="7"/>
       <c r="F64" s="7"/>
@@ -7830,10 +8063,10 @@
     </row>
     <row r="66" ht="19" customHeight="1" spans="1:14">
       <c r="A66" s="2" t="s">
-        <v>302</v>
+        <v>317</v>
       </c>
       <c r="C66" s="7" t="s">
-        <v>303</v>
+        <v>318</v>
       </c>
       <c r="D66" s="7"/>
       <c r="E66" s="7"/>
@@ -7849,19 +8082,19 @@
     </row>
     <row r="67" spans="2:3">
       <c r="B67" s="5" t="s">
-        <v>304</v>
+        <v>319</v>
       </c>
       <c r="C67" s="10"/>
     </row>
     <row r="68" spans="3:3">
       <c r="C68" s="10" t="s">
-        <v>305</v>
+        <v>320</v>
       </c>
     </row>
     <row r="69" ht="72" customHeight="1" spans="3:14">
       <c r="C69" s="10"/>
-      <c r="D69" s="80" t="s">
-        <v>306</v>
+      <c r="D69" s="83" t="s">
+        <v>321</v>
       </c>
       <c r="E69" s="7"/>
       <c r="F69" s="7"/>
@@ -7876,13 +8109,13 @@
     </row>
     <row r="70" spans="3:3">
       <c r="C70" s="10" t="s">
-        <v>307</v>
+        <v>322</v>
       </c>
     </row>
     <row r="71" ht="102" customHeight="1" spans="3:14">
       <c r="C71" s="10"/>
-      <c r="D71" s="80" t="s">
-        <v>308</v>
+      <c r="D71" s="83" t="s">
+        <v>323</v>
       </c>
       <c r="E71" s="7"/>
       <c r="F71" s="7"/>
@@ -7897,7 +8130,7 @@
     </row>
     <row r="72" spans="3:13">
       <c r="C72" s="10" t="s">
-        <v>309</v>
+        <v>324</v>
       </c>
       <c r="D72"/>
       <c r="E72"/>
@@ -7913,7 +8146,7 @@
     <row r="73" spans="3:13">
       <c r="C73" s="10"/>
       <c r="D73" s="8" t="s">
-        <v>310</v>
+        <v>325</v>
       </c>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
@@ -7927,7 +8160,7 @@
     </row>
     <row r="74" spans="3:13">
       <c r="C74" s="10" t="s">
-        <v>311</v>
+        <v>326</v>
       </c>
       <c r="D74"/>
       <c r="E74"/>
@@ -7943,7 +8176,7 @@
     <row r="75" ht="57" customHeight="1" spans="3:14">
       <c r="C75" s="10"/>
       <c r="D75" s="7" t="s">
-        <v>312</v>
+        <v>327</v>
       </c>
       <c r="E75" s="7"/>
       <c r="F75" s="7"/>
@@ -7958,13 +8191,13 @@
     </row>
     <row r="76" spans="3:3">
       <c r="C76" s="10" t="s">
-        <v>313</v>
+        <v>328</v>
       </c>
     </row>
     <row r="77" ht="108" customHeight="1" spans="3:14">
       <c r="C77" s="10"/>
-      <c r="D77" s="80" t="s">
-        <v>314</v>
+      <c r="D77" s="83" t="s">
+        <v>329</v>
       </c>
       <c r="E77" s="7"/>
       <c r="F77" s="7"/>
@@ -7979,17 +8212,17 @@
     </row>
     <row r="79" spans="1:1">
       <c r="A79" s="2" t="s">
-        <v>315</v>
+        <v>330</v>
       </c>
     </row>
     <row r="80" spans="2:2">
       <c r="B80" s="5" t="s">
-        <v>316</v>
+        <v>331</v>
       </c>
     </row>
     <row r="81" ht="159" customHeight="1" spans="3:14">
       <c r="C81" s="7" t="s">
-        <v>317</v>
+        <v>332</v>
       </c>
       <c r="D81" s="7"/>
       <c r="E81" s="7"/>
@@ -8005,10 +8238,10 @@
     </row>
     <row r="82" spans="2:14">
       <c r="B82" s="5" t="s">
-        <v>318</v>
+        <v>333</v>
       </c>
       <c r="D82" s="7" t="s">
-        <v>319</v>
+        <v>334</v>
       </c>
       <c r="E82" s="7"/>
       <c r="F82" s="7"/>
@@ -8023,7 +8256,7 @@
     </row>
     <row r="83" ht="58" customHeight="1" spans="3:14">
       <c r="C83" s="7" t="s">
-        <v>320</v>
+        <v>335</v>
       </c>
       <c r="D83" s="7"/>
       <c r="E83" s="7"/>
@@ -8039,7 +8272,7 @@
     </row>
     <row r="84" ht="22" customHeight="1" spans="3:13">
       <c r="C84" s="11" t="s">
-        <v>321</v>
+        <v>336</v>
       </c>
       <c r="D84" s="7"/>
       <c r="E84" s="7"/>
@@ -8055,7 +8288,7 @@
     <row r="85" ht="161" customHeight="1" spans="3:14">
       <c r="C85" s="7"/>
       <c r="D85" s="7" t="s">
-        <v>322</v>
+        <v>337</v>
       </c>
       <c r="E85" s="7"/>
       <c r="F85" s="7"/>
@@ -8070,17 +8303,17 @@
     </row>
     <row r="86" spans="1:1">
       <c r="A86" s="2" t="s">
-        <v>323</v>
+        <v>338</v>
       </c>
     </row>
     <row r="87" spans="2:2">
       <c r="B87" s="5" t="s">
-        <v>324</v>
+        <v>339</v>
       </c>
     </row>
     <row r="88" ht="85" customHeight="1" spans="3:14">
       <c r="C88" s="7" t="s">
-        <v>325</v>
+        <v>340</v>
       </c>
       <c r="D88" s="7"/>
       <c r="E88" s="7"/>
@@ -8096,12 +8329,12 @@
     </row>
     <row r="89" spans="3:3">
       <c r="C89" s="10" t="s">
-        <v>326</v>
+        <v>341</v>
       </c>
     </row>
     <row r="90" ht="60" customHeight="1" spans="4:14">
       <c r="D90" s="7" t="s">
-        <v>327</v>
+        <v>342</v>
       </c>
       <c r="E90" s="7"/>
       <c r="F90" s="7"/>
@@ -8116,12 +8349,12 @@
     </row>
     <row r="91" spans="2:2">
       <c r="B91" s="5" t="s">
-        <v>328</v>
+        <v>343</v>
       </c>
     </row>
     <row r="92" ht="56" customHeight="1" spans="3:14">
       <c r="C92" s="7" t="s">
-        <v>329</v>
+        <v>344</v>
       </c>
       <c r="D92" s="7"/>
       <c r="E92" s="7"/>
@@ -8137,12 +8370,12 @@
     </row>
     <row r="93" spans="3:3">
       <c r="C93" s="10" t="s">
-        <v>330</v>
+        <v>345</v>
       </c>
     </row>
     <row r="94" ht="153" customHeight="1" spans="4:14">
       <c r="D94" s="7" t="s">
-        <v>331</v>
+        <v>346</v>
       </c>
       <c r="E94" s="7"/>
       <c r="F94" s="7"/>
@@ -8170,12 +8403,12 @@
     </row>
     <row r="96" ht="20" customHeight="1" spans="1:1">
       <c r="A96" s="2" t="s">
-        <v>332</v>
+        <v>347</v>
       </c>
     </row>
     <row r="97" ht="41" customHeight="1" spans="2:14">
       <c r="B97" s="7" t="s">
-        <v>333</v>
+        <v>348</v>
       </c>
       <c r="C97" s="7"/>
       <c r="D97" s="7"/>
@@ -8192,12 +8425,12 @@
     </row>
     <row r="98" ht="23" customHeight="1" spans="2:2">
       <c r="B98" s="5" t="s">
-        <v>334</v>
+        <v>349</v>
       </c>
     </row>
     <row r="99" ht="172" customHeight="1" spans="3:14">
       <c r="C99" s="7" t="s">
-        <v>335</v>
+        <v>350</v>
       </c>
       <c r="D99" s="7"/>
       <c r="E99" s="7"/>
@@ -8213,12 +8446,12 @@
     </row>
     <row r="100" spans="2:2">
       <c r="B100" s="5" t="s">
-        <v>336</v>
+        <v>351</v>
       </c>
     </row>
     <row r="101" ht="55" customHeight="1" spans="3:14">
       <c r="C101" s="7" t="s">
-        <v>337</v>
+        <v>352</v>
       </c>
       <c r="D101" s="7"/>
       <c r="E101" s="7"/>
@@ -8234,7 +8467,7 @@
     </row>
     <row r="102" ht="125" customHeight="1" spans="3:14">
       <c r="C102" s="12" t="s">
-        <v>338</v>
+        <v>353</v>
       </c>
       <c r="D102" s="13"/>
       <c r="E102" s="13"/>
@@ -8264,10 +8497,10 @@
     </row>
     <row r="104" ht="24" customHeight="1" spans="1:14">
       <c r="A104" s="2" t="s">
-        <v>339</v>
+        <v>354</v>
       </c>
       <c r="C104" s="7" t="s">
-        <v>340</v>
+        <v>355</v>
       </c>
       <c r="D104" s="7"/>
       <c r="E104" s="7"/>
@@ -8283,12 +8516,12 @@
     </row>
     <row r="105" ht="20" customHeight="1" spans="2:2">
       <c r="B105" s="5" t="s">
-        <v>341</v>
+        <v>356</v>
       </c>
     </row>
     <row r="106" ht="20" customHeight="1" spans="3:14">
       <c r="C106" s="8" t="s">
-        <v>342</v>
+        <v>357</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
@@ -8304,12 +8537,12 @@
     </row>
     <row r="107" ht="20" customHeight="1" spans="2:2">
       <c r="B107" s="5" t="s">
-        <v>343</v>
+        <v>358</v>
       </c>
     </row>
     <row r="108" ht="20" customHeight="1" spans="3:14">
       <c r="C108" s="8" t="s">
-        <v>344</v>
+        <v>359</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
@@ -8325,12 +8558,12 @@
     </row>
     <row r="109" ht="20" customHeight="1" spans="2:2">
       <c r="B109" s="5" t="s">
-        <v>345</v>
+        <v>360</v>
       </c>
     </row>
     <row r="110" ht="19" customHeight="1" spans="3:14">
       <c r="C110" s="7" t="s">
-        <v>346</v>
+        <v>361</v>
       </c>
       <c r="D110" s="7"/>
       <c r="E110" s="7"/>
@@ -8346,17 +8579,17 @@
     </row>
     <row r="112" ht="19" customHeight="1" spans="1:1">
       <c r="A112" s="2" t="s">
-        <v>347</v>
+        <v>362</v>
       </c>
     </row>
     <row r="113" spans="2:2">
       <c r="B113" s="5" t="s">
-        <v>348</v>
+        <v>363</v>
       </c>
     </row>
     <row r="114" ht="35" customHeight="1" spans="3:14">
       <c r="C114" s="7" t="s">
-        <v>349</v>
+        <v>364</v>
       </c>
       <c r="D114" s="7"/>
       <c r="E114" s="7"/>
@@ -8372,17 +8605,17 @@
     </row>
     <row r="115" spans="2:2">
       <c r="B115" s="5" t="s">
-        <v>350</v>
+        <v>365</v>
       </c>
     </row>
     <row r="116" spans="3:3">
       <c r="C116" s="10" t="s">
-        <v>351</v>
+        <v>366</v>
       </c>
     </row>
     <row r="117" ht="37" customHeight="1" spans="4:14">
       <c r="D117" s="7" t="s">
-        <v>352</v>
+        <v>367</v>
       </c>
       <c r="E117" s="7"/>
       <c r="F117" s="7"/>
@@ -8397,12 +8630,12 @@
     </row>
     <row r="118" spans="3:3">
       <c r="C118" s="10" t="s">
-        <v>353</v>
+        <v>368</v>
       </c>
     </row>
     <row r="119" spans="4:14">
       <c r="D119" s="7" t="s">
-        <v>354</v>
+        <v>369</v>
       </c>
       <c r="E119" s="7"/>
       <c r="F119" s="7"/>
@@ -8417,12 +8650,12 @@
     </row>
     <row r="120" spans="3:3">
       <c r="C120" s="10" t="s">
-        <v>355</v>
+        <v>370</v>
       </c>
     </row>
     <row r="121" ht="54" customHeight="1" spans="4:14">
       <c r="D121" s="7" t="s">
-        <v>356</v>
+        <v>371</v>
       </c>
       <c r="E121" s="7"/>
       <c r="F121" s="7"/>
@@ -8437,12 +8670,12 @@
     </row>
     <row r="122" spans="2:2">
       <c r="B122" s="5" t="s">
-        <v>357</v>
+        <v>372</v>
       </c>
     </row>
     <row r="123" ht="36" customHeight="1" spans="3:14">
       <c r="C123" s="7" t="s">
-        <v>358</v>
+        <v>373</v>
       </c>
       <c r="D123" s="7"/>
       <c r="E123" s="7"/>
@@ -8458,17 +8691,17 @@
     </row>
     <row r="124" spans="2:2">
       <c r="B124" s="5" t="s">
-        <v>359</v>
+        <v>374</v>
       </c>
     </row>
     <row r="125" spans="3:3">
       <c r="C125" s="10" t="s">
-        <v>360</v>
+        <v>375</v>
       </c>
     </row>
     <row r="126" spans="4:14">
       <c r="D126" s="7" t="s">
-        <v>361</v>
+        <v>376</v>
       </c>
       <c r="E126" s="7"/>
       <c r="F126" s="7"/>
@@ -8483,12 +8716,12 @@
     </row>
     <row r="127" spans="3:3">
       <c r="C127" s="10" t="s">
-        <v>362</v>
+        <v>377</v>
       </c>
     </row>
     <row r="128" ht="21" customHeight="1" spans="4:14">
       <c r="D128" s="7" t="s">
-        <v>363</v>
+        <v>378</v>
       </c>
       <c r="E128" s="7"/>
       <c r="F128" s="7"/>
@@ -8503,12 +8736,12 @@
     </row>
     <row r="129" ht="19" customHeight="1" spans="2:2">
       <c r="B129" s="5" t="s">
-        <v>364</v>
+        <v>379</v>
       </c>
     </row>
     <row r="130" spans="3:13">
       <c r="C130" s="14" t="s">
-        <v>365</v>
+        <v>380</v>
       </c>
       <c r="D130" s="15"/>
       <c r="E130" s="15"/>
@@ -8524,7 +8757,7 @@
     <row r="131" ht="76" customHeight="1" spans="3:14">
       <c r="C131" s="14"/>
       <c r="D131" s="16" t="s">
-        <v>366</v>
+        <v>381</v>
       </c>
       <c r="E131" s="16"/>
       <c r="F131" s="16"/>
@@ -8539,7 +8772,7 @@
     </row>
     <row r="132" spans="3:13">
       <c r="C132" s="14" t="s">
-        <v>367</v>
+        <v>382</v>
       </c>
       <c r="D132" s="15"/>
       <c r="E132" s="15"/>
@@ -8555,7 +8788,7 @@
     <row r="133" ht="95" customHeight="1" spans="3:14">
       <c r="C133" s="14"/>
       <c r="D133" s="16" t="s">
-        <v>368</v>
+        <v>383</v>
       </c>
       <c r="E133" s="16"/>
       <c r="F133" s="16"/>
@@ -8570,7 +8803,7 @@
     </row>
     <row r="134" spans="3:13">
       <c r="C134" s="14" t="s">
-        <v>369</v>
+        <v>384</v>
       </c>
       <c r="D134" s="15"/>
       <c r="E134" s="15"/>
@@ -8586,7 +8819,7 @@
     <row r="135" ht="79" customHeight="1" spans="3:14">
       <c r="C135" s="14"/>
       <c r="D135" s="16" t="s">
-        <v>370</v>
+        <v>385</v>
       </c>
       <c r="E135" s="16"/>
       <c r="F135" s="16"/>
@@ -8601,12 +8834,12 @@
     </row>
     <row r="136" spans="3:3">
       <c r="C136" s="10" t="s">
-        <v>371</v>
+        <v>386</v>
       </c>
     </row>
     <row r="137" ht="73" customHeight="1" spans="4:14">
       <c r="D137" s="16" t="s">
-        <v>372</v>
+        <v>387</v>
       </c>
       <c r="E137" s="16"/>
       <c r="F137" s="16"/>
@@ -8621,12 +8854,12 @@
     </row>
     <row r="138" spans="2:2">
       <c r="B138" s="5" t="s">
-        <v>373</v>
+        <v>388</v>
       </c>
     </row>
     <row r="139" spans="3:14">
       <c r="C139" s="7" t="s">
-        <v>374</v>
+        <v>389</v>
       </c>
       <c r="D139" s="7"/>
       <c r="E139" s="7"/>
@@ -8642,10 +8875,10 @@
     </row>
     <row r="141" spans="1:14">
       <c r="A141" s="2" t="s">
-        <v>375</v>
+        <v>390</v>
       </c>
       <c r="C141" s="7" t="s">
-        <v>376</v>
+        <v>391</v>
       </c>
       <c r="D141" s="7"/>
       <c r="E141" s="7"/>
@@ -8661,7 +8894,7 @@
     </row>
     <row r="142" ht="187" customHeight="1" spans="2:14">
       <c r="B142" s="9" t="s">
-        <v>377</v>
+        <v>392</v>
       </c>
       <c r="C142" s="9"/>
       <c r="D142" s="9"/>
@@ -8678,12 +8911,12 @@
     </row>
     <row r="144" spans="1:1">
       <c r="A144" s="2" t="s">
-        <v>378</v>
+        <v>393</v>
       </c>
     </row>
     <row r="145" ht="39" customHeight="1" spans="2:14">
       <c r="B145" s="9" t="s">
-        <v>379</v>
+        <v>394</v>
       </c>
       <c r="C145" s="9"/>
       <c r="D145" s="9"/>
@@ -8700,12 +8933,12 @@
     </row>
     <row r="146" spans="2:2">
       <c r="B146" s="5" t="s">
-        <v>380</v>
+        <v>395</v>
       </c>
     </row>
     <row r="147" ht="220" customHeight="1" spans="3:14">
       <c r="C147" s="7" t="s">
-        <v>381</v>
+        <v>396</v>
       </c>
       <c r="D147" s="7"/>
       <c r="E147" s="7"/>
@@ -8721,10 +8954,10 @@
     </row>
     <row r="149" spans="1:14">
       <c r="A149" s="2" t="s">
-        <v>382</v>
+        <v>397</v>
       </c>
       <c r="C149" s="8" t="s">
-        <v>383</v>
+        <v>398</v>
       </c>
       <c r="D149" s="8"/>
       <c r="E149" s="8"/>
@@ -8740,12 +8973,12 @@
     </row>
     <row r="150" spans="2:2">
       <c r="B150" s="5" t="s">
-        <v>384</v>
+        <v>399</v>
       </c>
     </row>
     <row r="151" ht="190" customHeight="1" spans="3:14">
       <c r="C151" s="7" t="s">
-        <v>385</v>
+        <v>400</v>
       </c>
       <c r="D151" s="7"/>
       <c r="E151" s="7"/>
@@ -8761,12 +8994,12 @@
     </row>
     <row r="152" spans="2:2">
       <c r="B152" s="5" t="s">
-        <v>386</v>
+        <v>401</v>
       </c>
     </row>
     <row r="153" ht="117" customHeight="1" spans="3:14">
-      <c r="C153" s="80" t="s">
-        <v>387</v>
+      <c r="C153" s="83" t="s">
+        <v>402</v>
       </c>
       <c r="D153" s="7"/>
       <c r="E153" s="7"/>
@@ -8782,10 +9015,10 @@
     </row>
     <row r="154" spans="1:14">
       <c r="A154" s="2" t="s">
-        <v>388</v>
+        <v>403</v>
       </c>
       <c r="C154" s="7" t="s">
-        <v>389</v>
+        <v>404</v>
       </c>
       <c r="D154" s="7"/>
       <c r="E154" s="7"/>
@@ -8801,12 +9034,12 @@
     </row>
     <row r="155" spans="2:2">
       <c r="B155" s="5" t="s">
-        <v>390</v>
+        <v>405</v>
       </c>
     </row>
     <row r="156" ht="145" customHeight="1" spans="3:14">
       <c r="C156" s="7" t="s">
-        <v>391</v>
+        <v>406</v>
       </c>
       <c r="D156" s="7"/>
       <c r="E156" s="7"/>
@@ -8822,12 +9055,12 @@
     </row>
     <row r="157" spans="2:2">
       <c r="B157" s="5" t="s">
-        <v>392</v>
+        <v>407</v>
       </c>
     </row>
     <row r="158" ht="102" customHeight="1" spans="3:14">
-      <c r="C158" s="80" t="s">
-        <v>393</v>
+      <c r="C158" s="83" t="s">
+        <v>408</v>
       </c>
       <c r="D158" s="7"/>
       <c r="E158" s="7"/>
@@ -8843,12 +9076,12 @@
     </row>
     <row r="159" spans="2:2">
       <c r="B159" s="5" t="s">
-        <v>394</v>
+        <v>409</v>
       </c>
     </row>
     <row r="160" ht="55" customHeight="1" spans="3:14">
       <c r="C160" s="7" t="s">
-        <v>395</v>
+        <v>410</v>
       </c>
       <c r="D160" s="7"/>
       <c r="E160" s="7"/>
@@ -8864,7 +9097,7 @@
     </row>
     <row r="161" ht="71" customHeight="1" spans="3:14">
       <c r="C161" s="7" t="s">
-        <v>396</v>
+        <v>411</v>
       </c>
       <c r="D161" s="7"/>
       <c r="E161" s="7"/>
@@ -8880,7 +9113,7 @@
     </row>
     <row r="162" ht="162" customHeight="1" spans="3:14">
       <c r="C162" s="7" t="s">
-        <v>397</v>
+        <v>412</v>
       </c>
       <c r="D162" s="7"/>
       <c r="E162" s="7"/>
@@ -8896,7 +9129,7 @@
     </row>
     <row r="163" ht="139" customHeight="1" spans="3:14">
       <c r="C163" s="7" t="s">
-        <v>398</v>
+        <v>413</v>
       </c>
       <c r="D163" s="7"/>
       <c r="E163" s="7"/>
@@ -8912,12 +9145,12 @@
     </row>
     <row r="164" spans="2:2">
       <c r="B164" s="5" t="s">
-        <v>399</v>
+        <v>414</v>
       </c>
     </row>
     <row r="165" ht="54" customHeight="1" spans="3:14">
       <c r="C165" s="7" t="s">
-        <v>400</v>
+        <v>415</v>
       </c>
       <c r="D165" s="7"/>
       <c r="E165" s="7"/>
@@ -8933,20 +9166,20 @@
     </row>
     <row r="167" spans="1:1">
       <c r="A167" s="2" t="s">
-        <v>401</v>
+        <v>416</v>
       </c>
     </row>
     <row r="168" spans="2:2">
       <c r="B168" s="5" t="s">
-        <v>402</v>
+        <v>417</v>
       </c>
     </row>
     <row r="169" ht="77" customHeight="1" spans="3:14">
       <c r="C169" s="6" t="s">
-        <v>403</v>
+        <v>418</v>
       </c>
       <c r="D169" s="17" t="s">
-        <v>404</v>
+        <v>419</v>
       </c>
       <c r="E169" s="7"/>
       <c r="F169" s="7"/>
@@ -8960,13 +9193,13 @@
       <c r="N169" s="7"/>
     </row>
     <row r="171" spans="3:3">
-      <c r="C171" s="81" t="s">
-        <v>405</v>
+      <c r="C171" s="84" t="s">
+        <v>420</v>
       </c>
     </row>
     <row r="172" spans="4:14">
       <c r="D172" s="8" t="s">
-        <v>406</v>
+        <v>421</v>
       </c>
       <c r="E172" s="8"/>
       <c r="F172" s="8"/>
@@ -8981,10 +9214,10 @@
     </row>
     <row r="173" spans="2:14">
       <c r="B173" s="5" t="s">
-        <v>407</v>
+        <v>422</v>
       </c>
       <c r="D173" s="18" t="s">
-        <v>408</v>
+        <v>423</v>
       </c>
       <c r="E173" s="18"/>
       <c r="F173" s="18"/>
@@ -8999,7 +9232,7 @@
     </row>
     <row r="174" ht="83" customHeight="1" spans="3:14">
       <c r="C174" s="7" t="s">
-        <v>409</v>
+        <v>424</v>
       </c>
       <c r="D174" s="8"/>
       <c r="E174" s="8"/>
@@ -9015,17 +9248,17 @@
     </row>
     <row r="176" spans="1:1">
       <c r="A176" s="2" t="s">
-        <v>410</v>
+        <v>425</v>
       </c>
     </row>
     <row r="177" spans="2:2">
       <c r="B177" s="5" t="s">
-        <v>411</v>
+        <v>426</v>
       </c>
     </row>
     <row r="178" ht="72" customHeight="1" spans="3:14">
       <c r="C178" s="7" t="s">
-        <v>412</v>
+        <v>427</v>
       </c>
       <c r="D178" s="7"/>
       <c r="E178" s="7"/>
@@ -9041,12 +9274,12 @@
     </row>
     <row r="179" spans="2:2">
       <c r="B179" s="5" t="s">
-        <v>413</v>
+        <v>428</v>
       </c>
     </row>
     <row r="180" ht="58" customHeight="1" spans="3:14">
       <c r="C180" s="7" t="s">
-        <v>414</v>
+        <v>429</v>
       </c>
       <c r="D180" s="7"/>
       <c r="E180" s="7"/>
@@ -9062,12 +9295,12 @@
     </row>
     <row r="182" spans="2:2">
       <c r="B182" s="5" t="s">
-        <v>415</v>
+        <v>430</v>
       </c>
     </row>
     <row r="183" ht="37" customHeight="1" spans="3:14">
       <c r="C183" s="7" t="s">
-        <v>416</v>
+        <v>431</v>
       </c>
       <c r="D183" s="7"/>
       <c r="E183" s="7"/>
@@ -9083,12 +9316,12 @@
     </row>
     <row r="184" spans="2:2">
       <c r="B184" s="5" t="s">
-        <v>417</v>
+        <v>432</v>
       </c>
     </row>
     <row r="185" ht="33" customHeight="1" spans="3:14">
       <c r="C185" s="7" t="s">
-        <v>418</v>
+        <v>433</v>
       </c>
       <c r="D185" s="7"/>
       <c r="E185" s="7"/>
@@ -9104,17 +9337,17 @@
     </row>
     <row r="187" spans="1:1">
       <c r="A187" s="2" t="s">
-        <v>419</v>
+        <v>434</v>
       </c>
     </row>
     <row r="188" spans="2:2">
       <c r="B188" s="5" t="s">
-        <v>420</v>
+        <v>435</v>
       </c>
     </row>
     <row r="189" ht="91" customHeight="1" spans="3:14">
       <c r="C189" s="7" t="s">
-        <v>421</v>
+        <v>436</v>
       </c>
       <c r="D189" s="7"/>
       <c r="E189" s="7"/>
@@ -9130,12 +9363,12 @@
     </row>
     <row r="190" spans="2:2">
       <c r="B190" s="5" t="s">
-        <v>422</v>
+        <v>437</v>
       </c>
     </row>
     <row r="191" ht="178" customHeight="1" spans="3:14">
       <c r="C191" s="7" t="s">
-        <v>423</v>
+        <v>438</v>
       </c>
       <c r="D191" s="7"/>
       <c r="E191" s="7"/>
@@ -9267,339 +9500,339 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="2" t="s">
-        <v>424</v>
+        <v>439</v>
       </c>
     </row>
     <row r="2" ht="35" customHeight="1" spans="2:2">
       <c r="B2" s="3" t="s">
-        <v>425</v>
+        <v>440</v>
       </c>
     </row>
     <row r="3" ht="66" spans="2:2">
       <c r="B3" s="3" t="s">
-        <v>426</v>
+        <v>441</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="2" t="s">
-        <v>427</v>
+        <v>442</v>
       </c>
     </row>
     <row r="6" ht="33" spans="2:2">
       <c r="B6" s="3" t="s">
-        <v>428</v>
+        <v>443</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:1">
       <c r="A8" s="2" t="s">
-        <v>429</v>
+        <v>444</v>
       </c>
     </row>
     <row r="9" ht="82.5" spans="2:2">
       <c r="B9" s="3" t="s">
-        <v>430</v>
+        <v>445</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="2" t="s">
-        <v>431</v>
+        <v>446</v>
       </c>
     </row>
     <row r="12" spans="2:2">
       <c r="B12" s="3" t="s">
-        <v>432</v>
+        <v>447</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" s="2" t="s">
-        <v>433</v>
+        <v>448</v>
       </c>
     </row>
     <row r="16" ht="49.5" spans="2:2">
       <c r="B16" s="3" t="s">
-        <v>434</v>
+        <v>449</v>
       </c>
     </row>
     <row r="18" ht="66" spans="2:2">
       <c r="B18" s="3" t="s">
-        <v>435</v>
+        <v>450</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" s="2" t="s">
-        <v>436</v>
+        <v>451</v>
       </c>
     </row>
     <row r="21" spans="2:2">
       <c r="B21" s="3" t="s">
-        <v>437</v>
+        <v>452</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" s="2" t="s">
-        <v>438</v>
+        <v>453</v>
       </c>
     </row>
     <row r="24" ht="99" spans="2:2">
       <c r="B24" s="3" t="s">
-        <v>439</v>
+        <v>454</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" s="2" t="s">
-        <v>440</v>
+        <v>455</v>
       </c>
     </row>
     <row r="27" ht="165" spans="2:2">
       <c r="B27" s="3" t="s">
-        <v>441</v>
+        <v>456</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" s="2" t="s">
-        <v>442</v>
+        <v>457</v>
       </c>
     </row>
     <row r="30" ht="49.5" spans="2:2">
       <c r="B30" s="3" t="s">
-        <v>443</v>
+        <v>458</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32" s="2" t="s">
-        <v>444</v>
+        <v>459</v>
       </c>
     </row>
     <row r="33" ht="82.5" spans="2:2">
       <c r="B33" s="3" t="s">
-        <v>445</v>
+        <v>460</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" s="2" t="s">
-        <v>446</v>
+        <v>461</v>
       </c>
     </row>
     <row r="36" ht="66" spans="2:2">
       <c r="B36" s="3" t="s">
-        <v>447</v>
+        <v>462</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38" s="2" t="s">
-        <v>448</v>
+        <v>463</v>
       </c>
     </row>
     <row r="39" ht="49.5" spans="2:2">
       <c r="B39" s="3" t="s">
-        <v>449</v>
+        <v>464</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41" s="2" t="s">
-        <v>450</v>
+        <v>465</v>
       </c>
     </row>
     <row r="42" ht="66" spans="2:2">
       <c r="B42" s="3" t="s">
-        <v>451</v>
+        <v>466</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44" s="2" t="s">
-        <v>452</v>
+        <v>467</v>
       </c>
     </row>
     <row r="45" ht="66" spans="2:2">
       <c r="B45" s="3" t="s">
-        <v>453</v>
+        <v>468</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47" s="2" t="s">
-        <v>454</v>
+        <v>469</v>
       </c>
     </row>
     <row r="48" ht="49.5" spans="2:2">
       <c r="B48" s="3" t="s">
-        <v>455</v>
+        <v>470</v>
       </c>
     </row>
     <row r="50" spans="1:1">
       <c r="A50" s="2" t="s">
-        <v>456</v>
+        <v>471</v>
       </c>
     </row>
     <row r="51" ht="82.5" spans="2:2">
       <c r="B51" s="3" t="s">
-        <v>457</v>
+        <v>472</v>
       </c>
     </row>
     <row r="53" spans="1:1">
       <c r="A53" s="2" t="s">
-        <v>458</v>
+        <v>473</v>
       </c>
     </row>
     <row r="54" ht="33" spans="2:2">
       <c r="B54" s="3" t="s">
-        <v>459</v>
+        <v>474</v>
       </c>
     </row>
     <row r="56" spans="1:1">
       <c r="A56" s="2" t="s">
-        <v>460</v>
+        <v>475</v>
       </c>
     </row>
     <row r="57" ht="49.5" spans="2:2">
       <c r="B57" s="3" t="s">
-        <v>461</v>
+        <v>476</v>
       </c>
     </row>
     <row r="59" spans="1:1">
       <c r="A59" s="2" t="s">
-        <v>462</v>
+        <v>477</v>
       </c>
     </row>
     <row r="60" ht="33" spans="2:2">
       <c r="B60" s="3" t="s">
-        <v>463</v>
+        <v>478</v>
       </c>
     </row>
     <row r="62" spans="1:1">
       <c r="A62" s="2" t="s">
-        <v>464</v>
+        <v>479</v>
       </c>
     </row>
     <row r="63" ht="82.5" spans="2:2">
       <c r="B63" s="3" t="s">
-        <v>465</v>
+        <v>480</v>
       </c>
     </row>
     <row r="64" spans="2:2">
       <c r="B64" s="3" t="s">
-        <v>466</v>
+        <v>481</v>
       </c>
     </row>
     <row r="66" spans="1:1">
       <c r="A66" s="2" t="s">
-        <v>467</v>
+        <v>482</v>
       </c>
     </row>
     <row r="67" spans="2:2">
       <c r="B67" s="3" t="s">
-        <v>468</v>
+        <v>483</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69" s="2" t="s">
-        <v>469</v>
+        <v>484</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>470</v>
+        <v>485</v>
       </c>
     </row>
     <row r="70" ht="33" spans="2:2">
       <c r="B70" s="3" t="s">
-        <v>471</v>
+        <v>486</v>
       </c>
     </row>
     <row r="71" ht="49.5" spans="2:2">
       <c r="B71" s="3" t="s">
-        <v>472</v>
+        <v>487</v>
       </c>
     </row>
     <row r="73" spans="1:1">
       <c r="A73" s="2" t="s">
-        <v>473</v>
+        <v>488</v>
       </c>
     </row>
     <row r="74" ht="33" spans="2:2">
       <c r="B74" s="3" t="s">
-        <v>474</v>
+        <v>489</v>
       </c>
     </row>
     <row r="76" spans="1:1">
       <c r="A76" s="2" t="s">
-        <v>475</v>
+        <v>490</v>
       </c>
     </row>
     <row r="77" spans="2:2">
       <c r="B77" s="3" t="s">
-        <v>476</v>
+        <v>491</v>
       </c>
     </row>
     <row r="79" spans="1:1">
       <c r="A79" s="2" t="s">
-        <v>477</v>
+        <v>492</v>
       </c>
     </row>
     <row r="80" ht="132" spans="2:2">
       <c r="B80" s="3" t="s">
-        <v>478</v>
+        <v>493</v>
       </c>
     </row>
     <row r="82" spans="1:1">
       <c r="A82" s="2" t="s">
-        <v>479</v>
+        <v>494</v>
       </c>
     </row>
     <row r="83" spans="2:2">
       <c r="B83" s="3" t="s">
-        <v>480</v>
+        <v>495</v>
       </c>
     </row>
     <row r="84" ht="49.5" spans="2:2">
       <c r="B84" s="3" t="s">
-        <v>481</v>
+        <v>496</v>
       </c>
     </row>
     <row r="86" spans="1:2">
       <c r="A86" s="2" t="s">
-        <v>482</v>
+        <v>497</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>483</v>
+        <v>498</v>
       </c>
     </row>
     <row r="87" ht="33" spans="2:2">
       <c r="B87" s="3" t="s">
-        <v>484</v>
+        <v>499</v>
       </c>
     </row>
     <row r="88" ht="66" spans="2:2">
       <c r="B88" s="3" t="s">
-        <v>485</v>
+        <v>500</v>
       </c>
     </row>
     <row r="90" spans="1:2">
       <c r="A90" s="2" t="s">
-        <v>486</v>
+        <v>501</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>487</v>
+        <v>502</v>
       </c>
     </row>
     <row r="91" ht="148.5" spans="2:2">
       <c r="B91" s="3" t="s">
-        <v>488</v>
+        <v>503</v>
       </c>
     </row>
     <row r="92" ht="82.5" spans="2:2">
       <c r="B92" s="3" t="s">
-        <v>489</v>
+        <v>504</v>
       </c>
     </row>
     <row r="94" ht="33" spans="1:2">
       <c r="A94" s="2" t="s">
-        <v>490</v>
+        <v>505</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>491</v>
+        <v>506</v>
       </c>
     </row>
     <row r="95" ht="115.5" spans="2:2">
       <c r="B95" s="3" t="s">
-        <v>492</v>
+        <v>507</v>
       </c>
     </row>
   </sheetData>
@@ -9625,7 +9858,7 @@
   <sheetData>
     <row r="1" ht="198" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>493</v>
+        <v>508</v>
       </c>
     </row>
     <row r="2" ht="23" customHeight="1"/>

--- a/linux.xlsx
+++ b/linux.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20385" windowHeight="7950" firstSheet="1" activeTab="5"/>
+    <workbookView windowWidth="20385" windowHeight="7950" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="目录" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="591">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="593">
   <si>
     <t>ab</t>
   </si>
@@ -50,12 +50,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF7030A0"/>
-        <rFont val="仿宋"/>
-        <charset val="134"/>
-      </rPr>
       <t>默认端口</t>
     </r>
     <r>
@@ -1728,7 +1722,7 @@
 </t>
   </si>
   <si>
-    <t>echo 1 &gt; /proc/sys/net/ipv4/ip_forward            //关闭路由转发
+    <t>echo 0 &gt; /proc/sys/net/ipv4/ip_forward            //关闭路由转发
 echo 1 &gt; /proc/sys/net/ipv4/ip_forward            //开启路由转发
 //注意以上操作仅当前有效，计算机重启后无效
 echo 'net.ipv4.ip_forward=1' &gt;&gt; /etc/sysctl.conf
@@ -1788,6 +1782,12 @@
   <si>
     <t>iptables -A INPUT -p tcp --dport 22  -s 192.168.4.0/24  -j  DROP
                                           禁止从 192.168.4.0/24 网段其他的主机登录</t>
+  </si>
+  <si>
+    <t>SNAT实现共享上网</t>
+  </si>
+  <si>
+    <t>iptables  -t  nat  -A POSTROUTING -s  192.168.4.0/24 –p tcp --dport 80  -j SNAT  --to-source 192.168.2.5             //设置防火墙规则，实现SNAT地址转换</t>
   </si>
   <si>
     <t>shell 脚本</t>
@@ -3743,7 +3743,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="84">
+  <cellXfs count="85">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3830,6 +3830,9 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -4341,43 +4344,43 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20.25" outlineLevelRow="3" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="9" style="81"/>
-    <col min="2" max="2" width="9.875" style="82"/>
-    <col min="3" max="3" width="41.125" style="83" customWidth="1"/>
+    <col min="1" max="1" width="9" style="82"/>
+    <col min="2" max="2" width="9.875" style="83"/>
+    <col min="3" max="3" width="41.125" style="84" customWidth="1"/>
     <col min="4" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="81" t="s">
+      <c r="A1" s="82" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="83" t="s">
+      <c r="C1" s="84" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="2:3">
-      <c r="B2" s="82" t="s">
+      <c r="B2" s="83" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="83" t="s">
+      <c r="C2" s="84" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="2:3">
-      <c r="B3" s="82" t="s">
+      <c r="B3" s="83" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="83" t="s">
+      <c r="C3" s="84" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="2:2">
-      <c r="B4" s="82" t="s">
+      <c r="B4" s="83" t="s">
         <v>6</v>
       </c>
     </row>
@@ -4392,167 +4395,167 @@
   <sheetPr/>
   <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" workbookViewId="0">
+    <sheetView topLeftCell="A11" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="C25" sqref="C25"/>
+      <selection pane="topRight" activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="18.875" style="69" customWidth="1"/>
-    <col min="2" max="2" width="11.875" style="70" customWidth="1"/>
-    <col min="3" max="3" width="73.125" style="71" customWidth="1"/>
-    <col min="4" max="8" width="9" style="71"/>
-    <col min="9" max="16352" width="9" style="70"/>
-    <col min="16353" max="16384" width="9" style="72"/>
+    <col min="1" max="1" width="18.875" style="70" customWidth="1"/>
+    <col min="2" max="2" width="11.875" style="71" customWidth="1"/>
+    <col min="3" max="3" width="73.125" style="72" customWidth="1"/>
+    <col min="4" max="8" width="9" style="72"/>
+    <col min="9" max="16352" width="9" style="71"/>
+    <col min="16353" max="16384" width="9" style="73"/>
   </cols>
   <sheetData>
     <row r="1" ht="25" customHeight="1" spans="1:3">
-      <c r="A1" s="69" t="s">
+      <c r="A1" s="70" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="71" t="s">
+      <c r="C1" s="72" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" spans="2:7">
-      <c r="B2" s="72" t="s">
+      <c r="B2" s="73" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="73"/>
-      <c r="D2" s="73"/>
-      <c r="E2" s="73"/>
-      <c r="F2" s="73"/>
-      <c r="G2" s="73"/>
+      <c r="C2" s="74"/>
+      <c r="D2" s="74"/>
+      <c r="E2" s="74"/>
+      <c r="F2" s="74"/>
+      <c r="G2" s="74"/>
     </row>
     <row r="3" spans="2:2">
-      <c r="B3" s="74" t="s">
+      <c r="B3" s="75" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="4" ht="20" customHeight="1" spans="3:3">
-      <c r="C4" s="75" t="s">
+      <c r="C4" s="76" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="5" ht="48" customHeight="1" spans="3:3">
-      <c r="C5" s="76" t="s">
+      <c r="C5" s="77" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="6" ht="20" customHeight="1" spans="3:3">
-      <c r="C6" s="75" t="s">
+      <c r="C6" s="76" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="7" ht="58" customHeight="1" spans="3:3">
-      <c r="C7" s="76" t="s">
+      <c r="C7" s="77" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="8" ht="21" customHeight="1" spans="3:3">
-      <c r="C8" s="75" t="s">
+      <c r="C8" s="76" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="9" ht="33" customHeight="1" spans="3:3">
-      <c r="C9" s="76" t="s">
+      <c r="C9" s="77" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="10" ht="21" customHeight="1" spans="3:3">
-      <c r="C10" s="75" t="s">
+      <c r="C10" s="76" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="11" ht="43" customHeight="1" spans="3:3">
-      <c r="C11" s="76" t="s">
+      <c r="C11" s="77" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="12" ht="24" customHeight="1" spans="3:3">
-      <c r="C12" s="76"/>
+      <c r="C12" s="77"/>
     </row>
     <row r="13" ht="25" customHeight="1" spans="1:1">
-      <c r="A13" s="69" t="s">
+      <c r="A13" s="70" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="14" ht="50" customHeight="1" spans="2:7">
-      <c r="B14" s="77" t="s">
+      <c r="B14" s="78" t="s">
         <v>20</v>
       </c>
-      <c r="C14" s="78"/>
-      <c r="D14" s="78"/>
-      <c r="E14" s="78"/>
-      <c r="F14" s="78"/>
-      <c r="G14" s="78"/>
+      <c r="C14" s="79"/>
+      <c r="D14" s="79"/>
+      <c r="E14" s="79"/>
+      <c r="F14" s="79"/>
+      <c r="G14" s="79"/>
     </row>
     <row r="15" ht="50" customHeight="1" spans="2:7">
-      <c r="B15" s="77" t="s">
+      <c r="B15" s="78" t="s">
         <v>21</v>
       </c>
-      <c r="C15" s="78"/>
-      <c r="D15" s="78"/>
-      <c r="E15" s="78"/>
-      <c r="F15" s="78"/>
-      <c r="G15" s="78"/>
+      <c r="C15" s="79"/>
+      <c r="D15" s="79"/>
+      <c r="E15" s="79"/>
+      <c r="F15" s="79"/>
+      <c r="G15" s="79"/>
     </row>
     <row r="16" ht="25" customHeight="1" spans="1:3">
-      <c r="A16" s="69" t="s">
+      <c r="A16" s="70" t="s">
         <v>22</v>
       </c>
-      <c r="C16" s="71" t="s">
+      <c r="C16" s="72" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="17" ht="51" customHeight="1" spans="2:7">
-      <c r="B17" s="77" t="s">
+      <c r="B17" s="78" t="s">
         <v>24</v>
       </c>
-      <c r="C17" s="78"/>
-      <c r="D17" s="78"/>
-      <c r="E17" s="78"/>
-      <c r="F17" s="78"/>
-      <c r="G17" s="78"/>
+      <c r="C17" s="79"/>
+      <c r="D17" s="79"/>
+      <c r="E17" s="79"/>
+      <c r="F17" s="79"/>
+      <c r="G17" s="79"/>
     </row>
     <row r="18" ht="40" customHeight="1" spans="2:7">
-      <c r="B18" s="77" t="s">
+      <c r="B18" s="78" t="s">
         <v>25</v>
       </c>
-      <c r="C18" s="78"/>
-      <c r="D18" s="78"/>
-      <c r="E18" s="78"/>
-      <c r="F18" s="78"/>
-      <c r="G18" s="78"/>
+      <c r="C18" s="79"/>
+      <c r="D18" s="79"/>
+      <c r="E18" s="79"/>
+      <c r="F18" s="79"/>
+      <c r="G18" s="79"/>
     </row>
     <row r="19" spans="2:7">
-      <c r="B19" s="72" t="s">
+      <c r="B19" s="73" t="s">
         <v>26</v>
       </c>
-      <c r="C19" s="73"/>
-      <c r="D19" s="73"/>
-      <c r="E19" s="73"/>
-      <c r="F19" s="73"/>
-      <c r="G19" s="73"/>
+      <c r="C19" s="74"/>
+      <c r="D19" s="74"/>
+      <c r="E19" s="74"/>
+      <c r="F19" s="74"/>
+      <c r="G19" s="74"/>
     </row>
     <row r="20" spans="2:7">
-      <c r="B20" s="72" t="s">
+      <c r="B20" s="73" t="s">
         <v>27</v>
       </c>
-      <c r="C20" s="73"/>
-      <c r="D20" s="73"/>
-      <c r="E20" s="73"/>
-      <c r="F20" s="73"/>
-      <c r="G20" s="73"/>
+      <c r="C20" s="74"/>
+      <c r="D20" s="74"/>
+      <c r="E20" s="74"/>
+      <c r="F20" s="74"/>
+      <c r="G20" s="74"/>
     </row>
     <row r="22" ht="22" customHeight="1" spans="1:7">
-      <c r="A22" s="69" t="s">
+      <c r="A22" s="70" t="s">
         <v>28</v>
       </c>
       <c r="B22"/>
-      <c r="C22" s="79" t="s">
+      <c r="C22" s="80" t="s">
         <v>29</v>
       </c>
       <c r="D22"/>
@@ -4562,7 +4565,7 @@
     </row>
     <row r="23" ht="90" customHeight="1" spans="2:7">
       <c r="B23"/>
-      <c r="C23" s="80" t="s">
+      <c r="C23" s="81" t="s">
         <v>30</v>
       </c>
       <c r="D23"/>
@@ -4599,117 +4602,117 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="17.375" style="41" customWidth="1"/>
-    <col min="2" max="2" width="19.5" style="42" customWidth="1"/>
-    <col min="3" max="3" width="16.5" style="43" customWidth="1"/>
-    <col min="4" max="14" width="9" style="43"/>
-    <col min="15" max="15" width="9" style="44"/>
+    <col min="1" max="1" width="17.375" style="42" customWidth="1"/>
+    <col min="2" max="2" width="19.5" style="43" customWidth="1"/>
+    <col min="3" max="3" width="16.5" style="44" customWidth="1"/>
+    <col min="4" max="14" width="9" style="44"/>
+    <col min="15" max="15" width="9" style="45"/>
     <col min="16" max="16" width="9" style="4"/>
-    <col min="17" max="16384" width="9" style="42"/>
+    <col min="17" max="16384" width="9" style="43"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="42" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="45" t="s">
+      <c r="B1" s="46" t="s">
         <v>32</v>
       </c>
-      <c r="C1" s="46" t="s">
+      <c r="C1" s="47" t="s">
         <v>33</v>
       </c>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="46"/>
-      <c r="H1" s="46"/>
-      <c r="I1" s="46"/>
-      <c r="J1" s="46"/>
-      <c r="K1" s="46"/>
-      <c r="L1" s="46"/>
-      <c r="M1" s="46"/>
-      <c r="N1" s="46"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
+      <c r="G1" s="47"/>
+      <c r="H1" s="47"/>
+      <c r="I1" s="47"/>
+      <c r="J1" s="47"/>
+      <c r="K1" s="47"/>
+      <c r="L1" s="47"/>
+      <c r="M1" s="47"/>
+      <c r="N1" s="47"/>
     </row>
     <row r="2" spans="2:2">
-      <c r="B2" s="42" t="s">
+      <c r="B2" s="43" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:1">
-      <c r="A4" s="41" t="s">
+      <c r="A4" s="42" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="5" spans="2:14">
-      <c r="B5" s="47" t="s">
+      <c r="B5" s="48" t="s">
         <v>36</v>
       </c>
-      <c r="C5" s="46"/>
-      <c r="D5" s="46"/>
-      <c r="E5" s="46"/>
-      <c r="F5" s="46"/>
-      <c r="G5" s="46"/>
-      <c r="H5" s="46"/>
-      <c r="I5" s="46"/>
-      <c r="J5" s="46"/>
-      <c r="K5" s="46"/>
-      <c r="L5" s="46"/>
-      <c r="M5" s="46"/>
-      <c r="N5" s="46"/>
+      <c r="C5" s="47"/>
+      <c r="D5" s="47"/>
+      <c r="E5" s="47"/>
+      <c r="F5" s="47"/>
+      <c r="G5" s="47"/>
+      <c r="H5" s="47"/>
+      <c r="I5" s="47"/>
+      <c r="J5" s="47"/>
+      <c r="K5" s="47"/>
+      <c r="L5" s="47"/>
+      <c r="M5" s="47"/>
+      <c r="N5" s="47"/>
     </row>
     <row r="6" spans="2:14">
-      <c r="B6" s="47" t="s">
+      <c r="B6" s="48" t="s">
         <v>37</v>
       </c>
-      <c r="C6" s="46"/>
-      <c r="D6" s="46"/>
-      <c r="E6" s="46"/>
-      <c r="F6" s="46"/>
-      <c r="G6" s="46"/>
-      <c r="H6" s="46"/>
-      <c r="I6" s="46"/>
-      <c r="J6" s="46"/>
-      <c r="K6" s="46"/>
-      <c r="L6" s="46"/>
-      <c r="M6" s="46"/>
-      <c r="N6" s="46"/>
+      <c r="C6" s="47"/>
+      <c r="D6" s="47"/>
+      <c r="E6" s="47"/>
+      <c r="F6" s="47"/>
+      <c r="G6" s="47"/>
+      <c r="H6" s="47"/>
+      <c r="I6" s="47"/>
+      <c r="J6" s="47"/>
+      <c r="K6" s="47"/>
+      <c r="L6" s="47"/>
+      <c r="M6" s="47"/>
+      <c r="N6" s="47"/>
     </row>
     <row r="7" spans="2:14">
-      <c r="B7" s="47" t="s">
+      <c r="B7" s="48" t="s">
         <v>38</v>
       </c>
-      <c r="C7" s="46"/>
-      <c r="D7" s="46"/>
-      <c r="E7" s="46"/>
-      <c r="F7" s="46"/>
-      <c r="G7" s="46"/>
-      <c r="H7" s="46"/>
-      <c r="I7" s="46"/>
-      <c r="J7" s="46"/>
-      <c r="K7" s="46"/>
-      <c r="L7" s="46"/>
-      <c r="M7" s="46"/>
-      <c r="N7" s="46"/>
+      <c r="C7" s="47"/>
+      <c r="D7" s="47"/>
+      <c r="E7" s="47"/>
+      <c r="F7" s="47"/>
+      <c r="G7" s="47"/>
+      <c r="H7" s="47"/>
+      <c r="I7" s="47"/>
+      <c r="J7" s="47"/>
+      <c r="K7" s="47"/>
+      <c r="L7" s="47"/>
+      <c r="M7" s="47"/>
+      <c r="N7" s="47"/>
     </row>
     <row r="8" spans="2:14">
-      <c r="B8" s="48" t="s">
+      <c r="B8" s="49" t="s">
         <v>39</v>
       </c>
-      <c r="C8" s="49"/>
-      <c r="D8" s="49"/>
-      <c r="E8" s="49"/>
-      <c r="F8" s="49"/>
-      <c r="G8" s="49"/>
-      <c r="H8" s="49"/>
-      <c r="I8" s="49"/>
-      <c r="J8" s="49"/>
-      <c r="K8" s="49"/>
-      <c r="L8" s="49"/>
-      <c r="M8" s="49"/>
-      <c r="N8" s="49"/>
+      <c r="C8" s="50"/>
+      <c r="D8" s="50"/>
+      <c r="E8" s="50"/>
+      <c r="F8" s="50"/>
+      <c r="G8" s="50"/>
+      <c r="H8" s="50"/>
+      <c r="I8" s="50"/>
+      <c r="J8" s="50"/>
+      <c r="K8" s="50"/>
+      <c r="L8" s="50"/>
+      <c r="M8" s="50"/>
+      <c r="N8" s="50"/>
     </row>
     <row r="9" spans="2:14">
-      <c r="B9" s="50" t="s">
+      <c r="B9" s="51" t="s">
         <v>40</v>
       </c>
       <c r="C9" s="18" t="s">
@@ -4728,1169 +4731,1169 @@
       <c r="N9" s="18"/>
     </row>
     <row r="10" spans="2:14">
-      <c r="B10" s="47" t="s">
+      <c r="B10" s="48" t="s">
         <v>42</v>
       </c>
-      <c r="C10" s="46"/>
-      <c r="D10" s="46"/>
-      <c r="E10" s="46"/>
-      <c r="F10" s="46"/>
-      <c r="G10" s="46"/>
-      <c r="H10" s="46"/>
-      <c r="I10" s="46"/>
-      <c r="J10" s="46"/>
-      <c r="K10" s="46"/>
-      <c r="L10" s="46"/>
-      <c r="M10" s="46"/>
-      <c r="N10" s="46"/>
+      <c r="C10" s="47"/>
+      <c r="D10" s="47"/>
+      <c r="E10" s="47"/>
+      <c r="F10" s="47"/>
+      <c r="G10" s="47"/>
+      <c r="H10" s="47"/>
+      <c r="I10" s="47"/>
+      <c r="J10" s="47"/>
+      <c r="K10" s="47"/>
+      <c r="L10" s="47"/>
+      <c r="M10" s="47"/>
+      <c r="N10" s="47"/>
     </row>
     <row r="11" spans="2:14">
-      <c r="B11" s="47"/>
-      <c r="C11" s="46" t="s">
+      <c r="B11" s="48"/>
+      <c r="C11" s="47" t="s">
         <v>43</v>
       </c>
-      <c r="D11" s="46"/>
-      <c r="E11" s="46"/>
-      <c r="F11" s="46"/>
-      <c r="G11" s="46"/>
-      <c r="H11" s="46"/>
-      <c r="I11" s="46"/>
-      <c r="J11" s="46"/>
-      <c r="K11" s="46"/>
-      <c r="L11" s="46"/>
-      <c r="M11" s="46"/>
-      <c r="N11" s="46"/>
+      <c r="D11" s="47"/>
+      <c r="E11" s="47"/>
+      <c r="F11" s="47"/>
+      <c r="G11" s="47"/>
+      <c r="H11" s="47"/>
+      <c r="I11" s="47"/>
+      <c r="J11" s="47"/>
+      <c r="K11" s="47"/>
+      <c r="L11" s="47"/>
+      <c r="M11" s="47"/>
+      <c r="N11" s="47"/>
     </row>
     <row r="12" spans="2:14">
-      <c r="B12" s="47" t="s">
+      <c r="B12" s="48" t="s">
         <v>44</v>
       </c>
-      <c r="C12" s="46"/>
-      <c r="D12" s="46"/>
-      <c r="E12" s="46"/>
-      <c r="F12" s="46"/>
-      <c r="G12" s="46"/>
-      <c r="H12" s="46"/>
-      <c r="I12" s="46"/>
-      <c r="J12" s="46"/>
-      <c r="K12" s="46"/>
-      <c r="L12" s="46"/>
-      <c r="M12" s="46"/>
-      <c r="N12" s="46"/>
+      <c r="C12" s="47"/>
+      <c r="D12" s="47"/>
+      <c r="E12" s="47"/>
+      <c r="F12" s="47"/>
+      <c r="G12" s="47"/>
+      <c r="H12" s="47"/>
+      <c r="I12" s="47"/>
+      <c r="J12" s="47"/>
+      <c r="K12" s="47"/>
+      <c r="L12" s="47"/>
+      <c r="M12" s="47"/>
+      <c r="N12" s="47"/>
     </row>
     <row r="13" ht="39" customHeight="1" spans="2:14">
-      <c r="B13" s="47"/>
-      <c r="C13" s="84" t="s">
+      <c r="B13" s="48"/>
+      <c r="C13" s="85" t="s">
         <v>45</v>
       </c>
-      <c r="D13" s="46"/>
-      <c r="E13" s="46"/>
-      <c r="F13" s="46"/>
-      <c r="G13" s="46"/>
-      <c r="H13" s="46"/>
-      <c r="I13" s="46"/>
-      <c r="J13" s="46"/>
-      <c r="K13" s="46"/>
-      <c r="L13" s="46"/>
-      <c r="M13" s="46"/>
-      <c r="N13" s="46"/>
+      <c r="D13" s="47"/>
+      <c r="E13" s="47"/>
+      <c r="F13" s="47"/>
+      <c r="G13" s="47"/>
+      <c r="H13" s="47"/>
+      <c r="I13" s="47"/>
+      <c r="J13" s="47"/>
+      <c r="K13" s="47"/>
+      <c r="L13" s="47"/>
+      <c r="M13" s="47"/>
+      <c r="N13" s="47"/>
     </row>
     <row r="14" ht="42" customHeight="1" spans="2:14">
-      <c r="B14" s="47" t="s">
+      <c r="B14" s="48" t="s">
         <v>46</v>
       </c>
-      <c r="C14" s="51" t="s">
+      <c r="C14" s="52" t="s">
         <v>47</v>
       </c>
-      <c r="D14" s="51"/>
-      <c r="E14" s="51"/>
-      <c r="F14" s="51"/>
-      <c r="G14" s="51"/>
-      <c r="H14" s="51"/>
-      <c r="I14" s="51"/>
-      <c r="J14" s="51"/>
-      <c r="K14" s="51"/>
-      <c r="L14" s="51"/>
-      <c r="M14" s="51"/>
-      <c r="N14" s="51"/>
+      <c r="D14" s="52"/>
+      <c r="E14" s="52"/>
+      <c r="F14" s="52"/>
+      <c r="G14" s="52"/>
+      <c r="H14" s="52"/>
+      <c r="I14" s="52"/>
+      <c r="J14" s="52"/>
+      <c r="K14" s="52"/>
+      <c r="L14" s="52"/>
+      <c r="M14" s="52"/>
+      <c r="N14" s="52"/>
     </row>
     <row r="16" ht="34" customHeight="1" spans="1:14">
-      <c r="A16" s="41" t="s">
+      <c r="A16" s="42" t="s">
         <v>48</v>
       </c>
-      <c r="B16" s="52" t="s">
+      <c r="B16" s="53" t="s">
         <v>49</v>
       </c>
-      <c r="C16" s="53" t="s">
+      <c r="C16" s="54" t="s">
         <v>50</v>
       </c>
-      <c r="D16" s="46"/>
-      <c r="E16" s="46"/>
-      <c r="F16" s="46"/>
-      <c r="G16" s="46"/>
-      <c r="H16" s="46"/>
-      <c r="I16" s="46"/>
-      <c r="J16" s="46"/>
-      <c r="K16" s="46"/>
-      <c r="L16" s="46"/>
-      <c r="M16" s="46"/>
-      <c r="N16" s="46"/>
+      <c r="D16" s="47"/>
+      <c r="E16" s="47"/>
+      <c r="F16" s="47"/>
+      <c r="G16" s="47"/>
+      <c r="H16" s="47"/>
+      <c r="I16" s="47"/>
+      <c r="J16" s="47"/>
+      <c r="K16" s="47"/>
+      <c r="L16" s="47"/>
+      <c r="M16" s="47"/>
+      <c r="N16" s="47"/>
     </row>
     <row r="17" ht="39" customHeight="1" spans="2:14">
-      <c r="B17" s="50" t="s">
+      <c r="B17" s="51" t="s">
         <v>51</v>
       </c>
-      <c r="C17" s="51"/>
-      <c r="D17" s="51"/>
-      <c r="E17" s="51"/>
-      <c r="F17" s="51"/>
-      <c r="G17" s="51"/>
-      <c r="H17" s="51"/>
-      <c r="I17" s="51"/>
-      <c r="J17" s="51"/>
-      <c r="K17" s="51"/>
-      <c r="L17" s="51"/>
-      <c r="M17" s="51"/>
-      <c r="N17" s="51"/>
+      <c r="C17" s="52"/>
+      <c r="D17" s="52"/>
+      <c r="E17" s="52"/>
+      <c r="F17" s="52"/>
+      <c r="G17" s="52"/>
+      <c r="H17" s="52"/>
+      <c r="I17" s="52"/>
+      <c r="J17" s="52"/>
+      <c r="K17" s="52"/>
+      <c r="L17" s="52"/>
+      <c r="M17" s="52"/>
+      <c r="N17" s="52"/>
     </row>
     <row r="18" spans="2:2">
-      <c r="B18" s="52" t="s">
+      <c r="B18" s="53" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="19" ht="79" customHeight="1" spans="3:14">
-      <c r="C19" s="51" t="s">
+      <c r="C19" s="52" t="s">
         <v>53</v>
       </c>
-      <c r="D19" s="51"/>
-      <c r="E19" s="51"/>
-      <c r="F19" s="51"/>
-      <c r="G19" s="51"/>
-      <c r="H19" s="51"/>
-      <c r="I19" s="51"/>
-      <c r="J19" s="51"/>
-      <c r="K19" s="51"/>
-      <c r="L19" s="51"/>
-      <c r="M19" s="51"/>
-      <c r="N19" s="51"/>
+      <c r="D19" s="52"/>
+      <c r="E19" s="52"/>
+      <c r="F19" s="52"/>
+      <c r="G19" s="52"/>
+      <c r="H19" s="52"/>
+      <c r="I19" s="52"/>
+      <c r="J19" s="52"/>
+      <c r="K19" s="52"/>
+      <c r="L19" s="52"/>
+      <c r="M19" s="52"/>
+      <c r="N19" s="52"/>
     </row>
     <row r="20" ht="25" customHeight="1" spans="2:2">
-      <c r="B20" s="52" t="s">
+      <c r="B20" s="53" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="21" ht="58" customHeight="1" spans="3:14">
-      <c r="C21" s="51" t="s">
+      <c r="C21" s="52" t="s">
         <v>55</v>
       </c>
-      <c r="D21" s="51"/>
-      <c r="E21" s="51"/>
-      <c r="F21" s="51"/>
-      <c r="G21" s="51"/>
-      <c r="H21" s="51"/>
-      <c r="I21" s="51"/>
-      <c r="J21" s="51"/>
-      <c r="K21" s="51"/>
-      <c r="L21" s="51"/>
-      <c r="M21" s="51"/>
-      <c r="N21" s="51"/>
+      <c r="D21" s="52"/>
+      <c r="E21" s="52"/>
+      <c r="F21" s="52"/>
+      <c r="G21" s="52"/>
+      <c r="H21" s="52"/>
+      <c r="I21" s="52"/>
+      <c r="J21" s="52"/>
+      <c r="K21" s="52"/>
+      <c r="L21" s="52"/>
+      <c r="M21" s="52"/>
+      <c r="N21" s="52"/>
     </row>
     <row r="22" spans="2:2">
-      <c r="B22" s="52" t="s">
+      <c r="B22" s="53" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="23" ht="78" customHeight="1" spans="3:14">
-      <c r="C23" s="51" t="s">
+      <c r="C23" s="52" t="s">
         <v>57</v>
       </c>
-      <c r="D23" s="51"/>
-      <c r="E23" s="51"/>
-      <c r="F23" s="51"/>
-      <c r="G23" s="51"/>
-      <c r="H23" s="51"/>
-      <c r="I23" s="51"/>
-      <c r="J23" s="51"/>
-      <c r="K23" s="51"/>
-      <c r="L23" s="51"/>
-      <c r="M23" s="51"/>
-      <c r="N23" s="51"/>
+      <c r="D23" s="52"/>
+      <c r="E23" s="52"/>
+      <c r="F23" s="52"/>
+      <c r="G23" s="52"/>
+      <c r="H23" s="52"/>
+      <c r="I23" s="52"/>
+      <c r="J23" s="52"/>
+      <c r="K23" s="52"/>
+      <c r="L23" s="52"/>
+      <c r="M23" s="52"/>
+      <c r="N23" s="52"/>
     </row>
     <row r="24" spans="2:14">
-      <c r="B24" s="47" t="s">
+      <c r="B24" s="48" t="s">
         <v>58</v>
       </c>
-      <c r="C24" s="46"/>
-      <c r="D24" s="46"/>
-      <c r="E24" s="46"/>
-      <c r="F24" s="46"/>
-      <c r="G24" s="46"/>
-      <c r="H24" s="46"/>
-      <c r="I24" s="46"/>
-      <c r="J24" s="46"/>
-      <c r="K24" s="46"/>
-      <c r="L24" s="46"/>
-      <c r="M24" s="46"/>
-      <c r="N24" s="46"/>
+      <c r="C24" s="47"/>
+      <c r="D24" s="47"/>
+      <c r="E24" s="47"/>
+      <c r="F24" s="47"/>
+      <c r="G24" s="47"/>
+      <c r="H24" s="47"/>
+      <c r="I24" s="47"/>
+      <c r="J24" s="47"/>
+      <c r="K24" s="47"/>
+      <c r="L24" s="47"/>
+      <c r="M24" s="47"/>
+      <c r="N24" s="47"/>
     </row>
     <row r="25" spans="2:14">
-      <c r="B25" s="47" t="s">
+      <c r="B25" s="48" t="s">
         <v>59</v>
       </c>
-      <c r="C25" s="47"/>
-      <c r="D25" s="47"/>
-      <c r="E25" s="47"/>
-      <c r="F25" s="47"/>
-      <c r="G25" s="47"/>
-      <c r="H25" s="47"/>
-      <c r="I25" s="47"/>
-      <c r="J25" s="47"/>
-      <c r="K25" s="47"/>
-      <c r="L25" s="47"/>
-      <c r="M25" s="47"/>
-      <c r="N25" s="47"/>
+      <c r="C25" s="48"/>
+      <c r="D25" s="48"/>
+      <c r="E25" s="48"/>
+      <c r="F25" s="48"/>
+      <c r="G25" s="48"/>
+      <c r="H25" s="48"/>
+      <c r="I25" s="48"/>
+      <c r="J25" s="48"/>
+      <c r="K25" s="48"/>
+      <c r="L25" s="48"/>
+      <c r="M25" s="48"/>
+      <c r="N25" s="48"/>
     </row>
     <row r="26" spans="2:14">
-      <c r="B26" s="47"/>
-      <c r="C26" s="46"/>
-      <c r="D26" s="46"/>
-      <c r="E26" s="46"/>
-      <c r="F26" s="46"/>
-      <c r="G26" s="46"/>
-      <c r="H26" s="46"/>
-      <c r="I26" s="46"/>
-      <c r="J26" s="46"/>
-      <c r="K26" s="46"/>
-      <c r="L26" s="46"/>
-      <c r="M26" s="46"/>
-      <c r="N26" s="46"/>
+      <c r="B26" s="48"/>
+      <c r="C26" s="47"/>
+      <c r="D26" s="47"/>
+      <c r="E26" s="47"/>
+      <c r="F26" s="47"/>
+      <c r="G26" s="47"/>
+      <c r="H26" s="47"/>
+      <c r="I26" s="47"/>
+      <c r="J26" s="47"/>
+      <c r="K26" s="47"/>
+      <c r="L26" s="47"/>
+      <c r="M26" s="47"/>
+      <c r="N26" s="47"/>
     </row>
     <row r="27" spans="2:14">
-      <c r="B27" s="47"/>
-      <c r="C27" s="46"/>
-      <c r="D27" s="46"/>
-      <c r="E27" s="46"/>
-      <c r="F27" s="46"/>
-      <c r="G27" s="46"/>
-      <c r="H27" s="46"/>
-      <c r="I27" s="46"/>
-      <c r="J27" s="46"/>
-      <c r="K27" s="46"/>
-      <c r="L27" s="46"/>
-      <c r="M27" s="46"/>
-      <c r="N27" s="46"/>
+      <c r="B27" s="48"/>
+      <c r="C27" s="47"/>
+      <c r="D27" s="47"/>
+      <c r="E27" s="47"/>
+      <c r="F27" s="47"/>
+      <c r="G27" s="47"/>
+      <c r="H27" s="47"/>
+      <c r="I27" s="47"/>
+      <c r="J27" s="47"/>
+      <c r="K27" s="47"/>
+      <c r="L27" s="47"/>
+      <c r="M27" s="47"/>
+      <c r="N27" s="47"/>
     </row>
     <row r="28" spans="2:14">
-      <c r="B28" s="47"/>
-      <c r="C28" s="46"/>
-      <c r="D28" s="46"/>
-      <c r="E28" s="46"/>
-      <c r="F28" s="46"/>
-      <c r="G28" s="46"/>
-      <c r="H28" s="46"/>
-      <c r="I28" s="46"/>
-      <c r="J28" s="46"/>
-      <c r="K28" s="46"/>
-      <c r="L28" s="46"/>
-      <c r="M28" s="46"/>
-      <c r="N28" s="46"/>
+      <c r="B28" s="48"/>
+      <c r="C28" s="47"/>
+      <c r="D28" s="47"/>
+      <c r="E28" s="47"/>
+      <c r="F28" s="47"/>
+      <c r="G28" s="47"/>
+      <c r="H28" s="47"/>
+      <c r="I28" s="47"/>
+      <c r="J28" s="47"/>
+      <c r="K28" s="47"/>
+      <c r="L28" s="47"/>
+      <c r="M28" s="47"/>
+      <c r="N28" s="47"/>
     </row>
     <row r="29" spans="2:14">
-      <c r="B29" s="47"/>
-      <c r="C29" s="46"/>
-      <c r="D29" s="46"/>
-      <c r="E29" s="46"/>
-      <c r="F29" s="46"/>
-      <c r="G29" s="46"/>
-      <c r="H29" s="46"/>
-      <c r="I29" s="46"/>
-      <c r="J29" s="46"/>
-      <c r="K29" s="46"/>
-      <c r="L29" s="46"/>
-      <c r="M29" s="46"/>
-      <c r="N29" s="46"/>
+      <c r="B29" s="48"/>
+      <c r="C29" s="47"/>
+      <c r="D29" s="47"/>
+      <c r="E29" s="47"/>
+      <c r="F29" s="47"/>
+      <c r="G29" s="47"/>
+      <c r="H29" s="47"/>
+      <c r="I29" s="47"/>
+      <c r="J29" s="47"/>
+      <c r="K29" s="47"/>
+      <c r="L29" s="47"/>
+      <c r="M29" s="47"/>
+      <c r="N29" s="47"/>
     </row>
     <row r="30" ht="19" customHeight="1" spans="1:3">
-      <c r="A30" s="41" t="s">
+      <c r="A30" s="42" t="s">
         <v>60</v>
       </c>
-      <c r="B30" s="52" t="s">
+      <c r="B30" s="53" t="s">
         <v>61</v>
       </c>
-      <c r="C30" s="54" t="s">
+      <c r="C30" s="55" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="31" ht="71" customHeight="1" spans="2:15">
-      <c r="B31" s="55" t="s">
+      <c r="B31" s="56" t="s">
         <v>63</v>
       </c>
-      <c r="C31" s="55"/>
-      <c r="D31" s="55"/>
-      <c r="E31" s="55"/>
-      <c r="F31" s="55"/>
-      <c r="G31" s="55"/>
-      <c r="H31" s="55"/>
-      <c r="I31" s="55"/>
-      <c r="J31" s="55"/>
-      <c r="K31" s="55"/>
-      <c r="L31" s="55"/>
-      <c r="M31" s="55"/>
-      <c r="N31" s="55"/>
-      <c r="O31" s="60"/>
+      <c r="C31" s="56"/>
+      <c r="D31" s="56"/>
+      <c r="E31" s="56"/>
+      <c r="F31" s="56"/>
+      <c r="G31" s="56"/>
+      <c r="H31" s="56"/>
+      <c r="I31" s="56"/>
+      <c r="J31" s="56"/>
+      <c r="K31" s="56"/>
+      <c r="L31" s="56"/>
+      <c r="M31" s="56"/>
+      <c r="N31" s="56"/>
+      <c r="O31" s="61"/>
     </row>
     <row r="32" spans="2:14">
-      <c r="B32" s="56" t="s">
+      <c r="B32" s="57" t="s">
         <v>64</v>
       </c>
-      <c r="C32" s="57"/>
-      <c r="D32" s="57"/>
-      <c r="E32" s="57"/>
-      <c r="F32" s="57"/>
-      <c r="G32" s="57"/>
-      <c r="H32" s="57"/>
-      <c r="I32" s="57"/>
-      <c r="J32" s="57"/>
-      <c r="K32" s="57"/>
-      <c r="L32" s="57"/>
-      <c r="M32" s="57"/>
-      <c r="N32" s="57"/>
+      <c r="C32" s="58"/>
+      <c r="D32" s="58"/>
+      <c r="E32" s="58"/>
+      <c r="F32" s="58"/>
+      <c r="G32" s="58"/>
+      <c r="H32" s="58"/>
+      <c r="I32" s="58"/>
+      <c r="J32" s="58"/>
+      <c r="K32" s="58"/>
+      <c r="L32" s="58"/>
+      <c r="M32" s="58"/>
+      <c r="N32" s="58"/>
     </row>
     <row r="34" spans="1:1">
-      <c r="A34" s="41" t="s">
+      <c r="A34" s="42" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="35" ht="60" customHeight="1" spans="2:15">
-      <c r="B35" s="50" t="s">
+      <c r="B35" s="51" t="s">
         <v>66</v>
       </c>
-      <c r="C35" s="51"/>
-      <c r="D35" s="51"/>
-      <c r="E35" s="51"/>
-      <c r="F35" s="51"/>
-      <c r="G35" s="51"/>
-      <c r="H35" s="51"/>
-      <c r="I35" s="51"/>
-      <c r="J35" s="51"/>
-      <c r="K35" s="51"/>
-      <c r="L35" s="51"/>
-      <c r="M35" s="51"/>
-      <c r="N35" s="51"/>
-      <c r="O35" s="61"/>
+      <c r="C35" s="52"/>
+      <c r="D35" s="52"/>
+      <c r="E35" s="52"/>
+      <c r="F35" s="52"/>
+      <c r="G35" s="52"/>
+      <c r="H35" s="52"/>
+      <c r="I35" s="52"/>
+      <c r="J35" s="52"/>
+      <c r="K35" s="52"/>
+      <c r="L35" s="52"/>
+      <c r="M35" s="52"/>
+      <c r="N35" s="52"/>
+      <c r="O35" s="62"/>
     </row>
     <row r="36" ht="55" customHeight="1" spans="2:15">
-      <c r="B36" s="50" t="s">
+      <c r="B36" s="51" t="s">
         <v>67</v>
       </c>
-      <c r="C36" s="51"/>
-      <c r="D36" s="51"/>
-      <c r="E36" s="51"/>
-      <c r="F36" s="51"/>
-      <c r="G36" s="51"/>
-      <c r="H36" s="51"/>
-      <c r="I36" s="51"/>
-      <c r="J36" s="51"/>
-      <c r="K36" s="51"/>
-      <c r="L36" s="51"/>
-      <c r="M36" s="51"/>
-      <c r="N36" s="51"/>
-      <c r="O36" s="61"/>
+      <c r="C36" s="52"/>
+      <c r="D36" s="52"/>
+      <c r="E36" s="52"/>
+      <c r="F36" s="52"/>
+      <c r="G36" s="52"/>
+      <c r="H36" s="52"/>
+      <c r="I36" s="52"/>
+      <c r="J36" s="52"/>
+      <c r="K36" s="52"/>
+      <c r="L36" s="52"/>
+      <c r="M36" s="52"/>
+      <c r="N36" s="52"/>
+      <c r="O36" s="62"/>
     </row>
     <row r="37" ht="20" customHeight="1" spans="2:15">
-      <c r="B37" s="47" t="s">
+      <c r="B37" s="48" t="s">
         <v>68</v>
       </c>
-      <c r="C37" s="46"/>
-      <c r="D37" s="46"/>
-      <c r="E37" s="46"/>
-      <c r="F37" s="46"/>
-      <c r="G37" s="46"/>
-      <c r="H37" s="46"/>
-      <c r="I37" s="46"/>
-      <c r="J37" s="46"/>
-      <c r="K37" s="46"/>
-      <c r="L37" s="46"/>
-      <c r="M37" s="46"/>
-      <c r="N37" s="46"/>
-      <c r="O37" s="62"/>
+      <c r="C37" s="47"/>
+      <c r="D37" s="47"/>
+      <c r="E37" s="47"/>
+      <c r="F37" s="47"/>
+      <c r="G37" s="47"/>
+      <c r="H37" s="47"/>
+      <c r="I37" s="47"/>
+      <c r="J37" s="47"/>
+      <c r="K37" s="47"/>
+      <c r="L37" s="47"/>
+      <c r="M37" s="47"/>
+      <c r="N37" s="47"/>
+      <c r="O37" s="63"/>
     </row>
     <row r="38" ht="21" customHeight="1" spans="2:3">
-      <c r="B38" s="58" t="s">
+      <c r="B38" s="59" t="s">
         <v>69</v>
       </c>
-      <c r="C38" s="54"/>
+      <c r="C38" s="55"/>
     </row>
     <row r="39" ht="54" customHeight="1" spans="2:14">
-      <c r="B39" s="58"/>
-      <c r="C39" s="54" t="s">
+      <c r="B39" s="59"/>
+      <c r="C39" s="55" t="s">
         <v>70</v>
       </c>
-      <c r="D39" s="51" t="s">
+      <c r="D39" s="52" t="s">
         <v>71</v>
       </c>
-      <c r="E39" s="51"/>
-      <c r="F39" s="51"/>
-      <c r="G39" s="51"/>
-      <c r="H39" s="51"/>
-      <c r="I39" s="51"/>
-      <c r="J39" s="51"/>
-      <c r="K39" s="51"/>
-      <c r="L39" s="51"/>
-      <c r="M39" s="51"/>
-      <c r="N39" s="51"/>
+      <c r="E39" s="52"/>
+      <c r="F39" s="52"/>
+      <c r="G39" s="52"/>
+      <c r="H39" s="52"/>
+      <c r="I39" s="52"/>
+      <c r="J39" s="52"/>
+      <c r="K39" s="52"/>
+      <c r="L39" s="52"/>
+      <c r="M39" s="52"/>
+      <c r="N39" s="52"/>
     </row>
     <row r="40" ht="21" customHeight="1" spans="2:3">
-      <c r="B40" s="58"/>
-      <c r="C40" s="54" t="s">
+      <c r="B40" s="59"/>
+      <c r="C40" s="55" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="41" ht="72" customHeight="1" spans="2:14">
-      <c r="B41" s="58"/>
-      <c r="C41" s="54" t="s">
+      <c r="B41" s="59"/>
+      <c r="C41" s="55" t="s">
         <v>73</v>
       </c>
-      <c r="D41" s="51" t="s">
+      <c r="D41" s="52" t="s">
         <v>74</v>
       </c>
-      <c r="E41" s="51"/>
-      <c r="F41" s="51"/>
-      <c r="G41" s="51"/>
-      <c r="H41" s="51"/>
-      <c r="I41" s="51"/>
-      <c r="J41" s="51"/>
-      <c r="K41" s="51"/>
-      <c r="L41" s="51"/>
-      <c r="M41" s="51"/>
-      <c r="N41" s="51"/>
+      <c r="E41" s="52"/>
+      <c r="F41" s="52"/>
+      <c r="G41" s="52"/>
+      <c r="H41" s="52"/>
+      <c r="I41" s="52"/>
+      <c r="J41" s="52"/>
+      <c r="K41" s="52"/>
+      <c r="L41" s="52"/>
+      <c r="M41" s="52"/>
+      <c r="N41" s="52"/>
     </row>
     <row r="42" ht="39" customHeight="1" spans="2:14">
-      <c r="B42" s="58"/>
-      <c r="C42" s="54" t="s">
+      <c r="B42" s="59"/>
+      <c r="C42" s="55" t="s">
         <v>75</v>
       </c>
-      <c r="D42" s="51" t="s">
+      <c r="D42" s="52" t="s">
         <v>76</v>
       </c>
-      <c r="E42" s="46"/>
-      <c r="F42" s="46"/>
-      <c r="G42" s="46"/>
-      <c r="H42" s="46"/>
-      <c r="I42" s="46"/>
-      <c r="J42" s="46"/>
-      <c r="K42" s="46"/>
-      <c r="L42" s="46"/>
-      <c r="M42" s="46"/>
-      <c r="N42" s="46"/>
+      <c r="E42" s="47"/>
+      <c r="F42" s="47"/>
+      <c r="G42" s="47"/>
+      <c r="H42" s="47"/>
+      <c r="I42" s="47"/>
+      <c r="J42" s="47"/>
+      <c r="K42" s="47"/>
+      <c r="L42" s="47"/>
+      <c r="M42" s="47"/>
+      <c r="N42" s="47"/>
     </row>
     <row r="43" ht="21" customHeight="1" spans="2:4">
-      <c r="B43" s="58"/>
-      <c r="C43" s="54" t="s">
+      <c r="B43" s="59"/>
+      <c r="C43" s="55" t="s">
         <v>77</v>
       </c>
-      <c r="D43" s="54"/>
+      <c r="D43" s="55"/>
     </row>
     <row r="44" ht="66" customHeight="1" spans="2:14">
-      <c r="B44" s="58"/>
-      <c r="C44" s="54"/>
-      <c r="D44" s="53" t="s">
+      <c r="B44" s="59"/>
+      <c r="C44" s="55"/>
+      <c r="D44" s="54" t="s">
         <v>78</v>
       </c>
-      <c r="E44" s="51"/>
-      <c r="F44" s="51"/>
-      <c r="G44" s="51"/>
-      <c r="H44" s="51"/>
-      <c r="I44" s="51"/>
-      <c r="J44" s="51"/>
-      <c r="K44" s="51"/>
-      <c r="L44" s="51"/>
-      <c r="M44" s="51"/>
-      <c r="N44" s="51"/>
+      <c r="E44" s="52"/>
+      <c r="F44" s="52"/>
+      <c r="G44" s="52"/>
+      <c r="H44" s="52"/>
+      <c r="I44" s="52"/>
+      <c r="J44" s="52"/>
+      <c r="K44" s="52"/>
+      <c r="L44" s="52"/>
+      <c r="M44" s="52"/>
+      <c r="N44" s="52"/>
     </row>
     <row r="45" ht="161" customHeight="1" spans="2:14">
-      <c r="B45" s="58"/>
-      <c r="C45" s="54"/>
-      <c r="D45" s="59" t="s">
+      <c r="B45" s="59"/>
+      <c r="C45" s="55"/>
+      <c r="D45" s="60" t="s">
         <v>79</v>
       </c>
-      <c r="E45" s="59"/>
-      <c r="F45" s="59"/>
-      <c r="G45" s="59"/>
-      <c r="H45" s="59"/>
-      <c r="I45" s="59"/>
-      <c r="J45" s="59"/>
-      <c r="K45" s="59"/>
-      <c r="L45" s="59"/>
-      <c r="M45" s="59"/>
-      <c r="N45" s="59"/>
+      <c r="E45" s="60"/>
+      <c r="F45" s="60"/>
+      <c r="G45" s="60"/>
+      <c r="H45" s="60"/>
+      <c r="I45" s="60"/>
+      <c r="J45" s="60"/>
+      <c r="K45" s="60"/>
+      <c r="L45" s="60"/>
+      <c r="M45" s="60"/>
+      <c r="N45" s="60"/>
     </row>
     <row r="46" spans="2:15">
-      <c r="B46" s="47" t="s">
+      <c r="B46" s="48" t="s">
         <v>80</v>
       </c>
-      <c r="C46" s="46"/>
-      <c r="D46" s="46"/>
-      <c r="E46" s="46"/>
-      <c r="F46" s="46"/>
-      <c r="G46" s="46"/>
-      <c r="H46" s="46"/>
-      <c r="I46" s="46"/>
-      <c r="J46" s="46"/>
-      <c r="K46" s="46"/>
-      <c r="L46" s="46"/>
-      <c r="M46" s="46"/>
-      <c r="N46" s="46"/>
-      <c r="O46" s="62"/>
+      <c r="C46" s="47"/>
+      <c r="D46" s="47"/>
+      <c r="E46" s="47"/>
+      <c r="F46" s="47"/>
+      <c r="G46" s="47"/>
+      <c r="H46" s="47"/>
+      <c r="I46" s="47"/>
+      <c r="J46" s="47"/>
+      <c r="K46" s="47"/>
+      <c r="L46" s="47"/>
+      <c r="M46" s="47"/>
+      <c r="N46" s="47"/>
+      <c r="O46" s="63"/>
     </row>
     <row r="47" spans="2:14">
-      <c r="B47" s="47" t="s">
+      <c r="B47" s="48" t="s">
         <v>81</v>
       </c>
-      <c r="C47" s="46"/>
-      <c r="D47" s="46" t="s">
+      <c r="C47" s="47"/>
+      <c r="D47" s="47" t="s">
         <v>82</v>
       </c>
-      <c r="E47" s="46"/>
-      <c r="F47" s="46"/>
-      <c r="G47" s="46"/>
-      <c r="H47" s="46"/>
-      <c r="I47" s="46"/>
-      <c r="J47" s="46"/>
-      <c r="K47" s="46"/>
-      <c r="L47" s="46"/>
-      <c r="M47" s="46"/>
-      <c r="N47" s="46"/>
+      <c r="E47" s="47"/>
+      <c r="F47" s="47"/>
+      <c r="G47" s="47"/>
+      <c r="H47" s="47"/>
+      <c r="I47" s="47"/>
+      <c r="J47" s="47"/>
+      <c r="K47" s="47"/>
+      <c r="L47" s="47"/>
+      <c r="M47" s="47"/>
+      <c r="N47" s="47"/>
     </row>
     <row r="49" spans="1:1">
-      <c r="A49" s="41" t="s">
+      <c r="A49" s="42" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="50" ht="81" customHeight="1" spans="2:14">
-      <c r="B50" s="50" t="s">
+      <c r="B50" s="51" t="s">
         <v>84</v>
       </c>
-      <c r="C50" s="51"/>
-      <c r="D50" s="51"/>
-      <c r="E50" s="51"/>
-      <c r="F50" s="51"/>
-      <c r="G50" s="51"/>
-      <c r="H50" s="51"/>
-      <c r="I50" s="51"/>
-      <c r="J50" s="51"/>
-      <c r="K50" s="51"/>
-      <c r="L50" s="51"/>
-      <c r="M50" s="51"/>
-      <c r="N50" s="51"/>
+      <c r="C50" s="52"/>
+      <c r="D50" s="52"/>
+      <c r="E50" s="52"/>
+      <c r="F50" s="52"/>
+      <c r="G50" s="52"/>
+      <c r="H50" s="52"/>
+      <c r="I50" s="52"/>
+      <c r="J50" s="52"/>
+      <c r="K50" s="52"/>
+      <c r="L50" s="52"/>
+      <c r="M50" s="52"/>
+      <c r="N50" s="52"/>
     </row>
     <row r="51" spans="2:2">
-      <c r="B51" s="52" t="s">
+      <c r="B51" s="53" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="52" ht="33" customHeight="1" spans="3:14">
-      <c r="C52" s="51" t="s">
+      <c r="C52" s="52" t="s">
         <v>86</v>
       </c>
-      <c r="D52" s="51"/>
-      <c r="E52" s="51"/>
-      <c r="F52" s="51"/>
-      <c r="G52" s="51"/>
-      <c r="H52" s="51"/>
-      <c r="I52" s="51"/>
-      <c r="J52" s="51"/>
-      <c r="K52" s="51"/>
-      <c r="L52" s="51"/>
-      <c r="M52" s="51"/>
-      <c r="N52" s="51"/>
+      <c r="D52" s="52"/>
+      <c r="E52" s="52"/>
+      <c r="F52" s="52"/>
+      <c r="G52" s="52"/>
+      <c r="H52" s="52"/>
+      <c r="I52" s="52"/>
+      <c r="J52" s="52"/>
+      <c r="K52" s="52"/>
+      <c r="L52" s="52"/>
+      <c r="M52" s="52"/>
+      <c r="N52" s="52"/>
     </row>
     <row r="53" spans="2:2">
-      <c r="B53" s="52" t="s">
+      <c r="B53" s="53" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="54" ht="36" customHeight="1" spans="3:14">
-      <c r="C54" s="51" t="s">
+      <c r="C54" s="52" t="s">
         <v>88</v>
       </c>
-      <c r="D54" s="51"/>
-      <c r="E54" s="51"/>
-      <c r="F54" s="51"/>
-      <c r="G54" s="51"/>
-      <c r="H54" s="51"/>
-      <c r="I54" s="51"/>
-      <c r="J54" s="51"/>
-      <c r="K54" s="51"/>
-      <c r="L54" s="51"/>
-      <c r="M54" s="51"/>
-      <c r="N54" s="51"/>
+      <c r="D54" s="52"/>
+      <c r="E54" s="52"/>
+      <c r="F54" s="52"/>
+      <c r="G54" s="52"/>
+      <c r="H54" s="52"/>
+      <c r="I54" s="52"/>
+      <c r="J54" s="52"/>
+      <c r="K54" s="52"/>
+      <c r="L54" s="52"/>
+      <c r="M54" s="52"/>
+      <c r="N54" s="52"/>
     </row>
     <row r="55" ht="19" customHeight="1" spans="2:14">
-      <c r="B55" s="52" t="s">
+      <c r="B55" s="53" t="s">
         <v>89</v>
       </c>
-      <c r="C55" s="51"/>
-      <c r="D55" s="51"/>
-      <c r="E55" s="51"/>
-      <c r="F55" s="51"/>
-      <c r="G55" s="51"/>
-      <c r="H55" s="51"/>
-      <c r="I55" s="51"/>
-      <c r="J55" s="51"/>
-      <c r="K55" s="51"/>
-      <c r="L55" s="51"/>
-      <c r="M55" s="51"/>
-      <c r="N55" s="51"/>
+      <c r="C55" s="52"/>
+      <c r="D55" s="52"/>
+      <c r="E55" s="52"/>
+      <c r="F55" s="52"/>
+      <c r="G55" s="52"/>
+      <c r="H55" s="52"/>
+      <c r="I55" s="52"/>
+      <c r="J55" s="52"/>
+      <c r="K55" s="52"/>
+      <c r="L55" s="52"/>
+      <c r="M55" s="52"/>
+      <c r="N55" s="52"/>
     </row>
     <row r="56" ht="103" customHeight="1" spans="3:14">
-      <c r="C56" s="51" t="s">
+      <c r="C56" s="52" t="s">
         <v>90</v>
       </c>
-      <c r="D56" s="51"/>
-      <c r="E56" s="51"/>
-      <c r="F56" s="51"/>
-      <c r="G56" s="51"/>
-      <c r="H56" s="51"/>
-      <c r="I56" s="51"/>
-      <c r="J56" s="51"/>
-      <c r="K56" s="51"/>
-      <c r="L56" s="51"/>
-      <c r="M56" s="51"/>
-      <c r="N56" s="51"/>
+      <c r="D56" s="52"/>
+      <c r="E56" s="52"/>
+      <c r="F56" s="52"/>
+      <c r="G56" s="52"/>
+      <c r="H56" s="52"/>
+      <c r="I56" s="52"/>
+      <c r="J56" s="52"/>
+      <c r="K56" s="52"/>
+      <c r="L56" s="52"/>
+      <c r="M56" s="52"/>
+      <c r="N56" s="52"/>
     </row>
     <row r="57" ht="23" customHeight="1" spans="2:14">
-      <c r="B57" s="52" t="s">
+      <c r="B57" s="53" t="s">
         <v>91</v>
       </c>
-      <c r="C57" s="51"/>
-      <c r="D57" s="51"/>
-      <c r="E57" s="51"/>
-      <c r="F57" s="51"/>
-      <c r="G57" s="51"/>
-      <c r="H57" s="51"/>
-      <c r="I57" s="51"/>
-      <c r="J57" s="51"/>
-      <c r="K57" s="51"/>
-      <c r="L57" s="51"/>
-      <c r="M57" s="51"/>
-      <c r="N57" s="51"/>
+      <c r="C57" s="52"/>
+      <c r="D57" s="52"/>
+      <c r="E57" s="52"/>
+      <c r="F57" s="52"/>
+      <c r="G57" s="52"/>
+      <c r="H57" s="52"/>
+      <c r="I57" s="52"/>
+      <c r="J57" s="52"/>
+      <c r="K57" s="52"/>
+      <c r="L57" s="52"/>
+      <c r="M57" s="52"/>
+      <c r="N57" s="52"/>
     </row>
     <row r="58" ht="41" customHeight="1" spans="3:14">
-      <c r="C58" s="51" t="s">
+      <c r="C58" s="52" t="s">
         <v>92</v>
       </c>
-      <c r="D58" s="51"/>
-      <c r="E58" s="51"/>
-      <c r="F58" s="51"/>
-      <c r="G58" s="51"/>
-      <c r="H58" s="51"/>
-      <c r="I58" s="51"/>
-      <c r="J58" s="51"/>
-      <c r="K58" s="51"/>
-      <c r="L58" s="51"/>
-      <c r="M58" s="51"/>
-      <c r="N58" s="51"/>
+      <c r="D58" s="52"/>
+      <c r="E58" s="52"/>
+      <c r="F58" s="52"/>
+      <c r="G58" s="52"/>
+      <c r="H58" s="52"/>
+      <c r="I58" s="52"/>
+      <c r="J58" s="52"/>
+      <c r="K58" s="52"/>
+      <c r="L58" s="52"/>
+      <c r="M58" s="52"/>
+      <c r="N58" s="52"/>
     </row>
     <row r="59" ht="23" customHeight="1" spans="2:14">
-      <c r="B59" s="52" t="s">
+      <c r="B59" s="53" t="s">
         <v>93</v>
       </c>
-      <c r="C59" s="51"/>
-      <c r="D59" s="51"/>
-      <c r="E59" s="51"/>
-      <c r="F59" s="51"/>
-      <c r="G59" s="51"/>
-      <c r="H59" s="51"/>
-      <c r="I59" s="51"/>
-      <c r="J59" s="51"/>
-      <c r="K59" s="51"/>
-      <c r="L59" s="51"/>
-      <c r="M59" s="51"/>
-      <c r="N59" s="51"/>
+      <c r="C59" s="52"/>
+      <c r="D59" s="52"/>
+      <c r="E59" s="52"/>
+      <c r="F59" s="52"/>
+      <c r="G59" s="52"/>
+      <c r="H59" s="52"/>
+      <c r="I59" s="52"/>
+      <c r="J59" s="52"/>
+      <c r="K59" s="52"/>
+      <c r="L59" s="52"/>
+      <c r="M59" s="52"/>
+      <c r="N59" s="52"/>
     </row>
     <row r="60" ht="57" customHeight="1" spans="3:14">
-      <c r="C60" s="51" t="s">
+      <c r="C60" s="52" t="s">
         <v>94</v>
       </c>
-      <c r="D60" s="51"/>
-      <c r="E60" s="51"/>
-      <c r="F60" s="51"/>
-      <c r="G60" s="51"/>
-      <c r="H60" s="51"/>
-      <c r="I60" s="51"/>
-      <c r="J60" s="51"/>
-      <c r="K60" s="51"/>
-      <c r="L60" s="51"/>
-      <c r="M60" s="51"/>
-      <c r="N60" s="51"/>
+      <c r="D60" s="52"/>
+      <c r="E60" s="52"/>
+      <c r="F60" s="52"/>
+      <c r="G60" s="52"/>
+      <c r="H60" s="52"/>
+      <c r="I60" s="52"/>
+      <c r="J60" s="52"/>
+      <c r="K60" s="52"/>
+      <c r="L60" s="52"/>
+      <c r="M60" s="52"/>
+      <c r="N60" s="52"/>
     </row>
     <row r="61" ht="27" customHeight="1" spans="2:14">
-      <c r="B61" s="52" t="s">
+      <c r="B61" s="53" t="s">
         <v>95</v>
       </c>
-      <c r="C61" s="51"/>
-      <c r="D61" s="51" t="s">
+      <c r="C61" s="52"/>
+      <c r="D61" s="52" t="s">
         <v>96</v>
       </c>
-      <c r="E61" s="51"/>
-      <c r="F61" s="51"/>
-      <c r="G61" s="51"/>
-      <c r="H61" s="51"/>
-      <c r="I61" s="51"/>
-      <c r="J61" s="51"/>
-      <c r="K61" s="51"/>
-      <c r="L61" s="51"/>
-      <c r="M61" s="51"/>
-      <c r="N61" s="51"/>
+      <c r="E61" s="52"/>
+      <c r="F61" s="52"/>
+      <c r="G61" s="52"/>
+      <c r="H61" s="52"/>
+      <c r="I61" s="52"/>
+      <c r="J61" s="52"/>
+      <c r="K61" s="52"/>
+      <c r="L61" s="52"/>
+      <c r="M61" s="52"/>
+      <c r="N61" s="52"/>
     </row>
     <row r="62" ht="41" customHeight="1" spans="3:14">
-      <c r="C62" s="51" t="s">
+      <c r="C62" s="52" t="s">
         <v>97</v>
       </c>
-      <c r="D62" s="51"/>
-      <c r="E62" s="51"/>
-      <c r="F62" s="51"/>
-      <c r="G62" s="51"/>
-      <c r="H62" s="51"/>
-      <c r="I62" s="51"/>
-      <c r="J62" s="51"/>
-      <c r="K62" s="51"/>
-      <c r="L62" s="51"/>
-      <c r="M62" s="51"/>
-      <c r="N62" s="51"/>
+      <c r="D62" s="52"/>
+      <c r="E62" s="52"/>
+      <c r="F62" s="52"/>
+      <c r="G62" s="52"/>
+      <c r="H62" s="52"/>
+      <c r="I62" s="52"/>
+      <c r="J62" s="52"/>
+      <c r="K62" s="52"/>
+      <c r="L62" s="52"/>
+      <c r="M62" s="52"/>
+      <c r="N62" s="52"/>
     </row>
     <row r="63" ht="26" customHeight="1" spans="2:14">
-      <c r="B63" s="52" t="s">
+      <c r="B63" s="53" t="s">
         <v>98</v>
       </c>
-      <c r="C63" s="51" t="s">
+      <c r="C63" s="52" t="s">
         <v>99</v>
       </c>
-      <c r="D63" s="51"/>
-      <c r="E63" s="51"/>
-      <c r="F63" s="51"/>
-      <c r="G63" s="51"/>
-      <c r="H63" s="51"/>
-      <c r="I63" s="51"/>
-      <c r="J63" s="51"/>
-      <c r="K63" s="51"/>
-      <c r="L63" s="51"/>
-      <c r="M63" s="51"/>
-      <c r="N63" s="51"/>
+      <c r="D63" s="52"/>
+      <c r="E63" s="52"/>
+      <c r="F63" s="52"/>
+      <c r="G63" s="52"/>
+      <c r="H63" s="52"/>
+      <c r="I63" s="52"/>
+      <c r="J63" s="52"/>
+      <c r="K63" s="52"/>
+      <c r="L63" s="52"/>
+      <c r="M63" s="52"/>
+      <c r="N63" s="52"/>
     </row>
     <row r="64" ht="25" customHeight="1" spans="2:14">
-      <c r="B64" s="52" t="s">
+      <c r="B64" s="53" t="s">
         <v>100</v>
       </c>
-      <c r="C64" s="51"/>
-      <c r="D64" s="51"/>
-      <c r="E64" s="51"/>
-      <c r="F64" s="51"/>
-      <c r="G64" s="51"/>
-      <c r="H64" s="51"/>
-      <c r="I64" s="51"/>
-      <c r="J64" s="51"/>
-      <c r="K64" s="51"/>
-      <c r="L64" s="51"/>
-      <c r="M64" s="51"/>
-      <c r="N64" s="51"/>
+      <c r="C64" s="52"/>
+      <c r="D64" s="52"/>
+      <c r="E64" s="52"/>
+      <c r="F64" s="52"/>
+      <c r="G64" s="52"/>
+      <c r="H64" s="52"/>
+      <c r="I64" s="52"/>
+      <c r="J64" s="52"/>
+      <c r="K64" s="52"/>
+      <c r="L64" s="52"/>
+      <c r="M64" s="52"/>
+      <c r="N64" s="52"/>
     </row>
     <row r="65" ht="25" customHeight="1" spans="2:14">
-      <c r="B65" s="52"/>
-      <c r="C65" s="59" t="s">
+      <c r="B65" s="53"/>
+      <c r="C65" s="60" t="s">
         <v>101</v>
       </c>
-      <c r="D65" s="51" t="s">
+      <c r="D65" s="52" t="s">
         <v>102</v>
       </c>
-      <c r="E65" s="51"/>
-      <c r="F65" s="51"/>
-      <c r="G65" s="51"/>
-      <c r="H65" s="51"/>
-      <c r="I65" s="51"/>
-      <c r="J65" s="51"/>
-      <c r="K65" s="51"/>
-      <c r="L65" s="51"/>
-      <c r="M65" s="51"/>
-      <c r="N65" s="51"/>
+      <c r="E65" s="52"/>
+      <c r="F65" s="52"/>
+      <c r="G65" s="52"/>
+      <c r="H65" s="52"/>
+      <c r="I65" s="52"/>
+      <c r="J65" s="52"/>
+      <c r="K65" s="52"/>
+      <c r="L65" s="52"/>
+      <c r="M65" s="52"/>
+      <c r="N65" s="52"/>
     </row>
     <row r="66" ht="25" customHeight="1" spans="2:14">
-      <c r="B66" s="52"/>
-      <c r="C66" s="63" t="s">
+      <c r="B66" s="53"/>
+      <c r="C66" s="64" t="s">
         <v>103</v>
       </c>
-      <c r="D66" s="51" t="s">
+      <c r="D66" s="52" t="s">
         <v>104</v>
       </c>
-      <c r="E66" s="51"/>
-      <c r="F66" s="51"/>
-      <c r="G66" s="51"/>
-      <c r="H66" s="51"/>
-      <c r="I66" s="51"/>
-      <c r="J66" s="51"/>
-      <c r="K66" s="51"/>
-      <c r="L66" s="51"/>
-      <c r="M66" s="51"/>
-      <c r="N66" s="51"/>
+      <c r="E66" s="52"/>
+      <c r="F66" s="52"/>
+      <c r="G66" s="52"/>
+      <c r="H66" s="52"/>
+      <c r="I66" s="52"/>
+      <c r="J66" s="52"/>
+      <c r="K66" s="52"/>
+      <c r="L66" s="52"/>
+      <c r="M66" s="52"/>
+      <c r="N66" s="52"/>
     </row>
     <row r="67" ht="25" customHeight="1" spans="2:14">
-      <c r="B67" s="52"/>
-      <c r="C67" s="51"/>
-      <c r="D67" s="51" t="s">
+      <c r="B67" s="53"/>
+      <c r="C67" s="52"/>
+      <c r="D67" s="52" t="s">
         <v>105</v>
       </c>
-      <c r="E67" s="51"/>
-      <c r="F67" s="51"/>
-      <c r="G67" s="51"/>
-      <c r="H67" s="51"/>
-      <c r="I67" s="51"/>
-      <c r="J67" s="51"/>
-      <c r="K67" s="51"/>
-      <c r="L67" s="51"/>
-      <c r="M67" s="51"/>
-      <c r="N67" s="51"/>
+      <c r="E67" s="52"/>
+      <c r="F67" s="52"/>
+      <c r="G67" s="52"/>
+      <c r="H67" s="52"/>
+      <c r="I67" s="52"/>
+      <c r="J67" s="52"/>
+      <c r="K67" s="52"/>
+      <c r="L67" s="52"/>
+      <c r="M67" s="52"/>
+      <c r="N67" s="52"/>
     </row>
     <row r="68" ht="36" customHeight="1" spans="3:14">
-      <c r="C68" s="51"/>
-      <c r="D68" s="51"/>
-      <c r="E68" s="51"/>
-      <c r="F68" s="51"/>
-      <c r="G68" s="51"/>
-      <c r="H68" s="51"/>
-      <c r="I68" s="51"/>
-      <c r="J68" s="51"/>
-      <c r="K68" s="51"/>
-      <c r="L68" s="51"/>
-      <c r="M68" s="51"/>
-      <c r="N68" s="51"/>
+      <c r="C68" s="52"/>
+      <c r="D68" s="52"/>
+      <c r="E68" s="52"/>
+      <c r="F68" s="52"/>
+      <c r="G68" s="52"/>
+      <c r="H68" s="52"/>
+      <c r="I68" s="52"/>
+      <c r="J68" s="52"/>
+      <c r="K68" s="52"/>
+      <c r="L68" s="52"/>
+      <c r="M68" s="52"/>
+      <c r="N68" s="52"/>
     </row>
     <row r="70" spans="1:1">
-      <c r="A70" s="41" t="s">
+      <c r="A70" s="42" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="71" ht="54" customHeight="1" spans="2:14">
-      <c r="B71" s="50" t="s">
+      <c r="B71" s="51" t="s">
         <v>107</v>
       </c>
-      <c r="C71" s="46"/>
-      <c r="D71" s="46"/>
-      <c r="E71" s="46"/>
-      <c r="F71" s="46"/>
-      <c r="G71" s="46"/>
-      <c r="H71" s="46"/>
-      <c r="I71" s="46"/>
-      <c r="J71" s="46"/>
-      <c r="K71" s="46"/>
-      <c r="L71" s="46"/>
-      <c r="M71" s="46"/>
-      <c r="N71" s="46"/>
+      <c r="C71" s="47"/>
+      <c r="D71" s="47"/>
+      <c r="E71" s="47"/>
+      <c r="F71" s="47"/>
+      <c r="G71" s="47"/>
+      <c r="H71" s="47"/>
+      <c r="I71" s="47"/>
+      <c r="J71" s="47"/>
+      <c r="K71" s="47"/>
+      <c r="L71" s="47"/>
+      <c r="M71" s="47"/>
+      <c r="N71" s="47"/>
     </row>
     <row r="72" ht="26" customHeight="1" spans="2:14">
-      <c r="B72" s="50"/>
-      <c r="C72" s="46" t="s">
+      <c r="B72" s="51"/>
+      <c r="C72" s="47" t="s">
         <v>108</v>
       </c>
-      <c r="D72" s="46"/>
-      <c r="E72" s="46"/>
-      <c r="F72" s="46"/>
-      <c r="G72" s="46"/>
-      <c r="H72" s="46"/>
-      <c r="I72" s="46"/>
-      <c r="J72" s="46"/>
-      <c r="K72" s="46"/>
-      <c r="L72" s="46"/>
-      <c r="M72" s="46"/>
-      <c r="N72" s="46"/>
+      <c r="D72" s="47"/>
+      <c r="E72" s="47"/>
+      <c r="F72" s="47"/>
+      <c r="G72" s="47"/>
+      <c r="H72" s="47"/>
+      <c r="I72" s="47"/>
+      <c r="J72" s="47"/>
+      <c r="K72" s="47"/>
+      <c r="L72" s="47"/>
+      <c r="M72" s="47"/>
+      <c r="N72" s="47"/>
     </row>
     <row r="73" ht="25" customHeight="1" spans="2:14">
-      <c r="B73" s="50"/>
-      <c r="C73" s="46" t="s">
+      <c r="B73" s="51"/>
+      <c r="C73" s="47" t="s">
         <v>109</v>
       </c>
-      <c r="D73" s="46"/>
-      <c r="E73" s="46"/>
-      <c r="F73" s="46"/>
-      <c r="G73" s="46"/>
-      <c r="H73" s="46"/>
-      <c r="I73" s="46"/>
-      <c r="J73" s="46"/>
-      <c r="K73" s="46"/>
-      <c r="L73" s="46"/>
-      <c r="M73" s="46"/>
-      <c r="N73" s="46"/>
+      <c r="D73" s="47"/>
+      <c r="E73" s="47"/>
+      <c r="F73" s="47"/>
+      <c r="G73" s="47"/>
+      <c r="H73" s="47"/>
+      <c r="I73" s="47"/>
+      <c r="J73" s="47"/>
+      <c r="K73" s="47"/>
+      <c r="L73" s="47"/>
+      <c r="M73" s="47"/>
+      <c r="N73" s="47"/>
     </row>
     <row r="74" ht="312" customHeight="1" spans="2:14">
-      <c r="B74" s="50"/>
-      <c r="C74" s="51" t="s">
+      <c r="B74" s="51"/>
+      <c r="C74" s="52" t="s">
         <v>110</v>
       </c>
-      <c r="D74" s="46"/>
-      <c r="E74" s="46"/>
-      <c r="F74" s="46"/>
-      <c r="G74" s="46"/>
-      <c r="H74" s="46"/>
-      <c r="I74" s="46"/>
-      <c r="J74" s="46"/>
-      <c r="K74" s="46"/>
-      <c r="L74" s="46"/>
-      <c r="M74" s="46"/>
-      <c r="N74" s="46"/>
+      <c r="D74" s="47"/>
+      <c r="E74" s="47"/>
+      <c r="F74" s="47"/>
+      <c r="G74" s="47"/>
+      <c r="H74" s="47"/>
+      <c r="I74" s="47"/>
+      <c r="J74" s="47"/>
+      <c r="K74" s="47"/>
+      <c r="L74" s="47"/>
+      <c r="M74" s="47"/>
+      <c r="N74" s="47"/>
     </row>
     <row r="75" ht="26" customHeight="1" spans="2:14">
-      <c r="B75" s="50"/>
-      <c r="C75" s="46" t="s">
+      <c r="B75" s="51"/>
+      <c r="C75" s="47" t="s">
         <v>111</v>
       </c>
-      <c r="D75" s="46"/>
-      <c r="E75" s="46"/>
-      <c r="F75" s="46"/>
-      <c r="G75" s="46"/>
-      <c r="H75" s="46"/>
-      <c r="I75" s="46"/>
-      <c r="J75" s="46"/>
-      <c r="K75" s="46"/>
-      <c r="L75" s="46"/>
-      <c r="M75" s="46"/>
-      <c r="N75" s="46"/>
+      <c r="D75" s="47"/>
+      <c r="E75" s="47"/>
+      <c r="F75" s="47"/>
+      <c r="G75" s="47"/>
+      <c r="H75" s="47"/>
+      <c r="I75" s="47"/>
+      <c r="J75" s="47"/>
+      <c r="K75" s="47"/>
+      <c r="L75" s="47"/>
+      <c r="M75" s="47"/>
+      <c r="N75" s="47"/>
     </row>
     <row r="76" ht="36" customHeight="1" spans="2:14">
-      <c r="B76" s="64" t="s">
+      <c r="B76" s="65" t="s">
         <v>112</v>
       </c>
-      <c r="C76" s="46"/>
-      <c r="D76" s="46"/>
-      <c r="E76" s="46"/>
-      <c r="F76" s="46"/>
-      <c r="G76" s="46"/>
-      <c r="H76" s="46"/>
-      <c r="I76" s="46"/>
-      <c r="J76" s="46"/>
-      <c r="K76" s="46"/>
-      <c r="L76" s="46"/>
-      <c r="M76" s="46"/>
-      <c r="N76" s="46"/>
+      <c r="C76" s="47"/>
+      <c r="D76" s="47"/>
+      <c r="E76" s="47"/>
+      <c r="F76" s="47"/>
+      <c r="G76" s="47"/>
+      <c r="H76" s="47"/>
+      <c r="I76" s="47"/>
+      <c r="J76" s="47"/>
+      <c r="K76" s="47"/>
+      <c r="L76" s="47"/>
+      <c r="M76" s="47"/>
+      <c r="N76" s="47"/>
     </row>
     <row r="77" ht="26" customHeight="1" spans="2:14">
-      <c r="B77" s="50"/>
-      <c r="C77" s="46" t="s">
+      <c r="B77" s="51"/>
+      <c r="C77" s="47" t="s">
         <v>113</v>
       </c>
-      <c r="D77" s="46"/>
-      <c r="E77" s="46"/>
-      <c r="F77" s="46"/>
-      <c r="G77" s="46"/>
-      <c r="H77" s="46"/>
-      <c r="I77" s="46"/>
-      <c r="J77" s="46"/>
-      <c r="K77" s="46"/>
-      <c r="L77" s="46"/>
-      <c r="M77" s="46"/>
-      <c r="N77" s="46"/>
+      <c r="D77" s="47"/>
+      <c r="E77" s="47"/>
+      <c r="F77" s="47"/>
+      <c r="G77" s="47"/>
+      <c r="H77" s="47"/>
+      <c r="I77" s="47"/>
+      <c r="J77" s="47"/>
+      <c r="K77" s="47"/>
+      <c r="L77" s="47"/>
+      <c r="M77" s="47"/>
+      <c r="N77" s="47"/>
     </row>
     <row r="78" ht="54" customHeight="1" spans="2:14">
-      <c r="B78" s="50"/>
-      <c r="C78" s="46"/>
-      <c r="D78" s="46"/>
-      <c r="E78" s="46"/>
-      <c r="F78" s="46"/>
-      <c r="G78" s="46"/>
-      <c r="H78" s="46"/>
-      <c r="I78" s="46"/>
-      <c r="J78" s="46"/>
-      <c r="K78" s="46"/>
-      <c r="L78" s="46"/>
-      <c r="M78" s="46"/>
-      <c r="N78" s="46"/>
+      <c r="B78" s="51"/>
+      <c r="C78" s="47"/>
+      <c r="D78" s="47"/>
+      <c r="E78" s="47"/>
+      <c r="F78" s="47"/>
+      <c r="G78" s="47"/>
+      <c r="H78" s="47"/>
+      <c r="I78" s="47"/>
+      <c r="J78" s="47"/>
+      <c r="K78" s="47"/>
+      <c r="L78" s="47"/>
+      <c r="M78" s="47"/>
+      <c r="N78" s="47"/>
     </row>
     <row r="79" ht="54" customHeight="1" spans="2:14">
-      <c r="B79" s="50"/>
-      <c r="C79" s="46"/>
-      <c r="D79" s="46"/>
-      <c r="E79" s="46"/>
-      <c r="F79" s="46"/>
-      <c r="G79" s="46"/>
-      <c r="H79" s="46"/>
-      <c r="I79" s="46"/>
-      <c r="J79" s="46"/>
-      <c r="K79" s="46"/>
-      <c r="L79" s="46"/>
-      <c r="M79" s="46"/>
-      <c r="N79" s="46"/>
+      <c r="B79" s="51"/>
+      <c r="C79" s="47"/>
+      <c r="D79" s="47"/>
+      <c r="E79" s="47"/>
+      <c r="F79" s="47"/>
+      <c r="G79" s="47"/>
+      <c r="H79" s="47"/>
+      <c r="I79" s="47"/>
+      <c r="J79" s="47"/>
+      <c r="K79" s="47"/>
+      <c r="L79" s="47"/>
+      <c r="M79" s="47"/>
+      <c r="N79" s="47"/>
     </row>
     <row r="80" ht="54" customHeight="1" spans="2:14">
-      <c r="B80" s="50"/>
-      <c r="C80" s="46"/>
-      <c r="D80" s="46"/>
-      <c r="E80" s="46"/>
-      <c r="F80" s="46"/>
-      <c r="G80" s="46"/>
-      <c r="H80" s="46"/>
-      <c r="I80" s="46"/>
-      <c r="J80" s="46"/>
-      <c r="K80" s="46"/>
-      <c r="L80" s="46"/>
-      <c r="M80" s="46"/>
-      <c r="N80" s="46"/>
+      <c r="B80" s="51"/>
+      <c r="C80" s="47"/>
+      <c r="D80" s="47"/>
+      <c r="E80" s="47"/>
+      <c r="F80" s="47"/>
+      <c r="G80" s="47"/>
+      <c r="H80" s="47"/>
+      <c r="I80" s="47"/>
+      <c r="J80" s="47"/>
+      <c r="K80" s="47"/>
+      <c r="L80" s="47"/>
+      <c r="M80" s="47"/>
+      <c r="N80" s="47"/>
     </row>
     <row r="81" ht="54" customHeight="1" spans="2:14">
-      <c r="B81" s="50"/>
-      <c r="C81" s="46"/>
-      <c r="D81" s="46"/>
-      <c r="E81" s="46"/>
-      <c r="F81" s="46"/>
-      <c r="G81" s="46"/>
-      <c r="H81" s="46"/>
-      <c r="I81" s="46"/>
-      <c r="J81" s="46"/>
-      <c r="K81" s="46"/>
-      <c r="L81" s="46"/>
-      <c r="M81" s="46"/>
-      <c r="N81" s="46"/>
+      <c r="B81" s="51"/>
+      <c r="C81" s="47"/>
+      <c r="D81" s="47"/>
+      <c r="E81" s="47"/>
+      <c r="F81" s="47"/>
+      <c r="G81" s="47"/>
+      <c r="H81" s="47"/>
+      <c r="I81" s="47"/>
+      <c r="J81" s="47"/>
+      <c r="K81" s="47"/>
+      <c r="L81" s="47"/>
+      <c r="M81" s="47"/>
+      <c r="N81" s="47"/>
     </row>
     <row r="83" spans="1:14">
-      <c r="A83" s="65" t="s">
+      <c r="A83" s="66" t="s">
         <v>114</v>
       </c>
       <c r="B83" s="26"/>
-      <c r="C83" s="66"/>
-      <c r="D83" s="66"/>
-      <c r="E83" s="66"/>
-      <c r="F83" s="66"/>
-      <c r="G83" s="66"/>
-      <c r="H83" s="66"/>
-      <c r="I83" s="66"/>
-      <c r="J83" s="66"/>
-      <c r="K83" s="66"/>
-      <c r="L83" s="66"/>
-      <c r="M83" s="66"/>
-      <c r="N83" s="66"/>
+      <c r="C83" s="67"/>
+      <c r="D83" s="67"/>
+      <c r="E83" s="67"/>
+      <c r="F83" s="67"/>
+      <c r="G83" s="67"/>
+      <c r="H83" s="67"/>
+      <c r="I83" s="67"/>
+      <c r="J83" s="67"/>
+      <c r="K83" s="67"/>
+      <c r="L83" s="67"/>
+      <c r="M83" s="67"/>
+      <c r="N83" s="67"/>
     </row>
     <row r="84" ht="72" customHeight="1" spans="1:14">
-      <c r="A84" s="65"/>
-      <c r="B84" s="67" t="s">
+      <c r="A84" s="66"/>
+      <c r="B84" s="68" t="s">
         <v>115</v>
       </c>
-      <c r="C84" s="68"/>
-      <c r="D84" s="68"/>
-      <c r="E84" s="68"/>
-      <c r="F84" s="68"/>
-      <c r="G84" s="68"/>
-      <c r="H84" s="68"/>
-      <c r="I84" s="68"/>
-      <c r="J84" s="68"/>
-      <c r="K84" s="68"/>
-      <c r="L84" s="68"/>
-      <c r="M84" s="68"/>
-      <c r="N84" s="68"/>
+      <c r="C84" s="69"/>
+      <c r="D84" s="69"/>
+      <c r="E84" s="69"/>
+      <c r="F84" s="69"/>
+      <c r="G84" s="69"/>
+      <c r="H84" s="69"/>
+      <c r="I84" s="69"/>
+      <c r="J84" s="69"/>
+      <c r="K84" s="69"/>
+      <c r="L84" s="69"/>
+      <c r="M84" s="69"/>
+      <c r="N84" s="69"/>
     </row>
     <row r="86" spans="1:1">
-      <c r="A86" s="41" t="s">
+      <c r="A86" s="42" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="87" spans="2:14">
-      <c r="B87" s="50" t="s">
+      <c r="B87" s="51" t="s">
         <v>117</v>
       </c>
-      <c r="C87" s="51"/>
-      <c r="D87" s="51"/>
-      <c r="E87" s="51"/>
-      <c r="F87" s="51"/>
-      <c r="G87" s="51"/>
-      <c r="H87" s="51"/>
-      <c r="I87" s="51"/>
-      <c r="J87" s="51"/>
-      <c r="K87" s="51"/>
-      <c r="L87" s="51"/>
-      <c r="M87" s="51"/>
-      <c r="N87" s="51"/>
+      <c r="C87" s="52"/>
+      <c r="D87" s="52"/>
+      <c r="E87" s="52"/>
+      <c r="F87" s="52"/>
+      <c r="G87" s="52"/>
+      <c r="H87" s="52"/>
+      <c r="I87" s="52"/>
+      <c r="J87" s="52"/>
+      <c r="K87" s="52"/>
+      <c r="L87" s="52"/>
+      <c r="M87" s="52"/>
+      <c r="N87" s="52"/>
     </row>
     <row r="89" spans="1:1">
-      <c r="A89" s="41" t="s">
+      <c r="A89" s="42" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="90" ht="54" customHeight="1" spans="2:14">
-      <c r="B90" s="50" t="s">
+      <c r="B90" s="51" t="s">
         <v>119</v>
       </c>
-      <c r="C90" s="51"/>
-      <c r="D90" s="51"/>
-      <c r="E90" s="51"/>
-      <c r="F90" s="51"/>
-      <c r="G90" s="51"/>
-      <c r="H90" s="51"/>
-      <c r="I90" s="51"/>
-      <c r="J90" s="51"/>
-      <c r="K90" s="51"/>
-      <c r="L90" s="51"/>
-      <c r="M90" s="51"/>
-      <c r="N90" s="51"/>
+      <c r="C90" s="52"/>
+      <c r="D90" s="52"/>
+      <c r="E90" s="52"/>
+      <c r="F90" s="52"/>
+      <c r="G90" s="52"/>
+      <c r="H90" s="52"/>
+      <c r="I90" s="52"/>
+      <c r="J90" s="52"/>
+      <c r="K90" s="52"/>
+      <c r="L90" s="52"/>
+      <c r="M90" s="52"/>
+      <c r="N90" s="52"/>
     </row>
     <row r="91" ht="21" customHeight="1" spans="2:2">
-      <c r="B91" s="52" t="s">
+      <c r="B91" s="53" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="92" ht="120" customHeight="1" spans="3:14">
-      <c r="C92" s="84" t="s">
+      <c r="C92" s="85" t="s">
         <v>121</v>
       </c>
-      <c r="D92" s="51"/>
-      <c r="E92" s="51"/>
-      <c r="F92" s="51"/>
-      <c r="G92" s="51"/>
-      <c r="H92" s="51"/>
-      <c r="I92" s="51"/>
-      <c r="J92" s="51"/>
-      <c r="K92" s="51"/>
-      <c r="L92" s="51"/>
-      <c r="M92" s="51"/>
-      <c r="N92" s="51"/>
+      <c r="D92" s="52"/>
+      <c r="E92" s="52"/>
+      <c r="F92" s="52"/>
+      <c r="G92" s="52"/>
+      <c r="H92" s="52"/>
+      <c r="I92" s="52"/>
+      <c r="J92" s="52"/>
+      <c r="K92" s="52"/>
+      <c r="L92" s="52"/>
+      <c r="M92" s="52"/>
+      <c r="N92" s="52"/>
     </row>
     <row r="93" spans="2:2">
-      <c r="B93" s="52" t="s">
+      <c r="B93" s="53" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="94" ht="31" customHeight="1" spans="3:14">
-      <c r="C94" s="51" t="s">
+      <c r="C94" s="52" t="s">
         <v>123</v>
       </c>
-      <c r="D94" s="51"/>
-      <c r="E94" s="51"/>
-      <c r="F94" s="51"/>
-      <c r="G94" s="51"/>
-      <c r="H94" s="51"/>
-      <c r="I94" s="51"/>
-      <c r="J94" s="51"/>
-      <c r="K94" s="51"/>
-      <c r="L94" s="51"/>
-      <c r="M94" s="51"/>
-      <c r="N94" s="51"/>
+      <c r="D94" s="52"/>
+      <c r="E94" s="52"/>
+      <c r="F94" s="52"/>
+      <c r="G94" s="52"/>
+      <c r="H94" s="52"/>
+      <c r="I94" s="52"/>
+      <c r="J94" s="52"/>
+      <c r="K94" s="52"/>
+      <c r="L94" s="52"/>
+      <c r="M94" s="52"/>
+      <c r="N94" s="52"/>
     </row>
     <row r="95" spans="2:2">
-      <c r="B95" s="52" t="s">
+      <c r="B95" s="53" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="96" spans="3:14">
-      <c r="C96" s="46" t="s">
+      <c r="C96" s="47" t="s">
         <v>125</v>
       </c>
-      <c r="D96" s="46"/>
-      <c r="E96" s="46"/>
-      <c r="F96" s="46"/>
-      <c r="G96" s="46"/>
-      <c r="H96" s="46"/>
-      <c r="I96" s="46"/>
-      <c r="J96" s="46"/>
-      <c r="K96" s="46"/>
-      <c r="L96" s="46"/>
-      <c r="M96" s="46"/>
-      <c r="N96" s="46"/>
+      <c r="D96" s="47"/>
+      <c r="E96" s="47"/>
+      <c r="F96" s="47"/>
+      <c r="G96" s="47"/>
+      <c r="H96" s="47"/>
+      <c r="I96" s="47"/>
+      <c r="J96" s="47"/>
+      <c r="K96" s="47"/>
+      <c r="L96" s="47"/>
+      <c r="M96" s="47"/>
+      <c r="N96" s="47"/>
     </row>
   </sheetData>
   <mergeCells count="52">
@@ -5966,7 +5969,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="24" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="16" style="33" customWidth="1"/>
+    <col min="1" max="1" width="16" style="34" customWidth="1"/>
     <col min="2" max="2" width="26" style="4" customWidth="1"/>
     <col min="3" max="13" width="9" style="6"/>
     <col min="14" max="14" width="11.625" style="4" customWidth="1"/>
@@ -5974,7 +5977,7 @@
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:1">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="34" t="s">
         <v>126</v>
       </c>
     </row>
@@ -6030,7 +6033,7 @@
       <c r="N4" s="9"/>
     </row>
     <row r="5" customHeight="1" spans="2:14">
-      <c r="B5" s="34" t="s">
+      <c r="B5" s="35" t="s">
         <v>130</v>
       </c>
       <c r="C5" s="8"/>
@@ -6044,10 +6047,10 @@
       <c r="K5" s="8"/>
       <c r="L5" s="8"/>
       <c r="M5" s="8"/>
-      <c r="N5" s="34"/>
+      <c r="N5" s="35"/>
     </row>
     <row r="6" ht="45" customHeight="1" spans="2:14">
-      <c r="B6" s="35" t="s">
+      <c r="B6" s="36" t="s">
         <v>131</v>
       </c>
       <c r="C6" s="7" t="s">
@@ -6066,7 +6069,7 @@
       <c r="N6" s="8"/>
     </row>
     <row r="7" customHeight="1" spans="2:14">
-      <c r="B7" s="35" t="s">
+      <c r="B7" s="36" t="s">
         <v>133</v>
       </c>
       <c r="C7" s="7" t="s">
@@ -6085,7 +6088,7 @@
       <c r="N7" s="8"/>
     </row>
     <row r="8" ht="70" customHeight="1" spans="2:14">
-      <c r="B8" s="34"/>
+      <c r="B8" s="35"/>
       <c r="C8" s="11" t="s">
         <v>135</v>
       </c>
@@ -6102,7 +6105,7 @@
       <c r="N8" s="11"/>
     </row>
     <row r="9" customHeight="1" spans="2:14">
-      <c r="B9" s="35" t="s">
+      <c r="B9" s="36" t="s">
         <v>136</v>
       </c>
       <c r="C9" s="8" t="s">
@@ -6121,7 +6124,7 @@
       <c r="N9" s="8"/>
     </row>
     <row r="10" ht="70" customHeight="1" spans="2:14">
-      <c r="B10" s="34"/>
+      <c r="B10" s="35"/>
       <c r="C10" s="11" t="s">
         <v>138</v>
       </c>
@@ -6138,7 +6141,7 @@
       <c r="N10" s="11"/>
     </row>
     <row r="11" ht="38" customHeight="1" spans="2:14">
-      <c r="B11" s="35" t="s">
+      <c r="B11" s="36" t="s">
         <v>139</v>
       </c>
       <c r="C11" s="8"/>
@@ -6157,7 +6160,7 @@
       <c r="N11" s="8"/>
     </row>
     <row r="12" ht="142" customHeight="1" spans="2:14">
-      <c r="B12" s="34"/>
+      <c r="B12" s="35"/>
       <c r="C12" s="11" t="s">
         <v>141</v>
       </c>
@@ -6174,7 +6177,7 @@
       <c r="N12" s="11"/>
     </row>
     <row r="13" ht="22" customHeight="1" spans="2:14">
-      <c r="B13" s="35" t="s">
+      <c r="B13" s="36" t="s">
         <v>142</v>
       </c>
       <c r="C13" s="8"/>
@@ -6193,7 +6196,7 @@
       <c r="N13" s="27"/>
     </row>
     <row r="14" ht="156" customHeight="1" spans="2:14">
-      <c r="B14" s="35"/>
+      <c r="B14" s="36"/>
       <c r="C14" s="11" t="s">
         <v>144</v>
       </c>
@@ -6210,7 +6213,7 @@
       <c r="N14" s="11"/>
     </row>
     <row r="16" customHeight="1" spans="1:1">
-      <c r="A16" s="33" t="s">
+      <c r="A16" s="34" t="s">
         <v>145</v>
       </c>
     </row>
@@ -6249,7 +6252,7 @@
       <c r="N18" s="9"/>
     </row>
     <row r="19" customHeight="1" spans="2:14">
-      <c r="B19" s="34" t="s">
+      <c r="B19" s="35" t="s">
         <v>130</v>
       </c>
       <c r="C19" s="8"/>
@@ -6263,10 +6266,10 @@
       <c r="K19" s="8"/>
       <c r="L19" s="8"/>
       <c r="M19" s="8"/>
-      <c r="N19" s="34"/>
+      <c r="N19" s="35"/>
     </row>
     <row r="20" customHeight="1" spans="2:14">
-      <c r="B20" s="36" t="s">
+      <c r="B20" s="37" t="s">
         <v>148</v>
       </c>
       <c r="C20" s="8"/>
@@ -6280,10 +6283,10 @@
       <c r="K20" s="8"/>
       <c r="L20" s="8"/>
       <c r="M20" s="8"/>
-      <c r="N20" s="34"/>
+      <c r="N20" s="35"/>
     </row>
     <row r="21" ht="42" customHeight="1" spans="2:14">
-      <c r="B21" s="34"/>
+      <c r="B21" s="35"/>
       <c r="C21" s="7" t="s">
         <v>149</v>
       </c>
@@ -6300,7 +6303,7 @@
       <c r="N21" s="8"/>
     </row>
     <row r="22" customHeight="1" spans="2:14">
-      <c r="B22" s="35" t="s">
+      <c r="B22" s="36" t="s">
         <v>150</v>
       </c>
       <c r="C22" s="8"/>
@@ -6314,10 +6317,10 @@
       <c r="K22" s="8"/>
       <c r="L22" s="8"/>
       <c r="M22" s="8"/>
-      <c r="N22" s="34"/>
+      <c r="N22" s="35"/>
     </row>
     <row r="23" ht="84" customHeight="1" spans="2:14">
-      <c r="B23" s="34"/>
+      <c r="B23" s="35"/>
       <c r="C23" s="7" t="s">
         <v>151</v>
       </c>
@@ -6334,7 +6337,7 @@
       <c r="N23" s="8"/>
     </row>
     <row r="24" customHeight="1" spans="2:14">
-      <c r="B24" s="34" t="s">
+      <c r="B24" s="35" t="s">
         <v>152</v>
       </c>
       <c r="C24" s="8"/>
@@ -6348,10 +6351,10 @@
       <c r="K24" s="8"/>
       <c r="L24" s="8"/>
       <c r="M24" s="8"/>
-      <c r="N24" s="34"/>
+      <c r="N24" s="35"/>
     </row>
     <row r="25" ht="52" customHeight="1" spans="2:14">
-      <c r="B25" s="34"/>
+      <c r="B25" s="35"/>
       <c r="C25" s="7" t="s">
         <v>153</v>
       </c>
@@ -6368,7 +6371,7 @@
       <c r="N25" s="7"/>
     </row>
     <row r="26" ht="169" customHeight="1" spans="2:14">
-      <c r="B26" s="34"/>
+      <c r="B26" s="35"/>
       <c r="C26" s="7" t="s">
         <v>154</v>
       </c>
@@ -6385,7 +6388,7 @@
       <c r="N26" s="7"/>
     </row>
     <row r="27" customHeight="1" spans="2:14">
-      <c r="B27" s="35" t="s">
+      <c r="B27" s="36" t="s">
         <v>155</v>
       </c>
       <c r="C27" s="8"/>
@@ -6399,10 +6402,10 @@
       <c r="K27" s="8"/>
       <c r="L27" s="8"/>
       <c r="M27" s="8"/>
-      <c r="N27" s="34"/>
+      <c r="N27" s="35"/>
     </row>
     <row r="28" ht="73" customHeight="1" spans="2:14">
-      <c r="B28" s="34"/>
+      <c r="B28" s="35"/>
       <c r="C28" s="7" t="s">
         <v>156</v>
       </c>
@@ -6419,7 +6422,7 @@
       <c r="N28" s="8"/>
     </row>
     <row r="29" customHeight="1" spans="2:14">
-      <c r="B29" s="35" t="s">
+      <c r="B29" s="36" t="s">
         <v>133</v>
       </c>
       <c r="C29" s="8"/>
@@ -6433,10 +6436,10 @@
       <c r="K29" s="8"/>
       <c r="L29" s="8"/>
       <c r="M29" s="8"/>
-      <c r="N29" s="34"/>
+      <c r="N29" s="35"/>
     </row>
     <row r="30" ht="150" customHeight="1" spans="2:14">
-      <c r="B30" s="34"/>
+      <c r="B30" s="35"/>
       <c r="C30" s="7" t="s">
         <v>157</v>
       </c>
@@ -6453,7 +6456,7 @@
       <c r="N30" s="8"/>
     </row>
     <row r="31" customHeight="1" spans="2:14">
-      <c r="B31" s="35" t="s">
+      <c r="B31" s="36" t="s">
         <v>158</v>
       </c>
       <c r="C31" s="8"/>
@@ -6467,10 +6470,10 @@
       <c r="K31" s="8"/>
       <c r="L31" s="8"/>
       <c r="M31" s="8"/>
-      <c r="N31" s="34"/>
+      <c r="N31" s="35"/>
     </row>
     <row r="32" ht="112" customHeight="1" spans="2:14">
-      <c r="B32" s="34"/>
+      <c r="B32" s="35"/>
       <c r="C32" s="7" t="s">
         <v>159</v>
       </c>
@@ -6487,7 +6490,7 @@
       <c r="N32" s="7"/>
     </row>
     <row r="33" customHeight="1" spans="2:14">
-      <c r="B33" s="35" t="s">
+      <c r="B33" s="36" t="s">
         <v>160</v>
       </c>
       <c r="C33" s="8"/>
@@ -6501,10 +6504,10 @@
       <c r="K33" s="8"/>
       <c r="L33" s="8"/>
       <c r="M33" s="8"/>
-      <c r="N33" s="34"/>
+      <c r="N33" s="35"/>
     </row>
     <row r="34" ht="44" customHeight="1" spans="2:14">
-      <c r="B34" s="34"/>
+      <c r="B34" s="35"/>
       <c r="C34" s="7" t="s">
         <v>161</v>
       </c>
@@ -6521,7 +6524,7 @@
       <c r="N34" s="8"/>
     </row>
     <row r="35" customHeight="1" spans="2:14">
-      <c r="B35" s="35" t="s">
+      <c r="B35" s="36" t="s">
         <v>162</v>
       </c>
       <c r="C35" s="8"/>
@@ -6540,7 +6543,7 @@
       <c r="N35" s="8"/>
     </row>
     <row r="36" ht="233" customHeight="1" spans="2:14">
-      <c r="B36" s="34"/>
+      <c r="B36" s="35"/>
       <c r="C36" s="7" t="s">
         <v>164</v>
       </c>
@@ -6557,7 +6560,7 @@
       <c r="N36" s="7"/>
     </row>
     <row r="37" customHeight="1" spans="2:14">
-      <c r="B37" s="35" t="s">
+      <c r="B37" s="36" t="s">
         <v>165</v>
       </c>
       <c r="C37" s="8"/>
@@ -6571,10 +6574,10 @@
       <c r="K37" s="8"/>
       <c r="L37" s="8"/>
       <c r="M37" s="8"/>
-      <c r="N37" s="34"/>
+      <c r="N37" s="35"/>
     </row>
     <row r="38" customHeight="1" spans="2:14">
-      <c r="B38" s="34"/>
+      <c r="B38" s="35"/>
       <c r="C38" s="8"/>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
@@ -6586,10 +6589,10 @@
       <c r="K38" s="8"/>
       <c r="L38" s="8"/>
       <c r="M38" s="8"/>
-      <c r="N38" s="34"/>
+      <c r="N38" s="35"/>
     </row>
     <row r="39" customHeight="1" spans="2:14">
-      <c r="B39" s="34"/>
+      <c r="B39" s="35"/>
       <c r="C39" s="8"/>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
@@ -6601,10 +6604,10 @@
       <c r="K39" s="8"/>
       <c r="L39" s="8"/>
       <c r="M39" s="8"/>
-      <c r="N39" s="34"/>
+      <c r="N39" s="35"/>
     </row>
     <row r="40" customHeight="1" spans="1:1">
-      <c r="A40" s="33" t="s">
+      <c r="A40" s="34" t="s">
         <v>166</v>
       </c>
     </row>
@@ -6647,12 +6650,12 @@
       <c r="N43" s="9"/>
     </row>
     <row r="44" ht="90" customHeight="1" spans="2:2">
-      <c r="B44" s="37" t="s">
+      <c r="B44" s="38" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="46" customHeight="1" spans="1:1">
-      <c r="A46" s="33" t="s">
+      <c r="A46" s="34" t="s">
         <v>171</v>
       </c>
     </row>
@@ -6674,7 +6677,7 @@
       <c r="N47" s="9"/>
     </row>
     <row r="48" customHeight="1" spans="2:14">
-      <c r="B48" s="34" t="s">
+      <c r="B48" s="35" t="s">
         <v>173</v>
       </c>
       <c r="C48" s="8"/>
@@ -6688,10 +6691,10 @@
       <c r="K48" s="8"/>
       <c r="L48" s="8"/>
       <c r="M48" s="8"/>
-      <c r="N48" s="34"/>
+      <c r="N48" s="35"/>
     </row>
     <row r="49" customHeight="1" spans="1:1">
-      <c r="A49" s="33" t="s">
+      <c r="A49" s="34" t="s">
         <v>174</v>
       </c>
     </row>
@@ -6713,7 +6716,7 @@
       <c r="N50" s="9"/>
     </row>
     <row r="51" ht="28" customHeight="1" spans="2:14">
-      <c r="B51" s="36" t="s">
+      <c r="B51" s="37" t="s">
         <v>176</v>
       </c>
       <c r="C51" s="7"/>
@@ -6871,25 +6874,25 @@
       <c r="N60" s="9"/>
     </row>
     <row r="62" customHeight="1" spans="1:14">
-      <c r="A62" s="33" t="s">
+      <c r="A62" s="34" t="s">
         <v>180</v>
       </c>
       <c r="B62"/>
-      <c r="C62" s="38"/>
-      <c r="D62" s="38"/>
-      <c r="E62" s="38"/>
-      <c r="F62" s="38"/>
-      <c r="G62" s="38"/>
-      <c r="H62" s="38"/>
-      <c r="I62" s="38"/>
-      <c r="J62" s="38"/>
-      <c r="K62" s="38"/>
-      <c r="L62" s="38"/>
-      <c r="M62" s="38"/>
-      <c r="N62" s="40"/>
+      <c r="C62" s="39"/>
+      <c r="D62" s="39"/>
+      <c r="E62" s="39"/>
+      <c r="F62" s="39"/>
+      <c r="G62" s="39"/>
+      <c r="H62" s="39"/>
+      <c r="I62" s="39"/>
+      <c r="J62" s="39"/>
+      <c r="K62" s="39"/>
+      <c r="L62" s="39"/>
+      <c r="M62" s="39"/>
+      <c r="N62" s="41"/>
     </row>
     <row r="63" ht="53" customHeight="1" spans="1:14">
-      <c r="A63" s="39"/>
+      <c r="A63" s="40"/>
       <c r="B63" s="9" t="s">
         <v>181</v>
       </c>
@@ -7063,12 +7066,12 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:M143"/>
+  <dimension ref="A1:M145"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A140" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="F150" sqref="F150"/>
+      <selection pane="topRight" activeCell="C150" sqref="C150"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18"/>
@@ -7275,7 +7278,7 @@
       </c>
     </row>
     <row r="21" ht="180" customHeight="1" spans="3:13">
-      <c r="C21" s="85" t="s">
+      <c r="C21" s="86" t="s">
         <v>212</v>
       </c>
       <c r="D21" s="8"/>
@@ -8090,7 +8093,7 @@
     <row r="90" ht="82" customHeight="1" spans="3:13">
       <c r="C90" s="8"/>
       <c r="D90" s="8"/>
-      <c r="E90" s="29" t="s">
+      <c r="E90" s="30" t="s">
         <v>285</v>
       </c>
       <c r="F90" s="7"/>
@@ -8107,7 +8110,7 @@
       <c r="D91" s="27" t="s">
         <v>286</v>
       </c>
-      <c r="E91" s="29"/>
+      <c r="E91" s="30"/>
       <c r="F91" s="7"/>
       <c r="G91" s="7"/>
       <c r="H91" s="7"/>
@@ -8137,7 +8140,7 @@
       <c r="D93" s="27" t="s">
         <v>288</v>
       </c>
-      <c r="E93" s="29"/>
+      <c r="E93" s="30"/>
       <c r="F93" s="7"/>
       <c r="G93" s="7"/>
       <c r="H93" s="7"/>
@@ -8399,7 +8402,7 @@
       <c r="M113" s="4"/>
     </row>
     <row r="114" ht="159" customHeight="1" spans="3:13">
-      <c r="C114" s="85" t="s">
+      <c r="C114" s="86" t="s">
         <v>308</v>
       </c>
       <c r="D114" s="7"/>
@@ -8471,19 +8474,19 @@
       <c r="M121" s="4"/>
     </row>
     <row r="122" ht="153" customHeight="1" spans="3:13">
-      <c r="C122" s="7" t="s">
+      <c r="C122" s="17" t="s">
         <v>315</v>
       </c>
-      <c r="D122" s="8"/>
-      <c r="E122" s="8"/>
-      <c r="F122" s="8"/>
-      <c r="G122" s="8"/>
-      <c r="H122" s="8"/>
-      <c r="I122" s="8"/>
-      <c r="J122" s="8"/>
-      <c r="K122" s="8"/>
-      <c r="L122" s="8"/>
-      <c r="M122" s="8"/>
+      <c r="D122" s="29"/>
+      <c r="E122" s="29"/>
+      <c r="F122" s="29"/>
+      <c r="G122" s="29"/>
+      <c r="H122" s="29"/>
+      <c r="I122" s="29"/>
+      <c r="J122" s="29"/>
+      <c r="K122" s="29"/>
+      <c r="L122" s="29"/>
+      <c r="M122" s="29"/>
     </row>
     <row r="123" spans="2:13">
       <c r="B123" s="20" t="s">
@@ -8492,19 +8495,19 @@
       <c r="M123" s="4"/>
     </row>
     <row r="124" ht="187" customHeight="1" spans="3:13">
-      <c r="C124" s="7" t="s">
+      <c r="C124" s="17" t="s">
         <v>317</v>
       </c>
-      <c r="D124" s="7"/>
-      <c r="E124" s="7"/>
-      <c r="F124" s="7"/>
-      <c r="G124" s="7"/>
-      <c r="H124" s="7"/>
-      <c r="I124" s="7"/>
-      <c r="J124" s="7"/>
-      <c r="K124" s="7"/>
-      <c r="L124" s="7"/>
-      <c r="M124" s="7"/>
+      <c r="D124" s="17"/>
+      <c r="E124" s="17"/>
+      <c r="F124" s="17"/>
+      <c r="G124" s="17"/>
+      <c r="H124" s="17"/>
+      <c r="I124" s="17"/>
+      <c r="J124" s="17"/>
+      <c r="K124" s="17"/>
+      <c r="L124" s="17"/>
+      <c r="M124" s="17"/>
     </row>
     <row r="125" spans="3:13">
       <c r="C125" s="10" t="s">
@@ -8513,18 +8516,18 @@
       <c r="M125" s="4"/>
     </row>
     <row r="126" ht="133" customHeight="1" spans="4:13">
-      <c r="D126" s="7" t="s">
+      <c r="D126" s="17" t="s">
         <v>319</v>
       </c>
-      <c r="E126" s="8"/>
-      <c r="F126" s="8"/>
-      <c r="G126" s="8"/>
-      <c r="H126" s="8"/>
-      <c r="I126" s="8"/>
-      <c r="J126" s="8"/>
-      <c r="K126" s="8"/>
-      <c r="L126" s="8"/>
-      <c r="M126" s="8"/>
+      <c r="E126" s="29"/>
+      <c r="F126" s="29"/>
+      <c r="G126" s="29"/>
+      <c r="H126" s="29"/>
+      <c r="I126" s="29"/>
+      <c r="J126" s="29"/>
+      <c r="K126" s="29"/>
+      <c r="L126" s="29"/>
+      <c r="M126" s="29"/>
     </row>
     <row r="127" ht="56" customHeight="1" spans="1:13">
       <c r="A127" s="19" t="s">
@@ -8548,7 +8551,7 @@
       <c r="M128" s="4"/>
     </row>
     <row r="129" ht="90" customHeight="1" spans="2:13">
-      <c r="B129" s="30" t="s">
+      <c r="B129" s="31" t="s">
         <v>322</v>
       </c>
       <c r="C129" s="7" t="s">
@@ -8572,19 +8575,19 @@
       <c r="M130" s="4"/>
     </row>
     <row r="131" ht="124" customHeight="1" spans="3:13">
-      <c r="C131" s="7" t="s">
+      <c r="C131" s="17" t="s">
         <v>325</v>
       </c>
-      <c r="D131" s="7"/>
-      <c r="E131" s="7"/>
-      <c r="F131" s="7"/>
-      <c r="G131" s="7"/>
-      <c r="H131" s="7"/>
-      <c r="I131" s="7"/>
-      <c r="J131" s="7"/>
-      <c r="K131" s="7"/>
-      <c r="L131" s="7"/>
-      <c r="M131" s="7"/>
+      <c r="D131" s="17"/>
+      <c r="E131" s="17"/>
+      <c r="F131" s="17"/>
+      <c r="G131" s="17"/>
+      <c r="H131" s="17"/>
+      <c r="I131" s="17"/>
+      <c r="J131" s="17"/>
+      <c r="K131" s="17"/>
+      <c r="L131" s="17"/>
+      <c r="M131" s="17"/>
     </row>
     <row r="132" spans="2:13">
       <c r="B132" s="20" t="s">
@@ -8617,20 +8620,20 @@
       <c r="M135" s="4"/>
     </row>
     <row r="136" ht="60" customHeight="1" spans="2:13">
-      <c r="B136" s="31" t="s">
+      <c r="B136" s="32" t="s">
         <v>329</v>
       </c>
-      <c r="C136" s="31"/>
-      <c r="D136" s="31"/>
-      <c r="E136" s="31"/>
-      <c r="F136" s="31"/>
-      <c r="G136" s="31"/>
-      <c r="H136" s="31"/>
-      <c r="I136" s="31"/>
-      <c r="J136" s="31"/>
-      <c r="K136" s="31"/>
-      <c r="L136" s="31"/>
-      <c r="M136" s="31"/>
+      <c r="C136" s="32"/>
+      <c r="D136" s="32"/>
+      <c r="E136" s="32"/>
+      <c r="F136" s="32"/>
+      <c r="G136" s="32"/>
+      <c r="H136" s="32"/>
+      <c r="I136" s="32"/>
+      <c r="J136" s="32"/>
+      <c r="K136" s="32"/>
+      <c r="L136" s="32"/>
+      <c r="M136" s="32"/>
     </row>
     <row r="137" spans="2:13">
       <c r="B137" s="20" t="s">
@@ -8680,37 +8683,57 @@
       </c>
     </row>
     <row r="142" ht="39" customHeight="1" spans="3:13">
-      <c r="C142" s="32" t="s">
+      <c r="C142" s="33" t="s">
         <v>335</v>
       </c>
-      <c r="D142" s="32"/>
-      <c r="E142" s="32"/>
-      <c r="F142" s="32"/>
-      <c r="G142" s="32"/>
-      <c r="H142" s="32"/>
-      <c r="I142" s="32"/>
-      <c r="J142" s="32"/>
-      <c r="K142" s="32"/>
-      <c r="L142" s="32"/>
-      <c r="M142" s="32"/>
+      <c r="D142" s="33"/>
+      <c r="E142" s="33"/>
+      <c r="F142" s="33"/>
+      <c r="G142" s="33"/>
+      <c r="H142" s="33"/>
+      <c r="I142" s="33"/>
+      <c r="J142" s="33"/>
+      <c r="K142" s="33"/>
+      <c r="L142" s="33"/>
+      <c r="M142" s="33"/>
     </row>
     <row r="143" ht="38" customHeight="1" spans="3:13">
-      <c r="C143" s="32" t="s">
+      <c r="C143" s="33" t="s">
         <v>336</v>
       </c>
-      <c r="D143" s="32"/>
-      <c r="E143" s="32"/>
-      <c r="F143" s="32"/>
-      <c r="G143" s="32"/>
-      <c r="H143" s="32"/>
-      <c r="I143" s="32"/>
-      <c r="J143" s="32"/>
-      <c r="K143" s="32"/>
-      <c r="L143" s="32"/>
-      <c r="M143" s="32"/>
+      <c r="D143" s="33"/>
+      <c r="E143" s="33"/>
+      <c r="F143" s="33"/>
+      <c r="G143" s="33"/>
+      <c r="H143" s="33"/>
+      <c r="I143" s="33"/>
+      <c r="J143" s="33"/>
+      <c r="K143" s="33"/>
+      <c r="L143" s="33"/>
+      <c r="M143" s="33"/>
+    </row>
+    <row r="144" spans="2:2">
+      <c r="B144" s="20" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="145" ht="38" customHeight="1" spans="3:13">
+      <c r="C145" s="33" t="s">
+        <v>338</v>
+      </c>
+      <c r="D145" s="33"/>
+      <c r="E145" s="33"/>
+      <c r="F145" s="33"/>
+      <c r="G145" s="33"/>
+      <c r="H145" s="33"/>
+      <c r="I145" s="33"/>
+      <c r="J145" s="33"/>
+      <c r="K145" s="33"/>
+      <c r="L145" s="33"/>
+      <c r="M145" s="33"/>
     </row>
   </sheetData>
-  <mergeCells count="75">
+  <mergeCells count="76">
     <mergeCell ref="D4:M4"/>
     <mergeCell ref="C5:K5"/>
     <mergeCell ref="C7:M7"/>
@@ -8786,6 +8809,7 @@
     <mergeCell ref="C140:M140"/>
     <mergeCell ref="C142:M142"/>
     <mergeCell ref="C143:M143"/>
+    <mergeCell ref="C145:M145"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -8801,7 +8825,7 @@
     <sheetView topLeftCell="A186" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="A143" sqref="A$1:A$1048576"/>
+      <selection pane="topRight" activeCell="A191" sqref="A191"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18"/>
@@ -8815,17 +8839,17 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="2" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
     </row>
     <row r="2" spans="2:2">
       <c r="B2" s="5" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
     </row>
     <row r="3" ht="108" customHeight="1" spans="3:14">
       <c r="C3" s="7" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="D3" s="8"/>
       <c r="E3" s="8"/>
@@ -8841,10 +8865,10 @@
     </row>
     <row r="4" spans="2:14">
       <c r="B4" s="5" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="E4" s="8"/>
       <c r="F4" s="8"/>
@@ -8859,7 +8883,7 @@
     </row>
     <row r="5" ht="36" customHeight="1" spans="3:14">
       <c r="C5" s="7" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="7"/>
@@ -8875,12 +8899,12 @@
     </row>
     <row r="6" spans="2:2">
       <c r="B6" s="5" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
     </row>
     <row r="7" ht="37" customHeight="1" spans="3:14">
       <c r="C7" s="7" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="D7" s="7"/>
       <c r="E7" s="7"/>
@@ -8896,12 +8920,12 @@
     </row>
     <row r="9" spans="2:2">
       <c r="B9" s="5" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
     </row>
     <row r="10" ht="108" customHeight="1" spans="3:14">
       <c r="C10" s="7" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="D10" s="7"/>
       <c r="E10" s="7"/>
@@ -8917,7 +8941,7 @@
     </row>
     <row r="11" ht="76" customHeight="1" spans="3:14">
       <c r="C11" s="7" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="D11" s="7"/>
       <c r="E11" s="7"/>
@@ -8933,12 +8957,12 @@
     </row>
     <row r="12" spans="2:2">
       <c r="B12" s="5" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
     </row>
     <row r="13" spans="3:14">
       <c r="C13" s="7" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="D13" s="7"/>
       <c r="E13" s="7"/>
@@ -8954,12 +8978,12 @@
     </row>
     <row r="14" spans="2:2">
       <c r="B14" s="5" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
     </row>
     <row r="15" ht="136" customHeight="1" spans="3:14">
       <c r="C15" s="7" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="D15" s="7"/>
       <c r="E15" s="7"/>
@@ -8975,10 +8999,10 @@
     </row>
     <row r="16" spans="2:14">
       <c r="B16" s="5" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="E16" s="7"/>
       <c r="F16" s="7"/>
@@ -8993,7 +9017,7 @@
     </row>
     <row r="17" ht="72" customHeight="1" spans="3:14">
       <c r="C17" s="7" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="D17" s="7"/>
       <c r="E17" s="7"/>
@@ -9023,12 +9047,12 @@
     </row>
     <row r="19" ht="20" customHeight="1" spans="1:1">
       <c r="A19" s="2" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
     </row>
     <row r="20" ht="38" customHeight="1" spans="2:14">
       <c r="B20" s="9" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="C20" s="9"/>
       <c r="D20" s="9"/>
@@ -9045,12 +9069,12 @@
     </row>
     <row r="21" spans="2:2">
       <c r="B21" s="5" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
     </row>
     <row r="22" spans="3:14">
       <c r="C22" s="7" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="D22" s="7"/>
       <c r="E22" s="7"/>
@@ -9066,12 +9090,12 @@
     </row>
     <row r="23" spans="2:2">
       <c r="B23" s="5" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
     </row>
     <row r="24" ht="54" customHeight="1" spans="3:14">
       <c r="C24" s="7" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="D24" s="7"/>
       <c r="E24" s="7"/>
@@ -9087,12 +9111,12 @@
     </row>
     <row r="25" spans="3:3">
       <c r="C25" s="10" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
     </row>
     <row r="26" spans="4:14">
       <c r="D26" s="7" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="E26" s="7"/>
       <c r="F26" s="7"/>
@@ -9107,12 +9131,12 @@
     </row>
     <row r="27" spans="3:3">
       <c r="C27" s="10" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
     </row>
     <row r="28" spans="4:14">
       <c r="D28" s="8" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
@@ -9127,17 +9151,17 @@
     </row>
     <row r="30" spans="1:1">
       <c r="A30" s="2" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
     </row>
     <row r="31" spans="2:2">
       <c r="B31" s="5" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
     </row>
     <row r="32" ht="73" customHeight="1" spans="3:14">
       <c r="C32" s="7" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="D32" s="7"/>
       <c r="E32" s="7"/>
@@ -9153,12 +9177,12 @@
     </row>
     <row r="33" spans="2:2">
       <c r="B33" s="5" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
     </row>
     <row r="34" ht="82" customHeight="1" spans="3:14">
       <c r="C34" s="7" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
@@ -9174,12 +9198,12 @@
     </row>
     <row r="35" spans="2:2">
       <c r="B35" s="5" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
     </row>
     <row r="36" ht="145" customHeight="1" spans="3:14">
       <c r="C36" s="7" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="D36" s="7"/>
       <c r="E36" s="7"/>
@@ -9195,12 +9219,12 @@
     </row>
     <row r="37" spans="2:2">
       <c r="B37" s="5" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
     </row>
     <row r="38" spans="3:14">
       <c r="C38" s="8" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
@@ -9216,17 +9240,17 @@
     </row>
     <row r="39" spans="2:2">
       <c r="B39" s="5" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
     </row>
     <row r="40" spans="3:3">
       <c r="C40" s="10" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
     </row>
     <row r="41" ht="55" customHeight="1" spans="4:14">
       <c r="D41" s="7" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="E41" s="7"/>
       <c r="F41" s="7"/>
@@ -9241,12 +9265,12 @@
     </row>
     <row r="42" spans="3:3">
       <c r="C42" s="10" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
     </row>
     <row r="43" ht="38" customHeight="1" spans="4:14">
       <c r="D43" s="7" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="E43" s="7"/>
       <c r="F43" s="7"/>
@@ -9261,12 +9285,12 @@
     </row>
     <row r="44" spans="3:3">
       <c r="C44" s="10" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
     </row>
     <row r="45" spans="4:14">
       <c r="D45" s="7" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="E45" s="7"/>
       <c r="F45" s="7"/>
@@ -9281,10 +9305,10 @@
     </row>
     <row r="47" spans="1:14">
       <c r="A47" s="2" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="C47" s="8" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
@@ -9300,12 +9324,12 @@
     </row>
     <row r="48" spans="2:2">
       <c r="B48" s="5" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
     </row>
     <row r="49" ht="74" customHeight="1" spans="3:14">
       <c r="C49" s="7" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
@@ -9321,12 +9345,12 @@
     </row>
     <row r="50" spans="2:2">
       <c r="B50" s="5" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
     </row>
     <row r="51" ht="57" customHeight="1" spans="3:14">
       <c r="C51" s="7" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
@@ -9342,12 +9366,12 @@
     </row>
     <row r="52" spans="2:2">
       <c r="B52" s="5" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
     </row>
     <row r="53" ht="37" customHeight="1" spans="3:14">
       <c r="C53" s="7" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="D53" s="7"/>
       <c r="E53" s="7"/>
@@ -9363,24 +9387,24 @@
     </row>
     <row r="55" spans="1:1">
       <c r="A55" s="2" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
     </row>
     <row r="56" spans="2:3">
       <c r="B56" s="5" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="C56" s="10"/>
     </row>
     <row r="57" spans="3:3">
       <c r="C57" s="10" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
     </row>
     <row r="58" spans="3:14">
       <c r="C58" s="10"/>
       <c r="D58" s="7" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="E58" s="7"/>
       <c r="F58" s="7"/>
@@ -9395,13 +9419,13 @@
     </row>
     <row r="59" spans="3:3">
       <c r="C59" s="10" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
     </row>
     <row r="60" ht="95" customHeight="1" spans="3:14">
       <c r="C60" s="10"/>
-      <c r="D60" s="85" t="s">
-        <v>394</v>
+      <c r="D60" s="86" t="s">
+        <v>396</v>
       </c>
       <c r="E60" s="7"/>
       <c r="F60" s="7"/>
@@ -9416,13 +9440,13 @@
     </row>
     <row r="61" spans="3:3">
       <c r="C61" s="10" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
     </row>
     <row r="62" ht="108" customHeight="1" spans="3:14">
       <c r="C62" s="10"/>
       <c r="D62" s="7" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="E62" s="7"/>
       <c r="F62" s="7"/>
@@ -9437,12 +9461,12 @@
     </row>
     <row r="63" spans="3:3">
       <c r="C63" s="10" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
     </row>
     <row r="64" ht="36" customHeight="1" spans="4:14">
       <c r="D64" s="7" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="E64" s="7"/>
       <c r="F64" s="7"/>
@@ -9469,10 +9493,10 @@
     </row>
     <row r="66" ht="19" customHeight="1" spans="1:14">
       <c r="A66" s="2" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="C66" s="7" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="D66" s="7"/>
       <c r="E66" s="7"/>
@@ -9488,19 +9512,19 @@
     </row>
     <row r="67" spans="2:3">
       <c r="B67" s="5" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="C67" s="10"/>
     </row>
     <row r="68" spans="3:3">
       <c r="C68" s="10" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
     </row>
     <row r="69" ht="72" customHeight="1" spans="3:14">
       <c r="C69" s="10"/>
-      <c r="D69" s="85" t="s">
-        <v>403</v>
+      <c r="D69" s="86" t="s">
+        <v>405</v>
       </c>
       <c r="E69" s="7"/>
       <c r="F69" s="7"/>
@@ -9515,13 +9539,13 @@
     </row>
     <row r="70" spans="3:3">
       <c r="C70" s="10" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
     </row>
     <row r="71" ht="102" customHeight="1" spans="3:14">
       <c r="C71" s="10"/>
-      <c r="D71" s="85" t="s">
-        <v>405</v>
+      <c r="D71" s="86" t="s">
+        <v>407</v>
       </c>
       <c r="E71" s="7"/>
       <c r="F71" s="7"/>
@@ -9536,7 +9560,7 @@
     </row>
     <row r="72" spans="3:13">
       <c r="C72" s="10" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="D72"/>
       <c r="E72"/>
@@ -9552,7 +9576,7 @@
     <row r="73" spans="3:13">
       <c r="C73" s="10"/>
       <c r="D73" s="8" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
@@ -9566,7 +9590,7 @@
     </row>
     <row r="74" spans="3:13">
       <c r="C74" s="10" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="D74"/>
       <c r="E74"/>
@@ -9582,7 +9606,7 @@
     <row r="75" ht="57" customHeight="1" spans="3:14">
       <c r="C75" s="10"/>
       <c r="D75" s="7" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="E75" s="7"/>
       <c r="F75" s="7"/>
@@ -9597,13 +9621,13 @@
     </row>
     <row r="76" spans="3:3">
       <c r="C76" s="10" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
     </row>
     <row r="77" ht="108" customHeight="1" spans="3:14">
       <c r="C77" s="10"/>
-      <c r="D77" s="85" t="s">
-        <v>411</v>
+      <c r="D77" s="86" t="s">
+        <v>413</v>
       </c>
       <c r="E77" s="7"/>
       <c r="F77" s="7"/>
@@ -9618,17 +9642,17 @@
     </row>
     <row r="79" spans="1:1">
       <c r="A79" s="2" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
     </row>
     <row r="80" spans="2:2">
       <c r="B80" s="5" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
     </row>
     <row r="81" ht="159" customHeight="1" spans="3:14">
       <c r="C81" s="7" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="D81" s="7"/>
       <c r="E81" s="7"/>
@@ -9644,10 +9668,10 @@
     </row>
     <row r="82" spans="2:14">
       <c r="B82" s="5" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="D82" s="7" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="E82" s="7"/>
       <c r="F82" s="7"/>
@@ -9662,7 +9686,7 @@
     </row>
     <row r="83" ht="58" customHeight="1" spans="3:14">
       <c r="C83" s="7" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="D83" s="7"/>
       <c r="E83" s="7"/>
@@ -9678,7 +9702,7 @@
     </row>
     <row r="84" ht="22" customHeight="1" spans="3:13">
       <c r="C84" s="11" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="D84" s="7"/>
       <c r="E84" s="7"/>
@@ -9694,7 +9718,7 @@
     <row r="85" ht="161" customHeight="1" spans="3:14">
       <c r="C85" s="7"/>
       <c r="D85" s="7" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="E85" s="7"/>
       <c r="F85" s="7"/>
@@ -9709,17 +9733,17 @@
     </row>
     <row r="86" spans="1:1">
       <c r="A86" s="2" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
     </row>
     <row r="87" spans="2:2">
       <c r="B87" s="5" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
     </row>
     <row r="88" ht="85" customHeight="1" spans="3:14">
       <c r="C88" s="7" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="D88" s="7"/>
       <c r="E88" s="7"/>
@@ -9735,12 +9759,12 @@
     </row>
     <row r="89" spans="3:3">
       <c r="C89" s="10" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
     </row>
     <row r="90" ht="60" customHeight="1" spans="4:14">
       <c r="D90" s="7" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="E90" s="7"/>
       <c r="F90" s="7"/>
@@ -9755,12 +9779,12 @@
     </row>
     <row r="91" spans="2:2">
       <c r="B91" s="5" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
     </row>
     <row r="92" ht="56" customHeight="1" spans="3:14">
       <c r="C92" s="7" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="D92" s="7"/>
       <c r="E92" s="7"/>
@@ -9776,12 +9800,12 @@
     </row>
     <row r="93" spans="3:3">
       <c r="C93" s="10" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
     </row>
     <row r="94" ht="153" customHeight="1" spans="4:14">
       <c r="D94" s="7" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="E94" s="7"/>
       <c r="F94" s="7"/>
@@ -9809,12 +9833,12 @@
     </row>
     <row r="96" ht="20" customHeight="1" spans="1:1">
       <c r="A96" s="2" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
     </row>
     <row r="97" ht="41" customHeight="1" spans="2:14">
       <c r="B97" s="7" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="C97" s="7"/>
       <c r="D97" s="7"/>
@@ -9831,12 +9855,12 @@
     </row>
     <row r="98" ht="23" customHeight="1" spans="2:2">
       <c r="B98" s="5" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
     </row>
     <row r="99" ht="172" customHeight="1" spans="3:14">
       <c r="C99" s="7" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="D99" s="7"/>
       <c r="E99" s="7"/>
@@ -9852,12 +9876,12 @@
     </row>
     <row r="100" spans="2:2">
       <c r="B100" s="5" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
     </row>
     <row r="101" ht="55" customHeight="1" spans="3:14">
       <c r="C101" s="7" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="D101" s="7"/>
       <c r="E101" s="7"/>
@@ -9873,7 +9897,7 @@
     </row>
     <row r="102" ht="125" customHeight="1" spans="3:14">
       <c r="C102" s="12" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="D102" s="13"/>
       <c r="E102" s="13"/>
@@ -9903,10 +9927,10 @@
     </row>
     <row r="104" ht="24" customHeight="1" spans="1:14">
       <c r="A104" s="2" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="C104" s="7" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="D104" s="7"/>
       <c r="E104" s="7"/>
@@ -9922,12 +9946,12 @@
     </row>
     <row r="105" ht="20" customHeight="1" spans="2:2">
       <c r="B105" s="5" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
     </row>
     <row r="106" ht="20" customHeight="1" spans="3:14">
       <c r="C106" s="8" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
@@ -9943,12 +9967,12 @@
     </row>
     <row r="107" ht="20" customHeight="1" spans="2:2">
       <c r="B107" s="5" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
     </row>
     <row r="108" ht="20" customHeight="1" spans="3:14">
       <c r="C108" s="8" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
@@ -9964,12 +9988,12 @@
     </row>
     <row r="109" ht="20" customHeight="1" spans="2:2">
       <c r="B109" s="5" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
     </row>
     <row r="110" ht="19" customHeight="1" spans="3:14">
       <c r="C110" s="7" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="D110" s="7"/>
       <c r="E110" s="7"/>
@@ -9985,17 +10009,17 @@
     </row>
     <row r="112" ht="19" customHeight="1" spans="1:1">
       <c r="A112" s="2" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
     </row>
     <row r="113" spans="2:2">
       <c r="B113" s="5" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
     </row>
     <row r="114" ht="35" customHeight="1" spans="3:14">
       <c r="C114" s="7" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="D114" s="7"/>
       <c r="E114" s="7"/>
@@ -10011,17 +10035,17 @@
     </row>
     <row r="115" spans="2:2">
       <c r="B115" s="5" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
     </row>
     <row r="116" spans="3:3">
       <c r="C116" s="10" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
     </row>
     <row r="117" ht="37" customHeight="1" spans="4:14">
       <c r="D117" s="7" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="E117" s="7"/>
       <c r="F117" s="7"/>
@@ -10036,12 +10060,12 @@
     </row>
     <row r="118" spans="3:3">
       <c r="C118" s="10" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
     </row>
     <row r="119" spans="4:14">
       <c r="D119" s="7" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="E119" s="7"/>
       <c r="F119" s="7"/>
@@ -10056,12 +10080,12 @@
     </row>
     <row r="120" spans="3:3">
       <c r="C120" s="10" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
     </row>
     <row r="121" ht="54" customHeight="1" spans="4:14">
       <c r="D121" s="7" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="E121" s="7"/>
       <c r="F121" s="7"/>
@@ -10076,12 +10100,12 @@
     </row>
     <row r="122" spans="2:2">
       <c r="B122" s="5" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
     </row>
     <row r="123" ht="36" customHeight="1" spans="3:14">
       <c r="C123" s="7" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="D123" s="7"/>
       <c r="E123" s="7"/>
@@ -10097,17 +10121,17 @@
     </row>
     <row r="124" spans="2:2">
       <c r="B124" s="5" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
     </row>
     <row r="125" spans="3:3">
       <c r="C125" s="10" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
     </row>
     <row r="126" spans="4:14">
       <c r="D126" s="7" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="E126" s="7"/>
       <c r="F126" s="7"/>
@@ -10122,12 +10146,12 @@
     </row>
     <row r="127" spans="3:3">
       <c r="C127" s="10" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
     </row>
     <row r="128" ht="21" customHeight="1" spans="4:14">
       <c r="D128" s="7" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="E128" s="7"/>
       <c r="F128" s="7"/>
@@ -10142,12 +10166,12 @@
     </row>
     <row r="129" ht="19" customHeight="1" spans="2:2">
       <c r="B129" s="5" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
     </row>
     <row r="130" spans="3:13">
       <c r="C130" s="14" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="D130" s="15"/>
       <c r="E130" s="15"/>
@@ -10163,7 +10187,7 @@
     <row r="131" ht="76" customHeight="1" spans="3:14">
       <c r="C131" s="14"/>
       <c r="D131" s="16" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="E131" s="16"/>
       <c r="F131" s="16"/>
@@ -10178,7 +10202,7 @@
     </row>
     <row r="132" spans="3:13">
       <c r="C132" s="14" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="D132" s="15"/>
       <c r="E132" s="15"/>
@@ -10194,7 +10218,7 @@
     <row r="133" ht="95" customHeight="1" spans="3:14">
       <c r="C133" s="14"/>
       <c r="D133" s="16" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="E133" s="16"/>
       <c r="F133" s="16"/>
@@ -10209,7 +10233,7 @@
     </row>
     <row r="134" spans="3:13">
       <c r="C134" s="14" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="D134" s="15"/>
       <c r="E134" s="15"/>
@@ -10225,7 +10249,7 @@
     <row r="135" ht="79" customHeight="1" spans="3:14">
       <c r="C135" s="14"/>
       <c r="D135" s="16" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="E135" s="16"/>
       <c r="F135" s="16"/>
@@ -10240,12 +10264,12 @@
     </row>
     <row r="136" spans="3:3">
       <c r="C136" s="10" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
     </row>
     <row r="137" ht="73" customHeight="1" spans="4:14">
       <c r="D137" s="16" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="E137" s="16"/>
       <c r="F137" s="16"/>
@@ -10260,12 +10284,12 @@
     </row>
     <row r="138" spans="2:2">
       <c r="B138" s="5" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
     </row>
     <row r="139" spans="3:14">
       <c r="C139" s="7" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="D139" s="7"/>
       <c r="E139" s="7"/>
@@ -10281,10 +10305,10 @@
     </row>
     <row r="141" spans="1:14">
       <c r="A141" s="2" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="C141" s="7" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="D141" s="7"/>
       <c r="E141" s="7"/>
@@ -10300,7 +10324,7 @@
     </row>
     <row r="142" ht="187" customHeight="1" spans="2:14">
       <c r="B142" s="9" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="C142" s="9"/>
       <c r="D142" s="9"/>
@@ -10317,12 +10341,12 @@
     </row>
     <row r="144" spans="1:1">
       <c r="A144" s="2" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
     </row>
     <row r="145" ht="39" customHeight="1" spans="2:14">
       <c r="B145" s="9" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="C145" s="9"/>
       <c r="D145" s="9"/>
@@ -10339,12 +10363,12 @@
     </row>
     <row r="146" spans="2:2">
       <c r="B146" s="5" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
     </row>
     <row r="147" ht="220" customHeight="1" spans="3:14">
       <c r="C147" s="7" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="D147" s="7"/>
       <c r="E147" s="7"/>
@@ -10360,10 +10384,10 @@
     </row>
     <row r="149" spans="1:14">
       <c r="A149" s="2" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="C149" s="8" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="D149" s="8"/>
       <c r="E149" s="8"/>
@@ -10379,12 +10403,12 @@
     </row>
     <row r="150" spans="2:2">
       <c r="B150" s="5" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
     </row>
     <row r="151" ht="190" customHeight="1" spans="3:14">
       <c r="C151" s="7" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="D151" s="7"/>
       <c r="E151" s="7"/>
@@ -10400,12 +10424,12 @@
     </row>
     <row r="152" spans="2:2">
       <c r="B152" s="5" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
     </row>
     <row r="153" ht="117" customHeight="1" spans="3:14">
-      <c r="C153" s="85" t="s">
-        <v>484</v>
+      <c r="C153" s="86" t="s">
+        <v>486</v>
       </c>
       <c r="D153" s="7"/>
       <c r="E153" s="7"/>
@@ -10421,10 +10445,10 @@
     </row>
     <row r="154" spans="1:14">
       <c r="A154" s="2" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="C154" s="7" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="D154" s="7"/>
       <c r="E154" s="7"/>
@@ -10440,12 +10464,12 @@
     </row>
     <row r="155" spans="2:2">
       <c r="B155" s="5" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
     </row>
     <row r="156" ht="145" customHeight="1" spans="3:14">
       <c r="C156" s="7" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="D156" s="7"/>
       <c r="E156" s="7"/>
@@ -10461,12 +10485,12 @@
     </row>
     <row r="157" spans="2:2">
       <c r="B157" s="5" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
     </row>
     <row r="158" ht="102" customHeight="1" spans="3:14">
-      <c r="C158" s="85" t="s">
-        <v>490</v>
+      <c r="C158" s="86" t="s">
+        <v>492</v>
       </c>
       <c r="D158" s="7"/>
       <c r="E158" s="7"/>
@@ -10482,12 +10506,12 @@
     </row>
     <row r="159" spans="2:2">
       <c r="B159" s="5" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
     </row>
     <row r="160" ht="55" customHeight="1" spans="3:14">
       <c r="C160" s="7" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="D160" s="7"/>
       <c r="E160" s="7"/>
@@ -10503,7 +10527,7 @@
     </row>
     <row r="161" ht="71" customHeight="1" spans="3:14">
       <c r="C161" s="7" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="D161" s="7"/>
       <c r="E161" s="7"/>
@@ -10519,7 +10543,7 @@
     </row>
     <row r="162" ht="162" customHeight="1" spans="3:14">
       <c r="C162" s="7" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="D162" s="7"/>
       <c r="E162" s="7"/>
@@ -10535,7 +10559,7 @@
     </row>
     <row r="163" ht="139" customHeight="1" spans="3:14">
       <c r="C163" s="7" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="D163" s="7"/>
       <c r="E163" s="7"/>
@@ -10551,12 +10575,12 @@
     </row>
     <row r="164" spans="2:2">
       <c r="B164" s="5" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
     </row>
     <row r="165" ht="54" customHeight="1" spans="3:14">
       <c r="C165" s="7" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="D165" s="7"/>
       <c r="E165" s="7"/>
@@ -10572,20 +10596,20 @@
     </row>
     <row r="167" spans="1:1">
       <c r="A167" s="2" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
     </row>
     <row r="168" spans="2:2">
       <c r="B168" s="5" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
     </row>
     <row r="169" ht="77" customHeight="1" spans="3:14">
       <c r="C169" s="6" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="D169" s="17" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="E169" s="7"/>
       <c r="F169" s="7"/>
@@ -10599,13 +10623,13 @@
       <c r="N169" s="7"/>
     </row>
     <row r="171" spans="3:3">
-      <c r="C171" s="86" t="s">
-        <v>502</v>
+      <c r="C171" s="87" t="s">
+        <v>504</v>
       </c>
     </row>
     <row r="172" spans="4:14">
       <c r="D172" s="8" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="E172" s="8"/>
       <c r="F172" s="8"/>
@@ -10620,10 +10644,10 @@
     </row>
     <row r="173" spans="2:14">
       <c r="B173" s="5" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="D173" s="18" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="E173" s="18"/>
       <c r="F173" s="18"/>
@@ -10638,7 +10662,7 @@
     </row>
     <row r="174" ht="83" customHeight="1" spans="3:14">
       <c r="C174" s="7" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="D174" s="8"/>
       <c r="E174" s="8"/>
@@ -10654,17 +10678,17 @@
     </row>
     <row r="176" spans="1:1">
       <c r="A176" s="2" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
     </row>
     <row r="177" spans="2:2">
       <c r="B177" s="5" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
     </row>
     <row r="178" ht="72" customHeight="1" spans="3:14">
       <c r="C178" s="7" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="D178" s="7"/>
       <c r="E178" s="7"/>
@@ -10680,12 +10704,12 @@
     </row>
     <row r="179" spans="2:2">
       <c r="B179" s="5" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
     </row>
     <row r="180" ht="58" customHeight="1" spans="3:14">
       <c r="C180" s="7" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="D180" s="7"/>
       <c r="E180" s="7"/>
@@ -10701,12 +10725,12 @@
     </row>
     <row r="182" spans="2:2">
       <c r="B182" s="5" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
     </row>
     <row r="183" ht="37" customHeight="1" spans="3:14">
       <c r="C183" s="7" t="s">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="D183" s="7"/>
       <c r="E183" s="7"/>
@@ -10722,12 +10746,12 @@
     </row>
     <row r="184" spans="2:2">
       <c r="B184" s="5" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
     </row>
     <row r="185" ht="33" customHeight="1" spans="3:14">
       <c r="C185" s="7" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="D185" s="7"/>
       <c r="E185" s="7"/>
@@ -10743,17 +10767,17 @@
     </row>
     <row r="187" spans="1:1">
       <c r="A187" s="2" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
     </row>
     <row r="188" spans="2:2">
       <c r="B188" s="5" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
     </row>
     <row r="189" ht="91" customHeight="1" spans="3:14">
       <c r="C189" s="7" t="s">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="D189" s="7"/>
       <c r="E189" s="7"/>
@@ -10769,12 +10793,12 @@
     </row>
     <row r="190" spans="2:2">
       <c r="B190" s="5" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
     </row>
     <row r="191" ht="178" customHeight="1" spans="3:14">
       <c r="C191" s="7" t="s">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="D191" s="7"/>
       <c r="E191" s="7"/>
@@ -10891,7 +10915,7 @@
   <sheetPr/>
   <dimension ref="A1:B95"/>
   <sheetViews>
-    <sheetView topLeftCell="A92" workbookViewId="0">
+    <sheetView topLeftCell="A78" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection/>
       <selection pane="topRight" activeCell="A28" sqref="A$1:A$1048576"/>
@@ -10906,339 +10930,339 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="2" t="s">
-        <v>521</v>
+        <v>523</v>
       </c>
     </row>
     <row r="2" ht="35" customHeight="1" spans="2:2">
       <c r="B2" s="3" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
     </row>
     <row r="3" ht="66" spans="2:2">
       <c r="B3" s="3" t="s">
-        <v>523</v>
+        <v>525</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="2" t="s">
-        <v>524</v>
+        <v>526</v>
       </c>
     </row>
     <row r="6" ht="33" spans="2:2">
       <c r="B6" s="3" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:1">
       <c r="A8" s="2" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
     </row>
     <row r="9" ht="82.5" spans="2:2">
       <c r="B9" s="3" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="2" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
     </row>
     <row r="12" spans="2:2">
       <c r="B12" s="3" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" s="2" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
     </row>
     <row r="16" ht="49.5" spans="2:2">
       <c r="B16" s="3" t="s">
-        <v>531</v>
+        <v>533</v>
       </c>
     </row>
     <row r="18" ht="66" spans="2:2">
       <c r="B18" s="3" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" s="2" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
     </row>
     <row r="21" spans="2:2">
       <c r="B21" s="3" t="s">
-        <v>534</v>
+        <v>536</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" s="2" t="s">
-        <v>535</v>
+        <v>537</v>
       </c>
     </row>
     <row r="24" ht="99" spans="2:2">
       <c r="B24" s="3" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" s="2" t="s">
-        <v>537</v>
+        <v>539</v>
       </c>
     </row>
     <row r="27" ht="165" spans="2:2">
       <c r="B27" s="3" t="s">
-        <v>538</v>
+        <v>540</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" s="2" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
     </row>
     <row r="30" ht="49.5" spans="2:2">
       <c r="B30" s="3" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32" s="2" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
     </row>
     <row r="33" ht="82.5" spans="2:2">
       <c r="B33" s="3" t="s">
-        <v>542</v>
+        <v>544</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" s="2" t="s">
-        <v>543</v>
+        <v>545</v>
       </c>
     </row>
     <row r="36" ht="66" spans="2:2">
       <c r="B36" s="3" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38" s="2" t="s">
-        <v>545</v>
+        <v>547</v>
       </c>
     </row>
     <row r="39" ht="49.5" spans="2:2">
       <c r="B39" s="3" t="s">
-        <v>546</v>
+        <v>548</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41" s="2" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
     </row>
     <row r="42" ht="66" spans="2:2">
       <c r="B42" s="3" t="s">
-        <v>548</v>
+        <v>550</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44" s="2" t="s">
-        <v>549</v>
+        <v>551</v>
       </c>
     </row>
     <row r="45" ht="66" spans="2:2">
       <c r="B45" s="3" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47" s="2" t="s">
-        <v>551</v>
+        <v>553</v>
       </c>
     </row>
     <row r="48" ht="49.5" spans="2:2">
       <c r="B48" s="3" t="s">
-        <v>552</v>
+        <v>554</v>
       </c>
     </row>
     <row r="50" spans="1:1">
       <c r="A50" s="2" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
     </row>
     <row r="51" ht="82.5" spans="2:2">
       <c r="B51" s="3" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
     </row>
     <row r="53" spans="1:1">
       <c r="A53" s="2" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
     </row>
     <row r="54" ht="33" spans="2:2">
       <c r="B54" s="3" t="s">
-        <v>556</v>
+        <v>558</v>
       </c>
     </row>
     <row r="56" spans="1:1">
       <c r="A56" s="2" t="s">
-        <v>557</v>
+        <v>559</v>
       </c>
     </row>
     <row r="57" ht="49.5" spans="2:2">
       <c r="B57" s="3" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
     </row>
     <row r="59" spans="1:1">
       <c r="A59" s="2" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
     </row>
     <row r="60" ht="33" spans="2:2">
       <c r="B60" s="3" t="s">
-        <v>560</v>
+        <v>562</v>
       </c>
     </row>
     <row r="62" spans="1:1">
       <c r="A62" s="2" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
     </row>
     <row r="63" ht="82.5" spans="2:2">
       <c r="B63" s="3" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="64" spans="2:2">
       <c r="B64" s="3" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
     </row>
     <row r="66" spans="1:1">
       <c r="A66" s="2" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
     </row>
     <row r="67" spans="2:2">
       <c r="B67" s="3" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69" s="2" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
     </row>
     <row r="70" ht="33" spans="2:2">
       <c r="B70" s="3" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
     </row>
     <row r="71" ht="49.5" spans="2:2">
       <c r="B71" s="3" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="73" spans="1:1">
       <c r="A73" s="2" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="74" ht="33" spans="2:2">
       <c r="B74" s="3" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="76" spans="1:1">
       <c r="A76" s="2" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
     </row>
     <row r="77" spans="2:2">
       <c r="B77" s="3" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
     </row>
     <row r="79" spans="1:1">
       <c r="A79" s="2" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
     </row>
     <row r="80" ht="132" spans="2:2">
       <c r="B80" s="3" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
     </row>
     <row r="82" spans="1:1">
       <c r="A82" s="2" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
     </row>
     <row r="83" spans="2:2">
       <c r="B83" s="3" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
     </row>
     <row r="84" ht="49.5" spans="2:2">
       <c r="B84" s="3" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="86" spans="1:2">
       <c r="A86" s="2" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
     </row>
     <row r="87" ht="33" spans="2:2">
       <c r="B87" s="3" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
     </row>
     <row r="88" ht="66" spans="2:2">
       <c r="B88" s="3" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
     </row>
     <row r="90" spans="1:2">
       <c r="A90" s="2" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
     </row>
     <row r="91" ht="148.5" spans="2:2">
       <c r="B91" s="3" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
     </row>
     <row r="92" ht="82.5" spans="2:2">
       <c r="B92" s="3" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
     </row>
     <row r="94" ht="33" spans="1:2">
       <c r="A94" s="2" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
     </row>
     <row r="95" ht="115.5" spans="2:2">
       <c r="B95" s="3" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
     </row>
   </sheetData>
@@ -11264,7 +11288,7 @@
   <sheetData>
     <row r="1" ht="198" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>590</v>
+        <v>592</v>
       </c>
     </row>
     <row r="2" ht="23" customHeight="1"/>

--- a/linux.xlsx
+++ b/linux.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="834">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="842">
   <si>
     <t>ab</t>
   </si>
@@ -3871,7 +3871,7 @@
         <rFont val="楷体"/>
         <charset val="134"/>
       </rPr>
-      <t>unsigned的取值范围为(0~256)。int(m)里的m是表示SELECT查询结果集中的显示宽度，并不影响实际的取值范围，没有影响到显示的宽度，不知道这个m有什么用。zreofill 指定用0补位</t>
+      <t>unsigned的取值范围为(0~256)。int(m)里的m是表示SELECT查询结果集中的显示宽度，并不影响实际的取值范围，没有影响到显示的宽度，不知道这个m有什么用。zerofill 指定用0补位</t>
     </r>
   </si>
   <si>
@@ -3879,12 +3879,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="楷体"/>
-        <charset val="134"/>
-      </rPr>
       <t>float(m,d)</t>
     </r>
     <r>
@@ -4574,11 +4568,56 @@
     <t>主键</t>
   </si>
   <si>
-    <t>在已有表表创建
-建表时创建</t>
+    <t>一个表中只能有一个primary Key字段
+对应的字段不允许重复，且不允许赋NULL
+如果有多个字段都作为主键，必须一起创建，复合主键多条主键不可以同时重复
+主键的Key标志PRI
+主键通常与AUTO_INCREMENT 的连用；让字段的值自动增长；i++运算；i=前一个字段值
+经常把表中能狗唯一表示的字段设置为主键字段，记录标号字段</t>
+  </si>
+  <si>
+    <t>desc 表名；
+Key值为</t>
+  </si>
+  <si>
+    <t>在已有表表创建：
+           alter  table  表  add  primary  key（字段名）
+建表时创建：
+             create  table  表名（
+             字段列表  
+             primary key（字段名，字段名），
+             ）；</t>
+  </si>
+  <si>
+    <t>alter tanle  表  drop  primary key（字段名）</t>
   </si>
   <si>
     <t>外键</t>
+  </si>
+  <si>
+    <t>限制如何给字段赋值
+给当前表中字段赋值时，值只能在其他表的指定字段值的范围里选择。</t>
+  </si>
+  <si>
+    <t>表的存储引擎innodb
+字段的类型要一致</t>
+  </si>
+  <si>
+    <t>show creat table 表名</t>
+  </si>
+  <si>
+    <t>在已有表表创建：
+          alter  table  表  drop add  foreign key (字段名) references 表名（字段名） on  update  cascade on  delete  cascade   
+建表时创建：
+          create table  表（
+           字段列表
+             foreign key (字段名) references 表名（字段名）
+             on  update  cascade              //同步更新
+             on  delete  cascade              //同步删除
+           ）engine=innodb；</t>
+  </si>
+  <si>
+    <t>aletr tanle 表名 drop foreign  key 外键名</t>
   </si>
   <si>
     <t>[Desktop Entry]
@@ -6121,7 +6160,7 @@
   <sheetData>
     <row r="1" ht="198" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>833</v>
+        <v>841</v>
       </c>
     </row>
     <row r="2" ht="23" customHeight="1"/>
@@ -14203,10 +14242,10 @@
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:D54"/>
+  <dimension ref="A1:D56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B44" workbookViewId="0">
-      <selection activeCell="B45" sqref="B45"/>
+    <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
+      <selection activeCell="B55" sqref="B55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.125" defaultRowHeight="24" customHeight="1" outlineLevelCol="3"/>
@@ -14332,7 +14371,7 @@
         <v>778</v>
       </c>
     </row>
-    <row r="19" ht="181.5" spans="3:4">
+    <row r="19" ht="198" spans="3:4">
       <c r="C19" s="12" t="s">
         <v>779</v>
       </c>
@@ -14541,51 +14580,90 @@
         <v>829</v>
       </c>
     </row>
-    <row r="47" customHeight="1" spans="2:2">
+    <row r="47" customHeight="1" spans="2:4">
       <c r="B47" s="3" t="s">
         <v>830</v>
       </c>
-    </row>
-    <row r="48" spans="3:4">
+      <c r="C47" s="4" t="s">
+        <v>790</v>
+      </c>
+      <c r="D47" s="5" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="48" ht="99" spans="3:4">
       <c r="C48" s="4" t="s">
         <v>822</v>
       </c>
-      <c r="D48" s="14"/>
+      <c r="D48" s="14" t="s">
+        <v>831</v>
+      </c>
     </row>
     <row r="49" ht="33" spans="3:4">
       <c r="C49" s="4" t="s">
+        <v>824</v>
+      </c>
+      <c r="D49" s="14" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="50" ht="115.5" spans="3:4">
+      <c r="C50" s="4" t="s">
         <v>826</v>
       </c>
-      <c r="D49" s="14" t="s">
-        <v>831</v>
-      </c>
-    </row>
-    <row r="50" customHeight="1" spans="3:3">
-      <c r="C50" s="4" t="s">
+      <c r="D50" s="14" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="51" customHeight="1" spans="3:4">
+      <c r="C51" s="4" t="s">
         <v>828</v>
       </c>
-    </row>
-    <row r="51" customHeight="1" spans="2:2">
-      <c r="B51" s="3" t="s">
-        <v>832</v>
-      </c>
-    </row>
-    <row r="52" customHeight="1" spans="3:3">
+      <c r="D51" s="5" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="52" ht="33" spans="2:4">
+      <c r="B52" s="3" t="s">
+        <v>835</v>
+      </c>
       <c r="C52" s="4" t="s">
-        <v>822</v>
+        <v>790</v>
+      </c>
+      <c r="D52" s="14" t="s">
+        <v>836</v>
       </c>
     </row>
     <row r="53" ht="33" spans="3:4">
       <c r="C53" s="4" t="s">
+        <v>822</v>
+      </c>
+      <c r="D53" s="14" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="54" spans="3:4">
+      <c r="C54" s="4" t="s">
+        <v>824</v>
+      </c>
+      <c r="D54" s="14" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="55" ht="165" spans="3:4">
+      <c r="C55" s="4" t="s">
         <v>826</v>
       </c>
-      <c r="D53" s="14" t="s">
-        <v>831</v>
-      </c>
-    </row>
-    <row r="54" customHeight="1" spans="3:3">
-      <c r="C54" s="4" t="s">
+      <c r="D55" s="14" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="56" customHeight="1" spans="3:4">
+      <c r="C56" s="4" t="s">
         <v>828</v>
+      </c>
+      <c r="D56" s="5" t="s">
+        <v>840</v>
       </c>
     </row>
   </sheetData>

--- a/linux.xlsx
+++ b/linux.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20385" windowHeight="7950" firstSheet="2" activeTab="8"/>
+    <workbookView windowWidth="20385" windowHeight="7950" firstSheet="2" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="目录" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="955">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="980">
   <si>
     <t>ab</t>
   </si>
@@ -1091,6 +1091,81 @@
   <si>
     <t>svnadmin dump /var/svn/project &gt; project.bak  //备份
 svnadmin load /var/svn/project2 &lt; project.bak      //还原</t>
+  </si>
+  <si>
+    <t>使用命令</t>
+  </si>
+  <si>
+    <t>add</t>
+  </si>
+  <si>
+    <t>添加</t>
+  </si>
+  <si>
+    <t>commit</t>
+  </si>
+  <si>
+    <t>提交更新</t>
+  </si>
+  <si>
+    <t>cat</t>
+  </si>
+  <si>
+    <t>查看</t>
+  </si>
+  <si>
+    <t>del</t>
+  </si>
+  <si>
+    <t>删除</t>
+  </si>
+  <si>
+    <t>diff</t>
+  </si>
+  <si>
+    <t>文件对比</t>
+  </si>
+  <si>
+    <t>import</t>
+  </si>
+  <si>
+    <t>导入代码</t>
+  </si>
+  <si>
+    <t>info</t>
+  </si>
+  <si>
+    <t>查看版本信息</t>
+  </si>
+  <si>
+    <t>list</t>
+  </si>
+  <si>
+    <t>查看文件列表</t>
+  </si>
+  <si>
+    <t>log</t>
+  </si>
+  <si>
+    <t>查看版本历史</t>
+  </si>
+  <si>
+    <t>update</t>
+  </si>
+  <si>
+    <t>更新</t>
+  </si>
+  <si>
+    <t>mkdir</t>
+  </si>
+  <si>
+    <t>创建目录</t>
+  </si>
+  <si>
+    <t>checkout</t>
+  </si>
+  <si>
+    <t>检出代码</t>
   </si>
   <si>
     <t>GIThub</t>
@@ -4608,9 +4683,6 @@
 index字段的Key标志时MUL</t>
   </si>
   <si>
-    <t>查看</t>
-  </si>
-  <si>
     <t>desc 表名；
 show index  from 表名；</t>
   </si>
@@ -4626,9 +4698,6 @@
              index（字段名），
              index（字段名），
              ）；</t>
-  </si>
-  <si>
-    <t>删除</t>
   </si>
   <si>
     <t>dorp  index  索引名  on  表名；；</t>
@@ -5018,6 +5087,12 @@
   </si>
   <si>
     <t>显示指定范围内的行</t>
+  </si>
+  <si>
+    <t>limit 数字1,2</t>
+  </si>
+  <si>
+    <t>从第2行开始显示2行</t>
   </si>
   <si>
     <t>[Desktop Entry]
@@ -5089,10 +5164,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="59">
     <font>
@@ -5343,13 +5418,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -5364,15 +5432,24 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -5386,6 +5463,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -5395,59 +5480,13 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -5463,6 +5502,43 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -5471,16 +5547,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -5525,7 +5600,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5537,37 +5612,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5585,7 +5654,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5597,7 +5720,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5609,31 +5762,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5645,61 +5774,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5715,24 +5790,50 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -5762,27 +5863,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -5795,114 +5885,99 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="50" fillId="22" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="26" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="41" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="54" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="55" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="52" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="45" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="54" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="43" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -5911,28 +5986,28 @@
     <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="53" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -5941,22 +6016,22 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -6640,7 +6715,7 @@
   <sheetData>
     <row r="1" ht="198" spans="1:1">
       <c r="A1" s="3" t="s">
-        <v>948</v>
+        <v>973</v>
       </c>
     </row>
     <row r="2" ht="23" customHeight="1"/>
@@ -6697,32 +6772,32 @@
   <sheetData>
     <row r="1" ht="72" spans="1:1">
       <c r="A1" s="2" t="s">
-        <v>949</v>
+        <v>974</v>
       </c>
     </row>
     <row r="2" ht="72" spans="1:1">
       <c r="A2" s="2" t="s">
-        <v>950</v>
+        <v>975</v>
       </c>
     </row>
     <row r="3" ht="36" spans="1:1">
       <c r="A3" s="2" t="s">
-        <v>951</v>
+        <v>976</v>
       </c>
     </row>
     <row r="4" ht="409.5" spans="1:1">
       <c r="A4" s="2" t="s">
-        <v>952</v>
+        <v>977</v>
       </c>
     </row>
     <row r="6" ht="72" spans="1:1">
       <c r="A6" s="2" t="s">
-        <v>953</v>
+        <v>978</v>
       </c>
     </row>
     <row r="7" ht="54" spans="1:1">
       <c r="A7" s="2" t="s">
-        <v>954</v>
+        <v>979</v>
       </c>
     </row>
   </sheetData>
@@ -7482,12 +7557,12 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:O109"/>
+  <dimension ref="A1:O122"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" topLeftCell="A90" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A89" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="A96" sqref="A96"/>
+      <selection pane="topRight" activeCell="A89" sqref="A89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -8778,9 +8853,16 @@
       <c r="L91" s="73"/>
       <c r="M91" s="73"/>
     </row>
-    <row r="92" ht="21" customHeight="1" spans="3:13">
-      <c r="C92" s="73"/>
-      <c r="D92" s="73"/>
+    <row r="92" ht="21" customHeight="1" spans="2:13">
+      <c r="B92" s="64" t="s">
+        <v>228</v>
+      </c>
+      <c r="C92" s="73" t="s">
+        <v>229</v>
+      </c>
+      <c r="D92" s="73" t="s">
+        <v>230</v>
+      </c>
       <c r="E92" s="73"/>
       <c r="F92" s="73"/>
       <c r="G92" s="73"/>
@@ -8792,8 +8874,12 @@
       <c r="M92" s="73"/>
     </row>
     <row r="93" ht="21" customHeight="1" spans="3:13">
-      <c r="C93" s="73"/>
-      <c r="D93" s="73"/>
+      <c r="C93" s="73" t="s">
+        <v>231</v>
+      </c>
+      <c r="D93" s="73" t="s">
+        <v>232</v>
+      </c>
       <c r="E93" s="73"/>
       <c r="F93" s="73"/>
       <c r="G93" s="73"/>
@@ -8805,8 +8891,12 @@
       <c r="M93" s="73"/>
     </row>
     <row r="94" ht="21" customHeight="1" spans="3:13">
-      <c r="C94" s="73"/>
-      <c r="D94" s="73"/>
+      <c r="C94" s="73" t="s">
+        <v>233</v>
+      </c>
+      <c r="D94" s="73" t="s">
+        <v>234</v>
+      </c>
       <c r="E94" s="73"/>
       <c r="F94" s="73"/>
       <c r="G94" s="73"/>
@@ -8818,8 +8908,12 @@
       <c r="M94" s="73"/>
     </row>
     <row r="95" ht="21" customHeight="1" spans="3:13">
-      <c r="C95" s="73"/>
-      <c r="D95" s="73"/>
+      <c r="C95" s="73" t="s">
+        <v>235</v>
+      </c>
+      <c r="D95" s="73" t="s">
+        <v>236</v>
+      </c>
       <c r="E95" s="73"/>
       <c r="F95" s="73"/>
       <c r="G95" s="73"/>
@@ -8831,8 +8925,12 @@
       <c r="M95" s="73"/>
     </row>
     <row r="96" ht="21" customHeight="1" spans="3:13">
-      <c r="C96" s="73"/>
-      <c r="D96" s="73"/>
+      <c r="C96" s="73" t="s">
+        <v>237</v>
+      </c>
+      <c r="D96" s="73" t="s">
+        <v>238</v>
+      </c>
       <c r="E96" s="73"/>
       <c r="F96" s="73"/>
       <c r="G96" s="73"/>
@@ -8844,8 +8942,12 @@
       <c r="M96" s="73"/>
     </row>
     <row r="97" ht="21" customHeight="1" spans="3:13">
-      <c r="C97" s="73"/>
-      <c r="D97" s="73"/>
+      <c r="C97" s="73" t="s">
+        <v>239</v>
+      </c>
+      <c r="D97" s="73" t="s">
+        <v>240</v>
+      </c>
       <c r="E97" s="73"/>
       <c r="F97" s="73"/>
       <c r="G97" s="73"/>
@@ -8856,113 +8958,162 @@
       <c r="L97" s="73"/>
       <c r="M97" s="73"/>
     </row>
-    <row r="99" spans="1:1">
-      <c r="A99" s="63" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="100" spans="2:14">
-      <c r="B100" s="72" t="s">
-        <v>229</v>
-      </c>
-      <c r="C100" s="73"/>
-      <c r="D100" s="73"/>
-      <c r="E100" s="73"/>
-      <c r="F100" s="73"/>
-      <c r="G100" s="73"/>
-      <c r="H100" s="73"/>
-      <c r="I100" s="73"/>
-      <c r="J100" s="73"/>
-      <c r="K100" s="73"/>
-      <c r="L100" s="73"/>
-      <c r="M100" s="73"/>
-      <c r="N100" s="73"/>
-    </row>
-    <row r="102" spans="1:1">
-      <c r="A102" s="63" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="103" ht="54" customHeight="1" spans="2:14">
-      <c r="B103" s="72" t="s">
-        <v>231</v>
-      </c>
-      <c r="C103" s="73"/>
-      <c r="D103" s="73"/>
-      <c r="E103" s="73"/>
-      <c r="F103" s="73"/>
-      <c r="G103" s="73"/>
-      <c r="H103" s="73"/>
-      <c r="I103" s="73"/>
-      <c r="J103" s="73"/>
-      <c r="K103" s="73"/>
-      <c r="L103" s="73"/>
-      <c r="M103" s="73"/>
-      <c r="N103" s="73"/>
-    </row>
-    <row r="104" ht="21" customHeight="1" spans="2:2">
-      <c r="B104" s="74" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="105" ht="120" customHeight="1" spans="3:14">
-      <c r="C105" s="106" t="s">
-        <v>233</v>
-      </c>
-      <c r="D105" s="73"/>
-      <c r="E105" s="73"/>
-      <c r="F105" s="73"/>
-      <c r="G105" s="73"/>
-      <c r="H105" s="73"/>
-      <c r="I105" s="73"/>
-      <c r="J105" s="73"/>
-      <c r="K105" s="73"/>
-      <c r="L105" s="73"/>
-      <c r="M105" s="73"/>
-      <c r="N105" s="73"/>
-    </row>
-    <row r="106" spans="2:2">
-      <c r="B106" s="74" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="107" ht="31" customHeight="1" spans="3:14">
-      <c r="C107" s="73" t="s">
-        <v>235</v>
-      </c>
-      <c r="D107" s="73"/>
-      <c r="E107" s="73"/>
-      <c r="F107" s="73"/>
-      <c r="G107" s="73"/>
-      <c r="H107" s="73"/>
-      <c r="I107" s="73"/>
-      <c r="J107" s="73"/>
-      <c r="K107" s="73"/>
-      <c r="L107" s="73"/>
-      <c r="M107" s="73"/>
-      <c r="N107" s="73"/>
-    </row>
-    <row r="108" spans="2:2">
-      <c r="B108" s="74" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="109" spans="3:14">
-      <c r="C109" s="68" t="s">
-        <v>237</v>
-      </c>
-      <c r="D109" s="68"/>
-      <c r="E109" s="68"/>
-      <c r="F109" s="68"/>
-      <c r="G109" s="68"/>
-      <c r="H109" s="68"/>
-      <c r="I109" s="68"/>
-      <c r="J109" s="68"/>
-      <c r="K109" s="68"/>
-      <c r="L109" s="68"/>
-      <c r="M109" s="68"/>
-      <c r="N109" s="68"/>
-    </row>
+    <row r="98" spans="3:4">
+      <c r="C98" s="65" t="s">
+        <v>241</v>
+      </c>
+      <c r="D98" s="65" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="99" spans="3:4">
+      <c r="C99" s="65" t="s">
+        <v>243</v>
+      </c>
+      <c r="D99" s="65" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="100" spans="3:4">
+      <c r="C100" s="65" t="s">
+        <v>245</v>
+      </c>
+      <c r="D100" s="65" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="101" spans="3:4">
+      <c r="C101" s="65" t="s">
+        <v>247</v>
+      </c>
+      <c r="D101" s="65" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="102" spans="3:4">
+      <c r="C102" s="65" t="s">
+        <v>249</v>
+      </c>
+      <c r="D102" s="65" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="103" spans="3:4">
+      <c r="C103" s="65" t="s">
+        <v>251</v>
+      </c>
+      <c r="D103" s="65" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1">
+      <c r="A105" s="63" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="106" spans="2:14">
+      <c r="B106" s="72" t="s">
+        <v>254</v>
+      </c>
+      <c r="C106" s="73"/>
+      <c r="D106" s="73"/>
+      <c r="E106" s="73"/>
+      <c r="F106" s="73"/>
+      <c r="G106" s="73"/>
+      <c r="H106" s="73"/>
+      <c r="I106" s="73"/>
+      <c r="J106" s="73"/>
+      <c r="K106" s="73"/>
+      <c r="L106" s="73"/>
+      <c r="M106" s="73"/>
+      <c r="N106" s="73"/>
+    </row>
+    <row r="108" spans="1:1">
+      <c r="A108" s="63" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="109" ht="54" customHeight="1" spans="2:14">
+      <c r="B109" s="72" t="s">
+        <v>256</v>
+      </c>
+      <c r="C109" s="73"/>
+      <c r="D109" s="73"/>
+      <c r="E109" s="73"/>
+      <c r="F109" s="73"/>
+      <c r="G109" s="73"/>
+      <c r="H109" s="73"/>
+      <c r="I109" s="73"/>
+      <c r="J109" s="73"/>
+      <c r="K109" s="73"/>
+      <c r="L109" s="73"/>
+      <c r="M109" s="73"/>
+      <c r="N109" s="73"/>
+    </row>
+    <row r="110" ht="21" customHeight="1" spans="2:2">
+      <c r="B110" s="74" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="111" ht="120" customHeight="1" spans="3:14">
+      <c r="C111" s="106" t="s">
+        <v>258</v>
+      </c>
+      <c r="D111" s="73"/>
+      <c r="E111" s="73"/>
+      <c r="F111" s="73"/>
+      <c r="G111" s="73"/>
+      <c r="H111" s="73"/>
+      <c r="I111" s="73"/>
+      <c r="J111" s="73"/>
+      <c r="K111" s="73"/>
+      <c r="L111" s="73"/>
+      <c r="M111" s="73"/>
+      <c r="N111" s="73"/>
+    </row>
+    <row r="112" spans="2:2">
+      <c r="B112" s="74" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="113" ht="31" customHeight="1" spans="3:14">
+      <c r="C113" s="73" t="s">
+        <v>260</v>
+      </c>
+      <c r="D113" s="73"/>
+      <c r="E113" s="73"/>
+      <c r="F113" s="73"/>
+      <c r="G113" s="73"/>
+      <c r="H113" s="73"/>
+      <c r="I113" s="73"/>
+      <c r="J113" s="73"/>
+      <c r="K113" s="73"/>
+      <c r="L113" s="73"/>
+      <c r="M113" s="73"/>
+      <c r="N113" s="73"/>
+    </row>
+    <row r="114" spans="2:2">
+      <c r="B114" s="74" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="115" spans="3:14">
+      <c r="C115" s="68" t="s">
+        <v>262</v>
+      </c>
+      <c r="D115" s="68"/>
+      <c r="E115" s="68"/>
+      <c r="F115" s="68"/>
+      <c r="G115" s="68"/>
+      <c r="H115" s="68"/>
+      <c r="I115" s="68"/>
+      <c r="J115" s="68"/>
+      <c r="K115" s="68"/>
+      <c r="L115" s="68"/>
+      <c r="M115" s="68"/>
+      <c r="N115" s="68"/>
+    </row>
+    <row r="122" ht="13.5"/>
   </sheetData>
   <mergeCells count="56">
     <mergeCell ref="C1:N1"/>
@@ -9016,11 +9167,11 @@
     <mergeCell ref="C87:M87"/>
     <mergeCell ref="C89:M89"/>
     <mergeCell ref="C91:M91"/>
-    <mergeCell ref="B100:N100"/>
-    <mergeCell ref="B103:N103"/>
-    <mergeCell ref="C105:N105"/>
-    <mergeCell ref="C107:N107"/>
-    <mergeCell ref="C109:N109"/>
+    <mergeCell ref="B106:N106"/>
+    <mergeCell ref="B109:N109"/>
+    <mergeCell ref="C111:N111"/>
+    <mergeCell ref="C113:N113"/>
+    <mergeCell ref="C115:N115"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -9033,10 +9184,10 @@
   <sheetPr/>
   <dimension ref="A1:N84"/>
   <sheetViews>
-    <sheetView topLeftCell="A45" workbookViewId="0">
+    <sheetView topLeftCell="A29" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="D52" sqref="D52"/>
+      <selection pane="topRight" activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="24" customHeight="1"/>
@@ -9050,12 +9201,12 @@
   <sheetData>
     <row r="1" customHeight="1" spans="1:1">
       <c r="A1" s="55" t="s">
-        <v>238</v>
+        <v>263</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="2:14">
       <c r="B2" s="26" t="s">
-        <v>239</v>
+        <v>264</v>
       </c>
       <c r="C2" s="24"/>
       <c r="D2" s="24"/>
@@ -9072,7 +9223,7 @@
     </row>
     <row r="3" ht="57" customHeight="1" spans="2:14">
       <c r="B3" s="26" t="s">
-        <v>240</v>
+        <v>265</v>
       </c>
       <c r="C3" s="24"/>
       <c r="D3" s="24"/>
@@ -9089,7 +9240,7 @@
     </row>
     <row r="4" customHeight="1" spans="2:14">
       <c r="B4" s="26" t="s">
-        <v>241</v>
+        <v>266</v>
       </c>
       <c r="C4" s="24"/>
       <c r="D4" s="24"/>
@@ -9106,7 +9257,7 @@
     </row>
     <row r="5" customHeight="1" spans="2:14">
       <c r="B5" s="56" t="s">
-        <v>242</v>
+        <v>267</v>
       </c>
       <c r="C5" s="25"/>
       <c r="D5" s="25"/>
@@ -9123,10 +9274,10 @@
     </row>
     <row r="6" ht="45" customHeight="1" spans="2:14">
       <c r="B6" s="57" t="s">
-        <v>243</v>
+        <v>268</v>
       </c>
       <c r="C6" s="24" t="s">
-        <v>244</v>
+        <v>269</v>
       </c>
       <c r="D6" s="25"/>
       <c r="E6" s="25"/>
@@ -9142,10 +9293,10 @@
     </row>
     <row r="7" customHeight="1" spans="2:14">
       <c r="B7" s="57" t="s">
-        <v>245</v>
+        <v>270</v>
       </c>
       <c r="C7" s="24" t="s">
-        <v>246</v>
+        <v>271</v>
       </c>
       <c r="D7" s="25"/>
       <c r="E7" s="25"/>
@@ -9162,7 +9313,7 @@
     <row r="8" ht="70" customHeight="1" spans="2:14">
       <c r="B8" s="56"/>
       <c r="C8" s="28" t="s">
-        <v>247</v>
+        <v>272</v>
       </c>
       <c r="D8" s="28"/>
       <c r="E8" s="28"/>
@@ -9178,10 +9329,10 @@
     </row>
     <row r="9" customHeight="1" spans="2:14">
       <c r="B9" s="57" t="s">
-        <v>248</v>
+        <v>273</v>
       </c>
       <c r="C9" s="25" t="s">
-        <v>249</v>
+        <v>274</v>
       </c>
       <c r="D9" s="25"/>
       <c r="E9" s="25"/>
@@ -9198,7 +9349,7 @@
     <row r="10" ht="70" customHeight="1" spans="2:14">
       <c r="B10" s="56"/>
       <c r="C10" s="28" t="s">
-        <v>250</v>
+        <v>275</v>
       </c>
       <c r="D10" s="28"/>
       <c r="E10" s="28"/>
@@ -9214,11 +9365,11 @@
     </row>
     <row r="11" ht="38" customHeight="1" spans="2:14">
       <c r="B11" s="57" t="s">
-        <v>251</v>
+        <v>276</v>
       </c>
       <c r="C11" s="25"/>
       <c r="D11" s="24" t="s">
-        <v>252</v>
+        <v>277</v>
       </c>
       <c r="E11" s="25"/>
       <c r="F11" s="25"/>
@@ -9234,7 +9385,7 @@
     <row r="12" ht="142" customHeight="1" spans="2:14">
       <c r="B12" s="56"/>
       <c r="C12" s="28" t="s">
-        <v>253</v>
+        <v>278</v>
       </c>
       <c r="D12" s="28"/>
       <c r="E12" s="28"/>
@@ -9250,11 +9401,11 @@
     </row>
     <row r="13" ht="22" customHeight="1" spans="2:14">
       <c r="B13" s="57" t="s">
-        <v>254</v>
+        <v>279</v>
       </c>
       <c r="C13" s="25"/>
       <c r="D13" s="28" t="s">
-        <v>255</v>
+        <v>280</v>
       </c>
       <c r="E13" s="45"/>
       <c r="F13" s="45"/>
@@ -9270,7 +9421,7 @@
     <row r="14" ht="156" customHeight="1" spans="2:14">
       <c r="B14" s="57"/>
       <c r="C14" s="28" t="s">
-        <v>256</v>
+        <v>281</v>
       </c>
       <c r="D14" s="28"/>
       <c r="E14" s="28"/>
@@ -9286,12 +9437,12 @@
     </row>
     <row r="16" customHeight="1" spans="1:1">
       <c r="A16" s="55" t="s">
-        <v>257</v>
+        <v>282</v>
       </c>
     </row>
     <row r="17" ht="54" customHeight="1" spans="2:14">
       <c r="B17" s="26" t="s">
-        <v>258</v>
+        <v>283</v>
       </c>
       <c r="C17" s="24"/>
       <c r="D17" s="24"/>
@@ -9308,7 +9459,7 @@
     </row>
     <row r="18" ht="49" customHeight="1" spans="2:14">
       <c r="B18" s="26" t="s">
-        <v>259</v>
+        <v>284</v>
       </c>
       <c r="C18" s="24"/>
       <c r="D18" s="24"/>
@@ -9325,7 +9476,7 @@
     </row>
     <row r="19" customHeight="1" spans="2:14">
       <c r="B19" s="56" t="s">
-        <v>242</v>
+        <v>267</v>
       </c>
       <c r="C19" s="25"/>
       <c r="D19" s="25"/>
@@ -9342,7 +9493,7 @@
     </row>
     <row r="20" customHeight="1" spans="2:14">
       <c r="B20" s="58" t="s">
-        <v>260</v>
+        <v>285</v>
       </c>
       <c r="C20" s="25"/>
       <c r="D20" s="25"/>
@@ -9360,7 +9511,7 @@
     <row r="21" ht="42" customHeight="1" spans="2:14">
       <c r="B21" s="56"/>
       <c r="C21" s="24" t="s">
-        <v>261</v>
+        <v>286</v>
       </c>
       <c r="D21" s="25"/>
       <c r="E21" s="25"/>
@@ -9376,7 +9527,7 @@
     </row>
     <row r="22" customHeight="1" spans="2:14">
       <c r="B22" s="57" t="s">
-        <v>262</v>
+        <v>287</v>
       </c>
       <c r="C22" s="25"/>
       <c r="D22" s="25"/>
@@ -9394,7 +9545,7 @@
     <row r="23" ht="84" customHeight="1" spans="2:14">
       <c r="B23" s="56"/>
       <c r="C23" s="24" t="s">
-        <v>263</v>
+        <v>288</v>
       </c>
       <c r="D23" s="25"/>
       <c r="E23" s="25"/>
@@ -9410,7 +9561,7 @@
     </row>
     <row r="24" customHeight="1" spans="2:14">
       <c r="B24" s="56" t="s">
-        <v>264</v>
+        <v>289</v>
       </c>
       <c r="C24" s="25"/>
       <c r="D24" s="25"/>
@@ -9428,7 +9579,7 @@
     <row r="25" ht="52" customHeight="1" spans="2:14">
       <c r="B25" s="56"/>
       <c r="C25" s="24" t="s">
-        <v>265</v>
+        <v>290</v>
       </c>
       <c r="D25" s="24"/>
       <c r="E25" s="24"/>
@@ -9445,7 +9596,7 @@
     <row r="26" ht="169" customHeight="1" spans="2:14">
       <c r="B26" s="56"/>
       <c r="C26" s="24" t="s">
-        <v>266</v>
+        <v>291</v>
       </c>
       <c r="D26" s="24"/>
       <c r="E26" s="24"/>
@@ -9461,7 +9612,7 @@
     </row>
     <row r="27" customHeight="1" spans="2:14">
       <c r="B27" s="57" t="s">
-        <v>267</v>
+        <v>292</v>
       </c>
       <c r="C27" s="25"/>
       <c r="D27" s="25"/>
@@ -9479,7 +9630,7 @@
     <row r="28" ht="73" customHeight="1" spans="2:14">
       <c r="B28" s="56"/>
       <c r="C28" s="24" t="s">
-        <v>268</v>
+        <v>293</v>
       </c>
       <c r="D28" s="25"/>
       <c r="E28" s="25"/>
@@ -9495,7 +9646,7 @@
     </row>
     <row r="29" customHeight="1" spans="2:14">
       <c r="B29" s="57" t="s">
-        <v>245</v>
+        <v>270</v>
       </c>
       <c r="C29" s="25"/>
       <c r="D29" s="25"/>
@@ -9513,7 +9664,7 @@
     <row r="30" ht="150" customHeight="1" spans="2:14">
       <c r="B30" s="56"/>
       <c r="C30" s="24" t="s">
-        <v>269</v>
+        <v>294</v>
       </c>
       <c r="D30" s="25"/>
       <c r="E30" s="25"/>
@@ -9529,7 +9680,7 @@
     </row>
     <row r="31" customHeight="1" spans="2:14">
       <c r="B31" s="57" t="s">
-        <v>270</v>
+        <v>295</v>
       </c>
       <c r="C31" s="25"/>
       <c r="D31" s="25"/>
@@ -9547,7 +9698,7 @@
     <row r="32" ht="112" customHeight="1" spans="2:14">
       <c r="B32" s="56"/>
       <c r="C32" s="24" t="s">
-        <v>271</v>
+        <v>296</v>
       </c>
       <c r="D32" s="24"/>
       <c r="E32" s="24"/>
@@ -9563,7 +9714,7 @@
     </row>
     <row r="33" customHeight="1" spans="2:14">
       <c r="B33" s="57" t="s">
-        <v>272</v>
+        <v>297</v>
       </c>
       <c r="C33" s="25"/>
       <c r="D33" s="25"/>
@@ -9581,7 +9732,7 @@
     <row r="34" ht="44" customHeight="1" spans="2:14">
       <c r="B34" s="56"/>
       <c r="C34" s="24" t="s">
-        <v>273</v>
+        <v>298</v>
       </c>
       <c r="D34" s="25"/>
       <c r="E34" s="25"/>
@@ -9597,11 +9748,11 @@
     </row>
     <row r="35" customHeight="1" spans="2:14">
       <c r="B35" s="57" t="s">
-        <v>274</v>
+        <v>299</v>
       </c>
       <c r="C35" s="25"/>
       <c r="D35" s="25" t="s">
-        <v>275</v>
+        <v>300</v>
       </c>
       <c r="E35" s="25"/>
       <c r="F35" s="25"/>
@@ -9617,7 +9768,7 @@
     <row r="36" ht="233" customHeight="1" spans="2:14">
       <c r="B36" s="56"/>
       <c r="C36" s="24" t="s">
-        <v>276</v>
+        <v>301</v>
       </c>
       <c r="D36" s="24"/>
       <c r="E36" s="24"/>
@@ -9633,7 +9784,7 @@
     </row>
     <row r="37" customHeight="1" spans="2:14">
       <c r="B37" s="57" t="s">
-        <v>277</v>
+        <v>302</v>
       </c>
       <c r="C37" s="25"/>
       <c r="D37" s="25"/>
@@ -9680,12 +9831,12 @@
     </row>
     <row r="40" customHeight="1" spans="1:1">
       <c r="A40" s="55" t="s">
-        <v>278</v>
+        <v>303</v>
       </c>
     </row>
     <row r="41" ht="72" customHeight="1" spans="2:14">
       <c r="B41" s="26" t="s">
-        <v>279</v>
+        <v>304</v>
       </c>
       <c r="C41" s="24"/>
       <c r="D41" s="24"/>
@@ -9702,12 +9853,12 @@
     </row>
     <row r="42" customHeight="1" spans="2:2">
       <c r="B42" s="22" t="s">
-        <v>280</v>
+        <v>305</v>
       </c>
     </row>
     <row r="43" ht="47" customHeight="1" spans="3:14">
       <c r="C43" s="24" t="s">
-        <v>281</v>
+        <v>306</v>
       </c>
       <c r="D43" s="24"/>
       <c r="E43" s="24"/>
@@ -9723,16 +9874,16 @@
     </row>
     <row r="44" ht="90" customHeight="1" spans="2:2">
       <c r="B44" s="59" t="s">
-        <v>282</v>
+        <v>307</v>
       </c>
     </row>
     <row r="45" ht="63" customHeight="1" spans="1:14">
       <c r="A45" s="55" t="s">
-        <v>283</v>
+        <v>308</v>
       </c>
       <c r="B45" s="59"/>
       <c r="C45" s="24" t="s">
-        <v>284</v>
+        <v>309</v>
       </c>
       <c r="D45" s="25"/>
       <c r="E45" s="25"/>
@@ -9748,13 +9899,13 @@
     </row>
     <row r="46" customHeight="1" spans="2:2">
       <c r="B46" s="59" t="s">
-        <v>260</v>
+        <v>285</v>
       </c>
     </row>
     <row r="47" customHeight="1" spans="2:14">
       <c r="B47" s="59"/>
       <c r="C47" s="24" t="s">
-        <v>285</v>
+        <v>310</v>
       </c>
       <c r="D47" s="24"/>
       <c r="E47" s="24"/>
@@ -9770,13 +9921,13 @@
     </row>
     <row r="48" ht="33" customHeight="1" spans="2:2">
       <c r="B48" s="59" t="s">
-        <v>286</v>
+        <v>311</v>
       </c>
     </row>
     <row r="49" ht="27" customHeight="1" spans="2:14">
       <c r="B49" s="59"/>
       <c r="D49" s="24" t="s">
-        <v>287</v>
+        <v>312</v>
       </c>
       <c r="E49" s="24"/>
       <c r="F49" s="24"/>
@@ -9792,7 +9943,7 @@
     <row r="50" ht="90" customHeight="1" spans="2:14">
       <c r="B50" s="59"/>
       <c r="D50" s="24" t="s">
-        <v>288</v>
+        <v>313</v>
       </c>
       <c r="E50" s="25"/>
       <c r="F50" s="25"/>
@@ -9822,12 +9973,12 @@
     </row>
     <row r="57" customHeight="1" spans="1:1">
       <c r="A57" s="55" t="s">
-        <v>289</v>
+        <v>314</v>
       </c>
     </row>
     <row r="58" ht="61" customHeight="1" spans="2:14">
       <c r="B58" s="26" t="s">
-        <v>290</v>
+        <v>315</v>
       </c>
       <c r="C58" s="24"/>
       <c r="D58" s="24"/>
@@ -9844,7 +9995,7 @@
     </row>
     <row r="59" customHeight="1" spans="2:14">
       <c r="B59" s="56" t="s">
-        <v>291</v>
+        <v>316</v>
       </c>
       <c r="C59" s="25"/>
       <c r="D59" s="25"/>
@@ -9861,12 +10012,12 @@
     </row>
     <row r="60" customHeight="1" spans="1:1">
       <c r="A60" s="55" t="s">
-        <v>292</v>
+        <v>317</v>
       </c>
     </row>
     <row r="61" ht="146" customHeight="1" spans="2:14">
       <c r="B61" s="26" t="s">
-        <v>293</v>
+        <v>318</v>
       </c>
       <c r="C61" s="24"/>
       <c r="D61" s="24"/>
@@ -9883,7 +10034,7 @@
     </row>
     <row r="62" ht="28" customHeight="1" spans="2:14">
       <c r="B62" s="58" t="s">
-        <v>294</v>
+        <v>319</v>
       </c>
       <c r="C62" s="24"/>
       <c r="D62" s="24"/>
@@ -9901,7 +10052,7 @@
     <row r="63" ht="42" customHeight="1" spans="2:14">
       <c r="B63" s="26"/>
       <c r="C63" s="24" t="s">
-        <v>295</v>
+        <v>320</v>
       </c>
       <c r="D63" s="24"/>
       <c r="E63" s="24"/>
@@ -9917,11 +10068,11 @@
     </row>
     <row r="64" ht="20" customHeight="1" spans="2:14">
       <c r="B64" s="26" t="s">
-        <v>296</v>
+        <v>321</v>
       </c>
       <c r="C64" s="24"/>
       <c r="D64" s="24" t="s">
-        <v>297</v>
+        <v>322</v>
       </c>
       <c r="E64" s="24"/>
       <c r="F64" s="24"/>
@@ -10041,7 +10192,7 @@
     </row>
     <row r="73" customHeight="1" spans="1:14">
       <c r="A73" s="55" t="s">
-        <v>298</v>
+        <v>323</v>
       </c>
       <c r="B73"/>
       <c r="C73" s="60"/>
@@ -10060,7 +10211,7 @@
     <row r="74" ht="53" customHeight="1" spans="1:14">
       <c r="A74" s="61"/>
       <c r="B74" s="26" t="s">
-        <v>299</v>
+        <v>324</v>
       </c>
       <c r="C74" s="24"/>
       <c r="D74" s="24"/>
@@ -10077,12 +10228,12 @@
     </row>
     <row r="75" customHeight="1" spans="2:2">
       <c r="B75" s="22" t="s">
-        <v>300</v>
+        <v>325</v>
       </c>
     </row>
     <row r="76" ht="48" customHeight="1" spans="3:14">
       <c r="C76" s="24" t="s">
-        <v>301</v>
+        <v>326</v>
       </c>
       <c r="D76" s="24"/>
       <c r="E76" s="24"/>
@@ -10098,12 +10249,12 @@
     </row>
     <row r="77" customHeight="1" spans="2:2">
       <c r="B77" s="22" t="s">
-        <v>302</v>
+        <v>327</v>
       </c>
     </row>
     <row r="78" ht="79" customHeight="1" spans="3:14">
       <c r="C78" s="24" t="s">
-        <v>303</v>
+        <v>328</v>
       </c>
       <c r="D78" s="24"/>
       <c r="E78" s="24"/>
@@ -10119,12 +10270,12 @@
     </row>
     <row r="79" customHeight="1" spans="2:2">
       <c r="B79" s="22" t="s">
-        <v>304</v>
+        <v>329</v>
       </c>
     </row>
     <row r="80" ht="58" customHeight="1" spans="3:14">
       <c r="C80" s="24" t="s">
-        <v>305</v>
+        <v>330</v>
       </c>
       <c r="D80" s="24"/>
       <c r="E80" s="24"/>
@@ -10140,12 +10291,12 @@
     </row>
     <row r="81" customHeight="1" spans="2:2">
       <c r="B81" s="22" t="s">
-        <v>306</v>
+        <v>331</v>
       </c>
     </row>
     <row r="82" ht="33" customHeight="1" spans="3:14">
       <c r="C82" s="24" t="s">
-        <v>307</v>
+        <v>332</v>
       </c>
       <c r="D82" s="24"/>
       <c r="E82" s="24"/>
@@ -10161,12 +10312,12 @@
     </row>
     <row r="83" customHeight="1" spans="2:2">
       <c r="B83" s="22" t="s">
-        <v>308</v>
+        <v>333</v>
       </c>
     </row>
     <row r="84" ht="95" customHeight="1" spans="3:14">
       <c r="C84" s="24" t="s">
-        <v>309</v>
+        <v>334</v>
       </c>
       <c r="D84" s="24"/>
       <c r="E84" s="24"/>
@@ -10238,7 +10389,7 @@
   <sheetPr/>
   <dimension ref="A1:M201"/>
   <sheetViews>
-    <sheetView topLeftCell="A71" workbookViewId="0">
+    <sheetView topLeftCell="A65" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection/>
       <selection pane="topRight" activeCell="C72" sqref="C72:M72"/>
@@ -10256,12 +10407,12 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="36" t="s">
-        <v>310</v>
+        <v>335</v>
       </c>
     </row>
     <row r="2" spans="2:2">
       <c r="B2" s="37" t="s">
-        <v>311</v>
+        <v>336</v>
       </c>
     </row>
     <row r="3" spans="3:3">
@@ -10271,7 +10422,7 @@
     </row>
     <row r="4" ht="57" customHeight="1" spans="4:13">
       <c r="D4" s="24" t="s">
-        <v>312</v>
+        <v>337</v>
       </c>
       <c r="E4" s="24"/>
       <c r="F4" s="24"/>
@@ -10285,10 +10436,10 @@
     </row>
     <row r="5" ht="24" customHeight="1" spans="2:11">
       <c r="B5" s="37" t="s">
-        <v>313</v>
+        <v>338</v>
       </c>
       <c r="C5" s="39" t="s">
-        <v>314</v>
+        <v>339</v>
       </c>
       <c r="D5" s="39"/>
       <c r="E5" s="39"/>
@@ -10301,7 +10452,7 @@
     </row>
     <row r="6" ht="100" customHeight="1" spans="3:13">
       <c r="C6" s="40" t="s">
-        <v>315</v>
+        <v>340</v>
       </c>
       <c r="D6" s="40"/>
       <c r="E6" s="40"/>
@@ -10316,12 +10467,12 @@
     </row>
     <row r="7" spans="2:2">
       <c r="B7" s="37" t="s">
-        <v>316</v>
+        <v>341</v>
       </c>
     </row>
     <row r="8" ht="54" customHeight="1" spans="3:13">
       <c r="C8" s="24" t="s">
-        <v>317</v>
+        <v>342</v>
       </c>
       <c r="D8" s="24"/>
       <c r="E8" s="24"/>
@@ -10336,10 +10487,10 @@
     </row>
     <row r="10" ht="37" customHeight="1" spans="2:13">
       <c r="B10" s="37" t="s">
-        <v>318</v>
+        <v>343</v>
       </c>
       <c r="C10" s="41" t="s">
-        <v>319</v>
+        <v>344</v>
       </c>
       <c r="D10" s="41"/>
       <c r="E10" s="41"/>
@@ -10367,12 +10518,12 @@
     </row>
     <row r="12" ht="19" customHeight="1" spans="2:2">
       <c r="B12" s="37" t="s">
-        <v>320</v>
+        <v>345</v>
       </c>
     </row>
     <row r="13" ht="93" customHeight="1" spans="3:13">
       <c r="C13" s="24" t="s">
-        <v>321</v>
+        <v>346</v>
       </c>
       <c r="D13" s="24"/>
       <c r="E13" s="24"/>
@@ -10387,15 +10538,15 @@
     </row>
     <row r="15" spans="1:1">
       <c r="A15" s="36" t="s">
-        <v>322</v>
+        <v>347</v>
       </c>
     </row>
     <row r="16" spans="2:13">
       <c r="B16" s="37" t="s">
-        <v>323</v>
+        <v>348</v>
       </c>
       <c r="D16" s="25" t="s">
-        <v>324</v>
+        <v>349</v>
       </c>
       <c r="E16" s="25"/>
       <c r="F16" s="25"/>
@@ -10409,7 +10560,7 @@
     </row>
     <row r="17" ht="53" customHeight="1" spans="3:13">
       <c r="C17" s="24" t="s">
-        <v>325</v>
+        <v>350</v>
       </c>
       <c r="D17" s="24"/>
       <c r="E17" s="24"/>
@@ -10424,7 +10575,7 @@
     </row>
     <row r="18" ht="54" customHeight="1" spans="3:13">
       <c r="C18" s="24" t="s">
-        <v>326</v>
+        <v>351</v>
       </c>
       <c r="D18" s="24"/>
       <c r="E18" s="24"/>
@@ -10439,12 +10590,12 @@
     </row>
     <row r="19" ht="21" customHeight="1" spans="2:2">
       <c r="B19" s="37" t="s">
-        <v>327</v>
+        <v>352</v>
       </c>
     </row>
     <row r="20" ht="129" customHeight="1" spans="3:13">
       <c r="C20" s="24" t="s">
-        <v>328</v>
+        <v>353</v>
       </c>
       <c r="D20" s="24"/>
       <c r="E20" s="24"/>
@@ -10459,12 +10610,12 @@
     </row>
     <row r="21" spans="2:2">
       <c r="B21" s="37" t="s">
-        <v>329</v>
+        <v>354</v>
       </c>
     </row>
     <row r="22" ht="180" customHeight="1" spans="3:13">
       <c r="C22" s="107" t="s">
-        <v>330</v>
+        <v>355</v>
       </c>
       <c r="D22" s="25"/>
       <c r="E22" s="25"/>
@@ -10479,12 +10630,12 @@
     </row>
     <row r="23" spans="2:2">
       <c r="B23" s="37" t="s">
-        <v>331</v>
+        <v>356</v>
       </c>
     </row>
     <row r="24" ht="49" customHeight="1" spans="3:13">
       <c r="C24" s="24" t="s">
-        <v>332</v>
+        <v>357</v>
       </c>
       <c r="D24" s="24"/>
       <c r="E24" s="24"/>
@@ -10499,12 +10650,12 @@
     </row>
     <row r="26" spans="1:1">
       <c r="A26" s="36" t="s">
-        <v>333</v>
+        <v>358</v>
       </c>
     </row>
     <row r="27" ht="73" customHeight="1" spans="2:13">
       <c r="B27" s="33" t="s">
-        <v>334</v>
+        <v>359</v>
       </c>
       <c r="C27" s="33"/>
       <c r="D27" s="33"/>
@@ -10520,12 +10671,12 @@
     </row>
     <row r="28" spans="2:2">
       <c r="B28" s="37" t="s">
-        <v>335</v>
+        <v>360</v>
       </c>
     </row>
     <row r="29" ht="57" customHeight="1" spans="3:13">
       <c r="C29" s="24" t="s">
-        <v>336</v>
+        <v>361</v>
       </c>
       <c r="D29" s="24"/>
       <c r="E29" s="24"/>
@@ -10540,10 +10691,10 @@
     </row>
     <row r="30" spans="2:13">
       <c r="B30" s="37" t="s">
-        <v>337</v>
+        <v>362</v>
       </c>
       <c r="D30" s="42" t="s">
-        <v>338</v>
+        <v>363</v>
       </c>
       <c r="E30" s="42"/>
       <c r="F30" s="42"/>
@@ -10557,7 +10708,7 @@
     </row>
     <row r="31" ht="127" customHeight="1" spans="3:13">
       <c r="C31" s="24" t="s">
-        <v>339</v>
+        <v>364</v>
       </c>
       <c r="D31" s="24"/>
       <c r="E31" s="24"/>
@@ -10572,10 +10723,10 @@
     </row>
     <row r="32" spans="2:13">
       <c r="B32" s="37" t="s">
-        <v>340</v>
+        <v>365</v>
       </c>
       <c r="D32" s="42" t="s">
-        <v>338</v>
+        <v>363</v>
       </c>
       <c r="E32" s="42"/>
       <c r="F32" s="42"/>
@@ -10589,7 +10740,7 @@
     </row>
     <row r="33" ht="81" customHeight="1" spans="3:13">
       <c r="C33" s="24" t="s">
-        <v>341</v>
+        <v>366</v>
       </c>
       <c r="D33" s="24"/>
       <c r="E33" s="24"/>
@@ -10604,7 +10755,7 @@
     </row>
     <row r="34" spans="2:13">
       <c r="B34" s="37" t="s">
-        <v>342</v>
+        <v>367</v>
       </c>
       <c r="C34" s="43"/>
       <c r="D34" s="20"/>
@@ -10620,7 +10771,7 @@
     </row>
     <row r="35" ht="36" customHeight="1" spans="3:13">
       <c r="C35" s="24" t="s">
-        <v>343</v>
+        <v>368</v>
       </c>
       <c r="D35" s="24"/>
       <c r="E35" s="24"/>
@@ -10635,10 +10786,10 @@
     </row>
     <row r="36" spans="2:13">
       <c r="B36" s="37" t="s">
-        <v>344</v>
+        <v>369</v>
       </c>
       <c r="D36" s="24" t="s">
-        <v>345</v>
+        <v>370</v>
       </c>
       <c r="E36" s="24"/>
       <c r="F36" s="24"/>
@@ -10652,7 +10803,7 @@
     </row>
     <row r="38" spans="1:7">
       <c r="A38" s="36" t="s">
-        <v>346</v>
+        <v>371</v>
       </c>
       <c r="C38" s="44"/>
       <c r="D38" s="44"/>
@@ -10662,7 +10813,7 @@
     </row>
     <row r="39" ht="60" customHeight="1" spans="2:13">
       <c r="B39" s="33" t="s">
-        <v>347</v>
+        <v>372</v>
       </c>
       <c r="C39" s="33"/>
       <c r="D39" s="33"/>
@@ -10678,10 +10829,10 @@
     </row>
     <row r="40" spans="2:13">
       <c r="B40" s="37" t="s">
-        <v>348</v>
+        <v>373</v>
       </c>
       <c r="D40" s="24" t="s">
-        <v>349</v>
+        <v>374</v>
       </c>
       <c r="E40" s="24"/>
       <c r="F40" s="24"/>
@@ -10695,7 +10846,7 @@
     </row>
     <row r="41" ht="37" customHeight="1" spans="3:13">
       <c r="C41" s="24" t="s">
-        <v>350</v>
+        <v>375</v>
       </c>
       <c r="D41" s="24"/>
       <c r="E41" s="24"/>
@@ -10710,7 +10861,7 @@
     </row>
     <row r="42" spans="4:13">
       <c r="D42" s="24" t="s">
-        <v>351</v>
+        <v>376</v>
       </c>
       <c r="E42" s="24"/>
       <c r="F42" s="24"/>
@@ -10724,7 +10875,7 @@
     </row>
     <row r="43" ht="37" customHeight="1" spans="3:13">
       <c r="C43" s="24" t="s">
-        <v>352</v>
+        <v>377</v>
       </c>
       <c r="D43" s="24"/>
       <c r="E43" s="24"/>
@@ -10739,10 +10890,10 @@
     </row>
     <row r="44" spans="2:13">
       <c r="B44" s="37" t="s">
-        <v>353</v>
+        <v>378</v>
       </c>
       <c r="D44" s="25" t="s">
-        <v>354</v>
+        <v>379</v>
       </c>
       <c r="E44" s="25"/>
       <c r="F44" s="25"/>
@@ -10756,12 +10907,12 @@
     </row>
     <row r="45" spans="3:3">
       <c r="C45" s="38" t="s">
-        <v>355</v>
+        <v>380</v>
       </c>
     </row>
     <row r="46" spans="4:13">
       <c r="D46" s="24" t="s">
-        <v>356</v>
+        <v>381</v>
       </c>
       <c r="E46" s="24"/>
       <c r="F46" s="24"/>
@@ -10775,17 +10926,17 @@
     </row>
     <row r="48" spans="1:1">
       <c r="A48" s="36" t="s">
-        <v>357</v>
+        <v>382</v>
       </c>
     </row>
     <row r="49" spans="2:2">
       <c r="B49" s="37" t="s">
-        <v>358</v>
+        <v>383</v>
       </c>
     </row>
     <row r="50" ht="84" customHeight="1" spans="3:13">
       <c r="C50" s="24" t="s">
-        <v>359</v>
+        <v>384</v>
       </c>
       <c r="D50" s="24"/>
       <c r="E50" s="24"/>
@@ -10800,10 +10951,10 @@
     </row>
     <row r="51" spans="3:13">
       <c r="C51" s="27" t="s">
-        <v>360</v>
+        <v>385</v>
       </c>
       <c r="E51" s="30" t="s">
-        <v>361</v>
+        <v>386</v>
       </c>
       <c r="F51" s="30"/>
       <c r="G51" s="30"/>
@@ -10816,7 +10967,7 @@
     </row>
     <row r="52" spans="3:13">
       <c r="C52" s="27" t="s">
-        <v>362</v>
+        <v>387</v>
       </c>
       <c r="E52" s="30"/>
       <c r="F52" s="30"/>
@@ -10830,7 +10981,7 @@
     </row>
     <row r="53" spans="4:13">
       <c r="D53" s="28" t="s">
-        <v>363</v>
+        <v>388</v>
       </c>
       <c r="E53" s="28"/>
       <c r="F53" s="28"/>
@@ -10844,7 +10995,7 @@
     </row>
     <row r="54" ht="60" customHeight="1" spans="4:13">
       <c r="D54" s="24" t="s">
-        <v>364</v>
+        <v>389</v>
       </c>
       <c r="E54" s="24"/>
       <c r="F54" s="24"/>
@@ -10858,12 +11009,12 @@
     </row>
     <row r="56" spans="3:3">
       <c r="C56" s="27" t="s">
-        <v>365</v>
+        <v>390</v>
       </c>
     </row>
     <row r="57" ht="133" customHeight="1" spans="4:13">
       <c r="D57" s="24" t="s">
-        <v>366</v>
+        <v>391</v>
       </c>
       <c r="E57" s="24"/>
       <c r="F57" s="24"/>
@@ -10877,10 +11028,10 @@
     </row>
     <row r="59" spans="1:13">
       <c r="A59" s="36" t="s">
-        <v>367</v>
+        <v>392</v>
       </c>
       <c r="C59" s="24" t="s">
-        <v>368</v>
+        <v>393</v>
       </c>
       <c r="D59" s="24"/>
       <c r="E59" s="24"/>
@@ -10895,10 +11046,10 @@
     </row>
     <row r="60" ht="90" customHeight="1" spans="2:13">
       <c r="B60" s="37" t="s">
-        <v>369</v>
+        <v>394</v>
       </c>
       <c r="C60" s="24" t="s">
-        <v>370</v>
+        <v>395</v>
       </c>
       <c r="D60" s="24"/>
       <c r="E60" s="24"/>
@@ -10913,10 +11064,10 @@
     </row>
     <row r="61" spans="2:13">
       <c r="B61" s="37" t="s">
-        <v>371</v>
+        <v>396</v>
       </c>
       <c r="D61" s="25" t="s">
-        <v>372</v>
+        <v>397</v>
       </c>
       <c r="E61" s="25"/>
       <c r="F61" s="25"/>
@@ -10930,7 +11081,7 @@
     </row>
     <row r="62" ht="36" customHeight="1" spans="3:13">
       <c r="C62" s="24" t="s">
-        <v>373</v>
+        <v>398</v>
       </c>
       <c r="D62" s="25"/>
       <c r="E62" s="25"/>
@@ -10945,10 +11096,10 @@
     </row>
     <row r="64" ht="20" customHeight="1" spans="1:13">
       <c r="A64" s="36" t="s">
-        <v>374</v>
+        <v>399</v>
       </c>
       <c r="C64" s="25" t="s">
-        <v>375</v>
+        <v>400</v>
       </c>
       <c r="D64" s="25"/>
       <c r="E64" s="25"/>
@@ -10963,12 +11114,12 @@
     </row>
     <row r="65" spans="2:2">
       <c r="B65" s="37" t="s">
-        <v>376</v>
+        <v>401</v>
       </c>
     </row>
     <row r="66" ht="123" customHeight="1" spans="3:13">
       <c r="C66" s="24" t="s">
-        <v>377</v>
+        <v>402</v>
       </c>
       <c r="D66" s="24"/>
       <c r="E66" s="24"/>
@@ -10983,12 +11134,12 @@
     </row>
     <row r="67" spans="2:2">
       <c r="B67" s="37" t="s">
-        <v>378</v>
+        <v>403</v>
       </c>
     </row>
     <row r="68" ht="241" customHeight="1" spans="3:13">
       <c r="C68" s="24" t="s">
-        <v>379</v>
+        <v>404</v>
       </c>
       <c r="D68" s="24"/>
       <c r="E68" s="24"/>
@@ -11016,10 +11167,10 @@
     </row>
     <row r="70" ht="51" customHeight="1" spans="1:13">
       <c r="A70" s="36" t="s">
-        <v>380</v>
+        <v>405</v>
       </c>
       <c r="C70" s="24" t="s">
-        <v>381</v>
+        <v>406</v>
       </c>
       <c r="D70" s="24"/>
       <c r="E70" s="24"/>
@@ -11034,12 +11185,12 @@
     </row>
     <row r="71" spans="2:2">
       <c r="B71" s="37" t="s">
-        <v>382</v>
+        <v>407</v>
       </c>
     </row>
     <row r="72" ht="73" customHeight="1" spans="3:13">
       <c r="C72" s="24" t="s">
-        <v>383</v>
+        <v>408</v>
       </c>
       <c r="D72" s="25"/>
       <c r="E72" s="25"/>
@@ -11054,15 +11205,15 @@
     </row>
     <row r="73" spans="2:5">
       <c r="B73" s="37" t="s">
-        <v>384</v>
+        <v>409</v>
       </c>
       <c r="E73" s="23" t="s">
-        <v>385</v>
+        <v>410</v>
       </c>
     </row>
     <row r="74" ht="56" customHeight="1" spans="3:13">
       <c r="C74" s="24" t="s">
-        <v>386</v>
+        <v>411</v>
       </c>
       <c r="D74" s="25"/>
       <c r="E74" s="25"/>
@@ -11077,12 +11228,12 @@
     </row>
     <row r="75" spans="3:3">
       <c r="C75" s="27" t="s">
-        <v>387</v>
+        <v>412</v>
       </c>
     </row>
     <row r="76" ht="72" customHeight="1" spans="4:13">
       <c r="D76" s="24" t="s">
-        <v>388</v>
+        <v>413</v>
       </c>
       <c r="E76" s="24"/>
       <c r="F76" s="24"/>
@@ -11096,12 +11247,12 @@
     </row>
     <row r="77" spans="3:3">
       <c r="C77" s="27" t="s">
-        <v>389</v>
+        <v>414</v>
       </c>
     </row>
     <row r="78" spans="4:13">
       <c r="D78" s="25" t="s">
-        <v>390</v>
+        <v>415</v>
       </c>
       <c r="E78" s="25"/>
       <c r="F78" s="25"/>
@@ -11115,19 +11266,19 @@
     </row>
     <row r="79" spans="1:13">
       <c r="A79" s="36" t="s">
-        <v>391</v>
+        <v>416</v>
       </c>
       <c r="M79" s="21"/>
     </row>
     <row r="80" spans="2:13">
       <c r="B80" s="37" t="s">
-        <v>392</v>
+        <v>417</v>
       </c>
       <c r="M80" s="21"/>
     </row>
     <row r="81" spans="3:13">
       <c r="C81" s="45" t="s">
-        <v>393</v>
+        <v>418</v>
       </c>
       <c r="D81" s="25"/>
       <c r="E81" s="25"/>
@@ -11143,7 +11294,7 @@
     <row r="82" ht="40" customHeight="1" spans="3:13">
       <c r="C82" s="25"/>
       <c r="D82" s="24" t="s">
-        <v>394</v>
+        <v>419</v>
       </c>
       <c r="E82" s="24"/>
       <c r="F82" s="24"/>
@@ -11157,7 +11308,7 @@
     </row>
     <row r="83" spans="3:13">
       <c r="C83" s="45" t="s">
-        <v>395</v>
+        <v>420</v>
       </c>
       <c r="D83" s="25"/>
       <c r="E83" s="25"/>
@@ -11173,7 +11324,7 @@
     <row r="84" ht="57" customHeight="1" spans="3:13">
       <c r="C84" s="25"/>
       <c r="D84" s="24" t="s">
-        <v>396</v>
+        <v>421</v>
       </c>
       <c r="E84" s="24"/>
       <c r="F84" s="24"/>
@@ -11187,7 +11338,7 @@
     </row>
     <row r="85" spans="3:13">
       <c r="C85" s="45" t="s">
-        <v>397</v>
+        <v>422</v>
       </c>
       <c r="D85" s="25"/>
       <c r="E85" s="25"/>
@@ -11203,7 +11354,7 @@
     <row r="86" ht="67" customHeight="1" spans="3:13">
       <c r="C86" s="25"/>
       <c r="D86" s="24" t="s">
-        <v>398</v>
+        <v>423</v>
       </c>
       <c r="E86" s="24"/>
       <c r="F86" s="24"/>
@@ -11218,7 +11369,7 @@
     <row r="87" ht="279" customHeight="1" spans="3:13">
       <c r="C87" s="25"/>
       <c r="D87" s="24" t="s">
-        <v>399</v>
+        <v>424</v>
       </c>
       <c r="E87" s="24"/>
       <c r="F87" s="24"/>
@@ -11232,7 +11383,7 @@
     </row>
     <row r="88" spans="3:13">
       <c r="C88" s="45" t="s">
-        <v>400</v>
+        <v>425</v>
       </c>
       <c r="D88" s="25"/>
       <c r="E88" s="25"/>
@@ -11248,7 +11399,7 @@
     <row r="89" ht="38" customHeight="1" spans="3:13">
       <c r="C89" s="25"/>
       <c r="D89" s="24" t="s">
-        <v>401</v>
+        <v>426</v>
       </c>
       <c r="E89" s="24"/>
       <c r="F89" s="24"/>
@@ -11263,7 +11414,7 @@
     <row r="90" spans="3:13">
       <c r="C90" s="25"/>
       <c r="D90" s="45" t="s">
-        <v>402</v>
+        <v>427</v>
       </c>
       <c r="E90" s="25"/>
       <c r="F90" s="25"/>
@@ -11279,7 +11430,7 @@
       <c r="C91" s="25"/>
       <c r="D91" s="25"/>
       <c r="E91" s="48" t="s">
-        <v>403</v>
+        <v>428</v>
       </c>
       <c r="F91" s="24"/>
       <c r="G91" s="24"/>
@@ -11293,7 +11444,7 @@
     <row r="92" ht="21" customHeight="1" spans="3:13">
       <c r="C92" s="25"/>
       <c r="D92" s="45" t="s">
-        <v>404</v>
+        <v>429</v>
       </c>
       <c r="E92" s="48"/>
       <c r="F92" s="24"/>
@@ -11309,7 +11460,7 @@
       <c r="C93" s="25"/>
       <c r="D93" s="25"/>
       <c r="E93" s="24" t="s">
-        <v>405</v>
+        <v>430</v>
       </c>
       <c r="F93" s="24"/>
       <c r="G93" s="24"/>
@@ -11323,7 +11474,7 @@
     <row r="94" ht="27" customHeight="1" spans="3:13">
       <c r="C94" s="25"/>
       <c r="D94" s="45" t="s">
-        <v>406</v>
+        <v>431</v>
       </c>
       <c r="E94" s="48"/>
       <c r="F94" s="24"/>
@@ -11339,7 +11490,7 @@
       <c r="C95" s="25"/>
       <c r="D95" s="25"/>
       <c r="E95" s="24" t="s">
-        <v>407</v>
+        <v>432</v>
       </c>
       <c r="F95" s="24"/>
       <c r="G95" s="24"/>
@@ -11354,7 +11505,7 @@
       <c r="C96" s="25"/>
       <c r="D96" s="25"/>
       <c r="E96" s="24" t="s">
-        <v>408</v>
+        <v>433</v>
       </c>
       <c r="F96" s="24"/>
       <c r="G96" s="24"/>
@@ -11367,13 +11518,13 @@
     </row>
     <row r="97" spans="2:13">
       <c r="B97" s="37" t="s">
-        <v>409</v>
+        <v>434</v>
       </c>
       <c r="M97" s="21"/>
     </row>
     <row r="98" spans="3:13">
       <c r="C98" s="31" t="s">
-        <v>410</v>
+        <v>435</v>
       </c>
       <c r="D98" s="32"/>
       <c r="E98" s="32"/>
@@ -11389,7 +11540,7 @@
     <row r="99" spans="3:13">
       <c r="C99" s="25"/>
       <c r="D99" s="24" t="s">
-        <v>411</v>
+        <v>436</v>
       </c>
       <c r="E99" s="24"/>
       <c r="F99" s="24"/>
@@ -11403,12 +11554,12 @@
     </row>
     <row r="100" spans="3:13">
       <c r="C100" s="45" t="s">
-        <v>412</v>
+        <v>437</v>
       </c>
       <c r="D100" s="25"/>
       <c r="E100" s="25"/>
       <c r="F100" s="25" t="s">
-        <v>413</v>
+        <v>438</v>
       </c>
       <c r="G100" s="25"/>
       <c r="H100" s="25"/>
@@ -11421,7 +11572,7 @@
     <row r="101" ht="71" customHeight="1" spans="3:13">
       <c r="C101" s="25"/>
       <c r="D101" s="24" t="s">
-        <v>414</v>
+        <v>439</v>
       </c>
       <c r="E101" s="24"/>
       <c r="F101" s="24"/>
@@ -11436,7 +11587,7 @@
     <row r="102" ht="75" customHeight="1" spans="3:13">
       <c r="C102" s="25"/>
       <c r="D102" s="24" t="s">
-        <v>415</v>
+        <v>440</v>
       </c>
       <c r="E102" s="24"/>
       <c r="F102" s="24"/>
@@ -11450,7 +11601,7 @@
     </row>
     <row r="103" spans="3:13">
       <c r="C103" s="45" t="s">
-        <v>416</v>
+        <v>441</v>
       </c>
       <c r="D103" s="25"/>
       <c r="E103" s="25"/>
@@ -11466,7 +11617,7 @@
     <row r="104" spans="3:13">
       <c r="C104" s="25"/>
       <c r="D104" s="45" t="s">
-        <v>417</v>
+        <v>442</v>
       </c>
       <c r="E104" s="25"/>
       <c r="F104" s="25"/>
@@ -11482,7 +11633,7 @@
       <c r="C105" s="25"/>
       <c r="D105" s="25"/>
       <c r="E105" s="24" t="s">
-        <v>418</v>
+        <v>443</v>
       </c>
       <c r="F105" s="24"/>
       <c r="G105" s="24"/>
@@ -11496,7 +11647,7 @@
     <row r="106" spans="3:13">
       <c r="C106" s="25"/>
       <c r="D106" s="45" t="s">
-        <v>419</v>
+        <v>444</v>
       </c>
       <c r="E106" s="25"/>
       <c r="F106" s="25"/>
@@ -11512,7 +11663,7 @@
       <c r="C107" s="25"/>
       <c r="D107" s="25"/>
       <c r="E107" s="24" t="s">
-        <v>420</v>
+        <v>445</v>
       </c>
       <c r="F107" s="24"/>
       <c r="G107" s="24"/>
@@ -11538,13 +11689,13 @@
     </row>
     <row r="109" spans="2:13">
       <c r="B109" s="37" t="s">
-        <v>421</v>
+        <v>446</v>
       </c>
       <c r="M109" s="21"/>
     </row>
     <row r="110" spans="3:13">
       <c r="C110" s="46" t="s">
-        <v>422</v>
+        <v>447</v>
       </c>
       <c r="D110" s="43"/>
       <c r="E110" s="43"/>
@@ -11559,7 +11710,7 @@
     </row>
     <row r="111" ht="71" customHeight="1" spans="4:13">
       <c r="D111" s="24" t="s">
-        <v>423</v>
+        <v>448</v>
       </c>
       <c r="E111" s="25"/>
       <c r="F111" s="25"/>
@@ -11576,19 +11727,19 @@
     </row>
     <row r="113" spans="1:13">
       <c r="A113" s="36" t="s">
-        <v>424</v>
+        <v>449</v>
       </c>
       <c r="M113" s="21"/>
     </row>
     <row r="114" spans="2:13">
       <c r="B114" s="37" t="s">
-        <v>425</v>
+        <v>450</v>
       </c>
       <c r="M114" s="21"/>
     </row>
     <row r="115" ht="159" customHeight="1" spans="3:13">
       <c r="C115" s="107" t="s">
-        <v>426</v>
+        <v>451</v>
       </c>
       <c r="D115" s="24"/>
       <c r="E115" s="24"/>
@@ -11603,13 +11754,13 @@
     </row>
     <row r="116" spans="2:13">
       <c r="B116" s="37" t="s">
-        <v>427</v>
+        <v>452</v>
       </c>
       <c r="M116" s="21"/>
     </row>
     <row r="117" spans="3:13">
       <c r="C117" s="24" t="s">
-        <v>428</v>
+        <v>453</v>
       </c>
       <c r="D117" s="24"/>
       <c r="E117" s="24"/>
@@ -11624,13 +11775,13 @@
     </row>
     <row r="118" spans="2:13">
       <c r="B118" s="37" t="s">
-        <v>429</v>
+        <v>454</v>
       </c>
       <c r="M118" s="21"/>
     </row>
     <row r="119" ht="138" customHeight="1" spans="3:13">
       <c r="C119" s="24" t="s">
-        <v>430</v>
+        <v>455</v>
       </c>
       <c r="D119" s="24"/>
       <c r="E119" s="24"/>
@@ -11648,19 +11799,19 @@
     </row>
     <row r="121" spans="1:13">
       <c r="A121" s="36" t="s">
-        <v>431</v>
+        <v>456</v>
       </c>
       <c r="M121" s="21"/>
     </row>
     <row r="122" spans="2:13">
       <c r="B122" s="37" t="s">
-        <v>432</v>
+        <v>457</v>
       </c>
       <c r="M122" s="21"/>
     </row>
     <row r="123" ht="153" customHeight="1" spans="3:13">
       <c r="C123" s="34" t="s">
-        <v>433</v>
+        <v>458</v>
       </c>
       <c r="D123" s="47"/>
       <c r="E123" s="47"/>
@@ -11675,13 +11826,13 @@
     </row>
     <row r="124" spans="2:13">
       <c r="B124" s="37" t="s">
-        <v>434</v>
+        <v>459</v>
       </c>
       <c r="M124" s="21"/>
     </row>
     <row r="125" ht="187" customHeight="1" spans="3:13">
       <c r="C125" s="34" t="s">
-        <v>435</v>
+        <v>460</v>
       </c>
       <c r="D125" s="34"/>
       <c r="E125" s="34"/>
@@ -11696,13 +11847,13 @@
     </row>
     <row r="126" spans="3:13">
       <c r="C126" s="27" t="s">
-        <v>436</v>
+        <v>461</v>
       </c>
       <c r="M126" s="21"/>
     </row>
     <row r="127" ht="133" customHeight="1" spans="4:13">
       <c r="D127" s="34" t="s">
-        <v>437</v>
+        <v>462</v>
       </c>
       <c r="E127" s="47"/>
       <c r="F127" s="47"/>
@@ -11716,10 +11867,10 @@
     </row>
     <row r="128" ht="56" customHeight="1" spans="1:13">
       <c r="A128" s="36" t="s">
-        <v>438</v>
+        <v>463</v>
       </c>
       <c r="C128" s="24" t="s">
-        <v>439</v>
+        <v>464</v>
       </c>
       <c r="D128" s="24"/>
       <c r="E128" s="24"/>
@@ -11737,10 +11888,10 @@
     </row>
     <row r="130" ht="90" customHeight="1" spans="2:13">
       <c r="B130" s="49" t="s">
-        <v>440</v>
+        <v>465</v>
       </c>
       <c r="C130" s="24" t="s">
-        <v>441</v>
+        <v>466</v>
       </c>
       <c r="D130" s="25"/>
       <c r="E130" s="25"/>
@@ -11755,13 +11906,13 @@
     </row>
     <row r="131" spans="2:13">
       <c r="B131" s="37" t="s">
-        <v>442</v>
+        <v>467</v>
       </c>
       <c r="M131" s="21"/>
     </row>
     <row r="132" ht="124" customHeight="1" spans="3:13">
       <c r="C132" s="34" t="s">
-        <v>443</v>
+        <v>468</v>
       </c>
       <c r="D132" s="34"/>
       <c r="E132" s="34"/>
@@ -11776,13 +11927,13 @@
     </row>
     <row r="133" spans="2:13">
       <c r="B133" s="37" t="s">
-        <v>444</v>
+        <v>469</v>
       </c>
       <c r="M133" s="21"/>
     </row>
     <row r="134" ht="95" customHeight="1" spans="3:13">
       <c r="C134" s="24" t="s">
-        <v>445</v>
+        <v>470</v>
       </c>
       <c r="D134" s="24"/>
       <c r="E134" s="24"/>
@@ -11800,13 +11951,13 @@
     </row>
     <row r="136" spans="1:13">
       <c r="A136" s="36" t="s">
-        <v>446</v>
+        <v>471</v>
       </c>
       <c r="M136" s="21"/>
     </row>
     <row r="137" ht="60" customHeight="1" spans="2:13">
       <c r="B137" s="50" t="s">
-        <v>447</v>
+        <v>472</v>
       </c>
       <c r="C137" s="50"/>
       <c r="D137" s="50"/>
@@ -11822,13 +11973,13 @@
     </row>
     <row r="138" spans="2:13">
       <c r="B138" s="37" t="s">
-        <v>448</v>
+        <v>473</v>
       </c>
       <c r="M138" s="21"/>
     </row>
     <row r="139" ht="69" customHeight="1" spans="3:13">
       <c r="C139" s="24" t="s">
-        <v>449</v>
+        <v>474</v>
       </c>
       <c r="D139" s="24"/>
       <c r="E139" s="24"/>
@@ -11843,13 +11994,13 @@
     </row>
     <row r="140" spans="2:13">
       <c r="B140" s="37" t="s">
-        <v>450</v>
+        <v>475</v>
       </c>
       <c r="M140" s="21"/>
     </row>
     <row r="141" ht="57" customHeight="1" spans="3:13">
       <c r="C141" s="24" t="s">
-        <v>451</v>
+        <v>476</v>
       </c>
       <c r="D141" s="24"/>
       <c r="E141" s="24"/>
@@ -11864,12 +12015,12 @@
     </row>
     <row r="142" spans="2:2">
       <c r="B142" s="37" t="s">
-        <v>452</v>
+        <v>477</v>
       </c>
     </row>
     <row r="143" ht="39" customHeight="1" spans="3:13">
       <c r="C143" s="24" t="s">
-        <v>453</v>
+        <v>478</v>
       </c>
       <c r="D143" s="24"/>
       <c r="E143" s="24"/>
@@ -11884,7 +12035,7 @@
     </row>
     <row r="144" ht="38" customHeight="1" spans="3:13">
       <c r="C144" s="24" t="s">
-        <v>454</v>
+        <v>479</v>
       </c>
       <c r="D144" s="24"/>
       <c r="E144" s="24"/>
@@ -11899,12 +12050,12 @@
     </row>
     <row r="145" spans="2:2">
       <c r="B145" s="37" t="s">
-        <v>455</v>
+        <v>480</v>
       </c>
     </row>
     <row r="146" ht="38" customHeight="1" spans="3:13">
       <c r="C146" s="24" t="s">
-        <v>456</v>
+        <v>481</v>
       </c>
       <c r="D146" s="24"/>
       <c r="E146" s="24"/>
@@ -11919,7 +12070,7 @@
     </row>
     <row r="147" spans="2:13">
       <c r="B147" s="51" t="s">
-        <v>457</v>
+        <v>482</v>
       </c>
       <c r="C147" s="51"/>
       <c r="D147" s="51"/>
@@ -11935,22 +12086,22 @@
     </row>
     <row r="149" spans="1:1">
       <c r="A149" s="36" t="s">
-        <v>458</v>
+        <v>483</v>
       </c>
     </row>
     <row r="150" spans="2:2">
       <c r="B150" s="37" t="s">
-        <v>459</v>
+        <v>484</v>
       </c>
     </row>
     <row r="151" spans="3:3">
       <c r="C151" s="27" t="s">
-        <v>460</v>
+        <v>485</v>
       </c>
     </row>
     <row r="152" ht="39" customHeight="1" spans="4:13">
       <c r="D152" s="24" t="s">
-        <v>461</v>
+        <v>486</v>
       </c>
       <c r="E152" s="25"/>
       <c r="F152" s="25"/>
@@ -11964,12 +12115,12 @@
     </row>
     <row r="153" spans="3:3">
       <c r="C153" s="27" t="s">
-        <v>462</v>
+        <v>487</v>
       </c>
     </row>
     <row r="154" ht="38" customHeight="1" spans="4:13">
       <c r="D154" s="24" t="s">
-        <v>463</v>
+        <v>488</v>
       </c>
       <c r="E154" s="25"/>
       <c r="F154" s="25"/>
@@ -11983,12 +12134,12 @@
     </row>
     <row r="155" spans="2:2">
       <c r="B155" s="37" t="s">
-        <v>464</v>
+        <v>489</v>
       </c>
     </row>
     <row r="156" ht="168" customHeight="1" spans="3:13">
       <c r="C156" s="24" t="s">
-        <v>465</v>
+        <v>490</v>
       </c>
       <c r="D156" s="24"/>
       <c r="E156" s="24"/>
@@ -12004,17 +12155,17 @@
     <row r="157" ht="21" customHeight="1"/>
     <row r="158" ht="20" customHeight="1" spans="1:1">
       <c r="A158" s="36" t="s">
-        <v>466</v>
+        <v>491</v>
       </c>
     </row>
     <row r="159" spans="2:2">
       <c r="B159" s="37" t="s">
-        <v>467</v>
+        <v>492</v>
       </c>
     </row>
     <row r="160" spans="3:13">
       <c r="C160" s="24" t="s">
-        <v>468</v>
+        <v>493</v>
       </c>
       <c r="D160" s="24"/>
       <c r="E160" s="24"/>
@@ -12029,12 +12180,12 @@
     </row>
     <row r="161" spans="2:2">
       <c r="B161" s="37" t="s">
-        <v>469</v>
+        <v>494</v>
       </c>
     </row>
     <row r="162" ht="35" customHeight="1" spans="3:13">
       <c r="C162" s="24" t="s">
-        <v>470</v>
+        <v>495</v>
       </c>
       <c r="D162" s="24"/>
       <c r="E162" s="24"/>
@@ -12049,12 +12200,12 @@
     </row>
     <row r="163" spans="2:2">
       <c r="B163" s="37" t="s">
-        <v>471</v>
+        <v>496</v>
       </c>
     </row>
     <row r="164" spans="3:13">
       <c r="C164" s="24" t="s">
-        <v>472</v>
+        <v>497</v>
       </c>
       <c r="D164" s="24"/>
       <c r="E164" s="24"/>
@@ -12069,12 +12220,12 @@
     </row>
     <row r="166" spans="1:1">
       <c r="A166" s="36" t="s">
-        <v>471</v>
+        <v>496</v>
       </c>
     </row>
     <row r="167" ht="73" customHeight="1" spans="2:13">
       <c r="B167" s="33" t="s">
-        <v>473</v>
+        <v>498</v>
       </c>
       <c r="C167" s="33"/>
       <c r="D167" s="33"/>
@@ -12090,17 +12241,17 @@
     </row>
     <row r="168" spans="2:2">
       <c r="B168" s="37" t="s">
-        <v>474</v>
+        <v>499</v>
       </c>
     </row>
     <row r="169" spans="3:3">
       <c r="C169" s="27" t="s">
-        <v>475</v>
+        <v>500</v>
       </c>
     </row>
     <row r="170" ht="71" customHeight="1" spans="4:13">
       <c r="D170" s="24" t="s">
-        <v>476</v>
+        <v>501</v>
       </c>
       <c r="E170" s="25"/>
       <c r="F170" s="25"/>
@@ -12114,12 +12265,12 @@
     </row>
     <row r="171" spans="3:3">
       <c r="C171" s="27" t="s">
-        <v>274</v>
+        <v>299</v>
       </c>
     </row>
     <row r="172" ht="234" customHeight="1" spans="4:13">
       <c r="D172" s="24" t="s">
-        <v>477</v>
+        <v>502</v>
       </c>
       <c r="E172" s="24"/>
       <c r="F172" s="24"/>
@@ -12133,12 +12284,12 @@
     </row>
     <row r="173" ht="24" customHeight="1" spans="3:3">
       <c r="C173" s="27" t="s">
-        <v>478</v>
+        <v>503</v>
       </c>
     </row>
     <row r="174" spans="4:13">
       <c r="D174" s="25" t="s">
-        <v>479</v>
+        <v>504</v>
       </c>
       <c r="E174" s="25"/>
       <c r="F174" s="25"/>
@@ -12152,20 +12303,20 @@
     </row>
     <row r="175" spans="2:5">
       <c r="B175" s="37" t="s">
-        <v>480</v>
+        <v>505</v>
       </c>
       <c r="E175" s="52" t="s">
-        <v>481</v>
+        <v>506</v>
       </c>
     </row>
     <row r="176" spans="3:3">
       <c r="C176" s="27" t="s">
-        <v>482</v>
+        <v>507</v>
       </c>
     </row>
     <row r="177" ht="160" customHeight="1" spans="4:13">
       <c r="D177" s="24" t="s">
-        <v>483</v>
+        <v>508</v>
       </c>
       <c r="E177" s="24"/>
       <c r="F177" s="24"/>
@@ -12179,17 +12330,17 @@
     </row>
     <row r="178" spans="3:3">
       <c r="C178" s="27" t="s">
-        <v>484</v>
+        <v>509</v>
       </c>
     </row>
     <row r="179" spans="4:4">
       <c r="D179" s="27" t="s">
-        <v>485</v>
+        <v>510</v>
       </c>
     </row>
     <row r="180" ht="91" customHeight="1" spans="5:13">
       <c r="E180" s="24" t="s">
-        <v>486</v>
+        <v>511</v>
       </c>
       <c r="F180" s="25"/>
       <c r="G180" s="25"/>
@@ -12202,12 +12353,12 @@
     </row>
     <row r="181" spans="4:4">
       <c r="D181" s="27" t="s">
-        <v>487</v>
+        <v>512</v>
       </c>
     </row>
     <row r="182" spans="5:13">
       <c r="E182" s="24" t="s">
-        <v>488</v>
+        <v>513</v>
       </c>
       <c r="F182" s="24"/>
       <c r="G182" s="24"/>
@@ -12220,7 +12371,7 @@
     </row>
     <row r="183" spans="4:13">
       <c r="D183" s="27" t="s">
-        <v>489</v>
+        <v>514</v>
       </c>
       <c r="E183" s="24"/>
       <c r="F183" s="24"/>
@@ -12234,12 +12385,12 @@
     </row>
     <row r="184" spans="5:5">
       <c r="E184" s="53" t="s">
-        <v>490</v>
+        <v>515</v>
       </c>
     </row>
     <row r="185" ht="93" customHeight="1" spans="5:13">
       <c r="E185" s="24" t="s">
-        <v>491</v>
+        <v>516</v>
       </c>
       <c r="F185" s="24"/>
       <c r="G185" s="24"/>
@@ -12252,12 +12403,12 @@
     </row>
     <row r="186" spans="5:5">
       <c r="E186" s="53" t="s">
-        <v>492</v>
+        <v>517</v>
       </c>
     </row>
     <row r="187" ht="108" customHeight="1" spans="5:13">
       <c r="E187" s="24" t="s">
-        <v>493</v>
+        <v>518</v>
       </c>
       <c r="F187" s="24"/>
       <c r="G187" s="24"/>
@@ -12270,12 +12421,12 @@
     </row>
     <row r="188" spans="4:4">
       <c r="D188" s="27" t="s">
-        <v>494</v>
+        <v>519</v>
       </c>
     </row>
     <row r="189" ht="41" customHeight="1" spans="5:13">
       <c r="E189" s="24" t="s">
-        <v>495</v>
+        <v>520</v>
       </c>
       <c r="F189" s="24"/>
       <c r="G189" s="24"/>
@@ -12288,7 +12439,7 @@
     </row>
     <row r="190" ht="83" customHeight="1" spans="5:13">
       <c r="E190" s="24" t="s">
-        <v>496</v>
+        <v>521</v>
       </c>
       <c r="F190" s="24"/>
       <c r="G190" s="24"/>
@@ -12301,17 +12452,17 @@
     </row>
     <row r="191" spans="2:2">
       <c r="B191" s="37" t="s">
-        <v>497</v>
+        <v>522</v>
       </c>
     </row>
     <row r="192" spans="3:3">
       <c r="C192" s="27" t="s">
-        <v>498</v>
+        <v>523</v>
       </c>
     </row>
     <row r="193" ht="54" customHeight="1" spans="4:13">
       <c r="D193" s="24" t="s">
-        <v>499</v>
+        <v>524</v>
       </c>
       <c r="E193" s="24"/>
       <c r="F193" s="24"/>
@@ -12325,7 +12476,7 @@
     </row>
     <row r="194" ht="70" customHeight="1" spans="4:13">
       <c r="D194" s="54" t="s">
-        <v>500</v>
+        <v>525</v>
       </c>
       <c r="E194" s="54"/>
       <c r="F194" s="54"/>
@@ -12339,15 +12490,15 @@
     </row>
     <row r="195" spans="3:6">
       <c r="C195" s="27" t="s">
-        <v>501</v>
+        <v>526</v>
       </c>
       <c r="F195" s="53" t="s">
-        <v>492</v>
+        <v>517</v>
       </c>
     </row>
     <row r="196" ht="105" customHeight="1" spans="4:13">
       <c r="D196" s="24" t="s">
-        <v>502</v>
+        <v>527</v>
       </c>
       <c r="E196" s="24"/>
       <c r="F196" s="24"/>
@@ -12361,22 +12512,22 @@
     </row>
     <row r="197" spans="2:2">
       <c r="B197" s="37" t="s">
-        <v>503</v>
+        <v>528</v>
       </c>
     </row>
     <row r="199" spans="1:1">
       <c r="A199" s="36" t="s">
-        <v>504</v>
+        <v>529</v>
       </c>
     </row>
     <row r="200" spans="2:2">
       <c r="B200" s="37" t="s">
-        <v>505</v>
+        <v>530</v>
       </c>
     </row>
     <row r="201" ht="57" customHeight="1" spans="3:13">
       <c r="C201" s="24" t="s">
-        <v>506</v>
+        <v>531</v>
       </c>
       <c r="D201" s="24"/>
       <c r="E201" s="24"/>
@@ -12502,10 +12653,10 @@
   <sheetPr/>
   <dimension ref="A1:N191"/>
   <sheetViews>
-    <sheetView topLeftCell="A182" workbookViewId="0">
+    <sheetView topLeftCell="A84" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="C194" sqref="C194"/>
+      <selection pane="topRight" activeCell="B109" sqref="B109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18"/>
@@ -12519,17 +12670,17 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="19" t="s">
-        <v>507</v>
+        <v>532</v>
       </c>
     </row>
     <row r="2" spans="2:2">
       <c r="B2" s="22" t="s">
-        <v>508</v>
+        <v>533</v>
       </c>
     </row>
     <row r="3" ht="108" customHeight="1" spans="3:14">
       <c r="C3" s="24" t="s">
-        <v>509</v>
+        <v>534</v>
       </c>
       <c r="D3" s="25"/>
       <c r="E3" s="25"/>
@@ -12545,10 +12696,10 @@
     </row>
     <row r="4" spans="2:14">
       <c r="B4" s="22" t="s">
-        <v>510</v>
+        <v>535</v>
       </c>
       <c r="D4" s="25" t="s">
-        <v>511</v>
+        <v>536</v>
       </c>
       <c r="E4" s="25"/>
       <c r="F4" s="25"/>
@@ -12563,7 +12714,7 @@
     </row>
     <row r="5" ht="36" customHeight="1" spans="3:14">
       <c r="C5" s="24" t="s">
-        <v>512</v>
+        <v>537</v>
       </c>
       <c r="D5" s="24"/>
       <c r="E5" s="24"/>
@@ -12579,12 +12730,12 @@
     </row>
     <row r="6" spans="2:2">
       <c r="B6" s="22" t="s">
-        <v>513</v>
+        <v>538</v>
       </c>
     </row>
     <row r="7" ht="37" customHeight="1" spans="3:14">
       <c r="C7" s="24" t="s">
-        <v>514</v>
+        <v>539</v>
       </c>
       <c r="D7" s="24"/>
       <c r="E7" s="24"/>
@@ -12600,12 +12751,12 @@
     </row>
     <row r="9" spans="2:2">
       <c r="B9" s="22" t="s">
-        <v>515</v>
+        <v>540</v>
       </c>
     </row>
     <row r="10" ht="108" customHeight="1" spans="3:14">
       <c r="C10" s="24" t="s">
-        <v>516</v>
+        <v>541</v>
       </c>
       <c r="D10" s="24"/>
       <c r="E10" s="24"/>
@@ -12621,7 +12772,7 @@
     </row>
     <row r="11" ht="76" customHeight="1" spans="3:14">
       <c r="C11" s="24" t="s">
-        <v>517</v>
+        <v>542</v>
       </c>
       <c r="D11" s="24"/>
       <c r="E11" s="24"/>
@@ -12637,12 +12788,12 @@
     </row>
     <row r="12" spans="2:2">
       <c r="B12" s="22" t="s">
-        <v>518</v>
+        <v>543</v>
       </c>
     </row>
     <row r="13" spans="3:14">
       <c r="C13" s="24" t="s">
-        <v>519</v>
+        <v>544</v>
       </c>
       <c r="D13" s="24"/>
       <c r="E13" s="24"/>
@@ -12658,12 +12809,12 @@
     </row>
     <row r="14" spans="2:2">
       <c r="B14" s="22" t="s">
-        <v>520</v>
+        <v>545</v>
       </c>
     </row>
     <row r="15" ht="136" customHeight="1" spans="3:14">
       <c r="C15" s="24" t="s">
-        <v>521</v>
+        <v>546</v>
       </c>
       <c r="D15" s="24"/>
       <c r="E15" s="24"/>
@@ -12679,10 +12830,10 @@
     </row>
     <row r="16" spans="2:14">
       <c r="B16" s="22" t="s">
-        <v>522</v>
+        <v>547</v>
       </c>
       <c r="D16" s="24" t="s">
-        <v>523</v>
+        <v>548</v>
       </c>
       <c r="E16" s="24"/>
       <c r="F16" s="24"/>
@@ -12697,7 +12848,7 @@
     </row>
     <row r="17" ht="72" customHeight="1" spans="3:14">
       <c r="C17" s="24" t="s">
-        <v>524</v>
+        <v>549</v>
       </c>
       <c r="D17" s="24"/>
       <c r="E17" s="24"/>
@@ -12727,12 +12878,12 @@
     </row>
     <row r="19" ht="20" customHeight="1" spans="1:1">
       <c r="A19" s="19" t="s">
-        <v>525</v>
+        <v>550</v>
       </c>
     </row>
     <row r="20" ht="38" customHeight="1" spans="2:14">
       <c r="B20" s="26" t="s">
-        <v>526</v>
+        <v>551</v>
       </c>
       <c r="C20" s="26"/>
       <c r="D20" s="26"/>
@@ -12749,12 +12900,12 @@
     </row>
     <row r="21" spans="2:2">
       <c r="B21" s="22" t="s">
-        <v>527</v>
+        <v>552</v>
       </c>
     </row>
     <row r="22" spans="3:14">
       <c r="C22" s="24" t="s">
-        <v>528</v>
+        <v>553</v>
       </c>
       <c r="D22" s="24"/>
       <c r="E22" s="24"/>
@@ -12770,12 +12921,12 @@
     </row>
     <row r="23" spans="2:2">
       <c r="B23" s="22" t="s">
-        <v>529</v>
+        <v>554</v>
       </c>
     </row>
     <row r="24" ht="54" customHeight="1" spans="3:14">
       <c r="C24" s="24" t="s">
-        <v>530</v>
+        <v>555</v>
       </c>
       <c r="D24" s="24"/>
       <c r="E24" s="24"/>
@@ -12791,12 +12942,12 @@
     </row>
     <row r="25" spans="3:3">
       <c r="C25" s="27" t="s">
-        <v>531</v>
+        <v>556</v>
       </c>
     </row>
     <row r="26" spans="4:14">
       <c r="D26" s="24" t="s">
-        <v>532</v>
+        <v>557</v>
       </c>
       <c r="E26" s="24"/>
       <c r="F26" s="24"/>
@@ -12811,12 +12962,12 @@
     </row>
     <row r="27" spans="3:3">
       <c r="C27" s="27" t="s">
-        <v>533</v>
+        <v>558</v>
       </c>
     </row>
     <row r="28" spans="4:14">
       <c r="D28" s="25" t="s">
-        <v>534</v>
+        <v>559</v>
       </c>
       <c r="E28" s="25"/>
       <c r="F28" s="25"/>
@@ -12831,17 +12982,17 @@
     </row>
     <row r="30" spans="1:1">
       <c r="A30" s="19" t="s">
-        <v>535</v>
+        <v>560</v>
       </c>
     </row>
     <row r="31" spans="2:2">
       <c r="B31" s="22" t="s">
-        <v>536</v>
+        <v>561</v>
       </c>
     </row>
     <row r="32" ht="73" customHeight="1" spans="3:14">
       <c r="C32" s="24" t="s">
-        <v>537</v>
+        <v>562</v>
       </c>
       <c r="D32" s="24"/>
       <c r="E32" s="24"/>
@@ -12857,12 +13008,12 @@
     </row>
     <row r="33" spans="2:2">
       <c r="B33" s="22" t="s">
-        <v>538</v>
+        <v>563</v>
       </c>
     </row>
     <row r="34" ht="82" customHeight="1" spans="3:14">
       <c r="C34" s="24" t="s">
-        <v>539</v>
+        <v>564</v>
       </c>
       <c r="D34" s="25"/>
       <c r="E34" s="25"/>
@@ -12878,12 +13029,12 @@
     </row>
     <row r="35" spans="2:2">
       <c r="B35" s="22" t="s">
-        <v>540</v>
+        <v>565</v>
       </c>
     </row>
     <row r="36" ht="145" customHeight="1" spans="3:14">
       <c r="C36" s="24" t="s">
-        <v>541</v>
+        <v>566</v>
       </c>
       <c r="D36" s="24"/>
       <c r="E36" s="24"/>
@@ -12899,12 +13050,12 @@
     </row>
     <row r="37" spans="2:2">
       <c r="B37" s="22" t="s">
-        <v>542</v>
+        <v>567</v>
       </c>
     </row>
     <row r="38" spans="3:14">
       <c r="C38" s="25" t="s">
-        <v>543</v>
+        <v>568</v>
       </c>
       <c r="D38" s="25"/>
       <c r="E38" s="25"/>
@@ -12920,17 +13071,17 @@
     </row>
     <row r="39" spans="2:2">
       <c r="B39" s="22" t="s">
-        <v>544</v>
+        <v>569</v>
       </c>
     </row>
     <row r="40" spans="3:3">
       <c r="C40" s="27" t="s">
-        <v>545</v>
+        <v>570</v>
       </c>
     </row>
     <row r="41" ht="55" customHeight="1" spans="4:14">
       <c r="D41" s="24" t="s">
-        <v>546</v>
+        <v>571</v>
       </c>
       <c r="E41" s="24"/>
       <c r="F41" s="24"/>
@@ -12945,12 +13096,12 @@
     </row>
     <row r="42" spans="3:3">
       <c r="C42" s="27" t="s">
-        <v>547</v>
+        <v>572</v>
       </c>
     </row>
     <row r="43" ht="38" customHeight="1" spans="4:14">
       <c r="D43" s="24" t="s">
-        <v>548</v>
+        <v>573</v>
       </c>
       <c r="E43" s="24"/>
       <c r="F43" s="24"/>
@@ -12965,12 +13116,12 @@
     </row>
     <row r="44" spans="3:3">
       <c r="C44" s="27" t="s">
-        <v>549</v>
+        <v>574</v>
       </c>
     </row>
     <row r="45" spans="4:14">
       <c r="D45" s="24" t="s">
-        <v>550</v>
+        <v>575</v>
       </c>
       <c r="E45" s="24"/>
       <c r="F45" s="24"/>
@@ -12985,10 +13136,10 @@
     </row>
     <row r="47" spans="1:14">
       <c r="A47" s="19" t="s">
-        <v>551</v>
+        <v>576</v>
       </c>
       <c r="C47" s="25" t="s">
-        <v>552</v>
+        <v>577</v>
       </c>
       <c r="D47" s="25"/>
       <c r="E47" s="25"/>
@@ -13004,12 +13155,12 @@
     </row>
     <row r="48" spans="2:2">
       <c r="B48" s="22" t="s">
-        <v>553</v>
+        <v>578</v>
       </c>
     </row>
     <row r="49" ht="74" customHeight="1" spans="3:14">
       <c r="C49" s="24" t="s">
-        <v>554</v>
+        <v>579</v>
       </c>
       <c r="D49" s="25"/>
       <c r="E49" s="25"/>
@@ -13025,12 +13176,12 @@
     </row>
     <row r="50" spans="2:2">
       <c r="B50" s="22" t="s">
-        <v>555</v>
+        <v>580</v>
       </c>
     </row>
     <row r="51" ht="57" customHeight="1" spans="3:14">
       <c r="C51" s="24" t="s">
-        <v>556</v>
+        <v>581</v>
       </c>
       <c r="D51" s="25"/>
       <c r="E51" s="25"/>
@@ -13046,12 +13197,12 @@
     </row>
     <row r="52" spans="2:2">
       <c r="B52" s="22" t="s">
-        <v>557</v>
+        <v>582</v>
       </c>
     </row>
     <row r="53" ht="37" customHeight="1" spans="3:14">
       <c r="C53" s="24" t="s">
-        <v>558</v>
+        <v>583</v>
       </c>
       <c r="D53" s="24"/>
       <c r="E53" s="24"/>
@@ -13067,24 +13218,24 @@
     </row>
     <row r="55" spans="1:1">
       <c r="A55" s="19" t="s">
-        <v>559</v>
+        <v>584</v>
       </c>
     </row>
     <row r="56" spans="2:3">
       <c r="B56" s="22" t="s">
-        <v>560</v>
+        <v>585</v>
       </c>
       <c r="C56" s="27"/>
     </row>
     <row r="57" spans="3:3">
       <c r="C57" s="27" t="s">
-        <v>561</v>
+        <v>586</v>
       </c>
     </row>
     <row r="58" spans="3:14">
       <c r="C58" s="27"/>
       <c r="D58" s="24" t="s">
-        <v>562</v>
+        <v>587</v>
       </c>
       <c r="E58" s="24"/>
       <c r="F58" s="24"/>
@@ -13099,13 +13250,13 @@
     </row>
     <row r="59" spans="3:3">
       <c r="C59" s="27" t="s">
-        <v>563</v>
+        <v>588</v>
       </c>
     </row>
     <row r="60" ht="95" customHeight="1" spans="3:14">
       <c r="C60" s="27"/>
       <c r="D60" s="107" t="s">
-        <v>564</v>
+        <v>589</v>
       </c>
       <c r="E60" s="24"/>
       <c r="F60" s="24"/>
@@ -13120,13 +13271,13 @@
     </row>
     <row r="61" spans="3:3">
       <c r="C61" s="27" t="s">
-        <v>565</v>
+        <v>590</v>
       </c>
     </row>
     <row r="62" ht="108" customHeight="1" spans="3:14">
       <c r="C62" s="27"/>
       <c r="D62" s="24" t="s">
-        <v>566</v>
+        <v>591</v>
       </c>
       <c r="E62" s="24"/>
       <c r="F62" s="24"/>
@@ -13141,12 +13292,12 @@
     </row>
     <row r="63" spans="3:3">
       <c r="C63" s="27" t="s">
-        <v>567</v>
+        <v>592</v>
       </c>
     </row>
     <row r="64" ht="36" customHeight="1" spans="4:14">
       <c r="D64" s="24" t="s">
-        <v>568</v>
+        <v>593</v>
       </c>
       <c r="E64" s="24"/>
       <c r="F64" s="24"/>
@@ -13173,10 +13324,10 @@
     </row>
     <row r="66" ht="19" customHeight="1" spans="1:14">
       <c r="A66" s="19" t="s">
-        <v>569</v>
+        <v>594</v>
       </c>
       <c r="C66" s="24" t="s">
-        <v>570</v>
+        <v>595</v>
       </c>
       <c r="D66" s="24"/>
       <c r="E66" s="24"/>
@@ -13192,19 +13343,19 @@
     </row>
     <row r="67" spans="2:3">
       <c r="B67" s="22" t="s">
-        <v>571</v>
+        <v>596</v>
       </c>
       <c r="C67" s="27"/>
     </row>
     <row r="68" spans="3:3">
       <c r="C68" s="27" t="s">
-        <v>572</v>
+        <v>597</v>
       </c>
     </row>
     <row r="69" ht="72" customHeight="1" spans="3:14">
       <c r="C69" s="27"/>
       <c r="D69" s="107" t="s">
-        <v>573</v>
+        <v>598</v>
       </c>
       <c r="E69" s="24"/>
       <c r="F69" s="24"/>
@@ -13219,13 +13370,13 @@
     </row>
     <row r="70" spans="3:3">
       <c r="C70" s="27" t="s">
-        <v>574</v>
+        <v>599</v>
       </c>
     </row>
     <row r="71" ht="102" customHeight="1" spans="3:14">
       <c r="C71" s="27"/>
       <c r="D71" s="107" t="s">
-        <v>575</v>
+        <v>600</v>
       </c>
       <c r="E71" s="24"/>
       <c r="F71" s="24"/>
@@ -13240,7 +13391,7 @@
     </row>
     <row r="72" spans="3:13">
       <c r="C72" s="27" t="s">
-        <v>576</v>
+        <v>601</v>
       </c>
       <c r="D72"/>
       <c r="E72"/>
@@ -13256,7 +13407,7 @@
     <row r="73" spans="3:13">
       <c r="C73" s="27"/>
       <c r="D73" s="25" t="s">
-        <v>577</v>
+        <v>602</v>
       </c>
       <c r="E73" s="25"/>
       <c r="F73" s="25"/>
@@ -13270,7 +13421,7 @@
     </row>
     <row r="74" spans="3:13">
       <c r="C74" s="27" t="s">
-        <v>578</v>
+        <v>603</v>
       </c>
       <c r="D74"/>
       <c r="E74"/>
@@ -13286,7 +13437,7 @@
     <row r="75" ht="57" customHeight="1" spans="3:14">
       <c r="C75" s="27"/>
       <c r="D75" s="24" t="s">
-        <v>579</v>
+        <v>604</v>
       </c>
       <c r="E75" s="24"/>
       <c r="F75" s="24"/>
@@ -13301,13 +13452,13 @@
     </row>
     <row r="76" spans="3:3">
       <c r="C76" s="27" t="s">
-        <v>580</v>
+        <v>605</v>
       </c>
     </row>
     <row r="77" ht="108" customHeight="1" spans="3:14">
       <c r="C77" s="27"/>
       <c r="D77" s="107" t="s">
-        <v>581</v>
+        <v>606</v>
       </c>
       <c r="E77" s="24"/>
       <c r="F77" s="24"/>
@@ -13322,17 +13473,17 @@
     </row>
     <row r="79" spans="1:1">
       <c r="A79" s="19" t="s">
-        <v>582</v>
+        <v>607</v>
       </c>
     </row>
     <row r="80" spans="2:2">
       <c r="B80" s="22" t="s">
-        <v>583</v>
+        <v>608</v>
       </c>
     </row>
     <row r="81" ht="159" customHeight="1" spans="3:14">
       <c r="C81" s="24" t="s">
-        <v>584</v>
+        <v>609</v>
       </c>
       <c r="D81" s="24"/>
       <c r="E81" s="24"/>
@@ -13348,10 +13499,10 @@
     </row>
     <row r="82" spans="2:14">
       <c r="B82" s="22" t="s">
-        <v>585</v>
+        <v>610</v>
       </c>
       <c r="D82" s="24" t="s">
-        <v>586</v>
+        <v>611</v>
       </c>
       <c r="E82" s="24"/>
       <c r="F82" s="24"/>
@@ -13366,7 +13517,7 @@
     </row>
     <row r="83" ht="58" customHeight="1" spans="3:14">
       <c r="C83" s="24" t="s">
-        <v>587</v>
+        <v>612</v>
       </c>
       <c r="D83" s="24"/>
       <c r="E83" s="24"/>
@@ -13382,7 +13533,7 @@
     </row>
     <row r="84" ht="22" customHeight="1" spans="3:13">
       <c r="C84" s="28" t="s">
-        <v>588</v>
+        <v>613</v>
       </c>
       <c r="D84" s="24"/>
       <c r="E84" s="24"/>
@@ -13398,7 +13549,7 @@
     <row r="85" ht="161" customHeight="1" spans="3:14">
       <c r="C85" s="24"/>
       <c r="D85" s="24" t="s">
-        <v>589</v>
+        <v>614</v>
       </c>
       <c r="E85" s="24"/>
       <c r="F85" s="24"/>
@@ -13413,17 +13564,17 @@
     </row>
     <row r="86" spans="1:1">
       <c r="A86" s="19" t="s">
-        <v>590</v>
+        <v>615</v>
       </c>
     </row>
     <row r="87" spans="2:2">
       <c r="B87" s="22" t="s">
-        <v>591</v>
+        <v>616</v>
       </c>
     </row>
     <row r="88" ht="85" customHeight="1" spans="3:14">
       <c r="C88" s="24" t="s">
-        <v>592</v>
+        <v>617</v>
       </c>
       <c r="D88" s="24"/>
       <c r="E88" s="24"/>
@@ -13439,12 +13590,12 @@
     </row>
     <row r="89" spans="3:3">
       <c r="C89" s="27" t="s">
-        <v>593</v>
+        <v>618</v>
       </c>
     </row>
     <row r="90" ht="60" customHeight="1" spans="4:14">
       <c r="D90" s="24" t="s">
-        <v>594</v>
+        <v>619</v>
       </c>
       <c r="E90" s="24"/>
       <c r="F90" s="24"/>
@@ -13459,12 +13610,12 @@
     </row>
     <row r="91" spans="2:2">
       <c r="B91" s="22" t="s">
-        <v>595</v>
+        <v>620</v>
       </c>
     </row>
     <row r="92" ht="56" customHeight="1" spans="3:14">
       <c r="C92" s="24" t="s">
-        <v>596</v>
+        <v>621</v>
       </c>
       <c r="D92" s="24"/>
       <c r="E92" s="24"/>
@@ -13480,12 +13631,12 @@
     </row>
     <row r="93" spans="3:3">
       <c r="C93" s="27" t="s">
-        <v>597</v>
+        <v>622</v>
       </c>
     </row>
     <row r="94" ht="153" customHeight="1" spans="4:14">
       <c r="D94" s="24" t="s">
-        <v>598</v>
+        <v>623</v>
       </c>
       <c r="E94" s="24"/>
       <c r="F94" s="24"/>
@@ -13513,12 +13664,12 @@
     </row>
     <row r="96" ht="20" customHeight="1" spans="1:1">
       <c r="A96" s="19" t="s">
-        <v>599</v>
+        <v>624</v>
       </c>
     </row>
     <row r="97" ht="41" customHeight="1" spans="2:14">
       <c r="B97" s="24" t="s">
-        <v>600</v>
+        <v>625</v>
       </c>
       <c r="C97" s="24"/>
       <c r="D97" s="24"/>
@@ -13535,12 +13686,12 @@
     </row>
     <row r="98" ht="23" customHeight="1" spans="2:2">
       <c r="B98" s="22" t="s">
-        <v>601</v>
+        <v>626</v>
       </c>
     </row>
     <row r="99" ht="172" customHeight="1" spans="3:14">
       <c r="C99" s="24" t="s">
-        <v>602</v>
+        <v>627</v>
       </c>
       <c r="D99" s="24"/>
       <c r="E99" s="24"/>
@@ -13556,12 +13707,12 @@
     </row>
     <row r="100" spans="2:2">
       <c r="B100" s="22" t="s">
-        <v>603</v>
+        <v>628</v>
       </c>
     </row>
     <row r="101" ht="55" customHeight="1" spans="3:14">
       <c r="C101" s="24" t="s">
-        <v>604</v>
+        <v>629</v>
       </c>
       <c r="D101" s="24"/>
       <c r="E101" s="24"/>
@@ -13577,7 +13728,7 @@
     </row>
     <row r="102" ht="125" customHeight="1" spans="3:14">
       <c r="C102" s="29" t="s">
-        <v>605</v>
+        <v>630</v>
       </c>
       <c r="D102" s="30"/>
       <c r="E102" s="30"/>
@@ -13607,10 +13758,10 @@
     </row>
     <row r="104" ht="24" customHeight="1" spans="1:14">
       <c r="A104" s="19" t="s">
-        <v>606</v>
+        <v>631</v>
       </c>
       <c r="C104" s="24" t="s">
-        <v>607</v>
+        <v>632</v>
       </c>
       <c r="D104" s="24"/>
       <c r="E104" s="24"/>
@@ -13626,12 +13777,12 @@
     </row>
     <row r="105" ht="20" customHeight="1" spans="2:2">
       <c r="B105" s="22" t="s">
-        <v>608</v>
+        <v>633</v>
       </c>
     </row>
     <row r="106" ht="20" customHeight="1" spans="3:14">
       <c r="C106" s="25" t="s">
-        <v>609</v>
+        <v>634</v>
       </c>
       <c r="D106" s="25"/>
       <c r="E106" s="25"/>
@@ -13647,12 +13798,12 @@
     </row>
     <row r="107" ht="20" customHeight="1" spans="2:2">
       <c r="B107" s="22" t="s">
-        <v>610</v>
+        <v>635</v>
       </c>
     </row>
     <row r="108" ht="20" customHeight="1" spans="3:14">
       <c r="C108" s="25" t="s">
-        <v>611</v>
+        <v>636</v>
       </c>
       <c r="D108" s="25"/>
       <c r="E108" s="25"/>
@@ -13668,12 +13819,12 @@
     </row>
     <row r="109" ht="20" customHeight="1" spans="2:2">
       <c r="B109" s="22" t="s">
-        <v>612</v>
+        <v>637</v>
       </c>
     </row>
     <row r="110" ht="19" customHeight="1" spans="3:14">
       <c r="C110" s="24" t="s">
-        <v>613</v>
+        <v>638</v>
       </c>
       <c r="D110" s="24"/>
       <c r="E110" s="24"/>
@@ -13689,17 +13840,17 @@
     </row>
     <row r="112" ht="19" customHeight="1" spans="1:1">
       <c r="A112" s="19" t="s">
-        <v>614</v>
+        <v>639</v>
       </c>
     </row>
     <row r="113" spans="2:2">
       <c r="B113" s="22" t="s">
-        <v>615</v>
+        <v>640</v>
       </c>
     </row>
     <row r="114" ht="35" customHeight="1" spans="3:14">
       <c r="C114" s="24" t="s">
-        <v>616</v>
+        <v>641</v>
       </c>
       <c r="D114" s="24"/>
       <c r="E114" s="24"/>
@@ -13715,17 +13866,17 @@
     </row>
     <row r="115" spans="2:2">
       <c r="B115" s="22" t="s">
-        <v>617</v>
+        <v>642</v>
       </c>
     </row>
     <row r="116" spans="3:3">
       <c r="C116" s="27" t="s">
-        <v>618</v>
+        <v>643</v>
       </c>
     </row>
     <row r="117" ht="37" customHeight="1" spans="4:14">
       <c r="D117" s="24" t="s">
-        <v>619</v>
+        <v>644</v>
       </c>
       <c r="E117" s="24"/>
       <c r="F117" s="24"/>
@@ -13740,12 +13891,12 @@
     </row>
     <row r="118" spans="3:3">
       <c r="C118" s="27" t="s">
-        <v>620</v>
+        <v>645</v>
       </c>
     </row>
     <row r="119" spans="4:14">
       <c r="D119" s="24" t="s">
-        <v>621</v>
+        <v>646</v>
       </c>
       <c r="E119" s="24"/>
       <c r="F119" s="24"/>
@@ -13760,12 +13911,12 @@
     </row>
     <row r="120" spans="3:3">
       <c r="C120" s="27" t="s">
-        <v>622</v>
+        <v>647</v>
       </c>
     </row>
     <row r="121" ht="54" customHeight="1" spans="4:14">
       <c r="D121" s="24" t="s">
-        <v>623</v>
+        <v>648</v>
       </c>
       <c r="E121" s="24"/>
       <c r="F121" s="24"/>
@@ -13780,12 +13931,12 @@
     </row>
     <row r="122" spans="2:2">
       <c r="B122" s="22" t="s">
-        <v>624</v>
+        <v>649</v>
       </c>
     </row>
     <row r="123" ht="36" customHeight="1" spans="3:14">
       <c r="C123" s="24" t="s">
-        <v>625</v>
+        <v>650</v>
       </c>
       <c r="D123" s="24"/>
       <c r="E123" s="24"/>
@@ -13801,17 +13952,17 @@
     </row>
     <row r="124" spans="2:2">
       <c r="B124" s="22" t="s">
-        <v>626</v>
+        <v>651</v>
       </c>
     </row>
     <row r="125" spans="3:3">
       <c r="C125" s="27" t="s">
-        <v>627</v>
+        <v>652</v>
       </c>
     </row>
     <row r="126" spans="4:14">
       <c r="D126" s="24" t="s">
-        <v>628</v>
+        <v>653</v>
       </c>
       <c r="E126" s="24"/>
       <c r="F126" s="24"/>
@@ -13826,12 +13977,12 @@
     </row>
     <row r="127" spans="3:3">
       <c r="C127" s="27" t="s">
-        <v>629</v>
+        <v>654</v>
       </c>
     </row>
     <row r="128" ht="21" customHeight="1" spans="4:14">
       <c r="D128" s="24" t="s">
-        <v>630</v>
+        <v>655</v>
       </c>
       <c r="E128" s="24"/>
       <c r="F128" s="24"/>
@@ -13846,12 +13997,12 @@
     </row>
     <row r="129" ht="19" customHeight="1" spans="2:2">
       <c r="B129" s="22" t="s">
-        <v>631</v>
+        <v>656</v>
       </c>
     </row>
     <row r="130" spans="3:13">
       <c r="C130" s="31" t="s">
-        <v>632</v>
+        <v>657</v>
       </c>
       <c r="D130" s="32"/>
       <c r="E130" s="32"/>
@@ -13867,7 +14018,7 @@
     <row r="131" ht="76" customHeight="1" spans="3:14">
       <c r="C131" s="31"/>
       <c r="D131" s="33" t="s">
-        <v>633</v>
+        <v>658</v>
       </c>
       <c r="E131" s="33"/>
       <c r="F131" s="33"/>
@@ -13882,7 +14033,7 @@
     </row>
     <row r="132" spans="3:13">
       <c r="C132" s="31" t="s">
-        <v>634</v>
+        <v>659</v>
       </c>
       <c r="D132" s="32"/>
       <c r="E132" s="32"/>
@@ -13898,7 +14049,7 @@
     <row r="133" ht="95" customHeight="1" spans="3:14">
       <c r="C133" s="31"/>
       <c r="D133" s="33" t="s">
-        <v>635</v>
+        <v>660</v>
       </c>
       <c r="E133" s="33"/>
       <c r="F133" s="33"/>
@@ -13913,7 +14064,7 @@
     </row>
     <row r="134" spans="3:13">
       <c r="C134" s="31" t="s">
-        <v>636</v>
+        <v>661</v>
       </c>
       <c r="D134" s="32"/>
       <c r="E134" s="32"/>
@@ -13929,7 +14080,7 @@
     <row r="135" ht="79" customHeight="1" spans="3:14">
       <c r="C135" s="31"/>
       <c r="D135" s="33" t="s">
-        <v>637</v>
+        <v>662</v>
       </c>
       <c r="E135" s="33"/>
       <c r="F135" s="33"/>
@@ -13944,12 +14095,12 @@
     </row>
     <row r="136" spans="3:3">
       <c r="C136" s="27" t="s">
-        <v>638</v>
+        <v>663</v>
       </c>
     </row>
     <row r="137" ht="73" customHeight="1" spans="4:14">
       <c r="D137" s="33" t="s">
-        <v>639</v>
+        <v>664</v>
       </c>
       <c r="E137" s="33"/>
       <c r="F137" s="33"/>
@@ -13964,12 +14115,12 @@
     </row>
     <row r="138" spans="2:2">
       <c r="B138" s="22" t="s">
-        <v>640</v>
+        <v>665</v>
       </c>
     </row>
     <row r="139" spans="3:14">
       <c r="C139" s="24" t="s">
-        <v>641</v>
+        <v>666</v>
       </c>
       <c r="D139" s="24"/>
       <c r="E139" s="24"/>
@@ -13985,10 +14136,10 @@
     </row>
     <row r="141" spans="1:14">
       <c r="A141" s="19" t="s">
-        <v>642</v>
+        <v>667</v>
       </c>
       <c r="C141" s="24" t="s">
-        <v>643</v>
+        <v>668</v>
       </c>
       <c r="D141" s="24"/>
       <c r="E141" s="24"/>
@@ -14004,7 +14155,7 @@
     </row>
     <row r="142" ht="187" customHeight="1" spans="2:14">
       <c r="B142" s="26" t="s">
-        <v>644</v>
+        <v>669</v>
       </c>
       <c r="C142" s="26"/>
       <c r="D142" s="26"/>
@@ -14021,12 +14172,12 @@
     </row>
     <row r="144" spans="1:1">
       <c r="A144" s="19" t="s">
-        <v>645</v>
+        <v>670</v>
       </c>
     </row>
     <row r="145" ht="39" customHeight="1" spans="2:14">
       <c r="B145" s="26" t="s">
-        <v>646</v>
+        <v>671</v>
       </c>
       <c r="C145" s="26"/>
       <c r="D145" s="26"/>
@@ -14043,12 +14194,12 @@
     </row>
     <row r="146" spans="2:2">
       <c r="B146" s="22" t="s">
-        <v>647</v>
+        <v>672</v>
       </c>
     </row>
     <row r="147" ht="220" customHeight="1" spans="3:14">
       <c r="C147" s="24" t="s">
-        <v>648</v>
+        <v>673</v>
       </c>
       <c r="D147" s="24"/>
       <c r="E147" s="24"/>
@@ -14064,10 +14215,10 @@
     </row>
     <row r="149" spans="1:14">
       <c r="A149" s="19" t="s">
-        <v>649</v>
+        <v>674</v>
       </c>
       <c r="C149" s="25" t="s">
-        <v>650</v>
+        <v>675</v>
       </c>
       <c r="D149" s="25"/>
       <c r="E149" s="25"/>
@@ -14083,12 +14234,12 @@
     </row>
     <row r="150" spans="2:2">
       <c r="B150" s="22" t="s">
-        <v>651</v>
+        <v>676</v>
       </c>
     </row>
     <row r="151" ht="190" customHeight="1" spans="3:14">
       <c r="C151" s="24" t="s">
-        <v>652</v>
+        <v>677</v>
       </c>
       <c r="D151" s="24"/>
       <c r="E151" s="24"/>
@@ -14104,12 +14255,12 @@
     </row>
     <row r="152" spans="2:2">
       <c r="B152" s="22" t="s">
-        <v>653</v>
+        <v>678</v>
       </c>
     </row>
     <row r="153" ht="117" customHeight="1" spans="3:14">
       <c r="C153" s="107" t="s">
-        <v>654</v>
+        <v>679</v>
       </c>
       <c r="D153" s="24"/>
       <c r="E153" s="24"/>
@@ -14125,10 +14276,10 @@
     </row>
     <row r="154" spans="1:14">
       <c r="A154" s="19" t="s">
-        <v>655</v>
+        <v>680</v>
       </c>
       <c r="C154" s="24" t="s">
-        <v>656</v>
+        <v>681</v>
       </c>
       <c r="D154" s="24"/>
       <c r="E154" s="24"/>
@@ -14144,12 +14295,12 @@
     </row>
     <row r="155" spans="2:2">
       <c r="B155" s="22" t="s">
-        <v>657</v>
+        <v>682</v>
       </c>
     </row>
     <row r="156" ht="145" customHeight="1" spans="3:14">
       <c r="C156" s="24" t="s">
-        <v>658</v>
+        <v>683</v>
       </c>
       <c r="D156" s="24"/>
       <c r="E156" s="24"/>
@@ -14165,12 +14316,12 @@
     </row>
     <row r="157" spans="2:2">
       <c r="B157" s="22" t="s">
-        <v>659</v>
+        <v>684</v>
       </c>
     </row>
     <row r="158" ht="102" customHeight="1" spans="3:14">
       <c r="C158" s="107" t="s">
-        <v>660</v>
+        <v>685</v>
       </c>
       <c r="D158" s="24"/>
       <c r="E158" s="24"/>
@@ -14186,12 +14337,12 @@
     </row>
     <row r="159" spans="2:2">
       <c r="B159" s="22" t="s">
-        <v>661</v>
+        <v>686</v>
       </c>
     </row>
     <row r="160" ht="55" customHeight="1" spans="3:14">
       <c r="C160" s="24" t="s">
-        <v>662</v>
+        <v>687</v>
       </c>
       <c r="D160" s="24"/>
       <c r="E160" s="24"/>
@@ -14207,7 +14358,7 @@
     </row>
     <row r="161" ht="71" customHeight="1" spans="3:14">
       <c r="C161" s="24" t="s">
-        <v>663</v>
+        <v>688</v>
       </c>
       <c r="D161" s="24"/>
       <c r="E161" s="24"/>
@@ -14223,7 +14374,7 @@
     </row>
     <row r="162" ht="162" customHeight="1" spans="3:14">
       <c r="C162" s="24" t="s">
-        <v>664</v>
+        <v>689</v>
       </c>
       <c r="D162" s="24"/>
       <c r="E162" s="24"/>
@@ -14239,7 +14390,7 @@
     </row>
     <row r="163" ht="139" customHeight="1" spans="3:14">
       <c r="C163" s="24" t="s">
-        <v>665</v>
+        <v>690</v>
       </c>
       <c r="D163" s="24"/>
       <c r="E163" s="24"/>
@@ -14255,12 +14406,12 @@
     </row>
     <row r="164" spans="2:2">
       <c r="B164" s="22" t="s">
-        <v>666</v>
+        <v>691</v>
       </c>
     </row>
     <row r="165" ht="54" customHeight="1" spans="3:14">
       <c r="C165" s="24" t="s">
-        <v>667</v>
+        <v>692</v>
       </c>
       <c r="D165" s="24"/>
       <c r="E165" s="24"/>
@@ -14276,20 +14427,20 @@
     </row>
     <row r="167" spans="1:1">
       <c r="A167" s="19" t="s">
-        <v>668</v>
+        <v>693</v>
       </c>
     </row>
     <row r="168" spans="2:2">
       <c r="B168" s="22" t="s">
-        <v>669</v>
+        <v>694</v>
       </c>
     </row>
     <row r="169" ht="77" customHeight="1" spans="3:14">
       <c r="C169" s="23" t="s">
-        <v>670</v>
+        <v>695</v>
       </c>
       <c r="D169" s="34" t="s">
-        <v>671</v>
+        <v>696</v>
       </c>
       <c r="E169" s="24"/>
       <c r="F169" s="24"/>
@@ -14304,12 +14455,12 @@
     </row>
     <row r="171" spans="3:3">
       <c r="C171" s="108" t="s">
-        <v>672</v>
+        <v>697</v>
       </c>
     </row>
     <row r="172" spans="4:14">
       <c r="D172" s="25" t="s">
-        <v>673</v>
+        <v>698</v>
       </c>
       <c r="E172" s="25"/>
       <c r="F172" s="25"/>
@@ -14324,10 +14475,10 @@
     </row>
     <row r="173" spans="2:14">
       <c r="B173" s="22" t="s">
-        <v>674</v>
+        <v>699</v>
       </c>
       <c r="D173" s="35" t="s">
-        <v>675</v>
+        <v>700</v>
       </c>
       <c r="E173" s="35"/>
       <c r="F173" s="35"/>
@@ -14342,7 +14493,7 @@
     </row>
     <row r="174" ht="83" customHeight="1" spans="3:14">
       <c r="C174" s="24" t="s">
-        <v>676</v>
+        <v>701</v>
       </c>
       <c r="D174" s="25"/>
       <c r="E174" s="25"/>
@@ -14358,17 +14509,17 @@
     </row>
     <row r="176" spans="1:1">
       <c r="A176" s="19" t="s">
-        <v>677</v>
+        <v>702</v>
       </c>
     </row>
     <row r="177" spans="2:2">
       <c r="B177" s="22" t="s">
-        <v>678</v>
+        <v>703</v>
       </c>
     </row>
     <row r="178" ht="72" customHeight="1" spans="3:14">
       <c r="C178" s="24" t="s">
-        <v>679</v>
+        <v>704</v>
       </c>
       <c r="D178" s="24"/>
       <c r="E178" s="24"/>
@@ -14384,12 +14535,12 @@
     </row>
     <row r="179" spans="2:2">
       <c r="B179" s="22" t="s">
-        <v>680</v>
+        <v>705</v>
       </c>
     </row>
     <row r="180" ht="58" customHeight="1" spans="3:14">
       <c r="C180" s="24" t="s">
-        <v>681</v>
+        <v>706</v>
       </c>
       <c r="D180" s="24"/>
       <c r="E180" s="24"/>
@@ -14405,12 +14556,12 @@
     </row>
     <row r="182" spans="2:2">
       <c r="B182" s="22" t="s">
-        <v>682</v>
+        <v>707</v>
       </c>
     </row>
     <row r="183" ht="37" customHeight="1" spans="3:14">
       <c r="C183" s="24" t="s">
-        <v>683</v>
+        <v>708</v>
       </c>
       <c r="D183" s="24"/>
       <c r="E183" s="24"/>
@@ -14426,12 +14577,12 @@
     </row>
     <row r="184" spans="2:2">
       <c r="B184" s="22" t="s">
-        <v>684</v>
+        <v>709</v>
       </c>
     </row>
     <row r="185" ht="33" customHeight="1" spans="3:14">
       <c r="C185" s="24" t="s">
-        <v>685</v>
+        <v>710</v>
       </c>
       <c r="D185" s="24"/>
       <c r="E185" s="24"/>
@@ -14447,17 +14598,17 @@
     </row>
     <row r="187" spans="1:1">
       <c r="A187" s="19" t="s">
-        <v>686</v>
+        <v>711</v>
       </c>
     </row>
     <row r="188" spans="2:2">
       <c r="B188" s="22" t="s">
-        <v>687</v>
+        <v>712</v>
       </c>
     </row>
     <row r="189" ht="91" customHeight="1" spans="3:14">
       <c r="C189" s="24" t="s">
-        <v>688</v>
+        <v>713</v>
       </c>
       <c r="D189" s="24"/>
       <c r="E189" s="24"/>
@@ -14473,12 +14624,12 @@
     </row>
     <row r="190" spans="2:2">
       <c r="B190" s="22" t="s">
-        <v>689</v>
+        <v>714</v>
       </c>
     </row>
     <row r="191" ht="178" customHeight="1" spans="3:14">
       <c r="C191" s="24" t="s">
-        <v>690</v>
+        <v>715</v>
       </c>
       <c r="D191" s="24"/>
       <c r="E191" s="24"/>
@@ -14610,339 +14761,339 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="19" t="s">
-        <v>691</v>
+        <v>716</v>
       </c>
     </row>
     <row r="2" ht="35" customHeight="1" spans="2:2">
       <c r="B2" s="20" t="s">
-        <v>692</v>
+        <v>717</v>
       </c>
     </row>
     <row r="3" ht="66" spans="2:2">
       <c r="B3" s="20" t="s">
-        <v>693</v>
+        <v>718</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="19" t="s">
-        <v>694</v>
+        <v>719</v>
       </c>
     </row>
     <row r="6" ht="33" spans="2:2">
       <c r="B6" s="20" t="s">
-        <v>695</v>
+        <v>720</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:1">
       <c r="A8" s="19" t="s">
-        <v>696</v>
+        <v>721</v>
       </c>
     </row>
     <row r="9" ht="82.5" spans="2:2">
       <c r="B9" s="20" t="s">
-        <v>697</v>
+        <v>722</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="19" t="s">
-        <v>698</v>
+        <v>723</v>
       </c>
     </row>
     <row r="12" spans="2:2">
       <c r="B12" s="20" t="s">
-        <v>699</v>
+        <v>724</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" s="19" t="s">
-        <v>700</v>
+        <v>725</v>
       </c>
     </row>
     <row r="16" ht="49.5" spans="2:2">
       <c r="B16" s="20" t="s">
-        <v>701</v>
+        <v>726</v>
       </c>
     </row>
     <row r="18" ht="66" spans="2:2">
       <c r="B18" s="20" t="s">
-        <v>702</v>
+        <v>727</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" s="19" t="s">
-        <v>703</v>
+        <v>728</v>
       </c>
     </row>
     <row r="21" spans="2:2">
       <c r="B21" s="20" t="s">
-        <v>704</v>
+        <v>729</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" s="19" t="s">
-        <v>705</v>
+        <v>730</v>
       </c>
     </row>
     <row r="24" ht="99" spans="2:2">
       <c r="B24" s="20" t="s">
-        <v>706</v>
+        <v>731</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" s="19" t="s">
-        <v>707</v>
+        <v>732</v>
       </c>
     </row>
     <row r="27" ht="165" spans="2:2">
       <c r="B27" s="20" t="s">
-        <v>708</v>
+        <v>733</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" s="19" t="s">
-        <v>709</v>
+        <v>734</v>
       </c>
     </row>
     <row r="30" ht="49.5" spans="2:2">
       <c r="B30" s="20" t="s">
-        <v>710</v>
+        <v>735</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32" s="19" t="s">
-        <v>711</v>
+        <v>736</v>
       </c>
     </row>
     <row r="33" ht="82.5" spans="2:2">
       <c r="B33" s="20" t="s">
-        <v>712</v>
+        <v>737</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" s="19" t="s">
-        <v>713</v>
+        <v>738</v>
       </c>
     </row>
     <row r="36" ht="66" spans="2:2">
       <c r="B36" s="20" t="s">
-        <v>714</v>
+        <v>739</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38" s="19" t="s">
-        <v>715</v>
+        <v>740</v>
       </c>
     </row>
     <row r="39" ht="49.5" spans="2:2">
       <c r="B39" s="20" t="s">
-        <v>716</v>
+        <v>741</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41" s="19" t="s">
-        <v>717</v>
+        <v>742</v>
       </c>
     </row>
     <row r="42" ht="66" spans="2:2">
       <c r="B42" s="20" t="s">
-        <v>718</v>
+        <v>743</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44" s="19" t="s">
-        <v>719</v>
+        <v>744</v>
       </c>
     </row>
     <row r="45" ht="66" spans="2:2">
       <c r="B45" s="20" t="s">
-        <v>720</v>
+        <v>745</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47" s="19" t="s">
-        <v>721</v>
+        <v>746</v>
       </c>
     </row>
     <row r="48" ht="49.5" spans="2:2">
       <c r="B48" s="20" t="s">
-        <v>722</v>
+        <v>747</v>
       </c>
     </row>
     <row r="50" spans="1:1">
       <c r="A50" s="19" t="s">
-        <v>723</v>
+        <v>748</v>
       </c>
     </row>
     <row r="51" ht="82.5" spans="2:2">
       <c r="B51" s="20" t="s">
-        <v>724</v>
+        <v>749</v>
       </c>
     </row>
     <row r="53" spans="1:1">
       <c r="A53" s="19" t="s">
-        <v>725</v>
+        <v>750</v>
       </c>
     </row>
     <row r="54" ht="33" spans="2:2">
       <c r="B54" s="20" t="s">
-        <v>726</v>
+        <v>751</v>
       </c>
     </row>
     <row r="56" spans="1:1">
       <c r="A56" s="19" t="s">
-        <v>727</v>
+        <v>752</v>
       </c>
     </row>
     <row r="57" ht="49.5" spans="2:2">
       <c r="B57" s="20" t="s">
-        <v>728</v>
+        <v>753</v>
       </c>
     </row>
     <row r="59" spans="1:1">
       <c r="A59" s="19" t="s">
-        <v>729</v>
+        <v>754</v>
       </c>
     </row>
     <row r="60" ht="33" spans="2:2">
       <c r="B60" s="20" t="s">
-        <v>730</v>
+        <v>755</v>
       </c>
     </row>
     <row r="62" spans="1:1">
       <c r="A62" s="19" t="s">
-        <v>731</v>
+        <v>756</v>
       </c>
     </row>
     <row r="63" ht="82.5" spans="2:2">
       <c r="B63" s="20" t="s">
-        <v>732</v>
+        <v>757</v>
       </c>
     </row>
     <row r="64" spans="2:2">
       <c r="B64" s="20" t="s">
-        <v>733</v>
+        <v>758</v>
       </c>
     </row>
     <row r="66" spans="1:1">
       <c r="A66" s="19" t="s">
-        <v>734</v>
+        <v>759</v>
       </c>
     </row>
     <row r="67" spans="2:2">
       <c r="B67" s="20" t="s">
-        <v>735</v>
+        <v>760</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69" s="19" t="s">
-        <v>736</v>
+        <v>761</v>
       </c>
       <c r="B69" s="20" t="s">
-        <v>737</v>
+        <v>762</v>
       </c>
     </row>
     <row r="70" ht="33" spans="2:2">
       <c r="B70" s="20" t="s">
-        <v>738</v>
+        <v>763</v>
       </c>
     </row>
     <row r="71" ht="49.5" spans="2:2">
       <c r="B71" s="20" t="s">
-        <v>739</v>
+        <v>764</v>
       </c>
     </row>
     <row r="73" spans="1:1">
       <c r="A73" s="19" t="s">
-        <v>740</v>
+        <v>765</v>
       </c>
     </row>
     <row r="74" ht="33" spans="2:2">
       <c r="B74" s="20" t="s">
-        <v>741</v>
+        <v>766</v>
       </c>
     </row>
     <row r="76" spans="1:1">
       <c r="A76" s="19" t="s">
-        <v>742</v>
+        <v>767</v>
       </c>
     </row>
     <row r="77" spans="2:2">
       <c r="B77" s="20" t="s">
-        <v>743</v>
+        <v>768</v>
       </c>
     </row>
     <row r="79" spans="1:1">
       <c r="A79" s="19" t="s">
-        <v>744</v>
+        <v>769</v>
       </c>
     </row>
     <row r="80" ht="132" spans="2:2">
       <c r="B80" s="20" t="s">
-        <v>745</v>
+        <v>770</v>
       </c>
     </row>
     <row r="82" spans="1:1">
       <c r="A82" s="19" t="s">
-        <v>746</v>
+        <v>771</v>
       </c>
     </row>
     <row r="83" spans="2:2">
       <c r="B83" s="20" t="s">
-        <v>747</v>
+        <v>772</v>
       </c>
     </row>
     <row r="84" ht="49.5" spans="2:2">
       <c r="B84" s="20" t="s">
-        <v>748</v>
+        <v>773</v>
       </c>
     </row>
     <row r="86" spans="1:2">
       <c r="A86" s="19" t="s">
-        <v>749</v>
+        <v>774</v>
       </c>
       <c r="B86" s="20" t="s">
-        <v>750</v>
+        <v>775</v>
       </c>
     </row>
     <row r="87" ht="33" spans="2:2">
       <c r="B87" s="20" t="s">
-        <v>751</v>
+        <v>776</v>
       </c>
     </row>
     <row r="88" ht="66" spans="2:2">
       <c r="B88" s="20" t="s">
-        <v>752</v>
+        <v>777</v>
       </c>
     </row>
     <row r="90" spans="1:2">
       <c r="A90" s="19" t="s">
-        <v>753</v>
+        <v>778</v>
       </c>
       <c r="B90" s="20" t="s">
-        <v>754</v>
+        <v>779</v>
       </c>
     </row>
     <row r="91" ht="148.5" spans="2:2">
       <c r="B91" s="20" t="s">
-        <v>755</v>
+        <v>780</v>
       </c>
     </row>
     <row r="92" ht="82.5" spans="2:2">
       <c r="B92" s="20" t="s">
-        <v>756</v>
+        <v>781</v>
       </c>
     </row>
     <row r="94" ht="33" spans="1:2">
       <c r="A94" s="19" t="s">
-        <v>757</v>
+        <v>782</v>
       </c>
       <c r="B94" s="20" t="s">
-        <v>758</v>
+        <v>783</v>
       </c>
     </row>
     <row r="95" ht="115.5" spans="2:2">
       <c r="B95" s="20" t="s">
-        <v>759</v>
+        <v>784</v>
       </c>
     </row>
   </sheetData>
@@ -14955,10 +15106,10 @@
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:L108"/>
+  <dimension ref="A1:L109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A96" workbookViewId="0">
-      <selection activeCell="D109" sqref="D109"/>
+    <sheetView topLeftCell="A100" workbookViewId="0">
+      <selection activeCell="D100" sqref="D100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.125" defaultRowHeight="24" customHeight="1"/>
@@ -14973,722 +15124,721 @@
   <sheetData>
     <row r="1" customHeight="1" spans="1:3">
       <c r="A1" s="4" t="s">
-        <v>760</v>
+        <v>785</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>761</v>
+        <v>786</v>
       </c>
     </row>
     <row r="2" ht="18" spans="2:3">
       <c r="B2" s="5" t="s">
-        <v>762</v>
+        <v>787</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>763</v>
+        <v>788</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="2:2">
       <c r="B3" s="5" t="s">
-        <v>764</v>
+        <v>789</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="3:4">
       <c r="C4" s="6" t="s">
-        <v>765</v>
+        <v>790</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>766</v>
+        <v>791</v>
       </c>
     </row>
     <row r="5" ht="33" spans="3:4">
       <c r="C5" s="6" t="s">
-        <v>371</v>
+        <v>396</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>767</v>
+        <v>792</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="3:4">
       <c r="C6" s="6" t="s">
-        <v>768</v>
+        <v>793</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>769</v>
+        <v>794</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="2:2">
       <c r="B7" s="5" t="s">
-        <v>770</v>
+        <v>795</v>
       </c>
     </row>
     <row r="8" ht="49.5" spans="3:4">
       <c r="C8" s="11" t="s">
-        <v>771</v>
+        <v>796</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>772</v>
+        <v>797</v>
       </c>
     </row>
     <row r="9" ht="165" spans="3:4">
       <c r="C9" s="6" t="s">
-        <v>773</v>
+        <v>798</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>774</v>
+        <v>799</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="3:3">
       <c r="C10" s="6" t="s">
-        <v>775</v>
+        <v>800</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="3:4">
       <c r="C11" s="6" t="s">
-        <v>776</v>
+        <v>801</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>777</v>
+        <v>802</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="3:3">
       <c r="C12" s="6" t="s">
-        <v>778</v>
+        <v>803</v>
       </c>
     </row>
     <row r="13" ht="82.5" spans="3:4">
       <c r="C13" s="6" t="s">
-        <v>779</v>
+        <v>804</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>780</v>
+        <v>805</v>
       </c>
     </row>
     <row r="14" ht="165" spans="3:4">
       <c r="C14" s="6" t="s">
-        <v>781</v>
+        <v>806</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>782</v>
+        <v>807</v>
       </c>
     </row>
     <row r="17" customHeight="1" spans="2:3">
       <c r="B17" s="12" t="s">
-        <v>783</v>
+        <v>808</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>784</v>
+        <v>809</v>
       </c>
     </row>
     <row r="18" customHeight="1" spans="3:3">
       <c r="C18" s="6" t="s">
-        <v>785</v>
-      </c>
-    </row>
-    <row r="19" ht="198" spans="3:4">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="19" ht="231" spans="3:4">
       <c r="C19" s="13" t="s">
-        <v>786</v>
+        <v>811</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>787</v>
+        <v>812</v>
       </c>
     </row>
     <row r="20" ht="99" spans="3:4">
       <c r="C20" s="13" t="s">
-        <v>788</v>
+        <v>813</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>789</v>
-      </c>
-    </row>
-    <row r="21" ht="99" spans="3:4">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="21" ht="148.5" spans="3:4">
       <c r="C21" s="6" t="s">
-        <v>790</v>
+        <v>815</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>791</v>
-      </c>
-    </row>
-    <row r="22" ht="115.5" spans="3:4">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="22" ht="132" spans="3:4">
       <c r="C22" s="6" t="s">
-        <v>792</v>
+        <v>817</v>
       </c>
       <c r="D22" s="10" t="s">
-        <v>793</v>
+        <v>818</v>
       </c>
     </row>
     <row r="23" ht="33" spans="3:4">
       <c r="C23" s="6" t="s">
-        <v>794</v>
+        <v>819</v>
       </c>
       <c r="D23" s="10" t="s">
-        <v>795</v>
+        <v>820</v>
       </c>
     </row>
     <row r="25" customHeight="1" spans="2:2">
       <c r="B25" s="5" t="s">
-        <v>796</v>
+        <v>821</v>
       </c>
     </row>
     <row r="26" customHeight="1" spans="3:4">
       <c r="C26" s="6" t="s">
-        <v>797</v>
+        <v>822</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>798</v>
+        <v>823</v>
       </c>
     </row>
     <row r="27" customHeight="1" spans="3:3">
       <c r="C27" s="6" t="s">
-        <v>799</v>
+        <v>824</v>
       </c>
     </row>
     <row r="28" ht="33" spans="3:4">
       <c r="C28" s="13" t="s">
-        <v>800</v>
+        <v>825</v>
       </c>
       <c r="D28" s="10" t="s">
-        <v>801</v>
+        <v>826</v>
       </c>
     </row>
     <row r="29" customHeight="1" spans="3:4">
       <c r="C29" s="13" t="s">
-        <v>802</v>
+        <v>827</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>803</v>
+        <v>828</v>
       </c>
     </row>
     <row r="30" ht="33" spans="3:4">
       <c r="C30" s="13" t="s">
-        <v>804</v>
+        <v>829</v>
       </c>
       <c r="D30" s="10" t="s">
-        <v>805</v>
+        <v>830</v>
       </c>
     </row>
     <row r="31" customHeight="1" spans="3:4">
       <c r="C31" s="13" t="s">
-        <v>806</v>
+        <v>831</v>
       </c>
       <c r="D31" s="10" t="s">
-        <v>807</v>
+        <v>832</v>
       </c>
     </row>
     <row r="32" customHeight="1" spans="2:4">
       <c r="B32" s="5" t="s">
-        <v>808</v>
+        <v>833</v>
       </c>
       <c r="D32" s="7" t="s">
-        <v>809</v>
+        <v>834</v>
       </c>
     </row>
     <row r="33" ht="49.5" spans="3:4">
       <c r="C33" s="6" t="s">
-        <v>810</v>
+        <v>835</v>
       </c>
       <c r="D33" s="10" t="s">
-        <v>811</v>
+        <v>836</v>
       </c>
     </row>
     <row r="34" customHeight="1" spans="3:4">
       <c r="C34" s="6" t="s">
-        <v>812</v>
+        <v>837</v>
       </c>
       <c r="D34" s="7" t="s">
-        <v>813</v>
+        <v>838</v>
       </c>
     </row>
     <row r="35" ht="33" spans="3:4">
       <c r="C35" s="11" t="s">
-        <v>814</v>
+        <v>839</v>
       </c>
       <c r="D35" s="10" t="s">
-        <v>815</v>
+        <v>840</v>
       </c>
     </row>
     <row r="36" customHeight="1" spans="3:4">
       <c r="C36" s="6" t="s">
-        <v>816</v>
+        <v>841</v>
       </c>
       <c r="D36" s="7" t="s">
-        <v>817</v>
+        <v>842</v>
       </c>
     </row>
     <row r="37" customHeight="1" spans="3:4">
       <c r="C37" s="6" t="s">
-        <v>818</v>
+        <v>843</v>
       </c>
       <c r="D37" s="7" t="s">
-        <v>819</v>
+        <v>844</v>
       </c>
     </row>
     <row r="38" customHeight="1" spans="1:4">
       <c r="A38" s="4" t="s">
-        <v>820</v>
+        <v>845</v>
       </c>
       <c r="D38" s="7" t="s">
-        <v>821</v>
+        <v>846</v>
       </c>
     </row>
     <row r="39" customHeight="1" spans="2:4">
       <c r="B39" s="5" t="s">
-        <v>822</v>
+        <v>847</v>
       </c>
       <c r="D39" s="10" t="s">
-        <v>823</v>
+        <v>848</v>
       </c>
     </row>
     <row r="40" customHeight="1" spans="3:4">
       <c r="C40" s="6" t="s">
-        <v>824</v>
+        <v>849</v>
       </c>
       <c r="D40" s="7" t="s">
-        <v>825</v>
+        <v>850</v>
       </c>
     </row>
     <row r="41" customHeight="1" spans="3:4">
       <c r="C41" s="6" t="s">
-        <v>826</v>
+        <v>851</v>
       </c>
       <c r="D41" s="7" t="s">
-        <v>827</v>
+        <v>852</v>
       </c>
     </row>
     <row r="42" customHeight="1" spans="2:2">
       <c r="B42" s="6" t="s">
-        <v>828</v>
+        <v>853</v>
       </c>
     </row>
     <row r="43" ht="66" spans="3:4">
       <c r="C43" s="6" t="s">
-        <v>829</v>
+        <v>854</v>
       </c>
       <c r="D43" s="10" t="s">
-        <v>830</v>
+        <v>855</v>
       </c>
     </row>
     <row r="44" ht="33" spans="3:4">
       <c r="C44" s="6" t="s">
-        <v>831</v>
+        <v>234</v>
       </c>
       <c r="D44" s="10" t="s">
-        <v>832</v>
+        <v>856</v>
       </c>
     </row>
     <row r="45" ht="148" customHeight="1" spans="3:4">
       <c r="C45" s="6" t="s">
-        <v>833</v>
+        <v>857</v>
       </c>
       <c r="D45" s="10" t="s">
-        <v>834</v>
+        <v>858</v>
       </c>
     </row>
     <row r="46" customHeight="1" spans="3:4">
       <c r="C46" s="6" t="s">
-        <v>835</v>
+        <v>236</v>
       </c>
       <c r="D46" s="7" t="s">
-        <v>836</v>
+        <v>859</v>
       </c>
     </row>
     <row r="47" customHeight="1" spans="2:4">
       <c r="B47" s="5" t="s">
-        <v>837</v>
+        <v>860</v>
       </c>
       <c r="C47" s="6" t="s">
-        <v>797</v>
+        <v>822</v>
       </c>
       <c r="D47" s="7" t="s">
-        <v>798</v>
+        <v>823</v>
       </c>
     </row>
     <row r="48" ht="120" customHeight="1" spans="3:4">
       <c r="C48" s="6" t="s">
-        <v>829</v>
+        <v>854</v>
       </c>
       <c r="D48" s="10" t="s">
-        <v>838</v>
+        <v>861</v>
       </c>
     </row>
     <row r="49" ht="33" spans="3:4">
       <c r="C49" s="6" t="s">
-        <v>831</v>
+        <v>234</v>
       </c>
       <c r="D49" s="10" t="s">
-        <v>839</v>
+        <v>862</v>
       </c>
     </row>
     <row r="50" ht="115.5" spans="3:4">
       <c r="C50" s="6" t="s">
-        <v>833</v>
+        <v>857</v>
       </c>
       <c r="D50" s="10" t="s">
-        <v>840</v>
+        <v>863</v>
       </c>
     </row>
     <row r="51" customHeight="1" spans="3:4">
       <c r="C51" s="6" t="s">
-        <v>835</v>
+        <v>236</v>
       </c>
       <c r="D51" s="7" t="s">
-        <v>841</v>
+        <v>864</v>
       </c>
     </row>
     <row r="52" ht="33" spans="2:4">
       <c r="B52" s="5" t="s">
-        <v>842</v>
+        <v>865</v>
       </c>
       <c r="C52" s="6" t="s">
-        <v>797</v>
+        <v>822</v>
       </c>
       <c r="D52" s="10" t="s">
-        <v>843</v>
+        <v>866</v>
       </c>
     </row>
     <row r="53" ht="33" spans="3:4">
       <c r="C53" s="6" t="s">
-        <v>829</v>
+        <v>854</v>
       </c>
       <c r="D53" s="10" t="s">
-        <v>844</v>
+        <v>867</v>
       </c>
     </row>
     <row r="54" ht="27" customHeight="1" spans="3:4">
       <c r="C54" s="6" t="s">
-        <v>831</v>
+        <v>234</v>
       </c>
       <c r="D54" s="10" t="s">
-        <v>845</v>
+        <v>868</v>
       </c>
     </row>
     <row r="55" ht="165" spans="3:4">
       <c r="C55" s="6" t="s">
-        <v>833</v>
+        <v>857</v>
       </c>
       <c r="D55" s="10" t="s">
-        <v>846</v>
+        <v>869</v>
       </c>
     </row>
     <row r="56" customHeight="1" spans="3:4">
       <c r="C56" s="6" t="s">
-        <v>835</v>
+        <v>236</v>
       </c>
       <c r="D56" s="7" t="s">
-        <v>847</v>
+        <v>870</v>
       </c>
     </row>
     <row r="57" customHeight="1" spans="1:1">
       <c r="A57" s="4" t="s">
-        <v>848</v>
+        <v>871</v>
       </c>
     </row>
     <row r="58" ht="49.5" spans="2:4">
       <c r="B58" s="14" t="s">
-        <v>849</v>
+        <v>872</v>
       </c>
       <c r="C58" s="14"/>
       <c r="D58" s="10" t="s">
-        <v>850</v>
+        <v>873</v>
       </c>
     </row>
     <row r="59" ht="31" customHeight="1" spans="2:4">
       <c r="B59" s="15" t="s">
-        <v>851</v>
+        <v>874</v>
       </c>
       <c r="C59" s="15"/>
       <c r="D59" s="10" t="s">
-        <v>852</v>
-      </c>
-    </row>
-    <row r="60" spans="2:4">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="60" ht="18" spans="2:4">
       <c r="B60" s="15" t="s">
-        <v>853</v>
+        <v>876</v>
       </c>
       <c r="C60" s="15"/>
       <c r="D60" s="7" t="s">
-        <v>845</v>
+        <v>868</v>
       </c>
     </row>
     <row r="61" ht="61" customHeight="1" spans="2:4">
       <c r="B61" s="15" t="s">
-        <v>854</v>
+        <v>877</v>
       </c>
       <c r="C61" s="15"/>
       <c r="D61" s="10" t="s">
-        <v>855</v>
+        <v>878</v>
       </c>
     </row>
     <row r="62" ht="90" customHeight="1" spans="2:4">
       <c r="B62" s="15" t="s">
-        <v>856</v>
+        <v>879</v>
       </c>
       <c r="C62" s="15"/>
       <c r="D62" s="10" t="s">
-        <v>857</v>
-      </c>
-    </row>
-    <row r="63" ht="165" spans="2:4">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="63" ht="181.5" spans="2:4">
       <c r="B63" s="16" t="s">
-        <v>858</v>
+        <v>881</v>
       </c>
       <c r="C63" s="16"/>
       <c r="D63" s="10" t="s">
-        <v>859</v>
-      </c>
-    </row>
-    <row r="64" spans="2:4">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="64" ht="18" spans="2:4">
       <c r="B64" s="16"/>
       <c r="C64" s="16" t="s">
-        <v>860</v>
+        <v>883</v>
       </c>
       <c r="D64" s="10" t="s">
-        <v>861</v>
+        <v>884</v>
       </c>
     </row>
     <row r="65" ht="33" spans="2:4">
       <c r="B65" s="16"/>
       <c r="C65" s="16" t="s">
-        <v>862</v>
+        <v>885</v>
       </c>
       <c r="D65" s="10" t="s">
-        <v>863</v>
-      </c>
-    </row>
-    <row r="66" spans="2:4">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="66" ht="18" spans="2:4">
       <c r="B66" s="16"/>
       <c r="C66" s="16" t="s">
-        <v>864</v>
+        <v>887</v>
       </c>
       <c r="D66" s="10" t="s">
-        <v>865</v>
-      </c>
-    </row>
-    <row r="67" spans="2:4">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="67" ht="18" spans="2:4">
       <c r="B67" s="16"/>
       <c r="C67" s="16" t="s">
-        <v>866</v>
+        <v>889</v>
       </c>
       <c r="D67" s="10" t="s">
-        <v>867</v>
-      </c>
-    </row>
-    <row r="68" spans="2:4">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="68" ht="18" spans="2:4">
       <c r="B68" s="16"/>
       <c r="C68" s="16" t="s">
-        <v>868</v>
+        <v>891</v>
       </c>
       <c r="D68" s="10" t="s">
-        <v>869</v>
-      </c>
-    </row>
-    <row r="69" spans="2:4">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="69" ht="18" spans="2:4">
       <c r="B69" s="16"/>
       <c r="C69" s="16" t="s">
-        <v>870</v>
+        <v>893</v>
       </c>
       <c r="D69" s="10" t="s">
-        <v>871</v>
+        <v>894</v>
       </c>
     </row>
     <row r="70" ht="56" customHeight="1" spans="2:3">
       <c r="B70" s="15" t="s">
-        <v>872</v>
+        <v>895</v>
       </c>
       <c r="C70" s="16"/>
     </row>
     <row r="71" ht="29" customHeight="1" spans="2:4">
       <c r="B71" s="16"/>
       <c r="C71" s="16" t="s">
-        <v>873</v>
+        <v>896</v>
       </c>
       <c r="D71" s="7" t="s">
-        <v>874</v>
+        <v>897</v>
       </c>
     </row>
     <row r="72" ht="29" customHeight="1" spans="2:4">
       <c r="B72" s="16"/>
       <c r="C72" s="16" t="s">
-        <v>875</v>
+        <v>898</v>
       </c>
       <c r="D72" s="7" t="s">
-        <v>876</v>
+        <v>899</v>
       </c>
     </row>
     <row r="73" ht="18" spans="2:3">
       <c r="B73" s="15" t="s">
-        <v>877</v>
+        <v>900</v>
       </c>
       <c r="C73" s="15"/>
     </row>
     <row r="74" customHeight="1" spans="1:4">
       <c r="A74" s="4" t="s">
-        <v>878</v>
-      </c>
-      <c r="B74" s="5"/>
+        <v>901</v>
+      </c>
       <c r="D74" s="7" t="s">
-        <v>879</v>
+        <v>902</v>
       </c>
     </row>
     <row r="75" ht="82.5" spans="2:4">
       <c r="B75" s="5" t="s">
-        <v>880</v>
+        <v>903</v>
       </c>
       <c r="C75" s="6" t="s">
-        <v>881</v>
+        <v>904</v>
       </c>
       <c r="D75" s="10" t="s">
-        <v>882</v>
+        <v>905</v>
       </c>
     </row>
     <row r="76" customHeight="1" spans="3:4">
       <c r="C76" s="6" t="s">
-        <v>883</v>
+        <v>906</v>
       </c>
       <c r="D76" s="7" t="s">
-        <v>884</v>
+        <v>907</v>
       </c>
     </row>
     <row r="77" customHeight="1" spans="2:3">
       <c r="B77" s="5" t="s">
-        <v>885</v>
+        <v>908</v>
       </c>
       <c r="C77" s="6" t="s">
-        <v>881</v>
+        <v>904</v>
       </c>
     </row>
     <row r="78" customHeight="1" spans="3:3">
       <c r="C78" s="6" t="s">
-        <v>883</v>
+        <v>906</v>
       </c>
     </row>
     <row r="79" customHeight="1" spans="1:1">
       <c r="A79" s="4" t="s">
-        <v>886</v>
+        <v>909</v>
       </c>
     </row>
     <row r="80" ht="132" spans="2:4">
       <c r="B80" s="5" t="s">
-        <v>887</v>
+        <v>910</v>
       </c>
       <c r="C80" s="6" t="s">
-        <v>888</v>
+        <v>911</v>
       </c>
       <c r="D80" s="10" t="s">
-        <v>889</v>
+        <v>912</v>
       </c>
     </row>
     <row r="81" customHeight="1" spans="2:4">
       <c r="B81" s="5" t="s">
-        <v>890</v>
+        <v>913</v>
       </c>
       <c r="D81" s="7" t="s">
-        <v>891</v>
+        <v>914</v>
       </c>
     </row>
     <row r="82" customHeight="1" spans="2:4">
       <c r="B82" s="5" t="s">
-        <v>892</v>
+        <v>915</v>
       </c>
       <c r="D82" s="7" t="s">
-        <v>893</v>
+        <v>916</v>
       </c>
     </row>
     <row r="83" customHeight="1" spans="2:4">
       <c r="B83" s="5" t="s">
-        <v>831</v>
+        <v>234</v>
       </c>
       <c r="D83" s="7" t="s">
-        <v>894</v>
+        <v>917</v>
       </c>
     </row>
     <row r="84" customHeight="1" spans="1:1">
       <c r="A84" s="4" t="s">
-        <v>895</v>
-      </c>
-    </row>
-    <row r="85" spans="2:4">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="85" ht="18" spans="2:4">
       <c r="B85" s="5" t="s">
-        <v>574</v>
+        <v>599</v>
       </c>
       <c r="C85" s="6" t="s">
-        <v>896</v>
+        <v>919</v>
       </c>
       <c r="D85" s="109" t="s">
-        <v>897</v>
+        <v>920</v>
       </c>
     </row>
     <row r="86" customHeight="1" spans="2:4">
       <c r="B86" s="5" t="s">
-        <v>572</v>
+        <v>597</v>
       </c>
       <c r="C86" s="6" t="s">
-        <v>898</v>
+        <v>921</v>
       </c>
       <c r="D86" s="110" t="s">
-        <v>899</v>
+        <v>922</v>
       </c>
     </row>
     <row r="87" customHeight="1" spans="2:4">
       <c r="B87" s="5" t="s">
-        <v>900</v>
+        <v>923</v>
       </c>
       <c r="C87" s="6" t="s">
-        <v>901</v>
+        <v>924</v>
       </c>
       <c r="D87" s="7" t="s">
-        <v>902</v>
+        <v>925</v>
       </c>
     </row>
     <row r="88" customHeight="1" spans="3:4">
       <c r="C88" s="6" t="s">
-        <v>903</v>
+        <v>926</v>
       </c>
       <c r="D88" s="7" t="s">
-        <v>904</v>
+        <v>927</v>
       </c>
     </row>
     <row r="89" customHeight="1" spans="3:4">
       <c r="C89" s="6" t="s">
-        <v>905</v>
+        <v>928</v>
       </c>
       <c r="D89" s="7" t="s">
-        <v>906</v>
+        <v>929</v>
       </c>
     </row>
     <row r="90" customHeight="1" spans="2:4">
       <c r="B90" s="5" t="s">
-        <v>578</v>
+        <v>603</v>
       </c>
       <c r="C90" s="6" t="s">
-        <v>907</v>
+        <v>930</v>
       </c>
       <c r="D90" s="7" t="s">
-        <v>908</v>
+        <v>931</v>
       </c>
     </row>
     <row r="91" customHeight="1" spans="3:4">
       <c r="C91" s="6" t="s">
-        <v>909</v>
+        <v>932</v>
       </c>
       <c r="D91" s="7" t="s">
-        <v>910</v>
+        <v>933</v>
       </c>
     </row>
     <row r="92" customHeight="1" spans="3:4">
       <c r="C92" s="17" t="s">
-        <v>911</v>
+        <v>934</v>
       </c>
       <c r="D92" s="7" t="s">
-        <v>912</v>
+        <v>935</v>
       </c>
     </row>
     <row r="93" customHeight="1" spans="2:12">
       <c r="B93" s="4"/>
       <c r="C93" s="17" t="s">
-        <v>913</v>
+        <v>936</v>
       </c>
       <c r="D93" s="6" t="s">
-        <v>914</v>
+        <v>937</v>
       </c>
       <c r="E93" s="7"/>
       <c r="L93" s="8"/>
@@ -15696,132 +15846,139 @@
     <row r="94" customHeight="1" spans="2:12">
       <c r="B94" s="4"/>
       <c r="C94" s="17" t="s">
-        <v>915</v>
+        <v>938</v>
       </c>
       <c r="D94" s="6" t="s">
-        <v>916</v>
+        <v>939</v>
       </c>
       <c r="E94" s="7"/>
       <c r="L94" s="8"/>
     </row>
     <row r="95" ht="33" spans="2:4">
       <c r="B95" s="5" t="s">
-        <v>917</v>
+        <v>940</v>
       </c>
       <c r="C95" s="18" t="s">
-        <v>918</v>
+        <v>941</v>
       </c>
       <c r="D95" s="10" t="s">
-        <v>919</v>
+        <v>942</v>
       </c>
     </row>
     <row r="97" customHeight="1" spans="2:4">
       <c r="B97" s="5" t="s">
-        <v>920</v>
-      </c>
-      <c r="C97" s="6"/>
+        <v>943</v>
+      </c>
       <c r="D97" s="7" t="s">
-        <v>921</v>
+        <v>944</v>
       </c>
     </row>
     <row r="98" customHeight="1" spans="2:4">
       <c r="B98" s="5" t="s">
-        <v>922</v>
+        <v>945</v>
       </c>
       <c r="C98" s="6" t="s">
-        <v>923</v>
+        <v>946</v>
       </c>
       <c r="D98" s="7" t="s">
-        <v>924</v>
+        <v>947</v>
       </c>
     </row>
     <row r="99" customHeight="1" spans="2:4">
       <c r="B99" s="5" t="s">
-        <v>925</v>
+        <v>948</v>
       </c>
       <c r="C99" s="6" t="s">
-        <v>926</v>
+        <v>949</v>
       </c>
       <c r="D99" s="7" t="s">
-        <v>927</v>
+        <v>950</v>
       </c>
     </row>
     <row r="100" customHeight="1" spans="3:4">
       <c r="C100" s="6" t="s">
-        <v>928</v>
+        <v>951</v>
       </c>
       <c r="D100" s="7" t="s">
-        <v>929</v>
+        <v>952</v>
       </c>
     </row>
     <row r="101" customHeight="1" spans="3:4">
       <c r="C101" s="6" t="s">
-        <v>930</v>
+        <v>953</v>
       </c>
       <c r="D101" s="7" t="s">
-        <v>931</v>
+        <v>954</v>
       </c>
     </row>
     <row r="102" customHeight="1" spans="3:4">
       <c r="C102" s="6" t="s">
-        <v>932</v>
+        <v>955</v>
       </c>
       <c r="D102" s="7" t="s">
-        <v>933</v>
+        <v>956</v>
       </c>
     </row>
     <row r="103" customHeight="1" spans="3:4">
       <c r="C103" s="6" t="s">
-        <v>934</v>
+        <v>957</v>
       </c>
       <c r="D103" s="7" t="s">
-        <v>935</v>
+        <v>958</v>
       </c>
     </row>
     <row r="104" customHeight="1" spans="2:3">
       <c r="B104" s="5" t="s">
-        <v>936</v>
+        <v>959</v>
       </c>
       <c r="C104" s="6" t="s">
-        <v>937</v>
+        <v>960</v>
       </c>
     </row>
     <row r="105" customHeight="1" spans="2:3">
       <c r="B105" s="5" t="s">
-        <v>938</v>
+        <v>961</v>
       </c>
       <c r="C105" s="6" t="s">
-        <v>939</v>
+        <v>962</v>
       </c>
     </row>
     <row r="106" customHeight="1" spans="2:4">
       <c r="B106" s="5" t="s">
-        <v>940</v>
+        <v>963</v>
       </c>
       <c r="C106" s="6" t="s">
-        <v>941</v>
+        <v>964</v>
       </c>
       <c r="D106" s="7" t="s">
-        <v>942</v>
+        <v>965</v>
       </c>
     </row>
     <row r="107" customHeight="1" spans="2:4">
       <c r="B107" s="5" t="s">
-        <v>943</v>
+        <v>966</v>
       </c>
       <c r="C107" s="6" t="s">
-        <v>944</v>
+        <v>967</v>
       </c>
       <c r="D107" s="7" t="s">
-        <v>945</v>
+        <v>968</v>
       </c>
     </row>
     <row r="108" customHeight="1" spans="3:4">
       <c r="C108" s="6" t="s">
-        <v>946</v>
+        <v>969</v>
       </c>
       <c r="D108" s="7" t="s">
-        <v>947</v>
+        <v>970</v>
+      </c>
+    </row>
+    <row r="109" customHeight="1" spans="3:4">
+      <c r="C109" s="6" t="s">
+        <v>971</v>
+      </c>
+      <c r="D109" s="7" t="s">
+        <v>972</v>
       </c>
     </row>
   </sheetData>

--- a/linux.xlsx
+++ b/linux.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1256">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1347">
   <si>
     <t>ab</t>
   </si>
@@ -682,6 +682,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="楷体"/>
+        <charset val="134"/>
+      </rPr>
       <t>文件名称符合name，</t>
     </r>
     <r>
@@ -1051,6 +1057,283 @@
   </si>
   <si>
     <t>指定排序依据的字符</t>
+  </si>
+  <si>
+    <t>uniq</t>
+  </si>
+  <si>
+    <t>用于检查及删除文本文件中重复出现的行列</t>
+  </si>
+  <si>
+    <t>仅显示出一次的行列</t>
+  </si>
+  <si>
+    <t>在每列旁边显示该行重复出现的次数</t>
+  </si>
+  <si>
+    <t>仅显示重复出现的行列</t>
+  </si>
+  <si>
+    <t>忽略比较指定的前N个字符</t>
+  </si>
+  <si>
+    <t>指定要比较的最大N个字符</t>
+  </si>
+  <si>
+    <t>生成\0字节的终止符</t>
+  </si>
+  <si>
+    <t>rename</t>
+  </si>
+  <si>
+    <t>用字符串替换的方式批量改变文件名【支持正则表达式】</t>
+  </si>
+  <si>
+    <t>rename [选项] 表达式 替换文件...</t>
+  </si>
+  <si>
+    <t>解释正在进行的操作</t>
+  </si>
+  <si>
+    <t>在符号链接上执行</t>
+  </si>
+  <si>
+    <t>comm</t>
+  </si>
+  <si>
+    <t>用于比较两个已排过序的文件</t>
+  </si>
+  <si>
+    <t>-1</t>
+  </si>
+  <si>
+    <t>不显示只在第1个文件里出现过的列。</t>
+  </si>
+  <si>
+    <t>-2</t>
+  </si>
+  <si>
+    <t>不显示只在第2个文件里出现过的列。</t>
+  </si>
+  <si>
+    <t>-3</t>
+  </si>
+  <si>
+    <t>不显示只在第1和第2个文件里出现过的列。</t>
+  </si>
+  <si>
+    <t>ls</t>
+  </si>
+  <si>
+    <t>显示指定工作目录下之内容</t>
+  </si>
+  <si>
+    <t>显示所有文件及目录(ls内定将文件名或目录名称开头为"."的视为隐藏档，不会列出)</t>
+  </si>
+  <si>
+    <t>除文件名称外，亦将文件型态、权限、拥有者、文件大小等资讯详细列出</t>
+  </si>
+  <si>
+    <t>将文件以相反次序显示(原定依英文字母次序)</t>
+  </si>
+  <si>
+    <t>将文件依建立时间之先后次序列出</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-A </t>
+  </si>
+  <si>
+    <t>同 -a ，但不列出 "." (目前目录) 及 ".." (父目录)</t>
+  </si>
+  <si>
+    <t>-F</t>
+  </si>
+  <si>
+    <t>在列出的文件名称后加一符号；例如可执行档则加 "*", 目录则加 "/"</t>
+  </si>
+  <si>
+    <t>若目录下有文件，则以下之文件亦皆依序列出</t>
+  </si>
+  <si>
+    <t>-：普通文件</t>
+  </si>
+  <si>
+    <t>d：目录</t>
+  </si>
+  <si>
+    <t>c: 字型设备</t>
+  </si>
+  <si>
+    <t>b：块设备</t>
+  </si>
+  <si>
+    <t>s：套接字</t>
+  </si>
+  <si>
+    <t>p：管道</t>
+  </si>
+  <si>
+    <t>chmod</t>
+  </si>
+  <si>
+    <t>设置文件权限</t>
+  </si>
+  <si>
+    <t>chown</t>
+  </si>
+  <si>
+    <t>设置文件或目录所有权</t>
+  </si>
+  <si>
+    <t>touch</t>
+  </si>
+  <si>
+    <t>新建空白文件</t>
+  </si>
+  <si>
+    <t>只更改文件访问时间</t>
+  </si>
+  <si>
+    <t>值更改文件修改时间</t>
+  </si>
+  <si>
+    <t>指定更改特定时间</t>
+  </si>
+  <si>
+    <t>ln</t>
+  </si>
+  <si>
+    <t>同步的链接</t>
+  </si>
+  <si>
+    <t>删除，覆盖以前建立的链接</t>
+  </si>
+  <si>
+    <t>允许超级用户制作目录的硬链接</t>
+  </si>
+  <si>
+    <t>强制执行</t>
+  </si>
+  <si>
+    <t>交互模式，文件存在则提示用户是否覆盖</t>
+  </si>
+  <si>
+    <t>把符号链接视为一般目录</t>
+  </si>
+  <si>
+    <t>软链接(符号链接)</t>
+  </si>
+  <si>
+    <t>显示详细的处理过程</t>
+  </si>
+  <si>
+    <t>file</t>
+  </si>
+  <si>
+    <t>用于辨识文件类型。</t>
+  </si>
+  <si>
+    <t>列出辨识结果时，不显示文件名称。</t>
+  </si>
+  <si>
+    <t>详细显示指令执行过程，便于排错或分析程序执行的情形。</t>
+  </si>
+  <si>
+    <t>指定名称文件，其内容有一个或多个文件名称时，让file依序辨识这些文件，格式为每列一个文件名称。</t>
+  </si>
+  <si>
+    <t>直接显示符号连接所指向的文件的类别。</t>
+  </si>
+  <si>
+    <t>&lt;魔法数字文件&gt;指定魔法数字文件。</t>
+  </si>
+  <si>
+    <t>显示版本信息。</t>
+  </si>
+  <si>
+    <t>尝试去解读压缩文件的内容。</t>
+  </si>
+  <si>
+    <t>declare</t>
+  </si>
+  <si>
+    <t>用于声明 shell 变量。</t>
+  </si>
+  <si>
+    <t>+/-</t>
+  </si>
+  <si>
+    <t>-可用来指定变量的属性，"+"则是取消变量所设的属性。</t>
+  </si>
+  <si>
+    <t>仅显示函数。</t>
+  </si>
+  <si>
+    <t>r</t>
+  </si>
+  <si>
+    <t>将变量设置为只读。</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>指定的变量会成为环境变量，可供shell以外的程序来使用。</t>
+  </si>
+  <si>
+    <t>[设置值]可以是数值，字符串或运算式。</t>
+  </si>
+  <si>
+    <t>cut</t>
+  </si>
+  <si>
+    <t>从文件的每一行剪切字节、字符和字段并将这些字节、字符和字段写至标准输出。</t>
+  </si>
+  <si>
+    <t>以字节为单位进行分割。这些字节位置将忽略多字节字符边界，除非也指定了 -n 标志。</t>
+  </si>
+  <si>
+    <t>以字符为单位进行分割。</t>
+  </si>
+  <si>
+    <t>自定义分隔符，默认为制表符。</t>
+  </si>
+  <si>
+    <t>与-d一起使用，指定显示哪个区域。</t>
+  </si>
+  <si>
+    <t>取消分割多字节字符。仅和 -b 标志一起使用。如果字符的最后一个字节落在由 -b 标志的 List 参数指示的
+范围之内，该字符将被写出；否则，该字符将被排除</t>
+  </si>
+  <si>
+    <t>dd</t>
+  </si>
+  <si>
+    <t>转换和拷贝文件</t>
+  </si>
+  <si>
+    <t>if</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 从 file 中读而不是标准输入</t>
+  </si>
+  <si>
+    <t>of</t>
+  </si>
+  <si>
+    <t>写到 file 里去而不是标准输出。除非指定 conv=notrunc ，否则，  dd将把 file 截为O字节（或由 seek= 选项指定的大小）</t>
+  </si>
+  <si>
+    <t>bs</t>
+  </si>
+  <si>
+    <t>bs=bytes一次读和写  bytes 字节。这将覆盖 ibs 和 obs 设定的值（并且，设定bs 不等于同时将 ibs 和  obs  设为同一个值，</t>
+  </si>
+  <si>
+    <t>count</t>
+  </si>
+  <si>
+    <t>只拷贝输入文件的前      blocks     块（每块的大小为     ibs-byte 字节），而不是全部内容，直到文件末尾。</t>
   </si>
   <si>
     <t>NTP时间同步</t>
@@ -3891,9 +4174,6 @@
 其中，print 是最常用的编辑指令；若有多条编辑指令，可用分号分隔。处理文本时，若未指定分隔符，则默认将空格、制表符等作为分隔符。
        df -h | grep "^/dev" | awk '{print $1}'| grep "^/dev/vda1$"</t>
     </r>
-  </si>
-  <si>
-    <t>-F</t>
   </si>
   <si>
     <t>指定分隔符,wk还识别多种单个的字符，比如以“:”或“/”分隔.....</t>
@@ -6021,10 +6301,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="60">
     <font>
@@ -6288,23 +6568,33 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -6316,17 +6606,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6334,14 +6631,6 @@
     <font>
       <b/>
       <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -6356,24 +6645,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6381,7 +6655,22 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6395,25 +6684,16 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -6457,13 +6737,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6475,13 +6755,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6493,13 +6767,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6511,61 +6809,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6583,7 +6833,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6595,13 +6845,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6613,7 +6869,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6625,7 +6881,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6637,7 +6905,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6660,6 +6940,24 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -6675,11 +6973,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -6699,6 +7003,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -6713,185 +7028,150 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="56" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="44" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="39" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="56" fillId="31" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="54" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="46" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="39" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="53" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="44" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="55" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="53" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="44" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="52" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="50" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="48" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="44" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="44" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="45" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="55" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="39" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="44" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="38" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -7229,6 +7509,9 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="11" fontId="37" fillId="0" borderId="0" xfId="7" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="5" fillId="0" borderId="0" xfId="7" applyNumberFormat="1" applyFont="1" applyAlignment="1" quotePrefix="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" quotePrefix="1">
@@ -7587,7 +7870,7 @@
   <sheetData>
     <row r="1" ht="198" spans="1:1">
       <c r="A1" s="3" t="s">
-        <v>1249</v>
+        <v>1340</v>
       </c>
     </row>
     <row r="2" ht="23" customHeight="1"/>
@@ -7644,32 +7927,32 @@
   <sheetData>
     <row r="1" ht="72" spans="1:1">
       <c r="A1" s="2" t="s">
-        <v>1250</v>
+        <v>1341</v>
       </c>
     </row>
     <row r="2" ht="72" spans="1:1">
       <c r="A2" s="2" t="s">
-        <v>1251</v>
+        <v>1342</v>
       </c>
     </row>
     <row r="3" ht="36" spans="1:1">
       <c r="A3" s="2" t="s">
-        <v>1252</v>
+        <v>1343</v>
       </c>
     </row>
     <row r="4" ht="409.5" spans="1:1">
       <c r="A4" s="2" t="s">
-        <v>1253</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="6" ht="72" spans="1:1">
       <c r="A6" s="2" t="s">
-        <v>1254</v>
+        <v>1345</v>
       </c>
     </row>
     <row r="7" ht="54" spans="1:1">
       <c r="A7" s="2" t="s">
-        <v>1255</v>
+        <v>1346</v>
       </c>
     </row>
   </sheetData>
@@ -7681,10 +7964,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:I235"/>
+  <dimension ref="A1:I318"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A220" workbookViewId="0">
-      <selection activeCell="A234" sqref="A234"/>
+    <sheetView tabSelected="1" topLeftCell="A309" workbookViewId="0">
+      <selection activeCell="B319" sqref="B319"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="21" customHeight="1"/>
@@ -9277,6 +9560,547 @@
       </c>
       <c r="C235" s="106" t="s">
         <v>334</v>
+      </c>
+    </row>
+    <row r="237" customHeight="1" spans="1:3">
+      <c r="A237" s="104" t="s">
+        <v>335</v>
+      </c>
+      <c r="C237" s="106" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="238" customHeight="1" spans="2:3">
+      <c r="B238" s="105" t="s">
+        <v>77</v>
+      </c>
+      <c r="C238" s="106" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="239" customHeight="1" spans="2:3">
+      <c r="B239" s="105" t="s">
+        <v>4</v>
+      </c>
+      <c r="C239" s="106" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="240" customHeight="1" spans="2:3">
+      <c r="B240" s="105" t="s">
+        <v>44</v>
+      </c>
+      <c r="C240" s="106" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="241" customHeight="1" spans="2:3">
+      <c r="B241" s="105" t="s">
+        <v>187</v>
+      </c>
+      <c r="C241" s="106" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="242" customHeight="1" spans="2:3">
+      <c r="B242" s="105" t="s">
+        <v>22</v>
+      </c>
+      <c r="C242" s="106" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="243" customHeight="1" spans="2:3">
+      <c r="B243" s="105" t="s">
+        <v>32</v>
+      </c>
+      <c r="C243" s="106" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="245" customHeight="1" spans="1:3">
+      <c r="A245" s="104" t="s">
+        <v>343</v>
+      </c>
+      <c r="C245" s="106" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="246" customHeight="1" spans="2:3">
+      <c r="B246" s="105" t="s">
+        <v>214</v>
+      </c>
+      <c r="C246" s="106" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="247" customHeight="1" spans="2:3">
+      <c r="B247" s="105" t="s">
+        <v>18</v>
+      </c>
+      <c r="C247" s="106" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="248" customHeight="1" spans="2:3">
+      <c r="B248" s="105" t="s">
+        <v>187</v>
+      </c>
+      <c r="C248" s="106" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="251" customHeight="1" spans="1:3">
+      <c r="A251" s="104" t="s">
+        <v>348</v>
+      </c>
+      <c r="C251" s="106" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="252" customHeight="1" spans="2:3">
+      <c r="B252" s="105" t="s">
+        <v>350</v>
+      </c>
+      <c r="C252" s="106" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="253" customHeight="1" spans="2:3">
+      <c r="B253" s="105" t="s">
+        <v>352</v>
+      </c>
+      <c r="C253" s="106" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="254" customHeight="1" spans="2:3">
+      <c r="B254" s="105" t="s">
+        <v>354</v>
+      </c>
+      <c r="C254" s="106" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="256" customHeight="1" spans="1:3">
+      <c r="A256" s="104" t="s">
+        <v>356</v>
+      </c>
+      <c r="C256" s="106" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="257" customHeight="1" spans="2:3">
+      <c r="B257" s="105" t="s">
+        <v>88</v>
+      </c>
+      <c r="C257" s="106" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="258" customHeight="1" spans="2:3">
+      <c r="B258" s="105" t="s">
+        <v>51</v>
+      </c>
+      <c r="C258" s="106" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="259" customHeight="1" spans="2:3">
+      <c r="B259" s="105" t="s">
+        <v>302</v>
+      </c>
+      <c r="C259" s="106" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="260" customHeight="1" spans="2:3">
+      <c r="B260" s="105" t="s">
+        <v>10</v>
+      </c>
+      <c r="C260" s="106" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="261" customHeight="1" spans="2:3">
+      <c r="B261" s="105" t="s">
+        <v>362</v>
+      </c>
+      <c r="C261" s="106" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="262" customHeight="1" spans="2:3">
+      <c r="B262" s="105" t="s">
+        <v>364</v>
+      </c>
+      <c r="C262" s="106" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="263" customHeight="1" spans="2:3">
+      <c r="B263" s="105" t="s">
+        <v>57</v>
+      </c>
+      <c r="C263" s="106" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="264" customHeight="1" spans="2:2">
+      <c r="B264" s="105" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="265" customHeight="1" spans="3:3">
+      <c r="C265" s="110" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="266" customHeight="1" spans="3:3">
+      <c r="C266" s="106" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="267" customHeight="1" spans="3:3">
+      <c r="C267" s="106" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="268" customHeight="1" spans="3:3">
+      <c r="C268" s="106" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="269" customHeight="1" spans="3:3">
+      <c r="C269" s="106" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="270" customHeight="1" spans="3:3">
+      <c r="C270" s="106" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="271" customHeight="1" spans="3:3">
+      <c r="C271" s="106" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="273" customHeight="1" spans="1:3">
+      <c r="A273" s="104" t="s">
+        <v>373</v>
+      </c>
+      <c r="C273" s="106" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="274" customHeight="1" spans="1:3">
+      <c r="A274" s="104" t="s">
+        <v>375</v>
+      </c>
+      <c r="C274" s="106" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="276" customHeight="1" spans="1:3">
+      <c r="A276" s="104" t="s">
+        <v>377</v>
+      </c>
+      <c r="C276" s="106" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="277" customHeight="1" spans="2:3">
+      <c r="B277" s="105" t="s">
+        <v>105</v>
+      </c>
+      <c r="C277" s="106" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="278" customHeight="1" spans="2:3">
+      <c r="B278" s="105" t="s">
+        <v>53</v>
+      </c>
+      <c r="C278" s="106" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="279" customHeight="1" spans="2:3">
+      <c r="B279" s="105" t="s">
+        <v>44</v>
+      </c>
+      <c r="C279" s="106" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="281" customHeight="1" spans="1:3">
+      <c r="A281" s="104" t="s">
+        <v>382</v>
+      </c>
+      <c r="C281" s="106" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="282" customHeight="1" spans="2:3">
+      <c r="B282" s="105" t="s">
+        <v>204</v>
+      </c>
+      <c r="C282" s="106" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="283" customHeight="1" spans="2:3">
+      <c r="B283" s="105" t="s">
+        <v>44</v>
+      </c>
+      <c r="C283" s="106" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="284" customHeight="1" spans="2:3">
+      <c r="B284" s="105" t="s">
+        <v>66</v>
+      </c>
+      <c r="C284" s="106" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="285" customHeight="1" spans="2:3">
+      <c r="B285" s="105" t="s">
+        <v>24</v>
+      </c>
+      <c r="C285" s="106" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="286" customHeight="1" spans="2:3">
+      <c r="B286" s="105" t="s">
+        <v>8</v>
+      </c>
+      <c r="C286" s="106" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="287" customHeight="1" spans="2:3">
+      <c r="B287" s="105" t="s">
+        <v>187</v>
+      </c>
+      <c r="C287" s="106" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="288" customHeight="1" spans="2:3">
+      <c r="B288" s="105" t="s">
+        <v>18</v>
+      </c>
+      <c r="C288" s="106" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="290" customHeight="1" spans="1:3">
+      <c r="A290" s="104" t="s">
+        <v>391</v>
+      </c>
+      <c r="C290" s="106" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="291" customHeight="1" spans="2:3">
+      <c r="B291" s="105" t="s">
+        <v>204</v>
+      </c>
+      <c r="C291" s="106" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="292" customHeight="1" spans="2:3">
+      <c r="B292" s="105" t="s">
+        <v>4</v>
+      </c>
+      <c r="C292" s="106" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="293" customHeight="1" spans="2:3">
+      <c r="B293" s="105" t="s">
+        <v>66</v>
+      </c>
+      <c r="C293" s="106" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="294" customHeight="1" spans="2:3">
+      <c r="B294" s="105" t="s">
+        <v>227</v>
+      </c>
+      <c r="C294" s="106" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="295" customHeight="1" spans="2:3">
+      <c r="B295" s="105" t="s">
+        <v>53</v>
+      </c>
+      <c r="C295" s="106" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="296" customHeight="1" spans="2:3">
+      <c r="B296" s="105" t="s">
+        <v>18</v>
+      </c>
+      <c r="C296" s="106" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="297" customHeight="1" spans="2:3">
+      <c r="B297" s="105" t="s">
+        <v>32</v>
+      </c>
+      <c r="C297" s="106" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="299" customHeight="1" spans="1:3">
+      <c r="A299" s="104" t="s">
+        <v>400</v>
+      </c>
+      <c r="C299" s="106" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="300" customHeight="1" spans="2:3">
+      <c r="B300" s="105" t="s">
+        <v>402</v>
+      </c>
+      <c r="C300" s="106" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="301" customHeight="1" spans="2:3">
+      <c r="B301" s="105" t="s">
+        <v>66</v>
+      </c>
+      <c r="C301" s="106" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="302" customHeight="1" spans="2:3">
+      <c r="B302" s="105" t="s">
+        <v>405</v>
+      </c>
+      <c r="C302" s="106" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="303" customHeight="1" spans="2:3">
+      <c r="B303" s="105" t="s">
+        <v>407</v>
+      </c>
+      <c r="C303" s="106" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="304" customHeight="1" spans="2:3">
+      <c r="B304" s="105" t="s">
+        <v>96</v>
+      </c>
+      <c r="C304" s="106" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="305" customHeight="1" spans="2:2">
+      <c r="B305" s="105" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="307" customHeight="1" spans="1:3">
+      <c r="A307" s="104" t="s">
+        <v>410</v>
+      </c>
+      <c r="C307" s="106" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="308" customHeight="1" spans="2:3">
+      <c r="B308" s="105" t="s">
+        <v>204</v>
+      </c>
+      <c r="C308" s="106" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="309" customHeight="1" spans="2:3">
+      <c r="B309" s="105" t="s">
+        <v>4</v>
+      </c>
+      <c r="C309" s="106" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="310" customHeight="1" spans="2:3">
+      <c r="B310" s="105" t="s">
+        <v>44</v>
+      </c>
+      <c r="C310" s="106" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="311" customHeight="1" spans="2:3">
+      <c r="B311" s="105" t="s">
+        <v>66</v>
+      </c>
+      <c r="C311" s="106" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="312" customHeight="1" spans="2:3">
+      <c r="B312" s="105" t="s">
+        <v>8</v>
+      </c>
+      <c r="C312" s="106" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="314" customHeight="1" spans="1:3">
+      <c r="A314" s="104" t="s">
+        <v>417</v>
+      </c>
+      <c r="C314" s="108" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="315" customHeight="1" spans="2:3">
+      <c r="B315" s="105" t="s">
+        <v>419</v>
+      </c>
+      <c r="C315" s="108" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="316" customHeight="1" spans="2:3">
+      <c r="B316" s="105" t="s">
+        <v>421</v>
+      </c>
+      <c r="C316" s="106" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="317" customHeight="1" spans="2:3">
+      <c r="B317" s="105" t="s">
+        <v>423</v>
+      </c>
+      <c r="C317" s="106" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="318" customHeight="1" spans="2:3">
+      <c r="B318" s="105" t="s">
+        <v>425</v>
+      </c>
+      <c r="C318" s="106" t="s">
+        <v>426</v>
       </c>
     </row>
   </sheetData>
@@ -9312,15 +10136,15 @@
   <sheetData>
     <row r="1" ht="25" customHeight="1" spans="1:3">
       <c r="A1" s="93" t="s">
-        <v>335</v>
+        <v>427</v>
       </c>
       <c r="C1" s="95" t="s">
-        <v>336</v>
+        <v>428</v>
       </c>
     </row>
     <row r="2" spans="2:7">
       <c r="B2" s="96" t="s">
-        <v>337</v>
+        <v>429</v>
       </c>
       <c r="C2" s="97"/>
       <c r="D2" s="97"/>
@@ -9330,47 +10154,47 @@
     </row>
     <row r="3" spans="2:2">
       <c r="B3" s="98" t="s">
-        <v>338</v>
+        <v>430</v>
       </c>
     </row>
     <row r="4" ht="20" customHeight="1" spans="3:3">
       <c r="C4" s="99" t="s">
-        <v>339</v>
+        <v>431</v>
       </c>
     </row>
     <row r="5" ht="48" customHeight="1" spans="3:3">
       <c r="C5" s="100" t="s">
-        <v>340</v>
+        <v>432</v>
       </c>
     </row>
     <row r="6" ht="20" customHeight="1" spans="3:3">
       <c r="C6" s="99" t="s">
-        <v>341</v>
+        <v>433</v>
       </c>
     </row>
     <row r="7" ht="58" customHeight="1" spans="3:3">
       <c r="C7" s="100" t="s">
-        <v>342</v>
+        <v>434</v>
       </c>
     </row>
     <row r="8" ht="21" customHeight="1" spans="3:3">
       <c r="C8" s="99" t="s">
-        <v>343</v>
+        <v>435</v>
       </c>
     </row>
     <row r="9" ht="33" customHeight="1" spans="3:3">
       <c r="C9" s="100" t="s">
-        <v>344</v>
+        <v>436</v>
       </c>
     </row>
     <row r="10" ht="21" customHeight="1" spans="3:3">
       <c r="C10" s="99" t="s">
-        <v>345</v>
+        <v>437</v>
       </c>
     </row>
     <row r="11" ht="43" customHeight="1" spans="3:3">
       <c r="C11" s="100" t="s">
-        <v>346</v>
+        <v>438</v>
       </c>
     </row>
     <row r="12" ht="24" customHeight="1" spans="3:3">
@@ -9378,12 +10202,12 @@
     </row>
     <row r="13" ht="25" customHeight="1" spans="1:1">
       <c r="A13" s="93" t="s">
-        <v>347</v>
+        <v>439</v>
       </c>
     </row>
     <row r="14" ht="50" customHeight="1" spans="2:7">
       <c r="B14" s="101" t="s">
-        <v>348</v>
+        <v>440</v>
       </c>
       <c r="C14" s="42"/>
       <c r="D14" s="42"/>
@@ -9393,7 +10217,7 @@
     </row>
     <row r="15" ht="50" customHeight="1" spans="2:7">
       <c r="B15" s="101" t="s">
-        <v>349</v>
+        <v>441</v>
       </c>
       <c r="C15" s="42"/>
       <c r="D15" s="42"/>
@@ -9403,15 +10227,15 @@
     </row>
     <row r="16" ht="25" customHeight="1" spans="1:3">
       <c r="A16" s="93" t="s">
-        <v>350</v>
+        <v>442</v>
       </c>
       <c r="C16" s="95" t="s">
-        <v>351</v>
+        <v>443</v>
       </c>
     </row>
     <row r="17" ht="51" customHeight="1" spans="2:7">
       <c r="B17" s="101" t="s">
-        <v>352</v>
+        <v>444</v>
       </c>
       <c r="C17" s="42"/>
       <c r="D17" s="42"/>
@@ -9421,7 +10245,7 @@
     </row>
     <row r="18" ht="40" customHeight="1" spans="2:7">
       <c r="B18" s="101" t="s">
-        <v>353</v>
+        <v>445</v>
       </c>
       <c r="C18" s="42"/>
       <c r="D18" s="42"/>
@@ -9431,7 +10255,7 @@
     </row>
     <row r="19" spans="2:7">
       <c r="B19" s="96" t="s">
-        <v>354</v>
+        <v>446</v>
       </c>
       <c r="C19" s="97"/>
       <c r="D19" s="97"/>
@@ -9441,7 +10265,7 @@
     </row>
     <row r="20" spans="2:7">
       <c r="B20" s="96" t="s">
-        <v>355</v>
+        <v>447</v>
       </c>
       <c r="C20" s="97"/>
       <c r="D20" s="97"/>
@@ -9451,11 +10275,11 @@
     </row>
     <row r="22" ht="22" customHeight="1" spans="1:7">
       <c r="A22" s="93" t="s">
-        <v>356</v>
+        <v>448</v>
       </c>
       <c r="B22"/>
       <c r="C22" s="102" t="s">
-        <v>357</v>
+        <v>449</v>
       </c>
       <c r="D22"/>
       <c r="E22"/>
@@ -9465,7 +10289,7 @@
     <row r="23" ht="90" customHeight="1" spans="2:7">
       <c r="B23"/>
       <c r="C23" s="103" t="s">
-        <v>358</v>
+        <v>450</v>
       </c>
       <c r="D23"/>
       <c r="E23"/>
@@ -9493,10 +10317,10 @@
   <sheetPr/>
   <dimension ref="A1:O115"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" topLeftCell="A105" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" topLeftCell="A46" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="J112" sqref="J112"/>
+      <selection pane="topRight" activeCell="C52" sqref="C52:N52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -9512,13 +10336,13 @@
   <sheetData>
     <row r="1" spans="1:14">
       <c r="A1" s="65" t="s">
-        <v>359</v>
+        <v>451</v>
       </c>
       <c r="B1" s="69" t="s">
-        <v>360</v>
+        <v>452</v>
       </c>
       <c r="C1" s="70" t="s">
-        <v>361</v>
+        <v>453</v>
       </c>
       <c r="D1" s="70"/>
       <c r="E1" s="70"/>
@@ -9534,17 +10358,17 @@
     </row>
     <row r="2" spans="2:2">
       <c r="B2" s="66" t="s">
-        <v>362</v>
+        <v>454</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="65" t="s">
-        <v>363</v>
+        <v>455</v>
       </c>
     </row>
     <row r="5" spans="2:14">
       <c r="B5" s="71" t="s">
-        <v>364</v>
+        <v>456</v>
       </c>
       <c r="C5" s="70"/>
       <c r="D5" s="70"/>
@@ -9561,7 +10385,7 @@
     </row>
     <row r="6" spans="2:14">
       <c r="B6" s="71" t="s">
-        <v>365</v>
+        <v>457</v>
       </c>
       <c r="C6" s="70"/>
       <c r="D6" s="70"/>
@@ -9578,7 +10402,7 @@
     </row>
     <row r="7" spans="2:14">
       <c r="B7" s="71" t="s">
-        <v>366</v>
+        <v>458</v>
       </c>
       <c r="C7" s="70"/>
       <c r="D7" s="70"/>
@@ -9595,7 +10419,7 @@
     </row>
     <row r="8" spans="2:14">
       <c r="B8" s="72" t="s">
-        <v>367</v>
+        <v>459</v>
       </c>
       <c r="C8" s="73"/>
       <c r="D8" s="73"/>
@@ -9612,10 +10436,10 @@
     </row>
     <row r="9" spans="2:14">
       <c r="B9" s="74" t="s">
-        <v>368</v>
+        <v>460</v>
       </c>
       <c r="C9" s="37" t="s">
-        <v>369</v>
+        <v>461</v>
       </c>
       <c r="D9" s="37"/>
       <c r="E9" s="37"/>
@@ -9631,7 +10455,7 @@
     </row>
     <row r="10" spans="2:14">
       <c r="B10" s="71" t="s">
-        <v>370</v>
+        <v>462</v>
       </c>
       <c r="C10" s="70"/>
       <c r="D10" s="70"/>
@@ -9649,7 +10473,7 @@
     <row r="11" spans="2:14">
       <c r="B11" s="71"/>
       <c r="C11" s="70" t="s">
-        <v>371</v>
+        <v>463</v>
       </c>
       <c r="D11" s="70"/>
       <c r="E11" s="70"/>
@@ -9665,7 +10489,7 @@
     </row>
     <row r="12" spans="2:14">
       <c r="B12" s="71" t="s">
-        <v>372</v>
+        <v>464</v>
       </c>
       <c r="C12" s="70"/>
       <c r="D12" s="70"/>
@@ -9682,8 +10506,8 @@
     </row>
     <row r="13" ht="39" customHeight="1" spans="2:14">
       <c r="B13" s="71"/>
-      <c r="C13" s="110" t="s">
-        <v>373</v>
+      <c r="C13" s="111" t="s">
+        <v>465</v>
       </c>
       <c r="D13" s="70"/>
       <c r="E13" s="70"/>
@@ -9699,10 +10523,10 @@
     </row>
     <row r="14" ht="42" customHeight="1" spans="2:14">
       <c r="B14" s="71" t="s">
-        <v>374</v>
+        <v>466</v>
       </c>
       <c r="C14" s="75" t="s">
-        <v>375</v>
+        <v>467</v>
       </c>
       <c r="D14" s="75"/>
       <c r="E14" s="75"/>
@@ -9718,13 +10542,13 @@
     </row>
     <row r="16" ht="34" customHeight="1" spans="1:14">
       <c r="A16" s="65" t="s">
-        <v>376</v>
+        <v>468</v>
       </c>
       <c r="B16" s="76" t="s">
-        <v>377</v>
+        <v>469</v>
       </c>
       <c r="C16" s="77" t="s">
-        <v>378</v>
+        <v>470</v>
       </c>
       <c r="D16" s="70"/>
       <c r="E16" s="70"/>
@@ -9740,7 +10564,7 @@
     </row>
     <row r="17" ht="39" customHeight="1" spans="2:14">
       <c r="B17" s="74" t="s">
-        <v>379</v>
+        <v>471</v>
       </c>
       <c r="C17" s="75"/>
       <c r="D17" s="75"/>
@@ -9757,12 +10581,12 @@
     </row>
     <row r="18" spans="2:2">
       <c r="B18" s="76" t="s">
-        <v>380</v>
+        <v>472</v>
       </c>
     </row>
     <row r="19" ht="79" customHeight="1" spans="3:14">
       <c r="C19" s="75" t="s">
-        <v>381</v>
+        <v>473</v>
       </c>
       <c r="D19" s="75"/>
       <c r="E19" s="75"/>
@@ -9778,12 +10602,12 @@
     </row>
     <row r="20" ht="25" customHeight="1" spans="2:2">
       <c r="B20" s="76" t="s">
-        <v>382</v>
+        <v>474</v>
       </c>
     </row>
     <row r="21" ht="58" customHeight="1" spans="3:14">
       <c r="C21" s="75" t="s">
-        <v>383</v>
+        <v>475</v>
       </c>
       <c r="D21" s="75"/>
       <c r="E21" s="75"/>
@@ -9799,12 +10623,12 @@
     </row>
     <row r="22" spans="2:2">
       <c r="B22" s="76" t="s">
-        <v>384</v>
+        <v>476</v>
       </c>
     </row>
     <row r="23" ht="78" customHeight="1" spans="3:14">
       <c r="C23" s="75" t="s">
-        <v>385</v>
+        <v>477</v>
       </c>
       <c r="D23" s="75"/>
       <c r="E23" s="75"/>
@@ -9820,7 +10644,7 @@
     </row>
     <row r="24" spans="2:14">
       <c r="B24" s="71" t="s">
-        <v>386</v>
+        <v>478</v>
       </c>
       <c r="C24" s="70"/>
       <c r="D24" s="70"/>
@@ -9837,7 +10661,7 @@
     </row>
     <row r="25" spans="2:14">
       <c r="B25" s="71" t="s">
-        <v>387</v>
+        <v>479</v>
       </c>
       <c r="C25" s="71"/>
       <c r="D25" s="71"/>
@@ -9914,18 +10738,18 @@
     </row>
     <row r="30" ht="19" customHeight="1" spans="1:3">
       <c r="A30" s="65" t="s">
-        <v>388</v>
+        <v>480</v>
       </c>
       <c r="B30" s="76" t="s">
-        <v>389</v>
+        <v>481</v>
       </c>
       <c r="C30" s="78" t="s">
-        <v>390</v>
+        <v>482</v>
       </c>
     </row>
     <row r="31" ht="71" customHeight="1" spans="2:15">
       <c r="B31" s="79" t="s">
-        <v>391</v>
+        <v>483</v>
       </c>
       <c r="C31" s="79"/>
       <c r="D31" s="79"/>
@@ -9943,7 +10767,7 @@
     </row>
     <row r="32" spans="2:14">
       <c r="B32" s="80" t="s">
-        <v>392</v>
+        <v>484</v>
       </c>
       <c r="C32" s="81"/>
       <c r="D32" s="81"/>
@@ -9960,12 +10784,12 @@
     </row>
     <row r="34" spans="1:1">
       <c r="A34" s="65" t="s">
-        <v>393</v>
+        <v>485</v>
       </c>
     </row>
     <row r="35" ht="60" customHeight="1" spans="2:15">
       <c r="B35" s="74" t="s">
-        <v>394</v>
+        <v>486</v>
       </c>
       <c r="C35" s="75"/>
       <c r="D35" s="75"/>
@@ -9983,7 +10807,7 @@
     </row>
     <row r="36" ht="55" customHeight="1" spans="2:15">
       <c r="B36" s="74" t="s">
-        <v>395</v>
+        <v>487</v>
       </c>
       <c r="C36" s="75"/>
       <c r="D36" s="75"/>
@@ -10001,7 +10825,7 @@
     </row>
     <row r="37" ht="20" customHeight="1" spans="2:15">
       <c r="B37" s="71" t="s">
-        <v>396</v>
+        <v>488</v>
       </c>
       <c r="C37" s="70"/>
       <c r="D37" s="70"/>
@@ -10019,17 +10843,17 @@
     </row>
     <row r="38" ht="21" customHeight="1" spans="2:3">
       <c r="B38" s="82" t="s">
-        <v>397</v>
+        <v>489</v>
       </c>
       <c r="C38" s="78"/>
     </row>
     <row r="39" ht="54" customHeight="1" spans="2:14">
       <c r="B39" s="82"/>
       <c r="C39" s="78" t="s">
-        <v>398</v>
+        <v>490</v>
       </c>
       <c r="D39" s="75" t="s">
-        <v>399</v>
+        <v>491</v>
       </c>
       <c r="E39" s="75"/>
       <c r="F39" s="75"/>
@@ -10045,16 +10869,16 @@
     <row r="40" ht="21" customHeight="1" spans="2:3">
       <c r="B40" s="82"/>
       <c r="C40" s="78" t="s">
-        <v>400</v>
+        <v>492</v>
       </c>
     </row>
     <row r="41" ht="72" customHeight="1" spans="2:14">
       <c r="B41" s="82"/>
       <c r="C41" s="78" t="s">
-        <v>401</v>
+        <v>493</v>
       </c>
       <c r="D41" s="75" t="s">
-        <v>402</v>
+        <v>494</v>
       </c>
       <c r="E41" s="75"/>
       <c r="F41" s="75"/>
@@ -10070,10 +10894,10 @@
     <row r="42" ht="39" customHeight="1" spans="2:14">
       <c r="B42" s="82"/>
       <c r="C42" s="78" t="s">
-        <v>403</v>
+        <v>495</v>
       </c>
       <c r="D42" s="75" t="s">
-        <v>404</v>
+        <v>496</v>
       </c>
       <c r="E42" s="70"/>
       <c r="F42" s="70"/>
@@ -10089,7 +10913,7 @@
     <row r="43" ht="21" customHeight="1" spans="2:4">
       <c r="B43" s="82"/>
       <c r="C43" s="78" t="s">
-        <v>405</v>
+        <v>497</v>
       </c>
       <c r="D43" s="78"/>
     </row>
@@ -10097,7 +10921,7 @@
       <c r="B44" s="82"/>
       <c r="C44" s="78"/>
       <c r="D44" s="77" t="s">
-        <v>406</v>
+        <v>498</v>
       </c>
       <c r="E44" s="75"/>
       <c r="F44" s="75"/>
@@ -10114,7 +10938,7 @@
       <c r="B45" s="82"/>
       <c r="C45" s="78"/>
       <c r="D45" s="83" t="s">
-        <v>407</v>
+        <v>499</v>
       </c>
       <c r="E45" s="83"/>
       <c r="F45" s="83"/>
@@ -10129,7 +10953,7 @@
     </row>
     <row r="46" spans="2:15">
       <c r="B46" s="71" t="s">
-        <v>408</v>
+        <v>500</v>
       </c>
       <c r="C46" s="70"/>
       <c r="D46" s="70"/>
@@ -10147,11 +10971,11 @@
     </row>
     <row r="47" spans="2:14">
       <c r="B47" s="71" t="s">
-        <v>409</v>
+        <v>501</v>
       </c>
       <c r="C47" s="70"/>
       <c r="D47" s="70" t="s">
-        <v>410</v>
+        <v>502</v>
       </c>
       <c r="E47" s="70"/>
       <c r="F47" s="70"/>
@@ -10166,12 +10990,12 @@
     </row>
     <row r="49" spans="1:1">
       <c r="A49" s="65" t="s">
-        <v>411</v>
+        <v>503</v>
       </c>
     </row>
     <row r="50" ht="81" customHeight="1" spans="2:14">
       <c r="B50" s="74" t="s">
-        <v>412</v>
+        <v>504</v>
       </c>
       <c r="C50" s="75"/>
       <c r="D50" s="75"/>
@@ -10188,12 +11012,12 @@
     </row>
     <row r="51" spans="2:2">
       <c r="B51" s="76" t="s">
-        <v>413</v>
+        <v>505</v>
       </c>
     </row>
     <row r="52" ht="33" customHeight="1" spans="3:14">
       <c r="C52" s="75" t="s">
-        <v>414</v>
+        <v>506</v>
       </c>
       <c r="D52" s="75"/>
       <c r="E52" s="75"/>
@@ -10209,12 +11033,12 @@
     </row>
     <row r="53" spans="2:2">
       <c r="B53" s="76" t="s">
-        <v>415</v>
+        <v>507</v>
       </c>
     </row>
     <row r="54" ht="36" customHeight="1" spans="3:14">
       <c r="C54" s="75" t="s">
-        <v>416</v>
+        <v>508</v>
       </c>
       <c r="D54" s="75"/>
       <c r="E54" s="75"/>
@@ -10230,7 +11054,7 @@
     </row>
     <row r="55" ht="19" customHeight="1" spans="2:14">
       <c r="B55" s="76" t="s">
-        <v>417</v>
+        <v>509</v>
       </c>
       <c r="C55" s="75"/>
       <c r="D55" s="75"/>
@@ -10247,7 +11071,7 @@
     </row>
     <row r="56" ht="103" customHeight="1" spans="3:14">
       <c r="C56" s="75" t="s">
-        <v>418</v>
+        <v>510</v>
       </c>
       <c r="D56" s="75"/>
       <c r="E56" s="75"/>
@@ -10263,7 +11087,7 @@
     </row>
     <row r="57" ht="23" customHeight="1" spans="2:14">
       <c r="B57" s="76" t="s">
-        <v>419</v>
+        <v>511</v>
       </c>
       <c r="C57" s="75"/>
       <c r="D57" s="75"/>
@@ -10280,7 +11104,7 @@
     </row>
     <row r="58" ht="41" customHeight="1" spans="3:14">
       <c r="C58" s="75" t="s">
-        <v>420</v>
+        <v>512</v>
       </c>
       <c r="D58" s="75"/>
       <c r="E58" s="75"/>
@@ -10296,7 +11120,7 @@
     </row>
     <row r="59" ht="23" customHeight="1" spans="2:14">
       <c r="B59" s="76" t="s">
-        <v>421</v>
+        <v>513</v>
       </c>
       <c r="C59" s="75"/>
       <c r="D59" s="75"/>
@@ -10313,7 +11137,7 @@
     </row>
     <row r="60" ht="57" customHeight="1" spans="3:14">
       <c r="C60" s="75" t="s">
-        <v>422</v>
+        <v>514</v>
       </c>
       <c r="D60" s="75"/>
       <c r="E60" s="75"/>
@@ -10329,11 +11153,11 @@
     </row>
     <row r="61" ht="27" customHeight="1" spans="2:14">
       <c r="B61" s="76" t="s">
-        <v>423</v>
+        <v>515</v>
       </c>
       <c r="C61" s="75"/>
       <c r="D61" s="75" t="s">
-        <v>424</v>
+        <v>516</v>
       </c>
       <c r="E61" s="75"/>
       <c r="F61" s="75"/>
@@ -10348,7 +11172,7 @@
     </row>
     <row r="62" ht="41" customHeight="1" spans="3:14">
       <c r="C62" s="75" t="s">
-        <v>425</v>
+        <v>517</v>
       </c>
       <c r="D62" s="75"/>
       <c r="E62" s="75"/>
@@ -10364,10 +11188,10 @@
     </row>
     <row r="63" ht="26" customHeight="1" spans="2:14">
       <c r="B63" s="76" t="s">
-        <v>426</v>
+        <v>518</v>
       </c>
       <c r="C63" s="75" t="s">
-        <v>427</v>
+        <v>519</v>
       </c>
       <c r="D63" s="75"/>
       <c r="E63" s="75"/>
@@ -10383,7 +11207,7 @@
     </row>
     <row r="64" ht="25" customHeight="1" spans="2:14">
       <c r="B64" s="76" t="s">
-        <v>428</v>
+        <v>520</v>
       </c>
       <c r="C64" s="75"/>
       <c r="D64" s="75"/>
@@ -10401,10 +11225,10 @@
     <row r="65" ht="25" customHeight="1" spans="2:14">
       <c r="B65" s="76"/>
       <c r="C65" s="83" t="s">
-        <v>429</v>
+        <v>521</v>
       </c>
       <c r="D65" s="75" t="s">
-        <v>430</v>
+        <v>522</v>
       </c>
       <c r="E65" s="75"/>
       <c r="F65" s="75"/>
@@ -10420,10 +11244,10 @@
     <row r="66" ht="25" customHeight="1" spans="2:14">
       <c r="B66" s="76"/>
       <c r="C66" s="87" t="s">
-        <v>431</v>
+        <v>523</v>
       </c>
       <c r="D66" s="75" t="s">
-        <v>432</v>
+        <v>524</v>
       </c>
       <c r="E66" s="75"/>
       <c r="F66" s="75"/>
@@ -10440,7 +11264,7 @@
       <c r="B67" s="76"/>
       <c r="C67" s="75"/>
       <c r="D67" s="75" t="s">
-        <v>433</v>
+        <v>525</v>
       </c>
       <c r="E67" s="75"/>
       <c r="F67" s="75"/>
@@ -10469,12 +11293,12 @@
     </row>
     <row r="70" spans="1:1">
       <c r="A70" s="65" t="s">
-        <v>434</v>
+        <v>526</v>
       </c>
     </row>
     <row r="71" ht="54" customHeight="1" spans="2:14">
       <c r="B71" s="74" t="s">
-        <v>435</v>
+        <v>527</v>
       </c>
       <c r="C71" s="70"/>
       <c r="D71" s="70"/>
@@ -10492,7 +11316,7 @@
     <row r="72" ht="26" customHeight="1" spans="2:14">
       <c r="B72" s="74"/>
       <c r="C72" s="70" t="s">
-        <v>436</v>
+        <v>528</v>
       </c>
       <c r="D72" s="70"/>
       <c r="E72" s="70"/>
@@ -10509,7 +11333,7 @@
     <row r="73" ht="25" customHeight="1" spans="2:14">
       <c r="B73" s="74"/>
       <c r="C73" s="70" t="s">
-        <v>437</v>
+        <v>529</v>
       </c>
       <c r="D73" s="70"/>
       <c r="E73" s="70"/>
@@ -10526,7 +11350,7 @@
     <row r="74" ht="312" customHeight="1" spans="2:14">
       <c r="B74" s="74"/>
       <c r="C74" s="75" t="s">
-        <v>438</v>
+        <v>530</v>
       </c>
       <c r="D74" s="70"/>
       <c r="E74" s="70"/>
@@ -10543,7 +11367,7 @@
     <row r="75" ht="26" customHeight="1" spans="2:14">
       <c r="B75" s="74"/>
       <c r="C75" s="70" t="s">
-        <v>439</v>
+        <v>531</v>
       </c>
       <c r="D75" s="70"/>
       <c r="E75" s="70"/>
@@ -10559,7 +11383,7 @@
     </row>
     <row r="76" ht="36" customHeight="1" spans="2:14">
       <c r="B76" s="88" t="s">
-        <v>440</v>
+        <v>532</v>
       </c>
       <c r="C76" s="70"/>
       <c r="D76" s="70"/>
@@ -10577,7 +11401,7 @@
     <row r="77" ht="26" customHeight="1" spans="2:14">
       <c r="B77" s="74"/>
       <c r="C77" s="70" t="s">
-        <v>441</v>
+        <v>533</v>
       </c>
       <c r="D77" s="70"/>
       <c r="E77" s="70"/>
@@ -10653,7 +11477,7 @@
     </row>
     <row r="83" spans="1:14">
       <c r="A83" s="89" t="s">
-        <v>442</v>
+        <v>534</v>
       </c>
       <c r="B83" s="46"/>
       <c r="C83" s="90"/>
@@ -10672,7 +11496,7 @@
     <row r="84" ht="72" customHeight="1" spans="1:14">
       <c r="A84" s="89"/>
       <c r="B84" s="91" t="s">
-        <v>443</v>
+        <v>535</v>
       </c>
       <c r="C84" s="92"/>
       <c r="D84" s="92"/>
@@ -10690,7 +11514,7 @@
     <row r="85" ht="72" customHeight="1" spans="1:14">
       <c r="A85" s="89"/>
       <c r="B85" s="91" t="s">
-        <v>444</v>
+        <v>536</v>
       </c>
       <c r="C85" s="91"/>
       <c r="D85" s="91"/>
@@ -10707,12 +11531,12 @@
     </row>
     <row r="86" spans="2:2">
       <c r="B86" s="66" t="s">
-        <v>445</v>
+        <v>537</v>
       </c>
     </row>
     <row r="87" ht="176" customHeight="1" spans="3:13">
       <c r="C87" s="75" t="s">
-        <v>446</v>
+        <v>538</v>
       </c>
       <c r="D87" s="75"/>
       <c r="E87" s="75"/>
@@ -10727,7 +11551,7 @@
     </row>
     <row r="88" ht="21" customHeight="1" spans="2:13">
       <c r="B88" s="66" t="s">
-        <v>447</v>
+        <v>539</v>
       </c>
       <c r="C88" s="75"/>
       <c r="D88" s="75"/>
@@ -10743,7 +11567,7 @@
     </row>
     <row r="89" ht="251" customHeight="1" spans="3:13">
       <c r="C89" s="75" t="s">
-        <v>448</v>
+        <v>540</v>
       </c>
       <c r="D89" s="75"/>
       <c r="E89" s="75"/>
@@ -10758,7 +11582,7 @@
     </row>
     <row r="90" ht="21" customHeight="1" spans="2:13">
       <c r="B90" s="66" t="s">
-        <v>449</v>
+        <v>541</v>
       </c>
       <c r="C90" s="75"/>
       <c r="D90" s="75"/>
@@ -10774,7 +11598,7 @@
     </row>
     <row r="91" ht="32" customHeight="1" spans="3:13">
       <c r="C91" s="75" t="s">
-        <v>450</v>
+        <v>542</v>
       </c>
       <c r="D91" s="75"/>
       <c r="E91" s="75"/>
@@ -10789,13 +11613,13 @@
     </row>
     <row r="92" ht="21" customHeight="1" spans="2:13">
       <c r="B92" s="66" t="s">
-        <v>451</v>
+        <v>543</v>
       </c>
       <c r="C92" s="75" t="s">
-        <v>452</v>
+        <v>544</v>
       </c>
       <c r="D92" s="75" t="s">
-        <v>453</v>
+        <v>545</v>
       </c>
       <c r="E92" s="75"/>
       <c r="F92" s="75"/>
@@ -10809,10 +11633,10 @@
     </row>
     <row r="93" ht="21" customHeight="1" spans="3:13">
       <c r="C93" s="75" t="s">
-        <v>454</v>
+        <v>546</v>
       </c>
       <c r="D93" s="75" t="s">
-        <v>455</v>
+        <v>547</v>
       </c>
       <c r="E93" s="75"/>
       <c r="F93" s="75"/>
@@ -10829,7 +11653,7 @@
         <v>200</v>
       </c>
       <c r="D94" s="75" t="s">
-        <v>456</v>
+        <v>548</v>
       </c>
       <c r="E94" s="75"/>
       <c r="F94" s="75"/>
@@ -10843,10 +11667,10 @@
     </row>
     <row r="95" ht="21" customHeight="1" spans="3:13">
       <c r="C95" s="75" t="s">
-        <v>457</v>
+        <v>549</v>
       </c>
       <c r="D95" s="75" t="s">
-        <v>458</v>
+        <v>550</v>
       </c>
       <c r="E95" s="75"/>
       <c r="F95" s="75"/>
@@ -10860,10 +11684,10 @@
     </row>
     <row r="96" ht="21" customHeight="1" spans="3:13">
       <c r="C96" s="75" t="s">
-        <v>459</v>
+        <v>551</v>
       </c>
       <c r="D96" s="75" t="s">
-        <v>460</v>
+        <v>552</v>
       </c>
       <c r="E96" s="75"/>
       <c r="F96" s="75"/>
@@ -10877,10 +11701,10 @@
     </row>
     <row r="97" ht="21" customHeight="1" spans="3:13">
       <c r="C97" s="75" t="s">
-        <v>461</v>
+        <v>553</v>
       </c>
       <c r="D97" s="75" t="s">
-        <v>462</v>
+        <v>554</v>
       </c>
       <c r="E97" s="75"/>
       <c r="F97" s="75"/>
@@ -10894,60 +11718,60 @@
     </row>
     <row r="98" spans="3:4">
       <c r="C98" s="67" t="s">
-        <v>463</v>
+        <v>555</v>
       </c>
       <c r="D98" s="67" t="s">
-        <v>464</v>
+        <v>556</v>
       </c>
     </row>
     <row r="99" spans="3:4">
       <c r="C99" s="67" t="s">
-        <v>465</v>
+        <v>557</v>
       </c>
       <c r="D99" s="67" t="s">
-        <v>466</v>
+        <v>558</v>
       </c>
     </row>
     <row r="100" spans="3:4">
       <c r="C100" s="67" t="s">
-        <v>467</v>
+        <v>559</v>
       </c>
       <c r="D100" s="67" t="s">
-        <v>468</v>
+        <v>560</v>
       </c>
     </row>
     <row r="101" spans="3:4">
       <c r="C101" s="67" t="s">
-        <v>469</v>
+        <v>561</v>
       </c>
       <c r="D101" s="67" t="s">
-        <v>470</v>
+        <v>562</v>
       </c>
     </row>
     <row r="102" spans="3:4">
       <c r="C102" s="67" t="s">
-        <v>471</v>
+        <v>563</v>
       </c>
       <c r="D102" s="67" t="s">
-        <v>472</v>
+        <v>564</v>
       </c>
     </row>
     <row r="103" spans="3:4">
       <c r="C103" s="67" t="s">
-        <v>473</v>
+        <v>565</v>
       </c>
       <c r="D103" s="67" t="s">
-        <v>474</v>
+        <v>566</v>
       </c>
     </row>
     <row r="105" spans="1:1">
       <c r="A105" s="65" t="s">
-        <v>475</v>
+        <v>567</v>
       </c>
     </row>
     <row r="106" spans="2:14">
       <c r="B106" s="74" t="s">
-        <v>476</v>
+        <v>568</v>
       </c>
       <c r="C106" s="75"/>
       <c r="D106" s="75"/>
@@ -10964,12 +11788,12 @@
     </row>
     <row r="108" spans="1:1">
       <c r="A108" s="65" t="s">
-        <v>477</v>
+        <v>569</v>
       </c>
     </row>
     <row r="109" ht="54" customHeight="1" spans="2:14">
       <c r="B109" s="74" t="s">
-        <v>478</v>
+        <v>570</v>
       </c>
       <c r="C109" s="75"/>
       <c r="D109" s="75"/>
@@ -10986,12 +11810,12 @@
     </row>
     <row r="110" ht="21" customHeight="1" spans="2:2">
       <c r="B110" s="76" t="s">
-        <v>479</v>
+        <v>571</v>
       </c>
     </row>
     <row r="111" ht="120" customHeight="1" spans="3:14">
-      <c r="C111" s="110" t="s">
-        <v>480</v>
+      <c r="C111" s="111" t="s">
+        <v>572</v>
       </c>
       <c r="D111" s="75"/>
       <c r="E111" s="75"/>
@@ -11007,12 +11831,12 @@
     </row>
     <row r="112" spans="2:2">
       <c r="B112" s="76" t="s">
-        <v>481</v>
+        <v>573</v>
       </c>
     </row>
     <row r="113" ht="31" customHeight="1" spans="3:14">
       <c r="C113" s="75" t="s">
-        <v>482</v>
+        <v>574</v>
       </c>
       <c r="D113" s="75"/>
       <c r="E113" s="75"/>
@@ -11028,12 +11852,12 @@
     </row>
     <row r="114" spans="2:2">
       <c r="B114" s="76" t="s">
-        <v>483</v>
+        <v>575</v>
       </c>
     </row>
     <row r="115" spans="3:14">
       <c r="C115" s="70" t="s">
-        <v>484</v>
+        <v>576</v>
       </c>
       <c r="D115" s="70"/>
       <c r="E115" s="70"/>
@@ -11117,10 +11941,10 @@
   <sheetPr/>
   <dimension ref="A1:N84"/>
   <sheetViews>
-    <sheetView topLeftCell="A60" workbookViewId="0">
+    <sheetView topLeftCell="A44" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="B28" sqref="B28"/>
+      <selection pane="topRight" activeCell="C47" sqref="C47:N47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="24" customHeight="1"/>
@@ -11134,12 +11958,12 @@
   <sheetData>
     <row r="1" customHeight="1" spans="1:1">
       <c r="A1" s="57" t="s">
-        <v>485</v>
+        <v>577</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="2:14">
       <c r="B2" s="28" t="s">
-        <v>486</v>
+        <v>578</v>
       </c>
       <c r="C2" s="26"/>
       <c r="D2" s="26"/>
@@ -11156,7 +11980,7 @@
     </row>
     <row r="3" ht="57" customHeight="1" spans="2:14">
       <c r="B3" s="28" t="s">
-        <v>487</v>
+        <v>579</v>
       </c>
       <c r="C3" s="26"/>
       <c r="D3" s="26"/>
@@ -11173,7 +11997,7 @@
     </row>
     <row r="4" customHeight="1" spans="2:14">
       <c r="B4" s="28" t="s">
-        <v>488</v>
+        <v>580</v>
       </c>
       <c r="C4" s="26"/>
       <c r="D4" s="26"/>
@@ -11190,7 +12014,7 @@
     </row>
     <row r="5" customHeight="1" spans="2:14">
       <c r="B5" s="58" t="s">
-        <v>489</v>
+        <v>581</v>
       </c>
       <c r="C5" s="27"/>
       <c r="D5" s="27"/>
@@ -11207,10 +12031,10 @@
     </row>
     <row r="6" ht="45" customHeight="1" spans="2:14">
       <c r="B6" s="59" t="s">
-        <v>490</v>
+        <v>582</v>
       </c>
       <c r="C6" s="26" t="s">
-        <v>491</v>
+        <v>583</v>
       </c>
       <c r="D6" s="27"/>
       <c r="E6" s="27"/>
@@ -11226,10 +12050,10 @@
     </row>
     <row r="7" customHeight="1" spans="2:14">
       <c r="B7" s="59" t="s">
-        <v>492</v>
+        <v>584</v>
       </c>
       <c r="C7" s="26" t="s">
-        <v>493</v>
+        <v>585</v>
       </c>
       <c r="D7" s="27"/>
       <c r="E7" s="27"/>
@@ -11246,7 +12070,7 @@
     <row r="8" ht="70" customHeight="1" spans="2:14">
       <c r="B8" s="58"/>
       <c r="C8" s="30" t="s">
-        <v>494</v>
+        <v>586</v>
       </c>
       <c r="D8" s="30"/>
       <c r="E8" s="30"/>
@@ -11262,10 +12086,10 @@
     </row>
     <row r="9" customHeight="1" spans="2:14">
       <c r="B9" s="59" t="s">
-        <v>495</v>
+        <v>587</v>
       </c>
       <c r="C9" s="27" t="s">
-        <v>496</v>
+        <v>588</v>
       </c>
       <c r="D9" s="27"/>
       <c r="E9" s="27"/>
@@ -11282,7 +12106,7 @@
     <row r="10" ht="70" customHeight="1" spans="2:14">
       <c r="B10" s="58"/>
       <c r="C10" s="30" t="s">
-        <v>497</v>
+        <v>589</v>
       </c>
       <c r="D10" s="30"/>
       <c r="E10" s="30"/>
@@ -11298,11 +12122,11 @@
     </row>
     <row r="11" ht="38" customHeight="1" spans="2:14">
       <c r="B11" s="59" t="s">
-        <v>498</v>
+        <v>590</v>
       </c>
       <c r="C11" s="27"/>
       <c r="D11" s="26" t="s">
-        <v>499</v>
+        <v>591</v>
       </c>
       <c r="E11" s="27"/>
       <c r="F11" s="27"/>
@@ -11318,7 +12142,7 @@
     <row r="12" ht="142" customHeight="1" spans="2:14">
       <c r="B12" s="58"/>
       <c r="C12" s="30" t="s">
-        <v>500</v>
+        <v>592</v>
       </c>
       <c r="D12" s="30"/>
       <c r="E12" s="30"/>
@@ -11334,11 +12158,11 @@
     </row>
     <row r="13" ht="22" customHeight="1" spans="2:14">
       <c r="B13" s="59" t="s">
-        <v>501</v>
+        <v>593</v>
       </c>
       <c r="C13" s="27"/>
       <c r="D13" s="30" t="s">
-        <v>502</v>
+        <v>594</v>
       </c>
       <c r="E13" s="47"/>
       <c r="F13" s="47"/>
@@ -11354,7 +12178,7 @@
     <row r="14" ht="156" customHeight="1" spans="2:14">
       <c r="B14" s="59"/>
       <c r="C14" s="30" t="s">
-        <v>503</v>
+        <v>595</v>
       </c>
       <c r="D14" s="30"/>
       <c r="E14" s="30"/>
@@ -11370,12 +12194,12 @@
     </row>
     <row r="16" customHeight="1" spans="1:1">
       <c r="A16" s="57" t="s">
-        <v>504</v>
+        <v>596</v>
       </c>
     </row>
     <row r="17" ht="54" customHeight="1" spans="2:14">
       <c r="B17" s="28" t="s">
-        <v>505</v>
+        <v>597</v>
       </c>
       <c r="C17" s="26"/>
       <c r="D17" s="26"/>
@@ -11392,7 +12216,7 @@
     </row>
     <row r="18" ht="49" customHeight="1" spans="2:14">
       <c r="B18" s="28" t="s">
-        <v>506</v>
+        <v>598</v>
       </c>
       <c r="C18" s="26"/>
       <c r="D18" s="26"/>
@@ -11409,7 +12233,7 @@
     </row>
     <row r="19" customHeight="1" spans="2:14">
       <c r="B19" s="58" t="s">
-        <v>489</v>
+        <v>581</v>
       </c>
       <c r="C19" s="27"/>
       <c r="D19" s="27"/>
@@ -11426,7 +12250,7 @@
     </row>
     <row r="20" customHeight="1" spans="2:14">
       <c r="B20" s="60" t="s">
-        <v>507</v>
+        <v>599</v>
       </c>
       <c r="C20" s="27"/>
       <c r="D20" s="27"/>
@@ -11444,7 +12268,7 @@
     <row r="21" ht="42" customHeight="1" spans="2:14">
       <c r="B21" s="58"/>
       <c r="C21" s="26" t="s">
-        <v>508</v>
+        <v>600</v>
       </c>
       <c r="D21" s="27"/>
       <c r="E21" s="27"/>
@@ -11460,7 +12284,7 @@
     </row>
     <row r="22" customHeight="1" spans="2:14">
       <c r="B22" s="59" t="s">
-        <v>509</v>
+        <v>601</v>
       </c>
       <c r="C22" s="27"/>
       <c r="D22" s="27"/>
@@ -11478,7 +12302,7 @@
     <row r="23" ht="84" customHeight="1" spans="2:14">
       <c r="B23" s="58"/>
       <c r="C23" s="26" t="s">
-        <v>510</v>
+        <v>602</v>
       </c>
       <c r="D23" s="27"/>
       <c r="E23" s="27"/>
@@ -11494,7 +12318,7 @@
     </row>
     <row r="24" customHeight="1" spans="2:14">
       <c r="B24" s="58" t="s">
-        <v>511</v>
+        <v>603</v>
       </c>
       <c r="C24" s="27"/>
       <c r="D24" s="27"/>
@@ -11512,7 +12336,7 @@
     <row r="25" ht="52" customHeight="1" spans="2:14">
       <c r="B25" s="58"/>
       <c r="C25" s="26" t="s">
-        <v>512</v>
+        <v>604</v>
       </c>
       <c r="D25" s="26"/>
       <c r="E25" s="26"/>
@@ -11529,7 +12353,7 @@
     <row r="26" ht="169" customHeight="1" spans="2:14">
       <c r="B26" s="58"/>
       <c r="C26" s="26" t="s">
-        <v>513</v>
+        <v>605</v>
       </c>
       <c r="D26" s="26"/>
       <c r="E26" s="26"/>
@@ -11545,7 +12369,7 @@
     </row>
     <row r="27" customHeight="1" spans="2:14">
       <c r="B27" s="59" t="s">
-        <v>514</v>
+        <v>606</v>
       </c>
       <c r="C27" s="27"/>
       <c r="D27" s="27"/>
@@ -11563,7 +12387,7 @@
     <row r="28" ht="73" customHeight="1" spans="2:14">
       <c r="B28" s="58"/>
       <c r="C28" s="26" t="s">
-        <v>515</v>
+        <v>607</v>
       </c>
       <c r="D28" s="27"/>
       <c r="E28" s="27"/>
@@ -11579,7 +12403,7 @@
     </row>
     <row r="29" customHeight="1" spans="2:14">
       <c r="B29" s="59" t="s">
-        <v>492</v>
+        <v>584</v>
       </c>
       <c r="C29" s="27"/>
       <c r="D29" s="27"/>
@@ -11597,7 +12421,7 @@
     <row r="30" ht="150" customHeight="1" spans="2:14">
       <c r="B30" s="58"/>
       <c r="C30" s="26" t="s">
-        <v>516</v>
+        <v>608</v>
       </c>
       <c r="D30" s="27"/>
       <c r="E30" s="27"/>
@@ -11613,7 +12437,7 @@
     </row>
     <row r="31" customHeight="1" spans="2:14">
       <c r="B31" s="59" t="s">
-        <v>517</v>
+        <v>609</v>
       </c>
       <c r="C31" s="27"/>
       <c r="D31" s="27"/>
@@ -11631,7 +12455,7 @@
     <row r="32" ht="112" customHeight="1" spans="2:14">
       <c r="B32" s="58"/>
       <c r="C32" s="26" t="s">
-        <v>518</v>
+        <v>610</v>
       </c>
       <c r="D32" s="26"/>
       <c r="E32" s="26"/>
@@ -11647,7 +12471,7 @@
     </row>
     <row r="33" customHeight="1" spans="2:14">
       <c r="B33" s="59" t="s">
-        <v>519</v>
+        <v>611</v>
       </c>
       <c r="C33" s="27"/>
       <c r="D33" s="27"/>
@@ -11665,7 +12489,7 @@
     <row r="34" ht="44" customHeight="1" spans="2:14">
       <c r="B34" s="58"/>
       <c r="C34" s="26" t="s">
-        <v>520</v>
+        <v>612</v>
       </c>
       <c r="D34" s="27"/>
       <c r="E34" s="27"/>
@@ -11681,11 +12505,11 @@
     </row>
     <row r="35" customHeight="1" spans="2:14">
       <c r="B35" s="59" t="s">
-        <v>521</v>
+        <v>613</v>
       </c>
       <c r="C35" s="27"/>
       <c r="D35" s="27" t="s">
-        <v>522</v>
+        <v>614</v>
       </c>
       <c r="E35" s="27"/>
       <c r="F35" s="27"/>
@@ -11701,7 +12525,7 @@
     <row r="36" ht="233" customHeight="1" spans="2:14">
       <c r="B36" s="58"/>
       <c r="C36" s="26" t="s">
-        <v>523</v>
+        <v>615</v>
       </c>
       <c r="D36" s="26"/>
       <c r="E36" s="26"/>
@@ -11717,7 +12541,7 @@
     </row>
     <row r="37" customHeight="1" spans="2:14">
       <c r="B37" s="59" t="s">
-        <v>524</v>
+        <v>616</v>
       </c>
       <c r="C37" s="27"/>
       <c r="D37" s="27"/>
@@ -11764,12 +12588,12 @@
     </row>
     <row r="40" customHeight="1" spans="1:1">
       <c r="A40" s="57" t="s">
-        <v>525</v>
+        <v>617</v>
       </c>
     </row>
     <row r="41" ht="72" customHeight="1" spans="2:14">
       <c r="B41" s="28" t="s">
-        <v>526</v>
+        <v>618</v>
       </c>
       <c r="C41" s="26"/>
       <c r="D41" s="26"/>
@@ -11786,12 +12610,12 @@
     </row>
     <row r="42" customHeight="1" spans="2:2">
       <c r="B42" s="24" t="s">
-        <v>527</v>
+        <v>619</v>
       </c>
     </row>
     <row r="43" ht="47" customHeight="1" spans="3:14">
       <c r="C43" s="26" t="s">
-        <v>528</v>
+        <v>620</v>
       </c>
       <c r="D43" s="26"/>
       <c r="E43" s="26"/>
@@ -11807,16 +12631,16 @@
     </row>
     <row r="44" ht="90" customHeight="1" spans="2:2">
       <c r="B44" s="61" t="s">
-        <v>529</v>
+        <v>621</v>
       </c>
     </row>
     <row r="45" ht="63" customHeight="1" spans="1:14">
       <c r="A45" s="57" t="s">
-        <v>530</v>
+        <v>622</v>
       </c>
       <c r="B45" s="61"/>
       <c r="C45" s="26" t="s">
-        <v>531</v>
+        <v>623</v>
       </c>
       <c r="D45" s="27"/>
       <c r="E45" s="27"/>
@@ -11832,13 +12656,13 @@
     </row>
     <row r="46" customHeight="1" spans="2:2">
       <c r="B46" s="61" t="s">
-        <v>507</v>
+        <v>599</v>
       </c>
     </row>
     <row r="47" customHeight="1" spans="2:14">
       <c r="B47" s="61"/>
       <c r="C47" s="26" t="s">
-        <v>532</v>
+        <v>624</v>
       </c>
       <c r="D47" s="26"/>
       <c r="E47" s="26"/>
@@ -11854,13 +12678,13 @@
     </row>
     <row r="48" ht="33" customHeight="1" spans="2:2">
       <c r="B48" s="61" t="s">
-        <v>533</v>
+        <v>625</v>
       </c>
     </row>
     <row r="49" ht="27" customHeight="1" spans="2:14">
       <c r="B49" s="61"/>
       <c r="D49" s="26" t="s">
-        <v>534</v>
+        <v>626</v>
       </c>
       <c r="E49" s="26"/>
       <c r="F49" s="26"/>
@@ -11876,7 +12700,7 @@
     <row r="50" ht="90" customHeight="1" spans="2:14">
       <c r="B50" s="61"/>
       <c r="D50" s="26" t="s">
-        <v>535</v>
+        <v>627</v>
       </c>
       <c r="E50" s="27"/>
       <c r="F50" s="27"/>
@@ -11906,12 +12730,12 @@
     </row>
     <row r="57" customHeight="1" spans="1:1">
       <c r="A57" s="57" t="s">
-        <v>536</v>
+        <v>628</v>
       </c>
     </row>
     <row r="58" ht="61" customHeight="1" spans="2:14">
       <c r="B58" s="28" t="s">
-        <v>537</v>
+        <v>629</v>
       </c>
       <c r="C58" s="26"/>
       <c r="D58" s="26"/>
@@ -11928,7 +12752,7 @@
     </row>
     <row r="59" customHeight="1" spans="2:14">
       <c r="B59" s="58" t="s">
-        <v>538</v>
+        <v>630</v>
       </c>
       <c r="C59" s="27"/>
       <c r="D59" s="27"/>
@@ -11945,12 +12769,12 @@
     </row>
     <row r="60" customHeight="1" spans="1:1">
       <c r="A60" s="57" t="s">
-        <v>539</v>
+        <v>631</v>
       </c>
     </row>
     <row r="61" ht="146" customHeight="1" spans="2:14">
       <c r="B61" s="28" t="s">
-        <v>540</v>
+        <v>632</v>
       </c>
       <c r="C61" s="26"/>
       <c r="D61" s="26"/>
@@ -11967,7 +12791,7 @@
     </row>
     <row r="62" ht="28" customHeight="1" spans="2:14">
       <c r="B62" s="60" t="s">
-        <v>541</v>
+        <v>633</v>
       </c>
       <c r="C62" s="26"/>
       <c r="D62" s="26"/>
@@ -11985,7 +12809,7 @@
     <row r="63" ht="42" customHeight="1" spans="2:14">
       <c r="B63" s="28"/>
       <c r="C63" s="26" t="s">
-        <v>542</v>
+        <v>634</v>
       </c>
       <c r="D63" s="26"/>
       <c r="E63" s="26"/>
@@ -12001,11 +12825,11 @@
     </row>
     <row r="64" ht="20" customHeight="1" spans="2:14">
       <c r="B64" s="28" t="s">
-        <v>543</v>
+        <v>635</v>
       </c>
       <c r="C64" s="26"/>
       <c r="D64" s="26" t="s">
-        <v>544</v>
+        <v>636</v>
       </c>
       <c r="E64" s="26"/>
       <c r="F64" s="26"/>
@@ -12125,7 +12949,7 @@
     </row>
     <row r="73" customHeight="1" spans="1:14">
       <c r="A73" s="57" t="s">
-        <v>545</v>
+        <v>637</v>
       </c>
       <c r="B73"/>
       <c r="C73" s="62"/>
@@ -12144,7 +12968,7 @@
     <row r="74" ht="53" customHeight="1" spans="1:14">
       <c r="A74" s="63"/>
       <c r="B74" s="28" t="s">
-        <v>546</v>
+        <v>638</v>
       </c>
       <c r="C74" s="26"/>
       <c r="D74" s="26"/>
@@ -12161,12 +12985,12 @@
     </row>
     <row r="75" customHeight="1" spans="2:2">
       <c r="B75" s="24" t="s">
-        <v>547</v>
+        <v>639</v>
       </c>
     </row>
     <row r="76" ht="48" customHeight="1" spans="3:14">
       <c r="C76" s="26" t="s">
-        <v>548</v>
+        <v>640</v>
       </c>
       <c r="D76" s="26"/>
       <c r="E76" s="26"/>
@@ -12182,12 +13006,12 @@
     </row>
     <row r="77" customHeight="1" spans="2:2">
       <c r="B77" s="24" t="s">
-        <v>549</v>
+        <v>641</v>
       </c>
     </row>
     <row r="78" ht="79" customHeight="1" spans="3:14">
       <c r="C78" s="26" t="s">
-        <v>550</v>
+        <v>642</v>
       </c>
       <c r="D78" s="26"/>
       <c r="E78" s="26"/>
@@ -12203,12 +13027,12 @@
     </row>
     <row r="79" customHeight="1" spans="2:2">
       <c r="B79" s="24" t="s">
-        <v>551</v>
+        <v>643</v>
       </c>
     </row>
     <row r="80" ht="58" customHeight="1" spans="3:14">
       <c r="C80" s="26" t="s">
-        <v>552</v>
+        <v>644</v>
       </c>
       <c r="D80" s="26"/>
       <c r="E80" s="26"/>
@@ -12224,12 +13048,12 @@
     </row>
     <row r="81" customHeight="1" spans="2:2">
       <c r="B81" s="24" t="s">
-        <v>553</v>
+        <v>645</v>
       </c>
     </row>
     <row r="82" ht="33" customHeight="1" spans="3:14">
       <c r="C82" s="26" t="s">
-        <v>554</v>
+        <v>646</v>
       </c>
       <c r="D82" s="26"/>
       <c r="E82" s="26"/>
@@ -12245,12 +13069,12 @@
     </row>
     <row r="83" customHeight="1" spans="2:2">
       <c r="B83" s="24" t="s">
-        <v>555</v>
+        <v>647</v>
       </c>
     </row>
     <row r="84" ht="95" customHeight="1" spans="3:14">
       <c r="C84" s="26" t="s">
-        <v>556</v>
+        <v>648</v>
       </c>
       <c r="D84" s="26"/>
       <c r="E84" s="26"/>
@@ -12322,10 +13146,10 @@
   <sheetPr/>
   <dimension ref="A1:M201"/>
   <sheetViews>
-    <sheetView topLeftCell="A177" workbookViewId="0">
+    <sheetView topLeftCell="A187" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="C172" sqref="C172"/>
+      <selection pane="topRight" activeCell="E190" sqref="E190:M190"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18"/>
@@ -12340,12 +13164,12 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="38" t="s">
-        <v>557</v>
+        <v>649</v>
       </c>
     </row>
     <row r="2" spans="2:2">
       <c r="B2" s="39" t="s">
-        <v>558</v>
+        <v>650</v>
       </c>
     </row>
     <row r="3" spans="3:3">
@@ -12355,7 +13179,7 @@
     </row>
     <row r="4" ht="57" customHeight="1" spans="4:13">
       <c r="D4" s="26" t="s">
-        <v>559</v>
+        <v>651</v>
       </c>
       <c r="E4" s="26"/>
       <c r="F4" s="26"/>
@@ -12369,10 +13193,10 @@
     </row>
     <row r="5" ht="24" customHeight="1" spans="2:11">
       <c r="B5" s="39" t="s">
-        <v>560</v>
+        <v>652</v>
       </c>
       <c r="C5" s="41" t="s">
-        <v>561</v>
+        <v>653</v>
       </c>
       <c r="D5" s="41"/>
       <c r="E5" s="41"/>
@@ -12385,7 +13209,7 @@
     </row>
     <row r="6" ht="100" customHeight="1" spans="3:13">
       <c r="C6" s="42" t="s">
-        <v>562</v>
+        <v>654</v>
       </c>
       <c r="D6" s="42"/>
       <c r="E6" s="42"/>
@@ -12400,12 +13224,12 @@
     </row>
     <row r="7" spans="2:2">
       <c r="B7" s="39" t="s">
-        <v>563</v>
+        <v>655</v>
       </c>
     </row>
     <row r="8" ht="54" customHeight="1" spans="3:13">
       <c r="C8" s="26" t="s">
-        <v>564</v>
+        <v>656</v>
       </c>
       <c r="D8" s="26"/>
       <c r="E8" s="26"/>
@@ -12420,10 +13244,10 @@
     </row>
     <row r="10" ht="37" customHeight="1" spans="2:13">
       <c r="B10" s="39" t="s">
-        <v>565</v>
+        <v>657</v>
       </c>
       <c r="C10" s="43" t="s">
-        <v>566</v>
+        <v>658</v>
       </c>
       <c r="D10" s="43"/>
       <c r="E10" s="43"/>
@@ -12451,12 +13275,12 @@
     </row>
     <row r="12" ht="19" customHeight="1" spans="2:2">
       <c r="B12" s="39" t="s">
-        <v>567</v>
+        <v>659</v>
       </c>
     </row>
     <row r="13" ht="93" customHeight="1" spans="3:13">
       <c r="C13" s="26" t="s">
-        <v>568</v>
+        <v>660</v>
       </c>
       <c r="D13" s="26"/>
       <c r="E13" s="26"/>
@@ -12471,15 +13295,15 @@
     </row>
     <row r="15" spans="1:1">
       <c r="A15" s="38" t="s">
-        <v>569</v>
+        <v>661</v>
       </c>
     </row>
     <row r="16" spans="2:13">
       <c r="B16" s="39" t="s">
-        <v>570</v>
+        <v>662</v>
       </c>
       <c r="D16" s="27" t="s">
-        <v>571</v>
+        <v>663</v>
       </c>
       <c r="E16" s="27"/>
       <c r="F16" s="27"/>
@@ -12493,7 +13317,7 @@
     </row>
     <row r="17" ht="53" customHeight="1" spans="3:13">
       <c r="C17" s="26" t="s">
-        <v>572</v>
+        <v>664</v>
       </c>
       <c r="D17" s="26"/>
       <c r="E17" s="26"/>
@@ -12508,7 +13332,7 @@
     </row>
     <row r="18" ht="54" customHeight="1" spans="3:13">
       <c r="C18" s="26" t="s">
-        <v>573</v>
+        <v>665</v>
       </c>
       <c r="D18" s="26"/>
       <c r="E18" s="26"/>
@@ -12523,12 +13347,12 @@
     </row>
     <row r="19" ht="21" customHeight="1" spans="2:2">
       <c r="B19" s="39" t="s">
-        <v>574</v>
+        <v>666</v>
       </c>
     </row>
     <row r="20" ht="129" customHeight="1" spans="3:13">
       <c r="C20" s="26" t="s">
-        <v>575</v>
+        <v>667</v>
       </c>
       <c r="D20" s="26"/>
       <c r="E20" s="26"/>
@@ -12543,12 +13367,12 @@
     </row>
     <row r="21" spans="2:2">
       <c r="B21" s="39" t="s">
-        <v>576</v>
+        <v>668</v>
       </c>
     </row>
     <row r="22" ht="180" customHeight="1" spans="3:13">
-      <c r="C22" s="111" t="s">
-        <v>577</v>
+      <c r="C22" s="112" t="s">
+        <v>669</v>
       </c>
       <c r="D22" s="27"/>
       <c r="E22" s="27"/>
@@ -12563,12 +13387,12 @@
     </row>
     <row r="23" spans="2:2">
       <c r="B23" s="39" t="s">
-        <v>578</v>
+        <v>670</v>
       </c>
     </row>
     <row r="24" ht="49" customHeight="1" spans="3:13">
       <c r="C24" s="26" t="s">
-        <v>579</v>
+        <v>671</v>
       </c>
       <c r="D24" s="26"/>
       <c r="E24" s="26"/>
@@ -12583,12 +13407,12 @@
     </row>
     <row r="26" spans="1:1">
       <c r="A26" s="38" t="s">
-        <v>580</v>
+        <v>672</v>
       </c>
     </row>
     <row r="27" ht="73" customHeight="1" spans="2:13">
       <c r="B27" s="35" t="s">
-        <v>581</v>
+        <v>673</v>
       </c>
       <c r="C27" s="35"/>
       <c r="D27" s="35"/>
@@ -12604,12 +13428,12 @@
     </row>
     <row r="28" spans="2:2">
       <c r="B28" s="39" t="s">
-        <v>582</v>
+        <v>674</v>
       </c>
     </row>
     <row r="29" ht="57" customHeight="1" spans="3:13">
       <c r="C29" s="26" t="s">
-        <v>583</v>
+        <v>675</v>
       </c>
       <c r="D29" s="26"/>
       <c r="E29" s="26"/>
@@ -12624,10 +13448,10 @@
     </row>
     <row r="30" spans="2:13">
       <c r="B30" s="39" t="s">
-        <v>584</v>
+        <v>676</v>
       </c>
       <c r="D30" s="44" t="s">
-        <v>585</v>
+        <v>677</v>
       </c>
       <c r="E30" s="44"/>
       <c r="F30" s="44"/>
@@ -12641,7 +13465,7 @@
     </row>
     <row r="31" ht="127" customHeight="1" spans="3:13">
       <c r="C31" s="26" t="s">
-        <v>586</v>
+        <v>678</v>
       </c>
       <c r="D31" s="26"/>
       <c r="E31" s="26"/>
@@ -12656,10 +13480,10 @@
     </row>
     <row r="32" spans="2:13">
       <c r="B32" s="39" t="s">
-        <v>587</v>
+        <v>679</v>
       </c>
       <c r="D32" s="44" t="s">
-        <v>585</v>
+        <v>677</v>
       </c>
       <c r="E32" s="44"/>
       <c r="F32" s="44"/>
@@ -12673,7 +13497,7 @@
     </row>
     <row r="33" ht="81" customHeight="1" spans="3:13">
       <c r="C33" s="26" t="s">
-        <v>588</v>
+        <v>680</v>
       </c>
       <c r="D33" s="26"/>
       <c r="E33" s="26"/>
@@ -12688,7 +13512,7 @@
     </row>
     <row r="34" spans="2:13">
       <c r="B34" s="39" t="s">
-        <v>589</v>
+        <v>681</v>
       </c>
       <c r="C34" s="45"/>
       <c r="D34" s="22"/>
@@ -12704,7 +13528,7 @@
     </row>
     <row r="35" ht="36" customHeight="1" spans="3:13">
       <c r="C35" s="26" t="s">
-        <v>590</v>
+        <v>682</v>
       </c>
       <c r="D35" s="26"/>
       <c r="E35" s="26"/>
@@ -12719,10 +13543,10 @@
     </row>
     <row r="36" spans="2:13">
       <c r="B36" s="39" t="s">
-        <v>591</v>
+        <v>683</v>
       </c>
       <c r="D36" s="26" t="s">
-        <v>592</v>
+        <v>684</v>
       </c>
       <c r="E36" s="26"/>
       <c r="F36" s="26"/>
@@ -12736,7 +13560,7 @@
     </row>
     <row r="38" spans="1:7">
       <c r="A38" s="38" t="s">
-        <v>593</v>
+        <v>685</v>
       </c>
       <c r="C38" s="46"/>
       <c r="D38" s="46"/>
@@ -12746,7 +13570,7 @@
     </row>
     <row r="39" ht="60" customHeight="1" spans="2:13">
       <c r="B39" s="35" t="s">
-        <v>594</v>
+        <v>686</v>
       </c>
       <c r="C39" s="35"/>
       <c r="D39" s="35"/>
@@ -12762,10 +13586,10 @@
     </row>
     <row r="40" spans="2:13">
       <c r="B40" s="39" t="s">
-        <v>595</v>
+        <v>687</v>
       </c>
       <c r="D40" s="26" t="s">
-        <v>596</v>
+        <v>688</v>
       </c>
       <c r="E40" s="26"/>
       <c r="F40" s="26"/>
@@ -12779,7 +13603,7 @@
     </row>
     <row r="41" ht="37" customHeight="1" spans="3:13">
       <c r="C41" s="26" t="s">
-        <v>597</v>
+        <v>689</v>
       </c>
       <c r="D41" s="26"/>
       <c r="E41" s="26"/>
@@ -12794,7 +13618,7 @@
     </row>
     <row r="42" spans="4:13">
       <c r="D42" s="26" t="s">
-        <v>598</v>
+        <v>690</v>
       </c>
       <c r="E42" s="26"/>
       <c r="F42" s="26"/>
@@ -12808,7 +13632,7 @@
     </row>
     <row r="43" ht="37" customHeight="1" spans="3:13">
       <c r="C43" s="26" t="s">
-        <v>599</v>
+        <v>691</v>
       </c>
       <c r="D43" s="26"/>
       <c r="E43" s="26"/>
@@ -12823,10 +13647,10 @@
     </row>
     <row r="44" spans="2:13">
       <c r="B44" s="39" t="s">
-        <v>600</v>
+        <v>692</v>
       </c>
       <c r="D44" s="27" t="s">
-        <v>601</v>
+        <v>693</v>
       </c>
       <c r="E44" s="27"/>
       <c r="F44" s="27"/>
@@ -12840,12 +13664,12 @@
     </row>
     <row r="45" spans="3:3">
       <c r="C45" s="40" t="s">
-        <v>602</v>
+        <v>694</v>
       </c>
     </row>
     <row r="46" spans="4:13">
       <c r="D46" s="26" t="s">
-        <v>603</v>
+        <v>695</v>
       </c>
       <c r="E46" s="26"/>
       <c r="F46" s="26"/>
@@ -12859,17 +13683,17 @@
     </row>
     <row r="48" spans="1:1">
       <c r="A48" s="38" t="s">
-        <v>604</v>
+        <v>696</v>
       </c>
     </row>
     <row r="49" spans="2:2">
       <c r="B49" s="39" t="s">
-        <v>605</v>
+        <v>697</v>
       </c>
     </row>
     <row r="50" ht="84" customHeight="1" spans="3:13">
       <c r="C50" s="26" t="s">
-        <v>606</v>
+        <v>698</v>
       </c>
       <c r="D50" s="26"/>
       <c r="E50" s="26"/>
@@ -12884,10 +13708,10 @@
     </row>
     <row r="51" spans="3:13">
       <c r="C51" s="29" t="s">
-        <v>607</v>
+        <v>699</v>
       </c>
       <c r="E51" s="32" t="s">
-        <v>608</v>
+        <v>700</v>
       </c>
       <c r="F51" s="32"/>
       <c r="G51" s="32"/>
@@ -12900,7 +13724,7 @@
     </row>
     <row r="52" spans="3:13">
       <c r="C52" s="29" t="s">
-        <v>609</v>
+        <v>701</v>
       </c>
       <c r="E52" s="32"/>
       <c r="F52" s="32"/>
@@ -12914,7 +13738,7 @@
     </row>
     <row r="53" spans="4:13">
       <c r="D53" s="30" t="s">
-        <v>610</v>
+        <v>702</v>
       </c>
       <c r="E53" s="30"/>
       <c r="F53" s="30"/>
@@ -12928,7 +13752,7 @@
     </row>
     <row r="54" ht="60" customHeight="1" spans="4:13">
       <c r="D54" s="26" t="s">
-        <v>611</v>
+        <v>703</v>
       </c>
       <c r="E54" s="26"/>
       <c r="F54" s="26"/>
@@ -12942,12 +13766,12 @@
     </row>
     <row r="56" spans="3:3">
       <c r="C56" s="29" t="s">
-        <v>612</v>
+        <v>704</v>
       </c>
     </row>
     <row r="57" ht="133" customHeight="1" spans="4:13">
       <c r="D57" s="26" t="s">
-        <v>613</v>
+        <v>705</v>
       </c>
       <c r="E57" s="26"/>
       <c r="F57" s="26"/>
@@ -12961,10 +13785,10 @@
     </row>
     <row r="59" spans="1:13">
       <c r="A59" s="38" t="s">
-        <v>614</v>
+        <v>706</v>
       </c>
       <c r="C59" s="26" t="s">
-        <v>615</v>
+        <v>707</v>
       </c>
       <c r="D59" s="26"/>
       <c r="E59" s="26"/>
@@ -12979,10 +13803,10 @@
     </row>
     <row r="60" ht="90" customHeight="1" spans="2:13">
       <c r="B60" s="39" t="s">
-        <v>616</v>
+        <v>708</v>
       </c>
       <c r="C60" s="26" t="s">
-        <v>617</v>
+        <v>709</v>
       </c>
       <c r="D60" s="26"/>
       <c r="E60" s="26"/>
@@ -12997,10 +13821,10 @@
     </row>
     <row r="61" spans="2:13">
       <c r="B61" s="39" t="s">
-        <v>618</v>
+        <v>710</v>
       </c>
       <c r="D61" s="27" t="s">
-        <v>619</v>
+        <v>711</v>
       </c>
       <c r="E61" s="27"/>
       <c r="F61" s="27"/>
@@ -13014,7 +13838,7 @@
     </row>
     <row r="62" ht="36" customHeight="1" spans="3:13">
       <c r="C62" s="26" t="s">
-        <v>620</v>
+        <v>712</v>
       </c>
       <c r="D62" s="27"/>
       <c r="E62" s="27"/>
@@ -13029,10 +13853,10 @@
     </row>
     <row r="64" ht="20" customHeight="1" spans="1:13">
       <c r="A64" s="38" t="s">
-        <v>621</v>
+        <v>713</v>
       </c>
       <c r="C64" s="27" t="s">
-        <v>622</v>
+        <v>714</v>
       </c>
       <c r="D64" s="27"/>
       <c r="E64" s="27"/>
@@ -13047,12 +13871,12 @@
     </row>
     <row r="65" spans="2:2">
       <c r="B65" s="39" t="s">
-        <v>623</v>
+        <v>715</v>
       </c>
     </row>
     <row r="66" ht="123" customHeight="1" spans="3:13">
       <c r="C66" s="26" t="s">
-        <v>624</v>
+        <v>716</v>
       </c>
       <c r="D66" s="26"/>
       <c r="E66" s="26"/>
@@ -13067,12 +13891,12 @@
     </row>
     <row r="67" spans="2:2">
       <c r="B67" s="39" t="s">
-        <v>625</v>
+        <v>717</v>
       </c>
     </row>
     <row r="68" ht="241" customHeight="1" spans="3:13">
       <c r="C68" s="26" t="s">
-        <v>626</v>
+        <v>718</v>
       </c>
       <c r="D68" s="26"/>
       <c r="E68" s="26"/>
@@ -13100,10 +13924,10 @@
     </row>
     <row r="70" ht="51" customHeight="1" spans="1:13">
       <c r="A70" s="38" t="s">
-        <v>627</v>
+        <v>719</v>
       </c>
       <c r="C70" s="26" t="s">
-        <v>628</v>
+        <v>720</v>
       </c>
       <c r="D70" s="26"/>
       <c r="E70" s="26"/>
@@ -13118,12 +13942,12 @@
     </row>
     <row r="71" spans="2:2">
       <c r="B71" s="39" t="s">
-        <v>629</v>
+        <v>721</v>
       </c>
     </row>
     <row r="72" ht="73" customHeight="1" spans="3:13">
       <c r="C72" s="26" t="s">
-        <v>630</v>
+        <v>722</v>
       </c>
       <c r="D72" s="27"/>
       <c r="E72" s="27"/>
@@ -13138,15 +13962,15 @@
     </row>
     <row r="73" spans="2:5">
       <c r="B73" s="39" t="s">
-        <v>631</v>
+        <v>723</v>
       </c>
       <c r="E73" s="25" t="s">
-        <v>632</v>
+        <v>724</v>
       </c>
     </row>
     <row r="74" ht="56" customHeight="1" spans="3:13">
       <c r="C74" s="26" t="s">
-        <v>633</v>
+        <v>725</v>
       </c>
       <c r="D74" s="27"/>
       <c r="E74" s="27"/>
@@ -13161,12 +13985,12 @@
     </row>
     <row r="75" spans="3:3">
       <c r="C75" s="29" t="s">
-        <v>634</v>
+        <v>726</v>
       </c>
     </row>
     <row r="76" ht="72" customHeight="1" spans="4:13">
       <c r="D76" s="26" t="s">
-        <v>635</v>
+        <v>727</v>
       </c>
       <c r="E76" s="26"/>
       <c r="F76" s="26"/>
@@ -13180,12 +14004,12 @@
     </row>
     <row r="77" spans="3:3">
       <c r="C77" s="29" t="s">
-        <v>636</v>
+        <v>728</v>
       </c>
     </row>
     <row r="78" spans="4:13">
       <c r="D78" s="27" t="s">
-        <v>637</v>
+        <v>729</v>
       </c>
       <c r="E78" s="27"/>
       <c r="F78" s="27"/>
@@ -13199,19 +14023,19 @@
     </row>
     <row r="79" spans="1:13">
       <c r="A79" s="38" t="s">
-        <v>638</v>
+        <v>730</v>
       </c>
       <c r="M79" s="23"/>
     </row>
     <row r="80" spans="2:13">
       <c r="B80" s="39" t="s">
-        <v>639</v>
+        <v>731</v>
       </c>
       <c r="M80" s="23"/>
     </row>
     <row r="81" spans="3:13">
       <c r="C81" s="47" t="s">
-        <v>640</v>
+        <v>732</v>
       </c>
       <c r="D81" s="27"/>
       <c r="E81" s="27"/>
@@ -13227,7 +14051,7 @@
     <row r="82" ht="40" customHeight="1" spans="3:13">
       <c r="C82" s="27"/>
       <c r="D82" s="26" t="s">
-        <v>641</v>
+        <v>733</v>
       </c>
       <c r="E82" s="26"/>
       <c r="F82" s="26"/>
@@ -13241,7 +14065,7 @@
     </row>
     <row r="83" spans="3:13">
       <c r="C83" s="47" t="s">
-        <v>642</v>
+        <v>734</v>
       </c>
       <c r="D83" s="27"/>
       <c r="E83" s="27"/>
@@ -13257,7 +14081,7 @@
     <row r="84" ht="57" customHeight="1" spans="3:13">
       <c r="C84" s="27"/>
       <c r="D84" s="26" t="s">
-        <v>643</v>
+        <v>735</v>
       </c>
       <c r="E84" s="26"/>
       <c r="F84" s="26"/>
@@ -13271,7 +14095,7 @@
     </row>
     <row r="85" spans="3:13">
       <c r="C85" s="47" t="s">
-        <v>644</v>
+        <v>736</v>
       </c>
       <c r="D85" s="27"/>
       <c r="E85" s="27"/>
@@ -13287,7 +14111,7 @@
     <row r="86" ht="67" customHeight="1" spans="3:13">
       <c r="C86" s="27"/>
       <c r="D86" s="26" t="s">
-        <v>645</v>
+        <v>737</v>
       </c>
       <c r="E86" s="26"/>
       <c r="F86" s="26"/>
@@ -13302,7 +14126,7 @@
     <row r="87" ht="279" customHeight="1" spans="3:13">
       <c r="C87" s="27"/>
       <c r="D87" s="26" t="s">
-        <v>646</v>
+        <v>738</v>
       </c>
       <c r="E87" s="26"/>
       <c r="F87" s="26"/>
@@ -13316,7 +14140,7 @@
     </row>
     <row r="88" spans="3:13">
       <c r="C88" s="47" t="s">
-        <v>647</v>
+        <v>739</v>
       </c>
       <c r="D88" s="27"/>
       <c r="E88" s="27"/>
@@ -13332,7 +14156,7 @@
     <row r="89" ht="38" customHeight="1" spans="3:13">
       <c r="C89" s="27"/>
       <c r="D89" s="26" t="s">
-        <v>648</v>
+        <v>740</v>
       </c>
       <c r="E89" s="26"/>
       <c r="F89" s="26"/>
@@ -13347,7 +14171,7 @@
     <row r="90" spans="3:13">
       <c r="C90" s="27"/>
       <c r="D90" s="47" t="s">
-        <v>649</v>
+        <v>741</v>
       </c>
       <c r="E90" s="27"/>
       <c r="F90" s="27"/>
@@ -13363,7 +14187,7 @@
       <c r="C91" s="27"/>
       <c r="D91" s="27"/>
       <c r="E91" s="50" t="s">
-        <v>650</v>
+        <v>742</v>
       </c>
       <c r="F91" s="26"/>
       <c r="G91" s="26"/>
@@ -13377,7 +14201,7 @@
     <row r="92" ht="21" customHeight="1" spans="3:13">
       <c r="C92" s="27"/>
       <c r="D92" s="47" t="s">
-        <v>651</v>
+        <v>743</v>
       </c>
       <c r="E92" s="50"/>
       <c r="F92" s="26"/>
@@ -13393,7 +14217,7 @@
       <c r="C93" s="27"/>
       <c r="D93" s="27"/>
       <c r="E93" s="26" t="s">
-        <v>652</v>
+        <v>744</v>
       </c>
       <c r="F93" s="26"/>
       <c r="G93" s="26"/>
@@ -13407,7 +14231,7 @@
     <row r="94" ht="27" customHeight="1" spans="3:13">
       <c r="C94" s="27"/>
       <c r="D94" s="47" t="s">
-        <v>653</v>
+        <v>745</v>
       </c>
       <c r="E94" s="50"/>
       <c r="F94" s="26"/>
@@ -13423,7 +14247,7 @@
       <c r="C95" s="27"/>
       <c r="D95" s="27"/>
       <c r="E95" s="26" t="s">
-        <v>654</v>
+        <v>746</v>
       </c>
       <c r="F95" s="26"/>
       <c r="G95" s="26"/>
@@ -13438,7 +14262,7 @@
       <c r="C96" s="27"/>
       <c r="D96" s="27"/>
       <c r="E96" s="26" t="s">
-        <v>655</v>
+        <v>747</v>
       </c>
       <c r="F96" s="26"/>
       <c r="G96" s="26"/>
@@ -13451,13 +14275,13 @@
     </row>
     <row r="97" spans="2:13">
       <c r="B97" s="39" t="s">
-        <v>656</v>
+        <v>748</v>
       </c>
       <c r="M97" s="23"/>
     </row>
     <row r="98" spans="3:13">
       <c r="C98" s="33" t="s">
-        <v>657</v>
+        <v>749</v>
       </c>
       <c r="D98" s="34"/>
       <c r="E98" s="34"/>
@@ -13473,7 +14297,7 @@
     <row r="99" spans="3:13">
       <c r="C99" s="27"/>
       <c r="D99" s="26" t="s">
-        <v>658</v>
+        <v>750</v>
       </c>
       <c r="E99" s="26"/>
       <c r="F99" s="26"/>
@@ -13487,12 +14311,12 @@
     </row>
     <row r="100" spans="3:13">
       <c r="C100" s="47" t="s">
-        <v>659</v>
+        <v>751</v>
       </c>
       <c r="D100" s="27"/>
       <c r="E100" s="27"/>
       <c r="F100" s="27" t="s">
-        <v>660</v>
+        <v>752</v>
       </c>
       <c r="G100" s="27"/>
       <c r="H100" s="27"/>
@@ -13505,7 +14329,7 @@
     <row r="101" ht="95" customHeight="1" spans="3:13">
       <c r="C101" s="27"/>
       <c r="D101" s="26" t="s">
-        <v>661</v>
+        <v>753</v>
       </c>
       <c r="E101" s="26"/>
       <c r="F101" s="26"/>
@@ -13520,7 +14344,7 @@
     <row r="102" ht="75" customHeight="1" spans="3:13">
       <c r="C102" s="27"/>
       <c r="D102" s="26" t="s">
-        <v>662</v>
+        <v>754</v>
       </c>
       <c r="E102" s="26"/>
       <c r="F102" s="26"/>
@@ -13534,7 +14358,7 @@
     </row>
     <row r="103" spans="3:13">
       <c r="C103" s="47" t="s">
-        <v>663</v>
+        <v>755</v>
       </c>
       <c r="D103" s="27"/>
       <c r="E103" s="27"/>
@@ -13550,7 +14374,7 @@
     <row r="104" spans="3:13">
       <c r="C104" s="27"/>
       <c r="D104" s="47" t="s">
-        <v>664</v>
+        <v>756</v>
       </c>
       <c r="E104" s="27"/>
       <c r="F104" s="27"/>
@@ -13566,7 +14390,7 @@
       <c r="C105" s="27"/>
       <c r="D105" s="27"/>
       <c r="E105" s="26" t="s">
-        <v>665</v>
+        <v>757</v>
       </c>
       <c r="F105" s="26"/>
       <c r="G105" s="26"/>
@@ -13580,7 +14404,7 @@
     <row r="106" spans="3:13">
       <c r="C106" s="27"/>
       <c r="D106" s="47" t="s">
-        <v>666</v>
+        <v>758</v>
       </c>
       <c r="E106" s="27"/>
       <c r="F106" s="27"/>
@@ -13596,7 +14420,7 @@
       <c r="C107" s="27"/>
       <c r="D107" s="27"/>
       <c r="E107" s="26" t="s">
-        <v>667</v>
+        <v>759</v>
       </c>
       <c r="F107" s="26"/>
       <c r="G107" s="26"/>
@@ -13622,13 +14446,13 @@
     </row>
     <row r="109" spans="2:13">
       <c r="B109" s="39" t="s">
-        <v>668</v>
+        <v>760</v>
       </c>
       <c r="M109" s="23"/>
     </row>
     <row r="110" spans="3:13">
       <c r="C110" s="48" t="s">
-        <v>669</v>
+        <v>761</v>
       </c>
       <c r="D110" s="45"/>
       <c r="E110" s="45"/>
@@ -13643,7 +14467,7 @@
     </row>
     <row r="111" ht="71" customHeight="1" spans="4:13">
       <c r="D111" s="26" t="s">
-        <v>670</v>
+        <v>762</v>
       </c>
       <c r="E111" s="27"/>
       <c r="F111" s="27"/>
@@ -13660,19 +14484,19 @@
     </row>
     <row r="113" spans="1:13">
       <c r="A113" s="38" t="s">
-        <v>671</v>
+        <v>763</v>
       </c>
       <c r="M113" s="23"/>
     </row>
     <row r="114" spans="2:13">
       <c r="B114" s="39" t="s">
-        <v>672</v>
+        <v>764</v>
       </c>
       <c r="M114" s="23"/>
     </row>
     <row r="115" ht="159" customHeight="1" spans="3:13">
-      <c r="C115" s="111" t="s">
-        <v>673</v>
+      <c r="C115" s="112" t="s">
+        <v>765</v>
       </c>
       <c r="D115" s="26"/>
       <c r="E115" s="26"/>
@@ -13687,13 +14511,13 @@
     </row>
     <row r="116" spans="2:13">
       <c r="B116" s="39" t="s">
-        <v>674</v>
+        <v>766</v>
       </c>
       <c r="M116" s="23"/>
     </row>
     <row r="117" spans="3:13">
       <c r="C117" s="26" t="s">
-        <v>675</v>
+        <v>767</v>
       </c>
       <c r="D117" s="26"/>
       <c r="E117" s="26"/>
@@ -13708,13 +14532,13 @@
     </row>
     <row r="118" spans="2:13">
       <c r="B118" s="39" t="s">
-        <v>676</v>
+        <v>768</v>
       </c>
       <c r="M118" s="23"/>
     </row>
     <row r="119" ht="138" customHeight="1" spans="3:13">
       <c r="C119" s="26" t="s">
-        <v>677</v>
+        <v>769</v>
       </c>
       <c r="D119" s="26"/>
       <c r="E119" s="26"/>
@@ -13732,19 +14556,19 @@
     </row>
     <row r="121" spans="1:13">
       <c r="A121" s="38" t="s">
-        <v>678</v>
+        <v>770</v>
       </c>
       <c r="M121" s="23"/>
     </row>
     <row r="122" spans="2:13">
       <c r="B122" s="39" t="s">
-        <v>679</v>
+        <v>771</v>
       </c>
       <c r="M122" s="23"/>
     </row>
     <row r="123" ht="153" customHeight="1" spans="3:13">
       <c r="C123" s="36" t="s">
-        <v>680</v>
+        <v>772</v>
       </c>
       <c r="D123" s="49"/>
       <c r="E123" s="49"/>
@@ -13759,13 +14583,13 @@
     </row>
     <row r="124" spans="2:13">
       <c r="B124" s="39" t="s">
-        <v>681</v>
+        <v>773</v>
       </c>
       <c r="M124" s="23"/>
     </row>
     <row r="125" ht="187" customHeight="1" spans="3:13">
       <c r="C125" s="36" t="s">
-        <v>682</v>
+        <v>774</v>
       </c>
       <c r="D125" s="36"/>
       <c r="E125" s="36"/>
@@ -13780,13 +14604,13 @@
     </row>
     <row r="126" spans="3:13">
       <c r="C126" s="29" t="s">
-        <v>683</v>
+        <v>775</v>
       </c>
       <c r="M126" s="23"/>
     </row>
     <row r="127" ht="133" customHeight="1" spans="4:13">
       <c r="D127" s="36" t="s">
-        <v>684</v>
+        <v>776</v>
       </c>
       <c r="E127" s="49"/>
       <c r="F127" s="49"/>
@@ -13800,10 +14624,10 @@
     </row>
     <row r="128" ht="56" customHeight="1" spans="1:13">
       <c r="A128" s="38" t="s">
-        <v>685</v>
+        <v>777</v>
       </c>
       <c r="C128" s="26" t="s">
-        <v>686</v>
+        <v>778</v>
       </c>
       <c r="D128" s="26"/>
       <c r="E128" s="26"/>
@@ -13821,10 +14645,10 @@
     </row>
     <row r="130" ht="90" customHeight="1" spans="2:13">
       <c r="B130" s="51" t="s">
-        <v>687</v>
+        <v>779</v>
       </c>
       <c r="C130" s="26" t="s">
-        <v>688</v>
+        <v>780</v>
       </c>
       <c r="D130" s="27"/>
       <c r="E130" s="27"/>
@@ -13839,13 +14663,13 @@
     </row>
     <row r="131" spans="2:13">
       <c r="B131" s="39" t="s">
-        <v>689</v>
+        <v>781</v>
       </c>
       <c r="M131" s="23"/>
     </row>
     <row r="132" ht="124" customHeight="1" spans="3:13">
       <c r="C132" s="36" t="s">
-        <v>690</v>
+        <v>782</v>
       </c>
       <c r="D132" s="36"/>
       <c r="E132" s="36"/>
@@ -13860,13 +14684,13 @@
     </row>
     <row r="133" spans="2:13">
       <c r="B133" s="39" t="s">
-        <v>691</v>
+        <v>783</v>
       </c>
       <c r="M133" s="23"/>
     </row>
     <row r="134" ht="95" customHeight="1" spans="3:13">
       <c r="C134" s="26" t="s">
-        <v>692</v>
+        <v>784</v>
       </c>
       <c r="D134" s="26"/>
       <c r="E134" s="26"/>
@@ -13884,13 +14708,13 @@
     </row>
     <row r="136" spans="1:13">
       <c r="A136" s="38" t="s">
-        <v>693</v>
+        <v>785</v>
       </c>
       <c r="M136" s="23"/>
     </row>
     <row r="137" ht="60" customHeight="1" spans="2:13">
       <c r="B137" s="52" t="s">
-        <v>694</v>
+        <v>786</v>
       </c>
       <c r="C137" s="52"/>
       <c r="D137" s="52"/>
@@ -13906,13 +14730,13 @@
     </row>
     <row r="138" spans="2:13">
       <c r="B138" s="39" t="s">
-        <v>695</v>
+        <v>787</v>
       </c>
       <c r="M138" s="23"/>
     </row>
     <row r="139" ht="69" customHeight="1" spans="3:13">
       <c r="C139" s="26" t="s">
-        <v>696</v>
+        <v>788</v>
       </c>
       <c r="D139" s="26"/>
       <c r="E139" s="26"/>
@@ -13927,13 +14751,13 @@
     </row>
     <row r="140" spans="2:13">
       <c r="B140" s="39" t="s">
-        <v>697</v>
+        <v>789</v>
       </c>
       <c r="M140" s="23"/>
     </row>
     <row r="141" ht="57" customHeight="1" spans="3:13">
       <c r="C141" s="26" t="s">
-        <v>698</v>
+        <v>790</v>
       </c>
       <c r="D141" s="26"/>
       <c r="E141" s="26"/>
@@ -13948,12 +14772,12 @@
     </row>
     <row r="142" spans="2:2">
       <c r="B142" s="39" t="s">
-        <v>699</v>
+        <v>791</v>
       </c>
     </row>
     <row r="143" ht="39" customHeight="1" spans="3:13">
       <c r="C143" s="26" t="s">
-        <v>700</v>
+        <v>792</v>
       </c>
       <c r="D143" s="26"/>
       <c r="E143" s="26"/>
@@ -13968,7 +14792,7 @@
     </row>
     <row r="144" ht="38" customHeight="1" spans="3:13">
       <c r="C144" s="26" t="s">
-        <v>701</v>
+        <v>793</v>
       </c>
       <c r="D144" s="26"/>
       <c r="E144" s="26"/>
@@ -13983,12 +14807,12 @@
     </row>
     <row r="145" spans="2:2">
       <c r="B145" s="39" t="s">
-        <v>702</v>
+        <v>794</v>
       </c>
     </row>
     <row r="146" ht="38" customHeight="1" spans="3:13">
       <c r="C146" s="26" t="s">
-        <v>703</v>
+        <v>795</v>
       </c>
       <c r="D146" s="26"/>
       <c r="E146" s="26"/>
@@ -14003,7 +14827,7 @@
     </row>
     <row r="147" spans="2:13">
       <c r="B147" s="53" t="s">
-        <v>704</v>
+        <v>796</v>
       </c>
       <c r="C147" s="53"/>
       <c r="D147" s="53"/>
@@ -14019,22 +14843,22 @@
     </row>
     <row r="149" spans="1:1">
       <c r="A149" s="38" t="s">
-        <v>705</v>
+        <v>797</v>
       </c>
     </row>
     <row r="150" spans="2:2">
       <c r="B150" s="39" t="s">
-        <v>706</v>
+        <v>798</v>
       </c>
     </row>
     <row r="151" spans="3:3">
       <c r="C151" s="29" t="s">
-        <v>707</v>
+        <v>799</v>
       </c>
     </row>
     <row r="152" ht="39" customHeight="1" spans="4:13">
       <c r="D152" s="26" t="s">
-        <v>708</v>
+        <v>800</v>
       </c>
       <c r="E152" s="27"/>
       <c r="F152" s="27"/>
@@ -14048,12 +14872,12 @@
     </row>
     <row r="153" spans="3:3">
       <c r="C153" s="29" t="s">
-        <v>709</v>
+        <v>801</v>
       </c>
     </row>
     <row r="154" ht="38" customHeight="1" spans="4:13">
       <c r="D154" s="26" t="s">
-        <v>710</v>
+        <v>802</v>
       </c>
       <c r="E154" s="27"/>
       <c r="F154" s="27"/>
@@ -14067,12 +14891,12 @@
     </row>
     <row r="155" spans="2:2">
       <c r="B155" s="39" t="s">
-        <v>711</v>
+        <v>803</v>
       </c>
     </row>
     <row r="156" ht="168" customHeight="1" spans="3:13">
       <c r="C156" s="26" t="s">
-        <v>712</v>
+        <v>804</v>
       </c>
       <c r="D156" s="26"/>
       <c r="E156" s="26"/>
@@ -14088,17 +14912,17 @@
     <row r="157" ht="21" customHeight="1"/>
     <row r="158" ht="20" customHeight="1" spans="1:1">
       <c r="A158" s="38" t="s">
-        <v>713</v>
+        <v>805</v>
       </c>
     </row>
     <row r="159" spans="2:2">
       <c r="B159" s="39" t="s">
-        <v>714</v>
+        <v>806</v>
       </c>
     </row>
     <row r="160" spans="3:13">
       <c r="C160" s="26" t="s">
-        <v>715</v>
+        <v>807</v>
       </c>
       <c r="D160" s="26"/>
       <c r="E160" s="26"/>
@@ -14113,12 +14937,12 @@
     </row>
     <row r="161" spans="2:2">
       <c r="B161" s="39" t="s">
-        <v>716</v>
+        <v>808</v>
       </c>
     </row>
     <row r="162" ht="35" customHeight="1" spans="3:13">
       <c r="C162" s="26" t="s">
-        <v>717</v>
+        <v>809</v>
       </c>
       <c r="D162" s="26"/>
       <c r="E162" s="26"/>
@@ -14133,12 +14957,12 @@
     </row>
     <row r="163" spans="2:2">
       <c r="B163" s="39" t="s">
-        <v>718</v>
+        <v>810</v>
       </c>
     </row>
     <row r="164" spans="3:13">
       <c r="C164" s="26" t="s">
-        <v>719</v>
+        <v>811</v>
       </c>
       <c r="D164" s="26"/>
       <c r="E164" s="26"/>
@@ -14153,12 +14977,12 @@
     </row>
     <row r="166" spans="1:1">
       <c r="A166" s="38" t="s">
-        <v>718</v>
+        <v>810</v>
       </c>
     </row>
     <row r="167" ht="73" customHeight="1" spans="2:13">
       <c r="B167" s="35" t="s">
-        <v>720</v>
+        <v>812</v>
       </c>
       <c r="C167" s="35"/>
       <c r="D167" s="35"/>
@@ -14174,17 +14998,17 @@
     </row>
     <row r="168" spans="2:2">
       <c r="B168" s="39" t="s">
-        <v>721</v>
+        <v>813</v>
       </c>
     </row>
     <row r="169" spans="3:3">
       <c r="C169" s="29" t="s">
-        <v>722</v>
+        <v>814</v>
       </c>
     </row>
     <row r="170" ht="71" customHeight="1" spans="4:13">
       <c r="D170" s="26" t="s">
-        <v>723</v>
+        <v>815</v>
       </c>
       <c r="E170" s="27"/>
       <c r="F170" s="27"/>
@@ -14198,12 +15022,12 @@
     </row>
     <row r="171" spans="3:3">
       <c r="C171" s="29" t="s">
-        <v>521</v>
+        <v>613</v>
       </c>
     </row>
     <row r="172" ht="234" customHeight="1" spans="4:13">
       <c r="D172" s="26" t="s">
-        <v>724</v>
+        <v>816</v>
       </c>
       <c r="E172" s="26"/>
       <c r="F172" s="26"/>
@@ -14217,12 +15041,12 @@
     </row>
     <row r="173" ht="24" customHeight="1" spans="3:3">
       <c r="C173" s="29" t="s">
-        <v>725</v>
+        <v>817</v>
       </c>
     </row>
     <row r="174" spans="4:13">
       <c r="D174" s="27" t="s">
-        <v>726</v>
+        <v>818</v>
       </c>
       <c r="E174" s="27"/>
       <c r="F174" s="27"/>
@@ -14236,20 +15060,20 @@
     </row>
     <row r="175" spans="2:5">
       <c r="B175" s="39" t="s">
-        <v>727</v>
+        <v>819</v>
       </c>
       <c r="E175" s="54" t="s">
-        <v>728</v>
+        <v>820</v>
       </c>
     </row>
     <row r="176" spans="3:3">
       <c r="C176" s="29" t="s">
-        <v>729</v>
+        <v>821</v>
       </c>
     </row>
     <row r="177" ht="160" customHeight="1" spans="4:13">
       <c r="D177" s="26" t="s">
-        <v>730</v>
+        <v>822</v>
       </c>
       <c r="E177" s="26"/>
       <c r="F177" s="26"/>
@@ -14263,17 +15087,17 @@
     </row>
     <row r="178" spans="3:3">
       <c r="C178" s="29" t="s">
-        <v>731</v>
+        <v>823</v>
       </c>
     </row>
     <row r="179" spans="4:4">
       <c r="D179" s="29" t="s">
-        <v>732</v>
+        <v>824</v>
       </c>
     </row>
     <row r="180" ht="91" customHeight="1" spans="5:13">
       <c r="E180" s="26" t="s">
-        <v>733</v>
+        <v>825</v>
       </c>
       <c r="F180" s="27"/>
       <c r="G180" s="27"/>
@@ -14286,12 +15110,12 @@
     </row>
     <row r="181" spans="4:4">
       <c r="D181" s="29" t="s">
-        <v>734</v>
+        <v>826</v>
       </c>
     </row>
     <row r="182" spans="5:13">
       <c r="E182" s="26" t="s">
-        <v>735</v>
+        <v>827</v>
       </c>
       <c r="F182" s="26"/>
       <c r="G182" s="26"/>
@@ -14304,7 +15128,7 @@
     </row>
     <row r="183" spans="4:13">
       <c r="D183" s="29" t="s">
-        <v>736</v>
+        <v>828</v>
       </c>
       <c r="E183" s="26"/>
       <c r="F183" s="26"/>
@@ -14318,12 +15142,12 @@
     </row>
     <row r="184" spans="5:5">
       <c r="E184" s="55" t="s">
-        <v>737</v>
+        <v>829</v>
       </c>
     </row>
     <row r="185" ht="93" customHeight="1" spans="5:13">
       <c r="E185" s="26" t="s">
-        <v>738</v>
+        <v>830</v>
       </c>
       <c r="F185" s="26"/>
       <c r="G185" s="26"/>
@@ -14336,12 +15160,12 @@
     </row>
     <row r="186" spans="5:5">
       <c r="E186" s="55" t="s">
-        <v>739</v>
+        <v>831</v>
       </c>
     </row>
     <row r="187" ht="108" customHeight="1" spans="5:13">
       <c r="E187" s="26" t="s">
-        <v>740</v>
+        <v>832</v>
       </c>
       <c r="F187" s="26"/>
       <c r="G187" s="26"/>
@@ -14354,12 +15178,12 @@
     </row>
     <row r="188" spans="4:4">
       <c r="D188" s="29" t="s">
-        <v>741</v>
+        <v>833</v>
       </c>
     </row>
     <row r="189" ht="41" customHeight="1" spans="5:13">
       <c r="E189" s="26" t="s">
-        <v>742</v>
+        <v>834</v>
       </c>
       <c r="F189" s="26"/>
       <c r="G189" s="26"/>
@@ -14372,7 +15196,7 @@
     </row>
     <row r="190" ht="83" customHeight="1" spans="5:13">
       <c r="E190" s="26" t="s">
-        <v>743</v>
+        <v>835</v>
       </c>
       <c r="F190" s="26"/>
       <c r="G190" s="26"/>
@@ -14385,17 +15209,17 @@
     </row>
     <row r="191" spans="2:2">
       <c r="B191" s="39" t="s">
-        <v>744</v>
+        <v>836</v>
       </c>
     </row>
     <row r="192" spans="3:3">
       <c r="C192" s="29" t="s">
-        <v>745</v>
+        <v>837</v>
       </c>
     </row>
     <row r="193" ht="54" customHeight="1" spans="4:13">
       <c r="D193" s="26" t="s">
-        <v>746</v>
+        <v>838</v>
       </c>
       <c r="E193" s="26"/>
       <c r="F193" s="26"/>
@@ -14409,7 +15233,7 @@
     </row>
     <row r="194" ht="70" customHeight="1" spans="4:13">
       <c r="D194" s="56" t="s">
-        <v>747</v>
+        <v>839</v>
       </c>
       <c r="E194" s="56"/>
       <c r="F194" s="56"/>
@@ -14423,15 +15247,15 @@
     </row>
     <row r="195" spans="3:6">
       <c r="C195" s="29" t="s">
-        <v>748</v>
+        <v>840</v>
       </c>
       <c r="F195" s="55" t="s">
-        <v>739</v>
+        <v>831</v>
       </c>
     </row>
     <row r="196" ht="105" customHeight="1" spans="4:13">
       <c r="D196" s="26" t="s">
-        <v>749</v>
+        <v>841</v>
       </c>
       <c r="E196" s="26"/>
       <c r="F196" s="26"/>
@@ -14445,22 +15269,22 @@
     </row>
     <row r="197" spans="2:2">
       <c r="B197" s="39" t="s">
-        <v>750</v>
+        <v>842</v>
       </c>
     </row>
     <row r="199" spans="1:1">
       <c r="A199" s="38" t="s">
-        <v>751</v>
+        <v>843</v>
       </c>
     </row>
     <row r="200" spans="2:2">
       <c r="B200" s="39" t="s">
-        <v>752</v>
+        <v>844</v>
       </c>
     </row>
     <row r="201" ht="57" customHeight="1" spans="3:13">
       <c r="C201" s="26" t="s">
-        <v>753</v>
+        <v>845</v>
       </c>
       <c r="D201" s="26"/>
       <c r="E201" s="26"/>
@@ -14586,10 +15410,10 @@
   <sheetPr/>
   <dimension ref="A1:N191"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" workbookViewId="0">
+    <sheetView topLeftCell="A112" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="B109" sqref="B109"/>
+      <selection pane="topRight" activeCell="C120" sqref="C120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18"/>
@@ -14603,17 +15427,17 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="21" t="s">
-        <v>754</v>
+        <v>846</v>
       </c>
     </row>
     <row r="2" spans="2:2">
       <c r="B2" s="24" t="s">
-        <v>755</v>
+        <v>847</v>
       </c>
     </row>
     <row r="3" ht="108" customHeight="1" spans="3:14">
       <c r="C3" s="26" t="s">
-        <v>756</v>
+        <v>848</v>
       </c>
       <c r="D3" s="27"/>
       <c r="E3" s="27"/>
@@ -14629,10 +15453,10 @@
     </row>
     <row r="4" spans="2:14">
       <c r="B4" s="24" t="s">
-        <v>757</v>
+        <v>849</v>
       </c>
       <c r="D4" s="27" t="s">
-        <v>758</v>
+        <v>850</v>
       </c>
       <c r="E4" s="27"/>
       <c r="F4" s="27"/>
@@ -14647,7 +15471,7 @@
     </row>
     <row r="5" ht="36" customHeight="1" spans="3:14">
       <c r="C5" s="26" t="s">
-        <v>759</v>
+        <v>851</v>
       </c>
       <c r="D5" s="26"/>
       <c r="E5" s="26"/>
@@ -14663,12 +15487,12 @@
     </row>
     <row r="6" spans="2:2">
       <c r="B6" s="24" t="s">
-        <v>760</v>
+        <v>852</v>
       </c>
     </row>
     <row r="7" ht="37" customHeight="1" spans="3:14">
       <c r="C7" s="26" t="s">
-        <v>761</v>
+        <v>853</v>
       </c>
       <c r="D7" s="26"/>
       <c r="E7" s="26"/>
@@ -14684,12 +15508,12 @@
     </row>
     <row r="9" spans="2:2">
       <c r="B9" s="24" t="s">
-        <v>762</v>
+        <v>854</v>
       </c>
     </row>
     <row r="10" ht="108" customHeight="1" spans="3:14">
       <c r="C10" s="26" t="s">
-        <v>763</v>
+        <v>855</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -14705,7 +15529,7 @@
     </row>
     <row r="11" ht="76" customHeight="1" spans="3:14">
       <c r="C11" s="26" t="s">
-        <v>764</v>
+        <v>856</v>
       </c>
       <c r="D11" s="26"/>
       <c r="E11" s="26"/>
@@ -14721,12 +15545,12 @@
     </row>
     <row r="12" spans="2:2">
       <c r="B12" s="24" t="s">
-        <v>765</v>
+        <v>857</v>
       </c>
     </row>
     <row r="13" spans="3:14">
       <c r="C13" s="26" t="s">
-        <v>766</v>
+        <v>858</v>
       </c>
       <c r="D13" s="26"/>
       <c r="E13" s="26"/>
@@ -14742,12 +15566,12 @@
     </row>
     <row r="14" spans="2:2">
       <c r="B14" s="24" t="s">
-        <v>767</v>
+        <v>859</v>
       </c>
     </row>
     <row r="15" ht="136" customHeight="1" spans="3:14">
       <c r="C15" s="26" t="s">
-        <v>768</v>
+        <v>860</v>
       </c>
       <c r="D15" s="26"/>
       <c r="E15" s="26"/>
@@ -14763,10 +15587,10 @@
     </row>
     <row r="16" spans="2:14">
       <c r="B16" s="24" t="s">
-        <v>769</v>
+        <v>861</v>
       </c>
       <c r="D16" s="26" t="s">
-        <v>770</v>
+        <v>862</v>
       </c>
       <c r="E16" s="26"/>
       <c r="F16" s="26"/>
@@ -14781,7 +15605,7 @@
     </row>
     <row r="17" ht="72" customHeight="1" spans="3:14">
       <c r="C17" s="26" t="s">
-        <v>771</v>
+        <v>863</v>
       </c>
       <c r="D17" s="26"/>
       <c r="E17" s="26"/>
@@ -14811,12 +15635,12 @@
     </row>
     <row r="19" ht="20" customHeight="1" spans="1:1">
       <c r="A19" s="21" t="s">
-        <v>772</v>
+        <v>864</v>
       </c>
     </row>
     <row r="20" ht="38" customHeight="1" spans="2:14">
       <c r="B20" s="28" t="s">
-        <v>773</v>
+        <v>865</v>
       </c>
       <c r="C20" s="28"/>
       <c r="D20" s="28"/>
@@ -14833,12 +15657,12 @@
     </row>
     <row r="21" spans="2:2">
       <c r="B21" s="24" t="s">
-        <v>774</v>
+        <v>866</v>
       </c>
     </row>
     <row r="22" spans="3:14">
       <c r="C22" s="26" t="s">
-        <v>775</v>
+        <v>867</v>
       </c>
       <c r="D22" s="26"/>
       <c r="E22" s="26"/>
@@ -14854,12 +15678,12 @@
     </row>
     <row r="23" spans="2:2">
       <c r="B23" s="24" t="s">
-        <v>776</v>
+        <v>868</v>
       </c>
     </row>
     <row r="24" ht="54" customHeight="1" spans="3:14">
       <c r="C24" s="26" t="s">
-        <v>777</v>
+        <v>869</v>
       </c>
       <c r="D24" s="26"/>
       <c r="E24" s="26"/>
@@ -14875,12 +15699,12 @@
     </row>
     <row r="25" spans="3:3">
       <c r="C25" s="29" t="s">
-        <v>778</v>
+        <v>870</v>
       </c>
     </row>
     <row r="26" spans="4:14">
       <c r="D26" s="26" t="s">
-        <v>779</v>
+        <v>871</v>
       </c>
       <c r="E26" s="26"/>
       <c r="F26" s="26"/>
@@ -14895,12 +15719,12 @@
     </row>
     <row r="27" spans="3:3">
       <c r="C27" s="29" t="s">
-        <v>780</v>
+        <v>872</v>
       </c>
     </row>
     <row r="28" spans="4:14">
       <c r="D28" s="27" t="s">
-        <v>781</v>
+        <v>873</v>
       </c>
       <c r="E28" s="27"/>
       <c r="F28" s="27"/>
@@ -14915,17 +15739,17 @@
     </row>
     <row r="30" spans="1:1">
       <c r="A30" s="21" t="s">
-        <v>782</v>
+        <v>874</v>
       </c>
     </row>
     <row r="31" spans="2:2">
       <c r="B31" s="24" t="s">
-        <v>783</v>
+        <v>875</v>
       </c>
     </row>
     <row r="32" ht="73" customHeight="1" spans="3:14">
       <c r="C32" s="26" t="s">
-        <v>784</v>
+        <v>876</v>
       </c>
       <c r="D32" s="26"/>
       <c r="E32" s="26"/>
@@ -14941,12 +15765,12 @@
     </row>
     <row r="33" spans="2:2">
       <c r="B33" s="24" t="s">
-        <v>785</v>
+        <v>877</v>
       </c>
     </row>
     <row r="34" ht="82" customHeight="1" spans="3:14">
       <c r="C34" s="26" t="s">
-        <v>786</v>
+        <v>878</v>
       </c>
       <c r="D34" s="27"/>
       <c r="E34" s="27"/>
@@ -14962,12 +15786,12 @@
     </row>
     <row r="35" spans="2:2">
       <c r="B35" s="24" t="s">
-        <v>787</v>
+        <v>879</v>
       </c>
     </row>
     <row r="36" ht="145" customHeight="1" spans="3:14">
       <c r="C36" s="26" t="s">
-        <v>788</v>
+        <v>880</v>
       </c>
       <c r="D36" s="26"/>
       <c r="E36" s="26"/>
@@ -14983,12 +15807,12 @@
     </row>
     <row r="37" spans="2:2">
       <c r="B37" s="24" t="s">
-        <v>789</v>
+        <v>881</v>
       </c>
     </row>
     <row r="38" spans="3:14">
       <c r="C38" s="27" t="s">
-        <v>790</v>
+        <v>882</v>
       </c>
       <c r="D38" s="27"/>
       <c r="E38" s="27"/>
@@ -15004,17 +15828,17 @@
     </row>
     <row r="39" spans="2:2">
       <c r="B39" s="24" t="s">
-        <v>791</v>
+        <v>883</v>
       </c>
     </row>
     <row r="40" spans="3:3">
       <c r="C40" s="29" t="s">
-        <v>792</v>
+        <v>884</v>
       </c>
     </row>
     <row r="41" ht="55" customHeight="1" spans="4:14">
       <c r="D41" s="26" t="s">
-        <v>793</v>
+        <v>885</v>
       </c>
       <c r="E41" s="26"/>
       <c r="F41" s="26"/>
@@ -15029,12 +15853,12 @@
     </row>
     <row r="42" spans="3:3">
       <c r="C42" s="29" t="s">
-        <v>794</v>
+        <v>886</v>
       </c>
     </row>
     <row r="43" ht="38" customHeight="1" spans="4:14">
       <c r="D43" s="26" t="s">
-        <v>795</v>
+        <v>887</v>
       </c>
       <c r="E43" s="26"/>
       <c r="F43" s="26"/>
@@ -15049,12 +15873,12 @@
     </row>
     <row r="44" spans="3:3">
       <c r="C44" s="29" t="s">
-        <v>796</v>
+        <v>888</v>
       </c>
     </row>
     <row r="45" spans="4:14">
       <c r="D45" s="26" t="s">
-        <v>797</v>
+        <v>889</v>
       </c>
       <c r="E45" s="26"/>
       <c r="F45" s="26"/>
@@ -15069,10 +15893,10 @@
     </row>
     <row r="47" spans="1:14">
       <c r="A47" s="21" t="s">
-        <v>798</v>
+        <v>890</v>
       </c>
       <c r="C47" s="27" t="s">
-        <v>799</v>
+        <v>891</v>
       </c>
       <c r="D47" s="27"/>
       <c r="E47" s="27"/>
@@ -15088,12 +15912,12 @@
     </row>
     <row r="48" spans="2:2">
       <c r="B48" s="24" t="s">
-        <v>800</v>
+        <v>892</v>
       </c>
     </row>
     <row r="49" ht="74" customHeight="1" spans="3:14">
       <c r="C49" s="26" t="s">
-        <v>801</v>
+        <v>893</v>
       </c>
       <c r="D49" s="27"/>
       <c r="E49" s="27"/>
@@ -15109,12 +15933,12 @@
     </row>
     <row r="50" spans="2:2">
       <c r="B50" s="24" t="s">
-        <v>802</v>
+        <v>894</v>
       </c>
     </row>
     <row r="51" ht="57" customHeight="1" spans="3:14">
       <c r="C51" s="26" t="s">
-        <v>803</v>
+        <v>895</v>
       </c>
       <c r="D51" s="27"/>
       <c r="E51" s="27"/>
@@ -15130,12 +15954,12 @@
     </row>
     <row r="52" spans="2:2">
       <c r="B52" s="24" t="s">
-        <v>804</v>
+        <v>896</v>
       </c>
     </row>
     <row r="53" ht="37" customHeight="1" spans="3:14">
       <c r="C53" s="26" t="s">
-        <v>805</v>
+        <v>897</v>
       </c>
       <c r="D53" s="26"/>
       <c r="E53" s="26"/>
@@ -15151,24 +15975,24 @@
     </row>
     <row r="55" spans="1:1">
       <c r="A55" s="21" t="s">
-        <v>806</v>
+        <v>898</v>
       </c>
     </row>
     <row r="56" spans="2:3">
       <c r="B56" s="24" t="s">
-        <v>807</v>
+        <v>899</v>
       </c>
       <c r="C56" s="29"/>
     </row>
     <row r="57" spans="3:3">
       <c r="C57" s="29" t="s">
-        <v>808</v>
+        <v>900</v>
       </c>
     </row>
     <row r="58" spans="3:14">
       <c r="C58" s="29"/>
       <c r="D58" s="26" t="s">
-        <v>809</v>
+        <v>901</v>
       </c>
       <c r="E58" s="26"/>
       <c r="F58" s="26"/>
@@ -15183,13 +16007,13 @@
     </row>
     <row r="59" spans="3:3">
       <c r="C59" s="29" t="s">
-        <v>810</v>
+        <v>902</v>
       </c>
     </row>
     <row r="60" ht="95" customHeight="1" spans="3:14">
       <c r="C60" s="29"/>
-      <c r="D60" s="111" t="s">
-        <v>811</v>
+      <c r="D60" s="112" t="s">
+        <v>903</v>
       </c>
       <c r="E60" s="26"/>
       <c r="F60" s="26"/>
@@ -15204,13 +16028,13 @@
     </row>
     <row r="61" spans="3:3">
       <c r="C61" s="29" t="s">
-        <v>812</v>
+        <v>904</v>
       </c>
     </row>
     <row r="62" ht="108" customHeight="1" spans="3:14">
       <c r="C62" s="29"/>
       <c r="D62" s="26" t="s">
-        <v>813</v>
+        <v>905</v>
       </c>
       <c r="E62" s="26"/>
       <c r="F62" s="26"/>
@@ -15225,12 +16049,12 @@
     </row>
     <row r="63" spans="3:3">
       <c r="C63" s="29" t="s">
-        <v>814</v>
+        <v>906</v>
       </c>
     </row>
     <row r="64" ht="36" customHeight="1" spans="4:14">
       <c r="D64" s="26" t="s">
-        <v>815</v>
+        <v>907</v>
       </c>
       <c r="E64" s="26"/>
       <c r="F64" s="26"/>
@@ -15257,10 +16081,10 @@
     </row>
     <row r="66" ht="19" customHeight="1" spans="1:14">
       <c r="A66" s="21" t="s">
-        <v>816</v>
+        <v>908</v>
       </c>
       <c r="C66" s="26" t="s">
-        <v>817</v>
+        <v>909</v>
       </c>
       <c r="D66" s="26"/>
       <c r="E66" s="26"/>
@@ -15276,19 +16100,19 @@
     </row>
     <row r="67" spans="2:3">
       <c r="B67" s="24" t="s">
-        <v>818</v>
+        <v>910</v>
       </c>
       <c r="C67" s="29"/>
     </row>
     <row r="68" spans="3:3">
       <c r="C68" s="29" t="s">
-        <v>819</v>
+        <v>911</v>
       </c>
     </row>
     <row r="69" ht="72" customHeight="1" spans="3:14">
       <c r="C69" s="29"/>
-      <c r="D69" s="111" t="s">
-        <v>820</v>
+      <c r="D69" s="112" t="s">
+        <v>912</v>
       </c>
       <c r="E69" s="26"/>
       <c r="F69" s="26"/>
@@ -15303,13 +16127,13 @@
     </row>
     <row r="70" spans="3:3">
       <c r="C70" s="29" t="s">
-        <v>821</v>
+        <v>913</v>
       </c>
     </row>
     <row r="71" ht="102" customHeight="1" spans="3:14">
       <c r="C71" s="29"/>
-      <c r="D71" s="111" t="s">
-        <v>822</v>
+      <c r="D71" s="112" t="s">
+        <v>914</v>
       </c>
       <c r="E71" s="26"/>
       <c r="F71" s="26"/>
@@ -15324,7 +16148,7 @@
     </row>
     <row r="72" spans="3:13">
       <c r="C72" s="29" t="s">
-        <v>823</v>
+        <v>915</v>
       </c>
       <c r="D72"/>
       <c r="E72"/>
@@ -15340,7 +16164,7 @@
     <row r="73" spans="3:13">
       <c r="C73" s="29"/>
       <c r="D73" s="27" t="s">
-        <v>824</v>
+        <v>916</v>
       </c>
       <c r="E73" s="27"/>
       <c r="F73" s="27"/>
@@ -15354,7 +16178,7 @@
     </row>
     <row r="74" spans="3:13">
       <c r="C74" s="29" t="s">
-        <v>825</v>
+        <v>917</v>
       </c>
       <c r="D74"/>
       <c r="E74"/>
@@ -15370,7 +16194,7 @@
     <row r="75" ht="57" customHeight="1" spans="3:14">
       <c r="C75" s="29"/>
       <c r="D75" s="26" t="s">
-        <v>826</v>
+        <v>918</v>
       </c>
       <c r="E75" s="26"/>
       <c r="F75" s="26"/>
@@ -15385,13 +16209,13 @@
     </row>
     <row r="76" spans="3:3">
       <c r="C76" s="29" t="s">
-        <v>827</v>
+        <v>919</v>
       </c>
     </row>
     <row r="77" ht="108" customHeight="1" spans="3:14">
       <c r="C77" s="29"/>
-      <c r="D77" s="111" t="s">
-        <v>828</v>
+      <c r="D77" s="112" t="s">
+        <v>920</v>
       </c>
       <c r="E77" s="26"/>
       <c r="F77" s="26"/>
@@ -15406,17 +16230,17 @@
     </row>
     <row r="79" spans="1:1">
       <c r="A79" s="21" t="s">
-        <v>829</v>
+        <v>921</v>
       </c>
     </row>
     <row r="80" spans="2:2">
       <c r="B80" s="24" t="s">
-        <v>830</v>
+        <v>922</v>
       </c>
     </row>
     <row r="81" ht="159" customHeight="1" spans="3:14">
       <c r="C81" s="26" t="s">
-        <v>831</v>
+        <v>923</v>
       </c>
       <c r="D81" s="26"/>
       <c r="E81" s="26"/>
@@ -15432,10 +16256,10 @@
     </row>
     <row r="82" spans="2:14">
       <c r="B82" s="24" t="s">
-        <v>832</v>
+        <v>924</v>
       </c>
       <c r="D82" s="26" t="s">
-        <v>833</v>
+        <v>925</v>
       </c>
       <c r="E82" s="26"/>
       <c r="F82" s="26"/>
@@ -15450,7 +16274,7 @@
     </row>
     <row r="83" ht="58" customHeight="1" spans="3:14">
       <c r="C83" s="26" t="s">
-        <v>834</v>
+        <v>926</v>
       </c>
       <c r="D83" s="26"/>
       <c r="E83" s="26"/>
@@ -15466,7 +16290,7 @@
     </row>
     <row r="84" ht="22" customHeight="1" spans="3:13">
       <c r="C84" s="30" t="s">
-        <v>835</v>
+        <v>927</v>
       </c>
       <c r="D84" s="26"/>
       <c r="E84" s="26"/>
@@ -15482,7 +16306,7 @@
     <row r="85" ht="161" customHeight="1" spans="3:14">
       <c r="C85" s="26"/>
       <c r="D85" s="26" t="s">
-        <v>836</v>
+        <v>928</v>
       </c>
       <c r="E85" s="26"/>
       <c r="F85" s="26"/>
@@ -15497,17 +16321,17 @@
     </row>
     <row r="86" spans="1:1">
       <c r="A86" s="21" t="s">
-        <v>837</v>
+        <v>929</v>
       </c>
     </row>
     <row r="87" spans="2:2">
       <c r="B87" s="24" t="s">
-        <v>838</v>
+        <v>930</v>
       </c>
     </row>
     <row r="88" ht="85" customHeight="1" spans="3:14">
       <c r="C88" s="26" t="s">
-        <v>839</v>
+        <v>931</v>
       </c>
       <c r="D88" s="26"/>
       <c r="E88" s="26"/>
@@ -15523,12 +16347,12 @@
     </row>
     <row r="89" spans="3:3">
       <c r="C89" s="29" t="s">
-        <v>840</v>
+        <v>932</v>
       </c>
     </row>
     <row r="90" ht="60" customHeight="1" spans="4:14">
       <c r="D90" s="26" t="s">
-        <v>841</v>
+        <v>933</v>
       </c>
       <c r="E90" s="26"/>
       <c r="F90" s="26"/>
@@ -15543,12 +16367,12 @@
     </row>
     <row r="91" spans="2:2">
       <c r="B91" s="24" t="s">
-        <v>842</v>
+        <v>934</v>
       </c>
     </row>
     <row r="92" ht="56" customHeight="1" spans="3:14">
       <c r="C92" s="26" t="s">
-        <v>843</v>
+        <v>935</v>
       </c>
       <c r="D92" s="26"/>
       <c r="E92" s="26"/>
@@ -15564,12 +16388,12 @@
     </row>
     <row r="93" spans="3:3">
       <c r="C93" s="29" t="s">
-        <v>844</v>
+        <v>936</v>
       </c>
     </row>
     <row r="94" ht="153" customHeight="1" spans="4:14">
       <c r="D94" s="26" t="s">
-        <v>845</v>
+        <v>937</v>
       </c>
       <c r="E94" s="26"/>
       <c r="F94" s="26"/>
@@ -15597,12 +16421,12 @@
     </row>
     <row r="96" ht="20" customHeight="1" spans="1:1">
       <c r="A96" s="21" t="s">
-        <v>846</v>
+        <v>938</v>
       </c>
     </row>
     <row r="97" ht="41" customHeight="1" spans="2:14">
       <c r="B97" s="26" t="s">
-        <v>847</v>
+        <v>939</v>
       </c>
       <c r="C97" s="26"/>
       <c r="D97" s="26"/>
@@ -15619,12 +16443,12 @@
     </row>
     <row r="98" ht="23" customHeight="1" spans="2:2">
       <c r="B98" s="24" t="s">
-        <v>848</v>
+        <v>940</v>
       </c>
     </row>
     <row r="99" ht="172" customHeight="1" spans="3:14">
       <c r="C99" s="26" t="s">
-        <v>849</v>
+        <v>941</v>
       </c>
       <c r="D99" s="26"/>
       <c r="E99" s="26"/>
@@ -15640,12 +16464,12 @@
     </row>
     <row r="100" spans="2:2">
       <c r="B100" s="24" t="s">
-        <v>850</v>
+        <v>942</v>
       </c>
     </row>
     <row r="101" ht="55" customHeight="1" spans="3:14">
       <c r="C101" s="26" t="s">
-        <v>851</v>
+        <v>943</v>
       </c>
       <c r="D101" s="26"/>
       <c r="E101" s="26"/>
@@ -15661,7 +16485,7 @@
     </row>
     <row r="102" ht="125" customHeight="1" spans="3:14">
       <c r="C102" s="31" t="s">
-        <v>852</v>
+        <v>944</v>
       </c>
       <c r="D102" s="32"/>
       <c r="E102" s="32"/>
@@ -15691,10 +16515,10 @@
     </row>
     <row r="104" ht="24" customHeight="1" spans="1:14">
       <c r="A104" s="21" t="s">
-        <v>853</v>
+        <v>945</v>
       </c>
       <c r="C104" s="26" t="s">
-        <v>854</v>
+        <v>946</v>
       </c>
       <c r="D104" s="26"/>
       <c r="E104" s="26"/>
@@ -15710,12 +16534,12 @@
     </row>
     <row r="105" ht="20" customHeight="1" spans="2:2">
       <c r="B105" s="24" t="s">
-        <v>855</v>
+        <v>947</v>
       </c>
     </row>
     <row r="106" ht="20" customHeight="1" spans="3:14">
       <c r="C106" s="27" t="s">
-        <v>856</v>
+        <v>948</v>
       </c>
       <c r="D106" s="27"/>
       <c r="E106" s="27"/>
@@ -15731,12 +16555,12 @@
     </row>
     <row r="107" ht="20" customHeight="1" spans="2:2">
       <c r="B107" s="24" t="s">
-        <v>857</v>
+        <v>949</v>
       </c>
     </row>
     <row r="108" ht="20" customHeight="1" spans="3:14">
       <c r="C108" s="27" t="s">
-        <v>858</v>
+        <v>950</v>
       </c>
       <c r="D108" s="27"/>
       <c r="E108" s="27"/>
@@ -15752,12 +16576,12 @@
     </row>
     <row r="109" ht="20" customHeight="1" spans="2:2">
       <c r="B109" s="24" t="s">
-        <v>859</v>
+        <v>951</v>
       </c>
     </row>
     <row r="110" ht="19" customHeight="1" spans="3:14">
       <c r="C110" s="26" t="s">
-        <v>860</v>
+        <v>952</v>
       </c>
       <c r="D110" s="26"/>
       <c r="E110" s="26"/>
@@ -15773,17 +16597,17 @@
     </row>
     <row r="112" ht="19" customHeight="1" spans="1:1">
       <c r="A112" s="21" t="s">
-        <v>861</v>
+        <v>953</v>
       </c>
     </row>
     <row r="113" spans="2:2">
       <c r="B113" s="24" t="s">
-        <v>862</v>
+        <v>954</v>
       </c>
     </row>
     <row r="114" ht="35" customHeight="1" spans="3:14">
       <c r="C114" s="26" t="s">
-        <v>863</v>
+        <v>955</v>
       </c>
       <c r="D114" s="26"/>
       <c r="E114" s="26"/>
@@ -15799,17 +16623,17 @@
     </row>
     <row r="115" spans="2:2">
       <c r="B115" s="24" t="s">
-        <v>864</v>
+        <v>956</v>
       </c>
     </row>
     <row r="116" spans="3:3">
       <c r="C116" s="29" t="s">
-        <v>865</v>
+        <v>957</v>
       </c>
     </row>
     <row r="117" ht="37" customHeight="1" spans="4:14">
       <c r="D117" s="26" t="s">
-        <v>866</v>
+        <v>958</v>
       </c>
       <c r="E117" s="26"/>
       <c r="F117" s="26"/>
@@ -15824,12 +16648,12 @@
     </row>
     <row r="118" spans="3:3">
       <c r="C118" s="29" t="s">
-        <v>867</v>
+        <v>959</v>
       </c>
     </row>
     <row r="119" spans="4:14">
       <c r="D119" s="26" t="s">
-        <v>868</v>
+        <v>960</v>
       </c>
       <c r="E119" s="26"/>
       <c r="F119" s="26"/>
@@ -15844,12 +16668,12 @@
     </row>
     <row r="120" spans="3:3">
       <c r="C120" s="29" t="s">
-        <v>869</v>
+        <v>961</v>
       </c>
     </row>
     <row r="121" ht="54" customHeight="1" spans="4:14">
       <c r="D121" s="26" t="s">
-        <v>870</v>
+        <v>962</v>
       </c>
       <c r="E121" s="26"/>
       <c r="F121" s="26"/>
@@ -15864,12 +16688,12 @@
     </row>
     <row r="122" spans="2:2">
       <c r="B122" s="24" t="s">
-        <v>871</v>
+        <v>963</v>
       </c>
     </row>
     <row r="123" ht="36" customHeight="1" spans="3:14">
       <c r="C123" s="26" t="s">
-        <v>872</v>
+        <v>964</v>
       </c>
       <c r="D123" s="26"/>
       <c r="E123" s="26"/>
@@ -15885,17 +16709,17 @@
     </row>
     <row r="124" spans="2:2">
       <c r="B124" s="24" t="s">
-        <v>873</v>
+        <v>965</v>
       </c>
     </row>
     <row r="125" spans="3:3">
       <c r="C125" s="29" t="s">
-        <v>874</v>
+        <v>966</v>
       </c>
     </row>
     <row r="126" spans="4:14">
       <c r="D126" s="26" t="s">
-        <v>875</v>
+        <v>967</v>
       </c>
       <c r="E126" s="26"/>
       <c r="F126" s="26"/>
@@ -15910,12 +16734,12 @@
     </row>
     <row r="127" spans="3:3">
       <c r="C127" s="29" t="s">
-        <v>876</v>
+        <v>968</v>
       </c>
     </row>
     <row r="128" ht="21" customHeight="1" spans="4:14">
       <c r="D128" s="26" t="s">
-        <v>877</v>
+        <v>969</v>
       </c>
       <c r="E128" s="26"/>
       <c r="F128" s="26"/>
@@ -15930,12 +16754,12 @@
     </row>
     <row r="129" ht="19" customHeight="1" spans="2:2">
       <c r="B129" s="24" t="s">
-        <v>878</v>
+        <v>970</v>
       </c>
     </row>
     <row r="130" spans="3:13">
       <c r="C130" s="33" t="s">
-        <v>879</v>
+        <v>971</v>
       </c>
       <c r="D130" s="34"/>
       <c r="E130" s="34"/>
@@ -15951,7 +16775,7 @@
     <row r="131" ht="76" customHeight="1" spans="3:14">
       <c r="C131" s="33"/>
       <c r="D131" s="35" t="s">
-        <v>880</v>
+        <v>972</v>
       </c>
       <c r="E131" s="35"/>
       <c r="F131" s="35"/>
@@ -15966,7 +16790,7 @@
     </row>
     <row r="132" spans="3:13">
       <c r="C132" s="33" t="s">
-        <v>881</v>
+        <v>973</v>
       </c>
       <c r="D132" s="34"/>
       <c r="E132" s="34"/>
@@ -15982,7 +16806,7 @@
     <row r="133" ht="95" customHeight="1" spans="3:14">
       <c r="C133" s="33"/>
       <c r="D133" s="35" t="s">
-        <v>882</v>
+        <v>974</v>
       </c>
       <c r="E133" s="35"/>
       <c r="F133" s="35"/>
@@ -15997,7 +16821,7 @@
     </row>
     <row r="134" spans="3:13">
       <c r="C134" s="33" t="s">
-        <v>883</v>
+        <v>975</v>
       </c>
       <c r="D134" s="34"/>
       <c r="E134" s="34"/>
@@ -16013,7 +16837,7 @@
     <row r="135" ht="79" customHeight="1" spans="3:14">
       <c r="C135" s="33"/>
       <c r="D135" s="35" t="s">
-        <v>884</v>
+        <v>976</v>
       </c>
       <c r="E135" s="35"/>
       <c r="F135" s="35"/>
@@ -16028,12 +16852,12 @@
     </row>
     <row r="136" spans="3:3">
       <c r="C136" s="29" t="s">
-        <v>885</v>
+        <v>977</v>
       </c>
     </row>
     <row r="137" ht="73" customHeight="1" spans="4:14">
       <c r="D137" s="35" t="s">
-        <v>886</v>
+        <v>978</v>
       </c>
       <c r="E137" s="35"/>
       <c r="F137" s="35"/>
@@ -16048,12 +16872,12 @@
     </row>
     <row r="138" spans="2:2">
       <c r="B138" s="24" t="s">
-        <v>887</v>
+        <v>979</v>
       </c>
     </row>
     <row r="139" spans="3:14">
       <c r="C139" s="26" t="s">
-        <v>888</v>
+        <v>980</v>
       </c>
       <c r="D139" s="26"/>
       <c r="E139" s="26"/>
@@ -16069,10 +16893,10 @@
     </row>
     <row r="141" spans="1:14">
       <c r="A141" s="21" t="s">
-        <v>889</v>
+        <v>981</v>
       </c>
       <c r="C141" s="26" t="s">
-        <v>890</v>
+        <v>982</v>
       </c>
       <c r="D141" s="26"/>
       <c r="E141" s="26"/>
@@ -16088,7 +16912,7 @@
     </row>
     <row r="142" ht="187" customHeight="1" spans="2:14">
       <c r="B142" s="28" t="s">
-        <v>891</v>
+        <v>983</v>
       </c>
       <c r="C142" s="28"/>
       <c r="D142" s="28"/>
@@ -16105,12 +16929,12 @@
     </row>
     <row r="144" spans="1:1">
       <c r="A144" s="21" t="s">
-        <v>892</v>
+        <v>984</v>
       </c>
     </row>
     <row r="145" ht="39" customHeight="1" spans="2:14">
       <c r="B145" s="28" t="s">
-        <v>893</v>
+        <v>985</v>
       </c>
       <c r="C145" s="28"/>
       <c r="D145" s="28"/>
@@ -16127,12 +16951,12 @@
     </row>
     <row r="146" spans="2:2">
       <c r="B146" s="24" t="s">
-        <v>894</v>
+        <v>986</v>
       </c>
     </row>
     <row r="147" ht="220" customHeight="1" spans="3:14">
       <c r="C147" s="26" t="s">
-        <v>895</v>
+        <v>987</v>
       </c>
       <c r="D147" s="26"/>
       <c r="E147" s="26"/>
@@ -16148,10 +16972,10 @@
     </row>
     <row r="149" spans="1:14">
       <c r="A149" s="21" t="s">
-        <v>896</v>
+        <v>988</v>
       </c>
       <c r="C149" s="27" t="s">
-        <v>897</v>
+        <v>989</v>
       </c>
       <c r="D149" s="27"/>
       <c r="E149" s="27"/>
@@ -16167,12 +16991,12 @@
     </row>
     <row r="150" spans="2:2">
       <c r="B150" s="24" t="s">
-        <v>898</v>
+        <v>990</v>
       </c>
     </row>
     <row r="151" ht="190" customHeight="1" spans="3:14">
       <c r="C151" s="26" t="s">
-        <v>899</v>
+        <v>991</v>
       </c>
       <c r="D151" s="26"/>
       <c r="E151" s="26"/>
@@ -16188,12 +17012,12 @@
     </row>
     <row r="152" spans="2:2">
       <c r="B152" s="24" t="s">
-        <v>900</v>
+        <v>992</v>
       </c>
     </row>
     <row r="153" ht="117" customHeight="1" spans="3:14">
-      <c r="C153" s="111" t="s">
-        <v>901</v>
+      <c r="C153" s="112" t="s">
+        <v>993</v>
       </c>
       <c r="D153" s="26"/>
       <c r="E153" s="26"/>
@@ -16209,10 +17033,10 @@
     </row>
     <row r="154" spans="1:14">
       <c r="A154" s="21" t="s">
-        <v>902</v>
+        <v>994</v>
       </c>
       <c r="C154" s="26" t="s">
-        <v>903</v>
+        <v>995</v>
       </c>
       <c r="D154" s="26"/>
       <c r="E154" s="26"/>
@@ -16228,12 +17052,12 @@
     </row>
     <row r="155" spans="2:2">
       <c r="B155" s="24" t="s">
-        <v>904</v>
+        <v>996</v>
       </c>
     </row>
     <row r="156" ht="145" customHeight="1" spans="3:14">
       <c r="C156" s="26" t="s">
-        <v>905</v>
+        <v>997</v>
       </c>
       <c r="D156" s="26"/>
       <c r="E156" s="26"/>
@@ -16249,12 +17073,12 @@
     </row>
     <row r="157" spans="2:2">
       <c r="B157" s="24" t="s">
-        <v>906</v>
+        <v>998</v>
       </c>
     </row>
     <row r="158" ht="102" customHeight="1" spans="3:14">
-      <c r="C158" s="111" t="s">
-        <v>907</v>
+      <c r="C158" s="112" t="s">
+        <v>999</v>
       </c>
       <c r="D158" s="26"/>
       <c r="E158" s="26"/>
@@ -16270,12 +17094,12 @@
     </row>
     <row r="159" spans="2:2">
       <c r="B159" s="24" t="s">
-        <v>908</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="160" ht="55" customHeight="1" spans="3:14">
       <c r="C160" s="26" t="s">
-        <v>909</v>
+        <v>1001</v>
       </c>
       <c r="D160" s="26"/>
       <c r="E160" s="26"/>
@@ -16291,7 +17115,7 @@
     </row>
     <row r="161" ht="71" customHeight="1" spans="3:14">
       <c r="C161" s="26" t="s">
-        <v>910</v>
+        <v>1002</v>
       </c>
       <c r="D161" s="26"/>
       <c r="E161" s="26"/>
@@ -16307,7 +17131,7 @@
     </row>
     <row r="162" ht="162" customHeight="1" spans="3:14">
       <c r="C162" s="26" t="s">
-        <v>911</v>
+        <v>1003</v>
       </c>
       <c r="D162" s="26"/>
       <c r="E162" s="26"/>
@@ -16323,7 +17147,7 @@
     </row>
     <row r="163" ht="139" customHeight="1" spans="3:14">
       <c r="C163" s="26" t="s">
-        <v>912</v>
+        <v>1004</v>
       </c>
       <c r="D163" s="26"/>
       <c r="E163" s="26"/>
@@ -16339,12 +17163,12 @@
     </row>
     <row r="164" spans="2:2">
       <c r="B164" s="24" t="s">
-        <v>913</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="165" ht="54" customHeight="1" spans="3:14">
       <c r="C165" s="26" t="s">
-        <v>914</v>
+        <v>1006</v>
       </c>
       <c r="D165" s="26"/>
       <c r="E165" s="26"/>
@@ -16360,20 +17184,20 @@
     </row>
     <row r="167" spans="1:1">
       <c r="A167" s="21" t="s">
-        <v>915</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="168" spans="2:2">
       <c r="B168" s="24" t="s">
-        <v>916</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="169" ht="77" customHeight="1" spans="3:14">
       <c r="C169" s="25" t="s">
-        <v>917</v>
+        <v>1009</v>
       </c>
       <c r="D169" s="36" t="s">
-        <v>918</v>
+        <v>1010</v>
       </c>
       <c r="E169" s="26"/>
       <c r="F169" s="26"/>
@@ -16387,13 +17211,13 @@
       <c r="N169" s="26"/>
     </row>
     <row r="171" spans="3:3">
-      <c r="C171" s="112" t="s">
-        <v>919</v>
+      <c r="C171" s="113" t="s">
+        <v>364</v>
       </c>
     </row>
     <row r="172" spans="4:14">
       <c r="D172" s="27" t="s">
-        <v>920</v>
+        <v>1011</v>
       </c>
       <c r="E172" s="27"/>
       <c r="F172" s="27"/>
@@ -16408,10 +17232,10 @@
     </row>
     <row r="173" spans="2:14">
       <c r="B173" s="24" t="s">
-        <v>921</v>
+        <v>1012</v>
       </c>
       <c r="D173" s="37" t="s">
-        <v>922</v>
+        <v>1013</v>
       </c>
       <c r="E173" s="37"/>
       <c r="F173" s="37"/>
@@ -16426,7 +17250,7 @@
     </row>
     <row r="174" ht="83" customHeight="1" spans="3:14">
       <c r="C174" s="26" t="s">
-        <v>923</v>
+        <v>1014</v>
       </c>
       <c r="D174" s="27"/>
       <c r="E174" s="27"/>
@@ -16442,17 +17266,17 @@
     </row>
     <row r="176" spans="1:1">
       <c r="A176" s="21" t="s">
-        <v>924</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="177" spans="2:2">
       <c r="B177" s="24" t="s">
-        <v>925</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="178" ht="72" customHeight="1" spans="3:14">
       <c r="C178" s="26" t="s">
-        <v>926</v>
+        <v>1017</v>
       </c>
       <c r="D178" s="26"/>
       <c r="E178" s="26"/>
@@ -16468,12 +17292,12 @@
     </row>
     <row r="179" spans="2:2">
       <c r="B179" s="24" t="s">
-        <v>927</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="180" ht="58" customHeight="1" spans="3:14">
       <c r="C180" s="26" t="s">
-        <v>928</v>
+        <v>1019</v>
       </c>
       <c r="D180" s="26"/>
       <c r="E180" s="26"/>
@@ -16489,12 +17313,12 @@
     </row>
     <row r="182" spans="2:2">
       <c r="B182" s="24" t="s">
-        <v>929</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="183" ht="37" customHeight="1" spans="3:14">
       <c r="C183" s="26" t="s">
-        <v>930</v>
+        <v>1021</v>
       </c>
       <c r="D183" s="26"/>
       <c r="E183" s="26"/>
@@ -16510,12 +17334,12 @@
     </row>
     <row r="184" spans="2:2">
       <c r="B184" s="24" t="s">
-        <v>931</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="185" ht="33" customHeight="1" spans="3:14">
       <c r="C185" s="26" t="s">
-        <v>932</v>
+        <v>1023</v>
       </c>
       <c r="D185" s="26"/>
       <c r="E185" s="26"/>
@@ -16531,17 +17355,17 @@
     </row>
     <row r="187" spans="1:1">
       <c r="A187" s="21" t="s">
-        <v>933</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="188" spans="2:2">
       <c r="B188" s="24" t="s">
-        <v>934</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="189" ht="91" customHeight="1" spans="3:14">
       <c r="C189" s="26" t="s">
-        <v>935</v>
+        <v>1026</v>
       </c>
       <c r="D189" s="26"/>
       <c r="E189" s="26"/>
@@ -16557,12 +17381,12 @@
     </row>
     <row r="190" spans="2:2">
       <c r="B190" s="24" t="s">
-        <v>936</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="191" ht="178" customHeight="1" spans="3:14">
       <c r="C191" s="26" t="s">
-        <v>937</v>
+        <v>1028</v>
       </c>
       <c r="D191" s="26"/>
       <c r="E191" s="26"/>
@@ -16694,339 +17518,339 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="21" t="s">
-        <v>938</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="2" ht="35" customHeight="1" spans="2:2">
       <c r="B2" s="22" t="s">
-        <v>939</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="3" ht="66" spans="2:2">
       <c r="B3" s="22" t="s">
-        <v>940</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="21" t="s">
-        <v>941</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="6" ht="33" spans="2:2">
       <c r="B6" s="22" t="s">
-        <v>942</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:1">
       <c r="A8" s="21" t="s">
-        <v>943</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="9" ht="82.5" spans="2:2">
       <c r="B9" s="22" t="s">
-        <v>944</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="21" t="s">
-        <v>945</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="12" spans="2:2">
       <c r="B12" s="22" t="s">
-        <v>946</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" s="21" t="s">
-        <v>947</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="16" ht="49.5" spans="2:2">
       <c r="B16" s="22" t="s">
-        <v>948</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="18" ht="66" spans="2:2">
       <c r="B18" s="22" t="s">
-        <v>949</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" s="21" t="s">
-        <v>950</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="21" spans="2:2">
       <c r="B21" s="22" t="s">
-        <v>951</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" s="21" t="s">
-        <v>952</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="24" ht="99" spans="2:2">
       <c r="B24" s="22" t="s">
-        <v>953</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" s="21" t="s">
-        <v>954</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="27" ht="165" spans="2:2">
       <c r="B27" s="22" t="s">
-        <v>955</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" s="21" t="s">
-        <v>956</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="30" ht="49.5" spans="2:2">
       <c r="B30" s="22" t="s">
-        <v>957</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32" s="21" t="s">
-        <v>958</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="33" ht="82.5" spans="2:2">
       <c r="B33" s="22" t="s">
-        <v>959</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" s="21" t="s">
-        <v>960</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="36" ht="66" spans="2:2">
       <c r="B36" s="22" t="s">
-        <v>961</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38" s="21" t="s">
-        <v>962</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="39" ht="49.5" spans="2:2">
       <c r="B39" s="22" t="s">
-        <v>963</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41" s="21" t="s">
-        <v>964</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="42" ht="66" spans="2:2">
       <c r="B42" s="22" t="s">
-        <v>965</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44" s="21" t="s">
-        <v>966</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="45" ht="66" spans="2:2">
       <c r="B45" s="22" t="s">
-        <v>967</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47" s="21" t="s">
-        <v>968</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="48" ht="49.5" spans="2:2">
       <c r="B48" s="22" t="s">
-        <v>969</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="50" spans="1:1">
       <c r="A50" s="21" t="s">
-        <v>970</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="51" ht="82.5" spans="2:2">
       <c r="B51" s="22" t="s">
-        <v>971</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="53" spans="1:1">
       <c r="A53" s="21" t="s">
-        <v>972</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="54" ht="33" spans="2:2">
       <c r="B54" s="22" t="s">
-        <v>973</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="56" spans="1:1">
       <c r="A56" s="21" t="s">
-        <v>974</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="57" ht="49.5" spans="2:2">
       <c r="B57" s="22" t="s">
-        <v>975</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="59" spans="1:1">
       <c r="A59" s="21" t="s">
-        <v>976</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="60" ht="33" spans="2:2">
       <c r="B60" s="22" t="s">
-        <v>977</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="62" spans="1:1">
       <c r="A62" s="21" t="s">
-        <v>978</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="63" ht="82.5" spans="2:2">
       <c r="B63" s="22" t="s">
-        <v>979</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="64" spans="2:2">
       <c r="B64" s="22" t="s">
-        <v>980</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="66" spans="1:1">
       <c r="A66" s="21" t="s">
-        <v>981</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="67" spans="2:2">
       <c r="B67" s="22" t="s">
-        <v>982</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69" s="21" t="s">
-        <v>983</v>
+        <v>1074</v>
       </c>
       <c r="B69" s="22" t="s">
-        <v>984</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="70" ht="33" spans="2:2">
       <c r="B70" s="22" t="s">
-        <v>985</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="71" ht="49.5" spans="2:2">
       <c r="B71" s="22" t="s">
-        <v>986</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="73" spans="1:1">
       <c r="A73" s="21" t="s">
-        <v>987</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="74" ht="33" spans="2:2">
       <c r="B74" s="22" t="s">
-        <v>988</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="76" spans="1:1">
       <c r="A76" s="21" t="s">
-        <v>989</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="77" spans="2:2">
       <c r="B77" s="22" t="s">
-        <v>990</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="79" spans="1:1">
       <c r="A79" s="21" t="s">
-        <v>991</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="80" ht="132" spans="2:2">
       <c r="B80" s="22" t="s">
-        <v>992</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="82" spans="1:1">
       <c r="A82" s="21" t="s">
-        <v>993</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="83" spans="2:2">
       <c r="B83" s="22" t="s">
-        <v>994</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="84" ht="49.5" spans="2:2">
       <c r="B84" s="22" t="s">
-        <v>995</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="86" spans="1:2">
       <c r="A86" s="21" t="s">
-        <v>996</v>
+        <v>1087</v>
       </c>
       <c r="B86" s="22" t="s">
-        <v>997</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="87" ht="33" spans="2:2">
       <c r="B87" s="22" t="s">
-        <v>998</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="88" ht="66" spans="2:2">
       <c r="B88" s="22" t="s">
-        <v>999</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="90" spans="1:2">
       <c r="A90" s="21" t="s">
-        <v>1000</v>
+        <v>1091</v>
       </c>
       <c r="B90" s="22" t="s">
-        <v>1001</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="91" ht="148.5" spans="2:2">
       <c r="B91" s="22" t="s">
-        <v>1002</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="92" ht="82.5" spans="2:2">
       <c r="B92" s="22" t="s">
-        <v>1003</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="94" ht="33" spans="1:2">
       <c r="A94" s="21" t="s">
-        <v>1004</v>
+        <v>1095</v>
       </c>
       <c r="B94" s="22" t="s">
-        <v>1005</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="95" ht="115.5" spans="2:2">
       <c r="B95" s="22" t="s">
-        <v>1006</v>
+        <v>1097</v>
       </c>
     </row>
   </sheetData>
@@ -17041,8 +17865,8 @@
   <sheetPr/>
   <dimension ref="A1:L184"/>
   <sheetViews>
-    <sheetView topLeftCell="A137" workbookViewId="0">
-      <selection activeCell="C142" sqref="C142"/>
+    <sheetView topLeftCell="A125" workbookViewId="0">
+      <selection activeCell="D130" sqref="D130"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.125" defaultRowHeight="24" customHeight="1"/>
@@ -17057,721 +17881,721 @@
   <sheetData>
     <row r="1" customHeight="1" spans="1:3">
       <c r="A1" s="4" t="s">
-        <v>1007</v>
+        <v>1098</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>1008</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="2" ht="18" spans="2:3">
       <c r="B2" s="5" t="s">
-        <v>1009</v>
+        <v>1100</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>1010</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="2:2">
       <c r="B3" s="5" t="s">
-        <v>1011</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="3:4">
       <c r="C4" s="6" t="s">
-        <v>1012</v>
+        <v>1103</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>1013</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="5" ht="33" spans="3:4">
       <c r="C5" s="6" t="s">
-        <v>618</v>
+        <v>710</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>1014</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="3:4">
       <c r="C6" s="6" t="s">
-        <v>1015</v>
+        <v>1106</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>1016</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="2:2">
       <c r="B7" s="5" t="s">
-        <v>1017</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="8" ht="49.5" spans="3:4">
       <c r="C8" s="10" t="s">
-        <v>1018</v>
+        <v>1109</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>1019</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="9" ht="165" spans="3:4">
       <c r="C9" s="6" t="s">
-        <v>1020</v>
+        <v>1111</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>1021</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="3:3">
       <c r="C10" s="6" t="s">
-        <v>1022</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="3:4">
       <c r="C11" s="6" t="s">
-        <v>1023</v>
+        <v>1114</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>1024</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="3:3">
       <c r="C12" s="6" t="s">
-        <v>1025</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="13" ht="82.5" spans="3:4">
       <c r="C13" s="6" t="s">
-        <v>1026</v>
+        <v>1117</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>1027</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="14" ht="165" spans="3:4">
       <c r="C14" s="6" t="s">
-        <v>1028</v>
+        <v>1119</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>1029</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="17" customHeight="1" spans="2:3">
       <c r="B17" s="11" t="s">
-        <v>1030</v>
+        <v>1121</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>1031</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="18" customHeight="1" spans="3:3">
       <c r="C18" s="6" t="s">
-        <v>1032</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="19" ht="231" spans="3:4">
       <c r="C19" s="12" t="s">
-        <v>1033</v>
+        <v>1124</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>1034</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="20" ht="99" spans="3:4">
       <c r="C20" s="12" t="s">
-        <v>1035</v>
+        <v>1126</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>1036</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="21" ht="148.5" spans="3:4">
       <c r="C21" s="6" t="s">
-        <v>1037</v>
+        <v>1128</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>1038</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="22" ht="132" spans="3:4">
       <c r="C22" s="6" t="s">
-        <v>1039</v>
+        <v>1130</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>1040</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="23" ht="33" spans="3:4">
       <c r="C23" s="6" t="s">
-        <v>1041</v>
+        <v>1132</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>1042</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="25" customHeight="1" spans="2:2">
       <c r="B25" s="5" t="s">
-        <v>1043</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="26" customHeight="1" spans="3:4">
       <c r="C26" s="6" t="s">
-        <v>1044</v>
+        <v>1135</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>1045</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="27" customHeight="1" spans="3:3">
       <c r="C27" s="6" t="s">
-        <v>1046</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="28" ht="33" spans="3:4">
       <c r="C28" s="12" t="s">
-        <v>1047</v>
+        <v>1138</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>1048</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="29" customHeight="1" spans="3:4">
       <c r="C29" s="12" t="s">
-        <v>1049</v>
+        <v>1140</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>1050</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="30" ht="33" spans="3:4">
       <c r="C30" s="12" t="s">
-        <v>1051</v>
+        <v>1142</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>1052</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="31" customHeight="1" spans="3:4">
       <c r="C31" s="12" t="s">
-        <v>1053</v>
+        <v>1144</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>1054</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="32" customHeight="1" spans="2:4">
       <c r="B32" s="5" t="s">
-        <v>1055</v>
+        <v>1146</v>
       </c>
       <c r="D32" s="7" t="s">
-        <v>1056</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="33" ht="49.5" spans="3:4">
       <c r="C33" s="6" t="s">
-        <v>1057</v>
+        <v>1148</v>
       </c>
       <c r="D33" s="7" t="s">
-        <v>1058</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="34" customHeight="1" spans="3:4">
       <c r="C34" s="6" t="s">
-        <v>1059</v>
+        <v>1150</v>
       </c>
       <c r="D34" s="7" t="s">
-        <v>1060</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="35" ht="33" spans="3:4">
       <c r="C35" s="10" t="s">
-        <v>1061</v>
+        <v>1152</v>
       </c>
       <c r="D35" s="7" t="s">
-        <v>1062</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="36" customHeight="1" spans="3:4">
       <c r="C36" s="6" t="s">
-        <v>1063</v>
+        <v>1154</v>
       </c>
       <c r="D36" s="7" t="s">
-        <v>1064</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="37" customHeight="1" spans="3:4">
       <c r="C37" s="6" t="s">
-        <v>1065</v>
+        <v>1156</v>
       </c>
       <c r="D37" s="7" t="s">
-        <v>1066</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="38" customHeight="1" spans="1:4">
       <c r="A38" s="4" t="s">
-        <v>1067</v>
+        <v>1158</v>
       </c>
       <c r="D38" s="7" t="s">
-        <v>1068</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="39" customHeight="1" spans="2:4">
       <c r="B39" s="5" t="s">
-        <v>1069</v>
+        <v>1160</v>
       </c>
       <c r="D39" s="7" t="s">
-        <v>1070</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="40" customHeight="1" spans="3:4">
       <c r="C40" s="6" t="s">
-        <v>1071</v>
+        <v>1162</v>
       </c>
       <c r="D40" s="7" t="s">
-        <v>1072</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="41" customHeight="1" spans="3:4">
       <c r="C41" s="6" t="s">
-        <v>1073</v>
+        <v>1164</v>
       </c>
       <c r="D41" s="7" t="s">
-        <v>1074</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="42" customHeight="1" spans="2:2">
       <c r="B42" s="6" t="s">
-        <v>1075</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="43" ht="66" spans="3:4">
       <c r="C43" s="6" t="s">
-        <v>1076</v>
+        <v>1167</v>
       </c>
       <c r="D43" s="7" t="s">
-        <v>1077</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="44" ht="33" spans="3:4">
       <c r="C44" s="6" t="s">
-        <v>456</v>
+        <v>548</v>
       </c>
       <c r="D44" s="7" t="s">
-        <v>1078</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="45" ht="148" customHeight="1" spans="3:4">
       <c r="C45" s="6" t="s">
-        <v>1079</v>
+        <v>1170</v>
       </c>
       <c r="D45" s="7" t="s">
-        <v>1080</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="46" customHeight="1" spans="3:4">
       <c r="C46" s="6" t="s">
-        <v>458</v>
+        <v>550</v>
       </c>
       <c r="D46" s="7" t="s">
-        <v>1081</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="47" customHeight="1" spans="2:4">
       <c r="B47" s="5" t="s">
-        <v>1082</v>
+        <v>1173</v>
       </c>
       <c r="C47" s="6" t="s">
-        <v>1044</v>
+        <v>1135</v>
       </c>
       <c r="D47" s="7" t="s">
-        <v>1045</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="48" ht="120" customHeight="1" spans="3:4">
       <c r="C48" s="6" t="s">
-        <v>1076</v>
+        <v>1167</v>
       </c>
       <c r="D48" s="7" t="s">
-        <v>1083</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="49" ht="33" spans="3:4">
       <c r="C49" s="6" t="s">
-        <v>456</v>
+        <v>548</v>
       </c>
       <c r="D49" s="7" t="s">
-        <v>1084</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="50" ht="115.5" spans="3:4">
       <c r="C50" s="6" t="s">
-        <v>1079</v>
+        <v>1170</v>
       </c>
       <c r="D50" s="7" t="s">
-        <v>1085</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="51" customHeight="1" spans="3:4">
       <c r="C51" s="6" t="s">
-        <v>458</v>
+        <v>550</v>
       </c>
       <c r="D51" s="7" t="s">
-        <v>1086</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="52" ht="33" spans="2:4">
       <c r="B52" s="5" t="s">
-        <v>1087</v>
+        <v>1178</v>
       </c>
       <c r="C52" s="6" t="s">
-        <v>1044</v>
+        <v>1135</v>
       </c>
       <c r="D52" s="7" t="s">
-        <v>1088</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="53" ht="33" spans="3:4">
       <c r="C53" s="6" t="s">
-        <v>1076</v>
+        <v>1167</v>
       </c>
       <c r="D53" s="7" t="s">
-        <v>1089</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="54" ht="27" customHeight="1" spans="3:4">
       <c r="C54" s="6" t="s">
-        <v>456</v>
+        <v>548</v>
       </c>
       <c r="D54" s="7" t="s">
-        <v>1090</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="55" ht="165" spans="3:4">
       <c r="C55" s="6" t="s">
-        <v>1079</v>
+        <v>1170</v>
       </c>
       <c r="D55" s="7" t="s">
-        <v>1091</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="56" customHeight="1" spans="3:4">
       <c r="C56" s="6" t="s">
-        <v>458</v>
+        <v>550</v>
       </c>
       <c r="D56" s="7" t="s">
-        <v>1092</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="57" customHeight="1" spans="1:1">
       <c r="A57" s="4" t="s">
-        <v>1093</v>
+        <v>1184</v>
       </c>
     </row>
     <row r="58" ht="49.5" spans="2:4">
       <c r="B58" s="13" t="s">
-        <v>1094</v>
+        <v>1185</v>
       </c>
       <c r="C58" s="13"/>
       <c r="D58" s="7" t="s">
-        <v>1095</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="59" ht="31" customHeight="1" spans="2:4">
       <c r="B59" s="14" t="s">
-        <v>1096</v>
+        <v>1187</v>
       </c>
       <c r="C59" s="14"/>
       <c r="D59" s="7" t="s">
-        <v>1097</v>
+        <v>1188</v>
       </c>
     </row>
     <row r="60" ht="18" spans="2:4">
       <c r="B60" s="14" t="s">
-        <v>1098</v>
+        <v>1189</v>
       </c>
       <c r="C60" s="14"/>
       <c r="D60" s="7" t="s">
-        <v>1090</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="61" ht="61" customHeight="1" spans="2:4">
       <c r="B61" s="14" t="s">
-        <v>1099</v>
+        <v>1190</v>
       </c>
       <c r="C61" s="14"/>
       <c r="D61" s="7" t="s">
-        <v>1100</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="62" ht="90" customHeight="1" spans="2:4">
       <c r="B62" s="14" t="s">
-        <v>1101</v>
+        <v>1192</v>
       </c>
       <c r="C62" s="14"/>
       <c r="D62" s="7" t="s">
-        <v>1102</v>
+        <v>1193</v>
       </c>
     </row>
     <row r="63" ht="181.5" spans="2:4">
       <c r="B63" s="15" t="s">
-        <v>1103</v>
+        <v>1194</v>
       </c>
       <c r="C63" s="15"/>
       <c r="D63" s="7" t="s">
-        <v>1104</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="64" ht="18" spans="2:4">
       <c r="B64" s="15"/>
       <c r="C64" s="15" t="s">
-        <v>1105</v>
+        <v>1196</v>
       </c>
       <c r="D64" s="7" t="s">
-        <v>1106</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="65" ht="33" spans="2:4">
       <c r="B65" s="15"/>
       <c r="C65" s="15" t="s">
-        <v>1107</v>
+        <v>1198</v>
       </c>
       <c r="D65" s="7" t="s">
-        <v>1108</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="66" ht="18" spans="2:4">
       <c r="B66" s="15"/>
       <c r="C66" s="15" t="s">
-        <v>1109</v>
+        <v>1200</v>
       </c>
       <c r="D66" s="7" t="s">
-        <v>1110</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="67" ht="18" spans="2:4">
       <c r="B67" s="15"/>
       <c r="C67" s="15" t="s">
-        <v>1111</v>
+        <v>1202</v>
       </c>
       <c r="D67" s="7" t="s">
-        <v>1112</v>
+        <v>1203</v>
       </c>
     </row>
     <row r="68" ht="18" spans="2:4">
       <c r="B68" s="15"/>
       <c r="C68" s="15" t="s">
-        <v>1113</v>
+        <v>1204</v>
       </c>
       <c r="D68" s="7" t="s">
-        <v>1114</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="69" ht="18" spans="2:4">
       <c r="B69" s="15"/>
       <c r="C69" s="15" t="s">
-        <v>1115</v>
+        <v>1206</v>
       </c>
       <c r="D69" s="7" t="s">
-        <v>1116</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="70" ht="56" customHeight="1" spans="2:3">
       <c r="B70" s="14" t="s">
-        <v>1117</v>
+        <v>1208</v>
       </c>
       <c r="C70" s="15"/>
     </row>
     <row r="71" ht="29" customHeight="1" spans="2:4">
       <c r="B71" s="15"/>
       <c r="C71" s="15" t="s">
-        <v>1118</v>
+        <v>1209</v>
       </c>
       <c r="D71" s="7" t="s">
-        <v>1119</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="72" ht="29" customHeight="1" spans="2:4">
       <c r="B72" s="15"/>
       <c r="C72" s="15" t="s">
-        <v>1120</v>
+        <v>1211</v>
       </c>
       <c r="D72" s="7" t="s">
-        <v>1121</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="73" ht="18" spans="2:3">
       <c r="B73" s="14" t="s">
-        <v>1122</v>
+        <v>1213</v>
       </c>
       <c r="C73" s="14"/>
     </row>
     <row r="74" customHeight="1" spans="1:4">
       <c r="A74" s="4" t="s">
-        <v>1123</v>
+        <v>1214</v>
       </c>
       <c r="D74" s="7" t="s">
-        <v>1124</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="75" ht="82.5" spans="2:4">
       <c r="B75" s="5" t="s">
-        <v>1125</v>
+        <v>1216</v>
       </c>
       <c r="C75" s="6" t="s">
-        <v>1126</v>
+        <v>1217</v>
       </c>
       <c r="D75" s="7" t="s">
-        <v>1127</v>
+        <v>1218</v>
       </c>
     </row>
     <row r="76" customHeight="1" spans="3:4">
       <c r="C76" s="6" t="s">
-        <v>1128</v>
+        <v>1219</v>
       </c>
       <c r="D76" s="7" t="s">
-        <v>1129</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="77" customHeight="1" spans="2:3">
       <c r="B77" s="5" t="s">
-        <v>1130</v>
+        <v>1221</v>
       </c>
       <c r="C77" s="6" t="s">
-        <v>1126</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="78" customHeight="1" spans="3:3">
       <c r="C78" s="6" t="s">
-        <v>1128</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="79" customHeight="1" spans="1:1">
       <c r="A79" s="4" t="s">
-        <v>1131</v>
+        <v>1222</v>
       </c>
     </row>
     <row r="80" ht="132" spans="2:4">
       <c r="B80" s="5" t="s">
-        <v>1132</v>
+        <v>1223</v>
       </c>
       <c r="C80" s="6" t="s">
-        <v>1133</v>
+        <v>1224</v>
       </c>
       <c r="D80" s="7" t="s">
-        <v>1134</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="81" customHeight="1" spans="2:4">
       <c r="B81" s="5" t="s">
-        <v>1135</v>
+        <v>1226</v>
       </c>
       <c r="D81" s="7" t="s">
-        <v>1136</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="82" customHeight="1" spans="2:4">
       <c r="B82" s="5" t="s">
-        <v>1137</v>
+        <v>1228</v>
       </c>
       <c r="D82" s="7" t="s">
-        <v>1138</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="83" customHeight="1" spans="2:4">
       <c r="B83" s="5" t="s">
-        <v>456</v>
+        <v>548</v>
       </c>
       <c r="D83" s="7" t="s">
-        <v>1139</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="84" customHeight="1" spans="1:1">
       <c r="A84" s="4" t="s">
-        <v>1140</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="85" ht="18" spans="2:4">
       <c r="B85" s="5" t="s">
-        <v>821</v>
+        <v>913</v>
       </c>
       <c r="C85" s="6" t="s">
-        <v>1141</v>
-      </c>
-      <c r="D85" s="113" t="s">
-        <v>1142</v>
+        <v>1232</v>
+      </c>
+      <c r="D85" s="114" t="s">
+        <v>1233</v>
       </c>
     </row>
     <row r="86" customHeight="1" spans="2:4">
       <c r="B86" s="5" t="s">
-        <v>819</v>
+        <v>911</v>
       </c>
       <c r="C86" s="6" t="s">
-        <v>1143</v>
-      </c>
-      <c r="D86" s="113" t="s">
-        <v>1144</v>
+        <v>1234</v>
+      </c>
+      <c r="D86" s="114" t="s">
+        <v>1235</v>
       </c>
     </row>
     <row r="87" customHeight="1" spans="2:4">
       <c r="B87" s="5" t="s">
-        <v>1145</v>
+        <v>1236</v>
       </c>
       <c r="C87" s="6" t="s">
-        <v>1146</v>
+        <v>1237</v>
       </c>
       <c r="D87" s="7" t="s">
-        <v>1147</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="88" customHeight="1" spans="3:4">
       <c r="C88" s="6" t="s">
-        <v>1148</v>
+        <v>1239</v>
       </c>
       <c r="D88" s="7" t="s">
-        <v>1149</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="89" customHeight="1" spans="3:4">
       <c r="C89" s="6" t="s">
-        <v>1150</v>
+        <v>1241</v>
       </c>
       <c r="D89" s="7" t="s">
-        <v>1151</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="90" customHeight="1" spans="2:4">
       <c r="B90" s="5" t="s">
-        <v>825</v>
+        <v>917</v>
       </c>
       <c r="C90" s="6" t="s">
-        <v>1152</v>
+        <v>1243</v>
       </c>
       <c r="D90" s="7" t="s">
-        <v>1153</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="91" customHeight="1" spans="3:4">
       <c r="C91" s="6" t="s">
-        <v>1154</v>
+        <v>1245</v>
       </c>
       <c r="D91" s="7" t="s">
-        <v>1155</v>
+        <v>1246</v>
       </c>
     </row>
     <row r="92" customHeight="1" spans="3:4">
       <c r="C92" s="16" t="s">
-        <v>1156</v>
+        <v>1247</v>
       </c>
       <c r="D92" s="7" t="s">
-        <v>1157</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="93" customHeight="1" spans="2:12">
       <c r="B93" s="4"/>
       <c r="C93" s="16" t="s">
-        <v>1158</v>
+        <v>1249</v>
       </c>
       <c r="D93" s="10" t="s">
-        <v>1159</v>
+        <v>1250</v>
       </c>
       <c r="E93" s="18"/>
       <c r="L93" s="8"/>
@@ -17779,415 +18603,415 @@
     <row r="94" customHeight="1" spans="2:12">
       <c r="B94" s="4"/>
       <c r="C94" s="16" t="s">
-        <v>1160</v>
+        <v>1251</v>
       </c>
       <c r="D94" s="10" t="s">
-        <v>1161</v>
+        <v>1252</v>
       </c>
       <c r="E94" s="18"/>
       <c r="L94" s="8"/>
     </row>
     <row r="95" ht="33" spans="2:4">
       <c r="B95" s="5" t="s">
-        <v>1162</v>
+        <v>1253</v>
       </c>
       <c r="C95" s="17" t="s">
-        <v>1163</v>
+        <v>1254</v>
       </c>
       <c r="D95" s="7" t="s">
-        <v>1164</v>
+        <v>1255</v>
       </c>
     </row>
     <row r="97" customHeight="1" spans="2:4">
       <c r="B97" s="5" t="s">
-        <v>1165</v>
+        <v>1256</v>
       </c>
       <c r="D97" s="7" t="s">
-        <v>1166</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="98" customHeight="1" spans="2:4">
       <c r="B98" s="5" t="s">
-        <v>1167</v>
+        <v>1258</v>
       </c>
       <c r="C98" s="6" t="s">
-        <v>1168</v>
+        <v>1259</v>
       </c>
       <c r="D98" s="7" t="s">
-        <v>1169</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="99" customHeight="1" spans="2:4">
       <c r="B99" s="5" t="s">
-        <v>1170</v>
+        <v>1261</v>
       </c>
       <c r="C99" s="6" t="s">
-        <v>1171</v>
+        <v>1262</v>
       </c>
       <c r="D99" s="7" t="s">
-        <v>1172</v>
+        <v>1263</v>
       </c>
     </row>
     <row r="100" customHeight="1" spans="3:4">
       <c r="C100" s="6" t="s">
-        <v>1173</v>
+        <v>1264</v>
       </c>
       <c r="D100" s="7" t="s">
-        <v>1174</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="101" customHeight="1" spans="3:4">
       <c r="C101" s="6" t="s">
-        <v>1175</v>
+        <v>1266</v>
       </c>
       <c r="D101" s="7" t="s">
-        <v>1176</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="102" customHeight="1" spans="3:4">
       <c r="C102" s="6" t="s">
-        <v>1177</v>
+        <v>1268</v>
       </c>
       <c r="D102" s="7" t="s">
-        <v>1178</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="103" customHeight="1" spans="3:4">
       <c r="C103" s="6" t="s">
-        <v>1179</v>
+        <v>1270</v>
       </c>
       <c r="D103" s="7" t="s">
-        <v>1180</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="104" customHeight="1" spans="2:3">
       <c r="B104" s="5" t="s">
-        <v>1181</v>
+        <v>1272</v>
       </c>
       <c r="C104" s="6" t="s">
-        <v>1182</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="105" customHeight="1" spans="2:3">
       <c r="B105" s="5" t="s">
-        <v>1183</v>
+        <v>1274</v>
       </c>
       <c r="C105" s="6" t="s">
-        <v>1184</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="106" customHeight="1" spans="2:4">
       <c r="B106" s="5" t="s">
-        <v>1185</v>
+        <v>1276</v>
       </c>
       <c r="C106" s="6" t="s">
-        <v>1186</v>
+        <v>1277</v>
       </c>
       <c r="D106" s="7" t="s">
-        <v>1187</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="107" customHeight="1" spans="2:4">
       <c r="B107" s="5" t="s">
-        <v>1188</v>
+        <v>1279</v>
       </c>
       <c r="C107" s="6" t="s">
-        <v>1189</v>
+        <v>1280</v>
       </c>
       <c r="D107" s="7" t="s">
-        <v>1190</v>
+        <v>1281</v>
       </c>
     </row>
     <row r="108" customHeight="1" spans="3:4">
       <c r="C108" s="6" t="s">
-        <v>1191</v>
+        <v>1282</v>
       </c>
       <c r="D108" s="7" t="s">
-        <v>1192</v>
+        <v>1283</v>
       </c>
     </row>
     <row r="109" customHeight="1" spans="3:4">
       <c r="C109" s="6" t="s">
-        <v>1193</v>
+        <v>1284</v>
       </c>
       <c r="D109" s="7" t="s">
-        <v>1194</v>
+        <v>1285</v>
       </c>
     </row>
     <row r="111" customHeight="1" spans="1:1">
       <c r="A111" s="4" t="s">
-        <v>1195</v>
+        <v>1286</v>
       </c>
     </row>
     <row r="112" customHeight="1" spans="2:2">
       <c r="B112" s="5" t="s">
-        <v>1196</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="113" customHeight="1" spans="3:4">
       <c r="C113" s="16" t="s">
-        <v>1044</v>
+        <v>1135</v>
       </c>
       <c r="D113" s="7" t="s">
-        <v>1197</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="114" customHeight="1" spans="3:4">
       <c r="C114" s="16" t="s">
-        <v>835</v>
+        <v>927</v>
       </c>
       <c r="D114" s="7" t="s">
-        <v>1198</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="115" customHeight="1" spans="2:2">
       <c r="B115" s="5" t="s">
-        <v>1199</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="116" customHeight="1" spans="3:3">
       <c r="C116" s="6" t="s">
-        <v>1200</v>
+        <v>1291</v>
       </c>
     </row>
     <row r="117" customHeight="1" spans="3:4">
       <c r="C117" s="6" t="s">
-        <v>1201</v>
+        <v>1292</v>
       </c>
       <c r="D117" s="7" t="s">
-        <v>1202</v>
+        <v>1293</v>
       </c>
     </row>
     <row r="118" customHeight="1" spans="2:2">
       <c r="B118" s="5" t="s">
-        <v>1195</v>
+        <v>1286</v>
       </c>
     </row>
     <row r="119" customHeight="1" spans="3:3">
       <c r="C119" s="6" t="s">
-        <v>1200</v>
+        <v>1291</v>
       </c>
     </row>
     <row r="120" customHeight="1" spans="3:4">
       <c r="C120" s="6" t="s">
-        <v>1201</v>
+        <v>1292</v>
       </c>
       <c r="D120" s="7" t="s">
-        <v>1203</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="121" customHeight="1" spans="2:4">
       <c r="B121" s="5" t="s">
-        <v>1195</v>
+        <v>1286</v>
       </c>
       <c r="C121" s="6" t="s">
-        <v>1201</v>
+        <v>1292</v>
       </c>
       <c r="D121" s="7" t="s">
-        <v>1204</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="122" customHeight="1" spans="2:4">
       <c r="B122" s="5" t="s">
-        <v>1205</v>
+        <v>1296</v>
       </c>
       <c r="C122" s="6" t="s">
-        <v>1206</v>
+        <v>1297</v>
       </c>
       <c r="D122" s="7" t="s">
-        <v>1207</v>
+        <v>1298</v>
       </c>
     </row>
     <row r="123" customHeight="1" spans="3:4">
       <c r="C123" s="6" t="s">
-        <v>1208</v>
+        <v>1299</v>
       </c>
       <c r="D123" s="7" t="s">
-        <v>1209</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="125" customHeight="1" spans="1:1">
       <c r="A125" s="4" t="s">
-        <v>1210</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="126" customHeight="1" spans="2:2">
       <c r="B126" s="5" t="s">
-        <v>1211</v>
+        <v>1302</v>
       </c>
     </row>
     <row r="127" customHeight="1" spans="2:2">
       <c r="B127" s="5" t="s">
-        <v>1212</v>
+        <v>1303</v>
       </c>
     </row>
     <row r="128" customHeight="1" spans="1:1">
       <c r="A128" s="4" t="s">
-        <v>1213</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="129" customHeight="1" spans="2:2">
       <c r="B129" s="5" t="s">
-        <v>1214</v>
+        <v>1305</v>
       </c>
     </row>
     <row r="130" ht="115.5" spans="3:4">
       <c r="C130" s="6" t="s">
-        <v>1215</v>
+        <v>1306</v>
       </c>
       <c r="D130" s="7" t="s">
-        <v>1216</v>
+        <v>1307</v>
       </c>
     </row>
     <row r="131" customHeight="1" spans="3:4">
       <c r="C131" s="6" t="s">
-        <v>1217</v>
+        <v>1308</v>
       </c>
       <c r="D131" s="7" t="s">
-        <v>1218</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="132" ht="33" spans="2:4">
       <c r="B132" s="5" t="s">
-        <v>1219</v>
+        <v>1310</v>
       </c>
       <c r="D132" s="19" t="s">
-        <v>1220</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="133" ht="33" spans="2:4">
       <c r="B133" s="5" t="s">
-        <v>1221</v>
+        <v>1312</v>
       </c>
       <c r="C133" s="6" t="s">
-        <v>917</v>
+        <v>1009</v>
       </c>
       <c r="D133" s="7" t="s">
-        <v>1222</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="134" customHeight="1" spans="2:4">
       <c r="B134" s="5" t="s">
-        <v>1223</v>
+        <v>1314</v>
       </c>
       <c r="C134" s="6" t="s">
-        <v>917</v>
+        <v>1009</v>
       </c>
       <c r="D134" s="7" t="s">
-        <v>1224</v>
+        <v>1315</v>
       </c>
     </row>
     <row r="135" ht="49.5" spans="3:4">
       <c r="C135" s="6" t="s">
-        <v>1225</v>
+        <v>1316</v>
       </c>
       <c r="D135" s="7" t="s">
-        <v>1226</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="136" customHeight="1" spans="2:2">
       <c r="B136" s="5" t="s">
-        <v>1227</v>
+        <v>1318</v>
       </c>
     </row>
     <row r="138" customHeight="1" spans="2:2">
       <c r="B138" s="5" t="s">
-        <v>1228</v>
+        <v>1319</v>
       </c>
     </row>
     <row r="141" customHeight="1" spans="1:1">
       <c r="A141" s="4" t="s">
-        <v>1229</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="142" customHeight="1" spans="2:3">
       <c r="B142" s="5" t="s">
-        <v>1230</v>
+        <v>1321</v>
       </c>
       <c r="C142" s="6" t="s">
-        <v>1231</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="143" customHeight="1" spans="2:4">
       <c r="B143" s="20" t="s">
-        <v>1232</v>
+        <v>1323</v>
       </c>
       <c r="C143" s="6" t="s">
-        <v>1233</v>
+        <v>1324</v>
       </c>
       <c r="D143" s="7" t="s">
-        <v>1234</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="144" customHeight="1" spans="3:4">
       <c r="C144" s="6" t="s">
-        <v>1235</v>
+        <v>1326</v>
       </c>
       <c r="D144" s="7" t="s">
-        <v>1236</v>
+        <v>1327</v>
       </c>
     </row>
     <row r="145" customHeight="1" spans="2:2">
       <c r="B145" s="5" t="s">
-        <v>1237</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="146" customHeight="1" spans="3:4">
       <c r="C146" s="6" t="s">
-        <v>1238</v>
+        <v>1329</v>
       </c>
       <c r="D146" s="7" t="s">
-        <v>1239</v>
+        <v>1330</v>
       </c>
     </row>
     <row r="147" customHeight="1" spans="2:2">
       <c r="B147" s="5" t="s">
-        <v>1240</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="148" customHeight="1" spans="3:3">
       <c r="C148" s="6" t="s">
-        <v>1238</v>
+        <v>1329</v>
       </c>
     </row>
     <row r="155" customHeight="1" spans="1:1">
       <c r="A155" s="4" t="s">
-        <v>1241</v>
+        <v>1332</v>
       </c>
     </row>
     <row r="160" customHeight="1" spans="1:1">
       <c r="A160" s="4" t="s">
-        <v>1242</v>
+        <v>1333</v>
       </c>
     </row>
     <row r="165" customHeight="1" spans="1:1">
       <c r="A165" s="4" t="s">
-        <v>1243</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="170" customHeight="1" spans="1:1">
       <c r="A170" s="4" t="s">
-        <v>1244</v>
+        <v>1335</v>
       </c>
     </row>
     <row r="174" customHeight="1" spans="1:1">
       <c r="A174" s="4" t="s">
-        <v>1245</v>
+        <v>1336</v>
       </c>
     </row>
     <row r="180" customHeight="1" spans="1:1">
       <c r="A180" s="4" t="s">
-        <v>1246</v>
+        <v>1337</v>
       </c>
     </row>
     <row r="182" customHeight="1" spans="1:1">
       <c r="A182" s="4" t="s">
-        <v>1247</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="184" customHeight="1" spans="1:1">
       <c r="A184" s="4" t="s">
-        <v>1248</v>
+        <v>1339</v>
       </c>
     </row>
   </sheetData>

--- a/linux.xlsx
+++ b/linux.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20385" windowHeight="7950" firstSheet="1" activeTab="1"/>
+    <workbookView windowWidth="20385" windowHeight="7950" firstSheet="1" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="目录" sheetId="1" r:id="rId1"/>
@@ -6126,7 +6126,7 @@
   </si>
   <si>
     <t>skip-grant-tables=1               //mysqld 启动时不对密码进行验证
-update user set authentication_string = password('root'), where user = 'root';  更改密码为root
+update user set authentication_string = password('123456'), where user = 'root';  更改密码为root
 flush privileges                  //更新生效
 永久生效：/etc/my.cnf
 validate_password_policy=0
@@ -7966,7 +7966,7 @@
   <sheetPr/>
   <dimension ref="A1:I318"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A309" workbookViewId="0">
+    <sheetView topLeftCell="A309" workbookViewId="0">
       <selection activeCell="B319" sqref="B319"/>
     </sheetView>
   </sheetViews>
@@ -17865,8 +17865,8 @@
   <sheetPr/>
   <dimension ref="A1:L184"/>
   <sheetViews>
-    <sheetView topLeftCell="A125" workbookViewId="0">
-      <selection activeCell="D130" sqref="D130"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.125" defaultRowHeight="24" customHeight="1"/>

--- a/linux.xlsx
+++ b/linux.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20385" windowHeight="7950" firstSheet="1" activeTab="8"/>
+    <workbookView windowWidth="20385" windowHeight="7950" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="目录" sheetId="1" r:id="rId1"/>
@@ -6302,9 +6302,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="60">
     <font>
@@ -6567,8 +6567,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6583,10 +6605,18 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -6607,15 +6637,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6623,17 +6645,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -6653,9 +6667,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6670,35 +6683,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6737,13 +6737,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6755,31 +6797,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6791,97 +6821,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6899,7 +6839,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6911,7 +6857,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6973,17 +6973,28 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -7003,28 +7014,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -7033,124 +7033,124 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="40" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="42" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="40" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="56" fillId="31" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="54" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="42" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="42" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="40" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="40" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="40" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="40" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="40" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="40" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="55" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="40" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="53" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="48" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="42" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="55" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="52" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="42" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="56" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="49" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="47" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="42" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="40" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="42" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="40" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="42" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="45" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -7159,19 +7159,19 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="42" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="40" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="42" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="38" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -7966,8 +7966,8 @@
   <sheetPr/>
   <dimension ref="A1:I318"/>
   <sheetViews>
-    <sheetView topLeftCell="A309" workbookViewId="0">
-      <selection activeCell="B319" sqref="B319"/>
+    <sheetView tabSelected="1" topLeftCell="A309" workbookViewId="0">
+      <selection activeCell="A320" sqref="A320"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="21" customHeight="1"/>
@@ -17865,7 +17865,7 @@
   <sheetPr/>
   <dimension ref="A1:L184"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+    <sheetView topLeftCell="A6" workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>

--- a/linux.xlsx
+++ b/linux.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1386">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1392">
   <si>
     <t>ab</t>
   </si>
@@ -1434,6 +1434,24 @@
   </si>
   <si>
     <t>tree</t>
+  </si>
+  <si>
+    <t xml:space="preserve">以树形结构打印文件和目录  tree PATH [选项] </t>
+  </si>
+  <si>
+    <t>显示出匹配指定模式的文件</t>
+  </si>
+  <si>
+    <t>显示不匹配指定模式的文件</t>
+  </si>
+  <si>
+    <t>打印文件和目录大小</t>
+  </si>
+  <si>
+    <t>ffmpeg</t>
+  </si>
+  <si>
+    <t>FFPEG视频转换器</t>
   </si>
   <si>
     <t>NTP时间同步</t>
@@ -6419,10 +6437,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="62">
     <font>
@@ -6698,22 +6716,29 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6729,6 +6754,22 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -6743,24 +6784,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6769,21 +6801,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6804,15 +6821,16 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6825,9 +6843,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6866,6 +6884,126 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -6878,37 +7016,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6920,103 +7046,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7028,25 +7064,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7063,8 +7081,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -7088,7 +7121,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -7107,8 +7140,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -7142,114 +7175,99 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="41" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="43" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="57" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="41" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="57" fillId="32" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="43" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="41" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="41" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="41" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="41" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="41" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="41" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="58" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="46" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="41" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="54" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="54" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="43" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="50" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="43" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="53" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="53" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="55" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="52" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="43" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="43" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -7258,52 +7276,52 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="44" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="41" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="43" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="41" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="43" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="55" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="43" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="41" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="43" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -8008,7 +8026,7 @@
   <sheetData>
     <row r="1" ht="198" spans="1:1">
       <c r="A1" s="7" t="s">
-        <v>1368</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="2" ht="23" customHeight="1"/>
@@ -8065,32 +8083,32 @@
   <sheetData>
     <row r="1" ht="72" spans="1:1">
       <c r="A1" s="6" t="s">
-        <v>1369</v>
+        <v>1375</v>
       </c>
     </row>
     <row r="2" ht="72" spans="1:1">
       <c r="A2" s="6" t="s">
-        <v>1370</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="3" ht="36" spans="1:1">
       <c r="A3" s="6" t="s">
-        <v>1371</v>
+        <v>1377</v>
       </c>
     </row>
     <row r="4" ht="409.5" spans="1:1">
       <c r="A4" s="6" t="s">
-        <v>1372</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="6" ht="72" spans="1:1">
       <c r="A6" s="6" t="s">
-        <v>1373</v>
+        <v>1379</v>
       </c>
     </row>
     <row r="7" ht="54" spans="1:1">
       <c r="A7" s="6" t="s">
-        <v>1374</v>
+        <v>1380</v>
       </c>
     </row>
   </sheetData>
@@ -8117,63 +8135,63 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>1375</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="2" spans="2:2">
       <c r="B2" s="2" t="s">
-        <v>1376</v>
+        <v>1382</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>1377</v>
+        <v>1383</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>1378</v>
+        <v>1384</v>
       </c>
     </row>
     <row r="4" spans="3:3">
       <c r="C4" s="3" t="s">
-        <v>1379</v>
+        <v>1385</v>
       </c>
     </row>
     <row r="5" spans="2:2">
       <c r="B5" s="2" t="s">
-        <v>1134</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="6" spans="3:3">
       <c r="C6" s="3" t="s">
-        <v>1380</v>
+        <v>1386</v>
       </c>
     </row>
     <row r="7" spans="2:2">
       <c r="B7" s="2" t="s">
-        <v>1381</v>
+        <v>1387</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="1" t="s">
-        <v>1382</v>
+        <v>1388</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="1" t="s">
-        <v>1383</v>
+        <v>1389</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>1384</v>
+        <v>1390</v>
       </c>
     </row>
     <row r="16" spans="2:2">
       <c r="B16" s="2" t="s">
-        <v>495</v>
+        <v>501</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" s="1" t="s">
-        <v>1385</v>
+        <v>1391</v>
       </c>
     </row>
   </sheetData>
@@ -8188,10 +8206,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:I347"/>
+  <dimension ref="A1:I353"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A177" workbookViewId="0">
-      <selection activeCell="C185" sqref="C185"/>
+    <sheetView tabSelected="1" topLeftCell="A340" workbookViewId="0">
+      <selection activeCell="C353" sqref="C353"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="21" customHeight="1"/>
@@ -10508,9 +10526,49 @@
         <v>458</v>
       </c>
     </row>
-    <row r="347" customHeight="1" spans="1:1">
+    <row r="347" customHeight="1" spans="1:3">
       <c r="A347" s="107" t="s">
         <v>459</v>
+      </c>
+      <c r="C347" s="109" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="348" customHeight="1" spans="2:3">
+      <c r="B348" s="108" t="s">
+        <v>14</v>
+      </c>
+      <c r="C348" s="109" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="349" customHeight="1" spans="2:3">
+      <c r="B349" s="108" t="s">
+        <v>49</v>
+      </c>
+      <c r="C349" s="109" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="350" customHeight="1" spans="2:3">
+      <c r="B350" s="108" t="s">
+        <v>36</v>
+      </c>
+      <c r="C350" s="109" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="352" customHeight="1" spans="1:3">
+      <c r="A352" s="107" t="s">
+        <v>464</v>
+      </c>
+      <c r="C352" s="109" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="353" customHeight="1" spans="2:2">
+      <c r="B353" s="108" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -10546,15 +10604,15 @@
   <sheetData>
     <row r="1" ht="25" customHeight="1" spans="1:3">
       <c r="A1" s="96" t="s">
-        <v>460</v>
+        <v>466</v>
       </c>
       <c r="C1" s="98" t="s">
-        <v>461</v>
+        <v>467</v>
       </c>
     </row>
     <row r="2" spans="2:7">
       <c r="B2" s="99" t="s">
-        <v>462</v>
+        <v>468</v>
       </c>
       <c r="C2" s="100"/>
       <c r="D2" s="100"/>
@@ -10564,47 +10622,47 @@
     </row>
     <row r="3" spans="2:2">
       <c r="B3" s="101" t="s">
-        <v>463</v>
+        <v>469</v>
       </c>
     </row>
     <row r="4" ht="20" customHeight="1" spans="3:3">
       <c r="C4" s="102" t="s">
-        <v>464</v>
+        <v>470</v>
       </c>
     </row>
     <row r="5" ht="48" customHeight="1" spans="3:3">
       <c r="C5" s="103" t="s">
-        <v>465</v>
+        <v>471</v>
       </c>
     </row>
     <row r="6" ht="20" customHeight="1" spans="3:3">
       <c r="C6" s="102" t="s">
-        <v>466</v>
+        <v>472</v>
       </c>
     </row>
     <row r="7" ht="58" customHeight="1" spans="3:3">
       <c r="C7" s="103" t="s">
-        <v>467</v>
+        <v>473</v>
       </c>
     </row>
     <row r="8" ht="21" customHeight="1" spans="3:3">
       <c r="C8" s="102" t="s">
-        <v>468</v>
+        <v>474</v>
       </c>
     </row>
     <row r="9" ht="33" customHeight="1" spans="3:3">
       <c r="C9" s="103" t="s">
-        <v>469</v>
+        <v>475</v>
       </c>
     </row>
     <row r="10" ht="21" customHeight="1" spans="3:3">
       <c r="C10" s="102" t="s">
-        <v>470</v>
+        <v>476</v>
       </c>
     </row>
     <row r="11" ht="43" customHeight="1" spans="3:3">
       <c r="C11" s="103" t="s">
-        <v>471</v>
+        <v>477</v>
       </c>
     </row>
     <row r="12" ht="24" customHeight="1" spans="3:3">
@@ -10612,12 +10670,12 @@
     </row>
     <row r="13" ht="25" customHeight="1" spans="1:1">
       <c r="A13" s="96" t="s">
-        <v>472</v>
+        <v>478</v>
       </c>
     </row>
     <row r="14" ht="50" customHeight="1" spans="2:7">
       <c r="B14" s="104" t="s">
-        <v>473</v>
+        <v>479</v>
       </c>
       <c r="C14" s="45"/>
       <c r="D14" s="45"/>
@@ -10627,7 +10685,7 @@
     </row>
     <row r="15" ht="50" customHeight="1" spans="2:7">
       <c r="B15" s="104" t="s">
-        <v>474</v>
+        <v>480</v>
       </c>
       <c r="C15" s="45"/>
       <c r="D15" s="45"/>
@@ -10637,15 +10695,15 @@
     </row>
     <row r="16" ht="25" customHeight="1" spans="1:3">
       <c r="A16" s="96" t="s">
-        <v>475</v>
+        <v>481</v>
       </c>
       <c r="C16" s="98" t="s">
-        <v>476</v>
+        <v>482</v>
       </c>
     </row>
     <row r="17" ht="51" customHeight="1" spans="2:7">
       <c r="B17" s="104" t="s">
-        <v>477</v>
+        <v>483</v>
       </c>
       <c r="C17" s="45"/>
       <c r="D17" s="45"/>
@@ -10655,7 +10713,7 @@
     </row>
     <row r="18" ht="40" customHeight="1" spans="2:7">
       <c r="B18" s="104" t="s">
-        <v>478</v>
+        <v>484</v>
       </c>
       <c r="C18" s="45"/>
       <c r="D18" s="45"/>
@@ -10665,7 +10723,7 @@
     </row>
     <row r="19" spans="2:7">
       <c r="B19" s="99" t="s">
-        <v>479</v>
+        <v>485</v>
       </c>
       <c r="C19" s="100"/>
       <c r="D19" s="100"/>
@@ -10675,7 +10733,7 @@
     </row>
     <row r="20" spans="2:7">
       <c r="B20" s="99" t="s">
-        <v>480</v>
+        <v>486</v>
       </c>
       <c r="C20" s="100"/>
       <c r="D20" s="100"/>
@@ -10685,11 +10743,11 @@
     </row>
     <row r="22" ht="22" customHeight="1" spans="1:7">
       <c r="A22" s="96" t="s">
-        <v>481</v>
+        <v>487</v>
       </c>
       <c r="B22"/>
       <c r="C22" s="105" t="s">
-        <v>482</v>
+        <v>488</v>
       </c>
       <c r="D22"/>
       <c r="E22"/>
@@ -10699,7 +10757,7 @@
     <row r="23" ht="90" customHeight="1" spans="2:7">
       <c r="B23"/>
       <c r="C23" s="106" t="s">
-        <v>483</v>
+        <v>489</v>
       </c>
       <c r="D23"/>
       <c r="E23"/>
@@ -10746,13 +10804,13 @@
   <sheetData>
     <row r="1" spans="1:14">
       <c r="A1" s="68" t="s">
-        <v>484</v>
+        <v>490</v>
       </c>
       <c r="B1" s="72" t="s">
-        <v>485</v>
+        <v>491</v>
       </c>
       <c r="C1" s="73" t="s">
-        <v>486</v>
+        <v>492</v>
       </c>
       <c r="D1" s="73"/>
       <c r="E1" s="73"/>
@@ -10768,17 +10826,17 @@
     </row>
     <row r="2" spans="2:2">
       <c r="B2" s="69" t="s">
-        <v>487</v>
+        <v>493</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="68" t="s">
-        <v>488</v>
+        <v>494</v>
       </c>
     </row>
     <row r="5" spans="2:14">
       <c r="B5" s="74" t="s">
-        <v>489</v>
+        <v>495</v>
       </c>
       <c r="C5" s="73"/>
       <c r="D5" s="73"/>
@@ -10795,7 +10853,7 @@
     </row>
     <row r="6" spans="2:14">
       <c r="B6" s="74" t="s">
-        <v>490</v>
+        <v>496</v>
       </c>
       <c r="C6" s="73"/>
       <c r="D6" s="73"/>
@@ -10812,7 +10870,7 @@
     </row>
     <row r="7" spans="2:14">
       <c r="B7" s="74" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
       <c r="C7" s="73"/>
       <c r="D7" s="73"/>
@@ -10829,7 +10887,7 @@
     </row>
     <row r="8" spans="2:14">
       <c r="B8" s="75" t="s">
-        <v>492</v>
+        <v>498</v>
       </c>
       <c r="C8" s="76"/>
       <c r="D8" s="76"/>
@@ -10846,10 +10904,10 @@
     </row>
     <row r="9" spans="2:14">
       <c r="B9" s="77" t="s">
-        <v>493</v>
+        <v>499</v>
       </c>
       <c r="C9" s="40" t="s">
-        <v>494</v>
+        <v>500</v>
       </c>
       <c r="D9" s="40"/>
       <c r="E9" s="40"/>
@@ -10865,7 +10923,7 @@
     </row>
     <row r="10" spans="2:14">
       <c r="B10" s="74" t="s">
-        <v>495</v>
+        <v>501</v>
       </c>
       <c r="C10" s="73"/>
       <c r="D10" s="73"/>
@@ -10883,7 +10941,7 @@
     <row r="11" spans="2:14">
       <c r="B11" s="74"/>
       <c r="C11" s="73" t="s">
-        <v>496</v>
+        <v>502</v>
       </c>
       <c r="D11" s="73"/>
       <c r="E11" s="73"/>
@@ -10899,7 +10957,7 @@
     </row>
     <row r="12" spans="2:14">
       <c r="B12" s="74" t="s">
-        <v>497</v>
+        <v>503</v>
       </c>
       <c r="C12" s="73"/>
       <c r="D12" s="73"/>
@@ -10917,7 +10975,7 @@
     <row r="13" ht="39" customHeight="1" spans="2:14">
       <c r="B13" s="74"/>
       <c r="C13" s="114" t="s">
-        <v>498</v>
+        <v>504</v>
       </c>
       <c r="D13" s="73"/>
       <c r="E13" s="73"/>
@@ -10933,10 +10991,10 @@
     </row>
     <row r="14" ht="42" customHeight="1" spans="2:14">
       <c r="B14" s="74" t="s">
-        <v>499</v>
+        <v>505</v>
       </c>
       <c r="C14" s="78" t="s">
-        <v>500</v>
+        <v>506</v>
       </c>
       <c r="D14" s="78"/>
       <c r="E14" s="78"/>
@@ -10952,13 +11010,13 @@
     </row>
     <row r="16" ht="34" customHeight="1" spans="1:14">
       <c r="A16" s="68" t="s">
-        <v>501</v>
+        <v>507</v>
       </c>
       <c r="B16" s="79" t="s">
-        <v>502</v>
+        <v>508</v>
       </c>
       <c r="C16" s="80" t="s">
-        <v>503</v>
+        <v>509</v>
       </c>
       <c r="D16" s="73"/>
       <c r="E16" s="73"/>
@@ -10974,7 +11032,7 @@
     </row>
     <row r="17" ht="39" customHeight="1" spans="2:14">
       <c r="B17" s="77" t="s">
-        <v>504</v>
+        <v>510</v>
       </c>
       <c r="C17" s="78"/>
       <c r="D17" s="78"/>
@@ -10991,12 +11049,12 @@
     </row>
     <row r="18" spans="2:2">
       <c r="B18" s="79" t="s">
-        <v>505</v>
+        <v>511</v>
       </c>
     </row>
     <row r="19" ht="79" customHeight="1" spans="3:14">
       <c r="C19" s="78" t="s">
-        <v>506</v>
+        <v>512</v>
       </c>
       <c r="D19" s="78"/>
       <c r="E19" s="78"/>
@@ -11012,12 +11070,12 @@
     </row>
     <row r="20" ht="25" customHeight="1" spans="2:2">
       <c r="B20" s="79" t="s">
-        <v>507</v>
+        <v>513</v>
       </c>
     </row>
     <row r="21" ht="58" customHeight="1" spans="3:14">
       <c r="C21" s="78" t="s">
-        <v>508</v>
+        <v>514</v>
       </c>
       <c r="D21" s="78"/>
       <c r="E21" s="78"/>
@@ -11033,12 +11091,12 @@
     </row>
     <row r="22" spans="2:2">
       <c r="B22" s="79" t="s">
-        <v>509</v>
+        <v>515</v>
       </c>
     </row>
     <row r="23" ht="78" customHeight="1" spans="3:14">
       <c r="C23" s="78" t="s">
-        <v>510</v>
+        <v>516</v>
       </c>
       <c r="D23" s="78"/>
       <c r="E23" s="78"/>
@@ -11054,7 +11112,7 @@
     </row>
     <row r="24" spans="2:14">
       <c r="B24" s="74" t="s">
-        <v>511</v>
+        <v>517</v>
       </c>
       <c r="C24" s="73"/>
       <c r="D24" s="73"/>
@@ -11071,7 +11129,7 @@
     </row>
     <row r="25" spans="2:14">
       <c r="B25" s="74" t="s">
-        <v>512</v>
+        <v>518</v>
       </c>
       <c r="C25" s="74"/>
       <c r="D25" s="74"/>
@@ -11148,18 +11206,18 @@
     </row>
     <row r="30" ht="19" customHeight="1" spans="1:3">
       <c r="A30" s="68" t="s">
-        <v>513</v>
+        <v>519</v>
       </c>
       <c r="B30" s="79" t="s">
-        <v>514</v>
+        <v>520</v>
       </c>
       <c r="C30" s="81" t="s">
-        <v>515</v>
+        <v>521</v>
       </c>
     </row>
     <row r="31" ht="71" customHeight="1" spans="2:15">
       <c r="B31" s="82" t="s">
-        <v>516</v>
+        <v>522</v>
       </c>
       <c r="C31" s="82"/>
       <c r="D31" s="82"/>
@@ -11177,7 +11235,7 @@
     </row>
     <row r="32" spans="2:14">
       <c r="B32" s="83" t="s">
-        <v>517</v>
+        <v>523</v>
       </c>
       <c r="C32" s="84"/>
       <c r="D32" s="84"/>
@@ -11194,12 +11252,12 @@
     </row>
     <row r="34" spans="1:1">
       <c r="A34" s="68" t="s">
-        <v>518</v>
+        <v>524</v>
       </c>
     </row>
     <row r="35" ht="60" customHeight="1" spans="2:15">
       <c r="B35" s="77" t="s">
-        <v>519</v>
+        <v>525</v>
       </c>
       <c r="C35" s="78"/>
       <c r="D35" s="78"/>
@@ -11217,7 +11275,7 @@
     </row>
     <row r="36" ht="55" customHeight="1" spans="2:15">
       <c r="B36" s="77" t="s">
-        <v>520</v>
+        <v>526</v>
       </c>
       <c r="C36" s="78"/>
       <c r="D36" s="78"/>
@@ -11235,7 +11293,7 @@
     </row>
     <row r="37" ht="20" customHeight="1" spans="2:15">
       <c r="B37" s="74" t="s">
-        <v>521</v>
+        <v>527</v>
       </c>
       <c r="C37" s="73"/>
       <c r="D37" s="73"/>
@@ -11253,17 +11311,17 @@
     </row>
     <row r="38" ht="21" customHeight="1" spans="2:3">
       <c r="B38" s="85" t="s">
-        <v>522</v>
+        <v>528</v>
       </c>
       <c r="C38" s="81"/>
     </row>
     <row r="39" ht="54" customHeight="1" spans="2:14">
       <c r="B39" s="85"/>
       <c r="C39" s="81" t="s">
-        <v>523</v>
+        <v>529</v>
       </c>
       <c r="D39" s="78" t="s">
-        <v>524</v>
+        <v>530</v>
       </c>
       <c r="E39" s="78"/>
       <c r="F39" s="78"/>
@@ -11279,16 +11337,16 @@
     <row r="40" ht="21" customHeight="1" spans="2:3">
       <c r="B40" s="85"/>
       <c r="C40" s="81" t="s">
-        <v>525</v>
+        <v>531</v>
       </c>
     </row>
     <row r="41" ht="72" customHeight="1" spans="2:14">
       <c r="B41" s="85"/>
       <c r="C41" s="81" t="s">
-        <v>526</v>
+        <v>532</v>
       </c>
       <c r="D41" s="78" t="s">
-        <v>527</v>
+        <v>533</v>
       </c>
       <c r="E41" s="78"/>
       <c r="F41" s="78"/>
@@ -11304,10 +11362,10 @@
     <row r="42" ht="39" customHeight="1" spans="2:14">
       <c r="B42" s="85"/>
       <c r="C42" s="81" t="s">
-        <v>528</v>
+        <v>534</v>
       </c>
       <c r="D42" s="78" t="s">
-        <v>529</v>
+        <v>535</v>
       </c>
       <c r="E42" s="73"/>
       <c r="F42" s="73"/>
@@ -11323,7 +11381,7 @@
     <row r="43" ht="21" customHeight="1" spans="2:4">
       <c r="B43" s="85"/>
       <c r="C43" s="81" t="s">
-        <v>530</v>
+        <v>536</v>
       </c>
       <c r="D43" s="81"/>
     </row>
@@ -11331,7 +11389,7 @@
       <c r="B44" s="85"/>
       <c r="C44" s="81"/>
       <c r="D44" s="80" t="s">
-        <v>531</v>
+        <v>537</v>
       </c>
       <c r="E44" s="78"/>
       <c r="F44" s="78"/>
@@ -11348,7 +11406,7 @@
       <c r="B45" s="85"/>
       <c r="C45" s="81"/>
       <c r="D45" s="86" t="s">
-        <v>532</v>
+        <v>538</v>
       </c>
       <c r="E45" s="86"/>
       <c r="F45" s="86"/>
@@ -11363,7 +11421,7 @@
     </row>
     <row r="46" spans="2:15">
       <c r="B46" s="74" t="s">
-        <v>533</v>
+        <v>539</v>
       </c>
       <c r="C46" s="73"/>
       <c r="D46" s="73"/>
@@ -11381,11 +11439,11 @@
     </row>
     <row r="47" spans="2:14">
       <c r="B47" s="74" t="s">
-        <v>534</v>
+        <v>540</v>
       </c>
       <c r="C47" s="73"/>
       <c r="D47" s="73" t="s">
-        <v>535</v>
+        <v>541</v>
       </c>
       <c r="E47" s="73"/>
       <c r="F47" s="73"/>
@@ -11400,12 +11458,12 @@
     </row>
     <row r="49" spans="1:1">
       <c r="A49" s="68" t="s">
-        <v>536</v>
+        <v>542</v>
       </c>
     </row>
     <row r="50" ht="81" customHeight="1" spans="2:14">
       <c r="B50" s="77" t="s">
-        <v>537</v>
+        <v>543</v>
       </c>
       <c r="C50" s="78"/>
       <c r="D50" s="78"/>
@@ -11422,12 +11480,12 @@
     </row>
     <row r="51" spans="2:2">
       <c r="B51" s="79" t="s">
-        <v>538</v>
+        <v>544</v>
       </c>
     </row>
     <row r="52" ht="33" customHeight="1" spans="3:14">
       <c r="C52" s="78" t="s">
-        <v>539</v>
+        <v>545</v>
       </c>
       <c r="D52" s="78"/>
       <c r="E52" s="78"/>
@@ -11443,12 +11501,12 @@
     </row>
     <row r="53" spans="2:2">
       <c r="B53" s="79" t="s">
-        <v>540</v>
+        <v>546</v>
       </c>
     </row>
     <row r="54" ht="36" customHeight="1" spans="3:14">
       <c r="C54" s="78" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
       <c r="D54" s="78"/>
       <c r="E54" s="78"/>
@@ -11464,7 +11522,7 @@
     </row>
     <row r="55" ht="19" customHeight="1" spans="2:14">
       <c r="B55" s="79" t="s">
-        <v>542</v>
+        <v>548</v>
       </c>
       <c r="C55" s="78"/>
       <c r="D55" s="78"/>
@@ -11481,7 +11539,7 @@
     </row>
     <row r="56" ht="103" customHeight="1" spans="3:14">
       <c r="C56" s="78" t="s">
-        <v>543</v>
+        <v>549</v>
       </c>
       <c r="D56" s="78"/>
       <c r="E56" s="78"/>
@@ -11497,7 +11555,7 @@
     </row>
     <row r="57" ht="23" customHeight="1" spans="2:14">
       <c r="B57" s="79" t="s">
-        <v>544</v>
+        <v>550</v>
       </c>
       <c r="C57" s="78"/>
       <c r="D57" s="78"/>
@@ -11514,7 +11572,7 @@
     </row>
     <row r="58" ht="41" customHeight="1" spans="3:14">
       <c r="C58" s="78" t="s">
-        <v>545</v>
+        <v>551</v>
       </c>
       <c r="D58" s="78"/>
       <c r="E58" s="78"/>
@@ -11530,7 +11588,7 @@
     </row>
     <row r="59" ht="23" customHeight="1" spans="2:14">
       <c r="B59" s="79" t="s">
-        <v>546</v>
+        <v>552</v>
       </c>
       <c r="C59" s="78"/>
       <c r="D59" s="78"/>
@@ -11547,7 +11605,7 @@
     </row>
     <row r="60" ht="57" customHeight="1" spans="3:14">
       <c r="C60" s="78" t="s">
-        <v>547</v>
+        <v>553</v>
       </c>
       <c r="D60" s="78"/>
       <c r="E60" s="78"/>
@@ -11563,11 +11621,11 @@
     </row>
     <row r="61" ht="27" customHeight="1" spans="2:14">
       <c r="B61" s="79" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
       <c r="C61" s="78"/>
       <c r="D61" s="78" t="s">
-        <v>549</v>
+        <v>555</v>
       </c>
       <c r="E61" s="78"/>
       <c r="F61" s="78"/>
@@ -11582,7 +11640,7 @@
     </row>
     <row r="62" ht="41" customHeight="1" spans="3:14">
       <c r="C62" s="78" t="s">
-        <v>550</v>
+        <v>556</v>
       </c>
       <c r="D62" s="78"/>
       <c r="E62" s="78"/>
@@ -11598,10 +11656,10 @@
     </row>
     <row r="63" ht="26" customHeight="1" spans="2:14">
       <c r="B63" s="79" t="s">
-        <v>551</v>
+        <v>557</v>
       </c>
       <c r="C63" s="78" t="s">
-        <v>552</v>
+        <v>558</v>
       </c>
       <c r="D63" s="78"/>
       <c r="E63" s="78"/>
@@ -11617,7 +11675,7 @@
     </row>
     <row r="64" ht="25" customHeight="1" spans="2:14">
       <c r="B64" s="79" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
       <c r="C64" s="78"/>
       <c r="D64" s="78"/>
@@ -11635,10 +11693,10 @@
     <row r="65" ht="25" customHeight="1" spans="2:14">
       <c r="B65" s="79"/>
       <c r="C65" s="86" t="s">
-        <v>554</v>
+        <v>560</v>
       </c>
       <c r="D65" s="78" t="s">
-        <v>555</v>
+        <v>561</v>
       </c>
       <c r="E65" s="78"/>
       <c r="F65" s="78"/>
@@ -11654,10 +11712,10 @@
     <row r="66" ht="25" customHeight="1" spans="2:14">
       <c r="B66" s="79"/>
       <c r="C66" s="90" t="s">
-        <v>556</v>
+        <v>562</v>
       </c>
       <c r="D66" s="78" t="s">
-        <v>557</v>
+        <v>563</v>
       </c>
       <c r="E66" s="78"/>
       <c r="F66" s="78"/>
@@ -11674,7 +11732,7 @@
       <c r="B67" s="79"/>
       <c r="C67" s="78"/>
       <c r="D67" s="78" t="s">
-        <v>558</v>
+        <v>564</v>
       </c>
       <c r="E67" s="78"/>
       <c r="F67" s="78"/>
@@ -11703,12 +11761,12 @@
     </row>
     <row r="70" spans="1:1">
       <c r="A70" s="68" t="s">
-        <v>559</v>
+        <v>565</v>
       </c>
     </row>
     <row r="71" ht="54" customHeight="1" spans="2:14">
       <c r="B71" s="77" t="s">
-        <v>560</v>
+        <v>566</v>
       </c>
       <c r="C71" s="73"/>
       <c r="D71" s="73"/>
@@ -11726,7 +11784,7 @@
     <row r="72" ht="26" customHeight="1" spans="2:14">
       <c r="B72" s="77"/>
       <c r="C72" s="73" t="s">
-        <v>561</v>
+        <v>567</v>
       </c>
       <c r="D72" s="73"/>
       <c r="E72" s="73"/>
@@ -11743,7 +11801,7 @@
     <row r="73" ht="25" customHeight="1" spans="2:14">
       <c r="B73" s="77"/>
       <c r="C73" s="73" t="s">
-        <v>562</v>
+        <v>568</v>
       </c>
       <c r="D73" s="73"/>
       <c r="E73" s="73"/>
@@ -11760,7 +11818,7 @@
     <row r="74" ht="312" customHeight="1" spans="2:14">
       <c r="B74" s="77"/>
       <c r="C74" s="78" t="s">
-        <v>563</v>
+        <v>569</v>
       </c>
       <c r="D74" s="73"/>
       <c r="E74" s="73"/>
@@ -11777,7 +11835,7 @@
     <row r="75" ht="26" customHeight="1" spans="2:14">
       <c r="B75" s="77"/>
       <c r="C75" s="73" t="s">
-        <v>564</v>
+        <v>570</v>
       </c>
       <c r="D75" s="73"/>
       <c r="E75" s="73"/>
@@ -11793,7 +11851,7 @@
     </row>
     <row r="76" ht="36" customHeight="1" spans="2:14">
       <c r="B76" s="91" t="s">
-        <v>565</v>
+        <v>571</v>
       </c>
       <c r="C76" s="73"/>
       <c r="D76" s="73"/>
@@ -11811,7 +11869,7 @@
     <row r="77" ht="26" customHeight="1" spans="2:14">
       <c r="B77" s="77"/>
       <c r="C77" s="73" t="s">
-        <v>566</v>
+        <v>572</v>
       </c>
       <c r="D77" s="73"/>
       <c r="E77" s="73"/>
@@ -11887,7 +11945,7 @@
     </row>
     <row r="83" spans="1:14">
       <c r="A83" s="92" t="s">
-        <v>567</v>
+        <v>573</v>
       </c>
       <c r="B83" s="49"/>
       <c r="C83" s="93"/>
@@ -11906,7 +11964,7 @@
     <row r="84" ht="72" customHeight="1" spans="1:14">
       <c r="A84" s="92"/>
       <c r="B84" s="94" t="s">
-        <v>568</v>
+        <v>574</v>
       </c>
       <c r="C84" s="95"/>
       <c r="D84" s="95"/>
@@ -11924,7 +11982,7 @@
     <row r="85" ht="72" customHeight="1" spans="1:14">
       <c r="A85" s="92"/>
       <c r="B85" s="94" t="s">
-        <v>569</v>
+        <v>575</v>
       </c>
       <c r="C85" s="94"/>
       <c r="D85" s="94"/>
@@ -11941,12 +11999,12 @@
     </row>
     <row r="86" spans="2:2">
       <c r="B86" s="69" t="s">
-        <v>570</v>
+        <v>576</v>
       </c>
     </row>
     <row r="87" ht="176" customHeight="1" spans="3:13">
       <c r="C87" s="78" t="s">
-        <v>571</v>
+        <v>577</v>
       </c>
       <c r="D87" s="78"/>
       <c r="E87" s="78"/>
@@ -11961,7 +12019,7 @@
     </row>
     <row r="88" ht="21" customHeight="1" spans="2:13">
       <c r="B88" s="69" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
       <c r="C88" s="78"/>
       <c r="D88" s="78"/>
@@ -11977,7 +12035,7 @@
     </row>
     <row r="89" ht="251" customHeight="1" spans="3:13">
       <c r="C89" s="78" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
       <c r="D89" s="78"/>
       <c r="E89" s="78"/>
@@ -11992,7 +12050,7 @@
     </row>
     <row r="90" ht="21" customHeight="1" spans="2:13">
       <c r="B90" s="69" t="s">
-        <v>574</v>
+        <v>580</v>
       </c>
       <c r="C90" s="78"/>
       <c r="D90" s="78"/>
@@ -12008,7 +12066,7 @@
     </row>
     <row r="91" ht="32" customHeight="1" spans="3:13">
       <c r="C91" s="78" t="s">
-        <v>575</v>
+        <v>581</v>
       </c>
       <c r="D91" s="78"/>
       <c r="E91" s="78"/>
@@ -12023,13 +12081,13 @@
     </row>
     <row r="92" ht="21" customHeight="1" spans="2:13">
       <c r="B92" s="69" t="s">
-        <v>576</v>
+        <v>582</v>
       </c>
       <c r="C92" s="78" t="s">
-        <v>577</v>
+        <v>583</v>
       </c>
       <c r="D92" s="78" t="s">
-        <v>578</v>
+        <v>584</v>
       </c>
       <c r="E92" s="78"/>
       <c r="F92" s="78"/>
@@ -12043,10 +12101,10 @@
     </row>
     <row r="93" ht="21" customHeight="1" spans="3:13">
       <c r="C93" s="78" t="s">
-        <v>579</v>
+        <v>585</v>
       </c>
       <c r="D93" s="78" t="s">
-        <v>580</v>
+        <v>586</v>
       </c>
       <c r="E93" s="78"/>
       <c r="F93" s="78"/>
@@ -12063,7 +12121,7 @@
         <v>200</v>
       </c>
       <c r="D94" s="78" t="s">
-        <v>581</v>
+        <v>587</v>
       </c>
       <c r="E94" s="78"/>
       <c r="F94" s="78"/>
@@ -12077,10 +12135,10 @@
     </row>
     <row r="95" ht="21" customHeight="1" spans="3:13">
       <c r="C95" s="78" t="s">
-        <v>582</v>
+        <v>588</v>
       </c>
       <c r="D95" s="78" t="s">
-        <v>583</v>
+        <v>589</v>
       </c>
       <c r="E95" s="78"/>
       <c r="F95" s="78"/>
@@ -12097,7 +12155,7 @@
         <v>438</v>
       </c>
       <c r="D96" s="78" t="s">
-        <v>584</v>
+        <v>590</v>
       </c>
       <c r="E96" s="78"/>
       <c r="F96" s="78"/>
@@ -12111,10 +12169,10 @@
     </row>
     <row r="97" ht="21" customHeight="1" spans="3:13">
       <c r="C97" s="78" t="s">
-        <v>585</v>
+        <v>591</v>
       </c>
       <c r="D97" s="78" t="s">
-        <v>586</v>
+        <v>592</v>
       </c>
       <c r="E97" s="78"/>
       <c r="F97" s="78"/>
@@ -12128,60 +12186,60 @@
     </row>
     <row r="98" spans="3:4">
       <c r="C98" s="70" t="s">
-        <v>587</v>
+        <v>593</v>
       </c>
       <c r="D98" s="70" t="s">
-        <v>588</v>
+        <v>594</v>
       </c>
     </row>
     <row r="99" spans="3:4">
       <c r="C99" s="70" t="s">
-        <v>589</v>
+        <v>595</v>
       </c>
       <c r="D99" s="70" t="s">
-        <v>590</v>
+        <v>596</v>
       </c>
     </row>
     <row r="100" spans="3:4">
       <c r="C100" s="70" t="s">
-        <v>591</v>
+        <v>597</v>
       </c>
       <c r="D100" s="70" t="s">
-        <v>592</v>
+        <v>598</v>
       </c>
     </row>
     <row r="101" spans="3:4">
       <c r="C101" s="70" t="s">
-        <v>593</v>
+        <v>599</v>
       </c>
       <c r="D101" s="70" t="s">
-        <v>594</v>
+        <v>600</v>
       </c>
     </row>
     <row r="102" spans="3:4">
       <c r="C102" s="70" t="s">
-        <v>595</v>
+        <v>601</v>
       </c>
       <c r="D102" s="70" t="s">
-        <v>596</v>
+        <v>602</v>
       </c>
     </row>
     <row r="103" spans="3:4">
       <c r="C103" s="70" t="s">
-        <v>597</v>
+        <v>603</v>
       </c>
       <c r="D103" s="70" t="s">
-        <v>598</v>
+        <v>604</v>
       </c>
     </row>
     <row r="105" spans="1:1">
       <c r="A105" s="68" t="s">
-        <v>599</v>
+        <v>605</v>
       </c>
     </row>
     <row r="106" spans="2:14">
       <c r="B106" s="77" t="s">
-        <v>600</v>
+        <v>606</v>
       </c>
       <c r="C106" s="78"/>
       <c r="D106" s="78"/>
@@ -12198,12 +12256,12 @@
     </row>
     <row r="108" spans="1:1">
       <c r="A108" s="68" t="s">
-        <v>601</v>
+        <v>607</v>
       </c>
     </row>
     <row r="109" ht="54" customHeight="1" spans="2:14">
       <c r="B109" s="77" t="s">
-        <v>602</v>
+        <v>608</v>
       </c>
       <c r="C109" s="78"/>
       <c r="D109" s="78"/>
@@ -12220,12 +12278,12 @@
     </row>
     <row r="110" ht="21" customHeight="1" spans="2:2">
       <c r="B110" s="79" t="s">
-        <v>603</v>
+        <v>609</v>
       </c>
     </row>
     <row r="111" ht="120" customHeight="1" spans="3:14">
       <c r="C111" s="114" t="s">
-        <v>604</v>
+        <v>610</v>
       </c>
       <c r="D111" s="78"/>
       <c r="E111" s="78"/>
@@ -12241,12 +12299,12 @@
     </row>
     <row r="112" spans="2:2">
       <c r="B112" s="79" t="s">
-        <v>605</v>
+        <v>611</v>
       </c>
     </row>
     <row r="113" ht="31" customHeight="1" spans="3:14">
       <c r="C113" s="78" t="s">
-        <v>606</v>
+        <v>612</v>
       </c>
       <c r="D113" s="78"/>
       <c r="E113" s="78"/>
@@ -12262,12 +12320,12 @@
     </row>
     <row r="114" spans="2:2">
       <c r="B114" s="79" t="s">
-        <v>607</v>
+        <v>613</v>
       </c>
     </row>
     <row r="115" spans="3:14">
       <c r="C115" s="73" t="s">
-        <v>608</v>
+        <v>614</v>
       </c>
       <c r="D115" s="73"/>
       <c r="E115" s="73"/>
@@ -12368,12 +12426,12 @@
   <sheetData>
     <row r="1" customHeight="1" spans="1:1">
       <c r="A1" s="60" t="s">
-        <v>609</v>
+        <v>615</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="2:14">
       <c r="B2" s="31" t="s">
-        <v>610</v>
+        <v>616</v>
       </c>
       <c r="C2" s="29"/>
       <c r="D2" s="29"/>
@@ -12390,7 +12448,7 @@
     </row>
     <row r="3" ht="57" customHeight="1" spans="2:14">
       <c r="B3" s="31" t="s">
-        <v>611</v>
+        <v>617</v>
       </c>
       <c r="C3" s="29"/>
       <c r="D3" s="29"/>
@@ -12407,7 +12465,7 @@
     </row>
     <row r="4" customHeight="1" spans="2:14">
       <c r="B4" s="31" t="s">
-        <v>612</v>
+        <v>618</v>
       </c>
       <c r="C4" s="29"/>
       <c r="D4" s="29"/>
@@ -12424,7 +12482,7 @@
     </row>
     <row r="5" customHeight="1" spans="2:14">
       <c r="B5" s="61" t="s">
-        <v>613</v>
+        <v>619</v>
       </c>
       <c r="C5" s="30"/>
       <c r="D5" s="30"/>
@@ -12441,10 +12499,10 @@
     </row>
     <row r="6" ht="45" customHeight="1" spans="2:14">
       <c r="B6" s="62" t="s">
-        <v>614</v>
+        <v>620</v>
       </c>
       <c r="C6" s="29" t="s">
-        <v>615</v>
+        <v>621</v>
       </c>
       <c r="D6" s="30"/>
       <c r="E6" s="30"/>
@@ -12460,10 +12518,10 @@
     </row>
     <row r="7" customHeight="1" spans="2:14">
       <c r="B7" s="62" t="s">
-        <v>616</v>
+        <v>622</v>
       </c>
       <c r="C7" s="29" t="s">
-        <v>617</v>
+        <v>623</v>
       </c>
       <c r="D7" s="30"/>
       <c r="E7" s="30"/>
@@ -12480,7 +12538,7 @@
     <row r="8" ht="70" customHeight="1" spans="2:14">
       <c r="B8" s="61"/>
       <c r="C8" s="33" t="s">
-        <v>618</v>
+        <v>624</v>
       </c>
       <c r="D8" s="33"/>
       <c r="E8" s="33"/>
@@ -12496,10 +12554,10 @@
     </row>
     <row r="9" customHeight="1" spans="2:14">
       <c r="B9" s="62" t="s">
-        <v>619</v>
+        <v>625</v>
       </c>
       <c r="C9" s="30" t="s">
-        <v>620</v>
+        <v>626</v>
       </c>
       <c r="D9" s="30"/>
       <c r="E9" s="30"/>
@@ -12516,7 +12574,7 @@
     <row r="10" ht="70" customHeight="1" spans="2:14">
       <c r="B10" s="61"/>
       <c r="C10" s="33" t="s">
-        <v>621</v>
+        <v>627</v>
       </c>
       <c r="D10" s="33"/>
       <c r="E10" s="33"/>
@@ -12532,11 +12590,11 @@
     </row>
     <row r="11" ht="38" customHeight="1" spans="2:14">
       <c r="B11" s="62" t="s">
-        <v>622</v>
+        <v>628</v>
       </c>
       <c r="C11" s="30"/>
       <c r="D11" s="29" t="s">
-        <v>623</v>
+        <v>629</v>
       </c>
       <c r="E11" s="30"/>
       <c r="F11" s="30"/>
@@ -12552,7 +12610,7 @@
     <row r="12" ht="142" customHeight="1" spans="2:14">
       <c r="B12" s="61"/>
       <c r="C12" s="33" t="s">
-        <v>624</v>
+        <v>630</v>
       </c>
       <c r="D12" s="33"/>
       <c r="E12" s="33"/>
@@ -12568,11 +12626,11 @@
     </row>
     <row r="13" ht="22" customHeight="1" spans="2:14">
       <c r="B13" s="62" t="s">
-        <v>625</v>
+        <v>631</v>
       </c>
       <c r="C13" s="30"/>
       <c r="D13" s="33" t="s">
-        <v>626</v>
+        <v>632</v>
       </c>
       <c r="E13" s="50"/>
       <c r="F13" s="50"/>
@@ -12588,7 +12646,7 @@
     <row r="14" ht="156" customHeight="1" spans="2:14">
       <c r="B14" s="62"/>
       <c r="C14" s="33" t="s">
-        <v>627</v>
+        <v>633</v>
       </c>
       <c r="D14" s="33"/>
       <c r="E14" s="33"/>
@@ -12604,12 +12662,12 @@
     </row>
     <row r="16" customHeight="1" spans="1:1">
       <c r="A16" s="60" t="s">
-        <v>628</v>
+        <v>634</v>
       </c>
     </row>
     <row r="17" ht="54" customHeight="1" spans="2:14">
       <c r="B17" s="31" t="s">
-        <v>629</v>
+        <v>635</v>
       </c>
       <c r="C17" s="29"/>
       <c r="D17" s="29"/>
@@ -12626,7 +12684,7 @@
     </row>
     <row r="18" ht="49" customHeight="1" spans="2:14">
       <c r="B18" s="31" t="s">
-        <v>630</v>
+        <v>636</v>
       </c>
       <c r="C18" s="29"/>
       <c r="D18" s="29"/>
@@ -12643,7 +12701,7 @@
     </row>
     <row r="19" customHeight="1" spans="2:14">
       <c r="B19" s="61" t="s">
-        <v>613</v>
+        <v>619</v>
       </c>
       <c r="C19" s="30"/>
       <c r="D19" s="30"/>
@@ -12660,7 +12718,7 @@
     </row>
     <row r="20" customHeight="1" spans="2:14">
       <c r="B20" s="63" t="s">
-        <v>631</v>
+        <v>637</v>
       </c>
       <c r="C20" s="30"/>
       <c r="D20" s="30"/>
@@ -12678,7 +12736,7 @@
     <row r="21" ht="42" customHeight="1" spans="2:14">
       <c r="B21" s="61"/>
       <c r="C21" s="29" t="s">
-        <v>632</v>
+        <v>638</v>
       </c>
       <c r="D21" s="30"/>
       <c r="E21" s="30"/>
@@ -12694,7 +12752,7 @@
     </row>
     <row r="22" customHeight="1" spans="2:14">
       <c r="B22" s="62" t="s">
-        <v>633</v>
+        <v>639</v>
       </c>
       <c r="C22" s="30"/>
       <c r="D22" s="30"/>
@@ -12712,7 +12770,7 @@
     <row r="23" ht="84" customHeight="1" spans="2:14">
       <c r="B23" s="61"/>
       <c r="C23" s="29" t="s">
-        <v>634</v>
+        <v>640</v>
       </c>
       <c r="D23" s="30"/>
       <c r="E23" s="30"/>
@@ -12728,7 +12786,7 @@
     </row>
     <row r="24" customHeight="1" spans="2:14">
       <c r="B24" s="61" t="s">
-        <v>635</v>
+        <v>641</v>
       </c>
       <c r="C24" s="30"/>
       <c r="D24" s="30"/>
@@ -12746,7 +12804,7 @@
     <row r="25" ht="52" customHeight="1" spans="2:14">
       <c r="B25" s="61"/>
       <c r="C25" s="29" t="s">
-        <v>636</v>
+        <v>642</v>
       </c>
       <c r="D25" s="29"/>
       <c r="E25" s="29"/>
@@ -12763,7 +12821,7 @@
     <row r="26" ht="169" customHeight="1" spans="2:14">
       <c r="B26" s="61"/>
       <c r="C26" s="29" t="s">
-        <v>637</v>
+        <v>643</v>
       </c>
       <c r="D26" s="29"/>
       <c r="E26" s="29"/>
@@ -12779,7 +12837,7 @@
     </row>
     <row r="27" customHeight="1" spans="2:14">
       <c r="B27" s="62" t="s">
-        <v>638</v>
+        <v>644</v>
       </c>
       <c r="C27" s="30"/>
       <c r="D27" s="30"/>
@@ -12797,7 +12855,7 @@
     <row r="28" ht="73" customHeight="1" spans="2:14">
       <c r="B28" s="61"/>
       <c r="C28" s="29" t="s">
-        <v>639</v>
+        <v>645</v>
       </c>
       <c r="D28" s="30"/>
       <c r="E28" s="30"/>
@@ -12813,7 +12871,7 @@
     </row>
     <row r="29" customHeight="1" spans="2:14">
       <c r="B29" s="62" t="s">
-        <v>616</v>
+        <v>622</v>
       </c>
       <c r="C29" s="30"/>
       <c r="D29" s="30"/>
@@ -12831,7 +12889,7 @@
     <row r="30" ht="150" customHeight="1" spans="2:14">
       <c r="B30" s="61"/>
       <c r="C30" s="29" t="s">
-        <v>640</v>
+        <v>646</v>
       </c>
       <c r="D30" s="30"/>
       <c r="E30" s="30"/>
@@ -12847,7 +12905,7 @@
     </row>
     <row r="31" customHeight="1" spans="2:14">
       <c r="B31" s="62" t="s">
-        <v>641</v>
+        <v>647</v>
       </c>
       <c r="C31" s="30"/>
       <c r="D31" s="30"/>
@@ -12865,7 +12923,7 @@
     <row r="32" ht="112" customHeight="1" spans="2:14">
       <c r="B32" s="61"/>
       <c r="C32" s="29" t="s">
-        <v>642</v>
+        <v>648</v>
       </c>
       <c r="D32" s="29"/>
       <c r="E32" s="29"/>
@@ -12881,7 +12939,7 @@
     </row>
     <row r="33" customHeight="1" spans="2:14">
       <c r="B33" s="62" t="s">
-        <v>643</v>
+        <v>649</v>
       </c>
       <c r="C33" s="30"/>
       <c r="D33" s="30"/>
@@ -12899,7 +12957,7 @@
     <row r="34" ht="44" customHeight="1" spans="2:14">
       <c r="B34" s="61"/>
       <c r="C34" s="29" t="s">
-        <v>644</v>
+        <v>650</v>
       </c>
       <c r="D34" s="30"/>
       <c r="E34" s="30"/>
@@ -12915,11 +12973,11 @@
     </row>
     <row r="35" customHeight="1" spans="2:14">
       <c r="B35" s="62" t="s">
-        <v>645</v>
+        <v>651</v>
       </c>
       <c r="C35" s="30"/>
       <c r="D35" s="30" t="s">
-        <v>646</v>
+        <v>652</v>
       </c>
       <c r="E35" s="30"/>
       <c r="F35" s="30"/>
@@ -12935,7 +12993,7 @@
     <row r="36" ht="233" customHeight="1" spans="2:14">
       <c r="B36" s="61"/>
       <c r="C36" s="29" t="s">
-        <v>647</v>
+        <v>653</v>
       </c>
       <c r="D36" s="29"/>
       <c r="E36" s="29"/>
@@ -12951,7 +13009,7 @@
     </row>
     <row r="37" customHeight="1" spans="2:14">
       <c r="B37" s="62" t="s">
-        <v>648</v>
+        <v>654</v>
       </c>
       <c r="C37" s="30"/>
       <c r="D37" s="30"/>
@@ -12998,12 +13056,12 @@
     </row>
     <row r="40" customHeight="1" spans="1:1">
       <c r="A40" s="60" t="s">
-        <v>649</v>
+        <v>655</v>
       </c>
     </row>
     <row r="41" ht="72" customHeight="1" spans="2:14">
       <c r="B41" s="31" t="s">
-        <v>650</v>
+        <v>656</v>
       </c>
       <c r="C41" s="29"/>
       <c r="D41" s="29"/>
@@ -13020,12 +13078,12 @@
     </row>
     <row r="42" customHeight="1" spans="2:2">
       <c r="B42" s="28" t="s">
-        <v>651</v>
+        <v>657</v>
       </c>
     </row>
     <row r="43" ht="47" customHeight="1" spans="3:14">
       <c r="C43" s="29" t="s">
-        <v>652</v>
+        <v>658</v>
       </c>
       <c r="D43" s="29"/>
       <c r="E43" s="29"/>
@@ -13041,16 +13099,16 @@
     </row>
     <row r="44" ht="90" customHeight="1" spans="2:2">
       <c r="B44" s="64" t="s">
-        <v>653</v>
+        <v>659</v>
       </c>
     </row>
     <row r="45" ht="63" customHeight="1" spans="1:14">
       <c r="A45" s="60" t="s">
-        <v>654</v>
+        <v>660</v>
       </c>
       <c r="B45" s="64"/>
       <c r="C45" s="29" t="s">
-        <v>655</v>
+        <v>661</v>
       </c>
       <c r="D45" s="30"/>
       <c r="E45" s="30"/>
@@ -13066,13 +13124,13 @@
     </row>
     <row r="46" customHeight="1" spans="2:2">
       <c r="B46" s="64" t="s">
-        <v>631</v>
+        <v>637</v>
       </c>
     </row>
     <row r="47" customHeight="1" spans="2:14">
       <c r="B47" s="64"/>
       <c r="C47" s="29" t="s">
-        <v>656</v>
+        <v>662</v>
       </c>
       <c r="D47" s="29"/>
       <c r="E47" s="29"/>
@@ -13088,13 +13146,13 @@
     </row>
     <row r="48" ht="33" customHeight="1" spans="2:2">
       <c r="B48" s="64" t="s">
-        <v>657</v>
+        <v>663</v>
       </c>
     </row>
     <row r="49" ht="27" customHeight="1" spans="2:14">
       <c r="B49" s="64"/>
       <c r="D49" s="29" t="s">
-        <v>658</v>
+        <v>664</v>
       </c>
       <c r="E49" s="29"/>
       <c r="F49" s="29"/>
@@ -13110,7 +13168,7 @@
     <row r="50" ht="90" customHeight="1" spans="2:14">
       <c r="B50" s="64"/>
       <c r="D50" s="29" t="s">
-        <v>659</v>
+        <v>665</v>
       </c>
       <c r="E50" s="30"/>
       <c r="F50" s="30"/>
@@ -13140,12 +13198,12 @@
     </row>
     <row r="57" customHeight="1" spans="1:1">
       <c r="A57" s="60" t="s">
-        <v>660</v>
+        <v>666</v>
       </c>
     </row>
     <row r="58" ht="61" customHeight="1" spans="2:14">
       <c r="B58" s="31" t="s">
-        <v>661</v>
+        <v>667</v>
       </c>
       <c r="C58" s="29"/>
       <c r="D58" s="29"/>
@@ -13162,7 +13220,7 @@
     </row>
     <row r="59" customHeight="1" spans="2:14">
       <c r="B59" s="61" t="s">
-        <v>662</v>
+        <v>668</v>
       </c>
       <c r="C59" s="30"/>
       <c r="D59" s="30"/>
@@ -13179,12 +13237,12 @@
     </row>
     <row r="60" customHeight="1" spans="1:1">
       <c r="A60" s="60" t="s">
-        <v>663</v>
+        <v>669</v>
       </c>
     </row>
     <row r="61" ht="146" customHeight="1" spans="2:14">
       <c r="B61" s="31" t="s">
-        <v>664</v>
+        <v>670</v>
       </c>
       <c r="C61" s="29"/>
       <c r="D61" s="29"/>
@@ -13201,7 +13259,7 @@
     </row>
     <row r="62" ht="28" customHeight="1" spans="2:14">
       <c r="B62" s="63" t="s">
-        <v>665</v>
+        <v>671</v>
       </c>
       <c r="C62" s="29"/>
       <c r="D62" s="29"/>
@@ -13219,7 +13277,7 @@
     <row r="63" ht="42" customHeight="1" spans="2:14">
       <c r="B63" s="31"/>
       <c r="C63" s="29" t="s">
-        <v>666</v>
+        <v>672</v>
       </c>
       <c r="D63" s="29"/>
       <c r="E63" s="29"/>
@@ -13235,11 +13293,11 @@
     </row>
     <row r="64" ht="20" customHeight="1" spans="2:14">
       <c r="B64" s="31" t="s">
-        <v>667</v>
+        <v>673</v>
       </c>
       <c r="C64" s="29"/>
       <c r="D64" s="29" t="s">
-        <v>668</v>
+        <v>674</v>
       </c>
       <c r="E64" s="29"/>
       <c r="F64" s="29"/>
@@ -13359,7 +13417,7 @@
     </row>
     <row r="73" customHeight="1" spans="1:14">
       <c r="A73" s="60" t="s">
-        <v>669</v>
+        <v>675</v>
       </c>
       <c r="B73"/>
       <c r="C73" s="65"/>
@@ -13378,7 +13436,7 @@
     <row r="74" ht="53" customHeight="1" spans="1:14">
       <c r="A74" s="66"/>
       <c r="B74" s="31" t="s">
-        <v>670</v>
+        <v>676</v>
       </c>
       <c r="C74" s="29"/>
       <c r="D74" s="29"/>
@@ -13395,12 +13453,12 @@
     </row>
     <row r="75" customHeight="1" spans="2:2">
       <c r="B75" s="28" t="s">
-        <v>671</v>
+        <v>677</v>
       </c>
     </row>
     <row r="76" ht="48" customHeight="1" spans="3:14">
       <c r="C76" s="29" t="s">
-        <v>672</v>
+        <v>678</v>
       </c>
       <c r="D76" s="29"/>
       <c r="E76" s="29"/>
@@ -13416,12 +13474,12 @@
     </row>
     <row r="77" customHeight="1" spans="2:2">
       <c r="B77" s="28" t="s">
-        <v>673</v>
+        <v>679</v>
       </c>
     </row>
     <row r="78" ht="79" customHeight="1" spans="3:14">
       <c r="C78" s="29" t="s">
-        <v>674</v>
+        <v>680</v>
       </c>
       <c r="D78" s="29"/>
       <c r="E78" s="29"/>
@@ -13437,12 +13495,12 @@
     </row>
     <row r="79" customHeight="1" spans="2:2">
       <c r="B79" s="28" t="s">
-        <v>675</v>
+        <v>681</v>
       </c>
     </row>
     <row r="80" ht="58" customHeight="1" spans="3:14">
       <c r="C80" s="29" t="s">
-        <v>676</v>
+        <v>682</v>
       </c>
       <c r="D80" s="29"/>
       <c r="E80" s="29"/>
@@ -13458,12 +13516,12 @@
     </row>
     <row r="81" customHeight="1" spans="2:2">
       <c r="B81" s="28" t="s">
-        <v>677</v>
+        <v>683</v>
       </c>
     </row>
     <row r="82" ht="33" customHeight="1" spans="3:14">
       <c r="C82" s="29" t="s">
-        <v>678</v>
+        <v>684</v>
       </c>
       <c r="D82" s="29"/>
       <c r="E82" s="29"/>
@@ -13479,12 +13537,12 @@
     </row>
     <row r="83" customHeight="1" spans="2:2">
       <c r="B83" s="28" t="s">
-        <v>679</v>
+        <v>685</v>
       </c>
     </row>
     <row r="84" ht="95" customHeight="1" spans="3:14">
       <c r="C84" s="29" t="s">
-        <v>680</v>
+        <v>686</v>
       </c>
       <c r="D84" s="29"/>
       <c r="E84" s="29"/>
@@ -13574,12 +13632,12 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="41" t="s">
-        <v>681</v>
+        <v>687</v>
       </c>
     </row>
     <row r="2" spans="2:2">
       <c r="B2" s="42" t="s">
-        <v>682</v>
+        <v>688</v>
       </c>
     </row>
     <row r="3" spans="3:3">
@@ -13589,7 +13647,7 @@
     </row>
     <row r="4" ht="57" customHeight="1" spans="4:13">
       <c r="D4" s="29" t="s">
-        <v>683</v>
+        <v>689</v>
       </c>
       <c r="E4" s="29"/>
       <c r="F4" s="29"/>
@@ -13603,10 +13661,10 @@
     </row>
     <row r="5" ht="24" customHeight="1" spans="2:11">
       <c r="B5" s="42" t="s">
-        <v>684</v>
+        <v>690</v>
       </c>
       <c r="C5" s="44" t="s">
-        <v>685</v>
+        <v>691</v>
       </c>
       <c r="D5" s="44"/>
       <c r="E5" s="44"/>
@@ -13619,7 +13677,7 @@
     </row>
     <row r="6" ht="100" customHeight="1" spans="3:13">
       <c r="C6" s="45" t="s">
-        <v>686</v>
+        <v>692</v>
       </c>
       <c r="D6" s="45"/>
       <c r="E6" s="45"/>
@@ -13634,12 +13692,12 @@
     </row>
     <row r="7" spans="2:2">
       <c r="B7" s="42" t="s">
-        <v>687</v>
+        <v>693</v>
       </c>
     </row>
     <row r="8" ht="54" customHeight="1" spans="3:13">
       <c r="C8" s="29" t="s">
-        <v>688</v>
+        <v>694</v>
       </c>
       <c r="D8" s="29"/>
       <c r="E8" s="29"/>
@@ -13654,10 +13712,10 @@
     </row>
     <row r="10" ht="37" customHeight="1" spans="2:13">
       <c r="B10" s="42" t="s">
-        <v>689</v>
+        <v>695</v>
       </c>
       <c r="C10" s="46" t="s">
-        <v>690</v>
+        <v>696</v>
       </c>
       <c r="D10" s="46"/>
       <c r="E10" s="46"/>
@@ -13685,12 +13743,12 @@
     </row>
     <row r="12" ht="19" customHeight="1" spans="2:2">
       <c r="B12" s="42" t="s">
-        <v>691</v>
+        <v>697</v>
       </c>
     </row>
     <row r="13" ht="93" customHeight="1" spans="3:13">
       <c r="C13" s="29" t="s">
-        <v>692</v>
+        <v>698</v>
       </c>
       <c r="D13" s="29"/>
       <c r="E13" s="29"/>
@@ -13705,15 +13763,15 @@
     </row>
     <row r="15" spans="1:1">
       <c r="A15" s="41" t="s">
-        <v>693</v>
+        <v>699</v>
       </c>
     </row>
     <row r="16" spans="2:13">
       <c r="B16" s="42" t="s">
-        <v>694</v>
+        <v>700</v>
       </c>
       <c r="D16" s="30" t="s">
-        <v>695</v>
+        <v>701</v>
       </c>
       <c r="E16" s="30"/>
       <c r="F16" s="30"/>
@@ -13727,7 +13785,7 @@
     </row>
     <row r="17" ht="53" customHeight="1" spans="3:13">
       <c r="C17" s="29" t="s">
-        <v>696</v>
+        <v>702</v>
       </c>
       <c r="D17" s="29"/>
       <c r="E17" s="29"/>
@@ -13742,7 +13800,7 @@
     </row>
     <row r="18" ht="54" customHeight="1" spans="3:13">
       <c r="C18" s="29" t="s">
-        <v>697</v>
+        <v>703</v>
       </c>
       <c r="D18" s="29"/>
       <c r="E18" s="29"/>
@@ -13757,12 +13815,12 @@
     </row>
     <row r="19" ht="21" customHeight="1" spans="2:2">
       <c r="B19" s="42" t="s">
-        <v>698</v>
+        <v>704</v>
       </c>
     </row>
     <row r="20" ht="129" customHeight="1" spans="3:13">
       <c r="C20" s="29" t="s">
-        <v>699</v>
+        <v>705</v>
       </c>
       <c r="D20" s="29"/>
       <c r="E20" s="29"/>
@@ -13777,12 +13835,12 @@
     </row>
     <row r="21" spans="2:2">
       <c r="B21" s="42" t="s">
-        <v>700</v>
+        <v>706</v>
       </c>
     </row>
     <row r="22" ht="180" customHeight="1" spans="3:13">
       <c r="C22" s="115" t="s">
-        <v>701</v>
+        <v>707</v>
       </c>
       <c r="D22" s="30"/>
       <c r="E22" s="30"/>
@@ -13797,12 +13855,12 @@
     </row>
     <row r="23" spans="2:2">
       <c r="B23" s="42" t="s">
-        <v>702</v>
+        <v>708</v>
       </c>
     </row>
     <row r="24" ht="49" customHeight="1" spans="3:13">
       <c r="C24" s="29" t="s">
-        <v>703</v>
+        <v>709</v>
       </c>
       <c r="D24" s="29"/>
       <c r="E24" s="29"/>
@@ -13817,12 +13875,12 @@
     </row>
     <row r="26" spans="1:1">
       <c r="A26" s="41" t="s">
-        <v>704</v>
+        <v>710</v>
       </c>
     </row>
     <row r="27" ht="73" customHeight="1" spans="2:13">
       <c r="B27" s="38" t="s">
-        <v>705</v>
+        <v>711</v>
       </c>
       <c r="C27" s="38"/>
       <c r="D27" s="38"/>
@@ -13838,12 +13896,12 @@
     </row>
     <row r="28" spans="2:2">
       <c r="B28" s="42" t="s">
-        <v>706</v>
+        <v>712</v>
       </c>
     </row>
     <row r="29" ht="57" customHeight="1" spans="3:13">
       <c r="C29" s="29" t="s">
-        <v>707</v>
+        <v>713</v>
       </c>
       <c r="D29" s="29"/>
       <c r="E29" s="29"/>
@@ -13858,10 +13916,10 @@
     </row>
     <row r="30" spans="2:13">
       <c r="B30" s="42" t="s">
-        <v>708</v>
+        <v>714</v>
       </c>
       <c r="D30" s="47" t="s">
-        <v>709</v>
+        <v>715</v>
       </c>
       <c r="E30" s="47"/>
       <c r="F30" s="47"/>
@@ -13875,7 +13933,7 @@
     </row>
     <row r="31" ht="127" customHeight="1" spans="3:13">
       <c r="C31" s="29" t="s">
-        <v>710</v>
+        <v>716</v>
       </c>
       <c r="D31" s="29"/>
       <c r="E31" s="29"/>
@@ -13890,10 +13948,10 @@
     </row>
     <row r="32" spans="2:13">
       <c r="B32" s="42" t="s">
-        <v>711</v>
+        <v>717</v>
       </c>
       <c r="D32" s="47" t="s">
-        <v>709</v>
+        <v>715</v>
       </c>
       <c r="E32" s="47"/>
       <c r="F32" s="47"/>
@@ -13907,7 +13965,7 @@
     </row>
     <row r="33" ht="81" customHeight="1" spans="3:13">
       <c r="C33" s="29" t="s">
-        <v>712</v>
+        <v>718</v>
       </c>
       <c r="D33" s="29"/>
       <c r="E33" s="29"/>
@@ -13922,7 +13980,7 @@
     </row>
     <row r="34" spans="2:13">
       <c r="B34" s="42" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
       <c r="C34" s="48"/>
       <c r="D34" s="26"/>
@@ -13938,7 +13996,7 @@
     </row>
     <row r="35" ht="36" customHeight="1" spans="3:13">
       <c r="C35" s="29" t="s">
-        <v>714</v>
+        <v>720</v>
       </c>
       <c r="D35" s="29"/>
       <c r="E35" s="29"/>
@@ -13953,10 +14011,10 @@
     </row>
     <row r="36" spans="2:13">
       <c r="B36" s="42" t="s">
-        <v>715</v>
+        <v>721</v>
       </c>
       <c r="D36" s="29" t="s">
-        <v>716</v>
+        <v>722</v>
       </c>
       <c r="E36" s="29"/>
       <c r="F36" s="29"/>
@@ -13970,7 +14028,7 @@
     </row>
     <row r="38" spans="1:7">
       <c r="A38" s="41" t="s">
-        <v>717</v>
+        <v>723</v>
       </c>
       <c r="C38" s="49"/>
       <c r="D38" s="49"/>
@@ -13980,7 +14038,7 @@
     </row>
     <row r="39" ht="60" customHeight="1" spans="2:13">
       <c r="B39" s="38" t="s">
-        <v>718</v>
+        <v>724</v>
       </c>
       <c r="C39" s="38"/>
       <c r="D39" s="38"/>
@@ -13996,10 +14054,10 @@
     </row>
     <row r="40" spans="2:13">
       <c r="B40" s="42" t="s">
-        <v>719</v>
+        <v>725</v>
       </c>
       <c r="D40" s="29" t="s">
-        <v>720</v>
+        <v>726</v>
       </c>
       <c r="E40" s="29"/>
       <c r="F40" s="29"/>
@@ -14013,7 +14071,7 @@
     </row>
     <row r="41" ht="37" customHeight="1" spans="3:13">
       <c r="C41" s="29" t="s">
-        <v>721</v>
+        <v>727</v>
       </c>
       <c r="D41" s="29"/>
       <c r="E41" s="29"/>
@@ -14028,7 +14086,7 @@
     </row>
     <row r="42" spans="4:13">
       <c r="D42" s="29" t="s">
-        <v>722</v>
+        <v>728</v>
       </c>
       <c r="E42" s="29"/>
       <c r="F42" s="29"/>
@@ -14042,7 +14100,7 @@
     </row>
     <row r="43" ht="37" customHeight="1" spans="3:13">
       <c r="C43" s="29" t="s">
-        <v>723</v>
+        <v>729</v>
       </c>
       <c r="D43" s="29"/>
       <c r="E43" s="29"/>
@@ -14057,10 +14115,10 @@
     </row>
     <row r="44" spans="2:13">
       <c r="B44" s="42" t="s">
-        <v>724</v>
+        <v>730</v>
       </c>
       <c r="D44" s="30" t="s">
-        <v>725</v>
+        <v>731</v>
       </c>
       <c r="E44" s="30"/>
       <c r="F44" s="30"/>
@@ -14074,12 +14132,12 @@
     </row>
     <row r="45" spans="3:3">
       <c r="C45" s="43" t="s">
-        <v>726</v>
+        <v>732</v>
       </c>
     </row>
     <row r="46" spans="4:13">
       <c r="D46" s="29" t="s">
-        <v>727</v>
+        <v>733</v>
       </c>
       <c r="E46" s="29"/>
       <c r="F46" s="29"/>
@@ -14093,17 +14151,17 @@
     </row>
     <row r="48" spans="1:1">
       <c r="A48" s="41" t="s">
-        <v>728</v>
+        <v>734</v>
       </c>
     </row>
     <row r="49" spans="2:2">
       <c r="B49" s="42" t="s">
-        <v>729</v>
+        <v>735</v>
       </c>
     </row>
     <row r="50" ht="84" customHeight="1" spans="3:13">
       <c r="C50" s="29" t="s">
-        <v>730</v>
+        <v>736</v>
       </c>
       <c r="D50" s="29"/>
       <c r="E50" s="29"/>
@@ -14118,10 +14176,10 @@
     </row>
     <row r="51" spans="3:13">
       <c r="C51" s="32" t="s">
-        <v>731</v>
+        <v>737</v>
       </c>
       <c r="E51" s="35" t="s">
-        <v>732</v>
+        <v>738</v>
       </c>
       <c r="F51" s="35"/>
       <c r="G51" s="35"/>
@@ -14134,7 +14192,7 @@
     </row>
     <row r="52" spans="3:13">
       <c r="C52" s="32" t="s">
-        <v>733</v>
+        <v>739</v>
       </c>
       <c r="E52" s="35"/>
       <c r="F52" s="35"/>
@@ -14148,7 +14206,7 @@
     </row>
     <row r="53" spans="4:13">
       <c r="D53" s="33" t="s">
-        <v>734</v>
+        <v>740</v>
       </c>
       <c r="E53" s="33"/>
       <c r="F53" s="33"/>
@@ -14162,7 +14220,7 @@
     </row>
     <row r="54" ht="60" customHeight="1" spans="4:13">
       <c r="D54" s="29" t="s">
-        <v>735</v>
+        <v>741</v>
       </c>
       <c r="E54" s="29"/>
       <c r="F54" s="29"/>
@@ -14176,12 +14234,12 @@
     </row>
     <row r="56" spans="3:3">
       <c r="C56" s="32" t="s">
-        <v>736</v>
+        <v>742</v>
       </c>
     </row>
     <row r="57" ht="133" customHeight="1" spans="4:13">
       <c r="D57" s="29" t="s">
-        <v>737</v>
+        <v>743</v>
       </c>
       <c r="E57" s="29"/>
       <c r="F57" s="29"/>
@@ -14195,10 +14253,10 @@
     </row>
     <row r="59" spans="1:13">
       <c r="A59" s="41" t="s">
-        <v>738</v>
+        <v>744</v>
       </c>
       <c r="C59" s="29" t="s">
-        <v>739</v>
+        <v>745</v>
       </c>
       <c r="D59" s="29"/>
       <c r="E59" s="29"/>
@@ -14213,10 +14271,10 @@
     </row>
     <row r="60" ht="90" customHeight="1" spans="2:13">
       <c r="B60" s="42" t="s">
-        <v>740</v>
+        <v>746</v>
       </c>
       <c r="C60" s="29" t="s">
-        <v>741</v>
+        <v>747</v>
       </c>
       <c r="D60" s="29"/>
       <c r="E60" s="29"/>
@@ -14231,10 +14289,10 @@
     </row>
     <row r="61" spans="2:13">
       <c r="B61" s="42" t="s">
-        <v>742</v>
+        <v>748</v>
       </c>
       <c r="D61" s="30" t="s">
-        <v>743</v>
+        <v>749</v>
       </c>
       <c r="E61" s="30"/>
       <c r="F61" s="30"/>
@@ -14248,7 +14306,7 @@
     </row>
     <row r="62" ht="36" customHeight="1" spans="3:13">
       <c r="C62" s="29" t="s">
-        <v>744</v>
+        <v>750</v>
       </c>
       <c r="D62" s="30"/>
       <c r="E62" s="30"/>
@@ -14263,10 +14321,10 @@
     </row>
     <row r="64" ht="20" customHeight="1" spans="1:13">
       <c r="A64" s="41" t="s">
-        <v>745</v>
+        <v>751</v>
       </c>
       <c r="C64" s="30" t="s">
-        <v>746</v>
+        <v>752</v>
       </c>
       <c r="D64" s="30"/>
       <c r="E64" s="30"/>
@@ -14281,12 +14339,12 @@
     </row>
     <row r="65" spans="2:2">
       <c r="B65" s="42" t="s">
-        <v>747</v>
+        <v>753</v>
       </c>
     </row>
     <row r="66" ht="123" customHeight="1" spans="3:13">
       <c r="C66" s="29" t="s">
-        <v>748</v>
+        <v>754</v>
       </c>
       <c r="D66" s="29"/>
       <c r="E66" s="29"/>
@@ -14301,12 +14359,12 @@
     </row>
     <row r="67" spans="2:2">
       <c r="B67" s="42" t="s">
-        <v>749</v>
+        <v>755</v>
       </c>
     </row>
     <row r="68" ht="241" customHeight="1" spans="3:13">
       <c r="C68" s="29" t="s">
-        <v>750</v>
+        <v>756</v>
       </c>
       <c r="D68" s="29"/>
       <c r="E68" s="29"/>
@@ -14334,10 +14392,10 @@
     </row>
     <row r="70" ht="51" customHeight="1" spans="1:13">
       <c r="A70" s="41" t="s">
-        <v>751</v>
+        <v>757</v>
       </c>
       <c r="C70" s="29" t="s">
-        <v>752</v>
+        <v>758</v>
       </c>
       <c r="D70" s="29"/>
       <c r="E70" s="29"/>
@@ -14352,12 +14410,12 @@
     </row>
     <row r="71" spans="2:2">
       <c r="B71" s="42" t="s">
-        <v>753</v>
+        <v>759</v>
       </c>
     </row>
     <row r="72" ht="73" customHeight="1" spans="3:13">
       <c r="C72" s="29" t="s">
-        <v>754</v>
+        <v>760</v>
       </c>
       <c r="D72" s="30"/>
       <c r="E72" s="30"/>
@@ -14372,15 +14430,15 @@
     </row>
     <row r="73" spans="2:5">
       <c r="B73" s="42" t="s">
-        <v>755</v>
+        <v>761</v>
       </c>
       <c r="E73" s="3" t="s">
-        <v>756</v>
+        <v>762</v>
       </c>
     </row>
     <row r="74" ht="56" customHeight="1" spans="3:13">
       <c r="C74" s="29" t="s">
-        <v>757</v>
+        <v>763</v>
       </c>
       <c r="D74" s="30"/>
       <c r="E74" s="30"/>
@@ -14395,12 +14453,12 @@
     </row>
     <row r="75" spans="3:3">
       <c r="C75" s="32" t="s">
-        <v>758</v>
+        <v>764</v>
       </c>
     </row>
     <row r="76" ht="72" customHeight="1" spans="4:13">
       <c r="D76" s="29" t="s">
-        <v>759</v>
+        <v>765</v>
       </c>
       <c r="E76" s="29"/>
       <c r="F76" s="29"/>
@@ -14414,12 +14472,12 @@
     </row>
     <row r="77" spans="3:3">
       <c r="C77" s="32" t="s">
-        <v>760</v>
+        <v>766</v>
       </c>
     </row>
     <row r="78" spans="4:13">
       <c r="D78" s="30" t="s">
-        <v>761</v>
+        <v>767</v>
       </c>
       <c r="E78" s="30"/>
       <c r="F78" s="30"/>
@@ -14433,19 +14491,19 @@
     </row>
     <row r="79" spans="1:13">
       <c r="A79" s="41" t="s">
-        <v>762</v>
+        <v>768</v>
       </c>
       <c r="M79" s="27"/>
     </row>
     <row r="80" spans="2:13">
       <c r="B80" s="42" t="s">
-        <v>763</v>
+        <v>769</v>
       </c>
       <c r="M80" s="27"/>
     </row>
     <row r="81" spans="3:13">
       <c r="C81" s="50" t="s">
-        <v>764</v>
+        <v>770</v>
       </c>
       <c r="D81" s="30"/>
       <c r="E81" s="30"/>
@@ -14461,7 +14519,7 @@
     <row r="82" ht="40" customHeight="1" spans="3:13">
       <c r="C82" s="30"/>
       <c r="D82" s="29" t="s">
-        <v>765</v>
+        <v>771</v>
       </c>
       <c r="E82" s="29"/>
       <c r="F82" s="29"/>
@@ -14475,7 +14533,7 @@
     </row>
     <row r="83" spans="3:13">
       <c r="C83" s="50" t="s">
-        <v>766</v>
+        <v>772</v>
       </c>
       <c r="D83" s="30"/>
       <c r="E83" s="30"/>
@@ -14491,7 +14549,7 @@
     <row r="84" ht="57" customHeight="1" spans="3:13">
       <c r="C84" s="30"/>
       <c r="D84" s="29" t="s">
-        <v>767</v>
+        <v>773</v>
       </c>
       <c r="E84" s="29"/>
       <c r="F84" s="29"/>
@@ -14505,7 +14563,7 @@
     </row>
     <row r="85" spans="3:13">
       <c r="C85" s="50" t="s">
-        <v>768</v>
+        <v>774</v>
       </c>
       <c r="D85" s="30"/>
       <c r="E85" s="30"/>
@@ -14521,7 +14579,7 @@
     <row r="86" ht="67" customHeight="1" spans="3:13">
       <c r="C86" s="30"/>
       <c r="D86" s="29" t="s">
-        <v>769</v>
+        <v>775</v>
       </c>
       <c r="E86" s="29"/>
       <c r="F86" s="29"/>
@@ -14536,7 +14594,7 @@
     <row r="87" ht="279" customHeight="1" spans="3:13">
       <c r="C87" s="30"/>
       <c r="D87" s="29" t="s">
-        <v>770</v>
+        <v>776</v>
       </c>
       <c r="E87" s="29"/>
       <c r="F87" s="29"/>
@@ -14550,7 +14608,7 @@
     </row>
     <row r="88" spans="3:13">
       <c r="C88" s="50" t="s">
-        <v>771</v>
+        <v>777</v>
       </c>
       <c r="D88" s="30"/>
       <c r="E88" s="30"/>
@@ -14566,7 +14624,7 @@
     <row r="89" ht="38" customHeight="1" spans="3:13">
       <c r="C89" s="30"/>
       <c r="D89" s="29" t="s">
-        <v>772</v>
+        <v>778</v>
       </c>
       <c r="E89" s="29"/>
       <c r="F89" s="29"/>
@@ -14581,7 +14639,7 @@
     <row r="90" spans="3:13">
       <c r="C90" s="30"/>
       <c r="D90" s="50" t="s">
-        <v>773</v>
+        <v>779</v>
       </c>
       <c r="E90" s="30"/>
       <c r="F90" s="30"/>
@@ -14597,7 +14655,7 @@
       <c r="C91" s="30"/>
       <c r="D91" s="30"/>
       <c r="E91" s="53" t="s">
-        <v>774</v>
+        <v>780</v>
       </c>
       <c r="F91" s="29"/>
       <c r="G91" s="29"/>
@@ -14611,7 +14669,7 @@
     <row r="92" ht="21" customHeight="1" spans="3:13">
       <c r="C92" s="30"/>
       <c r="D92" s="50" t="s">
-        <v>775</v>
+        <v>781</v>
       </c>
       <c r="E92" s="53"/>
       <c r="F92" s="29"/>
@@ -14627,7 +14685,7 @@
       <c r="C93" s="30"/>
       <c r="D93" s="30"/>
       <c r="E93" s="29" t="s">
-        <v>776</v>
+        <v>782</v>
       </c>
       <c r="F93" s="29"/>
       <c r="G93" s="29"/>
@@ -14641,7 +14699,7 @@
     <row r="94" ht="27" customHeight="1" spans="3:13">
       <c r="C94" s="30"/>
       <c r="D94" s="50" t="s">
-        <v>777</v>
+        <v>783</v>
       </c>
       <c r="E94" s="53"/>
       <c r="F94" s="29"/>
@@ -14657,7 +14715,7 @@
       <c r="C95" s="30"/>
       <c r="D95" s="30"/>
       <c r="E95" s="29" t="s">
-        <v>778</v>
+        <v>784</v>
       </c>
       <c r="F95" s="29"/>
       <c r="G95" s="29"/>
@@ -14672,7 +14730,7 @@
       <c r="C96" s="30"/>
       <c r="D96" s="30"/>
       <c r="E96" s="29" t="s">
-        <v>779</v>
+        <v>785</v>
       </c>
       <c r="F96" s="29"/>
       <c r="G96" s="29"/>
@@ -14685,13 +14743,13 @@
     </row>
     <row r="97" spans="2:13">
       <c r="B97" s="42" t="s">
-        <v>780</v>
+        <v>786</v>
       </c>
       <c r="M97" s="27"/>
     </row>
     <row r="98" spans="3:13">
       <c r="C98" s="36" t="s">
-        <v>781</v>
+        <v>787</v>
       </c>
       <c r="D98" s="37"/>
       <c r="E98" s="37"/>
@@ -14707,7 +14765,7 @@
     <row r="99" spans="3:13">
       <c r="C99" s="30"/>
       <c r="D99" s="29" t="s">
-        <v>782</v>
+        <v>788</v>
       </c>
       <c r="E99" s="29"/>
       <c r="F99" s="29"/>
@@ -14721,12 +14779,12 @@
     </row>
     <row r="100" spans="3:13">
       <c r="C100" s="50" t="s">
-        <v>783</v>
+        <v>789</v>
       </c>
       <c r="D100" s="30"/>
       <c r="E100" s="30"/>
       <c r="F100" s="30" t="s">
-        <v>784</v>
+        <v>790</v>
       </c>
       <c r="G100" s="30"/>
       <c r="H100" s="30"/>
@@ -14739,7 +14797,7 @@
     <row r="101" ht="95" customHeight="1" spans="3:13">
       <c r="C101" s="30"/>
       <c r="D101" s="29" t="s">
-        <v>785</v>
+        <v>791</v>
       </c>
       <c r="E101" s="29"/>
       <c r="F101" s="29"/>
@@ -14754,7 +14812,7 @@
     <row r="102" ht="75" customHeight="1" spans="3:13">
       <c r="C102" s="30"/>
       <c r="D102" s="29" t="s">
-        <v>786</v>
+        <v>792</v>
       </c>
       <c r="E102" s="29"/>
       <c r="F102" s="29"/>
@@ -14768,7 +14826,7 @@
     </row>
     <row r="103" spans="3:13">
       <c r="C103" s="50" t="s">
-        <v>787</v>
+        <v>793</v>
       </c>
       <c r="D103" s="30"/>
       <c r="E103" s="30"/>
@@ -14784,7 +14842,7 @@
     <row r="104" spans="3:13">
       <c r="C104" s="30"/>
       <c r="D104" s="50" t="s">
-        <v>788</v>
+        <v>794</v>
       </c>
       <c r="E104" s="30"/>
       <c r="F104" s="30"/>
@@ -14800,7 +14858,7 @@
       <c r="C105" s="30"/>
       <c r="D105" s="30"/>
       <c r="E105" s="29" t="s">
-        <v>789</v>
+        <v>795</v>
       </c>
       <c r="F105" s="29"/>
       <c r="G105" s="29"/>
@@ -14814,7 +14872,7 @@
     <row r="106" spans="3:13">
       <c r="C106" s="30"/>
       <c r="D106" s="50" t="s">
-        <v>790</v>
+        <v>796</v>
       </c>
       <c r="E106" s="30"/>
       <c r="F106" s="30"/>
@@ -14830,7 +14888,7 @@
       <c r="C107" s="30"/>
       <c r="D107" s="30"/>
       <c r="E107" s="29" t="s">
-        <v>791</v>
+        <v>797</v>
       </c>
       <c r="F107" s="29"/>
       <c r="G107" s="29"/>
@@ -14856,13 +14914,13 @@
     </row>
     <row r="109" spans="2:13">
       <c r="B109" s="42" t="s">
-        <v>792</v>
+        <v>798</v>
       </c>
       <c r="M109" s="27"/>
     </row>
     <row r="110" spans="3:13">
       <c r="C110" s="51" t="s">
-        <v>793</v>
+        <v>799</v>
       </c>
       <c r="D110" s="48"/>
       <c r="E110" s="48"/>
@@ -14877,7 +14935,7 @@
     </row>
     <row r="111" ht="71" customHeight="1" spans="4:13">
       <c r="D111" s="29" t="s">
-        <v>794</v>
+        <v>800</v>
       </c>
       <c r="E111" s="30"/>
       <c r="F111" s="30"/>
@@ -14894,19 +14952,19 @@
     </row>
     <row r="113" spans="1:13">
       <c r="A113" s="41" t="s">
-        <v>795</v>
+        <v>801</v>
       </c>
       <c r="M113" s="27"/>
     </row>
     <row r="114" spans="2:13">
       <c r="B114" s="42" t="s">
-        <v>796</v>
+        <v>802</v>
       </c>
       <c r="M114" s="27"/>
     </row>
     <row r="115" ht="159" customHeight="1" spans="3:13">
       <c r="C115" s="115" t="s">
-        <v>797</v>
+        <v>803</v>
       </c>
       <c r="D115" s="29"/>
       <c r="E115" s="29"/>
@@ -14921,13 +14979,13 @@
     </row>
     <row r="116" spans="2:13">
       <c r="B116" s="42" t="s">
-        <v>798</v>
+        <v>804</v>
       </c>
       <c r="M116" s="27"/>
     </row>
     <row r="117" spans="3:13">
       <c r="C117" s="29" t="s">
-        <v>799</v>
+        <v>805</v>
       </c>
       <c r="D117" s="29"/>
       <c r="E117" s="29"/>
@@ -14948,7 +15006,7 @@
     </row>
     <row r="119" ht="138" customHeight="1" spans="3:13">
       <c r="C119" s="29" t="s">
-        <v>800</v>
+        <v>806</v>
       </c>
       <c r="D119" s="29"/>
       <c r="E119" s="29"/>
@@ -14966,19 +15024,19 @@
     </row>
     <row r="121" spans="1:13">
       <c r="A121" s="41" t="s">
-        <v>801</v>
+        <v>807</v>
       </c>
       <c r="M121" s="27"/>
     </row>
     <row r="122" spans="2:13">
       <c r="B122" s="42" t="s">
-        <v>802</v>
+        <v>808</v>
       </c>
       <c r="M122" s="27"/>
     </row>
     <row r="123" ht="153" customHeight="1" spans="3:13">
       <c r="C123" s="39" t="s">
-        <v>803</v>
+        <v>809</v>
       </c>
       <c r="D123" s="52"/>
       <c r="E123" s="52"/>
@@ -14993,13 +15051,13 @@
     </row>
     <row r="124" spans="2:13">
       <c r="B124" s="42" t="s">
-        <v>804</v>
+        <v>810</v>
       </c>
       <c r="M124" s="27"/>
     </row>
     <row r="125" ht="187" customHeight="1" spans="3:13">
       <c r="C125" s="39" t="s">
-        <v>805</v>
+        <v>811</v>
       </c>
       <c r="D125" s="39"/>
       <c r="E125" s="39"/>
@@ -15014,13 +15072,13 @@
     </row>
     <row r="126" spans="3:13">
       <c r="C126" s="32" t="s">
-        <v>806</v>
+        <v>812</v>
       </c>
       <c r="M126" s="27"/>
     </row>
     <row r="127" ht="133" customHeight="1" spans="4:13">
       <c r="D127" s="39" t="s">
-        <v>807</v>
+        <v>813</v>
       </c>
       <c r="E127" s="52"/>
       <c r="F127" s="52"/>
@@ -15034,10 +15092,10 @@
     </row>
     <row r="128" ht="56" customHeight="1" spans="1:13">
       <c r="A128" s="41" t="s">
-        <v>808</v>
+        <v>814</v>
       </c>
       <c r="C128" s="29" t="s">
-        <v>809</v>
+        <v>815</v>
       </c>
       <c r="D128" s="29"/>
       <c r="E128" s="29"/>
@@ -15055,10 +15113,10 @@
     </row>
     <row r="130" ht="90" customHeight="1" spans="2:13">
       <c r="B130" s="54" t="s">
-        <v>810</v>
+        <v>816</v>
       </c>
       <c r="C130" s="29" t="s">
-        <v>811</v>
+        <v>817</v>
       </c>
       <c r="D130" s="30"/>
       <c r="E130" s="30"/>
@@ -15073,13 +15131,13 @@
     </row>
     <row r="131" spans="2:13">
       <c r="B131" s="42" t="s">
-        <v>812</v>
+        <v>818</v>
       </c>
       <c r="M131" s="27"/>
     </row>
     <row r="132" ht="124" customHeight="1" spans="3:13">
       <c r="C132" s="39" t="s">
-        <v>813</v>
+        <v>819</v>
       </c>
       <c r="D132" s="39"/>
       <c r="E132" s="39"/>
@@ -15094,13 +15152,13 @@
     </row>
     <row r="133" spans="2:13">
       <c r="B133" s="42" t="s">
-        <v>814</v>
+        <v>820</v>
       </c>
       <c r="M133" s="27"/>
     </row>
     <row r="134" ht="95" customHeight="1" spans="3:13">
       <c r="C134" s="29" t="s">
-        <v>815</v>
+        <v>821</v>
       </c>
       <c r="D134" s="29"/>
       <c r="E134" s="29"/>
@@ -15118,13 +15176,13 @@
     </row>
     <row r="136" spans="1:13">
       <c r="A136" s="41" t="s">
-        <v>816</v>
+        <v>822</v>
       </c>
       <c r="M136" s="27"/>
     </row>
     <row r="137" ht="60" customHeight="1" spans="2:13">
       <c r="B137" s="55" t="s">
-        <v>817</v>
+        <v>823</v>
       </c>
       <c r="C137" s="55"/>
       <c r="D137" s="55"/>
@@ -15140,13 +15198,13 @@
     </row>
     <row r="138" spans="2:13">
       <c r="B138" s="42" t="s">
-        <v>818</v>
+        <v>824</v>
       </c>
       <c r="M138" s="27"/>
     </row>
     <row r="139" ht="69" customHeight="1" spans="3:13">
       <c r="C139" s="29" t="s">
-        <v>819</v>
+        <v>825</v>
       </c>
       <c r="D139" s="29"/>
       <c r="E139" s="29"/>
@@ -15161,13 +15219,13 @@
     </row>
     <row r="140" spans="2:13">
       <c r="B140" s="42" t="s">
-        <v>820</v>
+        <v>826</v>
       </c>
       <c r="M140" s="27"/>
     </row>
     <row r="141" ht="57" customHeight="1" spans="3:13">
       <c r="C141" s="29" t="s">
-        <v>821</v>
+        <v>827</v>
       </c>
       <c r="D141" s="29"/>
       <c r="E141" s="29"/>
@@ -15182,12 +15240,12 @@
     </row>
     <row r="142" spans="2:2">
       <c r="B142" s="42" t="s">
-        <v>822</v>
+        <v>828</v>
       </c>
     </row>
     <row r="143" ht="39" customHeight="1" spans="3:13">
       <c r="C143" s="29" t="s">
-        <v>823</v>
+        <v>829</v>
       </c>
       <c r="D143" s="29"/>
       <c r="E143" s="29"/>
@@ -15202,7 +15260,7 @@
     </row>
     <row r="144" ht="38" customHeight="1" spans="3:13">
       <c r="C144" s="29" t="s">
-        <v>824</v>
+        <v>830</v>
       </c>
       <c r="D144" s="29"/>
       <c r="E144" s="29"/>
@@ -15217,12 +15275,12 @@
     </row>
     <row r="145" spans="2:2">
       <c r="B145" s="42" t="s">
-        <v>825</v>
+        <v>831</v>
       </c>
     </row>
     <row r="146" ht="38" customHeight="1" spans="3:13">
       <c r="C146" s="29" t="s">
-        <v>826</v>
+        <v>832</v>
       </c>
       <c r="D146" s="29"/>
       <c r="E146" s="29"/>
@@ -15237,7 +15295,7 @@
     </row>
     <row r="147" spans="2:13">
       <c r="B147" s="56" t="s">
-        <v>827</v>
+        <v>833</v>
       </c>
       <c r="C147" s="56"/>
       <c r="D147" s="56"/>
@@ -15253,22 +15311,22 @@
     </row>
     <row r="149" spans="1:1">
       <c r="A149" s="41" t="s">
-        <v>828</v>
+        <v>834</v>
       </c>
     </row>
     <row r="150" spans="2:2">
       <c r="B150" s="42" t="s">
-        <v>829</v>
+        <v>835</v>
       </c>
     </row>
     <row r="151" spans="3:3">
       <c r="C151" s="32" t="s">
-        <v>830</v>
+        <v>836</v>
       </c>
     </row>
     <row r="152" ht="39" customHeight="1" spans="4:13">
       <c r="D152" s="29" t="s">
-        <v>831</v>
+        <v>837</v>
       </c>
       <c r="E152" s="30"/>
       <c r="F152" s="30"/>
@@ -15282,12 +15340,12 @@
     </row>
     <row r="153" spans="3:3">
       <c r="C153" s="32" t="s">
-        <v>832</v>
+        <v>838</v>
       </c>
     </row>
     <row r="154" ht="38" customHeight="1" spans="4:13">
       <c r="D154" s="29" t="s">
-        <v>833</v>
+        <v>839</v>
       </c>
       <c r="E154" s="30"/>
       <c r="F154" s="30"/>
@@ -15301,12 +15359,12 @@
     </row>
     <row r="155" spans="2:2">
       <c r="B155" s="42" t="s">
-        <v>834</v>
+        <v>840</v>
       </c>
     </row>
     <row r="156" ht="168" customHeight="1" spans="3:13">
       <c r="C156" s="29" t="s">
-        <v>835</v>
+        <v>841</v>
       </c>
       <c r="D156" s="29"/>
       <c r="E156" s="29"/>
@@ -15322,17 +15380,17 @@
     <row r="157" ht="21" customHeight="1"/>
     <row r="158" ht="20" customHeight="1" spans="1:1">
       <c r="A158" s="41" t="s">
-        <v>836</v>
+        <v>842</v>
       </c>
     </row>
     <row r="159" spans="2:2">
       <c r="B159" s="42" t="s">
-        <v>837</v>
+        <v>843</v>
       </c>
     </row>
     <row r="160" spans="3:13">
       <c r="C160" s="29" t="s">
-        <v>838</v>
+        <v>844</v>
       </c>
       <c r="D160" s="29"/>
       <c r="E160" s="29"/>
@@ -15347,12 +15405,12 @@
     </row>
     <row r="161" spans="2:2">
       <c r="B161" s="42" t="s">
-        <v>839</v>
+        <v>845</v>
       </c>
     </row>
     <row r="162" ht="35" customHeight="1" spans="3:13">
       <c r="C162" s="29" t="s">
-        <v>840</v>
+        <v>846</v>
       </c>
       <c r="D162" s="29"/>
       <c r="E162" s="29"/>
@@ -15367,12 +15425,12 @@
     </row>
     <row r="163" spans="2:2">
       <c r="B163" s="42" t="s">
-        <v>841</v>
+        <v>847</v>
       </c>
     </row>
     <row r="164" spans="3:13">
       <c r="C164" s="29" t="s">
-        <v>842</v>
+        <v>848</v>
       </c>
       <c r="D164" s="29"/>
       <c r="E164" s="29"/>
@@ -15387,12 +15445,12 @@
     </row>
     <row r="166" spans="1:1">
       <c r="A166" s="41" t="s">
-        <v>841</v>
+        <v>847</v>
       </c>
     </row>
     <row r="167" ht="73" customHeight="1" spans="2:13">
       <c r="B167" s="38" t="s">
-        <v>843</v>
+        <v>849</v>
       </c>
       <c r="C167" s="38"/>
       <c r="D167" s="38"/>
@@ -15408,17 +15466,17 @@
     </row>
     <row r="168" spans="2:2">
       <c r="B168" s="42" t="s">
-        <v>844</v>
+        <v>850</v>
       </c>
     </row>
     <row r="169" spans="3:3">
       <c r="C169" s="32" t="s">
-        <v>845</v>
+        <v>851</v>
       </c>
     </row>
     <row r="170" ht="71" customHeight="1" spans="4:13">
       <c r="D170" s="29" t="s">
-        <v>846</v>
+        <v>852</v>
       </c>
       <c r="E170" s="30"/>
       <c r="F170" s="30"/>
@@ -15432,12 +15490,12 @@
     </row>
     <row r="171" spans="3:3">
       <c r="C171" s="32" t="s">
-        <v>645</v>
+        <v>651</v>
       </c>
     </row>
     <row r="172" ht="234" customHeight="1" spans="4:13">
       <c r="D172" s="29" t="s">
-        <v>847</v>
+        <v>853</v>
       </c>
       <c r="E172" s="29"/>
       <c r="F172" s="29"/>
@@ -15451,12 +15509,12 @@
     </row>
     <row r="173" ht="24" customHeight="1" spans="3:3">
       <c r="C173" s="32" t="s">
-        <v>848</v>
+        <v>854</v>
       </c>
     </row>
     <row r="174" spans="4:13">
       <c r="D174" s="30" t="s">
-        <v>849</v>
+        <v>855</v>
       </c>
       <c r="E174" s="30"/>
       <c r="F174" s="30"/>
@@ -15470,20 +15528,20 @@
     </row>
     <row r="175" spans="2:5">
       <c r="B175" s="42" t="s">
-        <v>850</v>
+        <v>856</v>
       </c>
       <c r="E175" s="57" t="s">
-        <v>851</v>
+        <v>857</v>
       </c>
     </row>
     <row r="176" spans="3:3">
       <c r="C176" s="32" t="s">
-        <v>852</v>
+        <v>858</v>
       </c>
     </row>
     <row r="177" ht="160" customHeight="1" spans="4:13">
       <c r="D177" s="29" t="s">
-        <v>853</v>
+        <v>859</v>
       </c>
       <c r="E177" s="29"/>
       <c r="F177" s="29"/>
@@ -15497,17 +15555,17 @@
     </row>
     <row r="178" spans="3:3">
       <c r="C178" s="32" t="s">
-        <v>854</v>
+        <v>860</v>
       </c>
     </row>
     <row r="179" spans="4:4">
       <c r="D179" s="32" t="s">
-        <v>855</v>
+        <v>861</v>
       </c>
     </row>
     <row r="180" ht="91" customHeight="1" spans="5:13">
       <c r="E180" s="29" t="s">
-        <v>856</v>
+        <v>862</v>
       </c>
       <c r="F180" s="30"/>
       <c r="G180" s="30"/>
@@ -15520,12 +15578,12 @@
     </row>
     <row r="181" spans="4:4">
       <c r="D181" s="32" t="s">
-        <v>857</v>
+        <v>863</v>
       </c>
     </row>
     <row r="182" spans="5:13">
       <c r="E182" s="29" t="s">
-        <v>858</v>
+        <v>864</v>
       </c>
       <c r="F182" s="29"/>
       <c r="G182" s="29"/>
@@ -15538,7 +15596,7 @@
     </row>
     <row r="183" spans="4:13">
       <c r="D183" s="32" t="s">
-        <v>859</v>
+        <v>865</v>
       </c>
       <c r="E183" s="29"/>
       <c r="F183" s="29"/>
@@ -15552,12 +15610,12 @@
     </row>
     <row r="184" spans="5:5">
       <c r="E184" s="58" t="s">
-        <v>860</v>
+        <v>866</v>
       </c>
     </row>
     <row r="185" ht="93" customHeight="1" spans="5:13">
       <c r="E185" s="29" t="s">
-        <v>861</v>
+        <v>867</v>
       </c>
       <c r="F185" s="29"/>
       <c r="G185" s="29"/>
@@ -15570,12 +15628,12 @@
     </row>
     <row r="186" spans="5:5">
       <c r="E186" s="58" t="s">
-        <v>862</v>
+        <v>868</v>
       </c>
     </row>
     <row r="187" ht="108" customHeight="1" spans="5:13">
       <c r="E187" s="29" t="s">
-        <v>863</v>
+        <v>869</v>
       </c>
       <c r="F187" s="29"/>
       <c r="G187" s="29"/>
@@ -15588,12 +15646,12 @@
     </row>
     <row r="188" spans="4:4">
       <c r="D188" s="32" t="s">
-        <v>864</v>
+        <v>870</v>
       </c>
     </row>
     <row r="189" ht="41" customHeight="1" spans="5:13">
       <c r="E189" s="29" t="s">
-        <v>865</v>
+        <v>871</v>
       </c>
       <c r="F189" s="29"/>
       <c r="G189" s="29"/>
@@ -15606,7 +15664,7 @@
     </row>
     <row r="190" ht="83" customHeight="1" spans="5:13">
       <c r="E190" s="29" t="s">
-        <v>866</v>
+        <v>872</v>
       </c>
       <c r="F190" s="29"/>
       <c r="G190" s="29"/>
@@ -15619,17 +15677,17 @@
     </row>
     <row r="191" spans="2:2">
       <c r="B191" s="42" t="s">
-        <v>867</v>
+        <v>873</v>
       </c>
     </row>
     <row r="192" spans="3:3">
       <c r="C192" s="32" t="s">
-        <v>868</v>
+        <v>874</v>
       </c>
     </row>
     <row r="193" ht="54" customHeight="1" spans="4:13">
       <c r="D193" s="29" t="s">
-        <v>869</v>
+        <v>875</v>
       </c>
       <c r="E193" s="29"/>
       <c r="F193" s="29"/>
@@ -15643,7 +15701,7 @@
     </row>
     <row r="194" ht="70" customHeight="1" spans="4:13">
       <c r="D194" s="59" t="s">
-        <v>870</v>
+        <v>876</v>
       </c>
       <c r="E194" s="59"/>
       <c r="F194" s="59"/>
@@ -15657,15 +15715,15 @@
     </row>
     <row r="195" spans="3:6">
       <c r="C195" s="32" t="s">
-        <v>871</v>
+        <v>877</v>
       </c>
       <c r="F195" s="58" t="s">
-        <v>862</v>
+        <v>868</v>
       </c>
     </row>
     <row r="196" ht="105" customHeight="1" spans="4:13">
       <c r="D196" s="29" t="s">
-        <v>872</v>
+        <v>878</v>
       </c>
       <c r="E196" s="29"/>
       <c r="F196" s="29"/>
@@ -15679,22 +15737,22 @@
     </row>
     <row r="197" spans="2:2">
       <c r="B197" s="42" t="s">
-        <v>873</v>
+        <v>879</v>
       </c>
     </row>
     <row r="199" spans="1:1">
       <c r="A199" s="41" t="s">
-        <v>874</v>
+        <v>880</v>
       </c>
     </row>
     <row r="200" spans="2:2">
       <c r="B200" s="42" t="s">
-        <v>875</v>
+        <v>881</v>
       </c>
     </row>
     <row r="201" ht="57" customHeight="1" spans="3:13">
       <c r="C201" s="29" t="s">
-        <v>876</v>
+        <v>882</v>
       </c>
       <c r="D201" s="29"/>
       <c r="E201" s="29"/>
@@ -15837,17 +15895,17 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="25" t="s">
-        <v>877</v>
+        <v>883</v>
       </c>
     </row>
     <row r="2" spans="2:2">
       <c r="B2" s="28" t="s">
-        <v>878</v>
+        <v>884</v>
       </c>
     </row>
     <row r="3" ht="108" customHeight="1" spans="3:14">
       <c r="C3" s="29" t="s">
-        <v>879</v>
+        <v>885</v>
       </c>
       <c r="D3" s="30"/>
       <c r="E3" s="30"/>
@@ -15863,10 +15921,10 @@
     </row>
     <row r="4" spans="2:14">
       <c r="B4" s="28" t="s">
-        <v>880</v>
+        <v>886</v>
       </c>
       <c r="D4" s="30" t="s">
-        <v>881</v>
+        <v>887</v>
       </c>
       <c r="E4" s="30"/>
       <c r="F4" s="30"/>
@@ -15881,7 +15939,7 @@
     </row>
     <row r="5" ht="36" customHeight="1" spans="3:14">
       <c r="C5" s="29" t="s">
-        <v>882</v>
+        <v>888</v>
       </c>
       <c r="D5" s="29"/>
       <c r="E5" s="29"/>
@@ -15897,12 +15955,12 @@
     </row>
     <row r="6" spans="2:2">
       <c r="B6" s="28" t="s">
-        <v>883</v>
+        <v>889</v>
       </c>
     </row>
     <row r="7" ht="37" customHeight="1" spans="3:14">
       <c r="C7" s="29" t="s">
-        <v>884</v>
+        <v>890</v>
       </c>
       <c r="D7" s="29"/>
       <c r="E7" s="29"/>
@@ -15918,12 +15976,12 @@
     </row>
     <row r="9" spans="2:2">
       <c r="B9" s="28" t="s">
-        <v>885</v>
+        <v>891</v>
       </c>
     </row>
     <row r="10" ht="108" customHeight="1" spans="3:14">
       <c r="C10" s="29" t="s">
-        <v>886</v>
+        <v>892</v>
       </c>
       <c r="D10" s="29"/>
       <c r="E10" s="29"/>
@@ -15939,7 +15997,7 @@
     </row>
     <row r="11" ht="76" customHeight="1" spans="3:14">
       <c r="C11" s="29" t="s">
-        <v>887</v>
+        <v>893</v>
       </c>
       <c r="D11" s="29"/>
       <c r="E11" s="29"/>
@@ -15955,12 +16013,12 @@
     </row>
     <row r="12" spans="2:2">
       <c r="B12" s="28" t="s">
-        <v>888</v>
+        <v>894</v>
       </c>
     </row>
     <row r="13" spans="3:14">
       <c r="C13" s="29" t="s">
-        <v>889</v>
+        <v>895</v>
       </c>
       <c r="D13" s="29"/>
       <c r="E13" s="29"/>
@@ -15976,12 +16034,12 @@
     </row>
     <row r="14" spans="2:2">
       <c r="B14" s="28" t="s">
-        <v>890</v>
+        <v>896</v>
       </c>
     </row>
     <row r="15" ht="136" customHeight="1" spans="3:14">
       <c r="C15" s="29" t="s">
-        <v>891</v>
+        <v>897</v>
       </c>
       <c r="D15" s="29"/>
       <c r="E15" s="29"/>
@@ -15997,10 +16055,10 @@
     </row>
     <row r="16" spans="2:14">
       <c r="B16" s="28" t="s">
-        <v>892</v>
+        <v>898</v>
       </c>
       <c r="D16" s="29" t="s">
-        <v>893</v>
+        <v>899</v>
       </c>
       <c r="E16" s="29"/>
       <c r="F16" s="29"/>
@@ -16015,7 +16073,7 @@
     </row>
     <row r="17" ht="72" customHeight="1" spans="3:14">
       <c r="C17" s="29" t="s">
-        <v>894</v>
+        <v>900</v>
       </c>
       <c r="D17" s="29"/>
       <c r="E17" s="29"/>
@@ -16045,12 +16103,12 @@
     </row>
     <row r="19" ht="20" customHeight="1" spans="1:1">
       <c r="A19" s="25" t="s">
-        <v>895</v>
+        <v>901</v>
       </c>
     </row>
     <row r="20" ht="38" customHeight="1" spans="2:14">
       <c r="B20" s="31" t="s">
-        <v>896</v>
+        <v>902</v>
       </c>
       <c r="C20" s="31"/>
       <c r="D20" s="31"/>
@@ -16067,12 +16125,12 @@
     </row>
     <row r="21" spans="2:2">
       <c r="B21" s="28" t="s">
-        <v>897</v>
+        <v>903</v>
       </c>
     </row>
     <row r="22" spans="3:14">
       <c r="C22" s="29" t="s">
-        <v>898</v>
+        <v>904</v>
       </c>
       <c r="D22" s="29"/>
       <c r="E22" s="29"/>
@@ -16088,12 +16146,12 @@
     </row>
     <row r="23" spans="2:2">
       <c r="B23" s="28" t="s">
-        <v>899</v>
+        <v>905</v>
       </c>
     </row>
     <row r="24" ht="54" customHeight="1" spans="3:14">
       <c r="C24" s="29" t="s">
-        <v>900</v>
+        <v>906</v>
       </c>
       <c r="D24" s="29"/>
       <c r="E24" s="29"/>
@@ -16109,12 +16167,12 @@
     </row>
     <row r="25" spans="3:3">
       <c r="C25" s="32" t="s">
-        <v>901</v>
+        <v>907</v>
       </c>
     </row>
     <row r="26" spans="4:14">
       <c r="D26" s="29" t="s">
-        <v>902</v>
+        <v>908</v>
       </c>
       <c r="E26" s="29"/>
       <c r="F26" s="29"/>
@@ -16129,12 +16187,12 @@
     </row>
     <row r="27" spans="3:3">
       <c r="C27" s="32" t="s">
-        <v>903</v>
+        <v>909</v>
       </c>
     </row>
     <row r="28" spans="4:14">
       <c r="D28" s="30" t="s">
-        <v>904</v>
+        <v>910</v>
       </c>
       <c r="E28" s="30"/>
       <c r="F28" s="30"/>
@@ -16149,17 +16207,17 @@
     </row>
     <row r="30" spans="1:1">
       <c r="A30" s="25" t="s">
-        <v>905</v>
+        <v>911</v>
       </c>
     </row>
     <row r="31" spans="2:2">
       <c r="B31" s="28" t="s">
-        <v>906</v>
+        <v>912</v>
       </c>
     </row>
     <row r="32" ht="73" customHeight="1" spans="3:14">
       <c r="C32" s="29" t="s">
-        <v>907</v>
+        <v>913</v>
       </c>
       <c r="D32" s="29"/>
       <c r="E32" s="29"/>
@@ -16175,12 +16233,12 @@
     </row>
     <row r="33" spans="2:2">
       <c r="B33" s="28" t="s">
-        <v>908</v>
+        <v>914</v>
       </c>
     </row>
     <row r="34" ht="82" customHeight="1" spans="3:14">
       <c r="C34" s="29" t="s">
-        <v>909</v>
+        <v>915</v>
       </c>
       <c r="D34" s="30"/>
       <c r="E34" s="30"/>
@@ -16196,12 +16254,12 @@
     </row>
     <row r="35" spans="2:2">
       <c r="B35" s="28" t="s">
-        <v>910</v>
+        <v>916</v>
       </c>
     </row>
     <row r="36" ht="145" customHeight="1" spans="3:14">
       <c r="C36" s="29" t="s">
-        <v>911</v>
+        <v>917</v>
       </c>
       <c r="D36" s="29"/>
       <c r="E36" s="29"/>
@@ -16217,12 +16275,12 @@
     </row>
     <row r="37" spans="2:2">
       <c r="B37" s="28" t="s">
-        <v>912</v>
+        <v>918</v>
       </c>
     </row>
     <row r="38" spans="3:14">
       <c r="C38" s="30" t="s">
-        <v>913</v>
+        <v>919</v>
       </c>
       <c r="D38" s="30"/>
       <c r="E38" s="30"/>
@@ -16238,17 +16296,17 @@
     </row>
     <row r="39" spans="2:2">
       <c r="B39" s="28" t="s">
-        <v>914</v>
+        <v>920</v>
       </c>
     </row>
     <row r="40" spans="3:3">
       <c r="C40" s="32" t="s">
-        <v>915</v>
+        <v>921</v>
       </c>
     </row>
     <row r="41" ht="55" customHeight="1" spans="4:14">
       <c r="D41" s="29" t="s">
-        <v>916</v>
+        <v>922</v>
       </c>
       <c r="E41" s="29"/>
       <c r="F41" s="29"/>
@@ -16263,12 +16321,12 @@
     </row>
     <row r="42" spans="3:3">
       <c r="C42" s="32" t="s">
-        <v>917</v>
+        <v>923</v>
       </c>
     </row>
     <row r="43" ht="38" customHeight="1" spans="4:14">
       <c r="D43" s="29" t="s">
-        <v>918</v>
+        <v>924</v>
       </c>
       <c r="E43" s="29"/>
       <c r="F43" s="29"/>
@@ -16283,12 +16341,12 @@
     </row>
     <row r="44" spans="3:3">
       <c r="C44" s="32" t="s">
-        <v>919</v>
+        <v>925</v>
       </c>
     </row>
     <row r="45" spans="4:14">
       <c r="D45" s="29" t="s">
-        <v>920</v>
+        <v>926</v>
       </c>
       <c r="E45" s="29"/>
       <c r="F45" s="29"/>
@@ -16303,10 +16361,10 @@
     </row>
     <row r="47" spans="1:14">
       <c r="A47" s="25" t="s">
-        <v>921</v>
+        <v>927</v>
       </c>
       <c r="C47" s="30" t="s">
-        <v>922</v>
+        <v>928</v>
       </c>
       <c r="D47" s="30"/>
       <c r="E47" s="30"/>
@@ -16322,12 +16380,12 @@
     </row>
     <row r="48" spans="2:2">
       <c r="B48" s="28" t="s">
-        <v>923</v>
+        <v>929</v>
       </c>
     </row>
     <row r="49" ht="74" customHeight="1" spans="3:14">
       <c r="C49" s="29" t="s">
-        <v>924</v>
+        <v>930</v>
       </c>
       <c r="D49" s="30"/>
       <c r="E49" s="30"/>
@@ -16343,12 +16401,12 @@
     </row>
     <row r="50" spans="2:2">
       <c r="B50" s="28" t="s">
-        <v>925</v>
+        <v>931</v>
       </c>
     </row>
     <row r="51" ht="57" customHeight="1" spans="3:14">
       <c r="C51" s="29" t="s">
-        <v>926</v>
+        <v>932</v>
       </c>
       <c r="D51" s="30"/>
       <c r="E51" s="30"/>
@@ -16364,12 +16422,12 @@
     </row>
     <row r="52" spans="2:2">
       <c r="B52" s="28" t="s">
-        <v>927</v>
+        <v>933</v>
       </c>
     </row>
     <row r="53" ht="37" customHeight="1" spans="3:14">
       <c r="C53" s="29" t="s">
-        <v>928</v>
+        <v>934</v>
       </c>
       <c r="D53" s="29"/>
       <c r="E53" s="29"/>
@@ -16385,24 +16443,24 @@
     </row>
     <row r="55" spans="1:1">
       <c r="A55" s="25" t="s">
-        <v>929</v>
+        <v>935</v>
       </c>
     </row>
     <row r="56" spans="2:3">
       <c r="B56" s="28" t="s">
-        <v>930</v>
+        <v>936</v>
       </c>
       <c r="C56" s="32"/>
     </row>
     <row r="57" spans="3:3">
       <c r="C57" s="32" t="s">
-        <v>931</v>
+        <v>937</v>
       </c>
     </row>
     <row r="58" spans="3:14">
       <c r="C58" s="32"/>
       <c r="D58" s="29" t="s">
-        <v>932</v>
+        <v>938</v>
       </c>
       <c r="E58" s="29"/>
       <c r="F58" s="29"/>
@@ -16417,13 +16475,13 @@
     </row>
     <row r="59" spans="3:3">
       <c r="C59" s="32" t="s">
-        <v>933</v>
+        <v>939</v>
       </c>
     </row>
     <row r="60" ht="95" customHeight="1" spans="3:14">
       <c r="C60" s="32"/>
       <c r="D60" s="115" t="s">
-        <v>934</v>
+        <v>940</v>
       </c>
       <c r="E60" s="29"/>
       <c r="F60" s="29"/>
@@ -16438,13 +16496,13 @@
     </row>
     <row r="61" spans="3:3">
       <c r="C61" s="32" t="s">
-        <v>935</v>
+        <v>941</v>
       </c>
     </row>
     <row r="62" ht="108" customHeight="1" spans="3:14">
       <c r="C62" s="32"/>
       <c r="D62" s="29" t="s">
-        <v>936</v>
+        <v>942</v>
       </c>
       <c r="E62" s="29"/>
       <c r="F62" s="29"/>
@@ -16459,12 +16517,12 @@
     </row>
     <row r="63" spans="3:3">
       <c r="C63" s="32" t="s">
-        <v>937</v>
+        <v>943</v>
       </c>
     </row>
     <row r="64" ht="36" customHeight="1" spans="4:14">
       <c r="D64" s="29" t="s">
-        <v>938</v>
+        <v>944</v>
       </c>
       <c r="E64" s="29"/>
       <c r="F64" s="29"/>
@@ -16491,10 +16549,10 @@
     </row>
     <row r="66" ht="19" customHeight="1" spans="1:14">
       <c r="A66" s="25" t="s">
-        <v>939</v>
+        <v>945</v>
       </c>
       <c r="C66" s="29" t="s">
-        <v>940</v>
+        <v>946</v>
       </c>
       <c r="D66" s="29"/>
       <c r="E66" s="29"/>
@@ -16510,19 +16568,19 @@
     </row>
     <row r="67" spans="2:3">
       <c r="B67" s="28" t="s">
-        <v>941</v>
+        <v>947</v>
       </c>
       <c r="C67" s="32"/>
     </row>
     <row r="68" spans="3:3">
       <c r="C68" s="32" t="s">
-        <v>942</v>
+        <v>948</v>
       </c>
     </row>
     <row r="69" ht="72" customHeight="1" spans="3:14">
       <c r="C69" s="32"/>
       <c r="D69" s="115" t="s">
-        <v>943</v>
+        <v>949</v>
       </c>
       <c r="E69" s="29"/>
       <c r="F69" s="29"/>
@@ -16537,13 +16595,13 @@
     </row>
     <row r="70" spans="3:3">
       <c r="C70" s="32" t="s">
-        <v>944</v>
+        <v>950</v>
       </c>
     </row>
     <row r="71" ht="102" customHeight="1" spans="3:14">
       <c r="C71" s="32"/>
       <c r="D71" s="115" t="s">
-        <v>945</v>
+        <v>951</v>
       </c>
       <c r="E71" s="29"/>
       <c r="F71" s="29"/>
@@ -16558,7 +16616,7 @@
     </row>
     <row r="72" spans="3:13">
       <c r="C72" s="32" t="s">
-        <v>946</v>
+        <v>952</v>
       </c>
       <c r="D72"/>
       <c r="E72"/>
@@ -16574,7 +16632,7 @@
     <row r="73" spans="3:13">
       <c r="C73" s="32"/>
       <c r="D73" s="30" t="s">
-        <v>947</v>
+        <v>953</v>
       </c>
       <c r="E73" s="30"/>
       <c r="F73" s="30"/>
@@ -16588,7 +16646,7 @@
     </row>
     <row r="74" spans="3:13">
       <c r="C74" s="32" t="s">
-        <v>948</v>
+        <v>954</v>
       </c>
       <c r="D74"/>
       <c r="E74"/>
@@ -16604,7 +16662,7 @@
     <row r="75" ht="57" customHeight="1" spans="3:14">
       <c r="C75" s="32"/>
       <c r="D75" s="29" t="s">
-        <v>949</v>
+        <v>955</v>
       </c>
       <c r="E75" s="29"/>
       <c r="F75" s="29"/>
@@ -16619,13 +16677,13 @@
     </row>
     <row r="76" spans="3:3">
       <c r="C76" s="32" t="s">
-        <v>950</v>
+        <v>956</v>
       </c>
     </row>
     <row r="77" ht="108" customHeight="1" spans="3:14">
       <c r="C77" s="32"/>
       <c r="D77" s="115" t="s">
-        <v>951</v>
+        <v>957</v>
       </c>
       <c r="E77" s="29"/>
       <c r="F77" s="29"/>
@@ -16640,17 +16698,17 @@
     </row>
     <row r="79" spans="1:1">
       <c r="A79" s="25" t="s">
-        <v>952</v>
+        <v>958</v>
       </c>
     </row>
     <row r="80" spans="2:2">
       <c r="B80" s="28" t="s">
-        <v>953</v>
+        <v>959</v>
       </c>
     </row>
     <row r="81" ht="159" customHeight="1" spans="3:14">
       <c r="C81" s="29" t="s">
-        <v>954</v>
+        <v>960</v>
       </c>
       <c r="D81" s="29"/>
       <c r="E81" s="29"/>
@@ -16666,10 +16724,10 @@
     </row>
     <row r="82" spans="2:14">
       <c r="B82" s="28" t="s">
-        <v>955</v>
+        <v>961</v>
       </c>
       <c r="D82" s="29" t="s">
-        <v>956</v>
+        <v>962</v>
       </c>
       <c r="E82" s="29"/>
       <c r="F82" s="29"/>
@@ -16684,7 +16742,7 @@
     </row>
     <row r="83" ht="58" customHeight="1" spans="3:14">
       <c r="C83" s="29" t="s">
-        <v>957</v>
+        <v>963</v>
       </c>
       <c r="D83" s="29"/>
       <c r="E83" s="29"/>
@@ -16700,7 +16758,7 @@
     </row>
     <row r="84" ht="22" customHeight="1" spans="3:13">
       <c r="C84" s="33" t="s">
-        <v>958</v>
+        <v>964</v>
       </c>
       <c r="D84" s="29"/>
       <c r="E84" s="29"/>
@@ -16716,7 +16774,7 @@
     <row r="85" ht="161" customHeight="1" spans="3:14">
       <c r="C85" s="29"/>
       <c r="D85" s="29" t="s">
-        <v>959</v>
+        <v>965</v>
       </c>
       <c r="E85" s="29"/>
       <c r="F85" s="29"/>
@@ -16731,17 +16789,17 @@
     </row>
     <row r="86" spans="1:1">
       <c r="A86" s="25" t="s">
-        <v>960</v>
+        <v>966</v>
       </c>
     </row>
     <row r="87" spans="2:2">
       <c r="B87" s="28" t="s">
-        <v>961</v>
+        <v>967</v>
       </c>
     </row>
     <row r="88" ht="85" customHeight="1" spans="3:14">
       <c r="C88" s="29" t="s">
-        <v>962</v>
+        <v>968</v>
       </c>
       <c r="D88" s="29"/>
       <c r="E88" s="29"/>
@@ -16757,12 +16815,12 @@
     </row>
     <row r="89" spans="3:3">
       <c r="C89" s="32" t="s">
-        <v>963</v>
+        <v>969</v>
       </c>
     </row>
     <row r="90" ht="60" customHeight="1" spans="4:14">
       <c r="D90" s="29" t="s">
-        <v>964</v>
+        <v>970</v>
       </c>
       <c r="E90" s="29"/>
       <c r="F90" s="29"/>
@@ -16777,12 +16835,12 @@
     </row>
     <row r="91" spans="2:2">
       <c r="B91" s="28" t="s">
-        <v>965</v>
+        <v>971</v>
       </c>
     </row>
     <row r="92" ht="56" customHeight="1" spans="3:14">
       <c r="C92" s="29" t="s">
-        <v>966</v>
+        <v>972</v>
       </c>
       <c r="D92" s="29"/>
       <c r="E92" s="29"/>
@@ -16798,12 +16856,12 @@
     </row>
     <row r="93" spans="3:3">
       <c r="C93" s="32" t="s">
-        <v>967</v>
+        <v>973</v>
       </c>
     </row>
     <row r="94" ht="153" customHeight="1" spans="4:14">
       <c r="D94" s="29" t="s">
-        <v>968</v>
+        <v>974</v>
       </c>
       <c r="E94" s="29"/>
       <c r="F94" s="29"/>
@@ -16831,12 +16889,12 @@
     </row>
     <row r="96" ht="20" customHeight="1" spans="1:1">
       <c r="A96" s="25" t="s">
-        <v>969</v>
+        <v>975</v>
       </c>
     </row>
     <row r="97" ht="41" customHeight="1" spans="2:14">
       <c r="B97" s="29" t="s">
-        <v>970</v>
+        <v>976</v>
       </c>
       <c r="C97" s="29"/>
       <c r="D97" s="29"/>
@@ -16853,12 +16911,12 @@
     </row>
     <row r="98" ht="23" customHeight="1" spans="2:2">
       <c r="B98" s="28" t="s">
-        <v>971</v>
+        <v>977</v>
       </c>
     </row>
     <row r="99" ht="172" customHeight="1" spans="3:14">
       <c r="C99" s="29" t="s">
-        <v>972</v>
+        <v>978</v>
       </c>
       <c r="D99" s="29"/>
       <c r="E99" s="29"/>
@@ -16874,12 +16932,12 @@
     </row>
     <row r="100" spans="2:2">
       <c r="B100" s="28" t="s">
-        <v>973</v>
+        <v>979</v>
       </c>
     </row>
     <row r="101" ht="55" customHeight="1" spans="3:14">
       <c r="C101" s="29" t="s">
-        <v>974</v>
+        <v>980</v>
       </c>
       <c r="D101" s="29"/>
       <c r="E101" s="29"/>
@@ -16895,7 +16953,7 @@
     </row>
     <row r="102" ht="125" customHeight="1" spans="3:14">
       <c r="C102" s="34" t="s">
-        <v>975</v>
+        <v>981</v>
       </c>
       <c r="D102" s="35"/>
       <c r="E102" s="35"/>
@@ -16925,10 +16983,10 @@
     </row>
     <row r="104" ht="24" customHeight="1" spans="1:14">
       <c r="A104" s="25" t="s">
-        <v>976</v>
+        <v>982</v>
       </c>
       <c r="C104" s="29" t="s">
-        <v>977</v>
+        <v>983</v>
       </c>
       <c r="D104" s="29"/>
       <c r="E104" s="29"/>
@@ -16944,12 +17002,12 @@
     </row>
     <row r="105" ht="20" customHeight="1" spans="2:2">
       <c r="B105" s="28" t="s">
-        <v>978</v>
+        <v>984</v>
       </c>
     </row>
     <row r="106" ht="20" customHeight="1" spans="3:14">
       <c r="C106" s="30" t="s">
-        <v>979</v>
+        <v>985</v>
       </c>
       <c r="D106" s="30"/>
       <c r="E106" s="30"/>
@@ -16965,12 +17023,12 @@
     </row>
     <row r="107" ht="20" customHeight="1" spans="2:2">
       <c r="B107" s="28" t="s">
-        <v>980</v>
+        <v>986</v>
       </c>
     </row>
     <row r="108" ht="20" customHeight="1" spans="3:14">
       <c r="C108" s="30" t="s">
-        <v>981</v>
+        <v>987</v>
       </c>
       <c r="D108" s="30"/>
       <c r="E108" s="30"/>
@@ -16986,12 +17044,12 @@
     </row>
     <row r="109" ht="20" customHeight="1" spans="2:2">
       <c r="B109" s="28" t="s">
-        <v>982</v>
+        <v>988</v>
       </c>
     </row>
     <row r="110" ht="19" customHeight="1" spans="3:14">
       <c r="C110" s="29" t="s">
-        <v>983</v>
+        <v>989</v>
       </c>
       <c r="D110" s="29"/>
       <c r="E110" s="29"/>
@@ -17007,17 +17065,17 @@
     </row>
     <row r="112" ht="19" customHeight="1" spans="1:1">
       <c r="A112" s="25" t="s">
-        <v>984</v>
+        <v>990</v>
       </c>
     </row>
     <row r="113" spans="2:2">
       <c r="B113" s="28" t="s">
-        <v>985</v>
+        <v>991</v>
       </c>
     </row>
     <row r="114" ht="35" customHeight="1" spans="3:14">
       <c r="C114" s="29" t="s">
-        <v>986</v>
+        <v>992</v>
       </c>
       <c r="D114" s="29"/>
       <c r="E114" s="29"/>
@@ -17033,17 +17091,17 @@
     </row>
     <row r="115" spans="2:2">
       <c r="B115" s="28" t="s">
-        <v>987</v>
+        <v>993</v>
       </c>
     </row>
     <row r="116" spans="3:3">
       <c r="C116" s="32" t="s">
-        <v>988</v>
+        <v>994</v>
       </c>
     </row>
     <row r="117" ht="37" customHeight="1" spans="4:14">
       <c r="D117" s="29" t="s">
-        <v>989</v>
+        <v>995</v>
       </c>
       <c r="E117" s="29"/>
       <c r="F117" s="29"/>
@@ -17058,12 +17116,12 @@
     </row>
     <row r="118" spans="3:3">
       <c r="C118" s="32" t="s">
-        <v>990</v>
+        <v>996</v>
       </c>
     </row>
     <row r="119" spans="4:14">
       <c r="D119" s="29" t="s">
-        <v>991</v>
+        <v>997</v>
       </c>
       <c r="E119" s="29"/>
       <c r="F119" s="29"/>
@@ -17078,12 +17136,12 @@
     </row>
     <row r="120" spans="3:3">
       <c r="C120" s="32" t="s">
-        <v>992</v>
+        <v>998</v>
       </c>
     </row>
     <row r="121" ht="54" customHeight="1" spans="4:14">
       <c r="D121" s="29" t="s">
-        <v>993</v>
+        <v>999</v>
       </c>
       <c r="E121" s="29"/>
       <c r="F121" s="29"/>
@@ -17098,12 +17156,12 @@
     </row>
     <row r="122" spans="2:2">
       <c r="B122" s="28" t="s">
-        <v>994</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="123" ht="36" customHeight="1" spans="3:14">
       <c r="C123" s="29" t="s">
-        <v>995</v>
+        <v>1001</v>
       </c>
       <c r="D123" s="29"/>
       <c r="E123" s="29"/>
@@ -17119,17 +17177,17 @@
     </row>
     <row r="124" spans="2:2">
       <c r="B124" s="28" t="s">
-        <v>996</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="125" spans="3:3">
       <c r="C125" s="32" t="s">
-        <v>997</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="126" spans="4:14">
       <c r="D126" s="29" t="s">
-        <v>998</v>
+        <v>1004</v>
       </c>
       <c r="E126" s="29"/>
       <c r="F126" s="29"/>
@@ -17144,12 +17202,12 @@
     </row>
     <row r="127" spans="3:3">
       <c r="C127" s="32" t="s">
-        <v>999</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="128" ht="21" customHeight="1" spans="4:14">
       <c r="D128" s="29" t="s">
-        <v>1000</v>
+        <v>1006</v>
       </c>
       <c r="E128" s="29"/>
       <c r="F128" s="29"/>
@@ -17164,12 +17222,12 @@
     </row>
     <row r="129" ht="19" customHeight="1" spans="2:2">
       <c r="B129" s="28" t="s">
-        <v>1001</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="130" spans="3:13">
       <c r="C130" s="36" t="s">
-        <v>1002</v>
+        <v>1008</v>
       </c>
       <c r="D130" s="37"/>
       <c r="E130" s="37"/>
@@ -17185,7 +17243,7 @@
     <row r="131" ht="76" customHeight="1" spans="3:14">
       <c r="C131" s="36"/>
       <c r="D131" s="38" t="s">
-        <v>1003</v>
+        <v>1009</v>
       </c>
       <c r="E131" s="38"/>
       <c r="F131" s="38"/>
@@ -17200,7 +17258,7 @@
     </row>
     <row r="132" spans="3:13">
       <c r="C132" s="36" t="s">
-        <v>1004</v>
+        <v>1010</v>
       </c>
       <c r="D132" s="37"/>
       <c r="E132" s="37"/>
@@ -17216,7 +17274,7 @@
     <row r="133" ht="95" customHeight="1" spans="3:14">
       <c r="C133" s="36"/>
       <c r="D133" s="38" t="s">
-        <v>1005</v>
+        <v>1011</v>
       </c>
       <c r="E133" s="38"/>
       <c r="F133" s="38"/>
@@ -17231,7 +17289,7 @@
     </row>
     <row r="134" spans="3:13">
       <c r="C134" s="36" t="s">
-        <v>1006</v>
+        <v>1012</v>
       </c>
       <c r="D134" s="37"/>
       <c r="E134" s="37"/>
@@ -17247,7 +17305,7 @@
     <row r="135" ht="79" customHeight="1" spans="3:14">
       <c r="C135" s="36"/>
       <c r="D135" s="38" t="s">
-        <v>1007</v>
+        <v>1013</v>
       </c>
       <c r="E135" s="38"/>
       <c r="F135" s="38"/>
@@ -17262,12 +17320,12 @@
     </row>
     <row r="136" spans="3:3">
       <c r="C136" s="32" t="s">
-        <v>1008</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="137" ht="73" customHeight="1" spans="4:14">
       <c r="D137" s="38" t="s">
-        <v>1009</v>
+        <v>1015</v>
       </c>
       <c r="E137" s="38"/>
       <c r="F137" s="38"/>
@@ -17282,12 +17340,12 @@
     </row>
     <row r="138" spans="2:2">
       <c r="B138" s="28" t="s">
-        <v>1010</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="139" spans="3:14">
       <c r="C139" s="29" t="s">
-        <v>1011</v>
+        <v>1017</v>
       </c>
       <c r="D139" s="29"/>
       <c r="E139" s="29"/>
@@ -17303,10 +17361,10 @@
     </row>
     <row r="141" spans="1:14">
       <c r="A141" s="25" t="s">
-        <v>1012</v>
+        <v>1018</v>
       </c>
       <c r="C141" s="29" t="s">
-        <v>1013</v>
+        <v>1019</v>
       </c>
       <c r="D141" s="29"/>
       <c r="E141" s="29"/>
@@ -17322,7 +17380,7 @@
     </row>
     <row r="142" ht="187" customHeight="1" spans="2:14">
       <c r="B142" s="31" t="s">
-        <v>1014</v>
+        <v>1020</v>
       </c>
       <c r="C142" s="31"/>
       <c r="D142" s="31"/>
@@ -17339,12 +17397,12 @@
     </row>
     <row r="144" spans="1:1">
       <c r="A144" s="25" t="s">
-        <v>1015</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="145" ht="39" customHeight="1" spans="2:14">
       <c r="B145" s="31" t="s">
-        <v>1016</v>
+        <v>1022</v>
       </c>
       <c r="C145" s="31"/>
       <c r="D145" s="31"/>
@@ -17361,12 +17419,12 @@
     </row>
     <row r="146" spans="2:2">
       <c r="B146" s="28" t="s">
-        <v>1017</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="147" ht="220" customHeight="1" spans="3:14">
       <c r="C147" s="29" t="s">
-        <v>1018</v>
+        <v>1024</v>
       </c>
       <c r="D147" s="29"/>
       <c r="E147" s="29"/>
@@ -17382,10 +17440,10 @@
     </row>
     <row r="149" spans="1:14">
       <c r="A149" s="25" t="s">
-        <v>1019</v>
+        <v>1025</v>
       </c>
       <c r="C149" s="30" t="s">
-        <v>1020</v>
+        <v>1026</v>
       </c>
       <c r="D149" s="30"/>
       <c r="E149" s="30"/>
@@ -17401,12 +17459,12 @@
     </row>
     <row r="150" spans="2:2">
       <c r="B150" s="28" t="s">
-        <v>1021</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="151" ht="190" customHeight="1" spans="3:14">
       <c r="C151" s="29" t="s">
-        <v>1022</v>
+        <v>1028</v>
       </c>
       <c r="D151" s="29"/>
       <c r="E151" s="29"/>
@@ -17422,12 +17480,12 @@
     </row>
     <row r="152" spans="2:2">
       <c r="B152" s="28" t="s">
-        <v>1023</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="153" ht="117" customHeight="1" spans="3:14">
       <c r="C153" s="115" t="s">
-        <v>1024</v>
+        <v>1030</v>
       </c>
       <c r="D153" s="29"/>
       <c r="E153" s="29"/>
@@ -17443,10 +17501,10 @@
     </row>
     <row r="154" spans="1:14">
       <c r="A154" s="25" t="s">
-        <v>1025</v>
+        <v>1031</v>
       </c>
       <c r="C154" s="29" t="s">
-        <v>1026</v>
+        <v>1032</v>
       </c>
       <c r="D154" s="29"/>
       <c r="E154" s="29"/>
@@ -17462,12 +17520,12 @@
     </row>
     <row r="155" spans="2:2">
       <c r="B155" s="28" t="s">
-        <v>1027</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="156" ht="145" customHeight="1" spans="3:14">
       <c r="C156" s="29" t="s">
-        <v>1028</v>
+        <v>1034</v>
       </c>
       <c r="D156" s="29"/>
       <c r="E156" s="29"/>
@@ -17483,12 +17541,12 @@
     </row>
     <row r="157" spans="2:2">
       <c r="B157" s="28" t="s">
-        <v>1029</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="158" ht="102" customHeight="1" spans="3:14">
       <c r="C158" s="115" t="s">
-        <v>1030</v>
+        <v>1036</v>
       </c>
       <c r="D158" s="29"/>
       <c r="E158" s="29"/>
@@ -17504,12 +17562,12 @@
     </row>
     <row r="159" spans="2:2">
       <c r="B159" s="28" t="s">
-        <v>1031</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="160" ht="55" customHeight="1" spans="3:14">
       <c r="C160" s="29" t="s">
-        <v>1032</v>
+        <v>1038</v>
       </c>
       <c r="D160" s="29"/>
       <c r="E160" s="29"/>
@@ -17525,7 +17583,7 @@
     </row>
     <row r="161" ht="71" customHeight="1" spans="3:14">
       <c r="C161" s="29" t="s">
-        <v>1033</v>
+        <v>1039</v>
       </c>
       <c r="D161" s="29"/>
       <c r="E161" s="29"/>
@@ -17541,7 +17599,7 @@
     </row>
     <row r="162" ht="162" customHeight="1" spans="3:14">
       <c r="C162" s="29" t="s">
-        <v>1034</v>
+        <v>1040</v>
       </c>
       <c r="D162" s="29"/>
       <c r="E162" s="29"/>
@@ -17557,7 +17615,7 @@
     </row>
     <row r="163" ht="139" customHeight="1" spans="3:14">
       <c r="C163" s="29" t="s">
-        <v>1035</v>
+        <v>1041</v>
       </c>
       <c r="D163" s="29"/>
       <c r="E163" s="29"/>
@@ -17573,12 +17631,12 @@
     </row>
     <row r="164" spans="2:2">
       <c r="B164" s="28" t="s">
-        <v>1036</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="165" ht="54" customHeight="1" spans="3:14">
       <c r="C165" s="29" t="s">
-        <v>1037</v>
+        <v>1043</v>
       </c>
       <c r="D165" s="29"/>
       <c r="E165" s="29"/>
@@ -17594,20 +17652,20 @@
     </row>
     <row r="167" spans="1:1">
       <c r="A167" s="25" t="s">
-        <v>1038</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="168" spans="2:2">
       <c r="B168" s="28" t="s">
-        <v>1039</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="169" ht="77" customHeight="1" spans="3:14">
       <c r="C169" s="3" t="s">
-        <v>1040</v>
+        <v>1046</v>
       </c>
       <c r="D169" s="39" t="s">
-        <v>1041</v>
+        <v>1047</v>
       </c>
       <c r="E169" s="29"/>
       <c r="F169" s="29"/>
@@ -17627,7 +17685,7 @@
     </row>
     <row r="172" spans="4:14">
       <c r="D172" s="30" t="s">
-        <v>1042</v>
+        <v>1048</v>
       </c>
       <c r="E172" s="30"/>
       <c r="F172" s="30"/>
@@ -17642,10 +17700,10 @@
     </row>
     <row r="173" spans="2:14">
       <c r="B173" s="28" t="s">
-        <v>1043</v>
+        <v>1049</v>
       </c>
       <c r="D173" s="40" t="s">
-        <v>1044</v>
+        <v>1050</v>
       </c>
       <c r="E173" s="40"/>
       <c r="F173" s="40"/>
@@ -17660,7 +17718,7 @@
     </row>
     <row r="174" ht="83" customHeight="1" spans="3:14">
       <c r="C174" s="29" t="s">
-        <v>1045</v>
+        <v>1051</v>
       </c>
       <c r="D174" s="30"/>
       <c r="E174" s="30"/>
@@ -17676,17 +17734,17 @@
     </row>
     <row r="176" spans="1:1">
       <c r="A176" s="25" t="s">
-        <v>1046</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="177" spans="2:2">
       <c r="B177" s="28" t="s">
-        <v>1047</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="178" ht="72" customHeight="1" spans="3:14">
       <c r="C178" s="29" t="s">
-        <v>1048</v>
+        <v>1054</v>
       </c>
       <c r="D178" s="29"/>
       <c r="E178" s="29"/>
@@ -17702,12 +17760,12 @@
     </row>
     <row r="179" spans="2:2">
       <c r="B179" s="28" t="s">
-        <v>1049</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="180" ht="58" customHeight="1" spans="3:14">
       <c r="C180" s="29" t="s">
-        <v>1050</v>
+        <v>1056</v>
       </c>
       <c r="D180" s="29"/>
       <c r="E180" s="29"/>
@@ -17723,12 +17781,12 @@
     </row>
     <row r="182" spans="2:2">
       <c r="B182" s="28" t="s">
-        <v>1051</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="183" ht="37" customHeight="1" spans="3:14">
       <c r="C183" s="29" t="s">
-        <v>1052</v>
+        <v>1058</v>
       </c>
       <c r="D183" s="29"/>
       <c r="E183" s="29"/>
@@ -17744,12 +17802,12 @@
     </row>
     <row r="184" spans="2:2">
       <c r="B184" s="28" t="s">
-        <v>1053</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="185" ht="33" customHeight="1" spans="3:14">
       <c r="C185" s="29" t="s">
-        <v>1054</v>
+        <v>1060</v>
       </c>
       <c r="D185" s="29"/>
       <c r="E185" s="29"/>
@@ -17765,17 +17823,17 @@
     </row>
     <row r="187" spans="1:1">
       <c r="A187" s="25" t="s">
-        <v>1055</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="188" spans="2:2">
       <c r="B188" s="28" t="s">
-        <v>1056</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="189" ht="91" customHeight="1" spans="3:14">
       <c r="C189" s="29" t="s">
-        <v>1057</v>
+        <v>1063</v>
       </c>
       <c r="D189" s="29"/>
       <c r="E189" s="29"/>
@@ -17791,12 +17849,12 @@
     </row>
     <row r="190" spans="2:2">
       <c r="B190" s="28" t="s">
-        <v>1058</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="191" ht="178" customHeight="1" spans="3:14">
       <c r="C191" s="29" t="s">
-        <v>1059</v>
+        <v>1065</v>
       </c>
       <c r="D191" s="29"/>
       <c r="E191" s="29"/>
@@ -17928,339 +17986,339 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="25" t="s">
-        <v>1060</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="2" ht="35" customHeight="1" spans="2:2">
       <c r="B2" s="26" t="s">
-        <v>1061</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="3" ht="66" spans="2:2">
       <c r="B3" s="26" t="s">
-        <v>1062</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="25" t="s">
-        <v>1063</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="6" ht="33" spans="2:2">
       <c r="B6" s="26" t="s">
-        <v>1064</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:1">
       <c r="A8" s="25" t="s">
-        <v>1065</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="9" ht="82.5" spans="2:2">
       <c r="B9" s="26" t="s">
-        <v>1066</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="25" t="s">
-        <v>1067</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="12" spans="2:2">
       <c r="B12" s="26" t="s">
-        <v>1068</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" s="25" t="s">
-        <v>1069</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="16" ht="49.5" spans="2:2">
       <c r="B16" s="26" t="s">
-        <v>1070</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="18" ht="66" spans="2:2">
       <c r="B18" s="26" t="s">
-        <v>1071</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" s="25" t="s">
-        <v>1072</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="21" spans="2:2">
       <c r="B21" s="26" t="s">
-        <v>1073</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" s="25" t="s">
-        <v>1074</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="24" ht="99" spans="2:2">
       <c r="B24" s="26" t="s">
-        <v>1075</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" s="25" t="s">
-        <v>1076</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="27" ht="165" spans="2:2">
       <c r="B27" s="26" t="s">
-        <v>1077</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" s="25" t="s">
-        <v>1078</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="30" ht="49.5" spans="2:2">
       <c r="B30" s="26" t="s">
-        <v>1079</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32" s="25" t="s">
-        <v>1080</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="33" ht="82.5" spans="2:2">
       <c r="B33" s="26" t="s">
-        <v>1081</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" s="25" t="s">
-        <v>1082</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="36" ht="66" spans="2:2">
       <c r="B36" s="26" t="s">
-        <v>1083</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38" s="25" t="s">
-        <v>1084</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="39" ht="49.5" spans="2:2">
       <c r="B39" s="26" t="s">
-        <v>1085</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41" s="25" t="s">
-        <v>1086</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="42" ht="66" spans="2:2">
       <c r="B42" s="26" t="s">
-        <v>1087</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44" s="25" t="s">
-        <v>1088</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="45" ht="66" spans="2:2">
       <c r="B45" s="26" t="s">
-        <v>1089</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47" s="25" t="s">
-        <v>1090</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="48" ht="49.5" spans="2:2">
       <c r="B48" s="26" t="s">
-        <v>1091</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="50" spans="1:1">
       <c r="A50" s="25" t="s">
-        <v>1092</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="51" ht="82.5" spans="2:2">
       <c r="B51" s="26" t="s">
-        <v>1093</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="53" spans="1:1">
       <c r="A53" s="25" t="s">
-        <v>1094</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="54" ht="33" spans="2:2">
       <c r="B54" s="26" t="s">
-        <v>1095</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="56" spans="1:1">
       <c r="A56" s="25" t="s">
-        <v>1096</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="57" ht="49.5" spans="2:2">
       <c r="B57" s="26" t="s">
-        <v>1097</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="59" spans="1:1">
       <c r="A59" s="25" t="s">
-        <v>1098</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="60" ht="33" spans="2:2">
       <c r="B60" s="26" t="s">
-        <v>1099</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="62" spans="1:1">
       <c r="A62" s="25" t="s">
-        <v>1100</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="63" ht="82.5" spans="2:2">
       <c r="B63" s="26" t="s">
-        <v>1101</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="64" spans="2:2">
       <c r="B64" s="26" t="s">
-        <v>1102</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="66" spans="1:1">
       <c r="A66" s="25" t="s">
-        <v>1103</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="67" spans="2:2">
       <c r="B67" s="26" t="s">
-        <v>1104</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69" s="25" t="s">
-        <v>1105</v>
+        <v>1111</v>
       </c>
       <c r="B69" s="26" t="s">
-        <v>1106</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="70" ht="33" spans="2:2">
       <c r="B70" s="26" t="s">
-        <v>1107</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="71" ht="49.5" spans="2:2">
       <c r="B71" s="26" t="s">
-        <v>1108</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="73" spans="1:1">
       <c r="A73" s="25" t="s">
-        <v>1109</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="74" ht="33" spans="2:2">
       <c r="B74" s="26" t="s">
-        <v>1110</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="76" spans="1:1">
       <c r="A76" s="25" t="s">
-        <v>1111</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="77" spans="2:2">
       <c r="B77" s="26" t="s">
-        <v>1112</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="79" spans="1:1">
       <c r="A79" s="25" t="s">
-        <v>1113</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="80" ht="132" spans="2:2">
       <c r="B80" s="26" t="s">
-        <v>1114</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="82" spans="1:1">
       <c r="A82" s="25" t="s">
-        <v>1115</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="83" spans="2:2">
       <c r="B83" s="26" t="s">
-        <v>1116</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="84" ht="49.5" spans="2:2">
       <c r="B84" s="26" t="s">
-        <v>1117</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="86" spans="1:2">
       <c r="A86" s="25" t="s">
-        <v>1118</v>
+        <v>1124</v>
       </c>
       <c r="B86" s="26" t="s">
-        <v>1119</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="87" ht="33" spans="2:2">
       <c r="B87" s="26" t="s">
-        <v>1120</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="88" ht="66" spans="2:2">
       <c r="B88" s="26" t="s">
-        <v>1121</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="90" spans="1:2">
       <c r="A90" s="25" t="s">
-        <v>1122</v>
+        <v>1128</v>
       </c>
       <c r="B90" s="26" t="s">
-        <v>1123</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="91" ht="148.5" spans="2:2">
       <c r="B91" s="26" t="s">
-        <v>1124</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="92" ht="82.5" spans="2:2">
       <c r="B92" s="26" t="s">
-        <v>1125</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="94" ht="33" spans="1:2">
       <c r="A94" s="25" t="s">
-        <v>1126</v>
+        <v>1132</v>
       </c>
       <c r="B94" s="26" t="s">
-        <v>1127</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="95" ht="115.5" spans="2:2">
       <c r="B95" s="26" t="s">
-        <v>1128</v>
+        <v>1134</v>
       </c>
     </row>
   </sheetData>
@@ -18291,721 +18349,721 @@
   <sheetData>
     <row r="1" customHeight="1" spans="1:3">
       <c r="A1" s="8" t="s">
-        <v>1129</v>
+        <v>1135</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>1130</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="2" ht="18" spans="2:3">
       <c r="B2" s="9" t="s">
-        <v>1131</v>
+        <v>1137</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>1132</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="2:2">
       <c r="B3" s="9" t="s">
-        <v>1133</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="3:4">
       <c r="C4" s="10" t="s">
-        <v>1134</v>
+        <v>1140</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>1135</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="5" ht="33" spans="3:4">
       <c r="C5" s="10" t="s">
-        <v>742</v>
+        <v>748</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>1136</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="3:4">
       <c r="C6" s="10" t="s">
-        <v>1137</v>
+        <v>1143</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>1138</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="2:2">
       <c r="B7" s="9" t="s">
-        <v>1139</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="8" ht="49.5" spans="3:4">
       <c r="C8" s="14" t="s">
-        <v>1140</v>
+        <v>1146</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>1141</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="9" ht="165" spans="3:4">
       <c r="C9" s="10" t="s">
-        <v>1142</v>
+        <v>1148</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>1143</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="3:3">
       <c r="C10" s="10" t="s">
-        <v>1144</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="3:4">
       <c r="C11" s="10" t="s">
-        <v>1145</v>
+        <v>1151</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>1146</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="3:3">
       <c r="C12" s="10" t="s">
-        <v>1147</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="13" ht="82.5" spans="3:4">
       <c r="C13" s="10" t="s">
-        <v>1148</v>
+        <v>1154</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>1149</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="14" ht="165" spans="3:4">
       <c r="C14" s="10" t="s">
-        <v>1150</v>
+        <v>1156</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>1151</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="17" customHeight="1" spans="2:3">
       <c r="B17" s="15" t="s">
-        <v>1152</v>
+        <v>1158</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>1153</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="18" customHeight="1" spans="3:3">
       <c r="C18" s="10" t="s">
-        <v>1154</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="19" ht="231" spans="3:4">
       <c r="C19" s="16" t="s">
-        <v>1155</v>
+        <v>1161</v>
       </c>
       <c r="D19" s="11" t="s">
-        <v>1156</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="20" ht="99" spans="3:4">
       <c r="C20" s="16" t="s">
-        <v>1157</v>
+        <v>1163</v>
       </c>
       <c r="D20" s="11" t="s">
-        <v>1158</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="21" ht="148.5" spans="3:4">
       <c r="C21" s="10" t="s">
-        <v>1159</v>
+        <v>1165</v>
       </c>
       <c r="D21" s="11" t="s">
-        <v>1160</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="22" ht="132" spans="3:4">
       <c r="C22" s="10" t="s">
-        <v>1161</v>
+        <v>1167</v>
       </c>
       <c r="D22" s="11" t="s">
-        <v>1162</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="23" ht="33" spans="3:4">
       <c r="C23" s="10" t="s">
-        <v>1163</v>
+        <v>1169</v>
       </c>
       <c r="D23" s="11" t="s">
-        <v>1164</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="25" customHeight="1" spans="2:2">
       <c r="B25" s="9" t="s">
-        <v>1165</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="26" customHeight="1" spans="3:4">
       <c r="C26" s="10" t="s">
-        <v>1166</v>
+        <v>1172</v>
       </c>
       <c r="D26" s="11" t="s">
-        <v>1167</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="27" customHeight="1" spans="3:3">
       <c r="C27" s="10" t="s">
-        <v>1168</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="28" ht="33" spans="3:4">
       <c r="C28" s="16" t="s">
-        <v>1169</v>
+        <v>1175</v>
       </c>
       <c r="D28" s="11" t="s">
-        <v>1170</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="29" customHeight="1" spans="3:4">
       <c r="C29" s="16" t="s">
-        <v>1171</v>
+        <v>1177</v>
       </c>
       <c r="D29" s="11" t="s">
-        <v>1172</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="30" ht="33" spans="3:4">
       <c r="C30" s="16" t="s">
-        <v>1173</v>
+        <v>1179</v>
       </c>
       <c r="D30" s="11" t="s">
-        <v>1174</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="31" customHeight="1" spans="3:4">
       <c r="C31" s="16" t="s">
-        <v>1175</v>
+        <v>1181</v>
       </c>
       <c r="D31" s="11" t="s">
-        <v>1176</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="32" customHeight="1" spans="2:4">
       <c r="B32" s="9" t="s">
-        <v>1177</v>
+        <v>1183</v>
       </c>
       <c r="D32" s="11" t="s">
-        <v>1178</v>
+        <v>1184</v>
       </c>
     </row>
     <row r="33" ht="49.5" spans="3:4">
       <c r="C33" s="10" t="s">
-        <v>1179</v>
+        <v>1185</v>
       </c>
       <c r="D33" s="11" t="s">
-        <v>1180</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="34" customHeight="1" spans="3:4">
       <c r="C34" s="10" t="s">
-        <v>1181</v>
+        <v>1187</v>
       </c>
       <c r="D34" s="11" t="s">
-        <v>1182</v>
+        <v>1188</v>
       </c>
     </row>
     <row r="35" ht="33" spans="3:4">
       <c r="C35" s="14" t="s">
-        <v>1183</v>
+        <v>1189</v>
       </c>
       <c r="D35" s="11" t="s">
-        <v>1184</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="36" customHeight="1" spans="3:4">
       <c r="C36" s="10" t="s">
-        <v>1185</v>
+        <v>1191</v>
       </c>
       <c r="D36" s="11" t="s">
-        <v>1186</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="37" customHeight="1" spans="3:4">
       <c r="C37" s="10" t="s">
-        <v>1187</v>
+        <v>1193</v>
       </c>
       <c r="D37" s="11" t="s">
-        <v>1188</v>
+        <v>1194</v>
       </c>
     </row>
     <row r="38" customHeight="1" spans="1:4">
       <c r="A38" s="8" t="s">
-        <v>1189</v>
+        <v>1195</v>
       </c>
       <c r="D38" s="11" t="s">
-        <v>1190</v>
+        <v>1196</v>
       </c>
     </row>
     <row r="39" customHeight="1" spans="2:4">
       <c r="B39" s="9" t="s">
-        <v>1191</v>
+        <v>1197</v>
       </c>
       <c r="D39" s="11" t="s">
-        <v>1192</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="40" customHeight="1" spans="3:4">
       <c r="C40" s="10" t="s">
-        <v>1193</v>
+        <v>1199</v>
       </c>
       <c r="D40" s="11" t="s">
-        <v>1194</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="41" customHeight="1" spans="3:4">
       <c r="C41" s="10" t="s">
-        <v>1195</v>
+        <v>1201</v>
       </c>
       <c r="D41" s="11" t="s">
-        <v>1196</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="42" customHeight="1" spans="2:2">
       <c r="B42" s="10" t="s">
-        <v>1197</v>
+        <v>1203</v>
       </c>
     </row>
     <row r="43" ht="66" spans="3:4">
       <c r="C43" s="10" t="s">
-        <v>1198</v>
+        <v>1204</v>
       </c>
       <c r="D43" s="11" t="s">
-        <v>1199</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="44" ht="33" spans="3:4">
       <c r="C44" s="10" t="s">
-        <v>581</v>
+        <v>587</v>
       </c>
       <c r="D44" s="11" t="s">
-        <v>1200</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="45" ht="148" customHeight="1" spans="3:4">
       <c r="C45" s="10" t="s">
-        <v>1201</v>
+        <v>1207</v>
       </c>
       <c r="D45" s="11" t="s">
-        <v>1202</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="46" customHeight="1" spans="3:4">
       <c r="C46" s="10" t="s">
-        <v>583</v>
+        <v>589</v>
       </c>
       <c r="D46" s="11" t="s">
-        <v>1203</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="47" customHeight="1" spans="2:4">
       <c r="B47" s="9" t="s">
-        <v>1204</v>
+        <v>1210</v>
       </c>
       <c r="C47" s="10" t="s">
-        <v>1166</v>
+        <v>1172</v>
       </c>
       <c r="D47" s="11" t="s">
-        <v>1167</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="48" ht="120" customHeight="1" spans="3:4">
       <c r="C48" s="10" t="s">
-        <v>1198</v>
+        <v>1204</v>
       </c>
       <c r="D48" s="11" t="s">
-        <v>1205</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="49" ht="33" spans="3:4">
       <c r="C49" s="10" t="s">
-        <v>581</v>
+        <v>587</v>
       </c>
       <c r="D49" s="11" t="s">
-        <v>1206</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="50" ht="115.5" spans="3:4">
       <c r="C50" s="10" t="s">
-        <v>1201</v>
+        <v>1207</v>
       </c>
       <c r="D50" s="11" t="s">
-        <v>1207</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="51" customHeight="1" spans="3:4">
       <c r="C51" s="10" t="s">
-        <v>583</v>
+        <v>589</v>
       </c>
       <c r="D51" s="11" t="s">
-        <v>1208</v>
+        <v>1214</v>
       </c>
     </row>
     <row r="52" ht="33" spans="2:4">
       <c r="B52" s="9" t="s">
-        <v>1209</v>
+        <v>1215</v>
       </c>
       <c r="C52" s="10" t="s">
-        <v>1166</v>
+        <v>1172</v>
       </c>
       <c r="D52" s="11" t="s">
-        <v>1210</v>
+        <v>1216</v>
       </c>
     </row>
     <row r="53" ht="33" spans="3:4">
       <c r="C53" s="10" t="s">
-        <v>1198</v>
+        <v>1204</v>
       </c>
       <c r="D53" s="11" t="s">
-        <v>1211</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="54" ht="27" customHeight="1" spans="3:4">
       <c r="C54" s="10" t="s">
-        <v>581</v>
+        <v>587</v>
       </c>
       <c r="D54" s="11" t="s">
-        <v>1212</v>
+        <v>1218</v>
       </c>
     </row>
     <row r="55" ht="165" spans="3:4">
       <c r="C55" s="10" t="s">
-        <v>1201</v>
+        <v>1207</v>
       </c>
       <c r="D55" s="11" t="s">
-        <v>1213</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="56" customHeight="1" spans="3:4">
       <c r="C56" s="10" t="s">
-        <v>583</v>
+        <v>589</v>
       </c>
       <c r="D56" s="11" t="s">
-        <v>1214</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="57" customHeight="1" spans="1:1">
       <c r="A57" s="8" t="s">
-        <v>1215</v>
+        <v>1221</v>
       </c>
     </row>
     <row r="58" ht="49.5" spans="2:4">
       <c r="B58" s="17" t="s">
-        <v>1216</v>
+        <v>1222</v>
       </c>
       <c r="C58" s="17"/>
       <c r="D58" s="11" t="s">
-        <v>1217</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="59" ht="31" customHeight="1" spans="2:4">
       <c r="B59" s="18" t="s">
-        <v>1218</v>
+        <v>1224</v>
       </c>
       <c r="C59" s="18"/>
       <c r="D59" s="11" t="s">
-        <v>1219</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="60" ht="18" spans="2:4">
       <c r="B60" s="18" t="s">
-        <v>1220</v>
+        <v>1226</v>
       </c>
       <c r="C60" s="18"/>
       <c r="D60" s="11" t="s">
-        <v>1212</v>
+        <v>1218</v>
       </c>
     </row>
     <row r="61" ht="61" customHeight="1" spans="2:4">
       <c r="B61" s="18" t="s">
-        <v>1221</v>
+        <v>1227</v>
       </c>
       <c r="C61" s="18"/>
       <c r="D61" s="11" t="s">
-        <v>1222</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="62" ht="90" customHeight="1" spans="2:4">
       <c r="B62" s="18" t="s">
-        <v>1223</v>
+        <v>1229</v>
       </c>
       <c r="C62" s="18"/>
       <c r="D62" s="11" t="s">
-        <v>1224</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="63" ht="181.5" spans="2:4">
       <c r="B63" s="19" t="s">
-        <v>1225</v>
+        <v>1231</v>
       </c>
       <c r="C63" s="19"/>
       <c r="D63" s="11" t="s">
-        <v>1226</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="64" ht="18" spans="2:4">
       <c r="B64" s="19"/>
       <c r="C64" s="19" t="s">
-        <v>1227</v>
+        <v>1233</v>
       </c>
       <c r="D64" s="11" t="s">
-        <v>1228</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="65" ht="33" spans="2:4">
       <c r="B65" s="19"/>
       <c r="C65" s="19" t="s">
-        <v>1229</v>
+        <v>1235</v>
       </c>
       <c r="D65" s="11" t="s">
-        <v>1230</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="66" ht="18" spans="2:4">
       <c r="B66" s="19"/>
       <c r="C66" s="19" t="s">
-        <v>1231</v>
+        <v>1237</v>
       </c>
       <c r="D66" s="11" t="s">
-        <v>1232</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="67" ht="18" spans="2:4">
       <c r="B67" s="19"/>
       <c r="C67" s="19" t="s">
-        <v>1233</v>
+        <v>1239</v>
       </c>
       <c r="D67" s="11" t="s">
-        <v>1234</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="68" ht="18" spans="2:4">
       <c r="B68" s="19"/>
       <c r="C68" s="19" t="s">
-        <v>1235</v>
+        <v>1241</v>
       </c>
       <c r="D68" s="11" t="s">
-        <v>1236</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="69" ht="18" spans="2:4">
       <c r="B69" s="19"/>
       <c r="C69" s="19" t="s">
-        <v>1237</v>
+        <v>1243</v>
       </c>
       <c r="D69" s="11" t="s">
-        <v>1238</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="70" ht="56" customHeight="1" spans="2:3">
       <c r="B70" s="18" t="s">
-        <v>1239</v>
+        <v>1245</v>
       </c>
       <c r="C70" s="19"/>
     </row>
     <row r="71" ht="29" customHeight="1" spans="2:4">
       <c r="B71" s="19"/>
       <c r="C71" s="19" t="s">
-        <v>1240</v>
+        <v>1246</v>
       </c>
       <c r="D71" s="11" t="s">
-        <v>1241</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="72" ht="29" customHeight="1" spans="2:4">
       <c r="B72" s="19"/>
       <c r="C72" s="19" t="s">
-        <v>1242</v>
+        <v>1248</v>
       </c>
       <c r="D72" s="11" t="s">
-        <v>1243</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="73" ht="18" spans="2:3">
       <c r="B73" s="18" t="s">
-        <v>1244</v>
+        <v>1250</v>
       </c>
       <c r="C73" s="18"/>
     </row>
     <row r="74" customHeight="1" spans="1:4">
       <c r="A74" s="8" t="s">
-        <v>1245</v>
+        <v>1251</v>
       </c>
       <c r="D74" s="11" t="s">
-        <v>1246</v>
+        <v>1252</v>
       </c>
     </row>
     <row r="75" ht="82.5" spans="2:4">
       <c r="B75" s="9" t="s">
-        <v>1247</v>
+        <v>1253</v>
       </c>
       <c r="C75" s="10" t="s">
-        <v>1248</v>
+        <v>1254</v>
       </c>
       <c r="D75" s="11" t="s">
-        <v>1249</v>
+        <v>1255</v>
       </c>
     </row>
     <row r="76" customHeight="1" spans="3:4">
       <c r="C76" s="10" t="s">
-        <v>1250</v>
+        <v>1256</v>
       </c>
       <c r="D76" s="11" t="s">
-        <v>1251</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="77" customHeight="1" spans="2:3">
       <c r="B77" s="9" t="s">
-        <v>1252</v>
+        <v>1258</v>
       </c>
       <c r="C77" s="10" t="s">
-        <v>1248</v>
+        <v>1254</v>
       </c>
     </row>
     <row r="78" customHeight="1" spans="3:3">
       <c r="C78" s="10" t="s">
-        <v>1250</v>
+        <v>1256</v>
       </c>
     </row>
     <row r="79" customHeight="1" spans="1:1">
       <c r="A79" s="8" t="s">
-        <v>1253</v>
+        <v>1259</v>
       </c>
     </row>
     <row r="80" ht="132" spans="2:4">
       <c r="B80" s="9" t="s">
-        <v>1254</v>
+        <v>1260</v>
       </c>
       <c r="C80" s="10" t="s">
-        <v>1255</v>
+        <v>1261</v>
       </c>
       <c r="D80" s="11" t="s">
-        <v>1256</v>
+        <v>1262</v>
       </c>
     </row>
     <row r="81" customHeight="1" spans="2:4">
       <c r="B81" s="9" t="s">
-        <v>1257</v>
+        <v>1263</v>
       </c>
       <c r="D81" s="11" t="s">
-        <v>1258</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="82" customHeight="1" spans="2:4">
       <c r="B82" s="9" t="s">
-        <v>1259</v>
+        <v>1265</v>
       </c>
       <c r="D82" s="11" t="s">
-        <v>1260</v>
+        <v>1266</v>
       </c>
     </row>
     <row r="83" customHeight="1" spans="2:4">
       <c r="B83" s="9" t="s">
-        <v>581</v>
+        <v>587</v>
       </c>
       <c r="D83" s="11" t="s">
-        <v>1261</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="84" customHeight="1" spans="1:1">
       <c r="A84" s="8" t="s">
-        <v>1262</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="85" ht="18" spans="2:4">
       <c r="B85" s="9" t="s">
-        <v>944</v>
+        <v>950</v>
       </c>
       <c r="C85" s="10" t="s">
-        <v>1263</v>
+        <v>1269</v>
       </c>
       <c r="D85" s="117" t="s">
-        <v>1264</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="86" customHeight="1" spans="2:4">
       <c r="B86" s="9" t="s">
-        <v>942</v>
+        <v>948</v>
       </c>
       <c r="C86" s="10" t="s">
-        <v>1265</v>
+        <v>1271</v>
       </c>
       <c r="D86" s="117" t="s">
-        <v>1266</v>
+        <v>1272</v>
       </c>
     </row>
     <row r="87" customHeight="1" spans="2:4">
       <c r="B87" s="9" t="s">
-        <v>1267</v>
+        <v>1273</v>
       </c>
       <c r="C87" s="10" t="s">
-        <v>1268</v>
+        <v>1274</v>
       </c>
       <c r="D87" s="11" t="s">
-        <v>1269</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="88" customHeight="1" spans="3:4">
       <c r="C88" s="10" t="s">
-        <v>1270</v>
+        <v>1276</v>
       </c>
       <c r="D88" s="11" t="s">
-        <v>1271</v>
+        <v>1277</v>
       </c>
     </row>
     <row r="89" customHeight="1" spans="3:4">
       <c r="C89" s="10" t="s">
-        <v>1272</v>
+        <v>1278</v>
       </c>
       <c r="D89" s="11" t="s">
-        <v>1273</v>
+        <v>1279</v>
       </c>
     </row>
     <row r="90" customHeight="1" spans="2:4">
       <c r="B90" s="9" t="s">
-        <v>948</v>
+        <v>954</v>
       </c>
       <c r="C90" s="10" t="s">
-        <v>1274</v>
+        <v>1280</v>
       </c>
       <c r="D90" s="11" t="s">
-        <v>1275</v>
+        <v>1281</v>
       </c>
     </row>
     <row r="91" customHeight="1" spans="3:4">
       <c r="C91" s="10" t="s">
-        <v>1276</v>
+        <v>1282</v>
       </c>
       <c r="D91" s="11" t="s">
-        <v>1277</v>
+        <v>1283</v>
       </c>
     </row>
     <row r="92" customHeight="1" spans="3:4">
       <c r="C92" s="20" t="s">
-        <v>1278</v>
+        <v>1284</v>
       </c>
       <c r="D92" s="11" t="s">
-        <v>1279</v>
+        <v>1285</v>
       </c>
     </row>
     <row r="93" customHeight="1" spans="2:12">
       <c r="B93" s="8"/>
       <c r="C93" s="20" t="s">
-        <v>1280</v>
+        <v>1286</v>
       </c>
       <c r="D93" s="14" t="s">
-        <v>1281</v>
+        <v>1287</v>
       </c>
       <c r="E93" s="22"/>
       <c r="L93" s="12"/>
@@ -19013,400 +19071,400 @@
     <row r="94" customHeight="1" spans="2:12">
       <c r="B94" s="8"/>
       <c r="C94" s="20" t="s">
-        <v>1282</v>
+        <v>1288</v>
       </c>
       <c r="D94" s="14" t="s">
-        <v>1283</v>
+        <v>1289</v>
       </c>
       <c r="E94" s="22"/>
       <c r="L94" s="12"/>
     </row>
     <row r="95" ht="33" spans="2:4">
       <c r="B95" s="9" t="s">
-        <v>1284</v>
+        <v>1290</v>
       </c>
       <c r="C95" s="21" t="s">
-        <v>1285</v>
+        <v>1291</v>
       </c>
       <c r="D95" s="11" t="s">
-        <v>1286</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="97" customHeight="1" spans="2:4">
       <c r="B97" s="9" t="s">
-        <v>1287</v>
+        <v>1293</v>
       </c>
       <c r="D97" s="11" t="s">
-        <v>1288</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="98" customHeight="1" spans="2:4">
       <c r="B98" s="9" t="s">
-        <v>1289</v>
+        <v>1295</v>
       </c>
       <c r="C98" s="10" t="s">
-        <v>1290</v>
+        <v>1296</v>
       </c>
       <c r="D98" s="11" t="s">
-        <v>1291</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="99" customHeight="1" spans="2:4">
       <c r="B99" s="9" t="s">
-        <v>1292</v>
+        <v>1298</v>
       </c>
       <c r="C99" s="10" t="s">
-        <v>1293</v>
+        <v>1299</v>
       </c>
       <c r="D99" s="11" t="s">
-        <v>1294</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="100" customHeight="1" spans="3:4">
       <c r="C100" s="10" t="s">
-        <v>1295</v>
+        <v>1301</v>
       </c>
       <c r="D100" s="11" t="s">
-        <v>1296</v>
+        <v>1302</v>
       </c>
     </row>
     <row r="101" customHeight="1" spans="3:4">
       <c r="C101" s="10" t="s">
-        <v>1297</v>
+        <v>1303</v>
       </c>
       <c r="D101" s="11" t="s">
-        <v>1298</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="102" customHeight="1" spans="3:4">
       <c r="C102" s="10" t="s">
-        <v>1299</v>
+        <v>1305</v>
       </c>
       <c r="D102" s="11" t="s">
-        <v>1300</v>
+        <v>1306</v>
       </c>
     </row>
     <row r="103" customHeight="1" spans="3:4">
       <c r="C103" s="10" t="s">
-        <v>1301</v>
+        <v>1307</v>
       </c>
       <c r="D103" s="11" t="s">
-        <v>1302</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="104" customHeight="1" spans="2:3">
       <c r="B104" s="9" t="s">
-        <v>1303</v>
+        <v>1309</v>
       </c>
       <c r="C104" s="10" t="s">
-        <v>1304</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="105" customHeight="1" spans="2:3">
       <c r="B105" s="9" t="s">
-        <v>1305</v>
+        <v>1311</v>
       </c>
       <c r="C105" s="10" t="s">
-        <v>1306</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="106" customHeight="1" spans="2:4">
       <c r="B106" s="9" t="s">
-        <v>1307</v>
+        <v>1313</v>
       </c>
       <c r="C106" s="10" t="s">
-        <v>1308</v>
+        <v>1314</v>
       </c>
       <c r="D106" s="11" t="s">
-        <v>1309</v>
+        <v>1315</v>
       </c>
     </row>
     <row r="107" customHeight="1" spans="2:4">
       <c r="B107" s="9" t="s">
-        <v>1310</v>
+        <v>1316</v>
       </c>
       <c r="C107" s="10" t="s">
-        <v>1311</v>
+        <v>1317</v>
       </c>
       <c r="D107" s="11" t="s">
-        <v>1312</v>
+        <v>1318</v>
       </c>
     </row>
     <row r="108" customHeight="1" spans="3:4">
       <c r="C108" s="10" t="s">
-        <v>1313</v>
+        <v>1319</v>
       </c>
       <c r="D108" s="11" t="s">
-        <v>1314</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="109" customHeight="1" spans="3:4">
       <c r="C109" s="10" t="s">
-        <v>1315</v>
+        <v>1321</v>
       </c>
       <c r="D109" s="11" t="s">
-        <v>1316</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="111" customHeight="1" spans="1:1">
       <c r="A111" s="8" t="s">
-        <v>1317</v>
+        <v>1323</v>
       </c>
     </row>
     <row r="112" customHeight="1" spans="2:2">
       <c r="B112" s="9" t="s">
-        <v>1318</v>
+        <v>1324</v>
       </c>
     </row>
     <row r="113" customHeight="1" spans="3:4">
       <c r="C113" s="20" t="s">
-        <v>1166</v>
+        <v>1172</v>
       </c>
       <c r="D113" s="11" t="s">
-        <v>1319</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="114" customHeight="1" spans="3:4">
       <c r="C114" s="20" t="s">
-        <v>958</v>
+        <v>964</v>
       </c>
       <c r="D114" s="11" t="s">
-        <v>1320</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="115" customHeight="1" spans="2:2">
       <c r="B115" s="9" t="s">
-        <v>1321</v>
+        <v>1327</v>
       </c>
     </row>
     <row r="116" customHeight="1" spans="3:3">
       <c r="C116" s="10" t="s">
-        <v>1322</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="117" customHeight="1" spans="3:4">
       <c r="C117" s="10" t="s">
-        <v>1323</v>
+        <v>1329</v>
       </c>
       <c r="D117" s="11" t="s">
-        <v>1324</v>
+        <v>1330</v>
       </c>
     </row>
     <row r="118" customHeight="1" spans="2:2">
       <c r="B118" s="9" t="s">
-        <v>1317</v>
+        <v>1323</v>
       </c>
     </row>
     <row r="119" customHeight="1" spans="3:3">
       <c r="C119" s="10" t="s">
-        <v>1322</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="120" customHeight="1" spans="3:4">
       <c r="C120" s="10" t="s">
-        <v>1323</v>
+        <v>1329</v>
       </c>
       <c r="D120" s="11" t="s">
-        <v>1325</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="121" customHeight="1" spans="2:4">
       <c r="B121" s="9" t="s">
-        <v>1317</v>
+        <v>1323</v>
       </c>
       <c r="C121" s="10" t="s">
-        <v>1323</v>
+        <v>1329</v>
       </c>
       <c r="D121" s="11" t="s">
-        <v>1326</v>
+        <v>1332</v>
       </c>
     </row>
     <row r="122" customHeight="1" spans="2:4">
       <c r="B122" s="9" t="s">
-        <v>1327</v>
+        <v>1333</v>
       </c>
       <c r="C122" s="10" t="s">
-        <v>1328</v>
+        <v>1334</v>
       </c>
       <c r="D122" s="11" t="s">
-        <v>1329</v>
+        <v>1335</v>
       </c>
     </row>
     <row r="123" customHeight="1" spans="3:4">
       <c r="C123" s="10" t="s">
-        <v>1330</v>
+        <v>1336</v>
       </c>
       <c r="D123" s="11" t="s">
-        <v>1331</v>
+        <v>1337</v>
       </c>
     </row>
     <row r="125" customHeight="1" spans="1:1">
       <c r="A125" s="8" t="s">
-        <v>1332</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="126" customHeight="1" spans="2:2">
       <c r="B126" s="9" t="s">
-        <v>1333</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="127" customHeight="1" spans="2:2">
       <c r="B127" s="9" t="s">
-        <v>1334</v>
+        <v>1340</v>
       </c>
     </row>
     <row r="128" customHeight="1" spans="1:1">
       <c r="A128" s="8" t="s">
-        <v>1335</v>
+        <v>1341</v>
       </c>
     </row>
     <row r="129" customHeight="1" spans="2:2">
       <c r="B129" s="9" t="s">
-        <v>1336</v>
+        <v>1342</v>
       </c>
     </row>
     <row r="130" ht="115.5" spans="3:4">
       <c r="C130" s="10" t="s">
-        <v>1337</v>
+        <v>1343</v>
       </c>
       <c r="D130" s="11" t="s">
-        <v>1338</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="131" customHeight="1" spans="3:4">
       <c r="C131" s="10" t="s">
-        <v>1339</v>
+        <v>1345</v>
       </c>
       <c r="D131" s="11" t="s">
-        <v>1340</v>
+        <v>1346</v>
       </c>
     </row>
     <row r="132" ht="33" spans="2:4">
       <c r="B132" s="9" t="s">
-        <v>1341</v>
+        <v>1347</v>
       </c>
       <c r="D132" s="23" t="s">
-        <v>1342</v>
+        <v>1348</v>
       </c>
     </row>
     <row r="133" ht="33" spans="2:4">
       <c r="B133" s="9" t="s">
-        <v>1343</v>
+        <v>1349</v>
       </c>
       <c r="C133" s="10" t="s">
-        <v>1040</v>
+        <v>1046</v>
       </c>
       <c r="D133" s="11" t="s">
-        <v>1344</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="134" customHeight="1" spans="2:4">
       <c r="B134" s="9" t="s">
-        <v>1345</v>
+        <v>1351</v>
       </c>
       <c r="C134" s="10" t="s">
-        <v>1040</v>
+        <v>1046</v>
       </c>
       <c r="D134" s="11" t="s">
-        <v>1346</v>
+        <v>1352</v>
       </c>
     </row>
     <row r="135" ht="49.5" spans="3:4">
       <c r="C135" s="10" t="s">
-        <v>1347</v>
+        <v>1353</v>
       </c>
       <c r="D135" s="11" t="s">
-        <v>1348</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="136" customHeight="1" spans="2:2">
       <c r="B136" s="9" t="s">
-        <v>1349</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="138" customHeight="1" spans="2:2">
       <c r="B138" s="9" t="s">
-        <v>1350</v>
+        <v>1356</v>
       </c>
     </row>
     <row r="141" customHeight="1" spans="1:1">
       <c r="A141" s="8" t="s">
-        <v>1351</v>
+        <v>1357</v>
       </c>
     </row>
     <row r="142" customHeight="1" spans="2:3">
       <c r="B142" s="9" t="s">
-        <v>1352</v>
+        <v>1358</v>
       </c>
       <c r="C142" s="10" t="s">
-        <v>1353</v>
+        <v>1359</v>
       </c>
     </row>
     <row r="143" customHeight="1" spans="2:4">
       <c r="B143" s="24" t="s">
-        <v>1354</v>
+        <v>1360</v>
       </c>
       <c r="C143" s="10" t="s">
-        <v>1355</v>
+        <v>1361</v>
       </c>
       <c r="D143" s="11" t="s">
-        <v>1356</v>
+        <v>1362</v>
       </c>
     </row>
     <row r="144" customHeight="1" spans="3:4">
       <c r="C144" s="10" t="s">
-        <v>1357</v>
+        <v>1363</v>
       </c>
       <c r="D144" s="11" t="s">
-        <v>1358</v>
+        <v>1364</v>
       </c>
     </row>
     <row r="145" customHeight="1" spans="2:2">
       <c r="B145" s="9" t="s">
-        <v>1359</v>
+        <v>1365</v>
       </c>
     </row>
     <row r="146" customHeight="1" spans="3:4">
       <c r="C146" s="10" t="s">
-        <v>1360</v>
+        <v>1366</v>
       </c>
       <c r="D146" s="11" t="s">
-        <v>1361</v>
+        <v>1367</v>
       </c>
     </row>
     <row r="147" customHeight="1" spans="2:2">
       <c r="B147" s="9" t="s">
-        <v>1362</v>
+        <v>1368</v>
       </c>
     </row>
     <row r="148" customHeight="1" spans="3:3">
       <c r="C148" s="10" t="s">
-        <v>1360</v>
+        <v>1366</v>
       </c>
     </row>
     <row r="155" customHeight="1" spans="1:1">
       <c r="A155" s="8" t="s">
-        <v>1363</v>
+        <v>1369</v>
       </c>
     </row>
     <row r="160" customHeight="1" spans="1:1">
       <c r="A160" s="8" t="s">
-        <v>1364</v>
+        <v>1370</v>
       </c>
     </row>
     <row r="165" customHeight="1" spans="1:1">
       <c r="A165" s="8" t="s">
-        <v>1365</v>
+        <v>1371</v>
       </c>
     </row>
     <row r="170" customHeight="1" spans="1:1">
       <c r="A170" s="8" t="s">
-        <v>1366</v>
+        <v>1372</v>
       </c>
     </row>
     <row r="174" customHeight="1" spans="1:1">
       <c r="A174" s="8" t="s">
-        <v>1367</v>
+        <v>1373</v>
       </c>
     </row>
   </sheetData>

--- a/linux.xlsx
+++ b/linux.xlsx
@@ -6514,8 +6514,8 @@
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="63">
     <font>
@@ -6798,12 +6798,72 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -6819,50 +6879,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -6871,40 +6887,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6918,9 +6903,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6928,6 +6912,22 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6966,7 +6966,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6978,31 +7002,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7014,121 +7014,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7150,6 +7036,120 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="9">
     <border>
@@ -7157,15 +7157,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -7180,6 +7171,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -7201,24 +7201,20 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -7240,20 +7236,24 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -7265,10 +7265,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="42" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="56" fillId="24" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -7277,19 +7277,19 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="42" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="48" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="44" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -7298,112 +7298,112 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="42" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="55" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="56" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="17" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="57" fillId="30" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="59" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="58" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="54" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="44" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -8301,7 +8301,7 @@
   <dimension ref="A1:I373"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A307" workbookViewId="0">
-      <selection activeCell="A315" sqref="$A315:$XFD315"/>
+      <selection activeCell="C314" sqref="C314"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="22.5"/>

--- a/linux.xlsx
+++ b/linux.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1417">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1435">
   <si>
     <t>ab</t>
   </si>
@@ -1527,6 +1527,60 @@
   </si>
   <si>
     <t>打印出匹配文件之前于之后的行 -C n（数字）</t>
+  </si>
+  <si>
+    <t>sed</t>
+  </si>
+  <si>
+    <t>scriptm文本编辑器</t>
+  </si>
+  <si>
+    <t>正则</t>
+  </si>
+  <si>
+    <t>s/ / /g</t>
+  </si>
+  <si>
+    <t>匹配字符替换</t>
+  </si>
+  <si>
+    <t>修改文本内容</t>
+  </si>
+  <si>
+    <t>paste</t>
+  </si>
+  <si>
+    <t>按列依次合并两个文件</t>
+  </si>
+  <si>
+    <t>制定分隔符</t>
+  </si>
+  <si>
+    <t>tac</t>
+  </si>
+  <si>
+    <t>以逆序形式打印，与cat相反</t>
+  </si>
+  <si>
+    <t>指定分隔符</t>
+  </si>
+  <si>
+    <t>wget</t>
+  </si>
+  <si>
+    <t>下载</t>
+  </si>
+  <si>
+    <t>-O</t>
+  </si>
+  <si>
+    <t>指定下载输出的文件名</t>
+  </si>
+  <si>
+    <t>指定失败重连次数</t>
+  </si>
+  <si>
+    <t>从断点继续下载</t>
   </si>
   <si>
     <t>NTP时间同步</t>
@@ -6805,22 +6859,28 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6835,13 +6895,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -6849,23 +6902,8 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6887,31 +6925,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6925,11 +6948,42 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -6966,13 +7020,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6990,31 +7134,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7026,127 +7194,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7184,41 +7238,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -7237,8 +7256,34 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -7257,6 +7302,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -7265,10 +7319,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="42" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="56" fillId="24" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="45" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -7277,7 +7331,7 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="42" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="48" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -7286,10 +7340,10 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="43" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -7298,116 +7352,116 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="43" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="59" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="43" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="22" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="52" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="46" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="58" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="53" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="42" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="55" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="43" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="42" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="57" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="42" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="42" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="42" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="43" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="43" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="42" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="42" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="43" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="42" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="43" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="115">
+  <cellXfs count="116">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -7755,8 +7809,14 @@
     <xf numFmtId="49" fontId="38" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="11" fontId="9" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1" quotePrefix="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="38" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" quotePrefix="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" quotePrefix="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -8118,7 +8178,7 @@
   <sheetData>
     <row r="1" ht="222.75" spans="1:1">
       <c r="A1" s="7" t="s">
-        <v>1399</v>
+        <v>1417</v>
       </c>
     </row>
     <row r="2" ht="23" customHeight="1"/>
@@ -8175,32 +8235,32 @@
   <sheetData>
     <row r="1" ht="81" spans="1:1">
       <c r="A1" s="6" t="s">
-        <v>1400</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="2" ht="81" spans="1:1">
       <c r="A2" s="6" t="s">
-        <v>1401</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="3" ht="40.5" spans="1:1">
       <c r="A3" s="6" t="s">
-        <v>1402</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="4" ht="409.5" spans="1:1">
       <c r="A4" s="6" t="s">
-        <v>1403</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="6" ht="81" spans="1:1">
       <c r="A6" s="6" t="s">
-        <v>1404</v>
+        <v>1422</v>
       </c>
     </row>
     <row r="7" ht="60.75" spans="1:1">
       <c r="A7" s="6" t="s">
-        <v>1405</v>
+        <v>1423</v>
       </c>
     </row>
   </sheetData>
@@ -8227,63 +8287,63 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>1406</v>
+        <v>1424</v>
       </c>
     </row>
     <row r="2" spans="2:2">
       <c r="B2" s="2" t="s">
-        <v>1407</v>
+        <v>1425</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>1408</v>
+        <v>1426</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>1409</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="4" spans="3:3">
       <c r="C4" s="3" t="s">
-        <v>1410</v>
+        <v>1428</v>
       </c>
     </row>
     <row r="5" spans="2:2">
       <c r="B5" s="2" t="s">
-        <v>1165</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="6" spans="3:3">
       <c r="C6" s="3" t="s">
-        <v>1411</v>
+        <v>1429</v>
       </c>
     </row>
     <row r="7" spans="2:2">
       <c r="B7" s="2" t="s">
-        <v>1412</v>
+        <v>1430</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="1" t="s">
-        <v>1413</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="1" t="s">
-        <v>1414</v>
+        <v>1432</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>1415</v>
+        <v>1433</v>
       </c>
     </row>
     <row r="16" spans="2:2">
       <c r="B16" s="2" t="s">
-        <v>526</v>
+        <v>544</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" s="1" t="s">
-        <v>1416</v>
+        <v>1434</v>
       </c>
     </row>
   </sheetData>
@@ -8298,10 +8358,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I373"/>
+  <dimension ref="A1:I388"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A307" workbookViewId="0">
-      <selection activeCell="C314" sqref="C314"/>
+    <sheetView tabSelected="1" topLeftCell="A385" workbookViewId="0">
+      <selection activeCell="D394" sqref="D394"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="22.5"/>
@@ -10086,7 +10146,7 @@
       </c>
     </row>
     <row r="265" spans="3:3">
-      <c r="C265" s="115" t="s">
+      <c r="C265" s="116" t="s">
         <v>367</v>
       </c>
     </row>
@@ -10588,7 +10648,7 @@
       <c r="B340" s="108" t="s">
         <v>8</v>
       </c>
-      <c r="C340" s="115" t="s">
+      <c r="C340" s="116" t="s">
         <v>455</v>
       </c>
     </row>
@@ -10822,6 +10882,97 @@
       </c>
       <c r="C373" s="109" t="s">
         <v>490</v>
+      </c>
+    </row>
+    <row r="375" spans="1:3">
+      <c r="A375" s="107" t="s">
+        <v>491</v>
+      </c>
+      <c r="C375" s="109" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="376" spans="1:3">
+      <c r="A376" s="115" t="s">
+        <v>493</v>
+      </c>
+      <c r="B376" s="117" t="s">
+        <v>494</v>
+      </c>
+      <c r="C376" s="109" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="377" spans="2:3">
+      <c r="B377" s="108" t="s">
+        <v>24</v>
+      </c>
+      <c r="C377" s="109" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="379" spans="1:3">
+      <c r="A379" s="107" t="s">
+        <v>497</v>
+      </c>
+      <c r="C379" s="109" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="380" spans="2:3">
+      <c r="B380" s="108" t="s">
+        <v>44</v>
+      </c>
+      <c r="C380" s="109" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="382" spans="1:3">
+      <c r="A382" s="107" t="s">
+        <v>500</v>
+      </c>
+      <c r="C382" s="109" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="383" spans="2:3">
+      <c r="B383" s="108" t="s">
+        <v>187</v>
+      </c>
+      <c r="C383" s="109" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="385" spans="1:3">
+      <c r="A385" s="107" t="s">
+        <v>503</v>
+      </c>
+      <c r="C385" s="109" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="386" spans="2:3">
+      <c r="B386" s="108" t="s">
+        <v>505</v>
+      </c>
+      <c r="C386" s="109" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="387" spans="2:3">
+      <c r="B387" s="108" t="s">
+        <v>10</v>
+      </c>
+      <c r="C387" s="109" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="388" spans="2:3">
+      <c r="B388" s="108" t="s">
+        <v>4</v>
+      </c>
+      <c r="C388" s="109" t="s">
+        <v>508</v>
       </c>
     </row>
   </sheetData>
@@ -10857,15 +11008,15 @@
   <sheetData>
     <row r="1" ht="25" customHeight="1" spans="1:3">
       <c r="A1" s="96" t="s">
-        <v>491</v>
+        <v>509</v>
       </c>
       <c r="C1" s="98" t="s">
-        <v>492</v>
+        <v>510</v>
       </c>
     </row>
     <row r="2" spans="2:7">
       <c r="B2" s="99" t="s">
-        <v>493</v>
+        <v>511</v>
       </c>
       <c r="C2" s="100"/>
       <c r="D2" s="100"/>
@@ -10875,47 +11026,47 @@
     </row>
     <row r="3" spans="2:2">
       <c r="B3" s="101" t="s">
-        <v>494</v>
+        <v>512</v>
       </c>
     </row>
     <row r="4" ht="20" customHeight="1" spans="3:3">
       <c r="C4" s="102" t="s">
-        <v>495</v>
+        <v>513</v>
       </c>
     </row>
     <row r="5" ht="48" customHeight="1" spans="3:3">
       <c r="C5" s="103" t="s">
-        <v>496</v>
+        <v>514</v>
       </c>
     </row>
     <row r="6" ht="20" customHeight="1" spans="3:3">
       <c r="C6" s="102" t="s">
-        <v>497</v>
+        <v>515</v>
       </c>
     </row>
     <row r="7" ht="58" customHeight="1" spans="3:3">
       <c r="C7" s="103" t="s">
-        <v>498</v>
+        <v>516</v>
       </c>
     </row>
     <row r="8" ht="21" customHeight="1" spans="3:3">
       <c r="C8" s="102" t="s">
-        <v>499</v>
+        <v>517</v>
       </c>
     </row>
     <row r="9" ht="33" customHeight="1" spans="3:3">
       <c r="C9" s="103" t="s">
-        <v>500</v>
+        <v>518</v>
       </c>
     </row>
     <row r="10" ht="21" customHeight="1" spans="3:3">
       <c r="C10" s="102" t="s">
-        <v>501</v>
+        <v>519</v>
       </c>
     </row>
     <row r="11" ht="43" customHeight="1" spans="3:3">
       <c r="C11" s="103" t="s">
-        <v>502</v>
+        <v>520</v>
       </c>
     </row>
     <row r="12" ht="24" customHeight="1" spans="3:3">
@@ -10923,12 +11074,12 @@
     </row>
     <row r="13" ht="25" customHeight="1" spans="1:1">
       <c r="A13" s="96" t="s">
-        <v>503</v>
+        <v>521</v>
       </c>
     </row>
     <row r="14" ht="50" customHeight="1" spans="2:7">
       <c r="B14" s="104" t="s">
-        <v>504</v>
+        <v>522</v>
       </c>
       <c r="C14" s="45"/>
       <c r="D14" s="45"/>
@@ -10938,7 +11089,7 @@
     </row>
     <row r="15" ht="50" customHeight="1" spans="2:7">
       <c r="B15" s="104" t="s">
-        <v>505</v>
+        <v>523</v>
       </c>
       <c r="C15" s="45"/>
       <c r="D15" s="45"/>
@@ -10948,15 +11099,15 @@
     </row>
     <row r="16" ht="25" customHeight="1" spans="1:3">
       <c r="A16" s="96" t="s">
-        <v>506</v>
+        <v>524</v>
       </c>
       <c r="C16" s="98" t="s">
-        <v>507</v>
+        <v>525</v>
       </c>
     </row>
     <row r="17" ht="51" customHeight="1" spans="2:7">
       <c r="B17" s="104" t="s">
-        <v>508</v>
+        <v>526</v>
       </c>
       <c r="C17" s="45"/>
       <c r="D17" s="45"/>
@@ -10966,7 +11117,7 @@
     </row>
     <row r="18" ht="40" customHeight="1" spans="2:7">
       <c r="B18" s="104" t="s">
-        <v>509</v>
+        <v>527</v>
       </c>
       <c r="C18" s="45"/>
       <c r="D18" s="45"/>
@@ -10976,7 +11127,7 @@
     </row>
     <row r="19" spans="2:7">
       <c r="B19" s="99" t="s">
-        <v>510</v>
+        <v>528</v>
       </c>
       <c r="C19" s="100"/>
       <c r="D19" s="100"/>
@@ -10986,7 +11137,7 @@
     </row>
     <row r="20" spans="2:7">
       <c r="B20" s="99" t="s">
-        <v>511</v>
+        <v>529</v>
       </c>
       <c r="C20" s="100"/>
       <c r="D20" s="100"/>
@@ -10996,11 +11147,11 @@
     </row>
     <row r="22" ht="22" customHeight="1" spans="1:7">
       <c r="A22" s="96" t="s">
-        <v>512</v>
+        <v>530</v>
       </c>
       <c r="B22"/>
       <c r="C22" s="105" t="s">
-        <v>513</v>
+        <v>531</v>
       </c>
       <c r="D22"/>
       <c r="E22"/>
@@ -11010,7 +11161,7 @@
     <row r="23" ht="90" customHeight="1" spans="2:7">
       <c r="B23"/>
       <c r="C23" s="106" t="s">
-        <v>514</v>
+        <v>532</v>
       </c>
       <c r="D23"/>
       <c r="E23"/>
@@ -11057,13 +11208,13 @@
   <sheetData>
     <row r="1" spans="1:14">
       <c r="A1" s="68" t="s">
-        <v>515</v>
+        <v>533</v>
       </c>
       <c r="B1" s="72" t="s">
-        <v>516</v>
+        <v>534</v>
       </c>
       <c r="C1" s="73" t="s">
-        <v>517</v>
+        <v>535</v>
       </c>
       <c r="D1" s="73"/>
       <c r="E1" s="73"/>
@@ -11079,17 +11230,17 @@
     </row>
     <row r="2" spans="2:2">
       <c r="B2" s="69" t="s">
-        <v>518</v>
+        <v>536</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="68" t="s">
-        <v>519</v>
+        <v>537</v>
       </c>
     </row>
     <row r="5" spans="2:14">
       <c r="B5" s="74" t="s">
-        <v>520</v>
+        <v>538</v>
       </c>
       <c r="C5" s="73"/>
       <c r="D5" s="73"/>
@@ -11106,7 +11257,7 @@
     </row>
     <row r="6" spans="2:14">
       <c r="B6" s="74" t="s">
-        <v>521</v>
+        <v>539</v>
       </c>
       <c r="C6" s="73"/>
       <c r="D6" s="73"/>
@@ -11123,7 +11274,7 @@
     </row>
     <row r="7" spans="2:14">
       <c r="B7" s="74" t="s">
-        <v>522</v>
+        <v>540</v>
       </c>
       <c r="C7" s="73"/>
       <c r="D7" s="73"/>
@@ -11140,7 +11291,7 @@
     </row>
     <row r="8" spans="2:14">
       <c r="B8" s="75" t="s">
-        <v>523</v>
+        <v>541</v>
       </c>
       <c r="C8" s="76"/>
       <c r="D8" s="76"/>
@@ -11157,10 +11308,10 @@
     </row>
     <row r="9" spans="2:14">
       <c r="B9" s="77" t="s">
-        <v>524</v>
+        <v>542</v>
       </c>
       <c r="C9" s="40" t="s">
-        <v>525</v>
+        <v>543</v>
       </c>
       <c r="D9" s="40"/>
       <c r="E9" s="40"/>
@@ -11176,7 +11327,7 @@
     </row>
     <row r="10" spans="2:14">
       <c r="B10" s="74" t="s">
-        <v>526</v>
+        <v>544</v>
       </c>
       <c r="C10" s="73"/>
       <c r="D10" s="73"/>
@@ -11194,7 +11345,7 @@
     <row r="11" spans="2:14">
       <c r="B11" s="74"/>
       <c r="C11" s="73" t="s">
-        <v>527</v>
+        <v>545</v>
       </c>
       <c r="D11" s="73"/>
       <c r="E11" s="73"/>
@@ -11210,7 +11361,7 @@
     </row>
     <row r="12" spans="2:14">
       <c r="B12" s="74" t="s">
-        <v>528</v>
+        <v>546</v>
       </c>
       <c r="C12" s="73"/>
       <c r="D12" s="73"/>
@@ -11227,8 +11378,8 @@
     </row>
     <row r="13" ht="39" customHeight="1" spans="2:14">
       <c r="B13" s="74"/>
-      <c r="C13" s="116" t="s">
-        <v>529</v>
+      <c r="C13" s="118" t="s">
+        <v>547</v>
       </c>
       <c r="D13" s="73"/>
       <c r="E13" s="73"/>
@@ -11244,10 +11395,10 @@
     </row>
     <row r="14" ht="42" customHeight="1" spans="2:14">
       <c r="B14" s="74" t="s">
-        <v>530</v>
+        <v>548</v>
       </c>
       <c r="C14" s="78" t="s">
-        <v>531</v>
+        <v>549</v>
       </c>
       <c r="D14" s="78"/>
       <c r="E14" s="78"/>
@@ -11263,13 +11414,13 @@
     </row>
     <row r="16" ht="34" customHeight="1" spans="1:14">
       <c r="A16" s="68" t="s">
-        <v>532</v>
+        <v>550</v>
       </c>
       <c r="B16" s="79" t="s">
-        <v>533</v>
+        <v>551</v>
       </c>
       <c r="C16" s="80" t="s">
-        <v>534</v>
+        <v>552</v>
       </c>
       <c r="D16" s="73"/>
       <c r="E16" s="73"/>
@@ -11285,7 +11436,7 @@
     </row>
     <row r="17" ht="39" customHeight="1" spans="2:14">
       <c r="B17" s="77" t="s">
-        <v>535</v>
+        <v>553</v>
       </c>
       <c r="C17" s="78"/>
       <c r="D17" s="78"/>
@@ -11302,12 +11453,12 @@
     </row>
     <row r="18" spans="2:2">
       <c r="B18" s="79" t="s">
-        <v>536</v>
+        <v>554</v>
       </c>
     </row>
     <row r="19" ht="79" customHeight="1" spans="3:14">
       <c r="C19" s="78" t="s">
-        <v>537</v>
+        <v>555</v>
       </c>
       <c r="D19" s="78"/>
       <c r="E19" s="78"/>
@@ -11323,12 +11474,12 @@
     </row>
     <row r="20" ht="25" customHeight="1" spans="2:2">
       <c r="B20" s="79" t="s">
-        <v>538</v>
+        <v>556</v>
       </c>
     </row>
     <row r="21" ht="58" customHeight="1" spans="3:14">
       <c r="C21" s="78" t="s">
-        <v>539</v>
+        <v>557</v>
       </c>
       <c r="D21" s="78"/>
       <c r="E21" s="78"/>
@@ -11344,12 +11495,12 @@
     </row>
     <row r="22" spans="2:2">
       <c r="B22" s="79" t="s">
-        <v>540</v>
+        <v>558</v>
       </c>
     </row>
     <row r="23" ht="78" customHeight="1" spans="3:14">
       <c r="C23" s="78" t="s">
-        <v>541</v>
+        <v>559</v>
       </c>
       <c r="D23" s="78"/>
       <c r="E23" s="78"/>
@@ -11365,7 +11516,7 @@
     </row>
     <row r="24" spans="2:14">
       <c r="B24" s="74" t="s">
-        <v>542</v>
+        <v>560</v>
       </c>
       <c r="C24" s="73"/>
       <c r="D24" s="73"/>
@@ -11382,7 +11533,7 @@
     </row>
     <row r="25" spans="2:14">
       <c r="B25" s="74" t="s">
-        <v>543</v>
+        <v>561</v>
       </c>
       <c r="C25" s="74"/>
       <c r="D25" s="74"/>
@@ -11459,18 +11610,18 @@
     </row>
     <row r="30" ht="19" customHeight="1" spans="1:3">
       <c r="A30" s="68" t="s">
-        <v>544</v>
+        <v>562</v>
       </c>
       <c r="B30" s="79" t="s">
-        <v>545</v>
+        <v>563</v>
       </c>
       <c r="C30" s="81" t="s">
-        <v>546</v>
+        <v>564</v>
       </c>
     </row>
     <row r="31" ht="71" customHeight="1" spans="2:15">
       <c r="B31" s="82" t="s">
-        <v>547</v>
+        <v>565</v>
       </c>
       <c r="C31" s="82"/>
       <c r="D31" s="82"/>
@@ -11488,7 +11639,7 @@
     </row>
     <row r="32" spans="2:14">
       <c r="B32" s="83" t="s">
-        <v>548</v>
+        <v>566</v>
       </c>
       <c r="C32" s="84"/>
       <c r="D32" s="84"/>
@@ -11505,12 +11656,12 @@
     </row>
     <row r="34" spans="1:1">
       <c r="A34" s="68" t="s">
-        <v>549</v>
+        <v>567</v>
       </c>
     </row>
     <row r="35" ht="60" customHeight="1" spans="2:15">
       <c r="B35" s="77" t="s">
-        <v>550</v>
+        <v>568</v>
       </c>
       <c r="C35" s="78"/>
       <c r="D35" s="78"/>
@@ -11528,7 +11679,7 @@
     </row>
     <row r="36" ht="55" customHeight="1" spans="2:15">
       <c r="B36" s="77" t="s">
-        <v>551</v>
+        <v>569</v>
       </c>
       <c r="C36" s="78"/>
       <c r="D36" s="78"/>
@@ -11546,7 +11697,7 @@
     </row>
     <row r="37" ht="20" customHeight="1" spans="2:15">
       <c r="B37" s="74" t="s">
-        <v>552</v>
+        <v>570</v>
       </c>
       <c r="C37" s="73"/>
       <c r="D37" s="73"/>
@@ -11564,17 +11715,17 @@
     </row>
     <row r="38" ht="21" customHeight="1" spans="2:3">
       <c r="B38" s="85" t="s">
-        <v>553</v>
+        <v>571</v>
       </c>
       <c r="C38" s="81"/>
     </row>
     <row r="39" ht="54" customHeight="1" spans="2:14">
       <c r="B39" s="85"/>
       <c r="C39" s="81" t="s">
-        <v>554</v>
+        <v>572</v>
       </c>
       <c r="D39" s="78" t="s">
-        <v>555</v>
+        <v>573</v>
       </c>
       <c r="E39" s="78"/>
       <c r="F39" s="78"/>
@@ -11590,16 +11741,16 @@
     <row r="40" ht="21" customHeight="1" spans="2:3">
       <c r="B40" s="85"/>
       <c r="C40" s="81" t="s">
-        <v>556</v>
+        <v>574</v>
       </c>
     </row>
     <row r="41" ht="72" customHeight="1" spans="2:14">
       <c r="B41" s="85"/>
       <c r="C41" s="81" t="s">
-        <v>557</v>
+        <v>575</v>
       </c>
       <c r="D41" s="78" t="s">
-        <v>558</v>
+        <v>576</v>
       </c>
       <c r="E41" s="78"/>
       <c r="F41" s="78"/>
@@ -11615,10 +11766,10 @@
     <row r="42" ht="39" customHeight="1" spans="2:14">
       <c r="B42" s="85"/>
       <c r="C42" s="81" t="s">
-        <v>559</v>
+        <v>577</v>
       </c>
       <c r="D42" s="78" t="s">
-        <v>560</v>
+        <v>578</v>
       </c>
       <c r="E42" s="73"/>
       <c r="F42" s="73"/>
@@ -11634,7 +11785,7 @@
     <row r="43" ht="21" customHeight="1" spans="2:4">
       <c r="B43" s="85"/>
       <c r="C43" s="81" t="s">
-        <v>561</v>
+        <v>579</v>
       </c>
       <c r="D43" s="81"/>
     </row>
@@ -11642,7 +11793,7 @@
       <c r="B44" s="85"/>
       <c r="C44" s="81"/>
       <c r="D44" s="80" t="s">
-        <v>562</v>
+        <v>580</v>
       </c>
       <c r="E44" s="78"/>
       <c r="F44" s="78"/>
@@ -11659,7 +11810,7 @@
       <c r="B45" s="85"/>
       <c r="C45" s="81"/>
       <c r="D45" s="86" t="s">
-        <v>563</v>
+        <v>581</v>
       </c>
       <c r="E45" s="86"/>
       <c r="F45" s="86"/>
@@ -11674,7 +11825,7 @@
     </row>
     <row r="46" spans="2:15">
       <c r="B46" s="74" t="s">
-        <v>564</v>
+        <v>582</v>
       </c>
       <c r="C46" s="73"/>
       <c r="D46" s="73"/>
@@ -11692,11 +11843,11 @@
     </row>
     <row r="47" spans="2:14">
       <c r="B47" s="74" t="s">
-        <v>565</v>
+        <v>583</v>
       </c>
       <c r="C47" s="73"/>
       <c r="D47" s="73" t="s">
-        <v>566</v>
+        <v>584</v>
       </c>
       <c r="E47" s="73"/>
       <c r="F47" s="73"/>
@@ -11711,12 +11862,12 @@
     </row>
     <row r="49" spans="1:1">
       <c r="A49" s="68" t="s">
-        <v>567</v>
+        <v>585</v>
       </c>
     </row>
     <row r="50" ht="81" customHeight="1" spans="2:14">
       <c r="B50" s="77" t="s">
-        <v>568</v>
+        <v>586</v>
       </c>
       <c r="C50" s="78"/>
       <c r="D50" s="78"/>
@@ -11733,12 +11884,12 @@
     </row>
     <row r="51" spans="2:2">
       <c r="B51" s="79" t="s">
-        <v>569</v>
+        <v>587</v>
       </c>
     </row>
     <row r="52" ht="33" customHeight="1" spans="3:14">
       <c r="C52" s="78" t="s">
-        <v>570</v>
+        <v>588</v>
       </c>
       <c r="D52" s="78"/>
       <c r="E52" s="78"/>
@@ -11754,12 +11905,12 @@
     </row>
     <row r="53" spans="2:2">
       <c r="B53" s="79" t="s">
-        <v>571</v>
+        <v>589</v>
       </c>
     </row>
     <row r="54" ht="36" customHeight="1" spans="3:14">
       <c r="C54" s="78" t="s">
-        <v>572</v>
+        <v>590</v>
       </c>
       <c r="D54" s="78"/>
       <c r="E54" s="78"/>
@@ -11775,7 +11926,7 @@
     </row>
     <row r="55" ht="19" customHeight="1" spans="2:14">
       <c r="B55" s="79" t="s">
-        <v>573</v>
+        <v>591</v>
       </c>
       <c r="C55" s="78"/>
       <c r="D55" s="78"/>
@@ -11792,7 +11943,7 @@
     </row>
     <row r="56" ht="103" customHeight="1" spans="3:14">
       <c r="C56" s="78" t="s">
-        <v>574</v>
+        <v>592</v>
       </c>
       <c r="D56" s="78"/>
       <c r="E56" s="78"/>
@@ -11808,7 +11959,7 @@
     </row>
     <row r="57" ht="23" customHeight="1" spans="2:14">
       <c r="B57" s="79" t="s">
-        <v>575</v>
+        <v>593</v>
       </c>
       <c r="C57" s="78"/>
       <c r="D57" s="78"/>
@@ -11825,7 +11976,7 @@
     </row>
     <row r="58" ht="41" customHeight="1" spans="3:14">
       <c r="C58" s="78" t="s">
-        <v>576</v>
+        <v>594</v>
       </c>
       <c r="D58" s="78"/>
       <c r="E58" s="78"/>
@@ -11841,7 +11992,7 @@
     </row>
     <row r="59" ht="23" customHeight="1" spans="2:14">
       <c r="B59" s="79" t="s">
-        <v>577</v>
+        <v>595</v>
       </c>
       <c r="C59" s="78"/>
       <c r="D59" s="78"/>
@@ -11858,7 +12009,7 @@
     </row>
     <row r="60" ht="57" customHeight="1" spans="3:14">
       <c r="C60" s="78" t="s">
-        <v>578</v>
+        <v>596</v>
       </c>
       <c r="D60" s="78"/>
       <c r="E60" s="78"/>
@@ -11874,11 +12025,11 @@
     </row>
     <row r="61" ht="27" customHeight="1" spans="2:14">
       <c r="B61" s="79" t="s">
-        <v>579</v>
+        <v>597</v>
       </c>
       <c r="C61" s="78"/>
       <c r="D61" s="78" t="s">
-        <v>580</v>
+        <v>598</v>
       </c>
       <c r="E61" s="78"/>
       <c r="F61" s="78"/>
@@ -11893,7 +12044,7 @@
     </row>
     <row r="62" ht="41" customHeight="1" spans="3:14">
       <c r="C62" s="78" t="s">
-        <v>581</v>
+        <v>599</v>
       </c>
       <c r="D62" s="78"/>
       <c r="E62" s="78"/>
@@ -11909,10 +12060,10 @@
     </row>
     <row r="63" ht="26" customHeight="1" spans="2:14">
       <c r="B63" s="79" t="s">
-        <v>582</v>
+        <v>600</v>
       </c>
       <c r="C63" s="78" t="s">
-        <v>583</v>
+        <v>601</v>
       </c>
       <c r="D63" s="78"/>
       <c r="E63" s="78"/>
@@ -11928,7 +12079,7 @@
     </row>
     <row r="64" ht="25" customHeight="1" spans="2:14">
       <c r="B64" s="79" t="s">
-        <v>584</v>
+        <v>602</v>
       </c>
       <c r="C64" s="78"/>
       <c r="D64" s="78"/>
@@ -11946,10 +12097,10 @@
     <row r="65" ht="25" customHeight="1" spans="2:14">
       <c r="B65" s="79"/>
       <c r="C65" s="86" t="s">
-        <v>585</v>
+        <v>603</v>
       </c>
       <c r="D65" s="78" t="s">
-        <v>586</v>
+        <v>604</v>
       </c>
       <c r="E65" s="78"/>
       <c r="F65" s="78"/>
@@ -11965,10 +12116,10 @@
     <row r="66" ht="25" customHeight="1" spans="2:14">
       <c r="B66" s="79"/>
       <c r="C66" s="90" t="s">
-        <v>587</v>
+        <v>605</v>
       </c>
       <c r="D66" s="78" t="s">
-        <v>588</v>
+        <v>606</v>
       </c>
       <c r="E66" s="78"/>
       <c r="F66" s="78"/>
@@ -11985,7 +12136,7 @@
       <c r="B67" s="79"/>
       <c r="C67" s="78"/>
       <c r="D67" s="78" t="s">
-        <v>589</v>
+        <v>607</v>
       </c>
       <c r="E67" s="78"/>
       <c r="F67" s="78"/>
@@ -12014,12 +12165,12 @@
     </row>
     <row r="70" spans="1:1">
       <c r="A70" s="68" t="s">
-        <v>590</v>
+        <v>608</v>
       </c>
     </row>
     <row r="71" ht="54" customHeight="1" spans="2:14">
       <c r="B71" s="77" t="s">
-        <v>591</v>
+        <v>609</v>
       </c>
       <c r="C71" s="73"/>
       <c r="D71" s="73"/>
@@ -12037,7 +12188,7 @@
     <row r="72" ht="26" customHeight="1" spans="2:14">
       <c r="B72" s="77"/>
       <c r="C72" s="73" t="s">
-        <v>592</v>
+        <v>610</v>
       </c>
       <c r="D72" s="73"/>
       <c r="E72" s="73"/>
@@ -12054,7 +12205,7 @@
     <row r="73" ht="25" customHeight="1" spans="2:14">
       <c r="B73" s="77"/>
       <c r="C73" s="73" t="s">
-        <v>593</v>
+        <v>611</v>
       </c>
       <c r="D73" s="73"/>
       <c r="E73" s="73"/>
@@ -12071,7 +12222,7 @@
     <row r="74" ht="312" customHeight="1" spans="2:14">
       <c r="B74" s="77"/>
       <c r="C74" s="78" t="s">
-        <v>594</v>
+        <v>612</v>
       </c>
       <c r="D74" s="73"/>
       <c r="E74" s="73"/>
@@ -12088,7 +12239,7 @@
     <row r="75" ht="26" customHeight="1" spans="2:14">
       <c r="B75" s="77"/>
       <c r="C75" s="73" t="s">
-        <v>595</v>
+        <v>613</v>
       </c>
       <c r="D75" s="73"/>
       <c r="E75" s="73"/>
@@ -12104,7 +12255,7 @@
     </row>
     <row r="76" ht="36" customHeight="1" spans="2:14">
       <c r="B76" s="91" t="s">
-        <v>596</v>
+        <v>614</v>
       </c>
       <c r="C76" s="73"/>
       <c r="D76" s="73"/>
@@ -12122,7 +12273,7 @@
     <row r="77" ht="26" customHeight="1" spans="2:14">
       <c r="B77" s="77"/>
       <c r="C77" s="73" t="s">
-        <v>597</v>
+        <v>615</v>
       </c>
       <c r="D77" s="73"/>
       <c r="E77" s="73"/>
@@ -12198,7 +12349,7 @@
     </row>
     <row r="83" spans="1:14">
       <c r="A83" s="92" t="s">
-        <v>598</v>
+        <v>616</v>
       </c>
       <c r="B83" s="49"/>
       <c r="C83" s="93"/>
@@ -12217,7 +12368,7 @@
     <row r="84" ht="72" customHeight="1" spans="1:14">
       <c r="A84" s="92"/>
       <c r="B84" s="94" t="s">
-        <v>599</v>
+        <v>617</v>
       </c>
       <c r="C84" s="95"/>
       <c r="D84" s="95"/>
@@ -12235,7 +12386,7 @@
     <row r="85" ht="72" customHeight="1" spans="1:14">
       <c r="A85" s="92"/>
       <c r="B85" s="94" t="s">
-        <v>600</v>
+        <v>618</v>
       </c>
       <c r="C85" s="94"/>
       <c r="D85" s="94"/>
@@ -12252,12 +12403,12 @@
     </row>
     <row r="86" spans="2:2">
       <c r="B86" s="69" t="s">
-        <v>601</v>
+        <v>619</v>
       </c>
     </row>
     <row r="87" ht="176" customHeight="1" spans="3:13">
       <c r="C87" s="78" t="s">
-        <v>602</v>
+        <v>620</v>
       </c>
       <c r="D87" s="78"/>
       <c r="E87" s="78"/>
@@ -12272,7 +12423,7 @@
     </row>
     <row r="88" ht="21" customHeight="1" spans="2:13">
       <c r="B88" s="69" t="s">
-        <v>603</v>
+        <v>621</v>
       </c>
       <c r="C88" s="78"/>
       <c r="D88" s="78"/>
@@ -12288,7 +12439,7 @@
     </row>
     <row r="89" ht="251" customHeight="1" spans="3:13">
       <c r="C89" s="78" t="s">
-        <v>604</v>
+        <v>622</v>
       </c>
       <c r="D89" s="78"/>
       <c r="E89" s="78"/>
@@ -12303,7 +12454,7 @@
     </row>
     <row r="90" ht="21" customHeight="1" spans="2:13">
       <c r="B90" s="69" t="s">
-        <v>605</v>
+        <v>623</v>
       </c>
       <c r="C90" s="78"/>
       <c r="D90" s="78"/>
@@ -12319,7 +12470,7 @@
     </row>
     <row r="91" ht="32" customHeight="1" spans="3:13">
       <c r="C91" s="78" t="s">
-        <v>606</v>
+        <v>624</v>
       </c>
       <c r="D91" s="78"/>
       <c r="E91" s="78"/>
@@ -12334,13 +12485,13 @@
     </row>
     <row r="92" ht="21" customHeight="1" spans="2:13">
       <c r="B92" s="69" t="s">
-        <v>607</v>
+        <v>625</v>
       </c>
       <c r="C92" s="78" t="s">
-        <v>608</v>
+        <v>626</v>
       </c>
       <c r="D92" s="78" t="s">
-        <v>609</v>
+        <v>627</v>
       </c>
       <c r="E92" s="78"/>
       <c r="F92" s="78"/>
@@ -12354,10 +12505,10 @@
     </row>
     <row r="93" ht="21" customHeight="1" spans="3:13">
       <c r="C93" s="78" t="s">
-        <v>610</v>
+        <v>628</v>
       </c>
       <c r="D93" s="78" t="s">
-        <v>611</v>
+        <v>629</v>
       </c>
       <c r="E93" s="78"/>
       <c r="F93" s="78"/>
@@ -12374,7 +12525,7 @@
         <v>200</v>
       </c>
       <c r="D94" s="78" t="s">
-        <v>612</v>
+        <v>630</v>
       </c>
       <c r="E94" s="78"/>
       <c r="F94" s="78"/>
@@ -12388,10 +12539,10 @@
     </row>
     <row r="95" ht="21" customHeight="1" spans="3:13">
       <c r="C95" s="78" t="s">
-        <v>613</v>
+        <v>631</v>
       </c>
       <c r="D95" s="78" t="s">
-        <v>614</v>
+        <v>632</v>
       </c>
       <c r="E95" s="78"/>
       <c r="F95" s="78"/>
@@ -12408,7 +12559,7 @@
         <v>442</v>
       </c>
       <c r="D96" s="78" t="s">
-        <v>615</v>
+        <v>633</v>
       </c>
       <c r="E96" s="78"/>
       <c r="F96" s="78"/>
@@ -12422,10 +12573,10 @@
     </row>
     <row r="97" ht="21" customHeight="1" spans="3:13">
       <c r="C97" s="78" t="s">
-        <v>616</v>
+        <v>634</v>
       </c>
       <c r="D97" s="78" t="s">
-        <v>617</v>
+        <v>635</v>
       </c>
       <c r="E97" s="78"/>
       <c r="F97" s="78"/>
@@ -12439,60 +12590,60 @@
     </row>
     <row r="98" spans="3:4">
       <c r="C98" s="70" t="s">
-        <v>618</v>
+        <v>636</v>
       </c>
       <c r="D98" s="70" t="s">
-        <v>619</v>
+        <v>637</v>
       </c>
     </row>
     <row r="99" spans="3:4">
       <c r="C99" s="70" t="s">
-        <v>620</v>
+        <v>638</v>
       </c>
       <c r="D99" s="70" t="s">
-        <v>621</v>
+        <v>639</v>
       </c>
     </row>
     <row r="100" spans="3:4">
       <c r="C100" s="70" t="s">
-        <v>622</v>
+        <v>640</v>
       </c>
       <c r="D100" s="70" t="s">
-        <v>623</v>
+        <v>641</v>
       </c>
     </row>
     <row r="101" spans="3:4">
       <c r="C101" s="70" t="s">
-        <v>624</v>
+        <v>642</v>
       </c>
       <c r="D101" s="70" t="s">
-        <v>625</v>
+        <v>643</v>
       </c>
     </row>
     <row r="102" spans="3:4">
       <c r="C102" s="70" t="s">
-        <v>626</v>
+        <v>644</v>
       </c>
       <c r="D102" s="70" t="s">
-        <v>627</v>
+        <v>645</v>
       </c>
     </row>
     <row r="103" spans="3:4">
       <c r="C103" s="70" t="s">
-        <v>628</v>
+        <v>646</v>
       </c>
       <c r="D103" s="70" t="s">
-        <v>629</v>
+        <v>647</v>
       </c>
     </row>
     <row r="105" spans="1:1">
       <c r="A105" s="68" t="s">
-        <v>630</v>
+        <v>648</v>
       </c>
     </row>
     <row r="106" spans="2:14">
       <c r="B106" s="77" t="s">
-        <v>631</v>
+        <v>649</v>
       </c>
       <c r="C106" s="78"/>
       <c r="D106" s="78"/>
@@ -12509,12 +12660,12 @@
     </row>
     <row r="108" spans="1:1">
       <c r="A108" s="68" t="s">
-        <v>632</v>
+        <v>650</v>
       </c>
     </row>
     <row r="109" ht="54" customHeight="1" spans="2:14">
       <c r="B109" s="77" t="s">
-        <v>633</v>
+        <v>651</v>
       </c>
       <c r="C109" s="78"/>
       <c r="D109" s="78"/>
@@ -12531,12 +12682,12 @@
     </row>
     <row r="110" ht="21" customHeight="1" spans="2:2">
       <c r="B110" s="79" t="s">
-        <v>634</v>
+        <v>652</v>
       </c>
     </row>
     <row r="111" ht="120" customHeight="1" spans="3:14">
-      <c r="C111" s="116" t="s">
-        <v>635</v>
+      <c r="C111" s="118" t="s">
+        <v>653</v>
       </c>
       <c r="D111" s="78"/>
       <c r="E111" s="78"/>
@@ -12552,12 +12703,12 @@
     </row>
     <row r="112" spans="2:2">
       <c r="B112" s="79" t="s">
-        <v>636</v>
+        <v>654</v>
       </c>
     </row>
     <row r="113" ht="31" customHeight="1" spans="3:14">
       <c r="C113" s="78" t="s">
-        <v>637</v>
+        <v>655</v>
       </c>
       <c r="D113" s="78"/>
       <c r="E113" s="78"/>
@@ -12573,12 +12724,12 @@
     </row>
     <row r="114" spans="2:2">
       <c r="B114" s="79" t="s">
-        <v>638</v>
+        <v>656</v>
       </c>
     </row>
     <row r="115" spans="3:14">
       <c r="C115" s="73" t="s">
-        <v>639</v>
+        <v>657</v>
       </c>
       <c r="D115" s="73"/>
       <c r="E115" s="73"/>
@@ -12679,12 +12830,12 @@
   <sheetData>
     <row r="1" customHeight="1" spans="1:1">
       <c r="A1" s="60" t="s">
-        <v>640</v>
+        <v>658</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="2:14">
       <c r="B2" s="31" t="s">
-        <v>641</v>
+        <v>659</v>
       </c>
       <c r="C2" s="29"/>
       <c r="D2" s="29"/>
@@ -12701,7 +12852,7 @@
     </row>
     <row r="3" ht="57" customHeight="1" spans="2:14">
       <c r="B3" s="31" t="s">
-        <v>642</v>
+        <v>660</v>
       </c>
       <c r="C3" s="29"/>
       <c r="D3" s="29"/>
@@ -12718,7 +12869,7 @@
     </row>
     <row r="4" customHeight="1" spans="2:14">
       <c r="B4" s="31" t="s">
-        <v>643</v>
+        <v>661</v>
       </c>
       <c r="C4" s="29"/>
       <c r="D4" s="29"/>
@@ -12735,7 +12886,7 @@
     </row>
     <row r="5" customHeight="1" spans="2:14">
       <c r="B5" s="61" t="s">
-        <v>644</v>
+        <v>662</v>
       </c>
       <c r="C5" s="30"/>
       <c r="D5" s="30"/>
@@ -12752,10 +12903,10 @@
     </row>
     <row r="6" ht="45" customHeight="1" spans="2:14">
       <c r="B6" s="62" t="s">
-        <v>645</v>
+        <v>663</v>
       </c>
       <c r="C6" s="29" t="s">
-        <v>646</v>
+        <v>664</v>
       </c>
       <c r="D6" s="30"/>
       <c r="E6" s="30"/>
@@ -12771,10 +12922,10 @@
     </row>
     <row r="7" customHeight="1" spans="2:14">
       <c r="B7" s="62" t="s">
-        <v>647</v>
+        <v>665</v>
       </c>
       <c r="C7" s="29" t="s">
-        <v>648</v>
+        <v>666</v>
       </c>
       <c r="D7" s="30"/>
       <c r="E7" s="30"/>
@@ -12791,7 +12942,7 @@
     <row r="8" ht="70" customHeight="1" spans="2:14">
       <c r="B8" s="61"/>
       <c r="C8" s="33" t="s">
-        <v>649</v>
+        <v>667</v>
       </c>
       <c r="D8" s="33"/>
       <c r="E8" s="33"/>
@@ -12807,10 +12958,10 @@
     </row>
     <row r="9" customHeight="1" spans="2:14">
       <c r="B9" s="62" t="s">
-        <v>650</v>
+        <v>668</v>
       </c>
       <c r="C9" s="30" t="s">
-        <v>651</v>
+        <v>669</v>
       </c>
       <c r="D9" s="30"/>
       <c r="E9" s="30"/>
@@ -12827,7 +12978,7 @@
     <row r="10" ht="70" customHeight="1" spans="2:14">
       <c r="B10" s="61"/>
       <c r="C10" s="33" t="s">
-        <v>652</v>
+        <v>670</v>
       </c>
       <c r="D10" s="33"/>
       <c r="E10" s="33"/>
@@ -12843,11 +12994,11 @@
     </row>
     <row r="11" ht="38" customHeight="1" spans="2:14">
       <c r="B11" s="62" t="s">
-        <v>653</v>
+        <v>671</v>
       </c>
       <c r="C11" s="30"/>
       <c r="D11" s="29" t="s">
-        <v>654</v>
+        <v>672</v>
       </c>
       <c r="E11" s="30"/>
       <c r="F11" s="30"/>
@@ -12863,7 +13014,7 @@
     <row r="12" ht="142" customHeight="1" spans="2:14">
       <c r="B12" s="61"/>
       <c r="C12" s="33" t="s">
-        <v>655</v>
+        <v>673</v>
       </c>
       <c r="D12" s="33"/>
       <c r="E12" s="33"/>
@@ -12879,11 +13030,11 @@
     </row>
     <row r="13" ht="22" customHeight="1" spans="2:14">
       <c r="B13" s="62" t="s">
-        <v>656</v>
+        <v>674</v>
       </c>
       <c r="C13" s="30"/>
       <c r="D13" s="33" t="s">
-        <v>657</v>
+        <v>675</v>
       </c>
       <c r="E13" s="50"/>
       <c r="F13" s="50"/>
@@ -12899,7 +13050,7 @@
     <row r="14" ht="156" customHeight="1" spans="2:14">
       <c r="B14" s="62"/>
       <c r="C14" s="33" t="s">
-        <v>658</v>
+        <v>676</v>
       </c>
       <c r="D14" s="33"/>
       <c r="E14" s="33"/>
@@ -12915,12 +13066,12 @@
     </row>
     <row r="16" customHeight="1" spans="1:1">
       <c r="A16" s="60" t="s">
-        <v>659</v>
+        <v>677</v>
       </c>
     </row>
     <row r="17" ht="54" customHeight="1" spans="2:14">
       <c r="B17" s="31" t="s">
-        <v>660</v>
+        <v>678</v>
       </c>
       <c r="C17" s="29"/>
       <c r="D17" s="29"/>
@@ -12937,7 +13088,7 @@
     </row>
     <row r="18" ht="49" customHeight="1" spans="2:14">
       <c r="B18" s="31" t="s">
-        <v>661</v>
+        <v>679</v>
       </c>
       <c r="C18" s="29"/>
       <c r="D18" s="29"/>
@@ -12954,7 +13105,7 @@
     </row>
     <row r="19" customHeight="1" spans="2:14">
       <c r="B19" s="61" t="s">
-        <v>644</v>
+        <v>662</v>
       </c>
       <c r="C19" s="30"/>
       <c r="D19" s="30"/>
@@ -12971,7 +13122,7 @@
     </row>
     <row r="20" customHeight="1" spans="2:14">
       <c r="B20" s="63" t="s">
-        <v>662</v>
+        <v>680</v>
       </c>
       <c r="C20" s="30"/>
       <c r="D20" s="30"/>
@@ -12989,7 +13140,7 @@
     <row r="21" ht="42" customHeight="1" spans="2:14">
       <c r="B21" s="61"/>
       <c r="C21" s="29" t="s">
-        <v>663</v>
+        <v>681</v>
       </c>
       <c r="D21" s="30"/>
       <c r="E21" s="30"/>
@@ -13005,7 +13156,7 @@
     </row>
     <row r="22" customHeight="1" spans="2:14">
       <c r="B22" s="62" t="s">
-        <v>664</v>
+        <v>682</v>
       </c>
       <c r="C22" s="30"/>
       <c r="D22" s="30"/>
@@ -13023,7 +13174,7 @@
     <row r="23" ht="84" customHeight="1" spans="2:14">
       <c r="B23" s="61"/>
       <c r="C23" s="29" t="s">
-        <v>665</v>
+        <v>683</v>
       </c>
       <c r="D23" s="30"/>
       <c r="E23" s="30"/>
@@ -13039,7 +13190,7 @@
     </row>
     <row r="24" customHeight="1" spans="2:14">
       <c r="B24" s="61" t="s">
-        <v>666</v>
+        <v>684</v>
       </c>
       <c r="C24" s="30"/>
       <c r="D24" s="30"/>
@@ -13057,7 +13208,7 @@
     <row r="25" ht="52" customHeight="1" spans="2:14">
       <c r="B25" s="61"/>
       <c r="C25" s="29" t="s">
-        <v>667</v>
+        <v>685</v>
       </c>
       <c r="D25" s="29"/>
       <c r="E25" s="29"/>
@@ -13074,7 +13225,7 @@
     <row r="26" ht="169" customHeight="1" spans="2:14">
       <c r="B26" s="61"/>
       <c r="C26" s="29" t="s">
-        <v>668</v>
+        <v>686</v>
       </c>
       <c r="D26" s="29"/>
       <c r="E26" s="29"/>
@@ -13090,7 +13241,7 @@
     </row>
     <row r="27" customHeight="1" spans="2:14">
       <c r="B27" s="62" t="s">
-        <v>669</v>
+        <v>687</v>
       </c>
       <c r="C27" s="30"/>
       <c r="D27" s="30"/>
@@ -13108,7 +13259,7 @@
     <row r="28" ht="73" customHeight="1" spans="2:14">
       <c r="B28" s="61"/>
       <c r="C28" s="29" t="s">
-        <v>670</v>
+        <v>688</v>
       </c>
       <c r="D28" s="30"/>
       <c r="E28" s="30"/>
@@ -13124,7 +13275,7 @@
     </row>
     <row r="29" customHeight="1" spans="2:14">
       <c r="B29" s="62" t="s">
-        <v>647</v>
+        <v>665</v>
       </c>
       <c r="C29" s="30"/>
       <c r="D29" s="30"/>
@@ -13142,7 +13293,7 @@
     <row r="30" ht="150" customHeight="1" spans="2:14">
       <c r="B30" s="61"/>
       <c r="C30" s="29" t="s">
-        <v>671</v>
+        <v>689</v>
       </c>
       <c r="D30" s="30"/>
       <c r="E30" s="30"/>
@@ -13158,7 +13309,7 @@
     </row>
     <row r="31" customHeight="1" spans="2:14">
       <c r="B31" s="62" t="s">
-        <v>672</v>
+        <v>690</v>
       </c>
       <c r="C31" s="30"/>
       <c r="D31" s="30"/>
@@ -13176,7 +13327,7 @@
     <row r="32" ht="112" customHeight="1" spans="2:14">
       <c r="B32" s="61"/>
       <c r="C32" s="29" t="s">
-        <v>673</v>
+        <v>691</v>
       </c>
       <c r="D32" s="29"/>
       <c r="E32" s="29"/>
@@ -13192,7 +13343,7 @@
     </row>
     <row r="33" customHeight="1" spans="2:14">
       <c r="B33" s="62" t="s">
-        <v>674</v>
+        <v>692</v>
       </c>
       <c r="C33" s="30"/>
       <c r="D33" s="30"/>
@@ -13210,7 +13361,7 @@
     <row r="34" ht="44" customHeight="1" spans="2:14">
       <c r="B34" s="61"/>
       <c r="C34" s="29" t="s">
-        <v>675</v>
+        <v>693</v>
       </c>
       <c r="D34" s="30"/>
       <c r="E34" s="30"/>
@@ -13226,11 +13377,11 @@
     </row>
     <row r="35" customHeight="1" spans="2:14">
       <c r="B35" s="62" t="s">
-        <v>676</v>
+        <v>694</v>
       </c>
       <c r="C35" s="30"/>
       <c r="D35" s="30" t="s">
-        <v>677</v>
+        <v>695</v>
       </c>
       <c r="E35" s="30"/>
       <c r="F35" s="30"/>
@@ -13246,7 +13397,7 @@
     <row r="36" ht="233" customHeight="1" spans="2:14">
       <c r="B36" s="61"/>
       <c r="C36" s="29" t="s">
-        <v>678</v>
+        <v>696</v>
       </c>
       <c r="D36" s="29"/>
       <c r="E36" s="29"/>
@@ -13262,7 +13413,7 @@
     </row>
     <row r="37" customHeight="1" spans="2:14">
       <c r="B37" s="62" t="s">
-        <v>679</v>
+        <v>697</v>
       </c>
       <c r="C37" s="30"/>
       <c r="D37" s="30"/>
@@ -13309,12 +13460,12 @@
     </row>
     <row r="40" customHeight="1" spans="1:1">
       <c r="A40" s="60" t="s">
-        <v>680</v>
+        <v>698</v>
       </c>
     </row>
     <row r="41" ht="72" customHeight="1" spans="2:14">
       <c r="B41" s="31" t="s">
-        <v>681</v>
+        <v>699</v>
       </c>
       <c r="C41" s="29"/>
       <c r="D41" s="29"/>
@@ -13331,12 +13482,12 @@
     </row>
     <row r="42" customHeight="1" spans="2:2">
       <c r="B42" s="28" t="s">
-        <v>682</v>
+        <v>700</v>
       </c>
     </row>
     <row r="43" ht="47" customHeight="1" spans="3:14">
       <c r="C43" s="29" t="s">
-        <v>683</v>
+        <v>701</v>
       </c>
       <c r="D43" s="29"/>
       <c r="E43" s="29"/>
@@ -13352,16 +13503,16 @@
     </row>
     <row r="44" ht="90" customHeight="1" spans="2:2">
       <c r="B44" s="64" t="s">
-        <v>684</v>
+        <v>702</v>
       </c>
     </row>
     <row r="45" ht="63" customHeight="1" spans="1:14">
       <c r="A45" s="60" t="s">
-        <v>685</v>
+        <v>703</v>
       </c>
       <c r="B45" s="64"/>
       <c r="C45" s="29" t="s">
-        <v>686</v>
+        <v>704</v>
       </c>
       <c r="D45" s="30"/>
       <c r="E45" s="30"/>
@@ -13377,13 +13528,13 @@
     </row>
     <row r="46" customHeight="1" spans="2:2">
       <c r="B46" s="64" t="s">
-        <v>662</v>
+        <v>680</v>
       </c>
     </row>
     <row r="47" customHeight="1" spans="2:14">
       <c r="B47" s="64"/>
       <c r="C47" s="29" t="s">
-        <v>687</v>
+        <v>705</v>
       </c>
       <c r="D47" s="29"/>
       <c r="E47" s="29"/>
@@ -13399,13 +13550,13 @@
     </row>
     <row r="48" ht="33" customHeight="1" spans="2:2">
       <c r="B48" s="64" t="s">
-        <v>688</v>
+        <v>706</v>
       </c>
     </row>
     <row r="49" ht="27" customHeight="1" spans="2:14">
       <c r="B49" s="64"/>
       <c r="D49" s="29" t="s">
-        <v>689</v>
+        <v>707</v>
       </c>
       <c r="E49" s="29"/>
       <c r="F49" s="29"/>
@@ -13421,7 +13572,7 @@
     <row r="50" ht="90" customHeight="1" spans="2:14">
       <c r="B50" s="64"/>
       <c r="D50" s="29" t="s">
-        <v>690</v>
+        <v>708</v>
       </c>
       <c r="E50" s="30"/>
       <c r="F50" s="30"/>
@@ -13451,12 +13602,12 @@
     </row>
     <row r="57" customHeight="1" spans="1:1">
       <c r="A57" s="60" t="s">
-        <v>691</v>
+        <v>709</v>
       </c>
     </row>
     <row r="58" ht="61" customHeight="1" spans="2:14">
       <c r="B58" s="31" t="s">
-        <v>692</v>
+        <v>710</v>
       </c>
       <c r="C58" s="29"/>
       <c r="D58" s="29"/>
@@ -13473,7 +13624,7 @@
     </row>
     <row r="59" customHeight="1" spans="2:14">
       <c r="B59" s="61" t="s">
-        <v>693</v>
+        <v>711</v>
       </c>
       <c r="C59" s="30"/>
       <c r="D59" s="30"/>
@@ -13490,12 +13641,12 @@
     </row>
     <row r="60" customHeight="1" spans="1:1">
       <c r="A60" s="60" t="s">
-        <v>694</v>
+        <v>712</v>
       </c>
     </row>
     <row r="61" ht="146" customHeight="1" spans="2:14">
       <c r="B61" s="31" t="s">
-        <v>695</v>
+        <v>713</v>
       </c>
       <c r="C61" s="29"/>
       <c r="D61" s="29"/>
@@ -13512,7 +13663,7 @@
     </row>
     <row r="62" ht="28" customHeight="1" spans="2:14">
       <c r="B62" s="63" t="s">
-        <v>696</v>
+        <v>714</v>
       </c>
       <c r="C62" s="29"/>
       <c r="D62" s="29"/>
@@ -13530,7 +13681,7 @@
     <row r="63" ht="42" customHeight="1" spans="2:14">
       <c r="B63" s="31"/>
       <c r="C63" s="29" t="s">
-        <v>697</v>
+        <v>715</v>
       </c>
       <c r="D63" s="29"/>
       <c r="E63" s="29"/>
@@ -13546,11 +13697,11 @@
     </row>
     <row r="64" ht="20" customHeight="1" spans="2:14">
       <c r="B64" s="31" t="s">
-        <v>698</v>
+        <v>716</v>
       </c>
       <c r="C64" s="29"/>
       <c r="D64" s="29" t="s">
-        <v>699</v>
+        <v>717</v>
       </c>
       <c r="E64" s="29"/>
       <c r="F64" s="29"/>
@@ -13670,7 +13821,7 @@
     </row>
     <row r="73" customHeight="1" spans="1:14">
       <c r="A73" s="60" t="s">
-        <v>700</v>
+        <v>718</v>
       </c>
       <c r="B73"/>
       <c r="C73" s="65"/>
@@ -13689,7 +13840,7 @@
     <row r="74" ht="53" customHeight="1" spans="1:14">
       <c r="A74" s="66"/>
       <c r="B74" s="31" t="s">
-        <v>701</v>
+        <v>719</v>
       </c>
       <c r="C74" s="29"/>
       <c r="D74" s="29"/>
@@ -13706,12 +13857,12 @@
     </row>
     <row r="75" customHeight="1" spans="2:2">
       <c r="B75" s="28" t="s">
-        <v>702</v>
+        <v>720</v>
       </c>
     </row>
     <row r="76" ht="48" customHeight="1" spans="3:14">
       <c r="C76" s="29" t="s">
-        <v>703</v>
+        <v>721</v>
       </c>
       <c r="D76" s="29"/>
       <c r="E76" s="29"/>
@@ -13727,12 +13878,12 @@
     </row>
     <row r="77" customHeight="1" spans="2:2">
       <c r="B77" s="28" t="s">
-        <v>704</v>
+        <v>722</v>
       </c>
     </row>
     <row r="78" ht="79" customHeight="1" spans="3:14">
       <c r="C78" s="29" t="s">
-        <v>705</v>
+        <v>723</v>
       </c>
       <c r="D78" s="29"/>
       <c r="E78" s="29"/>
@@ -13748,12 +13899,12 @@
     </row>
     <row r="79" customHeight="1" spans="2:2">
       <c r="B79" s="28" t="s">
-        <v>706</v>
+        <v>724</v>
       </c>
     </row>
     <row r="80" ht="58" customHeight="1" spans="3:14">
       <c r="C80" s="29" t="s">
-        <v>707</v>
+        <v>725</v>
       </c>
       <c r="D80" s="29"/>
       <c r="E80" s="29"/>
@@ -13769,12 +13920,12 @@
     </row>
     <row r="81" customHeight="1" spans="2:2">
       <c r="B81" s="28" t="s">
-        <v>708</v>
+        <v>726</v>
       </c>
     </row>
     <row r="82" ht="33" customHeight="1" spans="3:14">
       <c r="C82" s="29" t="s">
-        <v>709</v>
+        <v>727</v>
       </c>
       <c r="D82" s="29"/>
       <c r="E82" s="29"/>
@@ -13790,12 +13941,12 @@
     </row>
     <row r="83" customHeight="1" spans="2:2">
       <c r="B83" s="28" t="s">
-        <v>710</v>
+        <v>728</v>
       </c>
     </row>
     <row r="84" ht="95" customHeight="1" spans="3:14">
       <c r="C84" s="29" t="s">
-        <v>711</v>
+        <v>729</v>
       </c>
       <c r="D84" s="29"/>
       <c r="E84" s="29"/>
@@ -13885,12 +14036,12 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="41" t="s">
-        <v>712</v>
+        <v>730</v>
       </c>
     </row>
     <row r="2" spans="2:2">
       <c r="B2" s="42" t="s">
-        <v>713</v>
+        <v>731</v>
       </c>
     </row>
     <row r="3" spans="3:3">
@@ -13900,7 +14051,7 @@
     </row>
     <row r="4" ht="57" customHeight="1" spans="4:13">
       <c r="D4" s="29" t="s">
-        <v>714</v>
+        <v>732</v>
       </c>
       <c r="E4" s="29"/>
       <c r="F4" s="29"/>
@@ -13914,10 +14065,10 @@
     </row>
     <row r="5" ht="24" customHeight="1" spans="2:11">
       <c r="B5" s="42" t="s">
-        <v>715</v>
+        <v>733</v>
       </c>
       <c r="C5" s="44" t="s">
-        <v>716</v>
+        <v>734</v>
       </c>
       <c r="D5" s="44"/>
       <c r="E5" s="44"/>
@@ -13930,7 +14081,7 @@
     </row>
     <row r="6" ht="100" customHeight="1" spans="3:13">
       <c r="C6" s="45" t="s">
-        <v>717</v>
+        <v>735</v>
       </c>
       <c r="D6" s="45"/>
       <c r="E6" s="45"/>
@@ -13945,12 +14096,12 @@
     </row>
     <row r="7" spans="2:2">
       <c r="B7" s="42" t="s">
-        <v>718</v>
+        <v>736</v>
       </c>
     </row>
     <row r="8" ht="54" customHeight="1" spans="3:13">
       <c r="C8" s="29" t="s">
-        <v>719</v>
+        <v>737</v>
       </c>
       <c r="D8" s="29"/>
       <c r="E8" s="29"/>
@@ -13965,10 +14116,10 @@
     </row>
     <row r="10" ht="37" customHeight="1" spans="2:13">
       <c r="B10" s="42" t="s">
-        <v>720</v>
+        <v>738</v>
       </c>
       <c r="C10" s="46" t="s">
-        <v>721</v>
+        <v>739</v>
       </c>
       <c r="D10" s="46"/>
       <c r="E10" s="46"/>
@@ -13996,12 +14147,12 @@
     </row>
     <row r="12" ht="19" customHeight="1" spans="2:2">
       <c r="B12" s="42" t="s">
-        <v>722</v>
+        <v>740</v>
       </c>
     </row>
     <row r="13" ht="93" customHeight="1" spans="3:13">
       <c r="C13" s="29" t="s">
-        <v>723</v>
+        <v>741</v>
       </c>
       <c r="D13" s="29"/>
       <c r="E13" s="29"/>
@@ -14016,15 +14167,15 @@
     </row>
     <row r="15" spans="1:1">
       <c r="A15" s="41" t="s">
-        <v>724</v>
+        <v>742</v>
       </c>
     </row>
     <row r="16" spans="2:13">
       <c r="B16" s="42" t="s">
-        <v>725</v>
+        <v>743</v>
       </c>
       <c r="D16" s="30" t="s">
-        <v>726</v>
+        <v>744</v>
       </c>
       <c r="E16" s="30"/>
       <c r="F16" s="30"/>
@@ -14038,7 +14189,7 @@
     </row>
     <row r="17" ht="53" customHeight="1" spans="3:13">
       <c r="C17" s="29" t="s">
-        <v>727</v>
+        <v>745</v>
       </c>
       <c r="D17" s="29"/>
       <c r="E17" s="29"/>
@@ -14053,7 +14204,7 @@
     </row>
     <row r="18" ht="54" customHeight="1" spans="3:13">
       <c r="C18" s="29" t="s">
-        <v>728</v>
+        <v>746</v>
       </c>
       <c r="D18" s="29"/>
       <c r="E18" s="29"/>
@@ -14068,12 +14219,12 @@
     </row>
     <row r="19" ht="21" customHeight="1" spans="2:2">
       <c r="B19" s="42" t="s">
-        <v>729</v>
+        <v>747</v>
       </c>
     </row>
     <row r="20" ht="129" customHeight="1" spans="3:13">
       <c r="C20" s="29" t="s">
-        <v>730</v>
+        <v>748</v>
       </c>
       <c r="D20" s="29"/>
       <c r="E20" s="29"/>
@@ -14088,12 +14239,12 @@
     </row>
     <row r="21" spans="2:2">
       <c r="B21" s="42" t="s">
-        <v>731</v>
+        <v>749</v>
       </c>
     </row>
     <row r="22" ht="180" customHeight="1" spans="3:13">
-      <c r="C22" s="117" t="s">
-        <v>732</v>
+      <c r="C22" s="119" t="s">
+        <v>750</v>
       </c>
       <c r="D22" s="30"/>
       <c r="E22" s="30"/>
@@ -14108,12 +14259,12 @@
     </row>
     <row r="23" spans="2:2">
       <c r="B23" s="42" t="s">
-        <v>733</v>
+        <v>751</v>
       </c>
     </row>
     <row r="24" ht="49" customHeight="1" spans="3:13">
       <c r="C24" s="29" t="s">
-        <v>734</v>
+        <v>752</v>
       </c>
       <c r="D24" s="29"/>
       <c r="E24" s="29"/>
@@ -14128,12 +14279,12 @@
     </row>
     <row r="26" spans="1:1">
       <c r="A26" s="41" t="s">
-        <v>735</v>
+        <v>753</v>
       </c>
     </row>
     <row r="27" ht="73" customHeight="1" spans="2:13">
       <c r="B27" s="38" t="s">
-        <v>736</v>
+        <v>754</v>
       </c>
       <c r="C27" s="38"/>
       <c r="D27" s="38"/>
@@ -14149,12 +14300,12 @@
     </row>
     <row r="28" spans="2:2">
       <c r="B28" s="42" t="s">
-        <v>737</v>
+        <v>755</v>
       </c>
     </row>
     <row r="29" ht="57" customHeight="1" spans="3:13">
       <c r="C29" s="29" t="s">
-        <v>738</v>
+        <v>756</v>
       </c>
       <c r="D29" s="29"/>
       <c r="E29" s="29"/>
@@ -14169,10 +14320,10 @@
     </row>
     <row r="30" spans="2:13">
       <c r="B30" s="42" t="s">
-        <v>739</v>
+        <v>757</v>
       </c>
       <c r="D30" s="47" t="s">
-        <v>740</v>
+        <v>758</v>
       </c>
       <c r="E30" s="47"/>
       <c r="F30" s="47"/>
@@ -14186,7 +14337,7 @@
     </row>
     <row r="31" ht="127" customHeight="1" spans="3:13">
       <c r="C31" s="29" t="s">
-        <v>741</v>
+        <v>759</v>
       </c>
       <c r="D31" s="29"/>
       <c r="E31" s="29"/>
@@ -14201,10 +14352,10 @@
     </row>
     <row r="32" spans="2:13">
       <c r="B32" s="42" t="s">
-        <v>742</v>
+        <v>760</v>
       </c>
       <c r="D32" s="47" t="s">
-        <v>740</v>
+        <v>758</v>
       </c>
       <c r="E32" s="47"/>
       <c r="F32" s="47"/>
@@ -14218,7 +14369,7 @@
     </row>
     <row r="33" ht="81" customHeight="1" spans="3:13">
       <c r="C33" s="29" t="s">
-        <v>743</v>
+        <v>761</v>
       </c>
       <c r="D33" s="29"/>
       <c r="E33" s="29"/>
@@ -14233,7 +14384,7 @@
     </row>
     <row r="34" spans="2:13">
       <c r="B34" s="42" t="s">
-        <v>744</v>
+        <v>762</v>
       </c>
       <c r="C34" s="48"/>
       <c r="D34" s="26"/>
@@ -14249,7 +14400,7 @@
     </row>
     <row r="35" ht="36" customHeight="1" spans="3:13">
       <c r="C35" s="29" t="s">
-        <v>745</v>
+        <v>763</v>
       </c>
       <c r="D35" s="29"/>
       <c r="E35" s="29"/>
@@ -14264,10 +14415,10 @@
     </row>
     <row r="36" spans="2:13">
       <c r="B36" s="42" t="s">
-        <v>746</v>
+        <v>764</v>
       </c>
       <c r="D36" s="29" t="s">
-        <v>747</v>
+        <v>765</v>
       </c>
       <c r="E36" s="29"/>
       <c r="F36" s="29"/>
@@ -14281,7 +14432,7 @@
     </row>
     <row r="38" spans="1:7">
       <c r="A38" s="41" t="s">
-        <v>748</v>
+        <v>766</v>
       </c>
       <c r="C38" s="49"/>
       <c r="D38" s="49"/>
@@ -14291,7 +14442,7 @@
     </row>
     <row r="39" ht="60" customHeight="1" spans="2:13">
       <c r="B39" s="38" t="s">
-        <v>749</v>
+        <v>767</v>
       </c>
       <c r="C39" s="38"/>
       <c r="D39" s="38"/>
@@ -14307,10 +14458,10 @@
     </row>
     <row r="40" spans="2:13">
       <c r="B40" s="42" t="s">
-        <v>750</v>
+        <v>768</v>
       </c>
       <c r="D40" s="29" t="s">
-        <v>751</v>
+        <v>769</v>
       </c>
       <c r="E40" s="29"/>
       <c r="F40" s="29"/>
@@ -14324,7 +14475,7 @@
     </row>
     <row r="41" ht="37" customHeight="1" spans="3:13">
       <c r="C41" s="29" t="s">
-        <v>752</v>
+        <v>770</v>
       </c>
       <c r="D41" s="29"/>
       <c r="E41" s="29"/>
@@ -14339,7 +14490,7 @@
     </row>
     <row r="42" spans="4:13">
       <c r="D42" s="29" t="s">
-        <v>753</v>
+        <v>771</v>
       </c>
       <c r="E42" s="29"/>
       <c r="F42" s="29"/>
@@ -14353,7 +14504,7 @@
     </row>
     <row r="43" ht="37" customHeight="1" spans="3:13">
       <c r="C43" s="29" t="s">
-        <v>754</v>
+        <v>772</v>
       </c>
       <c r="D43" s="29"/>
       <c r="E43" s="29"/>
@@ -14368,10 +14519,10 @@
     </row>
     <row r="44" spans="2:13">
       <c r="B44" s="42" t="s">
-        <v>755</v>
+        <v>773</v>
       </c>
       <c r="D44" s="30" t="s">
-        <v>756</v>
+        <v>774</v>
       </c>
       <c r="E44" s="30"/>
       <c r="F44" s="30"/>
@@ -14385,12 +14536,12 @@
     </row>
     <row r="45" spans="3:3">
       <c r="C45" s="43" t="s">
-        <v>757</v>
+        <v>775</v>
       </c>
     </row>
     <row r="46" spans="4:13">
       <c r="D46" s="29" t="s">
-        <v>758</v>
+        <v>776</v>
       </c>
       <c r="E46" s="29"/>
       <c r="F46" s="29"/>
@@ -14404,17 +14555,17 @@
     </row>
     <row r="48" spans="1:1">
       <c r="A48" s="41" t="s">
-        <v>759</v>
+        <v>777</v>
       </c>
     </row>
     <row r="49" spans="2:2">
       <c r="B49" s="42" t="s">
-        <v>760</v>
+        <v>778</v>
       </c>
     </row>
     <row r="50" ht="84" customHeight="1" spans="3:13">
       <c r="C50" s="29" t="s">
-        <v>761</v>
+        <v>779</v>
       </c>
       <c r="D50" s="29"/>
       <c r="E50" s="29"/>
@@ -14429,10 +14580,10 @@
     </row>
     <row r="51" spans="3:13">
       <c r="C51" s="32" t="s">
-        <v>762</v>
+        <v>780</v>
       </c>
       <c r="E51" s="35" t="s">
-        <v>763</v>
+        <v>781</v>
       </c>
       <c r="F51" s="35"/>
       <c r="G51" s="35"/>
@@ -14445,7 +14596,7 @@
     </row>
     <row r="52" spans="3:13">
       <c r="C52" s="32" t="s">
-        <v>764</v>
+        <v>782</v>
       </c>
       <c r="E52" s="35"/>
       <c r="F52" s="35"/>
@@ -14459,7 +14610,7 @@
     </row>
     <row r="53" spans="4:13">
       <c r="D53" s="33" t="s">
-        <v>765</v>
+        <v>783</v>
       </c>
       <c r="E53" s="33"/>
       <c r="F53" s="33"/>
@@ -14473,7 +14624,7 @@
     </row>
     <row r="54" ht="60" customHeight="1" spans="4:13">
       <c r="D54" s="29" t="s">
-        <v>766</v>
+        <v>784</v>
       </c>
       <c r="E54" s="29"/>
       <c r="F54" s="29"/>
@@ -14487,12 +14638,12 @@
     </row>
     <row r="56" spans="3:3">
       <c r="C56" s="32" t="s">
-        <v>767</v>
+        <v>785</v>
       </c>
     </row>
     <row r="57" ht="133" customHeight="1" spans="4:13">
       <c r="D57" s="29" t="s">
-        <v>768</v>
+        <v>786</v>
       </c>
       <c r="E57" s="29"/>
       <c r="F57" s="29"/>
@@ -14506,10 +14657,10 @@
     </row>
     <row r="59" spans="1:13">
       <c r="A59" s="41" t="s">
-        <v>769</v>
+        <v>787</v>
       </c>
       <c r="C59" s="29" t="s">
-        <v>770</v>
+        <v>788</v>
       </c>
       <c r="D59" s="29"/>
       <c r="E59" s="29"/>
@@ -14524,10 +14675,10 @@
     </row>
     <row r="60" ht="90" customHeight="1" spans="2:13">
       <c r="B60" s="42" t="s">
-        <v>771</v>
+        <v>789</v>
       </c>
       <c r="C60" s="29" t="s">
-        <v>772</v>
+        <v>790</v>
       </c>
       <c r="D60" s="29"/>
       <c r="E60" s="29"/>
@@ -14542,10 +14693,10 @@
     </row>
     <row r="61" spans="2:13">
       <c r="B61" s="42" t="s">
-        <v>773</v>
+        <v>791</v>
       </c>
       <c r="D61" s="30" t="s">
-        <v>774</v>
+        <v>792</v>
       </c>
       <c r="E61" s="30"/>
       <c r="F61" s="30"/>
@@ -14559,7 +14710,7 @@
     </row>
     <row r="62" ht="36" customHeight="1" spans="3:13">
       <c r="C62" s="29" t="s">
-        <v>775</v>
+        <v>793</v>
       </c>
       <c r="D62" s="30"/>
       <c r="E62" s="30"/>
@@ -14574,10 +14725,10 @@
     </row>
     <row r="64" ht="20" customHeight="1" spans="1:13">
       <c r="A64" s="41" t="s">
-        <v>776</v>
+        <v>794</v>
       </c>
       <c r="C64" s="30" t="s">
-        <v>777</v>
+        <v>795</v>
       </c>
       <c r="D64" s="30"/>
       <c r="E64" s="30"/>
@@ -14592,12 +14743,12 @@
     </row>
     <row r="65" spans="2:2">
       <c r="B65" s="42" t="s">
-        <v>778</v>
+        <v>796</v>
       </c>
     </row>
     <row r="66" ht="123" customHeight="1" spans="3:13">
       <c r="C66" s="29" t="s">
-        <v>779</v>
+        <v>797</v>
       </c>
       <c r="D66" s="29"/>
       <c r="E66" s="29"/>
@@ -14612,12 +14763,12 @@
     </row>
     <row r="67" spans="2:2">
       <c r="B67" s="42" t="s">
-        <v>780</v>
+        <v>798</v>
       </c>
     </row>
     <row r="68" ht="241" customHeight="1" spans="3:13">
       <c r="C68" s="29" t="s">
-        <v>781</v>
+        <v>799</v>
       </c>
       <c r="D68" s="29"/>
       <c r="E68" s="29"/>
@@ -14645,10 +14796,10 @@
     </row>
     <row r="70" ht="51" customHeight="1" spans="1:13">
       <c r="A70" s="41" t="s">
-        <v>782</v>
+        <v>800</v>
       </c>
       <c r="C70" s="29" t="s">
-        <v>783</v>
+        <v>801</v>
       </c>
       <c r="D70" s="29"/>
       <c r="E70" s="29"/>
@@ -14663,12 +14814,12 @@
     </row>
     <row r="71" spans="2:2">
       <c r="B71" s="42" t="s">
-        <v>784</v>
+        <v>802</v>
       </c>
     </row>
     <row r="72" ht="73" customHeight="1" spans="3:13">
       <c r="C72" s="29" t="s">
-        <v>785</v>
+        <v>803</v>
       </c>
       <c r="D72" s="30"/>
       <c r="E72" s="30"/>
@@ -14683,15 +14834,15 @@
     </row>
     <row r="73" spans="2:5">
       <c r="B73" s="42" t="s">
-        <v>786</v>
+        <v>804</v>
       </c>
       <c r="E73" s="3" t="s">
-        <v>787</v>
+        <v>805</v>
       </c>
     </row>
     <row r="74" ht="56" customHeight="1" spans="3:13">
       <c r="C74" s="29" t="s">
-        <v>788</v>
+        <v>806</v>
       </c>
       <c r="D74" s="30"/>
       <c r="E74" s="30"/>
@@ -14706,12 +14857,12 @@
     </row>
     <row r="75" spans="3:3">
       <c r="C75" s="32" t="s">
-        <v>789</v>
+        <v>807</v>
       </c>
     </row>
     <row r="76" ht="72" customHeight="1" spans="4:13">
       <c r="D76" s="29" t="s">
-        <v>790</v>
+        <v>808</v>
       </c>
       <c r="E76" s="29"/>
       <c r="F76" s="29"/>
@@ -14725,12 +14876,12 @@
     </row>
     <row r="77" spans="3:3">
       <c r="C77" s="32" t="s">
-        <v>791</v>
+        <v>809</v>
       </c>
     </row>
     <row r="78" spans="4:13">
       <c r="D78" s="30" t="s">
-        <v>792</v>
+        <v>810</v>
       </c>
       <c r="E78" s="30"/>
       <c r="F78" s="30"/>
@@ -14744,19 +14895,19 @@
     </row>
     <row r="79" spans="1:13">
       <c r="A79" s="41" t="s">
-        <v>793</v>
+        <v>811</v>
       </c>
       <c r="M79" s="27"/>
     </row>
     <row r="80" spans="2:13">
       <c r="B80" s="42" t="s">
-        <v>794</v>
+        <v>812</v>
       </c>
       <c r="M80" s="27"/>
     </row>
     <row r="81" spans="3:13">
       <c r="C81" s="50" t="s">
-        <v>795</v>
+        <v>813</v>
       </c>
       <c r="D81" s="30"/>
       <c r="E81" s="30"/>
@@ -14772,7 +14923,7 @@
     <row r="82" ht="40" customHeight="1" spans="3:13">
       <c r="C82" s="30"/>
       <c r="D82" s="29" t="s">
-        <v>796</v>
+        <v>814</v>
       </c>
       <c r="E82" s="29"/>
       <c r="F82" s="29"/>
@@ -14786,7 +14937,7 @@
     </row>
     <row r="83" spans="3:13">
       <c r="C83" s="50" t="s">
-        <v>797</v>
+        <v>815</v>
       </c>
       <c r="D83" s="30"/>
       <c r="E83" s="30"/>
@@ -14802,7 +14953,7 @@
     <row r="84" ht="57" customHeight="1" spans="3:13">
       <c r="C84" s="30"/>
       <c r="D84" s="29" t="s">
-        <v>798</v>
+        <v>816</v>
       </c>
       <c r="E84" s="29"/>
       <c r="F84" s="29"/>
@@ -14816,7 +14967,7 @@
     </row>
     <row r="85" spans="3:13">
       <c r="C85" s="50" t="s">
-        <v>799</v>
+        <v>817</v>
       </c>
       <c r="D85" s="30"/>
       <c r="E85" s="30"/>
@@ -14832,7 +14983,7 @@
     <row r="86" ht="67" customHeight="1" spans="3:13">
       <c r="C86" s="30"/>
       <c r="D86" s="29" t="s">
-        <v>800</v>
+        <v>818</v>
       </c>
       <c r="E86" s="29"/>
       <c r="F86" s="29"/>
@@ -14847,7 +14998,7 @@
     <row r="87" ht="279" customHeight="1" spans="3:13">
       <c r="C87" s="30"/>
       <c r="D87" s="29" t="s">
-        <v>801</v>
+        <v>819</v>
       </c>
       <c r="E87" s="29"/>
       <c r="F87" s="29"/>
@@ -14861,7 +15012,7 @@
     </row>
     <row r="88" spans="3:13">
       <c r="C88" s="50" t="s">
-        <v>802</v>
+        <v>820</v>
       </c>
       <c r="D88" s="30"/>
       <c r="E88" s="30"/>
@@ -14877,7 +15028,7 @@
     <row r="89" ht="38" customHeight="1" spans="3:13">
       <c r="C89" s="30"/>
       <c r="D89" s="29" t="s">
-        <v>803</v>
+        <v>821</v>
       </c>
       <c r="E89" s="29"/>
       <c r="F89" s="29"/>
@@ -14892,7 +15043,7 @@
     <row r="90" spans="3:13">
       <c r="C90" s="30"/>
       <c r="D90" s="50" t="s">
-        <v>804</v>
+        <v>822</v>
       </c>
       <c r="E90" s="30"/>
       <c r="F90" s="30"/>
@@ -14908,7 +15059,7 @@
       <c r="C91" s="30"/>
       <c r="D91" s="30"/>
       <c r="E91" s="51" t="s">
-        <v>805</v>
+        <v>823</v>
       </c>
       <c r="F91" s="29"/>
       <c r="G91" s="29"/>
@@ -14922,7 +15073,7 @@
     <row r="92" ht="21" customHeight="1" spans="3:13">
       <c r="C92" s="30"/>
       <c r="D92" s="50" t="s">
-        <v>806</v>
+        <v>824</v>
       </c>
       <c r="E92" s="51"/>
       <c r="F92" s="29"/>
@@ -14938,7 +15089,7 @@
       <c r="C93" s="30"/>
       <c r="D93" s="30"/>
       <c r="E93" s="29" t="s">
-        <v>807</v>
+        <v>825</v>
       </c>
       <c r="F93" s="29"/>
       <c r="G93" s="29"/>
@@ -14952,7 +15103,7 @@
     <row r="94" ht="27" customHeight="1" spans="3:13">
       <c r="C94" s="30"/>
       <c r="D94" s="50" t="s">
-        <v>808</v>
+        <v>826</v>
       </c>
       <c r="E94" s="51"/>
       <c r="F94" s="29"/>
@@ -14968,7 +15119,7 @@
       <c r="C95" s="30"/>
       <c r="D95" s="30"/>
       <c r="E95" s="29" t="s">
-        <v>809</v>
+        <v>827</v>
       </c>
       <c r="F95" s="29"/>
       <c r="G95" s="29"/>
@@ -14983,7 +15134,7 @@
       <c r="C96" s="30"/>
       <c r="D96" s="30"/>
       <c r="E96" s="29" t="s">
-        <v>810</v>
+        <v>828</v>
       </c>
       <c r="F96" s="29"/>
       <c r="G96" s="29"/>
@@ -14996,13 +15147,13 @@
     </row>
     <row r="97" spans="2:13">
       <c r="B97" s="42" t="s">
-        <v>811</v>
+        <v>829</v>
       </c>
       <c r="M97" s="27"/>
     </row>
     <row r="98" spans="3:13">
       <c r="C98" s="36" t="s">
-        <v>812</v>
+        <v>830</v>
       </c>
       <c r="D98" s="37"/>
       <c r="E98" s="37"/>
@@ -15018,7 +15169,7 @@
     <row r="99" spans="3:13">
       <c r="C99" s="30"/>
       <c r="D99" s="29" t="s">
-        <v>813</v>
+        <v>831</v>
       </c>
       <c r="E99" s="29"/>
       <c r="F99" s="29"/>
@@ -15032,12 +15183,12 @@
     </row>
     <row r="100" spans="3:13">
       <c r="C100" s="50" t="s">
-        <v>814</v>
+        <v>832</v>
       </c>
       <c r="D100" s="30"/>
       <c r="E100" s="30"/>
       <c r="F100" s="30" t="s">
-        <v>815</v>
+        <v>833</v>
       </c>
       <c r="G100" s="30"/>
       <c r="H100" s="30"/>
@@ -15050,7 +15201,7 @@
     <row r="101" ht="95" customHeight="1" spans="3:13">
       <c r="C101" s="30"/>
       <c r="D101" s="29" t="s">
-        <v>816</v>
+        <v>834</v>
       </c>
       <c r="E101" s="29"/>
       <c r="F101" s="29"/>
@@ -15065,7 +15216,7 @@
     <row r="102" ht="75" customHeight="1" spans="3:13">
       <c r="C102" s="30"/>
       <c r="D102" s="29" t="s">
-        <v>817</v>
+        <v>835</v>
       </c>
       <c r="E102" s="29"/>
       <c r="F102" s="29"/>
@@ -15079,7 +15230,7 @@
     </row>
     <row r="103" spans="3:13">
       <c r="C103" s="50" t="s">
-        <v>818</v>
+        <v>836</v>
       </c>
       <c r="D103" s="30"/>
       <c r="E103" s="30"/>
@@ -15095,7 +15246,7 @@
     <row r="104" spans="3:13">
       <c r="C104" s="30"/>
       <c r="D104" s="50" t="s">
-        <v>819</v>
+        <v>837</v>
       </c>
       <c r="E104" s="30"/>
       <c r="F104" s="30"/>
@@ -15111,7 +15262,7 @@
       <c r="C105" s="30"/>
       <c r="D105" s="30"/>
       <c r="E105" s="29" t="s">
-        <v>820</v>
+        <v>838</v>
       </c>
       <c r="F105" s="29"/>
       <c r="G105" s="29"/>
@@ -15125,7 +15276,7 @@
     <row r="106" spans="3:13">
       <c r="C106" s="30"/>
       <c r="D106" s="50" t="s">
-        <v>821</v>
+        <v>839</v>
       </c>
       <c r="E106" s="30"/>
       <c r="F106" s="30"/>
@@ -15141,7 +15292,7 @@
       <c r="C107" s="30"/>
       <c r="D107" s="30"/>
       <c r="E107" s="29" t="s">
-        <v>822</v>
+        <v>840</v>
       </c>
       <c r="F107" s="29"/>
       <c r="G107" s="29"/>
@@ -15167,13 +15318,13 @@
     </row>
     <row r="109" spans="2:13">
       <c r="B109" s="42" t="s">
-        <v>823</v>
+        <v>841</v>
       </c>
       <c r="M109" s="27"/>
     </row>
     <row r="110" spans="3:13">
       <c r="C110" s="52" t="s">
-        <v>824</v>
+        <v>842</v>
       </c>
       <c r="D110" s="48"/>
       <c r="E110" s="48"/>
@@ -15188,7 +15339,7 @@
     </row>
     <row r="111" ht="71" customHeight="1" spans="4:13">
       <c r="D111" s="29" t="s">
-        <v>825</v>
+        <v>843</v>
       </c>
       <c r="E111" s="30"/>
       <c r="F111" s="30"/>
@@ -15205,19 +15356,19 @@
     </row>
     <row r="113" spans="1:13">
       <c r="A113" s="41" t="s">
-        <v>826</v>
+        <v>844</v>
       </c>
       <c r="M113" s="27"/>
     </row>
     <row r="114" spans="2:13">
       <c r="B114" s="42" t="s">
-        <v>827</v>
+        <v>845</v>
       </c>
       <c r="M114" s="27"/>
     </row>
     <row r="115" ht="159" customHeight="1" spans="3:13">
-      <c r="C115" s="117" t="s">
-        <v>828</v>
+      <c r="C115" s="119" t="s">
+        <v>846</v>
       </c>
       <c r="D115" s="29"/>
       <c r="E115" s="29"/>
@@ -15232,13 +15383,13 @@
     </row>
     <row r="116" spans="2:13">
       <c r="B116" s="42" t="s">
-        <v>829</v>
+        <v>847</v>
       </c>
       <c r="M116" s="27"/>
     </row>
     <row r="117" spans="3:13">
       <c r="C117" s="29" t="s">
-        <v>830</v>
+        <v>848</v>
       </c>
       <c r="D117" s="29"/>
       <c r="E117" s="29"/>
@@ -15259,7 +15410,7 @@
     </row>
     <row r="119" ht="138" customHeight="1" spans="3:13">
       <c r="C119" s="29" t="s">
-        <v>831</v>
+        <v>849</v>
       </c>
       <c r="D119" s="29"/>
       <c r="E119" s="29"/>
@@ -15277,19 +15428,19 @@
     </row>
     <row r="121" spans="1:13">
       <c r="A121" s="41" t="s">
-        <v>832</v>
+        <v>850</v>
       </c>
       <c r="M121" s="27"/>
     </row>
     <row r="122" spans="2:13">
       <c r="B122" s="42" t="s">
-        <v>833</v>
+        <v>851</v>
       </c>
       <c r="M122" s="27"/>
     </row>
     <row r="123" ht="153" customHeight="1" spans="3:13">
       <c r="C123" s="39" t="s">
-        <v>834</v>
+        <v>852</v>
       </c>
       <c r="D123" s="53"/>
       <c r="E123" s="53"/>
@@ -15304,13 +15455,13 @@
     </row>
     <row r="124" spans="2:13">
       <c r="B124" s="42" t="s">
-        <v>835</v>
+        <v>853</v>
       </c>
       <c r="M124" s="27"/>
     </row>
     <row r="125" ht="187" customHeight="1" spans="3:13">
       <c r="C125" s="39" t="s">
-        <v>836</v>
+        <v>854</v>
       </c>
       <c r="D125" s="39"/>
       <c r="E125" s="39"/>
@@ -15325,13 +15476,13 @@
     </row>
     <row r="126" spans="3:13">
       <c r="C126" s="32" t="s">
-        <v>837</v>
+        <v>855</v>
       </c>
       <c r="M126" s="27"/>
     </row>
     <row r="127" ht="133" customHeight="1" spans="4:13">
       <c r="D127" s="39" t="s">
-        <v>838</v>
+        <v>856</v>
       </c>
       <c r="E127" s="53"/>
       <c r="F127" s="53"/>
@@ -15345,10 +15496,10 @@
     </row>
     <row r="128" ht="56" customHeight="1" spans="1:13">
       <c r="A128" s="41" t="s">
-        <v>839</v>
+        <v>857</v>
       </c>
       <c r="C128" s="29" t="s">
-        <v>840</v>
+        <v>858</v>
       </c>
       <c r="D128" s="29"/>
       <c r="E128" s="29"/>
@@ -15366,10 +15517,10 @@
     </row>
     <row r="130" ht="90" customHeight="1" spans="2:13">
       <c r="B130" s="54" t="s">
-        <v>841</v>
+        <v>859</v>
       </c>
       <c r="C130" s="29" t="s">
-        <v>842</v>
+        <v>860</v>
       </c>
       <c r="D130" s="30"/>
       <c r="E130" s="30"/>
@@ -15384,13 +15535,13 @@
     </row>
     <row r="131" spans="2:13">
       <c r="B131" s="42" t="s">
-        <v>843</v>
+        <v>861</v>
       </c>
       <c r="M131" s="27"/>
     </row>
     <row r="132" ht="124" customHeight="1" spans="3:13">
       <c r="C132" s="39" t="s">
-        <v>844</v>
+        <v>862</v>
       </c>
       <c r="D132" s="39"/>
       <c r="E132" s="39"/>
@@ -15405,13 +15556,13 @@
     </row>
     <row r="133" spans="2:13">
       <c r="B133" s="42" t="s">
-        <v>845</v>
+        <v>863</v>
       </c>
       <c r="M133" s="27"/>
     </row>
     <row r="134" ht="95" customHeight="1" spans="3:13">
       <c r="C134" s="29" t="s">
-        <v>846</v>
+        <v>864</v>
       </c>
       <c r="D134" s="29"/>
       <c r="E134" s="29"/>
@@ -15429,13 +15580,13 @@
     </row>
     <row r="136" spans="1:13">
       <c r="A136" s="41" t="s">
-        <v>847</v>
+        <v>865</v>
       </c>
       <c r="M136" s="27"/>
     </row>
     <row r="137" ht="60" customHeight="1" spans="2:13">
       <c r="B137" s="55" t="s">
-        <v>848</v>
+        <v>866</v>
       </c>
       <c r="C137" s="55"/>
       <c r="D137" s="55"/>
@@ -15451,13 +15602,13 @@
     </row>
     <row r="138" spans="2:13">
       <c r="B138" s="42" t="s">
-        <v>849</v>
+        <v>867</v>
       </c>
       <c r="M138" s="27"/>
     </row>
     <row r="139" ht="69" customHeight="1" spans="3:13">
       <c r="C139" s="29" t="s">
-        <v>850</v>
+        <v>868</v>
       </c>
       <c r="D139" s="29"/>
       <c r="E139" s="29"/>
@@ -15472,13 +15623,13 @@
     </row>
     <row r="140" spans="2:13">
       <c r="B140" s="42" t="s">
-        <v>851</v>
+        <v>869</v>
       </c>
       <c r="M140" s="27"/>
     </row>
     <row r="141" ht="57" customHeight="1" spans="3:13">
       <c r="C141" s="29" t="s">
-        <v>852</v>
+        <v>870</v>
       </c>
       <c r="D141" s="29"/>
       <c r="E141" s="29"/>
@@ -15493,12 +15644,12 @@
     </row>
     <row r="142" spans="2:2">
       <c r="B142" s="42" t="s">
-        <v>853</v>
+        <v>871</v>
       </c>
     </row>
     <row r="143" ht="39" customHeight="1" spans="3:13">
       <c r="C143" s="29" t="s">
-        <v>854</v>
+        <v>872</v>
       </c>
       <c r="D143" s="29"/>
       <c r="E143" s="29"/>
@@ -15513,7 +15664,7 @@
     </row>
     <row r="144" ht="38" customHeight="1" spans="3:13">
       <c r="C144" s="29" t="s">
-        <v>855</v>
+        <v>873</v>
       </c>
       <c r="D144" s="29"/>
       <c r="E144" s="29"/>
@@ -15528,12 +15679,12 @@
     </row>
     <row r="145" spans="2:2">
       <c r="B145" s="42" t="s">
-        <v>856</v>
+        <v>874</v>
       </c>
     </row>
     <row r="146" ht="38" customHeight="1" spans="3:13">
       <c r="C146" s="29" t="s">
-        <v>857</v>
+        <v>875</v>
       </c>
       <c r="D146" s="29"/>
       <c r="E146" s="29"/>
@@ -15548,7 +15699,7 @@
     </row>
     <row r="147" spans="2:13">
       <c r="B147" s="56" t="s">
-        <v>858</v>
+        <v>876</v>
       </c>
       <c r="C147" s="56"/>
       <c r="D147" s="56"/>
@@ -15564,22 +15715,22 @@
     </row>
     <row r="149" spans="1:1">
       <c r="A149" s="41" t="s">
-        <v>859</v>
+        <v>877</v>
       </c>
     </row>
     <row r="150" spans="2:2">
       <c r="B150" s="42" t="s">
-        <v>860</v>
+        <v>878</v>
       </c>
     </row>
     <row r="151" spans="3:3">
       <c r="C151" s="32" t="s">
-        <v>861</v>
+        <v>879</v>
       </c>
     </row>
     <row r="152" ht="39" customHeight="1" spans="4:13">
       <c r="D152" s="29" t="s">
-        <v>862</v>
+        <v>880</v>
       </c>
       <c r="E152" s="30"/>
       <c r="F152" s="30"/>
@@ -15593,12 +15744,12 @@
     </row>
     <row r="153" spans="3:3">
       <c r="C153" s="32" t="s">
-        <v>863</v>
+        <v>881</v>
       </c>
     </row>
     <row r="154" ht="38" customHeight="1" spans="4:13">
       <c r="D154" s="29" t="s">
-        <v>864</v>
+        <v>882</v>
       </c>
       <c r="E154" s="30"/>
       <c r="F154" s="30"/>
@@ -15612,12 +15763,12 @@
     </row>
     <row r="155" spans="2:2">
       <c r="B155" s="42" t="s">
-        <v>865</v>
+        <v>883</v>
       </c>
     </row>
     <row r="156" ht="168" customHeight="1" spans="3:13">
       <c r="C156" s="29" t="s">
-        <v>866</v>
+        <v>884</v>
       </c>
       <c r="D156" s="29"/>
       <c r="E156" s="29"/>
@@ -15633,17 +15784,17 @@
     <row r="157" ht="21" customHeight="1"/>
     <row r="158" ht="20" customHeight="1" spans="1:1">
       <c r="A158" s="41" t="s">
-        <v>867</v>
+        <v>885</v>
       </c>
     </row>
     <row r="159" spans="2:2">
       <c r="B159" s="42" t="s">
-        <v>868</v>
+        <v>886</v>
       </c>
     </row>
     <row r="160" spans="3:13">
       <c r="C160" s="29" t="s">
-        <v>869</v>
+        <v>887</v>
       </c>
       <c r="D160" s="29"/>
       <c r="E160" s="29"/>
@@ -15658,12 +15809,12 @@
     </row>
     <row r="161" spans="2:2">
       <c r="B161" s="42" t="s">
-        <v>870</v>
+        <v>888</v>
       </c>
     </row>
     <row r="162" ht="35" customHeight="1" spans="3:13">
       <c r="C162" s="29" t="s">
-        <v>871</v>
+        <v>889</v>
       </c>
       <c r="D162" s="29"/>
       <c r="E162" s="29"/>
@@ -15678,12 +15829,12 @@
     </row>
     <row r="163" spans="2:2">
       <c r="B163" s="42" t="s">
-        <v>872</v>
+        <v>890</v>
       </c>
     </row>
     <row r="164" spans="3:13">
       <c r="C164" s="29" t="s">
-        <v>873</v>
+        <v>891</v>
       </c>
       <c r="D164" s="29"/>
       <c r="E164" s="29"/>
@@ -15698,12 +15849,12 @@
     </row>
     <row r="166" spans="1:1">
       <c r="A166" s="41" t="s">
-        <v>872</v>
+        <v>890</v>
       </c>
     </row>
     <row r="167" ht="73" customHeight="1" spans="2:13">
       <c r="B167" s="38" t="s">
-        <v>874</v>
+        <v>892</v>
       </c>
       <c r="C167" s="38"/>
       <c r="D167" s="38"/>
@@ -15719,17 +15870,17 @@
     </row>
     <row r="168" spans="2:2">
       <c r="B168" s="42" t="s">
-        <v>875</v>
+        <v>893</v>
       </c>
     </row>
     <row r="169" spans="3:3">
       <c r="C169" s="32" t="s">
-        <v>876</v>
+        <v>894</v>
       </c>
     </row>
     <row r="170" ht="71" customHeight="1" spans="4:13">
       <c r="D170" s="29" t="s">
-        <v>877</v>
+        <v>895</v>
       </c>
       <c r="E170" s="30"/>
       <c r="F170" s="30"/>
@@ -15743,12 +15894,12 @@
     </row>
     <row r="171" spans="3:3">
       <c r="C171" s="32" t="s">
-        <v>676</v>
+        <v>694</v>
       </c>
     </row>
     <row r="172" ht="234" customHeight="1" spans="4:13">
       <c r="D172" s="29" t="s">
-        <v>878</v>
+        <v>896</v>
       </c>
       <c r="E172" s="29"/>
       <c r="F172" s="29"/>
@@ -15762,12 +15913,12 @@
     </row>
     <row r="173" ht="24" customHeight="1" spans="3:3">
       <c r="C173" s="32" t="s">
-        <v>879</v>
+        <v>897</v>
       </c>
     </row>
     <row r="174" spans="4:13">
       <c r="D174" s="30" t="s">
-        <v>880</v>
+        <v>898</v>
       </c>
       <c r="E174" s="30"/>
       <c r="F174" s="30"/>
@@ -15781,20 +15932,20 @@
     </row>
     <row r="175" spans="2:5">
       <c r="B175" s="42" t="s">
-        <v>881</v>
+        <v>899</v>
       </c>
       <c r="E175" s="57" t="s">
-        <v>882</v>
+        <v>900</v>
       </c>
     </row>
     <row r="176" spans="3:3">
       <c r="C176" s="32" t="s">
-        <v>883</v>
+        <v>901</v>
       </c>
     </row>
     <row r="177" ht="160" customHeight="1" spans="4:13">
       <c r="D177" s="29" t="s">
-        <v>884</v>
+        <v>902</v>
       </c>
       <c r="E177" s="29"/>
       <c r="F177" s="29"/>
@@ -15808,17 +15959,17 @@
     </row>
     <row r="178" spans="3:3">
       <c r="C178" s="32" t="s">
-        <v>885</v>
+        <v>903</v>
       </c>
     </row>
     <row r="179" spans="4:4">
       <c r="D179" s="32" t="s">
-        <v>886</v>
+        <v>904</v>
       </c>
     </row>
     <row r="180" ht="91" customHeight="1" spans="5:13">
       <c r="E180" s="29" t="s">
-        <v>887</v>
+        <v>905</v>
       </c>
       <c r="F180" s="30"/>
       <c r="G180" s="30"/>
@@ -15831,12 +15982,12 @@
     </row>
     <row r="181" spans="4:4">
       <c r="D181" s="32" t="s">
-        <v>888</v>
+        <v>906</v>
       </c>
     </row>
     <row r="182" spans="5:13">
       <c r="E182" s="29" t="s">
-        <v>889</v>
+        <v>907</v>
       </c>
       <c r="F182" s="29"/>
       <c r="G182" s="29"/>
@@ -15849,7 +16000,7 @@
     </row>
     <row r="183" spans="4:13">
       <c r="D183" s="32" t="s">
-        <v>890</v>
+        <v>908</v>
       </c>
       <c r="E183" s="29"/>
       <c r="F183" s="29"/>
@@ -15863,12 +16014,12 @@
     </row>
     <row r="184" spans="5:5">
       <c r="E184" s="58" t="s">
-        <v>891</v>
+        <v>909</v>
       </c>
     </row>
     <row r="185" ht="93" customHeight="1" spans="5:13">
       <c r="E185" s="29" t="s">
-        <v>892</v>
+        <v>910</v>
       </c>
       <c r="F185" s="29"/>
       <c r="G185" s="29"/>
@@ -15881,12 +16032,12 @@
     </row>
     <row r="186" spans="5:5">
       <c r="E186" s="58" t="s">
-        <v>893</v>
+        <v>911</v>
       </c>
     </row>
     <row r="187" ht="108" customHeight="1" spans="5:13">
       <c r="E187" s="29" t="s">
-        <v>894</v>
+        <v>912</v>
       </c>
       <c r="F187" s="29"/>
       <c r="G187" s="29"/>
@@ -15899,12 +16050,12 @@
     </row>
     <row r="188" spans="4:4">
       <c r="D188" s="32" t="s">
-        <v>895</v>
+        <v>913</v>
       </c>
     </row>
     <row r="189" ht="41" customHeight="1" spans="5:13">
       <c r="E189" s="29" t="s">
-        <v>896</v>
+        <v>914</v>
       </c>
       <c r="F189" s="29"/>
       <c r="G189" s="29"/>
@@ -15917,7 +16068,7 @@
     </row>
     <row r="190" ht="83" customHeight="1" spans="5:13">
       <c r="E190" s="29" t="s">
-        <v>897</v>
+        <v>915</v>
       </c>
       <c r="F190" s="29"/>
       <c r="G190" s="29"/>
@@ -15930,17 +16081,17 @@
     </row>
     <row r="191" spans="2:2">
       <c r="B191" s="42" t="s">
-        <v>898</v>
+        <v>916</v>
       </c>
     </row>
     <row r="192" spans="3:3">
       <c r="C192" s="32" t="s">
-        <v>899</v>
+        <v>917</v>
       </c>
     </row>
     <row r="193" ht="54" customHeight="1" spans="4:13">
       <c r="D193" s="29" t="s">
-        <v>900</v>
+        <v>918</v>
       </c>
       <c r="E193" s="29"/>
       <c r="F193" s="29"/>
@@ -15954,7 +16105,7 @@
     </row>
     <row r="194" ht="70" customHeight="1" spans="4:13">
       <c r="D194" s="59" t="s">
-        <v>901</v>
+        <v>919</v>
       </c>
       <c r="E194" s="59"/>
       <c r="F194" s="59"/>
@@ -15968,15 +16119,15 @@
     </row>
     <row r="195" spans="3:6">
       <c r="C195" s="32" t="s">
-        <v>902</v>
+        <v>920</v>
       </c>
       <c r="F195" s="58" t="s">
-        <v>893</v>
+        <v>911</v>
       </c>
     </row>
     <row r="196" ht="105" customHeight="1" spans="4:13">
       <c r="D196" s="29" t="s">
-        <v>903</v>
+        <v>921</v>
       </c>
       <c r="E196" s="29"/>
       <c r="F196" s="29"/>
@@ -15990,22 +16141,22 @@
     </row>
     <row r="197" spans="2:2">
       <c r="B197" s="42" t="s">
-        <v>904</v>
+        <v>922</v>
       </c>
     </row>
     <row r="199" spans="1:1">
       <c r="A199" s="41" t="s">
-        <v>905</v>
+        <v>923</v>
       </c>
     </row>
     <row r="200" spans="2:2">
       <c r="B200" s="42" t="s">
-        <v>906</v>
+        <v>924</v>
       </c>
     </row>
     <row r="201" ht="57" customHeight="1" spans="3:13">
       <c r="C201" s="29" t="s">
-        <v>907</v>
+        <v>925</v>
       </c>
       <c r="D201" s="29"/>
       <c r="E201" s="29"/>
@@ -16148,17 +16299,17 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="25" t="s">
-        <v>908</v>
+        <v>926</v>
       </c>
     </row>
     <row r="2" spans="2:2">
       <c r="B2" s="28" t="s">
-        <v>909</v>
+        <v>927</v>
       </c>
     </row>
     <row r="3" ht="108" customHeight="1" spans="3:14">
       <c r="C3" s="29" t="s">
-        <v>910</v>
+        <v>928</v>
       </c>
       <c r="D3" s="30"/>
       <c r="E3" s="30"/>
@@ -16174,10 +16325,10 @@
     </row>
     <row r="4" spans="2:14">
       <c r="B4" s="28" t="s">
-        <v>911</v>
+        <v>929</v>
       </c>
       <c r="D4" s="30" t="s">
-        <v>912</v>
+        <v>930</v>
       </c>
       <c r="E4" s="30"/>
       <c r="F4" s="30"/>
@@ -16192,7 +16343,7 @@
     </row>
     <row r="5" ht="36" customHeight="1" spans="3:14">
       <c r="C5" s="29" t="s">
-        <v>913</v>
+        <v>931</v>
       </c>
       <c r="D5" s="29"/>
       <c r="E5" s="29"/>
@@ -16208,12 +16359,12 @@
     </row>
     <row r="6" spans="2:2">
       <c r="B6" s="28" t="s">
-        <v>914</v>
+        <v>932</v>
       </c>
     </row>
     <row r="7" ht="37" customHeight="1" spans="3:14">
       <c r="C7" s="29" t="s">
-        <v>915</v>
+        <v>933</v>
       </c>
       <c r="D7" s="29"/>
       <c r="E7" s="29"/>
@@ -16229,12 +16380,12 @@
     </row>
     <row r="9" spans="2:2">
       <c r="B9" s="28" t="s">
-        <v>916</v>
+        <v>934</v>
       </c>
     </row>
     <row r="10" ht="108" customHeight="1" spans="3:14">
       <c r="C10" s="29" t="s">
-        <v>917</v>
+        <v>935</v>
       </c>
       <c r="D10" s="29"/>
       <c r="E10" s="29"/>
@@ -16250,7 +16401,7 @@
     </row>
     <row r="11" ht="76" customHeight="1" spans="3:14">
       <c r="C11" s="29" t="s">
-        <v>918</v>
+        <v>936</v>
       </c>
       <c r="D11" s="29"/>
       <c r="E11" s="29"/>
@@ -16266,12 +16417,12 @@
     </row>
     <row r="12" spans="2:2">
       <c r="B12" s="28" t="s">
-        <v>919</v>
+        <v>937</v>
       </c>
     </row>
     <row r="13" spans="3:14">
       <c r="C13" s="29" t="s">
-        <v>920</v>
+        <v>938</v>
       </c>
       <c r="D13" s="29"/>
       <c r="E13" s="29"/>
@@ -16287,12 +16438,12 @@
     </row>
     <row r="14" spans="2:2">
       <c r="B14" s="28" t="s">
-        <v>921</v>
+        <v>939</v>
       </c>
     </row>
     <row r="15" ht="136" customHeight="1" spans="3:14">
       <c r="C15" s="29" t="s">
-        <v>922</v>
+        <v>940</v>
       </c>
       <c r="D15" s="29"/>
       <c r="E15" s="29"/>
@@ -16308,10 +16459,10 @@
     </row>
     <row r="16" spans="2:14">
       <c r="B16" s="28" t="s">
-        <v>923</v>
+        <v>941</v>
       </c>
       <c r="D16" s="29" t="s">
-        <v>924</v>
+        <v>942</v>
       </c>
       <c r="E16" s="29"/>
       <c r="F16" s="29"/>
@@ -16326,7 +16477,7 @@
     </row>
     <row r="17" ht="72" customHeight="1" spans="3:14">
       <c r="C17" s="29" t="s">
-        <v>925</v>
+        <v>943</v>
       </c>
       <c r="D17" s="29"/>
       <c r="E17" s="29"/>
@@ -16356,12 +16507,12 @@
     </row>
     <row r="19" ht="20" customHeight="1" spans="1:1">
       <c r="A19" s="25" t="s">
-        <v>926</v>
+        <v>944</v>
       </c>
     </row>
     <row r="20" ht="38" customHeight="1" spans="2:14">
       <c r="B20" s="31" t="s">
-        <v>927</v>
+        <v>945</v>
       </c>
       <c r="C20" s="31"/>
       <c r="D20" s="31"/>
@@ -16378,12 +16529,12 @@
     </row>
     <row r="21" spans="2:2">
       <c r="B21" s="28" t="s">
-        <v>928</v>
+        <v>946</v>
       </c>
     </row>
     <row r="22" spans="3:14">
       <c r="C22" s="29" t="s">
-        <v>929</v>
+        <v>947</v>
       </c>
       <c r="D22" s="29"/>
       <c r="E22" s="29"/>
@@ -16399,12 +16550,12 @@
     </row>
     <row r="23" spans="2:2">
       <c r="B23" s="28" t="s">
-        <v>930</v>
+        <v>948</v>
       </c>
     </row>
     <row r="24" ht="54" customHeight="1" spans="3:14">
       <c r="C24" s="29" t="s">
-        <v>931</v>
+        <v>949</v>
       </c>
       <c r="D24" s="29"/>
       <c r="E24" s="29"/>
@@ -16420,12 +16571,12 @@
     </row>
     <row r="25" spans="3:3">
       <c r="C25" s="32" t="s">
-        <v>932</v>
+        <v>950</v>
       </c>
     </row>
     <row r="26" spans="4:14">
       <c r="D26" s="29" t="s">
-        <v>933</v>
+        <v>951</v>
       </c>
       <c r="E26" s="29"/>
       <c r="F26" s="29"/>
@@ -16440,12 +16591,12 @@
     </row>
     <row r="27" spans="3:3">
       <c r="C27" s="32" t="s">
-        <v>934</v>
+        <v>952</v>
       </c>
     </row>
     <row r="28" spans="4:14">
       <c r="D28" s="30" t="s">
-        <v>935</v>
+        <v>953</v>
       </c>
       <c r="E28" s="30"/>
       <c r="F28" s="30"/>
@@ -16460,17 +16611,17 @@
     </row>
     <row r="30" spans="1:1">
       <c r="A30" s="25" t="s">
-        <v>936</v>
+        <v>954</v>
       </c>
     </row>
     <row r="31" spans="2:2">
       <c r="B31" s="28" t="s">
-        <v>937</v>
+        <v>955</v>
       </c>
     </row>
     <row r="32" ht="73" customHeight="1" spans="3:14">
       <c r="C32" s="29" t="s">
-        <v>938</v>
+        <v>956</v>
       </c>
       <c r="D32" s="29"/>
       <c r="E32" s="29"/>
@@ -16486,12 +16637,12 @@
     </row>
     <row r="33" spans="2:2">
       <c r="B33" s="28" t="s">
-        <v>939</v>
+        <v>957</v>
       </c>
     </row>
     <row r="34" ht="82" customHeight="1" spans="3:14">
       <c r="C34" s="29" t="s">
-        <v>940</v>
+        <v>958</v>
       </c>
       <c r="D34" s="30"/>
       <c r="E34" s="30"/>
@@ -16507,12 +16658,12 @@
     </row>
     <row r="35" spans="2:2">
       <c r="B35" s="28" t="s">
-        <v>941</v>
+        <v>959</v>
       </c>
     </row>
     <row r="36" ht="145" customHeight="1" spans="3:14">
       <c r="C36" s="29" t="s">
-        <v>942</v>
+        <v>960</v>
       </c>
       <c r="D36" s="29"/>
       <c r="E36" s="29"/>
@@ -16528,12 +16679,12 @@
     </row>
     <row r="37" spans="2:2">
       <c r="B37" s="28" t="s">
-        <v>943</v>
+        <v>961</v>
       </c>
     </row>
     <row r="38" spans="3:14">
       <c r="C38" s="30" t="s">
-        <v>944</v>
+        <v>962</v>
       </c>
       <c r="D38" s="30"/>
       <c r="E38" s="30"/>
@@ -16549,17 +16700,17 @@
     </row>
     <row r="39" spans="2:2">
       <c r="B39" s="28" t="s">
-        <v>945</v>
+        <v>963</v>
       </c>
     </row>
     <row r="40" spans="3:3">
       <c r="C40" s="32" t="s">
-        <v>946</v>
+        <v>964</v>
       </c>
     </row>
     <row r="41" ht="55" customHeight="1" spans="4:14">
       <c r="D41" s="29" t="s">
-        <v>947</v>
+        <v>965</v>
       </c>
       <c r="E41" s="29"/>
       <c r="F41" s="29"/>
@@ -16574,12 +16725,12 @@
     </row>
     <row r="42" spans="3:3">
       <c r="C42" s="32" t="s">
-        <v>948</v>
+        <v>966</v>
       </c>
     </row>
     <row r="43" ht="38" customHeight="1" spans="4:14">
       <c r="D43" s="29" t="s">
-        <v>949</v>
+        <v>967</v>
       </c>
       <c r="E43" s="29"/>
       <c r="F43" s="29"/>
@@ -16594,12 +16745,12 @@
     </row>
     <row r="44" spans="3:3">
       <c r="C44" s="32" t="s">
-        <v>950</v>
+        <v>968</v>
       </c>
     </row>
     <row r="45" spans="4:14">
       <c r="D45" s="29" t="s">
-        <v>951</v>
+        <v>969</v>
       </c>
       <c r="E45" s="29"/>
       <c r="F45" s="29"/>
@@ -16614,10 +16765,10 @@
     </row>
     <row r="47" spans="1:14">
       <c r="A47" s="25" t="s">
-        <v>952</v>
+        <v>970</v>
       </c>
       <c r="C47" s="30" t="s">
-        <v>953</v>
+        <v>971</v>
       </c>
       <c r="D47" s="30"/>
       <c r="E47" s="30"/>
@@ -16633,12 +16784,12 @@
     </row>
     <row r="48" spans="2:2">
       <c r="B48" s="28" t="s">
-        <v>954</v>
+        <v>972</v>
       </c>
     </row>
     <row r="49" ht="74" customHeight="1" spans="3:14">
       <c r="C49" s="29" t="s">
-        <v>955</v>
+        <v>973</v>
       </c>
       <c r="D49" s="30"/>
       <c r="E49" s="30"/>
@@ -16654,12 +16805,12 @@
     </row>
     <row r="50" spans="2:2">
       <c r="B50" s="28" t="s">
-        <v>956</v>
+        <v>974</v>
       </c>
     </row>
     <row r="51" ht="57" customHeight="1" spans="3:14">
       <c r="C51" s="29" t="s">
-        <v>957</v>
+        <v>975</v>
       </c>
       <c r="D51" s="30"/>
       <c r="E51" s="30"/>
@@ -16675,12 +16826,12 @@
     </row>
     <row r="52" spans="2:2">
       <c r="B52" s="28" t="s">
-        <v>958</v>
+        <v>976</v>
       </c>
     </row>
     <row r="53" ht="37" customHeight="1" spans="3:14">
       <c r="C53" s="29" t="s">
-        <v>959</v>
+        <v>977</v>
       </c>
       <c r="D53" s="29"/>
       <c r="E53" s="29"/>
@@ -16696,24 +16847,24 @@
     </row>
     <row r="55" spans="1:1">
       <c r="A55" s="25" t="s">
-        <v>960</v>
+        <v>978</v>
       </c>
     </row>
     <row r="56" spans="2:3">
       <c r="B56" s="28" t="s">
-        <v>961</v>
+        <v>979</v>
       </c>
       <c r="C56" s="32"/>
     </row>
     <row r="57" spans="3:3">
       <c r="C57" s="32" t="s">
-        <v>962</v>
+        <v>980</v>
       </c>
     </row>
     <row r="58" spans="3:14">
       <c r="C58" s="32"/>
       <c r="D58" s="29" t="s">
-        <v>963</v>
+        <v>981</v>
       </c>
       <c r="E58" s="29"/>
       <c r="F58" s="29"/>
@@ -16728,13 +16879,13 @@
     </row>
     <row r="59" spans="3:3">
       <c r="C59" s="32" t="s">
-        <v>964</v>
+        <v>982</v>
       </c>
     </row>
     <row r="60" ht="95" customHeight="1" spans="3:14">
       <c r="C60" s="32"/>
-      <c r="D60" s="117" t="s">
-        <v>965</v>
+      <c r="D60" s="119" t="s">
+        <v>983</v>
       </c>
       <c r="E60" s="29"/>
       <c r="F60" s="29"/>
@@ -16749,13 +16900,13 @@
     </row>
     <row r="61" spans="3:3">
       <c r="C61" s="32" t="s">
-        <v>966</v>
+        <v>984</v>
       </c>
     </row>
     <row r="62" ht="108" customHeight="1" spans="3:14">
       <c r="C62" s="32"/>
       <c r="D62" s="29" t="s">
-        <v>967</v>
+        <v>985</v>
       </c>
       <c r="E62" s="29"/>
       <c r="F62" s="29"/>
@@ -16770,12 +16921,12 @@
     </row>
     <row r="63" spans="3:3">
       <c r="C63" s="32" t="s">
-        <v>968</v>
+        <v>986</v>
       </c>
     </row>
     <row r="64" ht="36" customHeight="1" spans="4:14">
       <c r="D64" s="29" t="s">
-        <v>969</v>
+        <v>987</v>
       </c>
       <c r="E64" s="29"/>
       <c r="F64" s="29"/>
@@ -16802,10 +16953,10 @@
     </row>
     <row r="66" ht="19" customHeight="1" spans="1:14">
       <c r="A66" s="25" t="s">
-        <v>970</v>
+        <v>988</v>
       </c>
       <c r="C66" s="29" t="s">
-        <v>971</v>
+        <v>989</v>
       </c>
       <c r="D66" s="29"/>
       <c r="E66" s="29"/>
@@ -16821,19 +16972,19 @@
     </row>
     <row r="67" spans="2:3">
       <c r="B67" s="28" t="s">
-        <v>972</v>
+        <v>990</v>
       </c>
       <c r="C67" s="32"/>
     </row>
     <row r="68" spans="3:3">
       <c r="C68" s="32" t="s">
-        <v>973</v>
+        <v>991</v>
       </c>
     </row>
     <row r="69" ht="72" customHeight="1" spans="3:14">
       <c r="C69" s="32"/>
-      <c r="D69" s="117" t="s">
-        <v>974</v>
+      <c r="D69" s="119" t="s">
+        <v>992</v>
       </c>
       <c r="E69" s="29"/>
       <c r="F69" s="29"/>
@@ -16848,13 +16999,13 @@
     </row>
     <row r="70" spans="3:3">
       <c r="C70" s="32" t="s">
-        <v>975</v>
+        <v>993</v>
       </c>
     </row>
     <row r="71" ht="102" customHeight="1" spans="3:14">
       <c r="C71" s="32"/>
-      <c r="D71" s="117" t="s">
-        <v>976</v>
+      <c r="D71" s="119" t="s">
+        <v>994</v>
       </c>
       <c r="E71" s="29"/>
       <c r="F71" s="29"/>
@@ -16869,7 +17020,7 @@
     </row>
     <row r="72" spans="3:13">
       <c r="C72" s="32" t="s">
-        <v>977</v>
+        <v>995</v>
       </c>
       <c r="D72"/>
       <c r="E72"/>
@@ -16885,7 +17036,7 @@
     <row r="73" spans="3:13">
       <c r="C73" s="32"/>
       <c r="D73" s="30" t="s">
-        <v>978</v>
+        <v>996</v>
       </c>
       <c r="E73" s="30"/>
       <c r="F73" s="30"/>
@@ -16899,7 +17050,7 @@
     </row>
     <row r="74" spans="3:13">
       <c r="C74" s="32" t="s">
-        <v>979</v>
+        <v>997</v>
       </c>
       <c r="D74"/>
       <c r="E74"/>
@@ -16915,7 +17066,7 @@
     <row r="75" ht="57" customHeight="1" spans="3:14">
       <c r="C75" s="32"/>
       <c r="D75" s="29" t="s">
-        <v>980</v>
+        <v>998</v>
       </c>
       <c r="E75" s="29"/>
       <c r="F75" s="29"/>
@@ -16930,13 +17081,13 @@
     </row>
     <row r="76" spans="3:3">
       <c r="C76" s="32" t="s">
-        <v>981</v>
+        <v>999</v>
       </c>
     </row>
     <row r="77" ht="108" customHeight="1" spans="3:14">
       <c r="C77" s="32"/>
-      <c r="D77" s="117" t="s">
-        <v>982</v>
+      <c r="D77" s="119" t="s">
+        <v>1000</v>
       </c>
       <c r="E77" s="29"/>
       <c r="F77" s="29"/>
@@ -16951,17 +17102,17 @@
     </row>
     <row r="79" spans="1:1">
       <c r="A79" s="25" t="s">
-        <v>983</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="80" spans="2:2">
       <c r="B80" s="28" t="s">
-        <v>984</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="81" ht="159" customHeight="1" spans="3:14">
       <c r="C81" s="29" t="s">
-        <v>985</v>
+        <v>1003</v>
       </c>
       <c r="D81" s="29"/>
       <c r="E81" s="29"/>
@@ -16977,10 +17128,10 @@
     </row>
     <row r="82" spans="2:14">
       <c r="B82" s="28" t="s">
-        <v>986</v>
+        <v>1004</v>
       </c>
       <c r="D82" s="29" t="s">
-        <v>987</v>
+        <v>1005</v>
       </c>
       <c r="E82" s="29"/>
       <c r="F82" s="29"/>
@@ -16995,7 +17146,7 @@
     </row>
     <row r="83" ht="58" customHeight="1" spans="3:14">
       <c r="C83" s="29" t="s">
-        <v>988</v>
+        <v>1006</v>
       </c>
       <c r="D83" s="29"/>
       <c r="E83" s="29"/>
@@ -17011,7 +17162,7 @@
     </row>
     <row r="84" ht="22" customHeight="1" spans="3:13">
       <c r="C84" s="33" t="s">
-        <v>989</v>
+        <v>1007</v>
       </c>
       <c r="D84" s="29"/>
       <c r="E84" s="29"/>
@@ -17027,7 +17178,7 @@
     <row r="85" ht="161" customHeight="1" spans="3:14">
       <c r="C85" s="29"/>
       <c r="D85" s="29" t="s">
-        <v>990</v>
+        <v>1008</v>
       </c>
       <c r="E85" s="29"/>
       <c r="F85" s="29"/>
@@ -17042,17 +17193,17 @@
     </row>
     <row r="86" spans="1:1">
       <c r="A86" s="25" t="s">
-        <v>991</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="87" spans="2:2">
       <c r="B87" s="28" t="s">
-        <v>992</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="88" ht="85" customHeight="1" spans="3:14">
       <c r="C88" s="29" t="s">
-        <v>993</v>
+        <v>1011</v>
       </c>
       <c r="D88" s="29"/>
       <c r="E88" s="29"/>
@@ -17068,12 +17219,12 @@
     </row>
     <row r="89" spans="3:3">
       <c r="C89" s="32" t="s">
-        <v>994</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="90" ht="60" customHeight="1" spans="4:14">
       <c r="D90" s="29" t="s">
-        <v>995</v>
+        <v>1013</v>
       </c>
       <c r="E90" s="29"/>
       <c r="F90" s="29"/>
@@ -17088,12 +17239,12 @@
     </row>
     <row r="91" spans="2:2">
       <c r="B91" s="28" t="s">
-        <v>996</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="92" ht="56" customHeight="1" spans="3:14">
       <c r="C92" s="29" t="s">
-        <v>997</v>
+        <v>1015</v>
       </c>
       <c r="D92" s="29"/>
       <c r="E92" s="29"/>
@@ -17109,12 +17260,12 @@
     </row>
     <row r="93" spans="3:3">
       <c r="C93" s="32" t="s">
-        <v>998</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="94" ht="153" customHeight="1" spans="4:14">
       <c r="D94" s="29" t="s">
-        <v>999</v>
+        <v>1017</v>
       </c>
       <c r="E94" s="29"/>
       <c r="F94" s="29"/>
@@ -17142,12 +17293,12 @@
     </row>
     <row r="96" ht="20" customHeight="1" spans="1:1">
       <c r="A96" s="25" t="s">
-        <v>1000</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="97" ht="41" customHeight="1" spans="2:14">
       <c r="B97" s="29" t="s">
-        <v>1001</v>
+        <v>1019</v>
       </c>
       <c r="C97" s="29"/>
       <c r="D97" s="29"/>
@@ -17164,12 +17315,12 @@
     </row>
     <row r="98" ht="23" customHeight="1" spans="2:2">
       <c r="B98" s="28" t="s">
-        <v>1002</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="99" ht="172" customHeight="1" spans="3:14">
       <c r="C99" s="29" t="s">
-        <v>1003</v>
+        <v>1021</v>
       </c>
       <c r="D99" s="29"/>
       <c r="E99" s="29"/>
@@ -17185,12 +17336,12 @@
     </row>
     <row r="100" spans="2:2">
       <c r="B100" s="28" t="s">
-        <v>1004</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="101" ht="55" customHeight="1" spans="3:14">
       <c r="C101" s="29" t="s">
-        <v>1005</v>
+        <v>1023</v>
       </c>
       <c r="D101" s="29"/>
       <c r="E101" s="29"/>
@@ -17206,7 +17357,7 @@
     </row>
     <row r="102" ht="125" customHeight="1" spans="3:14">
       <c r="C102" s="34" t="s">
-        <v>1006</v>
+        <v>1024</v>
       </c>
       <c r="D102" s="35"/>
       <c r="E102" s="35"/>
@@ -17236,10 +17387,10 @@
     </row>
     <row r="104" ht="24" customHeight="1" spans="1:14">
       <c r="A104" s="25" t="s">
-        <v>1007</v>
+        <v>1025</v>
       </c>
       <c r="C104" s="29" t="s">
-        <v>1008</v>
+        <v>1026</v>
       </c>
       <c r="D104" s="29"/>
       <c r="E104" s="29"/>
@@ -17255,12 +17406,12 @@
     </row>
     <row r="105" ht="20" customHeight="1" spans="2:2">
       <c r="B105" s="28" t="s">
-        <v>1009</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="106" ht="20" customHeight="1" spans="3:14">
       <c r="C106" s="30" t="s">
-        <v>1010</v>
+        <v>1028</v>
       </c>
       <c r="D106" s="30"/>
       <c r="E106" s="30"/>
@@ -17276,12 +17427,12 @@
     </row>
     <row r="107" ht="20" customHeight="1" spans="2:2">
       <c r="B107" s="28" t="s">
-        <v>1011</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="108" ht="20" customHeight="1" spans="3:14">
       <c r="C108" s="30" t="s">
-        <v>1012</v>
+        <v>1030</v>
       </c>
       <c r="D108" s="30"/>
       <c r="E108" s="30"/>
@@ -17297,12 +17448,12 @@
     </row>
     <row r="109" ht="20" customHeight="1" spans="2:2">
       <c r="B109" s="28" t="s">
-        <v>1013</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="110" ht="19" customHeight="1" spans="3:14">
       <c r="C110" s="29" t="s">
-        <v>1014</v>
+        <v>1032</v>
       </c>
       <c r="D110" s="29"/>
       <c r="E110" s="29"/>
@@ -17318,17 +17469,17 @@
     </row>
     <row r="112" ht="19" customHeight="1" spans="1:1">
       <c r="A112" s="25" t="s">
-        <v>1015</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="113" spans="2:2">
       <c r="B113" s="28" t="s">
-        <v>1016</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="114" ht="35" customHeight="1" spans="3:14">
       <c r="C114" s="29" t="s">
-        <v>1017</v>
+        <v>1035</v>
       </c>
       <c r="D114" s="29"/>
       <c r="E114" s="29"/>
@@ -17344,17 +17495,17 @@
     </row>
     <row r="115" spans="2:2">
       <c r="B115" s="28" t="s">
-        <v>1018</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="116" spans="3:3">
       <c r="C116" s="32" t="s">
-        <v>1019</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="117" ht="37" customHeight="1" spans="4:14">
       <c r="D117" s="29" t="s">
-        <v>1020</v>
+        <v>1038</v>
       </c>
       <c r="E117" s="29"/>
       <c r="F117" s="29"/>
@@ -17369,12 +17520,12 @@
     </row>
     <row r="118" spans="3:3">
       <c r="C118" s="32" t="s">
-        <v>1021</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="119" spans="4:14">
       <c r="D119" s="29" t="s">
-        <v>1022</v>
+        <v>1040</v>
       </c>
       <c r="E119" s="29"/>
       <c r="F119" s="29"/>
@@ -17389,12 +17540,12 @@
     </row>
     <row r="120" spans="3:3">
       <c r="C120" s="32" t="s">
-        <v>1023</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="121" ht="54" customHeight="1" spans="4:14">
       <c r="D121" s="29" t="s">
-        <v>1024</v>
+        <v>1042</v>
       </c>
       <c r="E121" s="29"/>
       <c r="F121" s="29"/>
@@ -17409,12 +17560,12 @@
     </row>
     <row r="122" spans="2:2">
       <c r="B122" s="28" t="s">
-        <v>1025</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="123" ht="36" customHeight="1" spans="3:14">
       <c r="C123" s="29" t="s">
-        <v>1026</v>
+        <v>1044</v>
       </c>
       <c r="D123" s="29"/>
       <c r="E123" s="29"/>
@@ -17430,17 +17581,17 @@
     </row>
     <row r="124" spans="2:2">
       <c r="B124" s="28" t="s">
-        <v>1027</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="125" spans="3:3">
       <c r="C125" s="32" t="s">
-        <v>1028</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="126" spans="4:14">
       <c r="D126" s="29" t="s">
-        <v>1029</v>
+        <v>1047</v>
       </c>
       <c r="E126" s="29"/>
       <c r="F126" s="29"/>
@@ -17455,12 +17606,12 @@
     </row>
     <row r="127" spans="3:3">
       <c r="C127" s="32" t="s">
-        <v>1030</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="128" ht="21" customHeight="1" spans="4:14">
       <c r="D128" s="29" t="s">
-        <v>1031</v>
+        <v>1049</v>
       </c>
       <c r="E128" s="29"/>
       <c r="F128" s="29"/>
@@ -17475,12 +17626,12 @@
     </row>
     <row r="129" ht="19" customHeight="1" spans="2:2">
       <c r="B129" s="28" t="s">
-        <v>1032</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="130" spans="3:13">
       <c r="C130" s="36" t="s">
-        <v>1033</v>
+        <v>1051</v>
       </c>
       <c r="D130" s="37"/>
       <c r="E130" s="37"/>
@@ -17496,7 +17647,7 @@
     <row r="131" ht="76" customHeight="1" spans="3:14">
       <c r="C131" s="36"/>
       <c r="D131" s="38" t="s">
-        <v>1034</v>
+        <v>1052</v>
       </c>
       <c r="E131" s="38"/>
       <c r="F131" s="38"/>
@@ -17511,7 +17662,7 @@
     </row>
     <row r="132" spans="3:13">
       <c r="C132" s="36" t="s">
-        <v>1035</v>
+        <v>1053</v>
       </c>
       <c r="D132" s="37"/>
       <c r="E132" s="37"/>
@@ -17527,7 +17678,7 @@
     <row r="133" ht="95" customHeight="1" spans="3:14">
       <c r="C133" s="36"/>
       <c r="D133" s="38" t="s">
-        <v>1036</v>
+        <v>1054</v>
       </c>
       <c r="E133" s="38"/>
       <c r="F133" s="38"/>
@@ -17542,7 +17693,7 @@
     </row>
     <row r="134" spans="3:13">
       <c r="C134" s="36" t="s">
-        <v>1037</v>
+        <v>1055</v>
       </c>
       <c r="D134" s="37"/>
       <c r="E134" s="37"/>
@@ -17558,7 +17709,7 @@
     <row r="135" ht="79" customHeight="1" spans="3:14">
       <c r="C135" s="36"/>
       <c r="D135" s="38" t="s">
-        <v>1038</v>
+        <v>1056</v>
       </c>
       <c r="E135" s="38"/>
       <c r="F135" s="38"/>
@@ -17573,12 +17724,12 @@
     </row>
     <row r="136" spans="3:3">
       <c r="C136" s="32" t="s">
-        <v>1039</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="137" ht="73" customHeight="1" spans="4:14">
       <c r="D137" s="38" t="s">
-        <v>1040</v>
+        <v>1058</v>
       </c>
       <c r="E137" s="38"/>
       <c r="F137" s="38"/>
@@ -17593,12 +17744,12 @@
     </row>
     <row r="138" spans="2:2">
       <c r="B138" s="28" t="s">
-        <v>1041</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="139" spans="3:14">
       <c r="C139" s="29" t="s">
-        <v>1042</v>
+        <v>1060</v>
       </c>
       <c r="D139" s="29"/>
       <c r="E139" s="29"/>
@@ -17614,10 +17765,10 @@
     </row>
     <row r="141" spans="1:14">
       <c r="A141" s="25" t="s">
-        <v>1043</v>
+        <v>1061</v>
       </c>
       <c r="C141" s="29" t="s">
-        <v>1044</v>
+        <v>1062</v>
       </c>
       <c r="D141" s="29"/>
       <c r="E141" s="29"/>
@@ -17633,7 +17784,7 @@
     </row>
     <row r="142" ht="187" customHeight="1" spans="2:14">
       <c r="B142" s="31" t="s">
-        <v>1045</v>
+        <v>1063</v>
       </c>
       <c r="C142" s="31"/>
       <c r="D142" s="31"/>
@@ -17650,12 +17801,12 @@
     </row>
     <row r="144" spans="1:1">
       <c r="A144" s="25" t="s">
-        <v>1046</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="145" ht="39" customHeight="1" spans="2:14">
       <c r="B145" s="31" t="s">
-        <v>1047</v>
+        <v>1065</v>
       </c>
       <c r="C145" s="31"/>
       <c r="D145" s="31"/>
@@ -17672,12 +17823,12 @@
     </row>
     <row r="146" spans="2:2">
       <c r="B146" s="28" t="s">
-        <v>1048</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="147" ht="220" customHeight="1" spans="3:14">
       <c r="C147" s="29" t="s">
-        <v>1049</v>
+        <v>1067</v>
       </c>
       <c r="D147" s="29"/>
       <c r="E147" s="29"/>
@@ -17693,10 +17844,10 @@
     </row>
     <row r="149" spans="1:14">
       <c r="A149" s="25" t="s">
-        <v>1050</v>
+        <v>1068</v>
       </c>
       <c r="C149" s="30" t="s">
-        <v>1051</v>
+        <v>1069</v>
       </c>
       <c r="D149" s="30"/>
       <c r="E149" s="30"/>
@@ -17712,12 +17863,12 @@
     </row>
     <row r="150" spans="2:2">
       <c r="B150" s="28" t="s">
-        <v>1052</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="151" ht="190" customHeight="1" spans="3:14">
       <c r="C151" s="29" t="s">
-        <v>1053</v>
+        <v>1071</v>
       </c>
       <c r="D151" s="29"/>
       <c r="E151" s="29"/>
@@ -17733,12 +17884,12 @@
     </row>
     <row r="152" spans="2:2">
       <c r="B152" s="28" t="s">
-        <v>1054</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="153" ht="117" customHeight="1" spans="3:14">
-      <c r="C153" s="117" t="s">
-        <v>1055</v>
+      <c r="C153" s="119" t="s">
+        <v>1073</v>
       </c>
       <c r="D153" s="29"/>
       <c r="E153" s="29"/>
@@ -17754,10 +17905,10 @@
     </row>
     <row r="154" spans="1:14">
       <c r="A154" s="25" t="s">
-        <v>1056</v>
+        <v>1074</v>
       </c>
       <c r="C154" s="29" t="s">
-        <v>1057</v>
+        <v>1075</v>
       </c>
       <c r="D154" s="29"/>
       <c r="E154" s="29"/>
@@ -17773,12 +17924,12 @@
     </row>
     <row r="155" spans="2:2">
       <c r="B155" s="28" t="s">
-        <v>1058</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="156" ht="145" customHeight="1" spans="3:14">
       <c r="C156" s="29" t="s">
-        <v>1059</v>
+        <v>1077</v>
       </c>
       <c r="D156" s="29"/>
       <c r="E156" s="29"/>
@@ -17794,12 +17945,12 @@
     </row>
     <row r="157" spans="2:2">
       <c r="B157" s="28" t="s">
-        <v>1060</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="158" ht="102" customHeight="1" spans="3:14">
-      <c r="C158" s="117" t="s">
-        <v>1061</v>
+      <c r="C158" s="119" t="s">
+        <v>1079</v>
       </c>
       <c r="D158" s="29"/>
       <c r="E158" s="29"/>
@@ -17815,12 +17966,12 @@
     </row>
     <row r="159" spans="2:2">
       <c r="B159" s="28" t="s">
-        <v>1062</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="160" ht="55" customHeight="1" spans="3:14">
       <c r="C160" s="29" t="s">
-        <v>1063</v>
+        <v>1081</v>
       </c>
       <c r="D160" s="29"/>
       <c r="E160" s="29"/>
@@ -17836,7 +17987,7 @@
     </row>
     <row r="161" ht="71" customHeight="1" spans="3:14">
       <c r="C161" s="29" t="s">
-        <v>1064</v>
+        <v>1082</v>
       </c>
       <c r="D161" s="29"/>
       <c r="E161" s="29"/>
@@ -17852,7 +18003,7 @@
     </row>
     <row r="162" ht="162" customHeight="1" spans="3:14">
       <c r="C162" s="29" t="s">
-        <v>1065</v>
+        <v>1083</v>
       </c>
       <c r="D162" s="29"/>
       <c r="E162" s="29"/>
@@ -17868,7 +18019,7 @@
     </row>
     <row r="163" ht="139" customHeight="1" spans="3:14">
       <c r="C163" s="29" t="s">
-        <v>1066</v>
+        <v>1084</v>
       </c>
       <c r="D163" s="29"/>
       <c r="E163" s="29"/>
@@ -17884,12 +18035,12 @@
     </row>
     <row r="164" spans="2:2">
       <c r="B164" s="28" t="s">
-        <v>1067</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="165" ht="54" customHeight="1" spans="3:14">
       <c r="C165" s="29" t="s">
-        <v>1068</v>
+        <v>1086</v>
       </c>
       <c r="D165" s="29"/>
       <c r="E165" s="29"/>
@@ -17905,20 +18056,20 @@
     </row>
     <row r="167" spans="1:1">
       <c r="A167" s="25" t="s">
-        <v>1069</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="168" spans="2:2">
       <c r="B168" s="28" t="s">
-        <v>1070</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="169" ht="77" customHeight="1" spans="3:14">
       <c r="C169" s="3" t="s">
-        <v>1071</v>
+        <v>1089</v>
       </c>
       <c r="D169" s="39" t="s">
-        <v>1072</v>
+        <v>1090</v>
       </c>
       <c r="E169" s="29"/>
       <c r="F169" s="29"/>
@@ -17932,13 +18083,13 @@
       <c r="N169" s="29"/>
     </row>
     <row r="171" spans="3:3">
-      <c r="C171" s="118" t="s">
+      <c r="C171" s="120" t="s">
         <v>364</v>
       </c>
     </row>
     <row r="172" spans="4:14">
       <c r="D172" s="30" t="s">
-        <v>1073</v>
+        <v>1091</v>
       </c>
       <c r="E172" s="30"/>
       <c r="F172" s="30"/>
@@ -17953,10 +18104,10 @@
     </row>
     <row r="173" spans="2:14">
       <c r="B173" s="28" t="s">
-        <v>1074</v>
+        <v>1092</v>
       </c>
       <c r="D173" s="40" t="s">
-        <v>1075</v>
+        <v>1093</v>
       </c>
       <c r="E173" s="40"/>
       <c r="F173" s="40"/>
@@ -17971,7 +18122,7 @@
     </row>
     <row r="174" ht="83" customHeight="1" spans="3:14">
       <c r="C174" s="29" t="s">
-        <v>1076</v>
+        <v>1094</v>
       </c>
       <c r="D174" s="30"/>
       <c r="E174" s="30"/>
@@ -17987,17 +18138,17 @@
     </row>
     <row r="176" spans="1:1">
       <c r="A176" s="25" t="s">
-        <v>1077</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="177" spans="2:2">
       <c r="B177" s="28" t="s">
-        <v>1078</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="178" ht="72" customHeight="1" spans="3:14">
       <c r="C178" s="29" t="s">
-        <v>1079</v>
+        <v>1097</v>
       </c>
       <c r="D178" s="29"/>
       <c r="E178" s="29"/>
@@ -18013,12 +18164,12 @@
     </row>
     <row r="179" spans="2:2">
       <c r="B179" s="28" t="s">
-        <v>1080</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="180" ht="58" customHeight="1" spans="3:14">
       <c r="C180" s="29" t="s">
-        <v>1081</v>
+        <v>1099</v>
       </c>
       <c r="D180" s="29"/>
       <c r="E180" s="29"/>
@@ -18034,12 +18185,12 @@
     </row>
     <row r="182" spans="2:2">
       <c r="B182" s="28" t="s">
-        <v>1082</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="183" ht="37" customHeight="1" spans="3:14">
       <c r="C183" s="29" t="s">
-        <v>1083</v>
+        <v>1101</v>
       </c>
       <c r="D183" s="29"/>
       <c r="E183" s="29"/>
@@ -18055,12 +18206,12 @@
     </row>
     <row r="184" spans="2:2">
       <c r="B184" s="28" t="s">
-        <v>1084</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="185" ht="33" customHeight="1" spans="3:14">
       <c r="C185" s="29" t="s">
-        <v>1085</v>
+        <v>1103</v>
       </c>
       <c r="D185" s="29"/>
       <c r="E185" s="29"/>
@@ -18076,17 +18227,17 @@
     </row>
     <row r="187" spans="1:1">
       <c r="A187" s="25" t="s">
-        <v>1086</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="188" spans="2:2">
       <c r="B188" s="28" t="s">
-        <v>1087</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="189" ht="91" customHeight="1" spans="3:14">
       <c r="C189" s="29" t="s">
-        <v>1088</v>
+        <v>1106</v>
       </c>
       <c r="D189" s="29"/>
       <c r="E189" s="29"/>
@@ -18102,12 +18253,12 @@
     </row>
     <row r="190" spans="2:2">
       <c r="B190" s="28" t="s">
-        <v>1089</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="191" ht="178" customHeight="1" spans="3:14">
       <c r="C191" s="29" t="s">
-        <v>1090</v>
+        <v>1108</v>
       </c>
       <c r="D191" s="29"/>
       <c r="E191" s="29"/>
@@ -18239,339 +18390,339 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="25" t="s">
-        <v>1091</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="2" ht="35" customHeight="1" spans="2:2">
       <c r="B2" s="26" t="s">
-        <v>1092</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="3" ht="75" spans="2:2">
       <c r="B3" s="26" t="s">
-        <v>1093</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="25" t="s">
-        <v>1094</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="6" ht="37.5" spans="2:2">
       <c r="B6" s="26" t="s">
-        <v>1095</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="8" ht="18" customHeight="1" spans="1:1">
       <c r="A8" s="25" t="s">
-        <v>1096</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="9" ht="93.75" spans="2:2">
       <c r="B9" s="26" t="s">
-        <v>1097</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="25" t="s">
-        <v>1098</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="12" spans="2:2">
       <c r="B12" s="26" t="s">
-        <v>1099</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" s="25" t="s">
-        <v>1100</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="16" ht="56.25" spans="2:2">
       <c r="B16" s="26" t="s">
-        <v>1101</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="18" ht="75" spans="2:2">
       <c r="B18" s="26" t="s">
-        <v>1102</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" s="25" t="s">
-        <v>1103</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="21" spans="2:2">
       <c r="B21" s="26" t="s">
-        <v>1104</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" s="25" t="s">
-        <v>1105</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="24" ht="112.5" spans="2:2">
       <c r="B24" s="26" t="s">
-        <v>1106</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" s="25" t="s">
-        <v>1107</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="27" ht="187.5" spans="2:2">
       <c r="B27" s="26" t="s">
-        <v>1108</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" s="25" t="s">
-        <v>1109</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="30" ht="56.25" spans="2:2">
       <c r="B30" s="26" t="s">
-        <v>1110</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32" s="25" t="s">
-        <v>1111</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="33" ht="93.75" spans="2:2">
       <c r="B33" s="26" t="s">
-        <v>1112</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" s="25" t="s">
-        <v>1113</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="36" ht="75" spans="2:2">
       <c r="B36" s="26" t="s">
-        <v>1114</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38" s="25" t="s">
-        <v>1115</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="39" ht="56.25" spans="2:2">
       <c r="B39" s="26" t="s">
-        <v>1116</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41" s="25" t="s">
-        <v>1117</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="42" ht="75" spans="2:2">
       <c r="B42" s="26" t="s">
-        <v>1118</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44" s="25" t="s">
-        <v>1119</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="45" ht="75" spans="2:2">
       <c r="B45" s="26" t="s">
-        <v>1120</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47" s="25" t="s">
-        <v>1121</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="48" ht="56.25" spans="2:2">
       <c r="B48" s="26" t="s">
-        <v>1122</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="50" spans="1:1">
       <c r="A50" s="25" t="s">
-        <v>1123</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="51" ht="93.75" spans="2:2">
       <c r="B51" s="26" t="s">
-        <v>1124</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="53" spans="1:1">
       <c r="A53" s="25" t="s">
-        <v>1125</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="54" ht="37.5" spans="2:2">
       <c r="B54" s="26" t="s">
-        <v>1126</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="56" spans="1:1">
       <c r="A56" s="25" t="s">
-        <v>1127</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="57" ht="56.25" spans="2:2">
       <c r="B57" s="26" t="s">
-        <v>1128</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="59" spans="1:1">
       <c r="A59" s="25" t="s">
-        <v>1129</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="60" ht="37.5" spans="2:2">
       <c r="B60" s="26" t="s">
-        <v>1130</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="62" spans="1:1">
       <c r="A62" s="25" t="s">
-        <v>1131</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="63" ht="112.5" spans="2:2">
       <c r="B63" s="26" t="s">
-        <v>1132</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="64" spans="2:2">
       <c r="B64" s="26" t="s">
-        <v>1133</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="66" spans="1:1">
       <c r="A66" s="25" t="s">
-        <v>1134</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="67" spans="2:2">
       <c r="B67" s="26" t="s">
-        <v>1135</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69" s="25" t="s">
-        <v>1136</v>
+        <v>1154</v>
       </c>
       <c r="B69" s="26" t="s">
-        <v>1137</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="70" ht="37.5" spans="2:2">
       <c r="B70" s="26" t="s">
-        <v>1138</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="71" ht="56.25" spans="2:2">
       <c r="B71" s="26" t="s">
-        <v>1139</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="73" spans="1:1">
       <c r="A73" s="25" t="s">
-        <v>1140</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="74" ht="37.5" spans="2:2">
       <c r="B74" s="26" t="s">
-        <v>1141</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="76" spans="1:1">
       <c r="A76" s="25" t="s">
-        <v>1142</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="77" spans="2:2">
       <c r="B77" s="26" t="s">
-        <v>1143</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="79" spans="1:1">
       <c r="A79" s="25" t="s">
-        <v>1144</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="80" ht="168.75" spans="2:2">
       <c r="B80" s="26" t="s">
-        <v>1145</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="82" spans="1:1">
       <c r="A82" s="25" t="s">
-        <v>1146</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="83" spans="2:2">
       <c r="B83" s="26" t="s">
-        <v>1147</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="84" ht="75" spans="2:2">
       <c r="B84" s="26" t="s">
-        <v>1148</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="86" spans="1:2">
       <c r="A86" s="25" t="s">
-        <v>1149</v>
+        <v>1167</v>
       </c>
       <c r="B86" s="26" t="s">
-        <v>1150</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="87" ht="37.5" spans="2:2">
       <c r="B87" s="26" t="s">
-        <v>1151</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="88" ht="75" spans="2:2">
       <c r="B88" s="26" t="s">
-        <v>1152</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="90" spans="1:2">
       <c r="A90" s="25" t="s">
-        <v>1153</v>
+        <v>1171</v>
       </c>
       <c r="B90" s="26" t="s">
-        <v>1154</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="91" ht="168.75" spans="2:2">
       <c r="B91" s="26" t="s">
-        <v>1155</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="92" ht="93.75" spans="2:2">
       <c r="B92" s="26" t="s">
-        <v>1156</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="94" ht="37.5" spans="1:2">
       <c r="A94" s="25" t="s">
-        <v>1157</v>
+        <v>1175</v>
       </c>
       <c r="B94" s="26" t="s">
-        <v>1158</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="95" ht="131.25" spans="2:2">
       <c r="B95" s="26" t="s">
-        <v>1159</v>
+        <v>1177</v>
       </c>
     </row>
   </sheetData>
@@ -18602,721 +18753,721 @@
   <sheetData>
     <row r="1" customHeight="1" spans="1:3">
       <c r="A1" s="8" t="s">
-        <v>1160</v>
+        <v>1178</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>1161</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="2" ht="20.25" spans="2:3">
       <c r="B2" s="9" t="s">
-        <v>1162</v>
+        <v>1180</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>1163</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="2:2">
       <c r="B3" s="9" t="s">
-        <v>1164</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="3:4">
       <c r="C4" s="10" t="s">
-        <v>1165</v>
+        <v>1183</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>1166</v>
+        <v>1184</v>
       </c>
     </row>
     <row r="5" ht="37.5" spans="3:4">
       <c r="C5" s="10" t="s">
-        <v>773</v>
+        <v>791</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>1167</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="3:4">
       <c r="C6" s="10" t="s">
-        <v>1168</v>
+        <v>1186</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>1169</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="2:2">
       <c r="B7" s="9" t="s">
-        <v>1170</v>
+        <v>1188</v>
       </c>
     </row>
     <row r="8" ht="56.25" spans="3:4">
       <c r="C8" s="14" t="s">
-        <v>1171</v>
+        <v>1189</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>1172</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="9" ht="187.5" spans="3:4">
       <c r="C9" s="10" t="s">
-        <v>1173</v>
+        <v>1191</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>1174</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="3:3">
       <c r="C10" s="10" t="s">
-        <v>1175</v>
+        <v>1193</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="3:4">
       <c r="C11" s="10" t="s">
-        <v>1176</v>
+        <v>1194</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>1177</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="3:3">
       <c r="C12" s="10" t="s">
-        <v>1178</v>
+        <v>1196</v>
       </c>
     </row>
     <row r="13" ht="93.75" spans="3:4">
       <c r="C13" s="10" t="s">
-        <v>1179</v>
+        <v>1197</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>1180</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="14" ht="187.5" spans="3:4">
       <c r="C14" s="10" t="s">
-        <v>1181</v>
+        <v>1199</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>1182</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="17" customHeight="1" spans="2:3">
       <c r="B17" s="15" t="s">
-        <v>1183</v>
+        <v>1201</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>1184</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="18" customHeight="1" spans="3:3">
       <c r="C18" s="10" t="s">
-        <v>1185</v>
+        <v>1203</v>
       </c>
     </row>
     <row r="19" ht="281.25" spans="3:4">
       <c r="C19" s="16" t="s">
-        <v>1186</v>
+        <v>1204</v>
       </c>
       <c r="D19" s="11" t="s">
-        <v>1187</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="20" ht="112.5" spans="3:4">
       <c r="C20" s="16" t="s">
-        <v>1188</v>
+        <v>1206</v>
       </c>
       <c r="D20" s="11" t="s">
-        <v>1189</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="21" ht="168.75" spans="3:4">
       <c r="C21" s="10" t="s">
-        <v>1190</v>
+        <v>1208</v>
       </c>
       <c r="D21" s="11" t="s">
-        <v>1191</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="22" ht="150" spans="3:4">
       <c r="C22" s="10" t="s">
-        <v>1192</v>
+        <v>1210</v>
       </c>
       <c r="D22" s="11" t="s">
-        <v>1193</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="23" ht="37.5" spans="3:4">
       <c r="C23" s="10" t="s">
-        <v>1194</v>
+        <v>1212</v>
       </c>
       <c r="D23" s="11" t="s">
-        <v>1195</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="25" customHeight="1" spans="2:2">
       <c r="B25" s="9" t="s">
-        <v>1196</v>
+        <v>1214</v>
       </c>
     </row>
     <row r="26" customHeight="1" spans="3:4">
       <c r="C26" s="10" t="s">
-        <v>1197</v>
+        <v>1215</v>
       </c>
       <c r="D26" s="11" t="s">
-        <v>1198</v>
+        <v>1216</v>
       </c>
     </row>
     <row r="27" customHeight="1" spans="3:3">
       <c r="C27" s="10" t="s">
-        <v>1199</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="28" ht="37.5" spans="3:4">
       <c r="C28" s="16" t="s">
-        <v>1200</v>
+        <v>1218</v>
       </c>
       <c r="D28" s="11" t="s">
-        <v>1201</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="29" customHeight="1" spans="3:4">
       <c r="C29" s="16" t="s">
-        <v>1202</v>
+        <v>1220</v>
       </c>
       <c r="D29" s="11" t="s">
-        <v>1203</v>
+        <v>1221</v>
       </c>
     </row>
     <row r="30" ht="56.25" spans="3:4">
       <c r="C30" s="16" t="s">
-        <v>1204</v>
+        <v>1222</v>
       </c>
       <c r="D30" s="11" t="s">
-        <v>1205</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="31" customHeight="1" spans="3:4">
       <c r="C31" s="16" t="s">
-        <v>1206</v>
+        <v>1224</v>
       </c>
       <c r="D31" s="11" t="s">
-        <v>1207</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="32" customHeight="1" spans="2:4">
       <c r="B32" s="9" t="s">
-        <v>1208</v>
+        <v>1226</v>
       </c>
       <c r="D32" s="11" t="s">
-        <v>1209</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="33" ht="56.25" spans="3:4">
       <c r="C33" s="10" t="s">
-        <v>1210</v>
+        <v>1228</v>
       </c>
       <c r="D33" s="11" t="s">
-        <v>1211</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="34" customHeight="1" spans="3:4">
       <c r="C34" s="10" t="s">
-        <v>1212</v>
+        <v>1230</v>
       </c>
       <c r="D34" s="11" t="s">
-        <v>1213</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="35" ht="37.5" spans="3:4">
       <c r="C35" s="14" t="s">
-        <v>1214</v>
+        <v>1232</v>
       </c>
       <c r="D35" s="11" t="s">
-        <v>1215</v>
+        <v>1233</v>
       </c>
     </row>
     <row r="36" customHeight="1" spans="3:4">
       <c r="C36" s="10" t="s">
-        <v>1216</v>
+        <v>1234</v>
       </c>
       <c r="D36" s="11" t="s">
-        <v>1217</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="37" customHeight="1" spans="3:4">
       <c r="C37" s="10" t="s">
-        <v>1218</v>
+        <v>1236</v>
       </c>
       <c r="D37" s="11" t="s">
-        <v>1219</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="38" customHeight="1" spans="1:4">
       <c r="A38" s="8" t="s">
-        <v>1220</v>
+        <v>1238</v>
       </c>
       <c r="D38" s="11" t="s">
-        <v>1221</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="39" customHeight="1" spans="2:4">
       <c r="B39" s="9" t="s">
-        <v>1222</v>
+        <v>1240</v>
       </c>
       <c r="D39" s="11" t="s">
-        <v>1223</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="40" customHeight="1" spans="3:4">
       <c r="C40" s="10" t="s">
-        <v>1224</v>
+        <v>1242</v>
       </c>
       <c r="D40" s="11" t="s">
-        <v>1225</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="41" customHeight="1" spans="3:4">
       <c r="C41" s="10" t="s">
-        <v>1226</v>
+        <v>1244</v>
       </c>
       <c r="D41" s="11" t="s">
-        <v>1227</v>
+        <v>1245</v>
       </c>
     </row>
     <row r="42" customHeight="1" spans="2:2">
       <c r="B42" s="10" t="s">
-        <v>1228</v>
+        <v>1246</v>
       </c>
     </row>
     <row r="43" ht="75" spans="3:4">
       <c r="C43" s="10" t="s">
-        <v>1229</v>
+        <v>1247</v>
       </c>
       <c r="D43" s="11" t="s">
-        <v>1230</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="44" ht="37.5" spans="3:4">
       <c r="C44" s="10" t="s">
-        <v>612</v>
+        <v>630</v>
       </c>
       <c r="D44" s="11" t="s">
-        <v>1231</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="45" ht="148" customHeight="1" spans="3:4">
       <c r="C45" s="10" t="s">
-        <v>1232</v>
+        <v>1250</v>
       </c>
       <c r="D45" s="11" t="s">
-        <v>1233</v>
+        <v>1251</v>
       </c>
     </row>
     <row r="46" customHeight="1" spans="3:4">
       <c r="C46" s="10" t="s">
-        <v>614</v>
+        <v>632</v>
       </c>
       <c r="D46" s="11" t="s">
-        <v>1234</v>
+        <v>1252</v>
       </c>
     </row>
     <row r="47" customHeight="1" spans="2:4">
       <c r="B47" s="9" t="s">
-        <v>1235</v>
+        <v>1253</v>
       </c>
       <c r="C47" s="10" t="s">
-        <v>1197</v>
+        <v>1215</v>
       </c>
       <c r="D47" s="11" t="s">
-        <v>1198</v>
+        <v>1216</v>
       </c>
     </row>
     <row r="48" ht="120" customHeight="1" spans="3:4">
       <c r="C48" s="10" t="s">
-        <v>1229</v>
+        <v>1247</v>
       </c>
       <c r="D48" s="11" t="s">
-        <v>1236</v>
+        <v>1254</v>
       </c>
     </row>
     <row r="49" ht="37.5" spans="3:4">
       <c r="C49" s="10" t="s">
-        <v>612</v>
+        <v>630</v>
       </c>
       <c r="D49" s="11" t="s">
-        <v>1237</v>
+        <v>1255</v>
       </c>
     </row>
     <row r="50" ht="131.25" spans="3:4">
       <c r="C50" s="10" t="s">
-        <v>1232</v>
+        <v>1250</v>
       </c>
       <c r="D50" s="11" t="s">
-        <v>1238</v>
+        <v>1256</v>
       </c>
     </row>
     <row r="51" customHeight="1" spans="3:4">
       <c r="C51" s="10" t="s">
-        <v>614</v>
+        <v>632</v>
       </c>
       <c r="D51" s="11" t="s">
-        <v>1239</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="52" ht="37.5" spans="2:4">
       <c r="B52" s="9" t="s">
-        <v>1240</v>
+        <v>1258</v>
       </c>
       <c r="C52" s="10" t="s">
-        <v>1197</v>
+        <v>1215</v>
       </c>
       <c r="D52" s="11" t="s">
-        <v>1241</v>
+        <v>1259</v>
       </c>
     </row>
     <row r="53" ht="37.5" spans="3:4">
       <c r="C53" s="10" t="s">
-        <v>1229</v>
+        <v>1247</v>
       </c>
       <c r="D53" s="11" t="s">
-        <v>1242</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="54" ht="27" customHeight="1" spans="3:4">
       <c r="C54" s="10" t="s">
-        <v>612</v>
+        <v>630</v>
       </c>
       <c r="D54" s="11" t="s">
-        <v>1243</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="55" ht="187.5" spans="3:4">
       <c r="C55" s="10" t="s">
-        <v>1232</v>
+        <v>1250</v>
       </c>
       <c r="D55" s="11" t="s">
-        <v>1244</v>
+        <v>1262</v>
       </c>
     </row>
     <row r="56" customHeight="1" spans="3:4">
       <c r="C56" s="10" t="s">
-        <v>614</v>
+        <v>632</v>
       </c>
       <c r="D56" s="11" t="s">
-        <v>1245</v>
+        <v>1263</v>
       </c>
     </row>
     <row r="57" customHeight="1" spans="1:1">
       <c r="A57" s="8" t="s">
-        <v>1246</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="58" ht="56.25" spans="2:4">
       <c r="B58" s="17" t="s">
-        <v>1247</v>
+        <v>1265</v>
       </c>
       <c r="C58" s="17"/>
       <c r="D58" s="11" t="s">
-        <v>1248</v>
+        <v>1266</v>
       </c>
     </row>
     <row r="59" ht="31" customHeight="1" spans="2:4">
       <c r="B59" s="18" t="s">
-        <v>1249</v>
+        <v>1267</v>
       </c>
       <c r="C59" s="18"/>
       <c r="D59" s="11" t="s">
-        <v>1250</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="60" ht="20.25" spans="2:4">
       <c r="B60" s="18" t="s">
-        <v>1251</v>
+        <v>1269</v>
       </c>
       <c r="C60" s="18"/>
       <c r="D60" s="11" t="s">
-        <v>1243</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="61" ht="61" customHeight="1" spans="2:4">
       <c r="B61" s="18" t="s">
-        <v>1252</v>
+        <v>1270</v>
       </c>
       <c r="C61" s="18"/>
       <c r="D61" s="11" t="s">
-        <v>1253</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="62" ht="90" customHeight="1" spans="2:4">
       <c r="B62" s="18" t="s">
-        <v>1254</v>
+        <v>1272</v>
       </c>
       <c r="C62" s="18"/>
       <c r="D62" s="11" t="s">
-        <v>1255</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="63" ht="206.25" spans="2:4">
       <c r="B63" s="19" t="s">
-        <v>1256</v>
+        <v>1274</v>
       </c>
       <c r="C63" s="19"/>
       <c r="D63" s="11" t="s">
-        <v>1257</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="64" ht="20.25" spans="2:4">
       <c r="B64" s="19"/>
       <c r="C64" s="19" t="s">
-        <v>1258</v>
+        <v>1276</v>
       </c>
       <c r="D64" s="11" t="s">
-        <v>1259</v>
+        <v>1277</v>
       </c>
     </row>
     <row r="65" ht="37.5" spans="2:4">
       <c r="B65" s="19"/>
       <c r="C65" s="19" t="s">
-        <v>1260</v>
+        <v>1278</v>
       </c>
       <c r="D65" s="11" t="s">
-        <v>1261</v>
+        <v>1279</v>
       </c>
     </row>
     <row r="66" ht="20.25" spans="2:4">
       <c r="B66" s="19"/>
       <c r="C66" s="19" t="s">
-        <v>1262</v>
+        <v>1280</v>
       </c>
       <c r="D66" s="11" t="s">
-        <v>1263</v>
+        <v>1281</v>
       </c>
     </row>
     <row r="67" ht="20.25" spans="2:4">
       <c r="B67" s="19"/>
       <c r="C67" s="19" t="s">
-        <v>1264</v>
+        <v>1282</v>
       </c>
       <c r="D67" s="11" t="s">
-        <v>1265</v>
+        <v>1283</v>
       </c>
     </row>
     <row r="68" ht="20.25" spans="2:4">
       <c r="B68" s="19"/>
       <c r="C68" s="19" t="s">
-        <v>1266</v>
+        <v>1284</v>
       </c>
       <c r="D68" s="11" t="s">
-        <v>1267</v>
+        <v>1285</v>
       </c>
     </row>
     <row r="69" ht="20.25" spans="2:4">
       <c r="B69" s="19"/>
       <c r="C69" s="19" t="s">
-        <v>1268</v>
+        <v>1286</v>
       </c>
       <c r="D69" s="11" t="s">
-        <v>1269</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="70" ht="56" customHeight="1" spans="2:3">
       <c r="B70" s="18" t="s">
-        <v>1270</v>
+        <v>1288</v>
       </c>
       <c r="C70" s="19"/>
     </row>
     <row r="71" ht="29" customHeight="1" spans="2:4">
       <c r="B71" s="19"/>
       <c r="C71" s="19" t="s">
-        <v>1271</v>
+        <v>1289</v>
       </c>
       <c r="D71" s="11" t="s">
-        <v>1272</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="72" ht="29" customHeight="1" spans="2:4">
       <c r="B72" s="19"/>
       <c r="C72" s="19" t="s">
-        <v>1273</v>
+        <v>1291</v>
       </c>
       <c r="D72" s="11" t="s">
-        <v>1274</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="73" ht="20.25" spans="2:3">
       <c r="B73" s="18" t="s">
-        <v>1275</v>
+        <v>1293</v>
       </c>
       <c r="C73" s="18"/>
     </row>
     <row r="74" customHeight="1" spans="1:4">
       <c r="A74" s="8" t="s">
-        <v>1276</v>
+        <v>1294</v>
       </c>
       <c r="D74" s="11" t="s">
-        <v>1277</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="75" ht="93.75" spans="2:4">
       <c r="B75" s="9" t="s">
-        <v>1278</v>
+        <v>1296</v>
       </c>
       <c r="C75" s="10" t="s">
-        <v>1279</v>
+        <v>1297</v>
       </c>
       <c r="D75" s="11" t="s">
-        <v>1280</v>
+        <v>1298</v>
       </c>
     </row>
     <row r="76" customHeight="1" spans="3:4">
       <c r="C76" s="10" t="s">
-        <v>1281</v>
+        <v>1299</v>
       </c>
       <c r="D76" s="11" t="s">
-        <v>1282</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="77" customHeight="1" spans="2:3">
       <c r="B77" s="9" t="s">
-        <v>1283</v>
+        <v>1301</v>
       </c>
       <c r="C77" s="10" t="s">
-        <v>1279</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="78" customHeight="1" spans="3:3">
       <c r="C78" s="10" t="s">
-        <v>1281</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="79" customHeight="1" spans="1:1">
       <c r="A79" s="8" t="s">
-        <v>1284</v>
+        <v>1302</v>
       </c>
     </row>
     <row r="80" ht="168.75" spans="2:4">
       <c r="B80" s="9" t="s">
-        <v>1285</v>
+        <v>1303</v>
       </c>
       <c r="C80" s="10" t="s">
-        <v>1286</v>
+        <v>1304</v>
       </c>
       <c r="D80" s="11" t="s">
-        <v>1287</v>
+        <v>1305</v>
       </c>
     </row>
     <row r="81" customHeight="1" spans="2:4">
       <c r="B81" s="9" t="s">
-        <v>1288</v>
+        <v>1306</v>
       </c>
       <c r="D81" s="11" t="s">
-        <v>1289</v>
+        <v>1307</v>
       </c>
     </row>
     <row r="82" customHeight="1" spans="2:4">
       <c r="B82" s="9" t="s">
-        <v>1290</v>
+        <v>1308</v>
       </c>
       <c r="D82" s="11" t="s">
-        <v>1291</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="83" customHeight="1" spans="2:4">
       <c r="B83" s="9" t="s">
-        <v>612</v>
+        <v>630</v>
       </c>
       <c r="D83" s="11" t="s">
-        <v>1292</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="84" customHeight="1" spans="1:1">
       <c r="A84" s="8" t="s">
-        <v>1293</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="85" ht="20.25" spans="2:4">
       <c r="B85" s="9" t="s">
-        <v>975</v>
+        <v>993</v>
       </c>
       <c r="C85" s="10" t="s">
-        <v>1294</v>
-      </c>
-      <c r="D85" s="119" t="s">
-        <v>1295</v>
+        <v>1312</v>
+      </c>
+      <c r="D85" s="121" t="s">
+        <v>1313</v>
       </c>
     </row>
     <row r="86" customHeight="1" spans="2:4">
       <c r="B86" s="9" t="s">
-        <v>973</v>
+        <v>991</v>
       </c>
       <c r="C86" s="10" t="s">
-        <v>1296</v>
-      </c>
-      <c r="D86" s="119" t="s">
-        <v>1297</v>
+        <v>1314</v>
+      </c>
+      <c r="D86" s="121" t="s">
+        <v>1315</v>
       </c>
     </row>
     <row r="87" customHeight="1" spans="2:4">
       <c r="B87" s="9" t="s">
-        <v>1298</v>
+        <v>1316</v>
       </c>
       <c r="C87" s="10" t="s">
-        <v>1299</v>
+        <v>1317</v>
       </c>
       <c r="D87" s="11" t="s">
-        <v>1300</v>
+        <v>1318</v>
       </c>
     </row>
     <row r="88" customHeight="1" spans="3:4">
       <c r="C88" s="10" t="s">
-        <v>1301</v>
+        <v>1319</v>
       </c>
       <c r="D88" s="11" t="s">
-        <v>1302</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="89" customHeight="1" spans="3:4">
       <c r="C89" s="10" t="s">
-        <v>1303</v>
+        <v>1321</v>
       </c>
       <c r="D89" s="11" t="s">
-        <v>1304</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="90" customHeight="1" spans="2:4">
       <c r="B90" s="9" t="s">
-        <v>979</v>
+        <v>997</v>
       </c>
       <c r="C90" s="10" t="s">
-        <v>1305</v>
+        <v>1323</v>
       </c>
       <c r="D90" s="11" t="s">
-        <v>1306</v>
+        <v>1324</v>
       </c>
     </row>
     <row r="91" customHeight="1" spans="3:4">
       <c r="C91" s="10" t="s">
-        <v>1307</v>
+        <v>1325</v>
       </c>
       <c r="D91" s="11" t="s">
-        <v>1308</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="92" customHeight="1" spans="3:4">
       <c r="C92" s="20" t="s">
-        <v>1309</v>
+        <v>1327</v>
       </c>
       <c r="D92" s="11" t="s">
-        <v>1310</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="93" customHeight="1" spans="2:12">
       <c r="B93" s="8"/>
       <c r="C93" s="20" t="s">
-        <v>1311</v>
+        <v>1329</v>
       </c>
       <c r="D93" s="14" t="s">
-        <v>1312</v>
+        <v>1330</v>
       </c>
       <c r="E93" s="21"/>
       <c r="L93" s="12"/>
@@ -19324,400 +19475,400 @@
     <row r="94" customHeight="1" spans="2:12">
       <c r="B94" s="8"/>
       <c r="C94" s="20" t="s">
-        <v>1313</v>
+        <v>1331</v>
       </c>
       <c r="D94" s="14" t="s">
-        <v>1314</v>
+        <v>1332</v>
       </c>
       <c r="E94" s="21"/>
       <c r="L94" s="12"/>
     </row>
     <row r="95" ht="37.5" spans="2:4">
       <c r="B95" s="9" t="s">
-        <v>1315</v>
+        <v>1333</v>
       </c>
       <c r="C95" s="22" t="s">
-        <v>1316</v>
+        <v>1334</v>
       </c>
       <c r="D95" s="11" t="s">
-        <v>1317</v>
+        <v>1335</v>
       </c>
     </row>
     <row r="97" customHeight="1" spans="2:4">
       <c r="B97" s="9" t="s">
-        <v>1318</v>
+        <v>1336</v>
       </c>
       <c r="D97" s="11" t="s">
-        <v>1319</v>
+        <v>1337</v>
       </c>
     </row>
     <row r="98" customHeight="1" spans="2:4">
       <c r="B98" s="9" t="s">
-        <v>1320</v>
+        <v>1338</v>
       </c>
       <c r="C98" s="10" t="s">
-        <v>1321</v>
+        <v>1339</v>
       </c>
       <c r="D98" s="11" t="s">
-        <v>1322</v>
+        <v>1340</v>
       </c>
     </row>
     <row r="99" customHeight="1" spans="2:4">
       <c r="B99" s="9" t="s">
-        <v>1323</v>
+        <v>1341</v>
       </c>
       <c r="C99" s="10" t="s">
-        <v>1324</v>
+        <v>1342</v>
       </c>
       <c r="D99" s="11" t="s">
-        <v>1325</v>
+        <v>1343</v>
       </c>
     </row>
     <row r="100" customHeight="1" spans="3:4">
       <c r="C100" s="10" t="s">
-        <v>1326</v>
+        <v>1344</v>
       </c>
       <c r="D100" s="11" t="s">
-        <v>1327</v>
+        <v>1345</v>
       </c>
     </row>
     <row r="101" customHeight="1" spans="3:4">
       <c r="C101" s="10" t="s">
-        <v>1328</v>
+        <v>1346</v>
       </c>
       <c r="D101" s="11" t="s">
-        <v>1329</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="102" customHeight="1" spans="3:4">
       <c r="C102" s="10" t="s">
-        <v>1330</v>
+        <v>1348</v>
       </c>
       <c r="D102" s="11" t="s">
-        <v>1331</v>
+        <v>1349</v>
       </c>
     </row>
     <row r="103" customHeight="1" spans="3:4">
       <c r="C103" s="10" t="s">
-        <v>1332</v>
+        <v>1350</v>
       </c>
       <c r="D103" s="11" t="s">
-        <v>1333</v>
+        <v>1351</v>
       </c>
     </row>
     <row r="104" customHeight="1" spans="2:3">
       <c r="B104" s="9" t="s">
-        <v>1334</v>
+        <v>1352</v>
       </c>
       <c r="C104" s="10" t="s">
-        <v>1335</v>
+        <v>1353</v>
       </c>
     </row>
     <row r="105" customHeight="1" spans="2:3">
       <c r="B105" s="9" t="s">
-        <v>1336</v>
+        <v>1354</v>
       </c>
       <c r="C105" s="10" t="s">
-        <v>1337</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="106" customHeight="1" spans="2:4">
       <c r="B106" s="9" t="s">
-        <v>1338</v>
+        <v>1356</v>
       </c>
       <c r="C106" s="10" t="s">
-        <v>1339</v>
+        <v>1357</v>
       </c>
       <c r="D106" s="11" t="s">
-        <v>1340</v>
+        <v>1358</v>
       </c>
     </row>
     <row r="107" customHeight="1" spans="2:4">
       <c r="B107" s="9" t="s">
-        <v>1341</v>
+        <v>1359</v>
       </c>
       <c r="C107" s="10" t="s">
-        <v>1342</v>
+        <v>1360</v>
       </c>
       <c r="D107" s="11" t="s">
-        <v>1343</v>
+        <v>1361</v>
       </c>
     </row>
     <row r="108" customHeight="1" spans="3:4">
       <c r="C108" s="10" t="s">
-        <v>1344</v>
+        <v>1362</v>
       </c>
       <c r="D108" s="11" t="s">
-        <v>1345</v>
+        <v>1363</v>
       </c>
     </row>
     <row r="109" customHeight="1" spans="3:4">
       <c r="C109" s="10" t="s">
-        <v>1346</v>
+        <v>1364</v>
       </c>
       <c r="D109" s="11" t="s">
-        <v>1347</v>
+        <v>1365</v>
       </c>
     </row>
     <row r="111" customHeight="1" spans="1:1">
       <c r="A111" s="8" t="s">
-        <v>1348</v>
+        <v>1366</v>
       </c>
     </row>
     <row r="112" customHeight="1" spans="2:2">
       <c r="B112" s="9" t="s">
-        <v>1349</v>
+        <v>1367</v>
       </c>
     </row>
     <row r="113" customHeight="1" spans="3:4">
       <c r="C113" s="20" t="s">
-        <v>1197</v>
+        <v>1215</v>
       </c>
       <c r="D113" s="11" t="s">
-        <v>1350</v>
+        <v>1368</v>
       </c>
     </row>
     <row r="114" customHeight="1" spans="3:4">
       <c r="C114" s="20" t="s">
-        <v>989</v>
+        <v>1007</v>
       </c>
       <c r="D114" s="11" t="s">
-        <v>1351</v>
+        <v>1369</v>
       </c>
     </row>
     <row r="115" customHeight="1" spans="2:2">
       <c r="B115" s="9" t="s">
-        <v>1352</v>
+        <v>1370</v>
       </c>
     </row>
     <row r="116" customHeight="1" spans="3:3">
       <c r="C116" s="10" t="s">
-        <v>1353</v>
+        <v>1371</v>
       </c>
     </row>
     <row r="117" customHeight="1" spans="3:4">
       <c r="C117" s="10" t="s">
-        <v>1354</v>
+        <v>1372</v>
       </c>
       <c r="D117" s="11" t="s">
-        <v>1355</v>
+        <v>1373</v>
       </c>
     </row>
     <row r="118" customHeight="1" spans="2:2">
       <c r="B118" s="9" t="s">
-        <v>1348</v>
+        <v>1366</v>
       </c>
     </row>
     <row r="119" customHeight="1" spans="3:3">
       <c r="C119" s="10" t="s">
-        <v>1353</v>
+        <v>1371</v>
       </c>
     </row>
     <row r="120" customHeight="1" spans="3:4">
       <c r="C120" s="10" t="s">
-        <v>1354</v>
+        <v>1372</v>
       </c>
       <c r="D120" s="11" t="s">
-        <v>1356</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="121" customHeight="1" spans="2:4">
       <c r="B121" s="9" t="s">
-        <v>1348</v>
+        <v>1366</v>
       </c>
       <c r="C121" s="10" t="s">
-        <v>1354</v>
+        <v>1372</v>
       </c>
       <c r="D121" s="11" t="s">
-        <v>1357</v>
+        <v>1375</v>
       </c>
     </row>
     <row r="122" customHeight="1" spans="2:4">
       <c r="B122" s="9" t="s">
-        <v>1358</v>
+        <v>1376</v>
       </c>
       <c r="C122" s="10" t="s">
-        <v>1359</v>
+        <v>1377</v>
       </c>
       <c r="D122" s="11" t="s">
-        <v>1360</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="123" customHeight="1" spans="3:4">
       <c r="C123" s="10" t="s">
-        <v>1361</v>
+        <v>1379</v>
       </c>
       <c r="D123" s="11" t="s">
-        <v>1362</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="125" customHeight="1" spans="1:1">
       <c r="A125" s="8" t="s">
-        <v>1363</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="126" customHeight="1" spans="2:2">
       <c r="B126" s="9" t="s">
-        <v>1364</v>
+        <v>1382</v>
       </c>
     </row>
     <row r="127" customHeight="1" spans="2:2">
       <c r="B127" s="9" t="s">
-        <v>1365</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="128" customHeight="1" spans="1:1">
       <c r="A128" s="8" t="s">
-        <v>1366</v>
+        <v>1384</v>
       </c>
     </row>
     <row r="129" customHeight="1" spans="2:2">
       <c r="B129" s="9" t="s">
-        <v>1367</v>
+        <v>1385</v>
       </c>
     </row>
     <row r="130" ht="131.25" spans="3:4">
       <c r="C130" s="10" t="s">
-        <v>1368</v>
+        <v>1386</v>
       </c>
       <c r="D130" s="11" t="s">
-        <v>1369</v>
+        <v>1387</v>
       </c>
     </row>
     <row r="131" customHeight="1" spans="3:4">
       <c r="C131" s="10" t="s">
-        <v>1370</v>
+        <v>1388</v>
       </c>
       <c r="D131" s="11" t="s">
-        <v>1371</v>
+        <v>1389</v>
       </c>
     </row>
     <row r="132" ht="56.25" spans="2:4">
       <c r="B132" s="9" t="s">
-        <v>1372</v>
+        <v>1390</v>
       </c>
       <c r="D132" s="23" t="s">
-        <v>1373</v>
+        <v>1391</v>
       </c>
     </row>
     <row r="133" ht="37.5" spans="2:4">
       <c r="B133" s="9" t="s">
-        <v>1374</v>
+        <v>1392</v>
       </c>
       <c r="C133" s="10" t="s">
-        <v>1071</v>
+        <v>1089</v>
       </c>
       <c r="D133" s="11" t="s">
-        <v>1375</v>
+        <v>1393</v>
       </c>
     </row>
     <row r="134" customHeight="1" spans="2:4">
       <c r="B134" s="9" t="s">
-        <v>1376</v>
+        <v>1394</v>
       </c>
       <c r="C134" s="10" t="s">
-        <v>1071</v>
+        <v>1089</v>
       </c>
       <c r="D134" s="11" t="s">
-        <v>1377</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="135" ht="75" spans="3:4">
       <c r="C135" s="10" t="s">
-        <v>1378</v>
+        <v>1396</v>
       </c>
       <c r="D135" s="11" t="s">
-        <v>1379</v>
+        <v>1397</v>
       </c>
     </row>
     <row r="136" customHeight="1" spans="2:2">
       <c r="B136" s="9" t="s">
-        <v>1380</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="138" customHeight="1" spans="2:2">
       <c r="B138" s="9" t="s">
-        <v>1381</v>
+        <v>1399</v>
       </c>
     </row>
     <row r="141" customHeight="1" spans="1:1">
       <c r="A141" s="8" t="s">
-        <v>1382</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="142" customHeight="1" spans="2:3">
       <c r="B142" s="9" t="s">
-        <v>1383</v>
+        <v>1401</v>
       </c>
       <c r="C142" s="10" t="s">
-        <v>1384</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="143" customHeight="1" spans="2:4">
       <c r="B143" s="24" t="s">
-        <v>1385</v>
+        <v>1403</v>
       </c>
       <c r="C143" s="10" t="s">
-        <v>1386</v>
+        <v>1404</v>
       </c>
       <c r="D143" s="11" t="s">
-        <v>1387</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="144" customHeight="1" spans="3:4">
       <c r="C144" s="10" t="s">
-        <v>1388</v>
+        <v>1406</v>
       </c>
       <c r="D144" s="11" t="s">
-        <v>1389</v>
+        <v>1407</v>
       </c>
     </row>
     <row r="145" customHeight="1" spans="2:2">
       <c r="B145" s="9" t="s">
-        <v>1390</v>
+        <v>1408</v>
       </c>
     </row>
     <row r="146" customHeight="1" spans="3:4">
       <c r="C146" s="10" t="s">
-        <v>1391</v>
+        <v>1409</v>
       </c>
       <c r="D146" s="11" t="s">
-        <v>1392</v>
+        <v>1410</v>
       </c>
     </row>
     <row r="147" customHeight="1" spans="2:2">
       <c r="B147" s="9" t="s">
-        <v>1393</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="148" customHeight="1" spans="3:3">
       <c r="C148" s="10" t="s">
-        <v>1391</v>
+        <v>1409</v>
       </c>
     </row>
     <row r="155" customHeight="1" spans="1:1">
       <c r="A155" s="8" t="s">
-        <v>1394</v>
+        <v>1412</v>
       </c>
     </row>
     <row r="160" customHeight="1" spans="1:1">
       <c r="A160" s="8" t="s">
-        <v>1395</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="165" customHeight="1" spans="1:1">
       <c r="A165" s="8" t="s">
-        <v>1396</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="170" customHeight="1" spans="1:1">
       <c r="A170" s="8" t="s">
-        <v>1397</v>
+        <v>1415</v>
       </c>
     </row>
     <row r="174" customHeight="1" spans="1:1">
       <c r="A174" s="8" t="s">
-        <v>1398</v>
+        <v>1416</v>
       </c>
     </row>
   </sheetData>

--- a/linux.xlsx
+++ b/linux.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20385" windowHeight="8520" activeTab="1"/>
+    <workbookView windowWidth="20385" windowHeight="7950" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="目录" sheetId="1" r:id="rId1"/>
@@ -6514,8 +6514,8 @@
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="63">
     <font>
@@ -6804,25 +6804,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -6835,29 +6821,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6865,25 +6836,17 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -6903,10 +6866,48 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -6917,19 +6918,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -6966,7 +6966,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6978,7 +7008,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6990,7 +7068,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7002,151 +7140,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7160,17 +7160,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -7199,22 +7193,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -7236,24 +7225,35 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -7262,148 +7262,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="45" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="42" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="56" fillId="24" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="45" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="45" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="45" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="59" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="42" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="45" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="42" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="58" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="55" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="57" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="45" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="42" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="42" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="45" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="42" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -7420,7 +7420,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="10" applyFont="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="41" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -7471,10 +7471,10 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -7561,14 +7561,14 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -7737,16 +7737,16 @@
     <xf numFmtId="49" fontId="38" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="11" fontId="9" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="11" fontId="9" fillId="0" borderId="0" xfId="7" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="39" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="11" fontId="9" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="11" fontId="9" fillId="0" borderId="0" xfId="7" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="11" fontId="40" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="11" fontId="40" fillId="0" borderId="0" xfId="7" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="41" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -7755,7 +7755,7 @@
     <xf numFmtId="49" fontId="38" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="11" fontId="9" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1" quotePrefix="1">
+    <xf numFmtId="11" fontId="9" fillId="0" borderId="0" xfId="7" applyNumberFormat="1" applyFont="1" applyAlignment="1" quotePrefix="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" quotePrefix="1">
@@ -7773,61 +7773,56 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
+    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
+    <cellStyle name="输入" xfId="4" builtinId="20"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
+    <cellStyle name="货币" xfId="7" builtinId="4"/>
+    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
+    <cellStyle name="百分比" xfId="9" builtinId="5"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
+    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
+    <cellStyle name="计算" xfId="15" builtinId="22"/>
+    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
+    <cellStyle name="适中" xfId="17" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
+    <cellStyle name="好" xfId="19" builtinId="26"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="差" xfId="22" builtinId="27"/>
+    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
     <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
+    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
+    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
+    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
+    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
+    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
+    <cellStyle name="标题" xfId="33" builtinId="15"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
+    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="注释" xfId="37" builtinId="10"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
+    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
+    <cellStyle name="超链接" xfId="41" builtinId="8"/>
+    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
+    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
     <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
     <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
+    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -7836,7 +7831,7 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr val="windowText" lastClr="2E3436"/>
       </a:dk1>
       <a:lt1>
         <a:sysClr val="window" lastClr="FFFFFF"/>
@@ -8083,11 +8078,12 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
@@ -8095,7 +8091,7 @@
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
@@ -8103,7 +8099,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:A31"/>
   <sheetViews>
@@ -8111,12 +8107,12 @@
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="96.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="222.75" spans="1:1">
+    <row r="1" ht="198" spans="1:1">
       <c r="A1" s="7" t="s">
         <v>1399</v>
       </c>
@@ -8159,7 +8155,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:A7"/>
   <sheetViews>
@@ -8167,23 +8163,23 @@
       <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="20.25" outlineLevelRow="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" outlineLevelRow="6"/>
   <cols>
     <col min="1" max="1" width="161.625" style="5" customWidth="1"/>
     <col min="2" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" ht="81" spans="1:1">
+    <row r="1" ht="72" spans="1:1">
       <c r="A1" s="6" t="s">
         <v>1400</v>
       </c>
     </row>
-    <row r="2" ht="81" spans="1:1">
+    <row r="2" ht="72" spans="1:1">
       <c r="A2" s="6" t="s">
         <v>1401</v>
       </c>
     </row>
-    <row r="3" ht="40.5" spans="1:1">
+    <row r="3" ht="36" spans="1:1">
       <c r="A3" s="6" t="s">
         <v>1402</v>
       </c>
@@ -8193,12 +8189,12 @@
         <v>1403</v>
       </c>
     </row>
-    <row r="6" ht="81" spans="1:1">
+    <row r="6" ht="72" spans="1:1">
       <c r="A6" s="6" t="s">
         <v>1404</v>
       </c>
     </row>
-    <row r="7" ht="60.75" spans="1:1">
+    <row r="7" ht="54" spans="1:1">
       <c r="A7" s="6" t="s">
         <v>1405</v>
       </c>
@@ -8210,7 +8206,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:C19"/>
   <sheetViews>
@@ -8218,7 +8214,7 @@
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="22.5" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="20.25" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="25.75" style="1" customWidth="1"/>
     <col min="2" max="2" width="14.125" style="2" customWidth="1"/>
@@ -8296,15 +8292,15 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:I373"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A307" workbookViewId="0">
-      <selection activeCell="C314" sqref="C314"/>
+    <sheetView topLeftCell="A307" workbookViewId="0">
+      <selection activeCell="C324" sqref="C324"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="22.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="20.25"/>
   <cols>
     <col min="1" max="1" width="11.875" style="107" customWidth="1"/>
     <col min="2" max="2" width="13.125" style="108" customWidth="1"/>
@@ -10835,7 +10831,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:G23"/>
   <sheetViews>
@@ -10845,7 +10841,7 @@
       <selection pane="topRight" activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="20.25" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="18.875" style="96" customWidth="1"/>
     <col min="2" max="2" width="11.875" style="97" customWidth="1"/>
@@ -11034,7 +11030,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:O115"/>
   <sheetViews>
@@ -11044,7 +11040,7 @@
       <selection pane="topRight" activeCell="C96" sqref="C96"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="17.375" style="68" customWidth="1"/>
     <col min="2" max="2" width="19.5" style="69" customWidth="1"/>
@@ -12658,7 +12654,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:N84"/>
   <sheetViews>
@@ -13863,17 +13859,17 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:M201"/>
   <sheetViews>
-    <sheetView topLeftCell="A117" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="B115" sqref="B115"/>
+      <selection pane="topRight" activeCell="C68" sqref="C68:M68"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="20.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18"/>
   <cols>
     <col min="1" max="1" width="24" style="41" customWidth="1"/>
     <col min="2" max="2" width="27.5" style="42" customWidth="1"/>
@@ -14907,7 +14903,7 @@
     <row r="91" ht="82" customHeight="1" spans="3:13">
       <c r="C91" s="30"/>
       <c r="D91" s="30"/>
-      <c r="E91" s="51" t="s">
+      <c r="E91" s="53" t="s">
         <v>805</v>
       </c>
       <c r="F91" s="29"/>
@@ -14924,7 +14920,7 @@
       <c r="D92" s="50" t="s">
         <v>806</v>
       </c>
-      <c r="E92" s="51"/>
+      <c r="E92" s="53"/>
       <c r="F92" s="29"/>
       <c r="G92" s="29"/>
       <c r="H92" s="29"/>
@@ -14954,7 +14950,7 @@
       <c r="D94" s="50" t="s">
         <v>808</v>
       </c>
-      <c r="E94" s="51"/>
+      <c r="E94" s="53"/>
       <c r="F94" s="29"/>
       <c r="G94" s="29"/>
       <c r="H94" s="29"/>
@@ -15172,7 +15168,7 @@
       <c r="M109" s="27"/>
     </row>
     <row r="110" spans="3:13">
-      <c r="C110" s="52" t="s">
+      <c r="C110" s="51" t="s">
         <v>824</v>
       </c>
       <c r="D110" s="48"/>
@@ -15291,16 +15287,16 @@
       <c r="C123" s="39" t="s">
         <v>834</v>
       </c>
-      <c r="D123" s="53"/>
-      <c r="E123" s="53"/>
-      <c r="F123" s="53"/>
-      <c r="G123" s="53"/>
-      <c r="H123" s="53"/>
-      <c r="I123" s="53"/>
-      <c r="J123" s="53"/>
-      <c r="K123" s="53"/>
-      <c r="L123" s="53"/>
-      <c r="M123" s="53"/>
+      <c r="D123" s="52"/>
+      <c r="E123" s="52"/>
+      <c r="F123" s="52"/>
+      <c r="G123" s="52"/>
+      <c r="H123" s="52"/>
+      <c r="I123" s="52"/>
+      <c r="J123" s="52"/>
+      <c r="K123" s="52"/>
+      <c r="L123" s="52"/>
+      <c r="M123" s="52"/>
     </row>
     <row r="124" spans="2:13">
       <c r="B124" s="42" t="s">
@@ -15333,15 +15329,15 @@
       <c r="D127" s="39" t="s">
         <v>838</v>
       </c>
-      <c r="E127" s="53"/>
-      <c r="F127" s="53"/>
-      <c r="G127" s="53"/>
-      <c r="H127" s="53"/>
-      <c r="I127" s="53"/>
-      <c r="J127" s="53"/>
-      <c r="K127" s="53"/>
-      <c r="L127" s="53"/>
-      <c r="M127" s="53"/>
+      <c r="E127" s="52"/>
+      <c r="F127" s="52"/>
+      <c r="G127" s="52"/>
+      <c r="H127" s="52"/>
+      <c r="I127" s="52"/>
+      <c r="J127" s="52"/>
+      <c r="K127" s="52"/>
+      <c r="L127" s="52"/>
+      <c r="M127" s="52"/>
     </row>
     <row r="128" ht="56" customHeight="1" spans="1:13">
       <c r="A128" s="41" t="s">
@@ -16127,17 +16123,17 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:N191"/>
   <sheetViews>
-    <sheetView topLeftCell="A112" workbookViewId="0">
+    <sheetView topLeftCell="A126" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection/>
       <selection pane="topRight" activeCell="C120" sqref="C120"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="20.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18"/>
   <cols>
     <col min="1" max="1" width="25.125" style="25" customWidth="1"/>
     <col min="2" max="2" width="19.625" style="28" customWidth="1"/>
@@ -17127,7 +17123,7 @@
       <c r="M94" s="29"/>
       <c r="N94" s="29"/>
     </row>
-    <row r="95" ht="18" customHeight="1" spans="4:14">
+    <row r="95" customHeight="1" spans="4:14">
       <c r="D95" s="29"/>
       <c r="E95" s="29"/>
       <c r="F95" s="29"/>
@@ -18220,7 +18216,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:B95"/>
   <sheetViews>
@@ -18230,7 +18226,7 @@
       <selection pane="topRight" activeCell="A28" sqref="A$1:A$1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="20.25" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="25.125" style="25" customWidth="1"/>
     <col min="2" max="2" width="115.375" style="26" customWidth="1"/>
@@ -18247,7 +18243,7 @@
         <v>1092</v>
       </c>
     </row>
-    <row r="3" ht="75" spans="2:2">
+    <row r="3" ht="66" spans="2:2">
       <c r="B3" s="26" t="s">
         <v>1093</v>
       </c>
@@ -18257,17 +18253,17 @@
         <v>1094</v>
       </c>
     </row>
-    <row r="6" ht="37.5" spans="2:2">
+    <row r="6" ht="33" spans="2:2">
       <c r="B6" s="26" t="s">
         <v>1095</v>
       </c>
     </row>
-    <row r="8" ht="18" customHeight="1" spans="1:1">
+    <row r="8" customHeight="1" spans="1:1">
       <c r="A8" s="25" t="s">
         <v>1096</v>
       </c>
     </row>
-    <row r="9" ht="93.75" spans="2:2">
+    <row r="9" ht="82.5" spans="2:2">
       <c r="B9" s="26" t="s">
         <v>1097</v>
       </c>
@@ -18287,12 +18283,12 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="16" ht="56.25" spans="2:2">
+    <row r="16" ht="49.5" spans="2:2">
       <c r="B16" s="26" t="s">
         <v>1101</v>
       </c>
     </row>
-    <row r="18" ht="75" spans="2:2">
+    <row r="18" ht="66" spans="2:2">
       <c r="B18" s="26" t="s">
         <v>1102</v>
       </c>
@@ -18312,7 +18308,7 @@
         <v>1105</v>
       </c>
     </row>
-    <row r="24" ht="112.5" spans="2:2">
+    <row r="24" ht="99" spans="2:2">
       <c r="B24" s="26" t="s">
         <v>1106</v>
       </c>
@@ -18322,7 +18318,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="27" ht="187.5" spans="2:2">
+    <row r="27" ht="165" spans="2:2">
       <c r="B27" s="26" t="s">
         <v>1108</v>
       </c>
@@ -18332,7 +18328,7 @@
         <v>1109</v>
       </c>
     </row>
-    <row r="30" ht="56.25" spans="2:2">
+    <row r="30" ht="49.5" spans="2:2">
       <c r="B30" s="26" t="s">
         <v>1110</v>
       </c>
@@ -18342,7 +18338,7 @@
         <v>1111</v>
       </c>
     </row>
-    <row r="33" ht="93.75" spans="2:2">
+    <row r="33" ht="82.5" spans="2:2">
       <c r="B33" s="26" t="s">
         <v>1112</v>
       </c>
@@ -18352,7 +18348,7 @@
         <v>1113</v>
       </c>
     </row>
-    <row r="36" ht="75" spans="2:2">
+    <row r="36" ht="66" spans="2:2">
       <c r="B36" s="26" t="s">
         <v>1114</v>
       </c>
@@ -18362,7 +18358,7 @@
         <v>1115</v>
       </c>
     </row>
-    <row r="39" ht="56.25" spans="2:2">
+    <row r="39" ht="49.5" spans="2:2">
       <c r="B39" s="26" t="s">
         <v>1116</v>
       </c>
@@ -18372,7 +18368,7 @@
         <v>1117</v>
       </c>
     </row>
-    <row r="42" ht="75" spans="2:2">
+    <row r="42" ht="66" spans="2:2">
       <c r="B42" s="26" t="s">
         <v>1118</v>
       </c>
@@ -18382,7 +18378,7 @@
         <v>1119</v>
       </c>
     </row>
-    <row r="45" ht="75" spans="2:2">
+    <row r="45" ht="66" spans="2:2">
       <c r="B45" s="26" t="s">
         <v>1120</v>
       </c>
@@ -18392,7 +18388,7 @@
         <v>1121</v>
       </c>
     </row>
-    <row r="48" ht="56.25" spans="2:2">
+    <row r="48" ht="49.5" spans="2:2">
       <c r="B48" s="26" t="s">
         <v>1122</v>
       </c>
@@ -18402,7 +18398,7 @@
         <v>1123</v>
       </c>
     </row>
-    <row r="51" ht="93.75" spans="2:2">
+    <row r="51" ht="82.5" spans="2:2">
       <c r="B51" s="26" t="s">
         <v>1124</v>
       </c>
@@ -18412,7 +18408,7 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="54" ht="37.5" spans="2:2">
+    <row r="54" ht="33" spans="2:2">
       <c r="B54" s="26" t="s">
         <v>1126</v>
       </c>
@@ -18422,7 +18418,7 @@
         <v>1127</v>
       </c>
     </row>
-    <row r="57" ht="56.25" spans="2:2">
+    <row r="57" ht="49.5" spans="2:2">
       <c r="B57" s="26" t="s">
         <v>1128</v>
       </c>
@@ -18432,7 +18428,7 @@
         <v>1129</v>
       </c>
     </row>
-    <row r="60" ht="37.5" spans="2:2">
+    <row r="60" ht="33" spans="2:2">
       <c r="B60" s="26" t="s">
         <v>1130</v>
       </c>
@@ -18442,7 +18438,7 @@
         <v>1131</v>
       </c>
     </row>
-    <row r="63" ht="112.5" spans="2:2">
+    <row r="63" ht="82.5" spans="2:2">
       <c r="B63" s="26" t="s">
         <v>1132</v>
       </c>
@@ -18470,12 +18466,12 @@
         <v>1137</v>
       </c>
     </row>
-    <row r="70" ht="37.5" spans="2:2">
+    <row r="70" ht="33" spans="2:2">
       <c r="B70" s="26" t="s">
         <v>1138</v>
       </c>
     </row>
-    <row r="71" ht="56.25" spans="2:2">
+    <row r="71" ht="49.5" spans="2:2">
       <c r="B71" s="26" t="s">
         <v>1139</v>
       </c>
@@ -18485,7 +18481,7 @@
         <v>1140</v>
       </c>
     </row>
-    <row r="74" ht="37.5" spans="2:2">
+    <row r="74" ht="33" spans="2:2">
       <c r="B74" s="26" t="s">
         <v>1141</v>
       </c>
@@ -18505,7 +18501,7 @@
         <v>1144</v>
       </c>
     </row>
-    <row r="80" ht="168.75" spans="2:2">
+    <row r="80" ht="132" spans="2:2">
       <c r="B80" s="26" t="s">
         <v>1145</v>
       </c>
@@ -18520,7 +18516,7 @@
         <v>1147</v>
       </c>
     </row>
-    <row r="84" ht="75" spans="2:2">
+    <row r="84" ht="49.5" spans="2:2">
       <c r="B84" s="26" t="s">
         <v>1148</v>
       </c>
@@ -18533,12 +18529,12 @@
         <v>1150</v>
       </c>
     </row>
-    <row r="87" ht="37.5" spans="2:2">
+    <row r="87" ht="33" spans="2:2">
       <c r="B87" s="26" t="s">
         <v>1151</v>
       </c>
     </row>
-    <row r="88" ht="75" spans="2:2">
+    <row r="88" ht="66" spans="2:2">
       <c r="B88" s="26" t="s">
         <v>1152</v>
       </c>
@@ -18551,17 +18547,17 @@
         <v>1154</v>
       </c>
     </row>
-    <row r="91" ht="168.75" spans="2:2">
+    <row r="91" ht="148.5" spans="2:2">
       <c r="B91" s="26" t="s">
         <v>1155</v>
       </c>
     </row>
-    <row r="92" ht="93.75" spans="2:2">
+    <row r="92" ht="82.5" spans="2:2">
       <c r="B92" s="26" t="s">
         <v>1156</v>
       </c>
     </row>
-    <row r="94" ht="37.5" spans="1:2">
+    <row r="94" ht="33" spans="1:2">
       <c r="A94" s="25" t="s">
         <v>1157</v>
       </c>
@@ -18569,7 +18565,7 @@
         <v>1158</v>
       </c>
     </row>
-    <row r="95" ht="131.25" spans="2:2">
+    <row r="95" ht="115.5" spans="2:2">
       <c r="B95" s="26" t="s">
         <v>1159</v>
       </c>
@@ -18582,7 +18578,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:L174"/>
   <sheetViews>
@@ -18608,7 +18604,7 @@
         <v>1161</v>
       </c>
     </row>
-    <row r="2" ht="20.25" spans="2:3">
+    <row r="2" ht="18" spans="2:3">
       <c r="B2" s="9" t="s">
         <v>1162</v>
       </c>
@@ -18629,7 +18625,7 @@
         <v>1166</v>
       </c>
     </row>
-    <row r="5" ht="37.5" spans="3:4">
+    <row r="5" ht="33" spans="3:4">
       <c r="C5" s="10" t="s">
         <v>773</v>
       </c>
@@ -18650,7 +18646,7 @@
         <v>1170</v>
       </c>
     </row>
-    <row r="8" ht="56.25" spans="3:4">
+    <row r="8" ht="49.5" spans="3:4">
       <c r="C8" s="14" t="s">
         <v>1171</v>
       </c>
@@ -18658,7 +18654,7 @@
         <v>1172</v>
       </c>
     </row>
-    <row r="9" ht="187.5" spans="3:4">
+    <row r="9" ht="165" spans="3:4">
       <c r="C9" s="10" t="s">
         <v>1173</v>
       </c>
@@ -18684,7 +18680,7 @@
         <v>1178</v>
       </c>
     </row>
-    <row r="13" ht="93.75" spans="3:4">
+    <row r="13" ht="82.5" spans="3:4">
       <c r="C13" s="10" t="s">
         <v>1179</v>
       </c>
@@ -18692,7 +18688,7 @@
         <v>1180</v>
       </c>
     </row>
-    <row r="14" ht="187.5" spans="3:4">
+    <row r="14" ht="165" spans="3:4">
       <c r="C14" s="10" t="s">
         <v>1181</v>
       </c>
@@ -18713,7 +18709,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="19" ht="281.25" spans="3:4">
+    <row r="19" ht="231" spans="3:4">
       <c r="C19" s="16" t="s">
         <v>1186</v>
       </c>
@@ -18721,7 +18717,7 @@
         <v>1187</v>
       </c>
     </row>
-    <row r="20" ht="112.5" spans="3:4">
+    <row r="20" ht="99" spans="3:4">
       <c r="C20" s="16" t="s">
         <v>1188</v>
       </c>
@@ -18729,7 +18725,7 @@
         <v>1189</v>
       </c>
     </row>
-    <row r="21" ht="168.75" spans="3:4">
+    <row r="21" ht="148.5" spans="3:4">
       <c r="C21" s="10" t="s">
         <v>1190</v>
       </c>
@@ -18737,7 +18733,7 @@
         <v>1191</v>
       </c>
     </row>
-    <row r="22" ht="150" spans="3:4">
+    <row r="22" ht="132" spans="3:4">
       <c r="C22" s="10" t="s">
         <v>1192</v>
       </c>
@@ -18745,7 +18741,7 @@
         <v>1193</v>
       </c>
     </row>
-    <row r="23" ht="37.5" spans="3:4">
+    <row r="23" ht="33" spans="3:4">
       <c r="C23" s="10" t="s">
         <v>1194</v>
       </c>
@@ -18771,7 +18767,7 @@
         <v>1199</v>
       </c>
     </row>
-    <row r="28" ht="37.5" spans="3:4">
+    <row r="28" ht="33" spans="3:4">
       <c r="C28" s="16" t="s">
         <v>1200</v>
       </c>
@@ -18787,7 +18783,7 @@
         <v>1203</v>
       </c>
     </row>
-    <row r="30" ht="56.25" spans="3:4">
+    <row r="30" ht="33" spans="3:4">
       <c r="C30" s="16" t="s">
         <v>1204</v>
       </c>
@@ -18811,7 +18807,7 @@
         <v>1209</v>
       </c>
     </row>
-    <row r="33" ht="56.25" spans="3:4">
+    <row r="33" ht="49.5" spans="3:4">
       <c r="C33" s="10" t="s">
         <v>1210</v>
       </c>
@@ -18827,7 +18823,7 @@
         <v>1213</v>
       </c>
     </row>
-    <row r="35" ht="37.5" spans="3:4">
+    <row r="35" ht="33" spans="3:4">
       <c r="C35" s="14" t="s">
         <v>1214</v>
       </c>
@@ -18888,7 +18884,7 @@
         <v>1228</v>
       </c>
     </row>
-    <row r="43" ht="75" spans="3:4">
+    <row r="43" ht="66" spans="3:4">
       <c r="C43" s="10" t="s">
         <v>1229</v>
       </c>
@@ -18896,7 +18892,7 @@
         <v>1230</v>
       </c>
     </row>
-    <row r="44" ht="37.5" spans="3:4">
+    <row r="44" ht="33" spans="3:4">
       <c r="C44" s="10" t="s">
         <v>612</v>
       </c>
@@ -18939,7 +18935,7 @@
         <v>1236</v>
       </c>
     </row>
-    <row r="49" ht="37.5" spans="3:4">
+    <row r="49" ht="33" spans="3:4">
       <c r="C49" s="10" t="s">
         <v>612</v>
       </c>
@@ -18947,7 +18943,7 @@
         <v>1237</v>
       </c>
     </row>
-    <row r="50" ht="131.25" spans="3:4">
+    <row r="50" ht="115.5" spans="3:4">
       <c r="C50" s="10" t="s">
         <v>1232</v>
       </c>
@@ -18963,7 +18959,7 @@
         <v>1239</v>
       </c>
     </row>
-    <row r="52" ht="37.5" spans="2:4">
+    <row r="52" ht="33" spans="2:4">
       <c r="B52" s="9" t="s">
         <v>1240</v>
       </c>
@@ -18974,7 +18970,7 @@
         <v>1241</v>
       </c>
     </row>
-    <row r="53" ht="37.5" spans="3:4">
+    <row r="53" ht="33" spans="3:4">
       <c r="C53" s="10" t="s">
         <v>1229</v>
       </c>
@@ -18990,7 +18986,7 @@
         <v>1243</v>
       </c>
     </row>
-    <row r="55" ht="187.5" spans="3:4">
+    <row r="55" ht="165" spans="3:4">
       <c r="C55" s="10" t="s">
         <v>1232</v>
       </c>
@@ -19011,7 +19007,7 @@
         <v>1246</v>
       </c>
     </row>
-    <row r="58" ht="56.25" spans="2:4">
+    <row r="58" ht="49.5" spans="2:4">
       <c r="B58" s="17" t="s">
         <v>1247</v>
       </c>
@@ -19029,7 +19025,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="60" ht="20.25" spans="2:4">
+    <row r="60" ht="18" spans="2:4">
       <c r="B60" s="18" t="s">
         <v>1251</v>
       </c>
@@ -19056,7 +19052,7 @@
         <v>1255</v>
       </c>
     </row>
-    <row r="63" ht="206.25" spans="2:4">
+    <row r="63" ht="181.5" spans="2:4">
       <c r="B63" s="19" t="s">
         <v>1256</v>
       </c>
@@ -19065,7 +19061,7 @@
         <v>1257</v>
       </c>
     </row>
-    <row r="64" ht="20.25" spans="2:4">
+    <row r="64" ht="18" spans="2:4">
       <c r="B64" s="19"/>
       <c r="C64" s="19" t="s">
         <v>1258</v>
@@ -19074,7 +19070,7 @@
         <v>1259</v>
       </c>
     </row>
-    <row r="65" ht="37.5" spans="2:4">
+    <row r="65" ht="33" spans="2:4">
       <c r="B65" s="19"/>
       <c r="C65" s="19" t="s">
         <v>1260</v>
@@ -19083,7 +19079,7 @@
         <v>1261</v>
       </c>
     </row>
-    <row r="66" ht="20.25" spans="2:4">
+    <row r="66" ht="18" spans="2:4">
       <c r="B66" s="19"/>
       <c r="C66" s="19" t="s">
         <v>1262</v>
@@ -19092,7 +19088,7 @@
         <v>1263</v>
       </c>
     </row>
-    <row r="67" ht="20.25" spans="2:4">
+    <row r="67" ht="18" spans="2:4">
       <c r="B67" s="19"/>
       <c r="C67" s="19" t="s">
         <v>1264</v>
@@ -19101,7 +19097,7 @@
         <v>1265</v>
       </c>
     </row>
-    <row r="68" ht="20.25" spans="2:4">
+    <row r="68" ht="18" spans="2:4">
       <c r="B68" s="19"/>
       <c r="C68" s="19" t="s">
         <v>1266</v>
@@ -19110,7 +19106,7 @@
         <v>1267</v>
       </c>
     </row>
-    <row r="69" ht="20.25" spans="2:4">
+    <row r="69" ht="18" spans="2:4">
       <c r="B69" s="19"/>
       <c r="C69" s="19" t="s">
         <v>1268</v>
@@ -19143,7 +19139,7 @@
         <v>1274</v>
       </c>
     </row>
-    <row r="73" ht="20.25" spans="2:3">
+    <row r="73" ht="18" spans="2:3">
       <c r="B73" s="18" t="s">
         <v>1275</v>
       </c>
@@ -19157,7 +19153,7 @@
         <v>1277</v>
       </c>
     </row>
-    <row r="75" ht="93.75" spans="2:4">
+    <row r="75" ht="82.5" spans="2:4">
       <c r="B75" s="9" t="s">
         <v>1278</v>
       </c>
@@ -19194,7 +19190,7 @@
         <v>1284</v>
       </c>
     </row>
-    <row r="80" ht="168.75" spans="2:4">
+    <row r="80" ht="132" spans="2:4">
       <c r="B80" s="9" t="s">
         <v>1285</v>
       </c>
@@ -19234,7 +19230,7 @@
         <v>1293</v>
       </c>
     </row>
-    <row r="85" ht="20.25" spans="2:4">
+    <row r="85" ht="18" spans="2:4">
       <c r="B85" s="9" t="s">
         <v>975</v>
       </c>
@@ -19318,7 +19314,7 @@
       <c r="D93" s="14" t="s">
         <v>1312</v>
       </c>
-      <c r="E93" s="21"/>
+      <c r="E93" s="22"/>
       <c r="L93" s="12"/>
     </row>
     <row r="94" customHeight="1" spans="2:12">
@@ -19329,14 +19325,14 @@
       <c r="D94" s="14" t="s">
         <v>1314</v>
       </c>
-      <c r="E94" s="21"/>
+      <c r="E94" s="22"/>
       <c r="L94" s="12"/>
     </row>
-    <row r="95" ht="37.5" spans="2:4">
+    <row r="95" ht="33" spans="2:4">
       <c r="B95" s="9" t="s">
         <v>1315</v>
       </c>
-      <c r="C95" s="22" t="s">
+      <c r="C95" s="21" t="s">
         <v>1316</v>
       </c>
       <c r="D95" s="11" t="s">
@@ -19576,7 +19572,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="130" ht="131.25" spans="3:4">
+    <row r="130" ht="115.5" spans="3:4">
       <c r="C130" s="10" t="s">
         <v>1368</v>
       </c>
@@ -19592,7 +19588,7 @@
         <v>1371</v>
       </c>
     </row>
-    <row r="132" ht="56.25" spans="2:4">
+    <row r="132" ht="33" spans="2:4">
       <c r="B132" s="9" t="s">
         <v>1372</v>
       </c>
@@ -19600,7 +19596,7 @@
         <v>1373</v>
       </c>
     </row>
-    <row r="133" ht="37.5" spans="2:4">
+    <row r="133" ht="33" spans="2:4">
       <c r="B133" s="9" t="s">
         <v>1374</v>
       </c>
@@ -19622,7 +19618,7 @@
         <v>1377</v>
       </c>
     </row>
-    <row r="135" ht="75" spans="3:4">
+    <row r="135" ht="49.5" spans="3:4">
       <c r="C135" s="10" t="s">
         <v>1378</v>
       </c>

--- a/linux.xlsx
+++ b/linux.xlsx
@@ -6512,9 +6512,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="63">
@@ -6811,16 +6811,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color theme="0"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6834,16 +6833,33 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6857,31 +6873,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6896,9 +6896,17 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -6910,24 +6918,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6972,7 +6972,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6984,7 +7032,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6996,37 +7104,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7038,115 +7140,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7169,26 +7169,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -7198,6 +7189,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -7229,31 +7235,25 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -7262,94 +7262,94 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="44" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="43" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="44" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="55" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="43" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="43" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="44" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="44" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="44" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="44" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="44" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="44" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="56" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="57" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="44" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="53" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="51" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="55" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="49" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="59" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="43" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="58" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="43" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -7358,46 +7358,46 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="43" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="44" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="43" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="44" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="43" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="43" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="44" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="43" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -8296,7 +8296,7 @@
   <sheetPr/>
   <dimension ref="A1:I373"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A357" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A359" workbookViewId="0">
       <selection activeCell="C324" sqref="C324"/>
     </sheetView>
   </sheetViews>

--- a/linux.xlsx
+++ b/linux.xlsx
@@ -6512,10 +6512,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="63">
     <font>
@@ -6805,28 +6805,37 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="13"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -6834,7 +6843,7 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -6857,9 +6866,39 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6874,22 +6913,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6902,32 +6926,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6966,7 +6966,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6978,13 +7026,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6996,25 +7050,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7026,13 +7104,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7044,13 +7116,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7062,91 +7134,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7169,6 +7169,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -7184,15 +7193,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -7203,21 +7203,6 @@
         <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -7249,6 +7234,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -7262,94 +7262,94 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="43" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="46" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="43" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="55" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="58" fillId="30" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="46" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="46" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="43" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="43" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="43" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="43" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="57" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="43" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="43" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="58" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="55" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="43" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="59" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="53" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="46" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="53" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="46" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="56" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="57" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="56" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="50" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="46" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -7361,46 +7361,46 @@
     <xf numFmtId="0" fontId="47" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="46" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="45" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="59" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="46" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="43" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="46" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="42" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -8296,8 +8296,8 @@
   <sheetPr/>
   <dimension ref="A1:I373"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A359" workbookViewId="0">
-      <selection activeCell="C324" sqref="C324"/>
+    <sheetView tabSelected="1" topLeftCell="A307" workbookViewId="0">
+      <selection activeCell="A307" sqref="A307"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20.25"/>

--- a/linux.xlsx
+++ b/linux.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1417">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1428">
   <si>
     <t>ab</t>
   </si>
@@ -1527,6 +1527,39 @@
   </si>
   <si>
     <t>打印出匹配文件之前于之后的行 -C n（数字）</t>
+  </si>
+  <si>
+    <t>wget</t>
+  </si>
+  <si>
+    <t>下载工具</t>
+  </si>
+  <si>
+    <t>-O</t>
+  </si>
+  <si>
+    <t>指定输出文件</t>
+  </si>
+  <si>
+    <t>指定失败重试次数</t>
+  </si>
+  <si>
+    <t>--limit-rate</t>
+  </si>
+  <si>
+    <t>下载限速</t>
+  </si>
+  <si>
+    <t>从断点继续下载</t>
+  </si>
+  <si>
+    <t>指定页面曾及（深度）</t>
+  </si>
+  <si>
+    <t>使用文件的时间戳</t>
+  </si>
+  <si>
+    <t>将页面连接地址转换为本地地址</t>
   </si>
   <si>
     <t>NTP时间同步</t>
@@ -6512,10 +6545,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="63">
     <font>
@@ -6798,7 +6831,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6811,31 +6844,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -6851,16 +6861,23 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6874,14 +6891,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
@@ -6889,8 +6898,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6906,7 +6938,22 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6914,20 +6961,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6966,7 +6999,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6978,49 +7077,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7032,43 +7107,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7080,25 +7125,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7116,37 +7149,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7163,8 +7196,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -7193,28 +7226,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -7234,17 +7256,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -7252,8 +7270,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -7262,22 +7295,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="43" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="42" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="43" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="58" fillId="30" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="54" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="42" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="42" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -7289,67 +7322,67 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="43" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="25" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="43" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="52" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="42" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="50" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="55" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="42" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="59" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="51" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="53" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="58" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="57" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="56" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="42" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="44" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="42" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -7358,52 +7391,52 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="47" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="43" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="42" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="43" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="42" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="42" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="43" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="42" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -8114,7 +8147,7 @@
   <sheetData>
     <row r="1" ht="198" spans="1:1">
       <c r="A1" s="7" t="s">
-        <v>1399</v>
+        <v>1410</v>
       </c>
     </row>
     <row r="2" ht="23" customHeight="1"/>
@@ -8171,32 +8204,32 @@
   <sheetData>
     <row r="1" ht="72" spans="1:1">
       <c r="A1" s="6" t="s">
-        <v>1400</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="2" ht="72" spans="1:1">
       <c r="A2" s="6" t="s">
-        <v>1401</v>
+        <v>1412</v>
       </c>
     </row>
     <row r="3" ht="36" spans="1:1">
       <c r="A3" s="6" t="s">
-        <v>1402</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="4" ht="409.5" spans="1:1">
       <c r="A4" s="6" t="s">
-        <v>1403</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="6" ht="72" spans="1:1">
       <c r="A6" s="6" t="s">
-        <v>1404</v>
+        <v>1415</v>
       </c>
     </row>
     <row r="7" ht="54" spans="1:1">
       <c r="A7" s="6" t="s">
-        <v>1405</v>
+        <v>1416</v>
       </c>
     </row>
   </sheetData>
@@ -8223,63 +8256,63 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>1406</v>
+        <v>1417</v>
       </c>
     </row>
     <row r="2" spans="2:2">
       <c r="B2" s="2" t="s">
-        <v>1407</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>1408</v>
+        <v>1419</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>1409</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="4" spans="3:3">
       <c r="C4" s="3" t="s">
-        <v>1410</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="5" spans="2:2">
       <c r="B5" s="2" t="s">
-        <v>1165</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="6" spans="3:3">
       <c r="C6" s="3" t="s">
-        <v>1411</v>
+        <v>1422</v>
       </c>
     </row>
     <row r="7" spans="2:2">
       <c r="B7" s="2" t="s">
-        <v>1412</v>
+        <v>1423</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="1" t="s">
-        <v>1413</v>
+        <v>1424</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="1" t="s">
-        <v>1414</v>
+        <v>1425</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>1415</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="16" spans="2:2">
       <c r="B16" s="2" t="s">
-        <v>526</v>
+        <v>537</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" s="1" t="s">
-        <v>1416</v>
+        <v>1427</v>
       </c>
     </row>
   </sheetData>
@@ -8294,10 +8327,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:I373"/>
+  <dimension ref="A1:I383"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A307" workbookViewId="0">
-      <selection activeCell="A307" sqref="A307"/>
+    <sheetView tabSelected="1" topLeftCell="A367" workbookViewId="0">
+      <selection activeCell="C379" sqref="C379"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20.25"/>
@@ -10818,6 +10851,78 @@
       </c>
       <c r="C373" s="109" t="s">
         <v>490</v>
+      </c>
+    </row>
+    <row r="375" spans="1:3">
+      <c r="A375" s="107" t="s">
+        <v>491</v>
+      </c>
+      <c r="C375" s="109" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="376" spans="2:3">
+      <c r="B376" s="108" t="s">
+        <v>493</v>
+      </c>
+      <c r="C376" s="109" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="377" spans="2:3">
+      <c r="B377" s="108" t="s">
+        <v>10</v>
+      </c>
+      <c r="C377" s="109" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="378" spans="2:3">
+      <c r="B378" s="114" t="s">
+        <v>496</v>
+      </c>
+      <c r="C378" s="109" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="379" spans="2:3">
+      <c r="B379" s="108" t="s">
+        <v>4</v>
+      </c>
+      <c r="C379" s="109" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="380" spans="2:3">
+      <c r="B380" s="108" t="s">
+        <v>51</v>
+      </c>
+      <c r="C380" s="109" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="381" spans="2:3">
+      <c r="B381" s="108" t="s">
+        <v>302</v>
+      </c>
+      <c r="C381" s="109" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="382" spans="2:3">
+      <c r="B382" s="108" t="s">
+        <v>445</v>
+      </c>
+      <c r="C382" s="109" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="383" spans="2:3">
+      <c r="B383" s="108" t="s">
+        <v>40</v>
+      </c>
+      <c r="C383" s="109" t="s">
+        <v>501</v>
       </c>
     </row>
   </sheetData>
@@ -10853,15 +10958,15 @@
   <sheetData>
     <row r="1" ht="25" customHeight="1" spans="1:3">
       <c r="A1" s="96" t="s">
-        <v>491</v>
+        <v>502</v>
       </c>
       <c r="C1" s="98" t="s">
-        <v>492</v>
+        <v>503</v>
       </c>
     </row>
     <row r="2" spans="2:7">
       <c r="B2" s="99" t="s">
-        <v>493</v>
+        <v>504</v>
       </c>
       <c r="C2" s="100"/>
       <c r="D2" s="100"/>
@@ -10871,47 +10976,47 @@
     </row>
     <row r="3" spans="2:2">
       <c r="B3" s="101" t="s">
-        <v>494</v>
+        <v>505</v>
       </c>
     </row>
     <row r="4" ht="20" customHeight="1" spans="3:3">
       <c r="C4" s="102" t="s">
-        <v>495</v>
+        <v>506</v>
       </c>
     </row>
     <row r="5" ht="48" customHeight="1" spans="3:3">
       <c r="C5" s="103" t="s">
-        <v>496</v>
+        <v>507</v>
       </c>
     </row>
     <row r="6" ht="20" customHeight="1" spans="3:3">
       <c r="C6" s="102" t="s">
-        <v>497</v>
+        <v>508</v>
       </c>
     </row>
     <row r="7" ht="58" customHeight="1" spans="3:3">
       <c r="C7" s="103" t="s">
-        <v>498</v>
+        <v>509</v>
       </c>
     </row>
     <row r="8" ht="21" customHeight="1" spans="3:3">
       <c r="C8" s="102" t="s">
-        <v>499</v>
+        <v>510</v>
       </c>
     </row>
     <row r="9" ht="33" customHeight="1" spans="3:3">
       <c r="C9" s="103" t="s">
-        <v>500</v>
+        <v>511</v>
       </c>
     </row>
     <row r="10" ht="21" customHeight="1" spans="3:3">
       <c r="C10" s="102" t="s">
-        <v>501</v>
+        <v>512</v>
       </c>
     </row>
     <row r="11" ht="43" customHeight="1" spans="3:3">
       <c r="C11" s="103" t="s">
-        <v>502</v>
+        <v>513</v>
       </c>
     </row>
     <row r="12" ht="24" customHeight="1" spans="3:3">
@@ -10919,12 +11024,12 @@
     </row>
     <row r="13" ht="25" customHeight="1" spans="1:1">
       <c r="A13" s="96" t="s">
-        <v>503</v>
+        <v>514</v>
       </c>
     </row>
     <row r="14" ht="50" customHeight="1" spans="2:7">
       <c r="B14" s="104" t="s">
-        <v>504</v>
+        <v>515</v>
       </c>
       <c r="C14" s="45"/>
       <c r="D14" s="45"/>
@@ -10934,7 +11039,7 @@
     </row>
     <row r="15" ht="50" customHeight="1" spans="2:7">
       <c r="B15" s="104" t="s">
-        <v>505</v>
+        <v>516</v>
       </c>
       <c r="C15" s="45"/>
       <c r="D15" s="45"/>
@@ -10944,15 +11049,15 @@
     </row>
     <row r="16" ht="25" customHeight="1" spans="1:3">
       <c r="A16" s="96" t="s">
-        <v>506</v>
+        <v>517</v>
       </c>
       <c r="C16" s="98" t="s">
-        <v>507</v>
+        <v>518</v>
       </c>
     </row>
     <row r="17" ht="51" customHeight="1" spans="2:7">
       <c r="B17" s="104" t="s">
-        <v>508</v>
+        <v>519</v>
       </c>
       <c r="C17" s="45"/>
       <c r="D17" s="45"/>
@@ -10962,7 +11067,7 @@
     </row>
     <row r="18" ht="40" customHeight="1" spans="2:7">
       <c r="B18" s="104" t="s">
-        <v>509</v>
+        <v>520</v>
       </c>
       <c r="C18" s="45"/>
       <c r="D18" s="45"/>
@@ -10972,7 +11077,7 @@
     </row>
     <row r="19" spans="2:7">
       <c r="B19" s="99" t="s">
-        <v>510</v>
+        <v>521</v>
       </c>
       <c r="C19" s="100"/>
       <c r="D19" s="100"/>
@@ -10982,7 +11087,7 @@
     </row>
     <row r="20" spans="2:7">
       <c r="B20" s="99" t="s">
-        <v>511</v>
+        <v>522</v>
       </c>
       <c r="C20" s="100"/>
       <c r="D20" s="100"/>
@@ -10992,11 +11097,11 @@
     </row>
     <row r="22" ht="22" customHeight="1" spans="1:7">
       <c r="A22" s="96" t="s">
-        <v>512</v>
+        <v>523</v>
       </c>
       <c r="B22"/>
       <c r="C22" s="105" t="s">
-        <v>513</v>
+        <v>524</v>
       </c>
       <c r="D22"/>
       <c r="E22"/>
@@ -11006,7 +11111,7 @@
     <row r="23" ht="90" customHeight="1" spans="2:7">
       <c r="B23"/>
       <c r="C23" s="106" t="s">
-        <v>514</v>
+        <v>525</v>
       </c>
       <c r="D23"/>
       <c r="E23"/>
@@ -11053,13 +11158,13 @@
   <sheetData>
     <row r="1" spans="1:14">
       <c r="A1" s="68" t="s">
-        <v>515</v>
+        <v>526</v>
       </c>
       <c r="B1" s="72" t="s">
-        <v>516</v>
+        <v>527</v>
       </c>
       <c r="C1" s="73" t="s">
-        <v>517</v>
+        <v>528</v>
       </c>
       <c r="D1" s="73"/>
       <c r="E1" s="73"/>
@@ -11075,17 +11180,17 @@
     </row>
     <row r="2" spans="2:2">
       <c r="B2" s="69" t="s">
-        <v>518</v>
+        <v>529</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="68" t="s">
-        <v>519</v>
+        <v>530</v>
       </c>
     </row>
     <row r="5" spans="2:14">
       <c r="B5" s="74" t="s">
-        <v>520</v>
+        <v>531</v>
       </c>
       <c r="C5" s="73"/>
       <c r="D5" s="73"/>
@@ -11102,7 +11207,7 @@
     </row>
     <row r="6" spans="2:14">
       <c r="B6" s="74" t="s">
-        <v>521</v>
+        <v>532</v>
       </c>
       <c r="C6" s="73"/>
       <c r="D6" s="73"/>
@@ -11119,7 +11224,7 @@
     </row>
     <row r="7" spans="2:14">
       <c r="B7" s="74" t="s">
-        <v>522</v>
+        <v>533</v>
       </c>
       <c r="C7" s="73"/>
       <c r="D7" s="73"/>
@@ -11136,7 +11241,7 @@
     </row>
     <row r="8" spans="2:14">
       <c r="B8" s="75" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="C8" s="76"/>
       <c r="D8" s="76"/>
@@ -11153,10 +11258,10 @@
     </row>
     <row r="9" spans="2:14">
       <c r="B9" s="77" t="s">
-        <v>524</v>
+        <v>535</v>
       </c>
       <c r="C9" s="40" t="s">
-        <v>525</v>
+        <v>536</v>
       </c>
       <c r="D9" s="40"/>
       <c r="E9" s="40"/>
@@ -11172,7 +11277,7 @@
     </row>
     <row r="10" spans="2:14">
       <c r="B10" s="74" t="s">
-        <v>526</v>
+        <v>537</v>
       </c>
       <c r="C10" s="73"/>
       <c r="D10" s="73"/>
@@ -11190,7 +11295,7 @@
     <row r="11" spans="2:14">
       <c r="B11" s="74"/>
       <c r="C11" s="73" t="s">
-        <v>527</v>
+        <v>538</v>
       </c>
       <c r="D11" s="73"/>
       <c r="E11" s="73"/>
@@ -11206,7 +11311,7 @@
     </row>
     <row r="12" spans="2:14">
       <c r="B12" s="74" t="s">
-        <v>528</v>
+        <v>539</v>
       </c>
       <c r="C12" s="73"/>
       <c r="D12" s="73"/>
@@ -11224,7 +11329,7 @@
     <row r="13" ht="39" customHeight="1" spans="2:14">
       <c r="B13" s="74"/>
       <c r="C13" s="116" t="s">
-        <v>529</v>
+        <v>540</v>
       </c>
       <c r="D13" s="73"/>
       <c r="E13" s="73"/>
@@ -11240,10 +11345,10 @@
     </row>
     <row r="14" ht="42" customHeight="1" spans="2:14">
       <c r="B14" s="74" t="s">
-        <v>530</v>
+        <v>541</v>
       </c>
       <c r="C14" s="78" t="s">
-        <v>531</v>
+        <v>542</v>
       </c>
       <c r="D14" s="78"/>
       <c r="E14" s="78"/>
@@ -11259,13 +11364,13 @@
     </row>
     <row r="16" ht="34" customHeight="1" spans="1:14">
       <c r="A16" s="68" t="s">
-        <v>532</v>
+        <v>543</v>
       </c>
       <c r="B16" s="79" t="s">
-        <v>533</v>
+        <v>544</v>
       </c>
       <c r="C16" s="80" t="s">
-        <v>534</v>
+        <v>545</v>
       </c>
       <c r="D16" s="73"/>
       <c r="E16" s="73"/>
@@ -11281,7 +11386,7 @@
     </row>
     <row r="17" ht="39" customHeight="1" spans="2:14">
       <c r="B17" s="77" t="s">
-        <v>535</v>
+        <v>546</v>
       </c>
       <c r="C17" s="78"/>
       <c r="D17" s="78"/>
@@ -11298,12 +11403,12 @@
     </row>
     <row r="18" spans="2:2">
       <c r="B18" s="79" t="s">
-        <v>536</v>
+        <v>547</v>
       </c>
     </row>
     <row r="19" ht="79" customHeight="1" spans="3:14">
       <c r="C19" s="78" t="s">
-        <v>537</v>
+        <v>548</v>
       </c>
       <c r="D19" s="78"/>
       <c r="E19" s="78"/>
@@ -11319,12 +11424,12 @@
     </row>
     <row r="20" ht="25" customHeight="1" spans="2:2">
       <c r="B20" s="79" t="s">
-        <v>538</v>
+        <v>549</v>
       </c>
     </row>
     <row r="21" ht="58" customHeight="1" spans="3:14">
       <c r="C21" s="78" t="s">
-        <v>539</v>
+        <v>550</v>
       </c>
       <c r="D21" s="78"/>
       <c r="E21" s="78"/>
@@ -11340,12 +11445,12 @@
     </row>
     <row r="22" spans="2:2">
       <c r="B22" s="79" t="s">
-        <v>540</v>
+        <v>551</v>
       </c>
     </row>
     <row r="23" ht="78" customHeight="1" spans="3:14">
       <c r="C23" s="78" t="s">
-        <v>541</v>
+        <v>552</v>
       </c>
       <c r="D23" s="78"/>
       <c r="E23" s="78"/>
@@ -11361,7 +11466,7 @@
     </row>
     <row r="24" spans="2:14">
       <c r="B24" s="74" t="s">
-        <v>542</v>
+        <v>553</v>
       </c>
       <c r="C24" s="73"/>
       <c r="D24" s="73"/>
@@ -11378,7 +11483,7 @@
     </row>
     <row r="25" spans="2:14">
       <c r="B25" s="74" t="s">
-        <v>543</v>
+        <v>554</v>
       </c>
       <c r="C25" s="74"/>
       <c r="D25" s="74"/>
@@ -11455,18 +11560,18 @@
     </row>
     <row r="30" ht="19" customHeight="1" spans="1:3">
       <c r="A30" s="68" t="s">
-        <v>544</v>
+        <v>555</v>
       </c>
       <c r="B30" s="79" t="s">
-        <v>545</v>
+        <v>556</v>
       </c>
       <c r="C30" s="81" t="s">
-        <v>546</v>
+        <v>557</v>
       </c>
     </row>
     <row r="31" ht="71" customHeight="1" spans="2:15">
       <c r="B31" s="82" t="s">
-        <v>547</v>
+        <v>558</v>
       </c>
       <c r="C31" s="82"/>
       <c r="D31" s="82"/>
@@ -11484,7 +11589,7 @@
     </row>
     <row r="32" spans="2:14">
       <c r="B32" s="83" t="s">
-        <v>548</v>
+        <v>559</v>
       </c>
       <c r="C32" s="84"/>
       <c r="D32" s="84"/>
@@ -11501,12 +11606,12 @@
     </row>
     <row r="34" spans="1:1">
       <c r="A34" s="68" t="s">
-        <v>549</v>
+        <v>560</v>
       </c>
     </row>
     <row r="35" ht="60" customHeight="1" spans="2:15">
       <c r="B35" s="77" t="s">
-        <v>550</v>
+        <v>561</v>
       </c>
       <c r="C35" s="78"/>
       <c r="D35" s="78"/>
@@ -11524,7 +11629,7 @@
     </row>
     <row r="36" ht="55" customHeight="1" spans="2:15">
       <c r="B36" s="77" t="s">
-        <v>551</v>
+        <v>562</v>
       </c>
       <c r="C36" s="78"/>
       <c r="D36" s="78"/>
@@ -11542,7 +11647,7 @@
     </row>
     <row r="37" ht="20" customHeight="1" spans="2:15">
       <c r="B37" s="74" t="s">
-        <v>552</v>
+        <v>563</v>
       </c>
       <c r="C37" s="73"/>
       <c r="D37" s="73"/>
@@ -11560,17 +11665,17 @@
     </row>
     <row r="38" ht="21" customHeight="1" spans="2:3">
       <c r="B38" s="85" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="C38" s="81"/>
     </row>
     <row r="39" ht="54" customHeight="1" spans="2:14">
       <c r="B39" s="85"/>
       <c r="C39" s="81" t="s">
-        <v>554</v>
+        <v>565</v>
       </c>
       <c r="D39" s="78" t="s">
-        <v>555</v>
+        <v>566</v>
       </c>
       <c r="E39" s="78"/>
       <c r="F39" s="78"/>
@@ -11586,16 +11691,16 @@
     <row r="40" ht="21" customHeight="1" spans="2:3">
       <c r="B40" s="85"/>
       <c r="C40" s="81" t="s">
-        <v>556</v>
+        <v>567</v>
       </c>
     </row>
     <row r="41" ht="72" customHeight="1" spans="2:14">
       <c r="B41" s="85"/>
       <c r="C41" s="81" t="s">
-        <v>557</v>
+        <v>568</v>
       </c>
       <c r="D41" s="78" t="s">
-        <v>558</v>
+        <v>569</v>
       </c>
       <c r="E41" s="78"/>
       <c r="F41" s="78"/>
@@ -11611,10 +11716,10 @@
     <row r="42" ht="39" customHeight="1" spans="2:14">
       <c r="B42" s="85"/>
       <c r="C42" s="81" t="s">
-        <v>559</v>
+        <v>570</v>
       </c>
       <c r="D42" s="78" t="s">
-        <v>560</v>
+        <v>571</v>
       </c>
       <c r="E42" s="73"/>
       <c r="F42" s="73"/>
@@ -11630,7 +11735,7 @@
     <row r="43" ht="21" customHeight="1" spans="2:4">
       <c r="B43" s="85"/>
       <c r="C43" s="81" t="s">
-        <v>561</v>
+        <v>572</v>
       </c>
       <c r="D43" s="81"/>
     </row>
@@ -11638,7 +11743,7 @@
       <c r="B44" s="85"/>
       <c r="C44" s="81"/>
       <c r="D44" s="80" t="s">
-        <v>562</v>
+        <v>573</v>
       </c>
       <c r="E44" s="78"/>
       <c r="F44" s="78"/>
@@ -11655,7 +11760,7 @@
       <c r="B45" s="85"/>
       <c r="C45" s="81"/>
       <c r="D45" s="86" t="s">
-        <v>563</v>
+        <v>574</v>
       </c>
       <c r="E45" s="86"/>
       <c r="F45" s="86"/>
@@ -11670,7 +11775,7 @@
     </row>
     <row r="46" spans="2:15">
       <c r="B46" s="74" t="s">
-        <v>564</v>
+        <v>575</v>
       </c>
       <c r="C46" s="73"/>
       <c r="D46" s="73"/>
@@ -11688,11 +11793,11 @@
     </row>
     <row r="47" spans="2:14">
       <c r="B47" s="74" t="s">
-        <v>565</v>
+        <v>576</v>
       </c>
       <c r="C47" s="73"/>
       <c r="D47" s="73" t="s">
-        <v>566</v>
+        <v>577</v>
       </c>
       <c r="E47" s="73"/>
       <c r="F47" s="73"/>
@@ -11707,12 +11812,12 @@
     </row>
     <row r="49" spans="1:1">
       <c r="A49" s="68" t="s">
-        <v>567</v>
+        <v>578</v>
       </c>
     </row>
     <row r="50" ht="81" customHeight="1" spans="2:14">
       <c r="B50" s="77" t="s">
-        <v>568</v>
+        <v>579</v>
       </c>
       <c r="C50" s="78"/>
       <c r="D50" s="78"/>
@@ -11729,12 +11834,12 @@
     </row>
     <row r="51" spans="2:2">
       <c r="B51" s="79" t="s">
-        <v>569</v>
+        <v>580</v>
       </c>
     </row>
     <row r="52" ht="33" customHeight="1" spans="3:14">
       <c r="C52" s="78" t="s">
-        <v>570</v>
+        <v>581</v>
       </c>
       <c r="D52" s="78"/>
       <c r="E52" s="78"/>
@@ -11750,12 +11855,12 @@
     </row>
     <row r="53" spans="2:2">
       <c r="B53" s="79" t="s">
-        <v>571</v>
+        <v>582</v>
       </c>
     </row>
     <row r="54" ht="36" customHeight="1" spans="3:14">
       <c r="C54" s="78" t="s">
-        <v>572</v>
+        <v>583</v>
       </c>
       <c r="D54" s="78"/>
       <c r="E54" s="78"/>
@@ -11771,7 +11876,7 @@
     </row>
     <row r="55" ht="19" customHeight="1" spans="2:14">
       <c r="B55" s="79" t="s">
-        <v>573</v>
+        <v>584</v>
       </c>
       <c r="C55" s="78"/>
       <c r="D55" s="78"/>
@@ -11788,7 +11893,7 @@
     </row>
     <row r="56" ht="103" customHeight="1" spans="3:14">
       <c r="C56" s="78" t="s">
-        <v>574</v>
+        <v>585</v>
       </c>
       <c r="D56" s="78"/>
       <c r="E56" s="78"/>
@@ -11804,7 +11909,7 @@
     </row>
     <row r="57" ht="23" customHeight="1" spans="2:14">
       <c r="B57" s="79" t="s">
-        <v>575</v>
+        <v>586</v>
       </c>
       <c r="C57" s="78"/>
       <c r="D57" s="78"/>
@@ -11821,7 +11926,7 @@
     </row>
     <row r="58" ht="41" customHeight="1" spans="3:14">
       <c r="C58" s="78" t="s">
-        <v>576</v>
+        <v>587</v>
       </c>
       <c r="D58" s="78"/>
       <c r="E58" s="78"/>
@@ -11837,7 +11942,7 @@
     </row>
     <row r="59" ht="23" customHeight="1" spans="2:14">
       <c r="B59" s="79" t="s">
-        <v>577</v>
+        <v>588</v>
       </c>
       <c r="C59" s="78"/>
       <c r="D59" s="78"/>
@@ -11854,7 +11959,7 @@
     </row>
     <row r="60" ht="57" customHeight="1" spans="3:14">
       <c r="C60" s="78" t="s">
-        <v>578</v>
+        <v>589</v>
       </c>
       <c r="D60" s="78"/>
       <c r="E60" s="78"/>
@@ -11870,11 +11975,11 @@
     </row>
     <row r="61" ht="27" customHeight="1" spans="2:14">
       <c r="B61" s="79" t="s">
-        <v>579</v>
+        <v>590</v>
       </c>
       <c r="C61" s="78"/>
       <c r="D61" s="78" t="s">
-        <v>580</v>
+        <v>591</v>
       </c>
       <c r="E61" s="78"/>
       <c r="F61" s="78"/>
@@ -11889,7 +11994,7 @@
     </row>
     <row r="62" ht="41" customHeight="1" spans="3:14">
       <c r="C62" s="78" t="s">
-        <v>581</v>
+        <v>592</v>
       </c>
       <c r="D62" s="78"/>
       <c r="E62" s="78"/>
@@ -11905,10 +12010,10 @@
     </row>
     <row r="63" ht="26" customHeight="1" spans="2:14">
       <c r="B63" s="79" t="s">
-        <v>582</v>
+        <v>593</v>
       </c>
       <c r="C63" s="78" t="s">
-        <v>583</v>
+        <v>594</v>
       </c>
       <c r="D63" s="78"/>
       <c r="E63" s="78"/>
@@ -11924,7 +12029,7 @@
     </row>
     <row r="64" ht="25" customHeight="1" spans="2:14">
       <c r="B64" s="79" t="s">
-        <v>584</v>
+        <v>595</v>
       </c>
       <c r="C64" s="78"/>
       <c r="D64" s="78"/>
@@ -11942,10 +12047,10 @@
     <row r="65" ht="25" customHeight="1" spans="2:14">
       <c r="B65" s="79"/>
       <c r="C65" s="86" t="s">
-        <v>585</v>
+        <v>596</v>
       </c>
       <c r="D65" s="78" t="s">
-        <v>586</v>
+        <v>597</v>
       </c>
       <c r="E65" s="78"/>
       <c r="F65" s="78"/>
@@ -11961,10 +12066,10 @@
     <row r="66" ht="25" customHeight="1" spans="2:14">
       <c r="B66" s="79"/>
       <c r="C66" s="90" t="s">
-        <v>587</v>
+        <v>598</v>
       </c>
       <c r="D66" s="78" t="s">
-        <v>588</v>
+        <v>599</v>
       </c>
       <c r="E66" s="78"/>
       <c r="F66" s="78"/>
@@ -11981,7 +12086,7 @@
       <c r="B67" s="79"/>
       <c r="C67" s="78"/>
       <c r="D67" s="78" t="s">
-        <v>589</v>
+        <v>600</v>
       </c>
       <c r="E67" s="78"/>
       <c r="F67" s="78"/>
@@ -12010,12 +12115,12 @@
     </row>
     <row r="70" spans="1:1">
       <c r="A70" s="68" t="s">
-        <v>590</v>
+        <v>601</v>
       </c>
     </row>
     <row r="71" ht="54" customHeight="1" spans="2:14">
       <c r="B71" s="77" t="s">
-        <v>591</v>
+        <v>602</v>
       </c>
       <c r="C71" s="73"/>
       <c r="D71" s="73"/>
@@ -12033,7 +12138,7 @@
     <row r="72" ht="26" customHeight="1" spans="2:14">
       <c r="B72" s="77"/>
       <c r="C72" s="73" t="s">
-        <v>592</v>
+        <v>603</v>
       </c>
       <c r="D72" s="73"/>
       <c r="E72" s="73"/>
@@ -12050,7 +12155,7 @@
     <row r="73" ht="25" customHeight="1" spans="2:14">
       <c r="B73" s="77"/>
       <c r="C73" s="73" t="s">
-        <v>593</v>
+        <v>604</v>
       </c>
       <c r="D73" s="73"/>
       <c r="E73" s="73"/>
@@ -12067,7 +12172,7 @@
     <row r="74" ht="312" customHeight="1" spans="2:14">
       <c r="B74" s="77"/>
       <c r="C74" s="78" t="s">
-        <v>594</v>
+        <v>605</v>
       </c>
       <c r="D74" s="73"/>
       <c r="E74" s="73"/>
@@ -12084,7 +12189,7 @@
     <row r="75" ht="26" customHeight="1" spans="2:14">
       <c r="B75" s="77"/>
       <c r="C75" s="73" t="s">
-        <v>595</v>
+        <v>606</v>
       </c>
       <c r="D75" s="73"/>
       <c r="E75" s="73"/>
@@ -12100,7 +12205,7 @@
     </row>
     <row r="76" ht="36" customHeight="1" spans="2:14">
       <c r="B76" s="91" t="s">
-        <v>596</v>
+        <v>607</v>
       </c>
       <c r="C76" s="73"/>
       <c r="D76" s="73"/>
@@ -12118,7 +12223,7 @@
     <row r="77" ht="26" customHeight="1" spans="2:14">
       <c r="B77" s="77"/>
       <c r="C77" s="73" t="s">
-        <v>597</v>
+        <v>608</v>
       </c>
       <c r="D77" s="73"/>
       <c r="E77" s="73"/>
@@ -12194,7 +12299,7 @@
     </row>
     <row r="83" spans="1:14">
       <c r="A83" s="92" t="s">
-        <v>598</v>
+        <v>609</v>
       </c>
       <c r="B83" s="49"/>
       <c r="C83" s="93"/>
@@ -12213,7 +12318,7 @@
     <row r="84" ht="72" customHeight="1" spans="1:14">
       <c r="A84" s="92"/>
       <c r="B84" s="94" t="s">
-        <v>599</v>
+        <v>610</v>
       </c>
       <c r="C84" s="95"/>
       <c r="D84" s="95"/>
@@ -12231,7 +12336,7 @@
     <row r="85" ht="72" customHeight="1" spans="1:14">
       <c r="A85" s="92"/>
       <c r="B85" s="94" t="s">
-        <v>600</v>
+        <v>611</v>
       </c>
       <c r="C85" s="94"/>
       <c r="D85" s="94"/>
@@ -12248,12 +12353,12 @@
     </row>
     <row r="86" spans="2:2">
       <c r="B86" s="69" t="s">
-        <v>601</v>
+        <v>612</v>
       </c>
     </row>
     <row r="87" ht="176" customHeight="1" spans="3:13">
       <c r="C87" s="78" t="s">
-        <v>602</v>
+        <v>613</v>
       </c>
       <c r="D87" s="78"/>
       <c r="E87" s="78"/>
@@ -12268,7 +12373,7 @@
     </row>
     <row r="88" ht="21" customHeight="1" spans="2:13">
       <c r="B88" s="69" t="s">
-        <v>603</v>
+        <v>614</v>
       </c>
       <c r="C88" s="78"/>
       <c r="D88" s="78"/>
@@ -12284,7 +12389,7 @@
     </row>
     <row r="89" ht="251" customHeight="1" spans="3:13">
       <c r="C89" s="78" t="s">
-        <v>604</v>
+        <v>615</v>
       </c>
       <c r="D89" s="78"/>
       <c r="E89" s="78"/>
@@ -12299,7 +12404,7 @@
     </row>
     <row r="90" ht="21" customHeight="1" spans="2:13">
       <c r="B90" s="69" t="s">
-        <v>605</v>
+        <v>616</v>
       </c>
       <c r="C90" s="78"/>
       <c r="D90" s="78"/>
@@ -12315,7 +12420,7 @@
     </row>
     <row r="91" ht="32" customHeight="1" spans="3:13">
       <c r="C91" s="78" t="s">
-        <v>606</v>
+        <v>617</v>
       </c>
       <c r="D91" s="78"/>
       <c r="E91" s="78"/>
@@ -12330,13 +12435,13 @@
     </row>
     <row r="92" ht="21" customHeight="1" spans="2:13">
       <c r="B92" s="69" t="s">
-        <v>607</v>
+        <v>618</v>
       </c>
       <c r="C92" s="78" t="s">
-        <v>608</v>
+        <v>619</v>
       </c>
       <c r="D92" s="78" t="s">
-        <v>609</v>
+        <v>620</v>
       </c>
       <c r="E92" s="78"/>
       <c r="F92" s="78"/>
@@ -12350,10 +12455,10 @@
     </row>
     <row r="93" ht="21" customHeight="1" spans="3:13">
       <c r="C93" s="78" t="s">
-        <v>610</v>
+        <v>621</v>
       </c>
       <c r="D93" s="78" t="s">
-        <v>611</v>
+        <v>622</v>
       </c>
       <c r="E93" s="78"/>
       <c r="F93" s="78"/>
@@ -12370,7 +12475,7 @@
         <v>200</v>
       </c>
       <c r="D94" s="78" t="s">
-        <v>612</v>
+        <v>623</v>
       </c>
       <c r="E94" s="78"/>
       <c r="F94" s="78"/>
@@ -12384,10 +12489,10 @@
     </row>
     <row r="95" ht="21" customHeight="1" spans="3:13">
       <c r="C95" s="78" t="s">
-        <v>613</v>
+        <v>624</v>
       </c>
       <c r="D95" s="78" t="s">
-        <v>614</v>
+        <v>625</v>
       </c>
       <c r="E95" s="78"/>
       <c r="F95" s="78"/>
@@ -12404,7 +12509,7 @@
         <v>442</v>
       </c>
       <c r="D96" s="78" t="s">
-        <v>615</v>
+        <v>626</v>
       </c>
       <c r="E96" s="78"/>
       <c r="F96" s="78"/>
@@ -12418,10 +12523,10 @@
     </row>
     <row r="97" ht="21" customHeight="1" spans="3:13">
       <c r="C97" s="78" t="s">
-        <v>616</v>
+        <v>627</v>
       </c>
       <c r="D97" s="78" t="s">
-        <v>617</v>
+        <v>628</v>
       </c>
       <c r="E97" s="78"/>
       <c r="F97" s="78"/>
@@ -12435,60 +12540,60 @@
     </row>
     <row r="98" spans="3:4">
       <c r="C98" s="70" t="s">
-        <v>618</v>
+        <v>629</v>
       </c>
       <c r="D98" s="70" t="s">
-        <v>619</v>
+        <v>630</v>
       </c>
     </row>
     <row r="99" spans="3:4">
       <c r="C99" s="70" t="s">
-        <v>620</v>
+        <v>631</v>
       </c>
       <c r="D99" s="70" t="s">
-        <v>621</v>
+        <v>632</v>
       </c>
     </row>
     <row r="100" spans="3:4">
       <c r="C100" s="70" t="s">
-        <v>622</v>
+        <v>633</v>
       </c>
       <c r="D100" s="70" t="s">
-        <v>623</v>
+        <v>634</v>
       </c>
     </row>
     <row r="101" spans="3:4">
       <c r="C101" s="70" t="s">
-        <v>624</v>
+        <v>635</v>
       </c>
       <c r="D101" s="70" t="s">
-        <v>625</v>
+        <v>636</v>
       </c>
     </row>
     <row r="102" spans="3:4">
       <c r="C102" s="70" t="s">
-        <v>626</v>
+        <v>637</v>
       </c>
       <c r="D102" s="70" t="s">
-        <v>627</v>
+        <v>638</v>
       </c>
     </row>
     <row r="103" spans="3:4">
       <c r="C103" s="70" t="s">
-        <v>628</v>
+        <v>639</v>
       </c>
       <c r="D103" s="70" t="s">
-        <v>629</v>
+        <v>640</v>
       </c>
     </row>
     <row r="105" spans="1:1">
       <c r="A105" s="68" t="s">
-        <v>630</v>
+        <v>641</v>
       </c>
     </row>
     <row r="106" spans="2:14">
       <c r="B106" s="77" t="s">
-        <v>631</v>
+        <v>642</v>
       </c>
       <c r="C106" s="78"/>
       <c r="D106" s="78"/>
@@ -12505,12 +12610,12 @@
     </row>
     <row r="108" spans="1:1">
       <c r="A108" s="68" t="s">
-        <v>632</v>
+        <v>643</v>
       </c>
     </row>
     <row r="109" ht="54" customHeight="1" spans="2:14">
       <c r="B109" s="77" t="s">
-        <v>633</v>
+        <v>644</v>
       </c>
       <c r="C109" s="78"/>
       <c r="D109" s="78"/>
@@ -12527,12 +12632,12 @@
     </row>
     <row r="110" ht="21" customHeight="1" spans="2:2">
       <c r="B110" s="79" t="s">
-        <v>634</v>
+        <v>645</v>
       </c>
     </row>
     <row r="111" ht="120" customHeight="1" spans="3:14">
       <c r="C111" s="116" t="s">
-        <v>635</v>
+        <v>646</v>
       </c>
       <c r="D111" s="78"/>
       <c r="E111" s="78"/>
@@ -12548,12 +12653,12 @@
     </row>
     <row r="112" spans="2:2">
       <c r="B112" s="79" t="s">
-        <v>636</v>
+        <v>647</v>
       </c>
     </row>
     <row r="113" ht="31" customHeight="1" spans="3:14">
       <c r="C113" s="78" t="s">
-        <v>637</v>
+        <v>648</v>
       </c>
       <c r="D113" s="78"/>
       <c r="E113" s="78"/>
@@ -12569,12 +12674,12 @@
     </row>
     <row r="114" spans="2:2">
       <c r="B114" s="79" t="s">
-        <v>638</v>
+        <v>649</v>
       </c>
     </row>
     <row r="115" spans="3:14">
       <c r="C115" s="73" t="s">
-        <v>639</v>
+        <v>650</v>
       </c>
       <c r="D115" s="73"/>
       <c r="E115" s="73"/>
@@ -12675,12 +12780,12 @@
   <sheetData>
     <row r="1" customHeight="1" spans="1:1">
       <c r="A1" s="60" t="s">
-        <v>640</v>
+        <v>651</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="2:14">
       <c r="B2" s="31" t="s">
-        <v>641</v>
+        <v>652</v>
       </c>
       <c r="C2" s="29"/>
       <c r="D2" s="29"/>
@@ -12697,7 +12802,7 @@
     </row>
     <row r="3" ht="57" customHeight="1" spans="2:14">
       <c r="B3" s="31" t="s">
-        <v>642</v>
+        <v>653</v>
       </c>
       <c r="C3" s="29"/>
       <c r="D3" s="29"/>
@@ -12714,7 +12819,7 @@
     </row>
     <row r="4" customHeight="1" spans="2:14">
       <c r="B4" s="31" t="s">
-        <v>643</v>
+        <v>654</v>
       </c>
       <c r="C4" s="29"/>
       <c r="D4" s="29"/>
@@ -12731,7 +12836,7 @@
     </row>
     <row r="5" customHeight="1" spans="2:14">
       <c r="B5" s="61" t="s">
-        <v>644</v>
+        <v>655</v>
       </c>
       <c r="C5" s="30"/>
       <c r="D5" s="30"/>
@@ -12748,10 +12853,10 @@
     </row>
     <row r="6" ht="45" customHeight="1" spans="2:14">
       <c r="B6" s="62" t="s">
-        <v>645</v>
+        <v>656</v>
       </c>
       <c r="C6" s="29" t="s">
-        <v>646</v>
+        <v>657</v>
       </c>
       <c r="D6" s="30"/>
       <c r="E6" s="30"/>
@@ -12767,10 +12872,10 @@
     </row>
     <row r="7" customHeight="1" spans="2:14">
       <c r="B7" s="62" t="s">
-        <v>647</v>
+        <v>658</v>
       </c>
       <c r="C7" s="29" t="s">
-        <v>648</v>
+        <v>659</v>
       </c>
       <c r="D7" s="30"/>
       <c r="E7" s="30"/>
@@ -12787,7 +12892,7 @@
     <row r="8" ht="70" customHeight="1" spans="2:14">
       <c r="B8" s="61"/>
       <c r="C8" s="33" t="s">
-        <v>649</v>
+        <v>660</v>
       </c>
       <c r="D8" s="33"/>
       <c r="E8" s="33"/>
@@ -12803,10 +12908,10 @@
     </row>
     <row r="9" customHeight="1" spans="2:14">
       <c r="B9" s="62" t="s">
-        <v>650</v>
+        <v>661</v>
       </c>
       <c r="C9" s="30" t="s">
-        <v>651</v>
+        <v>662</v>
       </c>
       <c r="D9" s="30"/>
       <c r="E9" s="30"/>
@@ -12823,7 +12928,7 @@
     <row r="10" ht="70" customHeight="1" spans="2:14">
       <c r="B10" s="61"/>
       <c r="C10" s="33" t="s">
-        <v>652</v>
+        <v>663</v>
       </c>
       <c r="D10" s="33"/>
       <c r="E10" s="33"/>
@@ -12839,11 +12944,11 @@
     </row>
     <row r="11" ht="38" customHeight="1" spans="2:14">
       <c r="B11" s="62" t="s">
-        <v>653</v>
+        <v>664</v>
       </c>
       <c r="C11" s="30"/>
       <c r="D11" s="29" t="s">
-        <v>654</v>
+        <v>665</v>
       </c>
       <c r="E11" s="30"/>
       <c r="F11" s="30"/>
@@ -12859,7 +12964,7 @@
     <row r="12" ht="142" customHeight="1" spans="2:14">
       <c r="B12" s="61"/>
       <c r="C12" s="33" t="s">
-        <v>655</v>
+        <v>666</v>
       </c>
       <c r="D12" s="33"/>
       <c r="E12" s="33"/>
@@ -12875,11 +12980,11 @@
     </row>
     <row r="13" ht="22" customHeight="1" spans="2:14">
       <c r="B13" s="62" t="s">
-        <v>656</v>
+        <v>667</v>
       </c>
       <c r="C13" s="30"/>
       <c r="D13" s="33" t="s">
-        <v>657</v>
+        <v>668</v>
       </c>
       <c r="E13" s="50"/>
       <c r="F13" s="50"/>
@@ -12895,7 +13000,7 @@
     <row r="14" ht="156" customHeight="1" spans="2:14">
       <c r="B14" s="62"/>
       <c r="C14" s="33" t="s">
-        <v>658</v>
+        <v>669</v>
       </c>
       <c r="D14" s="33"/>
       <c r="E14" s="33"/>
@@ -12911,12 +13016,12 @@
     </row>
     <row r="16" customHeight="1" spans="1:1">
       <c r="A16" s="60" t="s">
-        <v>659</v>
+        <v>670</v>
       </c>
     </row>
     <row r="17" ht="54" customHeight="1" spans="2:14">
       <c r="B17" s="31" t="s">
-        <v>660</v>
+        <v>671</v>
       </c>
       <c r="C17" s="29"/>
       <c r="D17" s="29"/>
@@ -12933,7 +13038,7 @@
     </row>
     <row r="18" ht="49" customHeight="1" spans="2:14">
       <c r="B18" s="31" t="s">
-        <v>661</v>
+        <v>672</v>
       </c>
       <c r="C18" s="29"/>
       <c r="D18" s="29"/>
@@ -12950,7 +13055,7 @@
     </row>
     <row r="19" customHeight="1" spans="2:14">
       <c r="B19" s="61" t="s">
-        <v>644</v>
+        <v>655</v>
       </c>
       <c r="C19" s="30"/>
       <c r="D19" s="30"/>
@@ -12967,7 +13072,7 @@
     </row>
     <row r="20" customHeight="1" spans="2:14">
       <c r="B20" s="63" t="s">
-        <v>662</v>
+        <v>673</v>
       </c>
       <c r="C20" s="30"/>
       <c r="D20" s="30"/>
@@ -12985,7 +13090,7 @@
     <row r="21" ht="42" customHeight="1" spans="2:14">
       <c r="B21" s="61"/>
       <c r="C21" s="29" t="s">
-        <v>663</v>
+        <v>674</v>
       </c>
       <c r="D21" s="30"/>
       <c r="E21" s="30"/>
@@ -13001,7 +13106,7 @@
     </row>
     <row r="22" customHeight="1" spans="2:14">
       <c r="B22" s="62" t="s">
-        <v>664</v>
+        <v>675</v>
       </c>
       <c r="C22" s="30"/>
       <c r="D22" s="30"/>
@@ -13019,7 +13124,7 @@
     <row r="23" ht="84" customHeight="1" spans="2:14">
       <c r="B23" s="61"/>
       <c r="C23" s="29" t="s">
-        <v>665</v>
+        <v>676</v>
       </c>
       <c r="D23" s="30"/>
       <c r="E23" s="30"/>
@@ -13035,7 +13140,7 @@
     </row>
     <row r="24" customHeight="1" spans="2:14">
       <c r="B24" s="61" t="s">
-        <v>666</v>
+        <v>677</v>
       </c>
       <c r="C24" s="30"/>
       <c r="D24" s="30"/>
@@ -13053,7 +13158,7 @@
     <row r="25" ht="52" customHeight="1" spans="2:14">
       <c r="B25" s="61"/>
       <c r="C25" s="29" t="s">
-        <v>667</v>
+        <v>678</v>
       </c>
       <c r="D25" s="29"/>
       <c r="E25" s="29"/>
@@ -13070,7 +13175,7 @@
     <row r="26" ht="169" customHeight="1" spans="2:14">
       <c r="B26" s="61"/>
       <c r="C26" s="29" t="s">
-        <v>668</v>
+        <v>679</v>
       </c>
       <c r="D26" s="29"/>
       <c r="E26" s="29"/>
@@ -13086,7 +13191,7 @@
     </row>
     <row r="27" customHeight="1" spans="2:14">
       <c r="B27" s="62" t="s">
-        <v>669</v>
+        <v>680</v>
       </c>
       <c r="C27" s="30"/>
       <c r="D27" s="30"/>
@@ -13104,7 +13209,7 @@
     <row r="28" ht="73" customHeight="1" spans="2:14">
       <c r="B28" s="61"/>
       <c r="C28" s="29" t="s">
-        <v>670</v>
+        <v>681</v>
       </c>
       <c r="D28" s="30"/>
       <c r="E28" s="30"/>
@@ -13120,7 +13225,7 @@
     </row>
     <row r="29" customHeight="1" spans="2:14">
       <c r="B29" s="62" t="s">
-        <v>647</v>
+        <v>658</v>
       </c>
       <c r="C29" s="30"/>
       <c r="D29" s="30"/>
@@ -13138,7 +13243,7 @@
     <row r="30" ht="150" customHeight="1" spans="2:14">
       <c r="B30" s="61"/>
       <c r="C30" s="29" t="s">
-        <v>671</v>
+        <v>682</v>
       </c>
       <c r="D30" s="30"/>
       <c r="E30" s="30"/>
@@ -13154,7 +13259,7 @@
     </row>
     <row r="31" customHeight="1" spans="2:14">
       <c r="B31" s="62" t="s">
-        <v>672</v>
+        <v>683</v>
       </c>
       <c r="C31" s="30"/>
       <c r="D31" s="30"/>
@@ -13172,7 +13277,7 @@
     <row r="32" ht="112" customHeight="1" spans="2:14">
       <c r="B32" s="61"/>
       <c r="C32" s="29" t="s">
-        <v>673</v>
+        <v>684</v>
       </c>
       <c r="D32" s="29"/>
       <c r="E32" s="29"/>
@@ -13188,7 +13293,7 @@
     </row>
     <row r="33" customHeight="1" spans="2:14">
       <c r="B33" s="62" t="s">
-        <v>674</v>
+        <v>685</v>
       </c>
       <c r="C33" s="30"/>
       <c r="D33" s="30"/>
@@ -13206,7 +13311,7 @@
     <row r="34" ht="44" customHeight="1" spans="2:14">
       <c r="B34" s="61"/>
       <c r="C34" s="29" t="s">
-        <v>675</v>
+        <v>686</v>
       </c>
       <c r="D34" s="30"/>
       <c r="E34" s="30"/>
@@ -13222,11 +13327,11 @@
     </row>
     <row r="35" customHeight="1" spans="2:14">
       <c r="B35" s="62" t="s">
-        <v>676</v>
+        <v>687</v>
       </c>
       <c r="C35" s="30"/>
       <c r="D35" s="30" t="s">
-        <v>677</v>
+        <v>688</v>
       </c>
       <c r="E35" s="30"/>
       <c r="F35" s="30"/>
@@ -13242,7 +13347,7 @@
     <row r="36" ht="233" customHeight="1" spans="2:14">
       <c r="B36" s="61"/>
       <c r="C36" s="29" t="s">
-        <v>678</v>
+        <v>689</v>
       </c>
       <c r="D36" s="29"/>
       <c r="E36" s="29"/>
@@ -13258,7 +13363,7 @@
     </row>
     <row r="37" customHeight="1" spans="2:14">
       <c r="B37" s="62" t="s">
-        <v>679</v>
+        <v>690</v>
       </c>
       <c r="C37" s="30"/>
       <c r="D37" s="30"/>
@@ -13305,12 +13410,12 @@
     </row>
     <row r="40" customHeight="1" spans="1:1">
       <c r="A40" s="60" t="s">
-        <v>680</v>
+        <v>691</v>
       </c>
     </row>
     <row r="41" ht="72" customHeight="1" spans="2:14">
       <c r="B41" s="31" t="s">
-        <v>681</v>
+        <v>692</v>
       </c>
       <c r="C41" s="29"/>
       <c r="D41" s="29"/>
@@ -13327,12 +13432,12 @@
     </row>
     <row r="42" customHeight="1" spans="2:2">
       <c r="B42" s="28" t="s">
-        <v>682</v>
+        <v>693</v>
       </c>
     </row>
     <row r="43" ht="47" customHeight="1" spans="3:14">
       <c r="C43" s="29" t="s">
-        <v>683</v>
+        <v>694</v>
       </c>
       <c r="D43" s="29"/>
       <c r="E43" s="29"/>
@@ -13348,16 +13453,16 @@
     </row>
     <row r="44" ht="90" customHeight="1" spans="2:2">
       <c r="B44" s="64" t="s">
-        <v>684</v>
+        <v>695</v>
       </c>
     </row>
     <row r="45" ht="63" customHeight="1" spans="1:14">
       <c r="A45" s="60" t="s">
-        <v>685</v>
+        <v>696</v>
       </c>
       <c r="B45" s="64"/>
       <c r="C45" s="29" t="s">
-        <v>686</v>
+        <v>697</v>
       </c>
       <c r="D45" s="30"/>
       <c r="E45" s="30"/>
@@ -13373,13 +13478,13 @@
     </row>
     <row r="46" customHeight="1" spans="2:2">
       <c r="B46" s="64" t="s">
-        <v>662</v>
+        <v>673</v>
       </c>
     </row>
     <row r="47" customHeight="1" spans="2:14">
       <c r="B47" s="64"/>
       <c r="C47" s="29" t="s">
-        <v>687</v>
+        <v>698</v>
       </c>
       <c r="D47" s="29"/>
       <c r="E47" s="29"/>
@@ -13395,13 +13500,13 @@
     </row>
     <row r="48" ht="33" customHeight="1" spans="2:2">
       <c r="B48" s="64" t="s">
-        <v>688</v>
+        <v>699</v>
       </c>
     </row>
     <row r="49" ht="27" customHeight="1" spans="2:14">
       <c r="B49" s="64"/>
       <c r="D49" s="29" t="s">
-        <v>689</v>
+        <v>700</v>
       </c>
       <c r="E49" s="29"/>
       <c r="F49" s="29"/>
@@ -13417,7 +13522,7 @@
     <row r="50" ht="90" customHeight="1" spans="2:14">
       <c r="B50" s="64"/>
       <c r="D50" s="29" t="s">
-        <v>690</v>
+        <v>701</v>
       </c>
       <c r="E50" s="30"/>
       <c r="F50" s="30"/>
@@ -13447,12 +13552,12 @@
     </row>
     <row r="57" customHeight="1" spans="1:1">
       <c r="A57" s="60" t="s">
-        <v>691</v>
+        <v>702</v>
       </c>
     </row>
     <row r="58" ht="61" customHeight="1" spans="2:14">
       <c r="B58" s="31" t="s">
-        <v>692</v>
+        <v>703</v>
       </c>
       <c r="C58" s="29"/>
       <c r="D58" s="29"/>
@@ -13469,7 +13574,7 @@
     </row>
     <row r="59" customHeight="1" spans="2:14">
       <c r="B59" s="61" t="s">
-        <v>693</v>
+        <v>704</v>
       </c>
       <c r="C59" s="30"/>
       <c r="D59" s="30"/>
@@ -13486,12 +13591,12 @@
     </row>
     <row r="60" customHeight="1" spans="1:1">
       <c r="A60" s="60" t="s">
-        <v>694</v>
+        <v>705</v>
       </c>
     </row>
     <row r="61" ht="146" customHeight="1" spans="2:14">
       <c r="B61" s="31" t="s">
-        <v>695</v>
+        <v>706</v>
       </c>
       <c r="C61" s="29"/>
       <c r="D61" s="29"/>
@@ -13508,7 +13613,7 @@
     </row>
     <row r="62" ht="28" customHeight="1" spans="2:14">
       <c r="B62" s="63" t="s">
-        <v>696</v>
+        <v>707</v>
       </c>
       <c r="C62" s="29"/>
       <c r="D62" s="29"/>
@@ -13526,7 +13631,7 @@
     <row r="63" ht="42" customHeight="1" spans="2:14">
       <c r="B63" s="31"/>
       <c r="C63" s="29" t="s">
-        <v>697</v>
+        <v>708</v>
       </c>
       <c r="D63" s="29"/>
       <c r="E63" s="29"/>
@@ -13542,11 +13647,11 @@
     </row>
     <row r="64" ht="20" customHeight="1" spans="2:14">
       <c r="B64" s="31" t="s">
-        <v>698</v>
+        <v>709</v>
       </c>
       <c r="C64" s="29"/>
       <c r="D64" s="29" t="s">
-        <v>699</v>
+        <v>710</v>
       </c>
       <c r="E64" s="29"/>
       <c r="F64" s="29"/>
@@ -13666,7 +13771,7 @@
     </row>
     <row r="73" customHeight="1" spans="1:14">
       <c r="A73" s="60" t="s">
-        <v>700</v>
+        <v>711</v>
       </c>
       <c r="B73"/>
       <c r="C73" s="65"/>
@@ -13685,7 +13790,7 @@
     <row r="74" ht="53" customHeight="1" spans="1:14">
       <c r="A74" s="66"/>
       <c r="B74" s="31" t="s">
-        <v>701</v>
+        <v>712</v>
       </c>
       <c r="C74" s="29"/>
       <c r="D74" s="29"/>
@@ -13702,12 +13807,12 @@
     </row>
     <row r="75" customHeight="1" spans="2:2">
       <c r="B75" s="28" t="s">
-        <v>702</v>
+        <v>713</v>
       </c>
     </row>
     <row r="76" ht="48" customHeight="1" spans="3:14">
       <c r="C76" s="29" t="s">
-        <v>703</v>
+        <v>714</v>
       </c>
       <c r="D76" s="29"/>
       <c r="E76" s="29"/>
@@ -13723,12 +13828,12 @@
     </row>
     <row r="77" customHeight="1" spans="2:2">
       <c r="B77" s="28" t="s">
-        <v>704</v>
+        <v>715</v>
       </c>
     </row>
     <row r="78" ht="79" customHeight="1" spans="3:14">
       <c r="C78" s="29" t="s">
-        <v>705</v>
+        <v>716</v>
       </c>
       <c r="D78" s="29"/>
       <c r="E78" s="29"/>
@@ -13744,12 +13849,12 @@
     </row>
     <row r="79" customHeight="1" spans="2:2">
       <c r="B79" s="28" t="s">
-        <v>706</v>
+        <v>717</v>
       </c>
     </row>
     <row r="80" ht="58" customHeight="1" spans="3:14">
       <c r="C80" s="29" t="s">
-        <v>707</v>
+        <v>718</v>
       </c>
       <c r="D80" s="29"/>
       <c r="E80" s="29"/>
@@ -13765,12 +13870,12 @@
     </row>
     <row r="81" customHeight="1" spans="2:2">
       <c r="B81" s="28" t="s">
-        <v>708</v>
+        <v>719</v>
       </c>
     </row>
     <row r="82" ht="33" customHeight="1" spans="3:14">
       <c r="C82" s="29" t="s">
-        <v>709</v>
+        <v>720</v>
       </c>
       <c r="D82" s="29"/>
       <c r="E82" s="29"/>
@@ -13786,12 +13891,12 @@
     </row>
     <row r="83" customHeight="1" spans="2:2">
       <c r="B83" s="28" t="s">
-        <v>710</v>
+        <v>721</v>
       </c>
     </row>
     <row r="84" ht="95" customHeight="1" spans="3:14">
       <c r="C84" s="29" t="s">
-        <v>711</v>
+        <v>722</v>
       </c>
       <c r="D84" s="29"/>
       <c r="E84" s="29"/>
@@ -13881,12 +13986,12 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="41" t="s">
-        <v>712</v>
+        <v>723</v>
       </c>
     </row>
     <row r="2" spans="2:2">
       <c r="B2" s="42" t="s">
-        <v>713</v>
+        <v>724</v>
       </c>
     </row>
     <row r="3" spans="3:3">
@@ -13896,7 +14001,7 @@
     </row>
     <row r="4" ht="57" customHeight="1" spans="4:13">
       <c r="D4" s="29" t="s">
-        <v>714</v>
+        <v>725</v>
       </c>
       <c r="E4" s="29"/>
       <c r="F4" s="29"/>
@@ -13910,10 +14015,10 @@
     </row>
     <row r="5" ht="24" customHeight="1" spans="2:11">
       <c r="B5" s="42" t="s">
-        <v>715</v>
+        <v>726</v>
       </c>
       <c r="C5" s="44" t="s">
-        <v>716</v>
+        <v>727</v>
       </c>
       <c r="D5" s="44"/>
       <c r="E5" s="44"/>
@@ -13926,7 +14031,7 @@
     </row>
     <row r="6" ht="100" customHeight="1" spans="3:13">
       <c r="C6" s="45" t="s">
-        <v>717</v>
+        <v>728</v>
       </c>
       <c r="D6" s="45"/>
       <c r="E6" s="45"/>
@@ -13941,12 +14046,12 @@
     </row>
     <row r="7" spans="2:2">
       <c r="B7" s="42" t="s">
-        <v>718</v>
+        <v>729</v>
       </c>
     </row>
     <row r="8" ht="54" customHeight="1" spans="3:13">
       <c r="C8" s="29" t="s">
-        <v>719</v>
+        <v>730</v>
       </c>
       <c r="D8" s="29"/>
       <c r="E8" s="29"/>
@@ -13961,10 +14066,10 @@
     </row>
     <row r="10" ht="37" customHeight="1" spans="2:13">
       <c r="B10" s="42" t="s">
-        <v>720</v>
+        <v>731</v>
       </c>
       <c r="C10" s="46" t="s">
-        <v>721</v>
+        <v>732</v>
       </c>
       <c r="D10" s="46"/>
       <c r="E10" s="46"/>
@@ -13992,12 +14097,12 @@
     </row>
     <row r="12" ht="19" customHeight="1" spans="2:2">
       <c r="B12" s="42" t="s">
-        <v>722</v>
+        <v>733</v>
       </c>
     </row>
     <row r="13" ht="93" customHeight="1" spans="3:13">
       <c r="C13" s="29" t="s">
-        <v>723</v>
+        <v>734</v>
       </c>
       <c r="D13" s="29"/>
       <c r="E13" s="29"/>
@@ -14012,15 +14117,15 @@
     </row>
     <row r="15" spans="1:1">
       <c r="A15" s="41" t="s">
-        <v>724</v>
+        <v>735</v>
       </c>
     </row>
     <row r="16" spans="2:13">
       <c r="B16" s="42" t="s">
-        <v>725</v>
+        <v>736</v>
       </c>
       <c r="D16" s="30" t="s">
-        <v>726</v>
+        <v>737</v>
       </c>
       <c r="E16" s="30"/>
       <c r="F16" s="30"/>
@@ -14034,7 +14139,7 @@
     </row>
     <row r="17" ht="53" customHeight="1" spans="3:13">
       <c r="C17" s="29" t="s">
-        <v>727</v>
+        <v>738</v>
       </c>
       <c r="D17" s="29"/>
       <c r="E17" s="29"/>
@@ -14049,7 +14154,7 @@
     </row>
     <row r="18" ht="54" customHeight="1" spans="3:13">
       <c r="C18" s="29" t="s">
-        <v>728</v>
+        <v>739</v>
       </c>
       <c r="D18" s="29"/>
       <c r="E18" s="29"/>
@@ -14064,12 +14169,12 @@
     </row>
     <row r="19" ht="21" customHeight="1" spans="2:2">
       <c r="B19" s="42" t="s">
-        <v>729</v>
+        <v>740</v>
       </c>
     </row>
     <row r="20" ht="129" customHeight="1" spans="3:13">
       <c r="C20" s="29" t="s">
-        <v>730</v>
+        <v>741</v>
       </c>
       <c r="D20" s="29"/>
       <c r="E20" s="29"/>
@@ -14084,12 +14189,12 @@
     </row>
     <row r="21" spans="2:2">
       <c r="B21" s="42" t="s">
-        <v>731</v>
+        <v>742</v>
       </c>
     </row>
     <row r="22" ht="180" customHeight="1" spans="3:13">
       <c r="C22" s="117" t="s">
-        <v>732</v>
+        <v>743</v>
       </c>
       <c r="D22" s="30"/>
       <c r="E22" s="30"/>
@@ -14104,12 +14209,12 @@
     </row>
     <row r="23" spans="2:2">
       <c r="B23" s="42" t="s">
-        <v>733</v>
+        <v>744</v>
       </c>
     </row>
     <row r="24" ht="49" customHeight="1" spans="3:13">
       <c r="C24" s="29" t="s">
-        <v>734</v>
+        <v>745</v>
       </c>
       <c r="D24" s="29"/>
       <c r="E24" s="29"/>
@@ -14124,12 +14229,12 @@
     </row>
     <row r="26" spans="1:1">
       <c r="A26" s="41" t="s">
-        <v>735</v>
+        <v>746</v>
       </c>
     </row>
     <row r="27" ht="73" customHeight="1" spans="2:13">
       <c r="B27" s="38" t="s">
-        <v>736</v>
+        <v>747</v>
       </c>
       <c r="C27" s="38"/>
       <c r="D27" s="38"/>
@@ -14145,12 +14250,12 @@
     </row>
     <row r="28" spans="2:2">
       <c r="B28" s="42" t="s">
-        <v>737</v>
+        <v>748</v>
       </c>
     </row>
     <row r="29" ht="57" customHeight="1" spans="3:13">
       <c r="C29" s="29" t="s">
-        <v>738</v>
+        <v>749</v>
       </c>
       <c r="D29" s="29"/>
       <c r="E29" s="29"/>
@@ -14165,10 +14270,10 @@
     </row>
     <row r="30" spans="2:13">
       <c r="B30" s="42" t="s">
-        <v>739</v>
+        <v>750</v>
       </c>
       <c r="D30" s="47" t="s">
-        <v>740</v>
+        <v>751</v>
       </c>
       <c r="E30" s="47"/>
       <c r="F30" s="47"/>
@@ -14182,7 +14287,7 @@
     </row>
     <row r="31" ht="127" customHeight="1" spans="3:13">
       <c r="C31" s="29" t="s">
-        <v>741</v>
+        <v>752</v>
       </c>
       <c r="D31" s="29"/>
       <c r="E31" s="29"/>
@@ -14197,10 +14302,10 @@
     </row>
     <row r="32" spans="2:13">
       <c r="B32" s="42" t="s">
-        <v>742</v>
+        <v>753</v>
       </c>
       <c r="D32" s="47" t="s">
-        <v>740</v>
+        <v>751</v>
       </c>
       <c r="E32" s="47"/>
       <c r="F32" s="47"/>
@@ -14214,7 +14319,7 @@
     </row>
     <row r="33" ht="81" customHeight="1" spans="3:13">
       <c r="C33" s="29" t="s">
-        <v>743</v>
+        <v>754</v>
       </c>
       <c r="D33" s="29"/>
       <c r="E33" s="29"/>
@@ -14229,7 +14334,7 @@
     </row>
     <row r="34" spans="2:13">
       <c r="B34" s="42" t="s">
-        <v>744</v>
+        <v>755</v>
       </c>
       <c r="C34" s="48"/>
       <c r="D34" s="26"/>
@@ -14245,7 +14350,7 @@
     </row>
     <row r="35" ht="36" customHeight="1" spans="3:13">
       <c r="C35" s="29" t="s">
-        <v>745</v>
+        <v>756</v>
       </c>
       <c r="D35" s="29"/>
       <c r="E35" s="29"/>
@@ -14260,10 +14365,10 @@
     </row>
     <row r="36" spans="2:13">
       <c r="B36" s="42" t="s">
-        <v>746</v>
+        <v>757</v>
       </c>
       <c r="D36" s="29" t="s">
-        <v>747</v>
+        <v>758</v>
       </c>
       <c r="E36" s="29"/>
       <c r="F36" s="29"/>
@@ -14277,7 +14382,7 @@
     </row>
     <row r="38" spans="1:7">
       <c r="A38" s="41" t="s">
-        <v>748</v>
+        <v>759</v>
       </c>
       <c r="C38" s="49"/>
       <c r="D38" s="49"/>
@@ -14287,7 +14392,7 @@
     </row>
     <row r="39" ht="60" customHeight="1" spans="2:13">
       <c r="B39" s="38" t="s">
-        <v>749</v>
+        <v>760</v>
       </c>
       <c r="C39" s="38"/>
       <c r="D39" s="38"/>
@@ -14303,10 +14408,10 @@
     </row>
     <row r="40" spans="2:13">
       <c r="B40" s="42" t="s">
-        <v>750</v>
+        <v>761</v>
       </c>
       <c r="D40" s="29" t="s">
-        <v>751</v>
+        <v>762</v>
       </c>
       <c r="E40" s="29"/>
       <c r="F40" s="29"/>
@@ -14320,7 +14425,7 @@
     </row>
     <row r="41" ht="37" customHeight="1" spans="3:13">
       <c r="C41" s="29" t="s">
-        <v>752</v>
+        <v>763</v>
       </c>
       <c r="D41" s="29"/>
       <c r="E41" s="29"/>
@@ -14335,7 +14440,7 @@
     </row>
     <row r="42" spans="4:13">
       <c r="D42" s="29" t="s">
-        <v>753</v>
+        <v>764</v>
       </c>
       <c r="E42" s="29"/>
       <c r="F42" s="29"/>
@@ -14349,7 +14454,7 @@
     </row>
     <row r="43" ht="37" customHeight="1" spans="3:13">
       <c r="C43" s="29" t="s">
-        <v>754</v>
+        <v>765</v>
       </c>
       <c r="D43" s="29"/>
       <c r="E43" s="29"/>
@@ -14364,10 +14469,10 @@
     </row>
     <row r="44" spans="2:13">
       <c r="B44" s="42" t="s">
-        <v>755</v>
+        <v>766</v>
       </c>
       <c r="D44" s="30" t="s">
-        <v>756</v>
+        <v>767</v>
       </c>
       <c r="E44" s="30"/>
       <c r="F44" s="30"/>
@@ -14381,12 +14486,12 @@
     </row>
     <row r="45" spans="3:3">
       <c r="C45" s="43" t="s">
-        <v>757</v>
+        <v>768</v>
       </c>
     </row>
     <row r="46" spans="4:13">
       <c r="D46" s="29" t="s">
-        <v>758</v>
+        <v>769</v>
       </c>
       <c r="E46" s="29"/>
       <c r="F46" s="29"/>
@@ -14400,17 +14505,17 @@
     </row>
     <row r="48" spans="1:1">
       <c r="A48" s="41" t="s">
-        <v>759</v>
+        <v>770</v>
       </c>
     </row>
     <row r="49" spans="2:2">
       <c r="B49" s="42" t="s">
-        <v>760</v>
+        <v>771</v>
       </c>
     </row>
     <row r="50" ht="84" customHeight="1" spans="3:13">
       <c r="C50" s="29" t="s">
-        <v>761</v>
+        <v>772</v>
       </c>
       <c r="D50" s="29"/>
       <c r="E50" s="29"/>
@@ -14425,10 +14530,10 @@
     </row>
     <row r="51" spans="3:13">
       <c r="C51" s="32" t="s">
-        <v>762</v>
+        <v>773</v>
       </c>
       <c r="E51" s="35" t="s">
-        <v>763</v>
+        <v>774</v>
       </c>
       <c r="F51" s="35"/>
       <c r="G51" s="35"/>
@@ -14441,7 +14546,7 @@
     </row>
     <row r="52" spans="3:13">
       <c r="C52" s="32" t="s">
-        <v>764</v>
+        <v>775</v>
       </c>
       <c r="E52" s="35"/>
       <c r="F52" s="35"/>
@@ -14455,7 +14560,7 @@
     </row>
     <row r="53" spans="4:13">
       <c r="D53" s="33" t="s">
-        <v>765</v>
+        <v>776</v>
       </c>
       <c r="E53" s="33"/>
       <c r="F53" s="33"/>
@@ -14469,7 +14574,7 @@
     </row>
     <row r="54" ht="60" customHeight="1" spans="4:13">
       <c r="D54" s="29" t="s">
-        <v>766</v>
+        <v>777</v>
       </c>
       <c r="E54" s="29"/>
       <c r="F54" s="29"/>
@@ -14483,12 +14588,12 @@
     </row>
     <row r="56" spans="3:3">
       <c r="C56" s="32" t="s">
-        <v>767</v>
+        <v>778</v>
       </c>
     </row>
     <row r="57" ht="133" customHeight="1" spans="4:13">
       <c r="D57" s="29" t="s">
-        <v>768</v>
+        <v>779</v>
       </c>
       <c r="E57" s="29"/>
       <c r="F57" s="29"/>
@@ -14502,10 +14607,10 @@
     </row>
     <row r="59" spans="1:13">
       <c r="A59" s="41" t="s">
-        <v>769</v>
+        <v>780</v>
       </c>
       <c r="C59" s="29" t="s">
-        <v>770</v>
+        <v>781</v>
       </c>
       <c r="D59" s="29"/>
       <c r="E59" s="29"/>
@@ -14520,10 +14625,10 @@
     </row>
     <row r="60" ht="90" customHeight="1" spans="2:13">
       <c r="B60" s="42" t="s">
-        <v>771</v>
+        <v>782</v>
       </c>
       <c r="C60" s="29" t="s">
-        <v>772</v>
+        <v>783</v>
       </c>
       <c r="D60" s="29"/>
       <c r="E60" s="29"/>
@@ -14538,10 +14643,10 @@
     </row>
     <row r="61" spans="2:13">
       <c r="B61" s="42" t="s">
-        <v>773</v>
+        <v>784</v>
       </c>
       <c r="D61" s="30" t="s">
-        <v>774</v>
+        <v>785</v>
       </c>
       <c r="E61" s="30"/>
       <c r="F61" s="30"/>
@@ -14555,7 +14660,7 @@
     </row>
     <row r="62" ht="36" customHeight="1" spans="3:13">
       <c r="C62" s="29" t="s">
-        <v>775</v>
+        <v>786</v>
       </c>
       <c r="D62" s="30"/>
       <c r="E62" s="30"/>
@@ -14570,10 +14675,10 @@
     </row>
     <row r="64" ht="20" customHeight="1" spans="1:13">
       <c r="A64" s="41" t="s">
-        <v>776</v>
+        <v>787</v>
       </c>
       <c r="C64" s="30" t="s">
-        <v>777</v>
+        <v>788</v>
       </c>
       <c r="D64" s="30"/>
       <c r="E64" s="30"/>
@@ -14588,12 +14693,12 @@
     </row>
     <row r="65" spans="2:2">
       <c r="B65" s="42" t="s">
-        <v>778</v>
+        <v>789</v>
       </c>
     </row>
     <row r="66" ht="123" customHeight="1" spans="3:13">
       <c r="C66" s="29" t="s">
-        <v>779</v>
+        <v>790</v>
       </c>
       <c r="D66" s="29"/>
       <c r="E66" s="29"/>
@@ -14608,12 +14713,12 @@
     </row>
     <row r="67" spans="2:2">
       <c r="B67" s="42" t="s">
-        <v>780</v>
+        <v>791</v>
       </c>
     </row>
     <row r="68" ht="241" customHeight="1" spans="3:13">
       <c r="C68" s="29" t="s">
-        <v>781</v>
+        <v>792</v>
       </c>
       <c r="D68" s="29"/>
       <c r="E68" s="29"/>
@@ -14641,10 +14746,10 @@
     </row>
     <row r="70" ht="51" customHeight="1" spans="1:13">
       <c r="A70" s="41" t="s">
-        <v>782</v>
+        <v>793</v>
       </c>
       <c r="C70" s="29" t="s">
-        <v>783</v>
+        <v>794</v>
       </c>
       <c r="D70" s="29"/>
       <c r="E70" s="29"/>
@@ -14659,12 +14764,12 @@
     </row>
     <row r="71" spans="2:2">
       <c r="B71" s="42" t="s">
-        <v>784</v>
+        <v>795</v>
       </c>
     </row>
     <row r="72" ht="73" customHeight="1" spans="3:13">
       <c r="C72" s="29" t="s">
-        <v>785</v>
+        <v>796</v>
       </c>
       <c r="D72" s="30"/>
       <c r="E72" s="30"/>
@@ -14679,15 +14784,15 @@
     </row>
     <row r="73" spans="2:5">
       <c r="B73" s="42" t="s">
-        <v>786</v>
+        <v>797</v>
       </c>
       <c r="E73" s="3" t="s">
-        <v>787</v>
+        <v>798</v>
       </c>
     </row>
     <row r="74" ht="56" customHeight="1" spans="3:13">
       <c r="C74" s="29" t="s">
-        <v>788</v>
+        <v>799</v>
       </c>
       <c r="D74" s="30"/>
       <c r="E74" s="30"/>
@@ -14702,12 +14807,12 @@
     </row>
     <row r="75" spans="3:3">
       <c r="C75" s="32" t="s">
-        <v>789</v>
+        <v>800</v>
       </c>
     </row>
     <row r="76" ht="72" customHeight="1" spans="4:13">
       <c r="D76" s="29" t="s">
-        <v>790</v>
+        <v>801</v>
       </c>
       <c r="E76" s="29"/>
       <c r="F76" s="29"/>
@@ -14721,12 +14826,12 @@
     </row>
     <row r="77" spans="3:3">
       <c r="C77" s="32" t="s">
-        <v>791</v>
+        <v>802</v>
       </c>
     </row>
     <row r="78" spans="4:13">
       <c r="D78" s="30" t="s">
-        <v>792</v>
+        <v>803</v>
       </c>
       <c r="E78" s="30"/>
       <c r="F78" s="30"/>
@@ -14740,19 +14845,19 @@
     </row>
     <row r="79" spans="1:13">
       <c r="A79" s="41" t="s">
-        <v>793</v>
+        <v>804</v>
       </c>
       <c r="M79" s="27"/>
     </row>
     <row r="80" spans="2:13">
       <c r="B80" s="42" t="s">
-        <v>794</v>
+        <v>805</v>
       </c>
       <c r="M80" s="27"/>
     </row>
     <row r="81" spans="3:13">
       <c r="C81" s="50" t="s">
-        <v>795</v>
+        <v>806</v>
       </c>
       <c r="D81" s="30"/>
       <c r="E81" s="30"/>
@@ -14768,7 +14873,7 @@
     <row r="82" ht="40" customHeight="1" spans="3:13">
       <c r="C82" s="30"/>
       <c r="D82" s="29" t="s">
-        <v>796</v>
+        <v>807</v>
       </c>
       <c r="E82" s="29"/>
       <c r="F82" s="29"/>
@@ -14782,7 +14887,7 @@
     </row>
     <row r="83" spans="3:13">
       <c r="C83" s="50" t="s">
-        <v>797</v>
+        <v>808</v>
       </c>
       <c r="D83" s="30"/>
       <c r="E83" s="30"/>
@@ -14798,7 +14903,7 @@
     <row r="84" ht="57" customHeight="1" spans="3:13">
       <c r="C84" s="30"/>
       <c r="D84" s="29" t="s">
-        <v>798</v>
+        <v>809</v>
       </c>
       <c r="E84" s="29"/>
       <c r="F84" s="29"/>
@@ -14812,7 +14917,7 @@
     </row>
     <row r="85" spans="3:13">
       <c r="C85" s="50" t="s">
-        <v>799</v>
+        <v>810</v>
       </c>
       <c r="D85" s="30"/>
       <c r="E85" s="30"/>
@@ -14828,7 +14933,7 @@
     <row r="86" ht="67" customHeight="1" spans="3:13">
       <c r="C86" s="30"/>
       <c r="D86" s="29" t="s">
-        <v>800</v>
+        <v>811</v>
       </c>
       <c r="E86" s="29"/>
       <c r="F86" s="29"/>
@@ -14843,7 +14948,7 @@
     <row r="87" ht="279" customHeight="1" spans="3:13">
       <c r="C87" s="30"/>
       <c r="D87" s="29" t="s">
-        <v>801</v>
+        <v>812</v>
       </c>
       <c r="E87" s="29"/>
       <c r="F87" s="29"/>
@@ -14857,7 +14962,7 @@
     </row>
     <row r="88" spans="3:13">
       <c r="C88" s="50" t="s">
-        <v>802</v>
+        <v>813</v>
       </c>
       <c r="D88" s="30"/>
       <c r="E88" s="30"/>
@@ -14873,7 +14978,7 @@
     <row r="89" ht="38" customHeight="1" spans="3:13">
       <c r="C89" s="30"/>
       <c r="D89" s="29" t="s">
-        <v>803</v>
+        <v>814</v>
       </c>
       <c r="E89" s="29"/>
       <c r="F89" s="29"/>
@@ -14888,7 +14993,7 @@
     <row r="90" spans="3:13">
       <c r="C90" s="30"/>
       <c r="D90" s="50" t="s">
-        <v>804</v>
+        <v>815</v>
       </c>
       <c r="E90" s="30"/>
       <c r="F90" s="30"/>
@@ -14904,7 +15009,7 @@
       <c r="C91" s="30"/>
       <c r="D91" s="30"/>
       <c r="E91" s="53" t="s">
-        <v>805</v>
+        <v>816</v>
       </c>
       <c r="F91" s="29"/>
       <c r="G91" s="29"/>
@@ -14918,7 +15023,7 @@
     <row r="92" ht="21" customHeight="1" spans="3:13">
       <c r="C92" s="30"/>
       <c r="D92" s="50" t="s">
-        <v>806</v>
+        <v>817</v>
       </c>
       <c r="E92" s="53"/>
       <c r="F92" s="29"/>
@@ -14934,7 +15039,7 @@
       <c r="C93" s="30"/>
       <c r="D93" s="30"/>
       <c r="E93" s="29" t="s">
-        <v>807</v>
+        <v>818</v>
       </c>
       <c r="F93" s="29"/>
       <c r="G93" s="29"/>
@@ -14948,7 +15053,7 @@
     <row r="94" ht="27" customHeight="1" spans="3:13">
       <c r="C94" s="30"/>
       <c r="D94" s="50" t="s">
-        <v>808</v>
+        <v>819</v>
       </c>
       <c r="E94" s="53"/>
       <c r="F94" s="29"/>
@@ -14964,7 +15069,7 @@
       <c r="C95" s="30"/>
       <c r="D95" s="30"/>
       <c r="E95" s="29" t="s">
-        <v>809</v>
+        <v>820</v>
       </c>
       <c r="F95" s="29"/>
       <c r="G95" s="29"/>
@@ -14979,7 +15084,7 @@
       <c r="C96" s="30"/>
       <c r="D96" s="30"/>
       <c r="E96" s="29" t="s">
-        <v>810</v>
+        <v>821</v>
       </c>
       <c r="F96" s="29"/>
       <c r="G96" s="29"/>
@@ -14992,13 +15097,13 @@
     </row>
     <row r="97" spans="2:13">
       <c r="B97" s="42" t="s">
-        <v>811</v>
+        <v>822</v>
       </c>
       <c r="M97" s="27"/>
     </row>
     <row r="98" spans="3:13">
       <c r="C98" s="36" t="s">
-        <v>812</v>
+        <v>823</v>
       </c>
       <c r="D98" s="37"/>
       <c r="E98" s="37"/>
@@ -15014,7 +15119,7 @@
     <row r="99" spans="3:13">
       <c r="C99" s="30"/>
       <c r="D99" s="29" t="s">
-        <v>813</v>
+        <v>824</v>
       </c>
       <c r="E99" s="29"/>
       <c r="F99" s="29"/>
@@ -15028,12 +15133,12 @@
     </row>
     <row r="100" spans="3:13">
       <c r="C100" s="50" t="s">
-        <v>814</v>
+        <v>825</v>
       </c>
       <c r="D100" s="30"/>
       <c r="E100" s="30"/>
       <c r="F100" s="30" t="s">
-        <v>815</v>
+        <v>826</v>
       </c>
       <c r="G100" s="30"/>
       <c r="H100" s="30"/>
@@ -15046,7 +15151,7 @@
     <row r="101" ht="95" customHeight="1" spans="3:13">
       <c r="C101" s="30"/>
       <c r="D101" s="29" t="s">
-        <v>816</v>
+        <v>827</v>
       </c>
       <c r="E101" s="29"/>
       <c r="F101" s="29"/>
@@ -15061,7 +15166,7 @@
     <row r="102" ht="75" customHeight="1" spans="3:13">
       <c r="C102" s="30"/>
       <c r="D102" s="29" t="s">
-        <v>817</v>
+        <v>828</v>
       </c>
       <c r="E102" s="29"/>
       <c r="F102" s="29"/>
@@ -15075,7 +15180,7 @@
     </row>
     <row r="103" spans="3:13">
       <c r="C103" s="50" t="s">
-        <v>818</v>
+        <v>829</v>
       </c>
       <c r="D103" s="30"/>
       <c r="E103" s="30"/>
@@ -15091,7 +15196,7 @@
     <row r="104" spans="3:13">
       <c r="C104" s="30"/>
       <c r="D104" s="50" t="s">
-        <v>819</v>
+        <v>830</v>
       </c>
       <c r="E104" s="30"/>
       <c r="F104" s="30"/>
@@ -15107,7 +15212,7 @@
       <c r="C105" s="30"/>
       <c r="D105" s="30"/>
       <c r="E105" s="29" t="s">
-        <v>820</v>
+        <v>831</v>
       </c>
       <c r="F105" s="29"/>
       <c r="G105" s="29"/>
@@ -15121,7 +15226,7 @@
     <row r="106" spans="3:13">
       <c r="C106" s="30"/>
       <c r="D106" s="50" t="s">
-        <v>821</v>
+        <v>832</v>
       </c>
       <c r="E106" s="30"/>
       <c r="F106" s="30"/>
@@ -15137,7 +15242,7 @@
       <c r="C107" s="30"/>
       <c r="D107" s="30"/>
       <c r="E107" s="29" t="s">
-        <v>822</v>
+        <v>833</v>
       </c>
       <c r="F107" s="29"/>
       <c r="G107" s="29"/>
@@ -15163,13 +15268,13 @@
     </row>
     <row r="109" spans="2:13">
       <c r="B109" s="42" t="s">
-        <v>823</v>
+        <v>834</v>
       </c>
       <c r="M109" s="27"/>
     </row>
     <row r="110" spans="3:13">
       <c r="C110" s="51" t="s">
-        <v>824</v>
+        <v>835</v>
       </c>
       <c r="D110" s="48"/>
       <c r="E110" s="48"/>
@@ -15184,7 +15289,7 @@
     </row>
     <row r="111" ht="71" customHeight="1" spans="4:13">
       <c r="D111" s="29" t="s">
-        <v>825</v>
+        <v>836</v>
       </c>
       <c r="E111" s="30"/>
       <c r="F111" s="30"/>
@@ -15201,19 +15306,19 @@
     </row>
     <row r="113" spans="1:13">
       <c r="A113" s="41" t="s">
-        <v>826</v>
+        <v>837</v>
       </c>
       <c r="M113" s="27"/>
     </row>
     <row r="114" spans="2:13">
       <c r="B114" s="42" t="s">
-        <v>827</v>
+        <v>838</v>
       </c>
       <c r="M114" s="27"/>
     </row>
     <row r="115" ht="159" customHeight="1" spans="3:13">
       <c r="C115" s="117" t="s">
-        <v>828</v>
+        <v>839</v>
       </c>
       <c r="D115" s="29"/>
       <c r="E115" s="29"/>
@@ -15228,13 +15333,13 @@
     </row>
     <row r="116" spans="2:13">
       <c r="B116" s="42" t="s">
-        <v>829</v>
+        <v>840</v>
       </c>
       <c r="M116" s="27"/>
     </row>
     <row r="117" spans="3:13">
       <c r="C117" s="29" t="s">
-        <v>830</v>
+        <v>841</v>
       </c>
       <c r="D117" s="29"/>
       <c r="E117" s="29"/>
@@ -15255,7 +15360,7 @@
     </row>
     <row r="119" ht="138" customHeight="1" spans="3:13">
       <c r="C119" s="29" t="s">
-        <v>831</v>
+        <v>842</v>
       </c>
       <c r="D119" s="29"/>
       <c r="E119" s="29"/>
@@ -15273,19 +15378,19 @@
     </row>
     <row r="121" spans="1:13">
       <c r="A121" s="41" t="s">
-        <v>832</v>
+        <v>843</v>
       </c>
       <c r="M121" s="27"/>
     </row>
     <row r="122" spans="2:13">
       <c r="B122" s="42" t="s">
-        <v>833</v>
+        <v>844</v>
       </c>
       <c r="M122" s="27"/>
     </row>
     <row r="123" ht="153" customHeight="1" spans="3:13">
       <c r="C123" s="39" t="s">
-        <v>834</v>
+        <v>845</v>
       </c>
       <c r="D123" s="52"/>
       <c r="E123" s="52"/>
@@ -15300,13 +15405,13 @@
     </row>
     <row r="124" spans="2:13">
       <c r="B124" s="42" t="s">
-        <v>835</v>
+        <v>846</v>
       </c>
       <c r="M124" s="27"/>
     </row>
     <row r="125" ht="187" customHeight="1" spans="3:13">
       <c r="C125" s="39" t="s">
-        <v>836</v>
+        <v>847</v>
       </c>
       <c r="D125" s="39"/>
       <c r="E125" s="39"/>
@@ -15321,13 +15426,13 @@
     </row>
     <row r="126" spans="3:13">
       <c r="C126" s="32" t="s">
-        <v>837</v>
+        <v>848</v>
       </c>
       <c r="M126" s="27"/>
     </row>
     <row r="127" ht="133" customHeight="1" spans="4:13">
       <c r="D127" s="39" t="s">
-        <v>838</v>
+        <v>849</v>
       </c>
       <c r="E127" s="52"/>
       <c r="F127" s="52"/>
@@ -15341,10 +15446,10 @@
     </row>
     <row r="128" ht="56" customHeight="1" spans="1:13">
       <c r="A128" s="41" t="s">
-        <v>839</v>
+        <v>850</v>
       </c>
       <c r="C128" s="29" t="s">
-        <v>840</v>
+        <v>851</v>
       </c>
       <c r="D128" s="29"/>
       <c r="E128" s="29"/>
@@ -15362,10 +15467,10 @@
     </row>
     <row r="130" ht="90" customHeight="1" spans="2:13">
       <c r="B130" s="54" t="s">
-        <v>841</v>
+        <v>852</v>
       </c>
       <c r="C130" s="29" t="s">
-        <v>842</v>
+        <v>853</v>
       </c>
       <c r="D130" s="30"/>
       <c r="E130" s="30"/>
@@ -15380,13 +15485,13 @@
     </row>
     <row r="131" spans="2:13">
       <c r="B131" s="42" t="s">
-        <v>843</v>
+        <v>854</v>
       </c>
       <c r="M131" s="27"/>
     </row>
     <row r="132" ht="124" customHeight="1" spans="3:13">
       <c r="C132" s="39" t="s">
-        <v>844</v>
+        <v>855</v>
       </c>
       <c r="D132" s="39"/>
       <c r="E132" s="39"/>
@@ -15401,13 +15506,13 @@
     </row>
     <row r="133" spans="2:13">
       <c r="B133" s="42" t="s">
-        <v>845</v>
+        <v>856</v>
       </c>
       <c r="M133" s="27"/>
     </row>
     <row r="134" ht="95" customHeight="1" spans="3:13">
       <c r="C134" s="29" t="s">
-        <v>846</v>
+        <v>857</v>
       </c>
       <c r="D134" s="29"/>
       <c r="E134" s="29"/>
@@ -15425,13 +15530,13 @@
     </row>
     <row r="136" spans="1:13">
       <c r="A136" s="41" t="s">
-        <v>847</v>
+        <v>858</v>
       </c>
       <c r="M136" s="27"/>
     </row>
     <row r="137" ht="60" customHeight="1" spans="2:13">
       <c r="B137" s="55" t="s">
-        <v>848</v>
+        <v>859</v>
       </c>
       <c r="C137" s="55"/>
       <c r="D137" s="55"/>
@@ -15447,13 +15552,13 @@
     </row>
     <row r="138" spans="2:13">
       <c r="B138" s="42" t="s">
-        <v>849</v>
+        <v>860</v>
       </c>
       <c r="M138" s="27"/>
     </row>
     <row r="139" ht="69" customHeight="1" spans="3:13">
       <c r="C139" s="29" t="s">
-        <v>850</v>
+        <v>861</v>
       </c>
       <c r="D139" s="29"/>
       <c r="E139" s="29"/>
@@ -15468,13 +15573,13 @@
     </row>
     <row r="140" spans="2:13">
       <c r="B140" s="42" t="s">
-        <v>851</v>
+        <v>862</v>
       </c>
       <c r="M140" s="27"/>
     </row>
     <row r="141" ht="57" customHeight="1" spans="3:13">
       <c r="C141" s="29" t="s">
-        <v>852</v>
+        <v>863</v>
       </c>
       <c r="D141" s="29"/>
       <c r="E141" s="29"/>
@@ -15489,12 +15594,12 @@
     </row>
     <row r="142" spans="2:2">
       <c r="B142" s="42" t="s">
-        <v>853</v>
+        <v>864</v>
       </c>
     </row>
     <row r="143" ht="39" customHeight="1" spans="3:13">
       <c r="C143" s="29" t="s">
-        <v>854</v>
+        <v>865</v>
       </c>
       <c r="D143" s="29"/>
       <c r="E143" s="29"/>
@@ -15509,7 +15614,7 @@
     </row>
     <row r="144" ht="38" customHeight="1" spans="3:13">
       <c r="C144" s="29" t="s">
-        <v>855</v>
+        <v>866</v>
       </c>
       <c r="D144" s="29"/>
       <c r="E144" s="29"/>
@@ -15524,12 +15629,12 @@
     </row>
     <row r="145" spans="2:2">
       <c r="B145" s="42" t="s">
-        <v>856</v>
+        <v>867</v>
       </c>
     </row>
     <row r="146" ht="38" customHeight="1" spans="3:13">
       <c r="C146" s="29" t="s">
-        <v>857</v>
+        <v>868</v>
       </c>
       <c r="D146" s="29"/>
       <c r="E146" s="29"/>
@@ -15544,7 +15649,7 @@
     </row>
     <row r="147" spans="2:13">
       <c r="B147" s="56" t="s">
-        <v>858</v>
+        <v>869</v>
       </c>
       <c r="C147" s="56"/>
       <c r="D147" s="56"/>
@@ -15560,22 +15665,22 @@
     </row>
     <row r="149" spans="1:1">
       <c r="A149" s="41" t="s">
-        <v>859</v>
+        <v>870</v>
       </c>
     </row>
     <row r="150" spans="2:2">
       <c r="B150" s="42" t="s">
-        <v>860</v>
+        <v>871</v>
       </c>
     </row>
     <row r="151" spans="3:3">
       <c r="C151" s="32" t="s">
-        <v>861</v>
+        <v>872</v>
       </c>
     </row>
     <row r="152" ht="39" customHeight="1" spans="4:13">
       <c r="D152" s="29" t="s">
-        <v>862</v>
+        <v>873</v>
       </c>
       <c r="E152" s="30"/>
       <c r="F152" s="30"/>
@@ -15589,12 +15694,12 @@
     </row>
     <row r="153" spans="3:3">
       <c r="C153" s="32" t="s">
-        <v>863</v>
+        <v>874</v>
       </c>
     </row>
     <row r="154" ht="38" customHeight="1" spans="4:13">
       <c r="D154" s="29" t="s">
-        <v>864</v>
+        <v>875</v>
       </c>
       <c r="E154" s="30"/>
       <c r="F154" s="30"/>
@@ -15608,12 +15713,12 @@
     </row>
     <row r="155" spans="2:2">
       <c r="B155" s="42" t="s">
-        <v>865</v>
+        <v>876</v>
       </c>
     </row>
     <row r="156" ht="168" customHeight="1" spans="3:13">
       <c r="C156" s="29" t="s">
-        <v>866</v>
+        <v>877</v>
       </c>
       <c r="D156" s="29"/>
       <c r="E156" s="29"/>
@@ -15629,17 +15734,17 @@
     <row r="157" ht="21" customHeight="1"/>
     <row r="158" ht="20" customHeight="1" spans="1:1">
       <c r="A158" s="41" t="s">
-        <v>867</v>
+        <v>878</v>
       </c>
     </row>
     <row r="159" spans="2:2">
       <c r="B159" s="42" t="s">
-        <v>868</v>
+        <v>879</v>
       </c>
     </row>
     <row r="160" spans="3:13">
       <c r="C160" s="29" t="s">
-        <v>869</v>
+        <v>880</v>
       </c>
       <c r="D160" s="29"/>
       <c r="E160" s="29"/>
@@ -15654,12 +15759,12 @@
     </row>
     <row r="161" spans="2:2">
       <c r="B161" s="42" t="s">
-        <v>870</v>
+        <v>881</v>
       </c>
     </row>
     <row r="162" ht="35" customHeight="1" spans="3:13">
       <c r="C162" s="29" t="s">
-        <v>871</v>
+        <v>882</v>
       </c>
       <c r="D162" s="29"/>
       <c r="E162" s="29"/>
@@ -15674,12 +15779,12 @@
     </row>
     <row r="163" spans="2:2">
       <c r="B163" s="42" t="s">
-        <v>872</v>
+        <v>883</v>
       </c>
     </row>
     <row r="164" spans="3:13">
       <c r="C164" s="29" t="s">
-        <v>873</v>
+        <v>884</v>
       </c>
       <c r="D164" s="29"/>
       <c r="E164" s="29"/>
@@ -15694,12 +15799,12 @@
     </row>
     <row r="166" spans="1:1">
       <c r="A166" s="41" t="s">
-        <v>872</v>
+        <v>883</v>
       </c>
     </row>
     <row r="167" ht="73" customHeight="1" spans="2:13">
       <c r="B167" s="38" t="s">
-        <v>874</v>
+        <v>885</v>
       </c>
       <c r="C167" s="38"/>
       <c r="D167" s="38"/>
@@ -15715,17 +15820,17 @@
     </row>
     <row r="168" spans="2:2">
       <c r="B168" s="42" t="s">
-        <v>875</v>
+        <v>886</v>
       </c>
     </row>
     <row r="169" spans="3:3">
       <c r="C169" s="32" t="s">
-        <v>876</v>
+        <v>887</v>
       </c>
     </row>
     <row r="170" ht="71" customHeight="1" spans="4:13">
       <c r="D170" s="29" t="s">
-        <v>877</v>
+        <v>888</v>
       </c>
       <c r="E170" s="30"/>
       <c r="F170" s="30"/>
@@ -15739,12 +15844,12 @@
     </row>
     <row r="171" spans="3:3">
       <c r="C171" s="32" t="s">
-        <v>676</v>
+        <v>687</v>
       </c>
     </row>
     <row r="172" ht="234" customHeight="1" spans="4:13">
       <c r="D172" s="29" t="s">
-        <v>878</v>
+        <v>889</v>
       </c>
       <c r="E172" s="29"/>
       <c r="F172" s="29"/>
@@ -15758,12 +15863,12 @@
     </row>
     <row r="173" ht="24" customHeight="1" spans="3:3">
       <c r="C173" s="32" t="s">
-        <v>879</v>
+        <v>890</v>
       </c>
     </row>
     <row r="174" spans="4:13">
       <c r="D174" s="30" t="s">
-        <v>880</v>
+        <v>891</v>
       </c>
       <c r="E174" s="30"/>
       <c r="F174" s="30"/>
@@ -15777,20 +15882,20 @@
     </row>
     <row r="175" spans="2:5">
       <c r="B175" s="42" t="s">
-        <v>881</v>
+        <v>892</v>
       </c>
       <c r="E175" s="57" t="s">
-        <v>882</v>
+        <v>893</v>
       </c>
     </row>
     <row r="176" spans="3:3">
       <c r="C176" s="32" t="s">
-        <v>883</v>
+        <v>894</v>
       </c>
     </row>
     <row r="177" ht="160" customHeight="1" spans="4:13">
       <c r="D177" s="29" t="s">
-        <v>884</v>
+        <v>895</v>
       </c>
       <c r="E177" s="29"/>
       <c r="F177" s="29"/>
@@ -15804,17 +15909,17 @@
     </row>
     <row r="178" spans="3:3">
       <c r="C178" s="32" t="s">
-        <v>885</v>
+        <v>896</v>
       </c>
     </row>
     <row r="179" spans="4:4">
       <c r="D179" s="32" t="s">
-        <v>886</v>
+        <v>897</v>
       </c>
     </row>
     <row r="180" ht="91" customHeight="1" spans="5:13">
       <c r="E180" s="29" t="s">
-        <v>887</v>
+        <v>898</v>
       </c>
       <c r="F180" s="30"/>
       <c r="G180" s="30"/>
@@ -15827,12 +15932,12 @@
     </row>
     <row r="181" spans="4:4">
       <c r="D181" s="32" t="s">
-        <v>888</v>
+        <v>899</v>
       </c>
     </row>
     <row r="182" spans="5:13">
       <c r="E182" s="29" t="s">
-        <v>889</v>
+        <v>900</v>
       </c>
       <c r="F182" s="29"/>
       <c r="G182" s="29"/>
@@ -15845,7 +15950,7 @@
     </row>
     <row r="183" spans="4:13">
       <c r="D183" s="32" t="s">
-        <v>890</v>
+        <v>901</v>
       </c>
       <c r="E183" s="29"/>
       <c r="F183" s="29"/>
@@ -15859,12 +15964,12 @@
     </row>
     <row r="184" spans="5:5">
       <c r="E184" s="58" t="s">
-        <v>891</v>
+        <v>902</v>
       </c>
     </row>
     <row r="185" ht="93" customHeight="1" spans="5:13">
       <c r="E185" s="29" t="s">
-        <v>892</v>
+        <v>903</v>
       </c>
       <c r="F185" s="29"/>
       <c r="G185" s="29"/>
@@ -15877,12 +15982,12 @@
     </row>
     <row r="186" spans="5:5">
       <c r="E186" s="58" t="s">
-        <v>893</v>
+        <v>904</v>
       </c>
     </row>
     <row r="187" ht="108" customHeight="1" spans="5:13">
       <c r="E187" s="29" t="s">
-        <v>894</v>
+        <v>905</v>
       </c>
       <c r="F187" s="29"/>
       <c r="G187" s="29"/>
@@ -15895,12 +16000,12 @@
     </row>
     <row r="188" spans="4:4">
       <c r="D188" s="32" t="s">
-        <v>895</v>
+        <v>906</v>
       </c>
     </row>
     <row r="189" ht="41" customHeight="1" spans="5:13">
       <c r="E189" s="29" t="s">
-        <v>896</v>
+        <v>907</v>
       </c>
       <c r="F189" s="29"/>
       <c r="G189" s="29"/>
@@ -15913,7 +16018,7 @@
     </row>
     <row r="190" ht="83" customHeight="1" spans="5:13">
       <c r="E190" s="29" t="s">
-        <v>897</v>
+        <v>908</v>
       </c>
       <c r="F190" s="29"/>
       <c r="G190" s="29"/>
@@ -15926,17 +16031,17 @@
     </row>
     <row r="191" spans="2:2">
       <c r="B191" s="42" t="s">
-        <v>898</v>
+        <v>909</v>
       </c>
     </row>
     <row r="192" spans="3:3">
       <c r="C192" s="32" t="s">
-        <v>899</v>
+        <v>910</v>
       </c>
     </row>
     <row r="193" ht="54" customHeight="1" spans="4:13">
       <c r="D193" s="29" t="s">
-        <v>900</v>
+        <v>911</v>
       </c>
       <c r="E193" s="29"/>
       <c r="F193" s="29"/>
@@ -15950,7 +16055,7 @@
     </row>
     <row r="194" ht="70" customHeight="1" spans="4:13">
       <c r="D194" s="59" t="s">
-        <v>901</v>
+        <v>912</v>
       </c>
       <c r="E194" s="59"/>
       <c r="F194" s="59"/>
@@ -15964,15 +16069,15 @@
     </row>
     <row r="195" spans="3:6">
       <c r="C195" s="32" t="s">
-        <v>902</v>
+        <v>913</v>
       </c>
       <c r="F195" s="58" t="s">
-        <v>893</v>
+        <v>904</v>
       </c>
     </row>
     <row r="196" ht="105" customHeight="1" spans="4:13">
       <c r="D196" s="29" t="s">
-        <v>903</v>
+        <v>914</v>
       </c>
       <c r="E196" s="29"/>
       <c r="F196" s="29"/>
@@ -15986,22 +16091,22 @@
     </row>
     <row r="197" spans="2:2">
       <c r="B197" s="42" t="s">
-        <v>904</v>
+        <v>915</v>
       </c>
     </row>
     <row r="199" spans="1:1">
       <c r="A199" s="41" t="s">
-        <v>905</v>
+        <v>916</v>
       </c>
     </row>
     <row r="200" spans="2:2">
       <c r="B200" s="42" t="s">
-        <v>906</v>
+        <v>917</v>
       </c>
     </row>
     <row r="201" ht="57" customHeight="1" spans="3:13">
       <c r="C201" s="29" t="s">
-        <v>907</v>
+        <v>918</v>
       </c>
       <c r="D201" s="29"/>
       <c r="E201" s="29"/>
@@ -16144,17 +16249,17 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="25" t="s">
-        <v>908</v>
+        <v>919</v>
       </c>
     </row>
     <row r="2" spans="2:2">
       <c r="B2" s="28" t="s">
-        <v>909</v>
+        <v>920</v>
       </c>
     </row>
     <row r="3" ht="108" customHeight="1" spans="3:14">
       <c r="C3" s="29" t="s">
-        <v>910</v>
+        <v>921</v>
       </c>
       <c r="D3" s="30"/>
       <c r="E3" s="30"/>
@@ -16170,10 +16275,10 @@
     </row>
     <row r="4" spans="2:14">
       <c r="B4" s="28" t="s">
-        <v>911</v>
+        <v>922</v>
       </c>
       <c r="D4" s="30" t="s">
-        <v>912</v>
+        <v>923</v>
       </c>
       <c r="E4" s="30"/>
       <c r="F4" s="30"/>
@@ -16188,7 +16293,7 @@
     </row>
     <row r="5" ht="36" customHeight="1" spans="3:14">
       <c r="C5" s="29" t="s">
-        <v>913</v>
+        <v>924</v>
       </c>
       <c r="D5" s="29"/>
       <c r="E5" s="29"/>
@@ -16204,12 +16309,12 @@
     </row>
     <row r="6" spans="2:2">
       <c r="B6" s="28" t="s">
-        <v>914</v>
+        <v>925</v>
       </c>
     </row>
     <row r="7" ht="37" customHeight="1" spans="3:14">
       <c r="C7" s="29" t="s">
-        <v>915</v>
+        <v>926</v>
       </c>
       <c r="D7" s="29"/>
       <c r="E7" s="29"/>
@@ -16225,12 +16330,12 @@
     </row>
     <row r="9" spans="2:2">
       <c r="B9" s="28" t="s">
-        <v>916</v>
+        <v>927</v>
       </c>
     </row>
     <row r="10" ht="108" customHeight="1" spans="3:14">
       <c r="C10" s="29" t="s">
-        <v>917</v>
+        <v>928</v>
       </c>
       <c r="D10" s="29"/>
       <c r="E10" s="29"/>
@@ -16246,7 +16351,7 @@
     </row>
     <row r="11" ht="76" customHeight="1" spans="3:14">
       <c r="C11" s="29" t="s">
-        <v>918</v>
+        <v>929</v>
       </c>
       <c r="D11" s="29"/>
       <c r="E11" s="29"/>
@@ -16262,12 +16367,12 @@
     </row>
     <row r="12" spans="2:2">
       <c r="B12" s="28" t="s">
-        <v>919</v>
+        <v>930</v>
       </c>
     </row>
     <row r="13" spans="3:14">
       <c r="C13" s="29" t="s">
-        <v>920</v>
+        <v>931</v>
       </c>
       <c r="D13" s="29"/>
       <c r="E13" s="29"/>
@@ -16283,12 +16388,12 @@
     </row>
     <row r="14" spans="2:2">
       <c r="B14" s="28" t="s">
-        <v>921</v>
+        <v>932</v>
       </c>
     </row>
     <row r="15" ht="136" customHeight="1" spans="3:14">
       <c r="C15" s="29" t="s">
-        <v>922</v>
+        <v>933</v>
       </c>
       <c r="D15" s="29"/>
       <c r="E15" s="29"/>
@@ -16304,10 +16409,10 @@
     </row>
     <row r="16" spans="2:14">
       <c r="B16" s="28" t="s">
-        <v>923</v>
+        <v>934</v>
       </c>
       <c r="D16" s="29" t="s">
-        <v>924</v>
+        <v>935</v>
       </c>
       <c r="E16" s="29"/>
       <c r="F16" s="29"/>
@@ -16322,7 +16427,7 @@
     </row>
     <row r="17" ht="72" customHeight="1" spans="3:14">
       <c r="C17" s="29" t="s">
-        <v>925</v>
+        <v>936</v>
       </c>
       <c r="D17" s="29"/>
       <c r="E17" s="29"/>
@@ -16352,12 +16457,12 @@
     </row>
     <row r="19" ht="20" customHeight="1" spans="1:1">
       <c r="A19" s="25" t="s">
-        <v>926</v>
+        <v>937</v>
       </c>
     </row>
     <row r="20" ht="38" customHeight="1" spans="2:14">
       <c r="B20" s="31" t="s">
-        <v>927</v>
+        <v>938</v>
       </c>
       <c r="C20" s="31"/>
       <c r="D20" s="31"/>
@@ -16374,12 +16479,12 @@
     </row>
     <row r="21" spans="2:2">
       <c r="B21" s="28" t="s">
-        <v>928</v>
+        <v>939</v>
       </c>
     </row>
     <row r="22" spans="3:14">
       <c r="C22" s="29" t="s">
-        <v>929</v>
+        <v>940</v>
       </c>
       <c r="D22" s="29"/>
       <c r="E22" s="29"/>
@@ -16395,12 +16500,12 @@
     </row>
     <row r="23" spans="2:2">
       <c r="B23" s="28" t="s">
-        <v>930</v>
+        <v>941</v>
       </c>
     </row>
     <row r="24" ht="54" customHeight="1" spans="3:14">
       <c r="C24" s="29" t="s">
-        <v>931</v>
+        <v>942</v>
       </c>
       <c r="D24" s="29"/>
       <c r="E24" s="29"/>
@@ -16416,12 +16521,12 @@
     </row>
     <row r="25" spans="3:3">
       <c r="C25" s="32" t="s">
-        <v>932</v>
+        <v>943</v>
       </c>
     </row>
     <row r="26" spans="4:14">
       <c r="D26" s="29" t="s">
-        <v>933</v>
+        <v>944</v>
       </c>
       <c r="E26" s="29"/>
       <c r="F26" s="29"/>
@@ -16436,12 +16541,12 @@
     </row>
     <row r="27" spans="3:3">
       <c r="C27" s="32" t="s">
-        <v>934</v>
+        <v>945</v>
       </c>
     </row>
     <row r="28" spans="4:14">
       <c r="D28" s="30" t="s">
-        <v>935</v>
+        <v>946</v>
       </c>
       <c r="E28" s="30"/>
       <c r="F28" s="30"/>
@@ -16456,17 +16561,17 @@
     </row>
     <row r="30" spans="1:1">
       <c r="A30" s="25" t="s">
-        <v>936</v>
+        <v>947</v>
       </c>
     </row>
     <row r="31" spans="2:2">
       <c r="B31" s="28" t="s">
-        <v>937</v>
+        <v>948</v>
       </c>
     </row>
     <row r="32" ht="73" customHeight="1" spans="3:14">
       <c r="C32" s="29" t="s">
-        <v>938</v>
+        <v>949</v>
       </c>
       <c r="D32" s="29"/>
       <c r="E32" s="29"/>
@@ -16482,12 +16587,12 @@
     </row>
     <row r="33" spans="2:2">
       <c r="B33" s="28" t="s">
-        <v>939</v>
+        <v>950</v>
       </c>
     </row>
     <row r="34" ht="82" customHeight="1" spans="3:14">
       <c r="C34" s="29" t="s">
-        <v>940</v>
+        <v>951</v>
       </c>
       <c r="D34" s="30"/>
       <c r="E34" s="30"/>
@@ -16503,12 +16608,12 @@
     </row>
     <row r="35" spans="2:2">
       <c r="B35" s="28" t="s">
-        <v>941</v>
+        <v>952</v>
       </c>
     </row>
     <row r="36" ht="145" customHeight="1" spans="3:14">
       <c r="C36" s="29" t="s">
-        <v>942</v>
+        <v>953</v>
       </c>
       <c r="D36" s="29"/>
       <c r="E36" s="29"/>
@@ -16524,12 +16629,12 @@
     </row>
     <row r="37" spans="2:2">
       <c r="B37" s="28" t="s">
-        <v>943</v>
+        <v>954</v>
       </c>
     </row>
     <row r="38" spans="3:14">
       <c r="C38" s="30" t="s">
-        <v>944</v>
+        <v>955</v>
       </c>
       <c r="D38" s="30"/>
       <c r="E38" s="30"/>
@@ -16545,17 +16650,17 @@
     </row>
     <row r="39" spans="2:2">
       <c r="B39" s="28" t="s">
-        <v>945</v>
+        <v>956</v>
       </c>
     </row>
     <row r="40" spans="3:3">
       <c r="C40" s="32" t="s">
-        <v>946</v>
+        <v>957</v>
       </c>
     </row>
     <row r="41" ht="55" customHeight="1" spans="4:14">
       <c r="D41" s="29" t="s">
-        <v>947</v>
+        <v>958</v>
       </c>
       <c r="E41" s="29"/>
       <c r="F41" s="29"/>
@@ -16570,12 +16675,12 @@
     </row>
     <row r="42" spans="3:3">
       <c r="C42" s="32" t="s">
-        <v>948</v>
+        <v>959</v>
       </c>
     </row>
     <row r="43" ht="38" customHeight="1" spans="4:14">
       <c r="D43" s="29" t="s">
-        <v>949</v>
+        <v>960</v>
       </c>
       <c r="E43" s="29"/>
       <c r="F43" s="29"/>
@@ -16590,12 +16695,12 @@
     </row>
     <row r="44" spans="3:3">
       <c r="C44" s="32" t="s">
-        <v>950</v>
+        <v>961</v>
       </c>
     </row>
     <row r="45" spans="4:14">
       <c r="D45" s="29" t="s">
-        <v>951</v>
+        <v>962</v>
       </c>
       <c r="E45" s="29"/>
       <c r="F45" s="29"/>
@@ -16610,10 +16715,10 @@
     </row>
     <row r="47" spans="1:14">
       <c r="A47" s="25" t="s">
-        <v>952</v>
+        <v>963</v>
       </c>
       <c r="C47" s="30" t="s">
-        <v>953</v>
+        <v>964</v>
       </c>
       <c r="D47" s="30"/>
       <c r="E47" s="30"/>
@@ -16629,12 +16734,12 @@
     </row>
     <row r="48" spans="2:2">
       <c r="B48" s="28" t="s">
-        <v>954</v>
+        <v>965</v>
       </c>
     </row>
     <row r="49" ht="74" customHeight="1" spans="3:14">
       <c r="C49" s="29" t="s">
-        <v>955</v>
+        <v>966</v>
       </c>
       <c r="D49" s="30"/>
       <c r="E49" s="30"/>
@@ -16650,12 +16755,12 @@
     </row>
     <row r="50" spans="2:2">
       <c r="B50" s="28" t="s">
-        <v>956</v>
+        <v>967</v>
       </c>
     </row>
     <row r="51" ht="57" customHeight="1" spans="3:14">
       <c r="C51" s="29" t="s">
-        <v>957</v>
+        <v>968</v>
       </c>
       <c r="D51" s="30"/>
       <c r="E51" s="30"/>
@@ -16671,12 +16776,12 @@
     </row>
     <row r="52" spans="2:2">
       <c r="B52" s="28" t="s">
-        <v>958</v>
+        <v>969</v>
       </c>
     </row>
     <row r="53" ht="37" customHeight="1" spans="3:14">
       <c r="C53" s="29" t="s">
-        <v>959</v>
+        <v>970</v>
       </c>
       <c r="D53" s="29"/>
       <c r="E53" s="29"/>
@@ -16692,24 +16797,24 @@
     </row>
     <row r="55" spans="1:1">
       <c r="A55" s="25" t="s">
-        <v>960</v>
+        <v>971</v>
       </c>
     </row>
     <row r="56" spans="2:3">
       <c r="B56" s="28" t="s">
-        <v>961</v>
+        <v>972</v>
       </c>
       <c r="C56" s="32"/>
     </row>
     <row r="57" spans="3:3">
       <c r="C57" s="32" t="s">
-        <v>962</v>
+        <v>973</v>
       </c>
     </row>
     <row r="58" spans="3:14">
       <c r="C58" s="32"/>
       <c r="D58" s="29" t="s">
-        <v>963</v>
+        <v>974</v>
       </c>
       <c r="E58" s="29"/>
       <c r="F58" s="29"/>
@@ -16724,13 +16829,13 @@
     </row>
     <row r="59" spans="3:3">
       <c r="C59" s="32" t="s">
-        <v>964</v>
+        <v>975</v>
       </c>
     </row>
     <row r="60" ht="95" customHeight="1" spans="3:14">
       <c r="C60" s="32"/>
       <c r="D60" s="117" t="s">
-        <v>965</v>
+        <v>976</v>
       </c>
       <c r="E60" s="29"/>
       <c r="F60" s="29"/>
@@ -16745,13 +16850,13 @@
     </row>
     <row r="61" spans="3:3">
       <c r="C61" s="32" t="s">
-        <v>966</v>
+        <v>977</v>
       </c>
     </row>
     <row r="62" ht="108" customHeight="1" spans="3:14">
       <c r="C62" s="32"/>
       <c r="D62" s="29" t="s">
-        <v>967</v>
+        <v>978</v>
       </c>
       <c r="E62" s="29"/>
       <c r="F62" s="29"/>
@@ -16766,12 +16871,12 @@
     </row>
     <row r="63" spans="3:3">
       <c r="C63" s="32" t="s">
-        <v>968</v>
+        <v>979</v>
       </c>
     </row>
     <row r="64" ht="36" customHeight="1" spans="4:14">
       <c r="D64" s="29" t="s">
-        <v>969</v>
+        <v>980</v>
       </c>
       <c r="E64" s="29"/>
       <c r="F64" s="29"/>
@@ -16798,10 +16903,10 @@
     </row>
     <row r="66" ht="19" customHeight="1" spans="1:14">
       <c r="A66" s="25" t="s">
-        <v>970</v>
+        <v>981</v>
       </c>
       <c r="C66" s="29" t="s">
-        <v>971</v>
+        <v>982</v>
       </c>
       <c r="D66" s="29"/>
       <c r="E66" s="29"/>
@@ -16817,19 +16922,19 @@
     </row>
     <row r="67" spans="2:3">
       <c r="B67" s="28" t="s">
-        <v>972</v>
+        <v>983</v>
       </c>
       <c r="C67" s="32"/>
     </row>
     <row r="68" spans="3:3">
       <c r="C68" s="32" t="s">
-        <v>973</v>
+        <v>984</v>
       </c>
     </row>
     <row r="69" ht="72" customHeight="1" spans="3:14">
       <c r="C69" s="32"/>
       <c r="D69" s="117" t="s">
-        <v>974</v>
+        <v>985</v>
       </c>
       <c r="E69" s="29"/>
       <c r="F69" s="29"/>
@@ -16844,13 +16949,13 @@
     </row>
     <row r="70" spans="3:3">
       <c r="C70" s="32" t="s">
-        <v>975</v>
+        <v>986</v>
       </c>
     </row>
     <row r="71" ht="102" customHeight="1" spans="3:14">
       <c r="C71" s="32"/>
       <c r="D71" s="117" t="s">
-        <v>976</v>
+        <v>987</v>
       </c>
       <c r="E71" s="29"/>
       <c r="F71" s="29"/>
@@ -16865,7 +16970,7 @@
     </row>
     <row r="72" spans="3:13">
       <c r="C72" s="32" t="s">
-        <v>977</v>
+        <v>988</v>
       </c>
       <c r="D72"/>
       <c r="E72"/>
@@ -16881,7 +16986,7 @@
     <row r="73" spans="3:13">
       <c r="C73" s="32"/>
       <c r="D73" s="30" t="s">
-        <v>978</v>
+        <v>989</v>
       </c>
       <c r="E73" s="30"/>
       <c r="F73" s="30"/>
@@ -16895,7 +17000,7 @@
     </row>
     <row r="74" spans="3:13">
       <c r="C74" s="32" t="s">
-        <v>979</v>
+        <v>990</v>
       </c>
       <c r="D74"/>
       <c r="E74"/>
@@ -16911,7 +17016,7 @@
     <row r="75" ht="57" customHeight="1" spans="3:14">
       <c r="C75" s="32"/>
       <c r="D75" s="29" t="s">
-        <v>980</v>
+        <v>991</v>
       </c>
       <c r="E75" s="29"/>
       <c r="F75" s="29"/>
@@ -16926,13 +17031,13 @@
     </row>
     <row r="76" spans="3:3">
       <c r="C76" s="32" t="s">
-        <v>981</v>
+        <v>992</v>
       </c>
     </row>
     <row r="77" ht="108" customHeight="1" spans="3:14">
       <c r="C77" s="32"/>
       <c r="D77" s="117" t="s">
-        <v>982</v>
+        <v>993</v>
       </c>
       <c r="E77" s="29"/>
       <c r="F77" s="29"/>
@@ -16947,17 +17052,17 @@
     </row>
     <row r="79" spans="1:1">
       <c r="A79" s="25" t="s">
-        <v>983</v>
+        <v>994</v>
       </c>
     </row>
     <row r="80" spans="2:2">
       <c r="B80" s="28" t="s">
-        <v>984</v>
+        <v>995</v>
       </c>
     </row>
     <row r="81" ht="159" customHeight="1" spans="3:14">
       <c r="C81" s="29" t="s">
-        <v>985</v>
+        <v>996</v>
       </c>
       <c r="D81" s="29"/>
       <c r="E81" s="29"/>
@@ -16973,10 +17078,10 @@
     </row>
     <row r="82" spans="2:14">
       <c r="B82" s="28" t="s">
-        <v>986</v>
+        <v>997</v>
       </c>
       <c r="D82" s="29" t="s">
-        <v>987</v>
+        <v>998</v>
       </c>
       <c r="E82" s="29"/>
       <c r="F82" s="29"/>
@@ -16991,7 +17096,7 @@
     </row>
     <row r="83" ht="58" customHeight="1" spans="3:14">
       <c r="C83" s="29" t="s">
-        <v>988</v>
+        <v>999</v>
       </c>
       <c r="D83" s="29"/>
       <c r="E83" s="29"/>
@@ -17007,7 +17112,7 @@
     </row>
     <row r="84" ht="22" customHeight="1" spans="3:13">
       <c r="C84" s="33" t="s">
-        <v>989</v>
+        <v>1000</v>
       </c>
       <c r="D84" s="29"/>
       <c r="E84" s="29"/>
@@ -17023,7 +17128,7 @@
     <row r="85" ht="161" customHeight="1" spans="3:14">
       <c r="C85" s="29"/>
       <c r="D85" s="29" t="s">
-        <v>990</v>
+        <v>1001</v>
       </c>
       <c r="E85" s="29"/>
       <c r="F85" s="29"/>
@@ -17038,17 +17143,17 @@
     </row>
     <row r="86" spans="1:1">
       <c r="A86" s="25" t="s">
-        <v>991</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="87" spans="2:2">
       <c r="B87" s="28" t="s">
-        <v>992</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="88" ht="85" customHeight="1" spans="3:14">
       <c r="C88" s="29" t="s">
-        <v>993</v>
+        <v>1004</v>
       </c>
       <c r="D88" s="29"/>
       <c r="E88" s="29"/>
@@ -17064,12 +17169,12 @@
     </row>
     <row r="89" spans="3:3">
       <c r="C89" s="32" t="s">
-        <v>994</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="90" ht="60" customHeight="1" spans="4:14">
       <c r="D90" s="29" t="s">
-        <v>995</v>
+        <v>1006</v>
       </c>
       <c r="E90" s="29"/>
       <c r="F90" s="29"/>
@@ -17084,12 +17189,12 @@
     </row>
     <row r="91" spans="2:2">
       <c r="B91" s="28" t="s">
-        <v>996</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="92" ht="56" customHeight="1" spans="3:14">
       <c r="C92" s="29" t="s">
-        <v>997</v>
+        <v>1008</v>
       </c>
       <c r="D92" s="29"/>
       <c r="E92" s="29"/>
@@ -17105,12 +17210,12 @@
     </row>
     <row r="93" spans="3:3">
       <c r="C93" s="32" t="s">
-        <v>998</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="94" ht="153" customHeight="1" spans="4:14">
       <c r="D94" s="29" t="s">
-        <v>999</v>
+        <v>1010</v>
       </c>
       <c r="E94" s="29"/>
       <c r="F94" s="29"/>
@@ -17138,12 +17243,12 @@
     </row>
     <row r="96" ht="20" customHeight="1" spans="1:1">
       <c r="A96" s="25" t="s">
-        <v>1000</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="97" ht="41" customHeight="1" spans="2:14">
       <c r="B97" s="29" t="s">
-        <v>1001</v>
+        <v>1012</v>
       </c>
       <c r="C97" s="29"/>
       <c r="D97" s="29"/>
@@ -17160,12 +17265,12 @@
     </row>
     <row r="98" ht="23" customHeight="1" spans="2:2">
       <c r="B98" s="28" t="s">
-        <v>1002</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="99" ht="172" customHeight="1" spans="3:14">
       <c r="C99" s="29" t="s">
-        <v>1003</v>
+        <v>1014</v>
       </c>
       <c r="D99" s="29"/>
       <c r="E99" s="29"/>
@@ -17181,12 +17286,12 @@
     </row>
     <row r="100" spans="2:2">
       <c r="B100" s="28" t="s">
-        <v>1004</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="101" ht="55" customHeight="1" spans="3:14">
       <c r="C101" s="29" t="s">
-        <v>1005</v>
+        <v>1016</v>
       </c>
       <c r="D101" s="29"/>
       <c r="E101" s="29"/>
@@ -17202,7 +17307,7 @@
     </row>
     <row r="102" ht="125" customHeight="1" spans="3:14">
       <c r="C102" s="34" t="s">
-        <v>1006</v>
+        <v>1017</v>
       </c>
       <c r="D102" s="35"/>
       <c r="E102" s="35"/>
@@ -17232,10 +17337,10 @@
     </row>
     <row r="104" ht="24" customHeight="1" spans="1:14">
       <c r="A104" s="25" t="s">
-        <v>1007</v>
+        <v>1018</v>
       </c>
       <c r="C104" s="29" t="s">
-        <v>1008</v>
+        <v>1019</v>
       </c>
       <c r="D104" s="29"/>
       <c r="E104" s="29"/>
@@ -17251,12 +17356,12 @@
     </row>
     <row r="105" ht="20" customHeight="1" spans="2:2">
       <c r="B105" s="28" t="s">
-        <v>1009</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="106" ht="20" customHeight="1" spans="3:14">
       <c r="C106" s="30" t="s">
-        <v>1010</v>
+        <v>1021</v>
       </c>
       <c r="D106" s="30"/>
       <c r="E106" s="30"/>
@@ -17272,12 +17377,12 @@
     </row>
     <row r="107" ht="20" customHeight="1" spans="2:2">
       <c r="B107" s="28" t="s">
-        <v>1011</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="108" ht="20" customHeight="1" spans="3:14">
       <c r="C108" s="30" t="s">
-        <v>1012</v>
+        <v>1023</v>
       </c>
       <c r="D108" s="30"/>
       <c r="E108" s="30"/>
@@ -17293,12 +17398,12 @@
     </row>
     <row r="109" ht="20" customHeight="1" spans="2:2">
       <c r="B109" s="28" t="s">
-        <v>1013</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="110" ht="19" customHeight="1" spans="3:14">
       <c r="C110" s="29" t="s">
-        <v>1014</v>
+        <v>1025</v>
       </c>
       <c r="D110" s="29"/>
       <c r="E110" s="29"/>
@@ -17314,17 +17419,17 @@
     </row>
     <row r="112" ht="19" customHeight="1" spans="1:1">
       <c r="A112" s="25" t="s">
-        <v>1015</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="113" spans="2:2">
       <c r="B113" s="28" t="s">
-        <v>1016</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="114" ht="35" customHeight="1" spans="3:14">
       <c r="C114" s="29" t="s">
-        <v>1017</v>
+        <v>1028</v>
       </c>
       <c r="D114" s="29"/>
       <c r="E114" s="29"/>
@@ -17340,17 +17445,17 @@
     </row>
     <row r="115" spans="2:2">
       <c r="B115" s="28" t="s">
-        <v>1018</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="116" spans="3:3">
       <c r="C116" s="32" t="s">
-        <v>1019</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="117" ht="37" customHeight="1" spans="4:14">
       <c r="D117" s="29" t="s">
-        <v>1020</v>
+        <v>1031</v>
       </c>
       <c r="E117" s="29"/>
       <c r="F117" s="29"/>
@@ -17365,12 +17470,12 @@
     </row>
     <row r="118" spans="3:3">
       <c r="C118" s="32" t="s">
-        <v>1021</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="119" spans="4:14">
       <c r="D119" s="29" t="s">
-        <v>1022</v>
+        <v>1033</v>
       </c>
       <c r="E119" s="29"/>
       <c r="F119" s="29"/>
@@ -17385,12 +17490,12 @@
     </row>
     <row r="120" spans="3:3">
       <c r="C120" s="32" t="s">
-        <v>1023</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="121" ht="54" customHeight="1" spans="4:14">
       <c r="D121" s="29" t="s">
-        <v>1024</v>
+        <v>1035</v>
       </c>
       <c r="E121" s="29"/>
       <c r="F121" s="29"/>
@@ -17405,12 +17510,12 @@
     </row>
     <row r="122" spans="2:2">
       <c r="B122" s="28" t="s">
-        <v>1025</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="123" ht="36" customHeight="1" spans="3:14">
       <c r="C123" s="29" t="s">
-        <v>1026</v>
+        <v>1037</v>
       </c>
       <c r="D123" s="29"/>
       <c r="E123" s="29"/>
@@ -17426,17 +17531,17 @@
     </row>
     <row r="124" spans="2:2">
       <c r="B124" s="28" t="s">
-        <v>1027</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="125" spans="3:3">
       <c r="C125" s="32" t="s">
-        <v>1028</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="126" spans="4:14">
       <c r="D126" s="29" t="s">
-        <v>1029</v>
+        <v>1040</v>
       </c>
       <c r="E126" s="29"/>
       <c r="F126" s="29"/>
@@ -17451,12 +17556,12 @@
     </row>
     <row r="127" spans="3:3">
       <c r="C127" s="32" t="s">
-        <v>1030</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="128" ht="21" customHeight="1" spans="4:14">
       <c r="D128" s="29" t="s">
-        <v>1031</v>
+        <v>1042</v>
       </c>
       <c r="E128" s="29"/>
       <c r="F128" s="29"/>
@@ -17471,12 +17576,12 @@
     </row>
     <row r="129" ht="19" customHeight="1" spans="2:2">
       <c r="B129" s="28" t="s">
-        <v>1032</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="130" spans="3:13">
       <c r="C130" s="36" t="s">
-        <v>1033</v>
+        <v>1044</v>
       </c>
       <c r="D130" s="37"/>
       <c r="E130" s="37"/>
@@ -17492,7 +17597,7 @@
     <row r="131" ht="76" customHeight="1" spans="3:14">
       <c r="C131" s="36"/>
       <c r="D131" s="38" t="s">
-        <v>1034</v>
+        <v>1045</v>
       </c>
       <c r="E131" s="38"/>
       <c r="F131" s="38"/>
@@ -17507,7 +17612,7 @@
     </row>
     <row r="132" spans="3:13">
       <c r="C132" s="36" t="s">
-        <v>1035</v>
+        <v>1046</v>
       </c>
       <c r="D132" s="37"/>
       <c r="E132" s="37"/>
@@ -17523,7 +17628,7 @@
     <row r="133" ht="95" customHeight="1" spans="3:14">
       <c r="C133" s="36"/>
       <c r="D133" s="38" t="s">
-        <v>1036</v>
+        <v>1047</v>
       </c>
       <c r="E133" s="38"/>
       <c r="F133" s="38"/>
@@ -17538,7 +17643,7 @@
     </row>
     <row r="134" spans="3:13">
       <c r="C134" s="36" t="s">
-        <v>1037</v>
+        <v>1048</v>
       </c>
       <c r="D134" s="37"/>
       <c r="E134" s="37"/>
@@ -17554,7 +17659,7 @@
     <row r="135" ht="79" customHeight="1" spans="3:14">
       <c r="C135" s="36"/>
       <c r="D135" s="38" t="s">
-        <v>1038</v>
+        <v>1049</v>
       </c>
       <c r="E135" s="38"/>
       <c r="F135" s="38"/>
@@ -17569,12 +17674,12 @@
     </row>
     <row r="136" spans="3:3">
       <c r="C136" s="32" t="s">
-        <v>1039</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="137" ht="73" customHeight="1" spans="4:14">
       <c r="D137" s="38" t="s">
-        <v>1040</v>
+        <v>1051</v>
       </c>
       <c r="E137" s="38"/>
       <c r="F137" s="38"/>
@@ -17589,12 +17694,12 @@
     </row>
     <row r="138" spans="2:2">
       <c r="B138" s="28" t="s">
-        <v>1041</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="139" spans="3:14">
       <c r="C139" s="29" t="s">
-        <v>1042</v>
+        <v>1053</v>
       </c>
       <c r="D139" s="29"/>
       <c r="E139" s="29"/>
@@ -17610,10 +17715,10 @@
     </row>
     <row r="141" spans="1:14">
       <c r="A141" s="25" t="s">
-        <v>1043</v>
+        <v>1054</v>
       </c>
       <c r="C141" s="29" t="s">
-        <v>1044</v>
+        <v>1055</v>
       </c>
       <c r="D141" s="29"/>
       <c r="E141" s="29"/>
@@ -17629,7 +17734,7 @@
     </row>
     <row r="142" ht="187" customHeight="1" spans="2:14">
       <c r="B142" s="31" t="s">
-        <v>1045</v>
+        <v>1056</v>
       </c>
       <c r="C142" s="31"/>
       <c r="D142" s="31"/>
@@ -17646,12 +17751,12 @@
     </row>
     <row r="144" spans="1:1">
       <c r="A144" s="25" t="s">
-        <v>1046</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="145" ht="39" customHeight="1" spans="2:14">
       <c r="B145" s="31" t="s">
-        <v>1047</v>
+        <v>1058</v>
       </c>
       <c r="C145" s="31"/>
       <c r="D145" s="31"/>
@@ -17668,12 +17773,12 @@
     </row>
     <row r="146" spans="2:2">
       <c r="B146" s="28" t="s">
-        <v>1048</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="147" ht="220" customHeight="1" spans="3:14">
       <c r="C147" s="29" t="s">
-        <v>1049</v>
+        <v>1060</v>
       </c>
       <c r="D147" s="29"/>
       <c r="E147" s="29"/>
@@ -17689,10 +17794,10 @@
     </row>
     <row r="149" spans="1:14">
       <c r="A149" s="25" t="s">
-        <v>1050</v>
+        <v>1061</v>
       </c>
       <c r="C149" s="30" t="s">
-        <v>1051</v>
+        <v>1062</v>
       </c>
       <c r="D149" s="30"/>
       <c r="E149" s="30"/>
@@ -17708,12 +17813,12 @@
     </row>
     <row r="150" spans="2:2">
       <c r="B150" s="28" t="s">
-        <v>1052</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="151" ht="190" customHeight="1" spans="3:14">
       <c r="C151" s="29" t="s">
-        <v>1053</v>
+        <v>1064</v>
       </c>
       <c r="D151" s="29"/>
       <c r="E151" s="29"/>
@@ -17729,12 +17834,12 @@
     </row>
     <row r="152" spans="2:2">
       <c r="B152" s="28" t="s">
-        <v>1054</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="153" ht="117" customHeight="1" spans="3:14">
       <c r="C153" s="117" t="s">
-        <v>1055</v>
+        <v>1066</v>
       </c>
       <c r="D153" s="29"/>
       <c r="E153" s="29"/>
@@ -17750,10 +17855,10 @@
     </row>
     <row r="154" spans="1:14">
       <c r="A154" s="25" t="s">
-        <v>1056</v>
+        <v>1067</v>
       </c>
       <c r="C154" s="29" t="s">
-        <v>1057</v>
+        <v>1068</v>
       </c>
       <c r="D154" s="29"/>
       <c r="E154" s="29"/>
@@ -17769,12 +17874,12 @@
     </row>
     <row r="155" spans="2:2">
       <c r="B155" s="28" t="s">
-        <v>1058</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="156" ht="145" customHeight="1" spans="3:14">
       <c r="C156" s="29" t="s">
-        <v>1059</v>
+        <v>1070</v>
       </c>
       <c r="D156" s="29"/>
       <c r="E156" s="29"/>
@@ -17790,12 +17895,12 @@
     </row>
     <row r="157" spans="2:2">
       <c r="B157" s="28" t="s">
-        <v>1060</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="158" ht="102" customHeight="1" spans="3:14">
       <c r="C158" s="117" t="s">
-        <v>1061</v>
+        <v>1072</v>
       </c>
       <c r="D158" s="29"/>
       <c r="E158" s="29"/>
@@ -17811,12 +17916,12 @@
     </row>
     <row r="159" spans="2:2">
       <c r="B159" s="28" t="s">
-        <v>1062</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="160" ht="55" customHeight="1" spans="3:14">
       <c r="C160" s="29" t="s">
-        <v>1063</v>
+        <v>1074</v>
       </c>
       <c r="D160" s="29"/>
       <c r="E160" s="29"/>
@@ -17832,7 +17937,7 @@
     </row>
     <row r="161" ht="71" customHeight="1" spans="3:14">
       <c r="C161" s="29" t="s">
-        <v>1064</v>
+        <v>1075</v>
       </c>
       <c r="D161" s="29"/>
       <c r="E161" s="29"/>
@@ -17848,7 +17953,7 @@
     </row>
     <row r="162" ht="162" customHeight="1" spans="3:14">
       <c r="C162" s="29" t="s">
-        <v>1065</v>
+        <v>1076</v>
       </c>
       <c r="D162" s="29"/>
       <c r="E162" s="29"/>
@@ -17864,7 +17969,7 @@
     </row>
     <row r="163" ht="139" customHeight="1" spans="3:14">
       <c r="C163" s="29" t="s">
-        <v>1066</v>
+        <v>1077</v>
       </c>
       <c r="D163" s="29"/>
       <c r="E163" s="29"/>
@@ -17880,12 +17985,12 @@
     </row>
     <row r="164" spans="2:2">
       <c r="B164" s="28" t="s">
-        <v>1067</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="165" ht="54" customHeight="1" spans="3:14">
       <c r="C165" s="29" t="s">
-        <v>1068</v>
+        <v>1079</v>
       </c>
       <c r="D165" s="29"/>
       <c r="E165" s="29"/>
@@ -17901,20 +18006,20 @@
     </row>
     <row r="167" spans="1:1">
       <c r="A167" s="25" t="s">
-        <v>1069</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="168" spans="2:2">
       <c r="B168" s="28" t="s">
-        <v>1070</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="169" ht="77" customHeight="1" spans="3:14">
       <c r="C169" s="3" t="s">
-        <v>1071</v>
+        <v>1082</v>
       </c>
       <c r="D169" s="39" t="s">
-        <v>1072</v>
+        <v>1083</v>
       </c>
       <c r="E169" s="29"/>
       <c r="F169" s="29"/>
@@ -17934,7 +18039,7 @@
     </row>
     <row r="172" spans="4:14">
       <c r="D172" s="30" t="s">
-        <v>1073</v>
+        <v>1084</v>
       </c>
       <c r="E172" s="30"/>
       <c r="F172" s="30"/>
@@ -17949,10 +18054,10 @@
     </row>
     <row r="173" spans="2:14">
       <c r="B173" s="28" t="s">
-        <v>1074</v>
+        <v>1085</v>
       </c>
       <c r="D173" s="40" t="s">
-        <v>1075</v>
+        <v>1086</v>
       </c>
       <c r="E173" s="40"/>
       <c r="F173" s="40"/>
@@ -17967,7 +18072,7 @@
     </row>
     <row r="174" ht="83" customHeight="1" spans="3:14">
       <c r="C174" s="29" t="s">
-        <v>1076</v>
+        <v>1087</v>
       </c>
       <c r="D174" s="30"/>
       <c r="E174" s="30"/>
@@ -17983,17 +18088,17 @@
     </row>
     <row r="176" spans="1:1">
       <c r="A176" s="25" t="s">
-        <v>1077</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="177" spans="2:2">
       <c r="B177" s="28" t="s">
-        <v>1078</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="178" ht="72" customHeight="1" spans="3:14">
       <c r="C178" s="29" t="s">
-        <v>1079</v>
+        <v>1090</v>
       </c>
       <c r="D178" s="29"/>
       <c r="E178" s="29"/>
@@ -18009,12 +18114,12 @@
     </row>
     <row r="179" spans="2:2">
       <c r="B179" s="28" t="s">
-        <v>1080</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="180" ht="58" customHeight="1" spans="3:14">
       <c r="C180" s="29" t="s">
-        <v>1081</v>
+        <v>1092</v>
       </c>
       <c r="D180" s="29"/>
       <c r="E180" s="29"/>
@@ -18030,12 +18135,12 @@
     </row>
     <row r="182" spans="2:2">
       <c r="B182" s="28" t="s">
-        <v>1082</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="183" ht="37" customHeight="1" spans="3:14">
       <c r="C183" s="29" t="s">
-        <v>1083</v>
+        <v>1094</v>
       </c>
       <c r="D183" s="29"/>
       <c r="E183" s="29"/>
@@ -18051,12 +18156,12 @@
     </row>
     <row r="184" spans="2:2">
       <c r="B184" s="28" t="s">
-        <v>1084</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="185" ht="33" customHeight="1" spans="3:14">
       <c r="C185" s="29" t="s">
-        <v>1085</v>
+        <v>1096</v>
       </c>
       <c r="D185" s="29"/>
       <c r="E185" s="29"/>
@@ -18072,17 +18177,17 @@
     </row>
     <row r="187" spans="1:1">
       <c r="A187" s="25" t="s">
-        <v>1086</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="188" spans="2:2">
       <c r="B188" s="28" t="s">
-        <v>1087</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="189" ht="91" customHeight="1" spans="3:14">
       <c r="C189" s="29" t="s">
-        <v>1088</v>
+        <v>1099</v>
       </c>
       <c r="D189" s="29"/>
       <c r="E189" s="29"/>
@@ -18098,12 +18203,12 @@
     </row>
     <row r="190" spans="2:2">
       <c r="B190" s="28" t="s">
-        <v>1089</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="191" ht="178" customHeight="1" spans="3:14">
       <c r="C191" s="29" t="s">
-        <v>1090</v>
+        <v>1101</v>
       </c>
       <c r="D191" s="29"/>
       <c r="E191" s="29"/>
@@ -18235,339 +18340,339 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="25" t="s">
-        <v>1091</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="2" ht="35" customHeight="1" spans="2:2">
       <c r="B2" s="26" t="s">
-        <v>1092</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="3" ht="66" spans="2:2">
       <c r="B3" s="26" t="s">
-        <v>1093</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="25" t="s">
-        <v>1094</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="6" ht="33" spans="2:2">
       <c r="B6" s="26" t="s">
-        <v>1095</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:1">
       <c r="A8" s="25" t="s">
-        <v>1096</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="9" ht="82.5" spans="2:2">
       <c r="B9" s="26" t="s">
-        <v>1097</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="25" t="s">
-        <v>1098</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="12" spans="2:2">
       <c r="B12" s="26" t="s">
-        <v>1099</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" s="25" t="s">
-        <v>1100</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="16" ht="49.5" spans="2:2">
       <c r="B16" s="26" t="s">
-        <v>1101</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="18" ht="66" spans="2:2">
       <c r="B18" s="26" t="s">
-        <v>1102</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" s="25" t="s">
-        <v>1103</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="21" spans="2:2">
       <c r="B21" s="26" t="s">
-        <v>1104</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" s="25" t="s">
-        <v>1105</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="24" ht="99" spans="2:2">
       <c r="B24" s="26" t="s">
-        <v>1106</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" s="25" t="s">
-        <v>1107</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="27" ht="165" spans="2:2">
       <c r="B27" s="26" t="s">
-        <v>1108</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" s="25" t="s">
-        <v>1109</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="30" ht="49.5" spans="2:2">
       <c r="B30" s="26" t="s">
-        <v>1110</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32" s="25" t="s">
-        <v>1111</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="33" ht="82.5" spans="2:2">
       <c r="B33" s="26" t="s">
-        <v>1112</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" s="25" t="s">
-        <v>1113</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="36" ht="66" spans="2:2">
       <c r="B36" s="26" t="s">
-        <v>1114</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38" s="25" t="s">
-        <v>1115</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="39" ht="49.5" spans="2:2">
       <c r="B39" s="26" t="s">
-        <v>1116</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41" s="25" t="s">
-        <v>1117</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="42" ht="66" spans="2:2">
       <c r="B42" s="26" t="s">
-        <v>1118</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44" s="25" t="s">
-        <v>1119</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="45" ht="66" spans="2:2">
       <c r="B45" s="26" t="s">
-        <v>1120</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47" s="25" t="s">
-        <v>1121</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="48" ht="49.5" spans="2:2">
       <c r="B48" s="26" t="s">
-        <v>1122</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="50" spans="1:1">
       <c r="A50" s="25" t="s">
-        <v>1123</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="51" ht="82.5" spans="2:2">
       <c r="B51" s="26" t="s">
-        <v>1124</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="53" spans="1:1">
       <c r="A53" s="25" t="s">
-        <v>1125</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="54" ht="33" spans="2:2">
       <c r="B54" s="26" t="s">
-        <v>1126</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="56" spans="1:1">
       <c r="A56" s="25" t="s">
-        <v>1127</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="57" ht="49.5" spans="2:2">
       <c r="B57" s="26" t="s">
-        <v>1128</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="59" spans="1:1">
       <c r="A59" s="25" t="s">
-        <v>1129</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="60" ht="33" spans="2:2">
       <c r="B60" s="26" t="s">
-        <v>1130</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="62" spans="1:1">
       <c r="A62" s="25" t="s">
-        <v>1131</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="63" ht="82.5" spans="2:2">
       <c r="B63" s="26" t="s">
-        <v>1132</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="64" spans="2:2">
       <c r="B64" s="26" t="s">
-        <v>1133</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="66" spans="1:1">
       <c r="A66" s="25" t="s">
-        <v>1134</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="67" spans="2:2">
       <c r="B67" s="26" t="s">
-        <v>1135</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69" s="25" t="s">
-        <v>1136</v>
+        <v>1147</v>
       </c>
       <c r="B69" s="26" t="s">
-        <v>1137</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="70" ht="33" spans="2:2">
       <c r="B70" s="26" t="s">
-        <v>1138</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="71" ht="49.5" spans="2:2">
       <c r="B71" s="26" t="s">
-        <v>1139</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="73" spans="1:1">
       <c r="A73" s="25" t="s">
-        <v>1140</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="74" ht="33" spans="2:2">
       <c r="B74" s="26" t="s">
-        <v>1141</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="76" spans="1:1">
       <c r="A76" s="25" t="s">
-        <v>1142</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="77" spans="2:2">
       <c r="B77" s="26" t="s">
-        <v>1143</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="79" spans="1:1">
       <c r="A79" s="25" t="s">
-        <v>1144</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="80" ht="132" spans="2:2">
       <c r="B80" s="26" t="s">
-        <v>1145</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="82" spans="1:1">
       <c r="A82" s="25" t="s">
-        <v>1146</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="83" spans="2:2">
       <c r="B83" s="26" t="s">
-        <v>1147</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="84" ht="49.5" spans="2:2">
       <c r="B84" s="26" t="s">
-        <v>1148</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="86" spans="1:2">
       <c r="A86" s="25" t="s">
-        <v>1149</v>
+        <v>1160</v>
       </c>
       <c r="B86" s="26" t="s">
-        <v>1150</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="87" ht="33" spans="2:2">
       <c r="B87" s="26" t="s">
-        <v>1151</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="88" ht="66" spans="2:2">
       <c r="B88" s="26" t="s">
-        <v>1152</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="90" spans="1:2">
       <c r="A90" s="25" t="s">
-        <v>1153</v>
+        <v>1164</v>
       </c>
       <c r="B90" s="26" t="s">
-        <v>1154</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="91" ht="148.5" spans="2:2">
       <c r="B91" s="26" t="s">
-        <v>1155</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="92" ht="82.5" spans="2:2">
       <c r="B92" s="26" t="s">
-        <v>1156</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="94" ht="33" spans="1:2">
       <c r="A94" s="25" t="s">
-        <v>1157</v>
+        <v>1168</v>
       </c>
       <c r="B94" s="26" t="s">
-        <v>1158</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="95" ht="115.5" spans="2:2">
       <c r="B95" s="26" t="s">
-        <v>1159</v>
+        <v>1170</v>
       </c>
     </row>
   </sheetData>
@@ -18598,721 +18703,721 @@
   <sheetData>
     <row r="1" customHeight="1" spans="1:3">
       <c r="A1" s="8" t="s">
-        <v>1160</v>
+        <v>1171</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>1161</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="2" ht="18" spans="2:3">
       <c r="B2" s="9" t="s">
-        <v>1162</v>
+        <v>1173</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>1163</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="2:2">
       <c r="B3" s="9" t="s">
-        <v>1164</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="3:4">
       <c r="C4" s="10" t="s">
-        <v>1165</v>
+        <v>1176</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>1166</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="5" ht="33" spans="3:4">
       <c r="C5" s="10" t="s">
-        <v>773</v>
+        <v>784</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>1167</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="3:4">
       <c r="C6" s="10" t="s">
-        <v>1168</v>
+        <v>1179</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>1169</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="2:2">
       <c r="B7" s="9" t="s">
-        <v>1170</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="8" ht="49.5" spans="3:4">
       <c r="C8" s="14" t="s">
-        <v>1171</v>
+        <v>1182</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>1172</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="9" ht="165" spans="3:4">
       <c r="C9" s="10" t="s">
-        <v>1173</v>
+        <v>1184</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>1174</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="3:3">
       <c r="C10" s="10" t="s">
-        <v>1175</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="3:4">
       <c r="C11" s="10" t="s">
-        <v>1176</v>
+        <v>1187</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>1177</v>
+        <v>1188</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="3:3">
       <c r="C12" s="10" t="s">
-        <v>1178</v>
+        <v>1189</v>
       </c>
     </row>
     <row r="13" ht="82.5" spans="3:4">
       <c r="C13" s="10" t="s">
-        <v>1179</v>
+        <v>1190</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>1180</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="14" ht="165" spans="3:4">
       <c r="C14" s="10" t="s">
-        <v>1181</v>
+        <v>1192</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>1182</v>
+        <v>1193</v>
       </c>
     </row>
     <row r="17" customHeight="1" spans="2:3">
       <c r="B17" s="15" t="s">
-        <v>1183</v>
+        <v>1194</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>1184</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="18" customHeight="1" spans="3:3">
       <c r="C18" s="10" t="s">
-        <v>1185</v>
+        <v>1196</v>
       </c>
     </row>
     <row r="19" ht="231" spans="3:4">
       <c r="C19" s="16" t="s">
-        <v>1186</v>
+        <v>1197</v>
       </c>
       <c r="D19" s="11" t="s">
-        <v>1187</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="20" ht="99" spans="3:4">
       <c r="C20" s="16" t="s">
-        <v>1188</v>
+        <v>1199</v>
       </c>
       <c r="D20" s="11" t="s">
-        <v>1189</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="21" ht="148.5" spans="3:4">
       <c r="C21" s="10" t="s">
-        <v>1190</v>
+        <v>1201</v>
       </c>
       <c r="D21" s="11" t="s">
-        <v>1191</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="22" ht="132" spans="3:4">
       <c r="C22" s="10" t="s">
-        <v>1192</v>
+        <v>1203</v>
       </c>
       <c r="D22" s="11" t="s">
-        <v>1193</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="23" ht="33" spans="3:4">
       <c r="C23" s="10" t="s">
-        <v>1194</v>
+        <v>1205</v>
       </c>
       <c r="D23" s="11" t="s">
-        <v>1195</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="25" customHeight="1" spans="2:2">
       <c r="B25" s="9" t="s">
-        <v>1196</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="26" customHeight="1" spans="3:4">
       <c r="C26" s="10" t="s">
-        <v>1197</v>
+        <v>1208</v>
       </c>
       <c r="D26" s="11" t="s">
-        <v>1198</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="27" customHeight="1" spans="3:3">
       <c r="C27" s="10" t="s">
-        <v>1199</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="28" ht="33" spans="3:4">
       <c r="C28" s="16" t="s">
-        <v>1200</v>
+        <v>1211</v>
       </c>
       <c r="D28" s="11" t="s">
-        <v>1201</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="29" customHeight="1" spans="3:4">
       <c r="C29" s="16" t="s">
-        <v>1202</v>
+        <v>1213</v>
       </c>
       <c r="D29" s="11" t="s">
-        <v>1203</v>
+        <v>1214</v>
       </c>
     </row>
     <row r="30" ht="33" spans="3:4">
       <c r="C30" s="16" t="s">
-        <v>1204</v>
+        <v>1215</v>
       </c>
       <c r="D30" s="11" t="s">
-        <v>1205</v>
+        <v>1216</v>
       </c>
     </row>
     <row r="31" customHeight="1" spans="3:4">
       <c r="C31" s="16" t="s">
-        <v>1206</v>
+        <v>1217</v>
       </c>
       <c r="D31" s="11" t="s">
-        <v>1207</v>
+        <v>1218</v>
       </c>
     </row>
     <row r="32" customHeight="1" spans="2:4">
       <c r="B32" s="9" t="s">
-        <v>1208</v>
+        <v>1219</v>
       </c>
       <c r="D32" s="11" t="s">
-        <v>1209</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="33" ht="49.5" spans="3:4">
       <c r="C33" s="10" t="s">
-        <v>1210</v>
+        <v>1221</v>
       </c>
       <c r="D33" s="11" t="s">
-        <v>1211</v>
+        <v>1222</v>
       </c>
     </row>
     <row r="34" customHeight="1" spans="3:4">
       <c r="C34" s="10" t="s">
-        <v>1212</v>
+        <v>1223</v>
       </c>
       <c r="D34" s="11" t="s">
-        <v>1213</v>
+        <v>1224</v>
       </c>
     </row>
     <row r="35" ht="33" spans="3:4">
       <c r="C35" s="14" t="s">
-        <v>1214</v>
+        <v>1225</v>
       </c>
       <c r="D35" s="11" t="s">
-        <v>1215</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="36" customHeight="1" spans="3:4">
       <c r="C36" s="10" t="s">
-        <v>1216</v>
+        <v>1227</v>
       </c>
       <c r="D36" s="11" t="s">
-        <v>1217</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="37" customHeight="1" spans="3:4">
       <c r="C37" s="10" t="s">
-        <v>1218</v>
+        <v>1229</v>
       </c>
       <c r="D37" s="11" t="s">
-        <v>1219</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="38" customHeight="1" spans="1:4">
       <c r="A38" s="8" t="s">
-        <v>1220</v>
+        <v>1231</v>
       </c>
       <c r="D38" s="11" t="s">
-        <v>1221</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="39" customHeight="1" spans="2:4">
       <c r="B39" s="9" t="s">
-        <v>1222</v>
+        <v>1233</v>
       </c>
       <c r="D39" s="11" t="s">
-        <v>1223</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="40" customHeight="1" spans="3:4">
       <c r="C40" s="10" t="s">
-        <v>1224</v>
+        <v>1235</v>
       </c>
       <c r="D40" s="11" t="s">
-        <v>1225</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="41" customHeight="1" spans="3:4">
       <c r="C41" s="10" t="s">
-        <v>1226</v>
+        <v>1237</v>
       </c>
       <c r="D41" s="11" t="s">
-        <v>1227</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="42" customHeight="1" spans="2:2">
       <c r="B42" s="10" t="s">
-        <v>1228</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="43" ht="66" spans="3:4">
       <c r="C43" s="10" t="s">
-        <v>1229</v>
+        <v>1240</v>
       </c>
       <c r="D43" s="11" t="s">
-        <v>1230</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="44" ht="33" spans="3:4">
       <c r="C44" s="10" t="s">
-        <v>612</v>
+        <v>623</v>
       </c>
       <c r="D44" s="11" t="s">
-        <v>1231</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="45" ht="148" customHeight="1" spans="3:4">
       <c r="C45" s="10" t="s">
-        <v>1232</v>
+        <v>1243</v>
       </c>
       <c r="D45" s="11" t="s">
-        <v>1233</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="46" customHeight="1" spans="3:4">
       <c r="C46" s="10" t="s">
-        <v>614</v>
+        <v>625</v>
       </c>
       <c r="D46" s="11" t="s">
-        <v>1234</v>
+        <v>1245</v>
       </c>
     </row>
     <row r="47" customHeight="1" spans="2:4">
       <c r="B47" s="9" t="s">
-        <v>1235</v>
+        <v>1246</v>
       </c>
       <c r="C47" s="10" t="s">
-        <v>1197</v>
+        <v>1208</v>
       </c>
       <c r="D47" s="11" t="s">
-        <v>1198</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="48" ht="120" customHeight="1" spans="3:4">
       <c r="C48" s="10" t="s">
-        <v>1229</v>
+        <v>1240</v>
       </c>
       <c r="D48" s="11" t="s">
-        <v>1236</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="49" ht="33" spans="3:4">
       <c r="C49" s="10" t="s">
-        <v>612</v>
+        <v>623</v>
       </c>
       <c r="D49" s="11" t="s">
-        <v>1237</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="50" ht="115.5" spans="3:4">
       <c r="C50" s="10" t="s">
-        <v>1232</v>
+        <v>1243</v>
       </c>
       <c r="D50" s="11" t="s">
-        <v>1238</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="51" customHeight="1" spans="3:4">
       <c r="C51" s="10" t="s">
-        <v>614</v>
+        <v>625</v>
       </c>
       <c r="D51" s="11" t="s">
-        <v>1239</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="52" ht="33" spans="2:4">
       <c r="B52" s="9" t="s">
-        <v>1240</v>
+        <v>1251</v>
       </c>
       <c r="C52" s="10" t="s">
-        <v>1197</v>
+        <v>1208</v>
       </c>
       <c r="D52" s="11" t="s">
-        <v>1241</v>
+        <v>1252</v>
       </c>
     </row>
     <row r="53" ht="33" spans="3:4">
       <c r="C53" s="10" t="s">
-        <v>1229</v>
+        <v>1240</v>
       </c>
       <c r="D53" s="11" t="s">
-        <v>1242</v>
+        <v>1253</v>
       </c>
     </row>
     <row r="54" ht="27" customHeight="1" spans="3:4">
       <c r="C54" s="10" t="s">
-        <v>612</v>
+        <v>623</v>
       </c>
       <c r="D54" s="11" t="s">
-        <v>1243</v>
+        <v>1254</v>
       </c>
     </row>
     <row r="55" ht="165" spans="3:4">
       <c r="C55" s="10" t="s">
-        <v>1232</v>
+        <v>1243</v>
       </c>
       <c r="D55" s="11" t="s">
-        <v>1244</v>
+        <v>1255</v>
       </c>
     </row>
     <row r="56" customHeight="1" spans="3:4">
       <c r="C56" s="10" t="s">
-        <v>614</v>
+        <v>625</v>
       </c>
       <c r="D56" s="11" t="s">
-        <v>1245</v>
+        <v>1256</v>
       </c>
     </row>
     <row r="57" customHeight="1" spans="1:1">
       <c r="A57" s="8" t="s">
-        <v>1246</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="58" ht="49.5" spans="2:4">
       <c r="B58" s="17" t="s">
-        <v>1247</v>
+        <v>1258</v>
       </c>
       <c r="C58" s="17"/>
       <c r="D58" s="11" t="s">
-        <v>1248</v>
+        <v>1259</v>
       </c>
     </row>
     <row r="59" ht="31" customHeight="1" spans="2:4">
       <c r="B59" s="18" t="s">
-        <v>1249</v>
+        <v>1260</v>
       </c>
       <c r="C59" s="18"/>
       <c r="D59" s="11" t="s">
-        <v>1250</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="60" ht="18" spans="2:4">
       <c r="B60" s="18" t="s">
-        <v>1251</v>
+        <v>1262</v>
       </c>
       <c r="C60" s="18"/>
       <c r="D60" s="11" t="s">
-        <v>1243</v>
+        <v>1254</v>
       </c>
     </row>
     <row r="61" ht="61" customHeight="1" spans="2:4">
       <c r="B61" s="18" t="s">
-        <v>1252</v>
+        <v>1263</v>
       </c>
       <c r="C61" s="18"/>
       <c r="D61" s="11" t="s">
-        <v>1253</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="62" ht="90" customHeight="1" spans="2:4">
       <c r="B62" s="18" t="s">
-        <v>1254</v>
+        <v>1265</v>
       </c>
       <c r="C62" s="18"/>
       <c r="D62" s="11" t="s">
-        <v>1255</v>
+        <v>1266</v>
       </c>
     </row>
     <row r="63" ht="181.5" spans="2:4">
       <c r="B63" s="19" t="s">
-        <v>1256</v>
+        <v>1267</v>
       </c>
       <c r="C63" s="19"/>
       <c r="D63" s="11" t="s">
-        <v>1257</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="64" ht="18" spans="2:4">
       <c r="B64" s="19"/>
       <c r="C64" s="19" t="s">
-        <v>1258</v>
+        <v>1269</v>
       </c>
       <c r="D64" s="11" t="s">
-        <v>1259</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="65" ht="33" spans="2:4">
       <c r="B65" s="19"/>
       <c r="C65" s="19" t="s">
-        <v>1260</v>
+        <v>1271</v>
       </c>
       <c r="D65" s="11" t="s">
-        <v>1261</v>
+        <v>1272</v>
       </c>
     </row>
     <row r="66" ht="18" spans="2:4">
       <c r="B66" s="19"/>
       <c r="C66" s="19" t="s">
-        <v>1262</v>
+        <v>1273</v>
       </c>
       <c r="D66" s="11" t="s">
-        <v>1263</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="67" ht="18" spans="2:4">
       <c r="B67" s="19"/>
       <c r="C67" s="19" t="s">
-        <v>1264</v>
+        <v>1275</v>
       </c>
       <c r="D67" s="11" t="s">
-        <v>1265</v>
+        <v>1276</v>
       </c>
     </row>
     <row r="68" ht="18" spans="2:4">
       <c r="B68" s="19"/>
       <c r="C68" s="19" t="s">
-        <v>1266</v>
+        <v>1277</v>
       </c>
       <c r="D68" s="11" t="s">
-        <v>1267</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="69" ht="18" spans="2:4">
       <c r="B69" s="19"/>
       <c r="C69" s="19" t="s">
-        <v>1268</v>
+        <v>1279</v>
       </c>
       <c r="D69" s="11" t="s">
-        <v>1269</v>
+        <v>1280</v>
       </c>
     </row>
     <row r="70" ht="56" customHeight="1" spans="2:3">
       <c r="B70" s="18" t="s">
-        <v>1270</v>
+        <v>1281</v>
       </c>
       <c r="C70" s="19"/>
     </row>
     <row r="71" ht="29" customHeight="1" spans="2:4">
       <c r="B71" s="19"/>
       <c r="C71" s="19" t="s">
-        <v>1271</v>
+        <v>1282</v>
       </c>
       <c r="D71" s="11" t="s">
-        <v>1272</v>
+        <v>1283</v>
       </c>
     </row>
     <row r="72" ht="29" customHeight="1" spans="2:4">
       <c r="B72" s="19"/>
       <c r="C72" s="19" t="s">
-        <v>1273</v>
+        <v>1284</v>
       </c>
       <c r="D72" s="11" t="s">
-        <v>1274</v>
+        <v>1285</v>
       </c>
     </row>
     <row r="73" ht="18" spans="2:3">
       <c r="B73" s="18" t="s">
-        <v>1275</v>
+        <v>1286</v>
       </c>
       <c r="C73" s="18"/>
     </row>
     <row r="74" customHeight="1" spans="1:4">
       <c r="A74" s="8" t="s">
-        <v>1276</v>
+        <v>1287</v>
       </c>
       <c r="D74" s="11" t="s">
-        <v>1277</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="75" ht="82.5" spans="2:4">
       <c r="B75" s="9" t="s">
-        <v>1278</v>
+        <v>1289</v>
       </c>
       <c r="C75" s="10" t="s">
-        <v>1279</v>
+        <v>1290</v>
       </c>
       <c r="D75" s="11" t="s">
-        <v>1280</v>
+        <v>1291</v>
       </c>
     </row>
     <row r="76" customHeight="1" spans="3:4">
       <c r="C76" s="10" t="s">
-        <v>1281</v>
+        <v>1292</v>
       </c>
       <c r="D76" s="11" t="s">
-        <v>1282</v>
+        <v>1293</v>
       </c>
     </row>
     <row r="77" customHeight="1" spans="2:3">
       <c r="B77" s="9" t="s">
-        <v>1283</v>
+        <v>1294</v>
       </c>
       <c r="C77" s="10" t="s">
-        <v>1279</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="78" customHeight="1" spans="3:3">
       <c r="C78" s="10" t="s">
-        <v>1281</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="79" customHeight="1" spans="1:1">
       <c r="A79" s="8" t="s">
-        <v>1284</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="80" ht="132" spans="2:4">
       <c r="B80" s="9" t="s">
-        <v>1285</v>
+        <v>1296</v>
       </c>
       <c r="C80" s="10" t="s">
-        <v>1286</v>
+        <v>1297</v>
       </c>
       <c r="D80" s="11" t="s">
-        <v>1287</v>
+        <v>1298</v>
       </c>
     </row>
     <row r="81" customHeight="1" spans="2:4">
       <c r="B81" s="9" t="s">
-        <v>1288</v>
+        <v>1299</v>
       </c>
       <c r="D81" s="11" t="s">
-        <v>1289</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="82" customHeight="1" spans="2:4">
       <c r="B82" s="9" t="s">
-        <v>1290</v>
+        <v>1301</v>
       </c>
       <c r="D82" s="11" t="s">
-        <v>1291</v>
+        <v>1302</v>
       </c>
     </row>
     <row r="83" customHeight="1" spans="2:4">
       <c r="B83" s="9" t="s">
-        <v>612</v>
+        <v>623</v>
       </c>
       <c r="D83" s="11" t="s">
-        <v>1292</v>
+        <v>1303</v>
       </c>
     </row>
     <row r="84" customHeight="1" spans="1:1">
       <c r="A84" s="8" t="s">
-        <v>1293</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="85" ht="18" spans="2:4">
       <c r="B85" s="9" t="s">
-        <v>975</v>
+        <v>986</v>
       </c>
       <c r="C85" s="10" t="s">
-        <v>1294</v>
+        <v>1305</v>
       </c>
       <c r="D85" s="119" t="s">
-        <v>1295</v>
+        <v>1306</v>
       </c>
     </row>
     <row r="86" customHeight="1" spans="2:4">
       <c r="B86" s="9" t="s">
-        <v>973</v>
+        <v>984</v>
       </c>
       <c r="C86" s="10" t="s">
-        <v>1296</v>
+        <v>1307</v>
       </c>
       <c r="D86" s="119" t="s">
-        <v>1297</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="87" customHeight="1" spans="2:4">
       <c r="B87" s="9" t="s">
-        <v>1298</v>
+        <v>1309</v>
       </c>
       <c r="C87" s="10" t="s">
-        <v>1299</v>
+        <v>1310</v>
       </c>
       <c r="D87" s="11" t="s">
-        <v>1300</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="88" customHeight="1" spans="3:4">
       <c r="C88" s="10" t="s">
-        <v>1301</v>
+        <v>1312</v>
       </c>
       <c r="D88" s="11" t="s">
-        <v>1302</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="89" customHeight="1" spans="3:4">
       <c r="C89" s="10" t="s">
-        <v>1303</v>
+        <v>1314</v>
       </c>
       <c r="D89" s="11" t="s">
-        <v>1304</v>
+        <v>1315</v>
       </c>
     </row>
     <row r="90" customHeight="1" spans="2:4">
       <c r="B90" s="9" t="s">
-        <v>979</v>
+        <v>990</v>
       </c>
       <c r="C90" s="10" t="s">
-        <v>1305</v>
+        <v>1316</v>
       </c>
       <c r="D90" s="11" t="s">
-        <v>1306</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="91" customHeight="1" spans="3:4">
       <c r="C91" s="10" t="s">
-        <v>1307</v>
+        <v>1318</v>
       </c>
       <c r="D91" s="11" t="s">
-        <v>1308</v>
+        <v>1319</v>
       </c>
     </row>
     <row r="92" customHeight="1" spans="3:4">
       <c r="C92" s="20" t="s">
-        <v>1309</v>
+        <v>1320</v>
       </c>
       <c r="D92" s="11" t="s">
-        <v>1310</v>
+        <v>1321</v>
       </c>
     </row>
     <row r="93" customHeight="1" spans="2:12">
       <c r="B93" s="8"/>
       <c r="C93" s="20" t="s">
-        <v>1311</v>
+        <v>1322</v>
       </c>
       <c r="D93" s="14" t="s">
-        <v>1312</v>
+        <v>1323</v>
       </c>
       <c r="E93" s="22"/>
       <c r="L93" s="12"/>
@@ -19320,400 +19425,400 @@
     <row r="94" customHeight="1" spans="2:12">
       <c r="B94" s="8"/>
       <c r="C94" s="20" t="s">
-        <v>1313</v>
+        <v>1324</v>
       </c>
       <c r="D94" s="14" t="s">
-        <v>1314</v>
+        <v>1325</v>
       </c>
       <c r="E94" s="22"/>
       <c r="L94" s="12"/>
     </row>
     <row r="95" ht="33" spans="2:4">
       <c r="B95" s="9" t="s">
-        <v>1315</v>
+        <v>1326</v>
       </c>
       <c r="C95" s="21" t="s">
-        <v>1316</v>
+        <v>1327</v>
       </c>
       <c r="D95" s="11" t="s">
-        <v>1317</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="97" customHeight="1" spans="2:4">
       <c r="B97" s="9" t="s">
-        <v>1318</v>
+        <v>1329</v>
       </c>
       <c r="D97" s="11" t="s">
-        <v>1319</v>
+        <v>1330</v>
       </c>
     </row>
     <row r="98" customHeight="1" spans="2:4">
       <c r="B98" s="9" t="s">
-        <v>1320</v>
+        <v>1331</v>
       </c>
       <c r="C98" s="10" t="s">
-        <v>1321</v>
+        <v>1332</v>
       </c>
       <c r="D98" s="11" t="s">
-        <v>1322</v>
+        <v>1333</v>
       </c>
     </row>
     <row r="99" customHeight="1" spans="2:4">
       <c r="B99" s="9" t="s">
-        <v>1323</v>
+        <v>1334</v>
       </c>
       <c r="C99" s="10" t="s">
-        <v>1324</v>
+        <v>1335</v>
       </c>
       <c r="D99" s="11" t="s">
-        <v>1325</v>
+        <v>1336</v>
       </c>
     </row>
     <row r="100" customHeight="1" spans="3:4">
       <c r="C100" s="10" t="s">
-        <v>1326</v>
+        <v>1337</v>
       </c>
       <c r="D100" s="11" t="s">
-        <v>1327</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="101" customHeight="1" spans="3:4">
       <c r="C101" s="10" t="s">
-        <v>1328</v>
+        <v>1339</v>
       </c>
       <c r="D101" s="11" t="s">
-        <v>1329</v>
+        <v>1340</v>
       </c>
     </row>
     <row r="102" customHeight="1" spans="3:4">
       <c r="C102" s="10" t="s">
-        <v>1330</v>
+        <v>1341</v>
       </c>
       <c r="D102" s="11" t="s">
-        <v>1331</v>
+        <v>1342</v>
       </c>
     </row>
     <row r="103" customHeight="1" spans="3:4">
       <c r="C103" s="10" t="s">
-        <v>1332</v>
+        <v>1343</v>
       </c>
       <c r="D103" s="11" t="s">
-        <v>1333</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="104" customHeight="1" spans="2:3">
       <c r="B104" s="9" t="s">
-        <v>1334</v>
+        <v>1345</v>
       </c>
       <c r="C104" s="10" t="s">
-        <v>1335</v>
+        <v>1346</v>
       </c>
     </row>
     <row r="105" customHeight="1" spans="2:3">
       <c r="B105" s="9" t="s">
-        <v>1336</v>
+        <v>1347</v>
       </c>
       <c r="C105" s="10" t="s">
-        <v>1337</v>
+        <v>1348</v>
       </c>
     </row>
     <row r="106" customHeight="1" spans="2:4">
       <c r="B106" s="9" t="s">
-        <v>1338</v>
+        <v>1349</v>
       </c>
       <c r="C106" s="10" t="s">
-        <v>1339</v>
+        <v>1350</v>
       </c>
       <c r="D106" s="11" t="s">
-        <v>1340</v>
+        <v>1351</v>
       </c>
     </row>
     <row r="107" customHeight="1" spans="2:4">
       <c r="B107" s="9" t="s">
-        <v>1341</v>
+        <v>1352</v>
       </c>
       <c r="C107" s="10" t="s">
-        <v>1342</v>
+        <v>1353</v>
       </c>
       <c r="D107" s="11" t="s">
-        <v>1343</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="108" customHeight="1" spans="3:4">
       <c r="C108" s="10" t="s">
-        <v>1344</v>
+        <v>1355</v>
       </c>
       <c r="D108" s="11" t="s">
-        <v>1345</v>
+        <v>1356</v>
       </c>
     </row>
     <row r="109" customHeight="1" spans="3:4">
       <c r="C109" s="10" t="s">
-        <v>1346</v>
+        <v>1357</v>
       </c>
       <c r="D109" s="11" t="s">
-        <v>1347</v>
+        <v>1358</v>
       </c>
     </row>
     <row r="111" customHeight="1" spans="1:1">
       <c r="A111" s="8" t="s">
-        <v>1348</v>
+        <v>1359</v>
       </c>
     </row>
     <row r="112" customHeight="1" spans="2:2">
       <c r="B112" s="9" t="s">
-        <v>1349</v>
+        <v>1360</v>
       </c>
     </row>
     <row r="113" customHeight="1" spans="3:4">
       <c r="C113" s="20" t="s">
-        <v>1197</v>
+        <v>1208</v>
       </c>
       <c r="D113" s="11" t="s">
-        <v>1350</v>
+        <v>1361</v>
       </c>
     </row>
     <row r="114" customHeight="1" spans="3:4">
       <c r="C114" s="20" t="s">
-        <v>989</v>
+        <v>1000</v>
       </c>
       <c r="D114" s="11" t="s">
-        <v>1351</v>
+        <v>1362</v>
       </c>
     </row>
     <row r="115" customHeight="1" spans="2:2">
       <c r="B115" s="9" t="s">
-        <v>1352</v>
+        <v>1363</v>
       </c>
     </row>
     <row r="116" customHeight="1" spans="3:3">
       <c r="C116" s="10" t="s">
-        <v>1353</v>
+        <v>1364</v>
       </c>
     </row>
     <row r="117" customHeight="1" spans="3:4">
       <c r="C117" s="10" t="s">
-        <v>1354</v>
+        <v>1365</v>
       </c>
       <c r="D117" s="11" t="s">
-        <v>1355</v>
+        <v>1366</v>
       </c>
     </row>
     <row r="118" customHeight="1" spans="2:2">
       <c r="B118" s="9" t="s">
-        <v>1348</v>
+        <v>1359</v>
       </c>
     </row>
     <row r="119" customHeight="1" spans="3:3">
       <c r="C119" s="10" t="s">
-        <v>1353</v>
+        <v>1364</v>
       </c>
     </row>
     <row r="120" customHeight="1" spans="3:4">
       <c r="C120" s="10" t="s">
-        <v>1354</v>
+        <v>1365</v>
       </c>
       <c r="D120" s="11" t="s">
-        <v>1356</v>
+        <v>1367</v>
       </c>
     </row>
     <row r="121" customHeight="1" spans="2:4">
       <c r="B121" s="9" t="s">
-        <v>1348</v>
+        <v>1359</v>
       </c>
       <c r="C121" s="10" t="s">
-        <v>1354</v>
+        <v>1365</v>
       </c>
       <c r="D121" s="11" t="s">
-        <v>1357</v>
+        <v>1368</v>
       </c>
     </row>
     <row r="122" customHeight="1" spans="2:4">
       <c r="B122" s="9" t="s">
-        <v>1358</v>
+        <v>1369</v>
       </c>
       <c r="C122" s="10" t="s">
-        <v>1359</v>
+        <v>1370</v>
       </c>
       <c r="D122" s="11" t="s">
-        <v>1360</v>
+        <v>1371</v>
       </c>
     </row>
     <row r="123" customHeight="1" spans="3:4">
       <c r="C123" s="10" t="s">
-        <v>1361</v>
+        <v>1372</v>
       </c>
       <c r="D123" s="11" t="s">
-        <v>1362</v>
+        <v>1373</v>
       </c>
     </row>
     <row r="125" customHeight="1" spans="1:1">
       <c r="A125" s="8" t="s">
-        <v>1363</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="126" customHeight="1" spans="2:2">
       <c r="B126" s="9" t="s">
-        <v>1364</v>
+        <v>1375</v>
       </c>
     </row>
     <row r="127" customHeight="1" spans="2:2">
       <c r="B127" s="9" t="s">
-        <v>1365</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="128" customHeight="1" spans="1:1">
       <c r="A128" s="8" t="s">
-        <v>1366</v>
+        <v>1377</v>
       </c>
     </row>
     <row r="129" customHeight="1" spans="2:2">
       <c r="B129" s="9" t="s">
-        <v>1367</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="130" ht="115.5" spans="3:4">
       <c r="C130" s="10" t="s">
-        <v>1368</v>
+        <v>1379</v>
       </c>
       <c r="D130" s="11" t="s">
-        <v>1369</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="131" customHeight="1" spans="3:4">
       <c r="C131" s="10" t="s">
-        <v>1370</v>
+        <v>1381</v>
       </c>
       <c r="D131" s="11" t="s">
-        <v>1371</v>
+        <v>1382</v>
       </c>
     </row>
     <row r="132" ht="33" spans="2:4">
       <c r="B132" s="9" t="s">
-        <v>1372</v>
+        <v>1383</v>
       </c>
       <c r="D132" s="23" t="s">
-        <v>1373</v>
+        <v>1384</v>
       </c>
     </row>
     <row r="133" ht="33" spans="2:4">
       <c r="B133" s="9" t="s">
-        <v>1374</v>
+        <v>1385</v>
       </c>
       <c r="C133" s="10" t="s">
-        <v>1071</v>
+        <v>1082</v>
       </c>
       <c r="D133" s="11" t="s">
-        <v>1375</v>
+        <v>1386</v>
       </c>
     </row>
     <row r="134" customHeight="1" spans="2:4">
       <c r="B134" s="9" t="s">
-        <v>1376</v>
+        <v>1387</v>
       </c>
       <c r="C134" s="10" t="s">
-        <v>1071</v>
+        <v>1082</v>
       </c>
       <c r="D134" s="11" t="s">
-        <v>1377</v>
+        <v>1388</v>
       </c>
     </row>
     <row r="135" ht="49.5" spans="3:4">
       <c r="C135" s="10" t="s">
-        <v>1378</v>
+        <v>1389</v>
       </c>
       <c r="D135" s="11" t="s">
-        <v>1379</v>
+        <v>1390</v>
       </c>
     </row>
     <row r="136" customHeight="1" spans="2:2">
       <c r="B136" s="9" t="s">
-        <v>1380</v>
+        <v>1391</v>
       </c>
     </row>
     <row r="138" customHeight="1" spans="2:2">
       <c r="B138" s="9" t="s">
-        <v>1381</v>
+        <v>1392</v>
       </c>
     </row>
     <row r="141" customHeight="1" spans="1:1">
       <c r="A141" s="8" t="s">
-        <v>1382</v>
+        <v>1393</v>
       </c>
     </row>
     <row r="142" customHeight="1" spans="2:3">
       <c r="B142" s="9" t="s">
-        <v>1383</v>
+        <v>1394</v>
       </c>
       <c r="C142" s="10" t="s">
-        <v>1384</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="143" customHeight="1" spans="2:4">
       <c r="B143" s="24" t="s">
-        <v>1385</v>
+        <v>1396</v>
       </c>
       <c r="C143" s="10" t="s">
-        <v>1386</v>
+        <v>1397</v>
       </c>
       <c r="D143" s="11" t="s">
-        <v>1387</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="144" customHeight="1" spans="3:4">
       <c r="C144" s="10" t="s">
-        <v>1388</v>
+        <v>1399</v>
       </c>
       <c r="D144" s="11" t="s">
-        <v>1389</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="145" customHeight="1" spans="2:2">
       <c r="B145" s="9" t="s">
-        <v>1390</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="146" customHeight="1" spans="3:4">
       <c r="C146" s="10" t="s">
-        <v>1391</v>
+        <v>1402</v>
       </c>
       <c r="D146" s="11" t="s">
-        <v>1392</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="147" customHeight="1" spans="2:2">
       <c r="B147" s="9" t="s">
-        <v>1393</v>
+        <v>1404</v>
       </c>
     </row>
     <row r="148" customHeight="1" spans="3:3">
       <c r="C148" s="10" t="s">
-        <v>1391</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="155" customHeight="1" spans="1:1">
       <c r="A155" s="8" t="s">
-        <v>1394</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="160" customHeight="1" spans="1:1">
       <c r="A160" s="8" t="s">
-        <v>1395</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="165" customHeight="1" spans="1:1">
       <c r="A165" s="8" t="s">
-        <v>1396</v>
+        <v>1407</v>
       </c>
     </row>
     <row r="170" customHeight="1" spans="1:1">
       <c r="A170" s="8" t="s">
-        <v>1397</v>
+        <v>1408</v>
       </c>
     </row>
     <row r="174" customHeight="1" spans="1:1">
       <c r="A174" s="8" t="s">
-        <v>1398</v>
+        <v>1409</v>
       </c>
     </row>
   </sheetData>

--- a/linux.xlsx
+++ b/linux.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20385" windowHeight="7950" activeTab="1"/>
+    <workbookView windowWidth="20385" windowHeight="7950" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="目录" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1428">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1419">
   <si>
     <t>ab</t>
   </si>
@@ -1560,6 +1560,12 @@
   </si>
   <si>
     <t>将页面连接地址转换为本地地址</t>
+  </si>
+  <si>
+    <t>git</t>
+  </si>
+  <si>
+    <t>版本控制系统</t>
   </si>
   <si>
     <t>NTP时间同步</t>
@@ -6506,48 +6512,15 @@
 [root@web1 ~]# rpmbuild -ba /root/rpmbuild/SPECS/nginx.spec
 [root@web1 ~]# ls /root/rpmbuild/RPMS/x86_64/nginx-1.12.2-10.x86_64.rpm</t>
   </si>
-  <si>
-    <t>Nosql</t>
-  </si>
-  <si>
-    <t>泛指非关系性数据库</t>
-  </si>
-  <si>
-    <t>搭建redis服务器</t>
-  </si>
-  <si>
-    <t>www.redis.cn</t>
-  </si>
-  <si>
-    <t>使用C语言编写支持数据的持久化，可以把数据保存在硬盘中，支持主从同步，高性能的分布式内存数据库</t>
-  </si>
-  <si>
-    <t>源码包直接解压make编译安装，在解压目录下utils目录下的install_server.sh用来初始化 /etc/init.d/redis_6379 启动程序</t>
-  </si>
-  <si>
-    <t>redis-cli</t>
-  </si>
-  <si>
-    <t>常用管理命令</t>
-  </si>
-  <si>
-    <t>配置文件解析</t>
-  </si>
-  <si>
-    <t>/etc/redis/6379.conf</t>
-  </si>
-  <si>
-    <t>lnmp+redis</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="63">
@@ -6845,14 +6818,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -6861,25 +6826,10 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -6891,8 +6841,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6906,8 +6857,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6922,15 +6882,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6945,6 +6904,20 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -6952,15 +6925,15 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6999,7 +6972,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7011,19 +6984,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7035,79 +7020,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7125,13 +7062,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7143,7 +7080,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7155,31 +7116,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7190,15 +7163,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -7222,6 +7186,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -7276,17 +7255,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -7295,94 +7268,94 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="43" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="42" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="43" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="54" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="59" fillId="31" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="42" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="52" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="48" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="47" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="42" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="55" fillId="25" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="56" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="59" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="58" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="42" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -7391,49 +7364,49 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="42" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="43" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="42" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="57" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -8147,7 +8120,7 @@
   <sheetData>
     <row r="1" ht="198" spans="1:1">
       <c r="A1" s="7" t="s">
-        <v>1410</v>
+        <v>1412</v>
       </c>
     </row>
     <row r="2" ht="23" customHeight="1"/>
@@ -8204,32 +8177,32 @@
   <sheetData>
     <row r="1" ht="72" spans="1:1">
       <c r="A1" s="6" t="s">
-        <v>1411</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="2" ht="72" spans="1:1">
       <c r="A2" s="6" t="s">
-        <v>1412</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="3" ht="36" spans="1:1">
       <c r="A3" s="6" t="s">
-        <v>1413</v>
+        <v>1415</v>
       </c>
     </row>
     <row r="4" ht="409.5" spans="1:1">
       <c r="A4" s="6" t="s">
-        <v>1414</v>
+        <v>1416</v>
       </c>
     </row>
     <row r="6" ht="72" spans="1:1">
       <c r="A6" s="6" t="s">
-        <v>1415</v>
+        <v>1417</v>
       </c>
     </row>
     <row r="7" ht="54" spans="1:1">
       <c r="A7" s="6" t="s">
-        <v>1416</v>
+        <v>1418</v>
       </c>
     </row>
   </sheetData>
@@ -8241,84 +8214,23 @@
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:C19"/>
+  <dimension ref="C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="20.25" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="20.25" outlineLevelRow="2" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="25.75" style="1" customWidth="1"/>
     <col min="2" max="2" width="14.125" style="2" customWidth="1"/>
     <col min="3" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" s="1" t="s">
-        <v>1417</v>
-      </c>
-    </row>
-    <row r="2" spans="2:2">
-      <c r="B2" s="2" t="s">
-        <v>1418</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="1" t="s">
-        <v>1419</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>1420</v>
-      </c>
-    </row>
-    <row r="4" spans="3:3">
-      <c r="C4" s="3" t="s">
-        <v>1421</v>
-      </c>
-    </row>
-    <row r="5" spans="2:2">
-      <c r="B5" s="2" t="s">
-        <v>1176</v>
-      </c>
-    </row>
-    <row r="6" spans="3:3">
-      <c r="C6" s="3" t="s">
-        <v>1422</v>
-      </c>
-    </row>
-    <row r="7" spans="2:2">
-      <c r="B7" s="2" t="s">
-        <v>1423</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1">
-      <c r="A8" s="1" t="s">
-        <v>1424</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" s="1" t="s">
-        <v>1425</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>1426</v>
-      </c>
-    </row>
-    <row r="16" spans="2:2">
-      <c r="B16" s="2" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1">
-      <c r="A19" s="1" t="s">
-        <v>1427</v>
-      </c>
+    <row r="3" spans="3:3">
+      <c r="C3" s="4"/>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="C3" r:id="rId1" display="www.redis.cn"/>
-  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
 </worksheet>
@@ -8327,10 +8239,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:I383"/>
+  <dimension ref="A1:I385"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A367" workbookViewId="0">
-      <selection activeCell="C379" sqref="C379"/>
+    <sheetView tabSelected="1" topLeftCell="A377" workbookViewId="0">
+      <selection activeCell="A388" sqref="A388"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20.25"/>
@@ -10923,6 +10835,14 @@
       </c>
       <c r="C383" s="109" t="s">
         <v>501</v>
+      </c>
+    </row>
+    <row r="385" spans="1:3">
+      <c r="A385" s="107" t="s">
+        <v>502</v>
+      </c>
+      <c r="C385" s="109" t="s">
+        <v>503</v>
       </c>
     </row>
   </sheetData>
@@ -10958,15 +10878,15 @@
   <sheetData>
     <row r="1" ht="25" customHeight="1" spans="1:3">
       <c r="A1" s="96" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="C1" s="98" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
     </row>
     <row r="2" spans="2:7">
       <c r="B2" s="99" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="C2" s="100"/>
       <c r="D2" s="100"/>
@@ -10976,47 +10896,47 @@
     </row>
     <row r="3" spans="2:2">
       <c r="B3" s="101" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
     </row>
     <row r="4" ht="20" customHeight="1" spans="3:3">
       <c r="C4" s="102" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
     </row>
     <row r="5" ht="48" customHeight="1" spans="3:3">
       <c r="C5" s="103" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
     </row>
     <row r="6" ht="20" customHeight="1" spans="3:3">
       <c r="C6" s="102" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
     </row>
     <row r="7" ht="58" customHeight="1" spans="3:3">
       <c r="C7" s="103" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
     </row>
     <row r="8" ht="21" customHeight="1" spans="3:3">
       <c r="C8" s="102" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
     </row>
     <row r="9" ht="33" customHeight="1" spans="3:3">
       <c r="C9" s="103" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
     </row>
     <row r="10" ht="21" customHeight="1" spans="3:3">
       <c r="C10" s="102" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
     </row>
     <row r="11" ht="43" customHeight="1" spans="3:3">
       <c r="C11" s="103" t="s">
-        <v>513</v>
+        <v>515</v>
       </c>
     </row>
     <row r="12" ht="24" customHeight="1" spans="3:3">
@@ -11024,12 +10944,12 @@
     </row>
     <row r="13" ht="25" customHeight="1" spans="1:1">
       <c r="A13" s="96" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
     </row>
     <row r="14" ht="50" customHeight="1" spans="2:7">
       <c r="B14" s="104" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="C14" s="45"/>
       <c r="D14" s="45"/>
@@ -11039,7 +10959,7 @@
     </row>
     <row r="15" ht="50" customHeight="1" spans="2:7">
       <c r="B15" s="104" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="C15" s="45"/>
       <c r="D15" s="45"/>
@@ -11049,15 +10969,15 @@
     </row>
     <row r="16" ht="25" customHeight="1" spans="1:3">
       <c r="A16" s="96" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="C16" s="98" t="s">
-        <v>518</v>
+        <v>520</v>
       </c>
     </row>
     <row r="17" ht="51" customHeight="1" spans="2:7">
       <c r="B17" s="104" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="C17" s="45"/>
       <c r="D17" s="45"/>
@@ -11067,7 +10987,7 @@
     </row>
     <row r="18" ht="40" customHeight="1" spans="2:7">
       <c r="B18" s="104" t="s">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="C18" s="45"/>
       <c r="D18" s="45"/>
@@ -11077,7 +10997,7 @@
     </row>
     <row r="19" spans="2:7">
       <c r="B19" s="99" t="s">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="C19" s="100"/>
       <c r="D19" s="100"/>
@@ -11087,7 +11007,7 @@
     </row>
     <row r="20" spans="2:7">
       <c r="B20" s="99" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="C20" s="100"/>
       <c r="D20" s="100"/>
@@ -11097,11 +11017,11 @@
     </row>
     <row r="22" ht="22" customHeight="1" spans="1:7">
       <c r="A22" s="96" t="s">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="B22"/>
       <c r="C22" s="105" t="s">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="D22"/>
       <c r="E22"/>
@@ -11111,7 +11031,7 @@
     <row r="23" ht="90" customHeight="1" spans="2:7">
       <c r="B23"/>
       <c r="C23" s="106" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="D23"/>
       <c r="E23"/>
@@ -11158,13 +11078,13 @@
   <sheetData>
     <row r="1" spans="1:14">
       <c r="A1" s="68" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="B1" s="72" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="C1" s="73" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="D1" s="73"/>
       <c r="E1" s="73"/>
@@ -11180,17 +11100,17 @@
     </row>
     <row r="2" spans="2:2">
       <c r="B2" s="69" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="68" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
     </row>
     <row r="5" spans="2:14">
       <c r="B5" s="74" t="s">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="C5" s="73"/>
       <c r="D5" s="73"/>
@@ -11207,7 +11127,7 @@
     </row>
     <row r="6" spans="2:14">
       <c r="B6" s="74" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="C6" s="73"/>
       <c r="D6" s="73"/>
@@ -11224,7 +11144,7 @@
     </row>
     <row r="7" spans="2:14">
       <c r="B7" s="74" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="C7" s="73"/>
       <c r="D7" s="73"/>
@@ -11241,7 +11161,7 @@
     </row>
     <row r="8" spans="2:14">
       <c r="B8" s="75" t="s">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="C8" s="76"/>
       <c r="D8" s="76"/>
@@ -11258,10 +11178,10 @@
     </row>
     <row r="9" spans="2:14">
       <c r="B9" s="77" t="s">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="C9" s="40" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="D9" s="40"/>
       <c r="E9" s="40"/>
@@ -11277,7 +11197,7 @@
     </row>
     <row r="10" spans="2:14">
       <c r="B10" s="74" t="s">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="C10" s="73"/>
       <c r="D10" s="73"/>
@@ -11295,7 +11215,7 @@
     <row r="11" spans="2:14">
       <c r="B11" s="74"/>
       <c r="C11" s="73" t="s">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="D11" s="73"/>
       <c r="E11" s="73"/>
@@ -11311,7 +11231,7 @@
     </row>
     <row r="12" spans="2:14">
       <c r="B12" s="74" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="C12" s="73"/>
       <c r="D12" s="73"/>
@@ -11329,7 +11249,7 @@
     <row r="13" ht="39" customHeight="1" spans="2:14">
       <c r="B13" s="74"/>
       <c r="C13" s="116" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="D13" s="73"/>
       <c r="E13" s="73"/>
@@ -11345,10 +11265,10 @@
     </row>
     <row r="14" ht="42" customHeight="1" spans="2:14">
       <c r="B14" s="74" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="C14" s="78" t="s">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="D14" s="78"/>
       <c r="E14" s="78"/>
@@ -11364,13 +11284,13 @@
     </row>
     <row r="16" ht="34" customHeight="1" spans="1:14">
       <c r="A16" s="68" t="s">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="B16" s="79" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="C16" s="80" t="s">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="D16" s="73"/>
       <c r="E16" s="73"/>
@@ -11386,7 +11306,7 @@
     </row>
     <row r="17" ht="39" customHeight="1" spans="2:14">
       <c r="B17" s="77" t="s">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="C17" s="78"/>
       <c r="D17" s="78"/>
@@ -11403,12 +11323,12 @@
     </row>
     <row r="18" spans="2:2">
       <c r="B18" s="79" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
     </row>
     <row r="19" ht="79" customHeight="1" spans="3:14">
       <c r="C19" s="78" t="s">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="D19" s="78"/>
       <c r="E19" s="78"/>
@@ -11424,12 +11344,12 @@
     </row>
     <row r="20" ht="25" customHeight="1" spans="2:2">
       <c r="B20" s="79" t="s">
-        <v>549</v>
+        <v>551</v>
       </c>
     </row>
     <row r="21" ht="58" customHeight="1" spans="3:14">
       <c r="C21" s="78" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="D21" s="78"/>
       <c r="E21" s="78"/>
@@ -11445,12 +11365,12 @@
     </row>
     <row r="22" spans="2:2">
       <c r="B22" s="79" t="s">
-        <v>551</v>
+        <v>553</v>
       </c>
     </row>
     <row r="23" ht="78" customHeight="1" spans="3:14">
       <c r="C23" s="78" t="s">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="D23" s="78"/>
       <c r="E23" s="78"/>
@@ -11466,7 +11386,7 @@
     </row>
     <row r="24" spans="2:14">
       <c r="B24" s="74" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="C24" s="73"/>
       <c r="D24" s="73"/>
@@ -11483,7 +11403,7 @@
     </row>
     <row r="25" spans="2:14">
       <c r="B25" s="74" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="C25" s="74"/>
       <c r="D25" s="74"/>
@@ -11560,18 +11480,18 @@
     </row>
     <row r="30" ht="19" customHeight="1" spans="1:3">
       <c r="A30" s="68" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="B30" s="79" t="s">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="C30" s="81" t="s">
-        <v>557</v>
+        <v>559</v>
       </c>
     </row>
     <row r="31" ht="71" customHeight="1" spans="2:15">
       <c r="B31" s="82" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="C31" s="82"/>
       <c r="D31" s="82"/>
@@ -11589,7 +11509,7 @@
     </row>
     <row r="32" spans="2:14">
       <c r="B32" s="83" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="C32" s="84"/>
       <c r="D32" s="84"/>
@@ -11606,12 +11526,12 @@
     </row>
     <row r="34" spans="1:1">
       <c r="A34" s="68" t="s">
-        <v>560</v>
+        <v>562</v>
       </c>
     </row>
     <row r="35" ht="60" customHeight="1" spans="2:15">
       <c r="B35" s="77" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="C35" s="78"/>
       <c r="D35" s="78"/>
@@ -11629,7 +11549,7 @@
     </row>
     <row r="36" ht="55" customHeight="1" spans="2:15">
       <c r="B36" s="77" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="C36" s="78"/>
       <c r="D36" s="78"/>
@@ -11647,7 +11567,7 @@
     </row>
     <row r="37" ht="20" customHeight="1" spans="2:15">
       <c r="B37" s="74" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="C37" s="73"/>
       <c r="D37" s="73"/>
@@ -11665,17 +11585,17 @@
     </row>
     <row r="38" ht="21" customHeight="1" spans="2:3">
       <c r="B38" s="85" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="C38" s="81"/>
     </row>
     <row r="39" ht="54" customHeight="1" spans="2:14">
       <c r="B39" s="85"/>
       <c r="C39" s="81" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="D39" s="78" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="E39" s="78"/>
       <c r="F39" s="78"/>
@@ -11691,16 +11611,16 @@
     <row r="40" ht="21" customHeight="1" spans="2:3">
       <c r="B40" s="85"/>
       <c r="C40" s="81" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
     </row>
     <row r="41" ht="72" customHeight="1" spans="2:14">
       <c r="B41" s="85"/>
       <c r="C41" s="81" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="D41" s="78" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
       <c r="E41" s="78"/>
       <c r="F41" s="78"/>
@@ -11716,10 +11636,10 @@
     <row r="42" ht="39" customHeight="1" spans="2:14">
       <c r="B42" s="85"/>
       <c r="C42" s="81" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="D42" s="78" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="E42" s="73"/>
       <c r="F42" s="73"/>
@@ -11735,7 +11655,7 @@
     <row r="43" ht="21" customHeight="1" spans="2:4">
       <c r="B43" s="85"/>
       <c r="C43" s="81" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
       <c r="D43" s="81"/>
     </row>
@@ -11743,7 +11663,7 @@
       <c r="B44" s="85"/>
       <c r="C44" s="81"/>
       <c r="D44" s="80" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="E44" s="78"/>
       <c r="F44" s="78"/>
@@ -11760,7 +11680,7 @@
       <c r="B45" s="85"/>
       <c r="C45" s="81"/>
       <c r="D45" s="86" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="E45" s="86"/>
       <c r="F45" s="86"/>
@@ -11775,7 +11695,7 @@
     </row>
     <row r="46" spans="2:15">
       <c r="B46" s="74" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
       <c r="C46" s="73"/>
       <c r="D46" s="73"/>
@@ -11793,11 +11713,11 @@
     </row>
     <row r="47" spans="2:14">
       <c r="B47" s="74" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="C47" s="73"/>
       <c r="D47" s="73" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
       <c r="E47" s="73"/>
       <c r="F47" s="73"/>
@@ -11812,12 +11732,12 @@
     </row>
     <row r="49" spans="1:1">
       <c r="A49" s="68" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="50" ht="81" customHeight="1" spans="2:14">
       <c r="B50" s="77" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="C50" s="78"/>
       <c r="D50" s="78"/>
@@ -11834,12 +11754,12 @@
     </row>
     <row r="51" spans="2:2">
       <c r="B51" s="79" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
     </row>
     <row r="52" ht="33" customHeight="1" spans="3:14">
       <c r="C52" s="78" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="D52" s="78"/>
       <c r="E52" s="78"/>
@@ -11855,12 +11775,12 @@
     </row>
     <row r="53" spans="2:2">
       <c r="B53" s="79" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
     </row>
     <row r="54" ht="36" customHeight="1" spans="3:14">
       <c r="C54" s="78" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
       <c r="D54" s="78"/>
       <c r="E54" s="78"/>
@@ -11876,7 +11796,7 @@
     </row>
     <row r="55" ht="19" customHeight="1" spans="2:14">
       <c r="B55" s="79" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="C55" s="78"/>
       <c r="D55" s="78"/>
@@ -11893,7 +11813,7 @@
     </row>
     <row r="56" ht="103" customHeight="1" spans="3:14">
       <c r="C56" s="78" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
       <c r="D56" s="78"/>
       <c r="E56" s="78"/>
@@ -11909,7 +11829,7 @@
     </row>
     <row r="57" ht="23" customHeight="1" spans="2:14">
       <c r="B57" s="79" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
       <c r="C57" s="78"/>
       <c r="D57" s="78"/>
@@ -11926,7 +11846,7 @@
     </row>
     <row r="58" ht="41" customHeight="1" spans="3:14">
       <c r="C58" s="78" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
       <c r="D58" s="78"/>
       <c r="E58" s="78"/>
@@ -11942,7 +11862,7 @@
     </row>
     <row r="59" ht="23" customHeight="1" spans="2:14">
       <c r="B59" s="79" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
       <c r="C59" s="78"/>
       <c r="D59" s="78"/>
@@ -11959,7 +11879,7 @@
     </row>
     <row r="60" ht="57" customHeight="1" spans="3:14">
       <c r="C60" s="78" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
       <c r="D60" s="78"/>
       <c r="E60" s="78"/>
@@ -11975,11 +11895,11 @@
     </row>
     <row r="61" ht="27" customHeight="1" spans="2:14">
       <c r="B61" s="79" t="s">
-        <v>590</v>
+        <v>592</v>
       </c>
       <c r="C61" s="78"/>
       <c r="D61" s="78" t="s">
-        <v>591</v>
+        <v>593</v>
       </c>
       <c r="E61" s="78"/>
       <c r="F61" s="78"/>
@@ -11994,7 +11914,7 @@
     </row>
     <row r="62" ht="41" customHeight="1" spans="3:14">
       <c r="C62" s="78" t="s">
-        <v>592</v>
+        <v>594</v>
       </c>
       <c r="D62" s="78"/>
       <c r="E62" s="78"/>
@@ -12010,10 +11930,10 @@
     </row>
     <row r="63" ht="26" customHeight="1" spans="2:14">
       <c r="B63" s="79" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="C63" s="78" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
       <c r="D63" s="78"/>
       <c r="E63" s="78"/>
@@ -12029,7 +11949,7 @@
     </row>
     <row r="64" ht="25" customHeight="1" spans="2:14">
       <c r="B64" s="79" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
       <c r="C64" s="78"/>
       <c r="D64" s="78"/>
@@ -12047,10 +11967,10 @@
     <row r="65" ht="25" customHeight="1" spans="2:14">
       <c r="B65" s="79"/>
       <c r="C65" s="86" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="D65" s="78" t="s">
-        <v>597</v>
+        <v>599</v>
       </c>
       <c r="E65" s="78"/>
       <c r="F65" s="78"/>
@@ -12066,10 +11986,10 @@
     <row r="66" ht="25" customHeight="1" spans="2:14">
       <c r="B66" s="79"/>
       <c r="C66" s="90" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="D66" s="78" t="s">
-        <v>599</v>
+        <v>601</v>
       </c>
       <c r="E66" s="78"/>
       <c r="F66" s="78"/>
@@ -12086,7 +12006,7 @@
       <c r="B67" s="79"/>
       <c r="C67" s="78"/>
       <c r="D67" s="78" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="E67" s="78"/>
       <c r="F67" s="78"/>
@@ -12115,12 +12035,12 @@
     </row>
     <row r="70" spans="1:1">
       <c r="A70" s="68" t="s">
-        <v>601</v>
+        <v>603</v>
       </c>
     </row>
     <row r="71" ht="54" customHeight="1" spans="2:14">
       <c r="B71" s="77" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="C71" s="73"/>
       <c r="D71" s="73"/>
@@ -12138,7 +12058,7 @@
     <row r="72" ht="26" customHeight="1" spans="2:14">
       <c r="B72" s="77"/>
       <c r="C72" s="73" t="s">
-        <v>603</v>
+        <v>605</v>
       </c>
       <c r="D72" s="73"/>
       <c r="E72" s="73"/>
@@ -12155,7 +12075,7 @@
     <row r="73" ht="25" customHeight="1" spans="2:14">
       <c r="B73" s="77"/>
       <c r="C73" s="73" t="s">
-        <v>604</v>
+        <v>606</v>
       </c>
       <c r="D73" s="73"/>
       <c r="E73" s="73"/>
@@ -12172,7 +12092,7 @@
     <row r="74" ht="312" customHeight="1" spans="2:14">
       <c r="B74" s="77"/>
       <c r="C74" s="78" t="s">
-        <v>605</v>
+        <v>607</v>
       </c>
       <c r="D74" s="73"/>
       <c r="E74" s="73"/>
@@ -12189,7 +12109,7 @@
     <row r="75" ht="26" customHeight="1" spans="2:14">
       <c r="B75" s="77"/>
       <c r="C75" s="73" t="s">
-        <v>606</v>
+        <v>608</v>
       </c>
       <c r="D75" s="73"/>
       <c r="E75" s="73"/>
@@ -12205,7 +12125,7 @@
     </row>
     <row r="76" ht="36" customHeight="1" spans="2:14">
       <c r="B76" s="91" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="C76" s="73"/>
       <c r="D76" s="73"/>
@@ -12223,7 +12143,7 @@
     <row r="77" ht="26" customHeight="1" spans="2:14">
       <c r="B77" s="77"/>
       <c r="C77" s="73" t="s">
-        <v>608</v>
+        <v>610</v>
       </c>
       <c r="D77" s="73"/>
       <c r="E77" s="73"/>
@@ -12299,7 +12219,7 @@
     </row>
     <row r="83" spans="1:14">
       <c r="A83" s="92" t="s">
-        <v>609</v>
+        <v>611</v>
       </c>
       <c r="B83" s="49"/>
       <c r="C83" s="93"/>
@@ -12318,7 +12238,7 @@
     <row r="84" ht="72" customHeight="1" spans="1:14">
       <c r="A84" s="92"/>
       <c r="B84" s="94" t="s">
-        <v>610</v>
+        <v>612</v>
       </c>
       <c r="C84" s="95"/>
       <c r="D84" s="95"/>
@@ -12336,7 +12256,7 @@
     <row r="85" ht="72" customHeight="1" spans="1:14">
       <c r="A85" s="92"/>
       <c r="B85" s="94" t="s">
-        <v>611</v>
+        <v>613</v>
       </c>
       <c r="C85" s="94"/>
       <c r="D85" s="94"/>
@@ -12353,12 +12273,12 @@
     </row>
     <row r="86" spans="2:2">
       <c r="B86" s="69" t="s">
-        <v>612</v>
+        <v>614</v>
       </c>
     </row>
     <row r="87" ht="176" customHeight="1" spans="3:13">
       <c r="C87" s="78" t="s">
-        <v>613</v>
+        <v>615</v>
       </c>
       <c r="D87" s="78"/>
       <c r="E87" s="78"/>
@@ -12373,7 +12293,7 @@
     </row>
     <row r="88" ht="21" customHeight="1" spans="2:13">
       <c r="B88" s="69" t="s">
-        <v>614</v>
+        <v>616</v>
       </c>
       <c r="C88" s="78"/>
       <c r="D88" s="78"/>
@@ -12389,7 +12309,7 @@
     </row>
     <row r="89" ht="251" customHeight="1" spans="3:13">
       <c r="C89" s="78" t="s">
-        <v>615</v>
+        <v>617</v>
       </c>
       <c r="D89" s="78"/>
       <c r="E89" s="78"/>
@@ -12404,7 +12324,7 @@
     </row>
     <row r="90" ht="21" customHeight="1" spans="2:13">
       <c r="B90" s="69" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="C90" s="78"/>
       <c r="D90" s="78"/>
@@ -12420,7 +12340,7 @@
     </row>
     <row r="91" ht="32" customHeight="1" spans="3:13">
       <c r="C91" s="78" t="s">
-        <v>617</v>
+        <v>619</v>
       </c>
       <c r="D91" s="78"/>
       <c r="E91" s="78"/>
@@ -12435,13 +12355,13 @@
     </row>
     <row r="92" ht="21" customHeight="1" spans="2:13">
       <c r="B92" s="69" t="s">
-        <v>618</v>
+        <v>620</v>
       </c>
       <c r="C92" s="78" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
       <c r="D92" s="78" t="s">
-        <v>620</v>
+        <v>622</v>
       </c>
       <c r="E92" s="78"/>
       <c r="F92" s="78"/>
@@ -12455,10 +12375,10 @@
     </row>
     <row r="93" ht="21" customHeight="1" spans="3:13">
       <c r="C93" s="78" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
       <c r="D93" s="78" t="s">
-        <v>622</v>
+        <v>624</v>
       </c>
       <c r="E93" s="78"/>
       <c r="F93" s="78"/>
@@ -12475,7 +12395,7 @@
         <v>200</v>
       </c>
       <c r="D94" s="78" t="s">
-        <v>623</v>
+        <v>625</v>
       </c>
       <c r="E94" s="78"/>
       <c r="F94" s="78"/>
@@ -12489,10 +12409,10 @@
     </row>
     <row r="95" ht="21" customHeight="1" spans="3:13">
       <c r="C95" s="78" t="s">
-        <v>624</v>
+        <v>626</v>
       </c>
       <c r="D95" s="78" t="s">
-        <v>625</v>
+        <v>627</v>
       </c>
       <c r="E95" s="78"/>
       <c r="F95" s="78"/>
@@ -12509,7 +12429,7 @@
         <v>442</v>
       </c>
       <c r="D96" s="78" t="s">
-        <v>626</v>
+        <v>628</v>
       </c>
       <c r="E96" s="78"/>
       <c r="F96" s="78"/>
@@ -12523,10 +12443,10 @@
     </row>
     <row r="97" ht="21" customHeight="1" spans="3:13">
       <c r="C97" s="78" t="s">
-        <v>627</v>
+        <v>629</v>
       </c>
       <c r="D97" s="78" t="s">
-        <v>628</v>
+        <v>630</v>
       </c>
       <c r="E97" s="78"/>
       <c r="F97" s="78"/>
@@ -12540,60 +12460,60 @@
     </row>
     <row r="98" spans="3:4">
       <c r="C98" s="70" t="s">
-        <v>629</v>
+        <v>631</v>
       </c>
       <c r="D98" s="70" t="s">
-        <v>630</v>
+        <v>632</v>
       </c>
     </row>
     <row r="99" spans="3:4">
       <c r="C99" s="70" t="s">
-        <v>631</v>
+        <v>633</v>
       </c>
       <c r="D99" s="70" t="s">
-        <v>632</v>
+        <v>634</v>
       </c>
     </row>
     <row r="100" spans="3:4">
       <c r="C100" s="70" t="s">
-        <v>633</v>
+        <v>635</v>
       </c>
       <c r="D100" s="70" t="s">
-        <v>634</v>
+        <v>636</v>
       </c>
     </row>
     <row r="101" spans="3:4">
       <c r="C101" s="70" t="s">
-        <v>635</v>
+        <v>637</v>
       </c>
       <c r="D101" s="70" t="s">
-        <v>636</v>
+        <v>638</v>
       </c>
     </row>
     <row r="102" spans="3:4">
       <c r="C102" s="70" t="s">
-        <v>637</v>
+        <v>639</v>
       </c>
       <c r="D102" s="70" t="s">
-        <v>638</v>
+        <v>640</v>
       </c>
     </row>
     <row r="103" spans="3:4">
       <c r="C103" s="70" t="s">
-        <v>639</v>
+        <v>641</v>
       </c>
       <c r="D103" s="70" t="s">
-        <v>640</v>
+        <v>642</v>
       </c>
     </row>
     <row r="105" spans="1:1">
       <c r="A105" s="68" t="s">
-        <v>641</v>
+        <v>643</v>
       </c>
     </row>
     <row r="106" spans="2:14">
       <c r="B106" s="77" t="s">
-        <v>642</v>
+        <v>644</v>
       </c>
       <c r="C106" s="78"/>
       <c r="D106" s="78"/>
@@ -12610,12 +12530,12 @@
     </row>
     <row r="108" spans="1:1">
       <c r="A108" s="68" t="s">
-        <v>643</v>
+        <v>645</v>
       </c>
     </row>
     <row r="109" ht="54" customHeight="1" spans="2:14">
       <c r="B109" s="77" t="s">
-        <v>644</v>
+        <v>646</v>
       </c>
       <c r="C109" s="78"/>
       <c r="D109" s="78"/>
@@ -12632,12 +12552,12 @@
     </row>
     <row r="110" ht="21" customHeight="1" spans="2:2">
       <c r="B110" s="79" t="s">
-        <v>645</v>
+        <v>647</v>
       </c>
     </row>
     <row r="111" ht="120" customHeight="1" spans="3:14">
       <c r="C111" s="116" t="s">
-        <v>646</v>
+        <v>648</v>
       </c>
       <c r="D111" s="78"/>
       <c r="E111" s="78"/>
@@ -12653,12 +12573,12 @@
     </row>
     <row r="112" spans="2:2">
       <c r="B112" s="79" t="s">
-        <v>647</v>
+        <v>649</v>
       </c>
     </row>
     <row r="113" ht="31" customHeight="1" spans="3:14">
       <c r="C113" s="78" t="s">
-        <v>648</v>
+        <v>650</v>
       </c>
       <c r="D113" s="78"/>
       <c r="E113" s="78"/>
@@ -12674,12 +12594,12 @@
     </row>
     <row r="114" spans="2:2">
       <c r="B114" s="79" t="s">
-        <v>649</v>
+        <v>651</v>
       </c>
     </row>
     <row r="115" spans="3:14">
       <c r="C115" s="73" t="s">
-        <v>650</v>
+        <v>652</v>
       </c>
       <c r="D115" s="73"/>
       <c r="E115" s="73"/>
@@ -12780,12 +12700,12 @@
   <sheetData>
     <row r="1" customHeight="1" spans="1:1">
       <c r="A1" s="60" t="s">
-        <v>651</v>
+        <v>653</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="2:14">
       <c r="B2" s="31" t="s">
-        <v>652</v>
+        <v>654</v>
       </c>
       <c r="C2" s="29"/>
       <c r="D2" s="29"/>
@@ -12802,7 +12722,7 @@
     </row>
     <row r="3" ht="57" customHeight="1" spans="2:14">
       <c r="B3" s="31" t="s">
-        <v>653</v>
+        <v>655</v>
       </c>
       <c r="C3" s="29"/>
       <c r="D3" s="29"/>
@@ -12819,7 +12739,7 @@
     </row>
     <row r="4" customHeight="1" spans="2:14">
       <c r="B4" s="31" t="s">
-        <v>654</v>
+        <v>656</v>
       </c>
       <c r="C4" s="29"/>
       <c r="D4" s="29"/>
@@ -12836,7 +12756,7 @@
     </row>
     <row r="5" customHeight="1" spans="2:14">
       <c r="B5" s="61" t="s">
-        <v>655</v>
+        <v>657</v>
       </c>
       <c r="C5" s="30"/>
       <c r="D5" s="30"/>
@@ -12853,10 +12773,10 @@
     </row>
     <row r="6" ht="45" customHeight="1" spans="2:14">
       <c r="B6" s="62" t="s">
-        <v>656</v>
+        <v>658</v>
       </c>
       <c r="C6" s="29" t="s">
-        <v>657</v>
+        <v>659</v>
       </c>
       <c r="D6" s="30"/>
       <c r="E6" s="30"/>
@@ -12872,10 +12792,10 @@
     </row>
     <row r="7" customHeight="1" spans="2:14">
       <c r="B7" s="62" t="s">
-        <v>658</v>
+        <v>660</v>
       </c>
       <c r="C7" s="29" t="s">
-        <v>659</v>
+        <v>661</v>
       </c>
       <c r="D7" s="30"/>
       <c r="E7" s="30"/>
@@ -12892,7 +12812,7 @@
     <row r="8" ht="70" customHeight="1" spans="2:14">
       <c r="B8" s="61"/>
       <c r="C8" s="33" t="s">
-        <v>660</v>
+        <v>662</v>
       </c>
       <c r="D8" s="33"/>
       <c r="E8" s="33"/>
@@ -12908,10 +12828,10 @@
     </row>
     <row r="9" customHeight="1" spans="2:14">
       <c r="B9" s="62" t="s">
-        <v>661</v>
+        <v>663</v>
       </c>
       <c r="C9" s="30" t="s">
-        <v>662</v>
+        <v>664</v>
       </c>
       <c r="D9" s="30"/>
       <c r="E9" s="30"/>
@@ -12928,7 +12848,7 @@
     <row r="10" ht="70" customHeight="1" spans="2:14">
       <c r="B10" s="61"/>
       <c r="C10" s="33" t="s">
-        <v>663</v>
+        <v>665</v>
       </c>
       <c r="D10" s="33"/>
       <c r="E10" s="33"/>
@@ -12944,11 +12864,11 @@
     </row>
     <row r="11" ht="38" customHeight="1" spans="2:14">
       <c r="B11" s="62" t="s">
-        <v>664</v>
+        <v>666</v>
       </c>
       <c r="C11" s="30"/>
       <c r="D11" s="29" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="E11" s="30"/>
       <c r="F11" s="30"/>
@@ -12964,7 +12884,7 @@
     <row r="12" ht="142" customHeight="1" spans="2:14">
       <c r="B12" s="61"/>
       <c r="C12" s="33" t="s">
-        <v>666</v>
+        <v>668</v>
       </c>
       <c r="D12" s="33"/>
       <c r="E12" s="33"/>
@@ -12980,11 +12900,11 @@
     </row>
     <row r="13" ht="22" customHeight="1" spans="2:14">
       <c r="B13" s="62" t="s">
-        <v>667</v>
+        <v>669</v>
       </c>
       <c r="C13" s="30"/>
       <c r="D13" s="33" t="s">
-        <v>668</v>
+        <v>670</v>
       </c>
       <c r="E13" s="50"/>
       <c r="F13" s="50"/>
@@ -13000,7 +12920,7 @@
     <row r="14" ht="156" customHeight="1" spans="2:14">
       <c r="B14" s="62"/>
       <c r="C14" s="33" t="s">
-        <v>669</v>
+        <v>671</v>
       </c>
       <c r="D14" s="33"/>
       <c r="E14" s="33"/>
@@ -13016,12 +12936,12 @@
     </row>
     <row r="16" customHeight="1" spans="1:1">
       <c r="A16" s="60" t="s">
-        <v>670</v>
+        <v>672</v>
       </c>
     </row>
     <row r="17" ht="54" customHeight="1" spans="2:14">
       <c r="B17" s="31" t="s">
-        <v>671</v>
+        <v>673</v>
       </c>
       <c r="C17" s="29"/>
       <c r="D17" s="29"/>
@@ -13038,7 +12958,7 @@
     </row>
     <row r="18" ht="49" customHeight="1" spans="2:14">
       <c r="B18" s="31" t="s">
-        <v>672</v>
+        <v>674</v>
       </c>
       <c r="C18" s="29"/>
       <c r="D18" s="29"/>
@@ -13055,7 +12975,7 @@
     </row>
     <row r="19" customHeight="1" spans="2:14">
       <c r="B19" s="61" t="s">
-        <v>655</v>
+        <v>657</v>
       </c>
       <c r="C19" s="30"/>
       <c r="D19" s="30"/>
@@ -13072,7 +12992,7 @@
     </row>
     <row r="20" customHeight="1" spans="2:14">
       <c r="B20" s="63" t="s">
-        <v>673</v>
+        <v>675</v>
       </c>
       <c r="C20" s="30"/>
       <c r="D20" s="30"/>
@@ -13090,7 +13010,7 @@
     <row r="21" ht="42" customHeight="1" spans="2:14">
       <c r="B21" s="61"/>
       <c r="C21" s="29" t="s">
-        <v>674</v>
+        <v>676</v>
       </c>
       <c r="D21" s="30"/>
       <c r="E21" s="30"/>
@@ -13106,7 +13026,7 @@
     </row>
     <row r="22" customHeight="1" spans="2:14">
       <c r="B22" s="62" t="s">
-        <v>675</v>
+        <v>677</v>
       </c>
       <c r="C22" s="30"/>
       <c r="D22" s="30"/>
@@ -13124,7 +13044,7 @@
     <row r="23" ht="84" customHeight="1" spans="2:14">
       <c r="B23" s="61"/>
       <c r="C23" s="29" t="s">
-        <v>676</v>
+        <v>678</v>
       </c>
       <c r="D23" s="30"/>
       <c r="E23" s="30"/>
@@ -13140,7 +13060,7 @@
     </row>
     <row r="24" customHeight="1" spans="2:14">
       <c r="B24" s="61" t="s">
-        <v>677</v>
+        <v>679</v>
       </c>
       <c r="C24" s="30"/>
       <c r="D24" s="30"/>
@@ -13158,7 +13078,7 @@
     <row r="25" ht="52" customHeight="1" spans="2:14">
       <c r="B25" s="61"/>
       <c r="C25" s="29" t="s">
-        <v>678</v>
+        <v>680</v>
       </c>
       <c r="D25" s="29"/>
       <c r="E25" s="29"/>
@@ -13175,7 +13095,7 @@
     <row r="26" ht="169" customHeight="1" spans="2:14">
       <c r="B26" s="61"/>
       <c r="C26" s="29" t="s">
-        <v>679</v>
+        <v>681</v>
       </c>
       <c r="D26" s="29"/>
       <c r="E26" s="29"/>
@@ -13191,7 +13111,7 @@
     </row>
     <row r="27" customHeight="1" spans="2:14">
       <c r="B27" s="62" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="C27" s="30"/>
       <c r="D27" s="30"/>
@@ -13209,7 +13129,7 @@
     <row r="28" ht="73" customHeight="1" spans="2:14">
       <c r="B28" s="61"/>
       <c r="C28" s="29" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="D28" s="30"/>
       <c r="E28" s="30"/>
@@ -13225,7 +13145,7 @@
     </row>
     <row r="29" customHeight="1" spans="2:14">
       <c r="B29" s="62" t="s">
-        <v>658</v>
+        <v>660</v>
       </c>
       <c r="C29" s="30"/>
       <c r="D29" s="30"/>
@@ -13243,7 +13163,7 @@
     <row r="30" ht="150" customHeight="1" spans="2:14">
       <c r="B30" s="61"/>
       <c r="C30" s="29" t="s">
-        <v>682</v>
+        <v>684</v>
       </c>
       <c r="D30" s="30"/>
       <c r="E30" s="30"/>
@@ -13259,7 +13179,7 @@
     </row>
     <row r="31" customHeight="1" spans="2:14">
       <c r="B31" s="62" t="s">
-        <v>683</v>
+        <v>685</v>
       </c>
       <c r="C31" s="30"/>
       <c r="D31" s="30"/>
@@ -13277,7 +13197,7 @@
     <row r="32" ht="112" customHeight="1" spans="2:14">
       <c r="B32" s="61"/>
       <c r="C32" s="29" t="s">
-        <v>684</v>
+        <v>686</v>
       </c>
       <c r="D32" s="29"/>
       <c r="E32" s="29"/>
@@ -13293,7 +13213,7 @@
     </row>
     <row r="33" customHeight="1" spans="2:14">
       <c r="B33" s="62" t="s">
-        <v>685</v>
+        <v>687</v>
       </c>
       <c r="C33" s="30"/>
       <c r="D33" s="30"/>
@@ -13311,7 +13231,7 @@
     <row r="34" ht="44" customHeight="1" spans="2:14">
       <c r="B34" s="61"/>
       <c r="C34" s="29" t="s">
-        <v>686</v>
+        <v>688</v>
       </c>
       <c r="D34" s="30"/>
       <c r="E34" s="30"/>
@@ -13327,11 +13247,11 @@
     </row>
     <row r="35" customHeight="1" spans="2:14">
       <c r="B35" s="62" t="s">
-        <v>687</v>
+        <v>689</v>
       </c>
       <c r="C35" s="30"/>
       <c r="D35" s="30" t="s">
-        <v>688</v>
+        <v>690</v>
       </c>
       <c r="E35" s="30"/>
       <c r="F35" s="30"/>
@@ -13347,7 +13267,7 @@
     <row r="36" ht="233" customHeight="1" spans="2:14">
       <c r="B36" s="61"/>
       <c r="C36" s="29" t="s">
-        <v>689</v>
+        <v>691</v>
       </c>
       <c r="D36" s="29"/>
       <c r="E36" s="29"/>
@@ -13363,7 +13283,7 @@
     </row>
     <row r="37" customHeight="1" spans="2:14">
       <c r="B37" s="62" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
       <c r="C37" s="30"/>
       <c r="D37" s="30"/>
@@ -13410,12 +13330,12 @@
     </row>
     <row r="40" customHeight="1" spans="1:1">
       <c r="A40" s="60" t="s">
-        <v>691</v>
+        <v>693</v>
       </c>
     </row>
     <row r="41" ht="72" customHeight="1" spans="2:14">
       <c r="B41" s="31" t="s">
-        <v>692</v>
+        <v>694</v>
       </c>
       <c r="C41" s="29"/>
       <c r="D41" s="29"/>
@@ -13432,12 +13352,12 @@
     </row>
     <row r="42" customHeight="1" spans="2:2">
       <c r="B42" s="28" t="s">
-        <v>693</v>
+        <v>695</v>
       </c>
     </row>
     <row r="43" ht="47" customHeight="1" spans="3:14">
       <c r="C43" s="29" t="s">
-        <v>694</v>
+        <v>696</v>
       </c>
       <c r="D43" s="29"/>
       <c r="E43" s="29"/>
@@ -13453,16 +13373,16 @@
     </row>
     <row r="44" ht="90" customHeight="1" spans="2:2">
       <c r="B44" s="64" t="s">
-        <v>695</v>
+        <v>697</v>
       </c>
     </row>
     <row r="45" ht="63" customHeight="1" spans="1:14">
       <c r="A45" s="60" t="s">
-        <v>696</v>
+        <v>698</v>
       </c>
       <c r="B45" s="64"/>
       <c r="C45" s="29" t="s">
-        <v>697</v>
+        <v>699</v>
       </c>
       <c r="D45" s="30"/>
       <c r="E45" s="30"/>
@@ -13478,13 +13398,13 @@
     </row>
     <row r="46" customHeight="1" spans="2:2">
       <c r="B46" s="64" t="s">
-        <v>673</v>
+        <v>675</v>
       </c>
     </row>
     <row r="47" customHeight="1" spans="2:14">
       <c r="B47" s="64"/>
       <c r="C47" s="29" t="s">
-        <v>698</v>
+        <v>700</v>
       </c>
       <c r="D47" s="29"/>
       <c r="E47" s="29"/>
@@ -13500,13 +13420,13 @@
     </row>
     <row r="48" ht="33" customHeight="1" spans="2:2">
       <c r="B48" s="64" t="s">
-        <v>699</v>
+        <v>701</v>
       </c>
     </row>
     <row r="49" ht="27" customHeight="1" spans="2:14">
       <c r="B49" s="64"/>
       <c r="D49" s="29" t="s">
-        <v>700</v>
+        <v>702</v>
       </c>
       <c r="E49" s="29"/>
       <c r="F49" s="29"/>
@@ -13522,7 +13442,7 @@
     <row r="50" ht="90" customHeight="1" spans="2:14">
       <c r="B50" s="64"/>
       <c r="D50" s="29" t="s">
-        <v>701</v>
+        <v>703</v>
       </c>
       <c r="E50" s="30"/>
       <c r="F50" s="30"/>
@@ -13552,12 +13472,12 @@
     </row>
     <row r="57" customHeight="1" spans="1:1">
       <c r="A57" s="60" t="s">
-        <v>702</v>
+        <v>704</v>
       </c>
     </row>
     <row r="58" ht="61" customHeight="1" spans="2:14">
       <c r="B58" s="31" t="s">
-        <v>703</v>
+        <v>705</v>
       </c>
       <c r="C58" s="29"/>
       <c r="D58" s="29"/>
@@ -13574,7 +13494,7 @@
     </row>
     <row r="59" customHeight="1" spans="2:14">
       <c r="B59" s="61" t="s">
-        <v>704</v>
+        <v>706</v>
       </c>
       <c r="C59" s="30"/>
       <c r="D59" s="30"/>
@@ -13591,12 +13511,12 @@
     </row>
     <row r="60" customHeight="1" spans="1:1">
       <c r="A60" s="60" t="s">
-        <v>705</v>
+        <v>707</v>
       </c>
     </row>
     <row r="61" ht="146" customHeight="1" spans="2:14">
       <c r="B61" s="31" t="s">
-        <v>706</v>
+        <v>708</v>
       </c>
       <c r="C61" s="29"/>
       <c r="D61" s="29"/>
@@ -13613,7 +13533,7 @@
     </row>
     <row r="62" ht="28" customHeight="1" spans="2:14">
       <c r="B62" s="63" t="s">
-        <v>707</v>
+        <v>709</v>
       </c>
       <c r="C62" s="29"/>
       <c r="D62" s="29"/>
@@ -13631,7 +13551,7 @@
     <row r="63" ht="42" customHeight="1" spans="2:14">
       <c r="B63" s="31"/>
       <c r="C63" s="29" t="s">
-        <v>708</v>
+        <v>710</v>
       </c>
       <c r="D63" s="29"/>
       <c r="E63" s="29"/>
@@ -13647,11 +13567,11 @@
     </row>
     <row r="64" ht="20" customHeight="1" spans="2:14">
       <c r="B64" s="31" t="s">
-        <v>709</v>
+        <v>711</v>
       </c>
       <c r="C64" s="29"/>
       <c r="D64" s="29" t="s">
-        <v>710</v>
+        <v>712</v>
       </c>
       <c r="E64" s="29"/>
       <c r="F64" s="29"/>
@@ -13771,7 +13691,7 @@
     </row>
     <row r="73" customHeight="1" spans="1:14">
       <c r="A73" s="60" t="s">
-        <v>711</v>
+        <v>713</v>
       </c>
       <c r="B73"/>
       <c r="C73" s="65"/>
@@ -13790,7 +13710,7 @@
     <row r="74" ht="53" customHeight="1" spans="1:14">
       <c r="A74" s="66"/>
       <c r="B74" s="31" t="s">
-        <v>712</v>
+        <v>714</v>
       </c>
       <c r="C74" s="29"/>
       <c r="D74" s="29"/>
@@ -13807,12 +13727,12 @@
     </row>
     <row r="75" customHeight="1" spans="2:2">
       <c r="B75" s="28" t="s">
-        <v>713</v>
+        <v>715</v>
       </c>
     </row>
     <row r="76" ht="48" customHeight="1" spans="3:14">
       <c r="C76" s="29" t="s">
-        <v>714</v>
+        <v>716</v>
       </c>
       <c r="D76" s="29"/>
       <c r="E76" s="29"/>
@@ -13828,12 +13748,12 @@
     </row>
     <row r="77" customHeight="1" spans="2:2">
       <c r="B77" s="28" t="s">
-        <v>715</v>
+        <v>717</v>
       </c>
     </row>
     <row r="78" ht="79" customHeight="1" spans="3:14">
       <c r="C78" s="29" t="s">
-        <v>716</v>
+        <v>718</v>
       </c>
       <c r="D78" s="29"/>
       <c r="E78" s="29"/>
@@ -13849,12 +13769,12 @@
     </row>
     <row r="79" customHeight="1" spans="2:2">
       <c r="B79" s="28" t="s">
-        <v>717</v>
+        <v>719</v>
       </c>
     </row>
     <row r="80" ht="58" customHeight="1" spans="3:14">
       <c r="C80" s="29" t="s">
-        <v>718</v>
+        <v>720</v>
       </c>
       <c r="D80" s="29"/>
       <c r="E80" s="29"/>
@@ -13870,12 +13790,12 @@
     </row>
     <row r="81" customHeight="1" spans="2:2">
       <c r="B81" s="28" t="s">
-        <v>719</v>
+        <v>721</v>
       </c>
     </row>
     <row r="82" ht="33" customHeight="1" spans="3:14">
       <c r="C82" s="29" t="s">
-        <v>720</v>
+        <v>722</v>
       </c>
       <c r="D82" s="29"/>
       <c r="E82" s="29"/>
@@ -13891,12 +13811,12 @@
     </row>
     <row r="83" customHeight="1" spans="2:2">
       <c r="B83" s="28" t="s">
-        <v>721</v>
+        <v>723</v>
       </c>
     </row>
     <row r="84" ht="95" customHeight="1" spans="3:14">
       <c r="C84" s="29" t="s">
-        <v>722</v>
+        <v>724</v>
       </c>
       <c r="D84" s="29"/>
       <c r="E84" s="29"/>
@@ -13986,12 +13906,12 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="41" t="s">
-        <v>723</v>
+        <v>725</v>
       </c>
     </row>
     <row r="2" spans="2:2">
       <c r="B2" s="42" t="s">
-        <v>724</v>
+        <v>726</v>
       </c>
     </row>
     <row r="3" spans="3:3">
@@ -14001,7 +13921,7 @@
     </row>
     <row r="4" ht="57" customHeight="1" spans="4:13">
       <c r="D4" s="29" t="s">
-        <v>725</v>
+        <v>727</v>
       </c>
       <c r="E4" s="29"/>
       <c r="F4" s="29"/>
@@ -14015,10 +13935,10 @@
     </row>
     <row r="5" ht="24" customHeight="1" spans="2:11">
       <c r="B5" s="42" t="s">
-        <v>726</v>
+        <v>728</v>
       </c>
       <c r="C5" s="44" t="s">
-        <v>727</v>
+        <v>729</v>
       </c>
       <c r="D5" s="44"/>
       <c r="E5" s="44"/>
@@ -14031,7 +13951,7 @@
     </row>
     <row r="6" ht="100" customHeight="1" spans="3:13">
       <c r="C6" s="45" t="s">
-        <v>728</v>
+        <v>730</v>
       </c>
       <c r="D6" s="45"/>
       <c r="E6" s="45"/>
@@ -14046,12 +13966,12 @@
     </row>
     <row r="7" spans="2:2">
       <c r="B7" s="42" t="s">
-        <v>729</v>
+        <v>731</v>
       </c>
     </row>
     <row r="8" ht="54" customHeight="1" spans="3:13">
       <c r="C8" s="29" t="s">
-        <v>730</v>
+        <v>732</v>
       </c>
       <c r="D8" s="29"/>
       <c r="E8" s="29"/>
@@ -14066,10 +13986,10 @@
     </row>
     <row r="10" ht="37" customHeight="1" spans="2:13">
       <c r="B10" s="42" t="s">
-        <v>731</v>
+        <v>733</v>
       </c>
       <c r="C10" s="46" t="s">
-        <v>732</v>
+        <v>734</v>
       </c>
       <c r="D10" s="46"/>
       <c r="E10" s="46"/>
@@ -14097,12 +14017,12 @@
     </row>
     <row r="12" ht="19" customHeight="1" spans="2:2">
       <c r="B12" s="42" t="s">
-        <v>733</v>
+        <v>735</v>
       </c>
     </row>
     <row r="13" ht="93" customHeight="1" spans="3:13">
       <c r="C13" s="29" t="s">
-        <v>734</v>
+        <v>736</v>
       </c>
       <c r="D13" s="29"/>
       <c r="E13" s="29"/>
@@ -14117,15 +14037,15 @@
     </row>
     <row r="15" spans="1:1">
       <c r="A15" s="41" t="s">
-        <v>735</v>
+        <v>737</v>
       </c>
     </row>
     <row r="16" spans="2:13">
       <c r="B16" s="42" t="s">
-        <v>736</v>
+        <v>738</v>
       </c>
       <c r="D16" s="30" t="s">
-        <v>737</v>
+        <v>739</v>
       </c>
       <c r="E16" s="30"/>
       <c r="F16" s="30"/>
@@ -14139,7 +14059,7 @@
     </row>
     <row r="17" ht="53" customHeight="1" spans="3:13">
       <c r="C17" s="29" t="s">
-        <v>738</v>
+        <v>740</v>
       </c>
       <c r="D17" s="29"/>
       <c r="E17" s="29"/>
@@ -14154,7 +14074,7 @@
     </row>
     <row r="18" ht="54" customHeight="1" spans="3:13">
       <c r="C18" s="29" t="s">
-        <v>739</v>
+        <v>741</v>
       </c>
       <c r="D18" s="29"/>
       <c r="E18" s="29"/>
@@ -14169,12 +14089,12 @@
     </row>
     <row r="19" ht="21" customHeight="1" spans="2:2">
       <c r="B19" s="42" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
     </row>
     <row r="20" ht="129" customHeight="1" spans="3:13">
       <c r="C20" s="29" t="s">
-        <v>741</v>
+        <v>743</v>
       </c>
       <c r="D20" s="29"/>
       <c r="E20" s="29"/>
@@ -14189,12 +14109,12 @@
     </row>
     <row r="21" spans="2:2">
       <c r="B21" s="42" t="s">
-        <v>742</v>
+        <v>744</v>
       </c>
     </row>
     <row r="22" ht="180" customHeight="1" spans="3:13">
       <c r="C22" s="117" t="s">
-        <v>743</v>
+        <v>745</v>
       </c>
       <c r="D22" s="30"/>
       <c r="E22" s="30"/>
@@ -14209,12 +14129,12 @@
     </row>
     <row r="23" spans="2:2">
       <c r="B23" s="42" t="s">
-        <v>744</v>
+        <v>746</v>
       </c>
     </row>
     <row r="24" ht="49" customHeight="1" spans="3:13">
       <c r="C24" s="29" t="s">
-        <v>745</v>
+        <v>747</v>
       </c>
       <c r="D24" s="29"/>
       <c r="E24" s="29"/>
@@ -14229,12 +14149,12 @@
     </row>
     <row r="26" spans="1:1">
       <c r="A26" s="41" t="s">
-        <v>746</v>
+        <v>748</v>
       </c>
     </row>
     <row r="27" ht="73" customHeight="1" spans="2:13">
       <c r="B27" s="38" t="s">
-        <v>747</v>
+        <v>749</v>
       </c>
       <c r="C27" s="38"/>
       <c r="D27" s="38"/>
@@ -14250,12 +14170,12 @@
     </row>
     <row r="28" spans="2:2">
       <c r="B28" s="42" t="s">
-        <v>748</v>
+        <v>750</v>
       </c>
     </row>
     <row r="29" ht="57" customHeight="1" spans="3:13">
       <c r="C29" s="29" t="s">
-        <v>749</v>
+        <v>751</v>
       </c>
       <c r="D29" s="29"/>
       <c r="E29" s="29"/>
@@ -14270,10 +14190,10 @@
     </row>
     <row r="30" spans="2:13">
       <c r="B30" s="42" t="s">
-        <v>750</v>
+        <v>752</v>
       </c>
       <c r="D30" s="47" t="s">
-        <v>751</v>
+        <v>753</v>
       </c>
       <c r="E30" s="47"/>
       <c r="F30" s="47"/>
@@ -14287,7 +14207,7 @@
     </row>
     <row r="31" ht="127" customHeight="1" spans="3:13">
       <c r="C31" s="29" t="s">
-        <v>752</v>
+        <v>754</v>
       </c>
       <c r="D31" s="29"/>
       <c r="E31" s="29"/>
@@ -14302,10 +14222,10 @@
     </row>
     <row r="32" spans="2:13">
       <c r="B32" s="42" t="s">
+        <v>755</v>
+      </c>
+      <c r="D32" s="47" t="s">
         <v>753</v>
-      </c>
-      <c r="D32" s="47" t="s">
-        <v>751</v>
       </c>
       <c r="E32" s="47"/>
       <c r="F32" s="47"/>
@@ -14319,7 +14239,7 @@
     </row>
     <row r="33" ht="81" customHeight="1" spans="3:13">
       <c r="C33" s="29" t="s">
-        <v>754</v>
+        <v>756</v>
       </c>
       <c r="D33" s="29"/>
       <c r="E33" s="29"/>
@@ -14334,7 +14254,7 @@
     </row>
     <row r="34" spans="2:13">
       <c r="B34" s="42" t="s">
-        <v>755</v>
+        <v>757</v>
       </c>
       <c r="C34" s="48"/>
       <c r="D34" s="26"/>
@@ -14350,7 +14270,7 @@
     </row>
     <row r="35" ht="36" customHeight="1" spans="3:13">
       <c r="C35" s="29" t="s">
-        <v>756</v>
+        <v>758</v>
       </c>
       <c r="D35" s="29"/>
       <c r="E35" s="29"/>
@@ -14365,10 +14285,10 @@
     </row>
     <row r="36" spans="2:13">
       <c r="B36" s="42" t="s">
-        <v>757</v>
+        <v>759</v>
       </c>
       <c r="D36" s="29" t="s">
-        <v>758</v>
+        <v>760</v>
       </c>
       <c r="E36" s="29"/>
       <c r="F36" s="29"/>
@@ -14382,7 +14302,7 @@
     </row>
     <row r="38" spans="1:7">
       <c r="A38" s="41" t="s">
-        <v>759</v>
+        <v>761</v>
       </c>
       <c r="C38" s="49"/>
       <c r="D38" s="49"/>
@@ -14392,7 +14312,7 @@
     </row>
     <row r="39" ht="60" customHeight="1" spans="2:13">
       <c r="B39" s="38" t="s">
-        <v>760</v>
+        <v>762</v>
       </c>
       <c r="C39" s="38"/>
       <c r="D39" s="38"/>
@@ -14408,10 +14328,10 @@
     </row>
     <row r="40" spans="2:13">
       <c r="B40" s="42" t="s">
-        <v>761</v>
+        <v>763</v>
       </c>
       <c r="D40" s="29" t="s">
-        <v>762</v>
+        <v>764</v>
       </c>
       <c r="E40" s="29"/>
       <c r="F40" s="29"/>
@@ -14425,7 +14345,7 @@
     </row>
     <row r="41" ht="37" customHeight="1" spans="3:13">
       <c r="C41" s="29" t="s">
-        <v>763</v>
+        <v>765</v>
       </c>
       <c r="D41" s="29"/>
       <c r="E41" s="29"/>
@@ -14440,7 +14360,7 @@
     </row>
     <row r="42" spans="4:13">
       <c r="D42" s="29" t="s">
-        <v>764</v>
+        <v>766</v>
       </c>
       <c r="E42" s="29"/>
       <c r="F42" s="29"/>
@@ -14454,7 +14374,7 @@
     </row>
     <row r="43" ht="37" customHeight="1" spans="3:13">
       <c r="C43" s="29" t="s">
-        <v>765</v>
+        <v>767</v>
       </c>
       <c r="D43" s="29"/>
       <c r="E43" s="29"/>
@@ -14469,10 +14389,10 @@
     </row>
     <row r="44" spans="2:13">
       <c r="B44" s="42" t="s">
-        <v>766</v>
+        <v>768</v>
       </c>
       <c r="D44" s="30" t="s">
-        <v>767</v>
+        <v>769</v>
       </c>
       <c r="E44" s="30"/>
       <c r="F44" s="30"/>
@@ -14486,12 +14406,12 @@
     </row>
     <row r="45" spans="3:3">
       <c r="C45" s="43" t="s">
-        <v>768</v>
+        <v>770</v>
       </c>
     </row>
     <row r="46" spans="4:13">
       <c r="D46" s="29" t="s">
-        <v>769</v>
+        <v>771</v>
       </c>
       <c r="E46" s="29"/>
       <c r="F46" s="29"/>
@@ -14505,17 +14425,17 @@
     </row>
     <row r="48" spans="1:1">
       <c r="A48" s="41" t="s">
-        <v>770</v>
+        <v>772</v>
       </c>
     </row>
     <row r="49" spans="2:2">
       <c r="B49" s="42" t="s">
-        <v>771</v>
+        <v>773</v>
       </c>
     </row>
     <row r="50" ht="84" customHeight="1" spans="3:13">
       <c r="C50" s="29" t="s">
-        <v>772</v>
+        <v>774</v>
       </c>
       <c r="D50" s="29"/>
       <c r="E50" s="29"/>
@@ -14530,10 +14450,10 @@
     </row>
     <row r="51" spans="3:13">
       <c r="C51" s="32" t="s">
-        <v>773</v>
+        <v>775</v>
       </c>
       <c r="E51" s="35" t="s">
-        <v>774</v>
+        <v>776</v>
       </c>
       <c r="F51" s="35"/>
       <c r="G51" s="35"/>
@@ -14546,7 +14466,7 @@
     </row>
     <row r="52" spans="3:13">
       <c r="C52" s="32" t="s">
-        <v>775</v>
+        <v>777</v>
       </c>
       <c r="E52" s="35"/>
       <c r="F52" s="35"/>
@@ -14560,7 +14480,7 @@
     </row>
     <row r="53" spans="4:13">
       <c r="D53" s="33" t="s">
-        <v>776</v>
+        <v>778</v>
       </c>
       <c r="E53" s="33"/>
       <c r="F53" s="33"/>
@@ -14574,7 +14494,7 @@
     </row>
     <row r="54" ht="60" customHeight="1" spans="4:13">
       <c r="D54" s="29" t="s">
-        <v>777</v>
+        <v>779</v>
       </c>
       <c r="E54" s="29"/>
       <c r="F54" s="29"/>
@@ -14588,12 +14508,12 @@
     </row>
     <row r="56" spans="3:3">
       <c r="C56" s="32" t="s">
-        <v>778</v>
+        <v>780</v>
       </c>
     </row>
     <row r="57" ht="133" customHeight="1" spans="4:13">
       <c r="D57" s="29" t="s">
-        <v>779</v>
+        <v>781</v>
       </c>
       <c r="E57" s="29"/>
       <c r="F57" s="29"/>
@@ -14607,10 +14527,10 @@
     </row>
     <row r="59" spans="1:13">
       <c r="A59" s="41" t="s">
-        <v>780</v>
+        <v>782</v>
       </c>
       <c r="C59" s="29" t="s">
-        <v>781</v>
+        <v>783</v>
       </c>
       <c r="D59" s="29"/>
       <c r="E59" s="29"/>
@@ -14625,10 +14545,10 @@
     </row>
     <row r="60" ht="90" customHeight="1" spans="2:13">
       <c r="B60" s="42" t="s">
-        <v>782</v>
+        <v>784</v>
       </c>
       <c r="C60" s="29" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="D60" s="29"/>
       <c r="E60" s="29"/>
@@ -14643,10 +14563,10 @@
     </row>
     <row r="61" spans="2:13">
       <c r="B61" s="42" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
       <c r="D61" s="30" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
       <c r="E61" s="30"/>
       <c r="F61" s="30"/>
@@ -14660,7 +14580,7 @@
     </row>
     <row r="62" ht="36" customHeight="1" spans="3:13">
       <c r="C62" s="29" t="s">
-        <v>786</v>
+        <v>788</v>
       </c>
       <c r="D62" s="30"/>
       <c r="E62" s="30"/>
@@ -14675,10 +14595,10 @@
     </row>
     <row r="64" ht="20" customHeight="1" spans="1:13">
       <c r="A64" s="41" t="s">
-        <v>787</v>
+        <v>789</v>
       </c>
       <c r="C64" s="30" t="s">
-        <v>788</v>
+        <v>790</v>
       </c>
       <c r="D64" s="30"/>
       <c r="E64" s="30"/>
@@ -14693,12 +14613,12 @@
     </row>
     <row r="65" spans="2:2">
       <c r="B65" s="42" t="s">
-        <v>789</v>
+        <v>791</v>
       </c>
     </row>
     <row r="66" ht="123" customHeight="1" spans="3:13">
       <c r="C66" s="29" t="s">
-        <v>790</v>
+        <v>792</v>
       </c>
       <c r="D66" s="29"/>
       <c r="E66" s="29"/>
@@ -14713,12 +14633,12 @@
     </row>
     <row r="67" spans="2:2">
       <c r="B67" s="42" t="s">
-        <v>791</v>
+        <v>793</v>
       </c>
     </row>
     <row r="68" ht="241" customHeight="1" spans="3:13">
       <c r="C68" s="29" t="s">
-        <v>792</v>
+        <v>794</v>
       </c>
       <c r="D68" s="29"/>
       <c r="E68" s="29"/>
@@ -14746,10 +14666,10 @@
     </row>
     <row r="70" ht="51" customHeight="1" spans="1:13">
       <c r="A70" s="41" t="s">
-        <v>793</v>
+        <v>795</v>
       </c>
       <c r="C70" s="29" t="s">
-        <v>794</v>
+        <v>796</v>
       </c>
       <c r="D70" s="29"/>
       <c r="E70" s="29"/>
@@ -14764,12 +14684,12 @@
     </row>
     <row r="71" spans="2:2">
       <c r="B71" s="42" t="s">
-        <v>795</v>
+        <v>797</v>
       </c>
     </row>
     <row r="72" ht="73" customHeight="1" spans="3:13">
       <c r="C72" s="29" t="s">
-        <v>796</v>
+        <v>798</v>
       </c>
       <c r="D72" s="30"/>
       <c r="E72" s="30"/>
@@ -14784,15 +14704,15 @@
     </row>
     <row r="73" spans="2:5">
       <c r="B73" s="42" t="s">
-        <v>797</v>
+        <v>799</v>
       </c>
       <c r="E73" s="3" t="s">
-        <v>798</v>
+        <v>800</v>
       </c>
     </row>
     <row r="74" ht="56" customHeight="1" spans="3:13">
       <c r="C74" s="29" t="s">
-        <v>799</v>
+        <v>801</v>
       </c>
       <c r="D74" s="30"/>
       <c r="E74" s="30"/>
@@ -14807,12 +14727,12 @@
     </row>
     <row r="75" spans="3:3">
       <c r="C75" s="32" t="s">
-        <v>800</v>
+        <v>802</v>
       </c>
     </row>
     <row r="76" ht="72" customHeight="1" spans="4:13">
       <c r="D76" s="29" t="s">
-        <v>801</v>
+        <v>803</v>
       </c>
       <c r="E76" s="29"/>
       <c r="F76" s="29"/>
@@ -14826,12 +14746,12 @@
     </row>
     <row r="77" spans="3:3">
       <c r="C77" s="32" t="s">
-        <v>802</v>
+        <v>804</v>
       </c>
     </row>
     <row r="78" spans="4:13">
       <c r="D78" s="30" t="s">
-        <v>803</v>
+        <v>805</v>
       </c>
       <c r="E78" s="30"/>
       <c r="F78" s="30"/>
@@ -14845,19 +14765,19 @@
     </row>
     <row r="79" spans="1:13">
       <c r="A79" s="41" t="s">
-        <v>804</v>
+        <v>806</v>
       </c>
       <c r="M79" s="27"/>
     </row>
     <row r="80" spans="2:13">
       <c r="B80" s="42" t="s">
-        <v>805</v>
+        <v>807</v>
       </c>
       <c r="M80" s="27"/>
     </row>
     <row r="81" spans="3:13">
       <c r="C81" s="50" t="s">
-        <v>806</v>
+        <v>808</v>
       </c>
       <c r="D81" s="30"/>
       <c r="E81" s="30"/>
@@ -14873,7 +14793,7 @@
     <row r="82" ht="40" customHeight="1" spans="3:13">
       <c r="C82" s="30"/>
       <c r="D82" s="29" t="s">
-        <v>807</v>
+        <v>809</v>
       </c>
       <c r="E82" s="29"/>
       <c r="F82" s="29"/>
@@ -14887,7 +14807,7 @@
     </row>
     <row r="83" spans="3:13">
       <c r="C83" s="50" t="s">
-        <v>808</v>
+        <v>810</v>
       </c>
       <c r="D83" s="30"/>
       <c r="E83" s="30"/>
@@ -14903,7 +14823,7 @@
     <row r="84" ht="57" customHeight="1" spans="3:13">
       <c r="C84" s="30"/>
       <c r="D84" s="29" t="s">
-        <v>809</v>
+        <v>811</v>
       </c>
       <c r="E84" s="29"/>
       <c r="F84" s="29"/>
@@ -14917,7 +14837,7 @@
     </row>
     <row r="85" spans="3:13">
       <c r="C85" s="50" t="s">
-        <v>810</v>
+        <v>812</v>
       </c>
       <c r="D85" s="30"/>
       <c r="E85" s="30"/>
@@ -14933,7 +14853,7 @@
     <row r="86" ht="67" customHeight="1" spans="3:13">
       <c r="C86" s="30"/>
       <c r="D86" s="29" t="s">
-        <v>811</v>
+        <v>813</v>
       </c>
       <c r="E86" s="29"/>
       <c r="F86" s="29"/>
@@ -14948,7 +14868,7 @@
     <row r="87" ht="279" customHeight="1" spans="3:13">
       <c r="C87" s="30"/>
       <c r="D87" s="29" t="s">
-        <v>812</v>
+        <v>814</v>
       </c>
       <c r="E87" s="29"/>
       <c r="F87" s="29"/>
@@ -14962,7 +14882,7 @@
     </row>
     <row r="88" spans="3:13">
       <c r="C88" s="50" t="s">
-        <v>813</v>
+        <v>815</v>
       </c>
       <c r="D88" s="30"/>
       <c r="E88" s="30"/>
@@ -14978,7 +14898,7 @@
     <row r="89" ht="38" customHeight="1" spans="3:13">
       <c r="C89" s="30"/>
       <c r="D89" s="29" t="s">
-        <v>814</v>
+        <v>816</v>
       </c>
       <c r="E89" s="29"/>
       <c r="F89" s="29"/>
@@ -14993,7 +14913,7 @@
     <row r="90" spans="3:13">
       <c r="C90" s="30"/>
       <c r="D90" s="50" t="s">
-        <v>815</v>
+        <v>817</v>
       </c>
       <c r="E90" s="30"/>
       <c r="F90" s="30"/>
@@ -15009,7 +14929,7 @@
       <c r="C91" s="30"/>
       <c r="D91" s="30"/>
       <c r="E91" s="53" t="s">
-        <v>816</v>
+        <v>818</v>
       </c>
       <c r="F91" s="29"/>
       <c r="G91" s="29"/>
@@ -15023,7 +14943,7 @@
     <row r="92" ht="21" customHeight="1" spans="3:13">
       <c r="C92" s="30"/>
       <c r="D92" s="50" t="s">
-        <v>817</v>
+        <v>819</v>
       </c>
       <c r="E92" s="53"/>
       <c r="F92" s="29"/>
@@ -15039,7 +14959,7 @@
       <c r="C93" s="30"/>
       <c r="D93" s="30"/>
       <c r="E93" s="29" t="s">
-        <v>818</v>
+        <v>820</v>
       </c>
       <c r="F93" s="29"/>
       <c r="G93" s="29"/>
@@ -15053,7 +14973,7 @@
     <row r="94" ht="27" customHeight="1" spans="3:13">
       <c r="C94" s="30"/>
       <c r="D94" s="50" t="s">
-        <v>819</v>
+        <v>821</v>
       </c>
       <c r="E94" s="53"/>
       <c r="F94" s="29"/>
@@ -15069,7 +14989,7 @@
       <c r="C95" s="30"/>
       <c r="D95" s="30"/>
       <c r="E95" s="29" t="s">
-        <v>820</v>
+        <v>822</v>
       </c>
       <c r="F95" s="29"/>
       <c r="G95" s="29"/>
@@ -15084,7 +15004,7 @@
       <c r="C96" s="30"/>
       <c r="D96" s="30"/>
       <c r="E96" s="29" t="s">
-        <v>821</v>
+        <v>823</v>
       </c>
       <c r="F96" s="29"/>
       <c r="G96" s="29"/>
@@ -15097,13 +15017,13 @@
     </row>
     <row r="97" spans="2:13">
       <c r="B97" s="42" t="s">
-        <v>822</v>
+        <v>824</v>
       </c>
       <c r="M97" s="27"/>
     </row>
     <row r="98" spans="3:13">
       <c r="C98" s="36" t="s">
-        <v>823</v>
+        <v>825</v>
       </c>
       <c r="D98" s="37"/>
       <c r="E98" s="37"/>
@@ -15119,7 +15039,7 @@
     <row r="99" spans="3:13">
       <c r="C99" s="30"/>
       <c r="D99" s="29" t="s">
-        <v>824</v>
+        <v>826</v>
       </c>
       <c r="E99" s="29"/>
       <c r="F99" s="29"/>
@@ -15133,12 +15053,12 @@
     </row>
     <row r="100" spans="3:13">
       <c r="C100" s="50" t="s">
-        <v>825</v>
+        <v>827</v>
       </c>
       <c r="D100" s="30"/>
       <c r="E100" s="30"/>
       <c r="F100" s="30" t="s">
-        <v>826</v>
+        <v>828</v>
       </c>
       <c r="G100" s="30"/>
       <c r="H100" s="30"/>
@@ -15151,7 +15071,7 @@
     <row r="101" ht="95" customHeight="1" spans="3:13">
       <c r="C101" s="30"/>
       <c r="D101" s="29" t="s">
-        <v>827</v>
+        <v>829</v>
       </c>
       <c r="E101" s="29"/>
       <c r="F101" s="29"/>
@@ -15166,7 +15086,7 @@
     <row r="102" ht="75" customHeight="1" spans="3:13">
       <c r="C102" s="30"/>
       <c r="D102" s="29" t="s">
-        <v>828</v>
+        <v>830</v>
       </c>
       <c r="E102" s="29"/>
       <c r="F102" s="29"/>
@@ -15180,7 +15100,7 @@
     </row>
     <row r="103" spans="3:13">
       <c r="C103" s="50" t="s">
-        <v>829</v>
+        <v>831</v>
       </c>
       <c r="D103" s="30"/>
       <c r="E103" s="30"/>
@@ -15196,7 +15116,7 @@
     <row r="104" spans="3:13">
       <c r="C104" s="30"/>
       <c r="D104" s="50" t="s">
-        <v>830</v>
+        <v>832</v>
       </c>
       <c r="E104" s="30"/>
       <c r="F104" s="30"/>
@@ -15212,7 +15132,7 @@
       <c r="C105" s="30"/>
       <c r="D105" s="30"/>
       <c r="E105" s="29" t="s">
-        <v>831</v>
+        <v>833</v>
       </c>
       <c r="F105" s="29"/>
       <c r="G105" s="29"/>
@@ -15226,7 +15146,7 @@
     <row r="106" spans="3:13">
       <c r="C106" s="30"/>
       <c r="D106" s="50" t="s">
-        <v>832</v>
+        <v>834</v>
       </c>
       <c r="E106" s="30"/>
       <c r="F106" s="30"/>
@@ -15242,7 +15162,7 @@
       <c r="C107" s="30"/>
       <c r="D107" s="30"/>
       <c r="E107" s="29" t="s">
-        <v>833</v>
+        <v>835</v>
       </c>
       <c r="F107" s="29"/>
       <c r="G107" s="29"/>
@@ -15268,13 +15188,13 @@
     </row>
     <row r="109" spans="2:13">
       <c r="B109" s="42" t="s">
-        <v>834</v>
+        <v>836</v>
       </c>
       <c r="M109" s="27"/>
     </row>
     <row r="110" spans="3:13">
       <c r="C110" s="51" t="s">
-        <v>835</v>
+        <v>837</v>
       </c>
       <c r="D110" s="48"/>
       <c r="E110" s="48"/>
@@ -15289,7 +15209,7 @@
     </row>
     <row r="111" ht="71" customHeight="1" spans="4:13">
       <c r="D111" s="29" t="s">
-        <v>836</v>
+        <v>838</v>
       </c>
       <c r="E111" s="30"/>
       <c r="F111" s="30"/>
@@ -15306,19 +15226,19 @@
     </row>
     <row r="113" spans="1:13">
       <c r="A113" s="41" t="s">
-        <v>837</v>
+        <v>839</v>
       </c>
       <c r="M113" s="27"/>
     </row>
     <row r="114" spans="2:13">
       <c r="B114" s="42" t="s">
-        <v>838</v>
+        <v>840</v>
       </c>
       <c r="M114" s="27"/>
     </row>
     <row r="115" ht="159" customHeight="1" spans="3:13">
       <c r="C115" s="117" t="s">
-        <v>839</v>
+        <v>841</v>
       </c>
       <c r="D115" s="29"/>
       <c r="E115" s="29"/>
@@ -15333,13 +15253,13 @@
     </row>
     <row r="116" spans="2:13">
       <c r="B116" s="42" t="s">
-        <v>840</v>
+        <v>842</v>
       </c>
       <c r="M116" s="27"/>
     </row>
     <row r="117" spans="3:13">
       <c r="C117" s="29" t="s">
-        <v>841</v>
+        <v>843</v>
       </c>
       <c r="D117" s="29"/>
       <c r="E117" s="29"/>
@@ -15360,7 +15280,7 @@
     </row>
     <row r="119" ht="138" customHeight="1" spans="3:13">
       <c r="C119" s="29" t="s">
-        <v>842</v>
+        <v>844</v>
       </c>
       <c r="D119" s="29"/>
       <c r="E119" s="29"/>
@@ -15378,19 +15298,19 @@
     </row>
     <row r="121" spans="1:13">
       <c r="A121" s="41" t="s">
-        <v>843</v>
+        <v>845</v>
       </c>
       <c r="M121" s="27"/>
     </row>
     <row r="122" spans="2:13">
       <c r="B122" s="42" t="s">
-        <v>844</v>
+        <v>846</v>
       </c>
       <c r="M122" s="27"/>
     </row>
     <row r="123" ht="153" customHeight="1" spans="3:13">
       <c r="C123" s="39" t="s">
-        <v>845</v>
+        <v>847</v>
       </c>
       <c r="D123" s="52"/>
       <c r="E123" s="52"/>
@@ -15405,13 +15325,13 @@
     </row>
     <row r="124" spans="2:13">
       <c r="B124" s="42" t="s">
-        <v>846</v>
+        <v>848</v>
       </c>
       <c r="M124" s="27"/>
     </row>
     <row r="125" ht="187" customHeight="1" spans="3:13">
       <c r="C125" s="39" t="s">
-        <v>847</v>
+        <v>849</v>
       </c>
       <c r="D125" s="39"/>
       <c r="E125" s="39"/>
@@ -15426,13 +15346,13 @@
     </row>
     <row r="126" spans="3:13">
       <c r="C126" s="32" t="s">
-        <v>848</v>
+        <v>850</v>
       </c>
       <c r="M126" s="27"/>
     </row>
     <row r="127" ht="133" customHeight="1" spans="4:13">
       <c r="D127" s="39" t="s">
-        <v>849</v>
+        <v>851</v>
       </c>
       <c r="E127" s="52"/>
       <c r="F127" s="52"/>
@@ -15446,10 +15366,10 @@
     </row>
     <row r="128" ht="56" customHeight="1" spans="1:13">
       <c r="A128" s="41" t="s">
-        <v>850</v>
+        <v>852</v>
       </c>
       <c r="C128" s="29" t="s">
-        <v>851</v>
+        <v>853</v>
       </c>
       <c r="D128" s="29"/>
       <c r="E128" s="29"/>
@@ -15467,10 +15387,10 @@
     </row>
     <row r="130" ht="90" customHeight="1" spans="2:13">
       <c r="B130" s="54" t="s">
-        <v>852</v>
+        <v>854</v>
       </c>
       <c r="C130" s="29" t="s">
-        <v>853</v>
+        <v>855</v>
       </c>
       <c r="D130" s="30"/>
       <c r="E130" s="30"/>
@@ -15485,13 +15405,13 @@
     </row>
     <row r="131" spans="2:13">
       <c r="B131" s="42" t="s">
-        <v>854</v>
+        <v>856</v>
       </c>
       <c r="M131" s="27"/>
     </row>
     <row r="132" ht="124" customHeight="1" spans="3:13">
       <c r="C132" s="39" t="s">
-        <v>855</v>
+        <v>857</v>
       </c>
       <c r="D132" s="39"/>
       <c r="E132" s="39"/>
@@ -15506,13 +15426,13 @@
     </row>
     <row r="133" spans="2:13">
       <c r="B133" s="42" t="s">
-        <v>856</v>
+        <v>858</v>
       </c>
       <c r="M133" s="27"/>
     </row>
     <row r="134" ht="95" customHeight="1" spans="3:13">
       <c r="C134" s="29" t="s">
-        <v>857</v>
+        <v>859</v>
       </c>
       <c r="D134" s="29"/>
       <c r="E134" s="29"/>
@@ -15530,13 +15450,13 @@
     </row>
     <row r="136" spans="1:13">
       <c r="A136" s="41" t="s">
-        <v>858</v>
+        <v>860</v>
       </c>
       <c r="M136" s="27"/>
     </row>
     <row r="137" ht="60" customHeight="1" spans="2:13">
       <c r="B137" s="55" t="s">
-        <v>859</v>
+        <v>861</v>
       </c>
       <c r="C137" s="55"/>
       <c r="D137" s="55"/>
@@ -15552,13 +15472,13 @@
     </row>
     <row r="138" spans="2:13">
       <c r="B138" s="42" t="s">
-        <v>860</v>
+        <v>862</v>
       </c>
       <c r="M138" s="27"/>
     </row>
     <row r="139" ht="69" customHeight="1" spans="3:13">
       <c r="C139" s="29" t="s">
-        <v>861</v>
+        <v>863</v>
       </c>
       <c r="D139" s="29"/>
       <c r="E139" s="29"/>
@@ -15573,13 +15493,13 @@
     </row>
     <row r="140" spans="2:13">
       <c r="B140" s="42" t="s">
-        <v>862</v>
+        <v>864</v>
       </c>
       <c r="M140" s="27"/>
     </row>
     <row r="141" ht="57" customHeight="1" spans="3:13">
       <c r="C141" s="29" t="s">
-        <v>863</v>
+        <v>865</v>
       </c>
       <c r="D141" s="29"/>
       <c r="E141" s="29"/>
@@ -15594,12 +15514,12 @@
     </row>
     <row r="142" spans="2:2">
       <c r="B142" s="42" t="s">
-        <v>864</v>
+        <v>866</v>
       </c>
     </row>
     <row r="143" ht="39" customHeight="1" spans="3:13">
       <c r="C143" s="29" t="s">
-        <v>865</v>
+        <v>867</v>
       </c>
       <c r="D143" s="29"/>
       <c r="E143" s="29"/>
@@ -15614,7 +15534,7 @@
     </row>
     <row r="144" ht="38" customHeight="1" spans="3:13">
       <c r="C144" s="29" t="s">
-        <v>866</v>
+        <v>868</v>
       </c>
       <c r="D144" s="29"/>
       <c r="E144" s="29"/>
@@ -15629,12 +15549,12 @@
     </row>
     <row r="145" spans="2:2">
       <c r="B145" s="42" t="s">
-        <v>867</v>
+        <v>869</v>
       </c>
     </row>
     <row r="146" ht="38" customHeight="1" spans="3:13">
       <c r="C146" s="29" t="s">
-        <v>868</v>
+        <v>870</v>
       </c>
       <c r="D146" s="29"/>
       <c r="E146" s="29"/>
@@ -15649,7 +15569,7 @@
     </row>
     <row r="147" spans="2:13">
       <c r="B147" s="56" t="s">
-        <v>869</v>
+        <v>871</v>
       </c>
       <c r="C147" s="56"/>
       <c r="D147" s="56"/>
@@ -15665,22 +15585,22 @@
     </row>
     <row r="149" spans="1:1">
       <c r="A149" s="41" t="s">
-        <v>870</v>
+        <v>872</v>
       </c>
     </row>
     <row r="150" spans="2:2">
       <c r="B150" s="42" t="s">
-        <v>871</v>
+        <v>873</v>
       </c>
     </row>
     <row r="151" spans="3:3">
       <c r="C151" s="32" t="s">
-        <v>872</v>
+        <v>874</v>
       </c>
     </row>
     <row r="152" ht="39" customHeight="1" spans="4:13">
       <c r="D152" s="29" t="s">
-        <v>873</v>
+        <v>875</v>
       </c>
       <c r="E152" s="30"/>
       <c r="F152" s="30"/>
@@ -15694,12 +15614,12 @@
     </row>
     <row r="153" spans="3:3">
       <c r="C153" s="32" t="s">
-        <v>874</v>
+        <v>876</v>
       </c>
     </row>
     <row r="154" ht="38" customHeight="1" spans="4:13">
       <c r="D154" s="29" t="s">
-        <v>875</v>
+        <v>877</v>
       </c>
       <c r="E154" s="30"/>
       <c r="F154" s="30"/>
@@ -15713,12 +15633,12 @@
     </row>
     <row r="155" spans="2:2">
       <c r="B155" s="42" t="s">
-        <v>876</v>
+        <v>878</v>
       </c>
     </row>
     <row r="156" ht="168" customHeight="1" spans="3:13">
       <c r="C156" s="29" t="s">
-        <v>877</v>
+        <v>879</v>
       </c>
       <c r="D156" s="29"/>
       <c r="E156" s="29"/>
@@ -15734,17 +15654,17 @@
     <row r="157" ht="21" customHeight="1"/>
     <row r="158" ht="20" customHeight="1" spans="1:1">
       <c r="A158" s="41" t="s">
-        <v>878</v>
+        <v>880</v>
       </c>
     </row>
     <row r="159" spans="2:2">
       <c r="B159" s="42" t="s">
-        <v>879</v>
+        <v>881</v>
       </c>
     </row>
     <row r="160" spans="3:13">
       <c r="C160" s="29" t="s">
-        <v>880</v>
+        <v>882</v>
       </c>
       <c r="D160" s="29"/>
       <c r="E160" s="29"/>
@@ -15759,12 +15679,12 @@
     </row>
     <row r="161" spans="2:2">
       <c r="B161" s="42" t="s">
-        <v>881</v>
+        <v>883</v>
       </c>
     </row>
     <row r="162" ht="35" customHeight="1" spans="3:13">
       <c r="C162" s="29" t="s">
-        <v>882</v>
+        <v>884</v>
       </c>
       <c r="D162" s="29"/>
       <c r="E162" s="29"/>
@@ -15779,12 +15699,12 @@
     </row>
     <row r="163" spans="2:2">
       <c r="B163" s="42" t="s">
-        <v>883</v>
+        <v>885</v>
       </c>
     </row>
     <row r="164" spans="3:13">
       <c r="C164" s="29" t="s">
-        <v>884</v>
+        <v>886</v>
       </c>
       <c r="D164" s="29"/>
       <c r="E164" s="29"/>
@@ -15799,12 +15719,12 @@
     </row>
     <row r="166" spans="1:1">
       <c r="A166" s="41" t="s">
-        <v>883</v>
+        <v>885</v>
       </c>
     </row>
     <row r="167" ht="73" customHeight="1" spans="2:13">
       <c r="B167" s="38" t="s">
-        <v>885</v>
+        <v>887</v>
       </c>
       <c r="C167" s="38"/>
       <c r="D167" s="38"/>
@@ -15820,17 +15740,17 @@
     </row>
     <row r="168" spans="2:2">
       <c r="B168" s="42" t="s">
-        <v>886</v>
+        <v>888</v>
       </c>
     </row>
     <row r="169" spans="3:3">
       <c r="C169" s="32" t="s">
-        <v>887</v>
+        <v>889</v>
       </c>
     </row>
     <row r="170" ht="71" customHeight="1" spans="4:13">
       <c r="D170" s="29" t="s">
-        <v>888</v>
+        <v>890</v>
       </c>
       <c r="E170" s="30"/>
       <c r="F170" s="30"/>
@@ -15844,12 +15764,12 @@
     </row>
     <row r="171" spans="3:3">
       <c r="C171" s="32" t="s">
-        <v>687</v>
+        <v>689</v>
       </c>
     </row>
     <row r="172" ht="234" customHeight="1" spans="4:13">
       <c r="D172" s="29" t="s">
-        <v>889</v>
+        <v>891</v>
       </c>
       <c r="E172" s="29"/>
       <c r="F172" s="29"/>
@@ -15863,12 +15783,12 @@
     </row>
     <row r="173" ht="24" customHeight="1" spans="3:3">
       <c r="C173" s="32" t="s">
-        <v>890</v>
+        <v>892</v>
       </c>
     </row>
     <row r="174" spans="4:13">
       <c r="D174" s="30" t="s">
-        <v>891</v>
+        <v>893</v>
       </c>
       <c r="E174" s="30"/>
       <c r="F174" s="30"/>
@@ -15882,20 +15802,20 @@
     </row>
     <row r="175" spans="2:5">
       <c r="B175" s="42" t="s">
-        <v>892</v>
+        <v>894</v>
       </c>
       <c r="E175" s="57" t="s">
-        <v>893</v>
+        <v>895</v>
       </c>
     </row>
     <row r="176" spans="3:3">
       <c r="C176" s="32" t="s">
-        <v>894</v>
+        <v>896</v>
       </c>
     </row>
     <row r="177" ht="160" customHeight="1" spans="4:13">
       <c r="D177" s="29" t="s">
-        <v>895</v>
+        <v>897</v>
       </c>
       <c r="E177" s="29"/>
       <c r="F177" s="29"/>
@@ -15909,17 +15829,17 @@
     </row>
     <row r="178" spans="3:3">
       <c r="C178" s="32" t="s">
-        <v>896</v>
+        <v>898</v>
       </c>
     </row>
     <row r="179" spans="4:4">
       <c r="D179" s="32" t="s">
-        <v>897</v>
+        <v>899</v>
       </c>
     </row>
     <row r="180" ht="91" customHeight="1" spans="5:13">
       <c r="E180" s="29" t="s">
-        <v>898</v>
+        <v>900</v>
       </c>
       <c r="F180" s="30"/>
       <c r="G180" s="30"/>
@@ -15932,12 +15852,12 @@
     </row>
     <row r="181" spans="4:4">
       <c r="D181" s="32" t="s">
-        <v>899</v>
+        <v>901</v>
       </c>
     </row>
     <row r="182" spans="5:13">
       <c r="E182" s="29" t="s">
-        <v>900</v>
+        <v>902</v>
       </c>
       <c r="F182" s="29"/>
       <c r="G182" s="29"/>
@@ -15950,7 +15870,7 @@
     </row>
     <row r="183" spans="4:13">
       <c r="D183" s="32" t="s">
-        <v>901</v>
+        <v>903</v>
       </c>
       <c r="E183" s="29"/>
       <c r="F183" s="29"/>
@@ -15964,12 +15884,12 @@
     </row>
     <row r="184" spans="5:5">
       <c r="E184" s="58" t="s">
-        <v>902</v>
+        <v>904</v>
       </c>
     </row>
     <row r="185" ht="93" customHeight="1" spans="5:13">
       <c r="E185" s="29" t="s">
-        <v>903</v>
+        <v>905</v>
       </c>
       <c r="F185" s="29"/>
       <c r="G185" s="29"/>
@@ -15982,12 +15902,12 @@
     </row>
     <row r="186" spans="5:5">
       <c r="E186" s="58" t="s">
-        <v>904</v>
+        <v>906</v>
       </c>
     </row>
     <row r="187" ht="108" customHeight="1" spans="5:13">
       <c r="E187" s="29" t="s">
-        <v>905</v>
+        <v>907</v>
       </c>
       <c r="F187" s="29"/>
       <c r="G187" s="29"/>
@@ -16000,12 +15920,12 @@
     </row>
     <row r="188" spans="4:4">
       <c r="D188" s="32" t="s">
-        <v>906</v>
+        <v>908</v>
       </c>
     </row>
     <row r="189" ht="41" customHeight="1" spans="5:13">
       <c r="E189" s="29" t="s">
-        <v>907</v>
+        <v>909</v>
       </c>
       <c r="F189" s="29"/>
       <c r="G189" s="29"/>
@@ -16018,7 +15938,7 @@
     </row>
     <row r="190" ht="83" customHeight="1" spans="5:13">
       <c r="E190" s="29" t="s">
-        <v>908</v>
+        <v>910</v>
       </c>
       <c r="F190" s="29"/>
       <c r="G190" s="29"/>
@@ -16031,17 +15951,17 @@
     </row>
     <row r="191" spans="2:2">
       <c r="B191" s="42" t="s">
-        <v>909</v>
+        <v>911</v>
       </c>
     </row>
     <row r="192" spans="3:3">
       <c r="C192" s="32" t="s">
-        <v>910</v>
+        <v>912</v>
       </c>
     </row>
     <row r="193" ht="54" customHeight="1" spans="4:13">
       <c r="D193" s="29" t="s">
-        <v>911</v>
+        <v>913</v>
       </c>
       <c r="E193" s="29"/>
       <c r="F193" s="29"/>
@@ -16055,7 +15975,7 @@
     </row>
     <row r="194" ht="70" customHeight="1" spans="4:13">
       <c r="D194" s="59" t="s">
-        <v>912</v>
+        <v>914</v>
       </c>
       <c r="E194" s="59"/>
       <c r="F194" s="59"/>
@@ -16069,15 +15989,15 @@
     </row>
     <row r="195" spans="3:6">
       <c r="C195" s="32" t="s">
-        <v>913</v>
+        <v>915</v>
       </c>
       <c r="F195" s="58" t="s">
-        <v>904</v>
+        <v>906</v>
       </c>
     </row>
     <row r="196" ht="105" customHeight="1" spans="4:13">
       <c r="D196" s="29" t="s">
-        <v>914</v>
+        <v>916</v>
       </c>
       <c r="E196" s="29"/>
       <c r="F196" s="29"/>
@@ -16091,22 +16011,22 @@
     </row>
     <row r="197" spans="2:2">
       <c r="B197" s="42" t="s">
-        <v>915</v>
+        <v>917</v>
       </c>
     </row>
     <row r="199" spans="1:1">
       <c r="A199" s="41" t="s">
-        <v>916</v>
+        <v>918</v>
       </c>
     </row>
     <row r="200" spans="2:2">
       <c r="B200" s="42" t="s">
-        <v>917</v>
+        <v>919</v>
       </c>
     </row>
     <row r="201" ht="57" customHeight="1" spans="3:13">
       <c r="C201" s="29" t="s">
-        <v>918</v>
+        <v>920</v>
       </c>
       <c r="D201" s="29"/>
       <c r="E201" s="29"/>
@@ -16249,17 +16169,17 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="25" t="s">
-        <v>919</v>
+        <v>921</v>
       </c>
     </row>
     <row r="2" spans="2:2">
       <c r="B2" s="28" t="s">
-        <v>920</v>
+        <v>922</v>
       </c>
     </row>
     <row r="3" ht="108" customHeight="1" spans="3:14">
       <c r="C3" s="29" t="s">
-        <v>921</v>
+        <v>923</v>
       </c>
       <c r="D3" s="30"/>
       <c r="E3" s="30"/>
@@ -16275,10 +16195,10 @@
     </row>
     <row r="4" spans="2:14">
       <c r="B4" s="28" t="s">
-        <v>922</v>
+        <v>924</v>
       </c>
       <c r="D4" s="30" t="s">
-        <v>923</v>
+        <v>925</v>
       </c>
       <c r="E4" s="30"/>
       <c r="F4" s="30"/>
@@ -16293,7 +16213,7 @@
     </row>
     <row r="5" ht="36" customHeight="1" spans="3:14">
       <c r="C5" s="29" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="D5" s="29"/>
       <c r="E5" s="29"/>
@@ -16309,12 +16229,12 @@
     </row>
     <row r="6" spans="2:2">
       <c r="B6" s="28" t="s">
-        <v>925</v>
+        <v>927</v>
       </c>
     </row>
     <row r="7" ht="37" customHeight="1" spans="3:14">
       <c r="C7" s="29" t="s">
-        <v>926</v>
+        <v>928</v>
       </c>
       <c r="D7" s="29"/>
       <c r="E7" s="29"/>
@@ -16330,12 +16250,12 @@
     </row>
     <row r="9" spans="2:2">
       <c r="B9" s="28" t="s">
-        <v>927</v>
+        <v>929</v>
       </c>
     </row>
     <row r="10" ht="108" customHeight="1" spans="3:14">
       <c r="C10" s="29" t="s">
-        <v>928</v>
+        <v>930</v>
       </c>
       <c r="D10" s="29"/>
       <c r="E10" s="29"/>
@@ -16351,7 +16271,7 @@
     </row>
     <row r="11" ht="76" customHeight="1" spans="3:14">
       <c r="C11" s="29" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="D11" s="29"/>
       <c r="E11" s="29"/>
@@ -16367,12 +16287,12 @@
     </row>
     <row r="12" spans="2:2">
       <c r="B12" s="28" t="s">
-        <v>930</v>
+        <v>932</v>
       </c>
     </row>
     <row r="13" spans="3:14">
       <c r="C13" s="29" t="s">
-        <v>931</v>
+        <v>933</v>
       </c>
       <c r="D13" s="29"/>
       <c r="E13" s="29"/>
@@ -16388,12 +16308,12 @@
     </row>
     <row r="14" spans="2:2">
       <c r="B14" s="28" t="s">
-        <v>932</v>
+        <v>934</v>
       </c>
     </row>
     <row r="15" ht="136" customHeight="1" spans="3:14">
       <c r="C15" s="29" t="s">
-        <v>933</v>
+        <v>935</v>
       </c>
       <c r="D15" s="29"/>
       <c r="E15" s="29"/>
@@ -16409,10 +16329,10 @@
     </row>
     <row r="16" spans="2:14">
       <c r="B16" s="28" t="s">
-        <v>934</v>
+        <v>936</v>
       </c>
       <c r="D16" s="29" t="s">
-        <v>935</v>
+        <v>937</v>
       </c>
       <c r="E16" s="29"/>
       <c r="F16" s="29"/>
@@ -16427,7 +16347,7 @@
     </row>
     <row r="17" ht="72" customHeight="1" spans="3:14">
       <c r="C17" s="29" t="s">
-        <v>936</v>
+        <v>938</v>
       </c>
       <c r="D17" s="29"/>
       <c r="E17" s="29"/>
@@ -16457,12 +16377,12 @@
     </row>
     <row r="19" ht="20" customHeight="1" spans="1:1">
       <c r="A19" s="25" t="s">
-        <v>937</v>
+        <v>939</v>
       </c>
     </row>
     <row r="20" ht="38" customHeight="1" spans="2:14">
       <c r="B20" s="31" t="s">
-        <v>938</v>
+        <v>940</v>
       </c>
       <c r="C20" s="31"/>
       <c r="D20" s="31"/>
@@ -16479,12 +16399,12 @@
     </row>
     <row r="21" spans="2:2">
       <c r="B21" s="28" t="s">
-        <v>939</v>
+        <v>941</v>
       </c>
     </row>
     <row r="22" spans="3:14">
       <c r="C22" s="29" t="s">
-        <v>940</v>
+        <v>942</v>
       </c>
       <c r="D22" s="29"/>
       <c r="E22" s="29"/>
@@ -16500,12 +16420,12 @@
     </row>
     <row r="23" spans="2:2">
       <c r="B23" s="28" t="s">
-        <v>941</v>
+        <v>943</v>
       </c>
     </row>
     <row r="24" ht="54" customHeight="1" spans="3:14">
       <c r="C24" s="29" t="s">
-        <v>942</v>
+        <v>944</v>
       </c>
       <c r="D24" s="29"/>
       <c r="E24" s="29"/>
@@ -16521,12 +16441,12 @@
     </row>
     <row r="25" spans="3:3">
       <c r="C25" s="32" t="s">
-        <v>943</v>
+        <v>945</v>
       </c>
     </row>
     <row r="26" spans="4:14">
       <c r="D26" s="29" t="s">
-        <v>944</v>
+        <v>946</v>
       </c>
       <c r="E26" s="29"/>
       <c r="F26" s="29"/>
@@ -16541,12 +16461,12 @@
     </row>
     <row r="27" spans="3:3">
       <c r="C27" s="32" t="s">
-        <v>945</v>
+        <v>947</v>
       </c>
     </row>
     <row r="28" spans="4:14">
       <c r="D28" s="30" t="s">
-        <v>946</v>
+        <v>948</v>
       </c>
       <c r="E28" s="30"/>
       <c r="F28" s="30"/>
@@ -16561,17 +16481,17 @@
     </row>
     <row r="30" spans="1:1">
       <c r="A30" s="25" t="s">
-        <v>947</v>
+        <v>949</v>
       </c>
     </row>
     <row r="31" spans="2:2">
       <c r="B31" s="28" t="s">
-        <v>948</v>
+        <v>950</v>
       </c>
     </row>
     <row r="32" ht="73" customHeight="1" spans="3:14">
       <c r="C32" s="29" t="s">
-        <v>949</v>
+        <v>951</v>
       </c>
       <c r="D32" s="29"/>
       <c r="E32" s="29"/>
@@ -16587,12 +16507,12 @@
     </row>
     <row r="33" spans="2:2">
       <c r="B33" s="28" t="s">
-        <v>950</v>
+        <v>952</v>
       </c>
     </row>
     <row r="34" ht="82" customHeight="1" spans="3:14">
       <c r="C34" s="29" t="s">
-        <v>951</v>
+        <v>953</v>
       </c>
       <c r="D34" s="30"/>
       <c r="E34" s="30"/>
@@ -16608,12 +16528,12 @@
     </row>
     <row r="35" spans="2:2">
       <c r="B35" s="28" t="s">
-        <v>952</v>
+        <v>954</v>
       </c>
     </row>
     <row r="36" ht="145" customHeight="1" spans="3:14">
       <c r="C36" s="29" t="s">
-        <v>953</v>
+        <v>955</v>
       </c>
       <c r="D36" s="29"/>
       <c r="E36" s="29"/>
@@ -16629,12 +16549,12 @@
     </row>
     <row r="37" spans="2:2">
       <c r="B37" s="28" t="s">
-        <v>954</v>
+        <v>956</v>
       </c>
     </row>
     <row r="38" spans="3:14">
       <c r="C38" s="30" t="s">
-        <v>955</v>
+        <v>957</v>
       </c>
       <c r="D38" s="30"/>
       <c r="E38" s="30"/>
@@ -16650,17 +16570,17 @@
     </row>
     <row r="39" spans="2:2">
       <c r="B39" s="28" t="s">
-        <v>956</v>
+        <v>958</v>
       </c>
     </row>
     <row r="40" spans="3:3">
       <c r="C40" s="32" t="s">
-        <v>957</v>
+        <v>959</v>
       </c>
     </row>
     <row r="41" ht="55" customHeight="1" spans="4:14">
       <c r="D41" s="29" t="s">
-        <v>958</v>
+        <v>960</v>
       </c>
       <c r="E41" s="29"/>
       <c r="F41" s="29"/>
@@ -16675,12 +16595,12 @@
     </row>
     <row r="42" spans="3:3">
       <c r="C42" s="32" t="s">
-        <v>959</v>
+        <v>961</v>
       </c>
     </row>
     <row r="43" ht="38" customHeight="1" spans="4:14">
       <c r="D43" s="29" t="s">
-        <v>960</v>
+        <v>962</v>
       </c>
       <c r="E43" s="29"/>
       <c r="F43" s="29"/>
@@ -16695,12 +16615,12 @@
     </row>
     <row r="44" spans="3:3">
       <c r="C44" s="32" t="s">
-        <v>961</v>
+        <v>963</v>
       </c>
     </row>
     <row r="45" spans="4:14">
       <c r="D45" s="29" t="s">
-        <v>962</v>
+        <v>964</v>
       </c>
       <c r="E45" s="29"/>
       <c r="F45" s="29"/>
@@ -16715,10 +16635,10 @@
     </row>
     <row r="47" spans="1:14">
       <c r="A47" s="25" t="s">
-        <v>963</v>
+        <v>965</v>
       </c>
       <c r="C47" s="30" t="s">
-        <v>964</v>
+        <v>966</v>
       </c>
       <c r="D47" s="30"/>
       <c r="E47" s="30"/>
@@ -16734,12 +16654,12 @@
     </row>
     <row r="48" spans="2:2">
       <c r="B48" s="28" t="s">
-        <v>965</v>
+        <v>967</v>
       </c>
     </row>
     <row r="49" ht="74" customHeight="1" spans="3:14">
       <c r="C49" s="29" t="s">
-        <v>966</v>
+        <v>968</v>
       </c>
       <c r="D49" s="30"/>
       <c r="E49" s="30"/>
@@ -16755,12 +16675,12 @@
     </row>
     <row r="50" spans="2:2">
       <c r="B50" s="28" t="s">
-        <v>967</v>
+        <v>969</v>
       </c>
     </row>
     <row r="51" ht="57" customHeight="1" spans="3:14">
       <c r="C51" s="29" t="s">
-        <v>968</v>
+        <v>970</v>
       </c>
       <c r="D51" s="30"/>
       <c r="E51" s="30"/>
@@ -16776,12 +16696,12 @@
     </row>
     <row r="52" spans="2:2">
       <c r="B52" s="28" t="s">
-        <v>969</v>
+        <v>971</v>
       </c>
     </row>
     <row r="53" ht="37" customHeight="1" spans="3:14">
       <c r="C53" s="29" t="s">
-        <v>970</v>
+        <v>972</v>
       </c>
       <c r="D53" s="29"/>
       <c r="E53" s="29"/>
@@ -16797,24 +16717,24 @@
     </row>
     <row r="55" spans="1:1">
       <c r="A55" s="25" t="s">
-        <v>971</v>
+        <v>973</v>
       </c>
     </row>
     <row r="56" spans="2:3">
       <c r="B56" s="28" t="s">
-        <v>972</v>
+        <v>974</v>
       </c>
       <c r="C56" s="32"/>
     </row>
     <row r="57" spans="3:3">
       <c r="C57" s="32" t="s">
-        <v>973</v>
+        <v>975</v>
       </c>
     </row>
     <row r="58" spans="3:14">
       <c r="C58" s="32"/>
       <c r="D58" s="29" t="s">
-        <v>974</v>
+        <v>976</v>
       </c>
       <c r="E58" s="29"/>
       <c r="F58" s="29"/>
@@ -16829,13 +16749,13 @@
     </row>
     <row r="59" spans="3:3">
       <c r="C59" s="32" t="s">
-        <v>975</v>
+        <v>977</v>
       </c>
     </row>
     <row r="60" ht="95" customHeight="1" spans="3:14">
       <c r="C60" s="32"/>
       <c r="D60" s="117" t="s">
-        <v>976</v>
+        <v>978</v>
       </c>
       <c r="E60" s="29"/>
       <c r="F60" s="29"/>
@@ -16850,13 +16770,13 @@
     </row>
     <row r="61" spans="3:3">
       <c r="C61" s="32" t="s">
-        <v>977</v>
+        <v>979</v>
       </c>
     </row>
     <row r="62" ht="108" customHeight="1" spans="3:14">
       <c r="C62" s="32"/>
       <c r="D62" s="29" t="s">
-        <v>978</v>
+        <v>980</v>
       </c>
       <c r="E62" s="29"/>
       <c r="F62" s="29"/>
@@ -16871,12 +16791,12 @@
     </row>
     <row r="63" spans="3:3">
       <c r="C63" s="32" t="s">
-        <v>979</v>
+        <v>981</v>
       </c>
     </row>
     <row r="64" ht="36" customHeight="1" spans="4:14">
       <c r="D64" s="29" t="s">
-        <v>980</v>
+        <v>982</v>
       </c>
       <c r="E64" s="29"/>
       <c r="F64" s="29"/>
@@ -16903,10 +16823,10 @@
     </row>
     <row r="66" ht="19" customHeight="1" spans="1:14">
       <c r="A66" s="25" t="s">
-        <v>981</v>
+        <v>983</v>
       </c>
       <c r="C66" s="29" t="s">
-        <v>982</v>
+        <v>984</v>
       </c>
       <c r="D66" s="29"/>
       <c r="E66" s="29"/>
@@ -16922,19 +16842,19 @@
     </row>
     <row r="67" spans="2:3">
       <c r="B67" s="28" t="s">
-        <v>983</v>
+        <v>985</v>
       </c>
       <c r="C67" s="32"/>
     </row>
     <row r="68" spans="3:3">
       <c r="C68" s="32" t="s">
-        <v>984</v>
+        <v>986</v>
       </c>
     </row>
     <row r="69" ht="72" customHeight="1" spans="3:14">
       <c r="C69" s="32"/>
       <c r="D69" s="117" t="s">
-        <v>985</v>
+        <v>987</v>
       </c>
       <c r="E69" s="29"/>
       <c r="F69" s="29"/>
@@ -16949,13 +16869,13 @@
     </row>
     <row r="70" spans="3:3">
       <c r="C70" s="32" t="s">
-        <v>986</v>
+        <v>988</v>
       </c>
     </row>
     <row r="71" ht="102" customHeight="1" spans="3:14">
       <c r="C71" s="32"/>
       <c r="D71" s="117" t="s">
-        <v>987</v>
+        <v>989</v>
       </c>
       <c r="E71" s="29"/>
       <c r="F71" s="29"/>
@@ -16970,7 +16890,7 @@
     </row>
     <row r="72" spans="3:13">
       <c r="C72" s="32" t="s">
-        <v>988</v>
+        <v>990</v>
       </c>
       <c r="D72"/>
       <c r="E72"/>
@@ -16986,7 +16906,7 @@
     <row r="73" spans="3:13">
       <c r="C73" s="32"/>
       <c r="D73" s="30" t="s">
-        <v>989</v>
+        <v>991</v>
       </c>
       <c r="E73" s="30"/>
       <c r="F73" s="30"/>
@@ -17000,7 +16920,7 @@
     </row>
     <row r="74" spans="3:13">
       <c r="C74" s="32" t="s">
-        <v>990</v>
+        <v>992</v>
       </c>
       <c r="D74"/>
       <c r="E74"/>
@@ -17016,7 +16936,7 @@
     <row r="75" ht="57" customHeight="1" spans="3:14">
       <c r="C75" s="32"/>
       <c r="D75" s="29" t="s">
-        <v>991</v>
+        <v>993</v>
       </c>
       <c r="E75" s="29"/>
       <c r="F75" s="29"/>
@@ -17031,13 +16951,13 @@
     </row>
     <row r="76" spans="3:3">
       <c r="C76" s="32" t="s">
-        <v>992</v>
+        <v>994</v>
       </c>
     </row>
     <row r="77" ht="108" customHeight="1" spans="3:14">
       <c r="C77" s="32"/>
       <c r="D77" s="117" t="s">
-        <v>993</v>
+        <v>995</v>
       </c>
       <c r="E77" s="29"/>
       <c r="F77" s="29"/>
@@ -17052,17 +16972,17 @@
     </row>
     <row r="79" spans="1:1">
       <c r="A79" s="25" t="s">
-        <v>994</v>
+        <v>996</v>
       </c>
     </row>
     <row r="80" spans="2:2">
       <c r="B80" s="28" t="s">
-        <v>995</v>
+        <v>997</v>
       </c>
     </row>
     <row r="81" ht="159" customHeight="1" spans="3:14">
       <c r="C81" s="29" t="s">
-        <v>996</v>
+        <v>998</v>
       </c>
       <c r="D81" s="29"/>
       <c r="E81" s="29"/>
@@ -17078,10 +16998,10 @@
     </row>
     <row r="82" spans="2:14">
       <c r="B82" s="28" t="s">
-        <v>997</v>
+        <v>999</v>
       </c>
       <c r="D82" s="29" t="s">
-        <v>998</v>
+        <v>1000</v>
       </c>
       <c r="E82" s="29"/>
       <c r="F82" s="29"/>
@@ -17096,7 +17016,7 @@
     </row>
     <row r="83" ht="58" customHeight="1" spans="3:14">
       <c r="C83" s="29" t="s">
-        <v>999</v>
+        <v>1001</v>
       </c>
       <c r="D83" s="29"/>
       <c r="E83" s="29"/>
@@ -17112,7 +17032,7 @@
     </row>
     <row r="84" ht="22" customHeight="1" spans="3:13">
       <c r="C84" s="33" t="s">
-        <v>1000</v>
+        <v>1002</v>
       </c>
       <c r="D84" s="29"/>
       <c r="E84" s="29"/>
@@ -17128,7 +17048,7 @@
     <row r="85" ht="161" customHeight="1" spans="3:14">
       <c r="C85" s="29"/>
       <c r="D85" s="29" t="s">
-        <v>1001</v>
+        <v>1003</v>
       </c>
       <c r="E85" s="29"/>
       <c r="F85" s="29"/>
@@ -17143,17 +17063,17 @@
     </row>
     <row r="86" spans="1:1">
       <c r="A86" s="25" t="s">
-        <v>1002</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="87" spans="2:2">
       <c r="B87" s="28" t="s">
-        <v>1003</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="88" ht="85" customHeight="1" spans="3:14">
       <c r="C88" s="29" t="s">
-        <v>1004</v>
+        <v>1006</v>
       </c>
       <c r="D88" s="29"/>
       <c r="E88" s="29"/>
@@ -17169,12 +17089,12 @@
     </row>
     <row r="89" spans="3:3">
       <c r="C89" s="32" t="s">
-        <v>1005</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="90" ht="60" customHeight="1" spans="4:14">
       <c r="D90" s="29" t="s">
-        <v>1006</v>
+        <v>1008</v>
       </c>
       <c r="E90" s="29"/>
       <c r="F90" s="29"/>
@@ -17189,12 +17109,12 @@
     </row>
     <row r="91" spans="2:2">
       <c r="B91" s="28" t="s">
-        <v>1007</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="92" ht="56" customHeight="1" spans="3:14">
       <c r="C92" s="29" t="s">
-        <v>1008</v>
+        <v>1010</v>
       </c>
       <c r="D92" s="29"/>
       <c r="E92" s="29"/>
@@ -17210,12 +17130,12 @@
     </row>
     <row r="93" spans="3:3">
       <c r="C93" s="32" t="s">
-        <v>1009</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="94" ht="153" customHeight="1" spans="4:14">
       <c r="D94" s="29" t="s">
-        <v>1010</v>
+        <v>1012</v>
       </c>
       <c r="E94" s="29"/>
       <c r="F94" s="29"/>
@@ -17243,12 +17163,12 @@
     </row>
     <row r="96" ht="20" customHeight="1" spans="1:1">
       <c r="A96" s="25" t="s">
-        <v>1011</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="97" ht="41" customHeight="1" spans="2:14">
       <c r="B97" s="29" t="s">
-        <v>1012</v>
+        <v>1014</v>
       </c>
       <c r="C97" s="29"/>
       <c r="D97" s="29"/>
@@ -17265,12 +17185,12 @@
     </row>
     <row r="98" ht="23" customHeight="1" spans="2:2">
       <c r="B98" s="28" t="s">
-        <v>1013</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="99" ht="172" customHeight="1" spans="3:14">
       <c r="C99" s="29" t="s">
-        <v>1014</v>
+        <v>1016</v>
       </c>
       <c r="D99" s="29"/>
       <c r="E99" s="29"/>
@@ -17286,12 +17206,12 @@
     </row>
     <row r="100" spans="2:2">
       <c r="B100" s="28" t="s">
-        <v>1015</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="101" ht="55" customHeight="1" spans="3:14">
       <c r="C101" s="29" t="s">
-        <v>1016</v>
+        <v>1018</v>
       </c>
       <c r="D101" s="29"/>
       <c r="E101" s="29"/>
@@ -17307,7 +17227,7 @@
     </row>
     <row r="102" ht="125" customHeight="1" spans="3:14">
       <c r="C102" s="34" t="s">
-        <v>1017</v>
+        <v>1019</v>
       </c>
       <c r="D102" s="35"/>
       <c r="E102" s="35"/>
@@ -17337,10 +17257,10 @@
     </row>
     <row r="104" ht="24" customHeight="1" spans="1:14">
       <c r="A104" s="25" t="s">
-        <v>1018</v>
+        <v>1020</v>
       </c>
       <c r="C104" s="29" t="s">
-        <v>1019</v>
+        <v>1021</v>
       </c>
       <c r="D104" s="29"/>
       <c r="E104" s="29"/>
@@ -17356,12 +17276,12 @@
     </row>
     <row r="105" ht="20" customHeight="1" spans="2:2">
       <c r="B105" s="28" t="s">
-        <v>1020</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="106" ht="20" customHeight="1" spans="3:14">
       <c r="C106" s="30" t="s">
-        <v>1021</v>
+        <v>1023</v>
       </c>
       <c r="D106" s="30"/>
       <c r="E106" s="30"/>
@@ -17377,12 +17297,12 @@
     </row>
     <row r="107" ht="20" customHeight="1" spans="2:2">
       <c r="B107" s="28" t="s">
-        <v>1022</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="108" ht="20" customHeight="1" spans="3:14">
       <c r="C108" s="30" t="s">
-        <v>1023</v>
+        <v>1025</v>
       </c>
       <c r="D108" s="30"/>
       <c r="E108" s="30"/>
@@ -17398,12 +17318,12 @@
     </row>
     <row r="109" ht="20" customHeight="1" spans="2:2">
       <c r="B109" s="28" t="s">
-        <v>1024</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="110" ht="19" customHeight="1" spans="3:14">
       <c r="C110" s="29" t="s">
-        <v>1025</v>
+        <v>1027</v>
       </c>
       <c r="D110" s="29"/>
       <c r="E110" s="29"/>
@@ -17419,17 +17339,17 @@
     </row>
     <row r="112" ht="19" customHeight="1" spans="1:1">
       <c r="A112" s="25" t="s">
-        <v>1026</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="113" spans="2:2">
       <c r="B113" s="28" t="s">
-        <v>1027</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="114" ht="35" customHeight="1" spans="3:14">
       <c r="C114" s="29" t="s">
-        <v>1028</v>
+        <v>1030</v>
       </c>
       <c r="D114" s="29"/>
       <c r="E114" s="29"/>
@@ -17445,17 +17365,17 @@
     </row>
     <row r="115" spans="2:2">
       <c r="B115" s="28" t="s">
-        <v>1029</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="116" spans="3:3">
       <c r="C116" s="32" t="s">
-        <v>1030</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="117" ht="37" customHeight="1" spans="4:14">
       <c r="D117" s="29" t="s">
-        <v>1031</v>
+        <v>1033</v>
       </c>
       <c r="E117" s="29"/>
       <c r="F117" s="29"/>
@@ -17470,12 +17390,12 @@
     </row>
     <row r="118" spans="3:3">
       <c r="C118" s="32" t="s">
-        <v>1032</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="119" spans="4:14">
       <c r="D119" s="29" t="s">
-        <v>1033</v>
+        <v>1035</v>
       </c>
       <c r="E119" s="29"/>
       <c r="F119" s="29"/>
@@ -17490,12 +17410,12 @@
     </row>
     <row r="120" spans="3:3">
       <c r="C120" s="32" t="s">
-        <v>1034</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="121" ht="54" customHeight="1" spans="4:14">
       <c r="D121" s="29" t="s">
-        <v>1035</v>
+        <v>1037</v>
       </c>
       <c r="E121" s="29"/>
       <c r="F121" s="29"/>
@@ -17510,12 +17430,12 @@
     </row>
     <row r="122" spans="2:2">
       <c r="B122" s="28" t="s">
-        <v>1036</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="123" ht="36" customHeight="1" spans="3:14">
       <c r="C123" s="29" t="s">
-        <v>1037</v>
+        <v>1039</v>
       </c>
       <c r="D123" s="29"/>
       <c r="E123" s="29"/>
@@ -17531,17 +17451,17 @@
     </row>
     <row r="124" spans="2:2">
       <c r="B124" s="28" t="s">
-        <v>1038</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="125" spans="3:3">
       <c r="C125" s="32" t="s">
-        <v>1039</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="126" spans="4:14">
       <c r="D126" s="29" t="s">
-        <v>1040</v>
+        <v>1042</v>
       </c>
       <c r="E126" s="29"/>
       <c r="F126" s="29"/>
@@ -17556,12 +17476,12 @@
     </row>
     <row r="127" spans="3:3">
       <c r="C127" s="32" t="s">
-        <v>1041</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="128" ht="21" customHeight="1" spans="4:14">
       <c r="D128" s="29" t="s">
-        <v>1042</v>
+        <v>1044</v>
       </c>
       <c r="E128" s="29"/>
       <c r="F128" s="29"/>
@@ -17576,12 +17496,12 @@
     </row>
     <row r="129" ht="19" customHeight="1" spans="2:2">
       <c r="B129" s="28" t="s">
-        <v>1043</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="130" spans="3:13">
       <c r="C130" s="36" t="s">
-        <v>1044</v>
+        <v>1046</v>
       </c>
       <c r="D130" s="37"/>
       <c r="E130" s="37"/>
@@ -17597,7 +17517,7 @@
     <row r="131" ht="76" customHeight="1" spans="3:14">
       <c r="C131" s="36"/>
       <c r="D131" s="38" t="s">
-        <v>1045</v>
+        <v>1047</v>
       </c>
       <c r="E131" s="38"/>
       <c r="F131" s="38"/>
@@ -17612,7 +17532,7 @@
     </row>
     <row r="132" spans="3:13">
       <c r="C132" s="36" t="s">
-        <v>1046</v>
+        <v>1048</v>
       </c>
       <c r="D132" s="37"/>
       <c r="E132" s="37"/>
@@ -17628,7 +17548,7 @@
     <row r="133" ht="95" customHeight="1" spans="3:14">
       <c r="C133" s="36"/>
       <c r="D133" s="38" t="s">
-        <v>1047</v>
+        <v>1049</v>
       </c>
       <c r="E133" s="38"/>
       <c r="F133" s="38"/>
@@ -17643,7 +17563,7 @@
     </row>
     <row r="134" spans="3:13">
       <c r="C134" s="36" t="s">
-        <v>1048</v>
+        <v>1050</v>
       </c>
       <c r="D134" s="37"/>
       <c r="E134" s="37"/>
@@ -17659,7 +17579,7 @@
     <row r="135" ht="79" customHeight="1" spans="3:14">
       <c r="C135" s="36"/>
       <c r="D135" s="38" t="s">
-        <v>1049</v>
+        <v>1051</v>
       </c>
       <c r="E135" s="38"/>
       <c r="F135" s="38"/>
@@ -17674,12 +17594,12 @@
     </row>
     <row r="136" spans="3:3">
       <c r="C136" s="32" t="s">
-        <v>1050</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="137" ht="73" customHeight="1" spans="4:14">
       <c r="D137" s="38" t="s">
-        <v>1051</v>
+        <v>1053</v>
       </c>
       <c r="E137" s="38"/>
       <c r="F137" s="38"/>
@@ -17694,12 +17614,12 @@
     </row>
     <row r="138" spans="2:2">
       <c r="B138" s="28" t="s">
-        <v>1052</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="139" spans="3:14">
       <c r="C139" s="29" t="s">
-        <v>1053</v>
+        <v>1055</v>
       </c>
       <c r="D139" s="29"/>
       <c r="E139" s="29"/>
@@ -17715,10 +17635,10 @@
     </row>
     <row r="141" spans="1:14">
       <c r="A141" s="25" t="s">
-        <v>1054</v>
+        <v>1056</v>
       </c>
       <c r="C141" s="29" t="s">
-        <v>1055</v>
+        <v>1057</v>
       </c>
       <c r="D141" s="29"/>
       <c r="E141" s="29"/>
@@ -17734,7 +17654,7 @@
     </row>
     <row r="142" ht="187" customHeight="1" spans="2:14">
       <c r="B142" s="31" t="s">
-        <v>1056</v>
+        <v>1058</v>
       </c>
       <c r="C142" s="31"/>
       <c r="D142" s="31"/>
@@ -17751,12 +17671,12 @@
     </row>
     <row r="144" spans="1:1">
       <c r="A144" s="25" t="s">
-        <v>1057</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="145" ht="39" customHeight="1" spans="2:14">
       <c r="B145" s="31" t="s">
-        <v>1058</v>
+        <v>1060</v>
       </c>
       <c r="C145" s="31"/>
       <c r="D145" s="31"/>
@@ -17773,12 +17693,12 @@
     </row>
     <row r="146" spans="2:2">
       <c r="B146" s="28" t="s">
-        <v>1059</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="147" ht="220" customHeight="1" spans="3:14">
       <c r="C147" s="29" t="s">
-        <v>1060</v>
+        <v>1062</v>
       </c>
       <c r="D147" s="29"/>
       <c r="E147" s="29"/>
@@ -17794,10 +17714,10 @@
     </row>
     <row r="149" spans="1:14">
       <c r="A149" s="25" t="s">
-        <v>1061</v>
+        <v>1063</v>
       </c>
       <c r="C149" s="30" t="s">
-        <v>1062</v>
+        <v>1064</v>
       </c>
       <c r="D149" s="30"/>
       <c r="E149" s="30"/>
@@ -17813,12 +17733,12 @@
     </row>
     <row r="150" spans="2:2">
       <c r="B150" s="28" t="s">
-        <v>1063</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="151" ht="190" customHeight="1" spans="3:14">
       <c r="C151" s="29" t="s">
-        <v>1064</v>
+        <v>1066</v>
       </c>
       <c r="D151" s="29"/>
       <c r="E151" s="29"/>
@@ -17834,12 +17754,12 @@
     </row>
     <row r="152" spans="2:2">
       <c r="B152" s="28" t="s">
-        <v>1065</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="153" ht="117" customHeight="1" spans="3:14">
       <c r="C153" s="117" t="s">
-        <v>1066</v>
+        <v>1068</v>
       </c>
       <c r="D153" s="29"/>
       <c r="E153" s="29"/>
@@ -17855,10 +17775,10 @@
     </row>
     <row r="154" spans="1:14">
       <c r="A154" s="25" t="s">
-        <v>1067</v>
+        <v>1069</v>
       </c>
       <c r="C154" s="29" t="s">
-        <v>1068</v>
+        <v>1070</v>
       </c>
       <c r="D154" s="29"/>
       <c r="E154" s="29"/>
@@ -17874,12 +17794,12 @@
     </row>
     <row r="155" spans="2:2">
       <c r="B155" s="28" t="s">
-        <v>1069</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="156" ht="145" customHeight="1" spans="3:14">
       <c r="C156" s="29" t="s">
-        <v>1070</v>
+        <v>1072</v>
       </c>
       <c r="D156" s="29"/>
       <c r="E156" s="29"/>
@@ -17895,12 +17815,12 @@
     </row>
     <row r="157" spans="2:2">
       <c r="B157" s="28" t="s">
-        <v>1071</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="158" ht="102" customHeight="1" spans="3:14">
       <c r="C158" s="117" t="s">
-        <v>1072</v>
+        <v>1074</v>
       </c>
       <c r="D158" s="29"/>
       <c r="E158" s="29"/>
@@ -17916,12 +17836,12 @@
     </row>
     <row r="159" spans="2:2">
       <c r="B159" s="28" t="s">
-        <v>1073</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="160" ht="55" customHeight="1" spans="3:14">
       <c r="C160" s="29" t="s">
-        <v>1074</v>
+        <v>1076</v>
       </c>
       <c r="D160" s="29"/>
       <c r="E160" s="29"/>
@@ -17937,7 +17857,7 @@
     </row>
     <row r="161" ht="71" customHeight="1" spans="3:14">
       <c r="C161" s="29" t="s">
-        <v>1075</v>
+        <v>1077</v>
       </c>
       <c r="D161" s="29"/>
       <c r="E161" s="29"/>
@@ -17953,7 +17873,7 @@
     </row>
     <row r="162" ht="162" customHeight="1" spans="3:14">
       <c r="C162" s="29" t="s">
-        <v>1076</v>
+        <v>1078</v>
       </c>
       <c r="D162" s="29"/>
       <c r="E162" s="29"/>
@@ -17969,7 +17889,7 @@
     </row>
     <row r="163" ht="139" customHeight="1" spans="3:14">
       <c r="C163" s="29" t="s">
-        <v>1077</v>
+        <v>1079</v>
       </c>
       <c r="D163" s="29"/>
       <c r="E163" s="29"/>
@@ -17985,12 +17905,12 @@
     </row>
     <row r="164" spans="2:2">
       <c r="B164" s="28" t="s">
-        <v>1078</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="165" ht="54" customHeight="1" spans="3:14">
       <c r="C165" s="29" t="s">
-        <v>1079</v>
+        <v>1081</v>
       </c>
       <c r="D165" s="29"/>
       <c r="E165" s="29"/>
@@ -18006,20 +17926,20 @@
     </row>
     <row r="167" spans="1:1">
       <c r="A167" s="25" t="s">
-        <v>1080</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="168" spans="2:2">
       <c r="B168" s="28" t="s">
-        <v>1081</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="169" ht="77" customHeight="1" spans="3:14">
       <c r="C169" s="3" t="s">
-        <v>1082</v>
+        <v>1084</v>
       </c>
       <c r="D169" s="39" t="s">
-        <v>1083</v>
+        <v>1085</v>
       </c>
       <c r="E169" s="29"/>
       <c r="F169" s="29"/>
@@ -18039,7 +17959,7 @@
     </row>
     <row r="172" spans="4:14">
       <c r="D172" s="30" t="s">
-        <v>1084</v>
+        <v>1086</v>
       </c>
       <c r="E172" s="30"/>
       <c r="F172" s="30"/>
@@ -18054,10 +17974,10 @@
     </row>
     <row r="173" spans="2:14">
       <c r="B173" s="28" t="s">
-        <v>1085</v>
+        <v>1087</v>
       </c>
       <c r="D173" s="40" t="s">
-        <v>1086</v>
+        <v>1088</v>
       </c>
       <c r="E173" s="40"/>
       <c r="F173" s="40"/>
@@ -18072,7 +17992,7 @@
     </row>
     <row r="174" ht="83" customHeight="1" spans="3:14">
       <c r="C174" s="29" t="s">
-        <v>1087</v>
+        <v>1089</v>
       </c>
       <c r="D174" s="30"/>
       <c r="E174" s="30"/>
@@ -18088,17 +18008,17 @@
     </row>
     <row r="176" spans="1:1">
       <c r="A176" s="25" t="s">
-        <v>1088</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="177" spans="2:2">
       <c r="B177" s="28" t="s">
-        <v>1089</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="178" ht="72" customHeight="1" spans="3:14">
       <c r="C178" s="29" t="s">
-        <v>1090</v>
+        <v>1092</v>
       </c>
       <c r="D178" s="29"/>
       <c r="E178" s="29"/>
@@ -18114,12 +18034,12 @@
     </row>
     <row r="179" spans="2:2">
       <c r="B179" s="28" t="s">
-        <v>1091</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="180" ht="58" customHeight="1" spans="3:14">
       <c r="C180" s="29" t="s">
-        <v>1092</v>
+        <v>1094</v>
       </c>
       <c r="D180" s="29"/>
       <c r="E180" s="29"/>
@@ -18135,12 +18055,12 @@
     </row>
     <row r="182" spans="2:2">
       <c r="B182" s="28" t="s">
-        <v>1093</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="183" ht="37" customHeight="1" spans="3:14">
       <c r="C183" s="29" t="s">
-        <v>1094</v>
+        <v>1096</v>
       </c>
       <c r="D183" s="29"/>
       <c r="E183" s="29"/>
@@ -18156,12 +18076,12 @@
     </row>
     <row r="184" spans="2:2">
       <c r="B184" s="28" t="s">
-        <v>1095</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="185" ht="33" customHeight="1" spans="3:14">
       <c r="C185" s="29" t="s">
-        <v>1096</v>
+        <v>1098</v>
       </c>
       <c r="D185" s="29"/>
       <c r="E185" s="29"/>
@@ -18177,17 +18097,17 @@
     </row>
     <row r="187" spans="1:1">
       <c r="A187" s="25" t="s">
-        <v>1097</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="188" spans="2:2">
       <c r="B188" s="28" t="s">
-        <v>1098</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="189" ht="91" customHeight="1" spans="3:14">
       <c r="C189" s="29" t="s">
-        <v>1099</v>
+        <v>1101</v>
       </c>
       <c r="D189" s="29"/>
       <c r="E189" s="29"/>
@@ -18203,12 +18123,12 @@
     </row>
     <row r="190" spans="2:2">
       <c r="B190" s="28" t="s">
-        <v>1100</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="191" ht="178" customHeight="1" spans="3:14">
       <c r="C191" s="29" t="s">
-        <v>1101</v>
+        <v>1103</v>
       </c>
       <c r="D191" s="29"/>
       <c r="E191" s="29"/>
@@ -18340,339 +18260,339 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="25" t="s">
-        <v>1102</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="2" ht="35" customHeight="1" spans="2:2">
       <c r="B2" s="26" t="s">
-        <v>1103</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="3" ht="66" spans="2:2">
       <c r="B3" s="26" t="s">
-        <v>1104</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="25" t="s">
-        <v>1105</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="6" ht="33" spans="2:2">
       <c r="B6" s="26" t="s">
-        <v>1106</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:1">
       <c r="A8" s="25" t="s">
-        <v>1107</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="9" ht="82.5" spans="2:2">
       <c r="B9" s="26" t="s">
-        <v>1108</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="25" t="s">
-        <v>1109</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="12" spans="2:2">
       <c r="B12" s="26" t="s">
-        <v>1110</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" s="25" t="s">
-        <v>1111</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="16" ht="49.5" spans="2:2">
       <c r="B16" s="26" t="s">
-        <v>1112</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="18" ht="66" spans="2:2">
       <c r="B18" s="26" t="s">
-        <v>1113</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" s="25" t="s">
-        <v>1114</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="21" spans="2:2">
       <c r="B21" s="26" t="s">
-        <v>1115</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" s="25" t="s">
-        <v>1116</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="24" ht="99" spans="2:2">
       <c r="B24" s="26" t="s">
-        <v>1117</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" s="25" t="s">
-        <v>1118</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="27" ht="165" spans="2:2">
       <c r="B27" s="26" t="s">
-        <v>1119</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" s="25" t="s">
-        <v>1120</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="30" ht="49.5" spans="2:2">
       <c r="B30" s="26" t="s">
-        <v>1121</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32" s="25" t="s">
-        <v>1122</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="33" ht="82.5" spans="2:2">
       <c r="B33" s="26" t="s">
-        <v>1123</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" s="25" t="s">
-        <v>1124</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="36" ht="66" spans="2:2">
       <c r="B36" s="26" t="s">
-        <v>1125</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38" s="25" t="s">
-        <v>1126</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="39" ht="49.5" spans="2:2">
       <c r="B39" s="26" t="s">
-        <v>1127</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41" s="25" t="s">
-        <v>1128</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="42" ht="66" spans="2:2">
       <c r="B42" s="26" t="s">
-        <v>1129</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44" s="25" t="s">
-        <v>1130</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="45" ht="66" spans="2:2">
       <c r="B45" s="26" t="s">
-        <v>1131</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47" s="25" t="s">
-        <v>1132</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="48" ht="49.5" spans="2:2">
       <c r="B48" s="26" t="s">
-        <v>1133</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="50" spans="1:1">
       <c r="A50" s="25" t="s">
-        <v>1134</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="51" ht="82.5" spans="2:2">
       <c r="B51" s="26" t="s">
-        <v>1135</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="53" spans="1:1">
       <c r="A53" s="25" t="s">
-        <v>1136</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="54" ht="33" spans="2:2">
       <c r="B54" s="26" t="s">
-        <v>1137</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="56" spans="1:1">
       <c r="A56" s="25" t="s">
-        <v>1138</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="57" ht="49.5" spans="2:2">
       <c r="B57" s="26" t="s">
-        <v>1139</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="59" spans="1:1">
       <c r="A59" s="25" t="s">
-        <v>1140</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="60" ht="33" spans="2:2">
       <c r="B60" s="26" t="s">
-        <v>1141</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="62" spans="1:1">
       <c r="A62" s="25" t="s">
-        <v>1142</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="63" ht="82.5" spans="2:2">
       <c r="B63" s="26" t="s">
-        <v>1143</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="64" spans="2:2">
       <c r="B64" s="26" t="s">
-        <v>1144</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="66" spans="1:1">
       <c r="A66" s="25" t="s">
-        <v>1145</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="67" spans="2:2">
       <c r="B67" s="26" t="s">
-        <v>1146</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69" s="25" t="s">
-        <v>1147</v>
+        <v>1149</v>
       </c>
       <c r="B69" s="26" t="s">
-        <v>1148</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="70" ht="33" spans="2:2">
       <c r="B70" s="26" t="s">
-        <v>1149</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="71" ht="49.5" spans="2:2">
       <c r="B71" s="26" t="s">
-        <v>1150</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="73" spans="1:1">
       <c r="A73" s="25" t="s">
-        <v>1151</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="74" ht="33" spans="2:2">
       <c r="B74" s="26" t="s">
-        <v>1152</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="76" spans="1:1">
       <c r="A76" s="25" t="s">
-        <v>1153</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="77" spans="2:2">
       <c r="B77" s="26" t="s">
-        <v>1154</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="79" spans="1:1">
       <c r="A79" s="25" t="s">
-        <v>1155</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="80" ht="132" spans="2:2">
       <c r="B80" s="26" t="s">
-        <v>1156</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="82" spans="1:1">
       <c r="A82" s="25" t="s">
-        <v>1157</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="83" spans="2:2">
       <c r="B83" s="26" t="s">
-        <v>1158</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="84" ht="49.5" spans="2:2">
       <c r="B84" s="26" t="s">
-        <v>1159</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="86" spans="1:2">
       <c r="A86" s="25" t="s">
-        <v>1160</v>
+        <v>1162</v>
       </c>
       <c r="B86" s="26" t="s">
-        <v>1161</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="87" ht="33" spans="2:2">
       <c r="B87" s="26" t="s">
-        <v>1162</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="88" ht="66" spans="2:2">
       <c r="B88" s="26" t="s">
-        <v>1163</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="90" spans="1:2">
       <c r="A90" s="25" t="s">
-        <v>1164</v>
+        <v>1166</v>
       </c>
       <c r="B90" s="26" t="s">
-        <v>1165</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="91" ht="148.5" spans="2:2">
       <c r="B91" s="26" t="s">
-        <v>1166</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="92" ht="82.5" spans="2:2">
       <c r="B92" s="26" t="s">
-        <v>1167</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="94" ht="33" spans="1:2">
       <c r="A94" s="25" t="s">
-        <v>1168</v>
+        <v>1170</v>
       </c>
       <c r="B94" s="26" t="s">
-        <v>1169</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="95" ht="115.5" spans="2:2">
       <c r="B95" s="26" t="s">
-        <v>1170</v>
+        <v>1172</v>
       </c>
     </row>
   </sheetData>
@@ -18703,721 +18623,721 @@
   <sheetData>
     <row r="1" customHeight="1" spans="1:3">
       <c r="A1" s="8" t="s">
-        <v>1171</v>
+        <v>1173</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>1172</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="2" ht="18" spans="2:3">
       <c r="B2" s="9" t="s">
-        <v>1173</v>
+        <v>1175</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>1174</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="2:2">
       <c r="B3" s="9" t="s">
-        <v>1175</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="3:4">
       <c r="C4" s="10" t="s">
-        <v>1176</v>
+        <v>1178</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>1177</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="5" ht="33" spans="3:4">
       <c r="C5" s="10" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>1178</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="3:4">
       <c r="C6" s="10" t="s">
-        <v>1179</v>
+        <v>1181</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>1180</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="2:2">
       <c r="B7" s="9" t="s">
-        <v>1181</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="8" ht="49.5" spans="3:4">
       <c r="C8" s="14" t="s">
-        <v>1182</v>
+        <v>1184</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>1183</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="9" ht="165" spans="3:4">
       <c r="C9" s="10" t="s">
-        <v>1184</v>
+        <v>1186</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>1185</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="3:3">
       <c r="C10" s="10" t="s">
-        <v>1186</v>
+        <v>1188</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="3:4">
       <c r="C11" s="10" t="s">
-        <v>1187</v>
+        <v>1189</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>1188</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="3:3">
       <c r="C12" s="10" t="s">
-        <v>1189</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="13" ht="82.5" spans="3:4">
       <c r="C13" s="10" t="s">
-        <v>1190</v>
+        <v>1192</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>1191</v>
+        <v>1193</v>
       </c>
     </row>
     <row r="14" ht="165" spans="3:4">
       <c r="C14" s="10" t="s">
-        <v>1192</v>
+        <v>1194</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>1193</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="17" customHeight="1" spans="2:3">
       <c r="B17" s="15" t="s">
-        <v>1194</v>
+        <v>1196</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>1195</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="18" customHeight="1" spans="3:3">
       <c r="C18" s="10" t="s">
-        <v>1196</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="19" ht="231" spans="3:4">
       <c r="C19" s="16" t="s">
-        <v>1197</v>
+        <v>1199</v>
       </c>
       <c r="D19" s="11" t="s">
-        <v>1198</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="20" ht="99" spans="3:4">
       <c r="C20" s="16" t="s">
-        <v>1199</v>
+        <v>1201</v>
       </c>
       <c r="D20" s="11" t="s">
-        <v>1200</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="21" ht="148.5" spans="3:4">
       <c r="C21" s="10" t="s">
-        <v>1201</v>
+        <v>1203</v>
       </c>
       <c r="D21" s="11" t="s">
-        <v>1202</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="22" ht="132" spans="3:4">
       <c r="C22" s="10" t="s">
-        <v>1203</v>
+        <v>1205</v>
       </c>
       <c r="D22" s="11" t="s">
-        <v>1204</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="23" ht="33" spans="3:4">
       <c r="C23" s="10" t="s">
-        <v>1205</v>
+        <v>1207</v>
       </c>
       <c r="D23" s="11" t="s">
-        <v>1206</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="25" customHeight="1" spans="2:2">
       <c r="B25" s="9" t="s">
-        <v>1207</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="26" customHeight="1" spans="3:4">
       <c r="C26" s="10" t="s">
-        <v>1208</v>
+        <v>1210</v>
       </c>
       <c r="D26" s="11" t="s">
-        <v>1209</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="27" customHeight="1" spans="3:3">
       <c r="C27" s="10" t="s">
-        <v>1210</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="28" ht="33" spans="3:4">
       <c r="C28" s="16" t="s">
-        <v>1211</v>
+        <v>1213</v>
       </c>
       <c r="D28" s="11" t="s">
-        <v>1212</v>
+        <v>1214</v>
       </c>
     </row>
     <row r="29" customHeight="1" spans="3:4">
       <c r="C29" s="16" t="s">
-        <v>1213</v>
+        <v>1215</v>
       </c>
       <c r="D29" s="11" t="s">
-        <v>1214</v>
+        <v>1216</v>
       </c>
     </row>
     <row r="30" ht="33" spans="3:4">
       <c r="C30" s="16" t="s">
-        <v>1215</v>
+        <v>1217</v>
       </c>
       <c r="D30" s="11" t="s">
-        <v>1216</v>
+        <v>1218</v>
       </c>
     </row>
     <row r="31" customHeight="1" spans="3:4">
       <c r="C31" s="16" t="s">
-        <v>1217</v>
+        <v>1219</v>
       </c>
       <c r="D31" s="11" t="s">
-        <v>1218</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="32" customHeight="1" spans="2:4">
       <c r="B32" s="9" t="s">
-        <v>1219</v>
+        <v>1221</v>
       </c>
       <c r="D32" s="11" t="s">
-        <v>1220</v>
+        <v>1222</v>
       </c>
     </row>
     <row r="33" ht="49.5" spans="3:4">
       <c r="C33" s="10" t="s">
-        <v>1221</v>
+        <v>1223</v>
       </c>
       <c r="D33" s="11" t="s">
-        <v>1222</v>
+        <v>1224</v>
       </c>
     </row>
     <row r="34" customHeight="1" spans="3:4">
       <c r="C34" s="10" t="s">
-        <v>1223</v>
+        <v>1225</v>
       </c>
       <c r="D34" s="11" t="s">
-        <v>1224</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="35" ht="33" spans="3:4">
       <c r="C35" s="14" t="s">
-        <v>1225</v>
+        <v>1227</v>
       </c>
       <c r="D35" s="11" t="s">
-        <v>1226</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="36" customHeight="1" spans="3:4">
       <c r="C36" s="10" t="s">
-        <v>1227</v>
+        <v>1229</v>
       </c>
       <c r="D36" s="11" t="s">
-        <v>1228</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="37" customHeight="1" spans="3:4">
       <c r="C37" s="10" t="s">
-        <v>1229</v>
+        <v>1231</v>
       </c>
       <c r="D37" s="11" t="s">
-        <v>1230</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="38" customHeight="1" spans="1:4">
       <c r="A38" s="8" t="s">
-        <v>1231</v>
+        <v>1233</v>
       </c>
       <c r="D38" s="11" t="s">
-        <v>1232</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="39" customHeight="1" spans="2:4">
       <c r="B39" s="9" t="s">
-        <v>1233</v>
+        <v>1235</v>
       </c>
       <c r="D39" s="11" t="s">
-        <v>1234</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="40" customHeight="1" spans="3:4">
       <c r="C40" s="10" t="s">
-        <v>1235</v>
+        <v>1237</v>
       </c>
       <c r="D40" s="11" t="s">
-        <v>1236</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="41" customHeight="1" spans="3:4">
       <c r="C41" s="10" t="s">
-        <v>1237</v>
+        <v>1239</v>
       </c>
       <c r="D41" s="11" t="s">
-        <v>1238</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="42" customHeight="1" spans="2:2">
       <c r="B42" s="10" t="s">
-        <v>1239</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="43" ht="66" spans="3:4">
       <c r="C43" s="10" t="s">
-        <v>1240</v>
+        <v>1242</v>
       </c>
       <c r="D43" s="11" t="s">
-        <v>1241</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="44" ht="33" spans="3:4">
       <c r="C44" s="10" t="s">
-        <v>623</v>
+        <v>625</v>
       </c>
       <c r="D44" s="11" t="s">
-        <v>1242</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="45" ht="148" customHeight="1" spans="3:4">
       <c r="C45" s="10" t="s">
-        <v>1243</v>
+        <v>1245</v>
       </c>
       <c r="D45" s="11" t="s">
-        <v>1244</v>
+        <v>1246</v>
       </c>
     </row>
     <row r="46" customHeight="1" spans="3:4">
       <c r="C46" s="10" t="s">
-        <v>625</v>
+        <v>627</v>
       </c>
       <c r="D46" s="11" t="s">
-        <v>1245</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="47" customHeight="1" spans="2:4">
       <c r="B47" s="9" t="s">
-        <v>1246</v>
+        <v>1248</v>
       </c>
       <c r="C47" s="10" t="s">
-        <v>1208</v>
+        <v>1210</v>
       </c>
       <c r="D47" s="11" t="s">
-        <v>1209</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="48" ht="120" customHeight="1" spans="3:4">
       <c r="C48" s="10" t="s">
-        <v>1240</v>
+        <v>1242</v>
       </c>
       <c r="D48" s="11" t="s">
-        <v>1247</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="49" ht="33" spans="3:4">
       <c r="C49" s="10" t="s">
-        <v>623</v>
+        <v>625</v>
       </c>
       <c r="D49" s="11" t="s">
-        <v>1248</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="50" ht="115.5" spans="3:4">
       <c r="C50" s="10" t="s">
-        <v>1243</v>
+        <v>1245</v>
       </c>
       <c r="D50" s="11" t="s">
-        <v>1249</v>
+        <v>1251</v>
       </c>
     </row>
     <row r="51" customHeight="1" spans="3:4">
       <c r="C51" s="10" t="s">
-        <v>625</v>
+        <v>627</v>
       </c>
       <c r="D51" s="11" t="s">
-        <v>1250</v>
+        <v>1252</v>
       </c>
     </row>
     <row r="52" ht="33" spans="2:4">
       <c r="B52" s="9" t="s">
-        <v>1251</v>
+        <v>1253</v>
       </c>
       <c r="C52" s="10" t="s">
-        <v>1208</v>
+        <v>1210</v>
       </c>
       <c r="D52" s="11" t="s">
-        <v>1252</v>
+        <v>1254</v>
       </c>
     </row>
     <row r="53" ht="33" spans="3:4">
       <c r="C53" s="10" t="s">
-        <v>1240</v>
+        <v>1242</v>
       </c>
       <c r="D53" s="11" t="s">
-        <v>1253</v>
+        <v>1255</v>
       </c>
     </row>
     <row r="54" ht="27" customHeight="1" spans="3:4">
       <c r="C54" s="10" t="s">
-        <v>623</v>
+        <v>625</v>
       </c>
       <c r="D54" s="11" t="s">
-        <v>1254</v>
+        <v>1256</v>
       </c>
     </row>
     <row r="55" ht="165" spans="3:4">
       <c r="C55" s="10" t="s">
-        <v>1243</v>
+        <v>1245</v>
       </c>
       <c r="D55" s="11" t="s">
-        <v>1255</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="56" customHeight="1" spans="3:4">
       <c r="C56" s="10" t="s">
-        <v>625</v>
+        <v>627</v>
       </c>
       <c r="D56" s="11" t="s">
-        <v>1256</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="57" customHeight="1" spans="1:1">
       <c r="A57" s="8" t="s">
-        <v>1257</v>
+        <v>1259</v>
       </c>
     </row>
     <row r="58" ht="49.5" spans="2:4">
       <c r="B58" s="17" t="s">
-        <v>1258</v>
+        <v>1260</v>
       </c>
       <c r="C58" s="17"/>
       <c r="D58" s="11" t="s">
-        <v>1259</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="59" ht="31" customHeight="1" spans="2:4">
       <c r="B59" s="18" t="s">
-        <v>1260</v>
+        <v>1262</v>
       </c>
       <c r="C59" s="18"/>
       <c r="D59" s="11" t="s">
-        <v>1261</v>
+        <v>1263</v>
       </c>
     </row>
     <row r="60" ht="18" spans="2:4">
       <c r="B60" s="18" t="s">
-        <v>1262</v>
+        <v>1264</v>
       </c>
       <c r="C60" s="18"/>
       <c r="D60" s="11" t="s">
-        <v>1254</v>
+        <v>1256</v>
       </c>
     </row>
     <row r="61" ht="61" customHeight="1" spans="2:4">
       <c r="B61" s="18" t="s">
-        <v>1263</v>
+        <v>1265</v>
       </c>
       <c r="C61" s="18"/>
       <c r="D61" s="11" t="s">
-        <v>1264</v>
+        <v>1266</v>
       </c>
     </row>
     <row r="62" ht="90" customHeight="1" spans="2:4">
       <c r="B62" s="18" t="s">
-        <v>1265</v>
+        <v>1267</v>
       </c>
       <c r="C62" s="18"/>
       <c r="D62" s="11" t="s">
-        <v>1266</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="63" ht="181.5" spans="2:4">
       <c r="B63" s="19" t="s">
-        <v>1267</v>
+        <v>1269</v>
       </c>
       <c r="C63" s="19"/>
       <c r="D63" s="11" t="s">
-        <v>1268</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="64" ht="18" spans="2:4">
       <c r="B64" s="19"/>
       <c r="C64" s="19" t="s">
-        <v>1269</v>
+        <v>1271</v>
       </c>
       <c r="D64" s="11" t="s">
-        <v>1270</v>
+        <v>1272</v>
       </c>
     </row>
     <row r="65" ht="33" spans="2:4">
       <c r="B65" s="19"/>
       <c r="C65" s="19" t="s">
-        <v>1271</v>
+        <v>1273</v>
       </c>
       <c r="D65" s="11" t="s">
-        <v>1272</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="66" ht="18" spans="2:4">
       <c r="B66" s="19"/>
       <c r="C66" s="19" t="s">
-        <v>1273</v>
+        <v>1275</v>
       </c>
       <c r="D66" s="11" t="s">
-        <v>1274</v>
+        <v>1276</v>
       </c>
     </row>
     <row r="67" ht="18" spans="2:4">
       <c r="B67" s="19"/>
       <c r="C67" s="19" t="s">
-        <v>1275</v>
+        <v>1277</v>
       </c>
       <c r="D67" s="11" t="s">
-        <v>1276</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="68" ht="18" spans="2:4">
       <c r="B68" s="19"/>
       <c r="C68" s="19" t="s">
-        <v>1277</v>
+        <v>1279</v>
       </c>
       <c r="D68" s="11" t="s">
-        <v>1278</v>
+        <v>1280</v>
       </c>
     </row>
     <row r="69" ht="18" spans="2:4">
       <c r="B69" s="19"/>
       <c r="C69" s="19" t="s">
-        <v>1279</v>
+        <v>1281</v>
       </c>
       <c r="D69" s="11" t="s">
-        <v>1280</v>
+        <v>1282</v>
       </c>
     </row>
     <row r="70" ht="56" customHeight="1" spans="2:3">
       <c r="B70" s="18" t="s">
-        <v>1281</v>
+        <v>1283</v>
       </c>
       <c r="C70" s="19"/>
     </row>
     <row r="71" ht="29" customHeight="1" spans="2:4">
       <c r="B71" s="19"/>
       <c r="C71" s="19" t="s">
-        <v>1282</v>
+        <v>1284</v>
       </c>
       <c r="D71" s="11" t="s">
-        <v>1283</v>
+        <v>1285</v>
       </c>
     </row>
     <row r="72" ht="29" customHeight="1" spans="2:4">
       <c r="B72" s="19"/>
       <c r="C72" s="19" t="s">
-        <v>1284</v>
+        <v>1286</v>
       </c>
       <c r="D72" s="11" t="s">
-        <v>1285</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="73" ht="18" spans="2:3">
       <c r="B73" s="18" t="s">
-        <v>1286</v>
+        <v>1288</v>
       </c>
       <c r="C73" s="18"/>
     </row>
     <row r="74" customHeight="1" spans="1:4">
       <c r="A74" s="8" t="s">
-        <v>1287</v>
+        <v>1289</v>
       </c>
       <c r="D74" s="11" t="s">
-        <v>1288</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="75" ht="82.5" spans="2:4">
       <c r="B75" s="9" t="s">
-        <v>1289</v>
+        <v>1291</v>
       </c>
       <c r="C75" s="10" t="s">
-        <v>1290</v>
+        <v>1292</v>
       </c>
       <c r="D75" s="11" t="s">
-        <v>1291</v>
+        <v>1293</v>
       </c>
     </row>
     <row r="76" customHeight="1" spans="3:4">
       <c r="C76" s="10" t="s">
-        <v>1292</v>
+        <v>1294</v>
       </c>
       <c r="D76" s="11" t="s">
-        <v>1293</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="77" customHeight="1" spans="2:3">
       <c r="B77" s="9" t="s">
-        <v>1294</v>
+        <v>1296</v>
       </c>
       <c r="C77" s="10" t="s">
-        <v>1290</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="78" customHeight="1" spans="3:3">
       <c r="C78" s="10" t="s">
-        <v>1292</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="79" customHeight="1" spans="1:1">
       <c r="A79" s="8" t="s">
-        <v>1295</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="80" ht="132" spans="2:4">
       <c r="B80" s="9" t="s">
-        <v>1296</v>
+        <v>1298</v>
       </c>
       <c r="C80" s="10" t="s">
-        <v>1297</v>
+        <v>1299</v>
       </c>
       <c r="D80" s="11" t="s">
-        <v>1298</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="81" customHeight="1" spans="2:4">
       <c r="B81" s="9" t="s">
-        <v>1299</v>
+        <v>1301</v>
       </c>
       <c r="D81" s="11" t="s">
-        <v>1300</v>
+        <v>1302</v>
       </c>
     </row>
     <row r="82" customHeight="1" spans="2:4">
       <c r="B82" s="9" t="s">
-        <v>1301</v>
+        <v>1303</v>
       </c>
       <c r="D82" s="11" t="s">
-        <v>1302</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="83" customHeight="1" spans="2:4">
       <c r="B83" s="9" t="s">
-        <v>623</v>
+        <v>625</v>
       </c>
       <c r="D83" s="11" t="s">
-        <v>1303</v>
+        <v>1305</v>
       </c>
     </row>
     <row r="84" customHeight="1" spans="1:1">
       <c r="A84" s="8" t="s">
-        <v>1304</v>
+        <v>1306</v>
       </c>
     </row>
     <row r="85" ht="18" spans="2:4">
       <c r="B85" s="9" t="s">
-        <v>986</v>
+        <v>988</v>
       </c>
       <c r="C85" s="10" t="s">
-        <v>1305</v>
+        <v>1307</v>
       </c>
       <c r="D85" s="119" t="s">
-        <v>1306</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="86" customHeight="1" spans="2:4">
       <c r="B86" s="9" t="s">
-        <v>984</v>
+        <v>986</v>
       </c>
       <c r="C86" s="10" t="s">
-        <v>1307</v>
+        <v>1309</v>
       </c>
       <c r="D86" s="119" t="s">
-        <v>1308</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="87" customHeight="1" spans="2:4">
       <c r="B87" s="9" t="s">
-        <v>1309</v>
+        <v>1311</v>
       </c>
       <c r="C87" s="10" t="s">
-        <v>1310</v>
+        <v>1312</v>
       </c>
       <c r="D87" s="11" t="s">
-        <v>1311</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="88" customHeight="1" spans="3:4">
       <c r="C88" s="10" t="s">
-        <v>1312</v>
+        <v>1314</v>
       </c>
       <c r="D88" s="11" t="s">
-        <v>1313</v>
+        <v>1315</v>
       </c>
     </row>
     <row r="89" customHeight="1" spans="3:4">
       <c r="C89" s="10" t="s">
-        <v>1314</v>
+        <v>1316</v>
       </c>
       <c r="D89" s="11" t="s">
-        <v>1315</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="90" customHeight="1" spans="2:4">
       <c r="B90" s="9" t="s">
-        <v>990</v>
+        <v>992</v>
       </c>
       <c r="C90" s="10" t="s">
-        <v>1316</v>
+        <v>1318</v>
       </c>
       <c r="D90" s="11" t="s">
-        <v>1317</v>
+        <v>1319</v>
       </c>
     </row>
     <row r="91" customHeight="1" spans="3:4">
       <c r="C91" s="10" t="s">
-        <v>1318</v>
+        <v>1320</v>
       </c>
       <c r="D91" s="11" t="s">
-        <v>1319</v>
+        <v>1321</v>
       </c>
     </row>
     <row r="92" customHeight="1" spans="3:4">
       <c r="C92" s="20" t="s">
-        <v>1320</v>
+        <v>1322</v>
       </c>
       <c r="D92" s="11" t="s">
-        <v>1321</v>
+        <v>1323</v>
       </c>
     </row>
     <row r="93" customHeight="1" spans="2:12">
       <c r="B93" s="8"/>
       <c r="C93" s="20" t="s">
-        <v>1322</v>
+        <v>1324</v>
       </c>
       <c r="D93" s="14" t="s">
-        <v>1323</v>
+        <v>1325</v>
       </c>
       <c r="E93" s="22"/>
       <c r="L93" s="12"/>
@@ -19425,400 +19345,400 @@
     <row r="94" customHeight="1" spans="2:12">
       <c r="B94" s="8"/>
       <c r="C94" s="20" t="s">
-        <v>1324</v>
+        <v>1326</v>
       </c>
       <c r="D94" s="14" t="s">
-        <v>1325</v>
+        <v>1327</v>
       </c>
       <c r="E94" s="22"/>
       <c r="L94" s="12"/>
     </row>
     <row r="95" ht="33" spans="2:4">
       <c r="B95" s="9" t="s">
-        <v>1326</v>
+        <v>1328</v>
       </c>
       <c r="C95" s="21" t="s">
-        <v>1327</v>
+        <v>1329</v>
       </c>
       <c r="D95" s="11" t="s">
-        <v>1328</v>
+        <v>1330</v>
       </c>
     </row>
     <row r="97" customHeight="1" spans="2:4">
       <c r="B97" s="9" t="s">
-        <v>1329</v>
+        <v>1331</v>
       </c>
       <c r="D97" s="11" t="s">
-        <v>1330</v>
+        <v>1332</v>
       </c>
     </row>
     <row r="98" customHeight="1" spans="2:4">
       <c r="B98" s="9" t="s">
-        <v>1331</v>
+        <v>1333</v>
       </c>
       <c r="C98" s="10" t="s">
-        <v>1332</v>
+        <v>1334</v>
       </c>
       <c r="D98" s="11" t="s">
-        <v>1333</v>
+        <v>1335</v>
       </c>
     </row>
     <row r="99" customHeight="1" spans="2:4">
       <c r="B99" s="9" t="s">
-        <v>1334</v>
+        <v>1336</v>
       </c>
       <c r="C99" s="10" t="s">
-        <v>1335</v>
+        <v>1337</v>
       </c>
       <c r="D99" s="11" t="s">
-        <v>1336</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="100" customHeight="1" spans="3:4">
       <c r="C100" s="10" t="s">
-        <v>1337</v>
+        <v>1339</v>
       </c>
       <c r="D100" s="11" t="s">
-        <v>1338</v>
+        <v>1340</v>
       </c>
     </row>
     <row r="101" customHeight="1" spans="3:4">
       <c r="C101" s="10" t="s">
-        <v>1339</v>
+        <v>1341</v>
       </c>
       <c r="D101" s="11" t="s">
-        <v>1340</v>
+        <v>1342</v>
       </c>
     </row>
     <row r="102" customHeight="1" spans="3:4">
       <c r="C102" s="10" t="s">
-        <v>1341</v>
+        <v>1343</v>
       </c>
       <c r="D102" s="11" t="s">
-        <v>1342</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="103" customHeight="1" spans="3:4">
       <c r="C103" s="10" t="s">
-        <v>1343</v>
+        <v>1345</v>
       </c>
       <c r="D103" s="11" t="s">
-        <v>1344</v>
+        <v>1346</v>
       </c>
     </row>
     <row r="104" customHeight="1" spans="2:3">
       <c r="B104" s="9" t="s">
-        <v>1345</v>
+        <v>1347</v>
       </c>
       <c r="C104" s="10" t="s">
-        <v>1346</v>
+        <v>1348</v>
       </c>
     </row>
     <row r="105" customHeight="1" spans="2:3">
       <c r="B105" s="9" t="s">
-        <v>1347</v>
+        <v>1349</v>
       </c>
       <c r="C105" s="10" t="s">
-        <v>1348</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="106" customHeight="1" spans="2:4">
       <c r="B106" s="9" t="s">
-        <v>1349</v>
+        <v>1351</v>
       </c>
       <c r="C106" s="10" t="s">
-        <v>1350</v>
+        <v>1352</v>
       </c>
       <c r="D106" s="11" t="s">
-        <v>1351</v>
+        <v>1353</v>
       </c>
     </row>
     <row r="107" customHeight="1" spans="2:4">
       <c r="B107" s="9" t="s">
-        <v>1352</v>
+        <v>1354</v>
       </c>
       <c r="C107" s="10" t="s">
-        <v>1353</v>
+        <v>1355</v>
       </c>
       <c r="D107" s="11" t="s">
-        <v>1354</v>
+        <v>1356</v>
       </c>
     </row>
     <row r="108" customHeight="1" spans="3:4">
       <c r="C108" s="10" t="s">
-        <v>1355</v>
+        <v>1357</v>
       </c>
       <c r="D108" s="11" t="s">
-        <v>1356</v>
+        <v>1358</v>
       </c>
     </row>
     <row r="109" customHeight="1" spans="3:4">
       <c r="C109" s="10" t="s">
-        <v>1357</v>
+        <v>1359</v>
       </c>
       <c r="D109" s="11" t="s">
-        <v>1358</v>
+        <v>1360</v>
       </c>
     </row>
     <row r="111" customHeight="1" spans="1:1">
       <c r="A111" s="8" t="s">
-        <v>1359</v>
+        <v>1361</v>
       </c>
     </row>
     <row r="112" customHeight="1" spans="2:2">
       <c r="B112" s="9" t="s">
-        <v>1360</v>
+        <v>1362</v>
       </c>
     </row>
     <row r="113" customHeight="1" spans="3:4">
       <c r="C113" s="20" t="s">
-        <v>1208</v>
+        <v>1210</v>
       </c>
       <c r="D113" s="11" t="s">
-        <v>1361</v>
+        <v>1363</v>
       </c>
     </row>
     <row r="114" customHeight="1" spans="3:4">
       <c r="C114" s="20" t="s">
-        <v>1000</v>
+        <v>1002</v>
       </c>
       <c r="D114" s="11" t="s">
-        <v>1362</v>
+        <v>1364</v>
       </c>
     </row>
     <row r="115" customHeight="1" spans="2:2">
       <c r="B115" s="9" t="s">
-        <v>1363</v>
+        <v>1365</v>
       </c>
     </row>
     <row r="116" customHeight="1" spans="3:3">
       <c r="C116" s="10" t="s">
-        <v>1364</v>
+        <v>1366</v>
       </c>
     </row>
     <row r="117" customHeight="1" spans="3:4">
       <c r="C117" s="10" t="s">
-        <v>1365</v>
+        <v>1367</v>
       </c>
       <c r="D117" s="11" t="s">
-        <v>1366</v>
+        <v>1368</v>
       </c>
     </row>
     <row r="118" customHeight="1" spans="2:2">
       <c r="B118" s="9" t="s">
-        <v>1359</v>
+        <v>1361</v>
       </c>
     </row>
     <row r="119" customHeight="1" spans="3:3">
       <c r="C119" s="10" t="s">
-        <v>1364</v>
+        <v>1366</v>
       </c>
     </row>
     <row r="120" customHeight="1" spans="3:4">
       <c r="C120" s="10" t="s">
-        <v>1365</v>
+        <v>1367</v>
       </c>
       <c r="D120" s="11" t="s">
-        <v>1367</v>
+        <v>1369</v>
       </c>
     </row>
     <row r="121" customHeight="1" spans="2:4">
       <c r="B121" s="9" t="s">
-        <v>1359</v>
+        <v>1361</v>
       </c>
       <c r="C121" s="10" t="s">
-        <v>1365</v>
+        <v>1367</v>
       </c>
       <c r="D121" s="11" t="s">
-        <v>1368</v>
+        <v>1370</v>
       </c>
     </row>
     <row r="122" customHeight="1" spans="2:4">
       <c r="B122" s="9" t="s">
-        <v>1369</v>
+        <v>1371</v>
       </c>
       <c r="C122" s="10" t="s">
-        <v>1370</v>
+        <v>1372</v>
       </c>
       <c r="D122" s="11" t="s">
-        <v>1371</v>
+        <v>1373</v>
       </c>
     </row>
     <row r="123" customHeight="1" spans="3:4">
       <c r="C123" s="10" t="s">
-        <v>1372</v>
+        <v>1374</v>
       </c>
       <c r="D123" s="11" t="s">
-        <v>1373</v>
+        <v>1375</v>
       </c>
     </row>
     <row r="125" customHeight="1" spans="1:1">
       <c r="A125" s="8" t="s">
-        <v>1374</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="126" customHeight="1" spans="2:2">
       <c r="B126" s="9" t="s">
-        <v>1375</v>
+        <v>1377</v>
       </c>
     </row>
     <row r="127" customHeight="1" spans="2:2">
       <c r="B127" s="9" t="s">
-        <v>1376</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="128" customHeight="1" spans="1:1">
       <c r="A128" s="8" t="s">
-        <v>1377</v>
+        <v>1379</v>
       </c>
     </row>
     <row r="129" customHeight="1" spans="2:2">
       <c r="B129" s="9" t="s">
-        <v>1378</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="130" ht="115.5" spans="3:4">
       <c r="C130" s="10" t="s">
-        <v>1379</v>
+        <v>1381</v>
       </c>
       <c r="D130" s="11" t="s">
-        <v>1380</v>
+        <v>1382</v>
       </c>
     </row>
     <row r="131" customHeight="1" spans="3:4">
       <c r="C131" s="10" t="s">
-        <v>1381</v>
+        <v>1383</v>
       </c>
       <c r="D131" s="11" t="s">
-        <v>1382</v>
+        <v>1384</v>
       </c>
     </row>
     <row r="132" ht="33" spans="2:4">
       <c r="B132" s="9" t="s">
-        <v>1383</v>
+        <v>1385</v>
       </c>
       <c r="D132" s="23" t="s">
-        <v>1384</v>
+        <v>1386</v>
       </c>
     </row>
     <row r="133" ht="33" spans="2:4">
       <c r="B133" s="9" t="s">
-        <v>1385</v>
+        <v>1387</v>
       </c>
       <c r="C133" s="10" t="s">
-        <v>1082</v>
+        <v>1084</v>
       </c>
       <c r="D133" s="11" t="s">
-        <v>1386</v>
+        <v>1388</v>
       </c>
     </row>
     <row r="134" customHeight="1" spans="2:4">
       <c r="B134" s="9" t="s">
-        <v>1387</v>
+        <v>1389</v>
       </c>
       <c r="C134" s="10" t="s">
-        <v>1082</v>
+        <v>1084</v>
       </c>
       <c r="D134" s="11" t="s">
-        <v>1388</v>
+        <v>1390</v>
       </c>
     </row>
     <row r="135" ht="49.5" spans="3:4">
       <c r="C135" s="10" t="s">
-        <v>1389</v>
+        <v>1391</v>
       </c>
       <c r="D135" s="11" t="s">
-        <v>1390</v>
+        <v>1392</v>
       </c>
     </row>
     <row r="136" customHeight="1" spans="2:2">
       <c r="B136" s="9" t="s">
-        <v>1391</v>
+        <v>1393</v>
       </c>
     </row>
     <row r="138" customHeight="1" spans="2:2">
       <c r="B138" s="9" t="s">
-        <v>1392</v>
+        <v>1394</v>
       </c>
     </row>
     <row r="141" customHeight="1" spans="1:1">
       <c r="A141" s="8" t="s">
-        <v>1393</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="142" customHeight="1" spans="2:3">
       <c r="B142" s="9" t="s">
-        <v>1394</v>
+        <v>1396</v>
       </c>
       <c r="C142" s="10" t="s">
-        <v>1395</v>
+        <v>1397</v>
       </c>
     </row>
     <row r="143" customHeight="1" spans="2:4">
       <c r="B143" s="24" t="s">
-        <v>1396</v>
+        <v>1398</v>
       </c>
       <c r="C143" s="10" t="s">
-        <v>1397</v>
+        <v>1399</v>
       </c>
       <c r="D143" s="11" t="s">
-        <v>1398</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="144" customHeight="1" spans="3:4">
       <c r="C144" s="10" t="s">
-        <v>1399</v>
+        <v>1401</v>
       </c>
       <c r="D144" s="11" t="s">
-        <v>1400</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="145" customHeight="1" spans="2:2">
       <c r="B145" s="9" t="s">
-        <v>1401</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="146" customHeight="1" spans="3:4">
       <c r="C146" s="10" t="s">
-        <v>1402</v>
+        <v>1404</v>
       </c>
       <c r="D146" s="11" t="s">
-        <v>1403</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="147" customHeight="1" spans="2:2">
       <c r="B147" s="9" t="s">
-        <v>1404</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="148" customHeight="1" spans="3:3">
       <c r="C148" s="10" t="s">
-        <v>1402</v>
+        <v>1404</v>
       </c>
     </row>
     <row r="155" customHeight="1" spans="1:1">
       <c r="A155" s="8" t="s">
-        <v>1405</v>
+        <v>1407</v>
       </c>
     </row>
     <row r="160" customHeight="1" spans="1:1">
       <c r="A160" s="8" t="s">
-        <v>1406</v>
+        <v>1408</v>
       </c>
     </row>
     <row r="165" customHeight="1" spans="1:1">
       <c r="A165" s="8" t="s">
-        <v>1407</v>
+        <v>1409</v>
       </c>
     </row>
     <row r="170" customHeight="1" spans="1:1">
       <c r="A170" s="8" t="s">
-        <v>1408</v>
+        <v>1410</v>
       </c>
     </row>
     <row r="174" customHeight="1" spans="1:1">
       <c r="A174" s="8" t="s">
-        <v>1409</v>
+        <v>1411</v>
       </c>
     </row>
   </sheetData>

--- a/linux.xlsx
+++ b/linux.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20385" windowHeight="7950" firstSheet="1" activeTab="1"/>
+    <workbookView windowWidth="20385" windowHeight="7950" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="目录" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1419">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1418">
   <si>
     <t>ab</t>
   </si>
@@ -1783,45 +1783,6 @@
   </si>
   <si>
     <t>修改 /etc/exports</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF7030A0"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>•</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF7030A0"/>
-        <rFont val="仿宋"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> 主配置文件: /etc/named.conf       #设置本机负责解析的域名是什么  
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF7030A0"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>•</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF7030A0"/>
-        <rFont val="仿宋"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> 地址库文件: /var/named/           #主机名与ip地址的对应关系</t>
-    </r>
   </si>
   <si>
     <t>NFS（Network File System）即网络文件系统，是FreeBSD支持的文件系统中的一种，它允许网络中的计算机之间通过TCP/IP网络共享资源。</t>
@@ -6519,9 +6480,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="63">
     <font>
@@ -6818,6 +6779,14 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -6826,15 +6795,23 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="15"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -6852,44 +6829,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6918,22 +6857,44 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6978,7 +6939,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6990,13 +6957,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7014,49 +7071,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7068,91 +7113,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7163,6 +7124,15 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -7220,6 +7190,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -7237,29 +7218,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -7268,94 +7229,94 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="43" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="42" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="43" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="59" fillId="31" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="58" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="42" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="42" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="55" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="56" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="42" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -7364,52 +7325,52 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="58" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="42" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="43" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="42" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="43" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="42" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="44" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="43" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="42" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="57" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -8120,7 +8081,7 @@
   <sheetData>
     <row r="1" ht="198" spans="1:1">
       <c r="A1" s="7" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="2" ht="23" customHeight="1"/>
@@ -8177,32 +8138,32 @@
   <sheetData>
     <row r="1" ht="72" spans="1:1">
       <c r="A1" s="6" t="s">
-        <v>1413</v>
+        <v>1412</v>
       </c>
     </row>
     <row r="2" ht="72" spans="1:1">
       <c r="A2" s="6" t="s">
-        <v>1414</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="3" ht="36" spans="1:1">
       <c r="A3" s="6" t="s">
-        <v>1415</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="4" ht="409.5" spans="1:1">
       <c r="A4" s="6" t="s">
-        <v>1416</v>
+        <v>1415</v>
       </c>
     </row>
     <row r="6" ht="72" spans="1:1">
       <c r="A6" s="6" t="s">
-        <v>1417</v>
+        <v>1416</v>
       </c>
     </row>
     <row r="7" ht="54" spans="1:1">
       <c r="A7" s="6" t="s">
-        <v>1418</v>
+        <v>1417</v>
       </c>
     </row>
   </sheetData>
@@ -8241,7 +8202,7 @@
   <sheetPr/>
   <dimension ref="A1:I385"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A377" workbookViewId="0">
+    <sheetView topLeftCell="A377" workbookViewId="0">
       <selection activeCell="A388" sqref="A388"/>
     </sheetView>
   </sheetViews>
@@ -11059,10 +11020,10 @@
   <sheetPr/>
   <dimension ref="A1:O115"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" topLeftCell="A90" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="C1" activePane="topRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A13" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="C96" sqref="C96"/>
+      <selection pane="topRight" activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -11289,9 +11250,7 @@
       <c r="B16" s="79" t="s">
         <v>546</v>
       </c>
-      <c r="C16" s="80" t="s">
-        <v>547</v>
-      </c>
+      <c r="C16" s="80"/>
       <c r="D16" s="73"/>
       <c r="E16" s="73"/>
       <c r="F16" s="73"/>
@@ -11306,7 +11265,7 @@
     </row>
     <row r="17" ht="39" customHeight="1" spans="2:14">
       <c r="B17" s="77" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="C17" s="78"/>
       <c r="D17" s="78"/>
@@ -11323,12 +11282,12 @@
     </row>
     <row r="18" spans="2:2">
       <c r="B18" s="79" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
     </row>
     <row r="19" ht="79" customHeight="1" spans="3:14">
       <c r="C19" s="78" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="D19" s="78"/>
       <c r="E19" s="78"/>
@@ -11344,12 +11303,12 @@
     </row>
     <row r="20" ht="25" customHeight="1" spans="2:2">
       <c r="B20" s="79" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
     </row>
     <row r="21" ht="58" customHeight="1" spans="3:14">
       <c r="C21" s="78" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="D21" s="78"/>
       <c r="E21" s="78"/>
@@ -11365,12 +11324,12 @@
     </row>
     <row r="22" spans="2:2">
       <c r="B22" s="79" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="23" ht="78" customHeight="1" spans="3:14">
       <c r="C23" s="78" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="D23" s="78"/>
       <c r="E23" s="78"/>
@@ -11386,7 +11345,7 @@
     </row>
     <row r="24" spans="2:14">
       <c r="B24" s="74" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="C24" s="73"/>
       <c r="D24" s="73"/>
@@ -11403,7 +11362,7 @@
     </row>
     <row r="25" spans="2:14">
       <c r="B25" s="74" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="C25" s="74"/>
       <c r="D25" s="74"/>
@@ -11480,18 +11439,18 @@
     </row>
     <row r="30" ht="19" customHeight="1" spans="1:3">
       <c r="A30" s="68" t="s">
+        <v>556</v>
+      </c>
+      <c r="B30" s="79" t="s">
         <v>557</v>
       </c>
-      <c r="B30" s="79" t="s">
+      <c r="C30" s="81" t="s">
         <v>558</v>
-      </c>
-      <c r="C30" s="81" t="s">
-        <v>559</v>
       </c>
     </row>
     <row r="31" ht="71" customHeight="1" spans="2:15">
       <c r="B31" s="82" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="C31" s="82"/>
       <c r="D31" s="82"/>
@@ -11509,7 +11468,7 @@
     </row>
     <row r="32" spans="2:14">
       <c r="B32" s="83" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="C32" s="84"/>
       <c r="D32" s="84"/>
@@ -11526,12 +11485,12 @@
     </row>
     <row r="34" spans="1:1">
       <c r="A34" s="68" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="35" ht="60" customHeight="1" spans="2:15">
       <c r="B35" s="77" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="C35" s="78"/>
       <c r="D35" s="78"/>
@@ -11549,7 +11508,7 @@
     </row>
     <row r="36" ht="55" customHeight="1" spans="2:15">
       <c r="B36" s="77" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="C36" s="78"/>
       <c r="D36" s="78"/>
@@ -11567,7 +11526,7 @@
     </row>
     <row r="37" ht="20" customHeight="1" spans="2:15">
       <c r="B37" s="74" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="C37" s="73"/>
       <c r="D37" s="73"/>
@@ -11585,17 +11544,17 @@
     </row>
     <row r="38" ht="21" customHeight="1" spans="2:3">
       <c r="B38" s="85" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="C38" s="81"/>
     </row>
     <row r="39" ht="54" customHeight="1" spans="2:14">
       <c r="B39" s="85"/>
       <c r="C39" s="81" t="s">
+        <v>566</v>
+      </c>
+      <c r="D39" s="78" t="s">
         <v>567</v>
-      </c>
-      <c r="D39" s="78" t="s">
-        <v>568</v>
       </c>
       <c r="E39" s="78"/>
       <c r="F39" s="78"/>
@@ -11611,16 +11570,16 @@
     <row r="40" ht="21" customHeight="1" spans="2:3">
       <c r="B40" s="85"/>
       <c r="C40" s="81" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="41" ht="72" customHeight="1" spans="2:14">
       <c r="B41" s="85"/>
       <c r="C41" s="81" t="s">
+        <v>569</v>
+      </c>
+      <c r="D41" s="78" t="s">
         <v>570</v>
-      </c>
-      <c r="D41" s="78" t="s">
-        <v>571</v>
       </c>
       <c r="E41" s="78"/>
       <c r="F41" s="78"/>
@@ -11636,10 +11595,10 @@
     <row r="42" ht="39" customHeight="1" spans="2:14">
       <c r="B42" s="85"/>
       <c r="C42" s="81" t="s">
+        <v>571</v>
+      </c>
+      <c r="D42" s="78" t="s">
         <v>572</v>
-      </c>
-      <c r="D42" s="78" t="s">
-        <v>573</v>
       </c>
       <c r="E42" s="73"/>
       <c r="F42" s="73"/>
@@ -11655,7 +11614,7 @@
     <row r="43" ht="21" customHeight="1" spans="2:4">
       <c r="B43" s="85"/>
       <c r="C43" s="81" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="D43" s="81"/>
     </row>
@@ -11663,7 +11622,7 @@
       <c r="B44" s="85"/>
       <c r="C44" s="81"/>
       <c r="D44" s="80" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="E44" s="78"/>
       <c r="F44" s="78"/>
@@ -11680,7 +11639,7 @@
       <c r="B45" s="85"/>
       <c r="C45" s="81"/>
       <c r="D45" s="86" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="E45" s="86"/>
       <c r="F45" s="86"/>
@@ -11695,7 +11654,7 @@
     </row>
     <row r="46" spans="2:15">
       <c r="B46" s="74" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="C46" s="73"/>
       <c r="D46" s="73"/>
@@ -11713,11 +11672,11 @@
     </row>
     <row r="47" spans="2:14">
       <c r="B47" s="74" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="C47" s="73"/>
       <c r="D47" s="73" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="E47" s="73"/>
       <c r="F47" s="73"/>
@@ -11732,12 +11691,12 @@
     </row>
     <row r="49" spans="1:1">
       <c r="A49" s="68" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="50" ht="81" customHeight="1" spans="2:14">
       <c r="B50" s="77" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="C50" s="78"/>
       <c r="D50" s="78"/>
@@ -11754,12 +11713,12 @@
     </row>
     <row r="51" spans="2:2">
       <c r="B51" s="79" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="52" ht="33" customHeight="1" spans="3:14">
       <c r="C52" s="78" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D52" s="78"/>
       <c r="E52" s="78"/>
@@ -11775,12 +11734,12 @@
     </row>
     <row r="53" spans="2:2">
       <c r="B53" s="79" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
     </row>
     <row r="54" ht="36" customHeight="1" spans="3:14">
       <c r="C54" s="78" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="D54" s="78"/>
       <c r="E54" s="78"/>
@@ -11796,7 +11755,7 @@
     </row>
     <row r="55" ht="19" customHeight="1" spans="2:14">
       <c r="B55" s="79" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="C55" s="78"/>
       <c r="D55" s="78"/>
@@ -11813,7 +11772,7 @@
     </row>
     <row r="56" ht="103" customHeight="1" spans="3:14">
       <c r="C56" s="78" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="D56" s="78"/>
       <c r="E56" s="78"/>
@@ -11829,7 +11788,7 @@
     </row>
     <row r="57" ht="23" customHeight="1" spans="2:14">
       <c r="B57" s="79" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="C57" s="78"/>
       <c r="D57" s="78"/>
@@ -11846,7 +11805,7 @@
     </row>
     <row r="58" ht="41" customHeight="1" spans="3:14">
       <c r="C58" s="78" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="D58" s="78"/>
       <c r="E58" s="78"/>
@@ -11862,7 +11821,7 @@
     </row>
     <row r="59" ht="23" customHeight="1" spans="2:14">
       <c r="B59" s="79" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="C59" s="78"/>
       <c r="D59" s="78"/>
@@ -11879,7 +11838,7 @@
     </row>
     <row r="60" ht="57" customHeight="1" spans="3:14">
       <c r="C60" s="78" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="D60" s="78"/>
       <c r="E60" s="78"/>
@@ -11895,11 +11854,11 @@
     </row>
     <row r="61" ht="27" customHeight="1" spans="2:14">
       <c r="B61" s="79" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="C61" s="78"/>
       <c r="D61" s="78" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="E61" s="78"/>
       <c r="F61" s="78"/>
@@ -11914,7 +11873,7 @@
     </row>
     <row r="62" ht="41" customHeight="1" spans="3:14">
       <c r="C62" s="78" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="D62" s="78"/>
       <c r="E62" s="78"/>
@@ -11930,10 +11889,10 @@
     </row>
     <row r="63" ht="26" customHeight="1" spans="2:14">
       <c r="B63" s="79" t="s">
+        <v>594</v>
+      </c>
+      <c r="C63" s="78" t="s">
         <v>595</v>
-      </c>
-      <c r="C63" s="78" t="s">
-        <v>596</v>
       </c>
       <c r="D63" s="78"/>
       <c r="E63" s="78"/>
@@ -11949,7 +11908,7 @@
     </row>
     <row r="64" ht="25" customHeight="1" spans="2:14">
       <c r="B64" s="79" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="C64" s="78"/>
       <c r="D64" s="78"/>
@@ -11967,10 +11926,10 @@
     <row r="65" ht="25" customHeight="1" spans="2:14">
       <c r="B65" s="79"/>
       <c r="C65" s="86" t="s">
+        <v>597</v>
+      </c>
+      <c r="D65" s="78" t="s">
         <v>598</v>
-      </c>
-      <c r="D65" s="78" t="s">
-        <v>599</v>
       </c>
       <c r="E65" s="78"/>
       <c r="F65" s="78"/>
@@ -11986,10 +11945,10 @@
     <row r="66" ht="25" customHeight="1" spans="2:14">
       <c r="B66" s="79"/>
       <c r="C66" s="90" t="s">
+        <v>599</v>
+      </c>
+      <c r="D66" s="78" t="s">
         <v>600</v>
-      </c>
-      <c r="D66" s="78" t="s">
-        <v>601</v>
       </c>
       <c r="E66" s="78"/>
       <c r="F66" s="78"/>
@@ -12006,7 +11965,7 @@
       <c r="B67" s="79"/>
       <c r="C67" s="78"/>
       <c r="D67" s="78" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="E67" s="78"/>
       <c r="F67" s="78"/>
@@ -12035,12 +11994,12 @@
     </row>
     <row r="70" spans="1:1">
       <c r="A70" s="68" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="71" ht="54" customHeight="1" spans="2:14">
       <c r="B71" s="77" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="C71" s="73"/>
       <c r="D71" s="73"/>
@@ -12058,7 +12017,7 @@
     <row r="72" ht="26" customHeight="1" spans="2:14">
       <c r="B72" s="77"/>
       <c r="C72" s="73" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="D72" s="73"/>
       <c r="E72" s="73"/>
@@ -12075,7 +12034,7 @@
     <row r="73" ht="25" customHeight="1" spans="2:14">
       <c r="B73" s="77"/>
       <c r="C73" s="73" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="D73" s="73"/>
       <c r="E73" s="73"/>
@@ -12092,7 +12051,7 @@
     <row r="74" ht="312" customHeight="1" spans="2:14">
       <c r="B74" s="77"/>
       <c r="C74" s="78" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="D74" s="73"/>
       <c r="E74" s="73"/>
@@ -12109,7 +12068,7 @@
     <row r="75" ht="26" customHeight="1" spans="2:14">
       <c r="B75" s="77"/>
       <c r="C75" s="73" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="D75" s="73"/>
       <c r="E75" s="73"/>
@@ -12125,7 +12084,7 @@
     </row>
     <row r="76" ht="36" customHeight="1" spans="2:14">
       <c r="B76" s="91" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="C76" s="73"/>
       <c r="D76" s="73"/>
@@ -12143,7 +12102,7 @@
     <row r="77" ht="26" customHeight="1" spans="2:14">
       <c r="B77" s="77"/>
       <c r="C77" s="73" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="D77" s="73"/>
       <c r="E77" s="73"/>
@@ -12219,7 +12178,7 @@
     </row>
     <row r="83" spans="1:14">
       <c r="A83" s="92" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="B83" s="49"/>
       <c r="C83" s="93"/>
@@ -12238,7 +12197,7 @@
     <row r="84" ht="72" customHeight="1" spans="1:14">
       <c r="A84" s="92"/>
       <c r="B84" s="94" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="C84" s="95"/>
       <c r="D84" s="95"/>
@@ -12256,7 +12215,7 @@
     <row r="85" ht="72" customHeight="1" spans="1:14">
       <c r="A85" s="92"/>
       <c r="B85" s="94" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="C85" s="94"/>
       <c r="D85" s="94"/>
@@ -12273,12 +12232,12 @@
     </row>
     <row r="86" spans="2:2">
       <c r="B86" s="69" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="87" ht="176" customHeight="1" spans="3:13">
       <c r="C87" s="78" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="D87" s="78"/>
       <c r="E87" s="78"/>
@@ -12293,7 +12252,7 @@
     </row>
     <row r="88" ht="21" customHeight="1" spans="2:13">
       <c r="B88" s="69" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="C88" s="78"/>
       <c r="D88" s="78"/>
@@ -12309,7 +12268,7 @@
     </row>
     <row r="89" ht="251" customHeight="1" spans="3:13">
       <c r="C89" s="78" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="D89" s="78"/>
       <c r="E89" s="78"/>
@@ -12324,7 +12283,7 @@
     </row>
     <row r="90" ht="21" customHeight="1" spans="2:13">
       <c r="B90" s="69" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="C90" s="78"/>
       <c r="D90" s="78"/>
@@ -12340,7 +12299,7 @@
     </row>
     <row r="91" ht="32" customHeight="1" spans="3:13">
       <c r="C91" s="78" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="D91" s="78"/>
       <c r="E91" s="78"/>
@@ -12355,13 +12314,13 @@
     </row>
     <row r="92" ht="21" customHeight="1" spans="2:13">
       <c r="B92" s="69" t="s">
+        <v>619</v>
+      </c>
+      <c r="C92" s="78" t="s">
         <v>620</v>
       </c>
-      <c r="C92" s="78" t="s">
+      <c r="D92" s="78" t="s">
         <v>621</v>
-      </c>
-      <c r="D92" s="78" t="s">
-        <v>622</v>
       </c>
       <c r="E92" s="78"/>
       <c r="F92" s="78"/>
@@ -12375,10 +12334,10 @@
     </row>
     <row r="93" ht="21" customHeight="1" spans="3:13">
       <c r="C93" s="78" t="s">
+        <v>622</v>
+      </c>
+      <c r="D93" s="78" t="s">
         <v>623</v>
-      </c>
-      <c r="D93" s="78" t="s">
-        <v>624</v>
       </c>
       <c r="E93" s="78"/>
       <c r="F93" s="78"/>
@@ -12395,7 +12354,7 @@
         <v>200</v>
       </c>
       <c r="D94" s="78" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="E94" s="78"/>
       <c r="F94" s="78"/>
@@ -12409,10 +12368,10 @@
     </row>
     <row r="95" ht="21" customHeight="1" spans="3:13">
       <c r="C95" s="78" t="s">
+        <v>625</v>
+      </c>
+      <c r="D95" s="78" t="s">
         <v>626</v>
-      </c>
-      <c r="D95" s="78" t="s">
-        <v>627</v>
       </c>
       <c r="E95" s="78"/>
       <c r="F95" s="78"/>
@@ -12429,7 +12388,7 @@
         <v>442</v>
       </c>
       <c r="D96" s="78" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="E96" s="78"/>
       <c r="F96" s="78"/>
@@ -12443,10 +12402,10 @@
     </row>
     <row r="97" ht="21" customHeight="1" spans="3:13">
       <c r="C97" s="78" t="s">
+        <v>628</v>
+      </c>
+      <c r="D97" s="78" t="s">
         <v>629</v>
-      </c>
-      <c r="D97" s="78" t="s">
-        <v>630</v>
       </c>
       <c r="E97" s="78"/>
       <c r="F97" s="78"/>
@@ -12460,60 +12419,60 @@
     </row>
     <row r="98" spans="3:4">
       <c r="C98" s="70" t="s">
+        <v>630</v>
+      </c>
+      <c r="D98" s="70" t="s">
         <v>631</v>
-      </c>
-      <c r="D98" s="70" t="s">
-        <v>632</v>
       </c>
     </row>
     <row r="99" spans="3:4">
       <c r="C99" s="70" t="s">
+        <v>632</v>
+      </c>
+      <c r="D99" s="70" t="s">
         <v>633</v>
-      </c>
-      <c r="D99" s="70" t="s">
-        <v>634</v>
       </c>
     </row>
     <row r="100" spans="3:4">
       <c r="C100" s="70" t="s">
+        <v>634</v>
+      </c>
+      <c r="D100" s="70" t="s">
         <v>635</v>
-      </c>
-      <c r="D100" s="70" t="s">
-        <v>636</v>
       </c>
     </row>
     <row r="101" spans="3:4">
       <c r="C101" s="70" t="s">
+        <v>636</v>
+      </c>
+      <c r="D101" s="70" t="s">
         <v>637</v>
-      </c>
-      <c r="D101" s="70" t="s">
-        <v>638</v>
       </c>
     </row>
     <row r="102" spans="3:4">
       <c r="C102" s="70" t="s">
+        <v>638</v>
+      </c>
+      <c r="D102" s="70" t="s">
         <v>639</v>
-      </c>
-      <c r="D102" s="70" t="s">
-        <v>640</v>
       </c>
     </row>
     <row r="103" spans="3:4">
       <c r="C103" s="70" t="s">
+        <v>640</v>
+      </c>
+      <c r="D103" s="70" t="s">
         <v>641</v>
-      </c>
-      <c r="D103" s="70" t="s">
-        <v>642</v>
       </c>
     </row>
     <row r="105" spans="1:1">
       <c r="A105" s="68" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
     </row>
     <row r="106" spans="2:14">
       <c r="B106" s="77" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="C106" s="78"/>
       <c r="D106" s="78"/>
@@ -12530,12 +12489,12 @@
     </row>
     <row r="108" spans="1:1">
       <c r="A108" s="68" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="109" ht="54" customHeight="1" spans="2:14">
       <c r="B109" s="77" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="C109" s="78"/>
       <c r="D109" s="78"/>
@@ -12552,12 +12511,12 @@
     </row>
     <row r="110" ht="21" customHeight="1" spans="2:2">
       <c r="B110" s="79" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="111" ht="120" customHeight="1" spans="3:14">
       <c r="C111" s="116" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="D111" s="78"/>
       <c r="E111" s="78"/>
@@ -12573,12 +12532,12 @@
     </row>
     <row r="112" spans="2:2">
       <c r="B112" s="79" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="113" ht="31" customHeight="1" spans="3:14">
       <c r="C113" s="78" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="D113" s="78"/>
       <c r="E113" s="78"/>
@@ -12594,12 +12553,12 @@
     </row>
     <row r="114" spans="2:2">
       <c r="B114" s="79" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="115" spans="3:14">
       <c r="C115" s="73" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="D115" s="73"/>
       <c r="E115" s="73"/>
@@ -12700,12 +12659,12 @@
   <sheetData>
     <row r="1" customHeight="1" spans="1:1">
       <c r="A1" s="60" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="2:14">
       <c r="B2" s="31" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="C2" s="29"/>
       <c r="D2" s="29"/>
@@ -12722,7 +12681,7 @@
     </row>
     <row r="3" ht="57" customHeight="1" spans="2:14">
       <c r="B3" s="31" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="C3" s="29"/>
       <c r="D3" s="29"/>
@@ -12739,7 +12698,7 @@
     </row>
     <row r="4" customHeight="1" spans="2:14">
       <c r="B4" s="31" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="C4" s="29"/>
       <c r="D4" s="29"/>
@@ -12756,7 +12715,7 @@
     </row>
     <row r="5" customHeight="1" spans="2:14">
       <c r="B5" s="61" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="C5" s="30"/>
       <c r="D5" s="30"/>
@@ -12773,10 +12732,10 @@
     </row>
     <row r="6" ht="45" customHeight="1" spans="2:14">
       <c r="B6" s="62" t="s">
+        <v>657</v>
+      </c>
+      <c r="C6" s="29" t="s">
         <v>658</v>
-      </c>
-      <c r="C6" s="29" t="s">
-        <v>659</v>
       </c>
       <c r="D6" s="30"/>
       <c r="E6" s="30"/>
@@ -12792,10 +12751,10 @@
     </row>
     <row r="7" customHeight="1" spans="2:14">
       <c r="B7" s="62" t="s">
+        <v>659</v>
+      </c>
+      <c r="C7" s="29" t="s">
         <v>660</v>
-      </c>
-      <c r="C7" s="29" t="s">
-        <v>661</v>
       </c>
       <c r="D7" s="30"/>
       <c r="E7" s="30"/>
@@ -12812,7 +12771,7 @@
     <row r="8" ht="70" customHeight="1" spans="2:14">
       <c r="B8" s="61"/>
       <c r="C8" s="33" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="D8" s="33"/>
       <c r="E8" s="33"/>
@@ -12828,10 +12787,10 @@
     </row>
     <row r="9" customHeight="1" spans="2:14">
       <c r="B9" s="62" t="s">
+        <v>662</v>
+      </c>
+      <c r="C9" s="30" t="s">
         <v>663</v>
-      </c>
-      <c r="C9" s="30" t="s">
-        <v>664</v>
       </c>
       <c r="D9" s="30"/>
       <c r="E9" s="30"/>
@@ -12848,7 +12807,7 @@
     <row r="10" ht="70" customHeight="1" spans="2:14">
       <c r="B10" s="61"/>
       <c r="C10" s="33" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="D10" s="33"/>
       <c r="E10" s="33"/>
@@ -12864,11 +12823,11 @@
     </row>
     <row r="11" ht="38" customHeight="1" spans="2:14">
       <c r="B11" s="62" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="C11" s="30"/>
       <c r="D11" s="29" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="E11" s="30"/>
       <c r="F11" s="30"/>
@@ -12884,7 +12843,7 @@
     <row r="12" ht="142" customHeight="1" spans="2:14">
       <c r="B12" s="61"/>
       <c r="C12" s="33" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="D12" s="33"/>
       <c r="E12" s="33"/>
@@ -12900,11 +12859,11 @@
     </row>
     <row r="13" ht="22" customHeight="1" spans="2:14">
       <c r="B13" s="62" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="C13" s="30"/>
       <c r="D13" s="33" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="E13" s="50"/>
       <c r="F13" s="50"/>
@@ -12920,7 +12879,7 @@
     <row r="14" ht="156" customHeight="1" spans="2:14">
       <c r="B14" s="62"/>
       <c r="C14" s="33" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="D14" s="33"/>
       <c r="E14" s="33"/>
@@ -12936,12 +12895,12 @@
     </row>
     <row r="16" customHeight="1" spans="1:1">
       <c r="A16" s="60" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="17" ht="54" customHeight="1" spans="2:14">
       <c r="B17" s="31" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="C17" s="29"/>
       <c r="D17" s="29"/>
@@ -12958,7 +12917,7 @@
     </row>
     <row r="18" ht="49" customHeight="1" spans="2:14">
       <c r="B18" s="31" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="C18" s="29"/>
       <c r="D18" s="29"/>
@@ -12975,7 +12934,7 @@
     </row>
     <row r="19" customHeight="1" spans="2:14">
       <c r="B19" s="61" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="C19" s="30"/>
       <c r="D19" s="30"/>
@@ -12992,7 +12951,7 @@
     </row>
     <row r="20" customHeight="1" spans="2:14">
       <c r="B20" s="63" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="C20" s="30"/>
       <c r="D20" s="30"/>
@@ -13010,7 +12969,7 @@
     <row r="21" ht="42" customHeight="1" spans="2:14">
       <c r="B21" s="61"/>
       <c r="C21" s="29" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="D21" s="30"/>
       <c r="E21" s="30"/>
@@ -13026,7 +12985,7 @@
     </row>
     <row r="22" customHeight="1" spans="2:14">
       <c r="B22" s="62" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="C22" s="30"/>
       <c r="D22" s="30"/>
@@ -13044,7 +13003,7 @@
     <row r="23" ht="84" customHeight="1" spans="2:14">
       <c r="B23" s="61"/>
       <c r="C23" s="29" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="D23" s="30"/>
       <c r="E23" s="30"/>
@@ -13060,7 +13019,7 @@
     </row>
     <row r="24" customHeight="1" spans="2:14">
       <c r="B24" s="61" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="C24" s="30"/>
       <c r="D24" s="30"/>
@@ -13078,7 +13037,7 @@
     <row r="25" ht="52" customHeight="1" spans="2:14">
       <c r="B25" s="61"/>
       <c r="C25" s="29" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="D25" s="29"/>
       <c r="E25" s="29"/>
@@ -13095,7 +13054,7 @@
     <row r="26" ht="169" customHeight="1" spans="2:14">
       <c r="B26" s="61"/>
       <c r="C26" s="29" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="D26" s="29"/>
       <c r="E26" s="29"/>
@@ -13111,7 +13070,7 @@
     </row>
     <row r="27" customHeight="1" spans="2:14">
       <c r="B27" s="62" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="C27" s="30"/>
       <c r="D27" s="30"/>
@@ -13129,7 +13088,7 @@
     <row r="28" ht="73" customHeight="1" spans="2:14">
       <c r="B28" s="61"/>
       <c r="C28" s="29" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="D28" s="30"/>
       <c r="E28" s="30"/>
@@ -13145,7 +13104,7 @@
     </row>
     <row r="29" customHeight="1" spans="2:14">
       <c r="B29" s="62" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="C29" s="30"/>
       <c r="D29" s="30"/>
@@ -13163,7 +13122,7 @@
     <row r="30" ht="150" customHeight="1" spans="2:14">
       <c r="B30" s="61"/>
       <c r="C30" s="29" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="D30" s="30"/>
       <c r="E30" s="30"/>
@@ -13179,7 +13138,7 @@
     </row>
     <row r="31" customHeight="1" spans="2:14">
       <c r="B31" s="62" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="C31" s="30"/>
       <c r="D31" s="30"/>
@@ -13197,7 +13156,7 @@
     <row r="32" ht="112" customHeight="1" spans="2:14">
       <c r="B32" s="61"/>
       <c r="C32" s="29" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="D32" s="29"/>
       <c r="E32" s="29"/>
@@ -13213,7 +13172,7 @@
     </row>
     <row r="33" customHeight="1" spans="2:14">
       <c r="B33" s="62" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="C33" s="30"/>
       <c r="D33" s="30"/>
@@ -13231,7 +13190,7 @@
     <row r="34" ht="44" customHeight="1" spans="2:14">
       <c r="B34" s="61"/>
       <c r="C34" s="29" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="D34" s="30"/>
       <c r="E34" s="30"/>
@@ -13247,11 +13206,11 @@
     </row>
     <row r="35" customHeight="1" spans="2:14">
       <c r="B35" s="62" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="C35" s="30"/>
       <c r="D35" s="30" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="E35" s="30"/>
       <c r="F35" s="30"/>
@@ -13267,7 +13226,7 @@
     <row r="36" ht="233" customHeight="1" spans="2:14">
       <c r="B36" s="61"/>
       <c r="C36" s="29" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="D36" s="29"/>
       <c r="E36" s="29"/>
@@ -13283,7 +13242,7 @@
     </row>
     <row r="37" customHeight="1" spans="2:14">
       <c r="B37" s="62" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="C37" s="30"/>
       <c r="D37" s="30"/>
@@ -13330,12 +13289,12 @@
     </row>
     <row r="40" customHeight="1" spans="1:1">
       <c r="A40" s="60" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
     </row>
     <row r="41" ht="72" customHeight="1" spans="2:14">
       <c r="B41" s="31" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="C41" s="29"/>
       <c r="D41" s="29"/>
@@ -13352,12 +13311,12 @@
     </row>
     <row r="42" customHeight="1" spans="2:2">
       <c r="B42" s="28" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
     </row>
     <row r="43" ht="47" customHeight="1" spans="3:14">
       <c r="C43" s="29" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="D43" s="29"/>
       <c r="E43" s="29"/>
@@ -13373,16 +13332,16 @@
     </row>
     <row r="44" ht="90" customHeight="1" spans="2:2">
       <c r="B44" s="64" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
     </row>
     <row r="45" ht="63" customHeight="1" spans="1:14">
       <c r="A45" s="60" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="B45" s="64"/>
       <c r="C45" s="29" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="D45" s="30"/>
       <c r="E45" s="30"/>
@@ -13398,13 +13357,13 @@
     </row>
     <row r="46" customHeight="1" spans="2:2">
       <c r="B46" s="64" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
     </row>
     <row r="47" customHeight="1" spans="2:14">
       <c r="B47" s="64"/>
       <c r="C47" s="29" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="D47" s="29"/>
       <c r="E47" s="29"/>
@@ -13420,13 +13379,13 @@
     </row>
     <row r="48" ht="33" customHeight="1" spans="2:2">
       <c r="B48" s="64" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
     </row>
     <row r="49" ht="27" customHeight="1" spans="2:14">
       <c r="B49" s="64"/>
       <c r="D49" s="29" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="E49" s="29"/>
       <c r="F49" s="29"/>
@@ -13442,7 +13401,7 @@
     <row r="50" ht="90" customHeight="1" spans="2:14">
       <c r="B50" s="64"/>
       <c r="D50" s="29" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="E50" s="30"/>
       <c r="F50" s="30"/>
@@ -13472,12 +13431,12 @@
     </row>
     <row r="57" customHeight="1" spans="1:1">
       <c r="A57" s="60" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
     </row>
     <row r="58" ht="61" customHeight="1" spans="2:14">
       <c r="B58" s="31" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="C58" s="29"/>
       <c r="D58" s="29"/>
@@ -13494,7 +13453,7 @@
     </row>
     <row r="59" customHeight="1" spans="2:14">
       <c r="B59" s="61" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="C59" s="30"/>
       <c r="D59" s="30"/>
@@ -13511,12 +13470,12 @@
     </row>
     <row r="60" customHeight="1" spans="1:1">
       <c r="A60" s="60" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="61" ht="146" customHeight="1" spans="2:14">
       <c r="B61" s="31" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="C61" s="29"/>
       <c r="D61" s="29"/>
@@ -13533,7 +13492,7 @@
     </row>
     <row r="62" ht="28" customHeight="1" spans="2:14">
       <c r="B62" s="63" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="C62" s="29"/>
       <c r="D62" s="29"/>
@@ -13551,7 +13510,7 @@
     <row r="63" ht="42" customHeight="1" spans="2:14">
       <c r="B63" s="31"/>
       <c r="C63" s="29" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="D63" s="29"/>
       <c r="E63" s="29"/>
@@ -13567,11 +13526,11 @@
     </row>
     <row r="64" ht="20" customHeight="1" spans="2:14">
       <c r="B64" s="31" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="C64" s="29"/>
       <c r="D64" s="29" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="E64" s="29"/>
       <c r="F64" s="29"/>
@@ -13691,7 +13650,7 @@
     </row>
     <row r="73" customHeight="1" spans="1:14">
       <c r="A73" s="60" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="B73"/>
       <c r="C73" s="65"/>
@@ -13710,7 +13669,7 @@
     <row r="74" ht="53" customHeight="1" spans="1:14">
       <c r="A74" s="66"/>
       <c r="B74" s="31" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="C74" s="29"/>
       <c r="D74" s="29"/>
@@ -13727,12 +13686,12 @@
     </row>
     <row r="75" customHeight="1" spans="2:2">
       <c r="B75" s="28" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
     </row>
     <row r="76" ht="48" customHeight="1" spans="3:14">
       <c r="C76" s="29" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="D76" s="29"/>
       <c r="E76" s="29"/>
@@ -13748,12 +13707,12 @@
     </row>
     <row r="77" customHeight="1" spans="2:2">
       <c r="B77" s="28" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
     </row>
     <row r="78" ht="79" customHeight="1" spans="3:14">
       <c r="C78" s="29" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="D78" s="29"/>
       <c r="E78" s="29"/>
@@ -13769,12 +13728,12 @@
     </row>
     <row r="79" customHeight="1" spans="2:2">
       <c r="B79" s="28" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="80" ht="58" customHeight="1" spans="3:14">
       <c r="C80" s="29" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="D80" s="29"/>
       <c r="E80" s="29"/>
@@ -13790,12 +13749,12 @@
     </row>
     <row r="81" customHeight="1" spans="2:2">
       <c r="B81" s="28" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
     </row>
     <row r="82" ht="33" customHeight="1" spans="3:14">
       <c r="C82" s="29" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D82" s="29"/>
       <c r="E82" s="29"/>
@@ -13811,12 +13770,12 @@
     </row>
     <row r="83" customHeight="1" spans="2:2">
       <c r="B83" s="28" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="84" ht="95" customHeight="1" spans="3:14">
       <c r="C84" s="29" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="D84" s="29"/>
       <c r="E84" s="29"/>
@@ -13906,12 +13865,12 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="41" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
     </row>
     <row r="2" spans="2:2">
       <c r="B2" s="42" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
     </row>
     <row r="3" spans="3:3">
@@ -13921,7 +13880,7 @@
     </row>
     <row r="4" ht="57" customHeight="1" spans="4:13">
       <c r="D4" s="29" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="E4" s="29"/>
       <c r="F4" s="29"/>
@@ -13935,10 +13894,10 @@
     </row>
     <row r="5" ht="24" customHeight="1" spans="2:11">
       <c r="B5" s="42" t="s">
+        <v>727</v>
+      </c>
+      <c r="C5" s="44" t="s">
         <v>728</v>
-      </c>
-      <c r="C5" s="44" t="s">
-        <v>729</v>
       </c>
       <c r="D5" s="44"/>
       <c r="E5" s="44"/>
@@ -13951,7 +13910,7 @@
     </row>
     <row r="6" ht="100" customHeight="1" spans="3:13">
       <c r="C6" s="45" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="D6" s="45"/>
       <c r="E6" s="45"/>
@@ -13966,12 +13925,12 @@
     </row>
     <row r="7" spans="2:2">
       <c r="B7" s="42" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
     </row>
     <row r="8" ht="54" customHeight="1" spans="3:13">
       <c r="C8" s="29" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="D8" s="29"/>
       <c r="E8" s="29"/>
@@ -13986,10 +13945,10 @@
     </row>
     <row r="10" ht="37" customHeight="1" spans="2:13">
       <c r="B10" s="42" t="s">
+        <v>732</v>
+      </c>
+      <c r="C10" s="46" t="s">
         <v>733</v>
-      </c>
-      <c r="C10" s="46" t="s">
-        <v>734</v>
       </c>
       <c r="D10" s="46"/>
       <c r="E10" s="46"/>
@@ -14017,12 +13976,12 @@
     </row>
     <row r="12" ht="19" customHeight="1" spans="2:2">
       <c r="B12" s="42" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="13" ht="93" customHeight="1" spans="3:13">
       <c r="C13" s="29" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="D13" s="29"/>
       <c r="E13" s="29"/>
@@ -14037,15 +13996,15 @@
     </row>
     <row r="15" spans="1:1">
       <c r="A15" s="41" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
     </row>
     <row r="16" spans="2:13">
       <c r="B16" s="42" t="s">
+        <v>737</v>
+      </c>
+      <c r="D16" s="30" t="s">
         <v>738</v>
-      </c>
-      <c r="D16" s="30" t="s">
-        <v>739</v>
       </c>
       <c r="E16" s="30"/>
       <c r="F16" s="30"/>
@@ -14059,7 +14018,7 @@
     </row>
     <row r="17" ht="53" customHeight="1" spans="3:13">
       <c r="C17" s="29" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="D17" s="29"/>
       <c r="E17" s="29"/>
@@ -14074,7 +14033,7 @@
     </row>
     <row r="18" ht="54" customHeight="1" spans="3:13">
       <c r="C18" s="29" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="D18" s="29"/>
       <c r="E18" s="29"/>
@@ -14089,12 +14048,12 @@
     </row>
     <row r="19" ht="21" customHeight="1" spans="2:2">
       <c r="B19" s="42" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
     </row>
     <row r="20" ht="129" customHeight="1" spans="3:13">
       <c r="C20" s="29" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="D20" s="29"/>
       <c r="E20" s="29"/>
@@ -14109,12 +14068,12 @@
     </row>
     <row r="21" spans="2:2">
       <c r="B21" s="42" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
     </row>
     <row r="22" ht="180" customHeight="1" spans="3:13">
       <c r="C22" s="117" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="D22" s="30"/>
       <c r="E22" s="30"/>
@@ -14129,12 +14088,12 @@
     </row>
     <row r="23" spans="2:2">
       <c r="B23" s="42" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="24" ht="49" customHeight="1" spans="3:13">
       <c r="C24" s="29" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="D24" s="29"/>
       <c r="E24" s="29"/>
@@ -14149,12 +14108,12 @@
     </row>
     <row r="26" spans="1:1">
       <c r="A26" s="41" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
     </row>
     <row r="27" ht="73" customHeight="1" spans="2:13">
       <c r="B27" s="38" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="C27" s="38"/>
       <c r="D27" s="38"/>
@@ -14170,12 +14129,12 @@
     </row>
     <row r="28" spans="2:2">
       <c r="B28" s="42" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
     </row>
     <row r="29" ht="57" customHeight="1" spans="3:13">
       <c r="C29" s="29" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="D29" s="29"/>
       <c r="E29" s="29"/>
@@ -14190,10 +14149,10 @@
     </row>
     <row r="30" spans="2:13">
       <c r="B30" s="42" t="s">
+        <v>751</v>
+      </c>
+      <c r="D30" s="47" t="s">
         <v>752</v>
-      </c>
-      <c r="D30" s="47" t="s">
-        <v>753</v>
       </c>
       <c r="E30" s="47"/>
       <c r="F30" s="47"/>
@@ -14207,7 +14166,7 @@
     </row>
     <row r="31" ht="127" customHeight="1" spans="3:13">
       <c r="C31" s="29" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="D31" s="29"/>
       <c r="E31" s="29"/>
@@ -14222,10 +14181,10 @@
     </row>
     <row r="32" spans="2:13">
       <c r="B32" s="42" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="D32" s="47" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="E32" s="47"/>
       <c r="F32" s="47"/>
@@ -14239,7 +14198,7 @@
     </row>
     <row r="33" ht="81" customHeight="1" spans="3:13">
       <c r="C33" s="29" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="D33" s="29"/>
       <c r="E33" s="29"/>
@@ -14254,7 +14213,7 @@
     </row>
     <row r="34" spans="2:13">
       <c r="B34" s="42" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="C34" s="48"/>
       <c r="D34" s="26"/>
@@ -14270,7 +14229,7 @@
     </row>
     <row r="35" ht="36" customHeight="1" spans="3:13">
       <c r="C35" s="29" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="D35" s="29"/>
       <c r="E35" s="29"/>
@@ -14285,10 +14244,10 @@
     </row>
     <row r="36" spans="2:13">
       <c r="B36" s="42" t="s">
+        <v>758</v>
+      </c>
+      <c r="D36" s="29" t="s">
         <v>759</v>
-      </c>
-      <c r="D36" s="29" t="s">
-        <v>760</v>
       </c>
       <c r="E36" s="29"/>
       <c r="F36" s="29"/>
@@ -14302,7 +14261,7 @@
     </row>
     <row r="38" spans="1:7">
       <c r="A38" s="41" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="C38" s="49"/>
       <c r="D38" s="49"/>
@@ -14312,7 +14271,7 @@
     </row>
     <row r="39" ht="60" customHeight="1" spans="2:13">
       <c r="B39" s="38" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C39" s="38"/>
       <c r="D39" s="38"/>
@@ -14328,10 +14287,10 @@
     </row>
     <row r="40" spans="2:13">
       <c r="B40" s="42" t="s">
+        <v>762</v>
+      </c>
+      <c r="D40" s="29" t="s">
         <v>763</v>
-      </c>
-      <c r="D40" s="29" t="s">
-        <v>764</v>
       </c>
       <c r="E40" s="29"/>
       <c r="F40" s="29"/>
@@ -14345,7 +14304,7 @@
     </row>
     <row r="41" ht="37" customHeight="1" spans="3:13">
       <c r="C41" s="29" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="D41" s="29"/>
       <c r="E41" s="29"/>
@@ -14360,7 +14319,7 @@
     </row>
     <row r="42" spans="4:13">
       <c r="D42" s="29" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="E42" s="29"/>
       <c r="F42" s="29"/>
@@ -14374,7 +14333,7 @@
     </row>
     <row r="43" ht="37" customHeight="1" spans="3:13">
       <c r="C43" s="29" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="D43" s="29"/>
       <c r="E43" s="29"/>
@@ -14389,10 +14348,10 @@
     </row>
     <row r="44" spans="2:13">
       <c r="B44" s="42" t="s">
+        <v>767</v>
+      </c>
+      <c r="D44" s="30" t="s">
         <v>768</v>
-      </c>
-      <c r="D44" s="30" t="s">
-        <v>769</v>
       </c>
       <c r="E44" s="30"/>
       <c r="F44" s="30"/>
@@ -14406,12 +14365,12 @@
     </row>
     <row r="45" spans="3:3">
       <c r="C45" s="43" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="46" spans="4:13">
       <c r="D46" s="29" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="E46" s="29"/>
       <c r="F46" s="29"/>
@@ -14425,17 +14384,17 @@
     </row>
     <row r="48" spans="1:1">
       <c r="A48" s="41" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
     </row>
     <row r="49" spans="2:2">
       <c r="B49" s="42" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
     </row>
     <row r="50" ht="84" customHeight="1" spans="3:13">
       <c r="C50" s="29" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="D50" s="29"/>
       <c r="E50" s="29"/>
@@ -14450,10 +14409,10 @@
     </row>
     <row r="51" spans="3:13">
       <c r="C51" s="32" t="s">
+        <v>774</v>
+      </c>
+      <c r="E51" s="35" t="s">
         <v>775</v>
-      </c>
-      <c r="E51" s="35" t="s">
-        <v>776</v>
       </c>
       <c r="F51" s="35"/>
       <c r="G51" s="35"/>
@@ -14466,7 +14425,7 @@
     </row>
     <row r="52" spans="3:13">
       <c r="C52" s="32" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="E52" s="35"/>
       <c r="F52" s="35"/>
@@ -14480,7 +14439,7 @@
     </row>
     <row r="53" spans="4:13">
       <c r="D53" s="33" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="E53" s="33"/>
       <c r="F53" s="33"/>
@@ -14494,7 +14453,7 @@
     </row>
     <row r="54" ht="60" customHeight="1" spans="4:13">
       <c r="D54" s="29" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="E54" s="29"/>
       <c r="F54" s="29"/>
@@ -14508,12 +14467,12 @@
     </row>
     <row r="56" spans="3:3">
       <c r="C56" s="32" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
     </row>
     <row r="57" ht="133" customHeight="1" spans="4:13">
       <c r="D57" s="29" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="E57" s="29"/>
       <c r="F57" s="29"/>
@@ -14527,10 +14486,10 @@
     </row>
     <row r="59" spans="1:13">
       <c r="A59" s="41" t="s">
+        <v>781</v>
+      </c>
+      <c r="C59" s="29" t="s">
         <v>782</v>
-      </c>
-      <c r="C59" s="29" t="s">
-        <v>783</v>
       </c>
       <c r="D59" s="29"/>
       <c r="E59" s="29"/>
@@ -14545,10 +14504,10 @@
     </row>
     <row r="60" ht="90" customHeight="1" spans="2:13">
       <c r="B60" s="42" t="s">
+        <v>783</v>
+      </c>
+      <c r="C60" s="29" t="s">
         <v>784</v>
-      </c>
-      <c r="C60" s="29" t="s">
-        <v>785</v>
       </c>
       <c r="D60" s="29"/>
       <c r="E60" s="29"/>
@@ -14563,10 +14522,10 @@
     </row>
     <row r="61" spans="2:13">
       <c r="B61" s="42" t="s">
+        <v>785</v>
+      </c>
+      <c r="D61" s="30" t="s">
         <v>786</v>
-      </c>
-      <c r="D61" s="30" t="s">
-        <v>787</v>
       </c>
       <c r="E61" s="30"/>
       <c r="F61" s="30"/>
@@ -14580,7 +14539,7 @@
     </row>
     <row r="62" ht="36" customHeight="1" spans="3:13">
       <c r="C62" s="29" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="D62" s="30"/>
       <c r="E62" s="30"/>
@@ -14595,10 +14554,10 @@
     </row>
     <row r="64" ht="20" customHeight="1" spans="1:13">
       <c r="A64" s="41" t="s">
+        <v>788</v>
+      </c>
+      <c r="C64" s="30" t="s">
         <v>789</v>
-      </c>
-      <c r="C64" s="30" t="s">
-        <v>790</v>
       </c>
       <c r="D64" s="30"/>
       <c r="E64" s="30"/>
@@ -14613,12 +14572,12 @@
     </row>
     <row r="65" spans="2:2">
       <c r="B65" s="42" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
     </row>
     <row r="66" ht="123" customHeight="1" spans="3:13">
       <c r="C66" s="29" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="D66" s="29"/>
       <c r="E66" s="29"/>
@@ -14633,12 +14592,12 @@
     </row>
     <row r="67" spans="2:2">
       <c r="B67" s="42" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
     </row>
     <row r="68" ht="241" customHeight="1" spans="3:13">
       <c r="C68" s="29" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="D68" s="29"/>
       <c r="E68" s="29"/>
@@ -14666,10 +14625,10 @@
     </row>
     <row r="70" ht="51" customHeight="1" spans="1:13">
       <c r="A70" s="41" t="s">
+        <v>794</v>
+      </c>
+      <c r="C70" s="29" t="s">
         <v>795</v>
-      </c>
-      <c r="C70" s="29" t="s">
-        <v>796</v>
       </c>
       <c r="D70" s="29"/>
       <c r="E70" s="29"/>
@@ -14684,12 +14643,12 @@
     </row>
     <row r="71" spans="2:2">
       <c r="B71" s="42" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
     </row>
     <row r="72" ht="73" customHeight="1" spans="3:13">
       <c r="C72" s="29" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="D72" s="30"/>
       <c r="E72" s="30"/>
@@ -14704,15 +14663,15 @@
     </row>
     <row r="73" spans="2:5">
       <c r="B73" s="42" t="s">
+        <v>798</v>
+      </c>
+      <c r="E73" s="3" t="s">
         <v>799</v>
-      </c>
-      <c r="E73" s="3" t="s">
-        <v>800</v>
       </c>
     </row>
     <row r="74" ht="56" customHeight="1" spans="3:13">
       <c r="C74" s="29" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="D74" s="30"/>
       <c r="E74" s="30"/>
@@ -14727,12 +14686,12 @@
     </row>
     <row r="75" spans="3:3">
       <c r="C75" s="32" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
     </row>
     <row r="76" ht="72" customHeight="1" spans="4:13">
       <c r="D76" s="29" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="E76" s="29"/>
       <c r="F76" s="29"/>
@@ -14746,12 +14705,12 @@
     </row>
     <row r="77" spans="3:3">
       <c r="C77" s="32" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
     </row>
     <row r="78" spans="4:13">
       <c r="D78" s="30" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="E78" s="30"/>
       <c r="F78" s="30"/>
@@ -14765,19 +14724,19 @@
     </row>
     <row r="79" spans="1:13">
       <c r="A79" s="41" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="M79" s="27"/>
     </row>
     <row r="80" spans="2:13">
       <c r="B80" s="42" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="M80" s="27"/>
     </row>
     <row r="81" spans="3:13">
       <c r="C81" s="50" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="D81" s="30"/>
       <c r="E81" s="30"/>
@@ -14793,7 +14752,7 @@
     <row r="82" ht="40" customHeight="1" spans="3:13">
       <c r="C82" s="30"/>
       <c r="D82" s="29" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="E82" s="29"/>
       <c r="F82" s="29"/>
@@ -14807,7 +14766,7 @@
     </row>
     <row r="83" spans="3:13">
       <c r="C83" s="50" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="D83" s="30"/>
       <c r="E83" s="30"/>
@@ -14823,7 +14782,7 @@
     <row r="84" ht="57" customHeight="1" spans="3:13">
       <c r="C84" s="30"/>
       <c r="D84" s="29" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="E84" s="29"/>
       <c r="F84" s="29"/>
@@ -14837,7 +14796,7 @@
     </row>
     <row r="85" spans="3:13">
       <c r="C85" s="50" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="D85" s="30"/>
       <c r="E85" s="30"/>
@@ -14853,7 +14812,7 @@
     <row r="86" ht="67" customHeight="1" spans="3:13">
       <c r="C86" s="30"/>
       <c r="D86" s="29" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="E86" s="29"/>
       <c r="F86" s="29"/>
@@ -14868,7 +14827,7 @@
     <row r="87" ht="279" customHeight="1" spans="3:13">
       <c r="C87" s="30"/>
       <c r="D87" s="29" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="E87" s="29"/>
       <c r="F87" s="29"/>
@@ -14882,7 +14841,7 @@
     </row>
     <row r="88" spans="3:13">
       <c r="C88" s="50" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="D88" s="30"/>
       <c r="E88" s="30"/>
@@ -14898,7 +14857,7 @@
     <row r="89" ht="38" customHeight="1" spans="3:13">
       <c r="C89" s="30"/>
       <c r="D89" s="29" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="E89" s="29"/>
       <c r="F89" s="29"/>
@@ -14913,7 +14872,7 @@
     <row r="90" spans="3:13">
       <c r="C90" s="30"/>
       <c r="D90" s="50" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="E90" s="30"/>
       <c r="F90" s="30"/>
@@ -14929,7 +14888,7 @@
       <c r="C91" s="30"/>
       <c r="D91" s="30"/>
       <c r="E91" s="53" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="F91" s="29"/>
       <c r="G91" s="29"/>
@@ -14943,7 +14902,7 @@
     <row r="92" ht="21" customHeight="1" spans="3:13">
       <c r="C92" s="30"/>
       <c r="D92" s="50" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="E92" s="53"/>
       <c r="F92" s="29"/>
@@ -14959,7 +14918,7 @@
       <c r="C93" s="30"/>
       <c r="D93" s="30"/>
       <c r="E93" s="29" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="F93" s="29"/>
       <c r="G93" s="29"/>
@@ -14973,7 +14932,7 @@
     <row r="94" ht="27" customHeight="1" spans="3:13">
       <c r="C94" s="30"/>
       <c r="D94" s="50" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="E94" s="53"/>
       <c r="F94" s="29"/>
@@ -14989,7 +14948,7 @@
       <c r="C95" s="30"/>
       <c r="D95" s="30"/>
       <c r="E95" s="29" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="F95" s="29"/>
       <c r="G95" s="29"/>
@@ -15004,7 +14963,7 @@
       <c r="C96" s="30"/>
       <c r="D96" s="30"/>
       <c r="E96" s="29" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="F96" s="29"/>
       <c r="G96" s="29"/>
@@ -15017,13 +14976,13 @@
     </row>
     <row r="97" spans="2:13">
       <c r="B97" s="42" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="M97" s="27"/>
     </row>
     <row r="98" spans="3:13">
       <c r="C98" s="36" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="D98" s="37"/>
       <c r="E98" s="37"/>
@@ -15039,7 +14998,7 @@
     <row r="99" spans="3:13">
       <c r="C99" s="30"/>
       <c r="D99" s="29" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="E99" s="29"/>
       <c r="F99" s="29"/>
@@ -15053,12 +15012,12 @@
     </row>
     <row r="100" spans="3:13">
       <c r="C100" s="50" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="D100" s="30"/>
       <c r="E100" s="30"/>
       <c r="F100" s="30" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="G100" s="30"/>
       <c r="H100" s="30"/>
@@ -15071,7 +15030,7 @@
     <row r="101" ht="95" customHeight="1" spans="3:13">
       <c r="C101" s="30"/>
       <c r="D101" s="29" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="E101" s="29"/>
       <c r="F101" s="29"/>
@@ -15086,7 +15045,7 @@
     <row r="102" ht="75" customHeight="1" spans="3:13">
       <c r="C102" s="30"/>
       <c r="D102" s="29" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="E102" s="29"/>
       <c r="F102" s="29"/>
@@ -15100,7 +15059,7 @@
     </row>
     <row r="103" spans="3:13">
       <c r="C103" s="50" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="D103" s="30"/>
       <c r="E103" s="30"/>
@@ -15116,7 +15075,7 @@
     <row r="104" spans="3:13">
       <c r="C104" s="30"/>
       <c r="D104" s="50" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="E104" s="30"/>
       <c r="F104" s="30"/>
@@ -15132,7 +15091,7 @@
       <c r="C105" s="30"/>
       <c r="D105" s="30"/>
       <c r="E105" s="29" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="F105" s="29"/>
       <c r="G105" s="29"/>
@@ -15146,7 +15105,7 @@
     <row r="106" spans="3:13">
       <c r="C106" s="30"/>
       <c r="D106" s="50" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="E106" s="30"/>
       <c r="F106" s="30"/>
@@ -15162,7 +15121,7 @@
       <c r="C107" s="30"/>
       <c r="D107" s="30"/>
       <c r="E107" s="29" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="F107" s="29"/>
       <c r="G107" s="29"/>
@@ -15188,13 +15147,13 @@
     </row>
     <row r="109" spans="2:13">
       <c r="B109" s="42" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="M109" s="27"/>
     </row>
     <row r="110" spans="3:13">
       <c r="C110" s="51" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="D110" s="48"/>
       <c r="E110" s="48"/>
@@ -15209,7 +15168,7 @@
     </row>
     <row r="111" ht="71" customHeight="1" spans="4:13">
       <c r="D111" s="29" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="E111" s="30"/>
       <c r="F111" s="30"/>
@@ -15226,19 +15185,19 @@
     </row>
     <row r="113" spans="1:13">
       <c r="A113" s="41" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="M113" s="27"/>
     </row>
     <row r="114" spans="2:13">
       <c r="B114" s="42" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="M114" s="27"/>
     </row>
     <row r="115" ht="159" customHeight="1" spans="3:13">
       <c r="C115" s="117" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="D115" s="29"/>
       <c r="E115" s="29"/>
@@ -15253,13 +15212,13 @@
     </row>
     <row r="116" spans="2:13">
       <c r="B116" s="42" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="M116" s="27"/>
     </row>
     <row r="117" spans="3:13">
       <c r="C117" s="29" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="D117" s="29"/>
       <c r="E117" s="29"/>
@@ -15280,7 +15239,7 @@
     </row>
     <row r="119" ht="138" customHeight="1" spans="3:13">
       <c r="C119" s="29" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="D119" s="29"/>
       <c r="E119" s="29"/>
@@ -15298,19 +15257,19 @@
     </row>
     <row r="121" spans="1:13">
       <c r="A121" s="41" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="M121" s="27"/>
     </row>
     <row r="122" spans="2:13">
       <c r="B122" s="42" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="M122" s="27"/>
     </row>
     <row r="123" ht="153" customHeight="1" spans="3:13">
       <c r="C123" s="39" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="D123" s="52"/>
       <c r="E123" s="52"/>
@@ -15325,13 +15284,13 @@
     </row>
     <row r="124" spans="2:13">
       <c r="B124" s="42" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="M124" s="27"/>
     </row>
     <row r="125" ht="187" customHeight="1" spans="3:13">
       <c r="C125" s="39" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="D125" s="39"/>
       <c r="E125" s="39"/>
@@ -15346,13 +15305,13 @@
     </row>
     <row r="126" spans="3:13">
       <c r="C126" s="32" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="M126" s="27"/>
     </row>
     <row r="127" ht="133" customHeight="1" spans="4:13">
       <c r="D127" s="39" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="E127" s="52"/>
       <c r="F127" s="52"/>
@@ -15366,10 +15325,10 @@
     </row>
     <row r="128" ht="56" customHeight="1" spans="1:13">
       <c r="A128" s="41" t="s">
+        <v>851</v>
+      </c>
+      <c r="C128" s="29" t="s">
         <v>852</v>
-      </c>
-      <c r="C128" s="29" t="s">
-        <v>853</v>
       </c>
       <c r="D128" s="29"/>
       <c r="E128" s="29"/>
@@ -15387,10 +15346,10 @@
     </row>
     <row r="130" ht="90" customHeight="1" spans="2:13">
       <c r="B130" s="54" t="s">
+        <v>853</v>
+      </c>
+      <c r="C130" s="29" t="s">
         <v>854</v>
-      </c>
-      <c r="C130" s="29" t="s">
-        <v>855</v>
       </c>
       <c r="D130" s="30"/>
       <c r="E130" s="30"/>
@@ -15405,13 +15364,13 @@
     </row>
     <row r="131" spans="2:13">
       <c r="B131" s="42" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="M131" s="27"/>
     </row>
     <row r="132" ht="124" customHeight="1" spans="3:13">
       <c r="C132" s="39" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="D132" s="39"/>
       <c r="E132" s="39"/>
@@ -15426,13 +15385,13 @@
     </row>
     <row r="133" spans="2:13">
       <c r="B133" s="42" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="M133" s="27"/>
     </row>
     <row r="134" ht="95" customHeight="1" spans="3:13">
       <c r="C134" s="29" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="D134" s="29"/>
       <c r="E134" s="29"/>
@@ -15450,13 +15409,13 @@
     </row>
     <row r="136" spans="1:13">
       <c r="A136" s="41" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="M136" s="27"/>
     </row>
     <row r="137" ht="60" customHeight="1" spans="2:13">
       <c r="B137" s="55" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="C137" s="55"/>
       <c r="D137" s="55"/>
@@ -15472,13 +15431,13 @@
     </row>
     <row r="138" spans="2:13">
       <c r="B138" s="42" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="M138" s="27"/>
     </row>
     <row r="139" ht="69" customHeight="1" spans="3:13">
       <c r="C139" s="29" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="D139" s="29"/>
       <c r="E139" s="29"/>
@@ -15493,13 +15452,13 @@
     </row>
     <row r="140" spans="2:13">
       <c r="B140" s="42" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="M140" s="27"/>
     </row>
     <row r="141" ht="57" customHeight="1" spans="3:13">
       <c r="C141" s="29" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="D141" s="29"/>
       <c r="E141" s="29"/>
@@ -15514,12 +15473,12 @@
     </row>
     <row r="142" spans="2:2">
       <c r="B142" s="42" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
     </row>
     <row r="143" ht="39" customHeight="1" spans="3:13">
       <c r="C143" s="29" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="D143" s="29"/>
       <c r="E143" s="29"/>
@@ -15534,7 +15493,7 @@
     </row>
     <row r="144" ht="38" customHeight="1" spans="3:13">
       <c r="C144" s="29" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="D144" s="29"/>
       <c r="E144" s="29"/>
@@ -15549,12 +15508,12 @@
     </row>
     <row r="145" spans="2:2">
       <c r="B145" s="42" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
     </row>
     <row r="146" ht="38" customHeight="1" spans="3:13">
       <c r="C146" s="29" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="D146" s="29"/>
       <c r="E146" s="29"/>
@@ -15569,7 +15528,7 @@
     </row>
     <row r="147" spans="2:13">
       <c r="B147" s="56" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="C147" s="56"/>
       <c r="D147" s="56"/>
@@ -15585,22 +15544,22 @@
     </row>
     <row r="149" spans="1:1">
       <c r="A149" s="41" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
     </row>
     <row r="150" spans="2:2">
       <c r="B150" s="42" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
     </row>
     <row r="151" spans="3:3">
       <c r="C151" s="32" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
     </row>
     <row r="152" ht="39" customHeight="1" spans="4:13">
       <c r="D152" s="29" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="E152" s="30"/>
       <c r="F152" s="30"/>
@@ -15614,12 +15573,12 @@
     </row>
     <row r="153" spans="3:3">
       <c r="C153" s="32" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
     </row>
     <row r="154" ht="38" customHeight="1" spans="4:13">
       <c r="D154" s="29" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="E154" s="30"/>
       <c r="F154" s="30"/>
@@ -15633,12 +15592,12 @@
     </row>
     <row r="155" spans="2:2">
       <c r="B155" s="42" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
     </row>
     <row r="156" ht="168" customHeight="1" spans="3:13">
       <c r="C156" s="29" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="D156" s="29"/>
       <c r="E156" s="29"/>
@@ -15654,17 +15613,17 @@
     <row r="157" ht="21" customHeight="1"/>
     <row r="158" ht="20" customHeight="1" spans="1:1">
       <c r="A158" s="41" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
     </row>
     <row r="159" spans="2:2">
       <c r="B159" s="42" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
     </row>
     <row r="160" spans="3:13">
       <c r="C160" s="29" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="D160" s="29"/>
       <c r="E160" s="29"/>
@@ -15679,12 +15638,12 @@
     </row>
     <row r="161" spans="2:2">
       <c r="B161" s="42" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
     </row>
     <row r="162" ht="35" customHeight="1" spans="3:13">
       <c r="C162" s="29" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="D162" s="29"/>
       <c r="E162" s="29"/>
@@ -15699,12 +15658,12 @@
     </row>
     <row r="163" spans="2:2">
       <c r="B163" s="42" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
     </row>
     <row r="164" spans="3:13">
       <c r="C164" s="29" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="D164" s="29"/>
       <c r="E164" s="29"/>
@@ -15719,12 +15678,12 @@
     </row>
     <row r="166" spans="1:1">
       <c r="A166" s="41" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
     </row>
     <row r="167" ht="73" customHeight="1" spans="2:13">
       <c r="B167" s="38" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="C167" s="38"/>
       <c r="D167" s="38"/>
@@ -15740,17 +15699,17 @@
     </row>
     <row r="168" spans="2:2">
       <c r="B168" s="42" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
     </row>
     <row r="169" spans="3:3">
       <c r="C169" s="32" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
     </row>
     <row r="170" ht="71" customHeight="1" spans="4:13">
       <c r="D170" s="29" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="E170" s="30"/>
       <c r="F170" s="30"/>
@@ -15764,12 +15723,12 @@
     </row>
     <row r="171" spans="3:3">
       <c r="C171" s="32" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="172" ht="234" customHeight="1" spans="4:13">
       <c r="D172" s="29" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="E172" s="29"/>
       <c r="F172" s="29"/>
@@ -15783,12 +15742,12 @@
     </row>
     <row r="173" ht="24" customHeight="1" spans="3:3">
       <c r="C173" s="32" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
     </row>
     <row r="174" spans="4:13">
       <c r="D174" s="30" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="E174" s="30"/>
       <c r="F174" s="30"/>
@@ -15802,20 +15761,20 @@
     </row>
     <row r="175" spans="2:5">
       <c r="B175" s="42" t="s">
+        <v>893</v>
+      </c>
+      <c r="E175" s="57" t="s">
         <v>894</v>
-      </c>
-      <c r="E175" s="57" t="s">
-        <v>895</v>
       </c>
     </row>
     <row r="176" spans="3:3">
       <c r="C176" s="32" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
     </row>
     <row r="177" ht="160" customHeight="1" spans="4:13">
       <c r="D177" s="29" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="E177" s="29"/>
       <c r="F177" s="29"/>
@@ -15829,17 +15788,17 @@
     </row>
     <row r="178" spans="3:3">
       <c r="C178" s="32" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
     </row>
     <row r="179" spans="4:4">
       <c r="D179" s="32" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="180" ht="91" customHeight="1" spans="5:13">
       <c r="E180" s="29" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="F180" s="30"/>
       <c r="G180" s="30"/>
@@ -15852,12 +15811,12 @@
     </row>
     <row r="181" spans="4:4">
       <c r="D181" s="32" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
     </row>
     <row r="182" spans="5:13">
       <c r="E182" s="29" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="F182" s="29"/>
       <c r="G182" s="29"/>
@@ -15870,7 +15829,7 @@
     </row>
     <row r="183" spans="4:13">
       <c r="D183" s="32" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="E183" s="29"/>
       <c r="F183" s="29"/>
@@ -15884,12 +15843,12 @@
     </row>
     <row r="184" spans="5:5">
       <c r="E184" s="58" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
     </row>
     <row r="185" ht="93" customHeight="1" spans="5:13">
       <c r="E185" s="29" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="F185" s="29"/>
       <c r="G185" s="29"/>
@@ -15902,12 +15861,12 @@
     </row>
     <row r="186" spans="5:5">
       <c r="E186" s="58" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
     </row>
     <row r="187" ht="108" customHeight="1" spans="5:13">
       <c r="E187" s="29" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="F187" s="29"/>
       <c r="G187" s="29"/>
@@ -15920,12 +15879,12 @@
     </row>
     <row r="188" spans="4:4">
       <c r="D188" s="32" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
     </row>
     <row r="189" ht="41" customHeight="1" spans="5:13">
       <c r="E189" s="29" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="F189" s="29"/>
       <c r="G189" s="29"/>
@@ -15938,7 +15897,7 @@
     </row>
     <row r="190" ht="83" customHeight="1" spans="5:13">
       <c r="E190" s="29" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="F190" s="29"/>
       <c r="G190" s="29"/>
@@ -15951,17 +15910,17 @@
     </row>
     <row r="191" spans="2:2">
       <c r="B191" s="42" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
     </row>
     <row r="192" spans="3:3">
       <c r="C192" s="32" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="193" ht="54" customHeight="1" spans="4:13">
       <c r="D193" s="29" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="E193" s="29"/>
       <c r="F193" s="29"/>
@@ -15975,7 +15934,7 @@
     </row>
     <row r="194" ht="70" customHeight="1" spans="4:13">
       <c r="D194" s="59" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="E194" s="59"/>
       <c r="F194" s="59"/>
@@ -15989,15 +15948,15 @@
     </row>
     <row r="195" spans="3:6">
       <c r="C195" s="32" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="F195" s="58" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
     </row>
     <row r="196" ht="105" customHeight="1" spans="4:13">
       <c r="D196" s="29" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="E196" s="29"/>
       <c r="F196" s="29"/>
@@ -16011,22 +15970,22 @@
     </row>
     <row r="197" spans="2:2">
       <c r="B197" s="42" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
     </row>
     <row r="199" spans="1:1">
       <c r="A199" s="41" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
     </row>
     <row r="200" spans="2:2">
       <c r="B200" s="42" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
     </row>
     <row r="201" ht="57" customHeight="1" spans="3:13">
       <c r="C201" s="29" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="D201" s="29"/>
       <c r="E201" s="29"/>
@@ -16169,17 +16128,17 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="25" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
     </row>
     <row r="2" spans="2:2">
       <c r="B2" s="28" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
     </row>
     <row r="3" ht="108" customHeight="1" spans="3:14">
       <c r="C3" s="29" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="D3" s="30"/>
       <c r="E3" s="30"/>
@@ -16195,10 +16154,10 @@
     </row>
     <row r="4" spans="2:14">
       <c r="B4" s="28" t="s">
+        <v>923</v>
+      </c>
+      <c r="D4" s="30" t="s">
         <v>924</v>
-      </c>
-      <c r="D4" s="30" t="s">
-        <v>925</v>
       </c>
       <c r="E4" s="30"/>
       <c r="F4" s="30"/>
@@ -16213,7 +16172,7 @@
     </row>
     <row r="5" ht="36" customHeight="1" spans="3:14">
       <c r="C5" s="29" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="D5" s="29"/>
       <c r="E5" s="29"/>
@@ -16229,12 +16188,12 @@
     </row>
     <row r="6" spans="2:2">
       <c r="B6" s="28" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
     </row>
     <row r="7" ht="37" customHeight="1" spans="3:14">
       <c r="C7" s="29" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="D7" s="29"/>
       <c r="E7" s="29"/>
@@ -16250,12 +16209,12 @@
     </row>
     <row r="9" spans="2:2">
       <c r="B9" s="28" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
     </row>
     <row r="10" ht="108" customHeight="1" spans="3:14">
       <c r="C10" s="29" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="D10" s="29"/>
       <c r="E10" s="29"/>
@@ -16271,7 +16230,7 @@
     </row>
     <row r="11" ht="76" customHeight="1" spans="3:14">
       <c r="C11" s="29" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="D11" s="29"/>
       <c r="E11" s="29"/>
@@ -16287,12 +16246,12 @@
     </row>
     <row r="12" spans="2:2">
       <c r="B12" s="28" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
     </row>
     <row r="13" spans="3:14">
       <c r="C13" s="29" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="D13" s="29"/>
       <c r="E13" s="29"/>
@@ -16308,12 +16267,12 @@
     </row>
     <row r="14" spans="2:2">
       <c r="B14" s="28" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
     </row>
     <row r="15" ht="136" customHeight="1" spans="3:14">
       <c r="C15" s="29" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="D15" s="29"/>
       <c r="E15" s="29"/>
@@ -16329,10 +16288,10 @@
     </row>
     <row r="16" spans="2:14">
       <c r="B16" s="28" t="s">
+        <v>935</v>
+      </c>
+      <c r="D16" s="29" t="s">
         <v>936</v>
-      </c>
-      <c r="D16" s="29" t="s">
-        <v>937</v>
       </c>
       <c r="E16" s="29"/>
       <c r="F16" s="29"/>
@@ -16347,7 +16306,7 @@
     </row>
     <row r="17" ht="72" customHeight="1" spans="3:14">
       <c r="C17" s="29" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="D17" s="29"/>
       <c r="E17" s="29"/>
@@ -16377,12 +16336,12 @@
     </row>
     <row r="19" ht="20" customHeight="1" spans="1:1">
       <c r="A19" s="25" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
     </row>
     <row r="20" ht="38" customHeight="1" spans="2:14">
       <c r="B20" s="31" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="C20" s="31"/>
       <c r="D20" s="31"/>
@@ -16399,12 +16358,12 @@
     </row>
     <row r="21" spans="2:2">
       <c r="B21" s="28" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
     </row>
     <row r="22" spans="3:14">
       <c r="C22" s="29" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="D22" s="29"/>
       <c r="E22" s="29"/>
@@ -16420,12 +16379,12 @@
     </row>
     <row r="23" spans="2:2">
       <c r="B23" s="28" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
     </row>
     <row r="24" ht="54" customHeight="1" spans="3:14">
       <c r="C24" s="29" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="D24" s="29"/>
       <c r="E24" s="29"/>
@@ -16441,12 +16400,12 @@
     </row>
     <row r="25" spans="3:3">
       <c r="C25" s="32" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
     </row>
     <row r="26" spans="4:14">
       <c r="D26" s="29" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="E26" s="29"/>
       <c r="F26" s="29"/>
@@ -16461,12 +16420,12 @@
     </row>
     <row r="27" spans="3:3">
       <c r="C27" s="32" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
     </row>
     <row r="28" spans="4:14">
       <c r="D28" s="30" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="E28" s="30"/>
       <c r="F28" s="30"/>
@@ -16481,17 +16440,17 @@
     </row>
     <row r="30" spans="1:1">
       <c r="A30" s="25" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
     </row>
     <row r="31" spans="2:2">
       <c r="B31" s="28" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
     </row>
     <row r="32" ht="73" customHeight="1" spans="3:14">
       <c r="C32" s="29" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="D32" s="29"/>
       <c r="E32" s="29"/>
@@ -16507,12 +16466,12 @@
     </row>
     <row r="33" spans="2:2">
       <c r="B33" s="28" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="34" ht="82" customHeight="1" spans="3:14">
       <c r="C34" s="29" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="D34" s="30"/>
       <c r="E34" s="30"/>
@@ -16528,12 +16487,12 @@
     </row>
     <row r="35" spans="2:2">
       <c r="B35" s="28" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
     </row>
     <row r="36" ht="145" customHeight="1" spans="3:14">
       <c r="C36" s="29" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="D36" s="29"/>
       <c r="E36" s="29"/>
@@ -16549,12 +16508,12 @@
     </row>
     <row r="37" spans="2:2">
       <c r="B37" s="28" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
     </row>
     <row r="38" spans="3:14">
       <c r="C38" s="30" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="D38" s="30"/>
       <c r="E38" s="30"/>
@@ -16570,17 +16529,17 @@
     </row>
     <row r="39" spans="2:2">
       <c r="B39" s="28" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
     </row>
     <row r="40" spans="3:3">
       <c r="C40" s="32" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
     </row>
     <row r="41" ht="55" customHeight="1" spans="4:14">
       <c r="D41" s="29" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="E41" s="29"/>
       <c r="F41" s="29"/>
@@ -16595,12 +16554,12 @@
     </row>
     <row r="42" spans="3:3">
       <c r="C42" s="32" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
     </row>
     <row r="43" ht="38" customHeight="1" spans="4:14">
       <c r="D43" s="29" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="E43" s="29"/>
       <c r="F43" s="29"/>
@@ -16615,12 +16574,12 @@
     </row>
     <row r="44" spans="3:3">
       <c r="C44" s="32" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
     </row>
     <row r="45" spans="4:14">
       <c r="D45" s="29" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="E45" s="29"/>
       <c r="F45" s="29"/>
@@ -16635,10 +16594,10 @@
     </row>
     <row r="47" spans="1:14">
       <c r="A47" s="25" t="s">
+        <v>964</v>
+      </c>
+      <c r="C47" s="30" t="s">
         <v>965</v>
-      </c>
-      <c r="C47" s="30" t="s">
-        <v>966</v>
       </c>
       <c r="D47" s="30"/>
       <c r="E47" s="30"/>
@@ -16654,12 +16613,12 @@
     </row>
     <row r="48" spans="2:2">
       <c r="B48" s="28" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
     </row>
     <row r="49" ht="74" customHeight="1" spans="3:14">
       <c r="C49" s="29" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="D49" s="30"/>
       <c r="E49" s="30"/>
@@ -16675,12 +16634,12 @@
     </row>
     <row r="50" spans="2:2">
       <c r="B50" s="28" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
     </row>
     <row r="51" ht="57" customHeight="1" spans="3:14">
       <c r="C51" s="29" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="D51" s="30"/>
       <c r="E51" s="30"/>
@@ -16696,12 +16655,12 @@
     </row>
     <row r="52" spans="2:2">
       <c r="B52" s="28" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
     </row>
     <row r="53" ht="37" customHeight="1" spans="3:14">
       <c r="C53" s="29" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="D53" s="29"/>
       <c r="E53" s="29"/>
@@ -16717,24 +16676,24 @@
     </row>
     <row r="55" spans="1:1">
       <c r="A55" s="25" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
     </row>
     <row r="56" spans="2:3">
       <c r="B56" s="28" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="C56" s="32"/>
     </row>
     <row r="57" spans="3:3">
       <c r="C57" s="32" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
     </row>
     <row r="58" spans="3:14">
       <c r="C58" s="32"/>
       <c r="D58" s="29" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="E58" s="29"/>
       <c r="F58" s="29"/>
@@ -16749,13 +16708,13 @@
     </row>
     <row r="59" spans="3:3">
       <c r="C59" s="32" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
     </row>
     <row r="60" ht="95" customHeight="1" spans="3:14">
       <c r="C60" s="32"/>
       <c r="D60" s="117" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="E60" s="29"/>
       <c r="F60" s="29"/>
@@ -16770,13 +16729,13 @@
     </row>
     <row r="61" spans="3:3">
       <c r="C61" s="32" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
     </row>
     <row r="62" ht="108" customHeight="1" spans="3:14">
       <c r="C62" s="32"/>
       <c r="D62" s="29" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="E62" s="29"/>
       <c r="F62" s="29"/>
@@ -16791,12 +16750,12 @@
     </row>
     <row r="63" spans="3:3">
       <c r="C63" s="32" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
     </row>
     <row r="64" ht="36" customHeight="1" spans="4:14">
       <c r="D64" s="29" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="E64" s="29"/>
       <c r="F64" s="29"/>
@@ -16823,10 +16782,10 @@
     </row>
     <row r="66" ht="19" customHeight="1" spans="1:14">
       <c r="A66" s="25" t="s">
+        <v>982</v>
+      </c>
+      <c r="C66" s="29" t="s">
         <v>983</v>
-      </c>
-      <c r="C66" s="29" t="s">
-        <v>984</v>
       </c>
       <c r="D66" s="29"/>
       <c r="E66" s="29"/>
@@ -16842,19 +16801,19 @@
     </row>
     <row r="67" spans="2:3">
       <c r="B67" s="28" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="C67" s="32"/>
     </row>
     <row r="68" spans="3:3">
       <c r="C68" s="32" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
     </row>
     <row r="69" ht="72" customHeight="1" spans="3:14">
       <c r="C69" s="32"/>
       <c r="D69" s="117" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="E69" s="29"/>
       <c r="F69" s="29"/>
@@ -16869,13 +16828,13 @@
     </row>
     <row r="70" spans="3:3">
       <c r="C70" s="32" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
     </row>
     <row r="71" ht="102" customHeight="1" spans="3:14">
       <c r="C71" s="32"/>
       <c r="D71" s="117" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="E71" s="29"/>
       <c r="F71" s="29"/>
@@ -16890,7 +16849,7 @@
     </row>
     <row r="72" spans="3:13">
       <c r="C72" s="32" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="D72"/>
       <c r="E72"/>
@@ -16906,7 +16865,7 @@
     <row r="73" spans="3:13">
       <c r="C73" s="32"/>
       <c r="D73" s="30" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="E73" s="30"/>
       <c r="F73" s="30"/>
@@ -16920,7 +16879,7 @@
     </row>
     <row r="74" spans="3:13">
       <c r="C74" s="32" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="D74"/>
       <c r="E74"/>
@@ -16936,7 +16895,7 @@
     <row r="75" ht="57" customHeight="1" spans="3:14">
       <c r="C75" s="32"/>
       <c r="D75" s="29" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="E75" s="29"/>
       <c r="F75" s="29"/>
@@ -16951,13 +16910,13 @@
     </row>
     <row r="76" spans="3:3">
       <c r="C76" s="32" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
     </row>
     <row r="77" ht="108" customHeight="1" spans="3:14">
       <c r="C77" s="32"/>
       <c r="D77" s="117" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="E77" s="29"/>
       <c r="F77" s="29"/>
@@ -16972,17 +16931,17 @@
     </row>
     <row r="79" spans="1:1">
       <c r="A79" s="25" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
     </row>
     <row r="80" spans="2:2">
       <c r="B80" s="28" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
     </row>
     <row r="81" ht="159" customHeight="1" spans="3:14">
       <c r="C81" s="29" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="D81" s="29"/>
       <c r="E81" s="29"/>
@@ -16998,10 +16957,10 @@
     </row>
     <row r="82" spans="2:14">
       <c r="B82" s="28" t="s">
+        <v>998</v>
+      </c>
+      <c r="D82" s="29" t="s">
         <v>999</v>
-      </c>
-      <c r="D82" s="29" t="s">
-        <v>1000</v>
       </c>
       <c r="E82" s="29"/>
       <c r="F82" s="29"/>
@@ -17016,7 +16975,7 @@
     </row>
     <row r="83" ht="58" customHeight="1" spans="3:14">
       <c r="C83" s="29" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="D83" s="29"/>
       <c r="E83" s="29"/>
@@ -17032,7 +16991,7 @@
     </row>
     <row r="84" ht="22" customHeight="1" spans="3:13">
       <c r="C84" s="33" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="D84" s="29"/>
       <c r="E84" s="29"/>
@@ -17048,7 +17007,7 @@
     <row r="85" ht="161" customHeight="1" spans="3:14">
       <c r="C85" s="29"/>
       <c r="D85" s="29" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="E85" s="29"/>
       <c r="F85" s="29"/>
@@ -17063,17 +17022,17 @@
     </row>
     <row r="86" spans="1:1">
       <c r="A86" s="25" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="87" spans="2:2">
       <c r="B87" s="28" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="88" ht="85" customHeight="1" spans="3:14">
       <c r="C88" s="29" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="D88" s="29"/>
       <c r="E88" s="29"/>
@@ -17089,12 +17048,12 @@
     </row>
     <row r="89" spans="3:3">
       <c r="C89" s="32" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="90" ht="60" customHeight="1" spans="4:14">
       <c r="D90" s="29" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="E90" s="29"/>
       <c r="F90" s="29"/>
@@ -17109,12 +17068,12 @@
     </row>
     <row r="91" spans="2:2">
       <c r="B91" s="28" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="92" ht="56" customHeight="1" spans="3:14">
       <c r="C92" s="29" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="D92" s="29"/>
       <c r="E92" s="29"/>
@@ -17130,12 +17089,12 @@
     </row>
     <row r="93" spans="3:3">
       <c r="C93" s="32" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="94" ht="153" customHeight="1" spans="4:14">
       <c r="D94" s="29" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="E94" s="29"/>
       <c r="F94" s="29"/>
@@ -17163,12 +17122,12 @@
     </row>
     <row r="96" ht="20" customHeight="1" spans="1:1">
       <c r="A96" s="25" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="97" ht="41" customHeight="1" spans="2:14">
       <c r="B97" s="29" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="C97" s="29"/>
       <c r="D97" s="29"/>
@@ -17185,12 +17144,12 @@
     </row>
     <row r="98" ht="23" customHeight="1" spans="2:2">
       <c r="B98" s="28" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="99" ht="172" customHeight="1" spans="3:14">
       <c r="C99" s="29" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="D99" s="29"/>
       <c r="E99" s="29"/>
@@ -17206,12 +17165,12 @@
     </row>
     <row r="100" spans="2:2">
       <c r="B100" s="28" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="101" ht="55" customHeight="1" spans="3:14">
       <c r="C101" s="29" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="D101" s="29"/>
       <c r="E101" s="29"/>
@@ -17227,7 +17186,7 @@
     </row>
     <row r="102" ht="125" customHeight="1" spans="3:14">
       <c r="C102" s="34" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="D102" s="35"/>
       <c r="E102" s="35"/>
@@ -17257,10 +17216,10 @@
     </row>
     <row r="104" ht="24" customHeight="1" spans="1:14">
       <c r="A104" s="25" t="s">
+        <v>1019</v>
+      </c>
+      <c r="C104" s="29" t="s">
         <v>1020</v>
-      </c>
-      <c r="C104" s="29" t="s">
-        <v>1021</v>
       </c>
       <c r="D104" s="29"/>
       <c r="E104" s="29"/>
@@ -17276,12 +17235,12 @@
     </row>
     <row r="105" ht="20" customHeight="1" spans="2:2">
       <c r="B105" s="28" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="106" ht="20" customHeight="1" spans="3:14">
       <c r="C106" s="30" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="D106" s="30"/>
       <c r="E106" s="30"/>
@@ -17297,12 +17256,12 @@
     </row>
     <row r="107" ht="20" customHeight="1" spans="2:2">
       <c r="B107" s="28" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="108" ht="20" customHeight="1" spans="3:14">
       <c r="C108" s="30" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="D108" s="30"/>
       <c r="E108" s="30"/>
@@ -17318,12 +17277,12 @@
     </row>
     <row r="109" ht="20" customHeight="1" spans="2:2">
       <c r="B109" s="28" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="110" ht="19" customHeight="1" spans="3:14">
       <c r="C110" s="29" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="D110" s="29"/>
       <c r="E110" s="29"/>
@@ -17339,17 +17298,17 @@
     </row>
     <row r="112" ht="19" customHeight="1" spans="1:1">
       <c r="A112" s="25" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="113" spans="2:2">
       <c r="B113" s="28" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="114" ht="35" customHeight="1" spans="3:14">
       <c r="C114" s="29" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="D114" s="29"/>
       <c r="E114" s="29"/>
@@ -17365,17 +17324,17 @@
     </row>
     <row r="115" spans="2:2">
       <c r="B115" s="28" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="116" spans="3:3">
       <c r="C116" s="32" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="117" ht="37" customHeight="1" spans="4:14">
       <c r="D117" s="29" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="E117" s="29"/>
       <c r="F117" s="29"/>
@@ -17390,12 +17349,12 @@
     </row>
     <row r="118" spans="3:3">
       <c r="C118" s="32" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="119" spans="4:14">
       <c r="D119" s="29" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="E119" s="29"/>
       <c r="F119" s="29"/>
@@ -17410,12 +17369,12 @@
     </row>
     <row r="120" spans="3:3">
       <c r="C120" s="32" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="121" ht="54" customHeight="1" spans="4:14">
       <c r="D121" s="29" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="E121" s="29"/>
       <c r="F121" s="29"/>
@@ -17430,12 +17389,12 @@
     </row>
     <row r="122" spans="2:2">
       <c r="B122" s="28" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="123" ht="36" customHeight="1" spans="3:14">
       <c r="C123" s="29" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="D123" s="29"/>
       <c r="E123" s="29"/>
@@ -17451,17 +17410,17 @@
     </row>
     <row r="124" spans="2:2">
       <c r="B124" s="28" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="125" spans="3:3">
       <c r="C125" s="32" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="126" spans="4:14">
       <c r="D126" s="29" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="E126" s="29"/>
       <c r="F126" s="29"/>
@@ -17476,12 +17435,12 @@
     </row>
     <row r="127" spans="3:3">
       <c r="C127" s="32" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="128" ht="21" customHeight="1" spans="4:14">
       <c r="D128" s="29" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="E128" s="29"/>
       <c r="F128" s="29"/>
@@ -17496,12 +17455,12 @@
     </row>
     <row r="129" ht="19" customHeight="1" spans="2:2">
       <c r="B129" s="28" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="130" spans="3:13">
       <c r="C130" s="36" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="D130" s="37"/>
       <c r="E130" s="37"/>
@@ -17517,7 +17476,7 @@
     <row r="131" ht="76" customHeight="1" spans="3:14">
       <c r="C131" s="36"/>
       <c r="D131" s="38" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="E131" s="38"/>
       <c r="F131" s="38"/>
@@ -17532,7 +17491,7 @@
     </row>
     <row r="132" spans="3:13">
       <c r="C132" s="36" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="D132" s="37"/>
       <c r="E132" s="37"/>
@@ -17548,7 +17507,7 @@
     <row r="133" ht="95" customHeight="1" spans="3:14">
       <c r="C133" s="36"/>
       <c r="D133" s="38" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="E133" s="38"/>
       <c r="F133" s="38"/>
@@ -17563,7 +17522,7 @@
     </row>
     <row r="134" spans="3:13">
       <c r="C134" s="36" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="D134" s="37"/>
       <c r="E134" s="37"/>
@@ -17579,7 +17538,7 @@
     <row r="135" ht="79" customHeight="1" spans="3:14">
       <c r="C135" s="36"/>
       <c r="D135" s="38" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="E135" s="38"/>
       <c r="F135" s="38"/>
@@ -17594,12 +17553,12 @@
     </row>
     <row r="136" spans="3:3">
       <c r="C136" s="32" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="137" ht="73" customHeight="1" spans="4:14">
       <c r="D137" s="38" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="E137" s="38"/>
       <c r="F137" s="38"/>
@@ -17614,12 +17573,12 @@
     </row>
     <row r="138" spans="2:2">
       <c r="B138" s="28" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="139" spans="3:14">
       <c r="C139" s="29" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="D139" s="29"/>
       <c r="E139" s="29"/>
@@ -17635,10 +17594,10 @@
     </row>
     <row r="141" spans="1:14">
       <c r="A141" s="25" t="s">
+        <v>1055</v>
+      </c>
+      <c r="C141" s="29" t="s">
         <v>1056</v>
-      </c>
-      <c r="C141" s="29" t="s">
-        <v>1057</v>
       </c>
       <c r="D141" s="29"/>
       <c r="E141" s="29"/>
@@ -17654,7 +17613,7 @@
     </row>
     <row r="142" ht="187" customHeight="1" spans="2:14">
       <c r="B142" s="31" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="C142" s="31"/>
       <c r="D142" s="31"/>
@@ -17671,12 +17630,12 @@
     </row>
     <row r="144" spans="1:1">
       <c r="A144" s="25" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="145" ht="39" customHeight="1" spans="2:14">
       <c r="B145" s="31" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="C145" s="31"/>
       <c r="D145" s="31"/>
@@ -17693,12 +17652,12 @@
     </row>
     <row r="146" spans="2:2">
       <c r="B146" s="28" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="147" ht="220" customHeight="1" spans="3:14">
       <c r="C147" s="29" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="D147" s="29"/>
       <c r="E147" s="29"/>
@@ -17714,10 +17673,10 @@
     </row>
     <row r="149" spans="1:14">
       <c r="A149" s="25" t="s">
+        <v>1062</v>
+      </c>
+      <c r="C149" s="30" t="s">
         <v>1063</v>
-      </c>
-      <c r="C149" s="30" t="s">
-        <v>1064</v>
       </c>
       <c r="D149" s="30"/>
       <c r="E149" s="30"/>
@@ -17733,12 +17692,12 @@
     </row>
     <row r="150" spans="2:2">
       <c r="B150" s="28" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="151" ht="190" customHeight="1" spans="3:14">
       <c r="C151" s="29" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="D151" s="29"/>
       <c r="E151" s="29"/>
@@ -17754,12 +17713,12 @@
     </row>
     <row r="152" spans="2:2">
       <c r="B152" s="28" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="153" ht="117" customHeight="1" spans="3:14">
       <c r="C153" s="117" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="D153" s="29"/>
       <c r="E153" s="29"/>
@@ -17775,10 +17734,10 @@
     </row>
     <row r="154" spans="1:14">
       <c r="A154" s="25" t="s">
+        <v>1068</v>
+      </c>
+      <c r="C154" s="29" t="s">
         <v>1069</v>
-      </c>
-      <c r="C154" s="29" t="s">
-        <v>1070</v>
       </c>
       <c r="D154" s="29"/>
       <c r="E154" s="29"/>
@@ -17794,12 +17753,12 @@
     </row>
     <row r="155" spans="2:2">
       <c r="B155" s="28" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="156" ht="145" customHeight="1" spans="3:14">
       <c r="C156" s="29" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="D156" s="29"/>
       <c r="E156" s="29"/>
@@ -17815,12 +17774,12 @@
     </row>
     <row r="157" spans="2:2">
       <c r="B157" s="28" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="158" ht="102" customHeight="1" spans="3:14">
       <c r="C158" s="117" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="D158" s="29"/>
       <c r="E158" s="29"/>
@@ -17836,12 +17795,12 @@
     </row>
     <row r="159" spans="2:2">
       <c r="B159" s="28" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="160" ht="55" customHeight="1" spans="3:14">
       <c r="C160" s="29" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="D160" s="29"/>
       <c r="E160" s="29"/>
@@ -17857,7 +17816,7 @@
     </row>
     <row r="161" ht="71" customHeight="1" spans="3:14">
       <c r="C161" s="29" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="D161" s="29"/>
       <c r="E161" s="29"/>
@@ -17873,7 +17832,7 @@
     </row>
     <row r="162" ht="162" customHeight="1" spans="3:14">
       <c r="C162" s="29" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="D162" s="29"/>
       <c r="E162" s="29"/>
@@ -17889,7 +17848,7 @@
     </row>
     <row r="163" ht="139" customHeight="1" spans="3:14">
       <c r="C163" s="29" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="D163" s="29"/>
       <c r="E163" s="29"/>
@@ -17905,12 +17864,12 @@
     </row>
     <row r="164" spans="2:2">
       <c r="B164" s="28" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="165" ht="54" customHeight="1" spans="3:14">
       <c r="C165" s="29" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="D165" s="29"/>
       <c r="E165" s="29"/>
@@ -17926,20 +17885,20 @@
     </row>
     <row r="167" spans="1:1">
       <c r="A167" s="25" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="168" spans="2:2">
       <c r="B168" s="28" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="169" ht="77" customHeight="1" spans="3:14">
       <c r="C169" s="3" t="s">
+        <v>1083</v>
+      </c>
+      <c r="D169" s="39" t="s">
         <v>1084</v>
-      </c>
-      <c r="D169" s="39" t="s">
-        <v>1085</v>
       </c>
       <c r="E169" s="29"/>
       <c r="F169" s="29"/>
@@ -17959,7 +17918,7 @@
     </row>
     <row r="172" spans="4:14">
       <c r="D172" s="30" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="E172" s="30"/>
       <c r="F172" s="30"/>
@@ -17974,10 +17933,10 @@
     </row>
     <row r="173" spans="2:14">
       <c r="B173" s="28" t="s">
+        <v>1086</v>
+      </c>
+      <c r="D173" s="40" t="s">
         <v>1087</v>
-      </c>
-      <c r="D173" s="40" t="s">
-        <v>1088</v>
       </c>
       <c r="E173" s="40"/>
       <c r="F173" s="40"/>
@@ -17992,7 +17951,7 @@
     </row>
     <row r="174" ht="83" customHeight="1" spans="3:14">
       <c r="C174" s="29" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="D174" s="30"/>
       <c r="E174" s="30"/>
@@ -18008,17 +17967,17 @@
     </row>
     <row r="176" spans="1:1">
       <c r="A176" s="25" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="177" spans="2:2">
       <c r="B177" s="28" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="178" ht="72" customHeight="1" spans="3:14">
       <c r="C178" s="29" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="D178" s="29"/>
       <c r="E178" s="29"/>
@@ -18034,12 +17993,12 @@
     </row>
     <row r="179" spans="2:2">
       <c r="B179" s="28" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="180" ht="58" customHeight="1" spans="3:14">
       <c r="C180" s="29" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="D180" s="29"/>
       <c r="E180" s="29"/>
@@ -18055,12 +18014,12 @@
     </row>
     <row r="182" spans="2:2">
       <c r="B182" s="28" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="183" ht="37" customHeight="1" spans="3:14">
       <c r="C183" s="29" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="D183" s="29"/>
       <c r="E183" s="29"/>
@@ -18076,12 +18035,12 @@
     </row>
     <row r="184" spans="2:2">
       <c r="B184" s="28" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="185" ht="33" customHeight="1" spans="3:14">
       <c r="C185" s="29" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="D185" s="29"/>
       <c r="E185" s="29"/>
@@ -18097,17 +18056,17 @@
     </row>
     <row r="187" spans="1:1">
       <c r="A187" s="25" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="188" spans="2:2">
       <c r="B188" s="28" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="189" ht="91" customHeight="1" spans="3:14">
       <c r="C189" s="29" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="D189" s="29"/>
       <c r="E189" s="29"/>
@@ -18123,12 +18082,12 @@
     </row>
     <row r="190" spans="2:2">
       <c r="B190" s="28" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="191" ht="178" customHeight="1" spans="3:14">
       <c r="C191" s="29" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="D191" s="29"/>
       <c r="E191" s="29"/>
@@ -18260,339 +18219,339 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="25" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="2" ht="35" customHeight="1" spans="2:2">
       <c r="B2" s="26" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="3" ht="66" spans="2:2">
       <c r="B3" s="26" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="25" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="6" ht="33" spans="2:2">
       <c r="B6" s="26" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:1">
       <c r="A8" s="25" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="9" ht="82.5" spans="2:2">
       <c r="B9" s="26" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="25" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="12" spans="2:2">
       <c r="B12" s="26" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" s="25" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="16" ht="49.5" spans="2:2">
       <c r="B16" s="26" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="18" ht="66" spans="2:2">
       <c r="B18" s="26" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" s="25" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="21" spans="2:2">
       <c r="B21" s="26" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" s="25" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="24" ht="99" spans="2:2">
       <c r="B24" s="26" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" s="25" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="27" ht="165" spans="2:2">
       <c r="B27" s="26" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" s="25" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="30" ht="49.5" spans="2:2">
       <c r="B30" s="26" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32" s="25" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="33" ht="82.5" spans="2:2">
       <c r="B33" s="26" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" s="25" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="36" ht="66" spans="2:2">
       <c r="B36" s="26" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38" s="25" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="39" ht="49.5" spans="2:2">
       <c r="B39" s="26" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41" s="25" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="42" ht="66" spans="2:2">
       <c r="B42" s="26" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44" s="25" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="45" ht="66" spans="2:2">
       <c r="B45" s="26" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47" s="25" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="48" ht="49.5" spans="2:2">
       <c r="B48" s="26" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="50" spans="1:1">
       <c r="A50" s="25" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="51" ht="82.5" spans="2:2">
       <c r="B51" s="26" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="53" spans="1:1">
       <c r="A53" s="25" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="54" ht="33" spans="2:2">
       <c r="B54" s="26" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="56" spans="1:1">
       <c r="A56" s="25" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="57" ht="49.5" spans="2:2">
       <c r="B57" s="26" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="59" spans="1:1">
       <c r="A59" s="25" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="60" ht="33" spans="2:2">
       <c r="B60" s="26" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="62" spans="1:1">
       <c r="A62" s="25" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="63" ht="82.5" spans="2:2">
       <c r="B63" s="26" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="64" spans="2:2">
       <c r="B64" s="26" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="66" spans="1:1">
       <c r="A66" s="25" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="67" spans="2:2">
       <c r="B67" s="26" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69" s="25" t="s">
+        <v>1148</v>
+      </c>
+      <c r="B69" s="26" t="s">
         <v>1149</v>
-      </c>
-      <c r="B69" s="26" t="s">
-        <v>1150</v>
       </c>
     </row>
     <row r="70" ht="33" spans="2:2">
       <c r="B70" s="26" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="71" ht="49.5" spans="2:2">
       <c r="B71" s="26" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="73" spans="1:1">
       <c r="A73" s="25" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="74" ht="33" spans="2:2">
       <c r="B74" s="26" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="76" spans="1:1">
       <c r="A76" s="25" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="77" spans="2:2">
       <c r="B77" s="26" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="79" spans="1:1">
       <c r="A79" s="25" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="80" ht="132" spans="2:2">
       <c r="B80" s="26" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="82" spans="1:1">
       <c r="A82" s="25" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="83" spans="2:2">
       <c r="B83" s="26" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="84" ht="49.5" spans="2:2">
       <c r="B84" s="26" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="86" spans="1:2">
       <c r="A86" s="25" t="s">
+        <v>1161</v>
+      </c>
+      <c r="B86" s="26" t="s">
         <v>1162</v>
-      </c>
-      <c r="B86" s="26" t="s">
-        <v>1163</v>
       </c>
     </row>
     <row r="87" ht="33" spans="2:2">
       <c r="B87" s="26" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="88" ht="66" spans="2:2">
       <c r="B88" s="26" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="90" spans="1:2">
       <c r="A90" s="25" t="s">
+        <v>1165</v>
+      </c>
+      <c r="B90" s="26" t="s">
         <v>1166</v>
-      </c>
-      <c r="B90" s="26" t="s">
-        <v>1167</v>
       </c>
     </row>
     <row r="91" ht="148.5" spans="2:2">
       <c r="B91" s="26" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="92" ht="82.5" spans="2:2">
       <c r="B92" s="26" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="94" ht="33" spans="1:2">
       <c r="A94" s="25" t="s">
+        <v>1169</v>
+      </c>
+      <c r="B94" s="26" t="s">
         <v>1170</v>
-      </c>
-      <c r="B94" s="26" t="s">
-        <v>1171</v>
       </c>
     </row>
     <row r="95" ht="115.5" spans="2:2">
       <c r="B95" s="26" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
     </row>
   </sheetData>
@@ -18623,721 +18582,721 @@
   <sheetData>
     <row r="1" customHeight="1" spans="1:3">
       <c r="A1" s="8" t="s">
+        <v>1172</v>
+      </c>
+      <c r="C1" s="10" t="s">
         <v>1173</v>
-      </c>
-      <c r="C1" s="10" t="s">
-        <v>1174</v>
       </c>
     </row>
     <row r="2" ht="18" spans="2:3">
       <c r="B2" s="9" t="s">
+        <v>1174</v>
+      </c>
+      <c r="C2" s="10" t="s">
         <v>1175</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>1176</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="2:2">
       <c r="B3" s="9" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="3:4">
       <c r="C4" s="10" t="s">
+        <v>1177</v>
+      </c>
+      <c r="D4" s="11" t="s">
         <v>1178</v>
-      </c>
-      <c r="D4" s="11" t="s">
-        <v>1179</v>
       </c>
     </row>
     <row r="5" ht="33" spans="3:4">
       <c r="C5" s="10" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="3:4">
       <c r="C6" s="10" t="s">
+        <v>1180</v>
+      </c>
+      <c r="D6" s="11" t="s">
         <v>1181</v>
-      </c>
-      <c r="D6" s="11" t="s">
-        <v>1182</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="2:2">
       <c r="B7" s="9" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="8" ht="49.5" spans="3:4">
       <c r="C8" s="14" t="s">
+        <v>1183</v>
+      </c>
+      <c r="D8" s="11" t="s">
         <v>1184</v>
-      </c>
-      <c r="D8" s="11" t="s">
-        <v>1185</v>
       </c>
     </row>
     <row r="9" ht="165" spans="3:4">
       <c r="C9" s="10" t="s">
+        <v>1185</v>
+      </c>
+      <c r="D9" s="11" t="s">
         <v>1186</v>
-      </c>
-      <c r="D9" s="11" t="s">
-        <v>1187</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="3:3">
       <c r="C10" s="10" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="3:4">
       <c r="C11" s="10" t="s">
+        <v>1188</v>
+      </c>
+      <c r="D11" s="11" t="s">
         <v>1189</v>
-      </c>
-      <c r="D11" s="11" t="s">
-        <v>1190</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="3:3">
       <c r="C12" s="10" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="13" ht="82.5" spans="3:4">
       <c r="C13" s="10" t="s">
+        <v>1191</v>
+      </c>
+      <c r="D13" s="11" t="s">
         <v>1192</v>
-      </c>
-      <c r="D13" s="11" t="s">
-        <v>1193</v>
       </c>
     </row>
     <row r="14" ht="165" spans="3:4">
       <c r="C14" s="10" t="s">
+        <v>1193</v>
+      </c>
+      <c r="D14" s="11" t="s">
         <v>1194</v>
-      </c>
-      <c r="D14" s="11" t="s">
-        <v>1195</v>
       </c>
     </row>
     <row r="17" customHeight="1" spans="2:3">
       <c r="B17" s="15" t="s">
+        <v>1195</v>
+      </c>
+      <c r="C17" s="10" t="s">
         <v>1196</v>
-      </c>
-      <c r="C17" s="10" t="s">
-        <v>1197</v>
       </c>
     </row>
     <row r="18" customHeight="1" spans="3:3">
       <c r="C18" s="10" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="19" ht="231" spans="3:4">
       <c r="C19" s="16" t="s">
+        <v>1198</v>
+      </c>
+      <c r="D19" s="11" t="s">
         <v>1199</v>
-      </c>
-      <c r="D19" s="11" t="s">
-        <v>1200</v>
       </c>
     </row>
     <row r="20" ht="99" spans="3:4">
       <c r="C20" s="16" t="s">
+        <v>1200</v>
+      </c>
+      <c r="D20" s="11" t="s">
         <v>1201</v>
-      </c>
-      <c r="D20" s="11" t="s">
-        <v>1202</v>
       </c>
     </row>
     <row r="21" ht="148.5" spans="3:4">
       <c r="C21" s="10" t="s">
+        <v>1202</v>
+      </c>
+      <c r="D21" s="11" t="s">
         <v>1203</v>
-      </c>
-      <c r="D21" s="11" t="s">
-        <v>1204</v>
       </c>
     </row>
     <row r="22" ht="132" spans="3:4">
       <c r="C22" s="10" t="s">
+        <v>1204</v>
+      </c>
+      <c r="D22" s="11" t="s">
         <v>1205</v>
-      </c>
-      <c r="D22" s="11" t="s">
-        <v>1206</v>
       </c>
     </row>
     <row r="23" ht="33" spans="3:4">
       <c r="C23" s="10" t="s">
+        <v>1206</v>
+      </c>
+      <c r="D23" s="11" t="s">
         <v>1207</v>
-      </c>
-      <c r="D23" s="11" t="s">
-        <v>1208</v>
       </c>
     </row>
     <row r="25" customHeight="1" spans="2:2">
       <c r="B25" s="9" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="26" customHeight="1" spans="3:4">
       <c r="C26" s="10" t="s">
+        <v>1209</v>
+      </c>
+      <c r="D26" s="11" t="s">
         <v>1210</v>
-      </c>
-      <c r="D26" s="11" t="s">
-        <v>1211</v>
       </c>
     </row>
     <row r="27" customHeight="1" spans="3:3">
       <c r="C27" s="10" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="28" ht="33" spans="3:4">
       <c r="C28" s="16" t="s">
+        <v>1212</v>
+      </c>
+      <c r="D28" s="11" t="s">
         <v>1213</v>
-      </c>
-      <c r="D28" s="11" t="s">
-        <v>1214</v>
       </c>
     </row>
     <row r="29" customHeight="1" spans="3:4">
       <c r="C29" s="16" t="s">
+        <v>1214</v>
+      </c>
+      <c r="D29" s="11" t="s">
         <v>1215</v>
-      </c>
-      <c r="D29" s="11" t="s">
-        <v>1216</v>
       </c>
     </row>
     <row r="30" ht="33" spans="3:4">
       <c r="C30" s="16" t="s">
+        <v>1216</v>
+      </c>
+      <c r="D30" s="11" t="s">
         <v>1217</v>
-      </c>
-      <c r="D30" s="11" t="s">
-        <v>1218</v>
       </c>
     </row>
     <row r="31" customHeight="1" spans="3:4">
       <c r="C31" s="16" t="s">
+        <v>1218</v>
+      </c>
+      <c r="D31" s="11" t="s">
         <v>1219</v>
-      </c>
-      <c r="D31" s="11" t="s">
-        <v>1220</v>
       </c>
     </row>
     <row r="32" customHeight="1" spans="2:4">
       <c r="B32" s="9" t="s">
+        <v>1220</v>
+      </c>
+      <c r="D32" s="11" t="s">
         <v>1221</v>
-      </c>
-      <c r="D32" s="11" t="s">
-        <v>1222</v>
       </c>
     </row>
     <row r="33" ht="49.5" spans="3:4">
       <c r="C33" s="10" t="s">
+        <v>1222</v>
+      </c>
+      <c r="D33" s="11" t="s">
         <v>1223</v>
-      </c>
-      <c r="D33" s="11" t="s">
-        <v>1224</v>
       </c>
     </row>
     <row r="34" customHeight="1" spans="3:4">
       <c r="C34" s="10" t="s">
+        <v>1224</v>
+      </c>
+      <c r="D34" s="11" t="s">
         <v>1225</v>
-      </c>
-      <c r="D34" s="11" t="s">
-        <v>1226</v>
       </c>
     </row>
     <row r="35" ht="33" spans="3:4">
       <c r="C35" s="14" t="s">
+        <v>1226</v>
+      </c>
+      <c r="D35" s="11" t="s">
         <v>1227</v>
-      </c>
-      <c r="D35" s="11" t="s">
-        <v>1228</v>
       </c>
     </row>
     <row r="36" customHeight="1" spans="3:4">
       <c r="C36" s="10" t="s">
+        <v>1228</v>
+      </c>
+      <c r="D36" s="11" t="s">
         <v>1229</v>
-      </c>
-      <c r="D36" s="11" t="s">
-        <v>1230</v>
       </c>
     </row>
     <row r="37" customHeight="1" spans="3:4">
       <c r="C37" s="10" t="s">
+        <v>1230</v>
+      </c>
+      <c r="D37" s="11" t="s">
         <v>1231</v>
-      </c>
-      <c r="D37" s="11" t="s">
-        <v>1232</v>
       </c>
     </row>
     <row r="38" customHeight="1" spans="1:4">
       <c r="A38" s="8" t="s">
+        <v>1232</v>
+      </c>
+      <c r="D38" s="11" t="s">
         <v>1233</v>
-      </c>
-      <c r="D38" s="11" t="s">
-        <v>1234</v>
       </c>
     </row>
     <row r="39" customHeight="1" spans="2:4">
       <c r="B39" s="9" t="s">
+        <v>1234</v>
+      </c>
+      <c r="D39" s="11" t="s">
         <v>1235</v>
-      </c>
-      <c r="D39" s="11" t="s">
-        <v>1236</v>
       </c>
     </row>
     <row r="40" customHeight="1" spans="3:4">
       <c r="C40" s="10" t="s">
+        <v>1236</v>
+      </c>
+      <c r="D40" s="11" t="s">
         <v>1237</v>
-      </c>
-      <c r="D40" s="11" t="s">
-        <v>1238</v>
       </c>
     </row>
     <row r="41" customHeight="1" spans="3:4">
       <c r="C41" s="10" t="s">
+        <v>1238</v>
+      </c>
+      <c r="D41" s="11" t="s">
         <v>1239</v>
-      </c>
-      <c r="D41" s="11" t="s">
-        <v>1240</v>
       </c>
     </row>
     <row r="42" customHeight="1" spans="2:2">
       <c r="B42" s="10" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="43" ht="66" spans="3:4">
       <c r="C43" s="10" t="s">
+        <v>1241</v>
+      </c>
+      <c r="D43" s="11" t="s">
         <v>1242</v>
-      </c>
-      <c r="D43" s="11" t="s">
-        <v>1243</v>
       </c>
     </row>
     <row r="44" ht="33" spans="3:4">
       <c r="C44" s="10" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="D44" s="11" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="45" ht="148" customHeight="1" spans="3:4">
       <c r="C45" s="10" t="s">
+        <v>1244</v>
+      </c>
+      <c r="D45" s="11" t="s">
         <v>1245</v>
-      </c>
-      <c r="D45" s="11" t="s">
-        <v>1246</v>
       </c>
     </row>
     <row r="46" customHeight="1" spans="3:4">
       <c r="C46" s="10" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="D46" s="11" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
     </row>
     <row r="47" customHeight="1" spans="2:4">
       <c r="B47" s="9" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
       <c r="C47" s="10" t="s">
+        <v>1209</v>
+      </c>
+      <c r="D47" s="11" t="s">
         <v>1210</v>
-      </c>
-      <c r="D47" s="11" t="s">
-        <v>1211</v>
       </c>
     </row>
     <row r="48" ht="120" customHeight="1" spans="3:4">
       <c r="C48" s="10" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
       <c r="D48" s="11" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="49" ht="33" spans="3:4">
       <c r="C49" s="10" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="D49" s="11" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="50" ht="115.5" spans="3:4">
       <c r="C50" s="10" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
       <c r="D50" s="11" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="51" customHeight="1" spans="3:4">
       <c r="C51" s="10" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="D51" s="11" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
     </row>
     <row r="52" ht="33" spans="2:4">
       <c r="B52" s="9" t="s">
+        <v>1252</v>
+      </c>
+      <c r="C52" s="10" t="s">
+        <v>1209</v>
+      </c>
+      <c r="D52" s="11" t="s">
         <v>1253</v>
-      </c>
-      <c r="C52" s="10" t="s">
-        <v>1210</v>
-      </c>
-      <c r="D52" s="11" t="s">
-        <v>1254</v>
       </c>
     </row>
     <row r="53" ht="33" spans="3:4">
       <c r="C53" s="10" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
       <c r="D53" s="11" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
     </row>
     <row r="54" ht="27" customHeight="1" spans="3:4">
       <c r="C54" s="10" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="D54" s="11" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
     </row>
     <row r="55" ht="165" spans="3:4">
       <c r="C55" s="10" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
       <c r="D55" s="11" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
     </row>
     <row r="56" customHeight="1" spans="3:4">
       <c r="C56" s="10" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="D56" s="11" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="57" customHeight="1" spans="1:1">
       <c r="A57" s="8" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="58" ht="49.5" spans="2:4">
       <c r="B58" s="17" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
       <c r="C58" s="17"/>
       <c r="D58" s="11" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="59" ht="31" customHeight="1" spans="2:4">
       <c r="B59" s="18" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="C59" s="18"/>
       <c r="D59" s="11" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
     </row>
     <row r="60" ht="18" spans="2:4">
       <c r="B60" s="18" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
       <c r="C60" s="18"/>
       <c r="D60" s="11" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
     </row>
     <row r="61" ht="61" customHeight="1" spans="2:4">
       <c r="B61" s="18" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="C61" s="18"/>
       <c r="D61" s="11" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="62" ht="90" customHeight="1" spans="2:4">
       <c r="B62" s="18" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
       <c r="C62" s="18"/>
       <c r="D62" s="11" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="63" ht="181.5" spans="2:4">
       <c r="B63" s="19" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
       <c r="C63" s="19"/>
       <c r="D63" s="11" t="s">
-        <v>1270</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="64" ht="18" spans="2:4">
       <c r="B64" s="19"/>
       <c r="C64" s="19" t="s">
+        <v>1270</v>
+      </c>
+      <c r="D64" s="11" t="s">
         <v>1271</v>
-      </c>
-      <c r="D64" s="11" t="s">
-        <v>1272</v>
       </c>
     </row>
     <row r="65" ht="33" spans="2:4">
       <c r="B65" s="19"/>
       <c r="C65" s="19" t="s">
+        <v>1272</v>
+      </c>
+      <c r="D65" s="11" t="s">
         <v>1273</v>
-      </c>
-      <c r="D65" s="11" t="s">
-        <v>1274</v>
       </c>
     </row>
     <row r="66" ht="18" spans="2:4">
       <c r="B66" s="19"/>
       <c r="C66" s="19" t="s">
+        <v>1274</v>
+      </c>
+      <c r="D66" s="11" t="s">
         <v>1275</v>
-      </c>
-      <c r="D66" s="11" t="s">
-        <v>1276</v>
       </c>
     </row>
     <row r="67" ht="18" spans="2:4">
       <c r="B67" s="19"/>
       <c r="C67" s="19" t="s">
+        <v>1276</v>
+      </c>
+      <c r="D67" s="11" t="s">
         <v>1277</v>
-      </c>
-      <c r="D67" s="11" t="s">
-        <v>1278</v>
       </c>
     </row>
     <row r="68" ht="18" spans="2:4">
       <c r="B68" s="19"/>
       <c r="C68" s="19" t="s">
+        <v>1278</v>
+      </c>
+      <c r="D68" s="11" t="s">
         <v>1279</v>
-      </c>
-      <c r="D68" s="11" t="s">
-        <v>1280</v>
       </c>
     </row>
     <row r="69" ht="18" spans="2:4">
       <c r="B69" s="19"/>
       <c r="C69" s="19" t="s">
+        <v>1280</v>
+      </c>
+      <c r="D69" s="11" t="s">
         <v>1281</v>
-      </c>
-      <c r="D69" s="11" t="s">
-        <v>1282</v>
       </c>
     </row>
     <row r="70" ht="56" customHeight="1" spans="2:3">
       <c r="B70" s="18" t="s">
-        <v>1283</v>
+        <v>1282</v>
       </c>
       <c r="C70" s="19"/>
     </row>
     <row r="71" ht="29" customHeight="1" spans="2:4">
       <c r="B71" s="19"/>
       <c r="C71" s="19" t="s">
+        <v>1283</v>
+      </c>
+      <c r="D71" s="11" t="s">
         <v>1284</v>
-      </c>
-      <c r="D71" s="11" t="s">
-        <v>1285</v>
       </c>
     </row>
     <row r="72" ht="29" customHeight="1" spans="2:4">
       <c r="B72" s="19"/>
       <c r="C72" s="19" t="s">
+        <v>1285</v>
+      </c>
+      <c r="D72" s="11" t="s">
         <v>1286</v>
-      </c>
-      <c r="D72" s="11" t="s">
-        <v>1287</v>
       </c>
     </row>
     <row r="73" ht="18" spans="2:3">
       <c r="B73" s="18" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="C73" s="18"/>
     </row>
     <row r="74" customHeight="1" spans="1:4">
       <c r="A74" s="8" t="s">
+        <v>1288</v>
+      </c>
+      <c r="D74" s="11" t="s">
         <v>1289</v>
-      </c>
-      <c r="D74" s="11" t="s">
-        <v>1290</v>
       </c>
     </row>
     <row r="75" ht="82.5" spans="2:4">
       <c r="B75" s="9" t="s">
+        <v>1290</v>
+      </c>
+      <c r="C75" s="10" t="s">
         <v>1291</v>
       </c>
-      <c r="C75" s="10" t="s">
+      <c r="D75" s="11" t="s">
         <v>1292</v>
-      </c>
-      <c r="D75" s="11" t="s">
-        <v>1293</v>
       </c>
     </row>
     <row r="76" customHeight="1" spans="3:4">
       <c r="C76" s="10" t="s">
+        <v>1293</v>
+      </c>
+      <c r="D76" s="11" t="s">
         <v>1294</v>
-      </c>
-      <c r="D76" s="11" t="s">
-        <v>1295</v>
       </c>
     </row>
     <row r="77" customHeight="1" spans="2:3">
       <c r="B77" s="9" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
       <c r="C77" s="10" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
     </row>
     <row r="78" customHeight="1" spans="3:3">
       <c r="C78" s="10" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
     </row>
     <row r="79" customHeight="1" spans="1:1">
       <c r="A79" s="8" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="80" ht="132" spans="2:4">
       <c r="B80" s="9" t="s">
+        <v>1297</v>
+      </c>
+      <c r="C80" s="10" t="s">
         <v>1298</v>
       </c>
-      <c r="C80" s="10" t="s">
+      <c r="D80" s="11" t="s">
         <v>1299</v>
-      </c>
-      <c r="D80" s="11" t="s">
-        <v>1300</v>
       </c>
     </row>
     <row r="81" customHeight="1" spans="2:4">
       <c r="B81" s="9" t="s">
+        <v>1300</v>
+      </c>
+      <c r="D81" s="11" t="s">
         <v>1301</v>
-      </c>
-      <c r="D81" s="11" t="s">
-        <v>1302</v>
       </c>
     </row>
     <row r="82" customHeight="1" spans="2:4">
       <c r="B82" s="9" t="s">
+        <v>1302</v>
+      </c>
+      <c r="D82" s="11" t="s">
         <v>1303</v>
-      </c>
-      <c r="D82" s="11" t="s">
-        <v>1304</v>
       </c>
     </row>
     <row r="83" customHeight="1" spans="2:4">
       <c r="B83" s="9" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="D83" s="11" t="s">
-        <v>1305</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="84" customHeight="1" spans="1:1">
       <c r="A84" s="8" t="s">
-        <v>1306</v>
+        <v>1305</v>
       </c>
     </row>
     <row r="85" ht="18" spans="2:4">
       <c r="B85" s="9" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="C85" s="10" t="s">
+        <v>1306</v>
+      </c>
+      <c r="D85" s="119" t="s">
         <v>1307</v>
-      </c>
-      <c r="D85" s="119" t="s">
-        <v>1308</v>
       </c>
     </row>
     <row r="86" customHeight="1" spans="2:4">
       <c r="B86" s="9" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="C86" s="10" t="s">
+        <v>1308</v>
+      </c>
+      <c r="D86" s="119" t="s">
         <v>1309</v>
-      </c>
-      <c r="D86" s="119" t="s">
-        <v>1310</v>
       </c>
     </row>
     <row r="87" customHeight="1" spans="2:4">
       <c r="B87" s="9" t="s">
+        <v>1310</v>
+      </c>
+      <c r="C87" s="10" t="s">
         <v>1311</v>
       </c>
-      <c r="C87" s="10" t="s">
+      <c r="D87" s="11" t="s">
         <v>1312</v>
-      </c>
-      <c r="D87" s="11" t="s">
-        <v>1313</v>
       </c>
     </row>
     <row r="88" customHeight="1" spans="3:4">
       <c r="C88" s="10" t="s">
+        <v>1313</v>
+      </c>
+      <c r="D88" s="11" t="s">
         <v>1314</v>
-      </c>
-      <c r="D88" s="11" t="s">
-        <v>1315</v>
       </c>
     </row>
     <row r="89" customHeight="1" spans="3:4">
       <c r="C89" s="10" t="s">
+        <v>1315</v>
+      </c>
+      <c r="D89" s="11" t="s">
         <v>1316</v>
-      </c>
-      <c r="D89" s="11" t="s">
-        <v>1317</v>
       </c>
     </row>
     <row r="90" customHeight="1" spans="2:4">
       <c r="B90" s="9" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="C90" s="10" t="s">
+        <v>1317</v>
+      </c>
+      <c r="D90" s="11" t="s">
         <v>1318</v>
-      </c>
-      <c r="D90" s="11" t="s">
-        <v>1319</v>
       </c>
     </row>
     <row r="91" customHeight="1" spans="3:4">
       <c r="C91" s="10" t="s">
+        <v>1319</v>
+      </c>
+      <c r="D91" s="11" t="s">
         <v>1320</v>
-      </c>
-      <c r="D91" s="11" t="s">
-        <v>1321</v>
       </c>
     </row>
     <row r="92" customHeight="1" spans="3:4">
       <c r="C92" s="20" t="s">
+        <v>1321</v>
+      </c>
+      <c r="D92" s="11" t="s">
         <v>1322</v>
-      </c>
-      <c r="D92" s="11" t="s">
-        <v>1323</v>
       </c>
     </row>
     <row r="93" customHeight="1" spans="2:12">
       <c r="B93" s="8"/>
       <c r="C93" s="20" t="s">
+        <v>1323</v>
+      </c>
+      <c r="D93" s="14" t="s">
         <v>1324</v>
-      </c>
-      <c r="D93" s="14" t="s">
-        <v>1325</v>
       </c>
       <c r="E93" s="22"/>
       <c r="L93" s="12"/>
@@ -19345,400 +19304,400 @@
     <row r="94" customHeight="1" spans="2:12">
       <c r="B94" s="8"/>
       <c r="C94" s="20" t="s">
+        <v>1325</v>
+      </c>
+      <c r="D94" s="14" t="s">
         <v>1326</v>
-      </c>
-      <c r="D94" s="14" t="s">
-        <v>1327</v>
       </c>
       <c r="E94" s="22"/>
       <c r="L94" s="12"/>
     </row>
     <row r="95" ht="33" spans="2:4">
       <c r="B95" s="9" t="s">
+        <v>1327</v>
+      </c>
+      <c r="C95" s="21" t="s">
         <v>1328</v>
       </c>
-      <c r="C95" s="21" t="s">
+      <c r="D95" s="11" t="s">
         <v>1329</v>
-      </c>
-      <c r="D95" s="11" t="s">
-        <v>1330</v>
       </c>
     </row>
     <row r="97" customHeight="1" spans="2:4">
       <c r="B97" s="9" t="s">
+        <v>1330</v>
+      </c>
+      <c r="D97" s="11" t="s">
         <v>1331</v>
-      </c>
-      <c r="D97" s="11" t="s">
-        <v>1332</v>
       </c>
     </row>
     <row r="98" customHeight="1" spans="2:4">
       <c r="B98" s="9" t="s">
+        <v>1332</v>
+      </c>
+      <c r="C98" s="10" t="s">
         <v>1333</v>
       </c>
-      <c r="C98" s="10" t="s">
+      <c r="D98" s="11" t="s">
         <v>1334</v>
-      </c>
-      <c r="D98" s="11" t="s">
-        <v>1335</v>
       </c>
     </row>
     <row r="99" customHeight="1" spans="2:4">
       <c r="B99" s="9" t="s">
+        <v>1335</v>
+      </c>
+      <c r="C99" s="10" t="s">
         <v>1336</v>
       </c>
-      <c r="C99" s="10" t="s">
+      <c r="D99" s="11" t="s">
         <v>1337</v>
-      </c>
-      <c r="D99" s="11" t="s">
-        <v>1338</v>
       </c>
     </row>
     <row r="100" customHeight="1" spans="3:4">
       <c r="C100" s="10" t="s">
+        <v>1338</v>
+      </c>
+      <c r="D100" s="11" t="s">
         <v>1339</v>
-      </c>
-      <c r="D100" s="11" t="s">
-        <v>1340</v>
       </c>
     </row>
     <row r="101" customHeight="1" spans="3:4">
       <c r="C101" s="10" t="s">
+        <v>1340</v>
+      </c>
+      <c r="D101" s="11" t="s">
         <v>1341</v>
-      </c>
-      <c r="D101" s="11" t="s">
-        <v>1342</v>
       </c>
     </row>
     <row r="102" customHeight="1" spans="3:4">
       <c r="C102" s="10" t="s">
+        <v>1342</v>
+      </c>
+      <c r="D102" s="11" t="s">
         <v>1343</v>
-      </c>
-      <c r="D102" s="11" t="s">
-        <v>1344</v>
       </c>
     </row>
     <row r="103" customHeight="1" spans="3:4">
       <c r="C103" s="10" t="s">
+        <v>1344</v>
+      </c>
+      <c r="D103" s="11" t="s">
         <v>1345</v>
-      </c>
-      <c r="D103" s="11" t="s">
-        <v>1346</v>
       </c>
     </row>
     <row r="104" customHeight="1" spans="2:3">
       <c r="B104" s="9" t="s">
+        <v>1346</v>
+      </c>
+      <c r="C104" s="10" t="s">
         <v>1347</v>
-      </c>
-      <c r="C104" s="10" t="s">
-        <v>1348</v>
       </c>
     </row>
     <row r="105" customHeight="1" spans="2:3">
       <c r="B105" s="9" t="s">
+        <v>1348</v>
+      </c>
+      <c r="C105" s="10" t="s">
         <v>1349</v>
-      </c>
-      <c r="C105" s="10" t="s">
-        <v>1350</v>
       </c>
     </row>
     <row r="106" customHeight="1" spans="2:4">
       <c r="B106" s="9" t="s">
+        <v>1350</v>
+      </c>
+      <c r="C106" s="10" t="s">
         <v>1351</v>
       </c>
-      <c r="C106" s="10" t="s">
+      <c r="D106" s="11" t="s">
         <v>1352</v>
-      </c>
-      <c r="D106" s="11" t="s">
-        <v>1353</v>
       </c>
     </row>
     <row r="107" customHeight="1" spans="2:4">
       <c r="B107" s="9" t="s">
+        <v>1353</v>
+      </c>
+      <c r="C107" s="10" t="s">
         <v>1354</v>
       </c>
-      <c r="C107" s="10" t="s">
+      <c r="D107" s="11" t="s">
         <v>1355</v>
-      </c>
-      <c r="D107" s="11" t="s">
-        <v>1356</v>
       </c>
     </row>
     <row r="108" customHeight="1" spans="3:4">
       <c r="C108" s="10" t="s">
+        <v>1356</v>
+      </c>
+      <c r="D108" s="11" t="s">
         <v>1357</v>
-      </c>
-      <c r="D108" s="11" t="s">
-        <v>1358</v>
       </c>
     </row>
     <row r="109" customHeight="1" spans="3:4">
       <c r="C109" s="10" t="s">
+        <v>1358</v>
+      </c>
+      <c r="D109" s="11" t="s">
         <v>1359</v>
-      </c>
-      <c r="D109" s="11" t="s">
-        <v>1360</v>
       </c>
     </row>
     <row r="111" customHeight="1" spans="1:1">
       <c r="A111" s="8" t="s">
-        <v>1361</v>
+        <v>1360</v>
       </c>
     </row>
     <row r="112" customHeight="1" spans="2:2">
       <c r="B112" s="9" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
     </row>
     <row r="113" customHeight="1" spans="3:4">
       <c r="C113" s="20" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="D113" s="11" t="s">
-        <v>1363</v>
+        <v>1362</v>
       </c>
     </row>
     <row r="114" customHeight="1" spans="3:4">
       <c r="C114" s="20" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="D114" s="11" t="s">
-        <v>1364</v>
+        <v>1363</v>
       </c>
     </row>
     <row r="115" customHeight="1" spans="2:2">
       <c r="B115" s="9" t="s">
-        <v>1365</v>
+        <v>1364</v>
       </c>
     </row>
     <row r="116" customHeight="1" spans="3:3">
       <c r="C116" s="10" t="s">
-        <v>1366</v>
+        <v>1365</v>
       </c>
     </row>
     <row r="117" customHeight="1" spans="3:4">
       <c r="C117" s="10" t="s">
+        <v>1366</v>
+      </c>
+      <c r="D117" s="11" t="s">
         <v>1367</v>
-      </c>
-      <c r="D117" s="11" t="s">
-        <v>1368</v>
       </c>
     </row>
     <row r="118" customHeight="1" spans="2:2">
       <c r="B118" s="9" t="s">
-        <v>1361</v>
+        <v>1360</v>
       </c>
     </row>
     <row r="119" customHeight="1" spans="3:3">
       <c r="C119" s="10" t="s">
-        <v>1366</v>
+        <v>1365</v>
       </c>
     </row>
     <row r="120" customHeight="1" spans="3:4">
       <c r="C120" s="10" t="s">
-        <v>1367</v>
+        <v>1366</v>
       </c>
       <c r="D120" s="11" t="s">
-        <v>1369</v>
+        <v>1368</v>
       </c>
     </row>
     <row r="121" customHeight="1" spans="2:4">
       <c r="B121" s="9" t="s">
-        <v>1361</v>
+        <v>1360</v>
       </c>
       <c r="C121" s="10" t="s">
-        <v>1367</v>
+        <v>1366</v>
       </c>
       <c r="D121" s="11" t="s">
-        <v>1370</v>
+        <v>1369</v>
       </c>
     </row>
     <row r="122" customHeight="1" spans="2:4">
       <c r="B122" s="9" t="s">
+        <v>1370</v>
+      </c>
+      <c r="C122" s="10" t="s">
         <v>1371</v>
       </c>
-      <c r="C122" s="10" t="s">
+      <c r="D122" s="11" t="s">
         <v>1372</v>
-      </c>
-      <c r="D122" s="11" t="s">
-        <v>1373</v>
       </c>
     </row>
     <row r="123" customHeight="1" spans="3:4">
       <c r="C123" s="10" t="s">
+        <v>1373</v>
+      </c>
+      <c r="D123" s="11" t="s">
         <v>1374</v>
-      </c>
-      <c r="D123" s="11" t="s">
-        <v>1375</v>
       </c>
     </row>
     <row r="125" customHeight="1" spans="1:1">
       <c r="A125" s="8" t="s">
-        <v>1376</v>
+        <v>1375</v>
       </c>
     </row>
     <row r="126" customHeight="1" spans="2:2">
       <c r="B126" s="9" t="s">
-        <v>1377</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="127" customHeight="1" spans="2:2">
       <c r="B127" s="9" t="s">
-        <v>1378</v>
+        <v>1377</v>
       </c>
     </row>
     <row r="128" customHeight="1" spans="1:1">
       <c r="A128" s="8" t="s">
-        <v>1379</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="129" customHeight="1" spans="2:2">
       <c r="B129" s="9" t="s">
-        <v>1380</v>
+        <v>1379</v>
       </c>
     </row>
     <row r="130" ht="115.5" spans="3:4">
       <c r="C130" s="10" t="s">
+        <v>1380</v>
+      </c>
+      <c r="D130" s="11" t="s">
         <v>1381</v>
-      </c>
-      <c r="D130" s="11" t="s">
-        <v>1382</v>
       </c>
     </row>
     <row r="131" customHeight="1" spans="3:4">
       <c r="C131" s="10" t="s">
+        <v>1382</v>
+      </c>
+      <c r="D131" s="11" t="s">
         <v>1383</v>
-      </c>
-      <c r="D131" s="11" t="s">
-        <v>1384</v>
       </c>
     </row>
     <row r="132" ht="33" spans="2:4">
       <c r="B132" s="9" t="s">
+        <v>1384</v>
+      </c>
+      <c r="D132" s="23" t="s">
         <v>1385</v>
-      </c>
-      <c r="D132" s="23" t="s">
-        <v>1386</v>
       </c>
     </row>
     <row r="133" ht="33" spans="2:4">
       <c r="B133" s="9" t="s">
+        <v>1386</v>
+      </c>
+      <c r="C133" s="10" t="s">
+        <v>1083</v>
+      </c>
+      <c r="D133" s="11" t="s">
         <v>1387</v>
-      </c>
-      <c r="C133" s="10" t="s">
-        <v>1084</v>
-      </c>
-      <c r="D133" s="11" t="s">
-        <v>1388</v>
       </c>
     </row>
     <row r="134" customHeight="1" spans="2:4">
       <c r="B134" s="9" t="s">
+        <v>1388</v>
+      </c>
+      <c r="C134" s="10" t="s">
+        <v>1083</v>
+      </c>
+      <c r="D134" s="11" t="s">
         <v>1389</v>
-      </c>
-      <c r="C134" s="10" t="s">
-        <v>1084</v>
-      </c>
-      <c r="D134" s="11" t="s">
-        <v>1390</v>
       </c>
     </row>
     <row r="135" ht="49.5" spans="3:4">
       <c r="C135" s="10" t="s">
+        <v>1390</v>
+      </c>
+      <c r="D135" s="11" t="s">
         <v>1391</v>
-      </c>
-      <c r="D135" s="11" t="s">
-        <v>1392</v>
       </c>
     </row>
     <row r="136" customHeight="1" spans="2:2">
       <c r="B136" s="9" t="s">
-        <v>1393</v>
+        <v>1392</v>
       </c>
     </row>
     <row r="138" customHeight="1" spans="2:2">
       <c r="B138" s="9" t="s">
-        <v>1394</v>
+        <v>1393</v>
       </c>
     </row>
     <row r="141" customHeight="1" spans="1:1">
       <c r="A141" s="8" t="s">
-        <v>1395</v>
+        <v>1394</v>
       </c>
     </row>
     <row r="142" customHeight="1" spans="2:3">
       <c r="B142" s="9" t="s">
+        <v>1395</v>
+      </c>
+      <c r="C142" s="10" t="s">
         <v>1396</v>
-      </c>
-      <c r="C142" s="10" t="s">
-        <v>1397</v>
       </c>
     </row>
     <row r="143" customHeight="1" spans="2:4">
       <c r="B143" s="24" t="s">
+        <v>1397</v>
+      </c>
+      <c r="C143" s="10" t="s">
         <v>1398</v>
       </c>
-      <c r="C143" s="10" t="s">
+      <c r="D143" s="11" t="s">
         <v>1399</v>
-      </c>
-      <c r="D143" s="11" t="s">
-        <v>1400</v>
       </c>
     </row>
     <row r="144" customHeight="1" spans="3:4">
       <c r="C144" s="10" t="s">
+        <v>1400</v>
+      </c>
+      <c r="D144" s="11" t="s">
         <v>1401</v>
-      </c>
-      <c r="D144" s="11" t="s">
-        <v>1402</v>
       </c>
     </row>
     <row r="145" customHeight="1" spans="2:2">
       <c r="B145" s="9" t="s">
-        <v>1403</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="146" customHeight="1" spans="3:4">
       <c r="C146" s="10" t="s">
+        <v>1403</v>
+      </c>
+      <c r="D146" s="11" t="s">
         <v>1404</v>
-      </c>
-      <c r="D146" s="11" t="s">
-        <v>1405</v>
       </c>
     </row>
     <row r="147" customHeight="1" spans="2:2">
       <c r="B147" s="9" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="148" customHeight="1" spans="3:3">
       <c r="C148" s="10" t="s">
-        <v>1404</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="155" customHeight="1" spans="1:1">
       <c r="A155" s="8" t="s">
-        <v>1407</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="160" customHeight="1" spans="1:1">
       <c r="A160" s="8" t="s">
-        <v>1408</v>
+        <v>1407</v>
       </c>
     </row>
     <row r="165" customHeight="1" spans="1:1">
       <c r="A165" s="8" t="s">
-        <v>1409</v>
+        <v>1408</v>
       </c>
     </row>
     <row r="170" customHeight="1" spans="1:1">
       <c r="A170" s="8" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
     </row>
     <row r="174" customHeight="1" spans="1:1">
       <c r="A174" s="8" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
     </row>
   </sheetData>

--- a/linux.xlsx
+++ b/linux.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20385" windowHeight="7950" firstSheet="1" activeTab="3"/>
+    <workbookView windowWidth="20385" windowHeight="7950" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="目录" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1418">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1426">
   <si>
     <t>ab</t>
   </si>
@@ -1566,6 +1566,36 @@
   </si>
   <si>
     <t>版本控制系统</t>
+  </si>
+  <si>
+    <t>init</t>
+  </si>
+  <si>
+    <t>初始化本地版本库</t>
+  </si>
+  <si>
+    <t>clone</t>
+  </si>
+  <si>
+    <t>克隆远程站点版本库</t>
+  </si>
+  <si>
+    <t>add</t>
+  </si>
+  <si>
+    <t>将工作代码添加之暂存区 --all</t>
+  </si>
+  <si>
+    <t>commit</t>
+  </si>
+  <si>
+    <t>提交变更之仓库</t>
+  </si>
+  <si>
+    <t>提交之前加入新代码</t>
+  </si>
+  <si>
+    <t>指定一条信息，不加入编辑器“备注”</t>
   </si>
   <si>
     <t>NTP时间同步</t>
@@ -2262,13 +2292,7 @@
     <t>使用命令</t>
   </si>
   <si>
-    <t>add</t>
-  </si>
-  <si>
     <t>添加</t>
-  </si>
-  <si>
-    <t>commit</t>
   </si>
   <si>
     <t>提交更新</t>
@@ -6480,11 +6504,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="63">
+  <fonts count="64">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -6764,6 +6788,12 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="16"/>
+      <color rgb="FFFF0000"/>
+      <name val="仿宋"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -6779,14 +6809,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -6794,33 +6816,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6828,31 +6825,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -6873,14 +6848,68 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6893,8 +6922,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6939,7 +6969,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6951,97 +7101,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7059,61 +7125,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7131,7 +7161,16 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -7140,7 +7179,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -7160,21 +7199,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -7190,13 +7214,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -7218,9 +7246,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -7229,94 +7259,94 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="44" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="43" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="44" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="58" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="59" fillId="29" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="43" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="43" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="44" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="44" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="44" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="57" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="43" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="51" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="43" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="56" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="53" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="50" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="55" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="53" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="43" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="59" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="55" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="43" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -7325,56 +7355,56 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="48" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="44" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="43" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="44" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="43" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="43" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="44" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="43" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="57" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="115">
+  <cellXfs count="116">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -7720,6 +7750,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="38" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="42" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="11" fontId="9" fillId="0" borderId="0" xfId="7" applyNumberFormat="1" applyFont="1" applyAlignment="1" quotePrefix="1">
@@ -8081,7 +8114,7 @@
   <sheetData>
     <row r="1" ht="198" spans="1:1">
       <c r="A1" s="7" t="s">
-        <v>1411</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="2" ht="23" customHeight="1"/>
@@ -8138,32 +8171,32 @@
   <sheetData>
     <row r="1" ht="72" spans="1:1">
       <c r="A1" s="6" t="s">
-        <v>1412</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="2" ht="72" spans="1:1">
       <c r="A2" s="6" t="s">
-        <v>1413</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="3" ht="36" spans="1:1">
       <c r="A3" s="6" t="s">
-        <v>1414</v>
+        <v>1422</v>
       </c>
     </row>
     <row r="4" ht="409.5" spans="1:1">
       <c r="A4" s="6" t="s">
-        <v>1415</v>
+        <v>1423</v>
       </c>
     </row>
     <row r="6" ht="72" spans="1:1">
       <c r="A6" s="6" t="s">
-        <v>1416</v>
+        <v>1424</v>
       </c>
     </row>
     <row r="7" ht="54" spans="1:1">
       <c r="A7" s="6" t="s">
-        <v>1417</v>
+        <v>1425</v>
       </c>
     </row>
   </sheetData>
@@ -8200,10 +8233,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:I385"/>
+  <dimension ref="A1:I391"/>
   <sheetViews>
-    <sheetView topLeftCell="A377" workbookViewId="0">
-      <selection activeCell="A388" sqref="A388"/>
+    <sheetView tabSelected="1" topLeftCell="A381" workbookViewId="0">
+      <selection activeCell="B392" sqref="B392"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20.25"/>
@@ -9988,7 +10021,7 @@
       </c>
     </row>
     <row r="265" spans="3:3">
-      <c r="C265" s="115" t="s">
+      <c r="C265" s="116" t="s">
         <v>367</v>
       </c>
     </row>
@@ -10490,7 +10523,7 @@
       <c r="B340" s="108" t="s">
         <v>8</v>
       </c>
-      <c r="C340" s="115" t="s">
+      <c r="C340" s="116" t="s">
         <v>455</v>
       </c>
     </row>
@@ -10804,6 +10837,54 @@
       </c>
       <c r="C385" s="109" t="s">
         <v>503</v>
+      </c>
+    </row>
+    <row r="386" spans="2:3">
+      <c r="B386" s="108" t="s">
+        <v>504</v>
+      </c>
+      <c r="C386" s="109" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="387" spans="2:3">
+      <c r="B387" s="108" t="s">
+        <v>506</v>
+      </c>
+      <c r="C387" s="109" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="388" spans="2:3">
+      <c r="B388" s="108" t="s">
+        <v>508</v>
+      </c>
+      <c r="C388" s="109" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="389" spans="2:3">
+      <c r="B389" s="108" t="s">
+        <v>510</v>
+      </c>
+      <c r="C389" s="109" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="390" spans="2:3">
+      <c r="B390" s="115" t="s">
+        <v>105</v>
+      </c>
+      <c r="C390" s="109" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="391" spans="2:3">
+      <c r="B391" s="115" t="s">
+        <v>53</v>
+      </c>
+      <c r="C391" s="109" t="s">
+        <v>513</v>
       </c>
     </row>
   </sheetData>
@@ -10839,15 +10920,15 @@
   <sheetData>
     <row r="1" ht="25" customHeight="1" spans="1:3">
       <c r="A1" s="96" t="s">
-        <v>504</v>
+        <v>514</v>
       </c>
       <c r="C1" s="98" t="s">
-        <v>505</v>
+        <v>515</v>
       </c>
     </row>
     <row r="2" spans="2:7">
       <c r="B2" s="99" t="s">
-        <v>506</v>
+        <v>516</v>
       </c>
       <c r="C2" s="100"/>
       <c r="D2" s="100"/>
@@ -10857,47 +10938,47 @@
     </row>
     <row r="3" spans="2:2">
       <c r="B3" s="101" t="s">
-        <v>507</v>
+        <v>517</v>
       </c>
     </row>
     <row r="4" ht="20" customHeight="1" spans="3:3">
       <c r="C4" s="102" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
     </row>
     <row r="5" ht="48" customHeight="1" spans="3:3">
       <c r="C5" s="103" t="s">
-        <v>509</v>
+        <v>519</v>
       </c>
     </row>
     <row r="6" ht="20" customHeight="1" spans="3:3">
       <c r="C6" s="102" t="s">
-        <v>510</v>
+        <v>520</v>
       </c>
     </row>
     <row r="7" ht="58" customHeight="1" spans="3:3">
       <c r="C7" s="103" t="s">
-        <v>511</v>
+        <v>521</v>
       </c>
     </row>
     <row r="8" ht="21" customHeight="1" spans="3:3">
       <c r="C8" s="102" t="s">
-        <v>512</v>
+        <v>522</v>
       </c>
     </row>
     <row r="9" ht="33" customHeight="1" spans="3:3">
       <c r="C9" s="103" t="s">
-        <v>513</v>
+        <v>523</v>
       </c>
     </row>
     <row r="10" ht="21" customHeight="1" spans="3:3">
       <c r="C10" s="102" t="s">
-        <v>514</v>
+        <v>524</v>
       </c>
     </row>
     <row r="11" ht="43" customHeight="1" spans="3:3">
       <c r="C11" s="103" t="s">
-        <v>515</v>
+        <v>525</v>
       </c>
     </row>
     <row r="12" ht="24" customHeight="1" spans="3:3">
@@ -10905,12 +10986,12 @@
     </row>
     <row r="13" ht="25" customHeight="1" spans="1:1">
       <c r="A13" s="96" t="s">
-        <v>516</v>
+        <v>526</v>
       </c>
     </row>
     <row r="14" ht="50" customHeight="1" spans="2:7">
       <c r="B14" s="104" t="s">
-        <v>517</v>
+        <v>527</v>
       </c>
       <c r="C14" s="45"/>
       <c r="D14" s="45"/>
@@ -10920,7 +11001,7 @@
     </row>
     <row r="15" ht="50" customHeight="1" spans="2:7">
       <c r="B15" s="104" t="s">
-        <v>518</v>
+        <v>528</v>
       </c>
       <c r="C15" s="45"/>
       <c r="D15" s="45"/>
@@ -10930,15 +11011,15 @@
     </row>
     <row r="16" ht="25" customHeight="1" spans="1:3">
       <c r="A16" s="96" t="s">
-        <v>519</v>
+        <v>529</v>
       </c>
       <c r="C16" s="98" t="s">
-        <v>520</v>
+        <v>530</v>
       </c>
     </row>
     <row r="17" ht="51" customHeight="1" spans="2:7">
       <c r="B17" s="104" t="s">
-        <v>521</v>
+        <v>531</v>
       </c>
       <c r="C17" s="45"/>
       <c r="D17" s="45"/>
@@ -10948,7 +11029,7 @@
     </row>
     <row r="18" ht="40" customHeight="1" spans="2:7">
       <c r="B18" s="104" t="s">
-        <v>522</v>
+        <v>532</v>
       </c>
       <c r="C18" s="45"/>
       <c r="D18" s="45"/>
@@ -10958,7 +11039,7 @@
     </row>
     <row r="19" spans="2:7">
       <c r="B19" s="99" t="s">
-        <v>523</v>
+        <v>533</v>
       </c>
       <c r="C19" s="100"/>
       <c r="D19" s="100"/>
@@ -10968,7 +11049,7 @@
     </row>
     <row r="20" spans="2:7">
       <c r="B20" s="99" t="s">
-        <v>524</v>
+        <v>534</v>
       </c>
       <c r="C20" s="100"/>
       <c r="D20" s="100"/>
@@ -10978,11 +11059,11 @@
     </row>
     <row r="22" ht="22" customHeight="1" spans="1:7">
       <c r="A22" s="96" t="s">
-        <v>525</v>
+        <v>535</v>
       </c>
       <c r="B22"/>
       <c r="C22" s="105" t="s">
-        <v>526</v>
+        <v>536</v>
       </c>
       <c r="D22"/>
       <c r="E22"/>
@@ -10992,7 +11073,7 @@
     <row r="23" ht="90" customHeight="1" spans="2:7">
       <c r="B23"/>
       <c r="C23" s="106" t="s">
-        <v>527</v>
+        <v>537</v>
       </c>
       <c r="D23"/>
       <c r="E23"/>
@@ -11020,7 +11101,7 @@
   <sheetPr/>
   <dimension ref="A1:O115"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A13" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" topLeftCell="A19" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection/>
       <selection pane="topRight" activeCell="B18" sqref="B18"/>
@@ -11039,13 +11120,13 @@
   <sheetData>
     <row r="1" spans="1:14">
       <c r="A1" s="68" t="s">
-        <v>528</v>
+        <v>538</v>
       </c>
       <c r="B1" s="72" t="s">
-        <v>529</v>
+        <v>539</v>
       </c>
       <c r="C1" s="73" t="s">
-        <v>530</v>
+        <v>540</v>
       </c>
       <c r="D1" s="73"/>
       <c r="E1" s="73"/>
@@ -11061,17 +11142,17 @@
     </row>
     <row r="2" spans="2:2">
       <c r="B2" s="69" t="s">
-        <v>531</v>
+        <v>541</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="68" t="s">
-        <v>532</v>
+        <v>542</v>
       </c>
     </row>
     <row r="5" spans="2:14">
       <c r="B5" s="74" t="s">
-        <v>533</v>
+        <v>543</v>
       </c>
       <c r="C5" s="73"/>
       <c r="D5" s="73"/>
@@ -11088,7 +11169,7 @@
     </row>
     <row r="6" spans="2:14">
       <c r="B6" s="74" t="s">
-        <v>534</v>
+        <v>544</v>
       </c>
       <c r="C6" s="73"/>
       <c r="D6" s="73"/>
@@ -11105,7 +11186,7 @@
     </row>
     <row r="7" spans="2:14">
       <c r="B7" s="74" t="s">
-        <v>535</v>
+        <v>545</v>
       </c>
       <c r="C7" s="73"/>
       <c r="D7" s="73"/>
@@ -11122,7 +11203,7 @@
     </row>
     <row r="8" spans="2:14">
       <c r="B8" s="75" t="s">
-        <v>536</v>
+        <v>546</v>
       </c>
       <c r="C8" s="76"/>
       <c r="D8" s="76"/>
@@ -11139,10 +11220,10 @@
     </row>
     <row r="9" spans="2:14">
       <c r="B9" s="77" t="s">
-        <v>537</v>
+        <v>547</v>
       </c>
       <c r="C9" s="40" t="s">
-        <v>538</v>
+        <v>548</v>
       </c>
       <c r="D9" s="40"/>
       <c r="E9" s="40"/>
@@ -11158,7 +11239,7 @@
     </row>
     <row r="10" spans="2:14">
       <c r="B10" s="74" t="s">
-        <v>539</v>
+        <v>549</v>
       </c>
       <c r="C10" s="73"/>
       <c r="D10" s="73"/>
@@ -11176,7 +11257,7 @@
     <row r="11" spans="2:14">
       <c r="B11" s="74"/>
       <c r="C11" s="73" t="s">
-        <v>540</v>
+        <v>550</v>
       </c>
       <c r="D11" s="73"/>
       <c r="E11" s="73"/>
@@ -11192,7 +11273,7 @@
     </row>
     <row r="12" spans="2:14">
       <c r="B12" s="74" t="s">
-        <v>541</v>
+        <v>551</v>
       </c>
       <c r="C12" s="73"/>
       <c r="D12" s="73"/>
@@ -11209,8 +11290,8 @@
     </row>
     <row r="13" ht="39" customHeight="1" spans="2:14">
       <c r="B13" s="74"/>
-      <c r="C13" s="116" t="s">
-        <v>542</v>
+      <c r="C13" s="117" t="s">
+        <v>552</v>
       </c>
       <c r="D13" s="73"/>
       <c r="E13" s="73"/>
@@ -11226,10 +11307,10 @@
     </row>
     <row r="14" ht="42" customHeight="1" spans="2:14">
       <c r="B14" s="74" t="s">
-        <v>543</v>
+        <v>553</v>
       </c>
       <c r="C14" s="78" t="s">
-        <v>544</v>
+        <v>554</v>
       </c>
       <c r="D14" s="78"/>
       <c r="E14" s="78"/>
@@ -11245,10 +11326,10 @@
     </row>
     <row r="16" ht="34" customHeight="1" spans="1:14">
       <c r="A16" s="68" t="s">
-        <v>545</v>
+        <v>555</v>
       </c>
       <c r="B16" s="79" t="s">
-        <v>546</v>
+        <v>556</v>
       </c>
       <c r="C16" s="80"/>
       <c r="D16" s="73"/>
@@ -11265,7 +11346,7 @@
     </row>
     <row r="17" ht="39" customHeight="1" spans="2:14">
       <c r="B17" s="77" t="s">
-        <v>547</v>
+        <v>557</v>
       </c>
       <c r="C17" s="78"/>
       <c r="D17" s="78"/>
@@ -11282,12 +11363,12 @@
     </row>
     <row r="18" spans="2:2">
       <c r="B18" s="79" t="s">
-        <v>548</v>
+        <v>558</v>
       </c>
     </row>
     <row r="19" ht="79" customHeight="1" spans="3:14">
       <c r="C19" s="78" t="s">
-        <v>549</v>
+        <v>559</v>
       </c>
       <c r="D19" s="78"/>
       <c r="E19" s="78"/>
@@ -11303,12 +11384,12 @@
     </row>
     <row r="20" ht="25" customHeight="1" spans="2:2">
       <c r="B20" s="79" t="s">
-        <v>550</v>
+        <v>560</v>
       </c>
     </row>
     <row r="21" ht="58" customHeight="1" spans="3:14">
       <c r="C21" s="78" t="s">
-        <v>551</v>
+        <v>561</v>
       </c>
       <c r="D21" s="78"/>
       <c r="E21" s="78"/>
@@ -11324,12 +11405,12 @@
     </row>
     <row r="22" spans="2:2">
       <c r="B22" s="79" t="s">
-        <v>552</v>
+        <v>562</v>
       </c>
     </row>
     <row r="23" ht="78" customHeight="1" spans="3:14">
       <c r="C23" s="78" t="s">
-        <v>553</v>
+        <v>563</v>
       </c>
       <c r="D23" s="78"/>
       <c r="E23" s="78"/>
@@ -11345,7 +11426,7 @@
     </row>
     <row r="24" spans="2:14">
       <c r="B24" s="74" t="s">
-        <v>554</v>
+        <v>564</v>
       </c>
       <c r="C24" s="73"/>
       <c r="D24" s="73"/>
@@ -11362,7 +11443,7 @@
     </row>
     <row r="25" spans="2:14">
       <c r="B25" s="74" t="s">
-        <v>555</v>
+        <v>565</v>
       </c>
       <c r="C25" s="74"/>
       <c r="D25" s="74"/>
@@ -11439,18 +11520,18 @@
     </row>
     <row r="30" ht="19" customHeight="1" spans="1:3">
       <c r="A30" s="68" t="s">
-        <v>556</v>
+        <v>566</v>
       </c>
       <c r="B30" s="79" t="s">
-        <v>557</v>
+        <v>567</v>
       </c>
       <c r="C30" s="81" t="s">
-        <v>558</v>
+        <v>568</v>
       </c>
     </row>
     <row r="31" ht="71" customHeight="1" spans="2:15">
       <c r="B31" s="82" t="s">
-        <v>559</v>
+        <v>569</v>
       </c>
       <c r="C31" s="82"/>
       <c r="D31" s="82"/>
@@ -11468,7 +11549,7 @@
     </row>
     <row r="32" spans="2:14">
       <c r="B32" s="83" t="s">
-        <v>560</v>
+        <v>570</v>
       </c>
       <c r="C32" s="84"/>
       <c r="D32" s="84"/>
@@ -11485,12 +11566,12 @@
     </row>
     <row r="34" spans="1:1">
       <c r="A34" s="68" t="s">
-        <v>561</v>
+        <v>571</v>
       </c>
     </row>
     <row r="35" ht="60" customHeight="1" spans="2:15">
       <c r="B35" s="77" t="s">
-        <v>562</v>
+        <v>572</v>
       </c>
       <c r="C35" s="78"/>
       <c r="D35" s="78"/>
@@ -11508,7 +11589,7 @@
     </row>
     <row r="36" ht="55" customHeight="1" spans="2:15">
       <c r="B36" s="77" t="s">
-        <v>563</v>
+        <v>573</v>
       </c>
       <c r="C36" s="78"/>
       <c r="D36" s="78"/>
@@ -11526,7 +11607,7 @@
     </row>
     <row r="37" ht="20" customHeight="1" spans="2:15">
       <c r="B37" s="74" t="s">
-        <v>564</v>
+        <v>574</v>
       </c>
       <c r="C37" s="73"/>
       <c r="D37" s="73"/>
@@ -11544,17 +11625,17 @@
     </row>
     <row r="38" ht="21" customHeight="1" spans="2:3">
       <c r="B38" s="85" t="s">
-        <v>565</v>
+        <v>575</v>
       </c>
       <c r="C38" s="81"/>
     </row>
     <row r="39" ht="54" customHeight="1" spans="2:14">
       <c r="B39" s="85"/>
       <c r="C39" s="81" t="s">
-        <v>566</v>
+        <v>576</v>
       </c>
       <c r="D39" s="78" t="s">
-        <v>567</v>
+        <v>577</v>
       </c>
       <c r="E39" s="78"/>
       <c r="F39" s="78"/>
@@ -11570,16 +11651,16 @@
     <row r="40" ht="21" customHeight="1" spans="2:3">
       <c r="B40" s="85"/>
       <c r="C40" s="81" t="s">
-        <v>568</v>
+        <v>578</v>
       </c>
     </row>
     <row r="41" ht="72" customHeight="1" spans="2:14">
       <c r="B41" s="85"/>
       <c r="C41" s="81" t="s">
-        <v>569</v>
+        <v>579</v>
       </c>
       <c r="D41" s="78" t="s">
-        <v>570</v>
+        <v>580</v>
       </c>
       <c r="E41" s="78"/>
       <c r="F41" s="78"/>
@@ -11595,10 +11676,10 @@
     <row r="42" ht="39" customHeight="1" spans="2:14">
       <c r="B42" s="85"/>
       <c r="C42" s="81" t="s">
-        <v>571</v>
+        <v>581</v>
       </c>
       <c r="D42" s="78" t="s">
-        <v>572</v>
+        <v>582</v>
       </c>
       <c r="E42" s="73"/>
       <c r="F42" s="73"/>
@@ -11614,7 +11695,7 @@
     <row r="43" ht="21" customHeight="1" spans="2:4">
       <c r="B43" s="85"/>
       <c r="C43" s="81" t="s">
-        <v>573</v>
+        <v>583</v>
       </c>
       <c r="D43" s="81"/>
     </row>
@@ -11622,7 +11703,7 @@
       <c r="B44" s="85"/>
       <c r="C44" s="81"/>
       <c r="D44" s="80" t="s">
-        <v>574</v>
+        <v>584</v>
       </c>
       <c r="E44" s="78"/>
       <c r="F44" s="78"/>
@@ -11639,7 +11720,7 @@
       <c r="B45" s="85"/>
       <c r="C45" s="81"/>
       <c r="D45" s="86" t="s">
-        <v>575</v>
+        <v>585</v>
       </c>
       <c r="E45" s="86"/>
       <c r="F45" s="86"/>
@@ -11654,7 +11735,7 @@
     </row>
     <row r="46" spans="2:15">
       <c r="B46" s="74" t="s">
-        <v>576</v>
+        <v>586</v>
       </c>
       <c r="C46" s="73"/>
       <c r="D46" s="73"/>
@@ -11672,11 +11753,11 @@
     </row>
     <row r="47" spans="2:14">
       <c r="B47" s="74" t="s">
-        <v>577</v>
+        <v>587</v>
       </c>
       <c r="C47" s="73"/>
       <c r="D47" s="73" t="s">
-        <v>578</v>
+        <v>588</v>
       </c>
       <c r="E47" s="73"/>
       <c r="F47" s="73"/>
@@ -11691,12 +11772,12 @@
     </row>
     <row r="49" spans="1:1">
       <c r="A49" s="68" t="s">
-        <v>579</v>
+        <v>589</v>
       </c>
     </row>
     <row r="50" ht="81" customHeight="1" spans="2:14">
       <c r="B50" s="77" t="s">
-        <v>580</v>
+        <v>590</v>
       </c>
       <c r="C50" s="78"/>
       <c r="D50" s="78"/>
@@ -11713,12 +11794,12 @@
     </row>
     <row r="51" spans="2:2">
       <c r="B51" s="79" t="s">
-        <v>581</v>
+        <v>591</v>
       </c>
     </row>
     <row r="52" ht="33" customHeight="1" spans="3:14">
       <c r="C52" s="78" t="s">
-        <v>582</v>
+        <v>592</v>
       </c>
       <c r="D52" s="78"/>
       <c r="E52" s="78"/>
@@ -11734,12 +11815,12 @@
     </row>
     <row r="53" spans="2:2">
       <c r="B53" s="79" t="s">
-        <v>583</v>
+        <v>593</v>
       </c>
     </row>
     <row r="54" ht="36" customHeight="1" spans="3:14">
       <c r="C54" s="78" t="s">
-        <v>584</v>
+        <v>594</v>
       </c>
       <c r="D54" s="78"/>
       <c r="E54" s="78"/>
@@ -11755,7 +11836,7 @@
     </row>
     <row r="55" ht="19" customHeight="1" spans="2:14">
       <c r="B55" s="79" t="s">
-        <v>585</v>
+        <v>595</v>
       </c>
       <c r="C55" s="78"/>
       <c r="D55" s="78"/>
@@ -11772,7 +11853,7 @@
     </row>
     <row r="56" ht="103" customHeight="1" spans="3:14">
       <c r="C56" s="78" t="s">
-        <v>586</v>
+        <v>596</v>
       </c>
       <c r="D56" s="78"/>
       <c r="E56" s="78"/>
@@ -11788,7 +11869,7 @@
     </row>
     <row r="57" ht="23" customHeight="1" spans="2:14">
       <c r="B57" s="79" t="s">
-        <v>587</v>
+        <v>597</v>
       </c>
       <c r="C57" s="78"/>
       <c r="D57" s="78"/>
@@ -11805,7 +11886,7 @@
     </row>
     <row r="58" ht="41" customHeight="1" spans="3:14">
       <c r="C58" s="78" t="s">
-        <v>588</v>
+        <v>598</v>
       </c>
       <c r="D58" s="78"/>
       <c r="E58" s="78"/>
@@ -11821,7 +11902,7 @@
     </row>
     <row r="59" ht="23" customHeight="1" spans="2:14">
       <c r="B59" s="79" t="s">
-        <v>589</v>
+        <v>599</v>
       </c>
       <c r="C59" s="78"/>
       <c r="D59" s="78"/>
@@ -11838,7 +11919,7 @@
     </row>
     <row r="60" ht="57" customHeight="1" spans="3:14">
       <c r="C60" s="78" t="s">
-        <v>590</v>
+        <v>600</v>
       </c>
       <c r="D60" s="78"/>
       <c r="E60" s="78"/>
@@ -11854,11 +11935,11 @@
     </row>
     <row r="61" ht="27" customHeight="1" spans="2:14">
       <c r="B61" s="79" t="s">
-        <v>591</v>
+        <v>601</v>
       </c>
       <c r="C61" s="78"/>
       <c r="D61" s="78" t="s">
-        <v>592</v>
+        <v>602</v>
       </c>
       <c r="E61" s="78"/>
       <c r="F61" s="78"/>
@@ -11873,7 +11954,7 @@
     </row>
     <row r="62" ht="41" customHeight="1" spans="3:14">
       <c r="C62" s="78" t="s">
-        <v>593</v>
+        <v>603</v>
       </c>
       <c r="D62" s="78"/>
       <c r="E62" s="78"/>
@@ -11889,10 +11970,10 @@
     </row>
     <row r="63" ht="26" customHeight="1" spans="2:14">
       <c r="B63" s="79" t="s">
-        <v>594</v>
+        <v>604</v>
       </c>
       <c r="C63" s="78" t="s">
-        <v>595</v>
+        <v>605</v>
       </c>
       <c r="D63" s="78"/>
       <c r="E63" s="78"/>
@@ -11908,7 +11989,7 @@
     </row>
     <row r="64" ht="25" customHeight="1" spans="2:14">
       <c r="B64" s="79" t="s">
-        <v>596</v>
+        <v>606</v>
       </c>
       <c r="C64" s="78"/>
       <c r="D64" s="78"/>
@@ -11926,10 +12007,10 @@
     <row r="65" ht="25" customHeight="1" spans="2:14">
       <c r="B65" s="79"/>
       <c r="C65" s="86" t="s">
-        <v>597</v>
+        <v>607</v>
       </c>
       <c r="D65" s="78" t="s">
-        <v>598</v>
+        <v>608</v>
       </c>
       <c r="E65" s="78"/>
       <c r="F65" s="78"/>
@@ -11945,10 +12026,10 @@
     <row r="66" ht="25" customHeight="1" spans="2:14">
       <c r="B66" s="79"/>
       <c r="C66" s="90" t="s">
-        <v>599</v>
+        <v>609</v>
       </c>
       <c r="D66" s="78" t="s">
-        <v>600</v>
+        <v>610</v>
       </c>
       <c r="E66" s="78"/>
       <c r="F66" s="78"/>
@@ -11965,7 +12046,7 @@
       <c r="B67" s="79"/>
       <c r="C67" s="78"/>
       <c r="D67" s="78" t="s">
-        <v>601</v>
+        <v>611</v>
       </c>
       <c r="E67" s="78"/>
       <c r="F67" s="78"/>
@@ -11994,12 +12075,12 @@
     </row>
     <row r="70" spans="1:1">
       <c r="A70" s="68" t="s">
-        <v>602</v>
+        <v>612</v>
       </c>
     </row>
     <row r="71" ht="54" customHeight="1" spans="2:14">
       <c r="B71" s="77" t="s">
-        <v>603</v>
+        <v>613</v>
       </c>
       <c r="C71" s="73"/>
       <c r="D71" s="73"/>
@@ -12017,7 +12098,7 @@
     <row r="72" ht="26" customHeight="1" spans="2:14">
       <c r="B72" s="77"/>
       <c r="C72" s="73" t="s">
-        <v>604</v>
+        <v>614</v>
       </c>
       <c r="D72" s="73"/>
       <c r="E72" s="73"/>
@@ -12034,7 +12115,7 @@
     <row r="73" ht="25" customHeight="1" spans="2:14">
       <c r="B73" s="77"/>
       <c r="C73" s="73" t="s">
-        <v>605</v>
+        <v>615</v>
       </c>
       <c r="D73" s="73"/>
       <c r="E73" s="73"/>
@@ -12051,7 +12132,7 @@
     <row r="74" ht="312" customHeight="1" spans="2:14">
       <c r="B74" s="77"/>
       <c r="C74" s="78" t="s">
-        <v>606</v>
+        <v>616</v>
       </c>
       <c r="D74" s="73"/>
       <c r="E74" s="73"/>
@@ -12068,7 +12149,7 @@
     <row r="75" ht="26" customHeight="1" spans="2:14">
       <c r="B75" s="77"/>
       <c r="C75" s="73" t="s">
-        <v>607</v>
+        <v>617</v>
       </c>
       <c r="D75" s="73"/>
       <c r="E75" s="73"/>
@@ -12084,7 +12165,7 @@
     </row>
     <row r="76" ht="36" customHeight="1" spans="2:14">
       <c r="B76" s="91" t="s">
-        <v>608</v>
+        <v>618</v>
       </c>
       <c r="C76" s="73"/>
       <c r="D76" s="73"/>
@@ -12102,7 +12183,7 @@
     <row r="77" ht="26" customHeight="1" spans="2:14">
       <c r="B77" s="77"/>
       <c r="C77" s="73" t="s">
-        <v>609</v>
+        <v>619</v>
       </c>
       <c r="D77" s="73"/>
       <c r="E77" s="73"/>
@@ -12178,7 +12259,7 @@
     </row>
     <row r="83" spans="1:14">
       <c r="A83" s="92" t="s">
-        <v>610</v>
+        <v>620</v>
       </c>
       <c r="B83" s="49"/>
       <c r="C83" s="93"/>
@@ -12197,7 +12278,7 @@
     <row r="84" ht="72" customHeight="1" spans="1:14">
       <c r="A84" s="92"/>
       <c r="B84" s="94" t="s">
-        <v>611</v>
+        <v>621</v>
       </c>
       <c r="C84" s="95"/>
       <c r="D84" s="95"/>
@@ -12215,7 +12296,7 @@
     <row r="85" ht="72" customHeight="1" spans="1:14">
       <c r="A85" s="92"/>
       <c r="B85" s="94" t="s">
-        <v>612</v>
+        <v>622</v>
       </c>
       <c r="C85" s="94"/>
       <c r="D85" s="94"/>
@@ -12232,12 +12313,12 @@
     </row>
     <row r="86" spans="2:2">
       <c r="B86" s="69" t="s">
-        <v>613</v>
+        <v>623</v>
       </c>
     </row>
     <row r="87" ht="176" customHeight="1" spans="3:13">
       <c r="C87" s="78" t="s">
-        <v>614</v>
+        <v>624</v>
       </c>
       <c r="D87" s="78"/>
       <c r="E87" s="78"/>
@@ -12252,7 +12333,7 @@
     </row>
     <row r="88" ht="21" customHeight="1" spans="2:13">
       <c r="B88" s="69" t="s">
-        <v>615</v>
+        <v>625</v>
       </c>
       <c r="C88" s="78"/>
       <c r="D88" s="78"/>
@@ -12268,7 +12349,7 @@
     </row>
     <row r="89" ht="251" customHeight="1" spans="3:13">
       <c r="C89" s="78" t="s">
-        <v>616</v>
+        <v>626</v>
       </c>
       <c r="D89" s="78"/>
       <c r="E89" s="78"/>
@@ -12283,7 +12364,7 @@
     </row>
     <row r="90" ht="21" customHeight="1" spans="2:13">
       <c r="B90" s="69" t="s">
-        <v>617</v>
+        <v>627</v>
       </c>
       <c r="C90" s="78"/>
       <c r="D90" s="78"/>
@@ -12299,7 +12380,7 @@
     </row>
     <row r="91" ht="32" customHeight="1" spans="3:13">
       <c r="C91" s="78" t="s">
-        <v>618</v>
+        <v>628</v>
       </c>
       <c r="D91" s="78"/>
       <c r="E91" s="78"/>
@@ -12314,13 +12395,13 @@
     </row>
     <row r="92" ht="21" customHeight="1" spans="2:13">
       <c r="B92" s="69" t="s">
-        <v>619</v>
+        <v>629</v>
       </c>
       <c r="C92" s="78" t="s">
-        <v>620</v>
+        <v>508</v>
       </c>
       <c r="D92" s="78" t="s">
-        <v>621</v>
+        <v>630</v>
       </c>
       <c r="E92" s="78"/>
       <c r="F92" s="78"/>
@@ -12334,10 +12415,10 @@
     </row>
     <row r="93" ht="21" customHeight="1" spans="3:13">
       <c r="C93" s="78" t="s">
-        <v>622</v>
+        <v>510</v>
       </c>
       <c r="D93" s="78" t="s">
-        <v>623</v>
+        <v>631</v>
       </c>
       <c r="E93" s="78"/>
       <c r="F93" s="78"/>
@@ -12354,7 +12435,7 @@
         <v>200</v>
       </c>
       <c r="D94" s="78" t="s">
-        <v>624</v>
+        <v>632</v>
       </c>
       <c r="E94" s="78"/>
       <c r="F94" s="78"/>
@@ -12368,10 +12449,10 @@
     </row>
     <row r="95" ht="21" customHeight="1" spans="3:13">
       <c r="C95" s="78" t="s">
-        <v>625</v>
+        <v>633</v>
       </c>
       <c r="D95" s="78" t="s">
-        <v>626</v>
+        <v>634</v>
       </c>
       <c r="E95" s="78"/>
       <c r="F95" s="78"/>
@@ -12388,7 +12469,7 @@
         <v>442</v>
       </c>
       <c r="D96" s="78" t="s">
-        <v>627</v>
+        <v>635</v>
       </c>
       <c r="E96" s="78"/>
       <c r="F96" s="78"/>
@@ -12402,10 +12483,10 @@
     </row>
     <row r="97" ht="21" customHeight="1" spans="3:13">
       <c r="C97" s="78" t="s">
-        <v>628</v>
+        <v>636</v>
       </c>
       <c r="D97" s="78" t="s">
-        <v>629</v>
+        <v>637</v>
       </c>
       <c r="E97" s="78"/>
       <c r="F97" s="78"/>
@@ -12419,60 +12500,60 @@
     </row>
     <row r="98" spans="3:4">
       <c r="C98" s="70" t="s">
-        <v>630</v>
+        <v>638</v>
       </c>
       <c r="D98" s="70" t="s">
-        <v>631</v>
+        <v>639</v>
       </c>
     </row>
     <row r="99" spans="3:4">
       <c r="C99" s="70" t="s">
-        <v>632</v>
+        <v>640</v>
       </c>
       <c r="D99" s="70" t="s">
-        <v>633</v>
+        <v>641</v>
       </c>
     </row>
     <row r="100" spans="3:4">
       <c r="C100" s="70" t="s">
-        <v>634</v>
+        <v>642</v>
       </c>
       <c r="D100" s="70" t="s">
-        <v>635</v>
+        <v>643</v>
       </c>
     </row>
     <row r="101" spans="3:4">
       <c r="C101" s="70" t="s">
-        <v>636</v>
+        <v>644</v>
       </c>
       <c r="D101" s="70" t="s">
-        <v>637</v>
+        <v>645</v>
       </c>
     </row>
     <row r="102" spans="3:4">
       <c r="C102" s="70" t="s">
-        <v>638</v>
+        <v>646</v>
       </c>
       <c r="D102" s="70" t="s">
-        <v>639</v>
+        <v>647</v>
       </c>
     </row>
     <row r="103" spans="3:4">
       <c r="C103" s="70" t="s">
-        <v>640</v>
+        <v>648</v>
       </c>
       <c r="D103" s="70" t="s">
-        <v>641</v>
+        <v>649</v>
       </c>
     </row>
     <row r="105" spans="1:1">
       <c r="A105" s="68" t="s">
-        <v>642</v>
+        <v>650</v>
       </c>
     </row>
     <row r="106" spans="2:14">
       <c r="B106" s="77" t="s">
-        <v>643</v>
+        <v>651</v>
       </c>
       <c r="C106" s="78"/>
       <c r="D106" s="78"/>
@@ -12489,12 +12570,12 @@
     </row>
     <row r="108" spans="1:1">
       <c r="A108" s="68" t="s">
-        <v>644</v>
+        <v>652</v>
       </c>
     </row>
     <row r="109" ht="54" customHeight="1" spans="2:14">
       <c r="B109" s="77" t="s">
-        <v>645</v>
+        <v>653</v>
       </c>
       <c r="C109" s="78"/>
       <c r="D109" s="78"/>
@@ -12511,12 +12592,12 @@
     </row>
     <row r="110" ht="21" customHeight="1" spans="2:2">
       <c r="B110" s="79" t="s">
-        <v>646</v>
+        <v>654</v>
       </c>
     </row>
     <row r="111" ht="120" customHeight="1" spans="3:14">
-      <c r="C111" s="116" t="s">
-        <v>647</v>
+      <c r="C111" s="117" t="s">
+        <v>655</v>
       </c>
       <c r="D111" s="78"/>
       <c r="E111" s="78"/>
@@ -12532,12 +12613,12 @@
     </row>
     <row r="112" spans="2:2">
       <c r="B112" s="79" t="s">
-        <v>648</v>
+        <v>656</v>
       </c>
     </row>
     <row r="113" ht="31" customHeight="1" spans="3:14">
       <c r="C113" s="78" t="s">
-        <v>649</v>
+        <v>657</v>
       </c>
       <c r="D113" s="78"/>
       <c r="E113" s="78"/>
@@ -12553,12 +12634,12 @@
     </row>
     <row r="114" spans="2:2">
       <c r="B114" s="79" t="s">
-        <v>650</v>
+        <v>658</v>
       </c>
     </row>
     <row r="115" spans="3:14">
       <c r="C115" s="73" t="s">
-        <v>651</v>
+        <v>659</v>
       </c>
       <c r="D115" s="73"/>
       <c r="E115" s="73"/>
@@ -12659,12 +12740,12 @@
   <sheetData>
     <row r="1" customHeight="1" spans="1:1">
       <c r="A1" s="60" t="s">
-        <v>652</v>
+        <v>660</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="2:14">
       <c r="B2" s="31" t="s">
-        <v>653</v>
+        <v>661</v>
       </c>
       <c r="C2" s="29"/>
       <c r="D2" s="29"/>
@@ -12681,7 +12762,7 @@
     </row>
     <row r="3" ht="57" customHeight="1" spans="2:14">
       <c r="B3" s="31" t="s">
-        <v>654</v>
+        <v>662</v>
       </c>
       <c r="C3" s="29"/>
       <c r="D3" s="29"/>
@@ -12698,7 +12779,7 @@
     </row>
     <row r="4" customHeight="1" spans="2:14">
       <c r="B4" s="31" t="s">
-        <v>655</v>
+        <v>663</v>
       </c>
       <c r="C4" s="29"/>
       <c r="D4" s="29"/>
@@ -12715,7 +12796,7 @@
     </row>
     <row r="5" customHeight="1" spans="2:14">
       <c r="B5" s="61" t="s">
-        <v>656</v>
+        <v>664</v>
       </c>
       <c r="C5" s="30"/>
       <c r="D5" s="30"/>
@@ -12732,10 +12813,10 @@
     </row>
     <row r="6" ht="45" customHeight="1" spans="2:14">
       <c r="B6" s="62" t="s">
-        <v>657</v>
+        <v>665</v>
       </c>
       <c r="C6" s="29" t="s">
-        <v>658</v>
+        <v>666</v>
       </c>
       <c r="D6" s="30"/>
       <c r="E6" s="30"/>
@@ -12751,10 +12832,10 @@
     </row>
     <row r="7" customHeight="1" spans="2:14">
       <c r="B7" s="62" t="s">
-        <v>659</v>
+        <v>667</v>
       </c>
       <c r="C7" s="29" t="s">
-        <v>660</v>
+        <v>668</v>
       </c>
       <c r="D7" s="30"/>
       <c r="E7" s="30"/>
@@ -12771,7 +12852,7 @@
     <row r="8" ht="70" customHeight="1" spans="2:14">
       <c r="B8" s="61"/>
       <c r="C8" s="33" t="s">
-        <v>661</v>
+        <v>669</v>
       </c>
       <c r="D8" s="33"/>
       <c r="E8" s="33"/>
@@ -12787,10 +12868,10 @@
     </row>
     <row r="9" customHeight="1" spans="2:14">
       <c r="B9" s="62" t="s">
-        <v>662</v>
+        <v>670</v>
       </c>
       <c r="C9" s="30" t="s">
-        <v>663</v>
+        <v>671</v>
       </c>
       <c r="D9" s="30"/>
       <c r="E9" s="30"/>
@@ -12807,7 +12888,7 @@
     <row r="10" ht="70" customHeight="1" spans="2:14">
       <c r="B10" s="61"/>
       <c r="C10" s="33" t="s">
-        <v>664</v>
+        <v>672</v>
       </c>
       <c r="D10" s="33"/>
       <c r="E10" s="33"/>
@@ -12823,11 +12904,11 @@
     </row>
     <row r="11" ht="38" customHeight="1" spans="2:14">
       <c r="B11" s="62" t="s">
-        <v>665</v>
+        <v>673</v>
       </c>
       <c r="C11" s="30"/>
       <c r="D11" s="29" t="s">
-        <v>666</v>
+        <v>674</v>
       </c>
       <c r="E11" s="30"/>
       <c r="F11" s="30"/>
@@ -12843,7 +12924,7 @@
     <row r="12" ht="142" customHeight="1" spans="2:14">
       <c r="B12" s="61"/>
       <c r="C12" s="33" t="s">
-        <v>667</v>
+        <v>675</v>
       </c>
       <c r="D12" s="33"/>
       <c r="E12" s="33"/>
@@ -12859,11 +12940,11 @@
     </row>
     <row r="13" ht="22" customHeight="1" spans="2:14">
       <c r="B13" s="62" t="s">
-        <v>668</v>
+        <v>676</v>
       </c>
       <c r="C13" s="30"/>
       <c r="D13" s="33" t="s">
-        <v>669</v>
+        <v>677</v>
       </c>
       <c r="E13" s="50"/>
       <c r="F13" s="50"/>
@@ -12879,7 +12960,7 @@
     <row r="14" ht="156" customHeight="1" spans="2:14">
       <c r="B14" s="62"/>
       <c r="C14" s="33" t="s">
-        <v>670</v>
+        <v>678</v>
       </c>
       <c r="D14" s="33"/>
       <c r="E14" s="33"/>
@@ -12895,12 +12976,12 @@
     </row>
     <row r="16" customHeight="1" spans="1:1">
       <c r="A16" s="60" t="s">
-        <v>671</v>
+        <v>679</v>
       </c>
     </row>
     <row r="17" ht="54" customHeight="1" spans="2:14">
       <c r="B17" s="31" t="s">
-        <v>672</v>
+        <v>680</v>
       </c>
       <c r="C17" s="29"/>
       <c r="D17" s="29"/>
@@ -12917,7 +12998,7 @@
     </row>
     <row r="18" ht="49" customHeight="1" spans="2:14">
       <c r="B18" s="31" t="s">
-        <v>673</v>
+        <v>681</v>
       </c>
       <c r="C18" s="29"/>
       <c r="D18" s="29"/>
@@ -12934,7 +13015,7 @@
     </row>
     <row r="19" customHeight="1" spans="2:14">
       <c r="B19" s="61" t="s">
-        <v>656</v>
+        <v>664</v>
       </c>
       <c r="C19" s="30"/>
       <c r="D19" s="30"/>
@@ -12951,7 +13032,7 @@
     </row>
     <row r="20" customHeight="1" spans="2:14">
       <c r="B20" s="63" t="s">
-        <v>674</v>
+        <v>682</v>
       </c>
       <c r="C20" s="30"/>
       <c r="D20" s="30"/>
@@ -12969,7 +13050,7 @@
     <row r="21" ht="42" customHeight="1" spans="2:14">
       <c r="B21" s="61"/>
       <c r="C21" s="29" t="s">
-        <v>675</v>
+        <v>683</v>
       </c>
       <c r="D21" s="30"/>
       <c r="E21" s="30"/>
@@ -12985,7 +13066,7 @@
     </row>
     <row r="22" customHeight="1" spans="2:14">
       <c r="B22" s="62" t="s">
-        <v>676</v>
+        <v>684</v>
       </c>
       <c r="C22" s="30"/>
       <c r="D22" s="30"/>
@@ -13003,7 +13084,7 @@
     <row r="23" ht="84" customHeight="1" spans="2:14">
       <c r="B23" s="61"/>
       <c r="C23" s="29" t="s">
-        <v>677</v>
+        <v>685</v>
       </c>
       <c r="D23" s="30"/>
       <c r="E23" s="30"/>
@@ -13019,7 +13100,7 @@
     </row>
     <row r="24" customHeight="1" spans="2:14">
       <c r="B24" s="61" t="s">
-        <v>678</v>
+        <v>686</v>
       </c>
       <c r="C24" s="30"/>
       <c r="D24" s="30"/>
@@ -13037,7 +13118,7 @@
     <row r="25" ht="52" customHeight="1" spans="2:14">
       <c r="B25" s="61"/>
       <c r="C25" s="29" t="s">
-        <v>679</v>
+        <v>687</v>
       </c>
       <c r="D25" s="29"/>
       <c r="E25" s="29"/>
@@ -13054,7 +13135,7 @@
     <row r="26" ht="169" customHeight="1" spans="2:14">
       <c r="B26" s="61"/>
       <c r="C26" s="29" t="s">
-        <v>680</v>
+        <v>688</v>
       </c>
       <c r="D26" s="29"/>
       <c r="E26" s="29"/>
@@ -13070,7 +13151,7 @@
     </row>
     <row r="27" customHeight="1" spans="2:14">
       <c r="B27" s="62" t="s">
-        <v>681</v>
+        <v>689</v>
       </c>
       <c r="C27" s="30"/>
       <c r="D27" s="30"/>
@@ -13088,7 +13169,7 @@
     <row r="28" ht="73" customHeight="1" spans="2:14">
       <c r="B28" s="61"/>
       <c r="C28" s="29" t="s">
-        <v>682</v>
+        <v>690</v>
       </c>
       <c r="D28" s="30"/>
       <c r="E28" s="30"/>
@@ -13104,7 +13185,7 @@
     </row>
     <row r="29" customHeight="1" spans="2:14">
       <c r="B29" s="62" t="s">
-        <v>659</v>
+        <v>667</v>
       </c>
       <c r="C29" s="30"/>
       <c r="D29" s="30"/>
@@ -13122,7 +13203,7 @@
     <row r="30" ht="150" customHeight="1" spans="2:14">
       <c r="B30" s="61"/>
       <c r="C30" s="29" t="s">
-        <v>683</v>
+        <v>691</v>
       </c>
       <c r="D30" s="30"/>
       <c r="E30" s="30"/>
@@ -13138,7 +13219,7 @@
     </row>
     <row r="31" customHeight="1" spans="2:14">
       <c r="B31" s="62" t="s">
-        <v>684</v>
+        <v>692</v>
       </c>
       <c r="C31" s="30"/>
       <c r="D31" s="30"/>
@@ -13156,7 +13237,7 @@
     <row r="32" ht="112" customHeight="1" spans="2:14">
       <c r="B32" s="61"/>
       <c r="C32" s="29" t="s">
-        <v>685</v>
+        <v>693</v>
       </c>
       <c r="D32" s="29"/>
       <c r="E32" s="29"/>
@@ -13172,7 +13253,7 @@
     </row>
     <row r="33" customHeight="1" spans="2:14">
       <c r="B33" s="62" t="s">
-        <v>686</v>
+        <v>694</v>
       </c>
       <c r="C33" s="30"/>
       <c r="D33" s="30"/>
@@ -13190,7 +13271,7 @@
     <row r="34" ht="44" customHeight="1" spans="2:14">
       <c r="B34" s="61"/>
       <c r="C34" s="29" t="s">
-        <v>687</v>
+        <v>695</v>
       </c>
       <c r="D34" s="30"/>
       <c r="E34" s="30"/>
@@ -13206,11 +13287,11 @@
     </row>
     <row r="35" customHeight="1" spans="2:14">
       <c r="B35" s="62" t="s">
-        <v>688</v>
+        <v>696</v>
       </c>
       <c r="C35" s="30"/>
       <c r="D35" s="30" t="s">
-        <v>689</v>
+        <v>697</v>
       </c>
       <c r="E35" s="30"/>
       <c r="F35" s="30"/>
@@ -13226,7 +13307,7 @@
     <row r="36" ht="233" customHeight="1" spans="2:14">
       <c r="B36" s="61"/>
       <c r="C36" s="29" t="s">
-        <v>690</v>
+        <v>698</v>
       </c>
       <c r="D36" s="29"/>
       <c r="E36" s="29"/>
@@ -13242,7 +13323,7 @@
     </row>
     <row r="37" customHeight="1" spans="2:14">
       <c r="B37" s="62" t="s">
-        <v>691</v>
+        <v>699</v>
       </c>
       <c r="C37" s="30"/>
       <c r="D37" s="30"/>
@@ -13289,12 +13370,12 @@
     </row>
     <row r="40" customHeight="1" spans="1:1">
       <c r="A40" s="60" t="s">
-        <v>692</v>
+        <v>700</v>
       </c>
     </row>
     <row r="41" ht="72" customHeight="1" spans="2:14">
       <c r="B41" s="31" t="s">
-        <v>693</v>
+        <v>701</v>
       </c>
       <c r="C41" s="29"/>
       <c r="D41" s="29"/>
@@ -13311,12 +13392,12 @@
     </row>
     <row r="42" customHeight="1" spans="2:2">
       <c r="B42" s="28" t="s">
-        <v>694</v>
+        <v>702</v>
       </c>
     </row>
     <row r="43" ht="47" customHeight="1" spans="3:14">
       <c r="C43" s="29" t="s">
-        <v>695</v>
+        <v>703</v>
       </c>
       <c r="D43" s="29"/>
       <c r="E43" s="29"/>
@@ -13332,16 +13413,16 @@
     </row>
     <row r="44" ht="90" customHeight="1" spans="2:2">
       <c r="B44" s="64" t="s">
-        <v>696</v>
+        <v>704</v>
       </c>
     </row>
     <row r="45" ht="63" customHeight="1" spans="1:14">
       <c r="A45" s="60" t="s">
-        <v>697</v>
+        <v>705</v>
       </c>
       <c r="B45" s="64"/>
       <c r="C45" s="29" t="s">
-        <v>698</v>
+        <v>706</v>
       </c>
       <c r="D45" s="30"/>
       <c r="E45" s="30"/>
@@ -13357,13 +13438,13 @@
     </row>
     <row r="46" customHeight="1" spans="2:2">
       <c r="B46" s="64" t="s">
-        <v>674</v>
+        <v>682</v>
       </c>
     </row>
     <row r="47" customHeight="1" spans="2:14">
       <c r="B47" s="64"/>
       <c r="C47" s="29" t="s">
-        <v>699</v>
+        <v>707</v>
       </c>
       <c r="D47" s="29"/>
       <c r="E47" s="29"/>
@@ -13379,13 +13460,13 @@
     </row>
     <row r="48" ht="33" customHeight="1" spans="2:2">
       <c r="B48" s="64" t="s">
-        <v>700</v>
+        <v>708</v>
       </c>
     </row>
     <row r="49" ht="27" customHeight="1" spans="2:14">
       <c r="B49" s="64"/>
       <c r="D49" s="29" t="s">
-        <v>701</v>
+        <v>709</v>
       </c>
       <c r="E49" s="29"/>
       <c r="F49" s="29"/>
@@ -13401,7 +13482,7 @@
     <row r="50" ht="90" customHeight="1" spans="2:14">
       <c r="B50" s="64"/>
       <c r="D50" s="29" t="s">
-        <v>702</v>
+        <v>710</v>
       </c>
       <c r="E50" s="30"/>
       <c r="F50" s="30"/>
@@ -13431,12 +13512,12 @@
     </row>
     <row r="57" customHeight="1" spans="1:1">
       <c r="A57" s="60" t="s">
-        <v>703</v>
+        <v>711</v>
       </c>
     </row>
     <row r="58" ht="61" customHeight="1" spans="2:14">
       <c r="B58" s="31" t="s">
-        <v>704</v>
+        <v>712</v>
       </c>
       <c r="C58" s="29"/>
       <c r="D58" s="29"/>
@@ -13453,7 +13534,7 @@
     </row>
     <row r="59" customHeight="1" spans="2:14">
       <c r="B59" s="61" t="s">
-        <v>705</v>
+        <v>713</v>
       </c>
       <c r="C59" s="30"/>
       <c r="D59" s="30"/>
@@ -13470,12 +13551,12 @@
     </row>
     <row r="60" customHeight="1" spans="1:1">
       <c r="A60" s="60" t="s">
-        <v>706</v>
+        <v>714</v>
       </c>
     </row>
     <row r="61" ht="146" customHeight="1" spans="2:14">
       <c r="B61" s="31" t="s">
-        <v>707</v>
+        <v>715</v>
       </c>
       <c r="C61" s="29"/>
       <c r="D61" s="29"/>
@@ -13492,7 +13573,7 @@
     </row>
     <row r="62" ht="28" customHeight="1" spans="2:14">
       <c r="B62" s="63" t="s">
-        <v>708</v>
+        <v>716</v>
       </c>
       <c r="C62" s="29"/>
       <c r="D62" s="29"/>
@@ -13510,7 +13591,7 @@
     <row r="63" ht="42" customHeight="1" spans="2:14">
       <c r="B63" s="31"/>
       <c r="C63" s="29" t="s">
-        <v>709</v>
+        <v>717</v>
       </c>
       <c r="D63" s="29"/>
       <c r="E63" s="29"/>
@@ -13526,11 +13607,11 @@
     </row>
     <row r="64" ht="20" customHeight="1" spans="2:14">
       <c r="B64" s="31" t="s">
-        <v>710</v>
+        <v>718</v>
       </c>
       <c r="C64" s="29"/>
       <c r="D64" s="29" t="s">
-        <v>711</v>
+        <v>719</v>
       </c>
       <c r="E64" s="29"/>
       <c r="F64" s="29"/>
@@ -13650,7 +13731,7 @@
     </row>
     <row r="73" customHeight="1" spans="1:14">
       <c r="A73" s="60" t="s">
-        <v>712</v>
+        <v>720</v>
       </c>
       <c r="B73"/>
       <c r="C73" s="65"/>
@@ -13669,7 +13750,7 @@
     <row r="74" ht="53" customHeight="1" spans="1:14">
       <c r="A74" s="66"/>
       <c r="B74" s="31" t="s">
-        <v>713</v>
+        <v>721</v>
       </c>
       <c r="C74" s="29"/>
       <c r="D74" s="29"/>
@@ -13686,12 +13767,12 @@
     </row>
     <row r="75" customHeight="1" spans="2:2">
       <c r="B75" s="28" t="s">
-        <v>714</v>
+        <v>722</v>
       </c>
     </row>
     <row r="76" ht="48" customHeight="1" spans="3:14">
       <c r="C76" s="29" t="s">
-        <v>715</v>
+        <v>723</v>
       </c>
       <c r="D76" s="29"/>
       <c r="E76" s="29"/>
@@ -13707,12 +13788,12 @@
     </row>
     <row r="77" customHeight="1" spans="2:2">
       <c r="B77" s="28" t="s">
-        <v>716</v>
+        <v>724</v>
       </c>
     </row>
     <row r="78" ht="79" customHeight="1" spans="3:14">
       <c r="C78" s="29" t="s">
-        <v>717</v>
+        <v>725</v>
       </c>
       <c r="D78" s="29"/>
       <c r="E78" s="29"/>
@@ -13728,12 +13809,12 @@
     </row>
     <row r="79" customHeight="1" spans="2:2">
       <c r="B79" s="28" t="s">
-        <v>718</v>
+        <v>726</v>
       </c>
     </row>
     <row r="80" ht="58" customHeight="1" spans="3:14">
       <c r="C80" s="29" t="s">
-        <v>719</v>
+        <v>727</v>
       </c>
       <c r="D80" s="29"/>
       <c r="E80" s="29"/>
@@ -13749,12 +13830,12 @@
     </row>
     <row r="81" customHeight="1" spans="2:2">
       <c r="B81" s="28" t="s">
-        <v>720</v>
+        <v>728</v>
       </c>
     </row>
     <row r="82" ht="33" customHeight="1" spans="3:14">
       <c r="C82" s="29" t="s">
-        <v>721</v>
+        <v>729</v>
       </c>
       <c r="D82" s="29"/>
       <c r="E82" s="29"/>
@@ -13770,12 +13851,12 @@
     </row>
     <row r="83" customHeight="1" spans="2:2">
       <c r="B83" s="28" t="s">
-        <v>722</v>
+        <v>730</v>
       </c>
     </row>
     <row r="84" ht="95" customHeight="1" spans="3:14">
       <c r="C84" s="29" t="s">
-        <v>723</v>
+        <v>731</v>
       </c>
       <c r="D84" s="29"/>
       <c r="E84" s="29"/>
@@ -13865,12 +13946,12 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="41" t="s">
-        <v>724</v>
+        <v>732</v>
       </c>
     </row>
     <row r="2" spans="2:2">
       <c r="B2" s="42" t="s">
-        <v>725</v>
+        <v>733</v>
       </c>
     </row>
     <row r="3" spans="3:3">
@@ -13880,7 +13961,7 @@
     </row>
     <row r="4" ht="57" customHeight="1" spans="4:13">
       <c r="D4" s="29" t="s">
-        <v>726</v>
+        <v>734</v>
       </c>
       <c r="E4" s="29"/>
       <c r="F4" s="29"/>
@@ -13894,10 +13975,10 @@
     </row>
     <row r="5" ht="24" customHeight="1" spans="2:11">
       <c r="B5" s="42" t="s">
-        <v>727</v>
+        <v>735</v>
       </c>
       <c r="C5" s="44" t="s">
-        <v>728</v>
+        <v>736</v>
       </c>
       <c r="D5" s="44"/>
       <c r="E5" s="44"/>
@@ -13910,7 +13991,7 @@
     </row>
     <row r="6" ht="100" customHeight="1" spans="3:13">
       <c r="C6" s="45" t="s">
-        <v>729</v>
+        <v>737</v>
       </c>
       <c r="D6" s="45"/>
       <c r="E6" s="45"/>
@@ -13925,12 +14006,12 @@
     </row>
     <row r="7" spans="2:2">
       <c r="B7" s="42" t="s">
-        <v>730</v>
+        <v>738</v>
       </c>
     </row>
     <row r="8" ht="54" customHeight="1" spans="3:13">
       <c r="C8" s="29" t="s">
-        <v>731</v>
+        <v>739</v>
       </c>
       <c r="D8" s="29"/>
       <c r="E8" s="29"/>
@@ -13945,10 +14026,10 @@
     </row>
     <row r="10" ht="37" customHeight="1" spans="2:13">
       <c r="B10" s="42" t="s">
-        <v>732</v>
+        <v>740</v>
       </c>
       <c r="C10" s="46" t="s">
-        <v>733</v>
+        <v>741</v>
       </c>
       <c r="D10" s="46"/>
       <c r="E10" s="46"/>
@@ -13976,12 +14057,12 @@
     </row>
     <row r="12" ht="19" customHeight="1" spans="2:2">
       <c r="B12" s="42" t="s">
-        <v>734</v>
+        <v>742</v>
       </c>
     </row>
     <row r="13" ht="93" customHeight="1" spans="3:13">
       <c r="C13" s="29" t="s">
-        <v>735</v>
+        <v>743</v>
       </c>
       <c r="D13" s="29"/>
       <c r="E13" s="29"/>
@@ -13996,15 +14077,15 @@
     </row>
     <row r="15" spans="1:1">
       <c r="A15" s="41" t="s">
-        <v>736</v>
+        <v>744</v>
       </c>
     </row>
     <row r="16" spans="2:13">
       <c r="B16" s="42" t="s">
-        <v>737</v>
+        <v>745</v>
       </c>
       <c r="D16" s="30" t="s">
-        <v>738</v>
+        <v>746</v>
       </c>
       <c r="E16" s="30"/>
       <c r="F16" s="30"/>
@@ -14018,7 +14099,7 @@
     </row>
     <row r="17" ht="53" customHeight="1" spans="3:13">
       <c r="C17" s="29" t="s">
-        <v>739</v>
+        <v>747</v>
       </c>
       <c r="D17" s="29"/>
       <c r="E17" s="29"/>
@@ -14033,7 +14114,7 @@
     </row>
     <row r="18" ht="54" customHeight="1" spans="3:13">
       <c r="C18" s="29" t="s">
-        <v>740</v>
+        <v>748</v>
       </c>
       <c r="D18" s="29"/>
       <c r="E18" s="29"/>
@@ -14048,12 +14129,12 @@
     </row>
     <row r="19" ht="21" customHeight="1" spans="2:2">
       <c r="B19" s="42" t="s">
-        <v>741</v>
+        <v>749</v>
       </c>
     </row>
     <row r="20" ht="129" customHeight="1" spans="3:13">
       <c r="C20" s="29" t="s">
-        <v>742</v>
+        <v>750</v>
       </c>
       <c r="D20" s="29"/>
       <c r="E20" s="29"/>
@@ -14068,12 +14149,12 @@
     </row>
     <row r="21" spans="2:2">
       <c r="B21" s="42" t="s">
-        <v>743</v>
+        <v>751</v>
       </c>
     </row>
     <row r="22" ht="180" customHeight="1" spans="3:13">
-      <c r="C22" s="117" t="s">
-        <v>744</v>
+      <c r="C22" s="118" t="s">
+        <v>752</v>
       </c>
       <c r="D22" s="30"/>
       <c r="E22" s="30"/>
@@ -14088,12 +14169,12 @@
     </row>
     <row r="23" spans="2:2">
       <c r="B23" s="42" t="s">
-        <v>745</v>
+        <v>753</v>
       </c>
     </row>
     <row r="24" ht="49" customHeight="1" spans="3:13">
       <c r="C24" s="29" t="s">
-        <v>746</v>
+        <v>754</v>
       </c>
       <c r="D24" s="29"/>
       <c r="E24" s="29"/>
@@ -14108,12 +14189,12 @@
     </row>
     <row r="26" spans="1:1">
       <c r="A26" s="41" t="s">
-        <v>747</v>
+        <v>755</v>
       </c>
     </row>
     <row r="27" ht="73" customHeight="1" spans="2:13">
       <c r="B27" s="38" t="s">
-        <v>748</v>
+        <v>756</v>
       </c>
       <c r="C27" s="38"/>
       <c r="D27" s="38"/>
@@ -14129,12 +14210,12 @@
     </row>
     <row r="28" spans="2:2">
       <c r="B28" s="42" t="s">
-        <v>749</v>
+        <v>757</v>
       </c>
     </row>
     <row r="29" ht="57" customHeight="1" spans="3:13">
       <c r="C29" s="29" t="s">
-        <v>750</v>
+        <v>758</v>
       </c>
       <c r="D29" s="29"/>
       <c r="E29" s="29"/>
@@ -14149,10 +14230,10 @@
     </row>
     <row r="30" spans="2:13">
       <c r="B30" s="42" t="s">
-        <v>751</v>
+        <v>759</v>
       </c>
       <c r="D30" s="47" t="s">
-        <v>752</v>
+        <v>760</v>
       </c>
       <c r="E30" s="47"/>
       <c r="F30" s="47"/>
@@ -14166,7 +14247,7 @@
     </row>
     <row r="31" ht="127" customHeight="1" spans="3:13">
       <c r="C31" s="29" t="s">
-        <v>753</v>
+        <v>761</v>
       </c>
       <c r="D31" s="29"/>
       <c r="E31" s="29"/>
@@ -14181,10 +14262,10 @@
     </row>
     <row r="32" spans="2:13">
       <c r="B32" s="42" t="s">
-        <v>754</v>
+        <v>762</v>
       </c>
       <c r="D32" s="47" t="s">
-        <v>752</v>
+        <v>760</v>
       </c>
       <c r="E32" s="47"/>
       <c r="F32" s="47"/>
@@ -14198,7 +14279,7 @@
     </row>
     <row r="33" ht="81" customHeight="1" spans="3:13">
       <c r="C33" s="29" t="s">
-        <v>755</v>
+        <v>763</v>
       </c>
       <c r="D33" s="29"/>
       <c r="E33" s="29"/>
@@ -14213,7 +14294,7 @@
     </row>
     <row r="34" spans="2:13">
       <c r="B34" s="42" t="s">
-        <v>756</v>
+        <v>764</v>
       </c>
       <c r="C34" s="48"/>
       <c r="D34" s="26"/>
@@ -14229,7 +14310,7 @@
     </row>
     <row r="35" ht="36" customHeight="1" spans="3:13">
       <c r="C35" s="29" t="s">
-        <v>757</v>
+        <v>765</v>
       </c>
       <c r="D35" s="29"/>
       <c r="E35" s="29"/>
@@ -14244,10 +14325,10 @@
     </row>
     <row r="36" spans="2:13">
       <c r="B36" s="42" t="s">
-        <v>758</v>
+        <v>766</v>
       </c>
       <c r="D36" s="29" t="s">
-        <v>759</v>
+        <v>767</v>
       </c>
       <c r="E36" s="29"/>
       <c r="F36" s="29"/>
@@ -14261,7 +14342,7 @@
     </row>
     <row r="38" spans="1:7">
       <c r="A38" s="41" t="s">
-        <v>760</v>
+        <v>768</v>
       </c>
       <c r="C38" s="49"/>
       <c r="D38" s="49"/>
@@ -14271,7 +14352,7 @@
     </row>
     <row r="39" ht="60" customHeight="1" spans="2:13">
       <c r="B39" s="38" t="s">
-        <v>761</v>
+        <v>769</v>
       </c>
       <c r="C39" s="38"/>
       <c r="D39" s="38"/>
@@ -14287,10 +14368,10 @@
     </row>
     <row r="40" spans="2:13">
       <c r="B40" s="42" t="s">
-        <v>762</v>
+        <v>770</v>
       </c>
       <c r="D40" s="29" t="s">
-        <v>763</v>
+        <v>771</v>
       </c>
       <c r="E40" s="29"/>
       <c r="F40" s="29"/>
@@ -14304,7 +14385,7 @@
     </row>
     <row r="41" ht="37" customHeight="1" spans="3:13">
       <c r="C41" s="29" t="s">
-        <v>764</v>
+        <v>772</v>
       </c>
       <c r="D41" s="29"/>
       <c r="E41" s="29"/>
@@ -14319,7 +14400,7 @@
     </row>
     <row r="42" spans="4:13">
       <c r="D42" s="29" t="s">
-        <v>765</v>
+        <v>773</v>
       </c>
       <c r="E42" s="29"/>
       <c r="F42" s="29"/>
@@ -14333,7 +14414,7 @@
     </row>
     <row r="43" ht="37" customHeight="1" spans="3:13">
       <c r="C43" s="29" t="s">
-        <v>766</v>
+        <v>774</v>
       </c>
       <c r="D43" s="29"/>
       <c r="E43" s="29"/>
@@ -14348,10 +14429,10 @@
     </row>
     <row r="44" spans="2:13">
       <c r="B44" s="42" t="s">
-        <v>767</v>
+        <v>775</v>
       </c>
       <c r="D44" s="30" t="s">
-        <v>768</v>
+        <v>776</v>
       </c>
       <c r="E44" s="30"/>
       <c r="F44" s="30"/>
@@ -14365,12 +14446,12 @@
     </row>
     <row r="45" spans="3:3">
       <c r="C45" s="43" t="s">
-        <v>769</v>
+        <v>777</v>
       </c>
     </row>
     <row r="46" spans="4:13">
       <c r="D46" s="29" t="s">
-        <v>770</v>
+        <v>778</v>
       </c>
       <c r="E46" s="29"/>
       <c r="F46" s="29"/>
@@ -14384,17 +14465,17 @@
     </row>
     <row r="48" spans="1:1">
       <c r="A48" s="41" t="s">
-        <v>771</v>
+        <v>779</v>
       </c>
     </row>
     <row r="49" spans="2:2">
       <c r="B49" s="42" t="s">
-        <v>772</v>
+        <v>780</v>
       </c>
     </row>
     <row r="50" ht="84" customHeight="1" spans="3:13">
       <c r="C50" s="29" t="s">
-        <v>773</v>
+        <v>781</v>
       </c>
       <c r="D50" s="29"/>
       <c r="E50" s="29"/>
@@ -14409,10 +14490,10 @@
     </row>
     <row r="51" spans="3:13">
       <c r="C51" s="32" t="s">
-        <v>774</v>
+        <v>782</v>
       </c>
       <c r="E51" s="35" t="s">
-        <v>775</v>
+        <v>783</v>
       </c>
       <c r="F51" s="35"/>
       <c r="G51" s="35"/>
@@ -14425,7 +14506,7 @@
     </row>
     <row r="52" spans="3:13">
       <c r="C52" s="32" t="s">
-        <v>776</v>
+        <v>784</v>
       </c>
       <c r="E52" s="35"/>
       <c r="F52" s="35"/>
@@ -14439,7 +14520,7 @@
     </row>
     <row r="53" spans="4:13">
       <c r="D53" s="33" t="s">
-        <v>777</v>
+        <v>785</v>
       </c>
       <c r="E53" s="33"/>
       <c r="F53" s="33"/>
@@ -14453,7 +14534,7 @@
     </row>
     <row r="54" ht="60" customHeight="1" spans="4:13">
       <c r="D54" s="29" t="s">
-        <v>778</v>
+        <v>786</v>
       </c>
       <c r="E54" s="29"/>
       <c r="F54" s="29"/>
@@ -14467,12 +14548,12 @@
     </row>
     <row r="56" spans="3:3">
       <c r="C56" s="32" t="s">
-        <v>779</v>
+        <v>787</v>
       </c>
     </row>
     <row r="57" ht="133" customHeight="1" spans="4:13">
       <c r="D57" s="29" t="s">
-        <v>780</v>
+        <v>788</v>
       </c>
       <c r="E57" s="29"/>
       <c r="F57" s="29"/>
@@ -14486,10 +14567,10 @@
     </row>
     <row r="59" spans="1:13">
       <c r="A59" s="41" t="s">
-        <v>781</v>
+        <v>789</v>
       </c>
       <c r="C59" s="29" t="s">
-        <v>782</v>
+        <v>790</v>
       </c>
       <c r="D59" s="29"/>
       <c r="E59" s="29"/>
@@ -14504,10 +14585,10 @@
     </row>
     <row r="60" ht="90" customHeight="1" spans="2:13">
       <c r="B60" s="42" t="s">
-        <v>783</v>
+        <v>791</v>
       </c>
       <c r="C60" s="29" t="s">
-        <v>784</v>
+        <v>792</v>
       </c>
       <c r="D60" s="29"/>
       <c r="E60" s="29"/>
@@ -14522,10 +14603,10 @@
     </row>
     <row r="61" spans="2:13">
       <c r="B61" s="42" t="s">
-        <v>785</v>
+        <v>793</v>
       </c>
       <c r="D61" s="30" t="s">
-        <v>786</v>
+        <v>794</v>
       </c>
       <c r="E61" s="30"/>
       <c r="F61" s="30"/>
@@ -14539,7 +14620,7 @@
     </row>
     <row r="62" ht="36" customHeight="1" spans="3:13">
       <c r="C62" s="29" t="s">
-        <v>787</v>
+        <v>795</v>
       </c>
       <c r="D62" s="30"/>
       <c r="E62" s="30"/>
@@ -14554,10 +14635,10 @@
     </row>
     <row r="64" ht="20" customHeight="1" spans="1:13">
       <c r="A64" s="41" t="s">
-        <v>788</v>
+        <v>796</v>
       </c>
       <c r="C64" s="30" t="s">
-        <v>789</v>
+        <v>797</v>
       </c>
       <c r="D64" s="30"/>
       <c r="E64" s="30"/>
@@ -14572,12 +14653,12 @@
     </row>
     <row r="65" spans="2:2">
       <c r="B65" s="42" t="s">
-        <v>790</v>
+        <v>798</v>
       </c>
     </row>
     <row r="66" ht="123" customHeight="1" spans="3:13">
       <c r="C66" s="29" t="s">
-        <v>791</v>
+        <v>799</v>
       </c>
       <c r="D66" s="29"/>
       <c r="E66" s="29"/>
@@ -14592,12 +14673,12 @@
     </row>
     <row r="67" spans="2:2">
       <c r="B67" s="42" t="s">
-        <v>792</v>
+        <v>800</v>
       </c>
     </row>
     <row r="68" ht="241" customHeight="1" spans="3:13">
       <c r="C68" s="29" t="s">
-        <v>793</v>
+        <v>801</v>
       </c>
       <c r="D68" s="29"/>
       <c r="E68" s="29"/>
@@ -14625,10 +14706,10 @@
     </row>
     <row r="70" ht="51" customHeight="1" spans="1:13">
       <c r="A70" s="41" t="s">
-        <v>794</v>
+        <v>802</v>
       </c>
       <c r="C70" s="29" t="s">
-        <v>795</v>
+        <v>803</v>
       </c>
       <c r="D70" s="29"/>
       <c r="E70" s="29"/>
@@ -14643,12 +14724,12 @@
     </row>
     <row r="71" spans="2:2">
       <c r="B71" s="42" t="s">
-        <v>796</v>
+        <v>804</v>
       </c>
     </row>
     <row r="72" ht="73" customHeight="1" spans="3:13">
       <c r="C72" s="29" t="s">
-        <v>797</v>
+        <v>805</v>
       </c>
       <c r="D72" s="30"/>
       <c r="E72" s="30"/>
@@ -14663,15 +14744,15 @@
     </row>
     <row r="73" spans="2:5">
       <c r="B73" s="42" t="s">
-        <v>798</v>
+        <v>806</v>
       </c>
       <c r="E73" s="3" t="s">
-        <v>799</v>
+        <v>807</v>
       </c>
     </row>
     <row r="74" ht="56" customHeight="1" spans="3:13">
       <c r="C74" s="29" t="s">
-        <v>800</v>
+        <v>808</v>
       </c>
       <c r="D74" s="30"/>
       <c r="E74" s="30"/>
@@ -14686,12 +14767,12 @@
     </row>
     <row r="75" spans="3:3">
       <c r="C75" s="32" t="s">
-        <v>801</v>
+        <v>809</v>
       </c>
     </row>
     <row r="76" ht="72" customHeight="1" spans="4:13">
       <c r="D76" s="29" t="s">
-        <v>802</v>
+        <v>810</v>
       </c>
       <c r="E76" s="29"/>
       <c r="F76" s="29"/>
@@ -14705,12 +14786,12 @@
     </row>
     <row r="77" spans="3:3">
       <c r="C77" s="32" t="s">
-        <v>803</v>
+        <v>811</v>
       </c>
     </row>
     <row r="78" spans="4:13">
       <c r="D78" s="30" t="s">
-        <v>804</v>
+        <v>812</v>
       </c>
       <c r="E78" s="30"/>
       <c r="F78" s="30"/>
@@ -14724,19 +14805,19 @@
     </row>
     <row r="79" spans="1:13">
       <c r="A79" s="41" t="s">
-        <v>805</v>
+        <v>813</v>
       </c>
       <c r="M79" s="27"/>
     </row>
     <row r="80" spans="2:13">
       <c r="B80" s="42" t="s">
-        <v>806</v>
+        <v>814</v>
       </c>
       <c r="M80" s="27"/>
     </row>
     <row r="81" spans="3:13">
       <c r="C81" s="50" t="s">
-        <v>807</v>
+        <v>815</v>
       </c>
       <c r="D81" s="30"/>
       <c r="E81" s="30"/>
@@ -14752,7 +14833,7 @@
     <row r="82" ht="40" customHeight="1" spans="3:13">
       <c r="C82" s="30"/>
       <c r="D82" s="29" t="s">
-        <v>808</v>
+        <v>816</v>
       </c>
       <c r="E82" s="29"/>
       <c r="F82" s="29"/>
@@ -14766,7 +14847,7 @@
     </row>
     <row r="83" spans="3:13">
       <c r="C83" s="50" t="s">
-        <v>809</v>
+        <v>817</v>
       </c>
       <c r="D83" s="30"/>
       <c r="E83" s="30"/>
@@ -14782,7 +14863,7 @@
     <row r="84" ht="57" customHeight="1" spans="3:13">
       <c r="C84" s="30"/>
       <c r="D84" s="29" t="s">
-        <v>810</v>
+        <v>818</v>
       </c>
       <c r="E84" s="29"/>
       <c r="F84" s="29"/>
@@ -14796,7 +14877,7 @@
     </row>
     <row r="85" spans="3:13">
       <c r="C85" s="50" t="s">
-        <v>811</v>
+        <v>819</v>
       </c>
       <c r="D85" s="30"/>
       <c r="E85" s="30"/>
@@ -14812,7 +14893,7 @@
     <row r="86" ht="67" customHeight="1" spans="3:13">
       <c r="C86" s="30"/>
       <c r="D86" s="29" t="s">
-        <v>812</v>
+        <v>820</v>
       </c>
       <c r="E86" s="29"/>
       <c r="F86" s="29"/>
@@ -14827,7 +14908,7 @@
     <row r="87" ht="279" customHeight="1" spans="3:13">
       <c r="C87" s="30"/>
       <c r="D87" s="29" t="s">
-        <v>813</v>
+        <v>821</v>
       </c>
       <c r="E87" s="29"/>
       <c r="F87" s="29"/>
@@ -14841,7 +14922,7 @@
     </row>
     <row r="88" spans="3:13">
       <c r="C88" s="50" t="s">
-        <v>814</v>
+        <v>822</v>
       </c>
       <c r="D88" s="30"/>
       <c r="E88" s="30"/>
@@ -14857,7 +14938,7 @@
     <row r="89" ht="38" customHeight="1" spans="3:13">
       <c r="C89" s="30"/>
       <c r="D89" s="29" t="s">
-        <v>815</v>
+        <v>823</v>
       </c>
       <c r="E89" s="29"/>
       <c r="F89" s="29"/>
@@ -14872,7 +14953,7 @@
     <row r="90" spans="3:13">
       <c r="C90" s="30"/>
       <c r="D90" s="50" t="s">
-        <v>816</v>
+        <v>824</v>
       </c>
       <c r="E90" s="30"/>
       <c r="F90" s="30"/>
@@ -14888,7 +14969,7 @@
       <c r="C91" s="30"/>
       <c r="D91" s="30"/>
       <c r="E91" s="53" t="s">
-        <v>817</v>
+        <v>825</v>
       </c>
       <c r="F91" s="29"/>
       <c r="G91" s="29"/>
@@ -14902,7 +14983,7 @@
     <row r="92" ht="21" customHeight="1" spans="3:13">
       <c r="C92" s="30"/>
       <c r="D92" s="50" t="s">
-        <v>818</v>
+        <v>826</v>
       </c>
       <c r="E92" s="53"/>
       <c r="F92" s="29"/>
@@ -14918,7 +14999,7 @@
       <c r="C93" s="30"/>
       <c r="D93" s="30"/>
       <c r="E93" s="29" t="s">
-        <v>819</v>
+        <v>827</v>
       </c>
       <c r="F93" s="29"/>
       <c r="G93" s="29"/>
@@ -14932,7 +15013,7 @@
     <row r="94" ht="27" customHeight="1" spans="3:13">
       <c r="C94" s="30"/>
       <c r="D94" s="50" t="s">
-        <v>820</v>
+        <v>828</v>
       </c>
       <c r="E94" s="53"/>
       <c r="F94" s="29"/>
@@ -14948,7 +15029,7 @@
       <c r="C95" s="30"/>
       <c r="D95" s="30"/>
       <c r="E95" s="29" t="s">
-        <v>821</v>
+        <v>829</v>
       </c>
       <c r="F95" s="29"/>
       <c r="G95" s="29"/>
@@ -14963,7 +15044,7 @@
       <c r="C96" s="30"/>
       <c r="D96" s="30"/>
       <c r="E96" s="29" t="s">
-        <v>822</v>
+        <v>830</v>
       </c>
       <c r="F96" s="29"/>
       <c r="G96" s="29"/>
@@ -14976,13 +15057,13 @@
     </row>
     <row r="97" spans="2:13">
       <c r="B97" s="42" t="s">
-        <v>823</v>
+        <v>831</v>
       </c>
       <c r="M97" s="27"/>
     </row>
     <row r="98" spans="3:13">
       <c r="C98" s="36" t="s">
-        <v>824</v>
+        <v>832</v>
       </c>
       <c r="D98" s="37"/>
       <c r="E98" s="37"/>
@@ -14998,7 +15079,7 @@
     <row r="99" spans="3:13">
       <c r="C99" s="30"/>
       <c r="D99" s="29" t="s">
-        <v>825</v>
+        <v>833</v>
       </c>
       <c r="E99" s="29"/>
       <c r="F99" s="29"/>
@@ -15012,12 +15093,12 @@
     </row>
     <row r="100" spans="3:13">
       <c r="C100" s="50" t="s">
-        <v>826</v>
+        <v>834</v>
       </c>
       <c r="D100" s="30"/>
       <c r="E100" s="30"/>
       <c r="F100" s="30" t="s">
-        <v>827</v>
+        <v>835</v>
       </c>
       <c r="G100" s="30"/>
       <c r="H100" s="30"/>
@@ -15030,7 +15111,7 @@
     <row r="101" ht="95" customHeight="1" spans="3:13">
       <c r="C101" s="30"/>
       <c r="D101" s="29" t="s">
-        <v>828</v>
+        <v>836</v>
       </c>
       <c r="E101" s="29"/>
       <c r="F101" s="29"/>
@@ -15045,7 +15126,7 @@
     <row r="102" ht="75" customHeight="1" spans="3:13">
       <c r="C102" s="30"/>
       <c r="D102" s="29" t="s">
-        <v>829</v>
+        <v>837</v>
       </c>
       <c r="E102" s="29"/>
       <c r="F102" s="29"/>
@@ -15059,7 +15140,7 @@
     </row>
     <row r="103" spans="3:13">
       <c r="C103" s="50" t="s">
-        <v>830</v>
+        <v>838</v>
       </c>
       <c r="D103" s="30"/>
       <c r="E103" s="30"/>
@@ -15075,7 +15156,7 @@
     <row r="104" spans="3:13">
       <c r="C104" s="30"/>
       <c r="D104" s="50" t="s">
-        <v>831</v>
+        <v>839</v>
       </c>
       <c r="E104" s="30"/>
       <c r="F104" s="30"/>
@@ -15091,7 +15172,7 @@
       <c r="C105" s="30"/>
       <c r="D105" s="30"/>
       <c r="E105" s="29" t="s">
-        <v>832</v>
+        <v>840</v>
       </c>
       <c r="F105" s="29"/>
       <c r="G105" s="29"/>
@@ -15105,7 +15186,7 @@
     <row r="106" spans="3:13">
       <c r="C106" s="30"/>
       <c r="D106" s="50" t="s">
-        <v>833</v>
+        <v>841</v>
       </c>
       <c r="E106" s="30"/>
       <c r="F106" s="30"/>
@@ -15121,7 +15202,7 @@
       <c r="C107" s="30"/>
       <c r="D107" s="30"/>
       <c r="E107" s="29" t="s">
-        <v>834</v>
+        <v>842</v>
       </c>
       <c r="F107" s="29"/>
       <c r="G107" s="29"/>
@@ -15147,13 +15228,13 @@
     </row>
     <row r="109" spans="2:13">
       <c r="B109" s="42" t="s">
-        <v>835</v>
+        <v>843</v>
       </c>
       <c r="M109" s="27"/>
     </row>
     <row r="110" spans="3:13">
       <c r="C110" s="51" t="s">
-        <v>836</v>
+        <v>844</v>
       </c>
       <c r="D110" s="48"/>
       <c r="E110" s="48"/>
@@ -15168,7 +15249,7 @@
     </row>
     <row r="111" ht="71" customHeight="1" spans="4:13">
       <c r="D111" s="29" t="s">
-        <v>837</v>
+        <v>845</v>
       </c>
       <c r="E111" s="30"/>
       <c r="F111" s="30"/>
@@ -15185,19 +15266,19 @@
     </row>
     <row r="113" spans="1:13">
       <c r="A113" s="41" t="s">
-        <v>838</v>
+        <v>846</v>
       </c>
       <c r="M113" s="27"/>
     </row>
     <row r="114" spans="2:13">
       <c r="B114" s="42" t="s">
-        <v>839</v>
+        <v>847</v>
       </c>
       <c r="M114" s="27"/>
     </row>
     <row r="115" ht="159" customHeight="1" spans="3:13">
-      <c r="C115" s="117" t="s">
-        <v>840</v>
+      <c r="C115" s="118" t="s">
+        <v>848</v>
       </c>
       <c r="D115" s="29"/>
       <c r="E115" s="29"/>
@@ -15212,13 +15293,13 @@
     </row>
     <row r="116" spans="2:13">
       <c r="B116" s="42" t="s">
-        <v>841</v>
+        <v>849</v>
       </c>
       <c r="M116" s="27"/>
     </row>
     <row r="117" spans="3:13">
       <c r="C117" s="29" t="s">
-        <v>842</v>
+        <v>850</v>
       </c>
       <c r="D117" s="29"/>
       <c r="E117" s="29"/>
@@ -15239,7 +15320,7 @@
     </row>
     <row r="119" ht="138" customHeight="1" spans="3:13">
       <c r="C119" s="29" t="s">
-        <v>843</v>
+        <v>851</v>
       </c>
       <c r="D119" s="29"/>
       <c r="E119" s="29"/>
@@ -15257,19 +15338,19 @@
     </row>
     <row r="121" spans="1:13">
       <c r="A121" s="41" t="s">
-        <v>844</v>
+        <v>852</v>
       </c>
       <c r="M121" s="27"/>
     </row>
     <row r="122" spans="2:13">
       <c r="B122" s="42" t="s">
-        <v>845</v>
+        <v>853</v>
       </c>
       <c r="M122" s="27"/>
     </row>
     <row r="123" ht="153" customHeight="1" spans="3:13">
       <c r="C123" s="39" t="s">
-        <v>846</v>
+        <v>854</v>
       </c>
       <c r="D123" s="52"/>
       <c r="E123" s="52"/>
@@ -15284,13 +15365,13 @@
     </row>
     <row r="124" spans="2:13">
       <c r="B124" s="42" t="s">
-        <v>847</v>
+        <v>855</v>
       </c>
       <c r="M124" s="27"/>
     </row>
     <row r="125" ht="187" customHeight="1" spans="3:13">
       <c r="C125" s="39" t="s">
-        <v>848</v>
+        <v>856</v>
       </c>
       <c r="D125" s="39"/>
       <c r="E125" s="39"/>
@@ -15305,13 +15386,13 @@
     </row>
     <row r="126" spans="3:13">
       <c r="C126" s="32" t="s">
-        <v>849</v>
+        <v>857</v>
       </c>
       <c r="M126" s="27"/>
     </row>
     <row r="127" ht="133" customHeight="1" spans="4:13">
       <c r="D127" s="39" t="s">
-        <v>850</v>
+        <v>858</v>
       </c>
       <c r="E127" s="52"/>
       <c r="F127" s="52"/>
@@ -15325,10 +15406,10 @@
     </row>
     <row r="128" ht="56" customHeight="1" spans="1:13">
       <c r="A128" s="41" t="s">
-        <v>851</v>
+        <v>859</v>
       </c>
       <c r="C128" s="29" t="s">
-        <v>852</v>
+        <v>860</v>
       </c>
       <c r="D128" s="29"/>
       <c r="E128" s="29"/>
@@ -15346,10 +15427,10 @@
     </row>
     <row r="130" ht="90" customHeight="1" spans="2:13">
       <c r="B130" s="54" t="s">
-        <v>853</v>
+        <v>861</v>
       </c>
       <c r="C130" s="29" t="s">
-        <v>854</v>
+        <v>862</v>
       </c>
       <c r="D130" s="30"/>
       <c r="E130" s="30"/>
@@ -15364,13 +15445,13 @@
     </row>
     <row r="131" spans="2:13">
       <c r="B131" s="42" t="s">
-        <v>855</v>
+        <v>863</v>
       </c>
       <c r="M131" s="27"/>
     </row>
     <row r="132" ht="124" customHeight="1" spans="3:13">
       <c r="C132" s="39" t="s">
-        <v>856</v>
+        <v>864</v>
       </c>
       <c r="D132" s="39"/>
       <c r="E132" s="39"/>
@@ -15385,13 +15466,13 @@
     </row>
     <row r="133" spans="2:13">
       <c r="B133" s="42" t="s">
-        <v>857</v>
+        <v>865</v>
       </c>
       <c r="M133" s="27"/>
     </row>
     <row r="134" ht="95" customHeight="1" spans="3:13">
       <c r="C134" s="29" t="s">
-        <v>858</v>
+        <v>866</v>
       </c>
       <c r="D134" s="29"/>
       <c r="E134" s="29"/>
@@ -15409,13 +15490,13 @@
     </row>
     <row r="136" spans="1:13">
       <c r="A136" s="41" t="s">
-        <v>859</v>
+        <v>867</v>
       </c>
       <c r="M136" s="27"/>
     </row>
     <row r="137" ht="60" customHeight="1" spans="2:13">
       <c r="B137" s="55" t="s">
-        <v>860</v>
+        <v>868</v>
       </c>
       <c r="C137" s="55"/>
       <c r="D137" s="55"/>
@@ -15431,13 +15512,13 @@
     </row>
     <row r="138" spans="2:13">
       <c r="B138" s="42" t="s">
-        <v>861</v>
+        <v>869</v>
       </c>
       <c r="M138" s="27"/>
     </row>
     <row r="139" ht="69" customHeight="1" spans="3:13">
       <c r="C139" s="29" t="s">
-        <v>862</v>
+        <v>870</v>
       </c>
       <c r="D139" s="29"/>
       <c r="E139" s="29"/>
@@ -15452,13 +15533,13 @@
     </row>
     <row r="140" spans="2:13">
       <c r="B140" s="42" t="s">
-        <v>863</v>
+        <v>871</v>
       </c>
       <c r="M140" s="27"/>
     </row>
     <row r="141" ht="57" customHeight="1" spans="3:13">
       <c r="C141" s="29" t="s">
-        <v>864</v>
+        <v>872</v>
       </c>
       <c r="D141" s="29"/>
       <c r="E141" s="29"/>
@@ -15473,12 +15554,12 @@
     </row>
     <row r="142" spans="2:2">
       <c r="B142" s="42" t="s">
-        <v>865</v>
+        <v>873</v>
       </c>
     </row>
     <row r="143" ht="39" customHeight="1" spans="3:13">
       <c r="C143" s="29" t="s">
-        <v>866</v>
+        <v>874</v>
       </c>
       <c r="D143" s="29"/>
       <c r="E143" s="29"/>
@@ -15493,7 +15574,7 @@
     </row>
     <row r="144" ht="38" customHeight="1" spans="3:13">
       <c r="C144" s="29" t="s">
-        <v>867</v>
+        <v>875</v>
       </c>
       <c r="D144" s="29"/>
       <c r="E144" s="29"/>
@@ -15508,12 +15589,12 @@
     </row>
     <row r="145" spans="2:2">
       <c r="B145" s="42" t="s">
-        <v>868</v>
+        <v>876</v>
       </c>
     </row>
     <row r="146" ht="38" customHeight="1" spans="3:13">
       <c r="C146" s="29" t="s">
-        <v>869</v>
+        <v>877</v>
       </c>
       <c r="D146" s="29"/>
       <c r="E146" s="29"/>
@@ -15528,7 +15609,7 @@
     </row>
     <row r="147" spans="2:13">
       <c r="B147" s="56" t="s">
-        <v>870</v>
+        <v>878</v>
       </c>
       <c r="C147" s="56"/>
       <c r="D147" s="56"/>
@@ -15544,22 +15625,22 @@
     </row>
     <row r="149" spans="1:1">
       <c r="A149" s="41" t="s">
-        <v>871</v>
+        <v>879</v>
       </c>
     </row>
     <row r="150" spans="2:2">
       <c r="B150" s="42" t="s">
-        <v>872</v>
+        <v>880</v>
       </c>
     </row>
     <row r="151" spans="3:3">
       <c r="C151" s="32" t="s">
-        <v>873</v>
+        <v>881</v>
       </c>
     </row>
     <row r="152" ht="39" customHeight="1" spans="4:13">
       <c r="D152" s="29" t="s">
-        <v>874</v>
+        <v>882</v>
       </c>
       <c r="E152" s="30"/>
       <c r="F152" s="30"/>
@@ -15573,12 +15654,12 @@
     </row>
     <row r="153" spans="3:3">
       <c r="C153" s="32" t="s">
-        <v>875</v>
+        <v>883</v>
       </c>
     </row>
     <row r="154" ht="38" customHeight="1" spans="4:13">
       <c r="D154" s="29" t="s">
-        <v>876</v>
+        <v>884</v>
       </c>
       <c r="E154" s="30"/>
       <c r="F154" s="30"/>
@@ -15592,12 +15673,12 @@
     </row>
     <row r="155" spans="2:2">
       <c r="B155" s="42" t="s">
-        <v>877</v>
+        <v>885</v>
       </c>
     </row>
     <row r="156" ht="168" customHeight="1" spans="3:13">
       <c r="C156" s="29" t="s">
-        <v>878</v>
+        <v>886</v>
       </c>
       <c r="D156" s="29"/>
       <c r="E156" s="29"/>
@@ -15613,17 +15694,17 @@
     <row r="157" ht="21" customHeight="1"/>
     <row r="158" ht="20" customHeight="1" spans="1:1">
       <c r="A158" s="41" t="s">
-        <v>879</v>
+        <v>887</v>
       </c>
     </row>
     <row r="159" spans="2:2">
       <c r="B159" s="42" t="s">
-        <v>880</v>
+        <v>888</v>
       </c>
     </row>
     <row r="160" spans="3:13">
       <c r="C160" s="29" t="s">
-        <v>881</v>
+        <v>889</v>
       </c>
       <c r="D160" s="29"/>
       <c r="E160" s="29"/>
@@ -15638,12 +15719,12 @@
     </row>
     <row r="161" spans="2:2">
       <c r="B161" s="42" t="s">
-        <v>882</v>
+        <v>890</v>
       </c>
     </row>
     <row r="162" ht="35" customHeight="1" spans="3:13">
       <c r="C162" s="29" t="s">
-        <v>883</v>
+        <v>891</v>
       </c>
       <c r="D162" s="29"/>
       <c r="E162" s="29"/>
@@ -15658,12 +15739,12 @@
     </row>
     <row r="163" spans="2:2">
       <c r="B163" s="42" t="s">
-        <v>884</v>
+        <v>892</v>
       </c>
     </row>
     <row r="164" spans="3:13">
       <c r="C164" s="29" t="s">
-        <v>885</v>
+        <v>893</v>
       </c>
       <c r="D164" s="29"/>
       <c r="E164" s="29"/>
@@ -15678,12 +15759,12 @@
     </row>
     <row r="166" spans="1:1">
       <c r="A166" s="41" t="s">
-        <v>884</v>
+        <v>892</v>
       </c>
     </row>
     <row r="167" ht="73" customHeight="1" spans="2:13">
       <c r="B167" s="38" t="s">
-        <v>886</v>
+        <v>894</v>
       </c>
       <c r="C167" s="38"/>
       <c r="D167" s="38"/>
@@ -15699,17 +15780,17 @@
     </row>
     <row r="168" spans="2:2">
       <c r="B168" s="42" t="s">
-        <v>887</v>
+        <v>895</v>
       </c>
     </row>
     <row r="169" spans="3:3">
       <c r="C169" s="32" t="s">
-        <v>888</v>
+        <v>896</v>
       </c>
     </row>
     <row r="170" ht="71" customHeight="1" spans="4:13">
       <c r="D170" s="29" t="s">
-        <v>889</v>
+        <v>897</v>
       </c>
       <c r="E170" s="30"/>
       <c r="F170" s="30"/>
@@ -15723,12 +15804,12 @@
     </row>
     <row r="171" spans="3:3">
       <c r="C171" s="32" t="s">
-        <v>688</v>
+        <v>696</v>
       </c>
     </row>
     <row r="172" ht="234" customHeight="1" spans="4:13">
       <c r="D172" s="29" t="s">
-        <v>890</v>
+        <v>898</v>
       </c>
       <c r="E172" s="29"/>
       <c r="F172" s="29"/>
@@ -15742,12 +15823,12 @@
     </row>
     <row r="173" ht="24" customHeight="1" spans="3:3">
       <c r="C173" s="32" t="s">
-        <v>891</v>
+        <v>899</v>
       </c>
     </row>
     <row r="174" spans="4:13">
       <c r="D174" s="30" t="s">
-        <v>892</v>
+        <v>900</v>
       </c>
       <c r="E174" s="30"/>
       <c r="F174" s="30"/>
@@ -15761,20 +15842,20 @@
     </row>
     <row r="175" spans="2:5">
       <c r="B175" s="42" t="s">
-        <v>893</v>
+        <v>901</v>
       </c>
       <c r="E175" s="57" t="s">
-        <v>894</v>
+        <v>902</v>
       </c>
     </row>
     <row r="176" spans="3:3">
       <c r="C176" s="32" t="s">
-        <v>895</v>
+        <v>903</v>
       </c>
     </row>
     <row r="177" ht="160" customHeight="1" spans="4:13">
       <c r="D177" s="29" t="s">
-        <v>896</v>
+        <v>904</v>
       </c>
       <c r="E177" s="29"/>
       <c r="F177" s="29"/>
@@ -15788,17 +15869,17 @@
     </row>
     <row r="178" spans="3:3">
       <c r="C178" s="32" t="s">
-        <v>897</v>
+        <v>905</v>
       </c>
     </row>
     <row r="179" spans="4:4">
       <c r="D179" s="32" t="s">
-        <v>898</v>
+        <v>906</v>
       </c>
     </row>
     <row r="180" ht="91" customHeight="1" spans="5:13">
       <c r="E180" s="29" t="s">
-        <v>899</v>
+        <v>907</v>
       </c>
       <c r="F180" s="30"/>
       <c r="G180" s="30"/>
@@ -15811,12 +15892,12 @@
     </row>
     <row r="181" spans="4:4">
       <c r="D181" s="32" t="s">
-        <v>900</v>
+        <v>908</v>
       </c>
     </row>
     <row r="182" spans="5:13">
       <c r="E182" s="29" t="s">
-        <v>901</v>
+        <v>909</v>
       </c>
       <c r="F182" s="29"/>
       <c r="G182" s="29"/>
@@ -15829,7 +15910,7 @@
     </row>
     <row r="183" spans="4:13">
       <c r="D183" s="32" t="s">
-        <v>902</v>
+        <v>910</v>
       </c>
       <c r="E183" s="29"/>
       <c r="F183" s="29"/>
@@ -15843,12 +15924,12 @@
     </row>
     <row r="184" spans="5:5">
       <c r="E184" s="58" t="s">
-        <v>903</v>
+        <v>911</v>
       </c>
     </row>
     <row r="185" ht="93" customHeight="1" spans="5:13">
       <c r="E185" s="29" t="s">
-        <v>904</v>
+        <v>912</v>
       </c>
       <c r="F185" s="29"/>
       <c r="G185" s="29"/>
@@ -15861,12 +15942,12 @@
     </row>
     <row r="186" spans="5:5">
       <c r="E186" s="58" t="s">
-        <v>905</v>
+        <v>913</v>
       </c>
     </row>
     <row r="187" ht="108" customHeight="1" spans="5:13">
       <c r="E187" s="29" t="s">
-        <v>906</v>
+        <v>914</v>
       </c>
       <c r="F187" s="29"/>
       <c r="G187" s="29"/>
@@ -15879,12 +15960,12 @@
     </row>
     <row r="188" spans="4:4">
       <c r="D188" s="32" t="s">
-        <v>907</v>
+        <v>915</v>
       </c>
     </row>
     <row r="189" ht="41" customHeight="1" spans="5:13">
       <c r="E189" s="29" t="s">
-        <v>908</v>
+        <v>916</v>
       </c>
       <c r="F189" s="29"/>
       <c r="G189" s="29"/>
@@ -15897,7 +15978,7 @@
     </row>
     <row r="190" ht="83" customHeight="1" spans="5:13">
       <c r="E190" s="29" t="s">
-        <v>909</v>
+        <v>917</v>
       </c>
       <c r="F190" s="29"/>
       <c r="G190" s="29"/>
@@ -15910,17 +15991,17 @@
     </row>
     <row r="191" spans="2:2">
       <c r="B191" s="42" t="s">
-        <v>910</v>
+        <v>918</v>
       </c>
     </row>
     <row r="192" spans="3:3">
       <c r="C192" s="32" t="s">
-        <v>911</v>
+        <v>919</v>
       </c>
     </row>
     <row r="193" ht="54" customHeight="1" spans="4:13">
       <c r="D193" s="29" t="s">
-        <v>912</v>
+        <v>920</v>
       </c>
       <c r="E193" s="29"/>
       <c r="F193" s="29"/>
@@ -15934,7 +16015,7 @@
     </row>
     <row r="194" ht="70" customHeight="1" spans="4:13">
       <c r="D194" s="59" t="s">
-        <v>913</v>
+        <v>921</v>
       </c>
       <c r="E194" s="59"/>
       <c r="F194" s="59"/>
@@ -15948,15 +16029,15 @@
     </row>
     <row r="195" spans="3:6">
       <c r="C195" s="32" t="s">
-        <v>914</v>
+        <v>922</v>
       </c>
       <c r="F195" s="58" t="s">
-        <v>905</v>
+        <v>913</v>
       </c>
     </row>
     <row r="196" ht="105" customHeight="1" spans="4:13">
       <c r="D196" s="29" t="s">
-        <v>915</v>
+        <v>923</v>
       </c>
       <c r="E196" s="29"/>
       <c r="F196" s="29"/>
@@ -15970,22 +16051,22 @@
     </row>
     <row r="197" spans="2:2">
       <c r="B197" s="42" t="s">
-        <v>916</v>
+        <v>924</v>
       </c>
     </row>
     <row r="199" spans="1:1">
       <c r="A199" s="41" t="s">
-        <v>917</v>
+        <v>925</v>
       </c>
     </row>
     <row r="200" spans="2:2">
       <c r="B200" s="42" t="s">
-        <v>918</v>
+        <v>926</v>
       </c>
     </row>
     <row r="201" ht="57" customHeight="1" spans="3:13">
       <c r="C201" s="29" t="s">
-        <v>919</v>
+        <v>927</v>
       </c>
       <c r="D201" s="29"/>
       <c r="E201" s="29"/>
@@ -16128,17 +16209,17 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="25" t="s">
-        <v>920</v>
+        <v>928</v>
       </c>
     </row>
     <row r="2" spans="2:2">
       <c r="B2" s="28" t="s">
-        <v>921</v>
+        <v>929</v>
       </c>
     </row>
     <row r="3" ht="108" customHeight="1" spans="3:14">
       <c r="C3" s="29" t="s">
-        <v>922</v>
+        <v>930</v>
       </c>
       <c r="D3" s="30"/>
       <c r="E3" s="30"/>
@@ -16154,10 +16235,10 @@
     </row>
     <row r="4" spans="2:14">
       <c r="B4" s="28" t="s">
-        <v>923</v>
+        <v>931</v>
       </c>
       <c r="D4" s="30" t="s">
-        <v>924</v>
+        <v>932</v>
       </c>
       <c r="E4" s="30"/>
       <c r="F4" s="30"/>
@@ -16172,7 +16253,7 @@
     </row>
     <row r="5" ht="36" customHeight="1" spans="3:14">
       <c r="C5" s="29" t="s">
-        <v>925</v>
+        <v>933</v>
       </c>
       <c r="D5" s="29"/>
       <c r="E5" s="29"/>
@@ -16188,12 +16269,12 @@
     </row>
     <row r="6" spans="2:2">
       <c r="B6" s="28" t="s">
-        <v>926</v>
+        <v>934</v>
       </c>
     </row>
     <row r="7" ht="37" customHeight="1" spans="3:14">
       <c r="C7" s="29" t="s">
-        <v>927</v>
+        <v>935</v>
       </c>
       <c r="D7" s="29"/>
       <c r="E7" s="29"/>
@@ -16209,12 +16290,12 @@
     </row>
     <row r="9" spans="2:2">
       <c r="B9" s="28" t="s">
-        <v>928</v>
+        <v>936</v>
       </c>
     </row>
     <row r="10" ht="108" customHeight="1" spans="3:14">
       <c r="C10" s="29" t="s">
-        <v>929</v>
+        <v>937</v>
       </c>
       <c r="D10" s="29"/>
       <c r="E10" s="29"/>
@@ -16230,7 +16311,7 @@
     </row>
     <row r="11" ht="76" customHeight="1" spans="3:14">
       <c r="C11" s="29" t="s">
-        <v>930</v>
+        <v>938</v>
       </c>
       <c r="D11" s="29"/>
       <c r="E11" s="29"/>
@@ -16246,12 +16327,12 @@
     </row>
     <row r="12" spans="2:2">
       <c r="B12" s="28" t="s">
-        <v>931</v>
+        <v>939</v>
       </c>
     </row>
     <row r="13" spans="3:14">
       <c r="C13" s="29" t="s">
-        <v>932</v>
+        <v>940</v>
       </c>
       <c r="D13" s="29"/>
       <c r="E13" s="29"/>
@@ -16267,12 +16348,12 @@
     </row>
     <row r="14" spans="2:2">
       <c r="B14" s="28" t="s">
-        <v>933</v>
+        <v>941</v>
       </c>
     </row>
     <row r="15" ht="136" customHeight="1" spans="3:14">
       <c r="C15" s="29" t="s">
-        <v>934</v>
+        <v>942</v>
       </c>
       <c r="D15" s="29"/>
       <c r="E15" s="29"/>
@@ -16288,10 +16369,10 @@
     </row>
     <row r="16" spans="2:14">
       <c r="B16" s="28" t="s">
-        <v>935</v>
+        <v>943</v>
       </c>
       <c r="D16" s="29" t="s">
-        <v>936</v>
+        <v>944</v>
       </c>
       <c r="E16" s="29"/>
       <c r="F16" s="29"/>
@@ -16306,7 +16387,7 @@
     </row>
     <row r="17" ht="72" customHeight="1" spans="3:14">
       <c r="C17" s="29" t="s">
-        <v>937</v>
+        <v>945</v>
       </c>
       <c r="D17" s="29"/>
       <c r="E17" s="29"/>
@@ -16336,12 +16417,12 @@
     </row>
     <row r="19" ht="20" customHeight="1" spans="1:1">
       <c r="A19" s="25" t="s">
-        <v>938</v>
+        <v>946</v>
       </c>
     </row>
     <row r="20" ht="38" customHeight="1" spans="2:14">
       <c r="B20" s="31" t="s">
-        <v>939</v>
+        <v>947</v>
       </c>
       <c r="C20" s="31"/>
       <c r="D20" s="31"/>
@@ -16358,12 +16439,12 @@
     </row>
     <row r="21" spans="2:2">
       <c r="B21" s="28" t="s">
-        <v>940</v>
+        <v>948</v>
       </c>
     </row>
     <row r="22" spans="3:14">
       <c r="C22" s="29" t="s">
-        <v>941</v>
+        <v>949</v>
       </c>
       <c r="D22" s="29"/>
       <c r="E22" s="29"/>
@@ -16379,12 +16460,12 @@
     </row>
     <row r="23" spans="2:2">
       <c r="B23" s="28" t="s">
-        <v>942</v>
+        <v>950</v>
       </c>
     </row>
     <row r="24" ht="54" customHeight="1" spans="3:14">
       <c r="C24" s="29" t="s">
-        <v>943</v>
+        <v>951</v>
       </c>
       <c r="D24" s="29"/>
       <c r="E24" s="29"/>
@@ -16400,12 +16481,12 @@
     </row>
     <row r="25" spans="3:3">
       <c r="C25" s="32" t="s">
-        <v>944</v>
+        <v>952</v>
       </c>
     </row>
     <row r="26" spans="4:14">
       <c r="D26" s="29" t="s">
-        <v>945</v>
+        <v>953</v>
       </c>
       <c r="E26" s="29"/>
       <c r="F26" s="29"/>
@@ -16420,12 +16501,12 @@
     </row>
     <row r="27" spans="3:3">
       <c r="C27" s="32" t="s">
-        <v>946</v>
+        <v>954</v>
       </c>
     </row>
     <row r="28" spans="4:14">
       <c r="D28" s="30" t="s">
-        <v>947</v>
+        <v>955</v>
       </c>
       <c r="E28" s="30"/>
       <c r="F28" s="30"/>
@@ -16440,17 +16521,17 @@
     </row>
     <row r="30" spans="1:1">
       <c r="A30" s="25" t="s">
-        <v>948</v>
+        <v>956</v>
       </c>
     </row>
     <row r="31" spans="2:2">
       <c r="B31" s="28" t="s">
-        <v>949</v>
+        <v>957</v>
       </c>
     </row>
     <row r="32" ht="73" customHeight="1" spans="3:14">
       <c r="C32" s="29" t="s">
-        <v>950</v>
+        <v>958</v>
       </c>
       <c r="D32" s="29"/>
       <c r="E32" s="29"/>
@@ -16466,12 +16547,12 @@
     </row>
     <row r="33" spans="2:2">
       <c r="B33" s="28" t="s">
-        <v>951</v>
+        <v>959</v>
       </c>
     </row>
     <row r="34" ht="82" customHeight="1" spans="3:14">
       <c r="C34" s="29" t="s">
-        <v>952</v>
+        <v>960</v>
       </c>
       <c r="D34" s="30"/>
       <c r="E34" s="30"/>
@@ -16487,12 +16568,12 @@
     </row>
     <row r="35" spans="2:2">
       <c r="B35" s="28" t="s">
-        <v>953</v>
+        <v>961</v>
       </c>
     </row>
     <row r="36" ht="145" customHeight="1" spans="3:14">
       <c r="C36" s="29" t="s">
-        <v>954</v>
+        <v>962</v>
       </c>
       <c r="D36" s="29"/>
       <c r="E36" s="29"/>
@@ -16508,12 +16589,12 @@
     </row>
     <row r="37" spans="2:2">
       <c r="B37" s="28" t="s">
-        <v>955</v>
+        <v>963</v>
       </c>
     </row>
     <row r="38" spans="3:14">
       <c r="C38" s="30" t="s">
-        <v>956</v>
+        <v>964</v>
       </c>
       <c r="D38" s="30"/>
       <c r="E38" s="30"/>
@@ -16529,17 +16610,17 @@
     </row>
     <row r="39" spans="2:2">
       <c r="B39" s="28" t="s">
-        <v>957</v>
+        <v>965</v>
       </c>
     </row>
     <row r="40" spans="3:3">
       <c r="C40" s="32" t="s">
-        <v>958</v>
+        <v>966</v>
       </c>
     </row>
     <row r="41" ht="55" customHeight="1" spans="4:14">
       <c r="D41" s="29" t="s">
-        <v>959</v>
+        <v>967</v>
       </c>
       <c r="E41" s="29"/>
       <c r="F41" s="29"/>
@@ -16554,12 +16635,12 @@
     </row>
     <row r="42" spans="3:3">
       <c r="C42" s="32" t="s">
-        <v>960</v>
+        <v>968</v>
       </c>
     </row>
     <row r="43" ht="38" customHeight="1" spans="4:14">
       <c r="D43" s="29" t="s">
-        <v>961</v>
+        <v>969</v>
       </c>
       <c r="E43" s="29"/>
       <c r="F43" s="29"/>
@@ -16574,12 +16655,12 @@
     </row>
     <row r="44" spans="3:3">
       <c r="C44" s="32" t="s">
-        <v>962</v>
+        <v>970</v>
       </c>
     </row>
     <row r="45" spans="4:14">
       <c r="D45" s="29" t="s">
-        <v>963</v>
+        <v>971</v>
       </c>
       <c r="E45" s="29"/>
       <c r="F45" s="29"/>
@@ -16594,10 +16675,10 @@
     </row>
     <row r="47" spans="1:14">
       <c r="A47" s="25" t="s">
-        <v>964</v>
+        <v>972</v>
       </c>
       <c r="C47" s="30" t="s">
-        <v>965</v>
+        <v>973</v>
       </c>
       <c r="D47" s="30"/>
       <c r="E47" s="30"/>
@@ -16613,12 +16694,12 @@
     </row>
     <row r="48" spans="2:2">
       <c r="B48" s="28" t="s">
-        <v>966</v>
+        <v>974</v>
       </c>
     </row>
     <row r="49" ht="74" customHeight="1" spans="3:14">
       <c r="C49" s="29" t="s">
-        <v>967</v>
+        <v>975</v>
       </c>
       <c r="D49" s="30"/>
       <c r="E49" s="30"/>
@@ -16634,12 +16715,12 @@
     </row>
     <row r="50" spans="2:2">
       <c r="B50" s="28" t="s">
-        <v>968</v>
+        <v>976</v>
       </c>
     </row>
     <row r="51" ht="57" customHeight="1" spans="3:14">
       <c r="C51" s="29" t="s">
-        <v>969</v>
+        <v>977</v>
       </c>
       <c r="D51" s="30"/>
       <c r="E51" s="30"/>
@@ -16655,12 +16736,12 @@
     </row>
     <row r="52" spans="2:2">
       <c r="B52" s="28" t="s">
-        <v>970</v>
+        <v>978</v>
       </c>
     </row>
     <row r="53" ht="37" customHeight="1" spans="3:14">
       <c r="C53" s="29" t="s">
-        <v>971</v>
+        <v>979</v>
       </c>
       <c r="D53" s="29"/>
       <c r="E53" s="29"/>
@@ -16676,24 +16757,24 @@
     </row>
     <row r="55" spans="1:1">
       <c r="A55" s="25" t="s">
-        <v>972</v>
+        <v>980</v>
       </c>
     </row>
     <row r="56" spans="2:3">
       <c r="B56" s="28" t="s">
-        <v>973</v>
+        <v>981</v>
       </c>
       <c r="C56" s="32"/>
     </row>
     <row r="57" spans="3:3">
       <c r="C57" s="32" t="s">
-        <v>974</v>
+        <v>982</v>
       </c>
     </row>
     <row r="58" spans="3:14">
       <c r="C58" s="32"/>
       <c r="D58" s="29" t="s">
-        <v>975</v>
+        <v>983</v>
       </c>
       <c r="E58" s="29"/>
       <c r="F58" s="29"/>
@@ -16708,13 +16789,13 @@
     </row>
     <row r="59" spans="3:3">
       <c r="C59" s="32" t="s">
-        <v>976</v>
+        <v>984</v>
       </c>
     </row>
     <row r="60" ht="95" customHeight="1" spans="3:14">
       <c r="C60" s="32"/>
-      <c r="D60" s="117" t="s">
-        <v>977</v>
+      <c r="D60" s="118" t="s">
+        <v>985</v>
       </c>
       <c r="E60" s="29"/>
       <c r="F60" s="29"/>
@@ -16729,13 +16810,13 @@
     </row>
     <row r="61" spans="3:3">
       <c r="C61" s="32" t="s">
-        <v>978</v>
+        <v>986</v>
       </c>
     </row>
     <row r="62" ht="108" customHeight="1" spans="3:14">
       <c r="C62" s="32"/>
       <c r="D62" s="29" t="s">
-        <v>979</v>
+        <v>987</v>
       </c>
       <c r="E62" s="29"/>
       <c r="F62" s="29"/>
@@ -16750,12 +16831,12 @@
     </row>
     <row r="63" spans="3:3">
       <c r="C63" s="32" t="s">
-        <v>980</v>
+        <v>988</v>
       </c>
     </row>
     <row r="64" ht="36" customHeight="1" spans="4:14">
       <c r="D64" s="29" t="s">
-        <v>981</v>
+        <v>989</v>
       </c>
       <c r="E64" s="29"/>
       <c r="F64" s="29"/>
@@ -16782,10 +16863,10 @@
     </row>
     <row r="66" ht="19" customHeight="1" spans="1:14">
       <c r="A66" s="25" t="s">
-        <v>982</v>
+        <v>990</v>
       </c>
       <c r="C66" s="29" t="s">
-        <v>983</v>
+        <v>991</v>
       </c>
       <c r="D66" s="29"/>
       <c r="E66" s="29"/>
@@ -16801,19 +16882,19 @@
     </row>
     <row r="67" spans="2:3">
       <c r="B67" s="28" t="s">
-        <v>984</v>
+        <v>992</v>
       </c>
       <c r="C67" s="32"/>
     </row>
     <row r="68" spans="3:3">
       <c r="C68" s="32" t="s">
-        <v>985</v>
+        <v>993</v>
       </c>
     </row>
     <row r="69" ht="72" customHeight="1" spans="3:14">
       <c r="C69" s="32"/>
-      <c r="D69" s="117" t="s">
-        <v>986</v>
+      <c r="D69" s="118" t="s">
+        <v>994</v>
       </c>
       <c r="E69" s="29"/>
       <c r="F69" s="29"/>
@@ -16828,13 +16909,13 @@
     </row>
     <row r="70" spans="3:3">
       <c r="C70" s="32" t="s">
-        <v>987</v>
+        <v>995</v>
       </c>
     </row>
     <row r="71" ht="102" customHeight="1" spans="3:14">
       <c r="C71" s="32"/>
-      <c r="D71" s="117" t="s">
-        <v>988</v>
+      <c r="D71" s="118" t="s">
+        <v>996</v>
       </c>
       <c r="E71" s="29"/>
       <c r="F71" s="29"/>
@@ -16849,7 +16930,7 @@
     </row>
     <row r="72" spans="3:13">
       <c r="C72" s="32" t="s">
-        <v>989</v>
+        <v>997</v>
       </c>
       <c r="D72"/>
       <c r="E72"/>
@@ -16865,7 +16946,7 @@
     <row r="73" spans="3:13">
       <c r="C73" s="32"/>
       <c r="D73" s="30" t="s">
-        <v>990</v>
+        <v>998</v>
       </c>
       <c r="E73" s="30"/>
       <c r="F73" s="30"/>
@@ -16879,7 +16960,7 @@
     </row>
     <row r="74" spans="3:13">
       <c r="C74" s="32" t="s">
-        <v>991</v>
+        <v>999</v>
       </c>
       <c r="D74"/>
       <c r="E74"/>
@@ -16895,7 +16976,7 @@
     <row r="75" ht="57" customHeight="1" spans="3:14">
       <c r="C75" s="32"/>
       <c r="D75" s="29" t="s">
-        <v>992</v>
+        <v>1000</v>
       </c>
       <c r="E75" s="29"/>
       <c r="F75" s="29"/>
@@ -16910,13 +16991,13 @@
     </row>
     <row r="76" spans="3:3">
       <c r="C76" s="32" t="s">
-        <v>993</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="77" ht="108" customHeight="1" spans="3:14">
       <c r="C77" s="32"/>
-      <c r="D77" s="117" t="s">
-        <v>994</v>
+      <c r="D77" s="118" t="s">
+        <v>1002</v>
       </c>
       <c r="E77" s="29"/>
       <c r="F77" s="29"/>
@@ -16931,17 +17012,17 @@
     </row>
     <row r="79" spans="1:1">
       <c r="A79" s="25" t="s">
-        <v>995</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="80" spans="2:2">
       <c r="B80" s="28" t="s">
-        <v>996</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="81" ht="159" customHeight="1" spans="3:14">
       <c r="C81" s="29" t="s">
-        <v>997</v>
+        <v>1005</v>
       </c>
       <c r="D81" s="29"/>
       <c r="E81" s="29"/>
@@ -16957,10 +17038,10 @@
     </row>
     <row r="82" spans="2:14">
       <c r="B82" s="28" t="s">
-        <v>998</v>
+        <v>1006</v>
       </c>
       <c r="D82" s="29" t="s">
-        <v>999</v>
+        <v>1007</v>
       </c>
       <c r="E82" s="29"/>
       <c r="F82" s="29"/>
@@ -16975,7 +17056,7 @@
     </row>
     <row r="83" ht="58" customHeight="1" spans="3:14">
       <c r="C83" s="29" t="s">
-        <v>1000</v>
+        <v>1008</v>
       </c>
       <c r="D83" s="29"/>
       <c r="E83" s="29"/>
@@ -16991,7 +17072,7 @@
     </row>
     <row r="84" ht="22" customHeight="1" spans="3:13">
       <c r="C84" s="33" t="s">
-        <v>1001</v>
+        <v>1009</v>
       </c>
       <c r="D84" s="29"/>
       <c r="E84" s="29"/>
@@ -17007,7 +17088,7 @@
     <row r="85" ht="161" customHeight="1" spans="3:14">
       <c r="C85" s="29"/>
       <c r="D85" s="29" t="s">
-        <v>1002</v>
+        <v>1010</v>
       </c>
       <c r="E85" s="29"/>
       <c r="F85" s="29"/>
@@ -17022,17 +17103,17 @@
     </row>
     <row r="86" spans="1:1">
       <c r="A86" s="25" t="s">
-        <v>1003</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="87" spans="2:2">
       <c r="B87" s="28" t="s">
-        <v>1004</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="88" ht="85" customHeight="1" spans="3:14">
       <c r="C88" s="29" t="s">
-        <v>1005</v>
+        <v>1013</v>
       </c>
       <c r="D88" s="29"/>
       <c r="E88" s="29"/>
@@ -17048,12 +17129,12 @@
     </row>
     <row r="89" spans="3:3">
       <c r="C89" s="32" t="s">
-        <v>1006</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="90" ht="60" customHeight="1" spans="4:14">
       <c r="D90" s="29" t="s">
-        <v>1007</v>
+        <v>1015</v>
       </c>
       <c r="E90" s="29"/>
       <c r="F90" s="29"/>
@@ -17068,12 +17149,12 @@
     </row>
     <row r="91" spans="2:2">
       <c r="B91" s="28" t="s">
-        <v>1008</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="92" ht="56" customHeight="1" spans="3:14">
       <c r="C92" s="29" t="s">
-        <v>1009</v>
+        <v>1017</v>
       </c>
       <c r="D92" s="29"/>
       <c r="E92" s="29"/>
@@ -17089,12 +17170,12 @@
     </row>
     <row r="93" spans="3:3">
       <c r="C93" s="32" t="s">
-        <v>1010</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="94" ht="153" customHeight="1" spans="4:14">
       <c r="D94" s="29" t="s">
-        <v>1011</v>
+        <v>1019</v>
       </c>
       <c r="E94" s="29"/>
       <c r="F94" s="29"/>
@@ -17122,12 +17203,12 @@
     </row>
     <row r="96" ht="20" customHeight="1" spans="1:1">
       <c r="A96" s="25" t="s">
-        <v>1012</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="97" ht="41" customHeight="1" spans="2:14">
       <c r="B97" s="29" t="s">
-        <v>1013</v>
+        <v>1021</v>
       </c>
       <c r="C97" s="29"/>
       <c r="D97" s="29"/>
@@ -17144,12 +17225,12 @@
     </row>
     <row r="98" ht="23" customHeight="1" spans="2:2">
       <c r="B98" s="28" t="s">
-        <v>1014</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="99" ht="172" customHeight="1" spans="3:14">
       <c r="C99" s="29" t="s">
-        <v>1015</v>
+        <v>1023</v>
       </c>
       <c r="D99" s="29"/>
       <c r="E99" s="29"/>
@@ -17165,12 +17246,12 @@
     </row>
     <row r="100" spans="2:2">
       <c r="B100" s="28" t="s">
-        <v>1016</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="101" ht="55" customHeight="1" spans="3:14">
       <c r="C101" s="29" t="s">
-        <v>1017</v>
+        <v>1025</v>
       </c>
       <c r="D101" s="29"/>
       <c r="E101" s="29"/>
@@ -17186,7 +17267,7 @@
     </row>
     <row r="102" ht="125" customHeight="1" spans="3:14">
       <c r="C102" s="34" t="s">
-        <v>1018</v>
+        <v>1026</v>
       </c>
       <c r="D102" s="35"/>
       <c r="E102" s="35"/>
@@ -17216,10 +17297,10 @@
     </row>
     <row r="104" ht="24" customHeight="1" spans="1:14">
       <c r="A104" s="25" t="s">
-        <v>1019</v>
+        <v>1027</v>
       </c>
       <c r="C104" s="29" t="s">
-        <v>1020</v>
+        <v>1028</v>
       </c>
       <c r="D104" s="29"/>
       <c r="E104" s="29"/>
@@ -17235,12 +17316,12 @@
     </row>
     <row r="105" ht="20" customHeight="1" spans="2:2">
       <c r="B105" s="28" t="s">
-        <v>1021</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="106" ht="20" customHeight="1" spans="3:14">
       <c r="C106" s="30" t="s">
-        <v>1022</v>
+        <v>1030</v>
       </c>
       <c r="D106" s="30"/>
       <c r="E106" s="30"/>
@@ -17256,12 +17337,12 @@
     </row>
     <row r="107" ht="20" customHeight="1" spans="2:2">
       <c r="B107" s="28" t="s">
-        <v>1023</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="108" ht="20" customHeight="1" spans="3:14">
       <c r="C108" s="30" t="s">
-        <v>1024</v>
+        <v>1032</v>
       </c>
       <c r="D108" s="30"/>
       <c r="E108" s="30"/>
@@ -17277,12 +17358,12 @@
     </row>
     <row r="109" ht="20" customHeight="1" spans="2:2">
       <c r="B109" s="28" t="s">
-        <v>1025</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="110" ht="19" customHeight="1" spans="3:14">
       <c r="C110" s="29" t="s">
-        <v>1026</v>
+        <v>1034</v>
       </c>
       <c r="D110" s="29"/>
       <c r="E110" s="29"/>
@@ -17298,17 +17379,17 @@
     </row>
     <row r="112" ht="19" customHeight="1" spans="1:1">
       <c r="A112" s="25" t="s">
-        <v>1027</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="113" spans="2:2">
       <c r="B113" s="28" t="s">
-        <v>1028</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="114" ht="35" customHeight="1" spans="3:14">
       <c r="C114" s="29" t="s">
-        <v>1029</v>
+        <v>1037</v>
       </c>
       <c r="D114" s="29"/>
       <c r="E114" s="29"/>
@@ -17324,17 +17405,17 @@
     </row>
     <row r="115" spans="2:2">
       <c r="B115" s="28" t="s">
-        <v>1030</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="116" spans="3:3">
       <c r="C116" s="32" t="s">
-        <v>1031</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="117" ht="37" customHeight="1" spans="4:14">
       <c r="D117" s="29" t="s">
-        <v>1032</v>
+        <v>1040</v>
       </c>
       <c r="E117" s="29"/>
       <c r="F117" s="29"/>
@@ -17349,12 +17430,12 @@
     </row>
     <row r="118" spans="3:3">
       <c r="C118" s="32" t="s">
-        <v>1033</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="119" spans="4:14">
       <c r="D119" s="29" t="s">
-        <v>1034</v>
+        <v>1042</v>
       </c>
       <c r="E119" s="29"/>
       <c r="F119" s="29"/>
@@ -17369,12 +17450,12 @@
     </row>
     <row r="120" spans="3:3">
       <c r="C120" s="32" t="s">
-        <v>1035</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="121" ht="54" customHeight="1" spans="4:14">
       <c r="D121" s="29" t="s">
-        <v>1036</v>
+        <v>1044</v>
       </c>
       <c r="E121" s="29"/>
       <c r="F121" s="29"/>
@@ -17389,12 +17470,12 @@
     </row>
     <row r="122" spans="2:2">
       <c r="B122" s="28" t="s">
-        <v>1037</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="123" ht="36" customHeight="1" spans="3:14">
       <c r="C123" s="29" t="s">
-        <v>1038</v>
+        <v>1046</v>
       </c>
       <c r="D123" s="29"/>
       <c r="E123" s="29"/>
@@ -17410,17 +17491,17 @@
     </row>
     <row r="124" spans="2:2">
       <c r="B124" s="28" t="s">
-        <v>1039</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="125" spans="3:3">
       <c r="C125" s="32" t="s">
-        <v>1040</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="126" spans="4:14">
       <c r="D126" s="29" t="s">
-        <v>1041</v>
+        <v>1049</v>
       </c>
       <c r="E126" s="29"/>
       <c r="F126" s="29"/>
@@ -17435,12 +17516,12 @@
     </row>
     <row r="127" spans="3:3">
       <c r="C127" s="32" t="s">
-        <v>1042</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="128" ht="21" customHeight="1" spans="4:14">
       <c r="D128" s="29" t="s">
-        <v>1043</v>
+        <v>1051</v>
       </c>
       <c r="E128" s="29"/>
       <c r="F128" s="29"/>
@@ -17455,12 +17536,12 @@
     </row>
     <row r="129" ht="19" customHeight="1" spans="2:2">
       <c r="B129" s="28" t="s">
-        <v>1044</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="130" spans="3:13">
       <c r="C130" s="36" t="s">
-        <v>1045</v>
+        <v>1053</v>
       </c>
       <c r="D130" s="37"/>
       <c r="E130" s="37"/>
@@ -17476,7 +17557,7 @@
     <row r="131" ht="76" customHeight="1" spans="3:14">
       <c r="C131" s="36"/>
       <c r="D131" s="38" t="s">
-        <v>1046</v>
+        <v>1054</v>
       </c>
       <c r="E131" s="38"/>
       <c r="F131" s="38"/>
@@ -17491,7 +17572,7 @@
     </row>
     <row r="132" spans="3:13">
       <c r="C132" s="36" t="s">
-        <v>1047</v>
+        <v>1055</v>
       </c>
       <c r="D132" s="37"/>
       <c r="E132" s="37"/>
@@ -17507,7 +17588,7 @@
     <row r="133" ht="95" customHeight="1" spans="3:14">
       <c r="C133" s="36"/>
       <c r="D133" s="38" t="s">
-        <v>1048</v>
+        <v>1056</v>
       </c>
       <c r="E133" s="38"/>
       <c r="F133" s="38"/>
@@ -17522,7 +17603,7 @@
     </row>
     <row r="134" spans="3:13">
       <c r="C134" s="36" t="s">
-        <v>1049</v>
+        <v>1057</v>
       </c>
       <c r="D134" s="37"/>
       <c r="E134" s="37"/>
@@ -17538,7 +17619,7 @@
     <row r="135" ht="79" customHeight="1" spans="3:14">
       <c r="C135" s="36"/>
       <c r="D135" s="38" t="s">
-        <v>1050</v>
+        <v>1058</v>
       </c>
       <c r="E135" s="38"/>
       <c r="F135" s="38"/>
@@ -17553,12 +17634,12 @@
     </row>
     <row r="136" spans="3:3">
       <c r="C136" s="32" t="s">
-        <v>1051</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="137" ht="73" customHeight="1" spans="4:14">
       <c r="D137" s="38" t="s">
-        <v>1052</v>
+        <v>1060</v>
       </c>
       <c r="E137" s="38"/>
       <c r="F137" s="38"/>
@@ -17573,12 +17654,12 @@
     </row>
     <row r="138" spans="2:2">
       <c r="B138" s="28" t="s">
-        <v>1053</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="139" spans="3:14">
       <c r="C139" s="29" t="s">
-        <v>1054</v>
+        <v>1062</v>
       </c>
       <c r="D139" s="29"/>
       <c r="E139" s="29"/>
@@ -17594,10 +17675,10 @@
     </row>
     <row r="141" spans="1:14">
       <c r="A141" s="25" t="s">
-        <v>1055</v>
+        <v>1063</v>
       </c>
       <c r="C141" s="29" t="s">
-        <v>1056</v>
+        <v>1064</v>
       </c>
       <c r="D141" s="29"/>
       <c r="E141" s="29"/>
@@ -17613,7 +17694,7 @@
     </row>
     <row r="142" ht="187" customHeight="1" spans="2:14">
       <c r="B142" s="31" t="s">
-        <v>1057</v>
+        <v>1065</v>
       </c>
       <c r="C142" s="31"/>
       <c r="D142" s="31"/>
@@ -17630,12 +17711,12 @@
     </row>
     <row r="144" spans="1:1">
       <c r="A144" s="25" t="s">
-        <v>1058</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="145" ht="39" customHeight="1" spans="2:14">
       <c r="B145" s="31" t="s">
-        <v>1059</v>
+        <v>1067</v>
       </c>
       <c r="C145" s="31"/>
       <c r="D145" s="31"/>
@@ -17652,12 +17733,12 @@
     </row>
     <row r="146" spans="2:2">
       <c r="B146" s="28" t="s">
-        <v>1060</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="147" ht="220" customHeight="1" spans="3:14">
       <c r="C147" s="29" t="s">
-        <v>1061</v>
+        <v>1069</v>
       </c>
       <c r="D147" s="29"/>
       <c r="E147" s="29"/>
@@ -17673,10 +17754,10 @@
     </row>
     <row r="149" spans="1:14">
       <c r="A149" s="25" t="s">
-        <v>1062</v>
+        <v>1070</v>
       </c>
       <c r="C149" s="30" t="s">
-        <v>1063</v>
+        <v>1071</v>
       </c>
       <c r="D149" s="30"/>
       <c r="E149" s="30"/>
@@ -17692,12 +17773,12 @@
     </row>
     <row r="150" spans="2:2">
       <c r="B150" s="28" t="s">
-        <v>1064</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="151" ht="190" customHeight="1" spans="3:14">
       <c r="C151" s="29" t="s">
-        <v>1065</v>
+        <v>1073</v>
       </c>
       <c r="D151" s="29"/>
       <c r="E151" s="29"/>
@@ -17713,12 +17794,12 @@
     </row>
     <row r="152" spans="2:2">
       <c r="B152" s="28" t="s">
-        <v>1066</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="153" ht="117" customHeight="1" spans="3:14">
-      <c r="C153" s="117" t="s">
-        <v>1067</v>
+      <c r="C153" s="118" t="s">
+        <v>1075</v>
       </c>
       <c r="D153" s="29"/>
       <c r="E153" s="29"/>
@@ -17734,10 +17815,10 @@
     </row>
     <row r="154" spans="1:14">
       <c r="A154" s="25" t="s">
-        <v>1068</v>
+        <v>1076</v>
       </c>
       <c r="C154" s="29" t="s">
-        <v>1069</v>
+        <v>1077</v>
       </c>
       <c r="D154" s="29"/>
       <c r="E154" s="29"/>
@@ -17753,12 +17834,12 @@
     </row>
     <row r="155" spans="2:2">
       <c r="B155" s="28" t="s">
-        <v>1070</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="156" ht="145" customHeight="1" spans="3:14">
       <c r="C156" s="29" t="s">
-        <v>1071</v>
+        <v>1079</v>
       </c>
       <c r="D156" s="29"/>
       <c r="E156" s="29"/>
@@ -17774,12 +17855,12 @@
     </row>
     <row r="157" spans="2:2">
       <c r="B157" s="28" t="s">
-        <v>1072</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="158" ht="102" customHeight="1" spans="3:14">
-      <c r="C158" s="117" t="s">
-        <v>1073</v>
+      <c r="C158" s="118" t="s">
+        <v>1081</v>
       </c>
       <c r="D158" s="29"/>
       <c r="E158" s="29"/>
@@ -17795,12 +17876,12 @@
     </row>
     <row r="159" spans="2:2">
       <c r="B159" s="28" t="s">
-        <v>1074</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="160" ht="55" customHeight="1" spans="3:14">
       <c r="C160" s="29" t="s">
-        <v>1075</v>
+        <v>1083</v>
       </c>
       <c r="D160" s="29"/>
       <c r="E160" s="29"/>
@@ -17816,7 +17897,7 @@
     </row>
     <row r="161" ht="71" customHeight="1" spans="3:14">
       <c r="C161" s="29" t="s">
-        <v>1076</v>
+        <v>1084</v>
       </c>
       <c r="D161" s="29"/>
       <c r="E161" s="29"/>
@@ -17832,7 +17913,7 @@
     </row>
     <row r="162" ht="162" customHeight="1" spans="3:14">
       <c r="C162" s="29" t="s">
-        <v>1077</v>
+        <v>1085</v>
       </c>
       <c r="D162" s="29"/>
       <c r="E162" s="29"/>
@@ -17848,7 +17929,7 @@
     </row>
     <row r="163" ht="139" customHeight="1" spans="3:14">
       <c r="C163" s="29" t="s">
-        <v>1078</v>
+        <v>1086</v>
       </c>
       <c r="D163" s="29"/>
       <c r="E163" s="29"/>
@@ -17864,12 +17945,12 @@
     </row>
     <row r="164" spans="2:2">
       <c r="B164" s="28" t="s">
-        <v>1079</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="165" ht="54" customHeight="1" spans="3:14">
       <c r="C165" s="29" t="s">
-        <v>1080</v>
+        <v>1088</v>
       </c>
       <c r="D165" s="29"/>
       <c r="E165" s="29"/>
@@ -17885,20 +17966,20 @@
     </row>
     <row r="167" spans="1:1">
       <c r="A167" s="25" t="s">
-        <v>1081</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="168" spans="2:2">
       <c r="B168" s="28" t="s">
-        <v>1082</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="169" ht="77" customHeight="1" spans="3:14">
       <c r="C169" s="3" t="s">
-        <v>1083</v>
+        <v>1091</v>
       </c>
       <c r="D169" s="39" t="s">
-        <v>1084</v>
+        <v>1092</v>
       </c>
       <c r="E169" s="29"/>
       <c r="F169" s="29"/>
@@ -17912,13 +17993,13 @@
       <c r="N169" s="29"/>
     </row>
     <row r="171" spans="3:3">
-      <c r="C171" s="118" t="s">
+      <c r="C171" s="119" t="s">
         <v>364</v>
       </c>
     </row>
     <row r="172" spans="4:14">
       <c r="D172" s="30" t="s">
-        <v>1085</v>
+        <v>1093</v>
       </c>
       <c r="E172" s="30"/>
       <c r="F172" s="30"/>
@@ -17933,10 +18014,10 @@
     </row>
     <row r="173" spans="2:14">
       <c r="B173" s="28" t="s">
-        <v>1086</v>
+        <v>1094</v>
       </c>
       <c r="D173" s="40" t="s">
-        <v>1087</v>
+        <v>1095</v>
       </c>
       <c r="E173" s="40"/>
       <c r="F173" s="40"/>
@@ -17951,7 +18032,7 @@
     </row>
     <row r="174" ht="83" customHeight="1" spans="3:14">
       <c r="C174" s="29" t="s">
-        <v>1088</v>
+        <v>1096</v>
       </c>
       <c r="D174" s="30"/>
       <c r="E174" s="30"/>
@@ -17967,17 +18048,17 @@
     </row>
     <row r="176" spans="1:1">
       <c r="A176" s="25" t="s">
-        <v>1089</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="177" spans="2:2">
       <c r="B177" s="28" t="s">
-        <v>1090</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="178" ht="72" customHeight="1" spans="3:14">
       <c r="C178" s="29" t="s">
-        <v>1091</v>
+        <v>1099</v>
       </c>
       <c r="D178" s="29"/>
       <c r="E178" s="29"/>
@@ -17993,12 +18074,12 @@
     </row>
     <row r="179" spans="2:2">
       <c r="B179" s="28" t="s">
-        <v>1092</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="180" ht="58" customHeight="1" spans="3:14">
       <c r="C180" s="29" t="s">
-        <v>1093</v>
+        <v>1101</v>
       </c>
       <c r="D180" s="29"/>
       <c r="E180" s="29"/>
@@ -18014,12 +18095,12 @@
     </row>
     <row r="182" spans="2:2">
       <c r="B182" s="28" t="s">
-        <v>1094</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="183" ht="37" customHeight="1" spans="3:14">
       <c r="C183" s="29" t="s">
-        <v>1095</v>
+        <v>1103</v>
       </c>
       <c r="D183" s="29"/>
       <c r="E183" s="29"/>
@@ -18035,12 +18116,12 @@
     </row>
     <row r="184" spans="2:2">
       <c r="B184" s="28" t="s">
-        <v>1096</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="185" ht="33" customHeight="1" spans="3:14">
       <c r="C185" s="29" t="s">
-        <v>1097</v>
+        <v>1105</v>
       </c>
       <c r="D185" s="29"/>
       <c r="E185" s="29"/>
@@ -18056,17 +18137,17 @@
     </row>
     <row r="187" spans="1:1">
       <c r="A187" s="25" t="s">
-        <v>1098</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="188" spans="2:2">
       <c r="B188" s="28" t="s">
-        <v>1099</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="189" ht="91" customHeight="1" spans="3:14">
       <c r="C189" s="29" t="s">
-        <v>1100</v>
+        <v>1108</v>
       </c>
       <c r="D189" s="29"/>
       <c r="E189" s="29"/>
@@ -18082,12 +18163,12 @@
     </row>
     <row r="190" spans="2:2">
       <c r="B190" s="28" t="s">
-        <v>1101</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="191" ht="178" customHeight="1" spans="3:14">
       <c r="C191" s="29" t="s">
-        <v>1102</v>
+        <v>1110</v>
       </c>
       <c r="D191" s="29"/>
       <c r="E191" s="29"/>
@@ -18219,339 +18300,339 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="25" t="s">
-        <v>1103</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="2" ht="35" customHeight="1" spans="2:2">
       <c r="B2" s="26" t="s">
-        <v>1104</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="3" ht="66" spans="2:2">
       <c r="B3" s="26" t="s">
-        <v>1105</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="25" t="s">
-        <v>1106</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="6" ht="33" spans="2:2">
       <c r="B6" s="26" t="s">
-        <v>1107</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:1">
       <c r="A8" s="25" t="s">
-        <v>1108</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="9" ht="82.5" spans="2:2">
       <c r="B9" s="26" t="s">
-        <v>1109</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="25" t="s">
-        <v>1110</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="12" spans="2:2">
       <c r="B12" s="26" t="s">
-        <v>1111</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" s="25" t="s">
-        <v>1112</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="16" ht="49.5" spans="2:2">
       <c r="B16" s="26" t="s">
-        <v>1113</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="18" ht="66" spans="2:2">
       <c r="B18" s="26" t="s">
-        <v>1114</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" s="25" t="s">
-        <v>1115</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="21" spans="2:2">
       <c r="B21" s="26" t="s">
-        <v>1116</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" s="25" t="s">
-        <v>1117</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="24" ht="99" spans="2:2">
       <c r="B24" s="26" t="s">
-        <v>1118</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" s="25" t="s">
-        <v>1119</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="27" ht="165" spans="2:2">
       <c r="B27" s="26" t="s">
-        <v>1120</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" s="25" t="s">
-        <v>1121</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="30" ht="49.5" spans="2:2">
       <c r="B30" s="26" t="s">
-        <v>1122</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32" s="25" t="s">
-        <v>1123</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="33" ht="82.5" spans="2:2">
       <c r="B33" s="26" t="s">
-        <v>1124</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" s="25" t="s">
-        <v>1125</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="36" ht="66" spans="2:2">
       <c r="B36" s="26" t="s">
-        <v>1126</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38" s="25" t="s">
-        <v>1127</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="39" ht="49.5" spans="2:2">
       <c r="B39" s="26" t="s">
-        <v>1128</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41" s="25" t="s">
-        <v>1129</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="42" ht="66" spans="2:2">
       <c r="B42" s="26" t="s">
-        <v>1130</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44" s="25" t="s">
-        <v>1131</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="45" ht="66" spans="2:2">
       <c r="B45" s="26" t="s">
-        <v>1132</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47" s="25" t="s">
-        <v>1133</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="48" ht="49.5" spans="2:2">
       <c r="B48" s="26" t="s">
-        <v>1134</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="50" spans="1:1">
       <c r="A50" s="25" t="s">
-        <v>1135</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="51" ht="82.5" spans="2:2">
       <c r="B51" s="26" t="s">
-        <v>1136</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="53" spans="1:1">
       <c r="A53" s="25" t="s">
-        <v>1137</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="54" ht="33" spans="2:2">
       <c r="B54" s="26" t="s">
-        <v>1138</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="56" spans="1:1">
       <c r="A56" s="25" t="s">
-        <v>1139</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="57" ht="49.5" spans="2:2">
       <c r="B57" s="26" t="s">
-        <v>1140</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="59" spans="1:1">
       <c r="A59" s="25" t="s">
-        <v>1141</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="60" ht="33" spans="2:2">
       <c r="B60" s="26" t="s">
-        <v>1142</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="62" spans="1:1">
       <c r="A62" s="25" t="s">
-        <v>1143</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="63" ht="82.5" spans="2:2">
       <c r="B63" s="26" t="s">
-        <v>1144</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="64" spans="2:2">
       <c r="B64" s="26" t="s">
-        <v>1145</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="66" spans="1:1">
       <c r="A66" s="25" t="s">
-        <v>1146</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="67" spans="2:2">
       <c r="B67" s="26" t="s">
-        <v>1147</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69" s="25" t="s">
-        <v>1148</v>
+        <v>1156</v>
       </c>
       <c r="B69" s="26" t="s">
-        <v>1149</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="70" ht="33" spans="2:2">
       <c r="B70" s="26" t="s">
-        <v>1150</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="71" ht="49.5" spans="2:2">
       <c r="B71" s="26" t="s">
-        <v>1151</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="73" spans="1:1">
       <c r="A73" s="25" t="s">
-        <v>1152</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="74" ht="33" spans="2:2">
       <c r="B74" s="26" t="s">
-        <v>1153</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="76" spans="1:1">
       <c r="A76" s="25" t="s">
-        <v>1154</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="77" spans="2:2">
       <c r="B77" s="26" t="s">
-        <v>1155</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="79" spans="1:1">
       <c r="A79" s="25" t="s">
-        <v>1156</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="80" ht="132" spans="2:2">
       <c r="B80" s="26" t="s">
-        <v>1157</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="82" spans="1:1">
       <c r="A82" s="25" t="s">
-        <v>1158</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="83" spans="2:2">
       <c r="B83" s="26" t="s">
-        <v>1159</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="84" ht="49.5" spans="2:2">
       <c r="B84" s="26" t="s">
-        <v>1160</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="86" spans="1:2">
       <c r="A86" s="25" t="s">
-        <v>1161</v>
+        <v>1169</v>
       </c>
       <c r="B86" s="26" t="s">
-        <v>1162</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="87" ht="33" spans="2:2">
       <c r="B87" s="26" t="s">
-        <v>1163</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="88" ht="66" spans="2:2">
       <c r="B88" s="26" t="s">
-        <v>1164</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="90" spans="1:2">
       <c r="A90" s="25" t="s">
-        <v>1165</v>
+        <v>1173</v>
       </c>
       <c r="B90" s="26" t="s">
-        <v>1166</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="91" ht="148.5" spans="2:2">
       <c r="B91" s="26" t="s">
-        <v>1167</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="92" ht="82.5" spans="2:2">
       <c r="B92" s="26" t="s">
-        <v>1168</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="94" ht="33" spans="1:2">
       <c r="A94" s="25" t="s">
-        <v>1169</v>
+        <v>1177</v>
       </c>
       <c r="B94" s="26" t="s">
-        <v>1170</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="95" ht="115.5" spans="2:2">
       <c r="B95" s="26" t="s">
-        <v>1171</v>
+        <v>1179</v>
       </c>
     </row>
   </sheetData>
@@ -18582,721 +18663,721 @@
   <sheetData>
     <row r="1" customHeight="1" spans="1:3">
       <c r="A1" s="8" t="s">
-        <v>1172</v>
+        <v>1180</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>1173</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="2" ht="18" spans="2:3">
       <c r="B2" s="9" t="s">
-        <v>1174</v>
+        <v>1182</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>1175</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="2:2">
       <c r="B3" s="9" t="s">
-        <v>1176</v>
+        <v>1184</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="3:4">
       <c r="C4" s="10" t="s">
-        <v>1177</v>
+        <v>1185</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>1178</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="5" ht="33" spans="3:4">
       <c r="C5" s="10" t="s">
-        <v>785</v>
+        <v>793</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>1179</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="3:4">
       <c r="C6" s="10" t="s">
-        <v>1180</v>
+        <v>1188</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>1181</v>
+        <v>1189</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="2:2">
       <c r="B7" s="9" t="s">
-        <v>1182</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="8" ht="49.5" spans="3:4">
       <c r="C8" s="14" t="s">
-        <v>1183</v>
+        <v>1191</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>1184</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="9" ht="165" spans="3:4">
       <c r="C9" s="10" t="s">
-        <v>1185</v>
+        <v>1193</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>1186</v>
+        <v>1194</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="3:3">
       <c r="C10" s="10" t="s">
-        <v>1187</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="3:4">
       <c r="C11" s="10" t="s">
-        <v>1188</v>
+        <v>1196</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>1189</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="3:3">
       <c r="C12" s="10" t="s">
-        <v>1190</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="13" ht="82.5" spans="3:4">
       <c r="C13" s="10" t="s">
-        <v>1191</v>
+        <v>1199</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>1192</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="14" ht="165" spans="3:4">
       <c r="C14" s="10" t="s">
-        <v>1193</v>
+        <v>1201</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>1194</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="17" customHeight="1" spans="2:3">
       <c r="B17" s="15" t="s">
-        <v>1195</v>
+        <v>1203</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>1196</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="18" customHeight="1" spans="3:3">
       <c r="C18" s="10" t="s">
-        <v>1197</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="19" ht="231" spans="3:4">
       <c r="C19" s="16" t="s">
-        <v>1198</v>
+        <v>1206</v>
       </c>
       <c r="D19" s="11" t="s">
-        <v>1199</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="20" ht="99" spans="3:4">
       <c r="C20" s="16" t="s">
-        <v>1200</v>
+        <v>1208</v>
       </c>
       <c r="D20" s="11" t="s">
-        <v>1201</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="21" ht="148.5" spans="3:4">
       <c r="C21" s="10" t="s">
-        <v>1202</v>
+        <v>1210</v>
       </c>
       <c r="D21" s="11" t="s">
-        <v>1203</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="22" ht="132" spans="3:4">
       <c r="C22" s="10" t="s">
-        <v>1204</v>
+        <v>1212</v>
       </c>
       <c r="D22" s="11" t="s">
-        <v>1205</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="23" ht="33" spans="3:4">
       <c r="C23" s="10" t="s">
-        <v>1206</v>
+        <v>1214</v>
       </c>
       <c r="D23" s="11" t="s">
-        <v>1207</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="25" customHeight="1" spans="2:2">
       <c r="B25" s="9" t="s">
-        <v>1208</v>
+        <v>1216</v>
       </c>
     </row>
     <row r="26" customHeight="1" spans="3:4">
       <c r="C26" s="10" t="s">
-        <v>1209</v>
+        <v>1217</v>
       </c>
       <c r="D26" s="11" t="s">
-        <v>1210</v>
+        <v>1218</v>
       </c>
     </row>
     <row r="27" customHeight="1" spans="3:3">
       <c r="C27" s="10" t="s">
-        <v>1211</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="28" ht="33" spans="3:4">
       <c r="C28" s="16" t="s">
-        <v>1212</v>
+        <v>1220</v>
       </c>
       <c r="D28" s="11" t="s">
-        <v>1213</v>
+        <v>1221</v>
       </c>
     </row>
     <row r="29" customHeight="1" spans="3:4">
       <c r="C29" s="16" t="s">
-        <v>1214</v>
+        <v>1222</v>
       </c>
       <c r="D29" s="11" t="s">
-        <v>1215</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="30" ht="33" spans="3:4">
       <c r="C30" s="16" t="s">
-        <v>1216</v>
+        <v>1224</v>
       </c>
       <c r="D30" s="11" t="s">
-        <v>1217</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="31" customHeight="1" spans="3:4">
       <c r="C31" s="16" t="s">
-        <v>1218</v>
+        <v>1226</v>
       </c>
       <c r="D31" s="11" t="s">
-        <v>1219</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="32" customHeight="1" spans="2:4">
       <c r="B32" s="9" t="s">
-        <v>1220</v>
+        <v>1228</v>
       </c>
       <c r="D32" s="11" t="s">
-        <v>1221</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="33" ht="49.5" spans="3:4">
       <c r="C33" s="10" t="s">
-        <v>1222</v>
+        <v>1230</v>
       </c>
       <c r="D33" s="11" t="s">
-        <v>1223</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="34" customHeight="1" spans="3:4">
       <c r="C34" s="10" t="s">
-        <v>1224</v>
+        <v>1232</v>
       </c>
       <c r="D34" s="11" t="s">
-        <v>1225</v>
+        <v>1233</v>
       </c>
     </row>
     <row r="35" ht="33" spans="3:4">
       <c r="C35" s="14" t="s">
-        <v>1226</v>
+        <v>1234</v>
       </c>
       <c r="D35" s="11" t="s">
-        <v>1227</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="36" customHeight="1" spans="3:4">
       <c r="C36" s="10" t="s">
-        <v>1228</v>
+        <v>1236</v>
       </c>
       <c r="D36" s="11" t="s">
-        <v>1229</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="37" customHeight="1" spans="3:4">
       <c r="C37" s="10" t="s">
-        <v>1230</v>
+        <v>1238</v>
       </c>
       <c r="D37" s="11" t="s">
-        <v>1231</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="38" customHeight="1" spans="1:4">
       <c r="A38" s="8" t="s">
-        <v>1232</v>
+        <v>1240</v>
       </c>
       <c r="D38" s="11" t="s">
-        <v>1233</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="39" customHeight="1" spans="2:4">
       <c r="B39" s="9" t="s">
-        <v>1234</v>
+        <v>1242</v>
       </c>
       <c r="D39" s="11" t="s">
-        <v>1235</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="40" customHeight="1" spans="3:4">
       <c r="C40" s="10" t="s">
-        <v>1236</v>
+        <v>1244</v>
       </c>
       <c r="D40" s="11" t="s">
-        <v>1237</v>
+        <v>1245</v>
       </c>
     </row>
     <row r="41" customHeight="1" spans="3:4">
       <c r="C41" s="10" t="s">
-        <v>1238</v>
+        <v>1246</v>
       </c>
       <c r="D41" s="11" t="s">
-        <v>1239</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="42" customHeight="1" spans="2:2">
       <c r="B42" s="10" t="s">
-        <v>1240</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="43" ht="66" spans="3:4">
       <c r="C43" s="10" t="s">
-        <v>1241</v>
+        <v>1249</v>
       </c>
       <c r="D43" s="11" t="s">
-        <v>1242</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="44" ht="33" spans="3:4">
       <c r="C44" s="10" t="s">
-        <v>624</v>
+        <v>632</v>
       </c>
       <c r="D44" s="11" t="s">
-        <v>1243</v>
+        <v>1251</v>
       </c>
     </row>
     <row r="45" ht="148" customHeight="1" spans="3:4">
       <c r="C45" s="10" t="s">
-        <v>1244</v>
+        <v>1252</v>
       </c>
       <c r="D45" s="11" t="s">
-        <v>1245</v>
+        <v>1253</v>
       </c>
     </row>
     <row r="46" customHeight="1" spans="3:4">
       <c r="C46" s="10" t="s">
-        <v>626</v>
+        <v>634</v>
       </c>
       <c r="D46" s="11" t="s">
-        <v>1246</v>
+        <v>1254</v>
       </c>
     </row>
     <row r="47" customHeight="1" spans="2:4">
       <c r="B47" s="9" t="s">
-        <v>1247</v>
+        <v>1255</v>
       </c>
       <c r="C47" s="10" t="s">
-        <v>1209</v>
+        <v>1217</v>
       </c>
       <c r="D47" s="11" t="s">
-        <v>1210</v>
+        <v>1218</v>
       </c>
     </row>
     <row r="48" ht="120" customHeight="1" spans="3:4">
       <c r="C48" s="10" t="s">
-        <v>1241</v>
+        <v>1249</v>
       </c>
       <c r="D48" s="11" t="s">
-        <v>1248</v>
+        <v>1256</v>
       </c>
     </row>
     <row r="49" ht="33" spans="3:4">
       <c r="C49" s="10" t="s">
-        <v>624</v>
+        <v>632</v>
       </c>
       <c r="D49" s="11" t="s">
-        <v>1249</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="50" ht="115.5" spans="3:4">
       <c r="C50" s="10" t="s">
-        <v>1244</v>
+        <v>1252</v>
       </c>
       <c r="D50" s="11" t="s">
-        <v>1250</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="51" customHeight="1" spans="3:4">
       <c r="C51" s="10" t="s">
-        <v>626</v>
+        <v>634</v>
       </c>
       <c r="D51" s="11" t="s">
-        <v>1251</v>
+        <v>1259</v>
       </c>
     </row>
     <row r="52" ht="33" spans="2:4">
       <c r="B52" s="9" t="s">
-        <v>1252</v>
+        <v>1260</v>
       </c>
       <c r="C52" s="10" t="s">
-        <v>1209</v>
+        <v>1217</v>
       </c>
       <c r="D52" s="11" t="s">
-        <v>1253</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="53" ht="33" spans="3:4">
       <c r="C53" s="10" t="s">
-        <v>1241</v>
+        <v>1249</v>
       </c>
       <c r="D53" s="11" t="s">
-        <v>1254</v>
+        <v>1262</v>
       </c>
     </row>
     <row r="54" ht="27" customHeight="1" spans="3:4">
       <c r="C54" s="10" t="s">
-        <v>624</v>
+        <v>632</v>
       </c>
       <c r="D54" s="11" t="s">
-        <v>1255</v>
+        <v>1263</v>
       </c>
     </row>
     <row r="55" ht="165" spans="3:4">
       <c r="C55" s="10" t="s">
-        <v>1244</v>
+        <v>1252</v>
       </c>
       <c r="D55" s="11" t="s">
-        <v>1256</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="56" customHeight="1" spans="3:4">
       <c r="C56" s="10" t="s">
-        <v>626</v>
+        <v>634</v>
       </c>
       <c r="D56" s="11" t="s">
-        <v>1257</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="57" customHeight="1" spans="1:1">
       <c r="A57" s="8" t="s">
-        <v>1258</v>
+        <v>1266</v>
       </c>
     </row>
     <row r="58" ht="49.5" spans="2:4">
       <c r="B58" s="17" t="s">
-        <v>1259</v>
+        <v>1267</v>
       </c>
       <c r="C58" s="17"/>
       <c r="D58" s="11" t="s">
-        <v>1260</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="59" ht="31" customHeight="1" spans="2:4">
       <c r="B59" s="18" t="s">
-        <v>1261</v>
+        <v>1269</v>
       </c>
       <c r="C59" s="18"/>
       <c r="D59" s="11" t="s">
-        <v>1262</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="60" ht="18" spans="2:4">
       <c r="B60" s="18" t="s">
-        <v>1263</v>
+        <v>1271</v>
       </c>
       <c r="C60" s="18"/>
       <c r="D60" s="11" t="s">
-        <v>1255</v>
+        <v>1263</v>
       </c>
     </row>
     <row r="61" ht="61" customHeight="1" spans="2:4">
       <c r="B61" s="18" t="s">
-        <v>1264</v>
+        <v>1272</v>
       </c>
       <c r="C61" s="18"/>
       <c r="D61" s="11" t="s">
-        <v>1265</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="62" ht="90" customHeight="1" spans="2:4">
       <c r="B62" s="18" t="s">
-        <v>1266</v>
+        <v>1274</v>
       </c>
       <c r="C62" s="18"/>
       <c r="D62" s="11" t="s">
-        <v>1267</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="63" ht="181.5" spans="2:4">
       <c r="B63" s="19" t="s">
-        <v>1268</v>
+        <v>1276</v>
       </c>
       <c r="C63" s="19"/>
       <c r="D63" s="11" t="s">
-        <v>1269</v>
+        <v>1277</v>
       </c>
     </row>
     <row r="64" ht="18" spans="2:4">
       <c r="B64" s="19"/>
       <c r="C64" s="19" t="s">
-        <v>1270</v>
+        <v>1278</v>
       </c>
       <c r="D64" s="11" t="s">
-        <v>1271</v>
+        <v>1279</v>
       </c>
     </row>
     <row r="65" ht="33" spans="2:4">
       <c r="B65" s="19"/>
       <c r="C65" s="19" t="s">
-        <v>1272</v>
+        <v>1280</v>
       </c>
       <c r="D65" s="11" t="s">
-        <v>1273</v>
+        <v>1281</v>
       </c>
     </row>
     <row r="66" ht="18" spans="2:4">
       <c r="B66" s="19"/>
       <c r="C66" s="19" t="s">
-        <v>1274</v>
+        <v>1282</v>
       </c>
       <c r="D66" s="11" t="s">
-        <v>1275</v>
+        <v>1283</v>
       </c>
     </row>
     <row r="67" ht="18" spans="2:4">
       <c r="B67" s="19"/>
       <c r="C67" s="19" t="s">
-        <v>1276</v>
+        <v>1284</v>
       </c>
       <c r="D67" s="11" t="s">
-        <v>1277</v>
+        <v>1285</v>
       </c>
     </row>
     <row r="68" ht="18" spans="2:4">
       <c r="B68" s="19"/>
       <c r="C68" s="19" t="s">
-        <v>1278</v>
+        <v>1286</v>
       </c>
       <c r="D68" s="11" t="s">
-        <v>1279</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="69" ht="18" spans="2:4">
       <c r="B69" s="19"/>
       <c r="C69" s="19" t="s">
-        <v>1280</v>
+        <v>1288</v>
       </c>
       <c r="D69" s="11" t="s">
-        <v>1281</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="70" ht="56" customHeight="1" spans="2:3">
       <c r="B70" s="18" t="s">
-        <v>1282</v>
+        <v>1290</v>
       </c>
       <c r="C70" s="19"/>
     </row>
     <row r="71" ht="29" customHeight="1" spans="2:4">
       <c r="B71" s="19"/>
       <c r="C71" s="19" t="s">
-        <v>1283</v>
+        <v>1291</v>
       </c>
       <c r="D71" s="11" t="s">
-        <v>1284</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="72" ht="29" customHeight="1" spans="2:4">
       <c r="B72" s="19"/>
       <c r="C72" s="19" t="s">
-        <v>1285</v>
+        <v>1293</v>
       </c>
       <c r="D72" s="11" t="s">
-        <v>1286</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="73" ht="18" spans="2:3">
       <c r="B73" s="18" t="s">
-        <v>1287</v>
+        <v>1295</v>
       </c>
       <c r="C73" s="18"/>
     </row>
     <row r="74" customHeight="1" spans="1:4">
       <c r="A74" s="8" t="s">
-        <v>1288</v>
+        <v>1296</v>
       </c>
       <c r="D74" s="11" t="s">
-        <v>1289</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="75" ht="82.5" spans="2:4">
       <c r="B75" s="9" t="s">
-        <v>1290</v>
+        <v>1298</v>
       </c>
       <c r="C75" s="10" t="s">
-        <v>1291</v>
+        <v>1299</v>
       </c>
       <c r="D75" s="11" t="s">
-        <v>1292</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="76" customHeight="1" spans="3:4">
       <c r="C76" s="10" t="s">
-        <v>1293</v>
+        <v>1301</v>
       </c>
       <c r="D76" s="11" t="s">
-        <v>1294</v>
+        <v>1302</v>
       </c>
     </row>
     <row r="77" customHeight="1" spans="2:3">
       <c r="B77" s="9" t="s">
-        <v>1295</v>
+        <v>1303</v>
       </c>
       <c r="C77" s="10" t="s">
-        <v>1291</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="78" customHeight="1" spans="3:3">
       <c r="C78" s="10" t="s">
-        <v>1293</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="79" customHeight="1" spans="1:1">
       <c r="A79" s="8" t="s">
-        <v>1296</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="80" ht="132" spans="2:4">
       <c r="B80" s="9" t="s">
-        <v>1297</v>
+        <v>1305</v>
       </c>
       <c r="C80" s="10" t="s">
-        <v>1298</v>
+        <v>1306</v>
       </c>
       <c r="D80" s="11" t="s">
-        <v>1299</v>
+        <v>1307</v>
       </c>
     </row>
     <row r="81" customHeight="1" spans="2:4">
       <c r="B81" s="9" t="s">
-        <v>1300</v>
+        <v>1308</v>
       </c>
       <c r="D81" s="11" t="s">
-        <v>1301</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="82" customHeight="1" spans="2:4">
       <c r="B82" s="9" t="s">
-        <v>1302</v>
+        <v>1310</v>
       </c>
       <c r="D82" s="11" t="s">
-        <v>1303</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="83" customHeight="1" spans="2:4">
       <c r="B83" s="9" t="s">
-        <v>624</v>
+        <v>632</v>
       </c>
       <c r="D83" s="11" t="s">
-        <v>1304</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="84" customHeight="1" spans="1:1">
       <c r="A84" s="8" t="s">
-        <v>1305</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="85" ht="18" spans="2:4">
       <c r="B85" s="9" t="s">
-        <v>987</v>
+        <v>995</v>
       </c>
       <c r="C85" s="10" t="s">
-        <v>1306</v>
-      </c>
-      <c r="D85" s="119" t="s">
-        <v>1307</v>
+        <v>1314</v>
+      </c>
+      <c r="D85" s="120" t="s">
+        <v>1315</v>
       </c>
     </row>
     <row r="86" customHeight="1" spans="2:4">
       <c r="B86" s="9" t="s">
-        <v>985</v>
+        <v>993</v>
       </c>
       <c r="C86" s="10" t="s">
-        <v>1308</v>
-      </c>
-      <c r="D86" s="119" t="s">
-        <v>1309</v>
+        <v>1316</v>
+      </c>
+      <c r="D86" s="120" t="s">
+        <v>1317</v>
       </c>
     </row>
     <row r="87" customHeight="1" spans="2:4">
       <c r="B87" s="9" t="s">
-        <v>1310</v>
+        <v>1318</v>
       </c>
       <c r="C87" s="10" t="s">
-        <v>1311</v>
+        <v>1319</v>
       </c>
       <c r="D87" s="11" t="s">
-        <v>1312</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="88" customHeight="1" spans="3:4">
       <c r="C88" s="10" t="s">
-        <v>1313</v>
+        <v>1321</v>
       </c>
       <c r="D88" s="11" t="s">
-        <v>1314</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="89" customHeight="1" spans="3:4">
       <c r="C89" s="10" t="s">
-        <v>1315</v>
+        <v>1323</v>
       </c>
       <c r="D89" s="11" t="s">
-        <v>1316</v>
+        <v>1324</v>
       </c>
     </row>
     <row r="90" customHeight="1" spans="2:4">
       <c r="B90" s="9" t="s">
-        <v>991</v>
+        <v>999</v>
       </c>
       <c r="C90" s="10" t="s">
-        <v>1317</v>
+        <v>1325</v>
       </c>
       <c r="D90" s="11" t="s">
-        <v>1318</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="91" customHeight="1" spans="3:4">
       <c r="C91" s="10" t="s">
-        <v>1319</v>
+        <v>1327</v>
       </c>
       <c r="D91" s="11" t="s">
-        <v>1320</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="92" customHeight="1" spans="3:4">
       <c r="C92" s="20" t="s">
-        <v>1321</v>
+        <v>1329</v>
       </c>
       <c r="D92" s="11" t="s">
-        <v>1322</v>
+        <v>1330</v>
       </c>
     </row>
     <row r="93" customHeight="1" spans="2:12">
       <c r="B93" s="8"/>
       <c r="C93" s="20" t="s">
-        <v>1323</v>
+        <v>1331</v>
       </c>
       <c r="D93" s="14" t="s">
-        <v>1324</v>
+        <v>1332</v>
       </c>
       <c r="E93" s="22"/>
       <c r="L93" s="12"/>
@@ -19304,400 +19385,400 @@
     <row r="94" customHeight="1" spans="2:12">
       <c r="B94" s="8"/>
       <c r="C94" s="20" t="s">
-        <v>1325</v>
+        <v>1333</v>
       </c>
       <c r="D94" s="14" t="s">
-        <v>1326</v>
+        <v>1334</v>
       </c>
       <c r="E94" s="22"/>
       <c r="L94" s="12"/>
     </row>
     <row r="95" ht="33" spans="2:4">
       <c r="B95" s="9" t="s">
-        <v>1327</v>
+        <v>1335</v>
       </c>
       <c r="C95" s="21" t="s">
-        <v>1328</v>
+        <v>1336</v>
       </c>
       <c r="D95" s="11" t="s">
-        <v>1329</v>
+        <v>1337</v>
       </c>
     </row>
     <row r="97" customHeight="1" spans="2:4">
       <c r="B97" s="9" t="s">
-        <v>1330</v>
+        <v>1338</v>
       </c>
       <c r="D97" s="11" t="s">
-        <v>1331</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="98" customHeight="1" spans="2:4">
       <c r="B98" s="9" t="s">
-        <v>1332</v>
+        <v>1340</v>
       </c>
       <c r="C98" s="10" t="s">
-        <v>1333</v>
+        <v>1341</v>
       </c>
       <c r="D98" s="11" t="s">
-        <v>1334</v>
+        <v>1342</v>
       </c>
     </row>
     <row r="99" customHeight="1" spans="2:4">
       <c r="B99" s="9" t="s">
-        <v>1335</v>
+        <v>1343</v>
       </c>
       <c r="C99" s="10" t="s">
-        <v>1336</v>
+        <v>1344</v>
       </c>
       <c r="D99" s="11" t="s">
-        <v>1337</v>
+        <v>1345</v>
       </c>
     </row>
     <row r="100" customHeight="1" spans="3:4">
       <c r="C100" s="10" t="s">
-        <v>1338</v>
+        <v>1346</v>
       </c>
       <c r="D100" s="11" t="s">
-        <v>1339</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="101" customHeight="1" spans="3:4">
       <c r="C101" s="10" t="s">
-        <v>1340</v>
+        <v>1348</v>
       </c>
       <c r="D101" s="11" t="s">
-        <v>1341</v>
+        <v>1349</v>
       </c>
     </row>
     <row r="102" customHeight="1" spans="3:4">
       <c r="C102" s="10" t="s">
-        <v>1342</v>
+        <v>1350</v>
       </c>
       <c r="D102" s="11" t="s">
-        <v>1343</v>
+        <v>1351</v>
       </c>
     </row>
     <row r="103" customHeight="1" spans="3:4">
       <c r="C103" s="10" t="s">
-        <v>1344</v>
+        <v>1352</v>
       </c>
       <c r="D103" s="11" t="s">
-        <v>1345</v>
+        <v>1353</v>
       </c>
     </row>
     <row r="104" customHeight="1" spans="2:3">
       <c r="B104" s="9" t="s">
-        <v>1346</v>
+        <v>1354</v>
       </c>
       <c r="C104" s="10" t="s">
-        <v>1347</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="105" customHeight="1" spans="2:3">
       <c r="B105" s="9" t="s">
-        <v>1348</v>
+        <v>1356</v>
       </c>
       <c r="C105" s="10" t="s">
-        <v>1349</v>
+        <v>1357</v>
       </c>
     </row>
     <row r="106" customHeight="1" spans="2:4">
       <c r="B106" s="9" t="s">
-        <v>1350</v>
+        <v>1358</v>
       </c>
       <c r="C106" s="10" t="s">
-        <v>1351</v>
+        <v>1359</v>
       </c>
       <c r="D106" s="11" t="s">
-        <v>1352</v>
+        <v>1360</v>
       </c>
     </row>
     <row r="107" customHeight="1" spans="2:4">
       <c r="B107" s="9" t="s">
-        <v>1353</v>
+        <v>1361</v>
       </c>
       <c r="C107" s="10" t="s">
-        <v>1354</v>
+        <v>1362</v>
       </c>
       <c r="D107" s="11" t="s">
-        <v>1355</v>
+        <v>1363</v>
       </c>
     </row>
     <row r="108" customHeight="1" spans="3:4">
       <c r="C108" s="10" t="s">
-        <v>1356</v>
+        <v>1364</v>
       </c>
       <c r="D108" s="11" t="s">
-        <v>1357</v>
+        <v>1365</v>
       </c>
     </row>
     <row r="109" customHeight="1" spans="3:4">
       <c r="C109" s="10" t="s">
-        <v>1358</v>
+        <v>1366</v>
       </c>
       <c r="D109" s="11" t="s">
-        <v>1359</v>
+        <v>1367</v>
       </c>
     </row>
     <row r="111" customHeight="1" spans="1:1">
       <c r="A111" s="8" t="s">
-        <v>1360</v>
+        <v>1368</v>
       </c>
     </row>
     <row r="112" customHeight="1" spans="2:2">
       <c r="B112" s="9" t="s">
-        <v>1361</v>
+        <v>1369</v>
       </c>
     </row>
     <row r="113" customHeight="1" spans="3:4">
       <c r="C113" s="20" t="s">
-        <v>1209</v>
+        <v>1217</v>
       </c>
       <c r="D113" s="11" t="s">
-        <v>1362</v>
+        <v>1370</v>
       </c>
     </row>
     <row r="114" customHeight="1" spans="3:4">
       <c r="C114" s="20" t="s">
-        <v>1001</v>
+        <v>1009</v>
       </c>
       <c r="D114" s="11" t="s">
-        <v>1363</v>
+        <v>1371</v>
       </c>
     </row>
     <row r="115" customHeight="1" spans="2:2">
       <c r="B115" s="9" t="s">
-        <v>1364</v>
+        <v>1372</v>
       </c>
     </row>
     <row r="116" customHeight="1" spans="3:3">
       <c r="C116" s="10" t="s">
-        <v>1365</v>
+        <v>1373</v>
       </c>
     </row>
     <row r="117" customHeight="1" spans="3:4">
       <c r="C117" s="10" t="s">
-        <v>1366</v>
+        <v>1374</v>
       </c>
       <c r="D117" s="11" t="s">
-        <v>1367</v>
+        <v>1375</v>
       </c>
     </row>
     <row r="118" customHeight="1" spans="2:2">
       <c r="B118" s="9" t="s">
-        <v>1360</v>
+        <v>1368</v>
       </c>
     </row>
     <row r="119" customHeight="1" spans="3:3">
       <c r="C119" s="10" t="s">
-        <v>1365</v>
+        <v>1373</v>
       </c>
     </row>
     <row r="120" customHeight="1" spans="3:4">
       <c r="C120" s="10" t="s">
-        <v>1366</v>
+        <v>1374</v>
       </c>
       <c r="D120" s="11" t="s">
-        <v>1368</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="121" customHeight="1" spans="2:4">
       <c r="B121" s="9" t="s">
-        <v>1360</v>
+        <v>1368</v>
       </c>
       <c r="C121" s="10" t="s">
-        <v>1366</v>
+        <v>1374</v>
       </c>
       <c r="D121" s="11" t="s">
-        <v>1369</v>
+        <v>1377</v>
       </c>
     </row>
     <row r="122" customHeight="1" spans="2:4">
       <c r="B122" s="9" t="s">
-        <v>1370</v>
+        <v>1378</v>
       </c>
       <c r="C122" s="10" t="s">
-        <v>1371</v>
+        <v>1379</v>
       </c>
       <c r="D122" s="11" t="s">
-        <v>1372</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="123" customHeight="1" spans="3:4">
       <c r="C123" s="10" t="s">
-        <v>1373</v>
+        <v>1381</v>
       </c>
       <c r="D123" s="11" t="s">
-        <v>1374</v>
+        <v>1382</v>
       </c>
     </row>
     <row r="125" customHeight="1" spans="1:1">
       <c r="A125" s="8" t="s">
-        <v>1375</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="126" customHeight="1" spans="2:2">
       <c r="B126" s="9" t="s">
-        <v>1376</v>
+        <v>1384</v>
       </c>
     </row>
     <row r="127" customHeight="1" spans="2:2">
       <c r="B127" s="9" t="s">
-        <v>1377</v>
+        <v>1385</v>
       </c>
     </row>
     <row r="128" customHeight="1" spans="1:1">
       <c r="A128" s="8" t="s">
-        <v>1378</v>
+        <v>1386</v>
       </c>
     </row>
     <row r="129" customHeight="1" spans="2:2">
       <c r="B129" s="9" t="s">
-        <v>1379</v>
+        <v>1387</v>
       </c>
     </row>
     <row r="130" ht="115.5" spans="3:4">
       <c r="C130" s="10" t="s">
-        <v>1380</v>
+        <v>1388</v>
       </c>
       <c r="D130" s="11" t="s">
-        <v>1381</v>
+        <v>1389</v>
       </c>
     </row>
     <row r="131" customHeight="1" spans="3:4">
       <c r="C131" s="10" t="s">
-        <v>1382</v>
+        <v>1390</v>
       </c>
       <c r="D131" s="11" t="s">
-        <v>1383</v>
+        <v>1391</v>
       </c>
     </row>
     <row r="132" ht="33" spans="2:4">
       <c r="B132" s="9" t="s">
-        <v>1384</v>
+        <v>1392</v>
       </c>
       <c r="D132" s="23" t="s">
-        <v>1385</v>
+        <v>1393</v>
       </c>
     </row>
     <row r="133" ht="33" spans="2:4">
       <c r="B133" s="9" t="s">
-        <v>1386</v>
+        <v>1394</v>
       </c>
       <c r="C133" s="10" t="s">
-        <v>1083</v>
+        <v>1091</v>
       </c>
       <c r="D133" s="11" t="s">
-        <v>1387</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="134" customHeight="1" spans="2:4">
       <c r="B134" s="9" t="s">
-        <v>1388</v>
+        <v>1396</v>
       </c>
       <c r="C134" s="10" t="s">
-        <v>1083</v>
+        <v>1091</v>
       </c>
       <c r="D134" s="11" t="s">
-        <v>1389</v>
+        <v>1397</v>
       </c>
     </row>
     <row r="135" ht="49.5" spans="3:4">
       <c r="C135" s="10" t="s">
-        <v>1390</v>
+        <v>1398</v>
       </c>
       <c r="D135" s="11" t="s">
-        <v>1391</v>
+        <v>1399</v>
       </c>
     </row>
     <row r="136" customHeight="1" spans="2:2">
       <c r="B136" s="9" t="s">
-        <v>1392</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="138" customHeight="1" spans="2:2">
       <c r="B138" s="9" t="s">
-        <v>1393</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="141" customHeight="1" spans="1:1">
       <c r="A141" s="8" t="s">
-        <v>1394</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="142" customHeight="1" spans="2:3">
       <c r="B142" s="9" t="s">
-        <v>1395</v>
+        <v>1403</v>
       </c>
       <c r="C142" s="10" t="s">
-        <v>1396</v>
+        <v>1404</v>
       </c>
     </row>
     <row r="143" customHeight="1" spans="2:4">
       <c r="B143" s="24" t="s">
-        <v>1397</v>
+        <v>1405</v>
       </c>
       <c r="C143" s="10" t="s">
-        <v>1398</v>
+        <v>1406</v>
       </c>
       <c r="D143" s="11" t="s">
-        <v>1399</v>
+        <v>1407</v>
       </c>
     </row>
     <row r="144" customHeight="1" spans="3:4">
       <c r="C144" s="10" t="s">
-        <v>1400</v>
+        <v>1408</v>
       </c>
       <c r="D144" s="11" t="s">
-        <v>1401</v>
+        <v>1409</v>
       </c>
     </row>
     <row r="145" customHeight="1" spans="2:2">
       <c r="B145" s="9" t="s">
-        <v>1402</v>
+        <v>1410</v>
       </c>
     </row>
     <row r="146" customHeight="1" spans="3:4">
       <c r="C146" s="10" t="s">
-        <v>1403</v>
+        <v>1411</v>
       </c>
       <c r="D146" s="11" t="s">
-        <v>1404</v>
+        <v>1412</v>
       </c>
     </row>
     <row r="147" customHeight="1" spans="2:2">
       <c r="B147" s="9" t="s">
-        <v>1405</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="148" customHeight="1" spans="3:3">
       <c r="C148" s="10" t="s">
-        <v>1403</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="155" customHeight="1" spans="1:1">
       <c r="A155" s="8" t="s">
-        <v>1406</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="160" customHeight="1" spans="1:1">
       <c r="A160" s="8" t="s">
-        <v>1407</v>
+        <v>1415</v>
       </c>
     </row>
     <row r="165" customHeight="1" spans="1:1">
       <c r="A165" s="8" t="s">
-        <v>1408</v>
+        <v>1416</v>
       </c>
     </row>
     <row r="170" customHeight="1" spans="1:1">
       <c r="A170" s="8" t="s">
-        <v>1409</v>
+        <v>1417</v>
       </c>
     </row>
     <row r="174" customHeight="1" spans="1:1">
       <c r="A174" s="8" t="s">
-        <v>1410</v>
+        <v>1418</v>
       </c>
     </row>
   </sheetData>
